--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="336">
   <si>
     <t>2020-04-18T08:00:00.000Z</t>
   </si>
@@ -1162,6 +1162,18 @@
   <si>
     <t>京都府219例目の接触者</t>
   </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268751/200418oshirase(156-162).pdf</t>
+  </si>
+  <si>
+    <t>2020-04-19T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200419-243-246.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268753/200419oshirase(163-167).pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -1263,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1358,6 +1370,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3794,7 +3809,9 @@
         <v>165</v>
       </c>
       <c r="I47" s="12"/>
-      <c r="J47" s="13"/>
+      <c r="J47" s="22">
+        <v>43940.0</v>
+      </c>
       <c r="K47" s="7" t="s">
         <v>166</v>
       </c>
@@ -4186,7 +4203,9 @@
         <v>176</v>
       </c>
       <c r="I55" s="12"/>
-      <c r="J55" s="13"/>
+      <c r="J55" s="22">
+        <v>43940.0</v>
+      </c>
       <c r="K55" s="7" t="s">
         <v>177</v>
       </c>
@@ -5278,7 +5297,9 @@
         <v>202</v>
       </c>
       <c r="I79" s="12"/>
-      <c r="J79" s="13"/>
+      <c r="J79" s="22">
+        <v>43939.0</v>
+      </c>
       <c r="K79" s="7" t="s">
         <v>203</v>
       </c>
@@ -6730,7 +6751,9 @@
         <v>232</v>
       </c>
       <c r="I111" s="12"/>
-      <c r="J111" s="13"/>
+      <c r="J111" s="22">
+        <v>43940.0</v>
+      </c>
       <c r="K111" s="7" t="s">
         <v>230</v>
       </c>
@@ -7848,7 +7871,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A237" si="1">A136+1</f>
+        <f t="shared" ref="A137:A253" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="24" t="s">
@@ -12334,17 +12357,32 @@
       <c r="Z237" s="7"/>
     </row>
     <row r="238" ht="18.0" customHeight="1">
-      <c r="A238" s="8"/>
-      <c r="B238" s="7"/>
-      <c r="C238" s="8"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="7"/>
-      <c r="F238" s="12"/>
+      <c r="A238" s="8">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+      <c r="B238" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" s="32">
+        <v>43939.0</v>
+      </c>
+      <c r="D238" s="28">
+        <v>43939.0</v>
+      </c>
+      <c r="E238" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F238" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G238" s="8"/>
       <c r="H238" s="7"/>
       <c r="I238" s="12"/>
       <c r="J238" s="13"/>
-      <c r="K238" s="7"/>
+      <c r="K238" s="26" t="s">
+        <v>332</v>
+      </c>
       <c r="L238" s="7"/>
       <c r="M238" s="7"/>
       <c r="N238" s="7"/>
@@ -12362,17 +12400,32 @@
       <c r="Z238" s="7"/>
     </row>
     <row r="239" ht="18.0" customHeight="1">
-      <c r="A239" s="8"/>
-      <c r="B239" s="7"/>
-      <c r="C239" s="8"/>
-      <c r="D239" s="8"/>
-      <c r="E239" s="7"/>
-      <c r="F239" s="12"/>
+      <c r="A239" s="8">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+      <c r="B239" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C239" s="32">
+        <v>43939.0</v>
+      </c>
+      <c r="D239" s="28">
+        <v>43939.0</v>
+      </c>
+      <c r="E239" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F239" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G239" s="8"/>
       <c r="H239" s="7"/>
       <c r="I239" s="12"/>
       <c r="J239" s="13"/>
-      <c r="K239" s="7"/>
+      <c r="K239" s="26" t="s">
+        <v>332</v>
+      </c>
       <c r="L239" s="7"/>
       <c r="M239" s="7"/>
       <c r="N239" s="7"/>
@@ -12390,17 +12443,32 @@
       <c r="Z239" s="7"/>
     </row>
     <row r="240" ht="18.0" customHeight="1">
-      <c r="A240" s="8"/>
-      <c r="B240" s="7"/>
-      <c r="C240" s="8"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="7"/>
-      <c r="F240" s="12"/>
+      <c r="A240" s="8">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="B240" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C240" s="32">
+        <v>43939.0</v>
+      </c>
+      <c r="D240" s="28">
+        <v>43939.0</v>
+      </c>
+      <c r="E240" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F240" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G240" s="8"/>
       <c r="H240" s="7"/>
       <c r="I240" s="12"/>
       <c r="J240" s="13"/>
-      <c r="K240" s="7"/>
+      <c r="K240" s="26" t="s">
+        <v>332</v>
+      </c>
       <c r="L240" s="7"/>
       <c r="M240" s="7"/>
       <c r="N240" s="7"/>
@@ -12418,17 +12486,32 @@
       <c r="Z240" s="7"/>
     </row>
     <row r="241" ht="18.0" customHeight="1">
-      <c r="A241" s="8"/>
-      <c r="B241" s="7"/>
-      <c r="C241" s="8"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="7"/>
-      <c r="F241" s="12"/>
+      <c r="A241" s="8">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="B241" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C241" s="32">
+        <v>43939.0</v>
+      </c>
+      <c r="D241" s="28">
+        <v>43939.0</v>
+      </c>
+      <c r="E241" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F241" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G241" s="8"/>
       <c r="H241" s="7"/>
       <c r="I241" s="12"/>
       <c r="J241" s="13"/>
-      <c r="K241" s="7"/>
+      <c r="K241" s="26" t="s">
+        <v>332</v>
+      </c>
       <c r="L241" s="7"/>
       <c r="M241" s="7"/>
       <c r="N241" s="7"/>
@@ -12446,17 +12529,32 @@
       <c r="Z241" s="7"/>
     </row>
     <row r="242" ht="18.0" customHeight="1">
-      <c r="A242" s="8"/>
-      <c r="B242" s="7"/>
-      <c r="C242" s="8"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="7"/>
-      <c r="F242" s="12"/>
+      <c r="A242" s="8">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="B242" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" s="32">
+        <v>43939.0</v>
+      </c>
+      <c r="D242" s="28">
+        <v>43939.0</v>
+      </c>
+      <c r="E242" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F242" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G242" s="8"/>
       <c r="H242" s="7"/>
       <c r="I242" s="12"/>
       <c r="J242" s="13"/>
-      <c r="K242" s="7"/>
+      <c r="K242" s="26" t="s">
+        <v>332</v>
+      </c>
       <c r="L242" s="7"/>
       <c r="M242" s="7"/>
       <c r="N242" s="7"/>
@@ -12474,17 +12572,32 @@
       <c r="Z242" s="7"/>
     </row>
     <row r="243" ht="18.0" customHeight="1">
-      <c r="A243" s="8"/>
-      <c r="B243" s="7"/>
-      <c r="C243" s="8"/>
-      <c r="D243" s="8"/>
-      <c r="E243" s="7"/>
-      <c r="F243" s="12"/>
+      <c r="A243" s="8">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="B243" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C243" s="32">
+        <v>43939.0</v>
+      </c>
+      <c r="D243" s="28">
+        <v>43939.0</v>
+      </c>
+      <c r="E243" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F243" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G243" s="8"/>
       <c r="H243" s="7"/>
       <c r="I243" s="12"/>
       <c r="J243" s="13"/>
-      <c r="K243" s="7"/>
+      <c r="K243" s="26" t="s">
+        <v>332</v>
+      </c>
       <c r="L243" s="7"/>
       <c r="M243" s="7"/>
       <c r="N243" s="7"/>
@@ -12502,17 +12615,32 @@
       <c r="Z243" s="7"/>
     </row>
     <row r="244" ht="18.0" customHeight="1">
-      <c r="A244" s="8"/>
-      <c r="B244" s="7"/>
-      <c r="C244" s="8"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="7"/>
-      <c r="F244" s="12"/>
+      <c r="A244" s="8">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+      <c r="B244" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C244" s="32">
+        <v>43939.0</v>
+      </c>
+      <c r="D244" s="28">
+        <v>43939.0</v>
+      </c>
+      <c r="E244" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F244" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G244" s="8"/>
       <c r="H244" s="7"/>
       <c r="I244" s="12"/>
       <c r="J244" s="13"/>
-      <c r="K244" s="7"/>
+      <c r="K244" s="26" t="s">
+        <v>332</v>
+      </c>
       <c r="L244" s="7"/>
       <c r="M244" s="7"/>
       <c r="N244" s="7"/>
@@ -12530,17 +12658,32 @@
       <c r="Z244" s="7"/>
     </row>
     <row r="245" ht="18.0" customHeight="1">
-      <c r="A245" s="8"/>
-      <c r="B245" s="7"/>
-      <c r="C245" s="8"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="7"/>
-      <c r="F245" s="12"/>
+      <c r="A245" s="8">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="B245" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C245" s="32">
+        <v>43940.0</v>
+      </c>
+      <c r="D245" s="28">
+        <v>43940.0</v>
+      </c>
+      <c r="E245" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F245" s="30" t="s">
+        <v>45</v>
+      </c>
       <c r="G245" s="8"/>
       <c r="H245" s="7"/>
       <c r="I245" s="12"/>
       <c r="J245" s="13"/>
-      <c r="K245" s="7"/>
+      <c r="K245" s="26" t="s">
+        <v>334</v>
+      </c>
       <c r="L245" s="7"/>
       <c r="M245" s="7"/>
       <c r="N245" s="7"/>
@@ -12558,17 +12701,32 @@
       <c r="Z245" s="7"/>
     </row>
     <row r="246" ht="18.0" customHeight="1">
-      <c r="A246" s="8"/>
-      <c r="B246" s="7"/>
-      <c r="C246" s="8"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="7"/>
-      <c r="F246" s="12"/>
+      <c r="A246" s="8">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="B246" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C246" s="32">
+        <v>43940.0</v>
+      </c>
+      <c r="D246" s="28">
+        <v>43940.0</v>
+      </c>
+      <c r="E246" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F246" s="30" t="s">
+        <v>231</v>
+      </c>
       <c r="G246" s="8"/>
       <c r="H246" s="7"/>
       <c r="I246" s="12"/>
       <c r="J246" s="13"/>
-      <c r="K246" s="7"/>
+      <c r="K246" s="26" t="s">
+        <v>334</v>
+      </c>
       <c r="L246" s="7"/>
       <c r="M246" s="7"/>
       <c r="N246" s="7"/>
@@ -12586,17 +12744,32 @@
       <c r="Z246" s="7"/>
     </row>
     <row r="247" ht="18.0" customHeight="1">
-      <c r="A247" s="8"/>
-      <c r="B247" s="7"/>
-      <c r="C247" s="8"/>
-      <c r="D247" s="8"/>
-      <c r="E247" s="7"/>
-      <c r="F247" s="12"/>
+      <c r="A247" s="8">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="B247" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C247" s="32">
+        <v>43940.0</v>
+      </c>
+      <c r="D247" s="28">
+        <v>43940.0</v>
+      </c>
+      <c r="E247" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="F247" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="G247" s="8"/>
       <c r="H247" s="7"/>
       <c r="I247" s="12"/>
       <c r="J247" s="13"/>
-      <c r="K247" s="7"/>
+      <c r="K247" s="26" t="s">
+        <v>334</v>
+      </c>
       <c r="L247" s="7"/>
       <c r="M247" s="7"/>
       <c r="N247" s="7"/>
@@ -12614,17 +12787,32 @@
       <c r="Z247" s="7"/>
     </row>
     <row r="248" ht="18.0" customHeight="1">
-      <c r="A248" s="8"/>
-      <c r="B248" s="7"/>
-      <c r="C248" s="8"/>
-      <c r="D248" s="8"/>
-      <c r="E248" s="7"/>
-      <c r="F248" s="12"/>
+      <c r="A248" s="8">
+        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+      <c r="B248" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C248" s="32">
+        <v>43940.0</v>
+      </c>
+      <c r="D248" s="28">
+        <v>43940.0</v>
+      </c>
+      <c r="E248" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F248" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="G248" s="8"/>
       <c r="H248" s="7"/>
       <c r="I248" s="12"/>
       <c r="J248" s="13"/>
-      <c r="K248" s="7"/>
+      <c r="K248" s="26" t="s">
+        <v>334</v>
+      </c>
       <c r="L248" s="7"/>
       <c r="M248" s="7"/>
       <c r="N248" s="7"/>
@@ -12642,17 +12830,32 @@
       <c r="Z248" s="7"/>
     </row>
     <row r="249" ht="18.0" customHeight="1">
-      <c r="A249" s="8"/>
-      <c r="B249" s="7"/>
-      <c r="C249" s="8"/>
-      <c r="D249" s="8"/>
-      <c r="E249" s="7"/>
-      <c r="F249" s="12"/>
+      <c r="A249" s="8">
+        <f t="shared" si="1"/>
+        <v>247</v>
+      </c>
+      <c r="B249" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C249" s="32">
+        <v>43940.0</v>
+      </c>
+      <c r="D249" s="28">
+        <v>43940.0</v>
+      </c>
+      <c r="E249" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F249" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G249" s="8"/>
       <c r="H249" s="7"/>
       <c r="I249" s="12"/>
       <c r="J249" s="13"/>
-      <c r="K249" s="7"/>
+      <c r="K249" s="26" t="s">
+        <v>335</v>
+      </c>
       <c r="L249" s="7"/>
       <c r="M249" s="7"/>
       <c r="N249" s="7"/>
@@ -12670,17 +12873,32 @@
       <c r="Z249" s="7"/>
     </row>
     <row r="250" ht="18.0" customHeight="1">
-      <c r="A250" s="8"/>
-      <c r="B250" s="7"/>
-      <c r="C250" s="8"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="7"/>
-      <c r="F250" s="12"/>
+      <c r="A250" s="8">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+      <c r="B250" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C250" s="32">
+        <v>43940.0</v>
+      </c>
+      <c r="D250" s="28">
+        <v>43940.0</v>
+      </c>
+      <c r="E250" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F250" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G250" s="8"/>
       <c r="H250" s="7"/>
       <c r="I250" s="12"/>
       <c r="J250" s="13"/>
-      <c r="K250" s="7"/>
+      <c r="K250" s="26" t="s">
+        <v>335</v>
+      </c>
       <c r="L250" s="7"/>
       <c r="M250" s="7"/>
       <c r="N250" s="7"/>
@@ -12698,17 +12916,32 @@
       <c r="Z250" s="7"/>
     </row>
     <row r="251" ht="18.0" customHeight="1">
-      <c r="A251" s="8"/>
-      <c r="B251" s="7"/>
-      <c r="C251" s="8"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="7"/>
-      <c r="F251" s="12"/>
+      <c r="A251" s="8">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+      <c r="B251" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C251" s="32">
+        <v>43940.0</v>
+      </c>
+      <c r="D251" s="28">
+        <v>43940.0</v>
+      </c>
+      <c r="E251" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F251" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G251" s="8"/>
       <c r="H251" s="7"/>
       <c r="I251" s="12"/>
       <c r="J251" s="13"/>
-      <c r="K251" s="7"/>
+      <c r="K251" s="26" t="s">
+        <v>335</v>
+      </c>
       <c r="L251" s="7"/>
       <c r="M251" s="7"/>
       <c r="N251" s="7"/>
@@ -12726,17 +12959,32 @@
       <c r="Z251" s="7"/>
     </row>
     <row r="252" ht="18.0" customHeight="1">
-      <c r="A252" s="8"/>
-      <c r="B252" s="7"/>
-      <c r="C252" s="8"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="7"/>
-      <c r="F252" s="12"/>
+      <c r="A252" s="8">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="B252" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C252" s="32">
+        <v>43940.0</v>
+      </c>
+      <c r="D252" s="28">
+        <v>43940.0</v>
+      </c>
+      <c r="E252" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="F252" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G252" s="8"/>
       <c r="H252" s="7"/>
       <c r="I252" s="12"/>
       <c r="J252" s="13"/>
-      <c r="K252" s="7"/>
+      <c r="K252" s="26" t="s">
+        <v>335</v>
+      </c>
       <c r="L252" s="7"/>
       <c r="M252" s="7"/>
       <c r="N252" s="7"/>
@@ -12754,17 +13002,32 @@
       <c r="Z252" s="7"/>
     </row>
     <row r="253" ht="18.0" customHeight="1">
-      <c r="A253" s="8"/>
-      <c r="B253" s="7"/>
-      <c r="C253" s="8"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="7"/>
-      <c r="F253" s="12"/>
+      <c r="A253" s="8">
+        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
+      <c r="B253" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C253" s="32">
+        <v>43940.0</v>
+      </c>
+      <c r="D253" s="28">
+        <v>43940.0</v>
+      </c>
+      <c r="E253" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F253" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G253" s="8"/>
       <c r="H253" s="7"/>
       <c r="I253" s="12"/>
       <c r="J253" s="13"/>
-      <c r="K253" s="7"/>
+      <c r="K253" s="26" t="s">
+        <v>335</v>
+      </c>
       <c r="L253" s="7"/>
       <c r="M253" s="7"/>
       <c r="N253" s="7"/>
@@ -33778,10 +34041,26 @@
     <hyperlink r:id="rId48" ref="K228"/>
     <hyperlink r:id="rId49" ref="K229"/>
     <hyperlink r:id="rId50" ref="K230"/>
+    <hyperlink r:id="rId51" ref="K238"/>
+    <hyperlink r:id="rId52" ref="K239"/>
+    <hyperlink r:id="rId53" ref="K240"/>
+    <hyperlink r:id="rId54" ref="K241"/>
+    <hyperlink r:id="rId55" ref="K242"/>
+    <hyperlink r:id="rId56" ref="K243"/>
+    <hyperlink r:id="rId57" ref="K244"/>
+    <hyperlink r:id="rId58" ref="K245"/>
+    <hyperlink r:id="rId59" ref="K246"/>
+    <hyperlink r:id="rId60" ref="K247"/>
+    <hyperlink r:id="rId61" ref="K248"/>
+    <hyperlink r:id="rId62" ref="K249"/>
+    <hyperlink r:id="rId63" ref="K250"/>
+    <hyperlink r:id="rId64" ref="K251"/>
+    <hyperlink r:id="rId65" ref="K252"/>
+    <hyperlink r:id="rId66" ref="K253"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId51"/>
+  <drawing r:id="rId67"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="344">
   <si>
     <t>2020-04-18T08:00:00.000Z</t>
   </si>
@@ -1173,6 +1173,30 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268753/200419oshirase(163-167).pdf</t>
+  </si>
+  <si>
+    <t>2020-04-20T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>京都府246例目の接触者</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200420_252.pdf</t>
+  </si>
+  <si>
+    <t>京都市159例目の接触者</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268789/200420oshirase(168-174).pdf</t>
+  </si>
+  <si>
+    <t>京都市165例目の接触者</t>
+  </si>
+  <si>
+    <t>滋賀県罹患者の接触者</t>
+  </si>
+  <si>
+    <t>2020-04-21T08:00:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -1223,10 +1247,6 @@
       <name val="游ゴシック regular"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="游ゴシック regular"/>
-    </font>
-    <font>
       <u/>
       <sz val="11.0"/>
       <color theme="10"/>
@@ -1246,6 +1266,10 @@
       <u/>
       <sz val="11.0"/>
       <color theme="1"/>
+      <name val="游ゴシック regular"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="游ゴシック regular"/>
     </font>
   </fonts>
@@ -1327,34 +1351,31 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1372,7 +1393,10 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1879,7 +1903,7 @@
       <c r="A7" s="8">
         <v>5.0</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="9">
@@ -1901,7 +1925,7 @@
       <c r="I7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <v>43914.0</v>
       </c>
       <c r="K7" s="14" t="s">
@@ -1949,7 +1973,7 @@
       <c r="I8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>43904.0</v>
       </c>
       <c r="K8" s="14" t="s">
@@ -1997,7 +2021,7 @@
       <c r="I9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <v>43915.0</v>
       </c>
       <c r="K9" s="14" t="s">
@@ -2045,7 +2069,7 @@
       <c r="I10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="17">
         <v>43910.0</v>
       </c>
       <c r="K10" s="14" t="s">
@@ -2093,7 +2117,7 @@
         <v>57</v>
       </c>
       <c r="I11" s="16"/>
-      <c r="J11" s="18"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="14" t="s">
         <v>58</v>
       </c>
@@ -2139,7 +2163,7 @@
         <v>59</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <v>43915.0</v>
       </c>
       <c r="K12" s="14" t="s">
@@ -2187,7 +2211,7 @@
         <v>60</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <v>43906.0</v>
       </c>
       <c r="K13" s="14" t="s">
@@ -2235,7 +2259,7 @@
       <c r="I14" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="17">
         <v>43903.0</v>
       </c>
       <c r="K14" s="14" t="s">
@@ -2283,7 +2307,7 @@
         <v>67</v>
       </c>
       <c r="I15" s="16"/>
-      <c r="J15" s="18">
+      <c r="J15" s="17">
         <v>43916.0</v>
       </c>
       <c r="K15" s="14" t="s">
@@ -2331,10 +2355,10 @@
       <c r="I16" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="17">
         <v>43919.0</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="18" t="s">
         <v>72</v>
       </c>
       <c r="L16" s="7"/>
@@ -2381,7 +2405,7 @@
       <c r="I17" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="17">
         <v>43924.0</v>
       </c>
       <c r="K17" s="14" t="s">
@@ -2429,8 +2453,8 @@
       <c r="I18" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19" t="s">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18" t="s">
         <v>80</v>
       </c>
       <c r="L18" s="7" t="s">
@@ -2477,10 +2501,10 @@
         <v>83</v>
       </c>
       <c r="I19" s="16"/>
-      <c r="J19" s="18">
+      <c r="J19" s="17">
         <v>43924.0</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="18" t="s">
         <v>84</v>
       </c>
       <c r="L19" s="7"/>
@@ -2528,7 +2552,7 @@
       <c r="J20" s="13">
         <v>43922.0</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="18" t="s">
         <v>88</v>
       </c>
       <c r="L20" s="7"/>
@@ -2613,7 +2637,7 @@
       <c r="E22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>94</v>
       </c>
       <c r="G22" s="8"/>
@@ -2674,7 +2698,7 @@
       <c r="J23" s="13">
         <v>43925.0</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="18" t="s">
         <v>101</v>
       </c>
       <c r="L23" s="7"/>
@@ -2718,10 +2742,10 @@
       <c r="J24" s="13">
         <v>43917.0</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="18" t="s">
         <v>104</v>
       </c>
       <c r="M24" s="7"/>
@@ -2766,10 +2790,10 @@
       <c r="J25" s="13">
         <v>43922.0</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="18" t="s">
         <v>108</v>
       </c>
       <c r="M25" s="7"/>
@@ -2814,10 +2838,10 @@
       <c r="J26" s="13">
         <v>43929.0</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="18" t="s">
         <v>112</v>
       </c>
       <c r="M26" s="7"/>
@@ -2862,10 +2886,10 @@
       <c r="J27" s="13">
         <v>43916.0</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="18" t="s">
         <v>116</v>
       </c>
       <c r="M27" s="7"/>
@@ -2908,7 +2932,7 @@
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="18" t="s">
         <v>120</v>
       </c>
       <c r="L28" s="7" t="s">
@@ -2953,10 +2977,10 @@
         <v>122</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="21">
+      <c r="J29" s="20">
         <v>43925.0</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="18" t="s">
         <v>123</v>
       </c>
       <c r="L29" s="7" t="s">
@@ -3005,7 +3029,7 @@
       <c r="K30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="18" t="s">
         <v>127</v>
       </c>
       <c r="M30" s="7"/>
@@ -3048,7 +3072,7 @@
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="19" t="s">
+      <c r="K31" s="18" t="s">
         <v>129</v>
       </c>
       <c r="L31" s="7" t="s">
@@ -3096,7 +3120,7 @@
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="13"/>
-      <c r="K32" s="19" t="s">
+      <c r="K32" s="18" t="s">
         <v>131</v>
       </c>
       <c r="L32" s="7" t="s">
@@ -3144,7 +3168,7 @@
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="13"/>
-      <c r="K33" s="19" t="s">
+      <c r="K33" s="18" t="s">
         <v>134</v>
       </c>
       <c r="L33" s="7" t="s">
@@ -3192,7 +3216,7 @@
       <c r="J34" s="13">
         <v>43934.0</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="18" t="s">
         <v>137</v>
       </c>
       <c r="L34" s="7" t="s">
@@ -3242,7 +3266,7 @@
       <c r="J35" s="13">
         <v>43923.0</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="K35" s="18" t="s">
         <v>141</v>
       </c>
       <c r="L35" s="7" t="s">
@@ -3428,7 +3452,7 @@
       <c r="J39" s="13">
         <v>43929.0</v>
       </c>
-      <c r="K39" s="19" t="s">
+      <c r="K39" s="18" t="s">
         <v>155</v>
       </c>
       <c r="L39" s="7" t="s">
@@ -3465,7 +3489,7 @@
       <c r="E40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G40" s="8"/>
@@ -3476,7 +3500,7 @@
       <c r="J40" s="13">
         <v>43931.0</v>
       </c>
-      <c r="K40" s="19" t="s">
+      <c r="K40" s="18" t="s">
         <v>158</v>
       </c>
       <c r="L40" s="7"/>
@@ -3511,7 +3535,7 @@
       <c r="E41" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G41" s="8">
@@ -3557,7 +3581,7 @@
       <c r="E42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G42" s="8">
@@ -3661,7 +3685,7 @@
         <v>165</v>
       </c>
       <c r="I44" s="12"/>
-      <c r="J44" s="22">
+      <c r="J44" s="21">
         <v>43938.0</v>
       </c>
       <c r="K44" s="7" t="s">
@@ -3759,7 +3783,7 @@
         <v>165</v>
       </c>
       <c r="I46" s="12"/>
-      <c r="J46" s="22">
+      <c r="J46" s="21">
         <v>43932.0</v>
       </c>
       <c r="K46" s="7" t="s">
@@ -3799,7 +3823,7 @@
       <c r="E47" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G47" s="8">
@@ -3809,7 +3833,7 @@
         <v>165</v>
       </c>
       <c r="I47" s="12"/>
-      <c r="J47" s="22">
+      <c r="J47" s="21">
         <v>43940.0</v>
       </c>
       <c r="K47" s="7" t="s">
@@ -3859,10 +3883,10 @@
         <v>133</v>
       </c>
       <c r="I48" s="12"/>
-      <c r="J48" s="22">
+      <c r="J48" s="21">
         <v>43937.0</v>
       </c>
-      <c r="K48" s="19" t="s">
+      <c r="K48" s="18" t="s">
         <v>167</v>
       </c>
       <c r="L48" s="7" t="s">
@@ -3907,10 +3931,10 @@
         <v>168</v>
       </c>
       <c r="I49" s="12"/>
-      <c r="J49" s="22">
+      <c r="J49" s="21">
         <v>43936.0</v>
       </c>
-      <c r="K49" s="19" t="s">
+      <c r="K49" s="18" t="s">
         <v>169</v>
       </c>
       <c r="L49" s="7" t="s">
@@ -3960,10 +3984,10 @@
       <c r="J50" s="13">
         <v>43935.0</v>
       </c>
-      <c r="K50" s="19" t="s">
+      <c r="K50" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="L50" s="19" t="s">
+      <c r="L50" s="18" t="s">
         <v>172</v>
       </c>
       <c r="M50" s="7"/>
@@ -4010,10 +4034,10 @@
       <c r="J51" s="13">
         <v>43931.0</v>
       </c>
-      <c r="K51" s="19" t="s">
+      <c r="K51" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="L51" s="19" t="s">
+      <c r="L51" s="18" t="s">
         <v>172</v>
       </c>
       <c r="M51" s="7"/>
@@ -4057,13 +4081,13 @@
         <v>165</v>
       </c>
       <c r="I52" s="12"/>
-      <c r="J52" s="22">
+      <c r="J52" s="21">
         <v>43937.0</v>
       </c>
-      <c r="K52" s="19" t="s">
+      <c r="K52" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="L52" s="19" t="s">
+      <c r="L52" s="18" t="s">
         <v>175</v>
       </c>
       <c r="M52" s="7"/>
@@ -4111,7 +4135,7 @@
       <c r="K53" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L53" s="19" t="s">
+      <c r="L53" s="18" t="s">
         <v>175</v>
       </c>
       <c r="M53" s="7"/>
@@ -4145,7 +4169,7 @@
       <c r="E54" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G54" s="8">
@@ -4193,7 +4217,7 @@
       <c r="E55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G55" s="8">
@@ -4203,7 +4227,7 @@
         <v>176</v>
       </c>
       <c r="I55" s="12"/>
-      <c r="J55" s="22">
+      <c r="J55" s="21">
         <v>43940.0</v>
       </c>
       <c r="K55" s="7" t="s">
@@ -4243,7 +4267,7 @@
       <c r="E56" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G56" s="8">
@@ -4301,7 +4325,7 @@
         <v>179</v>
       </c>
       <c r="I57" s="12"/>
-      <c r="J57" s="22">
+      <c r="J57" s="21">
         <v>43931.0</v>
       </c>
       <c r="K57" s="7" t="s">
@@ -4345,7 +4369,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="7"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="22">
+      <c r="J58" s="21">
         <v>43927.0</v>
       </c>
       <c r="K58" s="7" t="s">
@@ -4393,7 +4417,7 @@
         <v>165</v>
       </c>
       <c r="I59" s="12"/>
-      <c r="J59" s="22">
+      <c r="J59" s="21">
         <v>43937.0</v>
       </c>
       <c r="K59" s="7" t="s">
@@ -4491,7 +4515,7 @@
       <c r="K61" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L61" s="19"/>
+      <c r="L61" s="18"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
@@ -4523,7 +4547,7 @@
       <c r="E62" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G62" s="8">
@@ -4569,7 +4593,7 @@
       <c r="E63" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G63" s="8">
@@ -4615,7 +4639,7 @@
       <c r="E64" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F64" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G64" s="8">
@@ -4661,7 +4685,7 @@
       <c r="E65" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G65" s="8">
@@ -4707,7 +4731,7 @@
       <c r="E66" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G66" s="8">
@@ -4753,7 +4777,7 @@
       <c r="E67" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G67" s="8">
@@ -4889,7 +4913,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="7"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="22">
+      <c r="J70" s="21">
         <v>43932.0</v>
       </c>
       <c r="K70" s="7" t="s">
@@ -4969,7 +4993,7 @@
       <c r="E72" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G72" s="8">
@@ -4980,7 +5004,7 @@
       </c>
       <c r="I72" s="12"/>
       <c r="J72" s="13"/>
-      <c r="K72" s="23" t="s">
+      <c r="K72" s="22" t="s">
         <v>190</v>
       </c>
       <c r="L72" s="7"/>
@@ -5015,7 +5039,7 @@
       <c r="E73" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="20" t="s">
+      <c r="F73" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G73" s="8" t="s">
@@ -5061,7 +5085,7 @@
       <c r="E74" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F74" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G74" s="8"/>
@@ -5105,7 +5129,7 @@
       <c r="E75" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="20" t="s">
+      <c r="F75" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G75" s="8" t="s">
@@ -5157,7 +5181,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="7"/>
       <c r="I76" s="12"/>
-      <c r="J76" s="22">
+      <c r="J76" s="21">
         <v>43931.0</v>
       </c>
       <c r="K76" s="7" t="s">
@@ -5201,7 +5225,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="7"/>
       <c r="I77" s="12"/>
-      <c r="J77" s="22">
+      <c r="J77" s="21">
         <v>43933.0</v>
       </c>
       <c r="K77" s="7" t="s">
@@ -5249,7 +5273,7 @@
         <v>199</v>
       </c>
       <c r="I78" s="12"/>
-      <c r="J78" s="22">
+      <c r="J78" s="21">
         <v>43935.0</v>
       </c>
       <c r="K78" s="7" t="s">
@@ -5275,7 +5299,7 @@
       <c r="A79" s="8">
         <v>77.0</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="23" t="s">
         <v>201</v>
       </c>
       <c r="C79" s="9">
@@ -5297,7 +5321,7 @@
         <v>202</v>
       </c>
       <c r="I79" s="12"/>
-      <c r="J79" s="22">
+      <c r="J79" s="21">
         <v>43939.0</v>
       </c>
       <c r="K79" s="7" t="s">
@@ -5323,7 +5347,7 @@
       <c r="A80" s="8">
         <v>78.0</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="23" t="s">
         <v>201</v>
       </c>
       <c r="C80" s="9">
@@ -5341,7 +5365,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="7"/>
       <c r="I80" s="12"/>
-      <c r="J80" s="22">
+      <c r="J80" s="21">
         <v>43931.0</v>
       </c>
       <c r="K80" s="7" t="s">
@@ -5367,7 +5391,7 @@
       <c r="A81" s="8">
         <v>79.0</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="23" t="s">
         <v>201</v>
       </c>
       <c r="C81" s="9">
@@ -5385,7 +5409,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="7"/>
       <c r="I81" s="12"/>
-      <c r="J81" s="22">
+      <c r="J81" s="21">
         <v>43938.0</v>
       </c>
       <c r="K81" s="7" t="s">
@@ -5411,7 +5435,7 @@
       <c r="A82" s="8">
         <v>80.0</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="23" t="s">
         <v>201</v>
       </c>
       <c r="C82" s="9">
@@ -5429,7 +5453,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="7"/>
       <c r="I82" s="12"/>
-      <c r="J82" s="22">
+      <c r="J82" s="21">
         <v>43937.0</v>
       </c>
       <c r="K82" s="7" t="s">
@@ -5455,7 +5479,7 @@
       <c r="A83" s="8">
         <v>81.0</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="23" t="s">
         <v>201</v>
       </c>
       <c r="C83" s="9">
@@ -5473,7 +5497,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="7"/>
       <c r="I83" s="12"/>
-      <c r="J83" s="22">
+      <c r="J83" s="21">
         <v>43937.0</v>
       </c>
       <c r="K83" s="7" t="s">
@@ -5499,7 +5523,7 @@
       <c r="A84" s="8">
         <v>82.0</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="23" t="s">
         <v>201</v>
       </c>
       <c r="C84" s="9">
@@ -5545,7 +5569,7 @@
       <c r="A85" s="8">
         <v>83.0</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="23" t="s">
         <v>201</v>
       </c>
       <c r="C85" s="9">
@@ -5591,7 +5615,7 @@
       <c r="A86" s="8">
         <v>84.0</v>
       </c>
-      <c r="B86" s="24" t="s">
+      <c r="B86" s="23" t="s">
         <v>201</v>
       </c>
       <c r="C86" s="9">
@@ -5637,7 +5661,7 @@
       <c r="A87" s="8">
         <v>85.0</v>
       </c>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="23" t="s">
         <v>201</v>
       </c>
       <c r="C87" s="9">
@@ -5683,7 +5707,7 @@
       <c r="A88" s="8">
         <v>86.0</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="23" t="s">
         <v>201</v>
       </c>
       <c r="C88" s="9">
@@ -5705,7 +5729,7 @@
         <v>211</v>
       </c>
       <c r="I88" s="12"/>
-      <c r="J88" s="22">
+      <c r="J88" s="21">
         <v>43937.0</v>
       </c>
       <c r="K88" s="7" t="s">
@@ -5731,7 +5755,7 @@
       <c r="A89" s="8">
         <v>87.0</v>
       </c>
-      <c r="B89" s="24" t="s">
+      <c r="B89" s="23" t="s">
         <v>201</v>
       </c>
       <c r="C89" s="9">
@@ -5753,7 +5777,7 @@
         <v>212</v>
       </c>
       <c r="I89" s="12"/>
-      <c r="J89" s="22">
+      <c r="J89" s="21">
         <v>43938.0</v>
       </c>
       <c r="K89" s="7" t="s">
@@ -5779,7 +5803,7 @@
       <c r="A90" s="8">
         <v>88.0</v>
       </c>
-      <c r="B90" s="24" t="s">
+      <c r="B90" s="23" t="s">
         <v>201</v>
       </c>
       <c r="C90" s="9">
@@ -5801,7 +5825,7 @@
         <v>215</v>
       </c>
       <c r="I90" s="12"/>
-      <c r="J90" s="22">
+      <c r="J90" s="21">
         <v>43935.0</v>
       </c>
       <c r="K90" s="7" t="s">
@@ -5827,7 +5851,7 @@
       <c r="A91" s="8">
         <v>89.0</v>
       </c>
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C91" s="9">
@@ -5875,7 +5899,7 @@
       <c r="A92" s="8">
         <v>90.0</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C92" s="9">
@@ -5921,7 +5945,7 @@
       <c r="A93" s="8">
         <v>91.0</v>
       </c>
-      <c r="B93" s="24" t="s">
+      <c r="B93" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C93" s="9">
@@ -5967,7 +5991,7 @@
       <c r="A94" s="8">
         <v>92.0</v>
       </c>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C94" s="9">
@@ -6013,7 +6037,7 @@
       <c r="A95" s="8">
         <v>93.0</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C95" s="9">
@@ -6059,7 +6083,7 @@
       <c r="A96" s="8">
         <v>94.0</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C96" s="9">
@@ -6105,7 +6129,7 @@
       <c r="A97" s="8">
         <v>95.0</v>
       </c>
-      <c r="B97" s="24" t="s">
+      <c r="B97" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C97" s="9">
@@ -6149,7 +6173,7 @@
       <c r="A98" s="8">
         <v>96.0</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="B98" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C98" s="9">
@@ -6193,7 +6217,7 @@
       <c r="A99" s="8">
         <v>97.0</v>
       </c>
-      <c r="B99" s="24" t="s">
+      <c r="B99" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C99" s="9">
@@ -6213,7 +6237,7 @@
         <v>220</v>
       </c>
       <c r="I99" s="12"/>
-      <c r="J99" s="22">
+      <c r="J99" s="21">
         <v>43937.0</v>
       </c>
       <c r="K99" s="7" t="s">
@@ -6239,7 +6263,7 @@
       <c r="A100" s="8">
         <v>98.0</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="B100" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C100" s="9">
@@ -6285,7 +6309,7 @@
       <c r="A101" s="8">
         <v>99.0</v>
       </c>
-      <c r="B101" s="24" t="s">
+      <c r="B101" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C101" s="9">
@@ -6307,7 +6331,7 @@
         <v>222</v>
       </c>
       <c r="I101" s="12"/>
-      <c r="J101" s="22">
+      <c r="J101" s="21">
         <v>43931.0</v>
       </c>
       <c r="K101" s="7" t="s">
@@ -6333,7 +6357,7 @@
       <c r="A102" s="8">
         <v>100.0</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="B102" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C102" s="9">
@@ -6355,7 +6379,7 @@
         <v>225</v>
       </c>
       <c r="I102" s="12"/>
-      <c r="J102" s="22">
+      <c r="J102" s="21">
         <v>43931.0</v>
       </c>
       <c r="K102" s="7" t="s">
@@ -6381,7 +6405,7 @@
       <c r="A103" s="8">
         <v>101.0</v>
       </c>
-      <c r="B103" s="24" t="s">
+      <c r="B103" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C103" s="9">
@@ -6399,7 +6423,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="7"/>
       <c r="I103" s="12"/>
-      <c r="J103" s="22">
+      <c r="J103" s="21">
         <v>43938.0</v>
       </c>
       <c r="K103" s="7" t="s">
@@ -6425,7 +6449,7 @@
       <c r="A104" s="8">
         <v>102.0</v>
       </c>
-      <c r="B104" s="24" t="s">
+      <c r="B104" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C104" s="9">
@@ -6434,7 +6458,7 @@
       <c r="D104" s="10">
         <v>43924.0</v>
       </c>
-      <c r="E104" s="25" t="s">
+      <c r="E104" s="24" t="s">
         <v>61</v>
       </c>
       <c r="F104" s="12" t="s">
@@ -6467,7 +6491,7 @@
       <c r="A105" s="8">
         <v>103.0</v>
       </c>
-      <c r="B105" s="24" t="s">
+      <c r="B105" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C105" s="9">
@@ -6476,7 +6500,7 @@
       <c r="D105" s="10">
         <v>43924.0</v>
       </c>
-      <c r="E105" s="25" t="s">
+      <c r="E105" s="24" t="s">
         <v>61</v>
       </c>
       <c r="F105" s="12" t="s">
@@ -6509,7 +6533,7 @@
       <c r="A106" s="8">
         <v>104.0</v>
       </c>
-      <c r="B106" s="24" t="s">
+      <c r="B106" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C106" s="9">
@@ -6518,7 +6542,7 @@
       <c r="D106" s="10">
         <v>43924.0</v>
       </c>
-      <c r="E106" s="25" t="s">
+      <c r="E106" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F106" s="12" t="s">
@@ -6527,7 +6551,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="7"/>
       <c r="I106" s="12"/>
-      <c r="J106" s="22">
+      <c r="J106" s="21">
         <v>43935.0</v>
       </c>
       <c r="K106" s="7" t="s">
@@ -6553,7 +6577,7 @@
       <c r="A107" s="8">
         <v>105.0</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C107" s="9">
@@ -6597,7 +6621,7 @@
       <c r="A108" s="8">
         <v>106.0</v>
       </c>
-      <c r="B108" s="24" t="s">
+      <c r="B108" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C108" s="9">
@@ -6639,7 +6663,7 @@
       <c r="A109" s="8">
         <v>107.0</v>
       </c>
-      <c r="B109" s="24" t="s">
+      <c r="B109" s="23" t="s">
         <v>228</v>
       </c>
       <c r="C109" s="9">
@@ -6685,7 +6709,7 @@
       <c r="A110" s="8">
         <v>108.0</v>
       </c>
-      <c r="B110" s="24" t="s">
+      <c r="B110" s="23" t="s">
         <v>228</v>
       </c>
       <c r="C110" s="9">
@@ -6731,7 +6755,7 @@
       <c r="A111" s="8">
         <v>109.0</v>
       </c>
-      <c r="B111" s="24" t="s">
+      <c r="B111" s="23" t="s">
         <v>228</v>
       </c>
       <c r="C111" s="9">
@@ -6751,7 +6775,7 @@
         <v>232</v>
       </c>
       <c r="I111" s="12"/>
-      <c r="J111" s="22">
+      <c r="J111" s="21">
         <v>43940.0</v>
       </c>
       <c r="K111" s="7" t="s">
@@ -6777,7 +6801,7 @@
       <c r="A112" s="8">
         <v>110.0</v>
       </c>
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="23" t="s">
         <v>228</v>
       </c>
       <c r="C112" s="9">
@@ -6795,7 +6819,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="7"/>
       <c r="I112" s="12"/>
-      <c r="J112" s="22">
+      <c r="J112" s="21">
         <v>43936.0</v>
       </c>
       <c r="K112" s="7" t="s">
@@ -6821,7 +6845,7 @@
       <c r="A113" s="8">
         <v>111.0</v>
       </c>
-      <c r="B113" s="24" t="s">
+      <c r="B113" s="23" t="s">
         <v>228</v>
       </c>
       <c r="C113" s="9">
@@ -6863,7 +6887,7 @@
       <c r="A114" s="8">
         <v>112.0</v>
       </c>
-      <c r="B114" s="24" t="s">
+      <c r="B114" s="23" t="s">
         <v>228</v>
       </c>
       <c r="C114" s="9">
@@ -6905,7 +6929,7 @@
       <c r="A115" s="8">
         <v>113.0</v>
       </c>
-      <c r="B115" s="24" t="s">
+      <c r="B115" s="23" t="s">
         <v>228</v>
       </c>
       <c r="C115" s="9">
@@ -6947,7 +6971,7 @@
       <c r="A116" s="8">
         <v>114.0</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="23" t="s">
         <v>228</v>
       </c>
       <c r="C116" s="9">
@@ -6965,7 +6989,7 @@
       <c r="G116" s="8"/>
       <c r="H116" s="7"/>
       <c r="I116" s="12"/>
-      <c r="J116" s="22">
+      <c r="J116" s="21">
         <v>43938.0</v>
       </c>
       <c r="K116" s="7" t="s">
@@ -6991,7 +7015,7 @@
       <c r="A117" s="8">
         <v>115.0</v>
       </c>
-      <c r="B117" s="24" t="s">
+      <c r="B117" s="23" t="s">
         <v>228</v>
       </c>
       <c r="C117" s="9">
@@ -7033,7 +7057,7 @@
       <c r="A118" s="8">
         <v>116.0</v>
       </c>
-      <c r="B118" s="24" t="s">
+      <c r="B118" s="23" t="s">
         <v>228</v>
       </c>
       <c r="C118" s="9">
@@ -7055,7 +7079,7 @@
         <v>234</v>
       </c>
       <c r="I118" s="12"/>
-      <c r="J118" s="22">
+      <c r="J118" s="21">
         <v>43936.0</v>
       </c>
       <c r="K118" s="7" t="s">
@@ -7081,7 +7105,7 @@
       <c r="A119" s="8">
         <v>117.0</v>
       </c>
-      <c r="B119" s="24" t="s">
+      <c r="B119" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C119" s="9">
@@ -7123,7 +7147,7 @@
       <c r="A120" s="8">
         <v>118.0</v>
       </c>
-      <c r="B120" s="24" t="s">
+      <c r="B120" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C120" s="9">
@@ -7167,7 +7191,7 @@
       <c r="A121" s="8">
         <v>119.0</v>
       </c>
-      <c r="B121" s="24" t="s">
+      <c r="B121" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C121" s="9">
@@ -7187,7 +7211,7 @@
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="12"/>
-      <c r="J121" s="22">
+      <c r="J121" s="21">
         <v>43935.0</v>
       </c>
       <c r="K121" s="7" t="s">
@@ -7213,7 +7237,7 @@
       <c r="A122" s="8">
         <v>120.0</v>
       </c>
-      <c r="B122" s="24" t="s">
+      <c r="B122" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C122" s="9">
@@ -7255,7 +7279,7 @@
       <c r="A123" s="8">
         <v>121.0</v>
       </c>
-      <c r="B123" s="24" t="s">
+      <c r="B123" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C123" s="9">
@@ -7297,7 +7321,7 @@
       <c r="A124" s="8">
         <v>122.0</v>
       </c>
-      <c r="B124" s="24" t="s">
+      <c r="B124" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C124" s="9">
@@ -7339,7 +7363,7 @@
       <c r="A125" s="8">
         <v>123.0</v>
       </c>
-      <c r="B125" s="24" t="s">
+      <c r="B125" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C125" s="9">
@@ -7381,7 +7405,7 @@
       <c r="A126" s="8">
         <v>124.0</v>
       </c>
-      <c r="B126" s="24" t="s">
+      <c r="B126" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C126" s="9">
@@ -7403,7 +7427,7 @@
         <v>240</v>
       </c>
       <c r="I126" s="12"/>
-      <c r="J126" s="22">
+      <c r="J126" s="21">
         <v>43937.0</v>
       </c>
       <c r="K126" s="7" t="s">
@@ -7429,7 +7453,7 @@
       <c r="A127" s="8">
         <v>125.0</v>
       </c>
-      <c r="B127" s="24" t="s">
+      <c r="B127" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C127" s="9">
@@ -7447,7 +7471,7 @@
       <c r="G127" s="8"/>
       <c r="H127" s="7"/>
       <c r="I127" s="12"/>
-      <c r="J127" s="22">
+      <c r="J127" s="21">
         <v>43938.0</v>
       </c>
       <c r="K127" s="7" t="s">
@@ -7473,7 +7497,7 @@
       <c r="A128" s="8">
         <v>126.0</v>
       </c>
-      <c r="B128" s="24" t="s">
+      <c r="B128" s="23" t="s">
         <v>241</v>
       </c>
       <c r="C128" s="9">
@@ -7515,7 +7539,7 @@
       <c r="A129" s="8">
         <v>127.0</v>
       </c>
-      <c r="B129" s="24" t="s">
+      <c r="B129" s="23" t="s">
         <v>241</v>
       </c>
       <c r="C129" s="9">
@@ -7557,7 +7581,7 @@
       <c r="A130" s="8">
         <v>128.0</v>
       </c>
-      <c r="B130" s="24" t="s">
+      <c r="B130" s="23" t="s">
         <v>241</v>
       </c>
       <c r="C130" s="9">
@@ -7603,7 +7627,7 @@
       <c r="A131" s="8">
         <v>129.0</v>
       </c>
-      <c r="B131" s="24" t="s">
+      <c r="B131" s="23" t="s">
         <v>241</v>
       </c>
       <c r="C131" s="9">
@@ -7649,7 +7673,7 @@
       <c r="A132" s="8">
         <v>130.0</v>
       </c>
-      <c r="B132" s="24" t="s">
+      <c r="B132" s="23" t="s">
         <v>241</v>
       </c>
       <c r="C132" s="9">
@@ -7695,7 +7719,7 @@
       <c r="A133" s="8">
         <v>131.0</v>
       </c>
-      <c r="B133" s="24" t="s">
+      <c r="B133" s="23" t="s">
         <v>241</v>
       </c>
       <c r="C133" s="9">
@@ -7741,7 +7765,7 @@
       <c r="A134" s="8">
         <v>132.0</v>
       </c>
-      <c r="B134" s="24" t="s">
+      <c r="B134" s="23" t="s">
         <v>241</v>
       </c>
       <c r="C134" s="9">
@@ -7783,7 +7807,7 @@
       <c r="A135" s="8">
         <v>133.0</v>
       </c>
-      <c r="B135" s="24" t="s">
+      <c r="B135" s="23" t="s">
         <v>241</v>
       </c>
       <c r="C135" s="9">
@@ -7801,7 +7825,7 @@
       <c r="G135" s="8"/>
       <c r="H135" s="7"/>
       <c r="I135" s="12"/>
-      <c r="J135" s="22">
+      <c r="J135" s="21">
         <v>43936.0</v>
       </c>
       <c r="K135" s="7" t="s">
@@ -7827,7 +7851,7 @@
       <c r="A136" s="8">
         <v>134.0</v>
       </c>
-      <c r="B136" s="24" t="s">
+      <c r="B136" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C136" s="9">
@@ -7871,10 +7895,10 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A253" si="1">A136+1</f>
+        <f t="shared" ref="A137:A266" si="1">A136+1</f>
         <v>135</v>
       </c>
-      <c r="B137" s="24" t="s">
+      <c r="B137" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C137" s="9">
@@ -7921,7 +7945,7 @@
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="B138" s="24" t="s">
+      <c r="B138" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C138" s="9">
@@ -7964,7 +7988,7 @@
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
-      <c r="B139" s="24" t="s">
+      <c r="B139" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C139" s="9">
@@ -8011,7 +8035,7 @@
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="B140" s="24" t="s">
+      <c r="B140" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C140" s="9">
@@ -8054,7 +8078,7 @@
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="B141" s="24" t="s">
+      <c r="B141" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C141" s="9">
@@ -8072,7 +8096,7 @@
       <c r="G141" s="8"/>
       <c r="H141" s="7"/>
       <c r="I141" s="12"/>
-      <c r="J141" s="22">
+      <c r="J141" s="21">
         <v>43938.0</v>
       </c>
       <c r="K141" s="7" t="s">
@@ -8099,7 +8123,7 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="B142" s="24" t="s">
+      <c r="B142" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C142" s="9">
@@ -8146,7 +8170,7 @@
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="B143" s="24" t="s">
+      <c r="B143" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C143" s="9">
@@ -8191,7 +8215,7 @@
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="B144" s="24" t="s">
+      <c r="B144" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C144" s="9">
@@ -8236,7 +8260,7 @@
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="B145" s="24" t="s">
+      <c r="B145" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C145" s="9">
@@ -8258,7 +8282,7 @@
         <v>257</v>
       </c>
       <c r="I145" s="12"/>
-      <c r="J145" s="22">
+      <c r="J145" s="21">
         <v>43935.0</v>
       </c>
       <c r="K145" s="7" t="s">
@@ -8285,7 +8309,7 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="B146" s="24" t="s">
+      <c r="B146" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C146" s="9">
@@ -8303,7 +8327,7 @@
       <c r="G146" s="8"/>
       <c r="H146" s="7"/>
       <c r="I146" s="12"/>
-      <c r="J146" s="22">
+      <c r="J146" s="21">
         <v>43935.0</v>
       </c>
       <c r="K146" s="7" t="s">
@@ -8330,7 +8354,7 @@
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="B147" s="24" t="s">
+      <c r="B147" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C147" s="9">
@@ -8373,7 +8397,7 @@
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="B148" s="24" t="s">
+      <c r="B148" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C148" s="9">
@@ -8420,7 +8444,7 @@
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="B149" s="24" t="s">
+      <c r="B149" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C149" s="9">
@@ -8467,7 +8491,7 @@
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="B150" s="24" t="s">
+      <c r="B150" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C150" s="9">
@@ -8510,7 +8534,7 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="B151" s="24" t="s">
+      <c r="B151" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C151" s="9">
@@ -8557,7 +8581,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="B152" s="24" t="s">
+      <c r="B152" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C152" s="9">
@@ -8604,7 +8628,7 @@
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
-      <c r="B153" s="24" t="s">
+      <c r="B153" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C153" s="9">
@@ -8647,7 +8671,7 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="B154" s="24" t="s">
+      <c r="B154" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C154" s="9">
@@ -8694,7 +8718,7 @@
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="B155" s="24" t="s">
+      <c r="B155" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C155" s="9">
@@ -8737,7 +8761,7 @@
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="B156" s="24" t="s">
+      <c r="B156" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C156" s="9">
@@ -8780,7 +8804,7 @@
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="B157" s="24" t="s">
+      <c r="B157" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C157" s="9">
@@ -8798,7 +8822,7 @@
       <c r="G157" s="8"/>
       <c r="H157" s="7"/>
       <c r="I157" s="12"/>
-      <c r="J157" s="22">
+      <c r="J157" s="21">
         <v>43936.0</v>
       </c>
       <c r="K157" s="7" t="s">
@@ -8825,7 +8849,7 @@
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="B158" s="24" t="s">
+      <c r="B158" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C158" s="9">
@@ -8868,7 +8892,7 @@
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
-      <c r="B159" s="24" t="s">
+      <c r="B159" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C159" s="9">
@@ -8911,7 +8935,7 @@
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="B160" s="24" t="s">
+      <c r="B160" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C160" s="9">
@@ -8931,7 +8955,7 @@
         <v>267</v>
       </c>
       <c r="I160" s="12"/>
-      <c r="J160" s="22">
+      <c r="J160" s="21">
         <v>43937.0</v>
       </c>
       <c r="K160" s="7" t="s">
@@ -8958,7 +8982,7 @@
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
-      <c r="B161" s="24" t="s">
+      <c r="B161" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C161" s="9">
@@ -9001,7 +9025,7 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="B162" s="24" t="s">
+      <c r="B162" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C162" s="9">
@@ -9046,7 +9070,7 @@
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="B163" s="24" t="s">
+      <c r="B163" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C163" s="9">
@@ -9091,7 +9115,7 @@
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="B164" s="24" t="s">
+      <c r="B164" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C164" s="9">
@@ -9136,7 +9160,7 @@
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
-      <c r="B165" s="24" t="s">
+      <c r="B165" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C165" s="9">
@@ -9183,7 +9207,7 @@
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="B166" s="24" t="s">
+      <c r="B166" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C166" s="9">
@@ -9201,7 +9225,7 @@
       <c r="G166" s="8"/>
       <c r="H166" s="7"/>
       <c r="I166" s="12"/>
-      <c r="J166" s="22">
+      <c r="J166" s="21">
         <v>43938.0</v>
       </c>
       <c r="K166" s="7" t="s">
@@ -9228,7 +9252,7 @@
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="B167" s="24" t="s">
+      <c r="B167" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C167" s="9">
@@ -9273,7 +9297,7 @@
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
-      <c r="B168" s="24" t="s">
+      <c r="B168" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C168" s="9">
@@ -9320,7 +9344,7 @@
         <f t="shared" si="1"/>
         <v>167</v>
       </c>
-      <c r="B169" s="24" t="s">
+      <c r="B169" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C169" s="9">
@@ -9363,7 +9387,7 @@
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="B170" s="24" t="s">
+      <c r="B170" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C170" s="9">
@@ -9410,7 +9434,7 @@
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="B171" s="24" t="s">
+      <c r="B171" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C171" s="9">
@@ -9455,7 +9479,7 @@
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="B172" s="24" t="s">
+      <c r="B172" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C172" s="9">
@@ -9498,7 +9522,7 @@
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
-      <c r="B173" s="24" t="s">
+      <c r="B173" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C173" s="9">
@@ -9545,7 +9569,7 @@
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="B174" s="24" t="s">
+      <c r="B174" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C174" s="9">
@@ -9592,7 +9616,7 @@
         <f t="shared" si="1"/>
         <v>173</v>
       </c>
-      <c r="B175" s="24" t="s">
+      <c r="B175" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C175" s="9">
@@ -9639,7 +9663,7 @@
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
-      <c r="B176" s="24" t="s">
+      <c r="B176" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C176" s="9">
@@ -9682,7 +9706,7 @@
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="B177" s="24" t="s">
+      <c r="B177" s="23" t="s">
         <v>283</v>
       </c>
       <c r="C177" s="9">
@@ -9725,7 +9749,7 @@
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="B178" s="24" t="s">
+      <c r="B178" s="23" t="s">
         <v>283</v>
       </c>
       <c r="C178" s="9">
@@ -9770,7 +9794,7 @@
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="B179" s="24" t="s">
+      <c r="B179" s="23" t="s">
         <v>283</v>
       </c>
       <c r="C179" s="9">
@@ -9813,7 +9837,7 @@
         <f t="shared" si="1"/>
         <v>178</v>
       </c>
-      <c r="B180" s="24" t="s">
+      <c r="B180" s="23" t="s">
         <v>283</v>
       </c>
       <c r="C180" s="9">
@@ -9856,7 +9880,7 @@
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
-      <c r="B181" s="24" t="s">
+      <c r="B181" s="23" t="s">
         <v>283</v>
       </c>
       <c r="C181" s="9">
@@ -9899,7 +9923,7 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="B182" s="24" t="s">
+      <c r="B182" s="23" t="s">
         <v>283</v>
       </c>
       <c r="C182" s="9">
@@ -9946,7 +9970,7 @@
         <f t="shared" si="1"/>
         <v>181</v>
       </c>
-      <c r="B183" s="24" t="s">
+      <c r="B183" s="23" t="s">
         <v>283</v>
       </c>
       <c r="C183" s="9">
@@ -9989,7 +10013,7 @@
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="B184" s="24" t="s">
+      <c r="B184" s="23" t="s">
         <v>288</v>
       </c>
       <c r="C184" s="9">
@@ -10034,7 +10058,7 @@
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="B185" s="24" t="s">
+      <c r="B185" s="23" t="s">
         <v>288</v>
       </c>
       <c r="C185" s="9">
@@ -10081,7 +10105,7 @@
         <f t="shared" si="1"/>
         <v>184</v>
       </c>
-      <c r="B186" s="24" t="s">
+      <c r="B186" s="23" t="s">
         <v>288</v>
       </c>
       <c r="C186" s="9">
@@ -10128,7 +10152,7 @@
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="B187" s="24" t="s">
+      <c r="B187" s="23" t="s">
         <v>288</v>
       </c>
       <c r="C187" s="9">
@@ -10175,7 +10199,7 @@
         <f t="shared" si="1"/>
         <v>186</v>
       </c>
-      <c r="B188" s="24" t="s">
+      <c r="B188" s="23" t="s">
         <v>288</v>
       </c>
       <c r="C188" s="9">
@@ -10222,7 +10246,7 @@
         <f t="shared" si="1"/>
         <v>187</v>
       </c>
-      <c r="B189" s="24" t="s">
+      <c r="B189" s="23" t="s">
         <v>288</v>
       </c>
       <c r="C189" s="9">
@@ -10267,7 +10291,7 @@
         <f t="shared" si="1"/>
         <v>188</v>
       </c>
-      <c r="B190" s="24" t="s">
+      <c r="B190" s="23" t="s">
         <v>288</v>
       </c>
       <c r="C190" s="9">
@@ -10310,7 +10334,7 @@
         <f t="shared" si="1"/>
         <v>189</v>
       </c>
-      <c r="B191" s="24" t="s">
+      <c r="B191" s="23" t="s">
         <v>288</v>
       </c>
       <c r="C191" s="9">
@@ -10355,7 +10379,7 @@
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="B192" s="24" t="s">
+      <c r="B192" s="23" t="s">
         <v>288</v>
       </c>
       <c r="C192" s="9">
@@ -10398,7 +10422,7 @@
         <f t="shared" si="1"/>
         <v>191</v>
       </c>
-      <c r="B193" s="24" t="s">
+      <c r="B193" s="23" t="s">
         <v>288</v>
       </c>
       <c r="C193" s="9">
@@ -10441,7 +10465,7 @@
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="B194" s="24" t="s">
+      <c r="B194" s="23" t="s">
         <v>288</v>
       </c>
       <c r="C194" s="9">
@@ -10486,7 +10510,7 @@
         <f t="shared" si="1"/>
         <v>193</v>
       </c>
-      <c r="B195" s="24" t="s">
+      <c r="B195" s="23" t="s">
         <v>288</v>
       </c>
       <c r="C195" s="9">
@@ -10529,7 +10553,7 @@
         <f t="shared" si="1"/>
         <v>194</v>
       </c>
-      <c r="B196" s="24" t="s">
+      <c r="B196" s="23" t="s">
         <v>305</v>
       </c>
       <c r="C196" s="9">
@@ -10572,7 +10596,7 @@
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="B197" s="24" t="s">
+      <c r="B197" s="23" t="s">
         <v>305</v>
       </c>
       <c r="C197" s="9">
@@ -10615,7 +10639,7 @@
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
-      <c r="B198" s="24" t="s">
+      <c r="B198" s="23" t="s">
         <v>305</v>
       </c>
       <c r="C198" s="9">
@@ -10658,7 +10682,7 @@
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
-      <c r="B199" s="24" t="s">
+      <c r="B199" s="23" t="s">
         <v>305</v>
       </c>
       <c r="C199" s="9">
@@ -10701,7 +10725,7 @@
         <f t="shared" si="1"/>
         <v>198</v>
       </c>
-      <c r="B200" s="24" t="s">
+      <c r="B200" s="23" t="s">
         <v>305</v>
       </c>
       <c r="C200" s="9">
@@ -10744,7 +10768,7 @@
         <f t="shared" si="1"/>
         <v>199</v>
       </c>
-      <c r="B201" s="24" t="s">
+      <c r="B201" s="23" t="s">
         <v>305</v>
       </c>
       <c r="C201" s="9">
@@ -10789,7 +10813,7 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="B202" s="24" t="s">
+      <c r="B202" s="23" t="s">
         <v>305</v>
       </c>
       <c r="C202" s="9">
@@ -10834,7 +10858,7 @@
         <f t="shared" si="1"/>
         <v>201</v>
       </c>
-      <c r="B203" s="24" t="s">
+      <c r="B203" s="23" t="s">
         <v>305</v>
       </c>
       <c r="C203" s="9">
@@ -10879,7 +10903,7 @@
         <f t="shared" si="1"/>
         <v>202</v>
       </c>
-      <c r="B204" s="24" t="s">
+      <c r="B204" s="23" t="s">
         <v>305</v>
       </c>
       <c r="C204" s="9">
@@ -10924,7 +10948,7 @@
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="B205" s="24" t="s">
+      <c r="B205" s="23" t="s">
         <v>305</v>
       </c>
       <c r="C205" s="9">
@@ -10969,7 +10993,7 @@
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="B206" s="24" t="s">
+      <c r="B206" s="23" t="s">
         <v>305</v>
       </c>
       <c r="C206" s="9">
@@ -11014,7 +11038,7 @@
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
-      <c r="B207" s="24" t="s">
+      <c r="B207" s="23" t="s">
         <v>305</v>
       </c>
       <c r="C207" s="9">
@@ -11059,7 +11083,7 @@
         <f t="shared" si="1"/>
         <v>206</v>
       </c>
-      <c r="B208" s="24" t="s">
+      <c r="B208" s="23" t="s">
         <v>311</v>
       </c>
       <c r="C208" s="9">
@@ -11106,7 +11130,7 @@
         <f t="shared" si="1"/>
         <v>207</v>
       </c>
-      <c r="B209" s="24" t="s">
+      <c r="B209" s="23" t="s">
         <v>311</v>
       </c>
       <c r="C209" s="9">
@@ -11151,7 +11175,7 @@
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="B210" s="24" t="s">
+      <c r="B210" s="23" t="s">
         <v>311</v>
       </c>
       <c r="C210" s="9">
@@ -11196,7 +11220,7 @@
         <f t="shared" si="1"/>
         <v>209</v>
       </c>
-      <c r="B211" s="24" t="s">
+      <c r="B211" s="23" t="s">
         <v>311</v>
       </c>
       <c r="C211" s="9">
@@ -11241,7 +11265,7 @@
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="B212" s="24" t="s">
+      <c r="B212" s="23" t="s">
         <v>311</v>
       </c>
       <c r="C212" s="9">
@@ -11284,7 +11308,7 @@
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="B213" s="24" t="s">
+      <c r="B213" s="23" t="s">
         <v>317</v>
       </c>
       <c r="C213" s="9">
@@ -11327,7 +11351,7 @@
         <f t="shared" si="1"/>
         <v>212</v>
       </c>
-      <c r="B214" s="24" t="s">
+      <c r="B214" s="23" t="s">
         <v>317</v>
       </c>
       <c r="C214" s="9">
@@ -11372,7 +11396,7 @@
         <f t="shared" si="1"/>
         <v>213</v>
       </c>
-      <c r="B215" s="24" t="s">
+      <c r="B215" s="23" t="s">
         <v>317</v>
       </c>
       <c r="C215" s="9">
@@ -11417,7 +11441,7 @@
         <f t="shared" si="1"/>
         <v>214</v>
       </c>
-      <c r="B216" s="24" t="s">
+      <c r="B216" s="23" t="s">
         <v>317</v>
       </c>
       <c r="C216" s="9">
@@ -11464,7 +11488,7 @@
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
-      <c r="B217" s="24" t="s">
+      <c r="B217" s="23" t="s">
         <v>317</v>
       </c>
       <c r="C217" s="9">
@@ -11507,7 +11531,7 @@
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="B218" s="24" t="s">
+      <c r="B218" s="23" t="s">
         <v>322</v>
       </c>
       <c r="C218" s="9">
@@ -11550,7 +11574,7 @@
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="B219" s="24" t="s">
+      <c r="B219" s="23" t="s">
         <v>322</v>
       </c>
       <c r="C219" s="9">
@@ -11593,7 +11617,7 @@
         <f t="shared" si="1"/>
         <v>218</v>
       </c>
-      <c r="B220" s="24" t="s">
+      <c r="B220" s="23" t="s">
         <v>322</v>
       </c>
       <c r="C220" s="9">
@@ -11636,7 +11660,7 @@
         <f t="shared" si="1"/>
         <v>219</v>
       </c>
-      <c r="B221" s="24" t="s">
+      <c r="B221" s="23" t="s">
         <v>322</v>
       </c>
       <c r="C221" s="9">
@@ -11679,7 +11703,7 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="B222" s="24" t="s">
+      <c r="B222" s="23" t="s">
         <v>322</v>
       </c>
       <c r="C222" s="9">
@@ -11726,7 +11750,7 @@
         <f t="shared" si="1"/>
         <v>221</v>
       </c>
-      <c r="B223" s="24" t="s">
+      <c r="B223" s="23" t="s">
         <v>322</v>
       </c>
       <c r="C223" s="9">
@@ -11769,7 +11793,7 @@
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-      <c r="B224" s="24" t="s">
+      <c r="B224" s="23" t="s">
         <v>322</v>
       </c>
       <c r="C224" s="9">
@@ -11788,7 +11812,7 @@
       <c r="H224" s="7"/>
       <c r="I224" s="12"/>
       <c r="J224" s="13"/>
-      <c r="K224" s="26" t="s">
+      <c r="K224" s="25" t="s">
         <v>326</v>
       </c>
       <c r="L224" s="7"/>
@@ -11812,7 +11836,7 @@
         <f t="shared" si="1"/>
         <v>223</v>
       </c>
-      <c r="B225" s="24" t="s">
+      <c r="B225" s="23" t="s">
         <v>322</v>
       </c>
       <c r="C225" s="9">
@@ -11831,7 +11855,7 @@
       <c r="H225" s="7"/>
       <c r="I225" s="12"/>
       <c r="J225" s="13"/>
-      <c r="K225" s="26" t="s">
+      <c r="K225" s="25" t="s">
         <v>326</v>
       </c>
       <c r="L225" s="7"/>
@@ -11855,7 +11879,7 @@
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="B226" s="24" t="s">
+      <c r="B226" s="23" t="s">
         <v>322</v>
       </c>
       <c r="C226" s="9">
@@ -11874,7 +11898,7 @@
       <c r="H226" s="7"/>
       <c r="I226" s="12"/>
       <c r="J226" s="13"/>
-      <c r="K226" s="26" t="s">
+      <c r="K226" s="25" t="s">
         <v>326</v>
       </c>
       <c r="L226" s="7"/>
@@ -11898,7 +11922,7 @@
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="B227" s="24" t="s">
+      <c r="B227" s="23" t="s">
         <v>322</v>
       </c>
       <c r="C227" s="9">
@@ -11917,7 +11941,7 @@
       <c r="H227" s="7"/>
       <c r="I227" s="12"/>
       <c r="J227" s="13"/>
-      <c r="K227" s="26" t="s">
+      <c r="K227" s="25" t="s">
         <v>326</v>
       </c>
       <c r="L227" s="7"/>
@@ -11941,26 +11965,26 @@
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="B228" s="24" t="s">
+      <c r="B228" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C228" s="27">
+      <c r="C228" s="26">
         <v>43938.0</v>
       </c>
-      <c r="D228" s="28">
+      <c r="D228" s="27">
         <v>43938.0</v>
       </c>
-      <c r="E228" s="29" t="s">
+      <c r="E228" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F228" s="30" t="s">
+      <c r="F228" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G228" s="8"/>
       <c r="H228" s="7"/>
       <c r="I228" s="12"/>
       <c r="J228" s="13"/>
-      <c r="K228" s="26" t="s">
+      <c r="K228" s="25" t="s">
         <v>328</v>
       </c>
       <c r="L228" s="7"/>
@@ -11984,26 +12008,26 @@
         <f t="shared" si="1"/>
         <v>227</v>
       </c>
-      <c r="B229" s="24" t="s">
+      <c r="B229" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C229" s="27">
+      <c r="C229" s="26">
         <v>43938.0</v>
       </c>
-      <c r="D229" s="28">
+      <c r="D229" s="27">
         <v>43938.0</v>
       </c>
-      <c r="E229" s="29" t="s">
+      <c r="E229" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="F229" s="30" t="s">
+      <c r="F229" s="29" t="s">
         <v>45</v>
       </c>
       <c r="G229" s="8"/>
       <c r="H229" s="7"/>
       <c r="I229" s="12"/>
       <c r="J229" s="13"/>
-      <c r="K229" s="26" t="s">
+      <c r="K229" s="25" t="s">
         <v>328</v>
       </c>
       <c r="L229" s="7"/>
@@ -12027,30 +12051,30 @@
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
-      <c r="B230" s="24" t="s">
+      <c r="B230" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C230" s="27">
+      <c r="C230" s="26">
         <v>43938.0</v>
       </c>
-      <c r="D230" s="28">
+      <c r="D230" s="27">
         <v>43938.0</v>
       </c>
-      <c r="E230" s="29" t="s">
+      <c r="E230" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F230" s="30" t="s">
+      <c r="F230" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="G230" s="31">
+      <c r="G230" s="30">
         <v>219.0</v>
       </c>
-      <c r="H230" s="29" t="s">
+      <c r="H230" s="28" t="s">
         <v>331</v>
       </c>
       <c r="I230" s="12"/>
       <c r="J230" s="13"/>
-      <c r="K230" s="26" t="s">
+      <c r="K230" s="25" t="s">
         <v>328</v>
       </c>
       <c r="L230" s="7"/>
@@ -12074,19 +12098,19 @@
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
-      <c r="B231" s="24" t="s">
+      <c r="B231" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C231" s="27">
+      <c r="C231" s="26">
         <v>43938.0</v>
       </c>
-      <c r="D231" s="28">
+      <c r="D231" s="27">
         <v>43938.0</v>
       </c>
-      <c r="E231" s="29" t="s">
+      <c r="E231" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F231" s="30" t="s">
+      <c r="F231" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G231" s="8"/>
@@ -12115,19 +12139,19 @@
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="B232" s="24" t="s">
+      <c r="B232" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C232" s="27">
+      <c r="C232" s="26">
         <v>43938.0</v>
       </c>
-      <c r="D232" s="28">
+      <c r="D232" s="27">
         <v>43938.0</v>
       </c>
-      <c r="E232" s="29" t="s">
+      <c r="E232" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F232" s="30" t="s">
+      <c r="F232" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G232" s="8"/>
@@ -12156,19 +12180,19 @@
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="B233" s="24" t="s">
+      <c r="B233" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C233" s="27">
+      <c r="C233" s="26">
         <v>43938.0</v>
       </c>
-      <c r="D233" s="28">
+      <c r="D233" s="27">
         <v>43938.0</v>
       </c>
-      <c r="E233" s="29" t="s">
+      <c r="E233" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F233" s="30" t="s">
+      <c r="F233" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G233" s="8"/>
@@ -12197,19 +12221,19 @@
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="B234" s="24" t="s">
+      <c r="B234" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C234" s="27">
+      <c r="C234" s="26">
         <v>43938.0</v>
       </c>
-      <c r="D234" s="28">
+      <c r="D234" s="27">
         <v>43938.0</v>
       </c>
-      <c r="E234" s="29" t="s">
+      <c r="E234" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F234" s="30" t="s">
+      <c r="F234" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G234" s="8"/>
@@ -12238,19 +12262,19 @@
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
-      <c r="B235" s="24" t="s">
+      <c r="B235" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C235" s="27">
+      <c r="C235" s="26">
         <v>43938.0</v>
       </c>
-      <c r="D235" s="28">
+      <c r="D235" s="27">
         <v>43938.0</v>
       </c>
-      <c r="E235" s="29" t="s">
+      <c r="E235" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F235" s="30" t="s">
+      <c r="F235" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G235" s="8"/>
@@ -12279,19 +12303,19 @@
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
-      <c r="B236" s="24" t="s">
+      <c r="B236" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C236" s="27">
+      <c r="C236" s="26">
         <v>43938.0</v>
       </c>
-      <c r="D236" s="28">
+      <c r="D236" s="27">
         <v>43938.0</v>
       </c>
-      <c r="E236" s="29" t="s">
+      <c r="E236" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="F236" s="30" t="s">
+      <c r="F236" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G236" s="8"/>
@@ -12320,19 +12344,19 @@
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="B237" s="24" t="s">
+      <c r="B237" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C237" s="27">
+      <c r="C237" s="26">
         <v>43938.0</v>
       </c>
-      <c r="D237" s="28">
+      <c r="D237" s="27">
         <v>43938.0</v>
       </c>
-      <c r="E237" s="29" t="s">
+      <c r="E237" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F237" s="30" t="s">
+      <c r="F237" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G237" s="8"/>
@@ -12361,26 +12385,26 @@
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
-      <c r="B238" s="24" t="s">
+      <c r="B238" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C238" s="32">
+      <c r="C238" s="26">
         <v>43939.0</v>
       </c>
-      <c r="D238" s="28">
+      <c r="D238" s="27">
         <v>43939.0</v>
       </c>
-      <c r="E238" s="29" t="s">
+      <c r="E238" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F238" s="30" t="s">
+      <c r="F238" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G238" s="8"/>
       <c r="H238" s="7"/>
       <c r="I238" s="12"/>
       <c r="J238" s="13"/>
-      <c r="K238" s="26" t="s">
+      <c r="K238" s="25" t="s">
         <v>332</v>
       </c>
       <c r="L238" s="7"/>
@@ -12404,26 +12428,26 @@
         <f t="shared" si="1"/>
         <v>237</v>
       </c>
-      <c r="B239" s="24" t="s">
+      <c r="B239" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C239" s="32">
+      <c r="C239" s="26">
         <v>43939.0</v>
       </c>
-      <c r="D239" s="28">
+      <c r="D239" s="27">
         <v>43939.0</v>
       </c>
-      <c r="E239" s="29" t="s">
+      <c r="E239" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F239" s="30" t="s">
+      <c r="F239" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G239" s="8"/>
       <c r="H239" s="7"/>
       <c r="I239" s="12"/>
       <c r="J239" s="13"/>
-      <c r="K239" s="26" t="s">
+      <c r="K239" s="25" t="s">
         <v>332</v>
       </c>
       <c r="L239" s="7"/>
@@ -12447,26 +12471,26 @@
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
-      <c r="B240" s="24" t="s">
+      <c r="B240" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C240" s="32">
+      <c r="C240" s="26">
         <v>43939.0</v>
       </c>
-      <c r="D240" s="28">
+      <c r="D240" s="27">
         <v>43939.0</v>
       </c>
-      <c r="E240" s="29" t="s">
+      <c r="E240" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F240" s="30" t="s">
+      <c r="F240" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G240" s="8"/>
       <c r="H240" s="7"/>
       <c r="I240" s="12"/>
       <c r="J240" s="13"/>
-      <c r="K240" s="26" t="s">
+      <c r="K240" s="25" t="s">
         <v>332</v>
       </c>
       <c r="L240" s="7"/>
@@ -12490,26 +12514,26 @@
         <f t="shared" si="1"/>
         <v>239</v>
       </c>
-      <c r="B241" s="24" t="s">
+      <c r="B241" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C241" s="32">
+      <c r="C241" s="26">
         <v>43939.0</v>
       </c>
-      <c r="D241" s="28">
+      <c r="D241" s="27">
         <v>43939.0</v>
       </c>
-      <c r="E241" s="29" t="s">
+      <c r="E241" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F241" s="30" t="s">
+      <c r="F241" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G241" s="8"/>
       <c r="H241" s="7"/>
       <c r="I241" s="12"/>
       <c r="J241" s="13"/>
-      <c r="K241" s="26" t="s">
+      <c r="K241" s="25" t="s">
         <v>332</v>
       </c>
       <c r="L241" s="7"/>
@@ -12533,26 +12557,26 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="B242" s="24" t="s">
+      <c r="B242" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="32">
+      <c r="C242" s="26">
         <v>43939.0</v>
       </c>
-      <c r="D242" s="28">
+      <c r="D242" s="27">
         <v>43939.0</v>
       </c>
-      <c r="E242" s="29" t="s">
+      <c r="E242" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F242" s="30" t="s">
+      <c r="F242" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G242" s="8"/>
       <c r="H242" s="7"/>
       <c r="I242" s="12"/>
       <c r="J242" s="13"/>
-      <c r="K242" s="26" t="s">
+      <c r="K242" s="25" t="s">
         <v>332</v>
       </c>
       <c r="L242" s="7"/>
@@ -12576,26 +12600,26 @@
         <f t="shared" si="1"/>
         <v>241</v>
       </c>
-      <c r="B243" s="24" t="s">
+      <c r="B243" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C243" s="32">
+      <c r="C243" s="26">
         <v>43939.0</v>
       </c>
-      <c r="D243" s="28">
+      <c r="D243" s="27">
         <v>43939.0</v>
       </c>
-      <c r="E243" s="29" t="s">
+      <c r="E243" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F243" s="30" t="s">
+      <c r="F243" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G243" s="8"/>
       <c r="H243" s="7"/>
       <c r="I243" s="12"/>
       <c r="J243" s="13"/>
-      <c r="K243" s="26" t="s">
+      <c r="K243" s="25" t="s">
         <v>332</v>
       </c>
       <c r="L243" s="7"/>
@@ -12619,26 +12643,26 @@
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
-      <c r="B244" s="24" t="s">
+      <c r="B244" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C244" s="32">
+      <c r="C244" s="26">
         <v>43939.0</v>
       </c>
-      <c r="D244" s="28">
+      <c r="D244" s="27">
         <v>43939.0</v>
       </c>
-      <c r="E244" s="29" t="s">
+      <c r="E244" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F244" s="30" t="s">
+      <c r="F244" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G244" s="8"/>
       <c r="H244" s="7"/>
       <c r="I244" s="12"/>
       <c r="J244" s="13"/>
-      <c r="K244" s="26" t="s">
+      <c r="K244" s="25" t="s">
         <v>332</v>
       </c>
       <c r="L244" s="7"/>
@@ -12662,26 +12686,26 @@
         <f t="shared" si="1"/>
         <v>243</v>
       </c>
-      <c r="B245" s="24" t="s">
+      <c r="B245" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C245" s="32">
+      <c r="C245" s="26">
         <v>43940.0</v>
       </c>
-      <c r="D245" s="28">
+      <c r="D245" s="27">
         <v>43940.0</v>
       </c>
-      <c r="E245" s="29" t="s">
+      <c r="E245" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F245" s="30" t="s">
+      <c r="F245" s="29" t="s">
         <v>45</v>
       </c>
       <c r="G245" s="8"/>
       <c r="H245" s="7"/>
       <c r="I245" s="12"/>
       <c r="J245" s="13"/>
-      <c r="K245" s="26" t="s">
+      <c r="K245" s="25" t="s">
         <v>334</v>
       </c>
       <c r="L245" s="7"/>
@@ -12705,26 +12729,26 @@
         <f t="shared" si="1"/>
         <v>244</v>
       </c>
-      <c r="B246" s="24" t="s">
+      <c r="B246" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C246" s="32">
+      <c r="C246" s="26">
         <v>43940.0</v>
       </c>
-      <c r="D246" s="28">
+      <c r="D246" s="27">
         <v>43940.0</v>
       </c>
-      <c r="E246" s="29" t="s">
+      <c r="E246" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F246" s="30" t="s">
+      <c r="F246" s="29" t="s">
         <v>231</v>
       </c>
       <c r="G246" s="8"/>
       <c r="H246" s="7"/>
       <c r="I246" s="12"/>
       <c r="J246" s="13"/>
-      <c r="K246" s="26" t="s">
+      <c r="K246" s="25" t="s">
         <v>334</v>
       </c>
       <c r="L246" s="7"/>
@@ -12748,26 +12772,26 @@
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="B247" s="24" t="s">
+      <c r="B247" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C247" s="32">
+      <c r="C247" s="26">
         <v>43940.0</v>
       </c>
-      <c r="D247" s="28">
+      <c r="D247" s="27">
         <v>43940.0</v>
       </c>
-      <c r="E247" s="29" t="s">
+      <c r="E247" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="F247" s="30" t="s">
+      <c r="F247" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G247" s="8"/>
       <c r="H247" s="7"/>
       <c r="I247" s="12"/>
       <c r="J247" s="13"/>
-      <c r="K247" s="26" t="s">
+      <c r="K247" s="25" t="s">
         <v>334</v>
       </c>
       <c r="L247" s="7"/>
@@ -12791,26 +12815,26 @@
         <f t="shared" si="1"/>
         <v>246</v>
       </c>
-      <c r="B248" s="24" t="s">
+      <c r="B248" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C248" s="32">
+      <c r="C248" s="26">
         <v>43940.0</v>
       </c>
-      <c r="D248" s="28">
+      <c r="D248" s="27">
         <v>43940.0</v>
       </c>
-      <c r="E248" s="29" t="s">
+      <c r="E248" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F248" s="30" t="s">
+      <c r="F248" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G248" s="8"/>
       <c r="H248" s="7"/>
       <c r="I248" s="12"/>
       <c r="J248" s="13"/>
-      <c r="K248" s="26" t="s">
+      <c r="K248" s="25" t="s">
         <v>334</v>
       </c>
       <c r="L248" s="7"/>
@@ -12834,26 +12858,26 @@
         <f t="shared" si="1"/>
         <v>247</v>
       </c>
-      <c r="B249" s="24" t="s">
+      <c r="B249" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C249" s="32">
+      <c r="C249" s="26">
         <v>43940.0</v>
       </c>
-      <c r="D249" s="28">
+      <c r="D249" s="27">
         <v>43940.0</v>
       </c>
-      <c r="E249" s="29" t="s">
+      <c r="E249" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F249" s="30" t="s">
+      <c r="F249" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G249" s="8"/>
       <c r="H249" s="7"/>
       <c r="I249" s="12"/>
       <c r="J249" s="13"/>
-      <c r="K249" s="26" t="s">
+      <c r="K249" s="25" t="s">
         <v>335</v>
       </c>
       <c r="L249" s="7"/>
@@ -12877,26 +12901,26 @@
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
-      <c r="B250" s="24" t="s">
+      <c r="B250" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C250" s="32">
+      <c r="C250" s="26">
         <v>43940.0</v>
       </c>
-      <c r="D250" s="28">
+      <c r="D250" s="27">
         <v>43940.0</v>
       </c>
-      <c r="E250" s="29" t="s">
+      <c r="E250" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F250" s="30" t="s">
+      <c r="F250" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G250" s="8"/>
       <c r="H250" s="7"/>
       <c r="I250" s="12"/>
       <c r="J250" s="13"/>
-      <c r="K250" s="26" t="s">
+      <c r="K250" s="25" t="s">
         <v>335</v>
       </c>
       <c r="L250" s="7"/>
@@ -12920,26 +12944,26 @@
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
-      <c r="B251" s="24" t="s">
+      <c r="B251" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C251" s="32">
+      <c r="C251" s="26">
         <v>43940.0</v>
       </c>
-      <c r="D251" s="28">
+      <c r="D251" s="27">
         <v>43940.0</v>
       </c>
-      <c r="E251" s="29" t="s">
+      <c r="E251" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F251" s="30" t="s">
+      <c r="F251" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G251" s="8"/>
       <c r="H251" s="7"/>
       <c r="I251" s="12"/>
       <c r="J251" s="13"/>
-      <c r="K251" s="26" t="s">
+      <c r="K251" s="25" t="s">
         <v>335</v>
       </c>
       <c r="L251" s="7"/>
@@ -12963,26 +12987,26 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="B252" s="24" t="s">
+      <c r="B252" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C252" s="32">
+      <c r="C252" s="26">
         <v>43940.0</v>
       </c>
-      <c r="D252" s="28">
+      <c r="D252" s="27">
         <v>43940.0</v>
       </c>
-      <c r="E252" s="29" t="s">
+      <c r="E252" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="F252" s="30" t="s">
+      <c r="F252" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G252" s="8"/>
       <c r="H252" s="7"/>
       <c r="I252" s="12"/>
       <c r="J252" s="13"/>
-      <c r="K252" s="26" t="s">
+      <c r="K252" s="25" t="s">
         <v>335</v>
       </c>
       <c r="L252" s="7"/>
@@ -13006,26 +13030,26 @@
         <f t="shared" si="1"/>
         <v>251</v>
       </c>
-      <c r="B253" s="24" t="s">
+      <c r="B253" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C253" s="32">
+      <c r="C253" s="26">
         <v>43940.0</v>
       </c>
-      <c r="D253" s="28">
+      <c r="D253" s="27">
         <v>43940.0</v>
       </c>
-      <c r="E253" s="29" t="s">
+      <c r="E253" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F253" s="30" t="s">
+      <c r="F253" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G253" s="8"/>
       <c r="H253" s="7"/>
       <c r="I253" s="12"/>
       <c r="J253" s="13"/>
-      <c r="K253" s="26" t="s">
+      <c r="K253" s="25" t="s">
         <v>335</v>
       </c>
       <c r="L253" s="7"/>
@@ -13045,17 +13069,36 @@
       <c r="Z253" s="7"/>
     </row>
     <row r="254" ht="18.0" customHeight="1">
-      <c r="A254" s="8"/>
-      <c r="B254" s="7"/>
-      <c r="C254" s="8"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="7"/>
-      <c r="F254" s="12"/>
-      <c r="G254" s="8"/>
-      <c r="H254" s="7"/>
+      <c r="A254" s="8">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="B254" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C254" s="32">
+        <v>43941.0</v>
+      </c>
+      <c r="D254" s="27">
+        <v>43941.0</v>
+      </c>
+      <c r="E254" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F254" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G254" s="30">
+        <v>246.0</v>
+      </c>
+      <c r="H254" s="28" t="s">
+        <v>337</v>
+      </c>
       <c r="I254" s="12"/>
       <c r="J254" s="13"/>
-      <c r="K254" s="7"/>
+      <c r="K254" s="25" t="s">
+        <v>338</v>
+      </c>
       <c r="L254" s="7"/>
       <c r="M254" s="7"/>
       <c r="N254" s="7"/>
@@ -13073,17 +13116,34 @@
       <c r="Z254" s="7"/>
     </row>
     <row r="255" ht="18.0" customHeight="1">
-      <c r="A255" s="8"/>
-      <c r="B255" s="7"/>
-      <c r="C255" s="8"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="7"/>
-      <c r="F255" s="12"/>
+      <c r="A255" s="8">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+      <c r="B255" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C255" s="32">
+        <v>43941.0</v>
+      </c>
+      <c r="D255" s="27">
+        <v>43941.0</v>
+      </c>
+      <c r="E255" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F255" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G255" s="8"/>
-      <c r="H255" s="7"/>
+      <c r="H255" s="28" t="s">
+        <v>339</v>
+      </c>
       <c r="I255" s="12"/>
       <c r="J255" s="13"/>
-      <c r="K255" s="7"/>
+      <c r="K255" s="25" t="s">
+        <v>340</v>
+      </c>
       <c r="L255" s="7"/>
       <c r="M255" s="7"/>
       <c r="N255" s="7"/>
@@ -13101,17 +13161,36 @@
       <c r="Z255" s="7"/>
     </row>
     <row r="256" ht="18.0" customHeight="1">
-      <c r="A256" s="8"/>
-      <c r="B256" s="7"/>
-      <c r="C256" s="8"/>
-      <c r="D256" s="8"/>
-      <c r="E256" s="7"/>
-      <c r="F256" s="12"/>
-      <c r="G256" s="8"/>
-      <c r="H256" s="7"/>
+      <c r="A256" s="8">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="B256" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C256" s="32">
+        <v>43941.0</v>
+      </c>
+      <c r="D256" s="27">
+        <v>43941.0</v>
+      </c>
+      <c r="E256" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F256" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G256" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="H256" s="28" t="s">
+        <v>320</v>
+      </c>
       <c r="I256" s="12"/>
       <c r="J256" s="13"/>
-      <c r="K256" s="7"/>
+      <c r="K256" s="25" t="s">
+        <v>340</v>
+      </c>
       <c r="L256" s="7"/>
       <c r="M256" s="7"/>
       <c r="N256" s="7"/>
@@ -13129,17 +13208,34 @@
       <c r="Z256" s="7"/>
     </row>
     <row r="257" ht="18.0" customHeight="1">
-      <c r="A257" s="8"/>
-      <c r="B257" s="7"/>
-      <c r="C257" s="8"/>
-      <c r="D257" s="8"/>
-      <c r="E257" s="7"/>
-      <c r="F257" s="12"/>
+      <c r="A257" s="8">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="B257" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C257" s="32">
+        <v>43941.0</v>
+      </c>
+      <c r="D257" s="27">
+        <v>43941.0</v>
+      </c>
+      <c r="E257" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F257" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G257" s="8"/>
-      <c r="H257" s="7"/>
+      <c r="H257" s="28" t="s">
+        <v>341</v>
+      </c>
       <c r="I257" s="12"/>
       <c r="J257" s="13"/>
-      <c r="K257" s="7"/>
+      <c r="K257" s="25" t="s">
+        <v>340</v>
+      </c>
       <c r="L257" s="7"/>
       <c r="M257" s="7"/>
       <c r="N257" s="7"/>
@@ -13157,17 +13253,34 @@
       <c r="Z257" s="7"/>
     </row>
     <row r="258" ht="18.0" customHeight="1">
-      <c r="A258" s="8"/>
-      <c r="B258" s="7"/>
-      <c r="C258" s="8"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="7"/>
-      <c r="F258" s="12"/>
+      <c r="A258" s="8">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="B258" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C258" s="32">
+        <v>43941.0</v>
+      </c>
+      <c r="D258" s="27">
+        <v>43941.0</v>
+      </c>
+      <c r="E258" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F258" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G258" s="8"/>
-      <c r="H258" s="7"/>
+      <c r="H258" s="28" t="s">
+        <v>342</v>
+      </c>
       <c r="I258" s="12"/>
       <c r="J258" s="13"/>
-      <c r="K258" s="7"/>
+      <c r="K258" s="25" t="s">
+        <v>340</v>
+      </c>
       <c r="L258" s="7"/>
       <c r="M258" s="7"/>
       <c r="N258" s="7"/>
@@ -13185,17 +13298,32 @@
       <c r="Z258" s="7"/>
     </row>
     <row r="259" ht="18.0" customHeight="1">
-      <c r="A259" s="8"/>
-      <c r="B259" s="7"/>
-      <c r="C259" s="8"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="7"/>
-      <c r="F259" s="12"/>
+      <c r="A259" s="8">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="B259" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C259" s="32">
+        <v>43941.0</v>
+      </c>
+      <c r="D259" s="27">
+        <v>43941.0</v>
+      </c>
+      <c r="E259" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F259" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G259" s="8"/>
       <c r="H259" s="7"/>
       <c r="I259" s="12"/>
       <c r="J259" s="13"/>
-      <c r="K259" s="7"/>
+      <c r="K259" s="25" t="s">
+        <v>340</v>
+      </c>
       <c r="L259" s="7"/>
       <c r="M259" s="7"/>
       <c r="N259" s="7"/>
@@ -13213,17 +13341,32 @@
       <c r="Z259" s="7"/>
     </row>
     <row r="260" ht="18.0" customHeight="1">
-      <c r="A260" s="8"/>
-      <c r="B260" s="7"/>
-      <c r="C260" s="8"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="7"/>
-      <c r="F260" s="12"/>
+      <c r="A260" s="8">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+      <c r="B260" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C260" s="32">
+        <v>43941.0</v>
+      </c>
+      <c r="D260" s="27">
+        <v>43941.0</v>
+      </c>
+      <c r="E260" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F260" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G260" s="8"/>
       <c r="H260" s="7"/>
       <c r="I260" s="12"/>
       <c r="J260" s="13"/>
-      <c r="K260" s="7"/>
+      <c r="K260" s="25" t="s">
+        <v>340</v>
+      </c>
       <c r="L260" s="7"/>
       <c r="M260" s="7"/>
       <c r="N260" s="7"/>
@@ -13241,17 +13384,32 @@
       <c r="Z260" s="7"/>
     </row>
     <row r="261" ht="18.0" customHeight="1">
-      <c r="A261" s="8"/>
-      <c r="B261" s="7"/>
-      <c r="C261" s="8"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="7"/>
-      <c r="F261" s="12"/>
+      <c r="A261" s="8">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+      <c r="B261" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C261" s="32">
+        <v>43941.0</v>
+      </c>
+      <c r="D261" s="27">
+        <v>43941.0</v>
+      </c>
+      <c r="E261" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F261" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G261" s="8"/>
       <c r="H261" s="7"/>
       <c r="I261" s="12"/>
       <c r="J261" s="13"/>
-      <c r="K261" s="7"/>
+      <c r="K261" s="25" t="s">
+        <v>340</v>
+      </c>
       <c r="L261" s="7"/>
       <c r="M261" s="7"/>
       <c r="N261" s="7"/>
@@ -13269,10 +13427,19 @@
       <c r="Z261" s="7"/>
     </row>
     <row r="262" ht="18.0" customHeight="1">
-      <c r="A262" s="8"/>
-      <c r="B262" s="7"/>
-      <c r="C262" s="8"/>
-      <c r="D262" s="8"/>
+      <c r="A262" s="8">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="B262" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C262" s="32">
+        <v>43942.0</v>
+      </c>
+      <c r="D262" s="27">
+        <v>43942.0</v>
+      </c>
       <c r="E262" s="7"/>
       <c r="F262" s="12"/>
       <c r="G262" s="8"/>
@@ -13297,10 +13464,19 @@
       <c r="Z262" s="7"/>
     </row>
     <row r="263" ht="18.0" customHeight="1">
-      <c r="A263" s="8"/>
-      <c r="B263" s="7"/>
-      <c r="C263" s="8"/>
-      <c r="D263" s="8"/>
+      <c r="A263" s="8">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+      <c r="B263" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C263" s="32">
+        <v>43942.0</v>
+      </c>
+      <c r="D263" s="27">
+        <v>43942.0</v>
+      </c>
       <c r="E263" s="7"/>
       <c r="F263" s="12"/>
       <c r="G263" s="8"/>
@@ -13325,10 +13501,19 @@
       <c r="Z263" s="7"/>
     </row>
     <row r="264" ht="18.0" customHeight="1">
-      <c r="A264" s="8"/>
-      <c r="B264" s="7"/>
-      <c r="C264" s="8"/>
-      <c r="D264" s="8"/>
+      <c r="A264" s="8">
+        <f t="shared" si="1"/>
+        <v>262</v>
+      </c>
+      <c r="B264" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C264" s="32">
+        <v>43942.0</v>
+      </c>
+      <c r="D264" s="27">
+        <v>43942.0</v>
+      </c>
       <c r="E264" s="7"/>
       <c r="F264" s="12"/>
       <c r="G264" s="8"/>
@@ -13353,10 +13538,19 @@
       <c r="Z264" s="7"/>
     </row>
     <row r="265" ht="18.0" customHeight="1">
-      <c r="A265" s="8"/>
-      <c r="B265" s="7"/>
-      <c r="C265" s="8"/>
-      <c r="D265" s="8"/>
+      <c r="A265" s="8">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="B265" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C265" s="32">
+        <v>43942.0</v>
+      </c>
+      <c r="D265" s="27">
+        <v>43942.0</v>
+      </c>
       <c r="E265" s="7"/>
       <c r="F265" s="12"/>
       <c r="G265" s="8"/>
@@ -13381,10 +13575,19 @@
       <c r="Z265" s="7"/>
     </row>
     <row r="266" ht="18.0" customHeight="1">
-      <c r="A266" s="8"/>
-      <c r="B266" s="7"/>
-      <c r="C266" s="8"/>
-      <c r="D266" s="8"/>
+      <c r="A266" s="8">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="B266" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C266" s="32">
+        <v>43942.0</v>
+      </c>
+      <c r="D266" s="27">
+        <v>43942.0</v>
+      </c>
       <c r="E266" s="7"/>
       <c r="F266" s="12"/>
       <c r="G266" s="8"/>
@@ -34057,10 +34260,18 @@
     <hyperlink r:id="rId64" ref="K251"/>
     <hyperlink r:id="rId65" ref="K252"/>
     <hyperlink r:id="rId66" ref="K253"/>
+    <hyperlink r:id="rId67" ref="K254"/>
+    <hyperlink r:id="rId68" ref="K255"/>
+    <hyperlink r:id="rId69" ref="K256"/>
+    <hyperlink r:id="rId70" ref="K257"/>
+    <hyperlink r:id="rId71" ref="K258"/>
+    <hyperlink r:id="rId72" ref="K259"/>
+    <hyperlink r:id="rId73" ref="K260"/>
+    <hyperlink r:id="rId74" ref="K261"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId67"/>
+  <drawing r:id="rId75"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="349">
   <si>
-    <t>2020-04-18T08:00:00.000Z</t>
+    <t>2020-04-21T08:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1163,6 +1163,9 @@
     <t>京都府219例目の接触者</t>
   </si>
   <si>
+    <t>2020-04-18T08:00:00.000Z</t>
+  </si>
+  <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268751/200418oshirase(156-162).pdf</t>
   </si>
   <si>
@@ -1194,9 +1197,6 @@
   </si>
   <si>
     <t>滋賀県罹患者の接触者</t>
-  </si>
-  <si>
-    <t>2020-04-21T08:00:00.000Z</t>
   </si>
   <si>
     <t>京都府226例目と接触</t>
@@ -1222,17 +1222,15 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="游ゴシック regular"/>
     </font>
     <font>
       <b/>
@@ -1253,10 +1251,6 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF333333"/>
-      <name val="游ゴシック regular"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <name val="游ゴシック regular"/>
     </font>
     <font>
@@ -1330,7 +1324,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1368,64 +1362,64 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12467,7 +12461,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="25" t="s">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="C238" s="28">
         <v>43939.0</v>
@@ -12486,7 +12480,7 @@
       <c r="I238" s="13"/>
       <c r="J238" s="15"/>
       <c r="K238" s="27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L238" s="8"/>
       <c r="M238" s="8"/>
@@ -12510,7 +12504,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="25" t="s">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="C239" s="28">
         <v>43939.0</v>
@@ -12529,7 +12523,7 @@
       <c r="I239" s="13"/>
       <c r="J239" s="15"/>
       <c r="K239" s="27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L239" s="8"/>
       <c r="M239" s="8"/>
@@ -12553,7 +12547,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="25" t="s">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="C240" s="28">
         <v>43939.0</v>
@@ -12572,7 +12566,7 @@
       <c r="I240" s="13"/>
       <c r="J240" s="15"/>
       <c r="K240" s="27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L240" s="8"/>
       <c r="M240" s="8"/>
@@ -12596,7 +12590,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="25" t="s">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="C241" s="28">
         <v>43939.0</v>
@@ -12615,7 +12609,7 @@
       <c r="I241" s="13"/>
       <c r="J241" s="15"/>
       <c r="K241" s="27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L241" s="8"/>
       <c r="M241" s="8"/>
@@ -12639,7 +12633,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="25" t="s">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="C242" s="28">
         <v>43939.0</v>
@@ -12658,7 +12652,7 @@
       <c r="I242" s="13"/>
       <c r="J242" s="15"/>
       <c r="K242" s="27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L242" s="8"/>
       <c r="M242" s="8"/>
@@ -12682,7 +12676,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="25" t="s">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="C243" s="28">
         <v>43939.0</v>
@@ -12701,7 +12695,7 @@
       <c r="I243" s="13"/>
       <c r="J243" s="15"/>
       <c r="K243" s="27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L243" s="8"/>
       <c r="M243" s="8"/>
@@ -12725,7 +12719,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="25" t="s">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="C244" s="28">
         <v>43939.0</v>
@@ -12744,7 +12738,7 @@
       <c r="I244" s="13"/>
       <c r="J244" s="15"/>
       <c r="K244" s="27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L244" s="8"/>
       <c r="M244" s="8"/>
@@ -12768,7 +12762,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C245" s="28">
         <v>43940.0</v>
@@ -12787,7 +12781,7 @@
       <c r="I245" s="13"/>
       <c r="J245" s="15"/>
       <c r="K245" s="27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L245" s="8"/>
       <c r="M245" s="8"/>
@@ -12811,7 +12805,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C246" s="28">
         <v>43940.0</v>
@@ -12830,7 +12824,7 @@
       <c r="I246" s="13"/>
       <c r="J246" s="15"/>
       <c r="K246" s="27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L246" s="8"/>
       <c r="M246" s="8"/>
@@ -12854,7 +12848,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C247" s="28">
         <v>43940.0</v>
@@ -12873,7 +12867,7 @@
       <c r="I247" s="13"/>
       <c r="J247" s="15"/>
       <c r="K247" s="27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L247" s="8"/>
       <c r="M247" s="8"/>
@@ -12897,7 +12891,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C248" s="28">
         <v>43940.0</v>
@@ -12916,7 +12910,7 @@
       <c r="I248" s="13"/>
       <c r="J248" s="15"/>
       <c r="K248" s="27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L248" s="8"/>
       <c r="M248" s="8"/>
@@ -12940,7 +12934,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C249" s="28">
         <v>43940.0</v>
@@ -12959,7 +12953,7 @@
       <c r="I249" s="13"/>
       <c r="J249" s="15"/>
       <c r="K249" s="27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L249" s="8"/>
       <c r="M249" s="8"/>
@@ -12983,7 +12977,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C250" s="28">
         <v>43940.0</v>
@@ -13002,7 +12996,7 @@
       <c r="I250" s="13"/>
       <c r="J250" s="15"/>
       <c r="K250" s="27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L250" s="8"/>
       <c r="M250" s="8"/>
@@ -13026,7 +13020,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C251" s="28">
         <v>43940.0</v>
@@ -13045,7 +13039,7 @@
       <c r="I251" s="13"/>
       <c r="J251" s="15"/>
       <c r="K251" s="27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L251" s="8"/>
       <c r="M251" s="8"/>
@@ -13069,7 +13063,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C252" s="28">
         <v>43940.0</v>
@@ -13088,7 +13082,7 @@
       <c r="I252" s="13"/>
       <c r="J252" s="15"/>
       <c r="K252" s="27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L252" s="8"/>
       <c r="M252" s="8"/>
@@ -13112,7 +13106,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C253" s="28">
         <v>43940.0</v>
@@ -13131,7 +13125,7 @@
       <c r="I253" s="13"/>
       <c r="J253" s="15"/>
       <c r="K253" s="27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L253" s="8"/>
       <c r="M253" s="8"/>
@@ -13155,7 +13149,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C254" s="28">
         <v>43941.0</v>
@@ -13173,12 +13167,12 @@
         <v>246.0</v>
       </c>
       <c r="H254" s="31" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I254" s="13"/>
       <c r="J254" s="15"/>
       <c r="K254" s="27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L254" s="8"/>
       <c r="M254" s="8"/>
@@ -13202,7 +13196,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C255" s="28">
         <v>43941.0</v>
@@ -13218,12 +13212,12 @@
       </c>
       <c r="G255" s="9"/>
       <c r="H255" s="31" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I255" s="13"/>
       <c r="J255" s="15"/>
       <c r="K255" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L255" s="8"/>
       <c r="M255" s="8"/>
@@ -13247,7 +13241,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C256" s="28">
         <v>43941.0</v>
@@ -13270,7 +13264,7 @@
       <c r="I256" s="13"/>
       <c r="J256" s="15"/>
       <c r="K256" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L256" s="8"/>
       <c r="M256" s="8"/>
@@ -13294,7 +13288,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C257" s="28">
         <v>43941.0</v>
@@ -13310,12 +13304,12 @@
       </c>
       <c r="G257" s="9"/>
       <c r="H257" s="31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I257" s="13"/>
       <c r="J257" s="15"/>
       <c r="K257" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L257" s="8"/>
       <c r="M257" s="8"/>
@@ -13339,7 +13333,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C258" s="28">
         <v>43941.0</v>
@@ -13355,12 +13349,12 @@
       </c>
       <c r="G258" s="9"/>
       <c r="H258" s="31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I258" s="13"/>
       <c r="J258" s="15"/>
       <c r="K258" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L258" s="8"/>
       <c r="M258" s="8"/>
@@ -13384,7 +13378,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C259" s="28">
         <v>43941.0</v>
@@ -13403,7 +13397,7 @@
       <c r="I259" s="13"/>
       <c r="J259" s="15"/>
       <c r="K259" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L259" s="8"/>
       <c r="M259" s="8"/>
@@ -13427,7 +13421,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C260" s="28">
         <v>43941.0</v>
@@ -13446,7 +13440,7 @@
       <c r="I260" s="13"/>
       <c r="J260" s="15"/>
       <c r="K260" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L260" s="8"/>
       <c r="M260" s="8"/>
@@ -13470,7 +13464,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C261" s="28">
         <v>43941.0</v>
@@ -13489,7 +13483,7 @@
       <c r="I261" s="13"/>
       <c r="J261" s="15"/>
       <c r="K261" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L261" s="8"/>
       <c r="M261" s="8"/>
@@ -13513,7 +13507,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="25" t="s">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="C262" s="28">
         <v>43942.0</v>
@@ -13560,7 +13554,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="25" t="s">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="C263" s="28">
         <v>43942.0</v>
@@ -13603,7 +13597,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="25" t="s">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="C264" s="28">
         <v>43942.0</v>
@@ -13646,7 +13640,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="25" t="s">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="C265" s="28">
         <v>43942.0</v>
@@ -13691,7 +13685,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="25" t="s">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="C266" s="28">
         <v>43942.0</v>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="349">
-  <si>
-    <t>2020-04-21T08:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="355">
+  <si>
+    <t>2020-04-22T22:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1199,6 +1199,9 @@
     <t>滋賀県罹患者の接触者</t>
   </si>
   <si>
+    <t>2020-04-21T08:00:00.000Z</t>
+  </si>
+  <si>
     <t>京都府226例目と接触</t>
   </si>
   <si>
@@ -1212,6 +1215,21 @@
   </si>
   <si>
     <t>京都市145例目の接触者</t>
+  </si>
+  <si>
+    <t>2020-04-22T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>京都市226，260例目の接触者</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200422-265-268.pdf</t>
+  </si>
+  <si>
+    <t>山城北保健所</t>
+  </si>
+  <si>
+    <t>京都府261例目の接触者</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1420,6 +1438,15 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7958,7 +7985,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="9">
-        <f t="shared" ref="A137:A266" si="1">A136+1</f>
+        <f t="shared" ref="A137:A270" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="25" t="s">
@@ -13507,7 +13534,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="25" t="s">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="C262" s="28">
         <v>43942.0</v>
@@ -13525,12 +13552,12 @@
         <v>226.0</v>
       </c>
       <c r="H262" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I262" s="13"/>
       <c r="J262" s="15"/>
       <c r="K262" s="27" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L262" s="8"/>
       <c r="M262" s="8"/>
@@ -13554,7 +13581,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="25" t="s">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="C263" s="28">
         <v>43942.0</v>
@@ -13566,14 +13593,14 @@
         <v>50</v>
       </c>
       <c r="F263" s="31" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G263" s="9"/>
       <c r="H263" s="13"/>
       <c r="I263" s="13"/>
       <c r="J263" s="15"/>
       <c r="K263" s="27" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L263" s="8"/>
       <c r="M263" s="8"/>
@@ -13597,7 +13624,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="25" t="s">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="C264" s="28">
         <v>43942.0</v>
@@ -13616,7 +13643,7 @@
       <c r="I264" s="13"/>
       <c r="J264" s="15"/>
       <c r="K264" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L264" s="8"/>
       <c r="M264" s="8"/>
@@ -13640,7 +13667,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="25" t="s">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="C265" s="28">
         <v>43942.0</v>
@@ -13661,7 +13688,7 @@
       <c r="I265" s="13"/>
       <c r="J265" s="15"/>
       <c r="K265" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L265" s="8"/>
       <c r="M265" s="8"/>
@@ -13685,7 +13712,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="25" t="s">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="C266" s="28">
         <v>43942.0</v>
@@ -13701,12 +13728,12 @@
       </c>
       <c r="G266" s="9"/>
       <c r="H266" s="31" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I266" s="13"/>
       <c r="J266" s="15"/>
       <c r="K266" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L266" s="8"/>
       <c r="M266" s="8"/>
@@ -13725,17 +13752,36 @@
       <c r="Z266" s="8"/>
     </row>
     <row r="267" ht="18.0" customHeight="1">
-      <c r="A267" s="9"/>
-      <c r="B267" s="8"/>
-      <c r="C267" s="9"/>
-      <c r="D267" s="9"/>
-      <c r="E267" s="8"/>
-      <c r="F267" s="13"/>
-      <c r="G267" s="9"/>
-      <c r="H267" s="13"/>
+      <c r="A267" s="9">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="B267" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="C267" s="35">
+        <v>43943.0</v>
+      </c>
+      <c r="D267" s="29">
+        <v>43943.0</v>
+      </c>
+      <c r="E267" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="F267" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G267" s="36">
+        <v>226260.0</v>
+      </c>
+      <c r="H267" s="31" t="s">
+        <v>351</v>
+      </c>
       <c r="I267" s="13"/>
       <c r="J267" s="15"/>
-      <c r="K267" s="8"/>
+      <c r="K267" s="27" t="s">
+        <v>352</v>
+      </c>
       <c r="L267" s="8"/>
       <c r="M267" s="8"/>
       <c r="N267" s="8"/>
@@ -13753,17 +13799,32 @@
       <c r="Z267" s="8"/>
     </row>
     <row r="268" ht="18.0" customHeight="1">
-      <c r="A268" s="9"/>
-      <c r="B268" s="8"/>
-      <c r="C268" s="9"/>
-      <c r="D268" s="9"/>
-      <c r="E268" s="8"/>
-      <c r="F268" s="13"/>
+      <c r="A268" s="9">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="B268" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="C268" s="35">
+        <v>43943.0</v>
+      </c>
+      <c r="D268" s="29">
+        <v>43943.0</v>
+      </c>
+      <c r="E268" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F268" s="31" t="s">
+        <v>353</v>
+      </c>
       <c r="G268" s="9"/>
       <c r="H268" s="13"/>
       <c r="I268" s="13"/>
       <c r="J268" s="15"/>
-      <c r="K268" s="8"/>
+      <c r="K268" s="27" t="s">
+        <v>352</v>
+      </c>
       <c r="L268" s="8"/>
       <c r="M268" s="8"/>
       <c r="N268" s="8"/>
@@ -13781,17 +13842,32 @@
       <c r="Z268" s="8"/>
     </row>
     <row r="269" ht="18.0" customHeight="1">
-      <c r="A269" s="9"/>
-      <c r="B269" s="8"/>
-      <c r="C269" s="9"/>
-      <c r="D269" s="9"/>
-      <c r="E269" s="8"/>
-      <c r="F269" s="13"/>
+      <c r="A269" s="9">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="B269" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="C269" s="35">
+        <v>43943.0</v>
+      </c>
+      <c r="D269" s="29">
+        <v>43943.0</v>
+      </c>
+      <c r="E269" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F269" s="31" t="s">
+        <v>45</v>
+      </c>
       <c r="G269" s="9"/>
       <c r="H269" s="13"/>
       <c r="I269" s="13"/>
       <c r="J269" s="15"/>
-      <c r="K269" s="8"/>
+      <c r="K269" s="27" t="s">
+        <v>352</v>
+      </c>
       <c r="L269" s="8"/>
       <c r="M269" s="8"/>
       <c r="N269" s="8"/>
@@ -13809,17 +13885,36 @@
       <c r="Z269" s="8"/>
     </row>
     <row r="270" ht="18.0" customHeight="1">
-      <c r="A270" s="9"/>
-      <c r="B270" s="8"/>
-      <c r="C270" s="9"/>
-      <c r="D270" s="9"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="13"/>
-      <c r="G270" s="9"/>
-      <c r="H270" s="13"/>
+      <c r="A270" s="9">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="B270" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="C270" s="35">
+        <v>43943.0</v>
+      </c>
+      <c r="D270" s="29">
+        <v>43943.0</v>
+      </c>
+      <c r="E270" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F270" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="G270" s="33">
+        <v>261.0</v>
+      </c>
+      <c r="H270" s="31" t="s">
+        <v>354</v>
+      </c>
       <c r="I270" s="13"/>
       <c r="J270" s="15"/>
-      <c r="K270" s="8"/>
+      <c r="K270" s="27" t="s">
+        <v>352</v>
+      </c>
       <c r="L270" s="8"/>
       <c r="M270" s="8"/>
       <c r="N270" s="8"/>
@@ -34386,10 +34481,14 @@
     <hyperlink r:id="rId77" ref="K264"/>
     <hyperlink r:id="rId78" ref="K265"/>
     <hyperlink r:id="rId79" ref="K266"/>
+    <hyperlink r:id="rId80" ref="K267"/>
+    <hyperlink r:id="rId81" ref="K268"/>
+    <hyperlink r:id="rId82" ref="K269"/>
+    <hyperlink r:id="rId83" ref="K270"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId80"/>
+  <drawing r:id="rId84"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -1246,7 +1246,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1254,15 +1254,11 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
       <name val="游ゴシック regular"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="游ゴシック regular"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック regular"/>
@@ -1338,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1360,88 +1356,82 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1656,7 +1646,10 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
@@ -13945,10 +13938,10 @@
         <f t="shared" si="1"/>
         <v>269</v>
       </c>
-      <c r="B271" s="33" t="s">
+      <c r="B271" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C271" s="34">
+      <c r="C271" s="26">
         <v>43943.0</v>
       </c>
       <c r="D271" s="27">
@@ -13988,10 +13981,10 @@
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="B272" s="33" t="s">
+      <c r="B272" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C272" s="34">
+      <c r="C272" s="26">
         <v>43943.0</v>
       </c>
       <c r="D272" s="27">
@@ -14031,10 +14024,10 @@
         <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="B273" s="33" t="s">
+      <c r="B273" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C273" s="34">
+      <c r="C273" s="26">
         <v>43943.0</v>
       </c>
       <c r="D273" s="27">
@@ -14074,10 +14067,10 @@
         <f t="shared" si="1"/>
         <v>272</v>
       </c>
-      <c r="B274" s="33" t="s">
+      <c r="B274" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C274" s="34">
+      <c r="C274" s="26">
         <v>43943.0</v>
       </c>
       <c r="D274" s="27">
@@ -14117,10 +14110,10 @@
         <f t="shared" si="1"/>
         <v>273</v>
       </c>
-      <c r="B275" s="33" t="s">
+      <c r="B275" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C275" s="34">
+      <c r="C275" s="26">
         <v>43943.0</v>
       </c>
       <c r="D275" s="27">
@@ -14160,10 +14153,10 @@
         <f t="shared" si="1"/>
         <v>274</v>
       </c>
-      <c r="B276" s="33" t="s">
+      <c r="B276" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C276" s="34">
+      <c r="C276" s="26">
         <v>43943.0</v>
       </c>
       <c r="D276" s="27">
@@ -14203,10 +14196,10 @@
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="B277" s="33" t="s">
+      <c r="B277" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C277" s="34">
+      <c r="C277" s="26">
         <v>43943.0</v>
       </c>
       <c r="D277" s="27">

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="357">
-  <si>
-    <t>2020-04-23T12:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="362">
+  <si>
+    <t>2020-04-23T20:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1237,6 +1237,21 @@
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268888/200422oshirase(178-184).pdf</t>
   </si>
+  <si>
+    <t>2020-04-23T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200423-276-280.pdf</t>
+  </si>
+  <si>
+    <t>山城管内</t>
+  </si>
+  <si>
+    <t>京都府206例目の接触者</t>
+  </si>
+  <si>
+    <t>陽性者との接触あり</t>
+  </si>
 </sst>
 </file>
 
@@ -1246,7 +1261,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1254,11 +1269,15 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <name val="游ゴシック regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック regular"/>
     </font>
     <font>
-      <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック regular"/>
@@ -1307,6 +1326,11 @@
       <color rgb="FF000000"/>
       <name val="游ゴシック regular"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1334,7 +1358,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1356,83 +1380,98 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4753,7 +4792,9 @@
         <v>176</v>
       </c>
       <c r="I65" s="12"/>
-      <c r="J65" s="13"/>
+      <c r="J65" s="18">
+        <v>43944.0</v>
+      </c>
       <c r="K65" s="7" t="s">
         <v>185</v>
       </c>
@@ -4799,7 +4840,9 @@
         <v>176</v>
       </c>
       <c r="I66" s="12"/>
-      <c r="J66" s="13"/>
+      <c r="J66" s="18">
+        <v>43944.0</v>
+      </c>
       <c r="K66" s="7" t="s">
         <v>185</v>
       </c>
@@ -5205,7 +5248,9 @@
         <v>195</v>
       </c>
       <c r="I75" s="12"/>
-      <c r="J75" s="13"/>
+      <c r="J75" s="18">
+        <v>43944.0</v>
+      </c>
       <c r="K75" s="7" t="s">
         <v>196</v>
       </c>
@@ -5611,7 +5656,9 @@
         <v>206</v>
       </c>
       <c r="I84" s="12"/>
-      <c r="J84" s="13"/>
+      <c r="J84" s="18">
+        <v>43944.0</v>
+      </c>
       <c r="K84" s="7" t="s">
         <v>207</v>
       </c>
@@ -5751,7 +5798,9 @@
         <v>210</v>
       </c>
       <c r="I87" s="12"/>
-      <c r="J87" s="13"/>
+      <c r="J87" s="18">
+        <v>43944.0</v>
+      </c>
       <c r="K87" s="7" t="s">
         <v>207</v>
       </c>
@@ -5989,7 +6038,9 @@
         <v>209</v>
       </c>
       <c r="I92" s="12"/>
-      <c r="J92" s="13"/>
+      <c r="J92" s="18">
+        <v>43944.0</v>
+      </c>
       <c r="K92" s="7" t="s">
         <v>218</v>
       </c>
@@ -6035,7 +6086,9 @@
         <v>209</v>
       </c>
       <c r="I93" s="12"/>
-      <c r="J93" s="13"/>
+      <c r="J93" s="18">
+        <v>43944.0</v>
+      </c>
       <c r="K93" s="7" t="s">
         <v>218</v>
       </c>
@@ -7197,7 +7250,9 @@
       <c r="G119" s="8"/>
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
-      <c r="J119" s="13"/>
+      <c r="J119" s="18">
+        <v>43944.0</v>
+      </c>
       <c r="K119" s="7" t="s">
         <v>236</v>
       </c>
@@ -7286,7 +7341,7 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="18">
-        <v>43935.0</v>
+        <v>43944.0</v>
       </c>
       <c r="K121" s="7" t="s">
         <v>236</v>
@@ -7589,7 +7644,9 @@
       <c r="G128" s="8"/>
       <c r="H128" s="12"/>
       <c r="I128" s="12"/>
-      <c r="J128" s="13"/>
+      <c r="J128" s="18">
+        <v>43944.0</v>
+      </c>
       <c r="K128" s="7" t="s">
         <v>242</v>
       </c>
@@ -7973,7 +8030,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A277" si="1">A136+1</f>
+        <f t="shared" ref="A137:A284" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -8636,7 +8693,9 @@
         <v>261</v>
       </c>
       <c r="I151" s="12"/>
-      <c r="J151" s="13"/>
+      <c r="J151" s="18">
+        <v>43944.0</v>
+      </c>
       <c r="K151" s="7" t="s">
         <v>260</v>
       </c>
@@ -12808,7 +12867,9 @@
       <c r="G245" s="8"/>
       <c r="H245" s="12"/>
       <c r="I245" s="12"/>
-      <c r="J245" s="13"/>
+      <c r="J245" s="18">
+        <v>43944.0</v>
+      </c>
       <c r="K245" s="25" t="s">
         <v>336</v>
       </c>
@@ -14235,17 +14296,32 @@
       <c r="Z277" s="7"/>
     </row>
     <row r="278" ht="18.0" customHeight="1">
-      <c r="A278" s="8"/>
-      <c r="B278" s="7"/>
-      <c r="C278" s="8"/>
-      <c r="D278" s="8"/>
-      <c r="E278" s="7"/>
-      <c r="F278" s="12"/>
+      <c r="A278" s="8">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+      <c r="B278" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C278" s="34">
+        <v>43944.0</v>
+      </c>
+      <c r="D278" s="27">
+        <v>43944.0</v>
+      </c>
+      <c r="E278" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F278" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="G278" s="8"/>
       <c r="H278" s="12"/>
       <c r="I278" s="12"/>
       <c r="J278" s="13"/>
-      <c r="K278" s="7"/>
+      <c r="K278" s="25" t="s">
+        <v>358</v>
+      </c>
       <c r="L278" s="7"/>
       <c r="M278" s="7"/>
       <c r="N278" s="7"/>
@@ -14263,17 +14339,36 @@
       <c r="Z278" s="7"/>
     </row>
     <row r="279" ht="18.0" customHeight="1">
-      <c r="A279" s="8"/>
-      <c r="B279" s="7"/>
-      <c r="C279" s="8"/>
-      <c r="D279" s="8"/>
-      <c r="E279" s="7"/>
-      <c r="F279" s="12"/>
-      <c r="G279" s="8"/>
-      <c r="H279" s="12"/>
+      <c r="A279" s="8">
+        <f t="shared" si="1"/>
+        <v>277</v>
+      </c>
+      <c r="B279" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C279" s="34">
+        <v>43944.0</v>
+      </c>
+      <c r="D279" s="27">
+        <v>43944.0</v>
+      </c>
+      <c r="E279" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F279" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G279" s="31">
+        <v>206.0</v>
+      </c>
+      <c r="H279" s="29" t="s">
+        <v>360</v>
+      </c>
       <c r="I279" s="12"/>
       <c r="J279" s="13"/>
-      <c r="K279" s="7"/>
+      <c r="K279" s="25" t="s">
+        <v>358</v>
+      </c>
       <c r="L279" s="7"/>
       <c r="M279" s="7"/>
       <c r="N279" s="7"/>
@@ -14291,17 +14386,32 @@
       <c r="Z279" s="7"/>
     </row>
     <row r="280" ht="18.0" customHeight="1">
-      <c r="A280" s="8"/>
-      <c r="B280" s="7"/>
-      <c r="C280" s="8"/>
-      <c r="D280" s="8"/>
-      <c r="E280" s="7"/>
-      <c r="F280" s="12"/>
+      <c r="A280" s="8">
+        <f t="shared" si="1"/>
+        <v>278</v>
+      </c>
+      <c r="B280" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C280" s="34">
+        <v>43944.0</v>
+      </c>
+      <c r="D280" s="27">
+        <v>43944.0</v>
+      </c>
+      <c r="E280" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F280" s="29" t="s">
+        <v>359</v>
+      </c>
       <c r="G280" s="8"/>
       <c r="H280" s="12"/>
       <c r="I280" s="12"/>
       <c r="J280" s="13"/>
-      <c r="K280" s="7"/>
+      <c r="K280" s="25" t="s">
+        <v>358</v>
+      </c>
       <c r="L280" s="7"/>
       <c r="M280" s="7"/>
       <c r="N280" s="7"/>
@@ -14319,17 +14429,34 @@
       <c r="Z280" s="7"/>
     </row>
     <row r="281" ht="18.0" customHeight="1">
-      <c r="A281" s="8"/>
-      <c r="B281" s="7"/>
-      <c r="C281" s="8"/>
-      <c r="D281" s="8"/>
-      <c r="E281" s="7"/>
-      <c r="F281" s="12"/>
+      <c r="A281" s="8">
+        <f t="shared" si="1"/>
+        <v>279</v>
+      </c>
+      <c r="B281" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C281" s="34">
+        <v>43944.0</v>
+      </c>
+      <c r="D281" s="27">
+        <v>43944.0</v>
+      </c>
+      <c r="E281" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F281" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="G281" s="8"/>
-      <c r="H281" s="12"/>
+      <c r="H281" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I281" s="12"/>
       <c r="J281" s="13"/>
-      <c r="K281" s="7"/>
+      <c r="K281" s="25" t="s">
+        <v>358</v>
+      </c>
       <c r="L281" s="7"/>
       <c r="M281" s="7"/>
       <c r="N281" s="7"/>
@@ -14347,17 +14474,32 @@
       <c r="Z281" s="7"/>
     </row>
     <row r="282" ht="18.0" customHeight="1">
-      <c r="A282" s="8"/>
-      <c r="B282" s="7"/>
-      <c r="C282" s="8"/>
-      <c r="D282" s="8"/>
-      <c r="E282" s="7"/>
-      <c r="F282" s="12"/>
+      <c r="A282" s="8">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="B282" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C282" s="34">
+        <v>43944.0</v>
+      </c>
+      <c r="D282" s="27">
+        <v>43944.0</v>
+      </c>
+      <c r="E282" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F282" s="36" t="s">
+        <v>94</v>
+      </c>
       <c r="G282" s="8"/>
       <c r="H282" s="12"/>
       <c r="I282" s="12"/>
       <c r="J282" s="13"/>
-      <c r="K282" s="7"/>
+      <c r="K282" s="25" t="s">
+        <v>358</v>
+      </c>
       <c r="L282" s="7"/>
       <c r="M282" s="7"/>
       <c r="N282" s="7"/>
@@ -14375,12 +14517,25 @@
       <c r="Z282" s="7"/>
     </row>
     <row r="283" ht="18.0" customHeight="1">
-      <c r="A283" s="8"/>
-      <c r="B283" s="7"/>
-      <c r="C283" s="8"/>
-      <c r="D283" s="8"/>
-      <c r="E283" s="7"/>
-      <c r="F283" s="12"/>
+      <c r="A283" s="8">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+      <c r="B283" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C283" s="34">
+        <v>43944.0</v>
+      </c>
+      <c r="D283" s="27">
+        <v>43944.0</v>
+      </c>
+      <c r="E283" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F283" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="G283" s="8"/>
       <c r="H283" s="12"/>
       <c r="I283" s="12"/>
@@ -14403,12 +14558,25 @@
       <c r="Z283" s="7"/>
     </row>
     <row r="284" ht="18.0" customHeight="1">
-      <c r="A284" s="8"/>
-      <c r="B284" s="7"/>
-      <c r="C284" s="8"/>
-      <c r="D284" s="8"/>
-      <c r="E284" s="7"/>
-      <c r="F284" s="12"/>
+      <c r="A284" s="8">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="B284" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C284" s="34">
+        <v>43944.0</v>
+      </c>
+      <c r="D284" s="27">
+        <v>43944.0</v>
+      </c>
+      <c r="E284" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="F284" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="G284" s="8"/>
       <c r="H284" s="12"/>
       <c r="I284" s="12"/>
@@ -14436,7 +14604,7 @@
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
       <c r="E285" s="7"/>
-      <c r="F285" s="12"/>
+      <c r="F285" s="37"/>
       <c r="G285" s="8"/>
       <c r="H285" s="12"/>
       <c r="I285" s="12"/>
@@ -34606,10 +34774,15 @@
     <hyperlink r:id="rId95" ref="K275"/>
     <hyperlink r:id="rId96" ref="K276"/>
     <hyperlink r:id="rId97" ref="K277"/>
+    <hyperlink r:id="rId98" ref="K278"/>
+    <hyperlink r:id="rId99" ref="K279"/>
+    <hyperlink r:id="rId100" ref="K280"/>
+    <hyperlink r:id="rId101" ref="K281"/>
+    <hyperlink r:id="rId102" ref="K282"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId98"/>
+  <drawing r:id="rId103"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="363">
   <si>
     <t>2020-04-23T20:00:00.000Z</t>
   </si>
@@ -1251,6 +1251,9 @@
   </si>
   <si>
     <t>陽性者との接触あり</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268931/200423oshirase(185-186).pdf</t>
   </si>
 </sst>
 </file>
@@ -1269,15 +1272,11 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
       <name val="游ゴシック regular"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="游ゴシック regular"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック regular"/>
@@ -1331,6 +1330,10 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1358,7 +1361,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1380,97 +1383,94 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14300,10 +14300,10 @@
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="B278" s="33" t="s">
+      <c r="B278" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C278" s="34">
+      <c r="C278" s="26">
         <v>43944.0</v>
       </c>
       <c r="D278" s="27">
@@ -14343,10 +14343,10 @@
         <f t="shared" si="1"/>
         <v>277</v>
       </c>
-      <c r="B279" s="33" t="s">
+      <c r="B279" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C279" s="34">
+      <c r="C279" s="26">
         <v>43944.0</v>
       </c>
       <c r="D279" s="27">
@@ -14390,10 +14390,10 @@
         <f t="shared" si="1"/>
         <v>278</v>
       </c>
-      <c r="B280" s="33" t="s">
+      <c r="B280" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C280" s="34">
+      <c r="C280" s="26">
         <v>43944.0</v>
       </c>
       <c r="D280" s="27">
@@ -14433,10 +14433,10 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-      <c r="B281" s="33" t="s">
+      <c r="B281" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C281" s="34">
+      <c r="C281" s="26">
         <v>43944.0</v>
       </c>
       <c r="D281" s="27">
@@ -14445,7 +14445,7 @@
       <c r="E281" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F281" s="35" t="s">
+      <c r="F281" s="33" t="s">
         <v>94</v>
       </c>
       <c r="G281" s="8"/>
@@ -14478,10 +14478,10 @@
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="B282" s="33" t="s">
+      <c r="B282" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C282" s="34">
+      <c r="C282" s="26">
         <v>43944.0</v>
       </c>
       <c r="D282" s="27">
@@ -14490,7 +14490,7 @@
       <c r="E282" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F282" s="36" t="s">
+      <c r="F282" s="34" t="s">
         <v>94</v>
       </c>
       <c r="G282" s="8"/>
@@ -14521,10 +14521,10 @@
         <f t="shared" si="1"/>
         <v>281</v>
       </c>
-      <c r="B283" s="33" t="s">
+      <c r="B283" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C283" s="34">
+      <c r="C283" s="26">
         <v>43944.0</v>
       </c>
       <c r="D283" s="27">
@@ -14533,14 +14533,16 @@
       <c r="E283" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F283" s="35" t="s">
+      <c r="F283" s="33" t="s">
         <v>15</v>
       </c>
       <c r="G283" s="8"/>
-      <c r="H283" s="12"/>
+      <c r="H283" s="29"/>
       <c r="I283" s="12"/>
       <c r="J283" s="13"/>
-      <c r="K283" s="7"/>
+      <c r="K283" s="35" t="s">
+        <v>362</v>
+      </c>
       <c r="L283" s="7"/>
       <c r="M283" s="7"/>
       <c r="N283" s="7"/>
@@ -14562,10 +14564,10 @@
         <f t="shared" si="1"/>
         <v>282</v>
       </c>
-      <c r="B284" s="33" t="s">
+      <c r="B284" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C284" s="34">
+      <c r="C284" s="26">
         <v>43944.0</v>
       </c>
       <c r="D284" s="27">
@@ -14574,14 +14576,16 @@
       <c r="E284" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="F284" s="35" t="s">
+      <c r="F284" s="33" t="s">
         <v>15</v>
       </c>
       <c r="G284" s="8"/>
-      <c r="H284" s="12"/>
+      <c r="H284" s="29"/>
       <c r="I284" s="12"/>
       <c r="J284" s="13"/>
-      <c r="K284" s="7"/>
+      <c r="K284" s="35" t="s">
+        <v>362</v>
+      </c>
       <c r="L284" s="7"/>
       <c r="M284" s="7"/>
       <c r="N284" s="7"/>
@@ -14604,7 +14608,7 @@
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
       <c r="E285" s="7"/>
-      <c r="F285" s="37"/>
+      <c r="F285" s="36"/>
       <c r="G285" s="8"/>
       <c r="H285" s="12"/>
       <c r="I285" s="12"/>
@@ -34779,10 +34783,12 @@
     <hyperlink r:id="rId100" ref="K280"/>
     <hyperlink r:id="rId101" ref="K281"/>
     <hyperlink r:id="rId102" ref="K282"/>
+    <hyperlink r:id="rId103" ref="K283"/>
+    <hyperlink r:id="rId104" ref="K284"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId103"/>
+  <drawing r:id="rId105"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="363">
-  <si>
-    <t>2020-04-23T20:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="366">
+  <si>
+    <t>2020-04-24T23:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1255,6 +1255,15 @@
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268931/200423oshirase(185-186).pdf</t>
   </si>
+  <si>
+    <t>2020-04-24T22:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200424-283-284.pdf</t>
+  </si>
+  <si>
+    <t>滋賀県内</t>
+  </si>
 </sst>
 </file>
 
@@ -1264,7 +1273,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1272,11 +1281,15 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <name val="游ゴシック regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック regular"/>
     </font>
     <font>
-      <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック regular"/>
@@ -1361,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1383,95 +1396,98 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1694,7 +1710,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.33"/>
     <col customWidth="1" min="2" max="2" width="20.67"/>
-    <col customWidth="1" min="3" max="7" width="8.33"/>
+    <col customWidth="1" min="3" max="3" width="9.0"/>
+    <col customWidth="1" min="4" max="4" width="11.22"/>
+    <col customWidth="1" min="5" max="7" width="8.33"/>
     <col customWidth="1" min="8" max="8" width="10.33"/>
     <col customWidth="1" min="9" max="9" width="9.78"/>
     <col customWidth="1" min="10" max="10" width="8.67"/>
@@ -8030,7 +8048,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A284" si="1">A136+1</f>
+        <f t="shared" ref="A137:A288" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -11827,7 +11845,9 @@
       <c r="G221" s="8"/>
       <c r="H221" s="12"/>
       <c r="I221" s="12"/>
-      <c r="J221" s="13"/>
+      <c r="J221" s="18">
+        <v>43945.0</v>
+      </c>
       <c r="K221" s="7" t="s">
         <v>323</v>
       </c>
@@ -14603,17 +14623,32 @@
       <c r="Z284" s="7"/>
     </row>
     <row r="285" ht="18.0" customHeight="1">
-      <c r="A285" s="8"/>
-      <c r="B285" s="7"/>
-      <c r="C285" s="8"/>
-      <c r="D285" s="8"/>
-      <c r="E285" s="7"/>
-      <c r="F285" s="36"/>
+      <c r="A285" s="8">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="B285" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C285" s="37">
+        <v>43944.0</v>
+      </c>
+      <c r="D285" s="27">
+        <v>43944.0</v>
+      </c>
+      <c r="E285" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F285" s="34" t="s">
+        <v>359</v>
+      </c>
       <c r="G285" s="8"/>
       <c r="H285" s="12"/>
       <c r="I285" s="12"/>
       <c r="J285" s="13"/>
-      <c r="K285" s="7"/>
+      <c r="K285" s="25" t="s">
+        <v>364</v>
+      </c>
       <c r="L285" s="7"/>
       <c r="M285" s="7"/>
       <c r="N285" s="7"/>
@@ -14631,17 +14666,34 @@
       <c r="Z285" s="7"/>
     </row>
     <row r="286" ht="18.0" customHeight="1">
-      <c r="A286" s="8"/>
-      <c r="B286" s="7"/>
-      <c r="C286" s="8"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="7"/>
-      <c r="F286" s="12"/>
+      <c r="A286" s="8">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="B286" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C286" s="37">
+        <v>43945.0</v>
+      </c>
+      <c r="D286" s="27">
+        <v>43945.0</v>
+      </c>
+      <c r="E286" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F286" s="29" t="s">
+        <v>359</v>
+      </c>
       <c r="G286" s="8"/>
-      <c r="H286" s="12"/>
+      <c r="H286" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I286" s="12"/>
       <c r="J286" s="13"/>
-      <c r="K286" s="7"/>
+      <c r="K286" s="25" t="s">
+        <v>364</v>
+      </c>
       <c r="L286" s="7"/>
       <c r="M286" s="7"/>
       <c r="N286" s="7"/>
@@ -14659,12 +14711,25 @@
       <c r="Z286" s="7"/>
     </row>
     <row r="287" ht="18.0" customHeight="1">
-      <c r="A287" s="8"/>
-      <c r="B287" s="7"/>
-      <c r="C287" s="8"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="7"/>
-      <c r="F287" s="12"/>
+      <c r="A287" s="8">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+      <c r="B287" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C287" s="37">
+        <v>43945.0</v>
+      </c>
+      <c r="D287" s="27">
+        <v>43945.0</v>
+      </c>
+      <c r="E287" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F287" s="29" t="s">
+        <v>365</v>
+      </c>
       <c r="G287" s="8"/>
       <c r="H287" s="12"/>
       <c r="I287" s="12"/>
@@ -14687,12 +14752,25 @@
       <c r="Z287" s="7"/>
     </row>
     <row r="288" ht="18.0" customHeight="1">
-      <c r="A288" s="8"/>
-      <c r="B288" s="7"/>
-      <c r="C288" s="8"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="7"/>
-      <c r="F288" s="12"/>
+      <c r="A288" s="8">
+        <f t="shared" si="1"/>
+        <v>286</v>
+      </c>
+      <c r="B288" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C288" s="37">
+        <v>43945.0</v>
+      </c>
+      <c r="D288" s="27">
+        <v>43945.0</v>
+      </c>
+      <c r="E288" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F288" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G288" s="8"/>
       <c r="H288" s="12"/>
       <c r="I288" s="12"/>
@@ -34785,10 +34863,12 @@
     <hyperlink r:id="rId102" ref="K282"/>
     <hyperlink r:id="rId103" ref="K283"/>
     <hyperlink r:id="rId104" ref="K284"/>
+    <hyperlink r:id="rId105" ref="K285"/>
+    <hyperlink r:id="rId106" ref="K286"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId105"/>
+  <drawing r:id="rId107"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="366">
-  <si>
-    <t>2020-04-24T23:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="373">
+  <si>
+    <t>2020-04-27T18:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1256,13 +1256,34 @@
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268931/200423oshirase(185-186).pdf</t>
   </si>
   <si>
-    <t>2020-04-24T22:00:00.000Z</t>
+    <t>2020-04-24T08:00:00.000Z</t>
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200424-283-284.pdf</t>
   </si>
   <si>
     <t>滋賀県内</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269083/200424oshirase(187-188).pdf</t>
+  </si>
+  <si>
+    <t>京都市162例目患者の接触者</t>
+  </si>
+  <si>
+    <t>2020-04-25T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269087/200425oshirase(189-192).pdf</t>
+  </si>
+  <si>
+    <t>2020-04-26T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>京都市187例目罹患者の接触者</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269091/200426oshirase(193-196).pdf</t>
   </si>
 </sst>
 </file>
@@ -8048,7 +8069,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A288" si="1">A136+1</f>
+        <f t="shared" ref="A137:A296" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -14630,7 +14651,7 @@
       <c r="B285" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="C285" s="37">
+      <c r="C285" s="26">
         <v>43944.0</v>
       </c>
       <c r="D285" s="27">
@@ -14673,7 +14694,7 @@
       <c r="B286" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="C286" s="37">
+      <c r="C286" s="26">
         <v>43945.0</v>
       </c>
       <c r="D286" s="27">
@@ -14718,7 +14739,7 @@
       <c r="B287" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="C287" s="37">
+      <c r="C287" s="26">
         <v>43945.0</v>
       </c>
       <c r="D287" s="27">
@@ -14734,7 +14755,9 @@
       <c r="H287" s="12"/>
       <c r="I287" s="12"/>
       <c r="J287" s="13"/>
-      <c r="K287" s="7"/>
+      <c r="K287" s="25" t="s">
+        <v>366</v>
+      </c>
       <c r="L287" s="7"/>
       <c r="M287" s="7"/>
       <c r="N287" s="7"/>
@@ -14759,7 +14782,7 @@
       <c r="B288" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="C288" s="37">
+      <c r="C288" s="26">
         <v>43945.0</v>
       </c>
       <c r="D288" s="27">
@@ -14772,10 +14795,14 @@
         <v>15</v>
       </c>
       <c r="G288" s="8"/>
-      <c r="H288" s="12"/>
+      <c r="H288" s="29" t="s">
+        <v>367</v>
+      </c>
       <c r="I288" s="12"/>
       <c r="J288" s="13"/>
-      <c r="K288" s="7"/>
+      <c r="K288" s="25" t="s">
+        <v>366</v>
+      </c>
       <c r="L288" s="7"/>
       <c r="M288" s="7"/>
       <c r="N288" s="7"/>
@@ -14793,17 +14820,34 @@
       <c r="Z288" s="7"/>
     </row>
     <row r="289" ht="18.0" customHeight="1">
-      <c r="A289" s="8"/>
-      <c r="B289" s="7"/>
-      <c r="C289" s="8"/>
-      <c r="D289" s="8"/>
-      <c r="E289" s="7"/>
-      <c r="F289" s="12"/>
+      <c r="A289" s="8">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+      <c r="B289" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C289" s="37">
+        <v>43946.0</v>
+      </c>
+      <c r="D289" s="27">
+        <v>43946.0</v>
+      </c>
+      <c r="E289" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F289" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G289" s="8"/>
-      <c r="H289" s="12"/>
+      <c r="H289" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I289" s="12"/>
       <c r="J289" s="13"/>
-      <c r="K289" s="7"/>
+      <c r="K289" s="25" t="s">
+        <v>369</v>
+      </c>
       <c r="L289" s="7"/>
       <c r="M289" s="7"/>
       <c r="N289" s="7"/>
@@ -14821,17 +14865,34 @@
       <c r="Z289" s="7"/>
     </row>
     <row r="290" ht="18.0" customHeight="1">
-      <c r="A290" s="8"/>
-      <c r="B290" s="7"/>
-      <c r="C290" s="8"/>
-      <c r="D290" s="8"/>
-      <c r="E290" s="7"/>
-      <c r="F290" s="12"/>
+      <c r="A290" s="8">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="B290" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C290" s="37">
+        <v>43946.0</v>
+      </c>
+      <c r="D290" s="27">
+        <v>43946.0</v>
+      </c>
+      <c r="E290" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F290" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G290" s="8"/>
-      <c r="H290" s="12"/>
+      <c r="H290" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I290" s="12"/>
       <c r="J290" s="13"/>
-      <c r="K290" s="7"/>
+      <c r="K290" s="25" t="s">
+        <v>369</v>
+      </c>
       <c r="L290" s="7"/>
       <c r="M290" s="7"/>
       <c r="N290" s="7"/>
@@ -14849,17 +14910,34 @@
       <c r="Z290" s="7"/>
     </row>
     <row r="291" ht="18.0" customHeight="1">
-      <c r="A291" s="8"/>
-      <c r="B291" s="7"/>
-      <c r="C291" s="8"/>
-      <c r="D291" s="8"/>
-      <c r="E291" s="7"/>
-      <c r="F291" s="12"/>
+      <c r="A291" s="8">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="B291" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C291" s="37">
+        <v>43946.0</v>
+      </c>
+      <c r="D291" s="27">
+        <v>43946.0</v>
+      </c>
+      <c r="E291" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F291" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G291" s="8"/>
-      <c r="H291" s="12"/>
+      <c r="H291" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I291" s="12"/>
       <c r="J291" s="13"/>
-      <c r="K291" s="7"/>
+      <c r="K291" s="25" t="s">
+        <v>369</v>
+      </c>
       <c r="L291" s="7"/>
       <c r="M291" s="7"/>
       <c r="N291" s="7"/>
@@ -14877,17 +14955,32 @@
       <c r="Z291" s="7"/>
     </row>
     <row r="292" ht="18.0" customHeight="1">
-      <c r="A292" s="8"/>
-      <c r="B292" s="7"/>
-      <c r="C292" s="8"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="7"/>
-      <c r="F292" s="12"/>
+      <c r="A292" s="8">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="B292" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C292" s="37">
+        <v>43946.0</v>
+      </c>
+      <c r="D292" s="27">
+        <v>43946.0</v>
+      </c>
+      <c r="E292" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F292" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G292" s="8"/>
-      <c r="H292" s="12"/>
+      <c r="H292" s="29"/>
       <c r="I292" s="12"/>
       <c r="J292" s="13"/>
-      <c r="K292" s="7"/>
+      <c r="K292" s="25" t="s">
+        <v>369</v>
+      </c>
       <c r="L292" s="7"/>
       <c r="M292" s="7"/>
       <c r="N292" s="7"/>
@@ -14905,17 +14998,34 @@
       <c r="Z292" s="7"/>
     </row>
     <row r="293" ht="18.0" customHeight="1">
-      <c r="A293" s="8"/>
-      <c r="B293" s="7"/>
-      <c r="C293" s="8"/>
-      <c r="D293" s="8"/>
-      <c r="E293" s="7"/>
-      <c r="F293" s="12"/>
+      <c r="A293" s="8">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="B293" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C293" s="37">
+        <v>43947.0</v>
+      </c>
+      <c r="D293" s="27">
+        <v>43947.0</v>
+      </c>
+      <c r="E293" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F293" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G293" s="8"/>
-      <c r="H293" s="12"/>
+      <c r="H293" s="29" t="s">
+        <v>371</v>
+      </c>
       <c r="I293" s="12"/>
       <c r="J293" s="13"/>
-      <c r="K293" s="7"/>
+      <c r="K293" s="25" t="s">
+        <v>372</v>
+      </c>
       <c r="L293" s="7"/>
       <c r="M293" s="7"/>
       <c r="N293" s="7"/>
@@ -14933,17 +15043,34 @@
       <c r="Z293" s="7"/>
     </row>
     <row r="294" ht="18.0" customHeight="1">
-      <c r="A294" s="8"/>
-      <c r="B294" s="7"/>
-      <c r="C294" s="8"/>
-      <c r="D294" s="8"/>
-      <c r="E294" s="7"/>
-      <c r="F294" s="12"/>
+      <c r="A294" s="8">
+        <f t="shared" si="1"/>
+        <v>292</v>
+      </c>
+      <c r="B294" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C294" s="37">
+        <v>43947.0</v>
+      </c>
+      <c r="D294" s="27">
+        <v>43947.0</v>
+      </c>
+      <c r="E294" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F294" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G294" s="8"/>
-      <c r="H294" s="12"/>
+      <c r="H294" s="29" t="s">
+        <v>371</v>
+      </c>
       <c r="I294" s="12"/>
       <c r="J294" s="13"/>
-      <c r="K294" s="7"/>
+      <c r="K294" s="25" t="s">
+        <v>372</v>
+      </c>
       <c r="L294" s="7"/>
       <c r="M294" s="7"/>
       <c r="N294" s="7"/>
@@ -14961,17 +15088,32 @@
       <c r="Z294" s="7"/>
     </row>
     <row r="295" ht="18.0" customHeight="1">
-      <c r="A295" s="8"/>
-      <c r="B295" s="7"/>
-      <c r="C295" s="8"/>
-      <c r="D295" s="8"/>
-      <c r="E295" s="7"/>
-      <c r="F295" s="12"/>
+      <c r="A295" s="8">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="B295" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C295" s="37">
+        <v>43947.0</v>
+      </c>
+      <c r="D295" s="27">
+        <v>43947.0</v>
+      </c>
+      <c r="E295" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F295" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G295" s="8"/>
       <c r="H295" s="12"/>
       <c r="I295" s="12"/>
       <c r="J295" s="13"/>
-      <c r="K295" s="7"/>
+      <c r="K295" s="25" t="s">
+        <v>372</v>
+      </c>
       <c r="L295" s="7"/>
       <c r="M295" s="7"/>
       <c r="N295" s="7"/>
@@ -14989,17 +15131,34 @@
       <c r="Z295" s="7"/>
     </row>
     <row r="296" ht="18.0" customHeight="1">
-      <c r="A296" s="8"/>
-      <c r="B296" s="7"/>
-      <c r="C296" s="8"/>
-      <c r="D296" s="8"/>
-      <c r="E296" s="7"/>
-      <c r="F296" s="12"/>
+      <c r="A296" s="8">
+        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
+      <c r="B296" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C296" s="37">
+        <v>43947.0</v>
+      </c>
+      <c r="D296" s="27">
+        <v>43947.0</v>
+      </c>
+      <c r="E296" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F296" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G296" s="8"/>
-      <c r="H296" s="12"/>
+      <c r="H296" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I296" s="12"/>
       <c r="J296" s="13"/>
-      <c r="K296" s="7"/>
+      <c r="K296" s="25" t="s">
+        <v>372</v>
+      </c>
       <c r="L296" s="7"/>
       <c r="M296" s="7"/>
       <c r="N296" s="7"/>
@@ -34865,10 +35024,20 @@
     <hyperlink r:id="rId104" ref="K284"/>
     <hyperlink r:id="rId105" ref="K285"/>
     <hyperlink r:id="rId106" ref="K286"/>
+    <hyperlink r:id="rId107" ref="K287"/>
+    <hyperlink r:id="rId108" ref="K288"/>
+    <hyperlink r:id="rId109" ref="K289"/>
+    <hyperlink r:id="rId110" ref="K290"/>
+    <hyperlink r:id="rId111" ref="K291"/>
+    <hyperlink r:id="rId112" ref="K292"/>
+    <hyperlink r:id="rId113" ref="K293"/>
+    <hyperlink r:id="rId114" ref="K294"/>
+    <hyperlink r:id="rId115" ref="K295"/>
+    <hyperlink r:id="rId116" ref="K296"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId107"/>
+  <drawing r:id="rId117"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="373">
-  <si>
-    <t>2020-04-27T18:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="377">
+  <si>
+    <t>2020-04-27T21:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1285,14 +1285,27 @@
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269091/200426oshirase(193-196).pdf</t>
   </si>
+  <si>
+    <t>2020-04-27T20:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200427-295-297.pdf</t>
+  </si>
+  <si>
+    <t>府内285例目と接触あり</t>
+  </si>
+  <si>
+    <t>府内296例目と接触あり</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1507,7 +1520,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1734,7 +1747,7 @@
     <col customWidth="1" min="3" max="3" width="9.0"/>
     <col customWidth="1" min="4" max="4" width="11.22"/>
     <col customWidth="1" min="5" max="7" width="8.33"/>
-    <col customWidth="1" min="8" max="8" width="10.33"/>
+    <col customWidth="1" min="8" max="8" width="15.22"/>
     <col customWidth="1" min="9" max="9" width="9.78"/>
     <col customWidth="1" min="10" max="10" width="8.67"/>
     <col customWidth="1" min="11" max="11" width="12.67"/>
@@ -1751,7 +1764,6 @@
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
@@ -8069,7 +8081,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A296" si="1">A136+1</f>
+        <f t="shared" ref="A137:A299" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -8685,7 +8697,9 @@
       <c r="G150" s="8"/>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
-      <c r="J150" s="13"/>
+      <c r="J150" s="18">
+        <v>43948.0</v>
+      </c>
       <c r="K150" s="7" t="s">
         <v>260</v>
       </c>
@@ -14648,7 +14662,7 @@
         <f t="shared" si="1"/>
         <v>283</v>
       </c>
-      <c r="B285" s="36" t="s">
+      <c r="B285" s="23" t="s">
         <v>363</v>
       </c>
       <c r="C285" s="26">
@@ -14691,7 +14705,7 @@
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
-      <c r="B286" s="36" t="s">
+      <c r="B286" s="23" t="s">
         <v>363</v>
       </c>
       <c r="C286" s="26">
@@ -14736,7 +14750,7 @@
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="B287" s="36" t="s">
+      <c r="B287" s="23" t="s">
         <v>363</v>
       </c>
       <c r="C287" s="26">
@@ -14779,7 +14793,7 @@
         <f t="shared" si="1"/>
         <v>286</v>
       </c>
-      <c r="B288" s="36" t="s">
+      <c r="B288" s="23" t="s">
         <v>363</v>
       </c>
       <c r="C288" s="26">
@@ -14824,10 +14838,10 @@
         <f t="shared" si="1"/>
         <v>287</v>
       </c>
-      <c r="B289" s="36" t="s">
+      <c r="B289" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C289" s="37">
+      <c r="C289" s="26">
         <v>43946.0</v>
       </c>
       <c r="D289" s="27">
@@ -14869,10 +14883,10 @@
         <f t="shared" si="1"/>
         <v>288</v>
       </c>
-      <c r="B290" s="36" t="s">
+      <c r="B290" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C290" s="37">
+      <c r="C290" s="26">
         <v>43946.0</v>
       </c>
       <c r="D290" s="27">
@@ -14914,10 +14928,10 @@
         <f t="shared" si="1"/>
         <v>289</v>
       </c>
-      <c r="B291" s="36" t="s">
+      <c r="B291" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C291" s="37">
+      <c r="C291" s="26">
         <v>43946.0</v>
       </c>
       <c r="D291" s="27">
@@ -14959,10 +14973,10 @@
         <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="B292" s="36" t="s">
+      <c r="B292" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C292" s="37">
+      <c r="C292" s="26">
         <v>43946.0</v>
       </c>
       <c r="D292" s="27">
@@ -15002,10 +15016,10 @@
         <f t="shared" si="1"/>
         <v>291</v>
       </c>
-      <c r="B293" s="36" t="s">
+      <c r="B293" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C293" s="37">
+      <c r="C293" s="26">
         <v>43947.0</v>
       </c>
       <c r="D293" s="27">
@@ -15047,10 +15061,10 @@
         <f t="shared" si="1"/>
         <v>292</v>
       </c>
-      <c r="B294" s="36" t="s">
+      <c r="B294" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C294" s="37">
+      <c r="C294" s="26">
         <v>43947.0</v>
       </c>
       <c r="D294" s="27">
@@ -15092,10 +15106,10 @@
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="B295" s="36" t="s">
+      <c r="B295" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C295" s="37">
+      <c r="C295" s="26">
         <v>43947.0</v>
       </c>
       <c r="D295" s="27">
@@ -15135,10 +15149,10 @@
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-      <c r="B296" s="36" t="s">
+      <c r="B296" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C296" s="37">
+      <c r="C296" s="26">
         <v>43947.0</v>
       </c>
       <c r="D296" s="27">
@@ -15176,17 +15190,32 @@
       <c r="Z296" s="7"/>
     </row>
     <row r="297" ht="18.0" customHeight="1">
-      <c r="A297" s="8"/>
-      <c r="B297" s="7"/>
-      <c r="C297" s="8"/>
-      <c r="D297" s="8"/>
-      <c r="E297" s="7"/>
-      <c r="F297" s="12"/>
+      <c r="A297" s="8">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="B297" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C297" s="37">
+        <v>43948.0</v>
+      </c>
+      <c r="D297" s="27">
+        <v>43948.0</v>
+      </c>
+      <c r="E297" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F297" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="G297" s="8"/>
       <c r="H297" s="12"/>
       <c r="I297" s="12"/>
       <c r="J297" s="13"/>
-      <c r="K297" s="7"/>
+      <c r="K297" s="35" t="s">
+        <v>374</v>
+      </c>
       <c r="L297" s="7"/>
       <c r="M297" s="7"/>
       <c r="N297" s="7"/>
@@ -15204,17 +15233,36 @@
       <c r="Z297" s="7"/>
     </row>
     <row r="298" ht="18.0" customHeight="1">
-      <c r="A298" s="8"/>
-      <c r="B298" s="7"/>
-      <c r="C298" s="8"/>
-      <c r="D298" s="8"/>
-      <c r="E298" s="7"/>
-      <c r="F298" s="12"/>
-      <c r="G298" s="8"/>
-      <c r="H298" s="12"/>
+      <c r="A298" s="8">
+        <f t="shared" si="1"/>
+        <v>296</v>
+      </c>
+      <c r="B298" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C298" s="37">
+        <v>43948.0</v>
+      </c>
+      <c r="D298" s="27">
+        <v>43948.0</v>
+      </c>
+      <c r="E298" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F298" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G298" s="31">
+        <v>285.0</v>
+      </c>
+      <c r="H298" s="29" t="s">
+        <v>375</v>
+      </c>
       <c r="I298" s="12"/>
       <c r="J298" s="13"/>
-      <c r="K298" s="7"/>
+      <c r="K298" s="35" t="s">
+        <v>374</v>
+      </c>
       <c r="L298" s="7"/>
       <c r="M298" s="7"/>
       <c r="N298" s="7"/>
@@ -15232,17 +15280,36 @@
       <c r="Z298" s="7"/>
     </row>
     <row r="299" ht="18.0" customHeight="1">
-      <c r="A299" s="8"/>
-      <c r="B299" s="7"/>
-      <c r="C299" s="8"/>
-      <c r="D299" s="8"/>
-      <c r="E299" s="7"/>
-      <c r="F299" s="12"/>
-      <c r="G299" s="8"/>
-      <c r="H299" s="12"/>
+      <c r="A299" s="8">
+        <f t="shared" si="1"/>
+        <v>297</v>
+      </c>
+      <c r="B299" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C299" s="37">
+        <v>43948.0</v>
+      </c>
+      <c r="D299" s="27">
+        <v>43948.0</v>
+      </c>
+      <c r="E299" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F299" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G299" s="31">
+        <v>296.0</v>
+      </c>
+      <c r="H299" s="29" t="s">
+        <v>376</v>
+      </c>
       <c r="I299" s="12"/>
       <c r="J299" s="13"/>
-      <c r="K299" s="7"/>
+      <c r="K299" s="35" t="s">
+        <v>374</v>
+      </c>
       <c r="L299" s="7"/>
       <c r="M299" s="7"/>
       <c r="N299" s="7"/>
@@ -35034,10 +35101,13 @@
     <hyperlink r:id="rId114" ref="K294"/>
     <hyperlink r:id="rId115" ref="K295"/>
     <hyperlink r:id="rId116" ref="K296"/>
+    <hyperlink r:id="rId117" ref="K297"/>
+    <hyperlink r:id="rId118" ref="K298"/>
+    <hyperlink r:id="rId119" ref="K299"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId117"/>
+  <drawing r:id="rId120"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="377">
-  <si>
-    <t>2020-04-27T21:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="385">
+  <si>
+    <t>2020-04-28T21:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1286,7 +1286,7 @@
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269091/200426oshirase(193-196).pdf</t>
   </si>
   <si>
-    <t>2020-04-27T20:00:00.000Z</t>
+    <t>2020-04-27T08:00:00.000Z</t>
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200427-295-297.pdf</t>
@@ -1296,6 +1296,30 @@
   </si>
   <si>
     <t>府内296例目と接触あり</t>
+  </si>
+  <si>
+    <t>京都市罹患者との接触</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269129/200427oshirase(197-208).pdf</t>
+  </si>
+  <si>
+    <t>京都市187例目の接触者</t>
+  </si>
+  <si>
+    <t>京都市193例目の接触者</t>
+  </si>
+  <si>
+    <t>京都市195例目の接触者</t>
+  </si>
+  <si>
+    <t>2020-04-28T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>10代未満</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200428-310-311.pdf</t>
   </si>
 </sst>
 </file>
@@ -4749,7 +4773,9 @@
         <v>176</v>
       </c>
       <c r="I63" s="12"/>
-      <c r="J63" s="13"/>
+      <c r="J63" s="18">
+        <v>43949.0</v>
+      </c>
       <c r="K63" s="7" t="s">
         <v>185</v>
       </c>
@@ -7347,7 +7373,9 @@
       </c>
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
-      <c r="J120" s="13"/>
+      <c r="J120" s="18">
+        <v>43949.0</v>
+      </c>
       <c r="K120" s="7" t="s">
         <v>236</v>
       </c>
@@ -8081,7 +8109,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A299" si="1">A136+1</f>
+        <f t="shared" ref="A137:A313" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -10902,7 +10930,9 @@
       <c r="G199" s="8"/>
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
-      <c r="J199" s="13"/>
+      <c r="J199" s="18">
+        <v>43949.0</v>
+      </c>
       <c r="K199" s="7" t="s">
         <v>306</v>
       </c>
@@ -10945,7 +10975,9 @@
       <c r="G200" s="8"/>
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
-      <c r="J200" s="13"/>
+      <c r="J200" s="18">
+        <v>43949.0</v>
+      </c>
       <c r="K200" s="7" t="s">
         <v>306</v>
       </c>
@@ -15327,17 +15359,34 @@
       <c r="Z299" s="7"/>
     </row>
     <row r="300" ht="18.0" customHeight="1">
-      <c r="A300" s="8"/>
-      <c r="B300" s="7"/>
-      <c r="C300" s="8"/>
-      <c r="D300" s="8"/>
-      <c r="E300" s="7"/>
-      <c r="F300" s="12"/>
+      <c r="A300" s="8">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="B300" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C300" s="37">
+        <v>43948.0</v>
+      </c>
+      <c r="D300" s="27">
+        <v>43948.0</v>
+      </c>
+      <c r="E300" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="F300" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G300" s="8"/>
-      <c r="H300" s="12"/>
+      <c r="H300" s="29" t="s">
+        <v>377</v>
+      </c>
       <c r="I300" s="12"/>
       <c r="J300" s="13"/>
-      <c r="K300" s="7"/>
+      <c r="K300" s="25" t="s">
+        <v>378</v>
+      </c>
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
       <c r="N300" s="7"/>
@@ -15355,17 +15404,34 @@
       <c r="Z300" s="7"/>
     </row>
     <row r="301" ht="18.0" customHeight="1">
-      <c r="A301" s="8"/>
-      <c r="B301" s="7"/>
-      <c r="C301" s="8"/>
-      <c r="D301" s="8"/>
-      <c r="E301" s="7"/>
-      <c r="F301" s="12"/>
+      <c r="A301" s="8">
+        <f t="shared" si="1"/>
+        <v>299</v>
+      </c>
+      <c r="B301" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C301" s="37">
+        <v>43948.0</v>
+      </c>
+      <c r="D301" s="27">
+        <v>43948.0</v>
+      </c>
+      <c r="E301" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F301" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G301" s="8"/>
-      <c r="H301" s="12"/>
+      <c r="H301" s="29" t="s">
+        <v>377</v>
+      </c>
       <c r="I301" s="12"/>
       <c r="J301" s="13"/>
-      <c r="K301" s="7"/>
+      <c r="K301" s="25" t="s">
+        <v>378</v>
+      </c>
       <c r="L301" s="7"/>
       <c r="M301" s="7"/>
       <c r="N301" s="7"/>
@@ -15383,17 +15449,34 @@
       <c r="Z301" s="7"/>
     </row>
     <row r="302" ht="18.0" customHeight="1">
-      <c r="A302" s="8"/>
-      <c r="B302" s="7"/>
-      <c r="C302" s="8"/>
-      <c r="D302" s="8"/>
-      <c r="E302" s="7"/>
-      <c r="F302" s="12"/>
+      <c r="A302" s="8">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="B302" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C302" s="37">
+        <v>43948.0</v>
+      </c>
+      <c r="D302" s="27">
+        <v>43948.0</v>
+      </c>
+      <c r="E302" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F302" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G302" s="8"/>
-      <c r="H302" s="12"/>
+      <c r="H302" s="29" t="s">
+        <v>379</v>
+      </c>
       <c r="I302" s="12"/>
       <c r="J302" s="13"/>
-      <c r="K302" s="7"/>
+      <c r="K302" s="25" t="s">
+        <v>378</v>
+      </c>
       <c r="L302" s="7"/>
       <c r="M302" s="7"/>
       <c r="N302" s="7"/>
@@ -15411,17 +15494,34 @@
       <c r="Z302" s="7"/>
     </row>
     <row r="303" ht="18.0" customHeight="1">
-      <c r="A303" s="8"/>
-      <c r="B303" s="7"/>
-      <c r="C303" s="8"/>
-      <c r="D303" s="8"/>
-      <c r="E303" s="7"/>
-      <c r="F303" s="12"/>
+      <c r="A303" s="8">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="B303" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C303" s="37">
+        <v>43948.0</v>
+      </c>
+      <c r="D303" s="27">
+        <v>43948.0</v>
+      </c>
+      <c r="E303" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F303" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G303" s="8"/>
-      <c r="H303" s="12"/>
+      <c r="H303" s="29" t="s">
+        <v>379</v>
+      </c>
       <c r="I303" s="12"/>
       <c r="J303" s="13"/>
-      <c r="K303" s="7"/>
+      <c r="K303" s="25" t="s">
+        <v>378</v>
+      </c>
       <c r="L303" s="7"/>
       <c r="M303" s="7"/>
       <c r="N303" s="7"/>
@@ -15439,17 +15539,34 @@
       <c r="Z303" s="7"/>
     </row>
     <row r="304" ht="18.0" customHeight="1">
-      <c r="A304" s="8"/>
-      <c r="B304" s="7"/>
-      <c r="C304" s="8"/>
-      <c r="D304" s="8"/>
-      <c r="E304" s="7"/>
-      <c r="F304" s="12"/>
+      <c r="A304" s="8">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="B304" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C304" s="37">
+        <v>43948.0</v>
+      </c>
+      <c r="D304" s="27">
+        <v>43948.0</v>
+      </c>
+      <c r="E304" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F304" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G304" s="8"/>
-      <c r="H304" s="12"/>
+      <c r="H304" s="29" t="s">
+        <v>379</v>
+      </c>
       <c r="I304" s="12"/>
       <c r="J304" s="13"/>
-      <c r="K304" s="7"/>
+      <c r="K304" s="25" t="s">
+        <v>378</v>
+      </c>
       <c r="L304" s="7"/>
       <c r="M304" s="7"/>
       <c r="N304" s="7"/>
@@ -15467,17 +15584,34 @@
       <c r="Z304" s="7"/>
     </row>
     <row r="305" ht="18.0" customHeight="1">
-      <c r="A305" s="8"/>
-      <c r="B305" s="7"/>
-      <c r="C305" s="8"/>
-      <c r="D305" s="8"/>
-      <c r="E305" s="7"/>
-      <c r="F305" s="12"/>
+      <c r="A305" s="8">
+        <f t="shared" si="1"/>
+        <v>303</v>
+      </c>
+      <c r="B305" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C305" s="37">
+        <v>43948.0</v>
+      </c>
+      <c r="D305" s="27">
+        <v>43948.0</v>
+      </c>
+      <c r="E305" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F305" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G305" s="8"/>
-      <c r="H305" s="12"/>
+      <c r="H305" s="29" t="s">
+        <v>377</v>
+      </c>
       <c r="I305" s="12"/>
       <c r="J305" s="13"/>
-      <c r="K305" s="7"/>
+      <c r="K305" s="25" t="s">
+        <v>378</v>
+      </c>
       <c r="L305" s="7"/>
       <c r="M305" s="7"/>
       <c r="N305" s="7"/>
@@ -15495,17 +15629,34 @@
       <c r="Z305" s="7"/>
     </row>
     <row r="306" ht="18.0" customHeight="1">
-      <c r="A306" s="8"/>
-      <c r="B306" s="7"/>
-      <c r="C306" s="8"/>
-      <c r="D306" s="8"/>
-      <c r="E306" s="7"/>
-      <c r="F306" s="12"/>
+      <c r="A306" s="8">
+        <f t="shared" si="1"/>
+        <v>304</v>
+      </c>
+      <c r="B306" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C306" s="37">
+        <v>43948.0</v>
+      </c>
+      <c r="D306" s="27">
+        <v>43948.0</v>
+      </c>
+      <c r="E306" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F306" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G306" s="8"/>
-      <c r="H306" s="12"/>
+      <c r="H306" s="29" t="s">
+        <v>380</v>
+      </c>
       <c r="I306" s="12"/>
       <c r="J306" s="13"/>
-      <c r="K306" s="7"/>
+      <c r="K306" s="25" t="s">
+        <v>378</v>
+      </c>
       <c r="L306" s="7"/>
       <c r="M306" s="7"/>
       <c r="N306" s="7"/>
@@ -15523,17 +15674,34 @@
       <c r="Z306" s="7"/>
     </row>
     <row r="307" ht="18.0" customHeight="1">
-      <c r="A307" s="8"/>
-      <c r="B307" s="7"/>
-      <c r="C307" s="8"/>
-      <c r="D307" s="8"/>
-      <c r="E307" s="7"/>
-      <c r="F307" s="12"/>
+      <c r="A307" s="8">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+      <c r="B307" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C307" s="37">
+        <v>43948.0</v>
+      </c>
+      <c r="D307" s="27">
+        <v>43948.0</v>
+      </c>
+      <c r="E307" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F307" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G307" s="8"/>
-      <c r="H307" s="12"/>
+      <c r="H307" s="29" t="s">
+        <v>380</v>
+      </c>
       <c r="I307" s="12"/>
       <c r="J307" s="13"/>
-      <c r="K307" s="7"/>
+      <c r="K307" s="25" t="s">
+        <v>378</v>
+      </c>
       <c r="L307" s="7"/>
       <c r="M307" s="7"/>
       <c r="N307" s="7"/>
@@ -15551,17 +15719,34 @@
       <c r="Z307" s="7"/>
     </row>
     <row r="308" ht="18.0" customHeight="1">
-      <c r="A308" s="8"/>
-      <c r="B308" s="7"/>
-      <c r="C308" s="8"/>
-      <c r="D308" s="8"/>
-      <c r="E308" s="7"/>
-      <c r="F308" s="12"/>
+      <c r="A308" s="8">
+        <f t="shared" si="1"/>
+        <v>306</v>
+      </c>
+      <c r="B308" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C308" s="37">
+        <v>43948.0</v>
+      </c>
+      <c r="D308" s="27">
+        <v>43948.0</v>
+      </c>
+      <c r="E308" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F308" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G308" s="8"/>
-      <c r="H308" s="12"/>
+      <c r="H308" s="29" t="s">
+        <v>380</v>
+      </c>
       <c r="I308" s="12"/>
       <c r="J308" s="13"/>
-      <c r="K308" s="7"/>
+      <c r="K308" s="25" t="s">
+        <v>378</v>
+      </c>
       <c r="L308" s="7"/>
       <c r="M308" s="7"/>
       <c r="N308" s="7"/>
@@ -15579,17 +15764,34 @@
       <c r="Z308" s="7"/>
     </row>
     <row r="309" ht="18.0" customHeight="1">
-      <c r="A309" s="8"/>
-      <c r="B309" s="7"/>
-      <c r="C309" s="8"/>
-      <c r="D309" s="8"/>
-      <c r="E309" s="7"/>
-      <c r="F309" s="12"/>
+      <c r="A309" s="8">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+      <c r="B309" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C309" s="37">
+        <v>43948.0</v>
+      </c>
+      <c r="D309" s="27">
+        <v>43948.0</v>
+      </c>
+      <c r="E309" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F309" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G309" s="8"/>
-      <c r="H309" s="12"/>
+      <c r="H309" s="29" t="s">
+        <v>381</v>
+      </c>
       <c r="I309" s="12"/>
       <c r="J309" s="13"/>
-      <c r="K309" s="7"/>
+      <c r="K309" s="25" t="s">
+        <v>378</v>
+      </c>
       <c r="L309" s="7"/>
       <c r="M309" s="7"/>
       <c r="N309" s="7"/>
@@ -15607,17 +15809,32 @@
       <c r="Z309" s="7"/>
     </row>
     <row r="310" ht="18.0" customHeight="1">
-      <c r="A310" s="8"/>
-      <c r="B310" s="7"/>
-      <c r="C310" s="8"/>
-      <c r="D310" s="8"/>
-      <c r="E310" s="7"/>
-      <c r="F310" s="12"/>
+      <c r="A310" s="8">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+      <c r="B310" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C310" s="37">
+        <v>43948.0</v>
+      </c>
+      <c r="D310" s="27">
+        <v>43948.0</v>
+      </c>
+      <c r="E310" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F310" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G310" s="8"/>
       <c r="H310" s="12"/>
       <c r="I310" s="12"/>
       <c r="J310" s="13"/>
-      <c r="K310" s="7"/>
+      <c r="K310" s="25" t="s">
+        <v>378</v>
+      </c>
       <c r="L310" s="7"/>
       <c r="M310" s="7"/>
       <c r="N310" s="7"/>
@@ -15635,17 +15852,32 @@
       <c r="Z310" s="7"/>
     </row>
     <row r="311" ht="18.0" customHeight="1">
-      <c r="A311" s="8"/>
-      <c r="B311" s="7"/>
-      <c r="C311" s="8"/>
-      <c r="D311" s="8"/>
-      <c r="E311" s="7"/>
-      <c r="F311" s="12"/>
+      <c r="A311" s="8">
+        <f t="shared" si="1"/>
+        <v>309</v>
+      </c>
+      <c r="B311" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C311" s="37">
+        <v>43948.0</v>
+      </c>
+      <c r="D311" s="27">
+        <v>43948.0</v>
+      </c>
+      <c r="E311" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F311" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G311" s="8"/>
       <c r="H311" s="12"/>
       <c r="I311" s="12"/>
       <c r="J311" s="13"/>
-      <c r="K311" s="7"/>
+      <c r="K311" s="25" t="s">
+        <v>378</v>
+      </c>
       <c r="L311" s="7"/>
       <c r="M311" s="7"/>
       <c r="N311" s="7"/>
@@ -15663,17 +15895,36 @@
       <c r="Z311" s="7"/>
     </row>
     <row r="312" ht="18.0" customHeight="1">
-      <c r="A312" s="8"/>
-      <c r="B312" s="7"/>
-      <c r="C312" s="8"/>
-      <c r="D312" s="8"/>
-      <c r="E312" s="7"/>
-      <c r="F312" s="12"/>
-      <c r="G312" s="8"/>
-      <c r="H312" s="12"/>
+      <c r="A312" s="8">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="B312" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="C312" s="37">
+        <v>43949.0</v>
+      </c>
+      <c r="D312" s="27">
+        <v>43949.0</v>
+      </c>
+      <c r="E312" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="F312" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G312" s="31">
+        <v>296.0</v>
+      </c>
+      <c r="H312" s="29" t="s">
+        <v>376</v>
+      </c>
       <c r="I312" s="12"/>
       <c r="J312" s="13"/>
-      <c r="K312" s="7"/>
+      <c r="K312" s="25" t="s">
+        <v>384</v>
+      </c>
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
       <c r="N312" s="7"/>
@@ -15691,17 +15942,36 @@
       <c r="Z312" s="7"/>
     </row>
     <row r="313" ht="18.0" customHeight="1">
-      <c r="A313" s="8"/>
-      <c r="B313" s="7"/>
-      <c r="C313" s="8"/>
-      <c r="D313" s="8"/>
-      <c r="E313" s="7"/>
-      <c r="F313" s="12"/>
-      <c r="G313" s="8"/>
-      <c r="H313" s="12"/>
+      <c r="A313" s="8">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+      <c r="B313" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="C313" s="37">
+        <v>43949.0</v>
+      </c>
+      <c r="D313" s="27">
+        <v>43949.0</v>
+      </c>
+      <c r="E313" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F313" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G313" s="31">
+        <v>285.0</v>
+      </c>
+      <c r="H313" s="29" t="s">
+        <v>375</v>
+      </c>
       <c r="I313" s="12"/>
       <c r="J313" s="13"/>
-      <c r="K313" s="7"/>
+      <c r="K313" s="25" t="s">
+        <v>384</v>
+      </c>
       <c r="L313" s="7"/>
       <c r="M313" s="7"/>
       <c r="N313" s="7"/>
@@ -35104,10 +35374,24 @@
     <hyperlink r:id="rId117" ref="K297"/>
     <hyperlink r:id="rId118" ref="K298"/>
     <hyperlink r:id="rId119" ref="K299"/>
+    <hyperlink r:id="rId120" ref="K300"/>
+    <hyperlink r:id="rId121" ref="K301"/>
+    <hyperlink r:id="rId122" ref="K302"/>
+    <hyperlink r:id="rId123" ref="K303"/>
+    <hyperlink r:id="rId124" ref="K304"/>
+    <hyperlink r:id="rId125" ref="K305"/>
+    <hyperlink r:id="rId126" ref="K306"/>
+    <hyperlink r:id="rId127" ref="K307"/>
+    <hyperlink r:id="rId128" ref="K308"/>
+    <hyperlink r:id="rId129" ref="K309"/>
+    <hyperlink r:id="rId130" ref="K310"/>
+    <hyperlink r:id="rId131" ref="K311"/>
+    <hyperlink r:id="rId132" ref="K312"/>
+    <hyperlink r:id="rId133" ref="K313"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId120"/>
+  <drawing r:id="rId134"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="385">
-  <si>
-    <t>2020-04-28T21:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="395">
+  <si>
+    <t>2020-05-01T20:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1320,6 +1320,36 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200428-310-311.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269177/200428oshirase(209-210).pdf</t>
+  </si>
+  <si>
+    <t>2020-04-29T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>南丹管内</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200429-314.pdf</t>
+  </si>
+  <si>
+    <t>京都市150例目の接触者</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269214/200429oshirase(211-213).pdf</t>
+  </si>
+  <si>
+    <t>小学生男性</t>
+  </si>
+  <si>
+    <t>2020-04-30T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200430-318-320.pdf</t>
+  </si>
+  <si>
+    <t>京都府318例目と接触あり</t>
   </si>
 </sst>
 </file>
@@ -1541,10 +1571,10 @@
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8109,7 +8139,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A313" si="1">A136+1</f>
+        <f t="shared" ref="A137:A322" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -15226,10 +15256,10 @@
         <f t="shared" si="1"/>
         <v>295</v>
       </c>
-      <c r="B297" s="36" t="s">
+      <c r="B297" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C297" s="37">
+      <c r="C297" s="36">
         <v>43948.0</v>
       </c>
       <c r="D297" s="27">
@@ -15269,10 +15299,10 @@
         <f t="shared" si="1"/>
         <v>296</v>
       </c>
-      <c r="B298" s="36" t="s">
+      <c r="B298" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C298" s="37">
+      <c r="C298" s="36">
         <v>43948.0</v>
       </c>
       <c r="D298" s="27">
@@ -15316,10 +15346,10 @@
         <f t="shared" si="1"/>
         <v>297</v>
       </c>
-      <c r="B299" s="36" t="s">
+      <c r="B299" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C299" s="37">
+      <c r="C299" s="36">
         <v>43948.0</v>
       </c>
       <c r="D299" s="27">
@@ -15363,10 +15393,10 @@
         <f t="shared" si="1"/>
         <v>298</v>
       </c>
-      <c r="B300" s="36" t="s">
+      <c r="B300" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C300" s="37">
+      <c r="C300" s="36">
         <v>43948.0</v>
       </c>
       <c r="D300" s="27">
@@ -15408,10 +15438,10 @@
         <f t="shared" si="1"/>
         <v>299</v>
       </c>
-      <c r="B301" s="36" t="s">
+      <c r="B301" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C301" s="37">
+      <c r="C301" s="36">
         <v>43948.0</v>
       </c>
       <c r="D301" s="27">
@@ -15453,10 +15483,10 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="B302" s="36" t="s">
+      <c r="B302" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C302" s="37">
+      <c r="C302" s="36">
         <v>43948.0</v>
       </c>
       <c r="D302" s="27">
@@ -15498,10 +15528,10 @@
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="B303" s="36" t="s">
+      <c r="B303" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C303" s="37">
+      <c r="C303" s="36">
         <v>43948.0</v>
       </c>
       <c r="D303" s="27">
@@ -15543,10 +15573,10 @@
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="B304" s="36" t="s">
+      <c r="B304" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C304" s="37">
+      <c r="C304" s="36">
         <v>43948.0</v>
       </c>
       <c r="D304" s="27">
@@ -15588,10 +15618,10 @@
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="B305" s="36" t="s">
+      <c r="B305" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C305" s="37">
+      <c r="C305" s="36">
         <v>43948.0</v>
       </c>
       <c r="D305" s="27">
@@ -15633,10 +15663,10 @@
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="B306" s="36" t="s">
+      <c r="B306" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C306" s="37">
+      <c r="C306" s="36">
         <v>43948.0</v>
       </c>
       <c r="D306" s="27">
@@ -15678,10 +15708,10 @@
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="B307" s="36" t="s">
+      <c r="B307" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C307" s="37">
+      <c r="C307" s="36">
         <v>43948.0</v>
       </c>
       <c r="D307" s="27">
@@ -15723,10 +15753,10 @@
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="B308" s="36" t="s">
+      <c r="B308" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C308" s="37">
+      <c r="C308" s="36">
         <v>43948.0</v>
       </c>
       <c r="D308" s="27">
@@ -15768,10 +15798,10 @@
         <f t="shared" si="1"/>
         <v>307</v>
       </c>
-      <c r="B309" s="36" t="s">
+      <c r="B309" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C309" s="37">
+      <c r="C309" s="36">
         <v>43948.0</v>
       </c>
       <c r="D309" s="27">
@@ -15813,10 +15843,10 @@
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="B310" s="36" t="s">
+      <c r="B310" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C310" s="37">
+      <c r="C310" s="36">
         <v>43948.0</v>
       </c>
       <c r="D310" s="27">
@@ -15856,10 +15886,10 @@
         <f t="shared" si="1"/>
         <v>309</v>
       </c>
-      <c r="B311" s="36" t="s">
+      <c r="B311" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C311" s="37">
+      <c r="C311" s="36">
         <v>43948.0</v>
       </c>
       <c r="D311" s="27">
@@ -15899,10 +15929,10 @@
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="B312" s="36" t="s">
+      <c r="B312" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="C312" s="37">
+      <c r="C312" s="36">
         <v>43949.0</v>
       </c>
       <c r="D312" s="27">
@@ -15946,10 +15976,10 @@
         <f t="shared" si="1"/>
         <v>311</v>
       </c>
-      <c r="B313" s="36" t="s">
+      <c r="B313" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="C313" s="37">
+      <c r="C313" s="36">
         <v>43949.0</v>
       </c>
       <c r="D313" s="27">
@@ -15989,17 +16019,32 @@
       <c r="Z313" s="7"/>
     </row>
     <row r="314" ht="18.0" customHeight="1">
-      <c r="A314" s="8"/>
-      <c r="B314" s="7"/>
-      <c r="C314" s="8"/>
-      <c r="D314" s="8"/>
-      <c r="E314" s="7"/>
-      <c r="F314" s="12"/>
+      <c r="A314" s="8">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="B314" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="C314" s="36">
+        <v>43949.0</v>
+      </c>
+      <c r="D314" s="27">
+        <v>43949.0</v>
+      </c>
+      <c r="E314" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F314" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G314" s="8"/>
       <c r="H314" s="12"/>
       <c r="I314" s="12"/>
       <c r="J314" s="13"/>
-      <c r="K314" s="7"/>
+      <c r="K314" s="25" t="s">
+        <v>385</v>
+      </c>
       <c r="L314" s="7"/>
       <c r="M314" s="7"/>
       <c r="N314" s="7"/>
@@ -16017,17 +16062,34 @@
       <c r="Z314" s="7"/>
     </row>
     <row r="315" ht="18.0" customHeight="1">
-      <c r="A315" s="8"/>
-      <c r="B315" s="7"/>
-      <c r="C315" s="8"/>
-      <c r="D315" s="8"/>
-      <c r="E315" s="7"/>
-      <c r="F315" s="12"/>
+      <c r="A315" s="8">
+        <f t="shared" si="1"/>
+        <v>313</v>
+      </c>
+      <c r="B315" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="C315" s="36">
+        <v>43949.0</v>
+      </c>
+      <c r="D315" s="27">
+        <v>43949.0</v>
+      </c>
+      <c r="E315" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F315" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G315" s="8"/>
-      <c r="H315" s="12"/>
+      <c r="H315" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I315" s="12"/>
       <c r="J315" s="13"/>
-      <c r="K315" s="7"/>
+      <c r="K315" s="25" t="s">
+        <v>385</v>
+      </c>
       <c r="L315" s="7"/>
       <c r="M315" s="7"/>
       <c r="N315" s="7"/>
@@ -16045,17 +16107,32 @@
       <c r="Z315" s="7"/>
     </row>
     <row r="316" ht="18.0" customHeight="1">
-      <c r="A316" s="8"/>
-      <c r="B316" s="7"/>
-      <c r="C316" s="8"/>
-      <c r="D316" s="8"/>
-      <c r="E316" s="7"/>
-      <c r="F316" s="12"/>
+      <c r="A316" s="8">
+        <f t="shared" si="1"/>
+        <v>314</v>
+      </c>
+      <c r="B316" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C316" s="36">
+        <v>43950.0</v>
+      </c>
+      <c r="D316" s="27">
+        <v>43950.0</v>
+      </c>
+      <c r="E316" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F316" s="29" t="s">
+        <v>387</v>
+      </c>
       <c r="G316" s="8"/>
       <c r="H316" s="12"/>
       <c r="I316" s="12"/>
       <c r="J316" s="13"/>
-      <c r="K316" s="7"/>
+      <c r="K316" s="25" t="s">
+        <v>388</v>
+      </c>
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
       <c r="N316" s="7"/>
@@ -16073,17 +16150,34 @@
       <c r="Z316" s="7"/>
     </row>
     <row r="317" ht="18.0" customHeight="1">
-      <c r="A317" s="8"/>
-      <c r="B317" s="7"/>
-      <c r="C317" s="8"/>
-      <c r="D317" s="8"/>
-      <c r="E317" s="7"/>
-      <c r="F317" s="12"/>
+      <c r="A317" s="8">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="B317" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C317" s="36">
+        <v>43950.0</v>
+      </c>
+      <c r="D317" s="27">
+        <v>43950.0</v>
+      </c>
+      <c r="E317" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F317" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G317" s="8"/>
-      <c r="H317" s="12"/>
+      <c r="H317" s="29" t="s">
+        <v>389</v>
+      </c>
       <c r="I317" s="12"/>
       <c r="J317" s="13"/>
-      <c r="K317" s="7"/>
+      <c r="K317" s="25" t="s">
+        <v>390</v>
+      </c>
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
       <c r="N317" s="7"/>
@@ -16101,17 +16195,34 @@
       <c r="Z317" s="7"/>
     </row>
     <row r="318" ht="18.0" customHeight="1">
-      <c r="A318" s="8"/>
-      <c r="B318" s="7"/>
-      <c r="C318" s="8"/>
-      <c r="D318" s="8"/>
-      <c r="E318" s="7"/>
-      <c r="F318" s="12"/>
+      <c r="A318" s="8">
+        <f t="shared" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="B318" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C318" s="36">
+        <v>43950.0</v>
+      </c>
+      <c r="D318" s="27">
+        <v>43950.0</v>
+      </c>
+      <c r="E318" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="F318" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G318" s="8"/>
-      <c r="H318" s="12"/>
+      <c r="H318" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I318" s="12"/>
       <c r="J318" s="13"/>
-      <c r="K318" s="7"/>
+      <c r="K318" s="25" t="s">
+        <v>390</v>
+      </c>
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
       <c r="N318" s="7"/>
@@ -16129,17 +16240,34 @@
       <c r="Z318" s="7"/>
     </row>
     <row r="319" ht="18.0" customHeight="1">
-      <c r="A319" s="8"/>
-      <c r="B319" s="7"/>
-      <c r="C319" s="8"/>
-      <c r="D319" s="8"/>
-      <c r="E319" s="7"/>
-      <c r="F319" s="12"/>
+      <c r="A319" s="8">
+        <f t="shared" si="1"/>
+        <v>317</v>
+      </c>
+      <c r="B319" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C319" s="36">
+        <v>43950.0</v>
+      </c>
+      <c r="D319" s="27">
+        <v>43950.0</v>
+      </c>
+      <c r="E319" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F319" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G319" s="8"/>
-      <c r="H319" s="12"/>
+      <c r="H319" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I319" s="12"/>
       <c r="J319" s="13"/>
-      <c r="K319" s="7"/>
+      <c r="K319" s="25" t="s">
+        <v>390</v>
+      </c>
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
       <c r="N319" s="7"/>
@@ -16157,17 +16285,34 @@
       <c r="Z319" s="7"/>
     </row>
     <row r="320" ht="18.0" customHeight="1">
-      <c r="A320" s="8"/>
-      <c r="B320" s="7"/>
-      <c r="C320" s="8"/>
-      <c r="D320" s="8"/>
-      <c r="E320" s="7"/>
-      <c r="F320" s="12"/>
+      <c r="A320" s="8">
+        <f t="shared" si="1"/>
+        <v>318</v>
+      </c>
+      <c r="B320" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="C320" s="36">
+        <v>43951.0</v>
+      </c>
+      <c r="D320" s="27">
+        <v>43951.0</v>
+      </c>
+      <c r="E320" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F320" s="29" t="s">
+        <v>359</v>
+      </c>
       <c r="G320" s="8"/>
-      <c r="H320" s="12"/>
+      <c r="H320" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I320" s="12"/>
       <c r="J320" s="13"/>
-      <c r="K320" s="7"/>
+      <c r="K320" s="25" t="s">
+        <v>393</v>
+      </c>
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
       <c r="N320" s="7"/>
@@ -16185,17 +16330,36 @@
       <c r="Z320" s="7"/>
     </row>
     <row r="321" ht="18.0" customHeight="1">
-      <c r="A321" s="8"/>
-      <c r="B321" s="7"/>
-      <c r="C321" s="8"/>
-      <c r="D321" s="8"/>
-      <c r="E321" s="7"/>
-      <c r="F321" s="12"/>
-      <c r="G321" s="8"/>
-      <c r="H321" s="12"/>
+      <c r="A321" s="8">
+        <f t="shared" si="1"/>
+        <v>319</v>
+      </c>
+      <c r="B321" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="C321" s="36">
+        <v>43951.0</v>
+      </c>
+      <c r="D321" s="27">
+        <v>43951.0</v>
+      </c>
+      <c r="E321" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F321" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G321" s="31">
+        <v>318.0</v>
+      </c>
+      <c r="H321" s="29" t="s">
+        <v>394</v>
+      </c>
       <c r="I321" s="12"/>
       <c r="J321" s="13"/>
-      <c r="K321" s="7"/>
+      <c r="K321" s="25" t="s">
+        <v>393</v>
+      </c>
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
       <c r="N321" s="7"/>
@@ -16213,17 +16377,36 @@
       <c r="Z321" s="7"/>
     </row>
     <row r="322" ht="18.0" customHeight="1">
-      <c r="A322" s="8"/>
-      <c r="B322" s="7"/>
-      <c r="C322" s="8"/>
-      <c r="D322" s="8"/>
-      <c r="E322" s="7"/>
-      <c r="F322" s="12"/>
-      <c r="G322" s="8"/>
-      <c r="H322" s="12"/>
+      <c r="A322" s="8">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="B322" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="C322" s="36">
+        <v>43951.0</v>
+      </c>
+      <c r="D322" s="27">
+        <v>43951.0</v>
+      </c>
+      <c r="E322" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F322" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G322" s="31">
+        <v>318.0</v>
+      </c>
+      <c r="H322" s="29" t="s">
+        <v>394</v>
+      </c>
       <c r="I322" s="12"/>
       <c r="J322" s="13"/>
-      <c r="K322" s="7"/>
+      <c r="K322" s="25" t="s">
+        <v>393</v>
+      </c>
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
       <c r="N322" s="7"/>
@@ -35388,10 +35571,19 @@
     <hyperlink r:id="rId131" ref="K311"/>
     <hyperlink r:id="rId132" ref="K312"/>
     <hyperlink r:id="rId133" ref="K313"/>
+    <hyperlink r:id="rId134" ref="K314"/>
+    <hyperlink r:id="rId135" ref="K315"/>
+    <hyperlink r:id="rId136" ref="K316"/>
+    <hyperlink r:id="rId137" ref="K317"/>
+    <hyperlink r:id="rId138" ref="K318"/>
+    <hyperlink r:id="rId139" ref="K319"/>
+    <hyperlink r:id="rId140" ref="K320"/>
+    <hyperlink r:id="rId141" ref="K321"/>
+    <hyperlink r:id="rId142" ref="K322"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId134"/>
+  <drawing r:id="rId143"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="395">
-  <si>
-    <t>2020-05-01T20:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="399">
+  <si>
+    <t>2020-05-01T22:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1350,6 +1350,18 @@
   </si>
   <si>
     <t>京都府318例目と接触あり</t>
+  </si>
+  <si>
+    <t>2020-05-01T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>京都府314例目と接触あり</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200501-321-322.pdf</t>
+  </si>
+  <si>
+    <t>京都府276例目と接触あり</t>
   </si>
 </sst>
 </file>
@@ -8139,7 +8151,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A322" si="1">A136+1</f>
+        <f t="shared" ref="A137:A326" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -16023,7 +16035,7 @@
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
-      <c r="B314" s="37" t="s">
+      <c r="B314" s="23" t="s">
         <v>382</v>
       </c>
       <c r="C314" s="36">
@@ -16066,7 +16078,7 @@
         <f t="shared" si="1"/>
         <v>313</v>
       </c>
-      <c r="B315" s="37" t="s">
+      <c r="B315" s="23" t="s">
         <v>382</v>
       </c>
       <c r="C315" s="36">
@@ -16111,7 +16123,7 @@
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
-      <c r="B316" s="37" t="s">
+      <c r="B316" s="23" t="s">
         <v>386</v>
       </c>
       <c r="C316" s="36">
@@ -16154,7 +16166,7 @@
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="B317" s="37" t="s">
+      <c r="B317" s="23" t="s">
         <v>386</v>
       </c>
       <c r="C317" s="36">
@@ -16199,7 +16211,7 @@
         <f t="shared" si="1"/>
         <v>316</v>
       </c>
-      <c r="B318" s="37" t="s">
+      <c r="B318" s="23" t="s">
         <v>386</v>
       </c>
       <c r="C318" s="36">
@@ -16244,7 +16256,7 @@
         <f t="shared" si="1"/>
         <v>317</v>
       </c>
-      <c r="B319" s="37" t="s">
+      <c r="B319" s="23" t="s">
         <v>386</v>
       </c>
       <c r="C319" s="36">
@@ -16289,7 +16301,7 @@
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="B320" s="37" t="s">
+      <c r="B320" s="23" t="s">
         <v>392</v>
       </c>
       <c r="C320" s="36">
@@ -16334,7 +16346,7 @@
         <f t="shared" si="1"/>
         <v>319</v>
       </c>
-      <c r="B321" s="37" t="s">
+      <c r="B321" s="23" t="s">
         <v>392</v>
       </c>
       <c r="C321" s="36">
@@ -16381,7 +16393,7 @@
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="B322" s="37" t="s">
+      <c r="B322" s="23" t="s">
         <v>392</v>
       </c>
       <c r="C322" s="36">
@@ -16424,17 +16436,36 @@
       <c r="Z322" s="7"/>
     </row>
     <row r="323" ht="18.0" customHeight="1">
-      <c r="A323" s="8"/>
-      <c r="B323" s="7"/>
-      <c r="C323" s="8"/>
-      <c r="D323" s="8"/>
-      <c r="E323" s="7"/>
-      <c r="F323" s="12"/>
-      <c r="G323" s="8"/>
-      <c r="H323" s="12"/>
+      <c r="A323" s="8">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+      <c r="B323" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="C323" s="36">
+        <v>43952.0</v>
+      </c>
+      <c r="D323" s="27">
+        <v>43952.0</v>
+      </c>
+      <c r="E323" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F323" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="G323" s="31">
+        <v>314.0</v>
+      </c>
+      <c r="H323" s="29" t="s">
+        <v>396</v>
+      </c>
       <c r="I323" s="12"/>
       <c r="J323" s="13"/>
-      <c r="K323" s="7"/>
+      <c r="K323" s="25" t="s">
+        <v>397</v>
+      </c>
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
       <c r="N323" s="7"/>
@@ -16452,17 +16483,36 @@
       <c r="Z323" s="7"/>
     </row>
     <row r="324" ht="18.0" customHeight="1">
-      <c r="A324" s="8"/>
-      <c r="B324" s="7"/>
-      <c r="C324" s="8"/>
-      <c r="D324" s="8"/>
-      <c r="E324" s="7"/>
-      <c r="F324" s="12"/>
-      <c r="G324" s="8"/>
-      <c r="H324" s="12"/>
+      <c r="A324" s="8">
+        <f t="shared" si="1"/>
+        <v>322</v>
+      </c>
+      <c r="B324" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="C324" s="36">
+        <v>43952.0</v>
+      </c>
+      <c r="D324" s="27">
+        <v>43952.0</v>
+      </c>
+      <c r="E324" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F324" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G324" s="31">
+        <v>276.0</v>
+      </c>
+      <c r="H324" s="29" t="s">
+        <v>398</v>
+      </c>
       <c r="I324" s="12"/>
       <c r="J324" s="13"/>
-      <c r="K324" s="7"/>
+      <c r="K324" s="25" t="s">
+        <v>397</v>
+      </c>
       <c r="L324" s="7"/>
       <c r="M324" s="7"/>
       <c r="N324" s="7"/>
@@ -16480,12 +16530,25 @@
       <c r="Z324" s="7"/>
     </row>
     <row r="325" ht="18.0" customHeight="1">
-      <c r="A325" s="8"/>
-      <c r="B325" s="7"/>
-      <c r="C325" s="8"/>
-      <c r="D325" s="8"/>
-      <c r="E325" s="7"/>
-      <c r="F325" s="12"/>
+      <c r="A325" s="8">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+      <c r="B325" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="C325" s="36">
+        <v>43952.0</v>
+      </c>
+      <c r="D325" s="27">
+        <v>43952.0</v>
+      </c>
+      <c r="E325" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F325" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G325" s="8"/>
       <c r="H325" s="12"/>
       <c r="I325" s="12"/>
@@ -16508,12 +16571,25 @@
       <c r="Z325" s="7"/>
     </row>
     <row r="326" ht="18.0" customHeight="1">
-      <c r="A326" s="8"/>
-      <c r="B326" s="7"/>
-      <c r="C326" s="8"/>
-      <c r="D326" s="8"/>
-      <c r="E326" s="7"/>
-      <c r="F326" s="12"/>
+      <c r="A326" s="8">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="B326" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="C326" s="36">
+        <v>43952.0</v>
+      </c>
+      <c r="D326" s="27">
+        <v>43952.0</v>
+      </c>
+      <c r="E326" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F326" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G326" s="8"/>
       <c r="H326" s="12"/>
       <c r="I326" s="12"/>
@@ -35580,10 +35656,12 @@
     <hyperlink r:id="rId140" ref="K320"/>
     <hyperlink r:id="rId141" ref="K321"/>
     <hyperlink r:id="rId142" ref="K322"/>
+    <hyperlink r:id="rId143" ref="K323"/>
+    <hyperlink r:id="rId144" ref="K324"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId143"/>
+  <drawing r:id="rId145"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="399">
-  <si>
-    <t>2020-05-01T22:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="404">
+  <si>
+    <t>2020-05-03T20:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1362,6 +1362,21 @@
   </si>
   <si>
     <t>京都府276例目と接触あり</t>
+  </si>
+  <si>
+    <t>2020-05-02T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269350/200502oshirase(216-220).pdf</t>
+  </si>
+  <si>
+    <t>京都市218例目の接触者</t>
+  </si>
+  <si>
+    <t>2020-05-03T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200503.pdf</t>
   </si>
 </sst>
 </file>
@@ -8151,7 +8166,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A326" si="1">A136+1</f>
+        <f t="shared" ref="A137:A332" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -11381,7 +11396,9 @@
         <v>312</v>
       </c>
       <c r="I208" s="12"/>
-      <c r="J208" s="13"/>
+      <c r="J208" s="18">
+        <v>43954.0</v>
+      </c>
       <c r="K208" s="7" t="s">
         <v>313</v>
       </c>
@@ -11868,7 +11885,9 @@
       <c r="G219" s="8"/>
       <c r="H219" s="12"/>
       <c r="I219" s="12"/>
-      <c r="J219" s="13"/>
+      <c r="J219" s="18">
+        <v>43954.0</v>
+      </c>
       <c r="K219" s="7" t="s">
         <v>323</v>
       </c>
@@ -13389,7 +13408,9 @@
         <v>339</v>
       </c>
       <c r="I254" s="12"/>
-      <c r="J254" s="13"/>
+      <c r="J254" s="18">
+        <v>43954.0</v>
+      </c>
       <c r="K254" s="25" t="s">
         <v>340</v>
       </c>
@@ -14013,7 +14034,9 @@
       <c r="G268" s="8"/>
       <c r="H268" s="12"/>
       <c r="I268" s="12"/>
-      <c r="J268" s="13"/>
+      <c r="J268" s="18">
+        <v>43954.0</v>
+      </c>
       <c r="K268" s="25" t="s">
         <v>353</v>
       </c>
@@ -16440,7 +16463,7 @@
         <f t="shared" si="1"/>
         <v>321</v>
       </c>
-      <c r="B323" s="37" t="s">
+      <c r="B323" s="23" t="s">
         <v>395</v>
       </c>
       <c r="C323" s="36">
@@ -16487,7 +16510,7 @@
         <f t="shared" si="1"/>
         <v>322</v>
       </c>
-      <c r="B324" s="37" t="s">
+      <c r="B324" s="23" t="s">
         <v>395</v>
       </c>
       <c r="C324" s="36">
@@ -16534,7 +16557,7 @@
         <f t="shared" si="1"/>
         <v>323</v>
       </c>
-      <c r="B325" s="37" t="s">
+      <c r="B325" s="23" t="s">
         <v>395</v>
       </c>
       <c r="C325" s="36">
@@ -16575,7 +16598,7 @@
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
-      <c r="B326" s="37" t="s">
+      <c r="B326" s="23" t="s">
         <v>395</v>
       </c>
       <c r="C326" s="36">
@@ -16612,17 +16635,34 @@
       <c r="Z326" s="7"/>
     </row>
     <row r="327" ht="18.0" customHeight="1">
-      <c r="A327" s="8"/>
-      <c r="B327" s="7"/>
-      <c r="C327" s="8"/>
-      <c r="D327" s="8"/>
-      <c r="E327" s="7"/>
-      <c r="F327" s="12"/>
+      <c r="A327" s="8">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="B327" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="C327" s="36">
+        <v>43953.0</v>
+      </c>
+      <c r="D327" s="27">
+        <v>43953.0</v>
+      </c>
+      <c r="E327" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F327" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G327" s="8"/>
-      <c r="H327" s="12"/>
+      <c r="H327" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I327" s="12"/>
       <c r="J327" s="13"/>
-      <c r="K327" s="7"/>
+      <c r="K327" s="25" t="s">
+        <v>400</v>
+      </c>
       <c r="L327" s="7"/>
       <c r="M327" s="7"/>
       <c r="N327" s="7"/>
@@ -16640,17 +16680,34 @@
       <c r="Z327" s="7"/>
     </row>
     <row r="328" ht="18.0" customHeight="1">
-      <c r="A328" s="8"/>
-      <c r="B328" s="7"/>
-      <c r="C328" s="8"/>
-      <c r="D328" s="8"/>
-      <c r="E328" s="7"/>
-      <c r="F328" s="12"/>
+      <c r="A328" s="8">
+        <f t="shared" si="1"/>
+        <v>326</v>
+      </c>
+      <c r="B328" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="C328" s="36">
+        <v>43953.0</v>
+      </c>
+      <c r="D328" s="27">
+        <v>43953.0</v>
+      </c>
+      <c r="E328" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F328" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G328" s="8"/>
-      <c r="H328" s="12"/>
+      <c r="H328" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I328" s="12"/>
       <c r="J328" s="13"/>
-      <c r="K328" s="7"/>
+      <c r="K328" s="25" t="s">
+        <v>400</v>
+      </c>
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
       <c r="N328" s="7"/>
@@ -16668,17 +16725,34 @@
       <c r="Z328" s="7"/>
     </row>
     <row r="329" ht="18.0" customHeight="1">
-      <c r="A329" s="8"/>
-      <c r="B329" s="7"/>
-      <c r="C329" s="8"/>
-      <c r="D329" s="8"/>
-      <c r="E329" s="7"/>
-      <c r="F329" s="12"/>
+      <c r="A329" s="8">
+        <f t="shared" si="1"/>
+        <v>327</v>
+      </c>
+      <c r="B329" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="C329" s="36">
+        <v>43953.0</v>
+      </c>
+      <c r="D329" s="27">
+        <v>43953.0</v>
+      </c>
+      <c r="E329" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F329" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G329" s="8"/>
-      <c r="H329" s="12"/>
+      <c r="H329" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I329" s="12"/>
       <c r="J329" s="13"/>
-      <c r="K329" s="7"/>
+      <c r="K329" s="25" t="s">
+        <v>400</v>
+      </c>
       <c r="L329" s="7"/>
       <c r="M329" s="7"/>
       <c r="N329" s="7"/>
@@ -16696,17 +16770,34 @@
       <c r="Z329" s="7"/>
     </row>
     <row r="330" ht="18.0" customHeight="1">
-      <c r="A330" s="8"/>
-      <c r="B330" s="7"/>
-      <c r="C330" s="8"/>
-      <c r="D330" s="8"/>
-      <c r="E330" s="7"/>
-      <c r="F330" s="12"/>
+      <c r="A330" s="8">
+        <f t="shared" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="B330" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="C330" s="36">
+        <v>43953.0</v>
+      </c>
+      <c r="D330" s="27">
+        <v>43953.0</v>
+      </c>
+      <c r="E330" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F330" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G330" s="8"/>
-      <c r="H330" s="12"/>
+      <c r="H330" s="29" t="s">
+        <v>401</v>
+      </c>
       <c r="I330" s="12"/>
       <c r="J330" s="13"/>
-      <c r="K330" s="7"/>
+      <c r="K330" s="25" t="s">
+        <v>400</v>
+      </c>
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
       <c r="N330" s="7"/>
@@ -16724,17 +16815,32 @@
       <c r="Z330" s="7"/>
     </row>
     <row r="331" ht="18.0" customHeight="1">
-      <c r="A331" s="8"/>
-      <c r="B331" s="7"/>
-      <c r="C331" s="8"/>
-      <c r="D331" s="8"/>
-      <c r="E331" s="7"/>
-      <c r="F331" s="12"/>
+      <c r="A331" s="8">
+        <f t="shared" si="1"/>
+        <v>329</v>
+      </c>
+      <c r="B331" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="C331" s="36">
+        <v>43953.0</v>
+      </c>
+      <c r="D331" s="27">
+        <v>43953.0</v>
+      </c>
+      <c r="E331" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F331" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G331" s="8"/>
-      <c r="H331" s="12"/>
+      <c r="H331" s="29"/>
       <c r="I331" s="12"/>
       <c r="J331" s="13"/>
-      <c r="K331" s="7"/>
+      <c r="K331" s="25" t="s">
+        <v>400</v>
+      </c>
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
       <c r="N331" s="7"/>
@@ -16752,17 +16858,32 @@
       <c r="Z331" s="7"/>
     </row>
     <row r="332" ht="18.0" customHeight="1">
-      <c r="A332" s="8"/>
-      <c r="B332" s="7"/>
-      <c r="C332" s="8"/>
-      <c r="D332" s="8"/>
-      <c r="E332" s="7"/>
-      <c r="F332" s="12"/>
+      <c r="A332" s="8">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="B332" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="C332" s="36">
+        <v>43954.0</v>
+      </c>
+      <c r="D332" s="27">
+        <v>43954.0</v>
+      </c>
+      <c r="E332" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F332" s="29" t="s">
+        <v>324</v>
+      </c>
       <c r="G332" s="8"/>
       <c r="H332" s="12"/>
       <c r="I332" s="12"/>
       <c r="J332" s="13"/>
-      <c r="K332" s="7"/>
+      <c r="K332" s="25" t="s">
+        <v>403</v>
+      </c>
       <c r="L332" s="7"/>
       <c r="M332" s="7"/>
       <c r="N332" s="7"/>
@@ -35658,10 +35779,16 @@
     <hyperlink r:id="rId142" ref="K322"/>
     <hyperlink r:id="rId143" ref="K323"/>
     <hyperlink r:id="rId144" ref="K324"/>
+    <hyperlink r:id="rId145" ref="K327"/>
+    <hyperlink r:id="rId146" ref="K328"/>
+    <hyperlink r:id="rId147" ref="K329"/>
+    <hyperlink r:id="rId148" ref="K330"/>
+    <hyperlink r:id="rId149" ref="K331"/>
+    <hyperlink r:id="rId150" ref="K332"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId145"/>
+  <drawing r:id="rId151"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="404">
-  <si>
-    <t>2020-05-03T20:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="408">
+  <si>
+    <t>2020-05-04T20:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1377,6 +1377,18 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200503.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269353/200503oshirase(221).pdf</t>
+  </si>
+  <si>
+    <t>2020-05-04T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269356/200504oshirase(222-224).pdf</t>
+  </si>
+  <si>
+    <t>京都市222例目の接触者</t>
   </si>
 </sst>
 </file>
@@ -8166,7 +8178,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A332" si="1">A136+1</f>
+        <f t="shared" ref="A137:A336" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -16639,7 +16651,7 @@
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="B327" s="37" t="s">
+      <c r="B327" s="23" t="s">
         <v>399</v>
       </c>
       <c r="C327" s="36">
@@ -16684,7 +16696,7 @@
         <f t="shared" si="1"/>
         <v>326</v>
       </c>
-      <c r="B328" s="37" t="s">
+      <c r="B328" s="23" t="s">
         <v>399</v>
       </c>
       <c r="C328" s="36">
@@ -16729,7 +16741,7 @@
         <f t="shared" si="1"/>
         <v>327</v>
       </c>
-      <c r="B329" s="37" t="s">
+      <c r="B329" s="23" t="s">
         <v>399</v>
       </c>
       <c r="C329" s="36">
@@ -16774,7 +16786,7 @@
         <f t="shared" si="1"/>
         <v>328</v>
       </c>
-      <c r="B330" s="37" t="s">
+      <c r="B330" s="23" t="s">
         <v>399</v>
       </c>
       <c r="C330" s="36">
@@ -16819,7 +16831,7 @@
         <f t="shared" si="1"/>
         <v>329</v>
       </c>
-      <c r="B331" s="37" t="s">
+      <c r="B331" s="23" t="s">
         <v>399</v>
       </c>
       <c r="C331" s="36">
@@ -16862,7 +16874,7 @@
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="B332" s="37" t="s">
+      <c r="B332" s="23" t="s">
         <v>402</v>
       </c>
       <c r="C332" s="36">
@@ -16901,17 +16913,34 @@
       <c r="Z332" s="7"/>
     </row>
     <row r="333" ht="18.0" customHeight="1">
-      <c r="A333" s="8"/>
-      <c r="B333" s="7"/>
-      <c r="C333" s="8"/>
-      <c r="D333" s="8"/>
-      <c r="E333" s="7"/>
-      <c r="F333" s="12"/>
+      <c r="A333" s="8">
+        <f t="shared" si="1"/>
+        <v>331</v>
+      </c>
+      <c r="B333" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="C333" s="36">
+        <v>43954.0</v>
+      </c>
+      <c r="D333" s="27">
+        <v>43954.0</v>
+      </c>
+      <c r="E333" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F333" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G333" s="8"/>
-      <c r="H333" s="12"/>
+      <c r="H333" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I333" s="12"/>
       <c r="J333" s="13"/>
-      <c r="K333" s="7"/>
+      <c r="K333" s="25" t="s">
+        <v>404</v>
+      </c>
       <c r="L333" s="7"/>
       <c r="M333" s="7"/>
       <c r="N333" s="7"/>
@@ -16929,17 +16958,32 @@
       <c r="Z333" s="7"/>
     </row>
     <row r="334" ht="18.0" customHeight="1">
-      <c r="A334" s="8"/>
-      <c r="B334" s="7"/>
-      <c r="C334" s="8"/>
-      <c r="D334" s="8"/>
-      <c r="E334" s="7"/>
-      <c r="F334" s="12"/>
+      <c r="A334" s="8">
+        <f t="shared" si="1"/>
+        <v>332</v>
+      </c>
+      <c r="B334" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="C334" s="36">
+        <v>43955.0</v>
+      </c>
+      <c r="D334" s="27">
+        <v>43955.0</v>
+      </c>
+      <c r="E334" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F334" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G334" s="8"/>
       <c r="H334" s="12"/>
       <c r="I334" s="12"/>
       <c r="J334" s="13"/>
-      <c r="K334" s="7"/>
+      <c r="K334" s="25" t="s">
+        <v>406</v>
+      </c>
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
       <c r="N334" s="7"/>
@@ -16957,17 +17001,34 @@
       <c r="Z334" s="7"/>
     </row>
     <row r="335" ht="18.0" customHeight="1">
-      <c r="A335" s="8"/>
-      <c r="B335" s="7"/>
-      <c r="C335" s="8"/>
-      <c r="D335" s="8"/>
-      <c r="E335" s="7"/>
-      <c r="F335" s="12"/>
+      <c r="A335" s="8">
+        <f t="shared" si="1"/>
+        <v>333</v>
+      </c>
+      <c r="B335" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="C335" s="36">
+        <v>43955.0</v>
+      </c>
+      <c r="D335" s="27">
+        <v>43955.0</v>
+      </c>
+      <c r="E335" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F335" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G335" s="8"/>
-      <c r="H335" s="12"/>
+      <c r="H335" s="29" t="s">
+        <v>407</v>
+      </c>
       <c r="I335" s="12"/>
       <c r="J335" s="13"/>
-      <c r="K335" s="7"/>
+      <c r="K335" s="25" t="s">
+        <v>406</v>
+      </c>
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
       <c r="N335" s="7"/>
@@ -16985,17 +17046,34 @@
       <c r="Z335" s="7"/>
     </row>
     <row r="336" ht="18.0" customHeight="1">
-      <c r="A336" s="8"/>
-      <c r="B336" s="7"/>
-      <c r="C336" s="8"/>
-      <c r="D336" s="8"/>
-      <c r="E336" s="7"/>
-      <c r="F336" s="12"/>
+      <c r="A336" s="8">
+        <f t="shared" si="1"/>
+        <v>334</v>
+      </c>
+      <c r="B336" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="C336" s="36">
+        <v>43955.0</v>
+      </c>
+      <c r="D336" s="27">
+        <v>43955.0</v>
+      </c>
+      <c r="E336" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F336" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G336" s="8"/>
-      <c r="H336" s="12"/>
+      <c r="H336" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I336" s="12"/>
       <c r="J336" s="13"/>
-      <c r="K336" s="7"/>
+      <c r="K336" s="25" t="s">
+        <v>406</v>
+      </c>
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
       <c r="N336" s="7"/>
@@ -17014,9 +17092,9 @@
     </row>
     <row r="337" ht="18.0" customHeight="1">
       <c r="A337" s="8"/>
-      <c r="B337" s="7"/>
-      <c r="C337" s="8"/>
-      <c r="D337" s="8"/>
+      <c r="B337" s="37"/>
+      <c r="C337" s="36"/>
+      <c r="D337" s="27"/>
       <c r="E337" s="7"/>
       <c r="F337" s="12"/>
       <c r="G337" s="8"/>
@@ -35785,10 +35863,14 @@
     <hyperlink r:id="rId148" ref="K330"/>
     <hyperlink r:id="rId149" ref="K331"/>
     <hyperlink r:id="rId150" ref="K332"/>
+    <hyperlink r:id="rId151" ref="K333"/>
+    <hyperlink r:id="rId152" ref="K334"/>
+    <hyperlink r:id="rId153" ref="K335"/>
+    <hyperlink r:id="rId154" ref="K336"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId151"/>
+  <drawing r:id="rId155"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="408">
-  <si>
-    <t>2020-05-04T20:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="412">
+  <si>
+    <t>2020-05-06T18:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1389,6 +1389,18 @@
   </si>
   <si>
     <t>京都市222例目の接触者</t>
+  </si>
+  <si>
+    <t>2020-05-05T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269365/200505oshirase(225-228).pdf</t>
+  </si>
+  <si>
+    <t>小学生男児</t>
+  </si>
+  <si>
+    <t>2020-05-06T08:00:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -8178,7 +8190,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A336" si="1">A136+1</f>
+        <f t="shared" ref="A137:A343" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -16917,7 +16929,7 @@
         <f t="shared" si="1"/>
         <v>331</v>
       </c>
-      <c r="B333" s="37" t="s">
+      <c r="B333" s="23" t="s">
         <v>402</v>
       </c>
       <c r="C333" s="36">
@@ -16962,7 +16974,7 @@
         <f t="shared" si="1"/>
         <v>332</v>
       </c>
-      <c r="B334" s="37" t="s">
+      <c r="B334" s="23" t="s">
         <v>405</v>
       </c>
       <c r="C334" s="36">
@@ -17005,7 +17017,7 @@
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
-      <c r="B335" s="37" t="s">
+      <c r="B335" s="23" t="s">
         <v>405</v>
       </c>
       <c r="C335" s="36">
@@ -17050,7 +17062,7 @@
         <f t="shared" si="1"/>
         <v>334</v>
       </c>
-      <c r="B336" s="37" t="s">
+      <c r="B336" s="23" t="s">
         <v>405</v>
       </c>
       <c r="C336" s="36">
@@ -17091,17 +17103,34 @@
       <c r="Z336" s="7"/>
     </row>
     <row r="337" ht="18.0" customHeight="1">
-      <c r="A337" s="8"/>
-      <c r="B337" s="37"/>
-      <c r="C337" s="36"/>
-      <c r="D337" s="27"/>
-      <c r="E337" s="7"/>
-      <c r="F337" s="12"/>
+      <c r="A337" s="8">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+      <c r="B337" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="C337" s="36">
+        <v>43956.0</v>
+      </c>
+      <c r="D337" s="27">
+        <v>43956.0</v>
+      </c>
+      <c r="E337" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F337" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G337" s="8"/>
-      <c r="H337" s="12"/>
+      <c r="H337" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I337" s="12"/>
       <c r="J337" s="13"/>
-      <c r="K337" s="7"/>
+      <c r="K337" s="25" t="s">
+        <v>409</v>
+      </c>
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
       <c r="N337" s="7"/>
@@ -17119,17 +17148,34 @@
       <c r="Z337" s="7"/>
     </row>
     <row r="338" ht="18.0" customHeight="1">
-      <c r="A338" s="8"/>
-      <c r="B338" s="7"/>
-      <c r="C338" s="8"/>
-      <c r="D338" s="8"/>
-      <c r="E338" s="7"/>
-      <c r="F338" s="12"/>
+      <c r="A338" s="8">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="B338" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="C338" s="36">
+        <v>43956.0</v>
+      </c>
+      <c r="D338" s="27">
+        <v>43956.0</v>
+      </c>
+      <c r="E338" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="F338" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G338" s="8"/>
-      <c r="H338" s="12"/>
+      <c r="H338" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I338" s="12"/>
       <c r="J338" s="13"/>
-      <c r="K338" s="7"/>
+      <c r="K338" s="25" t="s">
+        <v>409</v>
+      </c>
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
       <c r="N338" s="7"/>
@@ -17147,17 +17193,34 @@
       <c r="Z338" s="7"/>
     </row>
     <row r="339" ht="18.0" customHeight="1">
-      <c r="A339" s="8"/>
-      <c r="B339" s="7"/>
-      <c r="C339" s="8"/>
-      <c r="D339" s="8"/>
-      <c r="E339" s="7"/>
-      <c r="F339" s="12"/>
+      <c r="A339" s="8">
+        <f t="shared" si="1"/>
+        <v>337</v>
+      </c>
+      <c r="B339" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="C339" s="36">
+        <v>43956.0</v>
+      </c>
+      <c r="D339" s="27">
+        <v>43956.0</v>
+      </c>
+      <c r="E339" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="F339" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G339" s="8"/>
-      <c r="H339" s="12"/>
+      <c r="H339" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I339" s="12"/>
       <c r="J339" s="13"/>
-      <c r="K339" s="7"/>
+      <c r="K339" s="25" t="s">
+        <v>409</v>
+      </c>
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
       <c r="N339" s="7"/>
@@ -17175,17 +17238,34 @@
       <c r="Z339" s="7"/>
     </row>
     <row r="340" ht="18.0" customHeight="1">
-      <c r="A340" s="8"/>
-      <c r="B340" s="7"/>
-      <c r="C340" s="8"/>
-      <c r="D340" s="8"/>
-      <c r="E340" s="7"/>
-      <c r="F340" s="12"/>
+      <c r="A340" s="8">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="B340" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="C340" s="36">
+        <v>43956.0</v>
+      </c>
+      <c r="D340" s="27">
+        <v>43956.0</v>
+      </c>
+      <c r="E340" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F340" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G340" s="8"/>
-      <c r="H340" s="12"/>
+      <c r="H340" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I340" s="12"/>
       <c r="J340" s="13"/>
-      <c r="K340" s="7"/>
+      <c r="K340" s="25" t="s">
+        <v>409</v>
+      </c>
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
       <c r="N340" s="7"/>
@@ -17203,10 +17283,19 @@
       <c r="Z340" s="7"/>
     </row>
     <row r="341" ht="18.0" customHeight="1">
-      <c r="A341" s="8"/>
-      <c r="B341" s="7"/>
-      <c r="C341" s="8"/>
-      <c r="D341" s="8"/>
+      <c r="A341" s="8">
+        <f t="shared" si="1"/>
+        <v>339</v>
+      </c>
+      <c r="B341" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="C341" s="36">
+        <v>43957.0</v>
+      </c>
+      <c r="D341" s="27">
+        <v>43957.0</v>
+      </c>
       <c r="E341" s="7"/>
       <c r="F341" s="12"/>
       <c r="G341" s="8"/>
@@ -17231,10 +17320,19 @@
       <c r="Z341" s="7"/>
     </row>
     <row r="342" ht="18.0" customHeight="1">
-      <c r="A342" s="8"/>
-      <c r="B342" s="7"/>
-      <c r="C342" s="8"/>
-      <c r="D342" s="8"/>
+      <c r="A342" s="8">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="B342" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="C342" s="36">
+        <v>43957.0</v>
+      </c>
+      <c r="D342" s="27">
+        <v>43957.0</v>
+      </c>
       <c r="E342" s="7"/>
       <c r="F342" s="12"/>
       <c r="G342" s="8"/>
@@ -17259,10 +17357,19 @@
       <c r="Z342" s="7"/>
     </row>
     <row r="343" ht="18.0" customHeight="1">
-      <c r="A343" s="8"/>
-      <c r="B343" s="7"/>
-      <c r="C343" s="8"/>
-      <c r="D343" s="8"/>
+      <c r="A343" s="8">
+        <f t="shared" si="1"/>
+        <v>341</v>
+      </c>
+      <c r="B343" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="C343" s="36">
+        <v>43957.0</v>
+      </c>
+      <c r="D343" s="27">
+        <v>43957.0</v>
+      </c>
       <c r="E343" s="7"/>
       <c r="F343" s="12"/>
       <c r="G343" s="8"/>
@@ -35867,10 +35974,14 @@
     <hyperlink r:id="rId152" ref="K334"/>
     <hyperlink r:id="rId153" ref="K335"/>
     <hyperlink r:id="rId154" ref="K336"/>
+    <hyperlink r:id="rId155" ref="K337"/>
+    <hyperlink r:id="rId156" ref="K338"/>
+    <hyperlink r:id="rId157" ref="K339"/>
+    <hyperlink r:id="rId158" ref="K340"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId155"/>
+  <drawing r:id="rId159"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="412">
-  <si>
-    <t>2020-05-06T18:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="417">
+  <si>
+    <t>2020-05-08T17:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1402,6 +1402,21 @@
   <si>
     <t>2020-05-06T08:00:00.000Z</t>
   </si>
+  <si>
+    <t>100歳以上女性</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269368/200506oshirase(229-231).pdf</t>
+  </si>
+  <si>
+    <t>京都市225例目の接触者</t>
+  </si>
+  <si>
+    <t>2020-05-07T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269418/200507oshirase(232-237).pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -1412,7 +1427,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1486,6 +1501,12 @@
       <u/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック regular"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1513,7 +1534,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1624,6 +1645,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -8190,7 +8214,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A343" si="1">A136+1</f>
+        <f t="shared" ref="A137:A349" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -17107,7 +17131,7 @@
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="B337" s="37" t="s">
+      <c r="B337" s="23" t="s">
         <v>408</v>
       </c>
       <c r="C337" s="36">
@@ -17152,7 +17176,7 @@
         <f t="shared" si="1"/>
         <v>336</v>
       </c>
-      <c r="B338" s="37" t="s">
+      <c r="B338" s="23" t="s">
         <v>408</v>
       </c>
       <c r="C338" s="36">
@@ -17197,7 +17221,7 @@
         <f t="shared" si="1"/>
         <v>337</v>
       </c>
-      <c r="B339" s="37" t="s">
+      <c r="B339" s="23" t="s">
         <v>408</v>
       </c>
       <c r="C339" s="36">
@@ -17242,7 +17266,7 @@
         <f t="shared" si="1"/>
         <v>338</v>
       </c>
-      <c r="B340" s="37" t="s">
+      <c r="B340" s="23" t="s">
         <v>408</v>
       </c>
       <c r="C340" s="36">
@@ -17287,7 +17311,7 @@
         <f t="shared" si="1"/>
         <v>339</v>
       </c>
-      <c r="B341" s="37" t="s">
+      <c r="B341" s="23" t="s">
         <v>411</v>
       </c>
       <c r="C341" s="36">
@@ -17296,13 +17320,21 @@
       <c r="D341" s="27">
         <v>43957.0</v>
       </c>
-      <c r="E341" s="7"/>
-      <c r="F341" s="12"/>
+      <c r="E341" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="F341" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G341" s="8"/>
-      <c r="H341" s="12"/>
+      <c r="H341" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I341" s="12"/>
       <c r="J341" s="13"/>
-      <c r="K341" s="7"/>
+      <c r="K341" s="37" t="s">
+        <v>413</v>
+      </c>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
       <c r="N341" s="7"/>
@@ -17324,7 +17356,7 @@
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="B342" s="37" t="s">
+      <c r="B342" s="23" t="s">
         <v>411</v>
       </c>
       <c r="C342" s="36">
@@ -17333,13 +17365,21 @@
       <c r="D342" s="27">
         <v>43957.0</v>
       </c>
-      <c r="E342" s="7"/>
-      <c r="F342" s="12"/>
+      <c r="E342" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F342" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G342" s="8"/>
-      <c r="H342" s="12"/>
+      <c r="H342" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I342" s="12"/>
       <c r="J342" s="13"/>
-      <c r="K342" s="7"/>
+      <c r="K342" s="37" t="s">
+        <v>413</v>
+      </c>
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
       <c r="N342" s="7"/>
@@ -17361,7 +17401,7 @@
         <f t="shared" si="1"/>
         <v>341</v>
       </c>
-      <c r="B343" s="37" t="s">
+      <c r="B343" s="23" t="s">
         <v>411</v>
       </c>
       <c r="C343" s="36">
@@ -17370,13 +17410,21 @@
       <c r="D343" s="27">
         <v>43957.0</v>
       </c>
-      <c r="E343" s="7"/>
-      <c r="F343" s="12"/>
+      <c r="E343" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F343" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G343" s="8"/>
-      <c r="H343" s="12"/>
+      <c r="H343" s="29" t="s">
+        <v>414</v>
+      </c>
       <c r="I343" s="12"/>
       <c r="J343" s="13"/>
-      <c r="K343" s="7"/>
+      <c r="K343" s="37" t="s">
+        <v>413</v>
+      </c>
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
       <c r="N343" s="7"/>
@@ -17394,17 +17442,34 @@
       <c r="Z343" s="7"/>
     </row>
     <row r="344" ht="18.0" customHeight="1">
-      <c r="A344" s="8"/>
-      <c r="B344" s="7"/>
-      <c r="C344" s="8"/>
-      <c r="D344" s="8"/>
-      <c r="E344" s="7"/>
-      <c r="F344" s="12"/>
+      <c r="A344" s="8">
+        <f t="shared" si="1"/>
+        <v>342</v>
+      </c>
+      <c r="B344" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="C344" s="36">
+        <v>43958.0</v>
+      </c>
+      <c r="D344" s="27">
+        <v>43958.0</v>
+      </c>
+      <c r="E344" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F344" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G344" s="8"/>
-      <c r="H344" s="12"/>
+      <c r="H344" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I344" s="12"/>
       <c r="J344" s="13"/>
-      <c r="K344" s="7"/>
+      <c r="K344" s="37" t="s">
+        <v>416</v>
+      </c>
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
       <c r="N344" s="7"/>
@@ -17422,17 +17487,34 @@
       <c r="Z344" s="7"/>
     </row>
     <row r="345" ht="18.0" customHeight="1">
-      <c r="A345" s="8"/>
-      <c r="B345" s="7"/>
-      <c r="C345" s="8"/>
-      <c r="D345" s="8"/>
-      <c r="E345" s="7"/>
-      <c r="F345" s="12"/>
+      <c r="A345" s="8">
+        <f t="shared" si="1"/>
+        <v>343</v>
+      </c>
+      <c r="B345" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="C345" s="36">
+        <v>43958.0</v>
+      </c>
+      <c r="D345" s="27">
+        <v>43958.0</v>
+      </c>
+      <c r="E345" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F345" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G345" s="8"/>
-      <c r="H345" s="12"/>
+      <c r="H345" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I345" s="12"/>
       <c r="J345" s="13"/>
-      <c r="K345" s="7"/>
+      <c r="K345" s="37" t="s">
+        <v>416</v>
+      </c>
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
       <c r="N345" s="7"/>
@@ -17450,17 +17532,34 @@
       <c r="Z345" s="7"/>
     </row>
     <row r="346" ht="18.0" customHeight="1">
-      <c r="A346" s="8"/>
-      <c r="B346" s="7"/>
-      <c r="C346" s="8"/>
-      <c r="D346" s="8"/>
-      <c r="E346" s="7"/>
-      <c r="F346" s="12"/>
+      <c r="A346" s="8">
+        <f t="shared" si="1"/>
+        <v>344</v>
+      </c>
+      <c r="B346" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="C346" s="36">
+        <v>43958.0</v>
+      </c>
+      <c r="D346" s="27">
+        <v>43958.0</v>
+      </c>
+      <c r="E346" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="F346" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G346" s="8"/>
-      <c r="H346" s="12"/>
+      <c r="H346" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I346" s="12"/>
       <c r="J346" s="13"/>
-      <c r="K346" s="7"/>
+      <c r="K346" s="37" t="s">
+        <v>416</v>
+      </c>
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
       <c r="N346" s="7"/>
@@ -17478,17 +17577,34 @@
       <c r="Z346" s="7"/>
     </row>
     <row r="347" ht="18.0" customHeight="1">
-      <c r="A347" s="8"/>
-      <c r="B347" s="7"/>
-      <c r="C347" s="8"/>
-      <c r="D347" s="8"/>
-      <c r="E347" s="7"/>
-      <c r="F347" s="12"/>
+      <c r="A347" s="8">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="B347" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="C347" s="36">
+        <v>43958.0</v>
+      </c>
+      <c r="D347" s="27">
+        <v>43958.0</v>
+      </c>
+      <c r="E347" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="F347" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G347" s="8"/>
-      <c r="H347" s="12"/>
+      <c r="H347" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I347" s="12"/>
       <c r="J347" s="13"/>
-      <c r="K347" s="7"/>
+      <c r="K347" s="37" t="s">
+        <v>416</v>
+      </c>
       <c r="L347" s="7"/>
       <c r="M347" s="7"/>
       <c r="N347" s="7"/>
@@ -17506,17 +17622,34 @@
       <c r="Z347" s="7"/>
     </row>
     <row r="348" ht="18.0" customHeight="1">
-      <c r="A348" s="8"/>
-      <c r="B348" s="7"/>
-      <c r="C348" s="8"/>
-      <c r="D348" s="8"/>
-      <c r="E348" s="7"/>
-      <c r="F348" s="12"/>
+      <c r="A348" s="8">
+        <f t="shared" si="1"/>
+        <v>346</v>
+      </c>
+      <c r="B348" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="C348" s="36">
+        <v>43958.0</v>
+      </c>
+      <c r="D348" s="27">
+        <v>43958.0</v>
+      </c>
+      <c r="E348" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="F348" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G348" s="8"/>
-      <c r="H348" s="12"/>
+      <c r="H348" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I348" s="12"/>
       <c r="J348" s="13"/>
-      <c r="K348" s="7"/>
+      <c r="K348" s="37" t="s">
+        <v>416</v>
+      </c>
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
       <c r="N348" s="7"/>
@@ -17534,17 +17667,34 @@
       <c r="Z348" s="7"/>
     </row>
     <row r="349" ht="18.0" customHeight="1">
-      <c r="A349" s="8"/>
-      <c r="B349" s="7"/>
-      <c r="C349" s="8"/>
-      <c r="D349" s="8"/>
-      <c r="E349" s="7"/>
-      <c r="F349" s="12"/>
+      <c r="A349" s="8">
+        <f t="shared" si="1"/>
+        <v>347</v>
+      </c>
+      <c r="B349" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="C349" s="36">
+        <v>43958.0</v>
+      </c>
+      <c r="D349" s="27">
+        <v>43958.0</v>
+      </c>
+      <c r="E349" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="F349" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="G349" s="8"/>
-      <c r="H349" s="12"/>
+      <c r="H349" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="I349" s="12"/>
       <c r="J349" s="13"/>
-      <c r="K349" s="7"/>
+      <c r="K349" s="37" t="s">
+        <v>416</v>
+      </c>
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
       <c r="N349" s="7"/>
@@ -35978,10 +36128,19 @@
     <hyperlink r:id="rId156" ref="K338"/>
     <hyperlink r:id="rId157" ref="K339"/>
     <hyperlink r:id="rId158" ref="K340"/>
+    <hyperlink r:id="rId159" ref="K341"/>
+    <hyperlink r:id="rId160" ref="K342"/>
+    <hyperlink r:id="rId161" ref="K343"/>
+    <hyperlink r:id="rId162" ref="K344"/>
+    <hyperlink r:id="rId163" ref="K345"/>
+    <hyperlink r:id="rId164" ref="K346"/>
+    <hyperlink r:id="rId165" ref="K347"/>
+    <hyperlink r:id="rId166" ref="K348"/>
+    <hyperlink r:id="rId167" ref="K349"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId159"/>
+  <drawing r:id="rId168"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="417">
   <si>
     <t>2020-05-08T17:00:00.000Z</t>
   </si>
@@ -938,6 +938,9 @@
     <t>京都市72例目の接触者</t>
   </si>
   <si>
+    <t>小学生男児</t>
+  </si>
+  <si>
     <t>京都府117例目の接触者</t>
   </si>
   <si>
@@ -1395,9 +1398,6 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269365/200505oshirase(225-228).pdf</t>
-  </si>
-  <si>
-    <t>小学生男児</t>
   </si>
   <si>
     <t>2020-05-06T08:00:00.000Z</t>
@@ -1427,7 +1427,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1435,15 +1435,11 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
       <name val="游ゴシック regular"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="游ゴシック regular"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック regular"/>
@@ -1483,13 +1479,13 @@
     <font>
       <u/>
       <sz val="11.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="游ゴシック regular"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="游ゴシック regular"/>
     </font>
     <font>
@@ -1534,7 +1530,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1556,101 +1552,98 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8500,7 +8493,9 @@
       <c r="D143" s="10">
         <v>43928.0</v>
       </c>
-      <c r="E143" s="7"/>
+      <c r="E143" s="25" t="s">
+        <v>257</v>
+      </c>
       <c r="F143" s="12" t="s">
         <v>253</v>
       </c>
@@ -8512,7 +8507,7 @@
       </c>
       <c r="I143" s="12"/>
       <c r="J143" s="13"/>
-      <c r="K143" s="7" t="s">
+      <c r="K143" s="26" t="s">
         <v>255</v>
       </c>
       <c r="L143" s="7"/>
@@ -8545,7 +8540,9 @@
       <c r="D144" s="10">
         <v>43928.0</v>
       </c>
-      <c r="E144" s="7"/>
+      <c r="E144" s="25" t="s">
+        <v>257</v>
+      </c>
       <c r="F144" s="12" t="s">
         <v>253</v>
       </c>
@@ -8600,7 +8597,7 @@
         <v>117.0</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I145" s="12"/>
       <c r="J145" s="18">
@@ -8719,7 +8716,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C148" s="9">
         <v>43929.0</v>
@@ -8737,12 +8734,12 @@
         <v>118.0</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I148" s="12"/>
       <c r="J148" s="13"/>
       <c r="K148" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
@@ -8766,7 +8763,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C149" s="9">
         <v>43929.0</v>
@@ -8784,12 +8781,12 @@
         <v>118.0</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I149" s="12"/>
       <c r="J149" s="13"/>
       <c r="K149" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
@@ -8813,7 +8810,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C150" s="9">
         <v>43929.0</v>
@@ -8834,7 +8831,7 @@
         <v>43948.0</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
@@ -8858,7 +8855,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C151" s="9">
         <v>43929.0</v>
@@ -8876,14 +8873,14 @@
         <v>119.0</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I151" s="12"/>
       <c r="J151" s="18">
         <v>43944.0</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
@@ -8907,7 +8904,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C152" s="9">
         <v>43929.0</v>
@@ -8925,12 +8922,12 @@
         <v>136.0</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I152" s="12"/>
       <c r="J152" s="13"/>
       <c r="K152" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
@@ -8954,7 +8951,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C153" s="9">
         <v>43929.0</v>
@@ -8975,7 +8972,7 @@
         <v>43941.0</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
@@ -8999,7 +8996,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C154" s="9">
         <v>43929.0</v>
@@ -9017,12 +9014,12 @@
         <v>111.0</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I154" s="12"/>
       <c r="J154" s="13"/>
       <c r="K154" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
@@ -9046,7 +9043,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C155" s="9">
         <v>43929.0</v>
@@ -9065,7 +9062,7 @@
       <c r="I155" s="12"/>
       <c r="J155" s="13"/>
       <c r="K155" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
@@ -9089,7 +9086,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C156" s="9">
         <v>43929.0</v>
@@ -9110,7 +9107,7 @@
         <v>43942.0</v>
       </c>
       <c r="K156" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
@@ -9134,7 +9131,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C157" s="9">
         <v>43929.0</v>
@@ -9155,7 +9152,7 @@
         <v>43936.0</v>
       </c>
       <c r="K157" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
@@ -9179,7 +9176,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C158" s="9">
         <v>43930.0</v>
@@ -9198,7 +9195,7 @@
       <c r="I158" s="12"/>
       <c r="J158" s="13"/>
       <c r="K158" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
@@ -9222,7 +9219,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C159" s="9">
         <v>43930.0</v>
@@ -9241,7 +9238,7 @@
       <c r="I159" s="12"/>
       <c r="J159" s="13"/>
       <c r="K159" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
@@ -9265,7 +9262,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C160" s="9">
         <v>43930.0</v>
@@ -9281,14 +9278,14 @@
       </c>
       <c r="G160" s="8"/>
       <c r="H160" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I160" s="12"/>
       <c r="J160" s="18">
         <v>43937.0</v>
       </c>
       <c r="K160" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
@@ -9312,7 +9309,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C161" s="9">
         <v>43930.0</v>
@@ -9333,7 +9330,7 @@
         <v>43942.0</v>
       </c>
       <c r="K161" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
@@ -9357,7 +9354,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C162" s="9">
         <v>43930.0</v>
@@ -9373,12 +9370,12 @@
       </c>
       <c r="G162" s="8"/>
       <c r="H162" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I162" s="12"/>
       <c r="J162" s="13"/>
       <c r="K162" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
@@ -9402,7 +9399,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C163" s="9">
         <v>43930.0</v>
@@ -9418,12 +9415,12 @@
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I163" s="12"/>
       <c r="J163" s="13"/>
       <c r="K163" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
@@ -9447,7 +9444,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C164" s="9">
         <v>43930.0</v>
@@ -9463,14 +9460,14 @@
       </c>
       <c r="G164" s="8"/>
       <c r="H164" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I164" s="12"/>
       <c r="J164" s="18">
         <v>43939.0</v>
       </c>
       <c r="K164" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
@@ -9494,7 +9491,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C165" s="9">
         <v>43930.0</v>
@@ -9512,12 +9509,12 @@
         <v>131.0</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I165" s="12"/>
       <c r="J165" s="18"/>
       <c r="K165" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
@@ -9541,7 +9538,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C166" s="9">
         <v>43930.0</v>
@@ -9562,7 +9559,7 @@
         <v>43938.0</v>
       </c>
       <c r="K166" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
@@ -9586,7 +9583,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C167" s="9">
         <v>43930.0</v>
@@ -9602,14 +9599,14 @@
       </c>
       <c r="G167" s="8"/>
       <c r="H167" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I167" s="12"/>
       <c r="J167" s="18">
         <v>43940.0</v>
       </c>
       <c r="K167" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
@@ -9633,7 +9630,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C168" s="9">
         <v>43931.0</v>
@@ -9651,12 +9648,12 @@
         <v>127.0</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I168" s="12"/>
       <c r="J168" s="13"/>
       <c r="K168" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
@@ -9680,7 +9677,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C169" s="9">
         <v>43931.0</v>
@@ -9699,7 +9696,7 @@
       <c r="I169" s="12"/>
       <c r="J169" s="13"/>
       <c r="K169" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
@@ -9723,7 +9720,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C170" s="9">
         <v>43931.0</v>
@@ -9732,7 +9729,7 @@
         <v>43931.0</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F170" s="12" t="s">
         <v>252</v>
@@ -9741,12 +9738,12 @@
         <v>136.0</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I170" s="12"/>
       <c r="J170" s="13"/>
       <c r="K170" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
@@ -9770,7 +9767,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C171" s="9">
         <v>43931.0</v>
@@ -9786,12 +9783,12 @@
       </c>
       <c r="G171" s="8"/>
       <c r="H171" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I171" s="12"/>
       <c r="J171" s="13"/>
       <c r="K171" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
@@ -9815,7 +9812,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C172" s="9">
         <v>43931.0</v>
@@ -9834,7 +9831,7 @@
       <c r="I172" s="12"/>
       <c r="J172" s="13"/>
       <c r="K172" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
@@ -9858,7 +9855,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C173" s="9">
         <v>43931.0</v>
@@ -9876,12 +9873,12 @@
         <v>172.0</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I173" s="12"/>
       <c r="J173" s="13"/>
       <c r="K173" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
@@ -9905,7 +9902,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C174" s="9">
         <v>43931.0</v>
@@ -9923,12 +9920,12 @@
         <v>171.0</v>
       </c>
       <c r="H174" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I174" s="12"/>
       <c r="J174" s="13"/>
       <c r="K174" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
@@ -9952,7 +9949,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C175" s="9">
         <v>43931.0</v>
@@ -9967,15 +9964,15 @@
         <v>15</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H175" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I175" s="12"/>
       <c r="J175" s="13"/>
       <c r="K175" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
@@ -9999,7 +9996,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C176" s="9">
         <v>43931.0</v>
@@ -10018,7 +10015,7 @@
       <c r="I176" s="12"/>
       <c r="J176" s="13"/>
       <c r="K176" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
@@ -10042,7 +10039,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C177" s="9">
         <v>43932.0</v>
@@ -10061,7 +10058,7 @@
       <c r="I177" s="12"/>
       <c r="J177" s="13"/>
       <c r="K177" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
@@ -10085,7 +10082,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C178" s="9">
         <v>43932.0</v>
@@ -10101,12 +10098,12 @@
       </c>
       <c r="G178" s="8"/>
       <c r="H178" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I178" s="12"/>
       <c r="J178" s="13"/>
       <c r="K178" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
@@ -10130,7 +10127,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C179" s="9">
         <v>43932.0</v>
@@ -10142,14 +10139,14 @@
         <v>14</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G179" s="8"/>
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
       <c r="J179" s="13"/>
       <c r="K179" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
@@ -10173,7 +10170,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C180" s="9">
         <v>43932.0</v>
@@ -10192,7 +10189,7 @@
       <c r="I180" s="12"/>
       <c r="J180" s="13"/>
       <c r="K180" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
@@ -10216,7 +10213,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C181" s="9">
         <v>43932.0</v>
@@ -10235,7 +10232,7 @@
       <c r="I181" s="12"/>
       <c r="J181" s="13"/>
       <c r="K181" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
@@ -10259,7 +10256,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C182" s="9">
         <v>43932.0</v>
@@ -10277,12 +10274,12 @@
         <v>158.0</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I182" s="12"/>
       <c r="J182" s="13"/>
       <c r="K182" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
@@ -10306,7 +10303,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C183" s="9">
         <v>43932.0</v>
@@ -10325,7 +10322,7 @@
       <c r="I183" s="12"/>
       <c r="J183" s="13"/>
       <c r="K183" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
@@ -10349,7 +10346,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C184" s="9">
         <v>43933.0</v>
@@ -10365,12 +10362,12 @@
       </c>
       <c r="G184" s="8"/>
       <c r="H184" s="12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I184" s="12"/>
       <c r="J184" s="13"/>
       <c r="K184" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
@@ -10394,7 +10391,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C185" s="9">
         <v>43933.0</v>
@@ -10412,12 +10409,12 @@
         <v>173.0</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I185" s="12"/>
       <c r="J185" s="13"/>
       <c r="K185" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
@@ -10441,7 +10438,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C186" s="9">
         <v>43933.0</v>
@@ -10459,12 +10456,12 @@
         <v>173.0</v>
       </c>
       <c r="H186" s="12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I186" s="12"/>
       <c r="J186" s="13"/>
       <c r="K186" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
@@ -10488,7 +10485,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C187" s="9">
         <v>43933.0</v>
@@ -10497,21 +10494,21 @@
         <v>43933.0</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F187" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H187" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I187" s="12"/>
       <c r="J187" s="13"/>
       <c r="K187" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
@@ -10535,7 +10532,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C188" s="9">
         <v>43933.0</v>
@@ -10544,21 +10541,21 @@
         <v>43933.0</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F188" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H188" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I188" s="12"/>
       <c r="J188" s="13"/>
       <c r="K188" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
@@ -10582,7 +10579,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C189" s="9">
         <v>43933.0</v>
@@ -10598,12 +10595,12 @@
       </c>
       <c r="G189" s="8"/>
       <c r="H189" s="12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I189" s="12"/>
       <c r="J189" s="13"/>
       <c r="K189" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
@@ -10627,7 +10624,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C190" s="9">
         <v>43933.0</v>
@@ -10646,7 +10643,7 @@
       <c r="I190" s="12"/>
       <c r="J190" s="13"/>
       <c r="K190" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
@@ -10670,7 +10667,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C191" s="9">
         <v>43933.0</v>
@@ -10686,12 +10683,12 @@
       </c>
       <c r="G191" s="8"/>
       <c r="H191" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I191" s="12"/>
       <c r="J191" s="13"/>
       <c r="K191" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
@@ -10715,7 +10712,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C192" s="9">
         <v>43933.0</v>
@@ -10734,7 +10731,7 @@
       <c r="I192" s="12"/>
       <c r="J192" s="13"/>
       <c r="K192" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
@@ -10758,7 +10755,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C193" s="9">
         <v>43933.0</v>
@@ -10777,7 +10774,7 @@
       <c r="I193" s="12"/>
       <c r="J193" s="13"/>
       <c r="K193" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
@@ -10801,7 +10798,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C194" s="9">
         <v>43933.0</v>
@@ -10813,16 +10810,16 @@
         <v>56</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G194" s="8"/>
       <c r="H194" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I194" s="12"/>
       <c r="J194" s="13"/>
       <c r="K194" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
@@ -10846,7 +10843,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C195" s="9">
         <v>43933.0</v>
@@ -10865,7 +10862,7 @@
       <c r="I195" s="12"/>
       <c r="J195" s="13"/>
       <c r="K195" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
@@ -10889,7 +10886,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C196" s="9">
         <v>43934.0</v>
@@ -10908,7 +10905,7 @@
       <c r="I196" s="12"/>
       <c r="J196" s="13"/>
       <c r="K196" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
@@ -10932,7 +10929,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C197" s="9">
         <v>43934.0</v>
@@ -10951,7 +10948,7 @@
       <c r="I197" s="12"/>
       <c r="J197" s="13"/>
       <c r="K197" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
@@ -10975,7 +10972,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C198" s="9">
         <v>43934.0</v>
@@ -10994,7 +10991,7 @@
       <c r="I198" s="12"/>
       <c r="J198" s="13"/>
       <c r="K198" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
@@ -11018,7 +11015,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C199" s="9">
         <v>43934.0</v>
@@ -11039,7 +11036,7 @@
         <v>43949.0</v>
       </c>
       <c r="K199" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
@@ -11063,7 +11060,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C200" s="9">
         <v>43934.0</v>
@@ -11084,7 +11081,7 @@
         <v>43949.0</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
@@ -11108,7 +11105,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C201" s="9">
         <v>43934.0</v>
@@ -11117,19 +11114,19 @@
         <v>43934.0</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G201" s="8"/>
       <c r="H201" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I201" s="12"/>
       <c r="J201" s="13"/>
       <c r="K201" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
@@ -11153,7 +11150,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C202" s="9">
         <v>43934.0</v>
@@ -11169,12 +11166,12 @@
       </c>
       <c r="G202" s="8"/>
       <c r="H202" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I202" s="12"/>
       <c r="J202" s="13"/>
       <c r="K202" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
@@ -11198,7 +11195,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C203" s="9">
         <v>43934.0</v>
@@ -11214,12 +11211,12 @@
       </c>
       <c r="G203" s="8"/>
       <c r="H203" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I203" s="12"/>
       <c r="J203" s="13"/>
       <c r="K203" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
@@ -11243,7 +11240,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C204" s="9">
         <v>43934.0</v>
@@ -11259,12 +11256,12 @@
       </c>
       <c r="G204" s="8"/>
       <c r="H204" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I204" s="12"/>
       <c r="J204" s="13"/>
       <c r="K204" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
@@ -11288,7 +11285,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C205" s="9">
         <v>43934.0</v>
@@ -11304,12 +11301,12 @@
       </c>
       <c r="G205" s="8"/>
       <c r="H205" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I205" s="12"/>
       <c r="J205" s="13"/>
       <c r="K205" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
@@ -11333,7 +11330,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C206" s="9">
         <v>43934.0</v>
@@ -11349,12 +11346,12 @@
       </c>
       <c r="G206" s="8"/>
       <c r="H206" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I206" s="12"/>
       <c r="J206" s="13"/>
       <c r="K206" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
@@ -11378,7 +11375,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C207" s="9">
         <v>43934.0</v>
@@ -11394,12 +11391,12 @@
       </c>
       <c r="G207" s="8"/>
       <c r="H207" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I207" s="12"/>
       <c r="J207" s="13"/>
       <c r="K207" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
@@ -11423,7 +11420,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C208" s="9">
         <v>43935.0</v>
@@ -11441,14 +11438,14 @@
         <v>90.0</v>
       </c>
       <c r="H208" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I208" s="12"/>
       <c r="J208" s="18">
         <v>43954.0</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
@@ -11472,7 +11469,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C209" s="9">
         <v>43935.0</v>
@@ -11488,12 +11485,12 @@
       </c>
       <c r="G209" s="8"/>
       <c r="H209" s="12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I209" s="12"/>
       <c r="J209" s="13"/>
       <c r="K209" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
@@ -11517,7 +11514,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C210" s="9">
         <v>43935.0</v>
@@ -11533,12 +11530,12 @@
       </c>
       <c r="G210" s="8"/>
       <c r="H210" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I210" s="12"/>
       <c r="J210" s="13"/>
       <c r="K210" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L210" s="7"/>
       <c r="M210" s="7"/>
@@ -11562,7 +11559,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C211" s="9">
         <v>43935.0</v>
@@ -11578,12 +11575,12 @@
       </c>
       <c r="G211" s="8"/>
       <c r="H211" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I211" s="12"/>
       <c r="J211" s="13"/>
       <c r="K211" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L211" s="7"/>
       <c r="M211" s="7"/>
@@ -11607,7 +11604,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C212" s="9">
         <v>43935.0</v>
@@ -11626,7 +11623,7 @@
       <c r="I212" s="12"/>
       <c r="J212" s="13"/>
       <c r="K212" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
@@ -11650,7 +11647,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C213" s="9">
         <v>43936.0</v>
@@ -11669,7 +11666,7 @@
       <c r="I213" s="12"/>
       <c r="J213" s="13"/>
       <c r="K213" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L213" s="7"/>
       <c r="M213" s="7"/>
@@ -11693,7 +11690,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C214" s="9">
         <v>43936.0</v>
@@ -11709,12 +11706,12 @@
       </c>
       <c r="G214" s="8"/>
       <c r="H214" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I214" s="12"/>
       <c r="J214" s="13"/>
       <c r="K214" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L214" s="7"/>
       <c r="M214" s="7"/>
@@ -11738,7 +11735,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C215" s="9">
         <v>43936.0</v>
@@ -11754,12 +11751,12 @@
       </c>
       <c r="G215" s="8"/>
       <c r="H215" s="12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I215" s="12"/>
       <c r="J215" s="13"/>
       <c r="K215" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L215" s="7"/>
       <c r="M215" s="7"/>
@@ -11783,7 +11780,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C216" s="9">
         <v>43936.0</v>
@@ -11801,12 +11798,12 @@
         <v>107.0</v>
       </c>
       <c r="H216" s="12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I216" s="12"/>
       <c r="J216" s="13"/>
       <c r="K216" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
@@ -11830,7 +11827,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C217" s="9">
         <v>43936.0</v>
@@ -11849,7 +11846,7 @@
       <c r="I217" s="12"/>
       <c r="J217" s="13"/>
       <c r="K217" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
@@ -11873,7 +11870,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C218" s="9">
         <v>43937.0</v>
@@ -11892,7 +11889,7 @@
       <c r="I218" s="12"/>
       <c r="J218" s="13"/>
       <c r="K218" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L218" s="7"/>
       <c r="M218" s="7"/>
@@ -11916,7 +11913,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C219" s="9">
         <v>43937.0</v>
@@ -11937,7 +11934,7 @@
         <v>43954.0</v>
       </c>
       <c r="K219" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
@@ -11961,7 +11958,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C220" s="9">
         <v>43937.0</v>
@@ -11973,14 +11970,14 @@
         <v>20</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G220" s="8"/>
       <c r="H220" s="12"/>
       <c r="I220" s="12"/>
       <c r="J220" s="13"/>
       <c r="K220" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
@@ -12004,7 +12001,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C221" s="9">
         <v>43937.0</v>
@@ -12025,7 +12022,7 @@
         <v>43945.0</v>
       </c>
       <c r="K221" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L221" s="7"/>
       <c r="M221" s="7"/>
@@ -12049,7 +12046,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C222" s="9">
         <v>43937.0</v>
@@ -12067,12 +12064,12 @@
         <v>192.0</v>
       </c>
       <c r="H222" s="12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I222" s="12"/>
       <c r="J222" s="13"/>
       <c r="K222" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L222" s="7"/>
       <c r="M222" s="7"/>
@@ -12096,7 +12093,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C223" s="9">
         <v>43937.0</v>
@@ -12115,7 +12112,7 @@
       <c r="I223" s="12"/>
       <c r="J223" s="13"/>
       <c r="K223" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
@@ -12139,7 +12136,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C224" s="9">
         <v>43937.0</v>
@@ -12157,8 +12154,8 @@
       <c r="H224" s="12"/>
       <c r="I224" s="12"/>
       <c r="J224" s="13"/>
-      <c r="K224" s="25" t="s">
-        <v>326</v>
+      <c r="K224" s="27" t="s">
+        <v>327</v>
       </c>
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
@@ -12182,7 +12179,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C225" s="9">
         <v>43937.0</v>
@@ -12200,8 +12197,8 @@
       <c r="H225" s="12"/>
       <c r="I225" s="12"/>
       <c r="J225" s="13"/>
-      <c r="K225" s="25" t="s">
-        <v>326</v>
+      <c r="K225" s="27" t="s">
+        <v>327</v>
       </c>
       <c r="L225" s="7"/>
       <c r="M225" s="7"/>
@@ -12225,7 +12222,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C226" s="9">
         <v>43937.0</v>
@@ -12234,7 +12231,7 @@
         <v>43937.0</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F226" s="12" t="s">
         <v>15</v>
@@ -12243,8 +12240,8 @@
       <c r="H226" s="12"/>
       <c r="I226" s="12"/>
       <c r="J226" s="13"/>
-      <c r="K226" s="25" t="s">
-        <v>326</v>
+      <c r="K226" s="27" t="s">
+        <v>327</v>
       </c>
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
@@ -12268,7 +12265,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C227" s="9">
         <v>43937.0</v>
@@ -12277,7 +12274,7 @@
         <v>43937.0</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F227" s="12" t="s">
         <v>15</v>
@@ -12286,8 +12283,8 @@
       <c r="H227" s="12"/>
       <c r="I227" s="12"/>
       <c r="J227" s="13"/>
-      <c r="K227" s="25" t="s">
-        <v>326</v>
+      <c r="K227" s="27" t="s">
+        <v>327</v>
       </c>
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
@@ -12311,26 +12308,26 @@
         <v>226</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C228" s="26">
+        <v>328</v>
+      </c>
+      <c r="C228" s="28">
         <v>43938.0</v>
       </c>
-      <c r="D228" s="27">
+      <c r="D228" s="29">
         <v>43938.0</v>
       </c>
-      <c r="E228" s="28" t="s">
+      <c r="E228" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F228" s="29" t="s">
+      <c r="F228" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G228" s="8"/>
       <c r="H228" s="12"/>
       <c r="I228" s="12"/>
       <c r="J228" s="13"/>
-      <c r="K228" s="30" t="s">
-        <v>328</v>
+      <c r="K228" s="26" t="s">
+        <v>329</v>
       </c>
       <c r="L228" s="7"/>
       <c r="M228" s="7"/>
@@ -12354,26 +12351,26 @@
         <v>227</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C229" s="26">
+        <v>328</v>
+      </c>
+      <c r="C229" s="28">
         <v>43938.0</v>
       </c>
-      <c r="D229" s="27">
+      <c r="D229" s="29">
         <v>43938.0</v>
       </c>
-      <c r="E229" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="F229" s="29" t="s">
+      <c r="E229" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="F229" s="30" t="s">
         <v>45</v>
       </c>
       <c r="G229" s="8"/>
       <c r="H229" s="12"/>
       <c r="I229" s="12"/>
       <c r="J229" s="13"/>
-      <c r="K229" s="25" t="s">
-        <v>328</v>
+      <c r="K229" s="27" t="s">
+        <v>329</v>
       </c>
       <c r="L229" s="7"/>
       <c r="M229" s="7"/>
@@ -12397,30 +12394,30 @@
         <v>228</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C230" s="26">
+        <v>328</v>
+      </c>
+      <c r="C230" s="28">
         <v>43938.0</v>
       </c>
-      <c r="D230" s="27">
+      <c r="D230" s="29">
         <v>43938.0</v>
       </c>
-      <c r="E230" s="28" t="s">
+      <c r="E230" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F230" s="29" t="s">
-        <v>330</v>
+      <c r="F230" s="30" t="s">
+        <v>331</v>
       </c>
       <c r="G230" s="31">
         <v>219.0</v>
       </c>
-      <c r="H230" s="29" t="s">
-        <v>331</v>
+      <c r="H230" s="30" t="s">
+        <v>332</v>
       </c>
       <c r="I230" s="12"/>
       <c r="J230" s="13"/>
-      <c r="K230" s="25" t="s">
-        <v>328</v>
+      <c r="K230" s="27" t="s">
+        <v>329</v>
       </c>
       <c r="L230" s="7"/>
       <c r="M230" s="7"/>
@@ -12444,26 +12441,26 @@
         <v>229</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C231" s="26">
+        <v>328</v>
+      </c>
+      <c r="C231" s="28">
         <v>43938.0</v>
       </c>
-      <c r="D231" s="27">
+      <c r="D231" s="29">
         <v>43938.0</v>
       </c>
-      <c r="E231" s="28" t="s">
+      <c r="E231" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F231" s="29" t="s">
+      <c r="F231" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G231" s="8"/>
       <c r="H231" s="12"/>
       <c r="I231" s="12"/>
       <c r="J231" s="13"/>
-      <c r="K231" s="30" t="s">
-        <v>332</v>
+      <c r="K231" s="26" t="s">
+        <v>333</v>
       </c>
       <c r="L231" s="7"/>
       <c r="M231" s="7"/>
@@ -12487,26 +12484,26 @@
         <v>230</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C232" s="26">
+        <v>328</v>
+      </c>
+      <c r="C232" s="28">
         <v>43938.0</v>
       </c>
-      <c r="D232" s="27">
+      <c r="D232" s="29">
         <v>43938.0</v>
       </c>
-      <c r="E232" s="28" t="s">
+      <c r="E232" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F232" s="29" t="s">
+      <c r="F232" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G232" s="8"/>
       <c r="H232" s="12"/>
       <c r="I232" s="12"/>
       <c r="J232" s="13"/>
-      <c r="K232" s="25" t="s">
-        <v>332</v>
+      <c r="K232" s="27" t="s">
+        <v>333</v>
       </c>
       <c r="L232" s="7"/>
       <c r="M232" s="7"/>
@@ -12530,26 +12527,26 @@
         <v>231</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C233" s="26">
+        <v>328</v>
+      </c>
+      <c r="C233" s="28">
         <v>43938.0</v>
       </c>
-      <c r="D233" s="27">
+      <c r="D233" s="29">
         <v>43938.0</v>
       </c>
-      <c r="E233" s="28" t="s">
+      <c r="E233" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F233" s="29" t="s">
+      <c r="F233" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G233" s="8"/>
       <c r="H233" s="12"/>
       <c r="I233" s="12"/>
       <c r="J233" s="13"/>
-      <c r="K233" s="25" t="s">
-        <v>332</v>
+      <c r="K233" s="27" t="s">
+        <v>333</v>
       </c>
       <c r="L233" s="7"/>
       <c r="M233" s="7"/>
@@ -12573,26 +12570,26 @@
         <v>232</v>
       </c>
       <c r="B234" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C234" s="26">
+        <v>328</v>
+      </c>
+      <c r="C234" s="28">
         <v>43938.0</v>
       </c>
-      <c r="D234" s="27">
+      <c r="D234" s="29">
         <v>43938.0</v>
       </c>
-      <c r="E234" s="28" t="s">
+      <c r="E234" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F234" s="29" t="s">
+      <c r="F234" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G234" s="8"/>
       <c r="H234" s="12"/>
       <c r="I234" s="12"/>
       <c r="J234" s="13"/>
-      <c r="K234" s="25" t="s">
-        <v>332</v>
+      <c r="K234" s="27" t="s">
+        <v>333</v>
       </c>
       <c r="L234" s="7"/>
       <c r="M234" s="7"/>
@@ -12616,26 +12613,26 @@
         <v>233</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C235" s="26">
+        <v>328</v>
+      </c>
+      <c r="C235" s="28">
         <v>43938.0</v>
       </c>
-      <c r="D235" s="27">
+      <c r="D235" s="29">
         <v>43938.0</v>
       </c>
-      <c r="E235" s="28" t="s">
+      <c r="E235" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F235" s="29" t="s">
+      <c r="F235" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G235" s="8"/>
       <c r="H235" s="12"/>
       <c r="I235" s="12"/>
       <c r="J235" s="13"/>
-      <c r="K235" s="25" t="s">
-        <v>332</v>
+      <c r="K235" s="27" t="s">
+        <v>333</v>
       </c>
       <c r="L235" s="7"/>
       <c r="M235" s="7"/>
@@ -12659,26 +12656,26 @@
         <v>234</v>
       </c>
       <c r="B236" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C236" s="26">
+        <v>328</v>
+      </c>
+      <c r="C236" s="28">
         <v>43938.0</v>
       </c>
-      <c r="D236" s="27">
+      <c r="D236" s="29">
         <v>43938.0</v>
       </c>
-      <c r="E236" s="28" t="s">
+      <c r="E236" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F236" s="29" t="s">
+      <c r="F236" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G236" s="8"/>
       <c r="H236" s="12"/>
       <c r="I236" s="12"/>
       <c r="J236" s="13"/>
-      <c r="K236" s="25" t="s">
-        <v>332</v>
+      <c r="K236" s="27" t="s">
+        <v>333</v>
       </c>
       <c r="L236" s="7"/>
       <c r="M236" s="7"/>
@@ -12702,26 +12699,26 @@
         <v>235</v>
       </c>
       <c r="B237" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C237" s="26">
+        <v>328</v>
+      </c>
+      <c r="C237" s="28">
         <v>43938.0</v>
       </c>
-      <c r="D237" s="27">
+      <c r="D237" s="29">
         <v>43938.0</v>
       </c>
-      <c r="E237" s="28" t="s">
+      <c r="E237" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F237" s="29" t="s">
+      <c r="F237" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G237" s="8"/>
       <c r="H237" s="12"/>
       <c r="I237" s="12"/>
       <c r="J237" s="13"/>
-      <c r="K237" s="25" t="s">
-        <v>332</v>
+      <c r="K237" s="27" t="s">
+        <v>333</v>
       </c>
       <c r="L237" s="7"/>
       <c r="M237" s="7"/>
@@ -12745,26 +12742,26 @@
         <v>236</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="C238" s="26">
+        <v>334</v>
+      </c>
+      <c r="C238" s="28">
         <v>43939.0</v>
       </c>
-      <c r="D238" s="27">
+      <c r="D238" s="29">
         <v>43939.0</v>
       </c>
-      <c r="E238" s="28" t="s">
+      <c r="E238" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F238" s="29" t="s">
+      <c r="F238" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G238" s="8"/>
       <c r="H238" s="12"/>
       <c r="I238" s="12"/>
       <c r="J238" s="13"/>
-      <c r="K238" s="25" t="s">
-        <v>334</v>
+      <c r="K238" s="27" t="s">
+        <v>335</v>
       </c>
       <c r="L238" s="7"/>
       <c r="M238" s="7"/>
@@ -12788,26 +12785,26 @@
         <v>237</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="C239" s="26">
+        <v>334</v>
+      </c>
+      <c r="C239" s="28">
         <v>43939.0</v>
       </c>
-      <c r="D239" s="27">
+      <c r="D239" s="29">
         <v>43939.0</v>
       </c>
-      <c r="E239" s="28" t="s">
+      <c r="E239" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F239" s="29" t="s">
+      <c r="F239" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G239" s="8"/>
       <c r="H239" s="12"/>
       <c r="I239" s="12"/>
       <c r="J239" s="13"/>
-      <c r="K239" s="25" t="s">
-        <v>334</v>
+      <c r="K239" s="27" t="s">
+        <v>335</v>
       </c>
       <c r="L239" s="7"/>
       <c r="M239" s="7"/>
@@ -12831,26 +12828,26 @@
         <v>238</v>
       </c>
       <c r="B240" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="C240" s="26">
+        <v>334</v>
+      </c>
+      <c r="C240" s="28">
         <v>43939.0</v>
       </c>
-      <c r="D240" s="27">
+      <c r="D240" s="29">
         <v>43939.0</v>
       </c>
-      <c r="E240" s="28" t="s">
+      <c r="E240" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F240" s="29" t="s">
+      <c r="F240" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G240" s="8"/>
       <c r="H240" s="12"/>
       <c r="I240" s="12"/>
       <c r="J240" s="13"/>
-      <c r="K240" s="25" t="s">
-        <v>334</v>
+      <c r="K240" s="27" t="s">
+        <v>335</v>
       </c>
       <c r="L240" s="7"/>
       <c r="M240" s="7"/>
@@ -12874,26 +12871,26 @@
         <v>239</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="C241" s="26">
+        <v>334</v>
+      </c>
+      <c r="C241" s="28">
         <v>43939.0</v>
       </c>
-      <c r="D241" s="27">
+      <c r="D241" s="29">
         <v>43939.0</v>
       </c>
-      <c r="E241" s="28" t="s">
+      <c r="E241" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F241" s="29" t="s">
+      <c r="F241" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G241" s="8"/>
       <c r="H241" s="12"/>
       <c r="I241" s="12"/>
       <c r="J241" s="13"/>
-      <c r="K241" s="25" t="s">
-        <v>334</v>
+      <c r="K241" s="27" t="s">
+        <v>335</v>
       </c>
       <c r="L241" s="7"/>
       <c r="M241" s="7"/>
@@ -12917,26 +12914,26 @@
         <v>240</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="C242" s="26">
+        <v>334</v>
+      </c>
+      <c r="C242" s="28">
         <v>43939.0</v>
       </c>
-      <c r="D242" s="27">
+      <c r="D242" s="29">
         <v>43939.0</v>
       </c>
-      <c r="E242" s="28" t="s">
+      <c r="E242" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F242" s="29" t="s">
+      <c r="F242" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G242" s="8"/>
       <c r="H242" s="12"/>
       <c r="I242" s="12"/>
       <c r="J242" s="13"/>
-      <c r="K242" s="25" t="s">
-        <v>334</v>
+      <c r="K242" s="27" t="s">
+        <v>335</v>
       </c>
       <c r="L242" s="7"/>
       <c r="M242" s="7"/>
@@ -12960,26 +12957,26 @@
         <v>241</v>
       </c>
       <c r="B243" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="C243" s="26">
+        <v>334</v>
+      </c>
+      <c r="C243" s="28">
         <v>43939.0</v>
       </c>
-      <c r="D243" s="27">
+      <c r="D243" s="29">
         <v>43939.0</v>
       </c>
-      <c r="E243" s="28" t="s">
+      <c r="E243" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F243" s="29" t="s">
+      <c r="F243" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G243" s="8"/>
       <c r="H243" s="12"/>
       <c r="I243" s="12"/>
       <c r="J243" s="13"/>
-      <c r="K243" s="25" t="s">
-        <v>334</v>
+      <c r="K243" s="27" t="s">
+        <v>335</v>
       </c>
       <c r="L243" s="7"/>
       <c r="M243" s="7"/>
@@ -13003,26 +13000,26 @@
         <v>242</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="C244" s="26">
+        <v>334</v>
+      </c>
+      <c r="C244" s="28">
         <v>43939.0</v>
       </c>
-      <c r="D244" s="27">
+      <c r="D244" s="29">
         <v>43939.0</v>
       </c>
-      <c r="E244" s="28" t="s">
+      <c r="E244" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F244" s="29" t="s">
+      <c r="F244" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G244" s="8"/>
       <c r="H244" s="12"/>
       <c r="I244" s="12"/>
       <c r="J244" s="13"/>
-      <c r="K244" s="25" t="s">
-        <v>334</v>
+      <c r="K244" s="27" t="s">
+        <v>335</v>
       </c>
       <c r="L244" s="7"/>
       <c r="M244" s="7"/>
@@ -13046,18 +13043,18 @@
         <v>243</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C245" s="26">
+        <v>336</v>
+      </c>
+      <c r="C245" s="28">
         <v>43940.0</v>
       </c>
-      <c r="D245" s="27">
+      <c r="D245" s="29">
         <v>43940.0</v>
       </c>
-      <c r="E245" s="28" t="s">
+      <c r="E245" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F245" s="29" t="s">
+      <c r="F245" s="30" t="s">
         <v>45</v>
       </c>
       <c r="G245" s="8"/>
@@ -13066,8 +13063,8 @@
       <c r="J245" s="18">
         <v>43944.0</v>
       </c>
-      <c r="K245" s="25" t="s">
-        <v>336</v>
+      <c r="K245" s="27" t="s">
+        <v>337</v>
       </c>
       <c r="L245" s="7"/>
       <c r="M245" s="7"/>
@@ -13091,26 +13088,26 @@
         <v>244</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C246" s="26">
+        <v>336</v>
+      </c>
+      <c r="C246" s="28">
         <v>43940.0</v>
       </c>
-      <c r="D246" s="27">
+      <c r="D246" s="29">
         <v>43940.0</v>
       </c>
-      <c r="E246" s="28" t="s">
+      <c r="E246" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F246" s="29" t="s">
+      <c r="F246" s="30" t="s">
         <v>231</v>
       </c>
       <c r="G246" s="8"/>
       <c r="H246" s="12"/>
       <c r="I246" s="12"/>
       <c r="J246" s="13"/>
-      <c r="K246" s="25" t="s">
-        <v>336</v>
+      <c r="K246" s="27" t="s">
+        <v>337</v>
       </c>
       <c r="L246" s="7"/>
       <c r="M246" s="7"/>
@@ -13134,26 +13131,26 @@
         <v>245</v>
       </c>
       <c r="B247" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C247" s="26">
+        <v>336</v>
+      </c>
+      <c r="C247" s="28">
         <v>43940.0</v>
       </c>
-      <c r="D247" s="27">
+      <c r="D247" s="29">
         <v>43940.0</v>
       </c>
-      <c r="E247" s="28" t="s">
+      <c r="E247" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F247" s="29" t="s">
+      <c r="F247" s="30" t="s">
         <v>156</v>
       </c>
       <c r="G247" s="8"/>
       <c r="H247" s="12"/>
       <c r="I247" s="12"/>
       <c r="J247" s="13"/>
-      <c r="K247" s="25" t="s">
-        <v>336</v>
+      <c r="K247" s="27" t="s">
+        <v>337</v>
       </c>
       <c r="L247" s="7"/>
       <c r="M247" s="7"/>
@@ -13177,26 +13174,26 @@
         <v>246</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C248" s="26">
+        <v>336</v>
+      </c>
+      <c r="C248" s="28">
         <v>43940.0</v>
       </c>
-      <c r="D248" s="27">
+      <c r="D248" s="29">
         <v>43940.0</v>
       </c>
-      <c r="E248" s="28" t="s">
+      <c r="E248" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F248" s="29" t="s">
+      <c r="F248" s="30" t="s">
         <v>156</v>
       </c>
       <c r="G248" s="8"/>
       <c r="H248" s="12"/>
       <c r="I248" s="12"/>
       <c r="J248" s="13"/>
-      <c r="K248" s="25" t="s">
-        <v>336</v>
+      <c r="K248" s="27" t="s">
+        <v>337</v>
       </c>
       <c r="L248" s="7"/>
       <c r="M248" s="7"/>
@@ -13220,26 +13217,26 @@
         <v>247</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C249" s="26">
+        <v>336</v>
+      </c>
+      <c r="C249" s="28">
         <v>43940.0</v>
       </c>
-      <c r="D249" s="27">
+      <c r="D249" s="29">
         <v>43940.0</v>
       </c>
-      <c r="E249" s="28" t="s">
+      <c r="E249" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F249" s="29" t="s">
+      <c r="F249" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G249" s="8"/>
       <c r="H249" s="12"/>
       <c r="I249" s="12"/>
       <c r="J249" s="13"/>
-      <c r="K249" s="25" t="s">
-        <v>337</v>
+      <c r="K249" s="27" t="s">
+        <v>338</v>
       </c>
       <c r="L249" s="7"/>
       <c r="M249" s="7"/>
@@ -13263,26 +13260,26 @@
         <v>248</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C250" s="26">
+        <v>336</v>
+      </c>
+      <c r="C250" s="28">
         <v>43940.0</v>
       </c>
-      <c r="D250" s="27">
+      <c r="D250" s="29">
         <v>43940.0</v>
       </c>
-      <c r="E250" s="28" t="s">
+      <c r="E250" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F250" s="29" t="s">
+      <c r="F250" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G250" s="8"/>
       <c r="H250" s="12"/>
       <c r="I250" s="12"/>
       <c r="J250" s="13"/>
-      <c r="K250" s="25" t="s">
-        <v>337</v>
+      <c r="K250" s="27" t="s">
+        <v>338</v>
       </c>
       <c r="L250" s="7"/>
       <c r="M250" s="7"/>
@@ -13306,26 +13303,26 @@
         <v>249</v>
       </c>
       <c r="B251" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C251" s="26">
+        <v>336</v>
+      </c>
+      <c r="C251" s="28">
         <v>43940.0</v>
       </c>
-      <c r="D251" s="27">
+      <c r="D251" s="29">
         <v>43940.0</v>
       </c>
-      <c r="E251" s="28" t="s">
+      <c r="E251" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F251" s="29" t="s">
+      <c r="F251" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G251" s="8"/>
       <c r="H251" s="12"/>
       <c r="I251" s="12"/>
       <c r="J251" s="13"/>
-      <c r="K251" s="25" t="s">
-        <v>337</v>
+      <c r="K251" s="27" t="s">
+        <v>338</v>
       </c>
       <c r="L251" s="7"/>
       <c r="M251" s="7"/>
@@ -13349,26 +13346,26 @@
         <v>250</v>
       </c>
       <c r="B252" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C252" s="26">
+        <v>336</v>
+      </c>
+      <c r="C252" s="28">
         <v>43940.0</v>
       </c>
-      <c r="D252" s="27">
+      <c r="D252" s="29">
         <v>43940.0</v>
       </c>
-      <c r="E252" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="F252" s="29" t="s">
+      <c r="E252" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F252" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G252" s="8"/>
       <c r="H252" s="12"/>
       <c r="I252" s="12"/>
       <c r="J252" s="13"/>
-      <c r="K252" s="25" t="s">
-        <v>337</v>
+      <c r="K252" s="27" t="s">
+        <v>338</v>
       </c>
       <c r="L252" s="7"/>
       <c r="M252" s="7"/>
@@ -13392,26 +13389,26 @@
         <v>251</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C253" s="26">
+        <v>336</v>
+      </c>
+      <c r="C253" s="28">
         <v>43940.0</v>
       </c>
-      <c r="D253" s="27">
+      <c r="D253" s="29">
         <v>43940.0</v>
       </c>
-      <c r="E253" s="28" t="s">
+      <c r="E253" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F253" s="29" t="s">
+      <c r="F253" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G253" s="8"/>
       <c r="H253" s="12"/>
       <c r="I253" s="12"/>
       <c r="J253" s="13"/>
-      <c r="K253" s="25" t="s">
-        <v>337</v>
+      <c r="K253" s="27" t="s">
+        <v>338</v>
       </c>
       <c r="L253" s="7"/>
       <c r="M253" s="7"/>
@@ -13435,32 +13432,32 @@
         <v>252</v>
       </c>
       <c r="B254" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C254" s="26">
+        <v>339</v>
+      </c>
+      <c r="C254" s="28">
         <v>43941.0</v>
       </c>
-      <c r="D254" s="27">
+      <c r="D254" s="29">
         <v>43941.0</v>
       </c>
-      <c r="E254" s="28" t="s">
+      <c r="E254" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F254" s="29" t="s">
+      <c r="F254" s="30" t="s">
         <v>156</v>
       </c>
       <c r="G254" s="31">
         <v>246.0</v>
       </c>
-      <c r="H254" s="29" t="s">
-        <v>339</v>
+      <c r="H254" s="30" t="s">
+        <v>340</v>
       </c>
       <c r="I254" s="12"/>
       <c r="J254" s="18">
         <v>43954.0</v>
       </c>
-      <c r="K254" s="25" t="s">
-        <v>340</v>
+      <c r="K254" s="27" t="s">
+        <v>341</v>
       </c>
       <c r="L254" s="7"/>
       <c r="M254" s="7"/>
@@ -13484,28 +13481,28 @@
         <v>253</v>
       </c>
       <c r="B255" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C255" s="26">
+        <v>339</v>
+      </c>
+      <c r="C255" s="28">
         <v>43941.0</v>
       </c>
-      <c r="D255" s="27">
+      <c r="D255" s="29">
         <v>43941.0</v>
       </c>
-      <c r="E255" s="28" t="s">
+      <c r="E255" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F255" s="29" t="s">
+      <c r="F255" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G255" s="8"/>
-      <c r="H255" s="29" t="s">
-        <v>341</v>
+      <c r="H255" s="30" t="s">
+        <v>342</v>
       </c>
       <c r="I255" s="12"/>
       <c r="J255" s="13"/>
-      <c r="K255" s="25" t="s">
-        <v>342</v>
+      <c r="K255" s="27" t="s">
+        <v>343</v>
       </c>
       <c r="L255" s="7"/>
       <c r="M255" s="7"/>
@@ -13529,30 +13526,30 @@
         <v>254</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C256" s="26">
+        <v>339</v>
+      </c>
+      <c r="C256" s="28">
         <v>43941.0</v>
       </c>
-      <c r="D256" s="27">
+      <c r="D256" s="29">
         <v>43941.0</v>
       </c>
-      <c r="E256" s="28" t="s">
+      <c r="E256" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F256" s="29" t="s">
+      <c r="F256" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G256" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="H256" s="29" t="s">
-        <v>320</v>
+      <c r="H256" s="30" t="s">
+        <v>321</v>
       </c>
       <c r="I256" s="12"/>
       <c r="J256" s="13"/>
-      <c r="K256" s="25" t="s">
-        <v>342</v>
+      <c r="K256" s="27" t="s">
+        <v>343</v>
       </c>
       <c r="L256" s="7"/>
       <c r="M256" s="7"/>
@@ -13576,28 +13573,28 @@
         <v>255</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C257" s="26">
+        <v>339</v>
+      </c>
+      <c r="C257" s="28">
         <v>43941.0</v>
       </c>
-      <c r="D257" s="27">
+      <c r="D257" s="29">
         <v>43941.0</v>
       </c>
-      <c r="E257" s="28" t="s">
+      <c r="E257" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F257" s="29" t="s">
+      <c r="F257" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G257" s="8"/>
-      <c r="H257" s="29" t="s">
-        <v>343</v>
+      <c r="H257" s="30" t="s">
+        <v>344</v>
       </c>
       <c r="I257" s="12"/>
       <c r="J257" s="13"/>
-      <c r="K257" s="25" t="s">
-        <v>342</v>
+      <c r="K257" s="27" t="s">
+        <v>343</v>
       </c>
       <c r="L257" s="7"/>
       <c r="M257" s="7"/>
@@ -13621,28 +13618,28 @@
         <v>256</v>
       </c>
       <c r="B258" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C258" s="26">
+        <v>339</v>
+      </c>
+      <c r="C258" s="28">
         <v>43941.0</v>
       </c>
-      <c r="D258" s="27">
+      <c r="D258" s="29">
         <v>43941.0</v>
       </c>
-      <c r="E258" s="28" t="s">
+      <c r="E258" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F258" s="29" t="s">
+      <c r="F258" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G258" s="8"/>
-      <c r="H258" s="29" t="s">
-        <v>344</v>
+      <c r="H258" s="30" t="s">
+        <v>345</v>
       </c>
       <c r="I258" s="12"/>
       <c r="J258" s="13"/>
-      <c r="K258" s="25" t="s">
-        <v>342</v>
+      <c r="K258" s="27" t="s">
+        <v>343</v>
       </c>
       <c r="L258" s="7"/>
       <c r="M258" s="7"/>
@@ -13666,26 +13663,26 @@
         <v>257</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C259" s="26">
+        <v>339</v>
+      </c>
+      <c r="C259" s="28">
         <v>43941.0</v>
       </c>
-      <c r="D259" s="27">
+      <c r="D259" s="29">
         <v>43941.0</v>
       </c>
-      <c r="E259" s="28" t="s">
+      <c r="E259" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F259" s="29" t="s">
+      <c r="F259" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G259" s="8"/>
       <c r="H259" s="12"/>
       <c r="I259" s="12"/>
       <c r="J259" s="13"/>
-      <c r="K259" s="25" t="s">
-        <v>342</v>
+      <c r="K259" s="27" t="s">
+        <v>343</v>
       </c>
       <c r="L259" s="7"/>
       <c r="M259" s="7"/>
@@ -13709,26 +13706,26 @@
         <v>258</v>
       </c>
       <c r="B260" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C260" s="26">
+        <v>339</v>
+      </c>
+      <c r="C260" s="28">
         <v>43941.0</v>
       </c>
-      <c r="D260" s="27">
+      <c r="D260" s="29">
         <v>43941.0</v>
       </c>
-      <c r="E260" s="28" t="s">
+      <c r="E260" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F260" s="29" t="s">
+      <c r="F260" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G260" s="8"/>
       <c r="H260" s="12"/>
       <c r="I260" s="12"/>
       <c r="J260" s="13"/>
-      <c r="K260" s="25" t="s">
-        <v>342</v>
+      <c r="K260" s="27" t="s">
+        <v>343</v>
       </c>
       <c r="L260" s="7"/>
       <c r="M260" s="7"/>
@@ -13752,26 +13749,26 @@
         <v>259</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C261" s="26">
+        <v>339</v>
+      </c>
+      <c r="C261" s="28">
         <v>43941.0</v>
       </c>
-      <c r="D261" s="27">
+      <c r="D261" s="29">
         <v>43941.0</v>
       </c>
-      <c r="E261" s="28" t="s">
+      <c r="E261" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F261" s="29" t="s">
+      <c r="F261" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G261" s="8"/>
       <c r="H261" s="12"/>
       <c r="I261" s="12"/>
       <c r="J261" s="13"/>
-      <c r="K261" s="25" t="s">
-        <v>342</v>
+      <c r="K261" s="27" t="s">
+        <v>343</v>
       </c>
       <c r="L261" s="7"/>
       <c r="M261" s="7"/>
@@ -13795,30 +13792,30 @@
         <v>260</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="C262" s="26">
+        <v>346</v>
+      </c>
+      <c r="C262" s="28">
         <v>43942.0</v>
       </c>
-      <c r="D262" s="27">
+      <c r="D262" s="29">
         <v>43942.0</v>
       </c>
-      <c r="E262" s="28" t="s">
+      <c r="E262" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F262" s="29" t="s">
+      <c r="F262" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G262" s="31">
         <v>226.0</v>
       </c>
-      <c r="H262" s="29" t="s">
-        <v>346</v>
+      <c r="H262" s="30" t="s">
+        <v>347</v>
       </c>
       <c r="I262" s="12"/>
       <c r="J262" s="13"/>
-      <c r="K262" s="25" t="s">
-        <v>347</v>
+      <c r="K262" s="27" t="s">
+        <v>348</v>
       </c>
       <c r="L262" s="7"/>
       <c r="M262" s="7"/>
@@ -13842,26 +13839,26 @@
         <v>261</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="C263" s="26">
+        <v>346</v>
+      </c>
+      <c r="C263" s="28">
         <v>43942.0</v>
       </c>
-      <c r="D263" s="27">
+      <c r="D263" s="29">
         <v>43942.0</v>
       </c>
-      <c r="E263" s="28" t="s">
+      <c r="E263" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F263" s="29" t="s">
-        <v>348</v>
+      <c r="F263" s="30" t="s">
+        <v>349</v>
       </c>
       <c r="G263" s="8"/>
       <c r="H263" s="12"/>
       <c r="I263" s="12"/>
       <c r="J263" s="13"/>
-      <c r="K263" s="25" t="s">
-        <v>347</v>
+      <c r="K263" s="27" t="s">
+        <v>348</v>
       </c>
       <c r="L263" s="7"/>
       <c r="M263" s="7"/>
@@ -13885,26 +13882,26 @@
         <v>262</v>
       </c>
       <c r="B264" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="C264" s="26">
+        <v>346</v>
+      </c>
+      <c r="C264" s="28">
         <v>43942.0</v>
       </c>
-      <c r="D264" s="27">
+      <c r="D264" s="29">
         <v>43942.0</v>
       </c>
-      <c r="E264" s="28" t="s">
+      <c r="E264" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F264" s="29" t="s">
+      <c r="F264" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G264" s="8"/>
-      <c r="H264" s="29"/>
+      <c r="H264" s="30"/>
       <c r="I264" s="12"/>
       <c r="J264" s="13"/>
-      <c r="K264" s="25" t="s">
-        <v>349</v>
+      <c r="K264" s="27" t="s">
+        <v>350</v>
       </c>
       <c r="L264" s="7"/>
       <c r="M264" s="7"/>
@@ -13928,28 +13925,28 @@
         <v>263</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="C265" s="26">
+        <v>346</v>
+      </c>
+      <c r="C265" s="28">
         <v>43942.0</v>
       </c>
-      <c r="D265" s="27">
+      <c r="D265" s="29">
         <v>43942.0</v>
       </c>
-      <c r="E265" s="28" t="s">
+      <c r="E265" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F265" s="29" t="s">
+      <c r="F265" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G265" s="8"/>
-      <c r="H265" s="29" t="s">
-        <v>308</v>
+      <c r="H265" s="30" t="s">
+        <v>309</v>
       </c>
       <c r="I265" s="12"/>
       <c r="J265" s="13"/>
-      <c r="K265" s="25" t="s">
-        <v>349</v>
+      <c r="K265" s="27" t="s">
+        <v>350</v>
       </c>
       <c r="L265" s="7"/>
       <c r="M265" s="7"/>
@@ -13973,28 +13970,28 @@
         <v>264</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="C266" s="26">
+        <v>346</v>
+      </c>
+      <c r="C266" s="28">
         <v>43942.0</v>
       </c>
-      <c r="D266" s="27">
+      <c r="D266" s="29">
         <v>43942.0</v>
       </c>
-      <c r="E266" s="28" t="s">
+      <c r="E266" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F266" s="29" t="s">
+      <c r="F266" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G266" s="8"/>
-      <c r="H266" s="29" t="s">
-        <v>350</v>
+      <c r="H266" s="30" t="s">
+        <v>351</v>
       </c>
       <c r="I266" s="12"/>
       <c r="J266" s="13"/>
-      <c r="K266" s="25" t="s">
-        <v>349</v>
+      <c r="K266" s="27" t="s">
+        <v>350</v>
       </c>
       <c r="L266" s="7"/>
       <c r="M266" s="7"/>
@@ -14018,30 +14015,30 @@
         <v>265</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C267" s="26">
+        <v>352</v>
+      </c>
+      <c r="C267" s="28">
         <v>43943.0</v>
       </c>
-      <c r="D267" s="27">
+      <c r="D267" s="29">
         <v>43943.0</v>
       </c>
-      <c r="E267" s="28" t="s">
+      <c r="E267" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="F267" s="29" t="s">
+      <c r="F267" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G267" s="32">
         <v>226260.0</v>
       </c>
-      <c r="H267" s="29" t="s">
-        <v>352</v>
+      <c r="H267" s="30" t="s">
+        <v>353</v>
       </c>
       <c r="I267" s="12"/>
       <c r="J267" s="13"/>
-      <c r="K267" s="25" t="s">
-        <v>353</v>
+      <c r="K267" s="27" t="s">
+        <v>354</v>
       </c>
       <c r="L267" s="7"/>
       <c r="M267" s="7"/>
@@ -14065,19 +14062,19 @@
         <v>266</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C268" s="26">
+        <v>352</v>
+      </c>
+      <c r="C268" s="28">
         <v>43943.0</v>
       </c>
-      <c r="D268" s="27">
+      <c r="D268" s="29">
         <v>43943.0</v>
       </c>
-      <c r="E268" s="28" t="s">
+      <c r="E268" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F268" s="29" t="s">
-        <v>354</v>
+      <c r="F268" s="30" t="s">
+        <v>355</v>
       </c>
       <c r="G268" s="8"/>
       <c r="H268" s="12"/>
@@ -14085,8 +14082,8 @@
       <c r="J268" s="18">
         <v>43954.0</v>
       </c>
-      <c r="K268" s="25" t="s">
-        <v>353</v>
+      <c r="K268" s="27" t="s">
+        <v>354</v>
       </c>
       <c r="L268" s="7"/>
       <c r="M268" s="7"/>
@@ -14110,26 +14107,26 @@
         <v>267</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C269" s="26">
+        <v>352</v>
+      </c>
+      <c r="C269" s="28">
         <v>43943.0</v>
       </c>
-      <c r="D269" s="27">
+      <c r="D269" s="29">
         <v>43943.0</v>
       </c>
-      <c r="E269" s="28" t="s">
+      <c r="E269" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F269" s="29" t="s">
+      <c r="F269" s="30" t="s">
         <v>45</v>
       </c>
       <c r="G269" s="8"/>
       <c r="H269" s="12"/>
       <c r="I269" s="12"/>
       <c r="J269" s="13"/>
-      <c r="K269" s="25" t="s">
-        <v>353</v>
+      <c r="K269" s="27" t="s">
+        <v>354</v>
       </c>
       <c r="L269" s="7"/>
       <c r="M269" s="7"/>
@@ -14153,30 +14150,30 @@
         <v>268</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C270" s="26">
+        <v>352</v>
+      </c>
+      <c r="C270" s="28">
         <v>43943.0</v>
       </c>
-      <c r="D270" s="27">
+      <c r="D270" s="29">
         <v>43943.0</v>
       </c>
-      <c r="E270" s="28" t="s">
+      <c r="E270" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F270" s="29" t="s">
-        <v>348</v>
+      <c r="F270" s="30" t="s">
+        <v>349</v>
       </c>
       <c r="G270" s="31">
         <v>261.0</v>
       </c>
-      <c r="H270" s="29" t="s">
-        <v>355</v>
+      <c r="H270" s="30" t="s">
+        <v>356</v>
       </c>
       <c r="I270" s="12"/>
       <c r="J270" s="13"/>
-      <c r="K270" s="25" t="s">
-        <v>353</v>
+      <c r="K270" s="27" t="s">
+        <v>354</v>
       </c>
       <c r="L270" s="7"/>
       <c r="M270" s="7"/>
@@ -14200,26 +14197,26 @@
         <v>269</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C271" s="26">
+        <v>352</v>
+      </c>
+      <c r="C271" s="28">
         <v>43943.0</v>
       </c>
-      <c r="D271" s="27">
+      <c r="D271" s="29">
         <v>43943.0</v>
       </c>
-      <c r="E271" s="28" t="s">
+      <c r="E271" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F271" s="29" t="s">
+      <c r="F271" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G271" s="8"/>
       <c r="H271" s="12"/>
       <c r="I271" s="12"/>
       <c r="J271" s="13"/>
-      <c r="K271" s="25" t="s">
-        <v>356</v>
+      <c r="K271" s="27" t="s">
+        <v>357</v>
       </c>
       <c r="L271" s="7"/>
       <c r="M271" s="7"/>
@@ -14243,26 +14240,26 @@
         <v>270</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C272" s="26">
+        <v>352</v>
+      </c>
+      <c r="C272" s="28">
         <v>43943.0</v>
       </c>
-      <c r="D272" s="27">
+      <c r="D272" s="29">
         <v>43943.0</v>
       </c>
-      <c r="E272" s="28" t="s">
+      <c r="E272" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F272" s="29" t="s">
+      <c r="F272" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G272" s="8"/>
       <c r="H272" s="12"/>
       <c r="I272" s="12"/>
       <c r="J272" s="13"/>
-      <c r="K272" s="25" t="s">
-        <v>356</v>
+      <c r="K272" s="27" t="s">
+        <v>357</v>
       </c>
       <c r="L272" s="7"/>
       <c r="M272" s="7"/>
@@ -14286,26 +14283,26 @@
         <v>271</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C273" s="26">
+        <v>352</v>
+      </c>
+      <c r="C273" s="28">
         <v>43943.0</v>
       </c>
-      <c r="D273" s="27">
+      <c r="D273" s="29">
         <v>43943.0</v>
       </c>
-      <c r="E273" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="F273" s="29" t="s">
+      <c r="E273" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F273" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G273" s="8"/>
       <c r="H273" s="12"/>
       <c r="I273" s="12"/>
       <c r="J273" s="13"/>
-      <c r="K273" s="25" t="s">
-        <v>356</v>
+      <c r="K273" s="27" t="s">
+        <v>357</v>
       </c>
       <c r="L273" s="7"/>
       <c r="M273" s="7"/>
@@ -14329,26 +14326,26 @@
         <v>272</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C274" s="26">
+        <v>352</v>
+      </c>
+      <c r="C274" s="28">
         <v>43943.0</v>
       </c>
-      <c r="D274" s="27">
+      <c r="D274" s="29">
         <v>43943.0</v>
       </c>
-      <c r="E274" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="F274" s="29" t="s">
+      <c r="E274" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F274" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G274" s="8"/>
       <c r="H274" s="12"/>
       <c r="I274" s="12"/>
       <c r="J274" s="13"/>
-      <c r="K274" s="25" t="s">
-        <v>356</v>
+      <c r="K274" s="27" t="s">
+        <v>357</v>
       </c>
       <c r="L274" s="7"/>
       <c r="M274" s="7"/>
@@ -14372,26 +14369,26 @@
         <v>273</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C275" s="26">
+        <v>352</v>
+      </c>
+      <c r="C275" s="28">
         <v>43943.0</v>
       </c>
-      <c r="D275" s="27">
+      <c r="D275" s="29">
         <v>43943.0</v>
       </c>
-      <c r="E275" s="28" t="s">
+      <c r="E275" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F275" s="29" t="s">
+      <c r="F275" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G275" s="8"/>
       <c r="H275" s="12"/>
       <c r="I275" s="12"/>
       <c r="J275" s="13"/>
-      <c r="K275" s="25" t="s">
-        <v>356</v>
+      <c r="K275" s="27" t="s">
+        <v>357</v>
       </c>
       <c r="L275" s="7"/>
       <c r="M275" s="7"/>
@@ -14415,26 +14412,26 @@
         <v>274</v>
       </c>
       <c r="B276" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C276" s="26">
+        <v>352</v>
+      </c>
+      <c r="C276" s="28">
         <v>43943.0</v>
       </c>
-      <c r="D276" s="27">
+      <c r="D276" s="29">
         <v>43943.0</v>
       </c>
-      <c r="E276" s="28" t="s">
+      <c r="E276" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F276" s="29" t="s">
+      <c r="F276" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G276" s="8"/>
       <c r="H276" s="12"/>
       <c r="I276" s="12"/>
       <c r="J276" s="13"/>
-      <c r="K276" s="25" t="s">
-        <v>356</v>
+      <c r="K276" s="27" t="s">
+        <v>357</v>
       </c>
       <c r="L276" s="7"/>
       <c r="M276" s="7"/>
@@ -14458,26 +14455,26 @@
         <v>275</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C277" s="26">
+        <v>352</v>
+      </c>
+      <c r="C277" s="28">
         <v>43943.0</v>
       </c>
-      <c r="D277" s="27">
+      <c r="D277" s="29">
         <v>43943.0</v>
       </c>
-      <c r="E277" s="28" t="s">
+      <c r="E277" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F277" s="29" t="s">
+      <c r="F277" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G277" s="8"/>
       <c r="H277" s="12"/>
       <c r="I277" s="12"/>
       <c r="J277" s="13"/>
-      <c r="K277" s="25" t="s">
-        <v>356</v>
+      <c r="K277" s="27" t="s">
+        <v>357</v>
       </c>
       <c r="L277" s="7"/>
       <c r="M277" s="7"/>
@@ -14501,26 +14498,26 @@
         <v>276</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="C278" s="26">
+        <v>358</v>
+      </c>
+      <c r="C278" s="28">
         <v>43944.0</v>
       </c>
-      <c r="D278" s="27">
+      <c r="D278" s="29">
         <v>43944.0</v>
       </c>
-      <c r="E278" s="28" t="s">
+      <c r="E278" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F278" s="29" t="s">
+      <c r="F278" s="30" t="s">
         <v>94</v>
       </c>
       <c r="G278" s="8"/>
       <c r="H278" s="12"/>
       <c r="I278" s="12"/>
       <c r="J278" s="13"/>
-      <c r="K278" s="25" t="s">
-        <v>358</v>
+      <c r="K278" s="27" t="s">
+        <v>359</v>
       </c>
       <c r="L278" s="7"/>
       <c r="M278" s="7"/>
@@ -14544,30 +14541,30 @@
         <v>277</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="C279" s="26">
+        <v>358</v>
+      </c>
+      <c r="C279" s="28">
         <v>43944.0</v>
       </c>
-      <c r="D279" s="27">
+      <c r="D279" s="29">
         <v>43944.0</v>
       </c>
-      <c r="E279" s="28" t="s">
+      <c r="E279" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F279" s="29" t="s">
-        <v>359</v>
+      <c r="F279" s="30" t="s">
+        <v>360</v>
       </c>
       <c r="G279" s="31">
         <v>206.0</v>
       </c>
-      <c r="H279" s="29" t="s">
-        <v>360</v>
+      <c r="H279" s="30" t="s">
+        <v>361</v>
       </c>
       <c r="I279" s="12"/>
       <c r="J279" s="13"/>
-      <c r="K279" s="25" t="s">
-        <v>358</v>
+      <c r="K279" s="27" t="s">
+        <v>359</v>
       </c>
       <c r="L279" s="7"/>
       <c r="M279" s="7"/>
@@ -14591,26 +14588,26 @@
         <v>278</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="C280" s="26">
+        <v>358</v>
+      </c>
+      <c r="C280" s="28">
         <v>43944.0</v>
       </c>
-      <c r="D280" s="27">
+      <c r="D280" s="29">
         <v>43944.0</v>
       </c>
-      <c r="E280" s="28" t="s">
+      <c r="E280" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F280" s="29" t="s">
-        <v>359</v>
+      <c r="F280" s="30" t="s">
+        <v>360</v>
       </c>
       <c r="G280" s="8"/>
       <c r="H280" s="12"/>
       <c r="I280" s="12"/>
       <c r="J280" s="13"/>
-      <c r="K280" s="25" t="s">
-        <v>358</v>
+      <c r="K280" s="27" t="s">
+        <v>359</v>
       </c>
       <c r="L280" s="7"/>
       <c r="M280" s="7"/>
@@ -14634,28 +14631,28 @@
         <v>279</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="C281" s="26">
+        <v>358</v>
+      </c>
+      <c r="C281" s="28">
         <v>43944.0</v>
       </c>
-      <c r="D281" s="27">
+      <c r="D281" s="29">
         <v>43944.0</v>
       </c>
-      <c r="E281" s="28" t="s">
+      <c r="E281" s="25" t="s">
         <v>61</v>
       </c>
       <c r="F281" s="33" t="s">
         <v>94</v>
       </c>
       <c r="G281" s="8"/>
-      <c r="H281" s="29" t="s">
-        <v>361</v>
+      <c r="H281" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I281" s="12"/>
       <c r="J281" s="13"/>
-      <c r="K281" s="25" t="s">
-        <v>358</v>
+      <c r="K281" s="27" t="s">
+        <v>359</v>
       </c>
       <c r="L281" s="7"/>
       <c r="M281" s="7"/>
@@ -14679,15 +14676,15 @@
         <v>280</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="C282" s="26">
+        <v>358</v>
+      </c>
+      <c r="C282" s="28">
         <v>43944.0</v>
       </c>
-      <c r="D282" s="27">
+      <c r="D282" s="29">
         <v>43944.0</v>
       </c>
-      <c r="E282" s="28" t="s">
+      <c r="E282" s="25" t="s">
         <v>33</v>
       </c>
       <c r="F282" s="34" t="s">
@@ -14697,8 +14694,8 @@
       <c r="H282" s="12"/>
       <c r="I282" s="12"/>
       <c r="J282" s="13"/>
-      <c r="K282" s="25" t="s">
-        <v>358</v>
+      <c r="K282" s="27" t="s">
+        <v>359</v>
       </c>
       <c r="L282" s="7"/>
       <c r="M282" s="7"/>
@@ -14722,26 +14719,26 @@
         <v>281</v>
       </c>
       <c r="B283" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="C283" s="26">
+        <v>358</v>
+      </c>
+      <c r="C283" s="28">
         <v>43944.0</v>
       </c>
-      <c r="D283" s="27">
+      <c r="D283" s="29">
         <v>43944.0</v>
       </c>
-      <c r="E283" s="28" t="s">
+      <c r="E283" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F283" s="33" t="s">
         <v>15</v>
       </c>
       <c r="G283" s="8"/>
-      <c r="H283" s="29"/>
+      <c r="H283" s="30"/>
       <c r="I283" s="12"/>
       <c r="J283" s="13"/>
       <c r="K283" s="35" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L283" s="7"/>
       <c r="M283" s="7"/>
@@ -14765,26 +14762,26 @@
         <v>282</v>
       </c>
       <c r="B284" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="C284" s="26">
+        <v>358</v>
+      </c>
+      <c r="C284" s="28">
         <v>43944.0</v>
       </c>
-      <c r="D284" s="27">
+      <c r="D284" s="29">
         <v>43944.0</v>
       </c>
-      <c r="E284" s="28" t="s">
+      <c r="E284" s="25" t="s">
         <v>243</v>
       </c>
       <c r="F284" s="33" t="s">
         <v>15</v>
       </c>
       <c r="G284" s="8"/>
-      <c r="H284" s="29"/>
+      <c r="H284" s="30"/>
       <c r="I284" s="12"/>
       <c r="J284" s="13"/>
       <c r="K284" s="35" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L284" s="7"/>
       <c r="M284" s="7"/>
@@ -14808,26 +14805,26 @@
         <v>283</v>
       </c>
       <c r="B285" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="C285" s="26">
+        <v>364</v>
+      </c>
+      <c r="C285" s="28">
         <v>43944.0</v>
       </c>
-      <c r="D285" s="27">
+      <c r="D285" s="29">
         <v>43944.0</v>
       </c>
-      <c r="E285" s="28" t="s">
+      <c r="E285" s="25" t="s">
         <v>56</v>
       </c>
       <c r="F285" s="34" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G285" s="8"/>
       <c r="H285" s="12"/>
       <c r="I285" s="12"/>
       <c r="J285" s="13"/>
-      <c r="K285" s="25" t="s">
-        <v>364</v>
+      <c r="K285" s="27" t="s">
+        <v>365</v>
       </c>
       <c r="L285" s="7"/>
       <c r="M285" s="7"/>
@@ -14851,28 +14848,28 @@
         <v>284</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="C286" s="26">
+        <v>364</v>
+      </c>
+      <c r="C286" s="28">
         <v>43945.0</v>
       </c>
-      <c r="D286" s="27">
+      <c r="D286" s="29">
         <v>43945.0</v>
       </c>
-      <c r="E286" s="28" t="s">
+      <c r="E286" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F286" s="29" t="s">
-        <v>359</v>
+      <c r="F286" s="30" t="s">
+        <v>360</v>
       </c>
       <c r="G286" s="8"/>
-      <c r="H286" s="29" t="s">
-        <v>361</v>
+      <c r="H286" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I286" s="12"/>
       <c r="J286" s="13"/>
-      <c r="K286" s="25" t="s">
-        <v>364</v>
+      <c r="K286" s="27" t="s">
+        <v>365</v>
       </c>
       <c r="L286" s="7"/>
       <c r="M286" s="7"/>
@@ -14896,26 +14893,26 @@
         <v>285</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="C287" s="26">
+        <v>364</v>
+      </c>
+      <c r="C287" s="28">
         <v>43945.0</v>
       </c>
-      <c r="D287" s="27">
+      <c r="D287" s="29">
         <v>43945.0</v>
       </c>
-      <c r="E287" s="28" t="s">
+      <c r="E287" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F287" s="29" t="s">
-        <v>365</v>
+      <c r="F287" s="30" t="s">
+        <v>366</v>
       </c>
       <c r="G287" s="8"/>
       <c r="H287" s="12"/>
       <c r="I287" s="12"/>
       <c r="J287" s="13"/>
-      <c r="K287" s="25" t="s">
-        <v>366</v>
+      <c r="K287" s="27" t="s">
+        <v>367</v>
       </c>
       <c r="L287" s="7"/>
       <c r="M287" s="7"/>
@@ -14939,28 +14936,28 @@
         <v>286</v>
       </c>
       <c r="B288" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="C288" s="26">
+        <v>364</v>
+      </c>
+      <c r="C288" s="28">
         <v>43945.0</v>
       </c>
-      <c r="D288" s="27">
+      <c r="D288" s="29">
         <v>43945.0</v>
       </c>
-      <c r="E288" s="28" t="s">
+      <c r="E288" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F288" s="29" t="s">
+      <c r="F288" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G288" s="8"/>
-      <c r="H288" s="29" t="s">
-        <v>367</v>
+      <c r="H288" s="30" t="s">
+        <v>368</v>
       </c>
       <c r="I288" s="12"/>
       <c r="J288" s="13"/>
-      <c r="K288" s="25" t="s">
-        <v>366</v>
+      <c r="K288" s="27" t="s">
+        <v>367</v>
       </c>
       <c r="L288" s="7"/>
       <c r="M288" s="7"/>
@@ -14984,28 +14981,28 @@
         <v>287</v>
       </c>
       <c r="B289" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="C289" s="26">
+        <v>369</v>
+      </c>
+      <c r="C289" s="28">
         <v>43946.0</v>
       </c>
-      <c r="D289" s="27">
+      <c r="D289" s="29">
         <v>43946.0</v>
       </c>
-      <c r="E289" s="28" t="s">
+      <c r="E289" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F289" s="29" t="s">
+      <c r="F289" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G289" s="8"/>
-      <c r="H289" s="29" t="s">
-        <v>361</v>
+      <c r="H289" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I289" s="12"/>
       <c r="J289" s="13"/>
-      <c r="K289" s="25" t="s">
-        <v>369</v>
+      <c r="K289" s="27" t="s">
+        <v>370</v>
       </c>
       <c r="L289" s="7"/>
       <c r="M289" s="7"/>
@@ -15029,28 +15026,28 @@
         <v>288</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="C290" s="26">
+        <v>369</v>
+      </c>
+      <c r="C290" s="28">
         <v>43946.0</v>
       </c>
-      <c r="D290" s="27">
+      <c r="D290" s="29">
         <v>43946.0</v>
       </c>
-      <c r="E290" s="28" t="s">
+      <c r="E290" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F290" s="29" t="s">
+      <c r="F290" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G290" s="8"/>
-      <c r="H290" s="29" t="s">
-        <v>361</v>
+      <c r="H290" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I290" s="12"/>
       <c r="J290" s="13"/>
-      <c r="K290" s="25" t="s">
-        <v>369</v>
+      <c r="K290" s="27" t="s">
+        <v>370</v>
       </c>
       <c r="L290" s="7"/>
       <c r="M290" s="7"/>
@@ -15074,28 +15071,28 @@
         <v>289</v>
       </c>
       <c r="B291" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="C291" s="26">
+        <v>369</v>
+      </c>
+      <c r="C291" s="28">
         <v>43946.0</v>
       </c>
-      <c r="D291" s="27">
+      <c r="D291" s="29">
         <v>43946.0</v>
       </c>
-      <c r="E291" s="28" t="s">
+      <c r="E291" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F291" s="29" t="s">
+      <c r="F291" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G291" s="8"/>
-      <c r="H291" s="29" t="s">
-        <v>361</v>
+      <c r="H291" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I291" s="12"/>
       <c r="J291" s="13"/>
-      <c r="K291" s="25" t="s">
-        <v>369</v>
+      <c r="K291" s="27" t="s">
+        <v>370</v>
       </c>
       <c r="L291" s="7"/>
       <c r="M291" s="7"/>
@@ -15119,26 +15116,26 @@
         <v>290</v>
       </c>
       <c r="B292" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="C292" s="26">
+        <v>369</v>
+      </c>
+      <c r="C292" s="28">
         <v>43946.0</v>
       </c>
-      <c r="D292" s="27">
+      <c r="D292" s="29">
         <v>43946.0</v>
       </c>
-      <c r="E292" s="28" t="s">
+      <c r="E292" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F292" s="29" t="s">
+      <c r="F292" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G292" s="8"/>
-      <c r="H292" s="29"/>
+      <c r="H292" s="30"/>
       <c r="I292" s="12"/>
       <c r="J292" s="13"/>
-      <c r="K292" s="25" t="s">
-        <v>369</v>
+      <c r="K292" s="27" t="s">
+        <v>370</v>
       </c>
       <c r="L292" s="7"/>
       <c r="M292" s="7"/>
@@ -15162,28 +15159,28 @@
         <v>291</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C293" s="26">
+        <v>371</v>
+      </c>
+      <c r="C293" s="28">
         <v>43947.0</v>
       </c>
-      <c r="D293" s="27">
+      <c r="D293" s="29">
         <v>43947.0</v>
       </c>
-      <c r="E293" s="28" t="s">
+      <c r="E293" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F293" s="29" t="s">
+      <c r="F293" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G293" s="8"/>
-      <c r="H293" s="29" t="s">
-        <v>371</v>
+      <c r="H293" s="30" t="s">
+        <v>372</v>
       </c>
       <c r="I293" s="12"/>
       <c r="J293" s="13"/>
-      <c r="K293" s="25" t="s">
-        <v>372</v>
+      <c r="K293" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="L293" s="7"/>
       <c r="M293" s="7"/>
@@ -15207,28 +15204,28 @@
         <v>292</v>
       </c>
       <c r="B294" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C294" s="26">
+        <v>371</v>
+      </c>
+      <c r="C294" s="28">
         <v>43947.0</v>
       </c>
-      <c r="D294" s="27">
+      <c r="D294" s="29">
         <v>43947.0</v>
       </c>
-      <c r="E294" s="28" t="s">
+      <c r="E294" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F294" s="29" t="s">
+      <c r="F294" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G294" s="8"/>
-      <c r="H294" s="29" t="s">
-        <v>371</v>
+      <c r="H294" s="30" t="s">
+        <v>372</v>
       </c>
       <c r="I294" s="12"/>
       <c r="J294" s="13"/>
-      <c r="K294" s="25" t="s">
-        <v>372</v>
+      <c r="K294" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="L294" s="7"/>
       <c r="M294" s="7"/>
@@ -15252,26 +15249,26 @@
         <v>293</v>
       </c>
       <c r="B295" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C295" s="26">
+        <v>371</v>
+      </c>
+      <c r="C295" s="28">
         <v>43947.0</v>
       </c>
-      <c r="D295" s="27">
+      <c r="D295" s="29">
         <v>43947.0</v>
       </c>
-      <c r="E295" s="28" t="s">
+      <c r="E295" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F295" s="29" t="s">
+      <c r="F295" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G295" s="8"/>
       <c r="H295" s="12"/>
       <c r="I295" s="12"/>
       <c r="J295" s="13"/>
-      <c r="K295" s="25" t="s">
-        <v>372</v>
+      <c r="K295" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="L295" s="7"/>
       <c r="M295" s="7"/>
@@ -15295,28 +15292,28 @@
         <v>294</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C296" s="26">
+        <v>371</v>
+      </c>
+      <c r="C296" s="28">
         <v>43947.0</v>
       </c>
-      <c r="D296" s="27">
+      <c r="D296" s="29">
         <v>43947.0</v>
       </c>
-      <c r="E296" s="28" t="s">
+      <c r="E296" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F296" s="29" t="s">
+      <c r="F296" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G296" s="8"/>
-      <c r="H296" s="29" t="s">
-        <v>361</v>
+      <c r="H296" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I296" s="12"/>
       <c r="J296" s="13"/>
-      <c r="K296" s="25" t="s">
-        <v>372</v>
+      <c r="K296" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="L296" s="7"/>
       <c r="M296" s="7"/>
@@ -15340,15 +15337,15 @@
         <v>295</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C297" s="36">
         <v>43948.0</v>
       </c>
-      <c r="D297" s="27">
+      <c r="D297" s="29">
         <v>43948.0</v>
       </c>
-      <c r="E297" s="28" t="s">
+      <c r="E297" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F297" s="33" t="s">
@@ -15359,7 +15356,7 @@
       <c r="I297" s="12"/>
       <c r="J297" s="13"/>
       <c r="K297" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L297" s="7"/>
       <c r="M297" s="7"/>
@@ -15383,15 +15380,15 @@
         <v>296</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C298" s="36">
         <v>43948.0</v>
       </c>
-      <c r="D298" s="27">
+      <c r="D298" s="29">
         <v>43948.0</v>
       </c>
-      <c r="E298" s="28" t="s">
+      <c r="E298" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F298" s="34" t="s">
@@ -15400,13 +15397,13 @@
       <c r="G298" s="31">
         <v>285.0</v>
       </c>
-      <c r="H298" s="29" t="s">
-        <v>375</v>
+      <c r="H298" s="30" t="s">
+        <v>376</v>
       </c>
       <c r="I298" s="12"/>
       <c r="J298" s="13"/>
       <c r="K298" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L298" s="7"/>
       <c r="M298" s="7"/>
@@ -15430,15 +15427,15 @@
         <v>297</v>
       </c>
       <c r="B299" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C299" s="36">
         <v>43948.0</v>
       </c>
-      <c r="D299" s="27">
+      <c r="D299" s="29">
         <v>43948.0</v>
       </c>
-      <c r="E299" s="28" t="s">
+      <c r="E299" s="25" t="s">
         <v>61</v>
       </c>
       <c r="F299" s="34" t="s">
@@ -15447,13 +15444,13 @@
       <c r="G299" s="31">
         <v>296.0</v>
       </c>
-      <c r="H299" s="29" t="s">
-        <v>376</v>
+      <c r="H299" s="30" t="s">
+        <v>377</v>
       </c>
       <c r="I299" s="12"/>
       <c r="J299" s="13"/>
       <c r="K299" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L299" s="7"/>
       <c r="M299" s="7"/>
@@ -15477,28 +15474,28 @@
         <v>298</v>
       </c>
       <c r="B300" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C300" s="36">
         <v>43948.0</v>
       </c>
-      <c r="D300" s="27">
+      <c r="D300" s="29">
         <v>43948.0</v>
       </c>
-      <c r="E300" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="F300" s="29" t="s">
+      <c r="E300" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F300" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G300" s="8"/>
-      <c r="H300" s="29" t="s">
-        <v>377</v>
+      <c r="H300" s="30" t="s">
+        <v>378</v>
       </c>
       <c r="I300" s="12"/>
       <c r="J300" s="13"/>
-      <c r="K300" s="25" t="s">
-        <v>378</v>
+      <c r="K300" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
@@ -15522,28 +15519,28 @@
         <v>299</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C301" s="36">
         <v>43948.0</v>
       </c>
-      <c r="D301" s="27">
+      <c r="D301" s="29">
         <v>43948.0</v>
       </c>
-      <c r="E301" s="28" t="s">
+      <c r="E301" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F301" s="29" t="s">
+      <c r="F301" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G301" s="8"/>
-      <c r="H301" s="29" t="s">
-        <v>377</v>
+      <c r="H301" s="30" t="s">
+        <v>378</v>
       </c>
       <c r="I301" s="12"/>
       <c r="J301" s="13"/>
-      <c r="K301" s="25" t="s">
-        <v>378</v>
+      <c r="K301" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="L301" s="7"/>
       <c r="M301" s="7"/>
@@ -15567,28 +15564,28 @@
         <v>300</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C302" s="36">
         <v>43948.0</v>
       </c>
-      <c r="D302" s="27">
+      <c r="D302" s="29">
         <v>43948.0</v>
       </c>
-      <c r="E302" s="28" t="s">
+      <c r="E302" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F302" s="29" t="s">
+      <c r="F302" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G302" s="8"/>
-      <c r="H302" s="29" t="s">
-        <v>379</v>
+      <c r="H302" s="30" t="s">
+        <v>380</v>
       </c>
       <c r="I302" s="12"/>
       <c r="J302" s="13"/>
-      <c r="K302" s="25" t="s">
-        <v>378</v>
+      <c r="K302" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="L302" s="7"/>
       <c r="M302" s="7"/>
@@ -15612,28 +15609,28 @@
         <v>301</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C303" s="36">
         <v>43948.0</v>
       </c>
-      <c r="D303" s="27">
+      <c r="D303" s="29">
         <v>43948.0</v>
       </c>
-      <c r="E303" s="28" t="s">
+      <c r="E303" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F303" s="29" t="s">
+      <c r="F303" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G303" s="8"/>
-      <c r="H303" s="29" t="s">
-        <v>379</v>
+      <c r="H303" s="30" t="s">
+        <v>380</v>
       </c>
       <c r="I303" s="12"/>
       <c r="J303" s="13"/>
-      <c r="K303" s="25" t="s">
-        <v>378</v>
+      <c r="K303" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="L303" s="7"/>
       <c r="M303" s="7"/>
@@ -15657,28 +15654,28 @@
         <v>302</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C304" s="36">
         <v>43948.0</v>
       </c>
-      <c r="D304" s="27">
+      <c r="D304" s="29">
         <v>43948.0</v>
       </c>
-      <c r="E304" s="28" t="s">
+      <c r="E304" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F304" s="29" t="s">
+      <c r="F304" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G304" s="8"/>
-      <c r="H304" s="29" t="s">
-        <v>379</v>
+      <c r="H304" s="30" t="s">
+        <v>380</v>
       </c>
       <c r="I304" s="12"/>
       <c r="J304" s="13"/>
-      <c r="K304" s="25" t="s">
-        <v>378</v>
+      <c r="K304" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="L304" s="7"/>
       <c r="M304" s="7"/>
@@ -15702,28 +15699,28 @@
         <v>303</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C305" s="36">
         <v>43948.0</v>
       </c>
-      <c r="D305" s="27">
+      <c r="D305" s="29">
         <v>43948.0</v>
       </c>
-      <c r="E305" s="28" t="s">
+      <c r="E305" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F305" s="29" t="s">
+      <c r="F305" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G305" s="8"/>
-      <c r="H305" s="29" t="s">
-        <v>377</v>
+      <c r="H305" s="30" t="s">
+        <v>378</v>
       </c>
       <c r="I305" s="12"/>
       <c r="J305" s="13"/>
-      <c r="K305" s="25" t="s">
-        <v>378</v>
+      <c r="K305" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="L305" s="7"/>
       <c r="M305" s="7"/>
@@ -15747,28 +15744,28 @@
         <v>304</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C306" s="36">
         <v>43948.0</v>
       </c>
-      <c r="D306" s="27">
+      <c r="D306" s="29">
         <v>43948.0</v>
       </c>
-      <c r="E306" s="28" t="s">
+      <c r="E306" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F306" s="29" t="s">
+      <c r="F306" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G306" s="8"/>
-      <c r="H306" s="29" t="s">
-        <v>380</v>
+      <c r="H306" s="30" t="s">
+        <v>381</v>
       </c>
       <c r="I306" s="12"/>
       <c r="J306" s="13"/>
-      <c r="K306" s="25" t="s">
-        <v>378</v>
+      <c r="K306" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="L306" s="7"/>
       <c r="M306" s="7"/>
@@ -15792,28 +15789,28 @@
         <v>305</v>
       </c>
       <c r="B307" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C307" s="36">
         <v>43948.0</v>
       </c>
-      <c r="D307" s="27">
+      <c r="D307" s="29">
         <v>43948.0</v>
       </c>
-      <c r="E307" s="28" t="s">
+      <c r="E307" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F307" s="29" t="s">
+      <c r="F307" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G307" s="8"/>
-      <c r="H307" s="29" t="s">
-        <v>380</v>
+      <c r="H307" s="30" t="s">
+        <v>381</v>
       </c>
       <c r="I307" s="12"/>
       <c r="J307" s="13"/>
-      <c r="K307" s="25" t="s">
-        <v>378</v>
+      <c r="K307" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="L307" s="7"/>
       <c r="M307" s="7"/>
@@ -15837,28 +15834,28 @@
         <v>306</v>
       </c>
       <c r="B308" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C308" s="36">
         <v>43948.0</v>
       </c>
-      <c r="D308" s="27">
+      <c r="D308" s="29">
         <v>43948.0</v>
       </c>
-      <c r="E308" s="28" t="s">
+      <c r="E308" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F308" s="29" t="s">
+      <c r="F308" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G308" s="8"/>
-      <c r="H308" s="29" t="s">
-        <v>380</v>
+      <c r="H308" s="30" t="s">
+        <v>381</v>
       </c>
       <c r="I308" s="12"/>
       <c r="J308" s="13"/>
-      <c r="K308" s="25" t="s">
-        <v>378</v>
+      <c r="K308" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="L308" s="7"/>
       <c r="M308" s="7"/>
@@ -15882,28 +15879,28 @@
         <v>307</v>
       </c>
       <c r="B309" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C309" s="36">
         <v>43948.0</v>
       </c>
-      <c r="D309" s="27">
+      <c r="D309" s="29">
         <v>43948.0</v>
       </c>
-      <c r="E309" s="28" t="s">
+      <c r="E309" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F309" s="29" t="s">
+      <c r="F309" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G309" s="8"/>
-      <c r="H309" s="29" t="s">
-        <v>381</v>
+      <c r="H309" s="30" t="s">
+        <v>382</v>
       </c>
       <c r="I309" s="12"/>
       <c r="J309" s="13"/>
-      <c r="K309" s="25" t="s">
-        <v>378</v>
+      <c r="K309" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="L309" s="7"/>
       <c r="M309" s="7"/>
@@ -15927,26 +15924,26 @@
         <v>308</v>
       </c>
       <c r="B310" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C310" s="36">
         <v>43948.0</v>
       </c>
-      <c r="D310" s="27">
+      <c r="D310" s="29">
         <v>43948.0</v>
       </c>
-      <c r="E310" s="28" t="s">
+      <c r="E310" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F310" s="29" t="s">
+      <c r="F310" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G310" s="8"/>
       <c r="H310" s="12"/>
       <c r="I310" s="12"/>
       <c r="J310" s="13"/>
-      <c r="K310" s="25" t="s">
-        <v>378</v>
+      <c r="K310" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="L310" s="7"/>
       <c r="M310" s="7"/>
@@ -15970,26 +15967,26 @@
         <v>309</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C311" s="36">
         <v>43948.0</v>
       </c>
-      <c r="D311" s="27">
+      <c r="D311" s="29">
         <v>43948.0</v>
       </c>
-      <c r="E311" s="28" t="s">
+      <c r="E311" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F311" s="29" t="s">
+      <c r="F311" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G311" s="8"/>
       <c r="H311" s="12"/>
       <c r="I311" s="12"/>
       <c r="J311" s="13"/>
-      <c r="K311" s="25" t="s">
-        <v>378</v>
+      <c r="K311" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="L311" s="7"/>
       <c r="M311" s="7"/>
@@ -16013,30 +16010,30 @@
         <v>310</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C312" s="36">
         <v>43949.0</v>
       </c>
-      <c r="D312" s="27">
+      <c r="D312" s="29">
         <v>43949.0</v>
       </c>
-      <c r="E312" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="F312" s="29" t="s">
+      <c r="E312" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="F312" s="30" t="s">
         <v>94</v>
       </c>
       <c r="G312" s="31">
         <v>296.0</v>
       </c>
-      <c r="H312" s="29" t="s">
-        <v>376</v>
+      <c r="H312" s="30" t="s">
+        <v>377</v>
       </c>
       <c r="I312" s="12"/>
       <c r="J312" s="13"/>
-      <c r="K312" s="25" t="s">
-        <v>384</v>
+      <c r="K312" s="27" t="s">
+        <v>385</v>
       </c>
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
@@ -16060,30 +16057,30 @@
         <v>311</v>
       </c>
       <c r="B313" s="23" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C313" s="36">
         <v>43949.0</v>
       </c>
-      <c r="D313" s="27">
+      <c r="D313" s="29">
         <v>43949.0</v>
       </c>
-      <c r="E313" s="28" t="s">
+      <c r="E313" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F313" s="29" t="s">
-        <v>359</v>
+      <c r="F313" s="30" t="s">
+        <v>360</v>
       </c>
       <c r="G313" s="31">
         <v>285.0</v>
       </c>
-      <c r="H313" s="29" t="s">
-        <v>375</v>
+      <c r="H313" s="30" t="s">
+        <v>376</v>
       </c>
       <c r="I313" s="12"/>
       <c r="J313" s="13"/>
-      <c r="K313" s="25" t="s">
-        <v>384</v>
+      <c r="K313" s="27" t="s">
+        <v>385</v>
       </c>
       <c r="L313" s="7"/>
       <c r="M313" s="7"/>
@@ -16107,26 +16104,26 @@
         <v>312</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C314" s="36">
         <v>43949.0</v>
       </c>
-      <c r="D314" s="27">
+      <c r="D314" s="29">
         <v>43949.0</v>
       </c>
-      <c r="E314" s="28" t="s">
+      <c r="E314" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F314" s="29" t="s">
+      <c r="F314" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G314" s="8"/>
       <c r="H314" s="12"/>
       <c r="I314" s="12"/>
       <c r="J314" s="13"/>
-      <c r="K314" s="25" t="s">
-        <v>385</v>
+      <c r="K314" s="27" t="s">
+        <v>386</v>
       </c>
       <c r="L314" s="7"/>
       <c r="M314" s="7"/>
@@ -16150,28 +16147,28 @@
         <v>313</v>
       </c>
       <c r="B315" s="23" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C315" s="36">
         <v>43949.0</v>
       </c>
-      <c r="D315" s="27">
+      <c r="D315" s="29">
         <v>43949.0</v>
       </c>
-      <c r="E315" s="28" t="s">
+      <c r="E315" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F315" s="29" t="s">
+      <c r="F315" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G315" s="8"/>
-      <c r="H315" s="29" t="s">
-        <v>361</v>
+      <c r="H315" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I315" s="12"/>
       <c r="J315" s="13"/>
-      <c r="K315" s="25" t="s">
-        <v>385</v>
+      <c r="K315" s="27" t="s">
+        <v>386</v>
       </c>
       <c r="L315" s="7"/>
       <c r="M315" s="7"/>
@@ -16195,26 +16192,26 @@
         <v>314</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C316" s="36">
         <v>43950.0</v>
       </c>
-      <c r="D316" s="27">
+      <c r="D316" s="29">
         <v>43950.0</v>
       </c>
-      <c r="E316" s="28" t="s">
+      <c r="E316" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F316" s="29" t="s">
-        <v>387</v>
+      <c r="F316" s="30" t="s">
+        <v>388</v>
       </c>
       <c r="G316" s="8"/>
       <c r="H316" s="12"/>
       <c r="I316" s="12"/>
       <c r="J316" s="13"/>
-      <c r="K316" s="25" t="s">
-        <v>388</v>
+      <c r="K316" s="27" t="s">
+        <v>389</v>
       </c>
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
@@ -16238,28 +16235,28 @@
         <v>315</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C317" s="36">
         <v>43950.0</v>
       </c>
-      <c r="D317" s="27">
+      <c r="D317" s="29">
         <v>43950.0</v>
       </c>
-      <c r="E317" s="28" t="s">
+      <c r="E317" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F317" s="29" t="s">
+      <c r="F317" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G317" s="8"/>
-      <c r="H317" s="29" t="s">
-        <v>389</v>
+      <c r="H317" s="30" t="s">
+        <v>390</v>
       </c>
       <c r="I317" s="12"/>
       <c r="J317" s="13"/>
-      <c r="K317" s="25" t="s">
-        <v>390</v>
+      <c r="K317" s="27" t="s">
+        <v>391</v>
       </c>
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
@@ -16283,28 +16280,28 @@
         <v>316</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C318" s="36">
         <v>43950.0</v>
       </c>
-      <c r="D318" s="27">
+      <c r="D318" s="29">
         <v>43950.0</v>
       </c>
-      <c r="E318" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="F318" s="29" t="s">
+      <c r="E318" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F318" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G318" s="8"/>
-      <c r="H318" s="29" t="s">
-        <v>361</v>
+      <c r="H318" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I318" s="12"/>
       <c r="J318" s="13"/>
-      <c r="K318" s="25" t="s">
-        <v>390</v>
+      <c r="K318" s="27" t="s">
+        <v>391</v>
       </c>
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
@@ -16328,28 +16325,28 @@
         <v>317</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C319" s="36">
         <v>43950.0</v>
       </c>
-      <c r="D319" s="27">
+      <c r="D319" s="29">
         <v>43950.0</v>
       </c>
-      <c r="E319" s="28" t="s">
+      <c r="E319" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F319" s="29" t="s">
+      <c r="F319" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G319" s="8"/>
-      <c r="H319" s="29" t="s">
-        <v>361</v>
+      <c r="H319" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I319" s="12"/>
       <c r="J319" s="13"/>
-      <c r="K319" s="25" t="s">
-        <v>390</v>
+      <c r="K319" s="27" t="s">
+        <v>391</v>
       </c>
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
@@ -16373,28 +16370,28 @@
         <v>318</v>
       </c>
       <c r="B320" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C320" s="36">
         <v>43951.0</v>
       </c>
-      <c r="D320" s="27">
+      <c r="D320" s="29">
         <v>43951.0</v>
       </c>
-      <c r="E320" s="28" t="s">
+      <c r="E320" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F320" s="29" t="s">
-        <v>359</v>
+      <c r="F320" s="30" t="s">
+        <v>360</v>
       </c>
       <c r="G320" s="8"/>
-      <c r="H320" s="29" t="s">
-        <v>361</v>
+      <c r="H320" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I320" s="12"/>
       <c r="J320" s="13"/>
-      <c r="K320" s="25" t="s">
-        <v>393</v>
+      <c r="K320" s="27" t="s">
+        <v>394</v>
       </c>
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
@@ -16418,30 +16415,30 @@
         <v>319</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C321" s="36">
         <v>43951.0</v>
       </c>
-      <c r="D321" s="27">
+      <c r="D321" s="29">
         <v>43951.0</v>
       </c>
-      <c r="E321" s="28" t="s">
+      <c r="E321" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F321" s="29" t="s">
-        <v>359</v>
+      <c r="F321" s="30" t="s">
+        <v>360</v>
       </c>
       <c r="G321" s="31">
         <v>318.0</v>
       </c>
-      <c r="H321" s="29" t="s">
-        <v>394</v>
+      <c r="H321" s="30" t="s">
+        <v>395</v>
       </c>
       <c r="I321" s="12"/>
       <c r="J321" s="13"/>
-      <c r="K321" s="25" t="s">
-        <v>393</v>
+      <c r="K321" s="27" t="s">
+        <v>394</v>
       </c>
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
@@ -16465,30 +16462,30 @@
         <v>320</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C322" s="36">
         <v>43951.0</v>
       </c>
-      <c r="D322" s="27">
+      <c r="D322" s="29">
         <v>43951.0</v>
       </c>
-      <c r="E322" s="28" t="s">
+      <c r="E322" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F322" s="29" t="s">
-        <v>359</v>
+      <c r="F322" s="30" t="s">
+        <v>360</v>
       </c>
       <c r="G322" s="31">
         <v>318.0</v>
       </c>
-      <c r="H322" s="29" t="s">
-        <v>394</v>
+      <c r="H322" s="30" t="s">
+        <v>395</v>
       </c>
       <c r="I322" s="12"/>
       <c r="J322" s="13"/>
-      <c r="K322" s="25" t="s">
-        <v>393</v>
+      <c r="K322" s="27" t="s">
+        <v>394</v>
       </c>
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
@@ -16512,30 +16509,30 @@
         <v>321</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C323" s="36">
         <v>43952.0</v>
       </c>
-      <c r="D323" s="27">
+      <c r="D323" s="29">
         <v>43952.0</v>
       </c>
-      <c r="E323" s="28" t="s">
+      <c r="E323" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F323" s="29" t="s">
-        <v>387</v>
+      <c r="F323" s="30" t="s">
+        <v>388</v>
       </c>
       <c r="G323" s="31">
         <v>314.0</v>
       </c>
-      <c r="H323" s="29" t="s">
-        <v>396</v>
+      <c r="H323" s="30" t="s">
+        <v>397</v>
       </c>
       <c r="I323" s="12"/>
       <c r="J323" s="13"/>
-      <c r="K323" s="25" t="s">
-        <v>397</v>
+      <c r="K323" s="27" t="s">
+        <v>398</v>
       </c>
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
@@ -16559,30 +16556,30 @@
         <v>322</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C324" s="36">
         <v>43952.0</v>
       </c>
-      <c r="D324" s="27">
+      <c r="D324" s="29">
         <v>43952.0</v>
       </c>
-      <c r="E324" s="28" t="s">
+      <c r="E324" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F324" s="29" t="s">
+      <c r="F324" s="30" t="s">
         <v>94</v>
       </c>
       <c r="G324" s="31">
         <v>276.0</v>
       </c>
-      <c r="H324" s="29" t="s">
-        <v>398</v>
+      <c r="H324" s="30" t="s">
+        <v>399</v>
       </c>
       <c r="I324" s="12"/>
       <c r="J324" s="13"/>
-      <c r="K324" s="25" t="s">
-        <v>397</v>
+      <c r="K324" s="27" t="s">
+        <v>398</v>
       </c>
       <c r="L324" s="7"/>
       <c r="M324" s="7"/>
@@ -16606,18 +16603,18 @@
         <v>323</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C325" s="36">
         <v>43952.0</v>
       </c>
-      <c r="D325" s="27">
+      <c r="D325" s="29">
         <v>43952.0</v>
       </c>
-      <c r="E325" s="28" t="s">
+      <c r="E325" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F325" s="29" t="s">
+      <c r="F325" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G325" s="8"/>
@@ -16647,18 +16644,18 @@
         <v>324</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C326" s="36">
         <v>43952.0</v>
       </c>
-      <c r="D326" s="27">
+      <c r="D326" s="29">
         <v>43952.0</v>
       </c>
-      <c r="E326" s="28" t="s">
+      <c r="E326" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F326" s="29" t="s">
+      <c r="F326" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G326" s="8"/>
@@ -16688,28 +16685,28 @@
         <v>325</v>
       </c>
       <c r="B327" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C327" s="36">
         <v>43953.0</v>
       </c>
-      <c r="D327" s="27">
+      <c r="D327" s="29">
         <v>43953.0</v>
       </c>
-      <c r="E327" s="28" t="s">
+      <c r="E327" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F327" s="29" t="s">
+      <c r="F327" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G327" s="8"/>
-      <c r="H327" s="29" t="s">
-        <v>361</v>
+      <c r="H327" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I327" s="12"/>
       <c r="J327" s="13"/>
-      <c r="K327" s="25" t="s">
-        <v>400</v>
+      <c r="K327" s="27" t="s">
+        <v>401</v>
       </c>
       <c r="L327" s="7"/>
       <c r="M327" s="7"/>
@@ -16733,28 +16730,28 @@
         <v>326</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C328" s="36">
         <v>43953.0</v>
       </c>
-      <c r="D328" s="27">
+      <c r="D328" s="29">
         <v>43953.0</v>
       </c>
-      <c r="E328" s="28" t="s">
+      <c r="E328" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F328" s="29" t="s">
+      <c r="F328" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G328" s="8"/>
-      <c r="H328" s="29" t="s">
-        <v>361</v>
+      <c r="H328" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I328" s="12"/>
       <c r="J328" s="13"/>
-      <c r="K328" s="25" t="s">
-        <v>400</v>
+      <c r="K328" s="27" t="s">
+        <v>401</v>
       </c>
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
@@ -16778,28 +16775,28 @@
         <v>327</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C329" s="36">
         <v>43953.0</v>
       </c>
-      <c r="D329" s="27">
+      <c r="D329" s="29">
         <v>43953.0</v>
       </c>
-      <c r="E329" s="28" t="s">
+      <c r="E329" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F329" s="29" t="s">
+      <c r="F329" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G329" s="8"/>
-      <c r="H329" s="29" t="s">
-        <v>361</v>
+      <c r="H329" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I329" s="12"/>
       <c r="J329" s="13"/>
-      <c r="K329" s="25" t="s">
-        <v>400</v>
+      <c r="K329" s="27" t="s">
+        <v>401</v>
       </c>
       <c r="L329" s="7"/>
       <c r="M329" s="7"/>
@@ -16823,28 +16820,28 @@
         <v>328</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C330" s="36">
         <v>43953.0</v>
       </c>
-      <c r="D330" s="27">
+      <c r="D330" s="29">
         <v>43953.0</v>
       </c>
-      <c r="E330" s="28" t="s">
+      <c r="E330" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F330" s="29" t="s">
+      <c r="F330" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G330" s="8"/>
-      <c r="H330" s="29" t="s">
-        <v>401</v>
+      <c r="H330" s="30" t="s">
+        <v>402</v>
       </c>
       <c r="I330" s="12"/>
       <c r="J330" s="13"/>
-      <c r="K330" s="25" t="s">
-        <v>400</v>
+      <c r="K330" s="27" t="s">
+        <v>401</v>
       </c>
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
@@ -16868,26 +16865,26 @@
         <v>329</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C331" s="36">
         <v>43953.0</v>
       </c>
-      <c r="D331" s="27">
+      <c r="D331" s="29">
         <v>43953.0</v>
       </c>
-      <c r="E331" s="28" t="s">
+      <c r="E331" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F331" s="29" t="s">
+      <c r="F331" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G331" s="8"/>
-      <c r="H331" s="29"/>
+      <c r="H331" s="30"/>
       <c r="I331" s="12"/>
       <c r="J331" s="13"/>
-      <c r="K331" s="25" t="s">
-        <v>400</v>
+      <c r="K331" s="27" t="s">
+        <v>401</v>
       </c>
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
@@ -16911,26 +16908,26 @@
         <v>330</v>
       </c>
       <c r="B332" s="23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C332" s="36">
         <v>43954.0</v>
       </c>
-      <c r="D332" s="27">
+      <c r="D332" s="29">
         <v>43954.0</v>
       </c>
-      <c r="E332" s="28" t="s">
+      <c r="E332" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F332" s="29" t="s">
-        <v>324</v>
+      <c r="F332" s="30" t="s">
+        <v>325</v>
       </c>
       <c r="G332" s="8"/>
       <c r="H332" s="12"/>
       <c r="I332" s="12"/>
       <c r="J332" s="13"/>
-      <c r="K332" s="25" t="s">
-        <v>403</v>
+      <c r="K332" s="27" t="s">
+        <v>404</v>
       </c>
       <c r="L332" s="7"/>
       <c r="M332" s="7"/>
@@ -16954,28 +16951,28 @@
         <v>331</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C333" s="36">
         <v>43954.0</v>
       </c>
-      <c r="D333" s="27">
+      <c r="D333" s="29">
         <v>43954.0</v>
       </c>
-      <c r="E333" s="28" t="s">
+      <c r="E333" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="F333" s="29" t="s">
+      <c r="F333" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G333" s="8"/>
-      <c r="H333" s="29" t="s">
-        <v>361</v>
+      <c r="H333" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I333" s="12"/>
       <c r="J333" s="13"/>
-      <c r="K333" s="25" t="s">
-        <v>404</v>
+      <c r="K333" s="27" t="s">
+        <v>405</v>
       </c>
       <c r="L333" s="7"/>
       <c r="M333" s="7"/>
@@ -16999,26 +16996,26 @@
         <v>332</v>
       </c>
       <c r="B334" s="23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C334" s="36">
         <v>43955.0</v>
       </c>
-      <c r="D334" s="27">
+      <c r="D334" s="29">
         <v>43955.0</v>
       </c>
-      <c r="E334" s="28" t="s">
+      <c r="E334" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F334" s="29" t="s">
+      <c r="F334" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G334" s="8"/>
       <c r="H334" s="12"/>
       <c r="I334" s="12"/>
       <c r="J334" s="13"/>
-      <c r="K334" s="25" t="s">
-        <v>406</v>
+      <c r="K334" s="27" t="s">
+        <v>407</v>
       </c>
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
@@ -17042,28 +17039,28 @@
         <v>333</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C335" s="36">
         <v>43955.0</v>
       </c>
-      <c r="D335" s="27">
+      <c r="D335" s="29">
         <v>43955.0</v>
       </c>
-      <c r="E335" s="28" t="s">
+      <c r="E335" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F335" s="29" t="s">
+      <c r="F335" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G335" s="8"/>
-      <c r="H335" s="29" t="s">
-        <v>407</v>
+      <c r="H335" s="30" t="s">
+        <v>408</v>
       </c>
       <c r="I335" s="12"/>
       <c r="J335" s="13"/>
-      <c r="K335" s="25" t="s">
-        <v>406</v>
+      <c r="K335" s="27" t="s">
+        <v>407</v>
       </c>
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
@@ -17087,28 +17084,28 @@
         <v>334</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C336" s="36">
         <v>43955.0</v>
       </c>
-      <c r="D336" s="27">
+      <c r="D336" s="29">
         <v>43955.0</v>
       </c>
-      <c r="E336" s="28" t="s">
+      <c r="E336" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F336" s="29" t="s">
+      <c r="F336" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G336" s="8"/>
-      <c r="H336" s="29" t="s">
-        <v>361</v>
+      <c r="H336" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I336" s="12"/>
       <c r="J336" s="13"/>
-      <c r="K336" s="25" t="s">
-        <v>406</v>
+      <c r="K336" s="27" t="s">
+        <v>407</v>
       </c>
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
@@ -17132,28 +17129,28 @@
         <v>335</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C337" s="36">
         <v>43956.0</v>
       </c>
-      <c r="D337" s="27">
+      <c r="D337" s="29">
         <v>43956.0</v>
       </c>
-      <c r="E337" s="28" t="s">
+      <c r="E337" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F337" s="29" t="s">
+      <c r="F337" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G337" s="8"/>
-      <c r="H337" s="29" t="s">
-        <v>361</v>
+      <c r="H337" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I337" s="12"/>
       <c r="J337" s="13"/>
-      <c r="K337" s="25" t="s">
-        <v>409</v>
+      <c r="K337" s="27" t="s">
+        <v>410</v>
       </c>
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
@@ -17177,28 +17174,28 @@
         <v>336</v>
       </c>
       <c r="B338" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C338" s="36">
         <v>43956.0</v>
       </c>
-      <c r="D338" s="27">
+      <c r="D338" s="29">
         <v>43956.0</v>
       </c>
-      <c r="E338" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="F338" s="29" t="s">
+      <c r="E338" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F338" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G338" s="8"/>
-      <c r="H338" s="29" t="s">
-        <v>361</v>
+      <c r="H338" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I338" s="12"/>
       <c r="J338" s="13"/>
-      <c r="K338" s="25" t="s">
-        <v>409</v>
+      <c r="K338" s="27" t="s">
+        <v>410</v>
       </c>
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
@@ -17222,28 +17219,28 @@
         <v>337</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C339" s="36">
         <v>43956.0</v>
       </c>
-      <c r="D339" s="27">
+      <c r="D339" s="29">
         <v>43956.0</v>
       </c>
-      <c r="E339" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="F339" s="29" t="s">
+      <c r="E339" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F339" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G339" s="8"/>
-      <c r="H339" s="29" t="s">
-        <v>361</v>
+      <c r="H339" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I339" s="12"/>
       <c r="J339" s="13"/>
-      <c r="K339" s="25" t="s">
-        <v>409</v>
+      <c r="K339" s="27" t="s">
+        <v>410</v>
       </c>
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
@@ -17267,28 +17264,28 @@
         <v>338</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C340" s="36">
         <v>43956.0</v>
       </c>
-      <c r="D340" s="27">
+      <c r="D340" s="29">
         <v>43956.0</v>
       </c>
-      <c r="E340" s="28" t="s">
+      <c r="E340" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F340" s="29" t="s">
+      <c r="F340" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G340" s="8"/>
-      <c r="H340" s="29" t="s">
-        <v>361</v>
+      <c r="H340" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I340" s="12"/>
       <c r="J340" s="13"/>
-      <c r="K340" s="25" t="s">
-        <v>409</v>
+      <c r="K340" s="27" t="s">
+        <v>410</v>
       </c>
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
@@ -17317,18 +17314,18 @@
       <c r="C341" s="36">
         <v>43957.0</v>
       </c>
-      <c r="D341" s="27">
+      <c r="D341" s="29">
         <v>43957.0</v>
       </c>
-      <c r="E341" s="28" t="s">
+      <c r="E341" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="F341" s="29" t="s">
+      <c r="F341" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G341" s="8"/>
-      <c r="H341" s="29" t="s">
-        <v>361</v>
+      <c r="H341" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I341" s="12"/>
       <c r="J341" s="13"/>
@@ -17362,18 +17359,18 @@
       <c r="C342" s="36">
         <v>43957.0</v>
       </c>
-      <c r="D342" s="27">
+      <c r="D342" s="29">
         <v>43957.0</v>
       </c>
-      <c r="E342" s="28" t="s">
+      <c r="E342" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F342" s="29" t="s">
+      <c r="F342" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G342" s="8"/>
-      <c r="H342" s="29" t="s">
-        <v>361</v>
+      <c r="H342" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I342" s="12"/>
       <c r="J342" s="13"/>
@@ -17407,17 +17404,17 @@
       <c r="C343" s="36">
         <v>43957.0</v>
       </c>
-      <c r="D343" s="27">
+      <c r="D343" s="29">
         <v>43957.0</v>
       </c>
-      <c r="E343" s="28" t="s">
+      <c r="E343" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F343" s="29" t="s">
+      <c r="F343" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G343" s="8"/>
-      <c r="H343" s="29" t="s">
+      <c r="H343" s="30" t="s">
         <v>414</v>
       </c>
       <c r="I343" s="12"/>
@@ -17446,24 +17443,24 @@
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
-      <c r="B344" s="38" t="s">
+      <c r="B344" s="23" t="s">
         <v>415</v>
       </c>
       <c r="C344" s="36">
         <v>43958.0</v>
       </c>
-      <c r="D344" s="27">
+      <c r="D344" s="29">
         <v>43958.0</v>
       </c>
-      <c r="E344" s="28" t="s">
+      <c r="E344" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F344" s="29" t="s">
+      <c r="F344" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G344" s="8"/>
-      <c r="H344" s="29" t="s">
-        <v>361</v>
+      <c r="H344" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I344" s="12"/>
       <c r="J344" s="13"/>
@@ -17491,24 +17488,24 @@
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
-      <c r="B345" s="38" t="s">
+      <c r="B345" s="23" t="s">
         <v>415</v>
       </c>
       <c r="C345" s="36">
         <v>43958.0</v>
       </c>
-      <c r="D345" s="27">
+      <c r="D345" s="29">
         <v>43958.0</v>
       </c>
-      <c r="E345" s="28" t="s">
+      <c r="E345" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F345" s="29" t="s">
+      <c r="F345" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G345" s="8"/>
-      <c r="H345" s="29" t="s">
-        <v>361</v>
+      <c r="H345" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I345" s="12"/>
       <c r="J345" s="13"/>
@@ -17536,24 +17533,24 @@
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="B346" s="38" t="s">
+      <c r="B346" s="23" t="s">
         <v>415</v>
       </c>
       <c r="C346" s="36">
         <v>43958.0</v>
       </c>
-      <c r="D346" s="27">
+      <c r="D346" s="29">
         <v>43958.0</v>
       </c>
-      <c r="E346" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="F346" s="29" t="s">
+      <c r="E346" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F346" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G346" s="8"/>
-      <c r="H346" s="29" t="s">
-        <v>361</v>
+      <c r="H346" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I346" s="12"/>
       <c r="J346" s="13"/>
@@ -17581,24 +17578,24 @@
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="B347" s="38" t="s">
+      <c r="B347" s="23" t="s">
         <v>415</v>
       </c>
       <c r="C347" s="36">
         <v>43958.0</v>
       </c>
-      <c r="D347" s="27">
+      <c r="D347" s="29">
         <v>43958.0</v>
       </c>
-      <c r="E347" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="F347" s="29" t="s">
+      <c r="E347" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F347" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G347" s="8"/>
-      <c r="H347" s="29" t="s">
-        <v>361</v>
+      <c r="H347" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I347" s="12"/>
       <c r="J347" s="13"/>
@@ -17626,24 +17623,24 @@
         <f t="shared" si="1"/>
         <v>346</v>
       </c>
-      <c r="B348" s="38" t="s">
+      <c r="B348" s="23" t="s">
         <v>415</v>
       </c>
       <c r="C348" s="36">
         <v>43958.0</v>
       </c>
-      <c r="D348" s="27">
+      <c r="D348" s="29">
         <v>43958.0</v>
       </c>
-      <c r="E348" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="F348" s="29" t="s">
+      <c r="E348" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F348" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G348" s="8"/>
-      <c r="H348" s="29" t="s">
-        <v>361</v>
+      <c r="H348" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I348" s="12"/>
       <c r="J348" s="13"/>
@@ -17671,24 +17668,24 @@
         <f t="shared" si="1"/>
         <v>347</v>
       </c>
-      <c r="B349" s="38" t="s">
+      <c r="B349" s="23" t="s">
         <v>415</v>
       </c>
       <c r="C349" s="36">
         <v>43958.0</v>
       </c>
-      <c r="D349" s="27">
+      <c r="D349" s="29">
         <v>43958.0</v>
       </c>
-      <c r="E349" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="F349" s="29" t="s">
+      <c r="E349" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F349" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G349" s="8"/>
-      <c r="H349" s="29" t="s">
-        <v>361</v>
+      <c r="H349" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="I349" s="12"/>
       <c r="J349" s="13"/>
@@ -36013,134 +36010,135 @@
     <hyperlink r:id="rId41" ref="L52"/>
     <hyperlink r:id="rId42" ref="L53"/>
     <hyperlink r:id="rId43" ref="K72"/>
-    <hyperlink r:id="rId44" ref="K224"/>
-    <hyperlink r:id="rId45" ref="K225"/>
-    <hyperlink r:id="rId46" ref="K226"/>
-    <hyperlink r:id="rId47" ref="K227"/>
-    <hyperlink r:id="rId48" ref="K228"/>
-    <hyperlink r:id="rId49" ref="K229"/>
-    <hyperlink r:id="rId50" ref="K230"/>
-    <hyperlink r:id="rId51" ref="K231"/>
-    <hyperlink r:id="rId52" ref="K232"/>
-    <hyperlink r:id="rId53" ref="K233"/>
-    <hyperlink r:id="rId54" ref="K234"/>
-    <hyperlink r:id="rId55" ref="K235"/>
-    <hyperlink r:id="rId56" ref="K236"/>
-    <hyperlink r:id="rId57" ref="K237"/>
-    <hyperlink r:id="rId58" ref="K238"/>
-    <hyperlink r:id="rId59" ref="K239"/>
-    <hyperlink r:id="rId60" ref="K240"/>
-    <hyperlink r:id="rId61" ref="K241"/>
-    <hyperlink r:id="rId62" ref="K242"/>
-    <hyperlink r:id="rId63" ref="K243"/>
-    <hyperlink r:id="rId64" ref="K244"/>
-    <hyperlink r:id="rId65" ref="K245"/>
-    <hyperlink r:id="rId66" ref="K246"/>
-    <hyperlink r:id="rId67" ref="K247"/>
-    <hyperlink r:id="rId68" ref="K248"/>
-    <hyperlink r:id="rId69" ref="K249"/>
-    <hyperlink r:id="rId70" ref="K250"/>
-    <hyperlink r:id="rId71" ref="K251"/>
-    <hyperlink r:id="rId72" ref="K252"/>
-    <hyperlink r:id="rId73" ref="K253"/>
-    <hyperlink r:id="rId74" ref="K254"/>
-    <hyperlink r:id="rId75" ref="K255"/>
-    <hyperlink r:id="rId76" ref="K256"/>
-    <hyperlink r:id="rId77" ref="K257"/>
-    <hyperlink r:id="rId78" ref="K258"/>
-    <hyperlink r:id="rId79" ref="K259"/>
-    <hyperlink r:id="rId80" ref="K260"/>
-    <hyperlink r:id="rId81" ref="K261"/>
-    <hyperlink r:id="rId82" ref="K262"/>
-    <hyperlink r:id="rId83" ref="K263"/>
-    <hyperlink r:id="rId84" ref="K264"/>
-    <hyperlink r:id="rId85" ref="K265"/>
-    <hyperlink r:id="rId86" ref="K266"/>
-    <hyperlink r:id="rId87" ref="K267"/>
-    <hyperlink r:id="rId88" ref="K268"/>
-    <hyperlink r:id="rId89" ref="K269"/>
-    <hyperlink r:id="rId90" ref="K270"/>
-    <hyperlink r:id="rId91" ref="K271"/>
-    <hyperlink r:id="rId92" ref="K272"/>
-    <hyperlink r:id="rId93" ref="K273"/>
-    <hyperlink r:id="rId94" ref="K274"/>
-    <hyperlink r:id="rId95" ref="K275"/>
-    <hyperlink r:id="rId96" ref="K276"/>
-    <hyperlink r:id="rId97" ref="K277"/>
-    <hyperlink r:id="rId98" ref="K278"/>
-    <hyperlink r:id="rId99" ref="K279"/>
-    <hyperlink r:id="rId100" ref="K280"/>
-    <hyperlink r:id="rId101" ref="K281"/>
-    <hyperlink r:id="rId102" ref="K282"/>
-    <hyperlink r:id="rId103" ref="K283"/>
-    <hyperlink r:id="rId104" ref="K284"/>
-    <hyperlink r:id="rId105" ref="K285"/>
-    <hyperlink r:id="rId106" ref="K286"/>
-    <hyperlink r:id="rId107" ref="K287"/>
-    <hyperlink r:id="rId108" ref="K288"/>
-    <hyperlink r:id="rId109" ref="K289"/>
-    <hyperlink r:id="rId110" ref="K290"/>
-    <hyperlink r:id="rId111" ref="K291"/>
-    <hyperlink r:id="rId112" ref="K292"/>
-    <hyperlink r:id="rId113" ref="K293"/>
-    <hyperlink r:id="rId114" ref="K294"/>
-    <hyperlink r:id="rId115" ref="K295"/>
-    <hyperlink r:id="rId116" ref="K296"/>
-    <hyperlink r:id="rId117" ref="K297"/>
-    <hyperlink r:id="rId118" ref="K298"/>
-    <hyperlink r:id="rId119" ref="K299"/>
-    <hyperlink r:id="rId120" ref="K300"/>
-    <hyperlink r:id="rId121" ref="K301"/>
-    <hyperlink r:id="rId122" ref="K302"/>
-    <hyperlink r:id="rId123" ref="K303"/>
-    <hyperlink r:id="rId124" ref="K304"/>
-    <hyperlink r:id="rId125" ref="K305"/>
-    <hyperlink r:id="rId126" ref="K306"/>
-    <hyperlink r:id="rId127" ref="K307"/>
-    <hyperlink r:id="rId128" ref="K308"/>
-    <hyperlink r:id="rId129" ref="K309"/>
-    <hyperlink r:id="rId130" ref="K310"/>
-    <hyperlink r:id="rId131" ref="K311"/>
-    <hyperlink r:id="rId132" ref="K312"/>
-    <hyperlink r:id="rId133" ref="K313"/>
-    <hyperlink r:id="rId134" ref="K314"/>
-    <hyperlink r:id="rId135" ref="K315"/>
-    <hyperlink r:id="rId136" ref="K316"/>
-    <hyperlink r:id="rId137" ref="K317"/>
-    <hyperlink r:id="rId138" ref="K318"/>
-    <hyperlink r:id="rId139" ref="K319"/>
-    <hyperlink r:id="rId140" ref="K320"/>
-    <hyperlink r:id="rId141" ref="K321"/>
-    <hyperlink r:id="rId142" ref="K322"/>
-    <hyperlink r:id="rId143" ref="K323"/>
-    <hyperlink r:id="rId144" ref="K324"/>
-    <hyperlink r:id="rId145" ref="K327"/>
-    <hyperlink r:id="rId146" ref="K328"/>
-    <hyperlink r:id="rId147" ref="K329"/>
-    <hyperlink r:id="rId148" ref="K330"/>
-    <hyperlink r:id="rId149" ref="K331"/>
-    <hyperlink r:id="rId150" ref="K332"/>
-    <hyperlink r:id="rId151" ref="K333"/>
-    <hyperlink r:id="rId152" ref="K334"/>
-    <hyperlink r:id="rId153" ref="K335"/>
-    <hyperlink r:id="rId154" ref="K336"/>
-    <hyperlink r:id="rId155" ref="K337"/>
-    <hyperlink r:id="rId156" ref="K338"/>
-    <hyperlink r:id="rId157" ref="K339"/>
-    <hyperlink r:id="rId158" ref="K340"/>
-    <hyperlink r:id="rId159" ref="K341"/>
-    <hyperlink r:id="rId160" ref="K342"/>
-    <hyperlink r:id="rId161" ref="K343"/>
-    <hyperlink r:id="rId162" ref="K344"/>
-    <hyperlink r:id="rId163" ref="K345"/>
-    <hyperlink r:id="rId164" ref="K346"/>
-    <hyperlink r:id="rId165" ref="K347"/>
-    <hyperlink r:id="rId166" ref="K348"/>
-    <hyperlink r:id="rId167" ref="K349"/>
+    <hyperlink r:id="rId44" ref="K143"/>
+    <hyperlink r:id="rId45" ref="K224"/>
+    <hyperlink r:id="rId46" ref="K225"/>
+    <hyperlink r:id="rId47" ref="K226"/>
+    <hyperlink r:id="rId48" ref="K227"/>
+    <hyperlink r:id="rId49" ref="K228"/>
+    <hyperlink r:id="rId50" ref="K229"/>
+    <hyperlink r:id="rId51" ref="K230"/>
+    <hyperlink r:id="rId52" ref="K231"/>
+    <hyperlink r:id="rId53" ref="K232"/>
+    <hyperlink r:id="rId54" ref="K233"/>
+    <hyperlink r:id="rId55" ref="K234"/>
+    <hyperlink r:id="rId56" ref="K235"/>
+    <hyperlink r:id="rId57" ref="K236"/>
+    <hyperlink r:id="rId58" ref="K237"/>
+    <hyperlink r:id="rId59" ref="K238"/>
+    <hyperlink r:id="rId60" ref="K239"/>
+    <hyperlink r:id="rId61" ref="K240"/>
+    <hyperlink r:id="rId62" ref="K241"/>
+    <hyperlink r:id="rId63" ref="K242"/>
+    <hyperlink r:id="rId64" ref="K243"/>
+    <hyperlink r:id="rId65" ref="K244"/>
+    <hyperlink r:id="rId66" ref="K245"/>
+    <hyperlink r:id="rId67" ref="K246"/>
+    <hyperlink r:id="rId68" ref="K247"/>
+    <hyperlink r:id="rId69" ref="K248"/>
+    <hyperlink r:id="rId70" ref="K249"/>
+    <hyperlink r:id="rId71" ref="K250"/>
+    <hyperlink r:id="rId72" ref="K251"/>
+    <hyperlink r:id="rId73" ref="K252"/>
+    <hyperlink r:id="rId74" ref="K253"/>
+    <hyperlink r:id="rId75" ref="K254"/>
+    <hyperlink r:id="rId76" ref="K255"/>
+    <hyperlink r:id="rId77" ref="K256"/>
+    <hyperlink r:id="rId78" ref="K257"/>
+    <hyperlink r:id="rId79" ref="K258"/>
+    <hyperlink r:id="rId80" ref="K259"/>
+    <hyperlink r:id="rId81" ref="K260"/>
+    <hyperlink r:id="rId82" ref="K261"/>
+    <hyperlink r:id="rId83" ref="K262"/>
+    <hyperlink r:id="rId84" ref="K263"/>
+    <hyperlink r:id="rId85" ref="K264"/>
+    <hyperlink r:id="rId86" ref="K265"/>
+    <hyperlink r:id="rId87" ref="K266"/>
+    <hyperlink r:id="rId88" ref="K267"/>
+    <hyperlink r:id="rId89" ref="K268"/>
+    <hyperlink r:id="rId90" ref="K269"/>
+    <hyperlink r:id="rId91" ref="K270"/>
+    <hyperlink r:id="rId92" ref="K271"/>
+    <hyperlink r:id="rId93" ref="K272"/>
+    <hyperlink r:id="rId94" ref="K273"/>
+    <hyperlink r:id="rId95" ref="K274"/>
+    <hyperlink r:id="rId96" ref="K275"/>
+    <hyperlink r:id="rId97" ref="K276"/>
+    <hyperlink r:id="rId98" ref="K277"/>
+    <hyperlink r:id="rId99" ref="K278"/>
+    <hyperlink r:id="rId100" ref="K279"/>
+    <hyperlink r:id="rId101" ref="K280"/>
+    <hyperlink r:id="rId102" ref="K281"/>
+    <hyperlink r:id="rId103" ref="K282"/>
+    <hyperlink r:id="rId104" ref="K283"/>
+    <hyperlink r:id="rId105" ref="K284"/>
+    <hyperlink r:id="rId106" ref="K285"/>
+    <hyperlink r:id="rId107" ref="K286"/>
+    <hyperlink r:id="rId108" ref="K287"/>
+    <hyperlink r:id="rId109" ref="K288"/>
+    <hyperlink r:id="rId110" ref="K289"/>
+    <hyperlink r:id="rId111" ref="K290"/>
+    <hyperlink r:id="rId112" ref="K291"/>
+    <hyperlink r:id="rId113" ref="K292"/>
+    <hyperlink r:id="rId114" ref="K293"/>
+    <hyperlink r:id="rId115" ref="K294"/>
+    <hyperlink r:id="rId116" ref="K295"/>
+    <hyperlink r:id="rId117" ref="K296"/>
+    <hyperlink r:id="rId118" ref="K297"/>
+    <hyperlink r:id="rId119" ref="K298"/>
+    <hyperlink r:id="rId120" ref="K299"/>
+    <hyperlink r:id="rId121" ref="K300"/>
+    <hyperlink r:id="rId122" ref="K301"/>
+    <hyperlink r:id="rId123" ref="K302"/>
+    <hyperlink r:id="rId124" ref="K303"/>
+    <hyperlink r:id="rId125" ref="K304"/>
+    <hyperlink r:id="rId126" ref="K305"/>
+    <hyperlink r:id="rId127" ref="K306"/>
+    <hyperlink r:id="rId128" ref="K307"/>
+    <hyperlink r:id="rId129" ref="K308"/>
+    <hyperlink r:id="rId130" ref="K309"/>
+    <hyperlink r:id="rId131" ref="K310"/>
+    <hyperlink r:id="rId132" ref="K311"/>
+    <hyperlink r:id="rId133" ref="K312"/>
+    <hyperlink r:id="rId134" ref="K313"/>
+    <hyperlink r:id="rId135" ref="K314"/>
+    <hyperlink r:id="rId136" ref="K315"/>
+    <hyperlink r:id="rId137" ref="K316"/>
+    <hyperlink r:id="rId138" ref="K317"/>
+    <hyperlink r:id="rId139" ref="K318"/>
+    <hyperlink r:id="rId140" ref="K319"/>
+    <hyperlink r:id="rId141" ref="K320"/>
+    <hyperlink r:id="rId142" ref="K321"/>
+    <hyperlink r:id="rId143" ref="K322"/>
+    <hyperlink r:id="rId144" ref="K323"/>
+    <hyperlink r:id="rId145" ref="K324"/>
+    <hyperlink r:id="rId146" ref="K327"/>
+    <hyperlink r:id="rId147" ref="K328"/>
+    <hyperlink r:id="rId148" ref="K329"/>
+    <hyperlink r:id="rId149" ref="K330"/>
+    <hyperlink r:id="rId150" ref="K331"/>
+    <hyperlink r:id="rId151" ref="K332"/>
+    <hyperlink r:id="rId152" ref="K333"/>
+    <hyperlink r:id="rId153" ref="K334"/>
+    <hyperlink r:id="rId154" ref="K335"/>
+    <hyperlink r:id="rId155" ref="K336"/>
+    <hyperlink r:id="rId156" ref="K337"/>
+    <hyperlink r:id="rId157" ref="K338"/>
+    <hyperlink r:id="rId158" ref="K339"/>
+    <hyperlink r:id="rId159" ref="K340"/>
+    <hyperlink r:id="rId160" ref="K341"/>
+    <hyperlink r:id="rId161" ref="K342"/>
+    <hyperlink r:id="rId162" ref="K343"/>
+    <hyperlink r:id="rId163" ref="K344"/>
+    <hyperlink r:id="rId164" ref="K345"/>
+    <hyperlink r:id="rId165" ref="K346"/>
+    <hyperlink r:id="rId166" ref="K347"/>
+    <hyperlink r:id="rId167" ref="K348"/>
+    <hyperlink r:id="rId168" ref="K349"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId168"/>
+  <drawing r:id="rId169"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="417">
-  <si>
-    <t>2020-05-08T17:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="423">
+  <si>
+    <t>2020-05-11T14:33:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1417,6 +1417,24 @@
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269418/200507oshirase(232-237).pdf</t>
   </si>
+  <si>
+    <t>2020-05-08T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>京都市231例目の接触者</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269507/200508oshirase(238).pdf</t>
+  </si>
+  <si>
+    <t>2020-05-09T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269516/200508oshirase(239-242).pdf</t>
+  </si>
+  <si>
+    <t>京都市233例目の接触者</t>
+  </si>
 </sst>
 </file>
 
@@ -1427,7 +1445,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1435,11 +1453,15 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <name val="游ゴシック regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック regular"/>
     </font>
     <font>
-      <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック regular"/>
@@ -1530,7 +1552,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1552,98 +1574,101 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8207,7 +8232,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A349" si="1">A136+1</f>
+        <f t="shared" ref="A137:A354" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -17709,17 +17734,34 @@
       <c r="Z349" s="7"/>
     </row>
     <row r="350" ht="18.0" customHeight="1">
-      <c r="A350" s="8"/>
-      <c r="B350" s="7"/>
-      <c r="C350" s="8"/>
-      <c r="D350" s="8"/>
-      <c r="E350" s="7"/>
-      <c r="F350" s="12"/>
+      <c r="A350" s="8">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+      <c r="B350" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="C350" s="36">
+        <v>43959.0</v>
+      </c>
+      <c r="D350" s="29">
+        <v>43959.0</v>
+      </c>
+      <c r="E350" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F350" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G350" s="8"/>
-      <c r="H350" s="12"/>
+      <c r="H350" s="30" t="s">
+        <v>418</v>
+      </c>
       <c r="I350" s="12"/>
       <c r="J350" s="13"/>
-      <c r="K350" s="7"/>
+      <c r="K350" s="37" t="s">
+        <v>419</v>
+      </c>
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
       <c r="N350" s="7"/>
@@ -17737,17 +17779,34 @@
       <c r="Z350" s="7"/>
     </row>
     <row r="351" ht="18.0" customHeight="1">
-      <c r="A351" s="8"/>
-      <c r="B351" s="7"/>
-      <c r="C351" s="8"/>
-      <c r="D351" s="8"/>
-      <c r="E351" s="7"/>
-      <c r="F351" s="12"/>
+      <c r="A351" s="8">
+        <f t="shared" si="1"/>
+        <v>349</v>
+      </c>
+      <c r="B351" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="C351" s="36">
+        <v>43960.0</v>
+      </c>
+      <c r="D351" s="29">
+        <v>43960.0</v>
+      </c>
+      <c r="E351" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F351" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G351" s="8"/>
-      <c r="H351" s="12"/>
+      <c r="H351" s="30" t="s">
+        <v>362</v>
+      </c>
       <c r="I351" s="12"/>
       <c r="J351" s="13"/>
-      <c r="K351" s="7"/>
+      <c r="K351" s="37" t="s">
+        <v>421</v>
+      </c>
       <c r="L351" s="7"/>
       <c r="M351" s="7"/>
       <c r="N351" s="7"/>
@@ -17765,17 +17824,34 @@
       <c r="Z351" s="7"/>
     </row>
     <row r="352" ht="18.0" customHeight="1">
-      <c r="A352" s="8"/>
-      <c r="B352" s="7"/>
-      <c r="C352" s="8"/>
-      <c r="D352" s="8"/>
-      <c r="E352" s="7"/>
-      <c r="F352" s="12"/>
+      <c r="A352" s="8">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="B352" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="C352" s="36">
+        <v>43960.0</v>
+      </c>
+      <c r="D352" s="29">
+        <v>43960.0</v>
+      </c>
+      <c r="E352" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F352" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G352" s="8"/>
-      <c r="H352" s="12"/>
+      <c r="H352" s="30" t="s">
+        <v>422</v>
+      </c>
       <c r="I352" s="12"/>
       <c r="J352" s="13"/>
-      <c r="K352" s="7"/>
+      <c r="K352" s="37" t="s">
+        <v>421</v>
+      </c>
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
       <c r="N352" s="7"/>
@@ -17793,17 +17869,34 @@
       <c r="Z352" s="7"/>
     </row>
     <row r="353" ht="18.0" customHeight="1">
-      <c r="A353" s="8"/>
-      <c r="B353" s="7"/>
-      <c r="C353" s="8"/>
-      <c r="D353" s="8"/>
-      <c r="E353" s="7"/>
-      <c r="F353" s="12"/>
+      <c r="A353" s="8">
+        <f t="shared" si="1"/>
+        <v>351</v>
+      </c>
+      <c r="B353" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="C353" s="36">
+        <v>43960.0</v>
+      </c>
+      <c r="D353" s="29">
+        <v>43960.0</v>
+      </c>
+      <c r="E353" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F353" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G353" s="8"/>
-      <c r="H353" s="12"/>
+      <c r="H353" s="30" t="s">
+        <v>422</v>
+      </c>
       <c r="I353" s="12"/>
       <c r="J353" s="13"/>
-      <c r="K353" s="7"/>
+      <c r="K353" s="37" t="s">
+        <v>421</v>
+      </c>
       <c r="L353" s="7"/>
       <c r="M353" s="7"/>
       <c r="N353" s="7"/>
@@ -17821,17 +17914,34 @@
       <c r="Z353" s="7"/>
     </row>
     <row r="354" ht="18.0" customHeight="1">
-      <c r="A354" s="8"/>
-      <c r="B354" s="7"/>
-      <c r="C354" s="8"/>
-      <c r="D354" s="8"/>
-      <c r="E354" s="7"/>
-      <c r="F354" s="12"/>
+      <c r="A354" s="8">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
+      <c r="B354" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="C354" s="36">
+        <v>43960.0</v>
+      </c>
+      <c r="D354" s="29">
+        <v>43960.0</v>
+      </c>
+      <c r="E354" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F354" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G354" s="8"/>
-      <c r="H354" s="12"/>
+      <c r="H354" s="30" t="s">
+        <v>362</v>
+      </c>
       <c r="I354" s="12"/>
       <c r="J354" s="13"/>
-      <c r="K354" s="7"/>
+      <c r="K354" s="37" t="s">
+        <v>421</v>
+      </c>
       <c r="L354" s="7"/>
       <c r="M354" s="7"/>
       <c r="N354" s="7"/>
@@ -36135,10 +36245,15 @@
     <hyperlink r:id="rId166" ref="K347"/>
     <hyperlink r:id="rId167" ref="K348"/>
     <hyperlink r:id="rId168" ref="K349"/>
+    <hyperlink r:id="rId169" ref="K350"/>
+    <hyperlink r:id="rId170" ref="K351"/>
+    <hyperlink r:id="rId171" ref="K352"/>
+    <hyperlink r:id="rId172" ref="K353"/>
+    <hyperlink r:id="rId173" ref="K354"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId169"/>
+  <drawing r:id="rId174"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="423">
-  <si>
-    <t>2020-05-11T14:33:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="425">
+  <si>
+    <t>2020-05-13T17:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1434,6 +1434,12 @@
   </si>
   <si>
     <t>京都市233例目の接触者</t>
+  </si>
+  <si>
+    <t>2020-05-12T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269630/200512oshirase(243-246).pdf</t>
   </si>
 </sst>
 </file>
@@ -8232,7 +8238,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A354" si="1">A136+1</f>
+        <f t="shared" ref="A137:A358" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -17738,7 +17744,7 @@
         <f t="shared" si="1"/>
         <v>348</v>
       </c>
-      <c r="B350" s="38" t="s">
+      <c r="B350" s="23" t="s">
         <v>417</v>
       </c>
       <c r="C350" s="36">
@@ -17783,7 +17789,7 @@
         <f t="shared" si="1"/>
         <v>349</v>
       </c>
-      <c r="B351" s="38" t="s">
+      <c r="B351" s="23" t="s">
         <v>420</v>
       </c>
       <c r="C351" s="36">
@@ -17828,7 +17834,7 @@
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="B352" s="38" t="s">
+      <c r="B352" s="23" t="s">
         <v>420</v>
       </c>
       <c r="C352" s="36">
@@ -17873,7 +17879,7 @@
         <f t="shared" si="1"/>
         <v>351</v>
       </c>
-      <c r="B353" s="38" t="s">
+      <c r="B353" s="23" t="s">
         <v>420</v>
       </c>
       <c r="C353" s="36">
@@ -17918,7 +17924,7 @@
         <f t="shared" si="1"/>
         <v>352</v>
       </c>
-      <c r="B354" s="38" t="s">
+      <c r="B354" s="23" t="s">
         <v>420</v>
       </c>
       <c r="C354" s="36">
@@ -17959,17 +17965,34 @@
       <c r="Z354" s="7"/>
     </row>
     <row r="355" ht="18.0" customHeight="1">
-      <c r="A355" s="8"/>
-      <c r="B355" s="7"/>
-      <c r="C355" s="8"/>
-      <c r="D355" s="8"/>
-      <c r="E355" s="7"/>
-      <c r="F355" s="12"/>
+      <c r="A355" s="8">
+        <f t="shared" si="1"/>
+        <v>353</v>
+      </c>
+      <c r="B355" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="C355" s="36">
+        <v>43963.0</v>
+      </c>
+      <c r="D355" s="29">
+        <v>43963.0</v>
+      </c>
+      <c r="E355" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F355" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G355" s="8"/>
-      <c r="H355" s="12"/>
+      <c r="H355" s="30" t="s">
+        <v>362</v>
+      </c>
       <c r="I355" s="12"/>
       <c r="J355" s="13"/>
-      <c r="K355" s="7"/>
+      <c r="K355" s="27" t="s">
+        <v>424</v>
+      </c>
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
       <c r="N355" s="7"/>
@@ -17987,17 +18010,34 @@
       <c r="Z355" s="7"/>
     </row>
     <row r="356" ht="18.0" customHeight="1">
-      <c r="A356" s="8"/>
-      <c r="B356" s="7"/>
-      <c r="C356" s="8"/>
-      <c r="D356" s="8"/>
-      <c r="E356" s="7"/>
-      <c r="F356" s="12"/>
+      <c r="A356" s="8">
+        <f t="shared" si="1"/>
+        <v>354</v>
+      </c>
+      <c r="B356" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="C356" s="36">
+        <v>43963.0</v>
+      </c>
+      <c r="D356" s="29">
+        <v>43963.0</v>
+      </c>
+      <c r="E356" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F356" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G356" s="8"/>
-      <c r="H356" s="12"/>
+      <c r="H356" s="30" t="s">
+        <v>362</v>
+      </c>
       <c r="I356" s="12"/>
       <c r="J356" s="13"/>
-      <c r="K356" s="7"/>
+      <c r="K356" s="27" t="s">
+        <v>424</v>
+      </c>
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
       <c r="N356" s="7"/>
@@ -18015,17 +18055,34 @@
       <c r="Z356" s="7"/>
     </row>
     <row r="357" ht="18.0" customHeight="1">
-      <c r="A357" s="8"/>
-      <c r="B357" s="7"/>
-      <c r="C357" s="8"/>
-      <c r="D357" s="8"/>
-      <c r="E357" s="7"/>
-      <c r="F357" s="12"/>
+      <c r="A357" s="8">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
+      <c r="B357" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="C357" s="36">
+        <v>43963.0</v>
+      </c>
+      <c r="D357" s="29">
+        <v>43963.0</v>
+      </c>
+      <c r="E357" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F357" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G357" s="8"/>
-      <c r="H357" s="12"/>
+      <c r="H357" s="30" t="s">
+        <v>362</v>
+      </c>
       <c r="I357" s="12"/>
       <c r="J357" s="13"/>
-      <c r="K357" s="7"/>
+      <c r="K357" s="27" t="s">
+        <v>424</v>
+      </c>
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
       <c r="N357" s="7"/>
@@ -18043,17 +18100,34 @@
       <c r="Z357" s="7"/>
     </row>
     <row r="358" ht="18.0" customHeight="1">
-      <c r="A358" s="8"/>
-      <c r="B358" s="7"/>
-      <c r="C358" s="8"/>
-      <c r="D358" s="8"/>
-      <c r="E358" s="7"/>
-      <c r="F358" s="12"/>
+      <c r="A358" s="8">
+        <f t="shared" si="1"/>
+        <v>356</v>
+      </c>
+      <c r="B358" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="C358" s="36">
+        <v>43963.0</v>
+      </c>
+      <c r="D358" s="29">
+        <v>43963.0</v>
+      </c>
+      <c r="E358" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F358" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G358" s="8"/>
-      <c r="H358" s="12"/>
+      <c r="H358" s="30" t="s">
+        <v>362</v>
+      </c>
       <c r="I358" s="12"/>
       <c r="J358" s="13"/>
-      <c r="K358" s="7"/>
+      <c r="K358" s="27" t="s">
+        <v>424</v>
+      </c>
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
       <c r="N358" s="7"/>
@@ -36250,10 +36324,14 @@
     <hyperlink r:id="rId171" ref="K352"/>
     <hyperlink r:id="rId172" ref="K353"/>
     <hyperlink r:id="rId173" ref="K354"/>
+    <hyperlink r:id="rId174" ref="K355"/>
+    <hyperlink r:id="rId175" ref="K356"/>
+    <hyperlink r:id="rId176" ref="K357"/>
+    <hyperlink r:id="rId177" ref="K358"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId174"/>
+  <drawing r:id="rId178"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="429">
   <si>
     <t>2020-05-13T17:00:00.000Z</t>
   </si>
@@ -1440,6 +1440,18 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269630/200512oshirase(243-246).pdf</t>
+  </si>
+  <si>
+    <t>2020-05-13T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269690/200513oshirase(247).pdf</t>
+  </si>
+  <si>
+    <t>2020-05-14T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269721/200514oshirase(248).pdf</t>
   </si>
 </sst>
 </file>
@@ -1459,15 +1471,11 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
       <name val="游ゴシック regular"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="游ゴシック regular"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック regular"/>
@@ -1531,6 +1539,10 @@
       <color rgb="FF000000"/>
       <name val="游ゴシック regular"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="游ゴシック regular"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1580,100 +1592,100 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8238,7 +8250,7 @@
     </row>
     <row r="137" ht="18.0" customHeight="1">
       <c r="A137" s="8">
-        <f t="shared" ref="A137:A358" si="1">A136+1</f>
+        <f t="shared" ref="A137:A360" si="1">A136+1</f>
         <v>135</v>
       </c>
       <c r="B137" s="23" t="s">
@@ -17969,7 +17981,7 @@
         <f t="shared" si="1"/>
         <v>353</v>
       </c>
-      <c r="B355" s="38" t="s">
+      <c r="B355" s="23" t="s">
         <v>423</v>
       </c>
       <c r="C355" s="36">
@@ -18014,7 +18026,7 @@
         <f t="shared" si="1"/>
         <v>354</v>
       </c>
-      <c r="B356" s="38" t="s">
+      <c r="B356" s="23" t="s">
         <v>423</v>
       </c>
       <c r="C356" s="36">
@@ -18059,7 +18071,7 @@
         <f t="shared" si="1"/>
         <v>355</v>
       </c>
-      <c r="B357" s="38" t="s">
+      <c r="B357" s="23" t="s">
         <v>423</v>
       </c>
       <c r="C357" s="36">
@@ -18104,7 +18116,7 @@
         <f t="shared" si="1"/>
         <v>356</v>
       </c>
-      <c r="B358" s="38" t="s">
+      <c r="B358" s="23" t="s">
         <v>423</v>
       </c>
       <c r="C358" s="36">
@@ -18145,17 +18157,34 @@
       <c r="Z358" s="7"/>
     </row>
     <row r="359" ht="18.0" customHeight="1">
-      <c r="A359" s="8"/>
-      <c r="B359" s="7"/>
-      <c r="C359" s="8"/>
-      <c r="D359" s="8"/>
-      <c r="E359" s="7"/>
-      <c r="F359" s="12"/>
+      <c r="A359" s="8">
+        <f t="shared" si="1"/>
+        <v>357</v>
+      </c>
+      <c r="B359" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C359" s="36">
+        <v>43964.0</v>
+      </c>
+      <c r="D359" s="29">
+        <v>43964.0</v>
+      </c>
+      <c r="E359" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F359" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G359" s="8"/>
-      <c r="H359" s="12"/>
+      <c r="H359" s="30" t="s">
+        <v>362</v>
+      </c>
       <c r="I359" s="12"/>
       <c r="J359" s="13"/>
-      <c r="K359" s="7"/>
+      <c r="K359" s="37" t="s">
+        <v>426</v>
+      </c>
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
       <c r="N359" s="7"/>
@@ -18173,17 +18202,34 @@
       <c r="Z359" s="7"/>
     </row>
     <row r="360" ht="18.0" customHeight="1">
-      <c r="A360" s="8"/>
-      <c r="B360" s="7"/>
-      <c r="C360" s="8"/>
-      <c r="D360" s="8"/>
-      <c r="E360" s="7"/>
-      <c r="F360" s="12"/>
+      <c r="A360" s="8">
+        <f t="shared" si="1"/>
+        <v>358</v>
+      </c>
+      <c r="B360" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="C360" s="36">
+        <v>43965.0</v>
+      </c>
+      <c r="D360" s="29">
+        <v>43965.0</v>
+      </c>
+      <c r="E360" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F360" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G360" s="8"/>
-      <c r="H360" s="12"/>
+      <c r="H360" s="30" t="s">
+        <v>362</v>
+      </c>
       <c r="I360" s="12"/>
       <c r="J360" s="13"/>
-      <c r="K360" s="7"/>
+      <c r="K360" s="37" t="s">
+        <v>428</v>
+      </c>
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
       <c r="N360" s="7"/>
@@ -36328,10 +36374,12 @@
     <hyperlink r:id="rId175" ref="K356"/>
     <hyperlink r:id="rId176" ref="K357"/>
     <hyperlink r:id="rId177" ref="K358"/>
+    <hyperlink r:id="rId178" ref="K359"/>
+    <hyperlink r:id="rId179" ref="K360"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId178"/>
+  <drawing r:id="rId180"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="429">
   <si>
-    <t>2020-05-13T17:00:00.000Z</t>
+    <t>2020-05-16T17:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1471,11 +1471,15 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <name val="游ゴシック regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック regular"/>
     </font>
     <font>
-      <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック regular"/>
@@ -1539,10 +1543,6 @@
       <color rgb="FF000000"/>
       <name val="游ゴシック regular"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="游ゴシック regular"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1570,7 +1570,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1592,101 +1592,98 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18161,7 +18158,7 @@
         <f t="shared" si="1"/>
         <v>357</v>
       </c>
-      <c r="B359" s="38" t="s">
+      <c r="B359" s="23" t="s">
         <v>425</v>
       </c>
       <c r="C359" s="36">
@@ -18206,7 +18203,7 @@
         <f t="shared" si="1"/>
         <v>358</v>
       </c>
-      <c r="B360" s="38" t="s">
+      <c r="B360" s="23" t="s">
         <v>427</v>
       </c>
       <c r="C360" s="36">

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="429">
-  <si>
-    <t>2020-05-16T17:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="431">
+  <si>
+    <t>2020-05-21T20:16:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1325,7 +1325,13 @@
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200428-310-311.pdf</t>
   </si>
   <si>
+    <t>令和2年5月1日死亡</t>
+  </si>
+  <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269177/200428oshirase(209-210).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269334/200501oshirase(sibou).pdf</t>
   </si>
   <si>
     <t>2020-04-29T08:00:00.000Z</t>
@@ -1570,7 +1576,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1681,6 +1687,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -16071,7 +16080,9 @@
         <v>377</v>
       </c>
       <c r="I312" s="12"/>
-      <c r="J312" s="13"/>
+      <c r="J312" s="18">
+        <v>43963.0</v>
+      </c>
       <c r="K312" s="27" t="s">
         <v>385</v>
       </c>
@@ -16159,13 +16170,19 @@
         <v>15</v>
       </c>
       <c r="G314" s="8"/>
-      <c r="H314" s="12"/>
+      <c r="H314" s="30" t="s">
+        <v>386</v>
+      </c>
       <c r="I314" s="12"/>
-      <c r="J314" s="13"/>
+      <c r="J314" s="18">
+        <v>43952.0</v>
+      </c>
       <c r="K314" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="L314" s="7"/>
+        <v>387</v>
+      </c>
+      <c r="L314" s="26" t="s">
+        <v>388</v>
+      </c>
       <c r="M314" s="7"/>
       <c r="N314" s="7"/>
       <c r="O314" s="7"/>
@@ -16206,9 +16223,11 @@
         <v>362</v>
       </c>
       <c r="I315" s="12"/>
-      <c r="J315" s="13"/>
+      <c r="J315" s="18">
+        <v>43964.0</v>
+      </c>
       <c r="K315" s="27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L315" s="7"/>
       <c r="M315" s="7"/>
@@ -16232,7 +16251,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C316" s="36">
         <v>43950.0</v>
@@ -16244,14 +16263,16 @@
         <v>61</v>
       </c>
       <c r="F316" s="30" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G316" s="8"/>
       <c r="H316" s="12"/>
       <c r="I316" s="12"/>
-      <c r="J316" s="13"/>
+      <c r="J316" s="18">
+        <v>43966.0</v>
+      </c>
       <c r="K316" s="27" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
@@ -16275,7 +16296,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C317" s="36">
         <v>43950.0</v>
@@ -16291,12 +16312,14 @@
       </c>
       <c r="G317" s="8"/>
       <c r="H317" s="30" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="I317" s="12"/>
-      <c r="J317" s="13"/>
+      <c r="J317" s="18">
+        <v>43958.0</v>
+      </c>
       <c r="K317" s="27" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
@@ -16320,7 +16343,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C318" s="36">
         <v>43950.0</v>
@@ -16329,7 +16352,7 @@
         <v>43950.0</v>
       </c>
       <c r="E318" s="25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F318" s="30" t="s">
         <v>15</v>
@@ -16341,7 +16364,7 @@
       <c r="I318" s="12"/>
       <c r="J318" s="13"/>
       <c r="K318" s="27" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
@@ -16365,7 +16388,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C319" s="36">
         <v>43950.0</v>
@@ -16386,7 +16409,7 @@
       <c r="I319" s="12"/>
       <c r="J319" s="13"/>
       <c r="K319" s="27" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
@@ -16410,7 +16433,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="23" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C320" s="36">
         <v>43951.0</v>
@@ -16431,7 +16454,7 @@
       <c r="I320" s="12"/>
       <c r="J320" s="13"/>
       <c r="K320" s="27" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
@@ -16455,7 +16478,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C321" s="36">
         <v>43951.0</v>
@@ -16473,12 +16496,12 @@
         <v>318.0</v>
       </c>
       <c r="H321" s="30" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I321" s="12"/>
       <c r="J321" s="13"/>
       <c r="K321" s="27" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
@@ -16502,7 +16525,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C322" s="36">
         <v>43951.0</v>
@@ -16520,12 +16543,14 @@
         <v>318.0</v>
       </c>
       <c r="H322" s="30" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I322" s="12"/>
-      <c r="J322" s="13"/>
+      <c r="J322" s="18">
+        <v>43962.0</v>
+      </c>
       <c r="K322" s="27" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
@@ -16549,7 +16574,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C323" s="36">
         <v>43952.0</v>
@@ -16561,18 +16586,20 @@
         <v>93</v>
       </c>
       <c r="F323" s="30" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G323" s="31">
         <v>314.0</v>
       </c>
       <c r="H323" s="30" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I323" s="12"/>
-      <c r="J323" s="13"/>
+      <c r="J323" s="18">
+        <v>43970.0</v>
+      </c>
       <c r="K323" s="27" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
@@ -16596,7 +16623,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C324" s="36">
         <v>43952.0</v>
@@ -16614,12 +16641,14 @@
         <v>276.0</v>
       </c>
       <c r="H324" s="30" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I324" s="12"/>
-      <c r="J324" s="13"/>
+      <c r="J324" s="18">
+        <v>43964.0</v>
+      </c>
       <c r="K324" s="27" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L324" s="7"/>
       <c r="M324" s="7"/>
@@ -16643,7 +16672,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C325" s="36">
         <v>43952.0</v>
@@ -16660,7 +16689,9 @@
       <c r="G325" s="8"/>
       <c r="H325" s="12"/>
       <c r="I325" s="12"/>
-      <c r="J325" s="13"/>
+      <c r="J325" s="18">
+        <v>43963.0</v>
+      </c>
       <c r="K325" s="7"/>
       <c r="L325" s="7"/>
       <c r="M325" s="7"/>
@@ -16684,7 +16715,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C326" s="36">
         <v>43952.0</v>
@@ -16725,7 +16756,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="23" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C327" s="36">
         <v>43953.0</v>
@@ -16744,9 +16775,11 @@
         <v>362</v>
       </c>
       <c r="I327" s="12"/>
-      <c r="J327" s="13"/>
+      <c r="J327" s="18">
+        <v>43967.0</v>
+      </c>
       <c r="K327" s="27" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L327" s="7"/>
       <c r="M327" s="7"/>
@@ -16770,7 +16803,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C328" s="36">
         <v>43953.0</v>
@@ -16789,9 +16822,11 @@
         <v>362</v>
       </c>
       <c r="I328" s="12"/>
-      <c r="J328" s="13"/>
+      <c r="J328" s="18">
+        <v>43967.0</v>
+      </c>
       <c r="K328" s="27" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
@@ -16815,7 +16850,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C329" s="36">
         <v>43953.0</v>
@@ -16834,9 +16869,11 @@
         <v>362</v>
       </c>
       <c r="I329" s="12"/>
-      <c r="J329" s="13"/>
+      <c r="J329" s="18">
+        <v>43967.0</v>
+      </c>
       <c r="K329" s="27" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L329" s="7"/>
       <c r="M329" s="7"/>
@@ -16860,7 +16897,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C330" s="36">
         <v>43953.0</v>
@@ -16876,12 +16913,14 @@
       </c>
       <c r="G330" s="8"/>
       <c r="H330" s="30" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I330" s="12"/>
-      <c r="J330" s="13"/>
+      <c r="J330" s="18">
+        <v>43967.0</v>
+      </c>
       <c r="K330" s="27" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
@@ -16905,7 +16944,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C331" s="36">
         <v>43953.0</v>
@@ -16924,7 +16963,7 @@
       <c r="I331" s="12"/>
       <c r="J331" s="13"/>
       <c r="K331" s="27" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
@@ -16948,7 +16987,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="23" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C332" s="36">
         <v>43954.0</v>
@@ -16967,7 +17006,7 @@
       <c r="I332" s="12"/>
       <c r="J332" s="13"/>
       <c r="K332" s="27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L332" s="7"/>
       <c r="M332" s="7"/>
@@ -16991,7 +17030,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C333" s="36">
         <v>43954.0</v>
@@ -17010,9 +17049,11 @@
         <v>362</v>
       </c>
       <c r="I333" s="12"/>
-      <c r="J333" s="13"/>
+      <c r="J333" s="18">
+        <v>43962.0</v>
+      </c>
       <c r="K333" s="27" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L333" s="7"/>
       <c r="M333" s="7"/>
@@ -17036,7 +17077,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="23" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C334" s="36">
         <v>43955.0</v>
@@ -17053,9 +17094,11 @@
       <c r="G334" s="8"/>
       <c r="H334" s="12"/>
       <c r="I334" s="12"/>
-      <c r="J334" s="13"/>
+      <c r="J334" s="37">
+        <v>43968.0</v>
+      </c>
       <c r="K334" s="27" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
@@ -17079,7 +17122,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C335" s="36">
         <v>43955.0</v>
@@ -17095,12 +17138,14 @@
       </c>
       <c r="G335" s="8"/>
       <c r="H335" s="30" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I335" s="12"/>
-      <c r="J335" s="13"/>
+      <c r="J335" s="37">
+        <v>43968.0</v>
+      </c>
       <c r="K335" s="27" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
@@ -17124,7 +17169,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C336" s="36">
         <v>43955.0</v>
@@ -17145,7 +17190,7 @@
       <c r="I336" s="12"/>
       <c r="J336" s="13"/>
       <c r="K336" s="27" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
@@ -17169,7 +17214,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C337" s="36">
         <v>43956.0</v>
@@ -17188,9 +17233,11 @@
         <v>362</v>
       </c>
       <c r="I337" s="12"/>
-      <c r="J337" s="13"/>
+      <c r="J337" s="18">
+        <v>43970.0</v>
+      </c>
       <c r="K337" s="27" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
@@ -17214,7 +17261,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="23" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C338" s="36">
         <v>43956.0</v>
@@ -17233,9 +17280,11 @@
         <v>362</v>
       </c>
       <c r="I338" s="12"/>
-      <c r="J338" s="13"/>
+      <c r="J338" s="18">
+        <v>43970.0</v>
+      </c>
       <c r="K338" s="27" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
@@ -17259,7 +17308,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C339" s="36">
         <v>43956.0</v>
@@ -17280,7 +17329,7 @@
       <c r="I339" s="12"/>
       <c r="J339" s="13"/>
       <c r="K339" s="27" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
@@ -17304,7 +17353,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C340" s="36">
         <v>43956.0</v>
@@ -17325,7 +17374,7 @@
       <c r="I340" s="12"/>
       <c r="J340" s="13"/>
       <c r="K340" s="27" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
@@ -17349,7 +17398,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C341" s="36">
         <v>43957.0</v>
@@ -17358,7 +17407,7 @@
         <v>43957.0</v>
       </c>
       <c r="E341" s="25" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F341" s="30" t="s">
         <v>15</v>
@@ -17368,9 +17417,11 @@
         <v>362</v>
       </c>
       <c r="I341" s="12"/>
-      <c r="J341" s="13"/>
-      <c r="K341" s="37" t="s">
-        <v>413</v>
+      <c r="J341" s="18">
+        <v>43964.0</v>
+      </c>
+      <c r="K341" s="38" t="s">
+        <v>415</v>
       </c>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
@@ -17394,7 +17445,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C342" s="36">
         <v>43957.0</v>
@@ -17414,8 +17465,8 @@
       </c>
       <c r="I342" s="12"/>
       <c r="J342" s="13"/>
-      <c r="K342" s="37" t="s">
-        <v>413</v>
+      <c r="K342" s="38" t="s">
+        <v>415</v>
       </c>
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
@@ -17439,7 +17490,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="23" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C343" s="36">
         <v>43957.0</v>
@@ -17455,12 +17506,14 @@
       </c>
       <c r="G343" s="8"/>
       <c r="H343" s="30" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I343" s="12"/>
-      <c r="J343" s="13"/>
-      <c r="K343" s="37" t="s">
-        <v>413</v>
+      <c r="J343" s="18">
+        <v>43964.0</v>
+      </c>
+      <c r="K343" s="38" t="s">
+        <v>415</v>
       </c>
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
@@ -17484,7 +17537,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="23" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C344" s="36">
         <v>43958.0</v>
@@ -17503,9 +17556,11 @@
         <v>362</v>
       </c>
       <c r="I344" s="12"/>
-      <c r="J344" s="13"/>
-      <c r="K344" s="37" t="s">
-        <v>416</v>
+      <c r="J344" s="18">
+        <v>43961.0</v>
+      </c>
+      <c r="K344" s="38" t="s">
+        <v>418</v>
       </c>
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
@@ -17529,7 +17584,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C345" s="36">
         <v>43958.0</v>
@@ -17549,8 +17604,8 @@
       </c>
       <c r="I345" s="12"/>
       <c r="J345" s="13"/>
-      <c r="K345" s="37" t="s">
-        <v>416</v>
+      <c r="K345" s="38" t="s">
+        <v>418</v>
       </c>
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
@@ -17574,7 +17629,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C346" s="36">
         <v>43958.0</v>
@@ -17594,8 +17649,8 @@
       </c>
       <c r="I346" s="12"/>
       <c r="J346" s="13"/>
-      <c r="K346" s="37" t="s">
-        <v>416</v>
+      <c r="K346" s="38" t="s">
+        <v>418</v>
       </c>
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
@@ -17619,7 +17674,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C347" s="36">
         <v>43958.0</v>
@@ -17639,8 +17694,8 @@
       </c>
       <c r="I347" s="12"/>
       <c r="J347" s="13"/>
-      <c r="K347" s="37" t="s">
-        <v>416</v>
+      <c r="K347" s="38" t="s">
+        <v>418</v>
       </c>
       <c r="L347" s="7"/>
       <c r="M347" s="7"/>
@@ -17664,7 +17719,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C348" s="36">
         <v>43958.0</v>
@@ -17684,8 +17739,8 @@
       </c>
       <c r="I348" s="12"/>
       <c r="J348" s="13"/>
-      <c r="K348" s="37" t="s">
-        <v>416</v>
+      <c r="K348" s="38" t="s">
+        <v>418</v>
       </c>
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
@@ -17709,7 +17764,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C349" s="36">
         <v>43958.0</v>
@@ -17728,9 +17783,11 @@
         <v>362</v>
       </c>
       <c r="I349" s="12"/>
-      <c r="J349" s="13"/>
-      <c r="K349" s="37" t="s">
-        <v>416</v>
+      <c r="J349" s="18">
+        <v>43965.0</v>
+      </c>
+      <c r="K349" s="38" t="s">
+        <v>418</v>
       </c>
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
@@ -17754,7 +17811,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C350" s="36">
         <v>43959.0</v>
@@ -17770,12 +17827,14 @@
       </c>
       <c r="G350" s="8"/>
       <c r="H350" s="30" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I350" s="12"/>
-      <c r="J350" s="13"/>
-      <c r="K350" s="37" t="s">
-        <v>419</v>
+      <c r="J350" s="18">
+        <v>43970.0</v>
+      </c>
+      <c r="K350" s="38" t="s">
+        <v>421</v>
       </c>
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
@@ -17799,7 +17858,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="23" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C351" s="36">
         <v>43960.0</v>
@@ -17819,8 +17878,8 @@
       </c>
       <c r="I351" s="12"/>
       <c r="J351" s="13"/>
-      <c r="K351" s="37" t="s">
-        <v>421</v>
+      <c r="K351" s="38" t="s">
+        <v>423</v>
       </c>
       <c r="L351" s="7"/>
       <c r="M351" s="7"/>
@@ -17844,7 +17903,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C352" s="36">
         <v>43960.0</v>
@@ -17860,12 +17919,12 @@
       </c>
       <c r="G352" s="8"/>
       <c r="H352" s="30" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I352" s="12"/>
       <c r="J352" s="13"/>
-      <c r="K352" s="37" t="s">
-        <v>421</v>
+      <c r="K352" s="38" t="s">
+        <v>423</v>
       </c>
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
@@ -17889,7 +17948,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C353" s="36">
         <v>43960.0</v>
@@ -17905,12 +17964,12 @@
       </c>
       <c r="G353" s="8"/>
       <c r="H353" s="30" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I353" s="12"/>
       <c r="J353" s="13"/>
-      <c r="K353" s="37" t="s">
-        <v>421</v>
+      <c r="K353" s="38" t="s">
+        <v>423</v>
       </c>
       <c r="L353" s="7"/>
       <c r="M353" s="7"/>
@@ -17934,7 +17993,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C354" s="36">
         <v>43960.0</v>
@@ -17954,8 +18013,8 @@
       </c>
       <c r="I354" s="12"/>
       <c r="J354" s="13"/>
-      <c r="K354" s="37" t="s">
-        <v>421</v>
+      <c r="K354" s="38" t="s">
+        <v>423</v>
       </c>
       <c r="L354" s="7"/>
       <c r="M354" s="7"/>
@@ -17979,7 +18038,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C355" s="36">
         <v>43963.0</v>
@@ -18000,7 +18059,7 @@
       <c r="I355" s="12"/>
       <c r="J355" s="13"/>
       <c r="K355" s="27" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
@@ -18024,7 +18083,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C356" s="36">
         <v>43963.0</v>
@@ -18045,7 +18104,7 @@
       <c r="I356" s="12"/>
       <c r="J356" s="13"/>
       <c r="K356" s="27" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
@@ -18069,7 +18128,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C357" s="36">
         <v>43963.0</v>
@@ -18090,7 +18149,7 @@
       <c r="I357" s="12"/>
       <c r="J357" s="13"/>
       <c r="K357" s="27" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
@@ -18114,7 +18173,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C358" s="36">
         <v>43963.0</v>
@@ -18135,7 +18194,7 @@
       <c r="I358" s="12"/>
       <c r="J358" s="13"/>
       <c r="K358" s="27" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
@@ -18159,7 +18218,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="23" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C359" s="36">
         <v>43964.0</v>
@@ -18179,8 +18238,8 @@
       </c>
       <c r="I359" s="12"/>
       <c r="J359" s="13"/>
-      <c r="K359" s="37" t="s">
-        <v>426</v>
+      <c r="K359" s="38" t="s">
+        <v>428</v>
       </c>
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
@@ -18204,7 +18263,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C360" s="36">
         <v>43965.0</v>
@@ -18224,8 +18283,8 @@
       </c>
       <c r="I360" s="12"/>
       <c r="J360" s="13"/>
-      <c r="K360" s="37" t="s">
-        <v>428</v>
+      <c r="K360" s="38" t="s">
+        <v>430</v>
       </c>
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
@@ -36329,54 +36388,55 @@
     <hyperlink r:id="rId133" ref="K312"/>
     <hyperlink r:id="rId134" ref="K313"/>
     <hyperlink r:id="rId135" ref="K314"/>
-    <hyperlink r:id="rId136" ref="K315"/>
-    <hyperlink r:id="rId137" ref="K316"/>
-    <hyperlink r:id="rId138" ref="K317"/>
-    <hyperlink r:id="rId139" ref="K318"/>
-    <hyperlink r:id="rId140" ref="K319"/>
-    <hyperlink r:id="rId141" ref="K320"/>
-    <hyperlink r:id="rId142" ref="K321"/>
-    <hyperlink r:id="rId143" ref="K322"/>
-    <hyperlink r:id="rId144" ref="K323"/>
-    <hyperlink r:id="rId145" ref="K324"/>
-    <hyperlink r:id="rId146" ref="K327"/>
-    <hyperlink r:id="rId147" ref="K328"/>
-    <hyperlink r:id="rId148" ref="K329"/>
-    <hyperlink r:id="rId149" ref="K330"/>
-    <hyperlink r:id="rId150" ref="K331"/>
-    <hyperlink r:id="rId151" ref="K332"/>
-    <hyperlink r:id="rId152" ref="K333"/>
-    <hyperlink r:id="rId153" ref="K334"/>
-    <hyperlink r:id="rId154" ref="K335"/>
-    <hyperlink r:id="rId155" ref="K336"/>
-    <hyperlink r:id="rId156" ref="K337"/>
-    <hyperlink r:id="rId157" ref="K338"/>
-    <hyperlink r:id="rId158" ref="K339"/>
-    <hyperlink r:id="rId159" ref="K340"/>
-    <hyperlink r:id="rId160" ref="K341"/>
-    <hyperlink r:id="rId161" ref="K342"/>
-    <hyperlink r:id="rId162" ref="K343"/>
-    <hyperlink r:id="rId163" ref="K344"/>
-    <hyperlink r:id="rId164" ref="K345"/>
-    <hyperlink r:id="rId165" ref="K346"/>
-    <hyperlink r:id="rId166" ref="K347"/>
-    <hyperlink r:id="rId167" ref="K348"/>
-    <hyperlink r:id="rId168" ref="K349"/>
-    <hyperlink r:id="rId169" ref="K350"/>
-    <hyperlink r:id="rId170" ref="K351"/>
-    <hyperlink r:id="rId171" ref="K352"/>
-    <hyperlink r:id="rId172" ref="K353"/>
-    <hyperlink r:id="rId173" ref="K354"/>
-    <hyperlink r:id="rId174" ref="K355"/>
-    <hyperlink r:id="rId175" ref="K356"/>
-    <hyperlink r:id="rId176" ref="K357"/>
-    <hyperlink r:id="rId177" ref="K358"/>
-    <hyperlink r:id="rId178" ref="K359"/>
-    <hyperlink r:id="rId179" ref="K360"/>
+    <hyperlink r:id="rId136" ref="L314"/>
+    <hyperlink r:id="rId137" ref="K315"/>
+    <hyperlink r:id="rId138" ref="K316"/>
+    <hyperlink r:id="rId139" ref="K317"/>
+    <hyperlink r:id="rId140" ref="K318"/>
+    <hyperlink r:id="rId141" ref="K319"/>
+    <hyperlink r:id="rId142" ref="K320"/>
+    <hyperlink r:id="rId143" ref="K321"/>
+    <hyperlink r:id="rId144" ref="K322"/>
+    <hyperlink r:id="rId145" ref="K323"/>
+    <hyperlink r:id="rId146" ref="K324"/>
+    <hyperlink r:id="rId147" ref="K327"/>
+    <hyperlink r:id="rId148" ref="K328"/>
+    <hyperlink r:id="rId149" ref="K329"/>
+    <hyperlink r:id="rId150" ref="K330"/>
+    <hyperlink r:id="rId151" ref="K331"/>
+    <hyperlink r:id="rId152" ref="K332"/>
+    <hyperlink r:id="rId153" ref="K333"/>
+    <hyperlink r:id="rId154" ref="K334"/>
+    <hyperlink r:id="rId155" ref="K335"/>
+    <hyperlink r:id="rId156" ref="K336"/>
+    <hyperlink r:id="rId157" ref="K337"/>
+    <hyperlink r:id="rId158" ref="K338"/>
+    <hyperlink r:id="rId159" ref="K339"/>
+    <hyperlink r:id="rId160" ref="K340"/>
+    <hyperlink r:id="rId161" ref="K341"/>
+    <hyperlink r:id="rId162" ref="K342"/>
+    <hyperlink r:id="rId163" ref="K343"/>
+    <hyperlink r:id="rId164" ref="K344"/>
+    <hyperlink r:id="rId165" ref="K345"/>
+    <hyperlink r:id="rId166" ref="K346"/>
+    <hyperlink r:id="rId167" ref="K347"/>
+    <hyperlink r:id="rId168" ref="K348"/>
+    <hyperlink r:id="rId169" ref="K349"/>
+    <hyperlink r:id="rId170" ref="K350"/>
+    <hyperlink r:id="rId171" ref="K351"/>
+    <hyperlink r:id="rId172" ref="K352"/>
+    <hyperlink r:id="rId173" ref="K353"/>
+    <hyperlink r:id="rId174" ref="K354"/>
+    <hyperlink r:id="rId175" ref="K355"/>
+    <hyperlink r:id="rId176" ref="K356"/>
+    <hyperlink r:id="rId177" ref="K357"/>
+    <hyperlink r:id="rId178" ref="K358"/>
+    <hyperlink r:id="rId179" ref="K359"/>
+    <hyperlink r:id="rId180" ref="K360"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId180"/>
+  <drawing r:id="rId181"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="431">
   <si>
-    <t>2020-05-21T20:16:00.000Z</t>
+    <t>2020-05-24T19:43:00.000Z</t>
   </si>
   <si>
     <t>No</t>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="431">
-  <si>
-    <t>2020-05-24T19:43:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="432">
+  <si>
+    <t>2020-05-26T21:10:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1182,6 +1182,9 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268753/200419oshirase(163-167).pdf</t>
+  </si>
+  <si>
+    <t>令和2年5月26日死亡</t>
   </si>
   <si>
     <t>2020-04-20T08:00:00.000Z</t>
@@ -13453,7 +13456,9 @@
         <v>15</v>
       </c>
       <c r="G253" s="8"/>
-      <c r="H253" s="12"/>
+      <c r="H253" s="30" t="s">
+        <v>339</v>
+      </c>
       <c r="I253" s="12"/>
       <c r="J253" s="13"/>
       <c r="K253" s="27" t="s">
@@ -13481,7 +13486,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C254" s="28">
         <v>43941.0</v>
@@ -13499,14 +13504,14 @@
         <v>246.0</v>
       </c>
       <c r="H254" s="30" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I254" s="12"/>
       <c r="J254" s="18">
         <v>43954.0</v>
       </c>
       <c r="K254" s="27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L254" s="7"/>
       <c r="M254" s="7"/>
@@ -13530,7 +13535,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C255" s="28">
         <v>43941.0</v>
@@ -13546,12 +13551,12 @@
       </c>
       <c r="G255" s="8"/>
       <c r="H255" s="30" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I255" s="12"/>
       <c r="J255" s="13"/>
       <c r="K255" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L255" s="7"/>
       <c r="M255" s="7"/>
@@ -13575,7 +13580,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C256" s="28">
         <v>43941.0</v>
@@ -13598,7 +13603,7 @@
       <c r="I256" s="12"/>
       <c r="J256" s="13"/>
       <c r="K256" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L256" s="7"/>
       <c r="M256" s="7"/>
@@ -13622,7 +13627,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C257" s="28">
         <v>43941.0</v>
@@ -13638,12 +13643,12 @@
       </c>
       <c r="G257" s="8"/>
       <c r="H257" s="30" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I257" s="12"/>
       <c r="J257" s="13"/>
       <c r="K257" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L257" s="7"/>
       <c r="M257" s="7"/>
@@ -13667,7 +13672,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C258" s="28">
         <v>43941.0</v>
@@ -13683,12 +13688,12 @@
       </c>
       <c r="G258" s="8"/>
       <c r="H258" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I258" s="12"/>
       <c r="J258" s="13"/>
       <c r="K258" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L258" s="7"/>
       <c r="M258" s="7"/>
@@ -13712,7 +13717,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C259" s="28">
         <v>43941.0</v>
@@ -13731,7 +13736,7 @@
       <c r="I259" s="12"/>
       <c r="J259" s="13"/>
       <c r="K259" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L259" s="7"/>
       <c r="M259" s="7"/>
@@ -13755,7 +13760,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C260" s="28">
         <v>43941.0</v>
@@ -13774,7 +13779,7 @@
       <c r="I260" s="12"/>
       <c r="J260" s="13"/>
       <c r="K260" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L260" s="7"/>
       <c r="M260" s="7"/>
@@ -13798,7 +13803,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C261" s="28">
         <v>43941.0</v>
@@ -13817,7 +13822,7 @@
       <c r="I261" s="12"/>
       <c r="J261" s="13"/>
       <c r="K261" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L261" s="7"/>
       <c r="M261" s="7"/>
@@ -13841,7 +13846,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C262" s="28">
         <v>43942.0</v>
@@ -13859,12 +13864,12 @@
         <v>226.0</v>
       </c>
       <c r="H262" s="30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I262" s="12"/>
       <c r="J262" s="13"/>
       <c r="K262" s="27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L262" s="7"/>
       <c r="M262" s="7"/>
@@ -13888,7 +13893,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C263" s="28">
         <v>43942.0</v>
@@ -13900,14 +13905,14 @@
         <v>50</v>
       </c>
       <c r="F263" s="30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G263" s="8"/>
       <c r="H263" s="12"/>
       <c r="I263" s="12"/>
       <c r="J263" s="13"/>
       <c r="K263" s="27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L263" s="7"/>
       <c r="M263" s="7"/>
@@ -13931,7 +13936,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C264" s="28">
         <v>43942.0</v>
@@ -13950,7 +13955,7 @@
       <c r="I264" s="12"/>
       <c r="J264" s="13"/>
       <c r="K264" s="27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L264" s="7"/>
       <c r="M264" s="7"/>
@@ -13974,7 +13979,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C265" s="28">
         <v>43942.0</v>
@@ -13995,7 +14000,7 @@
       <c r="I265" s="12"/>
       <c r="J265" s="13"/>
       <c r="K265" s="27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L265" s="7"/>
       <c r="M265" s="7"/>
@@ -14019,7 +14024,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C266" s="28">
         <v>43942.0</v>
@@ -14035,12 +14040,12 @@
       </c>
       <c r="G266" s="8"/>
       <c r="H266" s="30" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I266" s="12"/>
       <c r="J266" s="13"/>
       <c r="K266" s="27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L266" s="7"/>
       <c r="M266" s="7"/>
@@ -14064,7 +14069,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C267" s="28">
         <v>43943.0</v>
@@ -14082,12 +14087,12 @@
         <v>226260.0</v>
       </c>
       <c r="H267" s="30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I267" s="12"/>
       <c r="J267" s="13"/>
       <c r="K267" s="27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L267" s="7"/>
       <c r="M267" s="7"/>
@@ -14111,7 +14116,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C268" s="28">
         <v>43943.0</v>
@@ -14123,7 +14128,7 @@
         <v>14</v>
       </c>
       <c r="F268" s="30" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G268" s="8"/>
       <c r="H268" s="12"/>
@@ -14132,7 +14137,7 @@
         <v>43954.0</v>
       </c>
       <c r="K268" s="27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L268" s="7"/>
       <c r="M268" s="7"/>
@@ -14156,7 +14161,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C269" s="28">
         <v>43943.0</v>
@@ -14175,7 +14180,7 @@
       <c r="I269" s="12"/>
       <c r="J269" s="13"/>
       <c r="K269" s="27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L269" s="7"/>
       <c r="M269" s="7"/>
@@ -14199,7 +14204,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C270" s="28">
         <v>43943.0</v>
@@ -14211,18 +14216,18 @@
         <v>66</v>
       </c>
       <c r="F270" s="30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G270" s="31">
         <v>261.0</v>
       </c>
       <c r="H270" s="30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I270" s="12"/>
       <c r="J270" s="13"/>
       <c r="K270" s="27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L270" s="7"/>
       <c r="M270" s="7"/>
@@ -14246,7 +14251,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C271" s="28">
         <v>43943.0</v>
@@ -14265,7 +14270,7 @@
       <c r="I271" s="12"/>
       <c r="J271" s="13"/>
       <c r="K271" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L271" s="7"/>
       <c r="M271" s="7"/>
@@ -14289,7 +14294,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C272" s="28">
         <v>43943.0</v>
@@ -14308,7 +14313,7 @@
       <c r="I272" s="12"/>
       <c r="J272" s="13"/>
       <c r="K272" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L272" s="7"/>
       <c r="M272" s="7"/>
@@ -14332,7 +14337,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C273" s="28">
         <v>43943.0</v>
@@ -14351,7 +14356,7 @@
       <c r="I273" s="12"/>
       <c r="J273" s="13"/>
       <c r="K273" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L273" s="7"/>
       <c r="M273" s="7"/>
@@ -14375,7 +14380,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C274" s="28">
         <v>43943.0</v>
@@ -14394,7 +14399,7 @@
       <c r="I274" s="12"/>
       <c r="J274" s="13"/>
       <c r="K274" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L274" s="7"/>
       <c r="M274" s="7"/>
@@ -14418,7 +14423,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C275" s="28">
         <v>43943.0</v>
@@ -14437,7 +14442,7 @@
       <c r="I275" s="12"/>
       <c r="J275" s="13"/>
       <c r="K275" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L275" s="7"/>
       <c r="M275" s="7"/>
@@ -14461,7 +14466,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C276" s="28">
         <v>43943.0</v>
@@ -14480,7 +14485,7 @@
       <c r="I276" s="12"/>
       <c r="J276" s="13"/>
       <c r="K276" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L276" s="7"/>
       <c r="M276" s="7"/>
@@ -14504,7 +14509,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C277" s="28">
         <v>43943.0</v>
@@ -14523,7 +14528,7 @@
       <c r="I277" s="12"/>
       <c r="J277" s="13"/>
       <c r="K277" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L277" s="7"/>
       <c r="M277" s="7"/>
@@ -14547,7 +14552,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C278" s="28">
         <v>43944.0</v>
@@ -14566,7 +14571,7 @@
       <c r="I278" s="12"/>
       <c r="J278" s="13"/>
       <c r="K278" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L278" s="7"/>
       <c r="M278" s="7"/>
@@ -14590,7 +14595,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C279" s="28">
         <v>43944.0</v>
@@ -14602,18 +14607,18 @@
         <v>93</v>
       </c>
       <c r="F279" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G279" s="31">
         <v>206.0</v>
       </c>
       <c r="H279" s="30" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I279" s="12"/>
       <c r="J279" s="13"/>
       <c r="K279" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L279" s="7"/>
       <c r="M279" s="7"/>
@@ -14637,7 +14642,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C280" s="28">
         <v>43944.0</v>
@@ -14649,14 +14654,14 @@
         <v>33</v>
       </c>
       <c r="F280" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G280" s="8"/>
       <c r="H280" s="12"/>
       <c r="I280" s="12"/>
       <c r="J280" s="13"/>
       <c r="K280" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L280" s="7"/>
       <c r="M280" s="7"/>
@@ -14680,7 +14685,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C281" s="28">
         <v>43944.0</v>
@@ -14696,12 +14701,12 @@
       </c>
       <c r="G281" s="8"/>
       <c r="H281" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I281" s="12"/>
       <c r="J281" s="13"/>
       <c r="K281" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L281" s="7"/>
       <c r="M281" s="7"/>
@@ -14725,7 +14730,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C282" s="28">
         <v>43944.0</v>
@@ -14744,7 +14749,7 @@
       <c r="I282" s="12"/>
       <c r="J282" s="13"/>
       <c r="K282" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L282" s="7"/>
       <c r="M282" s="7"/>
@@ -14768,7 +14773,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C283" s="28">
         <v>43944.0</v>
@@ -14787,7 +14792,7 @@
       <c r="I283" s="12"/>
       <c r="J283" s="13"/>
       <c r="K283" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L283" s="7"/>
       <c r="M283" s="7"/>
@@ -14811,7 +14816,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C284" s="28">
         <v>43944.0</v>
@@ -14830,7 +14835,7 @@
       <c r="I284" s="12"/>
       <c r="J284" s="13"/>
       <c r="K284" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L284" s="7"/>
       <c r="M284" s="7"/>
@@ -14854,7 +14859,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C285" s="28">
         <v>43944.0</v>
@@ -14866,14 +14871,14 @@
         <v>56</v>
       </c>
       <c r="F285" s="34" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G285" s="8"/>
       <c r="H285" s="12"/>
       <c r="I285" s="12"/>
       <c r="J285" s="13"/>
       <c r="K285" s="27" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L285" s="7"/>
       <c r="M285" s="7"/>
@@ -14897,7 +14902,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C286" s="28">
         <v>43945.0</v>
@@ -14909,16 +14914,16 @@
         <v>44</v>
       </c>
       <c r="F286" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G286" s="8"/>
       <c r="H286" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I286" s="12"/>
       <c r="J286" s="13"/>
       <c r="K286" s="27" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L286" s="7"/>
       <c r="M286" s="7"/>
@@ -14942,7 +14947,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C287" s="28">
         <v>43945.0</v>
@@ -14954,14 +14959,14 @@
         <v>25</v>
       </c>
       <c r="F287" s="30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G287" s="8"/>
       <c r="H287" s="12"/>
       <c r="I287" s="12"/>
       <c r="J287" s="13"/>
       <c r="K287" s="27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L287" s="7"/>
       <c r="M287" s="7"/>
@@ -14985,7 +14990,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C288" s="28">
         <v>43945.0</v>
@@ -15001,12 +15006,12 @@
       </c>
       <c r="G288" s="8"/>
       <c r="H288" s="30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I288" s="12"/>
       <c r="J288" s="13"/>
       <c r="K288" s="27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L288" s="7"/>
       <c r="M288" s="7"/>
@@ -15030,7 +15035,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C289" s="28">
         <v>43946.0</v>
@@ -15046,12 +15051,12 @@
       </c>
       <c r="G289" s="8"/>
       <c r="H289" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I289" s="12"/>
       <c r="J289" s="13"/>
       <c r="K289" s="27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L289" s="7"/>
       <c r="M289" s="7"/>
@@ -15075,7 +15080,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C290" s="28">
         <v>43946.0</v>
@@ -15091,12 +15096,12 @@
       </c>
       <c r="G290" s="8"/>
       <c r="H290" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I290" s="12"/>
       <c r="J290" s="13"/>
       <c r="K290" s="27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L290" s="7"/>
       <c r="M290" s="7"/>
@@ -15120,7 +15125,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C291" s="28">
         <v>43946.0</v>
@@ -15136,12 +15141,12 @@
       </c>
       <c r="G291" s="8"/>
       <c r="H291" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I291" s="12"/>
       <c r="J291" s="13"/>
       <c r="K291" s="27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L291" s="7"/>
       <c r="M291" s="7"/>
@@ -15165,7 +15170,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C292" s="28">
         <v>43946.0</v>
@@ -15184,7 +15189,7 @@
       <c r="I292" s="12"/>
       <c r="J292" s="13"/>
       <c r="K292" s="27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L292" s="7"/>
       <c r="M292" s="7"/>
@@ -15208,7 +15213,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C293" s="28">
         <v>43947.0</v>
@@ -15224,12 +15229,12 @@
       </c>
       <c r="G293" s="8"/>
       <c r="H293" s="30" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I293" s="12"/>
       <c r="J293" s="13"/>
       <c r="K293" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L293" s="7"/>
       <c r="M293" s="7"/>
@@ -15253,7 +15258,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C294" s="28">
         <v>43947.0</v>
@@ -15269,12 +15274,12 @@
       </c>
       <c r="G294" s="8"/>
       <c r="H294" s="30" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I294" s="12"/>
       <c r="J294" s="13"/>
       <c r="K294" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L294" s="7"/>
       <c r="M294" s="7"/>
@@ -15298,7 +15303,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C295" s="28">
         <v>43947.0</v>
@@ -15317,7 +15322,7 @@
       <c r="I295" s="12"/>
       <c r="J295" s="13"/>
       <c r="K295" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L295" s="7"/>
       <c r="M295" s="7"/>
@@ -15341,7 +15346,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C296" s="28">
         <v>43947.0</v>
@@ -15357,12 +15362,12 @@
       </c>
       <c r="G296" s="8"/>
       <c r="H296" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I296" s="12"/>
       <c r="J296" s="13"/>
       <c r="K296" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L296" s="7"/>
       <c r="M296" s="7"/>
@@ -15386,7 +15391,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C297" s="36">
         <v>43948.0</v>
@@ -15405,7 +15410,7 @@
       <c r="I297" s="12"/>
       <c r="J297" s="13"/>
       <c r="K297" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L297" s="7"/>
       <c r="M297" s="7"/>
@@ -15429,7 +15434,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C298" s="36">
         <v>43948.0</v>
@@ -15447,12 +15452,12 @@
         <v>285.0</v>
       </c>
       <c r="H298" s="30" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I298" s="12"/>
       <c r="J298" s="13"/>
       <c r="K298" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L298" s="7"/>
       <c r="M298" s="7"/>
@@ -15476,7 +15481,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C299" s="36">
         <v>43948.0</v>
@@ -15494,12 +15499,12 @@
         <v>296.0</v>
       </c>
       <c r="H299" s="30" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I299" s="12"/>
       <c r="J299" s="13"/>
       <c r="K299" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L299" s="7"/>
       <c r="M299" s="7"/>
@@ -15523,7 +15528,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C300" s="36">
         <v>43948.0</v>
@@ -15539,12 +15544,12 @@
       </c>
       <c r="G300" s="8"/>
       <c r="H300" s="30" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I300" s="12"/>
       <c r="J300" s="13"/>
       <c r="K300" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
@@ -15568,7 +15573,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C301" s="36">
         <v>43948.0</v>
@@ -15584,12 +15589,12 @@
       </c>
       <c r="G301" s="8"/>
       <c r="H301" s="30" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I301" s="12"/>
       <c r="J301" s="13"/>
       <c r="K301" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L301" s="7"/>
       <c r="M301" s="7"/>
@@ -15613,7 +15618,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C302" s="36">
         <v>43948.0</v>
@@ -15629,12 +15634,12 @@
       </c>
       <c r="G302" s="8"/>
       <c r="H302" s="30" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I302" s="12"/>
       <c r="J302" s="13"/>
       <c r="K302" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L302" s="7"/>
       <c r="M302" s="7"/>
@@ -15658,7 +15663,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C303" s="36">
         <v>43948.0</v>
@@ -15674,12 +15679,12 @@
       </c>
       <c r="G303" s="8"/>
       <c r="H303" s="30" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I303" s="12"/>
       <c r="J303" s="13"/>
       <c r="K303" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L303" s="7"/>
       <c r="M303" s="7"/>
@@ -15703,7 +15708,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C304" s="36">
         <v>43948.0</v>
@@ -15719,12 +15724,12 @@
       </c>
       <c r="G304" s="8"/>
       <c r="H304" s="30" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I304" s="12"/>
       <c r="J304" s="13"/>
       <c r="K304" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L304" s="7"/>
       <c r="M304" s="7"/>
@@ -15748,7 +15753,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C305" s="36">
         <v>43948.0</v>
@@ -15764,12 +15769,12 @@
       </c>
       <c r="G305" s="8"/>
       <c r="H305" s="30" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I305" s="12"/>
       <c r="J305" s="13"/>
       <c r="K305" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L305" s="7"/>
       <c r="M305" s="7"/>
@@ -15793,7 +15798,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C306" s="36">
         <v>43948.0</v>
@@ -15809,12 +15814,12 @@
       </c>
       <c r="G306" s="8"/>
       <c r="H306" s="30" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I306" s="12"/>
       <c r="J306" s="13"/>
       <c r="K306" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L306" s="7"/>
       <c r="M306" s="7"/>
@@ -15838,7 +15843,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C307" s="36">
         <v>43948.0</v>
@@ -15854,12 +15859,12 @@
       </c>
       <c r="G307" s="8"/>
       <c r="H307" s="30" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I307" s="12"/>
       <c r="J307" s="13"/>
       <c r="K307" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L307" s="7"/>
       <c r="M307" s="7"/>
@@ -15883,7 +15888,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C308" s="36">
         <v>43948.0</v>
@@ -15899,12 +15904,12 @@
       </c>
       <c r="G308" s="8"/>
       <c r="H308" s="30" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I308" s="12"/>
       <c r="J308" s="13"/>
       <c r="K308" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L308" s="7"/>
       <c r="M308" s="7"/>
@@ -15928,7 +15933,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C309" s="36">
         <v>43948.0</v>
@@ -15944,12 +15949,12 @@
       </c>
       <c r="G309" s="8"/>
       <c r="H309" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I309" s="12"/>
       <c r="J309" s="13"/>
       <c r="K309" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L309" s="7"/>
       <c r="M309" s="7"/>
@@ -15973,7 +15978,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C310" s="36">
         <v>43948.0</v>
@@ -15992,7 +15997,7 @@
       <c r="I310" s="12"/>
       <c r="J310" s="13"/>
       <c r="K310" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L310" s="7"/>
       <c r="M310" s="7"/>
@@ -16016,7 +16021,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C311" s="36">
         <v>43948.0</v>
@@ -16035,7 +16040,7 @@
       <c r="I311" s="12"/>
       <c r="J311" s="13"/>
       <c r="K311" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L311" s="7"/>
       <c r="M311" s="7"/>
@@ -16059,7 +16064,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C312" s="36">
         <v>43949.0</v>
@@ -16068,7 +16073,7 @@
         <v>43949.0</v>
       </c>
       <c r="E312" s="25" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F312" s="30" t="s">
         <v>94</v>
@@ -16077,14 +16082,14 @@
         <v>296.0</v>
       </c>
       <c r="H312" s="30" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I312" s="12"/>
       <c r="J312" s="18">
         <v>43963.0</v>
       </c>
       <c r="K312" s="27" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
@@ -16108,7 +16113,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="23" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C313" s="36">
         <v>43949.0</v>
@@ -16120,18 +16125,18 @@
         <v>61</v>
       </c>
       <c r="F313" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G313" s="31">
         <v>285.0</v>
       </c>
       <c r="H313" s="30" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I313" s="12"/>
       <c r="J313" s="13"/>
       <c r="K313" s="27" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L313" s="7"/>
       <c r="M313" s="7"/>
@@ -16155,7 +16160,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C314" s="36">
         <v>43949.0</v>
@@ -16171,17 +16176,17 @@
       </c>
       <c r="G314" s="8"/>
       <c r="H314" s="30" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I314" s="12"/>
       <c r="J314" s="18">
         <v>43952.0</v>
       </c>
       <c r="K314" s="27" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L314" s="26" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M314" s="7"/>
       <c r="N314" s="7"/>
@@ -16204,7 +16209,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="23" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C315" s="36">
         <v>43949.0</v>
@@ -16220,14 +16225,14 @@
       </c>
       <c r="G315" s="8"/>
       <c r="H315" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I315" s="12"/>
       <c r="J315" s="18">
         <v>43964.0</v>
       </c>
       <c r="K315" s="27" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L315" s="7"/>
       <c r="M315" s="7"/>
@@ -16251,7 +16256,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C316" s="36">
         <v>43950.0</v>
@@ -16263,7 +16268,7 @@
         <v>61</v>
       </c>
       <c r="F316" s="30" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G316" s="8"/>
       <c r="H316" s="12"/>
@@ -16272,7 +16277,7 @@
         <v>43966.0</v>
       </c>
       <c r="K316" s="27" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
@@ -16296,7 +16301,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C317" s="36">
         <v>43950.0</v>
@@ -16312,14 +16317,14 @@
       </c>
       <c r="G317" s="8"/>
       <c r="H317" s="30" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I317" s="12"/>
       <c r="J317" s="18">
         <v>43958.0</v>
       </c>
       <c r="K317" s="27" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
@@ -16343,7 +16348,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C318" s="36">
         <v>43950.0</v>
@@ -16352,19 +16357,19 @@
         <v>43950.0</v>
       </c>
       <c r="E318" s="25" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F318" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G318" s="8"/>
       <c r="H318" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I318" s="12"/>
       <c r="J318" s="13"/>
       <c r="K318" s="27" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
@@ -16388,7 +16393,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C319" s="36">
         <v>43950.0</v>
@@ -16404,12 +16409,12 @@
       </c>
       <c r="G319" s="8"/>
       <c r="H319" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I319" s="12"/>
       <c r="J319" s="13"/>
       <c r="K319" s="27" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
@@ -16433,7 +16438,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C320" s="36">
         <v>43951.0</v>
@@ -16445,16 +16450,16 @@
         <v>25</v>
       </c>
       <c r="F320" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G320" s="8"/>
       <c r="H320" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I320" s="12"/>
       <c r="J320" s="13"/>
       <c r="K320" s="27" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
@@ -16478,7 +16483,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C321" s="36">
         <v>43951.0</v>
@@ -16490,18 +16495,18 @@
         <v>56</v>
       </c>
       <c r="F321" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G321" s="31">
         <v>318.0</v>
       </c>
       <c r="H321" s="30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I321" s="12"/>
       <c r="J321" s="13"/>
       <c r="K321" s="27" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
@@ -16525,7 +16530,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C322" s="36">
         <v>43951.0</v>
@@ -16537,20 +16542,20 @@
         <v>14</v>
       </c>
       <c r="F322" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G322" s="31">
         <v>318.0</v>
       </c>
       <c r="H322" s="30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I322" s="12"/>
       <c r="J322" s="18">
         <v>43962.0</v>
       </c>
       <c r="K322" s="27" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
@@ -16574,7 +16579,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C323" s="36">
         <v>43952.0</v>
@@ -16586,20 +16591,20 @@
         <v>93</v>
       </c>
       <c r="F323" s="30" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G323" s="31">
         <v>314.0</v>
       </c>
       <c r="H323" s="30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I323" s="12"/>
       <c r="J323" s="18">
         <v>43970.0</v>
       </c>
       <c r="K323" s="27" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
@@ -16623,7 +16628,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C324" s="36">
         <v>43952.0</v>
@@ -16641,14 +16646,14 @@
         <v>276.0</v>
       </c>
       <c r="H324" s="30" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I324" s="12"/>
       <c r="J324" s="18">
         <v>43964.0</v>
       </c>
       <c r="K324" s="27" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L324" s="7"/>
       <c r="M324" s="7"/>
@@ -16672,7 +16677,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C325" s="36">
         <v>43952.0</v>
@@ -16715,7 +16720,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C326" s="36">
         <v>43952.0</v>
@@ -16756,7 +16761,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C327" s="36">
         <v>43953.0</v>
@@ -16772,14 +16777,14 @@
       </c>
       <c r="G327" s="8"/>
       <c r="H327" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I327" s="12"/>
       <c r="J327" s="18">
         <v>43967.0</v>
       </c>
       <c r="K327" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L327" s="7"/>
       <c r="M327" s="7"/>
@@ -16803,7 +16808,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C328" s="36">
         <v>43953.0</v>
@@ -16819,14 +16824,14 @@
       </c>
       <c r="G328" s="8"/>
       <c r="H328" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I328" s="12"/>
       <c r="J328" s="18">
         <v>43967.0</v>
       </c>
       <c r="K328" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
@@ -16850,7 +16855,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C329" s="36">
         <v>43953.0</v>
@@ -16866,14 +16871,14 @@
       </c>
       <c r="G329" s="8"/>
       <c r="H329" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I329" s="12"/>
       <c r="J329" s="18">
         <v>43967.0</v>
       </c>
       <c r="K329" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L329" s="7"/>
       <c r="M329" s="7"/>
@@ -16897,7 +16902,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C330" s="36">
         <v>43953.0</v>
@@ -16913,14 +16918,14 @@
       </c>
       <c r="G330" s="8"/>
       <c r="H330" s="30" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I330" s="12"/>
       <c r="J330" s="18">
         <v>43967.0</v>
       </c>
       <c r="K330" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
@@ -16944,7 +16949,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C331" s="36">
         <v>43953.0</v>
@@ -16963,7 +16968,7 @@
       <c r="I331" s="12"/>
       <c r="J331" s="13"/>
       <c r="K331" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
@@ -16987,7 +16992,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C332" s="36">
         <v>43954.0</v>
@@ -17006,7 +17011,7 @@
       <c r="I332" s="12"/>
       <c r="J332" s="13"/>
       <c r="K332" s="27" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L332" s="7"/>
       <c r="M332" s="7"/>
@@ -17030,7 +17035,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C333" s="36">
         <v>43954.0</v>
@@ -17046,14 +17051,14 @@
       </c>
       <c r="G333" s="8"/>
       <c r="H333" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I333" s="12"/>
       <c r="J333" s="18">
         <v>43962.0</v>
       </c>
       <c r="K333" s="27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L333" s="7"/>
       <c r="M333" s="7"/>
@@ -17077,7 +17082,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C334" s="36">
         <v>43955.0</v>
@@ -17098,7 +17103,7 @@
         <v>43968.0</v>
       </c>
       <c r="K334" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
@@ -17122,7 +17127,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C335" s="36">
         <v>43955.0</v>
@@ -17138,14 +17143,14 @@
       </c>
       <c r="G335" s="8"/>
       <c r="H335" s="30" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I335" s="12"/>
       <c r="J335" s="37">
         <v>43968.0</v>
       </c>
       <c r="K335" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
@@ -17169,7 +17174,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C336" s="36">
         <v>43955.0</v>
@@ -17185,12 +17190,12 @@
       </c>
       <c r="G336" s="8"/>
       <c r="H336" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I336" s="12"/>
       <c r="J336" s="13"/>
       <c r="K336" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
@@ -17214,7 +17219,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C337" s="36">
         <v>43956.0</v>
@@ -17230,14 +17235,14 @@
       </c>
       <c r="G337" s="8"/>
       <c r="H337" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I337" s="12"/>
       <c r="J337" s="18">
         <v>43970.0</v>
       </c>
       <c r="K337" s="27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
@@ -17261,7 +17266,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="23" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C338" s="36">
         <v>43956.0</v>
@@ -17277,14 +17282,14 @@
       </c>
       <c r="G338" s="8"/>
       <c r="H338" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I338" s="12"/>
       <c r="J338" s="18">
         <v>43970.0</v>
       </c>
       <c r="K338" s="27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
@@ -17308,7 +17313,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C339" s="36">
         <v>43956.0</v>
@@ -17324,12 +17329,12 @@
       </c>
       <c r="G339" s="8"/>
       <c r="H339" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I339" s="12"/>
       <c r="J339" s="13"/>
       <c r="K339" s="27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
@@ -17353,7 +17358,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C340" s="36">
         <v>43956.0</v>
@@ -17369,12 +17374,12 @@
       </c>
       <c r="G340" s="8"/>
       <c r="H340" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I340" s="12"/>
       <c r="J340" s="13"/>
       <c r="K340" s="27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
@@ -17398,7 +17403,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C341" s="36">
         <v>43957.0</v>
@@ -17407,21 +17412,21 @@
         <v>43957.0</v>
       </c>
       <c r="E341" s="25" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F341" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G341" s="8"/>
       <c r="H341" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I341" s="12"/>
       <c r="J341" s="18">
         <v>43964.0</v>
       </c>
       <c r="K341" s="38" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
@@ -17445,7 +17450,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C342" s="36">
         <v>43957.0</v>
@@ -17461,12 +17466,12 @@
       </c>
       <c r="G342" s="8"/>
       <c r="H342" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I342" s="12"/>
       <c r="J342" s="13"/>
       <c r="K342" s="38" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
@@ -17490,7 +17495,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="23" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C343" s="36">
         <v>43957.0</v>
@@ -17506,14 +17511,14 @@
       </c>
       <c r="G343" s="8"/>
       <c r="H343" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I343" s="12"/>
       <c r="J343" s="18">
         <v>43964.0</v>
       </c>
       <c r="K343" s="38" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
@@ -17537,7 +17542,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C344" s="36">
         <v>43958.0</v>
@@ -17553,14 +17558,14 @@
       </c>
       <c r="G344" s="8"/>
       <c r="H344" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I344" s="12"/>
       <c r="J344" s="18">
         <v>43961.0</v>
       </c>
       <c r="K344" s="38" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
@@ -17584,7 +17589,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C345" s="36">
         <v>43958.0</v>
@@ -17600,12 +17605,12 @@
       </c>
       <c r="G345" s="8"/>
       <c r="H345" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I345" s="12"/>
       <c r="J345" s="13"/>
       <c r="K345" s="38" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
@@ -17629,7 +17634,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C346" s="36">
         <v>43958.0</v>
@@ -17645,12 +17650,12 @@
       </c>
       <c r="G346" s="8"/>
       <c r="H346" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I346" s="12"/>
       <c r="J346" s="13"/>
       <c r="K346" s="38" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
@@ -17674,7 +17679,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C347" s="36">
         <v>43958.0</v>
@@ -17690,12 +17695,12 @@
       </c>
       <c r="G347" s="8"/>
       <c r="H347" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I347" s="12"/>
       <c r="J347" s="13"/>
       <c r="K347" s="38" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L347" s="7"/>
       <c r="M347" s="7"/>
@@ -17719,7 +17724,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C348" s="36">
         <v>43958.0</v>
@@ -17735,12 +17740,12 @@
       </c>
       <c r="G348" s="8"/>
       <c r="H348" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I348" s="12"/>
       <c r="J348" s="13"/>
       <c r="K348" s="38" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
@@ -17764,7 +17769,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C349" s="36">
         <v>43958.0</v>
@@ -17780,14 +17785,14 @@
       </c>
       <c r="G349" s="8"/>
       <c r="H349" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I349" s="12"/>
       <c r="J349" s="18">
         <v>43965.0</v>
       </c>
       <c r="K349" s="38" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
@@ -17811,7 +17816,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C350" s="36">
         <v>43959.0</v>
@@ -17827,14 +17832,14 @@
       </c>
       <c r="G350" s="8"/>
       <c r="H350" s="30" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I350" s="12"/>
       <c r="J350" s="18">
         <v>43970.0</v>
       </c>
       <c r="K350" s="38" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
@@ -17858,7 +17863,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C351" s="36">
         <v>43960.0</v>
@@ -17874,12 +17879,12 @@
       </c>
       <c r="G351" s="8"/>
       <c r="H351" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I351" s="12"/>
       <c r="J351" s="13"/>
       <c r="K351" s="38" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L351" s="7"/>
       <c r="M351" s="7"/>
@@ -17903,7 +17908,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C352" s="36">
         <v>43960.0</v>
@@ -17919,12 +17924,12 @@
       </c>
       <c r="G352" s="8"/>
       <c r="H352" s="30" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I352" s="12"/>
       <c r="J352" s="13"/>
       <c r="K352" s="38" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
@@ -17948,7 +17953,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C353" s="36">
         <v>43960.0</v>
@@ -17964,12 +17969,12 @@
       </c>
       <c r="G353" s="8"/>
       <c r="H353" s="30" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I353" s="12"/>
       <c r="J353" s="13"/>
       <c r="K353" s="38" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L353" s="7"/>
       <c r="M353" s="7"/>
@@ -17993,7 +17998,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C354" s="36">
         <v>43960.0</v>
@@ -18009,12 +18014,12 @@
       </c>
       <c r="G354" s="8"/>
       <c r="H354" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I354" s="12"/>
       <c r="J354" s="13"/>
       <c r="K354" s="38" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L354" s="7"/>
       <c r="M354" s="7"/>
@@ -18038,7 +18043,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C355" s="36">
         <v>43963.0</v>
@@ -18054,12 +18059,12 @@
       </c>
       <c r="G355" s="8"/>
       <c r="H355" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I355" s="12"/>
       <c r="J355" s="13"/>
       <c r="K355" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
@@ -18083,7 +18088,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C356" s="36">
         <v>43963.0</v>
@@ -18099,12 +18104,12 @@
       </c>
       <c r="G356" s="8"/>
       <c r="H356" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I356" s="12"/>
       <c r="J356" s="13"/>
       <c r="K356" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
@@ -18128,7 +18133,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C357" s="36">
         <v>43963.0</v>
@@ -18144,12 +18149,12 @@
       </c>
       <c r="G357" s="8"/>
       <c r="H357" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I357" s="12"/>
       <c r="J357" s="13"/>
       <c r="K357" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
@@ -18173,7 +18178,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C358" s="36">
         <v>43963.0</v>
@@ -18189,12 +18194,12 @@
       </c>
       <c r="G358" s="8"/>
       <c r="H358" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I358" s="12"/>
       <c r="J358" s="13"/>
       <c r="K358" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
@@ -18218,7 +18223,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="23" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C359" s="36">
         <v>43964.0</v>
@@ -18234,12 +18239,12 @@
       </c>
       <c r="G359" s="8"/>
       <c r="H359" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I359" s="12"/>
       <c r="J359" s="13"/>
       <c r="K359" s="38" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
@@ -18263,7 +18268,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C360" s="36">
         <v>43965.0</v>
@@ -18279,12 +18284,12 @@
       </c>
       <c r="G360" s="8"/>
       <c r="H360" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I360" s="12"/>
       <c r="J360" s="13"/>
       <c r="K360" s="38" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="432">
-  <si>
-    <t>2020-05-26T21:10:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="433">
+  <si>
+    <t>2020-05-27T16:15:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1001,6 +1001,12 @@
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200410-166-168.pdf</t>
   </si>
   <si>
+    <t>令和2年5月26日死亡</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000270/270466/200526oshirase(sibou).pdf</t>
+  </si>
+  <si>
     <t>10歳未満女児</t>
   </si>
   <si>
@@ -1182,9 +1188,6 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268753/200419oshirase(163-167).pdf</t>
-  </si>
-  <si>
-    <t>令和2年5月26日死亡</t>
   </si>
   <si>
     <t>2020-04-20T08:00:00.000Z</t>
@@ -1472,7 +1475,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1534,6 +1537,12 @@
     <font>
       <u/>
       <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック regular"/>
     </font>
@@ -1579,7 +1588,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1661,7 +1670,13 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1671,21 +1686,18 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1694,7 +1706,7 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9744,13 +9756,17 @@
         <v>231</v>
       </c>
       <c r="G169" s="8"/>
-      <c r="H169" s="12"/>
+      <c r="H169" s="27" t="s">
+        <v>278</v>
+      </c>
       <c r="I169" s="12"/>
       <c r="J169" s="13"/>
-      <c r="K169" s="7" t="s">
+      <c r="K169" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="L169" s="7"/>
+      <c r="L169" s="26" t="s">
+        <v>279</v>
+      </c>
       <c r="M169" s="7"/>
       <c r="N169" s="7"/>
       <c r="O169" s="7"/>
@@ -9781,7 +9797,7 @@
         <v>43931.0</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F170" s="12" t="s">
         <v>252</v>
@@ -9840,7 +9856,7 @@
       <c r="I171" s="12"/>
       <c r="J171" s="13"/>
       <c r="K171" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
@@ -9883,7 +9899,7 @@
       <c r="I172" s="12"/>
       <c r="J172" s="13"/>
       <c r="K172" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
@@ -9925,12 +9941,12 @@
         <v>172.0</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I173" s="12"/>
       <c r="J173" s="13"/>
       <c r="K173" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
@@ -9972,12 +9988,12 @@
         <v>171.0</v>
       </c>
       <c r="H174" s="12" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I174" s="12"/>
       <c r="J174" s="13"/>
       <c r="K174" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
@@ -10016,15 +10032,15 @@
         <v>15</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H175" s="12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I175" s="12"/>
       <c r="J175" s="13"/>
       <c r="K175" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
@@ -10067,7 +10083,7 @@
       <c r="I176" s="12"/>
       <c r="J176" s="13"/>
       <c r="K176" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
@@ -10091,7 +10107,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C177" s="9">
         <v>43932.0</v>
@@ -10110,7 +10126,7 @@
       <c r="I177" s="12"/>
       <c r="J177" s="13"/>
       <c r="K177" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
@@ -10134,7 +10150,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C178" s="9">
         <v>43932.0</v>
@@ -10155,7 +10171,7 @@
       <c r="I178" s="12"/>
       <c r="J178" s="13"/>
       <c r="K178" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
@@ -10179,7 +10195,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C179" s="9">
         <v>43932.0</v>
@@ -10191,14 +10207,14 @@
         <v>14</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G179" s="8"/>
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
       <c r="J179" s="13"/>
       <c r="K179" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
@@ -10222,7 +10238,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C180" s="9">
         <v>43932.0</v>
@@ -10241,7 +10257,7 @@
       <c r="I180" s="12"/>
       <c r="J180" s="13"/>
       <c r="K180" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
@@ -10265,7 +10281,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C181" s="9">
         <v>43932.0</v>
@@ -10284,7 +10300,7 @@
       <c r="I181" s="12"/>
       <c r="J181" s="13"/>
       <c r="K181" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
@@ -10308,7 +10324,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C182" s="9">
         <v>43932.0</v>
@@ -10326,12 +10342,12 @@
         <v>158.0</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I182" s="12"/>
       <c r="J182" s="13"/>
       <c r="K182" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
@@ -10355,7 +10371,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="23" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C183" s="9">
         <v>43932.0</v>
@@ -10374,7 +10390,7 @@
       <c r="I183" s="12"/>
       <c r="J183" s="13"/>
       <c r="K183" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
@@ -10398,7 +10414,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C184" s="9">
         <v>43933.0</v>
@@ -10414,12 +10430,12 @@
       </c>
       <c r="G184" s="8"/>
       <c r="H184" s="12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I184" s="12"/>
       <c r="J184" s="13"/>
       <c r="K184" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
@@ -10443,7 +10459,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C185" s="9">
         <v>43933.0</v>
@@ -10461,12 +10477,12 @@
         <v>173.0</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I185" s="12"/>
       <c r="J185" s="13"/>
       <c r="K185" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
@@ -10490,7 +10506,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C186" s="9">
         <v>43933.0</v>
@@ -10508,12 +10524,12 @@
         <v>173.0</v>
       </c>
       <c r="H186" s="12" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I186" s="12"/>
       <c r="J186" s="13"/>
       <c r="K186" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
@@ -10537,7 +10553,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C187" s="9">
         <v>43933.0</v>
@@ -10546,21 +10562,21 @@
         <v>43933.0</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F187" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H187" s="12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I187" s="12"/>
       <c r="J187" s="13"/>
       <c r="K187" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
@@ -10584,7 +10600,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C188" s="9">
         <v>43933.0</v>
@@ -10593,21 +10609,21 @@
         <v>43933.0</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F188" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H188" s="12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I188" s="12"/>
       <c r="J188" s="13"/>
       <c r="K188" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
@@ -10631,7 +10647,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C189" s="9">
         <v>43933.0</v>
@@ -10647,12 +10663,12 @@
       </c>
       <c r="G189" s="8"/>
       <c r="H189" s="12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I189" s="12"/>
       <c r="J189" s="13"/>
       <c r="K189" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
@@ -10676,7 +10692,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C190" s="9">
         <v>43933.0</v>
@@ -10695,7 +10711,7 @@
       <c r="I190" s="12"/>
       <c r="J190" s="13"/>
       <c r="K190" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
@@ -10719,7 +10735,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C191" s="9">
         <v>43933.0</v>
@@ -10735,12 +10751,12 @@
       </c>
       <c r="G191" s="8"/>
       <c r="H191" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I191" s="12"/>
       <c r="J191" s="13"/>
       <c r="K191" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
@@ -10764,7 +10780,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C192" s="9">
         <v>43933.0</v>
@@ -10783,7 +10799,7 @@
       <c r="I192" s="12"/>
       <c r="J192" s="13"/>
       <c r="K192" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
@@ -10807,7 +10823,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C193" s="9">
         <v>43933.0</v>
@@ -10826,7 +10842,7 @@
       <c r="I193" s="12"/>
       <c r="J193" s="13"/>
       <c r="K193" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
@@ -10850,7 +10866,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C194" s="9">
         <v>43933.0</v>
@@ -10862,16 +10878,16 @@
         <v>56</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G194" s="8"/>
       <c r="H194" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I194" s="12"/>
       <c r="J194" s="13"/>
       <c r="K194" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
@@ -10895,7 +10911,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C195" s="9">
         <v>43933.0</v>
@@ -10914,7 +10930,7 @@
       <c r="I195" s="12"/>
       <c r="J195" s="13"/>
       <c r="K195" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
@@ -10938,7 +10954,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C196" s="9">
         <v>43934.0</v>
@@ -10957,7 +10973,7 @@
       <c r="I196" s="12"/>
       <c r="J196" s="13"/>
       <c r="K196" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
@@ -10981,7 +10997,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C197" s="9">
         <v>43934.0</v>
@@ -11000,7 +11016,7 @@
       <c r="I197" s="12"/>
       <c r="J197" s="13"/>
       <c r="K197" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
@@ -11024,7 +11040,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C198" s="9">
         <v>43934.0</v>
@@ -11043,7 +11059,7 @@
       <c r="I198" s="12"/>
       <c r="J198" s="13"/>
       <c r="K198" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
@@ -11067,7 +11083,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C199" s="9">
         <v>43934.0</v>
@@ -11088,7 +11104,7 @@
         <v>43949.0</v>
       </c>
       <c r="K199" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
@@ -11112,7 +11128,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C200" s="9">
         <v>43934.0</v>
@@ -11133,7 +11149,7 @@
         <v>43949.0</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
@@ -11157,7 +11173,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C201" s="9">
         <v>43934.0</v>
@@ -11166,19 +11182,19 @@
         <v>43934.0</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G201" s="8"/>
       <c r="H201" s="12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I201" s="12"/>
       <c r="J201" s="13"/>
       <c r="K201" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
@@ -11202,7 +11218,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C202" s="9">
         <v>43934.0</v>
@@ -11218,12 +11234,12 @@
       </c>
       <c r="G202" s="8"/>
       <c r="H202" s="12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I202" s="12"/>
       <c r="J202" s="13"/>
       <c r="K202" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
@@ -11247,7 +11263,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C203" s="9">
         <v>43934.0</v>
@@ -11263,12 +11279,12 @@
       </c>
       <c r="G203" s="8"/>
       <c r="H203" s="12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I203" s="12"/>
       <c r="J203" s="13"/>
       <c r="K203" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
@@ -11292,7 +11308,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C204" s="9">
         <v>43934.0</v>
@@ -11308,12 +11324,12 @@
       </c>
       <c r="G204" s="8"/>
       <c r="H204" s="12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I204" s="12"/>
       <c r="J204" s="13"/>
       <c r="K204" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
@@ -11337,7 +11353,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C205" s="9">
         <v>43934.0</v>
@@ -11353,12 +11369,12 @@
       </c>
       <c r="G205" s="8"/>
       <c r="H205" s="12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I205" s="12"/>
       <c r="J205" s="13"/>
       <c r="K205" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
@@ -11382,7 +11398,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C206" s="9">
         <v>43934.0</v>
@@ -11398,12 +11414,12 @@
       </c>
       <c r="G206" s="8"/>
       <c r="H206" s="12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I206" s="12"/>
       <c r="J206" s="13"/>
       <c r="K206" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
@@ -11427,7 +11443,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C207" s="9">
         <v>43934.0</v>
@@ -11443,12 +11459,12 @@
       </c>
       <c r="G207" s="8"/>
       <c r="H207" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I207" s="12"/>
       <c r="J207" s="13"/>
       <c r="K207" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
@@ -11472,7 +11488,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C208" s="9">
         <v>43935.0</v>
@@ -11490,14 +11506,14 @@
         <v>90.0</v>
       </c>
       <c r="H208" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I208" s="12"/>
       <c r="J208" s="18">
         <v>43954.0</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
@@ -11521,7 +11537,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="23" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C209" s="9">
         <v>43935.0</v>
@@ -11537,12 +11553,12 @@
       </c>
       <c r="G209" s="8"/>
       <c r="H209" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I209" s="12"/>
       <c r="J209" s="13"/>
       <c r="K209" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
@@ -11566,7 +11582,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C210" s="9">
         <v>43935.0</v>
@@ -11582,12 +11598,12 @@
       </c>
       <c r="G210" s="8"/>
       <c r="H210" s="12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I210" s="12"/>
       <c r="J210" s="13"/>
       <c r="K210" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L210" s="7"/>
       <c r="M210" s="7"/>
@@ -11611,7 +11627,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C211" s="9">
         <v>43935.0</v>
@@ -11627,12 +11643,12 @@
       </c>
       <c r="G211" s="8"/>
       <c r="H211" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I211" s="12"/>
       <c r="J211" s="13"/>
       <c r="K211" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L211" s="7"/>
       <c r="M211" s="7"/>
@@ -11656,7 +11672,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C212" s="9">
         <v>43935.0</v>
@@ -11675,7 +11691,7 @@
       <c r="I212" s="12"/>
       <c r="J212" s="13"/>
       <c r="K212" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
@@ -11699,7 +11715,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C213" s="9">
         <v>43936.0</v>
@@ -11718,7 +11734,7 @@
       <c r="I213" s="12"/>
       <c r="J213" s="13"/>
       <c r="K213" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L213" s="7"/>
       <c r="M213" s="7"/>
@@ -11742,7 +11758,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C214" s="9">
         <v>43936.0</v>
@@ -11758,12 +11774,12 @@
       </c>
       <c r="G214" s="8"/>
       <c r="H214" s="12" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I214" s="12"/>
       <c r="J214" s="13"/>
       <c r="K214" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L214" s="7"/>
       <c r="M214" s="7"/>
@@ -11787,7 +11803,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C215" s="9">
         <v>43936.0</v>
@@ -11803,12 +11819,12 @@
       </c>
       <c r="G215" s="8"/>
       <c r="H215" s="12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I215" s="12"/>
       <c r="J215" s="13"/>
       <c r="K215" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L215" s="7"/>
       <c r="M215" s="7"/>
@@ -11832,7 +11848,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C216" s="9">
         <v>43936.0</v>
@@ -11850,12 +11866,12 @@
         <v>107.0</v>
       </c>
       <c r="H216" s="12" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I216" s="12"/>
       <c r="J216" s="13"/>
       <c r="K216" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
@@ -11879,7 +11895,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C217" s="9">
         <v>43936.0</v>
@@ -11898,7 +11914,7 @@
       <c r="I217" s="12"/>
       <c r="J217" s="13"/>
       <c r="K217" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
@@ -11922,7 +11938,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C218" s="9">
         <v>43937.0</v>
@@ -11941,7 +11957,7 @@
       <c r="I218" s="12"/>
       <c r="J218" s="13"/>
       <c r="K218" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L218" s="7"/>
       <c r="M218" s="7"/>
@@ -11965,7 +11981,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C219" s="9">
         <v>43937.0</v>
@@ -11986,7 +12002,7 @@
         <v>43954.0</v>
       </c>
       <c r="K219" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
@@ -12010,7 +12026,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C220" s="9">
         <v>43937.0</v>
@@ -12022,14 +12038,14 @@
         <v>20</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G220" s="8"/>
       <c r="H220" s="12"/>
       <c r="I220" s="12"/>
       <c r="J220" s="13"/>
       <c r="K220" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
@@ -12053,7 +12069,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C221" s="9">
         <v>43937.0</v>
@@ -12074,7 +12090,7 @@
         <v>43945.0</v>
       </c>
       <c r="K221" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L221" s="7"/>
       <c r="M221" s="7"/>
@@ -12098,7 +12114,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C222" s="9">
         <v>43937.0</v>
@@ -12116,12 +12132,12 @@
         <v>192.0</v>
       </c>
       <c r="H222" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I222" s="12"/>
       <c r="J222" s="13"/>
       <c r="K222" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L222" s="7"/>
       <c r="M222" s="7"/>
@@ -12145,7 +12161,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C223" s="9">
         <v>43937.0</v>
@@ -12164,7 +12180,7 @@
       <c r="I223" s="12"/>
       <c r="J223" s="13"/>
       <c r="K223" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
@@ -12188,7 +12204,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C224" s="9">
         <v>43937.0</v>
@@ -12206,8 +12222,8 @@
       <c r="H224" s="12"/>
       <c r="I224" s="12"/>
       <c r="J224" s="13"/>
-      <c r="K224" s="27" t="s">
-        <v>327</v>
+      <c r="K224" s="29" t="s">
+        <v>329</v>
       </c>
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
@@ -12231,7 +12247,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C225" s="9">
         <v>43937.0</v>
@@ -12249,8 +12265,8 @@
       <c r="H225" s="12"/>
       <c r="I225" s="12"/>
       <c r="J225" s="13"/>
-      <c r="K225" s="27" t="s">
-        <v>327</v>
+      <c r="K225" s="29" t="s">
+        <v>329</v>
       </c>
       <c r="L225" s="7"/>
       <c r="M225" s="7"/>
@@ -12274,7 +12290,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C226" s="9">
         <v>43937.0</v>
@@ -12283,7 +12299,7 @@
         <v>43937.0</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F226" s="12" t="s">
         <v>15</v>
@@ -12292,8 +12308,8 @@
       <c r="H226" s="12"/>
       <c r="I226" s="12"/>
       <c r="J226" s="13"/>
-      <c r="K226" s="27" t="s">
-        <v>327</v>
+      <c r="K226" s="29" t="s">
+        <v>329</v>
       </c>
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
@@ -12317,7 +12333,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C227" s="9">
         <v>43937.0</v>
@@ -12326,7 +12342,7 @@
         <v>43937.0</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F227" s="12" t="s">
         <v>15</v>
@@ -12335,8 +12351,8 @@
       <c r="H227" s="12"/>
       <c r="I227" s="12"/>
       <c r="J227" s="13"/>
-      <c r="K227" s="27" t="s">
-        <v>327</v>
+      <c r="K227" s="29" t="s">
+        <v>329</v>
       </c>
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
@@ -12360,18 +12376,18 @@
         <v>226</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="C228" s="28">
+        <v>330</v>
+      </c>
+      <c r="C228" s="30">
         <v>43938.0</v>
       </c>
-      <c r="D228" s="29">
+      <c r="D228" s="31">
         <v>43938.0</v>
       </c>
       <c r="E228" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F228" s="30" t="s">
+      <c r="F228" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G228" s="8"/>
@@ -12379,7 +12395,7 @@
       <c r="I228" s="12"/>
       <c r="J228" s="13"/>
       <c r="K228" s="26" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L228" s="7"/>
       <c r="M228" s="7"/>
@@ -12403,26 +12419,26 @@
         <v>227</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="C229" s="28">
+        <v>330</v>
+      </c>
+      <c r="C229" s="30">
         <v>43938.0</v>
       </c>
-      <c r="D229" s="29">
+      <c r="D229" s="31">
         <v>43938.0</v>
       </c>
       <c r="E229" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="F229" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="F229" s="27" t="s">
         <v>45</v>
       </c>
       <c r="G229" s="8"/>
       <c r="H229" s="12"/>
       <c r="I229" s="12"/>
       <c r="J229" s="13"/>
-      <c r="K229" s="27" t="s">
-        <v>329</v>
+      <c r="K229" s="29" t="s">
+        <v>331</v>
       </c>
       <c r="L229" s="7"/>
       <c r="M229" s="7"/>
@@ -12446,30 +12462,30 @@
         <v>228</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="C230" s="28">
+        <v>330</v>
+      </c>
+      <c r="C230" s="30">
         <v>43938.0</v>
       </c>
-      <c r="D230" s="29">
+      <c r="D230" s="31">
         <v>43938.0</v>
       </c>
       <c r="E230" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F230" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="G230" s="31">
+      <c r="F230" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="G230" s="32">
         <v>219.0</v>
       </c>
-      <c r="H230" s="30" t="s">
-        <v>332</v>
+      <c r="H230" s="27" t="s">
+        <v>334</v>
       </c>
       <c r="I230" s="12"/>
       <c r="J230" s="13"/>
-      <c r="K230" s="27" t="s">
-        <v>329</v>
+      <c r="K230" s="29" t="s">
+        <v>331</v>
       </c>
       <c r="L230" s="7"/>
       <c r="M230" s="7"/>
@@ -12493,18 +12509,18 @@
         <v>229</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="C231" s="28">
+        <v>330</v>
+      </c>
+      <c r="C231" s="30">
         <v>43938.0</v>
       </c>
-      <c r="D231" s="29">
+      <c r="D231" s="31">
         <v>43938.0</v>
       </c>
       <c r="E231" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F231" s="30" t="s">
+      <c r="F231" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G231" s="8"/>
@@ -12512,7 +12528,7 @@
       <c r="I231" s="12"/>
       <c r="J231" s="13"/>
       <c r="K231" s="26" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L231" s="7"/>
       <c r="M231" s="7"/>
@@ -12536,26 +12552,26 @@
         <v>230</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="C232" s="28">
+        <v>330</v>
+      </c>
+      <c r="C232" s="30">
         <v>43938.0</v>
       </c>
-      <c r="D232" s="29">
+      <c r="D232" s="31">
         <v>43938.0</v>
       </c>
       <c r="E232" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F232" s="30" t="s">
+      <c r="F232" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G232" s="8"/>
       <c r="H232" s="12"/>
       <c r="I232" s="12"/>
       <c r="J232" s="13"/>
-      <c r="K232" s="27" t="s">
-        <v>333</v>
+      <c r="K232" s="29" t="s">
+        <v>335</v>
       </c>
       <c r="L232" s="7"/>
       <c r="M232" s="7"/>
@@ -12579,26 +12595,26 @@
         <v>231</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="C233" s="28">
+        <v>330</v>
+      </c>
+      <c r="C233" s="30">
         <v>43938.0</v>
       </c>
-      <c r="D233" s="29">
+      <c r="D233" s="31">
         <v>43938.0</v>
       </c>
       <c r="E233" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F233" s="30" t="s">
+      <c r="F233" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G233" s="8"/>
       <c r="H233" s="12"/>
       <c r="I233" s="12"/>
       <c r="J233" s="13"/>
-      <c r="K233" s="27" t="s">
-        <v>333</v>
+      <c r="K233" s="29" t="s">
+        <v>335</v>
       </c>
       <c r="L233" s="7"/>
       <c r="M233" s="7"/>
@@ -12622,26 +12638,26 @@
         <v>232</v>
       </c>
       <c r="B234" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="C234" s="28">
+        <v>330</v>
+      </c>
+      <c r="C234" s="30">
         <v>43938.0</v>
       </c>
-      <c r="D234" s="29">
+      <c r="D234" s="31">
         <v>43938.0</v>
       </c>
       <c r="E234" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F234" s="30" t="s">
+      <c r="F234" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G234" s="8"/>
       <c r="H234" s="12"/>
       <c r="I234" s="12"/>
       <c r="J234" s="13"/>
-      <c r="K234" s="27" t="s">
-        <v>333</v>
+      <c r="K234" s="29" t="s">
+        <v>335</v>
       </c>
       <c r="L234" s="7"/>
       <c r="M234" s="7"/>
@@ -12665,26 +12681,26 @@
         <v>233</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="C235" s="28">
+        <v>330</v>
+      </c>
+      <c r="C235" s="30">
         <v>43938.0</v>
       </c>
-      <c r="D235" s="29">
+      <c r="D235" s="31">
         <v>43938.0</v>
       </c>
       <c r="E235" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F235" s="30" t="s">
+      <c r="F235" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G235" s="8"/>
       <c r="H235" s="12"/>
       <c r="I235" s="12"/>
       <c r="J235" s="13"/>
-      <c r="K235" s="27" t="s">
-        <v>333</v>
+      <c r="K235" s="29" t="s">
+        <v>335</v>
       </c>
       <c r="L235" s="7"/>
       <c r="M235" s="7"/>
@@ -12708,26 +12724,26 @@
         <v>234</v>
       </c>
       <c r="B236" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="C236" s="28">
+        <v>330</v>
+      </c>
+      <c r="C236" s="30">
         <v>43938.0</v>
       </c>
-      <c r="D236" s="29">
+      <c r="D236" s="31">
         <v>43938.0</v>
       </c>
       <c r="E236" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F236" s="30" t="s">
+      <c r="F236" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G236" s="8"/>
       <c r="H236" s="12"/>
       <c r="I236" s="12"/>
       <c r="J236" s="13"/>
-      <c r="K236" s="27" t="s">
-        <v>333</v>
+      <c r="K236" s="29" t="s">
+        <v>335</v>
       </c>
       <c r="L236" s="7"/>
       <c r="M236" s="7"/>
@@ -12751,26 +12767,26 @@
         <v>235</v>
       </c>
       <c r="B237" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="C237" s="28">
+        <v>330</v>
+      </c>
+      <c r="C237" s="30">
         <v>43938.0</v>
       </c>
-      <c r="D237" s="29">
+      <c r="D237" s="31">
         <v>43938.0</v>
       </c>
       <c r="E237" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F237" s="30" t="s">
+      <c r="F237" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G237" s="8"/>
       <c r="H237" s="12"/>
       <c r="I237" s="12"/>
       <c r="J237" s="13"/>
-      <c r="K237" s="27" t="s">
-        <v>333</v>
+      <c r="K237" s="29" t="s">
+        <v>335</v>
       </c>
       <c r="L237" s="7"/>
       <c r="M237" s="7"/>
@@ -12794,26 +12810,26 @@
         <v>236</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="C238" s="28">
+        <v>336</v>
+      </c>
+      <c r="C238" s="30">
         <v>43939.0</v>
       </c>
-      <c r="D238" s="29">
+      <c r="D238" s="31">
         <v>43939.0</v>
       </c>
       <c r="E238" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F238" s="30" t="s">
+      <c r="F238" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G238" s="8"/>
       <c r="H238" s="12"/>
       <c r="I238" s="12"/>
       <c r="J238" s="13"/>
-      <c r="K238" s="27" t="s">
-        <v>335</v>
+      <c r="K238" s="29" t="s">
+        <v>337</v>
       </c>
       <c r="L238" s="7"/>
       <c r="M238" s="7"/>
@@ -12837,26 +12853,26 @@
         <v>237</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="C239" s="28">
+        <v>336</v>
+      </c>
+      <c r="C239" s="30">
         <v>43939.0</v>
       </c>
-      <c r="D239" s="29">
+      <c r="D239" s="31">
         <v>43939.0</v>
       </c>
       <c r="E239" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F239" s="30" t="s">
+      <c r="F239" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G239" s="8"/>
       <c r="H239" s="12"/>
       <c r="I239" s="12"/>
       <c r="J239" s="13"/>
-      <c r="K239" s="27" t="s">
-        <v>335</v>
+      <c r="K239" s="29" t="s">
+        <v>337</v>
       </c>
       <c r="L239" s="7"/>
       <c r="M239" s="7"/>
@@ -12880,26 +12896,26 @@
         <v>238</v>
       </c>
       <c r="B240" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="C240" s="28">
+        <v>336</v>
+      </c>
+      <c r="C240" s="30">
         <v>43939.0</v>
       </c>
-      <c r="D240" s="29">
+      <c r="D240" s="31">
         <v>43939.0</v>
       </c>
       <c r="E240" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F240" s="30" t="s">
+      <c r="F240" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G240" s="8"/>
       <c r="H240" s="12"/>
       <c r="I240" s="12"/>
       <c r="J240" s="13"/>
-      <c r="K240" s="27" t="s">
-        <v>335</v>
+      <c r="K240" s="29" t="s">
+        <v>337</v>
       </c>
       <c r="L240" s="7"/>
       <c r="M240" s="7"/>
@@ -12923,26 +12939,26 @@
         <v>239</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="C241" s="28">
+        <v>336</v>
+      </c>
+      <c r="C241" s="30">
         <v>43939.0</v>
       </c>
-      <c r="D241" s="29">
+      <c r="D241" s="31">
         <v>43939.0</v>
       </c>
       <c r="E241" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F241" s="30" t="s">
+      <c r="F241" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G241" s="8"/>
       <c r="H241" s="12"/>
       <c r="I241" s="12"/>
       <c r="J241" s="13"/>
-      <c r="K241" s="27" t="s">
-        <v>335</v>
+      <c r="K241" s="29" t="s">
+        <v>337</v>
       </c>
       <c r="L241" s="7"/>
       <c r="M241" s="7"/>
@@ -12966,26 +12982,26 @@
         <v>240</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="C242" s="28">
+        <v>336</v>
+      </c>
+      <c r="C242" s="30">
         <v>43939.0</v>
       </c>
-      <c r="D242" s="29">
+      <c r="D242" s="31">
         <v>43939.0</v>
       </c>
       <c r="E242" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F242" s="30" t="s">
+      <c r="F242" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G242" s="8"/>
       <c r="H242" s="12"/>
       <c r="I242" s="12"/>
       <c r="J242" s="13"/>
-      <c r="K242" s="27" t="s">
-        <v>335</v>
+      <c r="K242" s="29" t="s">
+        <v>337</v>
       </c>
       <c r="L242" s="7"/>
       <c r="M242" s="7"/>
@@ -13009,26 +13025,26 @@
         <v>241</v>
       </c>
       <c r="B243" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="C243" s="28">
+        <v>336</v>
+      </c>
+      <c r="C243" s="30">
         <v>43939.0</v>
       </c>
-      <c r="D243" s="29">
+      <c r="D243" s="31">
         <v>43939.0</v>
       </c>
       <c r="E243" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F243" s="30" t="s">
+      <c r="F243" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G243" s="8"/>
       <c r="H243" s="12"/>
       <c r="I243" s="12"/>
       <c r="J243" s="13"/>
-      <c r="K243" s="27" t="s">
-        <v>335</v>
+      <c r="K243" s="29" t="s">
+        <v>337</v>
       </c>
       <c r="L243" s="7"/>
       <c r="M243" s="7"/>
@@ -13052,26 +13068,26 @@
         <v>242</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="C244" s="28">
+        <v>336</v>
+      </c>
+      <c r="C244" s="30">
         <v>43939.0</v>
       </c>
-      <c r="D244" s="29">
+      <c r="D244" s="31">
         <v>43939.0</v>
       </c>
       <c r="E244" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F244" s="30" t="s">
+      <c r="F244" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G244" s="8"/>
       <c r="H244" s="12"/>
       <c r="I244" s="12"/>
       <c r="J244" s="13"/>
-      <c r="K244" s="27" t="s">
-        <v>335</v>
+      <c r="K244" s="29" t="s">
+        <v>337</v>
       </c>
       <c r="L244" s="7"/>
       <c r="M244" s="7"/>
@@ -13095,18 +13111,18 @@
         <v>243</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C245" s="28">
+        <v>338</v>
+      </c>
+      <c r="C245" s="30">
         <v>43940.0</v>
       </c>
-      <c r="D245" s="29">
+      <c r="D245" s="31">
         <v>43940.0</v>
       </c>
       <c r="E245" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F245" s="30" t="s">
+      <c r="F245" s="27" t="s">
         <v>45</v>
       </c>
       <c r="G245" s="8"/>
@@ -13115,8 +13131,8 @@
       <c r="J245" s="18">
         <v>43944.0</v>
       </c>
-      <c r="K245" s="27" t="s">
-        <v>337</v>
+      <c r="K245" s="29" t="s">
+        <v>339</v>
       </c>
       <c r="L245" s="7"/>
       <c r="M245" s="7"/>
@@ -13140,26 +13156,26 @@
         <v>244</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C246" s="28">
+        <v>338</v>
+      </c>
+      <c r="C246" s="30">
         <v>43940.0</v>
       </c>
-      <c r="D246" s="29">
+      <c r="D246" s="31">
         <v>43940.0</v>
       </c>
       <c r="E246" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F246" s="30" t="s">
+      <c r="F246" s="27" t="s">
         <v>231</v>
       </c>
       <c r="G246" s="8"/>
       <c r="H246" s="12"/>
       <c r="I246" s="12"/>
       <c r="J246" s="13"/>
-      <c r="K246" s="27" t="s">
-        <v>337</v>
+      <c r="K246" s="29" t="s">
+        <v>339</v>
       </c>
       <c r="L246" s="7"/>
       <c r="M246" s="7"/>
@@ -13183,26 +13199,26 @@
         <v>245</v>
       </c>
       <c r="B247" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C247" s="28">
+        <v>338</v>
+      </c>
+      <c r="C247" s="30">
         <v>43940.0</v>
       </c>
-      <c r="D247" s="29">
+      <c r="D247" s="31">
         <v>43940.0</v>
       </c>
       <c r="E247" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F247" s="30" t="s">
+      <c r="F247" s="27" t="s">
         <v>156</v>
       </c>
       <c r="G247" s="8"/>
       <c r="H247" s="12"/>
       <c r="I247" s="12"/>
       <c r="J247" s="13"/>
-      <c r="K247" s="27" t="s">
-        <v>337</v>
+      <c r="K247" s="29" t="s">
+        <v>339</v>
       </c>
       <c r="L247" s="7"/>
       <c r="M247" s="7"/>
@@ -13226,26 +13242,26 @@
         <v>246</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C248" s="28">
+        <v>338</v>
+      </c>
+      <c r="C248" s="30">
         <v>43940.0</v>
       </c>
-      <c r="D248" s="29">
+      <c r="D248" s="31">
         <v>43940.0</v>
       </c>
       <c r="E248" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F248" s="30" t="s">
+      <c r="F248" s="27" t="s">
         <v>156</v>
       </c>
       <c r="G248" s="8"/>
       <c r="H248" s="12"/>
       <c r="I248" s="12"/>
       <c r="J248" s="13"/>
-      <c r="K248" s="27" t="s">
-        <v>337</v>
+      <c r="K248" s="29" t="s">
+        <v>339</v>
       </c>
       <c r="L248" s="7"/>
       <c r="M248" s="7"/>
@@ -13269,26 +13285,26 @@
         <v>247</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C249" s="28">
+        <v>338</v>
+      </c>
+      <c r="C249" s="30">
         <v>43940.0</v>
       </c>
-      <c r="D249" s="29">
+      <c r="D249" s="31">
         <v>43940.0</v>
       </c>
       <c r="E249" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F249" s="30" t="s">
+      <c r="F249" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G249" s="8"/>
       <c r="H249" s="12"/>
       <c r="I249" s="12"/>
       <c r="J249" s="13"/>
-      <c r="K249" s="27" t="s">
-        <v>338</v>
+      <c r="K249" s="29" t="s">
+        <v>340</v>
       </c>
       <c r="L249" s="7"/>
       <c r="M249" s="7"/>
@@ -13312,26 +13328,26 @@
         <v>248</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C250" s="28">
+        <v>338</v>
+      </c>
+      <c r="C250" s="30">
         <v>43940.0</v>
       </c>
-      <c r="D250" s="29">
+      <c r="D250" s="31">
         <v>43940.0</v>
       </c>
       <c r="E250" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F250" s="30" t="s">
+      <c r="F250" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G250" s="8"/>
       <c r="H250" s="12"/>
       <c r="I250" s="12"/>
       <c r="J250" s="13"/>
-      <c r="K250" s="27" t="s">
-        <v>338</v>
+      <c r="K250" s="29" t="s">
+        <v>340</v>
       </c>
       <c r="L250" s="7"/>
       <c r="M250" s="7"/>
@@ -13355,26 +13371,26 @@
         <v>249</v>
       </c>
       <c r="B251" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C251" s="28">
+        <v>338</v>
+      </c>
+      <c r="C251" s="30">
         <v>43940.0</v>
       </c>
-      <c r="D251" s="29">
+      <c r="D251" s="31">
         <v>43940.0</v>
       </c>
       <c r="E251" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F251" s="30" t="s">
+      <c r="F251" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G251" s="8"/>
       <c r="H251" s="12"/>
       <c r="I251" s="12"/>
       <c r="J251" s="13"/>
-      <c r="K251" s="27" t="s">
-        <v>338</v>
+      <c r="K251" s="29" t="s">
+        <v>340</v>
       </c>
       <c r="L251" s="7"/>
       <c r="M251" s="7"/>
@@ -13398,26 +13414,26 @@
         <v>250</v>
       </c>
       <c r="B252" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C252" s="28">
+        <v>338</v>
+      </c>
+      <c r="C252" s="30">
         <v>43940.0</v>
       </c>
-      <c r="D252" s="29">
+      <c r="D252" s="31">
         <v>43940.0</v>
       </c>
       <c r="E252" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="F252" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F252" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G252" s="8"/>
       <c r="H252" s="12"/>
       <c r="I252" s="12"/>
       <c r="J252" s="13"/>
-      <c r="K252" s="27" t="s">
-        <v>338</v>
+      <c r="K252" s="29" t="s">
+        <v>340</v>
       </c>
       <c r="L252" s="7"/>
       <c r="M252" s="7"/>
@@ -13441,28 +13457,28 @@
         <v>251</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C253" s="28">
+        <v>338</v>
+      </c>
+      <c r="C253" s="30">
         <v>43940.0</v>
       </c>
-      <c r="D253" s="29">
+      <c r="D253" s="31">
         <v>43940.0</v>
       </c>
       <c r="E253" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F253" s="30" t="s">
+      <c r="F253" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G253" s="8"/>
-      <c r="H253" s="30" t="s">
-        <v>339</v>
+      <c r="H253" s="27" t="s">
+        <v>278</v>
       </c>
       <c r="I253" s="12"/>
       <c r="J253" s="13"/>
-      <c r="K253" s="27" t="s">
-        <v>338</v>
+      <c r="K253" s="29" t="s">
+        <v>340</v>
       </c>
       <c r="L253" s="7"/>
       <c r="M253" s="7"/>
@@ -13486,32 +13502,32 @@
         <v>252</v>
       </c>
       <c r="B254" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C254" s="28">
+        <v>341</v>
+      </c>
+      <c r="C254" s="30">
         <v>43941.0</v>
       </c>
-      <c r="D254" s="29">
+      <c r="D254" s="31">
         <v>43941.0</v>
       </c>
       <c r="E254" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F254" s="30" t="s">
+      <c r="F254" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="G254" s="31">
+      <c r="G254" s="32">
         <v>246.0</v>
       </c>
-      <c r="H254" s="30" t="s">
-        <v>341</v>
+      <c r="H254" s="27" t="s">
+        <v>342</v>
       </c>
       <c r="I254" s="12"/>
       <c r="J254" s="18">
         <v>43954.0</v>
       </c>
-      <c r="K254" s="27" t="s">
-        <v>342</v>
+      <c r="K254" s="29" t="s">
+        <v>343</v>
       </c>
       <c r="L254" s="7"/>
       <c r="M254" s="7"/>
@@ -13535,28 +13551,28 @@
         <v>253</v>
       </c>
       <c r="B255" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C255" s="28">
+        <v>341</v>
+      </c>
+      <c r="C255" s="30">
         <v>43941.0</v>
       </c>
-      <c r="D255" s="29">
+      <c r="D255" s="31">
         <v>43941.0</v>
       </c>
       <c r="E255" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F255" s="30" t="s">
+      <c r="F255" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G255" s="8"/>
-      <c r="H255" s="30" t="s">
-        <v>343</v>
+      <c r="H255" s="27" t="s">
+        <v>344</v>
       </c>
       <c r="I255" s="12"/>
       <c r="J255" s="13"/>
-      <c r="K255" s="27" t="s">
-        <v>344</v>
+      <c r="K255" s="29" t="s">
+        <v>345</v>
       </c>
       <c r="L255" s="7"/>
       <c r="M255" s="7"/>
@@ -13580,30 +13596,30 @@
         <v>254</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C256" s="28">
+        <v>341</v>
+      </c>
+      <c r="C256" s="30">
         <v>43941.0</v>
       </c>
-      <c r="D256" s="29">
+      <c r="D256" s="31">
         <v>43941.0</v>
       </c>
       <c r="E256" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F256" s="30" t="s">
+      <c r="F256" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G256" s="31" t="s">
+      <c r="G256" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="H256" s="30" t="s">
-        <v>321</v>
+      <c r="H256" s="27" t="s">
+        <v>323</v>
       </c>
       <c r="I256" s="12"/>
       <c r="J256" s="13"/>
-      <c r="K256" s="27" t="s">
-        <v>344</v>
+      <c r="K256" s="29" t="s">
+        <v>345</v>
       </c>
       <c r="L256" s="7"/>
       <c r="M256" s="7"/>
@@ -13627,28 +13643,28 @@
         <v>255</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C257" s="28">
+        <v>341</v>
+      </c>
+      <c r="C257" s="30">
         <v>43941.0</v>
       </c>
-      <c r="D257" s="29">
+      <c r="D257" s="31">
         <v>43941.0</v>
       </c>
       <c r="E257" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F257" s="30" t="s">
+      <c r="F257" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G257" s="8"/>
-      <c r="H257" s="30" t="s">
-        <v>345</v>
+      <c r="H257" s="27" t="s">
+        <v>346</v>
       </c>
       <c r="I257" s="12"/>
       <c r="J257" s="13"/>
-      <c r="K257" s="27" t="s">
-        <v>344</v>
+      <c r="K257" s="29" t="s">
+        <v>345</v>
       </c>
       <c r="L257" s="7"/>
       <c r="M257" s="7"/>
@@ -13672,28 +13688,28 @@
         <v>256</v>
       </c>
       <c r="B258" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C258" s="28">
+        <v>341</v>
+      </c>
+      <c r="C258" s="30">
         <v>43941.0</v>
       </c>
-      <c r="D258" s="29">
+      <c r="D258" s="31">
         <v>43941.0</v>
       </c>
       <c r="E258" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F258" s="30" t="s">
+      <c r="F258" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G258" s="8"/>
-      <c r="H258" s="30" t="s">
-        <v>346</v>
+      <c r="H258" s="27" t="s">
+        <v>347</v>
       </c>
       <c r="I258" s="12"/>
       <c r="J258" s="13"/>
-      <c r="K258" s="27" t="s">
-        <v>344</v>
+      <c r="K258" s="29" t="s">
+        <v>345</v>
       </c>
       <c r="L258" s="7"/>
       <c r="M258" s="7"/>
@@ -13717,26 +13733,26 @@
         <v>257</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C259" s="28">
+        <v>341</v>
+      </c>
+      <c r="C259" s="30">
         <v>43941.0</v>
       </c>
-      <c r="D259" s="29">
+      <c r="D259" s="31">
         <v>43941.0</v>
       </c>
       <c r="E259" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F259" s="30" t="s">
+      <c r="F259" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G259" s="8"/>
       <c r="H259" s="12"/>
       <c r="I259" s="12"/>
       <c r="J259" s="13"/>
-      <c r="K259" s="27" t="s">
-        <v>344</v>
+      <c r="K259" s="29" t="s">
+        <v>345</v>
       </c>
       <c r="L259" s="7"/>
       <c r="M259" s="7"/>
@@ -13760,26 +13776,26 @@
         <v>258</v>
       </c>
       <c r="B260" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C260" s="28">
+        <v>341</v>
+      </c>
+      <c r="C260" s="30">
         <v>43941.0</v>
       </c>
-      <c r="D260" s="29">
+      <c r="D260" s="31">
         <v>43941.0</v>
       </c>
       <c r="E260" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F260" s="30" t="s">
+      <c r="F260" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G260" s="8"/>
       <c r="H260" s="12"/>
       <c r="I260" s="12"/>
       <c r="J260" s="13"/>
-      <c r="K260" s="27" t="s">
-        <v>344</v>
+      <c r="K260" s="29" t="s">
+        <v>345</v>
       </c>
       <c r="L260" s="7"/>
       <c r="M260" s="7"/>
@@ -13803,26 +13819,26 @@
         <v>259</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C261" s="28">
+        <v>341</v>
+      </c>
+      <c r="C261" s="30">
         <v>43941.0</v>
       </c>
-      <c r="D261" s="29">
+      <c r="D261" s="31">
         <v>43941.0</v>
       </c>
       <c r="E261" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F261" s="30" t="s">
+      <c r="F261" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G261" s="8"/>
       <c r="H261" s="12"/>
       <c r="I261" s="12"/>
       <c r="J261" s="13"/>
-      <c r="K261" s="27" t="s">
-        <v>344</v>
+      <c r="K261" s="29" t="s">
+        <v>345</v>
       </c>
       <c r="L261" s="7"/>
       <c r="M261" s="7"/>
@@ -13846,30 +13862,30 @@
         <v>260</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="C262" s="28">
+        <v>348</v>
+      </c>
+      <c r="C262" s="30">
         <v>43942.0</v>
       </c>
-      <c r="D262" s="29">
+      <c r="D262" s="31">
         <v>43942.0</v>
       </c>
       <c r="E262" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F262" s="30" t="s">
+      <c r="F262" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G262" s="31">
+      <c r="G262" s="32">
         <v>226.0</v>
       </c>
-      <c r="H262" s="30" t="s">
-        <v>348</v>
+      <c r="H262" s="27" t="s">
+        <v>349</v>
       </c>
       <c r="I262" s="12"/>
       <c r="J262" s="13"/>
-      <c r="K262" s="27" t="s">
-        <v>349</v>
+      <c r="K262" s="29" t="s">
+        <v>350</v>
       </c>
       <c r="L262" s="7"/>
       <c r="M262" s="7"/>
@@ -13893,26 +13909,26 @@
         <v>261</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="C263" s="28">
+        <v>348</v>
+      </c>
+      <c r="C263" s="30">
         <v>43942.0</v>
       </c>
-      <c r="D263" s="29">
+      <c r="D263" s="31">
         <v>43942.0</v>
       </c>
       <c r="E263" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F263" s="30" t="s">
-        <v>350</v>
+      <c r="F263" s="27" t="s">
+        <v>351</v>
       </c>
       <c r="G263" s="8"/>
       <c r="H263" s="12"/>
       <c r="I263" s="12"/>
       <c r="J263" s="13"/>
-      <c r="K263" s="27" t="s">
-        <v>349</v>
+      <c r="K263" s="29" t="s">
+        <v>350</v>
       </c>
       <c r="L263" s="7"/>
       <c r="M263" s="7"/>
@@ -13936,26 +13952,26 @@
         <v>262</v>
       </c>
       <c r="B264" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="C264" s="28">
+        <v>348</v>
+      </c>
+      <c r="C264" s="30">
         <v>43942.0</v>
       </c>
-      <c r="D264" s="29">
+      <c r="D264" s="31">
         <v>43942.0</v>
       </c>
       <c r="E264" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F264" s="30" t="s">
+      <c r="F264" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G264" s="8"/>
-      <c r="H264" s="30"/>
+      <c r="H264" s="27"/>
       <c r="I264" s="12"/>
       <c r="J264" s="13"/>
-      <c r="K264" s="27" t="s">
-        <v>351</v>
+      <c r="K264" s="29" t="s">
+        <v>352</v>
       </c>
       <c r="L264" s="7"/>
       <c r="M264" s="7"/>
@@ -13979,28 +13995,28 @@
         <v>263</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="C265" s="28">
+        <v>348</v>
+      </c>
+      <c r="C265" s="30">
         <v>43942.0</v>
       </c>
-      <c r="D265" s="29">
+      <c r="D265" s="31">
         <v>43942.0</v>
       </c>
       <c r="E265" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F265" s="30" t="s">
+      <c r="F265" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G265" s="8"/>
-      <c r="H265" s="30" t="s">
-        <v>309</v>
+      <c r="H265" s="27" t="s">
+        <v>311</v>
       </c>
       <c r="I265" s="12"/>
       <c r="J265" s="13"/>
-      <c r="K265" s="27" t="s">
-        <v>351</v>
+      <c r="K265" s="29" t="s">
+        <v>352</v>
       </c>
       <c r="L265" s="7"/>
       <c r="M265" s="7"/>
@@ -14024,28 +14040,28 @@
         <v>264</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="C266" s="28">
+        <v>348</v>
+      </c>
+      <c r="C266" s="30">
         <v>43942.0</v>
       </c>
-      <c r="D266" s="29">
+      <c r="D266" s="31">
         <v>43942.0</v>
       </c>
       <c r="E266" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F266" s="30" t="s">
+      <c r="F266" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G266" s="8"/>
-      <c r="H266" s="30" t="s">
-        <v>352</v>
+      <c r="H266" s="27" t="s">
+        <v>353</v>
       </c>
       <c r="I266" s="12"/>
       <c r="J266" s="13"/>
-      <c r="K266" s="27" t="s">
-        <v>351</v>
+      <c r="K266" s="29" t="s">
+        <v>352</v>
       </c>
       <c r="L266" s="7"/>
       <c r="M266" s="7"/>
@@ -14069,30 +14085,30 @@
         <v>265</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C267" s="28">
+        <v>354</v>
+      </c>
+      <c r="C267" s="30">
         <v>43943.0</v>
       </c>
-      <c r="D267" s="29">
+      <c r="D267" s="31">
         <v>43943.0</v>
       </c>
       <c r="E267" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="F267" s="30" t="s">
+      <c r="F267" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G267" s="32">
+      <c r="G267" s="33">
         <v>226260.0</v>
       </c>
-      <c r="H267" s="30" t="s">
-        <v>354</v>
+      <c r="H267" s="27" t="s">
+        <v>355</v>
       </c>
       <c r="I267" s="12"/>
       <c r="J267" s="13"/>
-      <c r="K267" s="27" t="s">
-        <v>355</v>
+      <c r="K267" s="29" t="s">
+        <v>356</v>
       </c>
       <c r="L267" s="7"/>
       <c r="M267" s="7"/>
@@ -14116,19 +14132,19 @@
         <v>266</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C268" s="28">
+        <v>354</v>
+      </c>
+      <c r="C268" s="30">
         <v>43943.0</v>
       </c>
-      <c r="D268" s="29">
+      <c r="D268" s="31">
         <v>43943.0</v>
       </c>
       <c r="E268" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F268" s="30" t="s">
-        <v>356</v>
+      <c r="F268" s="27" t="s">
+        <v>357</v>
       </c>
       <c r="G268" s="8"/>
       <c r="H268" s="12"/>
@@ -14136,8 +14152,8 @@
       <c r="J268" s="18">
         <v>43954.0</v>
       </c>
-      <c r="K268" s="27" t="s">
-        <v>355</v>
+      <c r="K268" s="29" t="s">
+        <v>356</v>
       </c>
       <c r="L268" s="7"/>
       <c r="M268" s="7"/>
@@ -14161,26 +14177,26 @@
         <v>267</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C269" s="28">
+        <v>354</v>
+      </c>
+      <c r="C269" s="30">
         <v>43943.0</v>
       </c>
-      <c r="D269" s="29">
+      <c r="D269" s="31">
         <v>43943.0</v>
       </c>
       <c r="E269" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F269" s="30" t="s">
+      <c r="F269" s="27" t="s">
         <v>45</v>
       </c>
       <c r="G269" s="8"/>
       <c r="H269" s="12"/>
       <c r="I269" s="12"/>
       <c r="J269" s="13"/>
-      <c r="K269" s="27" t="s">
-        <v>355</v>
+      <c r="K269" s="29" t="s">
+        <v>356</v>
       </c>
       <c r="L269" s="7"/>
       <c r="M269" s="7"/>
@@ -14204,30 +14220,30 @@
         <v>268</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C270" s="28">
+        <v>354</v>
+      </c>
+      <c r="C270" s="30">
         <v>43943.0</v>
       </c>
-      <c r="D270" s="29">
+      <c r="D270" s="31">
         <v>43943.0</v>
       </c>
       <c r="E270" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F270" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="G270" s="31">
+      <c r="F270" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="G270" s="32">
         <v>261.0</v>
       </c>
-      <c r="H270" s="30" t="s">
-        <v>357</v>
+      <c r="H270" s="27" t="s">
+        <v>358</v>
       </c>
       <c r="I270" s="12"/>
       <c r="J270" s="13"/>
-      <c r="K270" s="27" t="s">
-        <v>355</v>
+      <c r="K270" s="29" t="s">
+        <v>356</v>
       </c>
       <c r="L270" s="7"/>
       <c r="M270" s="7"/>
@@ -14251,26 +14267,26 @@
         <v>269</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C271" s="28">
+        <v>354</v>
+      </c>
+      <c r="C271" s="30">
         <v>43943.0</v>
       </c>
-      <c r="D271" s="29">
+      <c r="D271" s="31">
         <v>43943.0</v>
       </c>
       <c r="E271" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F271" s="30" t="s">
+      <c r="F271" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G271" s="8"/>
       <c r="H271" s="12"/>
       <c r="I271" s="12"/>
       <c r="J271" s="13"/>
-      <c r="K271" s="27" t="s">
-        <v>358</v>
+      <c r="K271" s="29" t="s">
+        <v>359</v>
       </c>
       <c r="L271" s="7"/>
       <c r="M271" s="7"/>
@@ -14294,26 +14310,26 @@
         <v>270</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C272" s="28">
+        <v>354</v>
+      </c>
+      <c r="C272" s="30">
         <v>43943.0</v>
       </c>
-      <c r="D272" s="29">
+      <c r="D272" s="31">
         <v>43943.0</v>
       </c>
       <c r="E272" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F272" s="30" t="s">
+      <c r="F272" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G272" s="8"/>
       <c r="H272" s="12"/>
       <c r="I272" s="12"/>
       <c r="J272" s="13"/>
-      <c r="K272" s="27" t="s">
-        <v>358</v>
+      <c r="K272" s="29" t="s">
+        <v>359</v>
       </c>
       <c r="L272" s="7"/>
       <c r="M272" s="7"/>
@@ -14337,26 +14353,26 @@
         <v>271</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C273" s="28">
+        <v>354</v>
+      </c>
+      <c r="C273" s="30">
         <v>43943.0</v>
       </c>
-      <c r="D273" s="29">
+      <c r="D273" s="31">
         <v>43943.0</v>
       </c>
       <c r="E273" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="F273" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F273" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G273" s="8"/>
       <c r="H273" s="12"/>
       <c r="I273" s="12"/>
       <c r="J273" s="13"/>
-      <c r="K273" s="27" t="s">
-        <v>358</v>
+      <c r="K273" s="29" t="s">
+        <v>359</v>
       </c>
       <c r="L273" s="7"/>
       <c r="M273" s="7"/>
@@ -14380,26 +14396,26 @@
         <v>272</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C274" s="28">
+        <v>354</v>
+      </c>
+      <c r="C274" s="30">
         <v>43943.0</v>
       </c>
-      <c r="D274" s="29">
+      <c r="D274" s="31">
         <v>43943.0</v>
       </c>
       <c r="E274" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="F274" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F274" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G274" s="8"/>
       <c r="H274" s="12"/>
       <c r="I274" s="12"/>
       <c r="J274" s="13"/>
-      <c r="K274" s="27" t="s">
-        <v>358</v>
+      <c r="K274" s="29" t="s">
+        <v>359</v>
       </c>
       <c r="L274" s="7"/>
       <c r="M274" s="7"/>
@@ -14423,26 +14439,26 @@
         <v>273</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C275" s="28">
+        <v>354</v>
+      </c>
+      <c r="C275" s="30">
         <v>43943.0</v>
       </c>
-      <c r="D275" s="29">
+      <c r="D275" s="31">
         <v>43943.0</v>
       </c>
       <c r="E275" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F275" s="30" t="s">
+      <c r="F275" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G275" s="8"/>
       <c r="H275" s="12"/>
       <c r="I275" s="12"/>
       <c r="J275" s="13"/>
-      <c r="K275" s="27" t="s">
-        <v>358</v>
+      <c r="K275" s="29" t="s">
+        <v>359</v>
       </c>
       <c r="L275" s="7"/>
       <c r="M275" s="7"/>
@@ -14466,26 +14482,26 @@
         <v>274</v>
       </c>
       <c r="B276" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C276" s="28">
+        <v>354</v>
+      </c>
+      <c r="C276" s="30">
         <v>43943.0</v>
       </c>
-      <c r="D276" s="29">
+      <c r="D276" s="31">
         <v>43943.0</v>
       </c>
       <c r="E276" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F276" s="30" t="s">
+      <c r="F276" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G276" s="8"/>
       <c r="H276" s="12"/>
       <c r="I276" s="12"/>
       <c r="J276" s="13"/>
-      <c r="K276" s="27" t="s">
-        <v>358</v>
+      <c r="K276" s="29" t="s">
+        <v>359</v>
       </c>
       <c r="L276" s="7"/>
       <c r="M276" s="7"/>
@@ -14509,26 +14525,26 @@
         <v>275</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C277" s="28">
+        <v>354</v>
+      </c>
+      <c r="C277" s="30">
         <v>43943.0</v>
       </c>
-      <c r="D277" s="29">
+      <c r="D277" s="31">
         <v>43943.0</v>
       </c>
       <c r="E277" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F277" s="30" t="s">
+      <c r="F277" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G277" s="8"/>
       <c r="H277" s="12"/>
       <c r="I277" s="12"/>
       <c r="J277" s="13"/>
-      <c r="K277" s="27" t="s">
-        <v>358</v>
+      <c r="K277" s="29" t="s">
+        <v>359</v>
       </c>
       <c r="L277" s="7"/>
       <c r="M277" s="7"/>
@@ -14552,26 +14568,26 @@
         <v>276</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C278" s="28">
+        <v>360</v>
+      </c>
+      <c r="C278" s="30">
         <v>43944.0</v>
       </c>
-      <c r="D278" s="29">
+      <c r="D278" s="31">
         <v>43944.0</v>
       </c>
       <c r="E278" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F278" s="30" t="s">
+      <c r="F278" s="27" t="s">
         <v>94</v>
       </c>
       <c r="G278" s="8"/>
       <c r="H278" s="12"/>
       <c r="I278" s="12"/>
       <c r="J278" s="13"/>
-      <c r="K278" s="27" t="s">
-        <v>360</v>
+      <c r="K278" s="29" t="s">
+        <v>361</v>
       </c>
       <c r="L278" s="7"/>
       <c r="M278" s="7"/>
@@ -14595,30 +14611,30 @@
         <v>277</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C279" s="28">
+        <v>360</v>
+      </c>
+      <c r="C279" s="30">
         <v>43944.0</v>
       </c>
-      <c r="D279" s="29">
+      <c r="D279" s="31">
         <v>43944.0</v>
       </c>
       <c r="E279" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F279" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="G279" s="31">
+      <c r="F279" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="G279" s="32">
         <v>206.0</v>
       </c>
-      <c r="H279" s="30" t="s">
-        <v>362</v>
+      <c r="H279" s="27" t="s">
+        <v>363</v>
       </c>
       <c r="I279" s="12"/>
       <c r="J279" s="13"/>
-      <c r="K279" s="27" t="s">
-        <v>360</v>
+      <c r="K279" s="29" t="s">
+        <v>361</v>
       </c>
       <c r="L279" s="7"/>
       <c r="M279" s="7"/>
@@ -14642,26 +14658,26 @@
         <v>278</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C280" s="28">
+        <v>360</v>
+      </c>
+      <c r="C280" s="30">
         <v>43944.0</v>
       </c>
-      <c r="D280" s="29">
+      <c r="D280" s="31">
         <v>43944.0</v>
       </c>
       <c r="E280" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F280" s="30" t="s">
-        <v>361</v>
+      <c r="F280" s="27" t="s">
+        <v>362</v>
       </c>
       <c r="G280" s="8"/>
       <c r="H280" s="12"/>
       <c r="I280" s="12"/>
       <c r="J280" s="13"/>
-      <c r="K280" s="27" t="s">
-        <v>360</v>
+      <c r="K280" s="29" t="s">
+        <v>361</v>
       </c>
       <c r="L280" s="7"/>
       <c r="M280" s="7"/>
@@ -14685,28 +14701,28 @@
         <v>279</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C281" s="28">
+        <v>360</v>
+      </c>
+      <c r="C281" s="30">
         <v>43944.0</v>
       </c>
-      <c r="D281" s="29">
+      <c r="D281" s="31">
         <v>43944.0</v>
       </c>
       <c r="E281" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F281" s="33" t="s">
+      <c r="F281" s="34" t="s">
         <v>94</v>
       </c>
       <c r="G281" s="8"/>
-      <c r="H281" s="30" t="s">
-        <v>363</v>
+      <c r="H281" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I281" s="12"/>
       <c r="J281" s="13"/>
-      <c r="K281" s="27" t="s">
-        <v>360</v>
+      <c r="K281" s="29" t="s">
+        <v>361</v>
       </c>
       <c r="L281" s="7"/>
       <c r="M281" s="7"/>
@@ -14730,26 +14746,26 @@
         <v>280</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C282" s="28">
+        <v>360</v>
+      </c>
+      <c r="C282" s="30">
         <v>43944.0</v>
       </c>
-      <c r="D282" s="29">
+      <c r="D282" s="31">
         <v>43944.0</v>
       </c>
       <c r="E282" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F282" s="34" t="s">
+      <c r="F282" s="35" t="s">
         <v>94</v>
       </c>
       <c r="G282" s="8"/>
       <c r="H282" s="12"/>
       <c r="I282" s="12"/>
       <c r="J282" s="13"/>
-      <c r="K282" s="27" t="s">
-        <v>360</v>
+      <c r="K282" s="29" t="s">
+        <v>361</v>
       </c>
       <c r="L282" s="7"/>
       <c r="M282" s="7"/>
@@ -14773,26 +14789,26 @@
         <v>281</v>
       </c>
       <c r="B283" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C283" s="28">
+        <v>360</v>
+      </c>
+      <c r="C283" s="30">
         <v>43944.0</v>
       </c>
-      <c r="D283" s="29">
+      <c r="D283" s="31">
         <v>43944.0</v>
       </c>
       <c r="E283" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F283" s="33" t="s">
+      <c r="F283" s="34" t="s">
         <v>15</v>
       </c>
       <c r="G283" s="8"/>
-      <c r="H283" s="30"/>
+      <c r="H283" s="27"/>
       <c r="I283" s="12"/>
       <c r="J283" s="13"/>
-      <c r="K283" s="35" t="s">
-        <v>364</v>
+      <c r="K283" s="36" t="s">
+        <v>365</v>
       </c>
       <c r="L283" s="7"/>
       <c r="M283" s="7"/>
@@ -14816,26 +14832,26 @@
         <v>282</v>
       </c>
       <c r="B284" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C284" s="28">
+        <v>360</v>
+      </c>
+      <c r="C284" s="30">
         <v>43944.0</v>
       </c>
-      <c r="D284" s="29">
+      <c r="D284" s="31">
         <v>43944.0</v>
       </c>
       <c r="E284" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="F284" s="33" t="s">
+      <c r="F284" s="34" t="s">
         <v>15</v>
       </c>
       <c r="G284" s="8"/>
-      <c r="H284" s="30"/>
+      <c r="H284" s="27"/>
       <c r="I284" s="12"/>
       <c r="J284" s="13"/>
-      <c r="K284" s="35" t="s">
-        <v>364</v>
+      <c r="K284" s="36" t="s">
+        <v>365</v>
       </c>
       <c r="L284" s="7"/>
       <c r="M284" s="7"/>
@@ -14859,26 +14875,26 @@
         <v>283</v>
       </c>
       <c r="B285" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="C285" s="28">
+        <v>366</v>
+      </c>
+      <c r="C285" s="30">
         <v>43944.0</v>
       </c>
-      <c r="D285" s="29">
+      <c r="D285" s="31">
         <v>43944.0</v>
       </c>
       <c r="E285" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F285" s="34" t="s">
-        <v>361</v>
+      <c r="F285" s="35" t="s">
+        <v>362</v>
       </c>
       <c r="G285" s="8"/>
       <c r="H285" s="12"/>
       <c r="I285" s="12"/>
       <c r="J285" s="13"/>
-      <c r="K285" s="27" t="s">
-        <v>366</v>
+      <c r="K285" s="29" t="s">
+        <v>367</v>
       </c>
       <c r="L285" s="7"/>
       <c r="M285" s="7"/>
@@ -14902,28 +14918,28 @@
         <v>284</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="C286" s="28">
+        <v>366</v>
+      </c>
+      <c r="C286" s="30">
         <v>43945.0</v>
       </c>
-      <c r="D286" s="29">
+      <c r="D286" s="31">
         <v>43945.0</v>
       </c>
       <c r="E286" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F286" s="30" t="s">
-        <v>361</v>
+      <c r="F286" s="27" t="s">
+        <v>362</v>
       </c>
       <c r="G286" s="8"/>
-      <c r="H286" s="30" t="s">
-        <v>363</v>
+      <c r="H286" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I286" s="12"/>
       <c r="J286" s="13"/>
-      <c r="K286" s="27" t="s">
-        <v>366</v>
+      <c r="K286" s="29" t="s">
+        <v>367</v>
       </c>
       <c r="L286" s="7"/>
       <c r="M286" s="7"/>
@@ -14947,26 +14963,26 @@
         <v>285</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="C287" s="28">
+        <v>366</v>
+      </c>
+      <c r="C287" s="30">
         <v>43945.0</v>
       </c>
-      <c r="D287" s="29">
+      <c r="D287" s="31">
         <v>43945.0</v>
       </c>
       <c r="E287" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F287" s="30" t="s">
-        <v>367</v>
+      <c r="F287" s="27" t="s">
+        <v>368</v>
       </c>
       <c r="G287" s="8"/>
       <c r="H287" s="12"/>
       <c r="I287" s="12"/>
       <c r="J287" s="13"/>
-      <c r="K287" s="27" t="s">
-        <v>368</v>
+      <c r="K287" s="29" t="s">
+        <v>369</v>
       </c>
       <c r="L287" s="7"/>
       <c r="M287" s="7"/>
@@ -14990,28 +15006,28 @@
         <v>286</v>
       </c>
       <c r="B288" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="C288" s="28">
+        <v>366</v>
+      </c>
+      <c r="C288" s="30">
         <v>43945.0</v>
       </c>
-      <c r="D288" s="29">
+      <c r="D288" s="31">
         <v>43945.0</v>
       </c>
       <c r="E288" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F288" s="30" t="s">
+      <c r="F288" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G288" s="8"/>
-      <c r="H288" s="30" t="s">
-        <v>369</v>
+      <c r="H288" s="27" t="s">
+        <v>370</v>
       </c>
       <c r="I288" s="12"/>
       <c r="J288" s="13"/>
-      <c r="K288" s="27" t="s">
-        <v>368</v>
+      <c r="K288" s="29" t="s">
+        <v>369</v>
       </c>
       <c r="L288" s="7"/>
       <c r="M288" s="7"/>
@@ -15035,28 +15051,28 @@
         <v>287</v>
       </c>
       <c r="B289" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C289" s="28">
+        <v>371</v>
+      </c>
+      <c r="C289" s="30">
         <v>43946.0</v>
       </c>
-      <c r="D289" s="29">
+      <c r="D289" s="31">
         <v>43946.0</v>
       </c>
       <c r="E289" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F289" s="30" t="s">
+      <c r="F289" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G289" s="8"/>
-      <c r="H289" s="30" t="s">
-        <v>363</v>
+      <c r="H289" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I289" s="12"/>
       <c r="J289" s="13"/>
-      <c r="K289" s="27" t="s">
-        <v>371</v>
+      <c r="K289" s="29" t="s">
+        <v>372</v>
       </c>
       <c r="L289" s="7"/>
       <c r="M289" s="7"/>
@@ -15080,28 +15096,28 @@
         <v>288</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C290" s="28">
+        <v>371</v>
+      </c>
+      <c r="C290" s="30">
         <v>43946.0</v>
       </c>
-      <c r="D290" s="29">
+      <c r="D290" s="31">
         <v>43946.0</v>
       </c>
       <c r="E290" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F290" s="30" t="s">
+      <c r="F290" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G290" s="8"/>
-      <c r="H290" s="30" t="s">
-        <v>363</v>
+      <c r="H290" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I290" s="12"/>
       <c r="J290" s="13"/>
-      <c r="K290" s="27" t="s">
-        <v>371</v>
+      <c r="K290" s="29" t="s">
+        <v>372</v>
       </c>
       <c r="L290" s="7"/>
       <c r="M290" s="7"/>
@@ -15125,28 +15141,28 @@
         <v>289</v>
       </c>
       <c r="B291" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C291" s="28">
+        <v>371</v>
+      </c>
+      <c r="C291" s="30">
         <v>43946.0</v>
       </c>
-      <c r="D291" s="29">
+      <c r="D291" s="31">
         <v>43946.0</v>
       </c>
       <c r="E291" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F291" s="30" t="s">
+      <c r="F291" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G291" s="8"/>
-      <c r="H291" s="30" t="s">
-        <v>363</v>
+      <c r="H291" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I291" s="12"/>
       <c r="J291" s="13"/>
-      <c r="K291" s="27" t="s">
-        <v>371</v>
+      <c r="K291" s="29" t="s">
+        <v>372</v>
       </c>
       <c r="L291" s="7"/>
       <c r="M291" s="7"/>
@@ -15170,26 +15186,26 @@
         <v>290</v>
       </c>
       <c r="B292" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C292" s="28">
+        <v>371</v>
+      </c>
+      <c r="C292" s="30">
         <v>43946.0</v>
       </c>
-      <c r="D292" s="29">
+      <c r="D292" s="31">
         <v>43946.0</v>
       </c>
       <c r="E292" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F292" s="30" t="s">
+      <c r="F292" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G292" s="8"/>
-      <c r="H292" s="30"/>
+      <c r="H292" s="27"/>
       <c r="I292" s="12"/>
       <c r="J292" s="13"/>
-      <c r="K292" s="27" t="s">
-        <v>371</v>
+      <c r="K292" s="29" t="s">
+        <v>372</v>
       </c>
       <c r="L292" s="7"/>
       <c r="M292" s="7"/>
@@ -15213,28 +15229,28 @@
         <v>291</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="C293" s="28">
+        <v>373</v>
+      </c>
+      <c r="C293" s="30">
         <v>43947.0</v>
       </c>
-      <c r="D293" s="29">
+      <c r="D293" s="31">
         <v>43947.0</v>
       </c>
       <c r="E293" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F293" s="30" t="s">
+      <c r="F293" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G293" s="8"/>
-      <c r="H293" s="30" t="s">
-        <v>373</v>
+      <c r="H293" s="27" t="s">
+        <v>374</v>
       </c>
       <c r="I293" s="12"/>
       <c r="J293" s="13"/>
-      <c r="K293" s="27" t="s">
-        <v>374</v>
+      <c r="K293" s="29" t="s">
+        <v>375</v>
       </c>
       <c r="L293" s="7"/>
       <c r="M293" s="7"/>
@@ -15258,28 +15274,28 @@
         <v>292</v>
       </c>
       <c r="B294" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="C294" s="28">
+        <v>373</v>
+      </c>
+      <c r="C294" s="30">
         <v>43947.0</v>
       </c>
-      <c r="D294" s="29">
+      <c r="D294" s="31">
         <v>43947.0</v>
       </c>
       <c r="E294" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F294" s="30" t="s">
+      <c r="F294" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G294" s="8"/>
-      <c r="H294" s="30" t="s">
-        <v>373</v>
+      <c r="H294" s="27" t="s">
+        <v>374</v>
       </c>
       <c r="I294" s="12"/>
       <c r="J294" s="13"/>
-      <c r="K294" s="27" t="s">
-        <v>374</v>
+      <c r="K294" s="29" t="s">
+        <v>375</v>
       </c>
       <c r="L294" s="7"/>
       <c r="M294" s="7"/>
@@ -15303,26 +15319,26 @@
         <v>293</v>
       </c>
       <c r="B295" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="C295" s="28">
+        <v>373</v>
+      </c>
+      <c r="C295" s="30">
         <v>43947.0</v>
       </c>
-      <c r="D295" s="29">
+      <c r="D295" s="31">
         <v>43947.0</v>
       </c>
       <c r="E295" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F295" s="30" t="s">
+      <c r="F295" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G295" s="8"/>
       <c r="H295" s="12"/>
       <c r="I295" s="12"/>
       <c r="J295" s="13"/>
-      <c r="K295" s="27" t="s">
-        <v>374</v>
+      <c r="K295" s="29" t="s">
+        <v>375</v>
       </c>
       <c r="L295" s="7"/>
       <c r="M295" s="7"/>
@@ -15346,28 +15362,28 @@
         <v>294</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="C296" s="28">
+        <v>373</v>
+      </c>
+      <c r="C296" s="30">
         <v>43947.0</v>
       </c>
-      <c r="D296" s="29">
+      <c r="D296" s="31">
         <v>43947.0</v>
       </c>
       <c r="E296" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F296" s="30" t="s">
+      <c r="F296" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G296" s="8"/>
-      <c r="H296" s="30" t="s">
-        <v>363</v>
+      <c r="H296" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I296" s="12"/>
       <c r="J296" s="13"/>
-      <c r="K296" s="27" t="s">
-        <v>374</v>
+      <c r="K296" s="29" t="s">
+        <v>375</v>
       </c>
       <c r="L296" s="7"/>
       <c r="M296" s="7"/>
@@ -15391,26 +15407,26 @@
         <v>295</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C297" s="36">
+        <v>376</v>
+      </c>
+      <c r="C297" s="37">
         <v>43948.0</v>
       </c>
-      <c r="D297" s="29">
+      <c r="D297" s="31">
         <v>43948.0</v>
       </c>
       <c r="E297" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F297" s="33" t="s">
+      <c r="F297" s="34" t="s">
         <v>94</v>
       </c>
       <c r="G297" s="8"/>
       <c r="H297" s="12"/>
       <c r="I297" s="12"/>
       <c r="J297" s="13"/>
-      <c r="K297" s="35" t="s">
-        <v>376</v>
+      <c r="K297" s="36" t="s">
+        <v>377</v>
       </c>
       <c r="L297" s="7"/>
       <c r="M297" s="7"/>
@@ -15434,30 +15450,30 @@
         <v>296</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C298" s="36">
+        <v>376</v>
+      </c>
+      <c r="C298" s="37">
         <v>43948.0</v>
       </c>
-      <c r="D298" s="29">
+      <c r="D298" s="31">
         <v>43948.0</v>
       </c>
       <c r="E298" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F298" s="34" t="s">
+      <c r="F298" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G298" s="31">
+      <c r="G298" s="32">
         <v>285.0</v>
       </c>
-      <c r="H298" s="30" t="s">
-        <v>377</v>
+      <c r="H298" s="27" t="s">
+        <v>378</v>
       </c>
       <c r="I298" s="12"/>
       <c r="J298" s="13"/>
-      <c r="K298" s="35" t="s">
-        <v>376</v>
+      <c r="K298" s="36" t="s">
+        <v>377</v>
       </c>
       <c r="L298" s="7"/>
       <c r="M298" s="7"/>
@@ -15481,30 +15497,30 @@
         <v>297</v>
       </c>
       <c r="B299" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C299" s="36">
+        <v>376</v>
+      </c>
+      <c r="C299" s="37">
         <v>43948.0</v>
       </c>
-      <c r="D299" s="29">
+      <c r="D299" s="31">
         <v>43948.0</v>
       </c>
       <c r="E299" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F299" s="34" t="s">
+      <c r="F299" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G299" s="31">
+      <c r="G299" s="32">
         <v>296.0</v>
       </c>
-      <c r="H299" s="30" t="s">
-        <v>378</v>
+      <c r="H299" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="I299" s="12"/>
       <c r="J299" s="13"/>
-      <c r="K299" s="35" t="s">
-        <v>376</v>
+      <c r="K299" s="36" t="s">
+        <v>377</v>
       </c>
       <c r="L299" s="7"/>
       <c r="M299" s="7"/>
@@ -15528,28 +15544,28 @@
         <v>298</v>
       </c>
       <c r="B300" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C300" s="36">
+        <v>376</v>
+      </c>
+      <c r="C300" s="37">
         <v>43948.0</v>
       </c>
-      <c r="D300" s="29">
+      <c r="D300" s="31">
         <v>43948.0</v>
       </c>
       <c r="E300" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="F300" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F300" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G300" s="8"/>
-      <c r="H300" s="30" t="s">
-        <v>379</v>
+      <c r="H300" s="27" t="s">
+        <v>380</v>
       </c>
       <c r="I300" s="12"/>
       <c r="J300" s="13"/>
-      <c r="K300" s="27" t="s">
-        <v>380</v>
+      <c r="K300" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
@@ -15573,28 +15589,28 @@
         <v>299</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C301" s="36">
+        <v>376</v>
+      </c>
+      <c r="C301" s="37">
         <v>43948.0</v>
       </c>
-      <c r="D301" s="29">
+      <c r="D301" s="31">
         <v>43948.0</v>
       </c>
       <c r="E301" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F301" s="30" t="s">
+      <c r="F301" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G301" s="8"/>
-      <c r="H301" s="30" t="s">
-        <v>379</v>
+      <c r="H301" s="27" t="s">
+        <v>380</v>
       </c>
       <c r="I301" s="12"/>
       <c r="J301" s="13"/>
-      <c r="K301" s="27" t="s">
-        <v>380</v>
+      <c r="K301" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="L301" s="7"/>
       <c r="M301" s="7"/>
@@ -15618,28 +15634,28 @@
         <v>300</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C302" s="36">
+        <v>376</v>
+      </c>
+      <c r="C302" s="37">
         <v>43948.0</v>
       </c>
-      <c r="D302" s="29">
+      <c r="D302" s="31">
         <v>43948.0</v>
       </c>
       <c r="E302" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F302" s="30" t="s">
+      <c r="F302" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G302" s="8"/>
-      <c r="H302" s="30" t="s">
-        <v>381</v>
+      <c r="H302" s="27" t="s">
+        <v>382</v>
       </c>
       <c r="I302" s="12"/>
       <c r="J302" s="13"/>
-      <c r="K302" s="27" t="s">
-        <v>380</v>
+      <c r="K302" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="L302" s="7"/>
       <c r="M302" s="7"/>
@@ -15663,28 +15679,28 @@
         <v>301</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C303" s="36">
+        <v>376</v>
+      </c>
+      <c r="C303" s="37">
         <v>43948.0</v>
       </c>
-      <c r="D303" s="29">
+      <c r="D303" s="31">
         <v>43948.0</v>
       </c>
       <c r="E303" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F303" s="30" t="s">
+      <c r="F303" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G303" s="8"/>
-      <c r="H303" s="30" t="s">
-        <v>381</v>
+      <c r="H303" s="27" t="s">
+        <v>382</v>
       </c>
       <c r="I303" s="12"/>
       <c r="J303" s="13"/>
-      <c r="K303" s="27" t="s">
-        <v>380</v>
+      <c r="K303" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="L303" s="7"/>
       <c r="M303" s="7"/>
@@ -15708,28 +15724,28 @@
         <v>302</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C304" s="36">
+        <v>376</v>
+      </c>
+      <c r="C304" s="37">
         <v>43948.0</v>
       </c>
-      <c r="D304" s="29">
+      <c r="D304" s="31">
         <v>43948.0</v>
       </c>
       <c r="E304" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F304" s="30" t="s">
+      <c r="F304" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G304" s="8"/>
-      <c r="H304" s="30" t="s">
-        <v>381</v>
+      <c r="H304" s="27" t="s">
+        <v>382</v>
       </c>
       <c r="I304" s="12"/>
       <c r="J304" s="13"/>
-      <c r="K304" s="27" t="s">
-        <v>380</v>
+      <c r="K304" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="L304" s="7"/>
       <c r="M304" s="7"/>
@@ -15753,28 +15769,28 @@
         <v>303</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C305" s="36">
+        <v>376</v>
+      </c>
+      <c r="C305" s="37">
         <v>43948.0</v>
       </c>
-      <c r="D305" s="29">
+      <c r="D305" s="31">
         <v>43948.0</v>
       </c>
       <c r="E305" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F305" s="30" t="s">
+      <c r="F305" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G305" s="8"/>
-      <c r="H305" s="30" t="s">
-        <v>379</v>
+      <c r="H305" s="27" t="s">
+        <v>380</v>
       </c>
       <c r="I305" s="12"/>
       <c r="J305" s="13"/>
-      <c r="K305" s="27" t="s">
-        <v>380</v>
+      <c r="K305" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="L305" s="7"/>
       <c r="M305" s="7"/>
@@ -15798,28 +15814,28 @@
         <v>304</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C306" s="36">
+        <v>376</v>
+      </c>
+      <c r="C306" s="37">
         <v>43948.0</v>
       </c>
-      <c r="D306" s="29">
+      <c r="D306" s="31">
         <v>43948.0</v>
       </c>
       <c r="E306" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F306" s="30" t="s">
+      <c r="F306" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G306" s="8"/>
-      <c r="H306" s="30" t="s">
-        <v>382</v>
+      <c r="H306" s="27" t="s">
+        <v>383</v>
       </c>
       <c r="I306" s="12"/>
       <c r="J306" s="13"/>
-      <c r="K306" s="27" t="s">
-        <v>380</v>
+      <c r="K306" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="L306" s="7"/>
       <c r="M306" s="7"/>
@@ -15843,28 +15859,28 @@
         <v>305</v>
       </c>
       <c r="B307" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C307" s="36">
+        <v>376</v>
+      </c>
+      <c r="C307" s="37">
         <v>43948.0</v>
       </c>
-      <c r="D307" s="29">
+      <c r="D307" s="31">
         <v>43948.0</v>
       </c>
       <c r="E307" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F307" s="30" t="s">
+      <c r="F307" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G307" s="8"/>
-      <c r="H307" s="30" t="s">
-        <v>382</v>
+      <c r="H307" s="27" t="s">
+        <v>383</v>
       </c>
       <c r="I307" s="12"/>
       <c r="J307" s="13"/>
-      <c r="K307" s="27" t="s">
-        <v>380</v>
+      <c r="K307" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="L307" s="7"/>
       <c r="M307" s="7"/>
@@ -15888,28 +15904,28 @@
         <v>306</v>
       </c>
       <c r="B308" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C308" s="36">
+        <v>376</v>
+      </c>
+      <c r="C308" s="37">
         <v>43948.0</v>
       </c>
-      <c r="D308" s="29">
+      <c r="D308" s="31">
         <v>43948.0</v>
       </c>
       <c r="E308" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F308" s="30" t="s">
+      <c r="F308" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G308" s="8"/>
-      <c r="H308" s="30" t="s">
-        <v>382</v>
+      <c r="H308" s="27" t="s">
+        <v>383</v>
       </c>
       <c r="I308" s="12"/>
       <c r="J308" s="13"/>
-      <c r="K308" s="27" t="s">
-        <v>380</v>
+      <c r="K308" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="L308" s="7"/>
       <c r="M308" s="7"/>
@@ -15933,28 +15949,28 @@
         <v>307</v>
       </c>
       <c r="B309" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C309" s="36">
+        <v>376</v>
+      </c>
+      <c r="C309" s="37">
         <v>43948.0</v>
       </c>
-      <c r="D309" s="29">
+      <c r="D309" s="31">
         <v>43948.0</v>
       </c>
       <c r="E309" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F309" s="30" t="s">
+      <c r="F309" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G309" s="8"/>
-      <c r="H309" s="30" t="s">
-        <v>383</v>
+      <c r="H309" s="27" t="s">
+        <v>384</v>
       </c>
       <c r="I309" s="12"/>
       <c r="J309" s="13"/>
-      <c r="K309" s="27" t="s">
-        <v>380</v>
+      <c r="K309" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="L309" s="7"/>
       <c r="M309" s="7"/>
@@ -15978,26 +15994,26 @@
         <v>308</v>
       </c>
       <c r="B310" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C310" s="36">
+        <v>376</v>
+      </c>
+      <c r="C310" s="37">
         <v>43948.0</v>
       </c>
-      <c r="D310" s="29">
+      <c r="D310" s="31">
         <v>43948.0</v>
       </c>
       <c r="E310" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F310" s="30" t="s">
+      <c r="F310" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G310" s="8"/>
       <c r="H310" s="12"/>
       <c r="I310" s="12"/>
       <c r="J310" s="13"/>
-      <c r="K310" s="27" t="s">
-        <v>380</v>
+      <c r="K310" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="L310" s="7"/>
       <c r="M310" s="7"/>
@@ -16021,26 +16037,26 @@
         <v>309</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C311" s="36">
+        <v>376</v>
+      </c>
+      <c r="C311" s="37">
         <v>43948.0</v>
       </c>
-      <c r="D311" s="29">
+      <c r="D311" s="31">
         <v>43948.0</v>
       </c>
       <c r="E311" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F311" s="30" t="s">
+      <c r="F311" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G311" s="8"/>
       <c r="H311" s="12"/>
       <c r="I311" s="12"/>
       <c r="J311" s="13"/>
-      <c r="K311" s="27" t="s">
-        <v>380</v>
+      <c r="K311" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="L311" s="7"/>
       <c r="M311" s="7"/>
@@ -16064,32 +16080,32 @@
         <v>310</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="C312" s="36">
+        <v>385</v>
+      </c>
+      <c r="C312" s="37">
         <v>43949.0</v>
       </c>
-      <c r="D312" s="29">
+      <c r="D312" s="31">
         <v>43949.0</v>
       </c>
       <c r="E312" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="F312" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="F312" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G312" s="31">
+      <c r="G312" s="32">
         <v>296.0</v>
       </c>
-      <c r="H312" s="30" t="s">
-        <v>378</v>
+      <c r="H312" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="I312" s="12"/>
       <c r="J312" s="18">
         <v>43963.0</v>
       </c>
-      <c r="K312" s="27" t="s">
-        <v>386</v>
+      <c r="K312" s="29" t="s">
+        <v>387</v>
       </c>
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
@@ -16113,30 +16129,30 @@
         <v>311</v>
       </c>
       <c r="B313" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="C313" s="36">
+        <v>385</v>
+      </c>
+      <c r="C313" s="37">
         <v>43949.0</v>
       </c>
-      <c r="D313" s="29">
+      <c r="D313" s="31">
         <v>43949.0</v>
       </c>
       <c r="E313" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F313" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="G313" s="31">
+      <c r="F313" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="G313" s="32">
         <v>285.0</v>
       </c>
-      <c r="H313" s="30" t="s">
-        <v>377</v>
+      <c r="H313" s="27" t="s">
+        <v>378</v>
       </c>
       <c r="I313" s="12"/>
       <c r="J313" s="13"/>
-      <c r="K313" s="27" t="s">
-        <v>386</v>
+      <c r="K313" s="29" t="s">
+        <v>387</v>
       </c>
       <c r="L313" s="7"/>
       <c r="M313" s="7"/>
@@ -16160,33 +16176,33 @@
         <v>312</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="C314" s="36">
+        <v>385</v>
+      </c>
+      <c r="C314" s="37">
         <v>43949.0</v>
       </c>
-      <c r="D314" s="29">
+      <c r="D314" s="31">
         <v>43949.0</v>
       </c>
       <c r="E314" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F314" s="30" t="s">
+      <c r="F314" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G314" s="8"/>
-      <c r="H314" s="30" t="s">
-        <v>387</v>
+      <c r="H314" s="27" t="s">
+        <v>388</v>
       </c>
       <c r="I314" s="12"/>
       <c r="J314" s="18">
         <v>43952.0</v>
       </c>
-      <c r="K314" s="27" t="s">
-        <v>388</v>
+      <c r="K314" s="29" t="s">
+        <v>389</v>
       </c>
       <c r="L314" s="26" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M314" s="7"/>
       <c r="N314" s="7"/>
@@ -16209,30 +16225,30 @@
         <v>313</v>
       </c>
       <c r="B315" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="C315" s="36">
+        <v>385</v>
+      </c>
+      <c r="C315" s="37">
         <v>43949.0</v>
       </c>
-      <c r="D315" s="29">
+      <c r="D315" s="31">
         <v>43949.0</v>
       </c>
       <c r="E315" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F315" s="30" t="s">
+      <c r="F315" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G315" s="8"/>
-      <c r="H315" s="30" t="s">
-        <v>363</v>
+      <c r="H315" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I315" s="12"/>
       <c r="J315" s="18">
         <v>43964.0</v>
       </c>
-      <c r="K315" s="27" t="s">
-        <v>388</v>
+      <c r="K315" s="29" t="s">
+        <v>389</v>
       </c>
       <c r="L315" s="7"/>
       <c r="M315" s="7"/>
@@ -16256,19 +16272,19 @@
         <v>314</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="C316" s="36">
+        <v>391</v>
+      </c>
+      <c r="C316" s="37">
         <v>43950.0</v>
       </c>
-      <c r="D316" s="29">
+      <c r="D316" s="31">
         <v>43950.0</v>
       </c>
       <c r="E316" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F316" s="30" t="s">
-        <v>391</v>
+      <c r="F316" s="27" t="s">
+        <v>392</v>
       </c>
       <c r="G316" s="8"/>
       <c r="H316" s="12"/>
@@ -16276,8 +16292,8 @@
       <c r="J316" s="18">
         <v>43966.0</v>
       </c>
-      <c r="K316" s="27" t="s">
-        <v>392</v>
+      <c r="K316" s="29" t="s">
+        <v>393</v>
       </c>
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
@@ -16301,30 +16317,30 @@
         <v>315</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="C317" s="36">
+        <v>391</v>
+      </c>
+      <c r="C317" s="37">
         <v>43950.0</v>
       </c>
-      <c r="D317" s="29">
+      <c r="D317" s="31">
         <v>43950.0</v>
       </c>
       <c r="E317" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F317" s="30" t="s">
+      <c r="F317" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G317" s="8"/>
-      <c r="H317" s="30" t="s">
-        <v>393</v>
+      <c r="H317" s="27" t="s">
+        <v>394</v>
       </c>
       <c r="I317" s="12"/>
       <c r="J317" s="18">
         <v>43958.0</v>
       </c>
-      <c r="K317" s="27" t="s">
-        <v>394</v>
+      <c r="K317" s="29" t="s">
+        <v>395</v>
       </c>
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
@@ -16348,28 +16364,28 @@
         <v>316</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="C318" s="36">
+        <v>391</v>
+      </c>
+      <c r="C318" s="37">
         <v>43950.0</v>
       </c>
-      <c r="D318" s="29">
+      <c r="D318" s="31">
         <v>43950.0</v>
       </c>
       <c r="E318" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="F318" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="F318" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G318" s="8"/>
-      <c r="H318" s="30" t="s">
-        <v>363</v>
+      <c r="H318" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I318" s="12"/>
       <c r="J318" s="13"/>
-      <c r="K318" s="27" t="s">
-        <v>394</v>
+      <c r="K318" s="29" t="s">
+        <v>395</v>
       </c>
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
@@ -16393,28 +16409,28 @@
         <v>317</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="C319" s="36">
+        <v>391</v>
+      </c>
+      <c r="C319" s="37">
         <v>43950.0</v>
       </c>
-      <c r="D319" s="29">
+      <c r="D319" s="31">
         <v>43950.0</v>
       </c>
       <c r="E319" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F319" s="30" t="s">
+      <c r="F319" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G319" s="8"/>
-      <c r="H319" s="30" t="s">
-        <v>363</v>
+      <c r="H319" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I319" s="12"/>
       <c r="J319" s="13"/>
-      <c r="K319" s="27" t="s">
-        <v>394</v>
+      <c r="K319" s="29" t="s">
+        <v>395</v>
       </c>
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
@@ -16438,28 +16454,28 @@
         <v>318</v>
       </c>
       <c r="B320" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="C320" s="36">
+        <v>397</v>
+      </c>
+      <c r="C320" s="37">
         <v>43951.0</v>
       </c>
-      <c r="D320" s="29">
+      <c r="D320" s="31">
         <v>43951.0</v>
       </c>
       <c r="E320" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F320" s="30" t="s">
-        <v>361</v>
+      <c r="F320" s="27" t="s">
+        <v>362</v>
       </c>
       <c r="G320" s="8"/>
-      <c r="H320" s="30" t="s">
-        <v>363</v>
+      <c r="H320" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I320" s="12"/>
       <c r="J320" s="13"/>
-      <c r="K320" s="27" t="s">
-        <v>397</v>
+      <c r="K320" s="29" t="s">
+        <v>398</v>
       </c>
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
@@ -16483,30 +16499,30 @@
         <v>319</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="C321" s="36">
+        <v>397</v>
+      </c>
+      <c r="C321" s="37">
         <v>43951.0</v>
       </c>
-      <c r="D321" s="29">
+      <c r="D321" s="31">
         <v>43951.0</v>
       </c>
       <c r="E321" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F321" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="G321" s="31">
+      <c r="F321" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="G321" s="32">
         <v>318.0</v>
       </c>
-      <c r="H321" s="30" t="s">
-        <v>398</v>
+      <c r="H321" s="27" t="s">
+        <v>399</v>
       </c>
       <c r="I321" s="12"/>
       <c r="J321" s="13"/>
-      <c r="K321" s="27" t="s">
-        <v>397</v>
+      <c r="K321" s="29" t="s">
+        <v>398</v>
       </c>
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
@@ -16530,32 +16546,32 @@
         <v>320</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="C322" s="36">
+        <v>397</v>
+      </c>
+      <c r="C322" s="37">
         <v>43951.0</v>
       </c>
-      <c r="D322" s="29">
+      <c r="D322" s="31">
         <v>43951.0</v>
       </c>
       <c r="E322" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F322" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="G322" s="31">
+      <c r="F322" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="G322" s="32">
         <v>318.0</v>
       </c>
-      <c r="H322" s="30" t="s">
-        <v>398</v>
+      <c r="H322" s="27" t="s">
+        <v>399</v>
       </c>
       <c r="I322" s="12"/>
       <c r="J322" s="18">
         <v>43962.0</v>
       </c>
-      <c r="K322" s="27" t="s">
-        <v>397</v>
+      <c r="K322" s="29" t="s">
+        <v>398</v>
       </c>
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
@@ -16579,32 +16595,32 @@
         <v>321</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="C323" s="36">
+        <v>400</v>
+      </c>
+      <c r="C323" s="37">
         <v>43952.0</v>
       </c>
-      <c r="D323" s="29">
+      <c r="D323" s="31">
         <v>43952.0</v>
       </c>
       <c r="E323" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F323" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="G323" s="31">
+      <c r="F323" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="G323" s="32">
         <v>314.0</v>
       </c>
-      <c r="H323" s="30" t="s">
-        <v>400</v>
+      <c r="H323" s="27" t="s">
+        <v>401</v>
       </c>
       <c r="I323" s="12"/>
       <c r="J323" s="18">
         <v>43970.0</v>
       </c>
-      <c r="K323" s="27" t="s">
-        <v>401</v>
+      <c r="K323" s="29" t="s">
+        <v>402</v>
       </c>
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
@@ -16628,32 +16644,32 @@
         <v>322</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="C324" s="36">
+        <v>400</v>
+      </c>
+      <c r="C324" s="37">
         <v>43952.0</v>
       </c>
-      <c r="D324" s="29">
+      <c r="D324" s="31">
         <v>43952.0</v>
       </c>
       <c r="E324" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F324" s="30" t="s">
+      <c r="F324" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G324" s="31">
+      <c r="G324" s="32">
         <v>276.0</v>
       </c>
-      <c r="H324" s="30" t="s">
-        <v>402</v>
+      <c r="H324" s="27" t="s">
+        <v>403</v>
       </c>
       <c r="I324" s="12"/>
       <c r="J324" s="18">
         <v>43964.0</v>
       </c>
-      <c r="K324" s="27" t="s">
-        <v>401</v>
+      <c r="K324" s="29" t="s">
+        <v>402</v>
       </c>
       <c r="L324" s="7"/>
       <c r="M324" s="7"/>
@@ -16677,18 +16693,18 @@
         <v>323</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="C325" s="36">
+        <v>400</v>
+      </c>
+      <c r="C325" s="37">
         <v>43952.0</v>
       </c>
-      <c r="D325" s="29">
+      <c r="D325" s="31">
         <v>43952.0</v>
       </c>
       <c r="E325" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F325" s="30" t="s">
+      <c r="F325" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G325" s="8"/>
@@ -16720,18 +16736,18 @@
         <v>324</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="C326" s="36">
+        <v>400</v>
+      </c>
+      <c r="C326" s="37">
         <v>43952.0</v>
       </c>
-      <c r="D326" s="29">
+      <c r="D326" s="31">
         <v>43952.0</v>
       </c>
       <c r="E326" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F326" s="30" t="s">
+      <c r="F326" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G326" s="8"/>
@@ -16761,30 +16777,30 @@
         <v>325</v>
       </c>
       <c r="B327" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="C327" s="36">
+        <v>404</v>
+      </c>
+      <c r="C327" s="37">
         <v>43953.0</v>
       </c>
-      <c r="D327" s="29">
+      <c r="D327" s="31">
         <v>43953.0</v>
       </c>
       <c r="E327" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F327" s="30" t="s">
+      <c r="F327" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G327" s="8"/>
-      <c r="H327" s="30" t="s">
-        <v>363</v>
+      <c r="H327" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I327" s="12"/>
       <c r="J327" s="18">
         <v>43967.0</v>
       </c>
-      <c r="K327" s="27" t="s">
-        <v>404</v>
+      <c r="K327" s="29" t="s">
+        <v>405</v>
       </c>
       <c r="L327" s="7"/>
       <c r="M327" s="7"/>
@@ -16808,30 +16824,30 @@
         <v>326</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="C328" s="36">
+        <v>404</v>
+      </c>
+      <c r="C328" s="37">
         <v>43953.0</v>
       </c>
-      <c r="D328" s="29">
+      <c r="D328" s="31">
         <v>43953.0</v>
       </c>
       <c r="E328" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F328" s="30" t="s">
+      <c r="F328" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G328" s="8"/>
-      <c r="H328" s="30" t="s">
-        <v>363</v>
+      <c r="H328" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I328" s="12"/>
       <c r="J328" s="18">
         <v>43967.0</v>
       </c>
-      <c r="K328" s="27" t="s">
-        <v>404</v>
+      <c r="K328" s="29" t="s">
+        <v>405</v>
       </c>
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
@@ -16855,30 +16871,30 @@
         <v>327</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="C329" s="36">
+        <v>404</v>
+      </c>
+      <c r="C329" s="37">
         <v>43953.0</v>
       </c>
-      <c r="D329" s="29">
+      <c r="D329" s="31">
         <v>43953.0</v>
       </c>
       <c r="E329" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F329" s="30" t="s">
+      <c r="F329" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G329" s="8"/>
-      <c r="H329" s="30" t="s">
-        <v>363</v>
+      <c r="H329" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I329" s="12"/>
       <c r="J329" s="18">
         <v>43967.0</v>
       </c>
-      <c r="K329" s="27" t="s">
-        <v>404</v>
+      <c r="K329" s="29" t="s">
+        <v>405</v>
       </c>
       <c r="L329" s="7"/>
       <c r="M329" s="7"/>
@@ -16902,30 +16918,30 @@
         <v>328</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="C330" s="36">
+        <v>404</v>
+      </c>
+      <c r="C330" s="37">
         <v>43953.0</v>
       </c>
-      <c r="D330" s="29">
+      <c r="D330" s="31">
         <v>43953.0</v>
       </c>
       <c r="E330" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F330" s="30" t="s">
+      <c r="F330" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G330" s="8"/>
-      <c r="H330" s="30" t="s">
-        <v>405</v>
+      <c r="H330" s="27" t="s">
+        <v>406</v>
       </c>
       <c r="I330" s="12"/>
       <c r="J330" s="18">
         <v>43967.0</v>
       </c>
-      <c r="K330" s="27" t="s">
-        <v>404</v>
+      <c r="K330" s="29" t="s">
+        <v>405</v>
       </c>
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
@@ -16949,26 +16965,26 @@
         <v>329</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="C331" s="36">
+        <v>404</v>
+      </c>
+      <c r="C331" s="37">
         <v>43953.0</v>
       </c>
-      <c r="D331" s="29">
+      <c r="D331" s="31">
         <v>43953.0</v>
       </c>
       <c r="E331" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F331" s="30" t="s">
+      <c r="F331" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G331" s="8"/>
-      <c r="H331" s="30"/>
+      <c r="H331" s="27"/>
       <c r="I331" s="12"/>
       <c r="J331" s="13"/>
-      <c r="K331" s="27" t="s">
-        <v>404</v>
+      <c r="K331" s="29" t="s">
+        <v>405</v>
       </c>
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
@@ -16992,26 +17008,26 @@
         <v>330</v>
       </c>
       <c r="B332" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="C332" s="36">
+        <v>407</v>
+      </c>
+      <c r="C332" s="37">
         <v>43954.0</v>
       </c>
-      <c r="D332" s="29">
+      <c r="D332" s="31">
         <v>43954.0</v>
       </c>
       <c r="E332" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F332" s="30" t="s">
-        <v>325</v>
+      <c r="F332" s="27" t="s">
+        <v>327</v>
       </c>
       <c r="G332" s="8"/>
       <c r="H332" s="12"/>
       <c r="I332" s="12"/>
       <c r="J332" s="13"/>
-      <c r="K332" s="27" t="s">
-        <v>407</v>
+      <c r="K332" s="29" t="s">
+        <v>408</v>
       </c>
       <c r="L332" s="7"/>
       <c r="M332" s="7"/>
@@ -17035,30 +17051,30 @@
         <v>331</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="C333" s="36">
+        <v>407</v>
+      </c>
+      <c r="C333" s="37">
         <v>43954.0</v>
       </c>
-      <c r="D333" s="29">
+      <c r="D333" s="31">
         <v>43954.0</v>
       </c>
       <c r="E333" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="F333" s="30" t="s">
+      <c r="F333" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G333" s="8"/>
-      <c r="H333" s="30" t="s">
-        <v>363</v>
+      <c r="H333" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I333" s="12"/>
       <c r="J333" s="18">
         <v>43962.0</v>
       </c>
-      <c r="K333" s="27" t="s">
-        <v>408</v>
+      <c r="K333" s="29" t="s">
+        <v>409</v>
       </c>
       <c r="L333" s="7"/>
       <c r="M333" s="7"/>
@@ -17082,28 +17098,28 @@
         <v>332</v>
       </c>
       <c r="B334" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="C334" s="36">
+        <v>410</v>
+      </c>
+      <c r="C334" s="37">
         <v>43955.0</v>
       </c>
-      <c r="D334" s="29">
+      <c r="D334" s="31">
         <v>43955.0</v>
       </c>
       <c r="E334" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F334" s="30" t="s">
+      <c r="F334" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G334" s="8"/>
       <c r="H334" s="12"/>
       <c r="I334" s="12"/>
-      <c r="J334" s="37">
+      <c r="J334" s="38">
         <v>43968.0</v>
       </c>
-      <c r="K334" s="27" t="s">
-        <v>410</v>
+      <c r="K334" s="29" t="s">
+        <v>411</v>
       </c>
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
@@ -17127,30 +17143,30 @@
         <v>333</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="C335" s="36">
+        <v>410</v>
+      </c>
+      <c r="C335" s="37">
         <v>43955.0</v>
       </c>
-      <c r="D335" s="29">
+      <c r="D335" s="31">
         <v>43955.0</v>
       </c>
       <c r="E335" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F335" s="30" t="s">
+      <c r="F335" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G335" s="8"/>
-      <c r="H335" s="30" t="s">
+      <c r="H335" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="I335" s="12"/>
+      <c r="J335" s="38">
+        <v>43968.0</v>
+      </c>
+      <c r="K335" s="29" t="s">
         <v>411</v>
-      </c>
-      <c r="I335" s="12"/>
-      <c r="J335" s="37">
-        <v>43968.0</v>
-      </c>
-      <c r="K335" s="27" t="s">
-        <v>410</v>
       </c>
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
@@ -17174,28 +17190,28 @@
         <v>334</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="C336" s="36">
+        <v>410</v>
+      </c>
+      <c r="C336" s="37">
         <v>43955.0</v>
       </c>
-      <c r="D336" s="29">
+      <c r="D336" s="31">
         <v>43955.0</v>
       </c>
       <c r="E336" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F336" s="30" t="s">
+      <c r="F336" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G336" s="8"/>
-      <c r="H336" s="30" t="s">
-        <v>363</v>
+      <c r="H336" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I336" s="12"/>
       <c r="J336" s="13"/>
-      <c r="K336" s="27" t="s">
-        <v>410</v>
+      <c r="K336" s="29" t="s">
+        <v>411</v>
       </c>
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
@@ -17219,30 +17235,30 @@
         <v>335</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="C337" s="36">
+        <v>413</v>
+      </c>
+      <c r="C337" s="37">
         <v>43956.0</v>
       </c>
-      <c r="D337" s="29">
+      <c r="D337" s="31">
         <v>43956.0</v>
       </c>
       <c r="E337" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F337" s="30" t="s">
+      <c r="F337" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G337" s="8"/>
-      <c r="H337" s="30" t="s">
-        <v>363</v>
+      <c r="H337" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I337" s="12"/>
       <c r="J337" s="18">
         <v>43970.0</v>
       </c>
-      <c r="K337" s="27" t="s">
-        <v>413</v>
+      <c r="K337" s="29" t="s">
+        <v>414</v>
       </c>
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
@@ -17266,30 +17282,30 @@
         <v>336</v>
       </c>
       <c r="B338" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="C338" s="36">
+        <v>413</v>
+      </c>
+      <c r="C338" s="37">
         <v>43956.0</v>
       </c>
-      <c r="D338" s="29">
+      <c r="D338" s="31">
         <v>43956.0</v>
       </c>
       <c r="E338" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F338" s="30" t="s">
+      <c r="F338" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G338" s="8"/>
-      <c r="H338" s="30" t="s">
-        <v>363</v>
+      <c r="H338" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I338" s="12"/>
       <c r="J338" s="18">
         <v>43970.0</v>
       </c>
-      <c r="K338" s="27" t="s">
-        <v>413</v>
+      <c r="K338" s="29" t="s">
+        <v>414</v>
       </c>
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
@@ -17313,28 +17329,28 @@
         <v>337</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="C339" s="36">
+        <v>413</v>
+      </c>
+      <c r="C339" s="37">
         <v>43956.0</v>
       </c>
-      <c r="D339" s="29">
+      <c r="D339" s="31">
         <v>43956.0</v>
       </c>
       <c r="E339" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="F339" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F339" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G339" s="8"/>
-      <c r="H339" s="30" t="s">
-        <v>363</v>
+      <c r="H339" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I339" s="12"/>
       <c r="J339" s="13"/>
-      <c r="K339" s="27" t="s">
-        <v>413</v>
+      <c r="K339" s="29" t="s">
+        <v>414</v>
       </c>
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
@@ -17358,28 +17374,28 @@
         <v>338</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="C340" s="36">
+        <v>413</v>
+      </c>
+      <c r="C340" s="37">
         <v>43956.0</v>
       </c>
-      <c r="D340" s="29">
+      <c r="D340" s="31">
         <v>43956.0</v>
       </c>
       <c r="E340" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F340" s="30" t="s">
+      <c r="F340" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G340" s="8"/>
-      <c r="H340" s="30" t="s">
-        <v>363</v>
+      <c r="H340" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I340" s="12"/>
       <c r="J340" s="13"/>
-      <c r="K340" s="27" t="s">
-        <v>413</v>
+      <c r="K340" s="29" t="s">
+        <v>414</v>
       </c>
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
@@ -17403,30 +17419,30 @@
         <v>339</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="C341" s="36">
+        <v>415</v>
+      </c>
+      <c r="C341" s="37">
         <v>43957.0</v>
       </c>
-      <c r="D341" s="29">
+      <c r="D341" s="31">
         <v>43957.0</v>
       </c>
       <c r="E341" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="F341" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="F341" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G341" s="8"/>
-      <c r="H341" s="30" t="s">
-        <v>363</v>
+      <c r="H341" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I341" s="12"/>
       <c r="J341" s="18">
         <v>43964.0</v>
       </c>
-      <c r="K341" s="38" t="s">
-        <v>416</v>
+      <c r="K341" s="39" t="s">
+        <v>417</v>
       </c>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
@@ -17450,28 +17466,28 @@
         <v>340</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="C342" s="36">
+        <v>415</v>
+      </c>
+      <c r="C342" s="37">
         <v>43957.0</v>
       </c>
-      <c r="D342" s="29">
+      <c r="D342" s="31">
         <v>43957.0</v>
       </c>
       <c r="E342" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F342" s="30" t="s">
+      <c r="F342" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G342" s="8"/>
-      <c r="H342" s="30" t="s">
-        <v>363</v>
+      <c r="H342" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I342" s="12"/>
       <c r="J342" s="13"/>
-      <c r="K342" s="38" t="s">
-        <v>416</v>
+      <c r="K342" s="39" t="s">
+        <v>417</v>
       </c>
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
@@ -17495,30 +17511,30 @@
         <v>341</v>
       </c>
       <c r="B343" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="C343" s="36">
+        <v>415</v>
+      </c>
+      <c r="C343" s="37">
         <v>43957.0</v>
       </c>
-      <c r="D343" s="29">
+      <c r="D343" s="31">
         <v>43957.0</v>
       </c>
       <c r="E343" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F343" s="30" t="s">
+      <c r="F343" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G343" s="8"/>
-      <c r="H343" s="30" t="s">
-        <v>417</v>
+      <c r="H343" s="27" t="s">
+        <v>418</v>
       </c>
       <c r="I343" s="12"/>
       <c r="J343" s="18">
         <v>43964.0</v>
       </c>
-      <c r="K343" s="38" t="s">
-        <v>416</v>
+      <c r="K343" s="39" t="s">
+        <v>417</v>
       </c>
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
@@ -17542,30 +17558,30 @@
         <v>342</v>
       </c>
       <c r="B344" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="C344" s="36">
+        <v>419</v>
+      </c>
+      <c r="C344" s="37">
         <v>43958.0</v>
       </c>
-      <c r="D344" s="29">
+      <c r="D344" s="31">
         <v>43958.0</v>
       </c>
       <c r="E344" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F344" s="30" t="s">
+      <c r="F344" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G344" s="8"/>
-      <c r="H344" s="30" t="s">
-        <v>363</v>
+      <c r="H344" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I344" s="12"/>
       <c r="J344" s="18">
         <v>43961.0</v>
       </c>
-      <c r="K344" s="38" t="s">
-        <v>419</v>
+      <c r="K344" s="39" t="s">
+        <v>420</v>
       </c>
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
@@ -17589,28 +17605,28 @@
         <v>343</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="C345" s="36">
+        <v>419</v>
+      </c>
+      <c r="C345" s="37">
         <v>43958.0</v>
       </c>
-      <c r="D345" s="29">
+      <c r="D345" s="31">
         <v>43958.0</v>
       </c>
       <c r="E345" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F345" s="30" t="s">
+      <c r="F345" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G345" s="8"/>
-      <c r="H345" s="30" t="s">
-        <v>363</v>
+      <c r="H345" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I345" s="12"/>
       <c r="J345" s="13"/>
-      <c r="K345" s="38" t="s">
-        <v>419</v>
+      <c r="K345" s="39" t="s">
+        <v>420</v>
       </c>
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
@@ -17634,28 +17650,28 @@
         <v>344</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="C346" s="36">
+        <v>419</v>
+      </c>
+      <c r="C346" s="37">
         <v>43958.0</v>
       </c>
-      <c r="D346" s="29">
+      <c r="D346" s="31">
         <v>43958.0</v>
       </c>
       <c r="E346" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="F346" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F346" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G346" s="8"/>
-      <c r="H346" s="30" t="s">
-        <v>363</v>
+      <c r="H346" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I346" s="12"/>
       <c r="J346" s="13"/>
-      <c r="K346" s="38" t="s">
-        <v>419</v>
+      <c r="K346" s="39" t="s">
+        <v>420</v>
       </c>
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
@@ -17679,28 +17695,28 @@
         <v>345</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="C347" s="36">
+        <v>419</v>
+      </c>
+      <c r="C347" s="37">
         <v>43958.0</v>
       </c>
-      <c r="D347" s="29">
+      <c r="D347" s="31">
         <v>43958.0</v>
       </c>
       <c r="E347" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="F347" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F347" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G347" s="8"/>
-      <c r="H347" s="30" t="s">
-        <v>363</v>
+      <c r="H347" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I347" s="12"/>
       <c r="J347" s="13"/>
-      <c r="K347" s="38" t="s">
-        <v>419</v>
+      <c r="K347" s="39" t="s">
+        <v>420</v>
       </c>
       <c r="L347" s="7"/>
       <c r="M347" s="7"/>
@@ -17724,28 +17740,28 @@
         <v>346</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="C348" s="36">
+        <v>419</v>
+      </c>
+      <c r="C348" s="37">
         <v>43958.0</v>
       </c>
-      <c r="D348" s="29">
+      <c r="D348" s="31">
         <v>43958.0</v>
       </c>
       <c r="E348" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="F348" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F348" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G348" s="8"/>
-      <c r="H348" s="30" t="s">
-        <v>363</v>
+      <c r="H348" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I348" s="12"/>
       <c r="J348" s="13"/>
-      <c r="K348" s="38" t="s">
-        <v>419</v>
+      <c r="K348" s="39" t="s">
+        <v>420</v>
       </c>
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
@@ -17769,30 +17785,30 @@
         <v>347</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="C349" s="36">
+        <v>419</v>
+      </c>
+      <c r="C349" s="37">
         <v>43958.0</v>
       </c>
-      <c r="D349" s="29">
+      <c r="D349" s="31">
         <v>43958.0</v>
       </c>
       <c r="E349" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="F349" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F349" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G349" s="8"/>
-      <c r="H349" s="30" t="s">
-        <v>363</v>
+      <c r="H349" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I349" s="12"/>
       <c r="J349" s="18">
         <v>43965.0</v>
       </c>
-      <c r="K349" s="38" t="s">
-        <v>419</v>
+      <c r="K349" s="39" t="s">
+        <v>420</v>
       </c>
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
@@ -17816,30 +17832,30 @@
         <v>348</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="C350" s="36">
+        <v>421</v>
+      </c>
+      <c r="C350" s="37">
         <v>43959.0</v>
       </c>
-      <c r="D350" s="29">
+      <c r="D350" s="31">
         <v>43959.0</v>
       </c>
       <c r="E350" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F350" s="30" t="s">
+      <c r="F350" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G350" s="8"/>
-      <c r="H350" s="30" t="s">
-        <v>421</v>
+      <c r="H350" s="27" t="s">
+        <v>422</v>
       </c>
       <c r="I350" s="12"/>
       <c r="J350" s="18">
         <v>43970.0</v>
       </c>
-      <c r="K350" s="38" t="s">
-        <v>422</v>
+      <c r="K350" s="39" t="s">
+        <v>423</v>
       </c>
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
@@ -17863,28 +17879,28 @@
         <v>349</v>
       </c>
       <c r="B351" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="C351" s="36">
+        <v>424</v>
+      </c>
+      <c r="C351" s="37">
         <v>43960.0</v>
       </c>
-      <c r="D351" s="29">
+      <c r="D351" s="31">
         <v>43960.0</v>
       </c>
       <c r="E351" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F351" s="30" t="s">
+      <c r="F351" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G351" s="8"/>
-      <c r="H351" s="30" t="s">
-        <v>363</v>
+      <c r="H351" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I351" s="12"/>
       <c r="J351" s="13"/>
-      <c r="K351" s="38" t="s">
-        <v>424</v>
+      <c r="K351" s="39" t="s">
+        <v>425</v>
       </c>
       <c r="L351" s="7"/>
       <c r="M351" s="7"/>
@@ -17908,28 +17924,28 @@
         <v>350</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="C352" s="36">
+        <v>424</v>
+      </c>
+      <c r="C352" s="37">
         <v>43960.0</v>
       </c>
-      <c r="D352" s="29">
+      <c r="D352" s="31">
         <v>43960.0</v>
       </c>
       <c r="E352" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F352" s="30" t="s">
+      <c r="F352" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G352" s="8"/>
-      <c r="H352" s="30" t="s">
-        <v>425</v>
+      <c r="H352" s="27" t="s">
+        <v>426</v>
       </c>
       <c r="I352" s="12"/>
       <c r="J352" s="13"/>
-      <c r="K352" s="38" t="s">
-        <v>424</v>
+      <c r="K352" s="39" t="s">
+        <v>425</v>
       </c>
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
@@ -17953,28 +17969,28 @@
         <v>351</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="C353" s="36">
+        <v>424</v>
+      </c>
+      <c r="C353" s="37">
         <v>43960.0</v>
       </c>
-      <c r="D353" s="29">
+      <c r="D353" s="31">
         <v>43960.0</v>
       </c>
       <c r="E353" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F353" s="30" t="s">
+      <c r="F353" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G353" s="8"/>
-      <c r="H353" s="30" t="s">
-        <v>425</v>
+      <c r="H353" s="27" t="s">
+        <v>426</v>
       </c>
       <c r="I353" s="12"/>
       <c r="J353" s="13"/>
-      <c r="K353" s="38" t="s">
-        <v>424</v>
+      <c r="K353" s="39" t="s">
+        <v>425</v>
       </c>
       <c r="L353" s="7"/>
       <c r="M353" s="7"/>
@@ -17998,28 +18014,28 @@
         <v>352</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="C354" s="36">
+        <v>424</v>
+      </c>
+      <c r="C354" s="37">
         <v>43960.0</v>
       </c>
-      <c r="D354" s="29">
+      <c r="D354" s="31">
         <v>43960.0</v>
       </c>
       <c r="E354" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F354" s="30" t="s">
+      <c r="F354" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G354" s="8"/>
-      <c r="H354" s="30" t="s">
-        <v>363</v>
+      <c r="H354" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I354" s="12"/>
       <c r="J354" s="13"/>
-      <c r="K354" s="38" t="s">
-        <v>424</v>
+      <c r="K354" s="39" t="s">
+        <v>425</v>
       </c>
       <c r="L354" s="7"/>
       <c r="M354" s="7"/>
@@ -18043,28 +18059,28 @@
         <v>353</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="C355" s="36">
+        <v>427</v>
+      </c>
+      <c r="C355" s="37">
         <v>43963.0</v>
       </c>
-      <c r="D355" s="29">
+      <c r="D355" s="31">
         <v>43963.0</v>
       </c>
       <c r="E355" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F355" s="30" t="s">
+      <c r="F355" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G355" s="8"/>
-      <c r="H355" s="30" t="s">
-        <v>363</v>
+      <c r="H355" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I355" s="12"/>
       <c r="J355" s="13"/>
-      <c r="K355" s="27" t="s">
-        <v>427</v>
+      <c r="K355" s="29" t="s">
+        <v>428</v>
       </c>
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
@@ -18088,28 +18104,28 @@
         <v>354</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="C356" s="36">
+        <v>427</v>
+      </c>
+      <c r="C356" s="37">
         <v>43963.0</v>
       </c>
-      <c r="D356" s="29">
+      <c r="D356" s="31">
         <v>43963.0</v>
       </c>
       <c r="E356" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F356" s="30" t="s">
+      <c r="F356" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G356" s="8"/>
-      <c r="H356" s="30" t="s">
-        <v>363</v>
+      <c r="H356" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I356" s="12"/>
       <c r="J356" s="13"/>
-      <c r="K356" s="27" t="s">
-        <v>427</v>
+      <c r="K356" s="29" t="s">
+        <v>428</v>
       </c>
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
@@ -18133,28 +18149,28 @@
         <v>355</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="C357" s="36">
+        <v>427</v>
+      </c>
+      <c r="C357" s="37">
         <v>43963.0</v>
       </c>
-      <c r="D357" s="29">
+      <c r="D357" s="31">
         <v>43963.0</v>
       </c>
       <c r="E357" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="F357" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F357" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G357" s="8"/>
-      <c r="H357" s="30" t="s">
-        <v>363</v>
+      <c r="H357" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I357" s="12"/>
       <c r="J357" s="13"/>
-      <c r="K357" s="27" t="s">
-        <v>427</v>
+      <c r="K357" s="29" t="s">
+        <v>428</v>
       </c>
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
@@ -18178,28 +18194,28 @@
         <v>356</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="C358" s="36">
+        <v>427</v>
+      </c>
+      <c r="C358" s="37">
         <v>43963.0</v>
       </c>
-      <c r="D358" s="29">
+      <c r="D358" s="31">
         <v>43963.0</v>
       </c>
       <c r="E358" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F358" s="30" t="s">
+      <c r="F358" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G358" s="8"/>
-      <c r="H358" s="30" t="s">
-        <v>363</v>
+      <c r="H358" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I358" s="12"/>
       <c r="J358" s="13"/>
-      <c r="K358" s="27" t="s">
-        <v>427</v>
+      <c r="K358" s="29" t="s">
+        <v>428</v>
       </c>
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
@@ -18223,28 +18239,28 @@
         <v>357</v>
       </c>
       <c r="B359" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="C359" s="36">
+        <v>429</v>
+      </c>
+      <c r="C359" s="37">
         <v>43964.0</v>
       </c>
-      <c r="D359" s="29">
+      <c r="D359" s="31">
         <v>43964.0</v>
       </c>
       <c r="E359" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F359" s="30" t="s">
+      <c r="F359" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G359" s="8"/>
-      <c r="H359" s="30" t="s">
-        <v>363</v>
+      <c r="H359" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I359" s="12"/>
       <c r="J359" s="13"/>
-      <c r="K359" s="38" t="s">
-        <v>429</v>
+      <c r="K359" s="39" t="s">
+        <v>430</v>
       </c>
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
@@ -18268,28 +18284,28 @@
         <v>358</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="C360" s="36">
+        <v>431</v>
+      </c>
+      <c r="C360" s="37">
         <v>43965.0</v>
       </c>
-      <c r="D360" s="29">
+      <c r="D360" s="31">
         <v>43965.0</v>
       </c>
       <c r="E360" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="F360" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F360" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G360" s="8"/>
-      <c r="H360" s="30" t="s">
-        <v>363</v>
+      <c r="H360" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="I360" s="12"/>
       <c r="J360" s="13"/>
-      <c r="K360" s="38" t="s">
-        <v>431</v>
+      <c r="K360" s="39" t="s">
+        <v>432</v>
       </c>
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
@@ -36302,146 +36318,148 @@
     <hyperlink r:id="rId42" ref="L53"/>
     <hyperlink r:id="rId43" ref="K72"/>
     <hyperlink r:id="rId44" ref="K143"/>
-    <hyperlink r:id="rId45" ref="K224"/>
-    <hyperlink r:id="rId46" ref="K225"/>
-    <hyperlink r:id="rId47" ref="K226"/>
-    <hyperlink r:id="rId48" ref="K227"/>
-    <hyperlink r:id="rId49" ref="K228"/>
-    <hyperlink r:id="rId50" ref="K229"/>
-    <hyperlink r:id="rId51" ref="K230"/>
-    <hyperlink r:id="rId52" ref="K231"/>
-    <hyperlink r:id="rId53" ref="K232"/>
-    <hyperlink r:id="rId54" ref="K233"/>
-    <hyperlink r:id="rId55" ref="K234"/>
-    <hyperlink r:id="rId56" ref="K235"/>
-    <hyperlink r:id="rId57" ref="K236"/>
-    <hyperlink r:id="rId58" ref="K237"/>
-    <hyperlink r:id="rId59" ref="K238"/>
-    <hyperlink r:id="rId60" ref="K239"/>
-    <hyperlink r:id="rId61" ref="K240"/>
-    <hyperlink r:id="rId62" ref="K241"/>
-    <hyperlink r:id="rId63" ref="K242"/>
-    <hyperlink r:id="rId64" ref="K243"/>
-    <hyperlink r:id="rId65" ref="K244"/>
-    <hyperlink r:id="rId66" ref="K245"/>
-    <hyperlink r:id="rId67" ref="K246"/>
-    <hyperlink r:id="rId68" ref="K247"/>
-    <hyperlink r:id="rId69" ref="K248"/>
-    <hyperlink r:id="rId70" ref="K249"/>
-    <hyperlink r:id="rId71" ref="K250"/>
-    <hyperlink r:id="rId72" ref="K251"/>
-    <hyperlink r:id="rId73" ref="K252"/>
-    <hyperlink r:id="rId74" ref="K253"/>
-    <hyperlink r:id="rId75" ref="K254"/>
-    <hyperlink r:id="rId76" ref="K255"/>
-    <hyperlink r:id="rId77" ref="K256"/>
-    <hyperlink r:id="rId78" ref="K257"/>
-    <hyperlink r:id="rId79" ref="K258"/>
-    <hyperlink r:id="rId80" ref="K259"/>
-    <hyperlink r:id="rId81" ref="K260"/>
-    <hyperlink r:id="rId82" ref="K261"/>
-    <hyperlink r:id="rId83" ref="K262"/>
-    <hyperlink r:id="rId84" ref="K263"/>
-    <hyperlink r:id="rId85" ref="K264"/>
-    <hyperlink r:id="rId86" ref="K265"/>
-    <hyperlink r:id="rId87" ref="K266"/>
-    <hyperlink r:id="rId88" ref="K267"/>
-    <hyperlink r:id="rId89" ref="K268"/>
-    <hyperlink r:id="rId90" ref="K269"/>
-    <hyperlink r:id="rId91" ref="K270"/>
-    <hyperlink r:id="rId92" ref="K271"/>
-    <hyperlink r:id="rId93" ref="K272"/>
-    <hyperlink r:id="rId94" ref="K273"/>
-    <hyperlink r:id="rId95" ref="K274"/>
-    <hyperlink r:id="rId96" ref="K275"/>
-    <hyperlink r:id="rId97" ref="K276"/>
-    <hyperlink r:id="rId98" ref="K277"/>
-    <hyperlink r:id="rId99" ref="K278"/>
-    <hyperlink r:id="rId100" ref="K279"/>
-    <hyperlink r:id="rId101" ref="K280"/>
-    <hyperlink r:id="rId102" ref="K281"/>
-    <hyperlink r:id="rId103" ref="K282"/>
-    <hyperlink r:id="rId104" ref="K283"/>
-    <hyperlink r:id="rId105" ref="K284"/>
-    <hyperlink r:id="rId106" ref="K285"/>
-    <hyperlink r:id="rId107" ref="K286"/>
-    <hyperlink r:id="rId108" ref="K287"/>
-    <hyperlink r:id="rId109" ref="K288"/>
-    <hyperlink r:id="rId110" ref="K289"/>
-    <hyperlink r:id="rId111" ref="K290"/>
-    <hyperlink r:id="rId112" ref="K291"/>
-    <hyperlink r:id="rId113" ref="K292"/>
-    <hyperlink r:id="rId114" ref="K293"/>
-    <hyperlink r:id="rId115" ref="K294"/>
-    <hyperlink r:id="rId116" ref="K295"/>
-    <hyperlink r:id="rId117" ref="K296"/>
-    <hyperlink r:id="rId118" ref="K297"/>
-    <hyperlink r:id="rId119" ref="K298"/>
-    <hyperlink r:id="rId120" ref="K299"/>
-    <hyperlink r:id="rId121" ref="K300"/>
-    <hyperlink r:id="rId122" ref="K301"/>
-    <hyperlink r:id="rId123" ref="K302"/>
-    <hyperlink r:id="rId124" ref="K303"/>
-    <hyperlink r:id="rId125" ref="K304"/>
-    <hyperlink r:id="rId126" ref="K305"/>
-    <hyperlink r:id="rId127" ref="K306"/>
-    <hyperlink r:id="rId128" ref="K307"/>
-    <hyperlink r:id="rId129" ref="K308"/>
-    <hyperlink r:id="rId130" ref="K309"/>
-    <hyperlink r:id="rId131" ref="K310"/>
-    <hyperlink r:id="rId132" ref="K311"/>
-    <hyperlink r:id="rId133" ref="K312"/>
-    <hyperlink r:id="rId134" ref="K313"/>
-    <hyperlink r:id="rId135" ref="K314"/>
-    <hyperlink r:id="rId136" ref="L314"/>
-    <hyperlink r:id="rId137" ref="K315"/>
-    <hyperlink r:id="rId138" ref="K316"/>
-    <hyperlink r:id="rId139" ref="K317"/>
-    <hyperlink r:id="rId140" ref="K318"/>
-    <hyperlink r:id="rId141" ref="K319"/>
-    <hyperlink r:id="rId142" ref="K320"/>
-    <hyperlink r:id="rId143" ref="K321"/>
-    <hyperlink r:id="rId144" ref="K322"/>
-    <hyperlink r:id="rId145" ref="K323"/>
-    <hyperlink r:id="rId146" ref="K324"/>
-    <hyperlink r:id="rId147" ref="K327"/>
-    <hyperlink r:id="rId148" ref="K328"/>
-    <hyperlink r:id="rId149" ref="K329"/>
-    <hyperlink r:id="rId150" ref="K330"/>
-    <hyperlink r:id="rId151" ref="K331"/>
-    <hyperlink r:id="rId152" ref="K332"/>
-    <hyperlink r:id="rId153" ref="K333"/>
-    <hyperlink r:id="rId154" ref="K334"/>
-    <hyperlink r:id="rId155" ref="K335"/>
-    <hyperlink r:id="rId156" ref="K336"/>
-    <hyperlink r:id="rId157" ref="K337"/>
-    <hyperlink r:id="rId158" ref="K338"/>
-    <hyperlink r:id="rId159" ref="K339"/>
-    <hyperlink r:id="rId160" ref="K340"/>
-    <hyperlink r:id="rId161" ref="K341"/>
-    <hyperlink r:id="rId162" ref="K342"/>
-    <hyperlink r:id="rId163" ref="K343"/>
-    <hyperlink r:id="rId164" ref="K344"/>
-    <hyperlink r:id="rId165" ref="K345"/>
-    <hyperlink r:id="rId166" ref="K346"/>
-    <hyperlink r:id="rId167" ref="K347"/>
-    <hyperlink r:id="rId168" ref="K348"/>
-    <hyperlink r:id="rId169" ref="K349"/>
-    <hyperlink r:id="rId170" ref="K350"/>
-    <hyperlink r:id="rId171" ref="K351"/>
-    <hyperlink r:id="rId172" ref="K352"/>
-    <hyperlink r:id="rId173" ref="K353"/>
-    <hyperlink r:id="rId174" ref="K354"/>
-    <hyperlink r:id="rId175" ref="K355"/>
-    <hyperlink r:id="rId176" ref="K356"/>
-    <hyperlink r:id="rId177" ref="K357"/>
-    <hyperlink r:id="rId178" ref="K358"/>
-    <hyperlink r:id="rId179" ref="K359"/>
-    <hyperlink r:id="rId180" ref="K360"/>
+    <hyperlink r:id="rId45" ref="K169"/>
+    <hyperlink r:id="rId46" ref="L169"/>
+    <hyperlink r:id="rId47" ref="K224"/>
+    <hyperlink r:id="rId48" ref="K225"/>
+    <hyperlink r:id="rId49" ref="K226"/>
+    <hyperlink r:id="rId50" ref="K227"/>
+    <hyperlink r:id="rId51" ref="K228"/>
+    <hyperlink r:id="rId52" ref="K229"/>
+    <hyperlink r:id="rId53" ref="K230"/>
+    <hyperlink r:id="rId54" ref="K231"/>
+    <hyperlink r:id="rId55" ref="K232"/>
+    <hyperlink r:id="rId56" ref="K233"/>
+    <hyperlink r:id="rId57" ref="K234"/>
+    <hyperlink r:id="rId58" ref="K235"/>
+    <hyperlink r:id="rId59" ref="K236"/>
+    <hyperlink r:id="rId60" ref="K237"/>
+    <hyperlink r:id="rId61" ref="K238"/>
+    <hyperlink r:id="rId62" ref="K239"/>
+    <hyperlink r:id="rId63" ref="K240"/>
+    <hyperlink r:id="rId64" ref="K241"/>
+    <hyperlink r:id="rId65" ref="K242"/>
+    <hyperlink r:id="rId66" ref="K243"/>
+    <hyperlink r:id="rId67" ref="K244"/>
+    <hyperlink r:id="rId68" ref="K245"/>
+    <hyperlink r:id="rId69" ref="K246"/>
+    <hyperlink r:id="rId70" ref="K247"/>
+    <hyperlink r:id="rId71" ref="K248"/>
+    <hyperlink r:id="rId72" ref="K249"/>
+    <hyperlink r:id="rId73" ref="K250"/>
+    <hyperlink r:id="rId74" ref="K251"/>
+    <hyperlink r:id="rId75" ref="K252"/>
+    <hyperlink r:id="rId76" ref="K253"/>
+    <hyperlink r:id="rId77" ref="K254"/>
+    <hyperlink r:id="rId78" ref="K255"/>
+    <hyperlink r:id="rId79" ref="K256"/>
+    <hyperlink r:id="rId80" ref="K257"/>
+    <hyperlink r:id="rId81" ref="K258"/>
+    <hyperlink r:id="rId82" ref="K259"/>
+    <hyperlink r:id="rId83" ref="K260"/>
+    <hyperlink r:id="rId84" ref="K261"/>
+    <hyperlink r:id="rId85" ref="K262"/>
+    <hyperlink r:id="rId86" ref="K263"/>
+    <hyperlink r:id="rId87" ref="K264"/>
+    <hyperlink r:id="rId88" ref="K265"/>
+    <hyperlink r:id="rId89" ref="K266"/>
+    <hyperlink r:id="rId90" ref="K267"/>
+    <hyperlink r:id="rId91" ref="K268"/>
+    <hyperlink r:id="rId92" ref="K269"/>
+    <hyperlink r:id="rId93" ref="K270"/>
+    <hyperlink r:id="rId94" ref="K271"/>
+    <hyperlink r:id="rId95" ref="K272"/>
+    <hyperlink r:id="rId96" ref="K273"/>
+    <hyperlink r:id="rId97" ref="K274"/>
+    <hyperlink r:id="rId98" ref="K275"/>
+    <hyperlink r:id="rId99" ref="K276"/>
+    <hyperlink r:id="rId100" ref="K277"/>
+    <hyperlink r:id="rId101" ref="K278"/>
+    <hyperlink r:id="rId102" ref="K279"/>
+    <hyperlink r:id="rId103" ref="K280"/>
+    <hyperlink r:id="rId104" ref="K281"/>
+    <hyperlink r:id="rId105" ref="K282"/>
+    <hyperlink r:id="rId106" ref="K283"/>
+    <hyperlink r:id="rId107" ref="K284"/>
+    <hyperlink r:id="rId108" ref="K285"/>
+    <hyperlink r:id="rId109" ref="K286"/>
+    <hyperlink r:id="rId110" ref="K287"/>
+    <hyperlink r:id="rId111" ref="K288"/>
+    <hyperlink r:id="rId112" ref="K289"/>
+    <hyperlink r:id="rId113" ref="K290"/>
+    <hyperlink r:id="rId114" ref="K291"/>
+    <hyperlink r:id="rId115" ref="K292"/>
+    <hyperlink r:id="rId116" ref="K293"/>
+    <hyperlink r:id="rId117" ref="K294"/>
+    <hyperlink r:id="rId118" ref="K295"/>
+    <hyperlink r:id="rId119" ref="K296"/>
+    <hyperlink r:id="rId120" ref="K297"/>
+    <hyperlink r:id="rId121" ref="K298"/>
+    <hyperlink r:id="rId122" ref="K299"/>
+    <hyperlink r:id="rId123" ref="K300"/>
+    <hyperlink r:id="rId124" ref="K301"/>
+    <hyperlink r:id="rId125" ref="K302"/>
+    <hyperlink r:id="rId126" ref="K303"/>
+    <hyperlink r:id="rId127" ref="K304"/>
+    <hyperlink r:id="rId128" ref="K305"/>
+    <hyperlink r:id="rId129" ref="K306"/>
+    <hyperlink r:id="rId130" ref="K307"/>
+    <hyperlink r:id="rId131" ref="K308"/>
+    <hyperlink r:id="rId132" ref="K309"/>
+    <hyperlink r:id="rId133" ref="K310"/>
+    <hyperlink r:id="rId134" ref="K311"/>
+    <hyperlink r:id="rId135" ref="K312"/>
+    <hyperlink r:id="rId136" ref="K313"/>
+    <hyperlink r:id="rId137" ref="K314"/>
+    <hyperlink r:id="rId138" ref="L314"/>
+    <hyperlink r:id="rId139" ref="K315"/>
+    <hyperlink r:id="rId140" ref="K316"/>
+    <hyperlink r:id="rId141" ref="K317"/>
+    <hyperlink r:id="rId142" ref="K318"/>
+    <hyperlink r:id="rId143" ref="K319"/>
+    <hyperlink r:id="rId144" ref="K320"/>
+    <hyperlink r:id="rId145" ref="K321"/>
+    <hyperlink r:id="rId146" ref="K322"/>
+    <hyperlink r:id="rId147" ref="K323"/>
+    <hyperlink r:id="rId148" ref="K324"/>
+    <hyperlink r:id="rId149" ref="K327"/>
+    <hyperlink r:id="rId150" ref="K328"/>
+    <hyperlink r:id="rId151" ref="K329"/>
+    <hyperlink r:id="rId152" ref="K330"/>
+    <hyperlink r:id="rId153" ref="K331"/>
+    <hyperlink r:id="rId154" ref="K332"/>
+    <hyperlink r:id="rId155" ref="K333"/>
+    <hyperlink r:id="rId156" ref="K334"/>
+    <hyperlink r:id="rId157" ref="K335"/>
+    <hyperlink r:id="rId158" ref="K336"/>
+    <hyperlink r:id="rId159" ref="K337"/>
+    <hyperlink r:id="rId160" ref="K338"/>
+    <hyperlink r:id="rId161" ref="K339"/>
+    <hyperlink r:id="rId162" ref="K340"/>
+    <hyperlink r:id="rId163" ref="K341"/>
+    <hyperlink r:id="rId164" ref="K342"/>
+    <hyperlink r:id="rId165" ref="K343"/>
+    <hyperlink r:id="rId166" ref="K344"/>
+    <hyperlink r:id="rId167" ref="K345"/>
+    <hyperlink r:id="rId168" ref="K346"/>
+    <hyperlink r:id="rId169" ref="K347"/>
+    <hyperlink r:id="rId170" ref="K348"/>
+    <hyperlink r:id="rId171" ref="K349"/>
+    <hyperlink r:id="rId172" ref="K350"/>
+    <hyperlink r:id="rId173" ref="K351"/>
+    <hyperlink r:id="rId174" ref="K352"/>
+    <hyperlink r:id="rId175" ref="K353"/>
+    <hyperlink r:id="rId176" ref="K354"/>
+    <hyperlink r:id="rId177" ref="K355"/>
+    <hyperlink r:id="rId178" ref="K356"/>
+    <hyperlink r:id="rId179" ref="K357"/>
+    <hyperlink r:id="rId180" ref="K358"/>
+    <hyperlink r:id="rId181" ref="K359"/>
+    <hyperlink r:id="rId182" ref="K360"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId181"/>
+  <drawing r:id="rId183"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="433">
-  <si>
-    <t>2020-05-27T16:15:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="435">
+  <si>
+    <t>2020-05-31T16:39:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -725,7 +725,13 @@
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200331-59-65.pdf</t>
   </si>
   <si>
+    <t>令和2年5月28日死亡</t>
+  </si>
+  <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267702/200331oshirase(39-40).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000270/270620/200528oshirase(sibou).pdf</t>
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267769/200331oshirase(41).pdf</t>
@@ -1475,7 +1481,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1522,6 +1528,12 @@
       <sz val="14.0"/>
       <color rgb="FF333333"/>
       <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="游ゴシック regular"/>
     </font>
     <font>
       <u/>
@@ -1588,7 +1600,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1655,7 +1667,13 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1667,16 +1685,13 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1691,13 +1706,13 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1706,7 +1721,7 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5169,13 +5184,17 @@
         <v>15</v>
       </c>
       <c r="G68" s="8"/>
-      <c r="H68" s="12"/>
+      <c r="H68" s="22" t="s">
+        <v>186</v>
+      </c>
       <c r="I68" s="12"/>
       <c r="J68" s="13"/>
       <c r="K68" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L68" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="L68" s="23" t="s">
+        <v>188</v>
+      </c>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
@@ -5217,7 +5236,7 @@
         <v>43939.0</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -5261,7 +5280,7 @@
         <v>43932.0</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
@@ -5305,7 +5324,7 @@
         <v>43941.0</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
@@ -5328,7 +5347,7 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C72" s="9">
         <v>43922.0</v>
@@ -5352,8 +5371,8 @@
       <c r="J72" s="18">
         <v>43942.0</v>
       </c>
-      <c r="K72" s="22" t="s">
-        <v>190</v>
+      <c r="K72" s="24" t="s">
+        <v>192</v>
       </c>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
@@ -5376,7 +5395,7 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C73" s="9">
         <v>43922.0</v>
@@ -5391,15 +5410,15 @@
         <v>156</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="13"/>
       <c r="K73" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
@@ -5422,7 +5441,7 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C74" s="9">
         <v>43922.0</v>
@@ -5438,12 +5457,12 @@
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I74" s="12"/>
       <c r="J74" s="13"/>
       <c r="K74" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -5466,7 +5485,7 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C75" s="9">
         <v>43922.0</v>
@@ -5481,17 +5500,17 @@
         <v>156</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I75" s="12"/>
       <c r="J75" s="18">
         <v>43944.0</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -5514,7 +5533,7 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C76" s="9">
         <v>43922.0</v>
@@ -5535,7 +5554,7 @@
         <v>43931.0</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -5558,7 +5577,7 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C77" s="9">
         <v>43922.0</v>
@@ -5579,7 +5598,7 @@
         <v>43933.0</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -5602,7 +5621,7 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C78" s="9">
         <v>43922.0</v>
@@ -5620,14 +5639,14 @@
         <v>69.0</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I78" s="12"/>
       <c r="J78" s="18">
         <v>43935.0</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -5649,8 +5668,8 @@
       <c r="A79" s="8">
         <v>77.0</v>
       </c>
-      <c r="B79" s="23" t="s">
-        <v>201</v>
+      <c r="B79" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="C79" s="9">
         <v>43923.0</v>
@@ -5668,14 +5687,14 @@
         <v>52.0</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I79" s="12"/>
       <c r="J79" s="18">
         <v>43939.0</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
@@ -5697,8 +5716,8 @@
       <c r="A80" s="8">
         <v>78.0</v>
       </c>
-      <c r="B80" s="23" t="s">
-        <v>201</v>
+      <c r="B80" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="C80" s="9">
         <v>43923.0</v>
@@ -5719,7 +5738,7 @@
         <v>43931.0</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
@@ -5741,8 +5760,8 @@
       <c r="A81" s="8">
         <v>79.0</v>
       </c>
-      <c r="B81" s="23" t="s">
-        <v>201</v>
+      <c r="B81" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="C81" s="9">
         <v>43923.0</v>
@@ -5763,7 +5782,7 @@
         <v>43938.0</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
@@ -5785,8 +5804,8 @@
       <c r="A82" s="8">
         <v>80.0</v>
       </c>
-      <c r="B82" s="23" t="s">
-        <v>201</v>
+      <c r="B82" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="C82" s="9">
         <v>43923.0</v>
@@ -5807,7 +5826,7 @@
         <v>43937.0</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
@@ -5829,8 +5848,8 @@
       <c r="A83" s="8">
         <v>81.0</v>
       </c>
-      <c r="B83" s="23" t="s">
-        <v>201</v>
+      <c r="B83" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="C83" s="9">
         <v>43923.0</v>
@@ -5851,7 +5870,7 @@
         <v>43937.0</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
@@ -5873,8 +5892,8 @@
       <c r="A84" s="8">
         <v>82.0</v>
       </c>
-      <c r="B84" s="23" t="s">
-        <v>201</v>
+      <c r="B84" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="C84" s="9">
         <v>43923.0</v>
@@ -5883,7 +5902,7 @@
         <v>43923.0</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>156</v>
@@ -5892,14 +5911,14 @@
         <v>63.0</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I84" s="12"/>
       <c r="J84" s="18">
         <v>43944.0</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
@@ -5921,8 +5940,8 @@
       <c r="A85" s="8">
         <v>83.0</v>
       </c>
-      <c r="B85" s="23" t="s">
-        <v>201</v>
+      <c r="B85" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="C85" s="9">
         <v>43923.0</v>
@@ -5931,7 +5950,7 @@
         <v>43923.0</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>156</v>
@@ -5940,14 +5959,14 @@
         <v>65.0</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I85" s="12"/>
       <c r="J85" s="18">
         <v>43942.0</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -5969,8 +5988,8 @@
       <c r="A86" s="8">
         <v>84.0</v>
       </c>
-      <c r="B86" s="23" t="s">
-        <v>201</v>
+      <c r="B86" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="C86" s="9">
         <v>43923.0</v>
@@ -5988,12 +6007,12 @@
         <v>61.0</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I86" s="12"/>
       <c r="J86" s="13"/>
       <c r="K86" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
@@ -6015,8 +6034,8 @@
       <c r="A87" s="8">
         <v>85.0</v>
       </c>
-      <c r="B87" s="23" t="s">
-        <v>201</v>
+      <c r="B87" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="C87" s="9">
         <v>43923.0</v>
@@ -6034,14 +6053,14 @@
         <v>61.0</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I87" s="12"/>
       <c r="J87" s="18">
         <v>43944.0</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
@@ -6063,8 +6082,8 @@
       <c r="A88" s="8">
         <v>86.0</v>
       </c>
-      <c r="B88" s="23" t="s">
-        <v>201</v>
+      <c r="B88" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="C88" s="9">
         <v>43923.0</v>
@@ -6082,14 +6101,14 @@
         <v>44.0</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I88" s="12"/>
       <c r="J88" s="18">
         <v>43937.0</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
@@ -6111,8 +6130,8 @@
       <c r="A89" s="8">
         <v>87.0</v>
       </c>
-      <c r="B89" s="23" t="s">
-        <v>201</v>
+      <c r="B89" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="C89" s="9">
         <v>43923.0</v>
@@ -6130,14 +6149,14 @@
         <v>69.0</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I89" s="12"/>
       <c r="J89" s="18">
         <v>43938.0</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
@@ -6159,8 +6178,8 @@
       <c r="A90" s="8">
         <v>88.0</v>
       </c>
-      <c r="B90" s="23" t="s">
-        <v>201</v>
+      <c r="B90" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="C90" s="9">
         <v>43923.0</v>
@@ -6169,7 +6188,7 @@
         <v>43923.0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>15</v>
@@ -6178,14 +6197,14 @@
         <v>75.0</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I90" s="12"/>
       <c r="J90" s="18">
         <v>43935.0</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
@@ -6207,8 +6226,8 @@
       <c r="A91" s="8">
         <v>89.0</v>
       </c>
-      <c r="B91" s="23" t="s">
-        <v>217</v>
+      <c r="B91" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C91" s="9">
         <v>43924.0</v>
@@ -6226,14 +6245,14 @@
         <v>65.0</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I91" s="12"/>
       <c r="J91" s="13">
         <v>43937.0</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
@@ -6255,8 +6274,8 @@
       <c r="A92" s="8">
         <v>90.0</v>
       </c>
-      <c r="B92" s="23" t="s">
-        <v>217</v>
+      <c r="B92" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C92" s="9">
         <v>43924.0</v>
@@ -6274,14 +6293,14 @@
         <v>65.0</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I92" s="12"/>
       <c r="J92" s="18">
         <v>43944.0</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
@@ -6303,8 +6322,8 @@
       <c r="A93" s="8">
         <v>91.0</v>
       </c>
-      <c r="B93" s="23" t="s">
-        <v>217</v>
+      <c r="B93" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C93" s="9">
         <v>43924.0</v>
@@ -6322,14 +6341,14 @@
         <v>65.0</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I93" s="12"/>
       <c r="J93" s="18">
         <v>43944.0</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
@@ -6351,8 +6370,8 @@
       <c r="A94" s="8">
         <v>92.0</v>
       </c>
-      <c r="B94" s="23" t="s">
-        <v>217</v>
+      <c r="B94" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C94" s="9">
         <v>43924.0</v>
@@ -6370,12 +6389,12 @@
         <v>60.0</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I94" s="12"/>
       <c r="J94" s="13"/>
       <c r="K94" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
@@ -6397,8 +6416,8 @@
       <c r="A95" s="8">
         <v>93.0</v>
       </c>
-      <c r="B95" s="23" t="s">
-        <v>217</v>
+      <c r="B95" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C95" s="9">
         <v>43924.0</v>
@@ -6416,12 +6435,12 @@
         <v>60.0</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I95" s="12"/>
       <c r="J95" s="13"/>
       <c r="K95" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
@@ -6443,8 +6462,8 @@
       <c r="A96" s="8">
         <v>94.0</v>
       </c>
-      <c r="B96" s="23" t="s">
-        <v>217</v>
+      <c r="B96" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C96" s="9">
         <v>43924.0</v>
@@ -6462,12 +6481,12 @@
         <v>60.0</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I96" s="12"/>
       <c r="J96" s="13"/>
       <c r="K96" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
@@ -6489,8 +6508,8 @@
       <c r="A97" s="8">
         <v>95.0</v>
       </c>
-      <c r="B97" s="23" t="s">
-        <v>217</v>
+      <c r="B97" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C97" s="9">
         <v>43924.0</v>
@@ -6511,7 +6530,7 @@
         <v>43931.0</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
@@ -6533,8 +6552,8 @@
       <c r="A98" s="8">
         <v>96.0</v>
       </c>
-      <c r="B98" s="23" t="s">
-        <v>217</v>
+      <c r="B98" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C98" s="9">
         <v>43924.0</v>
@@ -6550,14 +6569,14 @@
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I98" s="12"/>
       <c r="J98" s="18">
         <v>43939.0</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
@@ -6579,8 +6598,8 @@
       <c r="A99" s="8">
         <v>97.0</v>
       </c>
-      <c r="B99" s="23" t="s">
-        <v>217</v>
+      <c r="B99" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C99" s="9">
         <v>43924.0</v>
@@ -6596,14 +6615,14 @@
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I99" s="12"/>
       <c r="J99" s="18">
         <v>43937.0</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
@@ -6625,8 +6644,8 @@
       <c r="A100" s="8">
         <v>98.0</v>
       </c>
-      <c r="B100" s="23" t="s">
-        <v>217</v>
+      <c r="B100" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C100" s="9">
         <v>43924.0</v>
@@ -6644,14 +6663,14 @@
         <v>68.0</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I100" s="12"/>
       <c r="J100" s="18">
         <v>43939.0</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
@@ -6673,8 +6692,8 @@
       <c r="A101" s="8">
         <v>99.0</v>
       </c>
-      <c r="B101" s="23" t="s">
-        <v>217</v>
+      <c r="B101" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C101" s="9">
         <v>43924.0</v>
@@ -6692,14 +6711,14 @@
         <v>68.0</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I101" s="12"/>
       <c r="J101" s="18">
         <v>43931.0</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
@@ -6721,8 +6740,8 @@
       <c r="A102" s="8">
         <v>100.0</v>
       </c>
-      <c r="B102" s="23" t="s">
-        <v>217</v>
+      <c r="B102" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C102" s="9">
         <v>43924.0</v>
@@ -6740,14 +6759,14 @@
         <v>87.0</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I102" s="12"/>
       <c r="J102" s="18">
         <v>43931.0</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
@@ -6769,8 +6788,8 @@
       <c r="A103" s="8">
         <v>101.0</v>
       </c>
-      <c r="B103" s="23" t="s">
-        <v>217</v>
+      <c r="B103" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C103" s="9">
         <v>43924.0</v>
@@ -6791,7 +6810,7 @@
         <v>43938.0</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
@@ -6813,8 +6832,8 @@
       <c r="A104" s="8">
         <v>102.0</v>
       </c>
-      <c r="B104" s="23" t="s">
-        <v>217</v>
+      <c r="B104" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C104" s="9">
         <v>43924.0</v>
@@ -6822,7 +6841,7 @@
       <c r="D104" s="10">
         <v>43924.0</v>
       </c>
-      <c r="E104" s="24" t="s">
+      <c r="E104" s="26" t="s">
         <v>61</v>
       </c>
       <c r="F104" s="12" t="s">
@@ -6833,7 +6852,7 @@
       <c r="I104" s="12"/>
       <c r="J104" s="13"/>
       <c r="K104" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
@@ -6855,8 +6874,8 @@
       <c r="A105" s="8">
         <v>103.0</v>
       </c>
-      <c r="B105" s="23" t="s">
-        <v>217</v>
+      <c r="B105" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C105" s="9">
         <v>43924.0</v>
@@ -6864,7 +6883,7 @@
       <c r="D105" s="10">
         <v>43924.0</v>
       </c>
-      <c r="E105" s="24" t="s">
+      <c r="E105" s="26" t="s">
         <v>61</v>
       </c>
       <c r="F105" s="12" t="s">
@@ -6875,7 +6894,7 @@
       <c r="I105" s="12"/>
       <c r="J105" s="13"/>
       <c r="K105" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
@@ -6897,8 +6916,8 @@
       <c r="A106" s="8">
         <v>104.0</v>
       </c>
-      <c r="B106" s="23" t="s">
-        <v>217</v>
+      <c r="B106" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C106" s="9">
         <v>43924.0</v>
@@ -6906,7 +6925,7 @@
       <c r="D106" s="10">
         <v>43924.0</v>
       </c>
-      <c r="E106" s="24" t="s">
+      <c r="E106" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F106" s="12" t="s">
@@ -6919,7 +6938,7 @@
         <v>43935.0</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
@@ -6941,8 +6960,8 @@
       <c r="A107" s="8">
         <v>105.0</v>
       </c>
-      <c r="B107" s="23" t="s">
-        <v>217</v>
+      <c r="B107" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C107" s="9">
         <v>43924.0</v>
@@ -6963,7 +6982,7 @@
         <v>43929.0</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
@@ -6985,8 +7004,8 @@
       <c r="A108" s="8">
         <v>106.0</v>
       </c>
-      <c r="B108" s="23" t="s">
-        <v>217</v>
+      <c r="B108" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C108" s="9">
         <v>43924.0</v>
@@ -7007,7 +7026,7 @@
         <v>43939.0</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
@@ -7029,8 +7048,8 @@
       <c r="A109" s="8">
         <v>107.0</v>
       </c>
-      <c r="B109" s="23" t="s">
-        <v>228</v>
+      <c r="B109" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="C109" s="9">
         <v>43925.0</v>
@@ -7048,12 +7067,12 @@
         <v>71.0</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I109" s="12"/>
       <c r="J109" s="13"/>
       <c r="K109" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
@@ -7075,8 +7094,8 @@
       <c r="A110" s="8">
         <v>108.0</v>
       </c>
-      <c r="B110" s="23" t="s">
-        <v>228</v>
+      <c r="B110" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="C110" s="9">
         <v>43925.0</v>
@@ -7094,12 +7113,12 @@
         <v>71.0</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I110" s="12"/>
       <c r="J110" s="13"/>
       <c r="K110" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
@@ -7121,8 +7140,8 @@
       <c r="A111" s="8">
         <v>109.0</v>
       </c>
-      <c r="B111" s="23" t="s">
-        <v>228</v>
+      <c r="B111" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="C111" s="9">
         <v>43925.0</v>
@@ -7134,18 +7153,18 @@
         <v>56</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I111" s="12"/>
       <c r="J111" s="18">
         <v>43940.0</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
@@ -7167,8 +7186,8 @@
       <c r="A112" s="8">
         <v>110.0</v>
       </c>
-      <c r="B112" s="23" t="s">
-        <v>228</v>
+      <c r="B112" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="C112" s="9">
         <v>43925.0</v>
@@ -7189,7 +7208,7 @@
         <v>43936.0</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
@@ -7211,8 +7230,8 @@
       <c r="A113" s="8">
         <v>111.0</v>
       </c>
-      <c r="B113" s="23" t="s">
-        <v>228</v>
+      <c r="B113" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="C113" s="9">
         <v>43925.0</v>
@@ -7231,7 +7250,7 @@
       <c r="I113" s="12"/>
       <c r="J113" s="13"/>
       <c r="K113" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
@@ -7253,8 +7272,8 @@
       <c r="A114" s="8">
         <v>112.0</v>
       </c>
-      <c r="B114" s="23" t="s">
-        <v>228</v>
+      <c r="B114" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="C114" s="9">
         <v>43925.0</v>
@@ -7273,7 +7292,7 @@
       <c r="I114" s="12"/>
       <c r="J114" s="13"/>
       <c r="K114" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
@@ -7295,8 +7314,8 @@
       <c r="A115" s="8">
         <v>113.0</v>
       </c>
-      <c r="B115" s="23" t="s">
-        <v>228</v>
+      <c r="B115" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="C115" s="9">
         <v>43925.0</v>
@@ -7315,7 +7334,7 @@
       <c r="I115" s="12"/>
       <c r="J115" s="13"/>
       <c r="K115" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
@@ -7337,8 +7356,8 @@
       <c r="A116" s="8">
         <v>114.0</v>
       </c>
-      <c r="B116" s="23" t="s">
-        <v>228</v>
+      <c r="B116" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="C116" s="9">
         <v>43925.0</v>
@@ -7359,7 +7378,7 @@
         <v>43938.0</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
@@ -7381,8 +7400,8 @@
       <c r="A117" s="8">
         <v>115.0</v>
       </c>
-      <c r="B117" s="23" t="s">
-        <v>228</v>
+      <c r="B117" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="C117" s="9">
         <v>43925.0</v>
@@ -7401,7 +7420,7 @@
       <c r="I117" s="12"/>
       <c r="J117" s="13"/>
       <c r="K117" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
@@ -7423,8 +7442,8 @@
       <c r="A118" s="8">
         <v>116.0</v>
       </c>
-      <c r="B118" s="23" t="s">
-        <v>228</v>
+      <c r="B118" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="C118" s="9">
         <v>43925.0</v>
@@ -7442,14 +7461,14 @@
         <v>24.0</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I118" s="12"/>
       <c r="J118" s="18">
         <v>43936.0</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
@@ -7471,8 +7490,8 @@
       <c r="A119" s="8">
         <v>117.0</v>
       </c>
-      <c r="B119" s="23" t="s">
-        <v>235</v>
+      <c r="B119" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="C119" s="9">
         <v>43926.0</v>
@@ -7493,7 +7512,7 @@
         <v>43944.0</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
@@ -7515,8 +7534,8 @@
       <c r="A120" s="8">
         <v>118.0</v>
       </c>
-      <c r="B120" s="23" t="s">
-        <v>235</v>
+      <c r="B120" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="C120" s="9">
         <v>43926.0</v>
@@ -7539,7 +7558,7 @@
         <v>43949.0</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
@@ -7561,8 +7580,8 @@
       <c r="A121" s="8">
         <v>119.0</v>
       </c>
-      <c r="B121" s="23" t="s">
-        <v>235</v>
+      <c r="B121" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="C121" s="9">
         <v>43926.0</v>
@@ -7585,7 +7604,7 @@
         <v>43944.0</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
@@ -7607,8 +7626,8 @@
       <c r="A122" s="8">
         <v>120.0</v>
       </c>
-      <c r="B122" s="23" t="s">
-        <v>235</v>
+      <c r="B122" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="C122" s="9">
         <v>43926.0</v>
@@ -7627,7 +7646,7 @@
       <c r="I122" s="12"/>
       <c r="J122" s="13"/>
       <c r="K122" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
@@ -7649,8 +7668,8 @@
       <c r="A123" s="8">
         <v>121.0</v>
       </c>
-      <c r="B123" s="23" t="s">
-        <v>235</v>
+      <c r="B123" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="C123" s="9">
         <v>43926.0</v>
@@ -7662,14 +7681,14 @@
         <v>61</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G123" s="8"/>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
       <c r="J123" s="13"/>
       <c r="K123" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
@@ -7691,8 +7710,8 @@
       <c r="A124" s="8">
         <v>122.0</v>
       </c>
-      <c r="B124" s="23" t="s">
-        <v>235</v>
+      <c r="B124" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="C124" s="9">
         <v>43926.0</v>
@@ -7711,7 +7730,7 @@
       <c r="I124" s="12"/>
       <c r="J124" s="13"/>
       <c r="K124" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
@@ -7733,8 +7752,8 @@
       <c r="A125" s="8">
         <v>123.0</v>
       </c>
-      <c r="B125" s="23" t="s">
-        <v>235</v>
+      <c r="B125" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="C125" s="9">
         <v>43926.0</v>
@@ -7746,14 +7765,14 @@
         <v>38</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
       <c r="J125" s="13"/>
       <c r="K125" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
@@ -7775,8 +7794,8 @@
       <c r="A126" s="8">
         <v>124.0</v>
       </c>
-      <c r="B126" s="23" t="s">
-        <v>235</v>
+      <c r="B126" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="C126" s="9">
         <v>43926.0</v>
@@ -7794,14 +7813,14 @@
         <v>97.0</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I126" s="12"/>
       <c r="J126" s="18">
         <v>43937.0</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
@@ -7823,8 +7842,8 @@
       <c r="A127" s="8">
         <v>125.0</v>
       </c>
-      <c r="B127" s="23" t="s">
-        <v>235</v>
+      <c r="B127" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="C127" s="9">
         <v>43926.0</v>
@@ -7845,7 +7864,7 @@
         <v>43938.0</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
@@ -7867,8 +7886,8 @@
       <c r="A128" s="8">
         <v>126.0</v>
       </c>
-      <c r="B128" s="23" t="s">
-        <v>241</v>
+      <c r="B128" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="C128" s="9">
         <v>43927.0</v>
@@ -7889,7 +7908,7 @@
         <v>43944.0</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
@@ -7911,8 +7930,8 @@
       <c r="A129" s="8">
         <v>127.0</v>
       </c>
-      <c r="B129" s="23" t="s">
-        <v>241</v>
+      <c r="B129" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="C129" s="9">
         <v>43927.0</v>
@@ -7921,7 +7940,7 @@
         <v>43927.0</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>15</v>
@@ -7931,7 +7950,7 @@
       <c r="I129" s="12"/>
       <c r="J129" s="13"/>
       <c r="K129" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
@@ -7953,8 +7972,8 @@
       <c r="A130" s="8">
         <v>128.0</v>
       </c>
-      <c r="B130" s="23" t="s">
-        <v>241</v>
+      <c r="B130" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="C130" s="9">
         <v>43927.0</v>
@@ -7972,12 +7991,12 @@
         <v>114.0</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I130" s="12"/>
       <c r="J130" s="13"/>
       <c r="K130" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
@@ -7999,8 +8018,8 @@
       <c r="A131" s="8">
         <v>129.0</v>
       </c>
-      <c r="B131" s="23" t="s">
-        <v>241</v>
+      <c r="B131" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="C131" s="9">
         <v>43927.0</v>
@@ -8018,14 +8037,14 @@
         <v>114.0</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I131" s="12"/>
       <c r="J131" s="18">
         <v>43939.0</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
@@ -8047,8 +8066,8 @@
       <c r="A132" s="8">
         <v>130.0</v>
       </c>
-      <c r="B132" s="23" t="s">
-        <v>241</v>
+      <c r="B132" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="C132" s="9">
         <v>43927.0</v>
@@ -8063,15 +8082,15 @@
         <v>15</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I132" s="12"/>
       <c r="J132" s="13"/>
       <c r="K132" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
@@ -8093,8 +8112,8 @@
       <c r="A133" s="8">
         <v>131.0</v>
       </c>
-      <c r="B133" s="23" t="s">
-        <v>241</v>
+      <c r="B133" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="C133" s="9">
         <v>43927.0</v>
@@ -8109,15 +8128,15 @@
         <v>15</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I133" s="12"/>
       <c r="J133" s="13"/>
       <c r="K133" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
@@ -8139,8 +8158,8 @@
       <c r="A134" s="8">
         <v>132.0</v>
       </c>
-      <c r="B134" s="23" t="s">
-        <v>241</v>
+      <c r="B134" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="C134" s="9">
         <v>43927.0</v>
@@ -8161,7 +8180,7 @@
         <v>43941.0</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
@@ -8183,8 +8202,8 @@
       <c r="A135" s="8">
         <v>133.0</v>
       </c>
-      <c r="B135" s="23" t="s">
-        <v>241</v>
+      <c r="B135" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="C135" s="9">
         <v>43927.0</v>
@@ -8205,7 +8224,7 @@
         <v>43936.0</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
@@ -8227,8 +8246,8 @@
       <c r="A136" s="8">
         <v>134.0</v>
       </c>
-      <c r="B136" s="23" t="s">
-        <v>248</v>
+      <c r="B136" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="C136" s="9">
         <v>43928.0</v>
@@ -8246,12 +8265,12 @@
         <v>52.0</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I136" s="12"/>
       <c r="J136" s="13"/>
       <c r="K136" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
@@ -8274,8 +8293,8 @@
         <f t="shared" ref="A137:A360" si="1">A136+1</f>
         <v>135</v>
       </c>
-      <c r="B137" s="23" t="s">
-        <v>248</v>
+      <c r="B137" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="C137" s="9">
         <v>43928.0</v>
@@ -8293,14 +8312,14 @@
         <v>126.0</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I137" s="12"/>
       <c r="J137" s="18">
         <v>43942.0</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
@@ -8323,8 +8342,8 @@
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="B138" s="23" t="s">
-        <v>248</v>
+      <c r="B138" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="C138" s="9">
         <v>43928.0</v>
@@ -8336,14 +8355,14 @@
         <v>20</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G138" s="8"/>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="13"/>
       <c r="K138" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
@@ -8366,8 +8385,8 @@
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
-      <c r="B139" s="23" t="s">
-        <v>248</v>
+      <c r="B139" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="C139" s="9">
         <v>43928.0</v>
@@ -8379,18 +8398,18 @@
         <v>56</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I139" s="12"/>
       <c r="J139" s="13"/>
       <c r="K139" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
@@ -8413,8 +8432,8 @@
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="B140" s="23" t="s">
-        <v>248</v>
+      <c r="B140" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="C140" s="9">
         <v>43928.0</v>
@@ -8426,14 +8445,14 @@
         <v>146</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
       <c r="J140" s="13"/>
       <c r="K140" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
@@ -8456,8 +8475,8 @@
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="B141" s="23" t="s">
-        <v>248</v>
+      <c r="B141" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="C141" s="9">
         <v>43928.0</v>
@@ -8469,7 +8488,7 @@
         <v>14</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="12"/>
@@ -8478,7 +8497,7 @@
         <v>43938.0</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
@@ -8501,8 +8520,8 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="B142" s="23" t="s">
-        <v>248</v>
+      <c r="B142" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="C142" s="9">
         <v>43928.0</v>
@@ -8514,18 +8533,18 @@
         <v>61</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G142" s="8">
         <v>121.0</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I142" s="12"/>
       <c r="J142" s="13"/>
       <c r="K142" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
@@ -8548,8 +8567,8 @@
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="B143" s="23" t="s">
-        <v>248</v>
+      <c r="B143" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="C143" s="9">
         <v>43928.0</v>
@@ -8557,22 +8576,22 @@
       <c r="D143" s="10">
         <v>43928.0</v>
       </c>
-      <c r="E143" s="25" t="s">
-        <v>257</v>
+      <c r="E143" s="27" t="s">
+        <v>259</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G143" s="8">
         <v>121.0</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I143" s="12"/>
       <c r="J143" s="13"/>
-      <c r="K143" s="26" t="s">
-        <v>255</v>
+      <c r="K143" s="28" t="s">
+        <v>257</v>
       </c>
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
@@ -8595,8 +8614,8 @@
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="B144" s="23" t="s">
-        <v>248</v>
+      <c r="B144" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="C144" s="9">
         <v>43928.0</v>
@@ -8604,22 +8623,22 @@
       <c r="D144" s="10">
         <v>43928.0</v>
       </c>
-      <c r="E144" s="25" t="s">
-        <v>257</v>
+      <c r="E144" s="27" t="s">
+        <v>259</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G144" s="8">
         <v>121.0</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I144" s="12"/>
       <c r="J144" s="13"/>
       <c r="K144" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
@@ -8642,8 +8661,8 @@
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="B145" s="23" t="s">
-        <v>248</v>
+      <c r="B145" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="C145" s="9">
         <v>43928.0</v>
@@ -8655,20 +8674,20 @@
         <v>14</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G145" s="8">
         <v>117.0</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I145" s="12"/>
       <c r="J145" s="18">
         <v>43935.0</v>
       </c>
       <c r="K145" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
@@ -8691,8 +8710,8 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="B146" s="23" t="s">
-        <v>248</v>
+      <c r="B146" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="C146" s="9">
         <v>43928.0</v>
@@ -8704,7 +8723,7 @@
         <v>20</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="12"/>
@@ -8713,7 +8732,7 @@
         <v>43935.0</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
@@ -8736,8 +8755,8 @@
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="B147" s="23" t="s">
-        <v>248</v>
+      <c r="B147" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="C147" s="9">
         <v>43928.0</v>
@@ -8749,14 +8768,14 @@
         <v>56</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
       <c r="J147" s="13"/>
       <c r="K147" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
@@ -8779,8 +8798,8 @@
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="B148" s="23" t="s">
-        <v>259</v>
+      <c r="B148" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="C148" s="9">
         <v>43929.0</v>
@@ -8798,12 +8817,12 @@
         <v>118.0</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I148" s="12"/>
       <c r="J148" s="13"/>
       <c r="K148" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
@@ -8826,8 +8845,8 @@
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="B149" s="23" t="s">
-        <v>259</v>
+      <c r="B149" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="C149" s="9">
         <v>43929.0</v>
@@ -8845,12 +8864,12 @@
         <v>118.0</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I149" s="12"/>
       <c r="J149" s="13"/>
       <c r="K149" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
@@ -8873,8 +8892,8 @@
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="B150" s="23" t="s">
-        <v>259</v>
+      <c r="B150" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="C150" s="9">
         <v>43929.0</v>
@@ -8895,7 +8914,7 @@
         <v>43948.0</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
@@ -8918,8 +8937,8 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="B151" s="23" t="s">
-        <v>259</v>
+      <c r="B151" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="C151" s="9">
         <v>43929.0</v>
@@ -8937,14 +8956,14 @@
         <v>119.0</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I151" s="12"/>
       <c r="J151" s="18">
         <v>43944.0</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
@@ -8967,8 +8986,8 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="B152" s="23" t="s">
-        <v>259</v>
+      <c r="B152" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="C152" s="9">
         <v>43929.0</v>
@@ -8980,18 +8999,18 @@
         <v>14</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G152" s="8">
         <v>136.0</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I152" s="12"/>
       <c r="J152" s="13"/>
       <c r="K152" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
@@ -9014,8 +9033,8 @@
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
-      <c r="B153" s="23" t="s">
-        <v>259</v>
+      <c r="B153" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="C153" s="9">
         <v>43929.0</v>
@@ -9036,7 +9055,7 @@
         <v>43941.0</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
@@ -9059,8 +9078,8 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="B154" s="23" t="s">
-        <v>259</v>
+      <c r="B154" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="C154" s="9">
         <v>43929.0</v>
@@ -9078,12 +9097,12 @@
         <v>111.0</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I154" s="12"/>
       <c r="J154" s="13"/>
       <c r="K154" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
@@ -9106,8 +9125,8 @@
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="B155" s="23" t="s">
-        <v>259</v>
+      <c r="B155" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="C155" s="9">
         <v>43929.0</v>
@@ -9126,7 +9145,7 @@
       <c r="I155" s="12"/>
       <c r="J155" s="13"/>
       <c r="K155" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
@@ -9149,8 +9168,8 @@
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="B156" s="23" t="s">
-        <v>259</v>
+      <c r="B156" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="C156" s="9">
         <v>43929.0</v>
@@ -9171,7 +9190,7 @@
         <v>43942.0</v>
       </c>
       <c r="K156" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
@@ -9194,8 +9213,8 @@
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="B157" s="23" t="s">
-        <v>259</v>
+      <c r="B157" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="C157" s="9">
         <v>43929.0</v>
@@ -9216,7 +9235,7 @@
         <v>43936.0</v>
       </c>
       <c r="K157" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
@@ -9239,8 +9258,8 @@
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="B158" s="23" t="s">
-        <v>266</v>
+      <c r="B158" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="C158" s="9">
         <v>43930.0</v>
@@ -9259,7 +9278,7 @@
       <c r="I158" s="12"/>
       <c r="J158" s="13"/>
       <c r="K158" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
@@ -9282,8 +9301,8 @@
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
-      <c r="B159" s="23" t="s">
-        <v>266</v>
+      <c r="B159" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="C159" s="9">
         <v>43930.0</v>
@@ -9295,14 +9314,14 @@
         <v>44</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G159" s="8"/>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
       <c r="J159" s="13"/>
       <c r="K159" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
@@ -9325,8 +9344,8 @@
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="B160" s="23" t="s">
-        <v>266</v>
+      <c r="B160" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="C160" s="9">
         <v>43930.0</v>
@@ -9342,14 +9361,14 @@
       </c>
       <c r="G160" s="8"/>
       <c r="H160" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I160" s="12"/>
       <c r="J160" s="18">
         <v>43937.0</v>
       </c>
       <c r="K160" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
@@ -9372,8 +9391,8 @@
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
-      <c r="B161" s="23" t="s">
-        <v>266</v>
+      <c r="B161" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="C161" s="9">
         <v>43930.0</v>
@@ -9394,7 +9413,7 @@
         <v>43942.0</v>
       </c>
       <c r="K161" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
@@ -9417,8 +9436,8 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="B162" s="23" t="s">
-        <v>266</v>
+      <c r="B162" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="C162" s="9">
         <v>43930.0</v>
@@ -9434,12 +9453,12 @@
       </c>
       <c r="G162" s="8"/>
       <c r="H162" s="12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I162" s="12"/>
       <c r="J162" s="13"/>
       <c r="K162" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
@@ -9462,8 +9481,8 @@
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="B163" s="23" t="s">
-        <v>266</v>
+      <c r="B163" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="C163" s="9">
         <v>43930.0</v>
@@ -9479,12 +9498,12 @@
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I163" s="12"/>
       <c r="J163" s="13"/>
       <c r="K163" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
@@ -9507,8 +9526,8 @@
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="B164" s="23" t="s">
-        <v>266</v>
+      <c r="B164" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="C164" s="9">
         <v>43930.0</v>
@@ -9524,14 +9543,14 @@
       </c>
       <c r="G164" s="8"/>
       <c r="H164" s="12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I164" s="12"/>
       <c r="J164" s="18">
         <v>43939.0</v>
       </c>
       <c r="K164" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
@@ -9554,8 +9573,8 @@
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
-      <c r="B165" s="23" t="s">
-        <v>266</v>
+      <c r="B165" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="C165" s="9">
         <v>43930.0</v>
@@ -9573,12 +9592,12 @@
         <v>131.0</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I165" s="12"/>
       <c r="J165" s="18"/>
       <c r="K165" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
@@ -9601,8 +9620,8 @@
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="B166" s="23" t="s">
-        <v>266</v>
+      <c r="B166" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="C166" s="9">
         <v>43930.0</v>
@@ -9623,7 +9642,7 @@
         <v>43938.0</v>
       </c>
       <c r="K166" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
@@ -9646,8 +9665,8 @@
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="B167" s="23" t="s">
-        <v>266</v>
+      <c r="B167" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="C167" s="9">
         <v>43930.0</v>
@@ -9663,14 +9682,14 @@
       </c>
       <c r="G167" s="8"/>
       <c r="H167" s="12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I167" s="12"/>
       <c r="J167" s="18">
         <v>43940.0</v>
       </c>
       <c r="K167" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
@@ -9693,8 +9712,8 @@
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
-      <c r="B168" s="23" t="s">
-        <v>275</v>
+      <c r="B168" s="25" t="s">
+        <v>277</v>
       </c>
       <c r="C168" s="9">
         <v>43931.0</v>
@@ -9712,12 +9731,12 @@
         <v>127.0</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I168" s="12"/>
       <c r="J168" s="13"/>
       <c r="K168" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
@@ -9740,8 +9759,8 @@
         <f t="shared" si="1"/>
         <v>167</v>
       </c>
-      <c r="B169" s="23" t="s">
-        <v>275</v>
+      <c r="B169" s="25" t="s">
+        <v>277</v>
       </c>
       <c r="C169" s="9">
         <v>43931.0</v>
@@ -9753,19 +9772,19 @@
         <v>56</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G169" s="8"/>
-      <c r="H169" s="27" t="s">
-        <v>278</v>
+      <c r="H169" s="22" t="s">
+        <v>280</v>
       </c>
       <c r="I169" s="12"/>
       <c r="J169" s="13"/>
-      <c r="K169" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="L169" s="26" t="s">
+      <c r="K169" s="29" t="s">
         <v>279</v>
+      </c>
+      <c r="L169" s="28" t="s">
+        <v>281</v>
       </c>
       <c r="M169" s="7"/>
       <c r="N169" s="7"/>
@@ -9787,8 +9806,8 @@
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="B170" s="23" t="s">
-        <v>275</v>
+      <c r="B170" s="25" t="s">
+        <v>277</v>
       </c>
       <c r="C170" s="9">
         <v>43931.0</v>
@@ -9797,21 +9816,21 @@
         <v>43931.0</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G170" s="8">
         <v>136.0</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I170" s="12"/>
       <c r="J170" s="13"/>
       <c r="K170" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
@@ -9834,8 +9853,8 @@
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="B171" s="23" t="s">
-        <v>275</v>
+      <c r="B171" s="25" t="s">
+        <v>277</v>
       </c>
       <c r="C171" s="9">
         <v>43931.0</v>
@@ -9851,12 +9870,12 @@
       </c>
       <c r="G171" s="8"/>
       <c r="H171" s="12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I171" s="12"/>
       <c r="J171" s="13"/>
       <c r="K171" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
@@ -9879,8 +9898,8 @@
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="B172" s="23" t="s">
-        <v>275</v>
+      <c r="B172" s="25" t="s">
+        <v>277</v>
       </c>
       <c r="C172" s="9">
         <v>43931.0</v>
@@ -9899,7 +9918,7 @@
       <c r="I172" s="12"/>
       <c r="J172" s="13"/>
       <c r="K172" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
@@ -9922,8 +9941,8 @@
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
-      <c r="B173" s="23" t="s">
-        <v>275</v>
+      <c r="B173" s="25" t="s">
+        <v>277</v>
       </c>
       <c r="C173" s="9">
         <v>43931.0</v>
@@ -9941,12 +9960,12 @@
         <v>172.0</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I173" s="12"/>
       <c r="J173" s="13"/>
       <c r="K173" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
@@ -9969,8 +9988,8 @@
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="B174" s="23" t="s">
-        <v>275</v>
+      <c r="B174" s="25" t="s">
+        <v>277</v>
       </c>
       <c r="C174" s="9">
         <v>43931.0</v>
@@ -9979,7 +9998,7 @@
         <v>43931.0</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F174" s="12" t="s">
         <v>15</v>
@@ -9988,12 +10007,12 @@
         <v>171.0</v>
       </c>
       <c r="H174" s="12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I174" s="12"/>
       <c r="J174" s="13"/>
       <c r="K174" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
@@ -10016,8 +10035,8 @@
         <f t="shared" si="1"/>
         <v>173</v>
       </c>
-      <c r="B175" s="23" t="s">
-        <v>275</v>
+      <c r="B175" s="25" t="s">
+        <v>277</v>
       </c>
       <c r="C175" s="9">
         <v>43931.0</v>
@@ -10032,15 +10051,15 @@
         <v>15</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H175" s="12" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I175" s="12"/>
       <c r="J175" s="13"/>
       <c r="K175" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
@@ -10063,8 +10082,8 @@
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
-      <c r="B176" s="23" t="s">
-        <v>275</v>
+      <c r="B176" s="25" t="s">
+        <v>277</v>
       </c>
       <c r="C176" s="9">
         <v>43931.0</v>
@@ -10083,7 +10102,7 @@
       <c r="I176" s="12"/>
       <c r="J176" s="13"/>
       <c r="K176" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
@@ -10106,8 +10125,8 @@
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="B177" s="23" t="s">
-        <v>286</v>
+      <c r="B177" s="25" t="s">
+        <v>288</v>
       </c>
       <c r="C177" s="9">
         <v>43932.0</v>
@@ -10126,7 +10145,7 @@
       <c r="I177" s="12"/>
       <c r="J177" s="13"/>
       <c r="K177" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
@@ -10149,8 +10168,8 @@
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="B178" s="23" t="s">
-        <v>286</v>
+      <c r="B178" s="25" t="s">
+        <v>288</v>
       </c>
       <c r="C178" s="9">
         <v>43932.0</v>
@@ -10166,12 +10185,12 @@
       </c>
       <c r="G178" s="8"/>
       <c r="H178" s="12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I178" s="12"/>
       <c r="J178" s="13"/>
       <c r="K178" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
@@ -10194,8 +10213,8 @@
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="B179" s="23" t="s">
-        <v>286</v>
+      <c r="B179" s="25" t="s">
+        <v>288</v>
       </c>
       <c r="C179" s="9">
         <v>43932.0</v>
@@ -10207,14 +10226,14 @@
         <v>14</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G179" s="8"/>
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
       <c r="J179" s="13"/>
       <c r="K179" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
@@ -10237,8 +10256,8 @@
         <f t="shared" si="1"/>
         <v>178</v>
       </c>
-      <c r="B180" s="23" t="s">
-        <v>286</v>
+      <c r="B180" s="25" t="s">
+        <v>288</v>
       </c>
       <c r="C180" s="9">
         <v>43932.0</v>
@@ -10257,7 +10276,7 @@
       <c r="I180" s="12"/>
       <c r="J180" s="13"/>
       <c r="K180" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
@@ -10280,8 +10299,8 @@
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
-      <c r="B181" s="23" t="s">
-        <v>286</v>
+      <c r="B181" s="25" t="s">
+        <v>288</v>
       </c>
       <c r="C181" s="9">
         <v>43932.0</v>
@@ -10300,7 +10319,7 @@
       <c r="I181" s="12"/>
       <c r="J181" s="13"/>
       <c r="K181" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
@@ -10323,8 +10342,8 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="B182" s="23" t="s">
-        <v>286</v>
+      <c r="B182" s="25" t="s">
+        <v>288</v>
       </c>
       <c r="C182" s="9">
         <v>43932.0</v>
@@ -10342,12 +10361,12 @@
         <v>158.0</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I182" s="12"/>
       <c r="J182" s="13"/>
       <c r="K182" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
@@ -10370,8 +10389,8 @@
         <f t="shared" si="1"/>
         <v>181</v>
       </c>
-      <c r="B183" s="23" t="s">
-        <v>286</v>
+      <c r="B183" s="25" t="s">
+        <v>288</v>
       </c>
       <c r="C183" s="9">
         <v>43932.0</v>
@@ -10390,7 +10409,7 @@
       <c r="I183" s="12"/>
       <c r="J183" s="13"/>
       <c r="K183" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
@@ -10413,8 +10432,8 @@
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="B184" s="23" t="s">
-        <v>291</v>
+      <c r="B184" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="C184" s="9">
         <v>43933.0</v>
@@ -10430,12 +10449,12 @@
       </c>
       <c r="G184" s="8"/>
       <c r="H184" s="12" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I184" s="12"/>
       <c r="J184" s="13"/>
       <c r="K184" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
@@ -10458,8 +10477,8 @@
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="B185" s="23" t="s">
-        <v>291</v>
+      <c r="B185" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="C185" s="9">
         <v>43933.0</v>
@@ -10468,7 +10487,7 @@
         <v>43933.0</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F185" s="12" t="s">
         <v>15</v>
@@ -10477,12 +10496,12 @@
         <v>173.0</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I185" s="12"/>
       <c r="J185" s="13"/>
       <c r="K185" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
@@ -10505,8 +10524,8 @@
         <f t="shared" si="1"/>
         <v>184</v>
       </c>
-      <c r="B186" s="23" t="s">
-        <v>291</v>
+      <c r="B186" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="C186" s="9">
         <v>43933.0</v>
@@ -10524,12 +10543,12 @@
         <v>173.0</v>
       </c>
       <c r="H186" s="12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I186" s="12"/>
       <c r="J186" s="13"/>
       <c r="K186" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
@@ -10552,8 +10571,8 @@
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="B187" s="23" t="s">
-        <v>291</v>
+      <c r="B187" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="C187" s="9">
         <v>43933.0</v>
@@ -10562,21 +10581,21 @@
         <v>43933.0</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F187" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H187" s="12" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I187" s="12"/>
       <c r="J187" s="13"/>
       <c r="K187" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
@@ -10599,8 +10618,8 @@
         <f t="shared" si="1"/>
         <v>186</v>
       </c>
-      <c r="B188" s="23" t="s">
-        <v>291</v>
+      <c r="B188" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="C188" s="9">
         <v>43933.0</v>
@@ -10609,21 +10628,21 @@
         <v>43933.0</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F188" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H188" s="12" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I188" s="12"/>
       <c r="J188" s="13"/>
       <c r="K188" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
@@ -10646,8 +10665,8 @@
         <f t="shared" si="1"/>
         <v>187</v>
       </c>
-      <c r="B189" s="23" t="s">
-        <v>291</v>
+      <c r="B189" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="C189" s="9">
         <v>43933.0</v>
@@ -10663,12 +10682,12 @@
       </c>
       <c r="G189" s="8"/>
       <c r="H189" s="12" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I189" s="12"/>
       <c r="J189" s="13"/>
       <c r="K189" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
@@ -10691,8 +10710,8 @@
         <f t="shared" si="1"/>
         <v>188</v>
       </c>
-      <c r="B190" s="23" t="s">
-        <v>291</v>
+      <c r="B190" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="C190" s="9">
         <v>43933.0</v>
@@ -10711,7 +10730,7 @@
       <c r="I190" s="12"/>
       <c r="J190" s="13"/>
       <c r="K190" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
@@ -10734,8 +10753,8 @@
         <f t="shared" si="1"/>
         <v>189</v>
       </c>
-      <c r="B191" s="23" t="s">
-        <v>291</v>
+      <c r="B191" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="C191" s="9">
         <v>43933.0</v>
@@ -10751,12 +10770,12 @@
       </c>
       <c r="G191" s="8"/>
       <c r="H191" s="12" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I191" s="12"/>
       <c r="J191" s="13"/>
       <c r="K191" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
@@ -10779,8 +10798,8 @@
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="B192" s="23" t="s">
-        <v>291</v>
+      <c r="B192" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="C192" s="9">
         <v>43933.0</v>
@@ -10799,7 +10818,7 @@
       <c r="I192" s="12"/>
       <c r="J192" s="13"/>
       <c r="K192" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
@@ -10822,8 +10841,8 @@
         <f t="shared" si="1"/>
         <v>191</v>
       </c>
-      <c r="B193" s="23" t="s">
-        <v>291</v>
+      <c r="B193" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="C193" s="9">
         <v>43933.0</v>
@@ -10842,7 +10861,7 @@
       <c r="I193" s="12"/>
       <c r="J193" s="13"/>
       <c r="K193" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
@@ -10865,8 +10884,8 @@
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="B194" s="23" t="s">
-        <v>291</v>
+      <c r="B194" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="C194" s="9">
         <v>43933.0</v>
@@ -10878,16 +10897,16 @@
         <v>56</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G194" s="8"/>
       <c r="H194" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I194" s="12"/>
       <c r="J194" s="13"/>
       <c r="K194" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
@@ -10910,8 +10929,8 @@
         <f t="shared" si="1"/>
         <v>193</v>
       </c>
-      <c r="B195" s="23" t="s">
-        <v>291</v>
+      <c r="B195" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="C195" s="9">
         <v>43933.0</v>
@@ -10930,7 +10949,7 @@
       <c r="I195" s="12"/>
       <c r="J195" s="13"/>
       <c r="K195" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
@@ -10953,8 +10972,8 @@
         <f t="shared" si="1"/>
         <v>194</v>
       </c>
-      <c r="B196" s="23" t="s">
-        <v>308</v>
+      <c r="B196" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="C196" s="9">
         <v>43934.0</v>
@@ -10973,7 +10992,7 @@
       <c r="I196" s="12"/>
       <c r="J196" s="13"/>
       <c r="K196" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
@@ -10996,8 +11015,8 @@
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="B197" s="23" t="s">
-        <v>308</v>
+      <c r="B197" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="C197" s="9">
         <v>43934.0</v>
@@ -11016,7 +11035,7 @@
       <c r="I197" s="12"/>
       <c r="J197" s="13"/>
       <c r="K197" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
@@ -11039,8 +11058,8 @@
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
-      <c r="B198" s="23" t="s">
-        <v>308</v>
+      <c r="B198" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="C198" s="9">
         <v>43934.0</v>
@@ -11059,7 +11078,7 @@
       <c r="I198" s="12"/>
       <c r="J198" s="13"/>
       <c r="K198" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
@@ -11082,8 +11101,8 @@
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
-      <c r="B199" s="23" t="s">
-        <v>308</v>
+      <c r="B199" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="C199" s="9">
         <v>43934.0</v>
@@ -11104,7 +11123,7 @@
         <v>43949.0</v>
       </c>
       <c r="K199" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
@@ -11127,8 +11146,8 @@
         <f t="shared" si="1"/>
         <v>198</v>
       </c>
-      <c r="B200" s="23" t="s">
-        <v>308</v>
+      <c r="B200" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="C200" s="9">
         <v>43934.0</v>
@@ -11149,7 +11168,7 @@
         <v>43949.0</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
@@ -11172,8 +11191,8 @@
         <f t="shared" si="1"/>
         <v>199</v>
       </c>
-      <c r="B201" s="23" t="s">
-        <v>308</v>
+      <c r="B201" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="C201" s="9">
         <v>43934.0</v>
@@ -11182,19 +11201,19 @@
         <v>43934.0</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G201" s="8"/>
       <c r="H201" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I201" s="12"/>
       <c r="J201" s="13"/>
       <c r="K201" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
@@ -11217,8 +11236,8 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="B202" s="23" t="s">
-        <v>308</v>
+      <c r="B202" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="C202" s="9">
         <v>43934.0</v>
@@ -11227,19 +11246,19 @@
         <v>43934.0</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F202" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G202" s="8"/>
       <c r="H202" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I202" s="12"/>
       <c r="J202" s="13"/>
       <c r="K202" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
@@ -11262,8 +11281,8 @@
         <f t="shared" si="1"/>
         <v>201</v>
       </c>
-      <c r="B203" s="23" t="s">
-        <v>308</v>
+      <c r="B203" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="C203" s="9">
         <v>43934.0</v>
@@ -11272,19 +11291,19 @@
         <v>43934.0</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F203" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G203" s="8"/>
       <c r="H203" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I203" s="12"/>
       <c r="J203" s="13"/>
       <c r="K203" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
@@ -11307,8 +11326,8 @@
         <f t="shared" si="1"/>
         <v>202</v>
       </c>
-      <c r="B204" s="23" t="s">
-        <v>308</v>
+      <c r="B204" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="C204" s="9">
         <v>43934.0</v>
@@ -11324,12 +11343,12 @@
       </c>
       <c r="G204" s="8"/>
       <c r="H204" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I204" s="12"/>
       <c r="J204" s="13"/>
       <c r="K204" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
@@ -11352,8 +11371,8 @@
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="B205" s="23" t="s">
-        <v>308</v>
+      <c r="B205" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="C205" s="9">
         <v>43934.0</v>
@@ -11362,19 +11381,19 @@
         <v>43934.0</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F205" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G205" s="8"/>
       <c r="H205" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I205" s="12"/>
       <c r="J205" s="13"/>
       <c r="K205" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
@@ -11397,8 +11416,8 @@
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="B206" s="23" t="s">
-        <v>308</v>
+      <c r="B206" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="C206" s="9">
         <v>43934.0</v>
@@ -11407,19 +11426,19 @@
         <v>43934.0</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F206" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G206" s="8"/>
       <c r="H206" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I206" s="12"/>
       <c r="J206" s="13"/>
       <c r="K206" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
@@ -11442,8 +11461,8 @@
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
-      <c r="B207" s="23" t="s">
-        <v>308</v>
+      <c r="B207" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="C207" s="9">
         <v>43934.0</v>
@@ -11452,19 +11471,19 @@
         <v>43934.0</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F207" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G207" s="8"/>
       <c r="H207" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I207" s="12"/>
       <c r="J207" s="13"/>
       <c r="K207" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
@@ -11487,8 +11506,8 @@
         <f t="shared" si="1"/>
         <v>206</v>
       </c>
-      <c r="B208" s="23" t="s">
-        <v>314</v>
+      <c r="B208" s="25" t="s">
+        <v>316</v>
       </c>
       <c r="C208" s="9">
         <v>43935.0</v>
@@ -11506,14 +11525,14 @@
         <v>90.0</v>
       </c>
       <c r="H208" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I208" s="12"/>
       <c r="J208" s="18">
         <v>43954.0</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
@@ -11536,8 +11555,8 @@
         <f t="shared" si="1"/>
         <v>207</v>
       </c>
-      <c r="B209" s="23" t="s">
-        <v>314</v>
+      <c r="B209" s="25" t="s">
+        <v>316</v>
       </c>
       <c r="C209" s="9">
         <v>43935.0</v>
@@ -11553,12 +11572,12 @@
       </c>
       <c r="G209" s="8"/>
       <c r="H209" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I209" s="12"/>
       <c r="J209" s="13"/>
       <c r="K209" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
@@ -11581,8 +11600,8 @@
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="B210" s="23" t="s">
-        <v>314</v>
+      <c r="B210" s="25" t="s">
+        <v>316</v>
       </c>
       <c r="C210" s="9">
         <v>43935.0</v>
@@ -11591,19 +11610,19 @@
         <v>43935.0</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F210" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G210" s="8"/>
       <c r="H210" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I210" s="12"/>
       <c r="J210" s="13"/>
       <c r="K210" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L210" s="7"/>
       <c r="M210" s="7"/>
@@ -11626,8 +11645,8 @@
         <f t="shared" si="1"/>
         <v>209</v>
       </c>
-      <c r="B211" s="23" t="s">
-        <v>314</v>
+      <c r="B211" s="25" t="s">
+        <v>316</v>
       </c>
       <c r="C211" s="9">
         <v>43935.0</v>
@@ -11643,12 +11662,12 @@
       </c>
       <c r="G211" s="8"/>
       <c r="H211" s="12" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I211" s="12"/>
       <c r="J211" s="13"/>
       <c r="K211" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L211" s="7"/>
       <c r="M211" s="7"/>
@@ -11671,8 +11690,8 @@
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="B212" s="23" t="s">
-        <v>314</v>
+      <c r="B212" s="25" t="s">
+        <v>316</v>
       </c>
       <c r="C212" s="9">
         <v>43935.0</v>
@@ -11691,7 +11710,7 @@
       <c r="I212" s="12"/>
       <c r="J212" s="13"/>
       <c r="K212" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
@@ -11714,8 +11733,8 @@
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="B213" s="23" t="s">
-        <v>320</v>
+      <c r="B213" s="25" t="s">
+        <v>322</v>
       </c>
       <c r="C213" s="9">
         <v>43936.0</v>
@@ -11734,7 +11753,7 @@
       <c r="I213" s="12"/>
       <c r="J213" s="13"/>
       <c r="K213" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L213" s="7"/>
       <c r="M213" s="7"/>
@@ -11757,8 +11776,8 @@
         <f t="shared" si="1"/>
         <v>212</v>
       </c>
-      <c r="B214" s="23" t="s">
-        <v>320</v>
+      <c r="B214" s="25" t="s">
+        <v>322</v>
       </c>
       <c r="C214" s="9">
         <v>43936.0</v>
@@ -11774,12 +11793,12 @@
       </c>
       <c r="G214" s="8"/>
       <c r="H214" s="12" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I214" s="12"/>
       <c r="J214" s="13"/>
       <c r="K214" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L214" s="7"/>
       <c r="M214" s="7"/>
@@ -11802,8 +11821,8 @@
         <f t="shared" si="1"/>
         <v>213</v>
       </c>
-      <c r="B215" s="23" t="s">
-        <v>320</v>
+      <c r="B215" s="25" t="s">
+        <v>322</v>
       </c>
       <c r="C215" s="9">
         <v>43936.0</v>
@@ -11819,12 +11838,12 @@
       </c>
       <c r="G215" s="8"/>
       <c r="H215" s="12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I215" s="12"/>
       <c r="J215" s="13"/>
       <c r="K215" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L215" s="7"/>
       <c r="M215" s="7"/>
@@ -11847,8 +11866,8 @@
         <f t="shared" si="1"/>
         <v>214</v>
       </c>
-      <c r="B216" s="23" t="s">
-        <v>320</v>
+      <c r="B216" s="25" t="s">
+        <v>322</v>
       </c>
       <c r="C216" s="9">
         <v>43936.0</v>
@@ -11866,12 +11885,12 @@
         <v>107.0</v>
       </c>
       <c r="H216" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I216" s="12"/>
       <c r="J216" s="13"/>
       <c r="K216" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
@@ -11894,8 +11913,8 @@
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
-      <c r="B217" s="23" t="s">
-        <v>320</v>
+      <c r="B217" s="25" t="s">
+        <v>322</v>
       </c>
       <c r="C217" s="9">
         <v>43936.0</v>
@@ -11914,7 +11933,7 @@
       <c r="I217" s="12"/>
       <c r="J217" s="13"/>
       <c r="K217" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
@@ -11937,8 +11956,8 @@
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="B218" s="23" t="s">
-        <v>325</v>
+      <c r="B218" s="25" t="s">
+        <v>327</v>
       </c>
       <c r="C218" s="9">
         <v>43937.0</v>
@@ -11957,7 +11976,7 @@
       <c r="I218" s="12"/>
       <c r="J218" s="13"/>
       <c r="K218" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L218" s="7"/>
       <c r="M218" s="7"/>
@@ -11980,8 +11999,8 @@
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="B219" s="23" t="s">
-        <v>325</v>
+      <c r="B219" s="25" t="s">
+        <v>327</v>
       </c>
       <c r="C219" s="9">
         <v>43937.0</v>
@@ -12002,7 +12021,7 @@
         <v>43954.0</v>
       </c>
       <c r="K219" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
@@ -12025,8 +12044,8 @@
         <f t="shared" si="1"/>
         <v>218</v>
       </c>
-      <c r="B220" s="23" t="s">
-        <v>325</v>
+      <c r="B220" s="25" t="s">
+        <v>327</v>
       </c>
       <c r="C220" s="9">
         <v>43937.0</v>
@@ -12038,14 +12057,14 @@
         <v>20</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G220" s="8"/>
       <c r="H220" s="12"/>
       <c r="I220" s="12"/>
       <c r="J220" s="13"/>
       <c r="K220" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
@@ -12068,8 +12087,8 @@
         <f t="shared" si="1"/>
         <v>219</v>
       </c>
-      <c r="B221" s="23" t="s">
-        <v>325</v>
+      <c r="B221" s="25" t="s">
+        <v>327</v>
       </c>
       <c r="C221" s="9">
         <v>43937.0</v>
@@ -12081,7 +12100,7 @@
         <v>33</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G221" s="8"/>
       <c r="H221" s="12"/>
@@ -12090,7 +12109,7 @@
         <v>43945.0</v>
       </c>
       <c r="K221" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L221" s="7"/>
       <c r="M221" s="7"/>
@@ -12113,8 +12132,8 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="B222" s="23" t="s">
-        <v>325</v>
+      <c r="B222" s="25" t="s">
+        <v>327</v>
       </c>
       <c r="C222" s="9">
         <v>43937.0</v>
@@ -12132,12 +12151,12 @@
         <v>192.0</v>
       </c>
       <c r="H222" s="12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I222" s="12"/>
       <c r="J222" s="13"/>
       <c r="K222" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L222" s="7"/>
       <c r="M222" s="7"/>
@@ -12160,8 +12179,8 @@
         <f t="shared" si="1"/>
         <v>221</v>
       </c>
-      <c r="B223" s="23" t="s">
-        <v>325</v>
+      <c r="B223" s="25" t="s">
+        <v>327</v>
       </c>
       <c r="C223" s="9">
         <v>43937.0</v>
@@ -12180,7 +12199,7 @@
       <c r="I223" s="12"/>
       <c r="J223" s="13"/>
       <c r="K223" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
@@ -12203,8 +12222,8 @@
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-      <c r="B224" s="23" t="s">
-        <v>325</v>
+      <c r="B224" s="25" t="s">
+        <v>327</v>
       </c>
       <c r="C224" s="9">
         <v>43937.0</v>
@@ -12222,8 +12241,8 @@
       <c r="H224" s="12"/>
       <c r="I224" s="12"/>
       <c r="J224" s="13"/>
-      <c r="K224" s="29" t="s">
-        <v>329</v>
+      <c r="K224" s="30" t="s">
+        <v>331</v>
       </c>
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
@@ -12246,8 +12265,8 @@
         <f t="shared" si="1"/>
         <v>223</v>
       </c>
-      <c r="B225" s="23" t="s">
-        <v>325</v>
+      <c r="B225" s="25" t="s">
+        <v>327</v>
       </c>
       <c r="C225" s="9">
         <v>43937.0</v>
@@ -12256,7 +12275,7 @@
         <v>43937.0</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F225" s="12" t="s">
         <v>15</v>
@@ -12265,8 +12284,8 @@
       <c r="H225" s="12"/>
       <c r="I225" s="12"/>
       <c r="J225" s="13"/>
-      <c r="K225" s="29" t="s">
-        <v>329</v>
+      <c r="K225" s="30" t="s">
+        <v>331</v>
       </c>
       <c r="L225" s="7"/>
       <c r="M225" s="7"/>
@@ -12289,8 +12308,8 @@
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="B226" s="23" t="s">
-        <v>325</v>
+      <c r="B226" s="25" t="s">
+        <v>327</v>
       </c>
       <c r="C226" s="9">
         <v>43937.0</v>
@@ -12299,7 +12318,7 @@
         <v>43937.0</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F226" s="12" t="s">
         <v>15</v>
@@ -12308,8 +12327,8 @@
       <c r="H226" s="12"/>
       <c r="I226" s="12"/>
       <c r="J226" s="13"/>
-      <c r="K226" s="29" t="s">
-        <v>329</v>
+      <c r="K226" s="30" t="s">
+        <v>331</v>
       </c>
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
@@ -12332,8 +12351,8 @@
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="B227" s="23" t="s">
-        <v>325</v>
+      <c r="B227" s="25" t="s">
+        <v>327</v>
       </c>
       <c r="C227" s="9">
         <v>43937.0</v>
@@ -12342,7 +12361,7 @@
         <v>43937.0</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F227" s="12" t="s">
         <v>15</v>
@@ -12351,8 +12370,8 @@
       <c r="H227" s="12"/>
       <c r="I227" s="12"/>
       <c r="J227" s="13"/>
-      <c r="K227" s="29" t="s">
-        <v>329</v>
+      <c r="K227" s="30" t="s">
+        <v>331</v>
       </c>
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
@@ -12375,27 +12394,27 @@
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="B228" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C228" s="30">
+      <c r="B228" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C228" s="31">
         <v>43938.0</v>
       </c>
-      <c r="D228" s="31">
+      <c r="D228" s="32">
         <v>43938.0</v>
       </c>
-      <c r="E228" s="25" t="s">
+      <c r="E228" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F228" s="27" t="s">
+      <c r="F228" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G228" s="8"/>
       <c r="H228" s="12"/>
       <c r="I228" s="12"/>
       <c r="J228" s="13"/>
-      <c r="K228" s="26" t="s">
-        <v>331</v>
+      <c r="K228" s="28" t="s">
+        <v>333</v>
       </c>
       <c r="L228" s="7"/>
       <c r="M228" s="7"/>
@@ -12418,27 +12437,27 @@
         <f t="shared" si="1"/>
         <v>227</v>
       </c>
-      <c r="B229" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C229" s="30">
+      <c r="B229" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C229" s="31">
         <v>43938.0</v>
       </c>
-      <c r="D229" s="31">
+      <c r="D229" s="32">
         <v>43938.0</v>
       </c>
-      <c r="E229" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="F229" s="27" t="s">
+      <c r="E229" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="F229" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G229" s="8"/>
       <c r="H229" s="12"/>
       <c r="I229" s="12"/>
       <c r="J229" s="13"/>
-      <c r="K229" s="29" t="s">
-        <v>331</v>
+      <c r="K229" s="30" t="s">
+        <v>333</v>
       </c>
       <c r="L229" s="7"/>
       <c r="M229" s="7"/>
@@ -12461,31 +12480,31 @@
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
-      <c r="B230" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C230" s="30">
+      <c r="B230" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C230" s="31">
         <v>43938.0</v>
       </c>
-      <c r="D230" s="31">
+      <c r="D230" s="32">
         <v>43938.0</v>
       </c>
-      <c r="E230" s="25" t="s">
+      <c r="E230" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F230" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="G230" s="32">
+      <c r="F230" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="G230" s="33">
         <v>219.0</v>
       </c>
-      <c r="H230" s="27" t="s">
-        <v>334</v>
+      <c r="H230" s="22" t="s">
+        <v>336</v>
       </c>
       <c r="I230" s="12"/>
       <c r="J230" s="13"/>
-      <c r="K230" s="29" t="s">
-        <v>331</v>
+      <c r="K230" s="30" t="s">
+        <v>333</v>
       </c>
       <c r="L230" s="7"/>
       <c r="M230" s="7"/>
@@ -12508,27 +12527,27 @@
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
-      <c r="B231" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C231" s="30">
+      <c r="B231" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C231" s="31">
         <v>43938.0</v>
       </c>
-      <c r="D231" s="31">
+      <c r="D231" s="32">
         <v>43938.0</v>
       </c>
-      <c r="E231" s="25" t="s">
+      <c r="E231" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F231" s="27" t="s">
+      <c r="F231" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G231" s="8"/>
       <c r="H231" s="12"/>
       <c r="I231" s="12"/>
       <c r="J231" s="13"/>
-      <c r="K231" s="26" t="s">
-        <v>335</v>
+      <c r="K231" s="28" t="s">
+        <v>337</v>
       </c>
       <c r="L231" s="7"/>
       <c r="M231" s="7"/>
@@ -12551,27 +12570,27 @@
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="B232" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C232" s="30">
+      <c r="B232" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C232" s="31">
         <v>43938.0</v>
       </c>
-      <c r="D232" s="31">
+      <c r="D232" s="32">
         <v>43938.0</v>
       </c>
-      <c r="E232" s="25" t="s">
+      <c r="E232" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F232" s="27" t="s">
+      <c r="F232" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G232" s="8"/>
       <c r="H232" s="12"/>
       <c r="I232" s="12"/>
       <c r="J232" s="13"/>
-      <c r="K232" s="29" t="s">
-        <v>335</v>
+      <c r="K232" s="30" t="s">
+        <v>337</v>
       </c>
       <c r="L232" s="7"/>
       <c r="M232" s="7"/>
@@ -12594,27 +12613,27 @@
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="B233" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C233" s="30">
+      <c r="B233" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C233" s="31">
         <v>43938.0</v>
       </c>
-      <c r="D233" s="31">
+      <c r="D233" s="32">
         <v>43938.0</v>
       </c>
-      <c r="E233" s="25" t="s">
+      <c r="E233" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F233" s="27" t="s">
+      <c r="F233" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G233" s="8"/>
       <c r="H233" s="12"/>
       <c r="I233" s="12"/>
       <c r="J233" s="13"/>
-      <c r="K233" s="29" t="s">
-        <v>335</v>
+      <c r="K233" s="30" t="s">
+        <v>337</v>
       </c>
       <c r="L233" s="7"/>
       <c r="M233" s="7"/>
@@ -12637,27 +12656,27 @@
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="B234" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C234" s="30">
+      <c r="B234" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C234" s="31">
         <v>43938.0</v>
       </c>
-      <c r="D234" s="31">
+      <c r="D234" s="32">
         <v>43938.0</v>
       </c>
-      <c r="E234" s="25" t="s">
+      <c r="E234" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F234" s="27" t="s">
+      <c r="F234" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G234" s="8"/>
       <c r="H234" s="12"/>
       <c r="I234" s="12"/>
       <c r="J234" s="13"/>
-      <c r="K234" s="29" t="s">
-        <v>335</v>
+      <c r="K234" s="30" t="s">
+        <v>337</v>
       </c>
       <c r="L234" s="7"/>
       <c r="M234" s="7"/>
@@ -12680,27 +12699,27 @@
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
-      <c r="B235" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C235" s="30">
+      <c r="B235" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C235" s="31">
         <v>43938.0</v>
       </c>
-      <c r="D235" s="31">
+      <c r="D235" s="32">
         <v>43938.0</v>
       </c>
-      <c r="E235" s="25" t="s">
+      <c r="E235" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F235" s="27" t="s">
+      <c r="F235" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G235" s="8"/>
       <c r="H235" s="12"/>
       <c r="I235" s="12"/>
       <c r="J235" s="13"/>
-      <c r="K235" s="29" t="s">
-        <v>335</v>
+      <c r="K235" s="30" t="s">
+        <v>337</v>
       </c>
       <c r="L235" s="7"/>
       <c r="M235" s="7"/>
@@ -12723,27 +12742,27 @@
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
-      <c r="B236" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C236" s="30">
+      <c r="B236" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C236" s="31">
         <v>43938.0</v>
       </c>
-      <c r="D236" s="31">
+      <c r="D236" s="32">
         <v>43938.0</v>
       </c>
-      <c r="E236" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F236" s="27" t="s">
+      <c r="E236" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F236" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G236" s="8"/>
       <c r="H236" s="12"/>
       <c r="I236" s="12"/>
       <c r="J236" s="13"/>
-      <c r="K236" s="29" t="s">
-        <v>335</v>
+      <c r="K236" s="30" t="s">
+        <v>337</v>
       </c>
       <c r="L236" s="7"/>
       <c r="M236" s="7"/>
@@ -12766,27 +12785,27 @@
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="B237" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C237" s="30">
+      <c r="B237" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C237" s="31">
         <v>43938.0</v>
       </c>
-      <c r="D237" s="31">
+      <c r="D237" s="32">
         <v>43938.0</v>
       </c>
-      <c r="E237" s="25" t="s">
+      <c r="E237" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F237" s="27" t="s">
+      <c r="F237" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G237" s="8"/>
       <c r="H237" s="12"/>
       <c r="I237" s="12"/>
       <c r="J237" s="13"/>
-      <c r="K237" s="29" t="s">
-        <v>335</v>
+      <c r="K237" s="30" t="s">
+        <v>337</v>
       </c>
       <c r="L237" s="7"/>
       <c r="M237" s="7"/>
@@ -12809,27 +12828,27 @@
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
-      <c r="B238" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C238" s="30">
+      <c r="B238" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C238" s="31">
         <v>43939.0</v>
       </c>
-      <c r="D238" s="31">
+      <c r="D238" s="32">
         <v>43939.0</v>
       </c>
-      <c r="E238" s="25" t="s">
+      <c r="E238" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="F238" s="27" t="s">
+      <c r="F238" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G238" s="8"/>
       <c r="H238" s="12"/>
       <c r="I238" s="12"/>
       <c r="J238" s="13"/>
-      <c r="K238" s="29" t="s">
-        <v>337</v>
+      <c r="K238" s="30" t="s">
+        <v>339</v>
       </c>
       <c r="L238" s="7"/>
       <c r="M238" s="7"/>
@@ -12852,27 +12871,27 @@
         <f t="shared" si="1"/>
         <v>237</v>
       </c>
-      <c r="B239" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C239" s="30">
+      <c r="B239" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C239" s="31">
         <v>43939.0</v>
       </c>
-      <c r="D239" s="31">
+      <c r="D239" s="32">
         <v>43939.0</v>
       </c>
-      <c r="E239" s="25" t="s">
+      <c r="E239" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F239" s="27" t="s">
+      <c r="F239" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G239" s="8"/>
       <c r="H239" s="12"/>
       <c r="I239" s="12"/>
       <c r="J239" s="13"/>
-      <c r="K239" s="29" t="s">
-        <v>337</v>
+      <c r="K239" s="30" t="s">
+        <v>339</v>
       </c>
       <c r="L239" s="7"/>
       <c r="M239" s="7"/>
@@ -12895,27 +12914,27 @@
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
-      <c r="B240" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C240" s="30">
+      <c r="B240" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C240" s="31">
         <v>43939.0</v>
       </c>
-      <c r="D240" s="31">
+      <c r="D240" s="32">
         <v>43939.0</v>
       </c>
-      <c r="E240" s="25" t="s">
+      <c r="E240" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F240" s="27" t="s">
+      <c r="F240" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G240" s="8"/>
       <c r="H240" s="12"/>
       <c r="I240" s="12"/>
       <c r="J240" s="13"/>
-      <c r="K240" s="29" t="s">
-        <v>337</v>
+      <c r="K240" s="30" t="s">
+        <v>339</v>
       </c>
       <c r="L240" s="7"/>
       <c r="M240" s="7"/>
@@ -12938,27 +12957,27 @@
         <f t="shared" si="1"/>
         <v>239</v>
       </c>
-      <c r="B241" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C241" s="30">
+      <c r="B241" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C241" s="31">
         <v>43939.0</v>
       </c>
-      <c r="D241" s="31">
+      <c r="D241" s="32">
         <v>43939.0</v>
       </c>
-      <c r="E241" s="25" t="s">
+      <c r="E241" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F241" s="27" t="s">
+      <c r="F241" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G241" s="8"/>
       <c r="H241" s="12"/>
       <c r="I241" s="12"/>
       <c r="J241" s="13"/>
-      <c r="K241" s="29" t="s">
-        <v>337</v>
+      <c r="K241" s="30" t="s">
+        <v>339</v>
       </c>
       <c r="L241" s="7"/>
       <c r="M241" s="7"/>
@@ -12981,27 +13000,27 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="B242" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C242" s="30">
+      <c r="B242" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C242" s="31">
         <v>43939.0</v>
       </c>
-      <c r="D242" s="31">
+      <c r="D242" s="32">
         <v>43939.0</v>
       </c>
-      <c r="E242" s="25" t="s">
+      <c r="E242" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F242" s="27" t="s">
+      <c r="F242" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G242" s="8"/>
       <c r="H242" s="12"/>
       <c r="I242" s="12"/>
       <c r="J242" s="13"/>
-      <c r="K242" s="29" t="s">
-        <v>337</v>
+      <c r="K242" s="30" t="s">
+        <v>339</v>
       </c>
       <c r="L242" s="7"/>
       <c r="M242" s="7"/>
@@ -13024,27 +13043,27 @@
         <f t="shared" si="1"/>
         <v>241</v>
       </c>
-      <c r="B243" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C243" s="30">
+      <c r="B243" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C243" s="31">
         <v>43939.0</v>
       </c>
-      <c r="D243" s="31">
+      <c r="D243" s="32">
         <v>43939.0</v>
       </c>
-      <c r="E243" s="25" t="s">
+      <c r="E243" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F243" s="27" t="s">
+      <c r="F243" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G243" s="8"/>
       <c r="H243" s="12"/>
       <c r="I243" s="12"/>
       <c r="J243" s="13"/>
-      <c r="K243" s="29" t="s">
-        <v>337</v>
+      <c r="K243" s="30" t="s">
+        <v>339</v>
       </c>
       <c r="L243" s="7"/>
       <c r="M243" s="7"/>
@@ -13067,27 +13086,27 @@
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
-      <c r="B244" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C244" s="30">
+      <c r="B244" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C244" s="31">
         <v>43939.0</v>
       </c>
-      <c r="D244" s="31">
+      <c r="D244" s="32">
         <v>43939.0</v>
       </c>
-      <c r="E244" s="25" t="s">
+      <c r="E244" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F244" s="27" t="s">
+      <c r="F244" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G244" s="8"/>
       <c r="H244" s="12"/>
       <c r="I244" s="12"/>
       <c r="J244" s="13"/>
-      <c r="K244" s="29" t="s">
-        <v>337</v>
+      <c r="K244" s="30" t="s">
+        <v>339</v>
       </c>
       <c r="L244" s="7"/>
       <c r="M244" s="7"/>
@@ -13110,19 +13129,19 @@
         <f t="shared" si="1"/>
         <v>243</v>
       </c>
-      <c r="B245" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C245" s="30">
+      <c r="B245" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C245" s="31">
         <v>43940.0</v>
       </c>
-      <c r="D245" s="31">
+      <c r="D245" s="32">
         <v>43940.0</v>
       </c>
-      <c r="E245" s="25" t="s">
+      <c r="E245" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F245" s="27" t="s">
+      <c r="F245" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G245" s="8"/>
@@ -13131,8 +13150,8 @@
       <c r="J245" s="18">
         <v>43944.0</v>
       </c>
-      <c r="K245" s="29" t="s">
-        <v>339</v>
+      <c r="K245" s="30" t="s">
+        <v>341</v>
       </c>
       <c r="L245" s="7"/>
       <c r="M245" s="7"/>
@@ -13155,27 +13174,27 @@
         <f t="shared" si="1"/>
         <v>244</v>
       </c>
-      <c r="B246" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C246" s="30">
+      <c r="B246" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C246" s="31">
         <v>43940.0</v>
       </c>
-      <c r="D246" s="31">
+      <c r="D246" s="32">
         <v>43940.0</v>
       </c>
-      <c r="E246" s="25" t="s">
+      <c r="E246" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F246" s="27" t="s">
-        <v>231</v>
+      <c r="F246" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="G246" s="8"/>
       <c r="H246" s="12"/>
       <c r="I246" s="12"/>
       <c r="J246" s="13"/>
-      <c r="K246" s="29" t="s">
-        <v>339</v>
+      <c r="K246" s="30" t="s">
+        <v>341</v>
       </c>
       <c r="L246" s="7"/>
       <c r="M246" s="7"/>
@@ -13198,27 +13217,27 @@
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="B247" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C247" s="30">
+      <c r="B247" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C247" s="31">
         <v>43940.0</v>
       </c>
-      <c r="D247" s="31">
+      <c r="D247" s="32">
         <v>43940.0</v>
       </c>
-      <c r="E247" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F247" s="27" t="s">
+      <c r="E247" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F247" s="22" t="s">
         <v>156</v>
       </c>
       <c r="G247" s="8"/>
       <c r="H247" s="12"/>
       <c r="I247" s="12"/>
       <c r="J247" s="13"/>
-      <c r="K247" s="29" t="s">
-        <v>339</v>
+      <c r="K247" s="30" t="s">
+        <v>341</v>
       </c>
       <c r="L247" s="7"/>
       <c r="M247" s="7"/>
@@ -13241,27 +13260,27 @@
         <f t="shared" si="1"/>
         <v>246</v>
       </c>
-      <c r="B248" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C248" s="30">
+      <c r="B248" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C248" s="31">
         <v>43940.0</v>
       </c>
-      <c r="D248" s="31">
+      <c r="D248" s="32">
         <v>43940.0</v>
       </c>
-      <c r="E248" s="25" t="s">
+      <c r="E248" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F248" s="27" t="s">
+      <c r="F248" s="22" t="s">
         <v>156</v>
       </c>
       <c r="G248" s="8"/>
       <c r="H248" s="12"/>
       <c r="I248" s="12"/>
       <c r="J248" s="13"/>
-      <c r="K248" s="29" t="s">
-        <v>339</v>
+      <c r="K248" s="30" t="s">
+        <v>341</v>
       </c>
       <c r="L248" s="7"/>
       <c r="M248" s="7"/>
@@ -13284,27 +13303,27 @@
         <f t="shared" si="1"/>
         <v>247</v>
       </c>
-      <c r="B249" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C249" s="30">
+      <c r="B249" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C249" s="31">
         <v>43940.0</v>
       </c>
-      <c r="D249" s="31">
+      <c r="D249" s="32">
         <v>43940.0</v>
       </c>
-      <c r="E249" s="25" t="s">
+      <c r="E249" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F249" s="27" t="s">
+      <c r="F249" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G249" s="8"/>
       <c r="H249" s="12"/>
       <c r="I249" s="12"/>
       <c r="J249" s="13"/>
-      <c r="K249" s="29" t="s">
-        <v>340</v>
+      <c r="K249" s="30" t="s">
+        <v>342</v>
       </c>
       <c r="L249" s="7"/>
       <c r="M249" s="7"/>
@@ -13327,27 +13346,27 @@
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
-      <c r="B250" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C250" s="30">
+      <c r="B250" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C250" s="31">
         <v>43940.0</v>
       </c>
-      <c r="D250" s="31">
+      <c r="D250" s="32">
         <v>43940.0</v>
       </c>
-      <c r="E250" s="25" t="s">
+      <c r="E250" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F250" s="27" t="s">
+      <c r="F250" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G250" s="8"/>
       <c r="H250" s="12"/>
       <c r="I250" s="12"/>
       <c r="J250" s="13"/>
-      <c r="K250" s="29" t="s">
-        <v>340</v>
+      <c r="K250" s="30" t="s">
+        <v>342</v>
       </c>
       <c r="L250" s="7"/>
       <c r="M250" s="7"/>
@@ -13370,27 +13389,27 @@
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
-      <c r="B251" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C251" s="30">
+      <c r="B251" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C251" s="31">
         <v>43940.0</v>
       </c>
-      <c r="D251" s="31">
+      <c r="D251" s="32">
         <v>43940.0</v>
       </c>
-      <c r="E251" s="25" t="s">
+      <c r="E251" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F251" s="27" t="s">
+      <c r="F251" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G251" s="8"/>
       <c r="H251" s="12"/>
       <c r="I251" s="12"/>
       <c r="J251" s="13"/>
-      <c r="K251" s="29" t="s">
-        <v>340</v>
+      <c r="K251" s="30" t="s">
+        <v>342</v>
       </c>
       <c r="L251" s="7"/>
       <c r="M251" s="7"/>
@@ -13413,27 +13432,27 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="B252" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C252" s="30">
+      <c r="B252" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C252" s="31">
         <v>43940.0</v>
       </c>
-      <c r="D252" s="31">
+      <c r="D252" s="32">
         <v>43940.0</v>
       </c>
-      <c r="E252" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="F252" s="27" t="s">
+      <c r="E252" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F252" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G252" s="8"/>
       <c r="H252" s="12"/>
       <c r="I252" s="12"/>
       <c r="J252" s="13"/>
-      <c r="K252" s="29" t="s">
-        <v>340</v>
+      <c r="K252" s="30" t="s">
+        <v>342</v>
       </c>
       <c r="L252" s="7"/>
       <c r="M252" s="7"/>
@@ -13456,29 +13475,29 @@
         <f t="shared" si="1"/>
         <v>251</v>
       </c>
-      <c r="B253" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C253" s="30">
+      <c r="B253" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C253" s="31">
         <v>43940.0</v>
       </c>
-      <c r="D253" s="31">
+      <c r="D253" s="32">
         <v>43940.0</v>
       </c>
-      <c r="E253" s="25" t="s">
+      <c r="E253" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F253" s="27" t="s">
+      <c r="F253" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G253" s="8"/>
-      <c r="H253" s="27" t="s">
-        <v>278</v>
+      <c r="H253" s="22" t="s">
+        <v>280</v>
       </c>
       <c r="I253" s="12"/>
       <c r="J253" s="13"/>
-      <c r="K253" s="29" t="s">
-        <v>340</v>
+      <c r="K253" s="30" t="s">
+        <v>342</v>
       </c>
       <c r="L253" s="7"/>
       <c r="M253" s="7"/>
@@ -13501,33 +13520,33 @@
         <f t="shared" si="1"/>
         <v>252</v>
       </c>
-      <c r="B254" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C254" s="30">
+      <c r="B254" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C254" s="31">
         <v>43941.0</v>
       </c>
-      <c r="D254" s="31">
+      <c r="D254" s="32">
         <v>43941.0</v>
       </c>
-      <c r="E254" s="25" t="s">
+      <c r="E254" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F254" s="27" t="s">
+      <c r="F254" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G254" s="32">
+      <c r="G254" s="33">
         <v>246.0</v>
       </c>
-      <c r="H254" s="27" t="s">
-        <v>342</v>
+      <c r="H254" s="22" t="s">
+        <v>344</v>
       </c>
       <c r="I254" s="12"/>
       <c r="J254" s="18">
         <v>43954.0</v>
       </c>
-      <c r="K254" s="29" t="s">
-        <v>343</v>
+      <c r="K254" s="30" t="s">
+        <v>345</v>
       </c>
       <c r="L254" s="7"/>
       <c r="M254" s="7"/>
@@ -13550,29 +13569,29 @@
         <f t="shared" si="1"/>
         <v>253</v>
       </c>
-      <c r="B255" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C255" s="30">
+      <c r="B255" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C255" s="31">
         <v>43941.0</v>
       </c>
-      <c r="D255" s="31">
+      <c r="D255" s="32">
         <v>43941.0</v>
       </c>
-      <c r="E255" s="25" t="s">
+      <c r="E255" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F255" s="27" t="s">
+      <c r="F255" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G255" s="8"/>
-      <c r="H255" s="27" t="s">
-        <v>344</v>
+      <c r="H255" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="I255" s="12"/>
       <c r="J255" s="13"/>
-      <c r="K255" s="29" t="s">
-        <v>345</v>
+      <c r="K255" s="30" t="s">
+        <v>347</v>
       </c>
       <c r="L255" s="7"/>
       <c r="M255" s="7"/>
@@ -13595,31 +13614,31 @@
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="B256" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C256" s="30">
+      <c r="B256" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C256" s="31">
         <v>43941.0</v>
       </c>
-      <c r="D256" s="31">
+      <c r="D256" s="32">
         <v>43941.0</v>
       </c>
-      <c r="E256" s="25" t="s">
+      <c r="E256" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F256" s="27" t="s">
+      <c r="F256" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G256" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="H256" s="27" t="s">
-        <v>323</v>
+      <c r="G256" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="H256" s="22" t="s">
+        <v>325</v>
       </c>
       <c r="I256" s="12"/>
       <c r="J256" s="13"/>
-      <c r="K256" s="29" t="s">
-        <v>345</v>
+      <c r="K256" s="30" t="s">
+        <v>347</v>
       </c>
       <c r="L256" s="7"/>
       <c r="M256" s="7"/>
@@ -13642,29 +13661,29 @@
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="B257" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C257" s="30">
+      <c r="B257" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C257" s="31">
         <v>43941.0</v>
       </c>
-      <c r="D257" s="31">
+      <c r="D257" s="32">
         <v>43941.0</v>
       </c>
-      <c r="E257" s="25" t="s">
+      <c r="E257" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F257" s="27" t="s">
+      <c r="F257" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G257" s="8"/>
-      <c r="H257" s="27" t="s">
-        <v>346</v>
+      <c r="H257" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="I257" s="12"/>
       <c r="J257" s="13"/>
-      <c r="K257" s="29" t="s">
-        <v>345</v>
+      <c r="K257" s="30" t="s">
+        <v>347</v>
       </c>
       <c r="L257" s="7"/>
       <c r="M257" s="7"/>
@@ -13687,29 +13706,29 @@
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="B258" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C258" s="30">
+      <c r="B258" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C258" s="31">
         <v>43941.0</v>
       </c>
-      <c r="D258" s="31">
+      <c r="D258" s="32">
         <v>43941.0</v>
       </c>
-      <c r="E258" s="25" t="s">
+      <c r="E258" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F258" s="27" t="s">
+      <c r="F258" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G258" s="8"/>
-      <c r="H258" s="27" t="s">
-        <v>347</v>
+      <c r="H258" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="I258" s="12"/>
       <c r="J258" s="13"/>
-      <c r="K258" s="29" t="s">
-        <v>345</v>
+      <c r="K258" s="30" t="s">
+        <v>347</v>
       </c>
       <c r="L258" s="7"/>
       <c r="M258" s="7"/>
@@ -13732,27 +13751,27 @@
         <f t="shared" si="1"/>
         <v>257</v>
       </c>
-      <c r="B259" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C259" s="30">
+      <c r="B259" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C259" s="31">
         <v>43941.0</v>
       </c>
-      <c r="D259" s="31">
+      <c r="D259" s="32">
         <v>43941.0</v>
       </c>
-      <c r="E259" s="25" t="s">
+      <c r="E259" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F259" s="27" t="s">
+      <c r="F259" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G259" s="8"/>
       <c r="H259" s="12"/>
       <c r="I259" s="12"/>
       <c r="J259" s="13"/>
-      <c r="K259" s="29" t="s">
-        <v>345</v>
+      <c r="K259" s="30" t="s">
+        <v>347</v>
       </c>
       <c r="L259" s="7"/>
       <c r="M259" s="7"/>
@@ -13775,27 +13794,27 @@
         <f t="shared" si="1"/>
         <v>258</v>
       </c>
-      <c r="B260" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C260" s="30">
+      <c r="B260" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C260" s="31">
         <v>43941.0</v>
       </c>
-      <c r="D260" s="31">
+      <c r="D260" s="32">
         <v>43941.0</v>
       </c>
-      <c r="E260" s="25" t="s">
+      <c r="E260" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="F260" s="27" t="s">
+      <c r="F260" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G260" s="8"/>
       <c r="H260" s="12"/>
       <c r="I260" s="12"/>
       <c r="J260" s="13"/>
-      <c r="K260" s="29" t="s">
-        <v>345</v>
+      <c r="K260" s="30" t="s">
+        <v>347</v>
       </c>
       <c r="L260" s="7"/>
       <c r="M260" s="7"/>
@@ -13818,27 +13837,27 @@
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
-      <c r="B261" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C261" s="30">
+      <c r="B261" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C261" s="31">
         <v>43941.0</v>
       </c>
-      <c r="D261" s="31">
+      <c r="D261" s="32">
         <v>43941.0</v>
       </c>
-      <c r="E261" s="25" t="s">
+      <c r="E261" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F261" s="27" t="s">
+      <c r="F261" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G261" s="8"/>
       <c r="H261" s="12"/>
       <c r="I261" s="12"/>
       <c r="J261" s="13"/>
-      <c r="K261" s="29" t="s">
-        <v>345</v>
+      <c r="K261" s="30" t="s">
+        <v>347</v>
       </c>
       <c r="L261" s="7"/>
       <c r="M261" s="7"/>
@@ -13861,31 +13880,31 @@
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="B262" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="C262" s="30">
+      <c r="B262" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C262" s="31">
         <v>43942.0</v>
       </c>
-      <c r="D262" s="31">
+      <c r="D262" s="32">
         <v>43942.0</v>
       </c>
-      <c r="E262" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F262" s="27" t="s">
+      <c r="E262" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F262" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G262" s="32">
+      <c r="G262" s="33">
         <v>226.0</v>
       </c>
-      <c r="H262" s="27" t="s">
-        <v>349</v>
+      <c r="H262" s="22" t="s">
+        <v>351</v>
       </c>
       <c r="I262" s="12"/>
       <c r="J262" s="13"/>
-      <c r="K262" s="29" t="s">
-        <v>350</v>
+      <c r="K262" s="30" t="s">
+        <v>352</v>
       </c>
       <c r="L262" s="7"/>
       <c r="M262" s="7"/>
@@ -13908,27 +13927,27 @@
         <f t="shared" si="1"/>
         <v>261</v>
       </c>
-      <c r="B263" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="C263" s="30">
+      <c r="B263" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C263" s="31">
         <v>43942.0</v>
       </c>
-      <c r="D263" s="31">
+      <c r="D263" s="32">
         <v>43942.0</v>
       </c>
-      <c r="E263" s="25" t="s">
+      <c r="E263" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F263" s="27" t="s">
-        <v>351</v>
+      <c r="F263" s="22" t="s">
+        <v>353</v>
       </c>
       <c r="G263" s="8"/>
       <c r="H263" s="12"/>
       <c r="I263" s="12"/>
       <c r="J263" s="13"/>
-      <c r="K263" s="29" t="s">
-        <v>350</v>
+      <c r="K263" s="30" t="s">
+        <v>352</v>
       </c>
       <c r="L263" s="7"/>
       <c r="M263" s="7"/>
@@ -13951,27 +13970,27 @@
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="B264" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="C264" s="30">
+      <c r="B264" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C264" s="31">
         <v>43942.0</v>
       </c>
-      <c r="D264" s="31">
+      <c r="D264" s="32">
         <v>43942.0</v>
       </c>
-      <c r="E264" s="25" t="s">
+      <c r="E264" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F264" s="27" t="s">
+      <c r="F264" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G264" s="8"/>
-      <c r="H264" s="27"/>
+      <c r="H264" s="22"/>
       <c r="I264" s="12"/>
       <c r="J264" s="13"/>
-      <c r="K264" s="29" t="s">
-        <v>352</v>
+      <c r="K264" s="30" t="s">
+        <v>354</v>
       </c>
       <c r="L264" s="7"/>
       <c r="M264" s="7"/>
@@ -13994,29 +14013,29 @@
         <f t="shared" si="1"/>
         <v>263</v>
       </c>
-      <c r="B265" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="C265" s="30">
+      <c r="B265" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C265" s="31">
         <v>43942.0</v>
       </c>
-      <c r="D265" s="31">
+      <c r="D265" s="32">
         <v>43942.0</v>
       </c>
-      <c r="E265" s="25" t="s">
+      <c r="E265" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F265" s="27" t="s">
+      <c r="F265" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G265" s="8"/>
-      <c r="H265" s="27" t="s">
-        <v>311</v>
+      <c r="H265" s="22" t="s">
+        <v>313</v>
       </c>
       <c r="I265" s="12"/>
       <c r="J265" s="13"/>
-      <c r="K265" s="29" t="s">
-        <v>352</v>
+      <c r="K265" s="30" t="s">
+        <v>354</v>
       </c>
       <c r="L265" s="7"/>
       <c r="M265" s="7"/>
@@ -14039,29 +14058,29 @@
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="B266" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="C266" s="30">
+      <c r="B266" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C266" s="31">
         <v>43942.0</v>
       </c>
-      <c r="D266" s="31">
+      <c r="D266" s="32">
         <v>43942.0</v>
       </c>
-      <c r="E266" s="25" t="s">
+      <c r="E266" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F266" s="27" t="s">
+      <c r="F266" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G266" s="8"/>
-      <c r="H266" s="27" t="s">
-        <v>353</v>
+      <c r="H266" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="I266" s="12"/>
       <c r="J266" s="13"/>
-      <c r="K266" s="29" t="s">
-        <v>352</v>
+      <c r="K266" s="30" t="s">
+        <v>354</v>
       </c>
       <c r="L266" s="7"/>
       <c r="M266" s="7"/>
@@ -14084,31 +14103,31 @@
         <f t="shared" si="1"/>
         <v>265</v>
       </c>
-      <c r="B267" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C267" s="30">
+      <c r="B267" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C267" s="31">
         <v>43943.0</v>
       </c>
-      <c r="D267" s="31">
+      <c r="D267" s="32">
         <v>43943.0</v>
       </c>
-      <c r="E267" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F267" s="27" t="s">
+      <c r="E267" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="F267" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G267" s="33">
+      <c r="G267" s="34">
         <v>226260.0</v>
       </c>
-      <c r="H267" s="27" t="s">
-        <v>355</v>
+      <c r="H267" s="22" t="s">
+        <v>357</v>
       </c>
       <c r="I267" s="12"/>
       <c r="J267" s="13"/>
-      <c r="K267" s="29" t="s">
-        <v>356</v>
+      <c r="K267" s="30" t="s">
+        <v>358</v>
       </c>
       <c r="L267" s="7"/>
       <c r="M267" s="7"/>
@@ -14131,20 +14150,20 @@
         <f t="shared" si="1"/>
         <v>266</v>
       </c>
-      <c r="B268" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C268" s="30">
+      <c r="B268" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C268" s="31">
         <v>43943.0</v>
       </c>
-      <c r="D268" s="31">
+      <c r="D268" s="32">
         <v>43943.0</v>
       </c>
-      <c r="E268" s="25" t="s">
+      <c r="E268" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F268" s="27" t="s">
-        <v>357</v>
+      <c r="F268" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="G268" s="8"/>
       <c r="H268" s="12"/>
@@ -14152,8 +14171,8 @@
       <c r="J268" s="18">
         <v>43954.0</v>
       </c>
-      <c r="K268" s="29" t="s">
-        <v>356</v>
+      <c r="K268" s="30" t="s">
+        <v>358</v>
       </c>
       <c r="L268" s="7"/>
       <c r="M268" s="7"/>
@@ -14176,27 +14195,27 @@
         <f t="shared" si="1"/>
         <v>267</v>
       </c>
-      <c r="B269" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C269" s="30">
+      <c r="B269" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C269" s="31">
         <v>43943.0</v>
       </c>
-      <c r="D269" s="31">
+      <c r="D269" s="32">
         <v>43943.0</v>
       </c>
-      <c r="E269" s="25" t="s">
+      <c r="E269" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F269" s="27" t="s">
+      <c r="F269" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G269" s="8"/>
       <c r="H269" s="12"/>
       <c r="I269" s="12"/>
       <c r="J269" s="13"/>
-      <c r="K269" s="29" t="s">
-        <v>356</v>
+      <c r="K269" s="30" t="s">
+        <v>358</v>
       </c>
       <c r="L269" s="7"/>
       <c r="M269" s="7"/>
@@ -14219,31 +14238,31 @@
         <f t="shared" si="1"/>
         <v>268</v>
       </c>
-      <c r="B270" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C270" s="30">
+      <c r="B270" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C270" s="31">
         <v>43943.0</v>
       </c>
-      <c r="D270" s="31">
+      <c r="D270" s="32">
         <v>43943.0</v>
       </c>
-      <c r="E270" s="25" t="s">
+      <c r="E270" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F270" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="G270" s="32">
+      <c r="F270" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="G270" s="33">
         <v>261.0</v>
       </c>
-      <c r="H270" s="27" t="s">
-        <v>358</v>
+      <c r="H270" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="I270" s="12"/>
       <c r="J270" s="13"/>
-      <c r="K270" s="29" t="s">
-        <v>356</v>
+      <c r="K270" s="30" t="s">
+        <v>358</v>
       </c>
       <c r="L270" s="7"/>
       <c r="M270" s="7"/>
@@ -14266,27 +14285,27 @@
         <f t="shared" si="1"/>
         <v>269</v>
       </c>
-      <c r="B271" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C271" s="30">
+      <c r="B271" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C271" s="31">
         <v>43943.0</v>
       </c>
-      <c r="D271" s="31">
+      <c r="D271" s="32">
         <v>43943.0</v>
       </c>
-      <c r="E271" s="25" t="s">
+      <c r="E271" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F271" s="27" t="s">
+      <c r="F271" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G271" s="8"/>
       <c r="H271" s="12"/>
       <c r="I271" s="12"/>
       <c r="J271" s="13"/>
-      <c r="K271" s="29" t="s">
-        <v>359</v>
+      <c r="K271" s="30" t="s">
+        <v>361</v>
       </c>
       <c r="L271" s="7"/>
       <c r="M271" s="7"/>
@@ -14309,27 +14328,27 @@
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="B272" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C272" s="30">
+      <c r="B272" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C272" s="31">
         <v>43943.0</v>
       </c>
-      <c r="D272" s="31">
+      <c r="D272" s="32">
         <v>43943.0</v>
       </c>
-      <c r="E272" s="25" t="s">
+      <c r="E272" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F272" s="27" t="s">
+      <c r="F272" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G272" s="8"/>
       <c r="H272" s="12"/>
       <c r="I272" s="12"/>
       <c r="J272" s="13"/>
-      <c r="K272" s="29" t="s">
-        <v>359</v>
+      <c r="K272" s="30" t="s">
+        <v>361</v>
       </c>
       <c r="L272" s="7"/>
       <c r="M272" s="7"/>
@@ -14352,27 +14371,27 @@
         <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="B273" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C273" s="30">
+      <c r="B273" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C273" s="31">
         <v>43943.0</v>
       </c>
-      <c r="D273" s="31">
+      <c r="D273" s="32">
         <v>43943.0</v>
       </c>
-      <c r="E273" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="F273" s="27" t="s">
+      <c r="E273" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F273" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G273" s="8"/>
       <c r="H273" s="12"/>
       <c r="I273" s="12"/>
       <c r="J273" s="13"/>
-      <c r="K273" s="29" t="s">
-        <v>359</v>
+      <c r="K273" s="30" t="s">
+        <v>361</v>
       </c>
       <c r="L273" s="7"/>
       <c r="M273" s="7"/>
@@ -14395,27 +14414,27 @@
         <f t="shared" si="1"/>
         <v>272</v>
       </c>
-      <c r="B274" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C274" s="30">
+      <c r="B274" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C274" s="31">
         <v>43943.0</v>
       </c>
-      <c r="D274" s="31">
+      <c r="D274" s="32">
         <v>43943.0</v>
       </c>
-      <c r="E274" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="F274" s="27" t="s">
+      <c r="E274" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F274" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G274" s="8"/>
       <c r="H274" s="12"/>
       <c r="I274" s="12"/>
       <c r="J274" s="13"/>
-      <c r="K274" s="29" t="s">
-        <v>359</v>
+      <c r="K274" s="30" t="s">
+        <v>361</v>
       </c>
       <c r="L274" s="7"/>
       <c r="M274" s="7"/>
@@ -14438,27 +14457,27 @@
         <f t="shared" si="1"/>
         <v>273</v>
       </c>
-      <c r="B275" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C275" s="30">
+      <c r="B275" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C275" s="31">
         <v>43943.0</v>
       </c>
-      <c r="D275" s="31">
+      <c r="D275" s="32">
         <v>43943.0</v>
       </c>
-      <c r="E275" s="25" t="s">
+      <c r="E275" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F275" s="27" t="s">
+      <c r="F275" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G275" s="8"/>
       <c r="H275" s="12"/>
       <c r="I275" s="12"/>
       <c r="J275" s="13"/>
-      <c r="K275" s="29" t="s">
-        <v>359</v>
+      <c r="K275" s="30" t="s">
+        <v>361</v>
       </c>
       <c r="L275" s="7"/>
       <c r="M275" s="7"/>
@@ -14481,27 +14500,27 @@
         <f t="shared" si="1"/>
         <v>274</v>
       </c>
-      <c r="B276" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C276" s="30">
+      <c r="B276" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C276" s="31">
         <v>43943.0</v>
       </c>
-      <c r="D276" s="31">
+      <c r="D276" s="32">
         <v>43943.0</v>
       </c>
-      <c r="E276" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F276" s="27" t="s">
+      <c r="E276" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F276" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G276" s="8"/>
       <c r="H276" s="12"/>
       <c r="I276" s="12"/>
       <c r="J276" s="13"/>
-      <c r="K276" s="29" t="s">
-        <v>359</v>
+      <c r="K276" s="30" t="s">
+        <v>361</v>
       </c>
       <c r="L276" s="7"/>
       <c r="M276" s="7"/>
@@ -14524,27 +14543,27 @@
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="B277" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C277" s="30">
+      <c r="B277" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C277" s="31">
         <v>43943.0</v>
       </c>
-      <c r="D277" s="31">
+      <c r="D277" s="32">
         <v>43943.0</v>
       </c>
-      <c r="E277" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F277" s="27" t="s">
+      <c r="E277" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F277" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G277" s="8"/>
       <c r="H277" s="12"/>
       <c r="I277" s="12"/>
       <c r="J277" s="13"/>
-      <c r="K277" s="29" t="s">
-        <v>359</v>
+      <c r="K277" s="30" t="s">
+        <v>361</v>
       </c>
       <c r="L277" s="7"/>
       <c r="M277" s="7"/>
@@ -14567,27 +14586,27 @@
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="B278" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C278" s="30">
+      <c r="B278" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C278" s="31">
         <v>43944.0</v>
       </c>
-      <c r="D278" s="31">
+      <c r="D278" s="32">
         <v>43944.0</v>
       </c>
-      <c r="E278" s="25" t="s">
+      <c r="E278" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F278" s="27" t="s">
+      <c r="F278" s="22" t="s">
         <v>94</v>
       </c>
       <c r="G278" s="8"/>
       <c r="H278" s="12"/>
       <c r="I278" s="12"/>
       <c r="J278" s="13"/>
-      <c r="K278" s="29" t="s">
-        <v>361</v>
+      <c r="K278" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="L278" s="7"/>
       <c r="M278" s="7"/>
@@ -14610,31 +14629,31 @@
         <f t="shared" si="1"/>
         <v>277</v>
       </c>
-      <c r="B279" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C279" s="30">
+      <c r="B279" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C279" s="31">
         <v>43944.0</v>
       </c>
-      <c r="D279" s="31">
+      <c r="D279" s="32">
         <v>43944.0</v>
       </c>
-      <c r="E279" s="25" t="s">
+      <c r="E279" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F279" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="G279" s="32">
+      <c r="F279" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="G279" s="33">
         <v>206.0</v>
       </c>
-      <c r="H279" s="27" t="s">
-        <v>363</v>
+      <c r="H279" s="22" t="s">
+        <v>365</v>
       </c>
       <c r="I279" s="12"/>
       <c r="J279" s="13"/>
-      <c r="K279" s="29" t="s">
-        <v>361</v>
+      <c r="K279" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="L279" s="7"/>
       <c r="M279" s="7"/>
@@ -14657,27 +14676,27 @@
         <f t="shared" si="1"/>
         <v>278</v>
       </c>
-      <c r="B280" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C280" s="30">
+      <c r="B280" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C280" s="31">
         <v>43944.0</v>
       </c>
-      <c r="D280" s="31">
+      <c r="D280" s="32">
         <v>43944.0</v>
       </c>
-      <c r="E280" s="25" t="s">
+      <c r="E280" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F280" s="27" t="s">
-        <v>362</v>
+      <c r="F280" s="22" t="s">
+        <v>364</v>
       </c>
       <c r="G280" s="8"/>
       <c r="H280" s="12"/>
       <c r="I280" s="12"/>
       <c r="J280" s="13"/>
-      <c r="K280" s="29" t="s">
-        <v>361</v>
+      <c r="K280" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="L280" s="7"/>
       <c r="M280" s="7"/>
@@ -14700,29 +14719,29 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-      <c r="B281" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C281" s="30">
+      <c r="B281" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C281" s="31">
         <v>43944.0</v>
       </c>
-      <c r="D281" s="31">
+      <c r="D281" s="32">
         <v>43944.0</v>
       </c>
-      <c r="E281" s="25" t="s">
+      <c r="E281" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F281" s="34" t="s">
+      <c r="F281" s="35" t="s">
         <v>94</v>
       </c>
       <c r="G281" s="8"/>
-      <c r="H281" s="27" t="s">
-        <v>364</v>
+      <c r="H281" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I281" s="12"/>
       <c r="J281" s="13"/>
-      <c r="K281" s="29" t="s">
-        <v>361</v>
+      <c r="K281" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="L281" s="7"/>
       <c r="M281" s="7"/>
@@ -14745,27 +14764,27 @@
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="B282" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C282" s="30">
+      <c r="B282" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C282" s="31">
         <v>43944.0</v>
       </c>
-      <c r="D282" s="31">
+      <c r="D282" s="32">
         <v>43944.0</v>
       </c>
-      <c r="E282" s="25" t="s">
+      <c r="E282" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F282" s="35" t="s">
+      <c r="F282" s="36" t="s">
         <v>94</v>
       </c>
       <c r="G282" s="8"/>
       <c r="H282" s="12"/>
       <c r="I282" s="12"/>
       <c r="J282" s="13"/>
-      <c r="K282" s="29" t="s">
-        <v>361</v>
+      <c r="K282" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="L282" s="7"/>
       <c r="M282" s="7"/>
@@ -14788,27 +14807,27 @@
         <f t="shared" si="1"/>
         <v>281</v>
       </c>
-      <c r="B283" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C283" s="30">
+      <c r="B283" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C283" s="31">
         <v>43944.0</v>
       </c>
-      <c r="D283" s="31">
+      <c r="D283" s="32">
         <v>43944.0</v>
       </c>
-      <c r="E283" s="25" t="s">
+      <c r="E283" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F283" s="34" t="s">
+      <c r="F283" s="35" t="s">
         <v>15</v>
       </c>
       <c r="G283" s="8"/>
-      <c r="H283" s="27"/>
+      <c r="H283" s="22"/>
       <c r="I283" s="12"/>
       <c r="J283" s="13"/>
-      <c r="K283" s="36" t="s">
-        <v>365</v>
+      <c r="K283" s="37" t="s">
+        <v>367</v>
       </c>
       <c r="L283" s="7"/>
       <c r="M283" s="7"/>
@@ -14831,27 +14850,27 @@
         <f t="shared" si="1"/>
         <v>282</v>
       </c>
-      <c r="B284" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C284" s="30">
+      <c r="B284" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C284" s="31">
         <v>43944.0</v>
       </c>
-      <c r="D284" s="31">
+      <c r="D284" s="32">
         <v>43944.0</v>
       </c>
-      <c r="E284" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F284" s="34" t="s">
+      <c r="E284" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="F284" s="35" t="s">
         <v>15</v>
       </c>
       <c r="G284" s="8"/>
-      <c r="H284" s="27"/>
+      <c r="H284" s="22"/>
       <c r="I284" s="12"/>
       <c r="J284" s="13"/>
-      <c r="K284" s="36" t="s">
-        <v>365</v>
+      <c r="K284" s="37" t="s">
+        <v>367</v>
       </c>
       <c r="L284" s="7"/>
       <c r="M284" s="7"/>
@@ -14874,27 +14893,27 @@
         <f t="shared" si="1"/>
         <v>283</v>
       </c>
-      <c r="B285" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="C285" s="30">
+      <c r="B285" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C285" s="31">
         <v>43944.0</v>
       </c>
-      <c r="D285" s="31">
+      <c r="D285" s="32">
         <v>43944.0</v>
       </c>
-      <c r="E285" s="25" t="s">
+      <c r="E285" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F285" s="35" t="s">
-        <v>362</v>
+      <c r="F285" s="36" t="s">
+        <v>364</v>
       </c>
       <c r="G285" s="8"/>
       <c r="H285" s="12"/>
       <c r="I285" s="12"/>
       <c r="J285" s="13"/>
-      <c r="K285" s="29" t="s">
-        <v>367</v>
+      <c r="K285" s="30" t="s">
+        <v>369</v>
       </c>
       <c r="L285" s="7"/>
       <c r="M285" s="7"/>
@@ -14917,29 +14936,29 @@
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
-      <c r="B286" s="23" t="s">
+      <c r="B286" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C286" s="31">
+        <v>43945.0</v>
+      </c>
+      <c r="D286" s="32">
+        <v>43945.0</v>
+      </c>
+      <c r="E286" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F286" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="G286" s="8"/>
+      <c r="H286" s="22" t="s">
         <v>366</v>
-      </c>
-      <c r="C286" s="30">
-        <v>43945.0</v>
-      </c>
-      <c r="D286" s="31">
-        <v>43945.0</v>
-      </c>
-      <c r="E286" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F286" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="G286" s="8"/>
-      <c r="H286" s="27" t="s">
-        <v>364</v>
       </c>
       <c r="I286" s="12"/>
       <c r="J286" s="13"/>
-      <c r="K286" s="29" t="s">
-        <v>367</v>
+      <c r="K286" s="30" t="s">
+        <v>369</v>
       </c>
       <c r="L286" s="7"/>
       <c r="M286" s="7"/>
@@ -14962,27 +14981,27 @@
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="B287" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="C287" s="30">
+      <c r="B287" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C287" s="31">
         <v>43945.0</v>
       </c>
-      <c r="D287" s="31">
+      <c r="D287" s="32">
         <v>43945.0</v>
       </c>
-      <c r="E287" s="25" t="s">
+      <c r="E287" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F287" s="27" t="s">
-        <v>368</v>
+      <c r="F287" s="22" t="s">
+        <v>370</v>
       </c>
       <c r="G287" s="8"/>
       <c r="H287" s="12"/>
       <c r="I287" s="12"/>
       <c r="J287" s="13"/>
-      <c r="K287" s="29" t="s">
-        <v>369</v>
+      <c r="K287" s="30" t="s">
+        <v>371</v>
       </c>
       <c r="L287" s="7"/>
       <c r="M287" s="7"/>
@@ -15005,29 +15024,29 @@
         <f t="shared" si="1"/>
         <v>286</v>
       </c>
-      <c r="B288" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="C288" s="30">
+      <c r="B288" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C288" s="31">
         <v>43945.0</v>
       </c>
-      <c r="D288" s="31">
+      <c r="D288" s="32">
         <v>43945.0</v>
       </c>
-      <c r="E288" s="25" t="s">
+      <c r="E288" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="F288" s="27" t="s">
+      <c r="F288" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G288" s="8"/>
-      <c r="H288" s="27" t="s">
-        <v>370</v>
+      <c r="H288" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="I288" s="12"/>
       <c r="J288" s="13"/>
-      <c r="K288" s="29" t="s">
-        <v>369</v>
+      <c r="K288" s="30" t="s">
+        <v>371</v>
       </c>
       <c r="L288" s="7"/>
       <c r="M288" s="7"/>
@@ -15050,29 +15069,29 @@
         <f t="shared" si="1"/>
         <v>287</v>
       </c>
-      <c r="B289" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="C289" s="30">
+      <c r="B289" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="C289" s="31">
         <v>43946.0</v>
       </c>
-      <c r="D289" s="31">
+      <c r="D289" s="32">
         <v>43946.0</v>
       </c>
-      <c r="E289" s="25" t="s">
+      <c r="E289" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F289" s="27" t="s">
+      <c r="F289" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G289" s="8"/>
-      <c r="H289" s="27" t="s">
-        <v>364</v>
+      <c r="H289" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I289" s="12"/>
       <c r="J289" s="13"/>
-      <c r="K289" s="29" t="s">
-        <v>372</v>
+      <c r="K289" s="30" t="s">
+        <v>374</v>
       </c>
       <c r="L289" s="7"/>
       <c r="M289" s="7"/>
@@ -15095,29 +15114,29 @@
         <f t="shared" si="1"/>
         <v>288</v>
       </c>
-      <c r="B290" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="C290" s="30">
+      <c r="B290" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="C290" s="31">
         <v>43946.0</v>
       </c>
-      <c r="D290" s="31">
+      <c r="D290" s="32">
         <v>43946.0</v>
       </c>
-      <c r="E290" s="25" t="s">
+      <c r="E290" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="F290" s="27" t="s">
+      <c r="F290" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G290" s="8"/>
-      <c r="H290" s="27" t="s">
-        <v>364</v>
+      <c r="H290" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I290" s="12"/>
       <c r="J290" s="13"/>
-      <c r="K290" s="29" t="s">
-        <v>372</v>
+      <c r="K290" s="30" t="s">
+        <v>374</v>
       </c>
       <c r="L290" s="7"/>
       <c r="M290" s="7"/>
@@ -15140,29 +15159,29 @@
         <f t="shared" si="1"/>
         <v>289</v>
       </c>
-      <c r="B291" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="C291" s="30">
+      <c r="B291" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="C291" s="31">
         <v>43946.0</v>
       </c>
-      <c r="D291" s="31">
+      <c r="D291" s="32">
         <v>43946.0</v>
       </c>
-      <c r="E291" s="25" t="s">
+      <c r="E291" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F291" s="27" t="s">
+      <c r="F291" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G291" s="8"/>
-      <c r="H291" s="27" t="s">
-        <v>364</v>
+      <c r="H291" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I291" s="12"/>
       <c r="J291" s="13"/>
-      <c r="K291" s="29" t="s">
-        <v>372</v>
+      <c r="K291" s="30" t="s">
+        <v>374</v>
       </c>
       <c r="L291" s="7"/>
       <c r="M291" s="7"/>
@@ -15185,27 +15204,27 @@
         <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="B292" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="C292" s="30">
+      <c r="B292" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="C292" s="31">
         <v>43946.0</v>
       </c>
-      <c r="D292" s="31">
+      <c r="D292" s="32">
         <v>43946.0</v>
       </c>
-      <c r="E292" s="25" t="s">
+      <c r="E292" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F292" s="27" t="s">
+      <c r="F292" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G292" s="8"/>
-      <c r="H292" s="27"/>
+      <c r="H292" s="22"/>
       <c r="I292" s="12"/>
       <c r="J292" s="13"/>
-      <c r="K292" s="29" t="s">
-        <v>372</v>
+      <c r="K292" s="30" t="s">
+        <v>374</v>
       </c>
       <c r="L292" s="7"/>
       <c r="M292" s="7"/>
@@ -15228,29 +15247,29 @@
         <f t="shared" si="1"/>
         <v>291</v>
       </c>
-      <c r="B293" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C293" s="30">
+      <c r="B293" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C293" s="31">
         <v>43947.0</v>
       </c>
-      <c r="D293" s="31">
+      <c r="D293" s="32">
         <v>43947.0</v>
       </c>
-      <c r="E293" s="25" t="s">
+      <c r="E293" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F293" s="27" t="s">
+      <c r="F293" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G293" s="8"/>
-      <c r="H293" s="27" t="s">
-        <v>374</v>
+      <c r="H293" s="22" t="s">
+        <v>376</v>
       </c>
       <c r="I293" s="12"/>
       <c r="J293" s="13"/>
-      <c r="K293" s="29" t="s">
-        <v>375</v>
+      <c r="K293" s="30" t="s">
+        <v>377</v>
       </c>
       <c r="L293" s="7"/>
       <c r="M293" s="7"/>
@@ -15273,29 +15292,29 @@
         <f t="shared" si="1"/>
         <v>292</v>
       </c>
-      <c r="B294" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C294" s="30">
+      <c r="B294" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C294" s="31">
         <v>43947.0</v>
       </c>
-      <c r="D294" s="31">
+      <c r="D294" s="32">
         <v>43947.0</v>
       </c>
-      <c r="E294" s="25" t="s">
+      <c r="E294" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F294" s="27" t="s">
+      <c r="F294" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G294" s="8"/>
-      <c r="H294" s="27" t="s">
-        <v>374</v>
+      <c r="H294" s="22" t="s">
+        <v>376</v>
       </c>
       <c r="I294" s="12"/>
       <c r="J294" s="13"/>
-      <c r="K294" s="29" t="s">
-        <v>375</v>
+      <c r="K294" s="30" t="s">
+        <v>377</v>
       </c>
       <c r="L294" s="7"/>
       <c r="M294" s="7"/>
@@ -15318,27 +15337,27 @@
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="B295" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C295" s="30">
+      <c r="B295" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C295" s="31">
         <v>43947.0</v>
       </c>
-      <c r="D295" s="31">
+      <c r="D295" s="32">
         <v>43947.0</v>
       </c>
-      <c r="E295" s="25" t="s">
+      <c r="E295" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F295" s="27" t="s">
+      <c r="F295" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G295" s="8"/>
       <c r="H295" s="12"/>
       <c r="I295" s="12"/>
       <c r="J295" s="13"/>
-      <c r="K295" s="29" t="s">
-        <v>375</v>
+      <c r="K295" s="30" t="s">
+        <v>377</v>
       </c>
       <c r="L295" s="7"/>
       <c r="M295" s="7"/>
@@ -15361,29 +15380,29 @@
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-      <c r="B296" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C296" s="30">
+      <c r="B296" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C296" s="31">
         <v>43947.0</v>
       </c>
-      <c r="D296" s="31">
+      <c r="D296" s="32">
         <v>43947.0</v>
       </c>
-      <c r="E296" s="25" t="s">
+      <c r="E296" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F296" s="27" t="s">
+      <c r="F296" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G296" s="8"/>
-      <c r="H296" s="27" t="s">
-        <v>364</v>
+      <c r="H296" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I296" s="12"/>
       <c r="J296" s="13"/>
-      <c r="K296" s="29" t="s">
-        <v>375</v>
+      <c r="K296" s="30" t="s">
+        <v>377</v>
       </c>
       <c r="L296" s="7"/>
       <c r="M296" s="7"/>
@@ -15406,27 +15425,27 @@
         <f t="shared" si="1"/>
         <v>295</v>
       </c>
-      <c r="B297" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C297" s="37">
+      <c r="B297" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C297" s="38">
         <v>43948.0</v>
       </c>
-      <c r="D297" s="31">
+      <c r="D297" s="32">
         <v>43948.0</v>
       </c>
-      <c r="E297" s="25" t="s">
+      <c r="E297" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F297" s="34" t="s">
+      <c r="F297" s="35" t="s">
         <v>94</v>
       </c>
       <c r="G297" s="8"/>
       <c r="H297" s="12"/>
       <c r="I297" s="12"/>
       <c r="J297" s="13"/>
-      <c r="K297" s="36" t="s">
-        <v>377</v>
+      <c r="K297" s="37" t="s">
+        <v>379</v>
       </c>
       <c r="L297" s="7"/>
       <c r="M297" s="7"/>
@@ -15449,31 +15468,31 @@
         <f t="shared" si="1"/>
         <v>296</v>
       </c>
-      <c r="B298" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C298" s="37">
+      <c r="B298" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C298" s="38">
         <v>43948.0</v>
       </c>
-      <c r="D298" s="31">
+      <c r="D298" s="32">
         <v>43948.0</v>
       </c>
-      <c r="E298" s="25" t="s">
+      <c r="E298" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F298" s="35" t="s">
+      <c r="F298" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="G298" s="32">
+      <c r="G298" s="33">
         <v>285.0</v>
       </c>
-      <c r="H298" s="27" t="s">
-        <v>378</v>
+      <c r="H298" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="I298" s="12"/>
       <c r="J298" s="13"/>
-      <c r="K298" s="36" t="s">
-        <v>377</v>
+      <c r="K298" s="37" t="s">
+        <v>379</v>
       </c>
       <c r="L298" s="7"/>
       <c r="M298" s="7"/>
@@ -15496,31 +15515,31 @@
         <f t="shared" si="1"/>
         <v>297</v>
       </c>
-      <c r="B299" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C299" s="37">
+      <c r="B299" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C299" s="38">
         <v>43948.0</v>
       </c>
-      <c r="D299" s="31">
+      <c r="D299" s="32">
         <v>43948.0</v>
       </c>
-      <c r="E299" s="25" t="s">
+      <c r="E299" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F299" s="35" t="s">
+      <c r="F299" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="G299" s="32">
+      <c r="G299" s="33">
         <v>296.0</v>
       </c>
-      <c r="H299" s="27" t="s">
-        <v>379</v>
+      <c r="H299" s="22" t="s">
+        <v>381</v>
       </c>
       <c r="I299" s="12"/>
       <c r="J299" s="13"/>
-      <c r="K299" s="36" t="s">
-        <v>377</v>
+      <c r="K299" s="37" t="s">
+        <v>379</v>
       </c>
       <c r="L299" s="7"/>
       <c r="M299" s="7"/>
@@ -15543,29 +15562,29 @@
         <f t="shared" si="1"/>
         <v>298</v>
       </c>
-      <c r="B300" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C300" s="37">
+      <c r="B300" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C300" s="38">
         <v>43948.0</v>
       </c>
-      <c r="D300" s="31">
+      <c r="D300" s="32">
         <v>43948.0</v>
       </c>
-      <c r="E300" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="F300" s="27" t="s">
+      <c r="E300" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F300" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G300" s="8"/>
-      <c r="H300" s="27" t="s">
-        <v>380</v>
+      <c r="H300" s="22" t="s">
+        <v>382</v>
       </c>
       <c r="I300" s="12"/>
       <c r="J300" s="13"/>
-      <c r="K300" s="29" t="s">
-        <v>381</v>
+      <c r="K300" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
@@ -15588,29 +15607,29 @@
         <f t="shared" si="1"/>
         <v>299</v>
       </c>
-      <c r="B301" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C301" s="37">
+      <c r="B301" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C301" s="38">
         <v>43948.0</v>
       </c>
-      <c r="D301" s="31">
+      <c r="D301" s="32">
         <v>43948.0</v>
       </c>
-      <c r="E301" s="25" t="s">
+      <c r="E301" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F301" s="27" t="s">
+      <c r="F301" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G301" s="8"/>
-      <c r="H301" s="27" t="s">
-        <v>380</v>
+      <c r="H301" s="22" t="s">
+        <v>382</v>
       </c>
       <c r="I301" s="12"/>
       <c r="J301" s="13"/>
-      <c r="K301" s="29" t="s">
-        <v>381</v>
+      <c r="K301" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="L301" s="7"/>
       <c r="M301" s="7"/>
@@ -15633,29 +15652,29 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="B302" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C302" s="37">
+      <c r="B302" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C302" s="38">
         <v>43948.0</v>
       </c>
-      <c r="D302" s="31">
+      <c r="D302" s="32">
         <v>43948.0</v>
       </c>
-      <c r="E302" s="25" t="s">
+      <c r="E302" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F302" s="27" t="s">
+      <c r="F302" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G302" s="8"/>
-      <c r="H302" s="27" t="s">
-        <v>382</v>
+      <c r="H302" s="22" t="s">
+        <v>384</v>
       </c>
       <c r="I302" s="12"/>
       <c r="J302" s="13"/>
-      <c r="K302" s="29" t="s">
-        <v>381</v>
+      <c r="K302" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="L302" s="7"/>
       <c r="M302" s="7"/>
@@ -15678,29 +15697,29 @@
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="B303" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C303" s="37">
+      <c r="B303" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C303" s="38">
         <v>43948.0</v>
       </c>
-      <c r="D303" s="31">
+      <c r="D303" s="32">
         <v>43948.0</v>
       </c>
-      <c r="E303" s="25" t="s">
+      <c r="E303" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F303" s="27" t="s">
+      <c r="F303" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G303" s="8"/>
-      <c r="H303" s="27" t="s">
-        <v>382</v>
+      <c r="H303" s="22" t="s">
+        <v>384</v>
       </c>
       <c r="I303" s="12"/>
       <c r="J303" s="13"/>
-      <c r="K303" s="29" t="s">
-        <v>381</v>
+      <c r="K303" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="L303" s="7"/>
       <c r="M303" s="7"/>
@@ -15723,29 +15742,29 @@
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="B304" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C304" s="37">
+      <c r="B304" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C304" s="38">
         <v>43948.0</v>
       </c>
-      <c r="D304" s="31">
+      <c r="D304" s="32">
         <v>43948.0</v>
       </c>
-      <c r="E304" s="25" t="s">
+      <c r="E304" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F304" s="27" t="s">
+      <c r="F304" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G304" s="8"/>
-      <c r="H304" s="27" t="s">
-        <v>382</v>
+      <c r="H304" s="22" t="s">
+        <v>384</v>
       </c>
       <c r="I304" s="12"/>
       <c r="J304" s="13"/>
-      <c r="K304" s="29" t="s">
-        <v>381</v>
+      <c r="K304" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="L304" s="7"/>
       <c r="M304" s="7"/>
@@ -15768,29 +15787,29 @@
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="B305" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C305" s="37">
+      <c r="B305" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C305" s="38">
         <v>43948.0</v>
       </c>
-      <c r="D305" s="31">
+      <c r="D305" s="32">
         <v>43948.0</v>
       </c>
-      <c r="E305" s="25" t="s">
+      <c r="E305" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F305" s="27" t="s">
+      <c r="F305" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G305" s="8"/>
-      <c r="H305" s="27" t="s">
-        <v>380</v>
+      <c r="H305" s="22" t="s">
+        <v>382</v>
       </c>
       <c r="I305" s="12"/>
       <c r="J305" s="13"/>
-      <c r="K305" s="29" t="s">
-        <v>381</v>
+      <c r="K305" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="L305" s="7"/>
       <c r="M305" s="7"/>
@@ -15813,29 +15832,29 @@
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="B306" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C306" s="37">
+      <c r="B306" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C306" s="38">
         <v>43948.0</v>
       </c>
-      <c r="D306" s="31">
+      <c r="D306" s="32">
         <v>43948.0</v>
       </c>
-      <c r="E306" s="25" t="s">
+      <c r="E306" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F306" s="27" t="s">
+      <c r="F306" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G306" s="8"/>
-      <c r="H306" s="27" t="s">
-        <v>383</v>
+      <c r="H306" s="22" t="s">
+        <v>385</v>
       </c>
       <c r="I306" s="12"/>
       <c r="J306" s="13"/>
-      <c r="K306" s="29" t="s">
-        <v>381</v>
+      <c r="K306" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="L306" s="7"/>
       <c r="M306" s="7"/>
@@ -15858,29 +15877,29 @@
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="B307" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C307" s="37">
+      <c r="B307" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C307" s="38">
         <v>43948.0</v>
       </c>
-      <c r="D307" s="31">
+      <c r="D307" s="32">
         <v>43948.0</v>
       </c>
-      <c r="E307" s="25" t="s">
+      <c r="E307" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F307" s="27" t="s">
+      <c r="F307" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G307" s="8"/>
-      <c r="H307" s="27" t="s">
-        <v>383</v>
+      <c r="H307" s="22" t="s">
+        <v>385</v>
       </c>
       <c r="I307" s="12"/>
       <c r="J307" s="13"/>
-      <c r="K307" s="29" t="s">
-        <v>381</v>
+      <c r="K307" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="L307" s="7"/>
       <c r="M307" s="7"/>
@@ -15903,29 +15922,29 @@
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="B308" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C308" s="37">
+      <c r="B308" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C308" s="38">
         <v>43948.0</v>
       </c>
-      <c r="D308" s="31">
+      <c r="D308" s="32">
         <v>43948.0</v>
       </c>
-      <c r="E308" s="25" t="s">
+      <c r="E308" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F308" s="27" t="s">
+      <c r="F308" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G308" s="8"/>
-      <c r="H308" s="27" t="s">
-        <v>383</v>
+      <c r="H308" s="22" t="s">
+        <v>385</v>
       </c>
       <c r="I308" s="12"/>
       <c r="J308" s="13"/>
-      <c r="K308" s="29" t="s">
-        <v>381</v>
+      <c r="K308" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="L308" s="7"/>
       <c r="M308" s="7"/>
@@ -15948,29 +15967,29 @@
         <f t="shared" si="1"/>
         <v>307</v>
       </c>
-      <c r="B309" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C309" s="37">
+      <c r="B309" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C309" s="38">
         <v>43948.0</v>
       </c>
-      <c r="D309" s="31">
+      <c r="D309" s="32">
         <v>43948.0</v>
       </c>
-      <c r="E309" s="25" t="s">
+      <c r="E309" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F309" s="27" t="s">
+      <c r="F309" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G309" s="8"/>
-      <c r="H309" s="27" t="s">
-        <v>384</v>
+      <c r="H309" s="22" t="s">
+        <v>386</v>
       </c>
       <c r="I309" s="12"/>
       <c r="J309" s="13"/>
-      <c r="K309" s="29" t="s">
-        <v>381</v>
+      <c r="K309" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="L309" s="7"/>
       <c r="M309" s="7"/>
@@ -15993,27 +16012,27 @@
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="B310" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C310" s="37">
+      <c r="B310" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C310" s="38">
         <v>43948.0</v>
       </c>
-      <c r="D310" s="31">
+      <c r="D310" s="32">
         <v>43948.0</v>
       </c>
-      <c r="E310" s="25" t="s">
+      <c r="E310" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F310" s="27" t="s">
+      <c r="F310" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G310" s="8"/>
       <c r="H310" s="12"/>
       <c r="I310" s="12"/>
       <c r="J310" s="13"/>
-      <c r="K310" s="29" t="s">
-        <v>381</v>
+      <c r="K310" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="L310" s="7"/>
       <c r="M310" s="7"/>
@@ -16036,27 +16055,27 @@
         <f t="shared" si="1"/>
         <v>309</v>
       </c>
-      <c r="B311" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C311" s="37">
+      <c r="B311" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C311" s="38">
         <v>43948.0</v>
       </c>
-      <c r="D311" s="31">
+      <c r="D311" s="32">
         <v>43948.0</v>
       </c>
-      <c r="E311" s="25" t="s">
+      <c r="E311" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F311" s="27" t="s">
+      <c r="F311" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G311" s="8"/>
       <c r="H311" s="12"/>
       <c r="I311" s="12"/>
       <c r="J311" s="13"/>
-      <c r="K311" s="29" t="s">
-        <v>381</v>
+      <c r="K311" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="L311" s="7"/>
       <c r="M311" s="7"/>
@@ -16079,33 +16098,33 @@
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="B312" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="C312" s="37">
+      <c r="B312" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C312" s="38">
         <v>43949.0</v>
       </c>
-      <c r="D312" s="31">
+      <c r="D312" s="32">
         <v>43949.0</v>
       </c>
-      <c r="E312" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="F312" s="27" t="s">
+      <c r="E312" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="F312" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G312" s="32">
+      <c r="G312" s="33">
         <v>296.0</v>
       </c>
-      <c r="H312" s="27" t="s">
-        <v>379</v>
+      <c r="H312" s="22" t="s">
+        <v>381</v>
       </c>
       <c r="I312" s="12"/>
       <c r="J312" s="18">
         <v>43963.0</v>
       </c>
-      <c r="K312" s="29" t="s">
-        <v>387</v>
+      <c r="K312" s="30" t="s">
+        <v>389</v>
       </c>
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
@@ -16128,31 +16147,31 @@
         <f t="shared" si="1"/>
         <v>311</v>
       </c>
-      <c r="B313" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="C313" s="37">
+      <c r="B313" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C313" s="38">
         <v>43949.0</v>
       </c>
-      <c r="D313" s="31">
+      <c r="D313" s="32">
         <v>43949.0</v>
       </c>
-      <c r="E313" s="25" t="s">
+      <c r="E313" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F313" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="G313" s="32">
+      <c r="F313" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="G313" s="33">
         <v>285.0</v>
       </c>
-      <c r="H313" s="27" t="s">
-        <v>378</v>
+      <c r="H313" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="I313" s="12"/>
       <c r="J313" s="13"/>
-      <c r="K313" s="29" t="s">
-        <v>387</v>
+      <c r="K313" s="30" t="s">
+        <v>389</v>
       </c>
       <c r="L313" s="7"/>
       <c r="M313" s="7"/>
@@ -16175,34 +16194,34 @@
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
-      <c r="B314" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="C314" s="37">
+      <c r="B314" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C314" s="38">
         <v>43949.0</v>
       </c>
-      <c r="D314" s="31">
+      <c r="D314" s="32">
         <v>43949.0</v>
       </c>
-      <c r="E314" s="25" t="s">
+      <c r="E314" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F314" s="27" t="s">
+      <c r="F314" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G314" s="8"/>
-      <c r="H314" s="27" t="s">
-        <v>388</v>
+      <c r="H314" s="22" t="s">
+        <v>390</v>
       </c>
       <c r="I314" s="12"/>
       <c r="J314" s="18">
         <v>43952.0</v>
       </c>
-      <c r="K314" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="L314" s="26" t="s">
-        <v>390</v>
+      <c r="K314" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="L314" s="28" t="s">
+        <v>392</v>
       </c>
       <c r="M314" s="7"/>
       <c r="N314" s="7"/>
@@ -16224,31 +16243,31 @@
         <f t="shared" si="1"/>
         <v>313</v>
       </c>
-      <c r="B315" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="C315" s="37">
+      <c r="B315" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C315" s="38">
         <v>43949.0</v>
       </c>
-      <c r="D315" s="31">
+      <c r="D315" s="32">
         <v>43949.0</v>
       </c>
-      <c r="E315" s="25" t="s">
+      <c r="E315" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F315" s="27" t="s">
+      <c r="F315" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G315" s="8"/>
-      <c r="H315" s="27" t="s">
-        <v>364</v>
+      <c r="H315" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I315" s="12"/>
       <c r="J315" s="18">
         <v>43964.0</v>
       </c>
-      <c r="K315" s="29" t="s">
-        <v>389</v>
+      <c r="K315" s="30" t="s">
+        <v>391</v>
       </c>
       <c r="L315" s="7"/>
       <c r="M315" s="7"/>
@@ -16271,20 +16290,20 @@
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
-      <c r="B316" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="C316" s="37">
+      <c r="B316" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="C316" s="38">
         <v>43950.0</v>
       </c>
-      <c r="D316" s="31">
+      <c r="D316" s="32">
         <v>43950.0</v>
       </c>
-      <c r="E316" s="25" t="s">
+      <c r="E316" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F316" s="27" t="s">
-        <v>392</v>
+      <c r="F316" s="22" t="s">
+        <v>394</v>
       </c>
       <c r="G316" s="8"/>
       <c r="H316" s="12"/>
@@ -16292,8 +16311,8 @@
       <c r="J316" s="18">
         <v>43966.0</v>
       </c>
-      <c r="K316" s="29" t="s">
-        <v>393</v>
+      <c r="K316" s="30" t="s">
+        <v>395</v>
       </c>
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
@@ -16316,31 +16335,31 @@
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="B317" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="C317" s="37">
+      <c r="B317" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="C317" s="38">
         <v>43950.0</v>
       </c>
-      <c r="D317" s="31">
+      <c r="D317" s="32">
         <v>43950.0</v>
       </c>
-      <c r="E317" s="25" t="s">
+      <c r="E317" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F317" s="27" t="s">
+      <c r="F317" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G317" s="8"/>
-      <c r="H317" s="27" t="s">
-        <v>394</v>
+      <c r="H317" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="I317" s="12"/>
       <c r="J317" s="18">
         <v>43958.0</v>
       </c>
-      <c r="K317" s="29" t="s">
-        <v>395</v>
+      <c r="K317" s="30" t="s">
+        <v>397</v>
       </c>
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
@@ -16363,29 +16382,29 @@
         <f t="shared" si="1"/>
         <v>316</v>
       </c>
-      <c r="B318" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="C318" s="37">
+      <c r="B318" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="C318" s="38">
         <v>43950.0</v>
       </c>
-      <c r="D318" s="31">
+      <c r="D318" s="32">
         <v>43950.0</v>
       </c>
-      <c r="E318" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="F318" s="27" t="s">
+      <c r="E318" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F318" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G318" s="8"/>
-      <c r="H318" s="27" t="s">
-        <v>364</v>
+      <c r="H318" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I318" s="12"/>
       <c r="J318" s="13"/>
-      <c r="K318" s="29" t="s">
-        <v>395</v>
+      <c r="K318" s="30" t="s">
+        <v>397</v>
       </c>
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
@@ -16408,29 +16427,29 @@
         <f t="shared" si="1"/>
         <v>317</v>
       </c>
-      <c r="B319" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="C319" s="37">
+      <c r="B319" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="C319" s="38">
         <v>43950.0</v>
       </c>
-      <c r="D319" s="31">
+      <c r="D319" s="32">
         <v>43950.0</v>
       </c>
-      <c r="E319" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F319" s="27" t="s">
+      <c r="E319" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F319" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G319" s="8"/>
-      <c r="H319" s="27" t="s">
-        <v>364</v>
+      <c r="H319" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I319" s="12"/>
       <c r="J319" s="13"/>
-      <c r="K319" s="29" t="s">
-        <v>395</v>
+      <c r="K319" s="30" t="s">
+        <v>397</v>
       </c>
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
@@ -16453,29 +16472,29 @@
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="B320" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="C320" s="37">
+      <c r="B320" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="C320" s="38">
         <v>43951.0</v>
       </c>
-      <c r="D320" s="31">
+      <c r="D320" s="32">
         <v>43951.0</v>
       </c>
-      <c r="E320" s="25" t="s">
+      <c r="E320" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F320" s="27" t="s">
-        <v>362</v>
+      <c r="F320" s="22" t="s">
+        <v>364</v>
       </c>
       <c r="G320" s="8"/>
-      <c r="H320" s="27" t="s">
-        <v>364</v>
+      <c r="H320" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I320" s="12"/>
       <c r="J320" s="13"/>
-      <c r="K320" s="29" t="s">
-        <v>398</v>
+      <c r="K320" s="30" t="s">
+        <v>400</v>
       </c>
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
@@ -16498,31 +16517,31 @@
         <f t="shared" si="1"/>
         <v>319</v>
       </c>
-      <c r="B321" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="C321" s="37">
+      <c r="B321" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="C321" s="38">
         <v>43951.0</v>
       </c>
-      <c r="D321" s="31">
+      <c r="D321" s="32">
         <v>43951.0</v>
       </c>
-      <c r="E321" s="25" t="s">
+      <c r="E321" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F321" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="G321" s="32">
+      <c r="F321" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="G321" s="33">
         <v>318.0</v>
       </c>
-      <c r="H321" s="27" t="s">
-        <v>399</v>
+      <c r="H321" s="22" t="s">
+        <v>401</v>
       </c>
       <c r="I321" s="12"/>
       <c r="J321" s="13"/>
-      <c r="K321" s="29" t="s">
-        <v>398</v>
+      <c r="K321" s="30" t="s">
+        <v>400</v>
       </c>
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
@@ -16545,33 +16564,33 @@
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="B322" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="C322" s="37">
+      <c r="B322" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="C322" s="38">
         <v>43951.0</v>
       </c>
-      <c r="D322" s="31">
+      <c r="D322" s="32">
         <v>43951.0</v>
       </c>
-      <c r="E322" s="25" t="s">
+      <c r="E322" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F322" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="G322" s="32">
+      <c r="F322" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="G322" s="33">
         <v>318.0</v>
       </c>
-      <c r="H322" s="27" t="s">
-        <v>399</v>
+      <c r="H322" s="22" t="s">
+        <v>401</v>
       </c>
       <c r="I322" s="12"/>
       <c r="J322" s="18">
         <v>43962.0</v>
       </c>
-      <c r="K322" s="29" t="s">
-        <v>398</v>
+      <c r="K322" s="30" t="s">
+        <v>400</v>
       </c>
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
@@ -16594,33 +16613,33 @@
         <f t="shared" si="1"/>
         <v>321</v>
       </c>
-      <c r="B323" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="C323" s="37">
+      <c r="B323" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C323" s="38">
         <v>43952.0</v>
       </c>
-      <c r="D323" s="31">
+      <c r="D323" s="32">
         <v>43952.0</v>
       </c>
-      <c r="E323" s="25" t="s">
+      <c r="E323" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F323" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="G323" s="32">
+      <c r="F323" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="G323" s="33">
         <v>314.0</v>
       </c>
-      <c r="H323" s="27" t="s">
-        <v>401</v>
+      <c r="H323" s="22" t="s">
+        <v>403</v>
       </c>
       <c r="I323" s="12"/>
       <c r="J323" s="18">
         <v>43970.0</v>
       </c>
-      <c r="K323" s="29" t="s">
-        <v>402</v>
+      <c r="K323" s="30" t="s">
+        <v>404</v>
       </c>
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
@@ -16643,33 +16662,33 @@
         <f t="shared" si="1"/>
         <v>322</v>
       </c>
-      <c r="B324" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="C324" s="37">
+      <c r="B324" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C324" s="38">
         <v>43952.0</v>
       </c>
-      <c r="D324" s="31">
+      <c r="D324" s="32">
         <v>43952.0</v>
       </c>
-      <c r="E324" s="25" t="s">
+      <c r="E324" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F324" s="27" t="s">
+      <c r="F324" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G324" s="32">
+      <c r="G324" s="33">
         <v>276.0</v>
       </c>
-      <c r="H324" s="27" t="s">
-        <v>403</v>
+      <c r="H324" s="22" t="s">
+        <v>405</v>
       </c>
       <c r="I324" s="12"/>
       <c r="J324" s="18">
         <v>43964.0</v>
       </c>
-      <c r="K324" s="29" t="s">
-        <v>402</v>
+      <c r="K324" s="30" t="s">
+        <v>404</v>
       </c>
       <c r="L324" s="7"/>
       <c r="M324" s="7"/>
@@ -16692,19 +16711,19 @@
         <f t="shared" si="1"/>
         <v>323</v>
       </c>
-      <c r="B325" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="C325" s="37">
+      <c r="B325" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C325" s="38">
         <v>43952.0</v>
       </c>
-      <c r="D325" s="31">
+      <c r="D325" s="32">
         <v>43952.0</v>
       </c>
-      <c r="E325" s="25" t="s">
+      <c r="E325" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F325" s="27" t="s">
+      <c r="F325" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G325" s="8"/>
@@ -16735,19 +16754,19 @@
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
-      <c r="B326" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="C326" s="37">
+      <c r="B326" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C326" s="38">
         <v>43952.0</v>
       </c>
-      <c r="D326" s="31">
+      <c r="D326" s="32">
         <v>43952.0</v>
       </c>
-      <c r="E326" s="25" t="s">
+      <c r="E326" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F326" s="27" t="s">
+      <c r="F326" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G326" s="8"/>
@@ -16776,31 +16795,31 @@
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="B327" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="C327" s="37">
+      <c r="B327" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="C327" s="38">
         <v>43953.0</v>
       </c>
-      <c r="D327" s="31">
+      <c r="D327" s="32">
         <v>43953.0</v>
       </c>
-      <c r="E327" s="25" t="s">
+      <c r="E327" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F327" s="27" t="s">
+      <c r="F327" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G327" s="8"/>
-      <c r="H327" s="27" t="s">
-        <v>364</v>
+      <c r="H327" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I327" s="12"/>
       <c r="J327" s="18">
         <v>43967.0</v>
       </c>
-      <c r="K327" s="29" t="s">
-        <v>405</v>
+      <c r="K327" s="30" t="s">
+        <v>407</v>
       </c>
       <c r="L327" s="7"/>
       <c r="M327" s="7"/>
@@ -16823,31 +16842,31 @@
         <f t="shared" si="1"/>
         <v>326</v>
       </c>
-      <c r="B328" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="C328" s="37">
+      <c r="B328" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="C328" s="38">
         <v>43953.0</v>
       </c>
-      <c r="D328" s="31">
+      <c r="D328" s="32">
         <v>43953.0</v>
       </c>
-      <c r="E328" s="25" t="s">
+      <c r="E328" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F328" s="27" t="s">
+      <c r="F328" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G328" s="8"/>
-      <c r="H328" s="27" t="s">
-        <v>364</v>
+      <c r="H328" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I328" s="12"/>
       <c r="J328" s="18">
         <v>43967.0</v>
       </c>
-      <c r="K328" s="29" t="s">
-        <v>405</v>
+      <c r="K328" s="30" t="s">
+        <v>407</v>
       </c>
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
@@ -16870,31 +16889,31 @@
         <f t="shared" si="1"/>
         <v>327</v>
       </c>
-      <c r="B329" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="C329" s="37">
+      <c r="B329" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="C329" s="38">
         <v>43953.0</v>
       </c>
-      <c r="D329" s="31">
+      <c r="D329" s="32">
         <v>43953.0</v>
       </c>
-      <c r="E329" s="25" t="s">
+      <c r="E329" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F329" s="27" t="s">
+      <c r="F329" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G329" s="8"/>
-      <c r="H329" s="27" t="s">
-        <v>364</v>
+      <c r="H329" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I329" s="12"/>
       <c r="J329" s="18">
         <v>43967.0</v>
       </c>
-      <c r="K329" s="29" t="s">
-        <v>405</v>
+      <c r="K329" s="30" t="s">
+        <v>407</v>
       </c>
       <c r="L329" s="7"/>
       <c r="M329" s="7"/>
@@ -16917,31 +16936,31 @@
         <f t="shared" si="1"/>
         <v>328</v>
       </c>
-      <c r="B330" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="C330" s="37">
+      <c r="B330" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="C330" s="38">
         <v>43953.0</v>
       </c>
-      <c r="D330" s="31">
+      <c r="D330" s="32">
         <v>43953.0</v>
       </c>
-      <c r="E330" s="25" t="s">
+      <c r="E330" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="F330" s="27" t="s">
+      <c r="F330" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G330" s="8"/>
-      <c r="H330" s="27" t="s">
-        <v>406</v>
+      <c r="H330" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="I330" s="12"/>
       <c r="J330" s="18">
         <v>43967.0</v>
       </c>
-      <c r="K330" s="29" t="s">
-        <v>405</v>
+      <c r="K330" s="30" t="s">
+        <v>407</v>
       </c>
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
@@ -16964,27 +16983,27 @@
         <f t="shared" si="1"/>
         <v>329</v>
       </c>
-      <c r="B331" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="C331" s="37">
+      <c r="B331" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="C331" s="38">
         <v>43953.0</v>
       </c>
-      <c r="D331" s="31">
+      <c r="D331" s="32">
         <v>43953.0</v>
       </c>
-      <c r="E331" s="25" t="s">
+      <c r="E331" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F331" s="27" t="s">
+      <c r="F331" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G331" s="8"/>
-      <c r="H331" s="27"/>
+      <c r="H331" s="22"/>
       <c r="I331" s="12"/>
       <c r="J331" s="13"/>
-      <c r="K331" s="29" t="s">
-        <v>405</v>
+      <c r="K331" s="30" t="s">
+        <v>407</v>
       </c>
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
@@ -17007,27 +17026,27 @@
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="B332" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="C332" s="37">
+      <c r="B332" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="C332" s="38">
         <v>43954.0</v>
       </c>
-      <c r="D332" s="31">
+      <c r="D332" s="32">
         <v>43954.0</v>
       </c>
-      <c r="E332" s="25" t="s">
+      <c r="E332" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F332" s="27" t="s">
-        <v>327</v>
+      <c r="F332" s="22" t="s">
+        <v>329</v>
       </c>
       <c r="G332" s="8"/>
       <c r="H332" s="12"/>
       <c r="I332" s="12"/>
       <c r="J332" s="13"/>
-      <c r="K332" s="29" t="s">
-        <v>408</v>
+      <c r="K332" s="30" t="s">
+        <v>410</v>
       </c>
       <c r="L332" s="7"/>
       <c r="M332" s="7"/>
@@ -17050,31 +17069,31 @@
         <f t="shared" si="1"/>
         <v>331</v>
       </c>
-      <c r="B333" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="C333" s="37">
+      <c r="B333" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="C333" s="38">
         <v>43954.0</v>
       </c>
-      <c r="D333" s="31">
+      <c r="D333" s="32">
         <v>43954.0</v>
       </c>
-      <c r="E333" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F333" s="27" t="s">
+      <c r="E333" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="F333" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G333" s="8"/>
-      <c r="H333" s="27" t="s">
-        <v>364</v>
+      <c r="H333" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I333" s="12"/>
       <c r="J333" s="18">
         <v>43962.0</v>
       </c>
-      <c r="K333" s="29" t="s">
-        <v>409</v>
+      <c r="K333" s="30" t="s">
+        <v>411</v>
       </c>
       <c r="L333" s="7"/>
       <c r="M333" s="7"/>
@@ -17097,29 +17116,29 @@
         <f t="shared" si="1"/>
         <v>332</v>
       </c>
-      <c r="B334" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="C334" s="37">
+      <c r="B334" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="C334" s="38">
         <v>43955.0</v>
       </c>
-      <c r="D334" s="31">
+      <c r="D334" s="32">
         <v>43955.0</v>
       </c>
-      <c r="E334" s="25" t="s">
+      <c r="E334" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F334" s="27" t="s">
+      <c r="F334" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G334" s="8"/>
       <c r="H334" s="12"/>
       <c r="I334" s="12"/>
-      <c r="J334" s="38">
+      <c r="J334" s="39">
         <v>43968.0</v>
       </c>
-      <c r="K334" s="29" t="s">
-        <v>411</v>
+      <c r="K334" s="30" t="s">
+        <v>413</v>
       </c>
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
@@ -17142,31 +17161,31 @@
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
-      <c r="B335" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="C335" s="37">
+      <c r="B335" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="C335" s="38">
         <v>43955.0</v>
       </c>
-      <c r="D335" s="31">
+      <c r="D335" s="32">
         <v>43955.0</v>
       </c>
-      <c r="E335" s="25" t="s">
+      <c r="E335" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F335" s="27" t="s">
+      <c r="F335" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G335" s="8"/>
-      <c r="H335" s="27" t="s">
-        <v>412</v>
+      <c r="H335" s="22" t="s">
+        <v>414</v>
       </c>
       <c r="I335" s="12"/>
-      <c r="J335" s="38">
+      <c r="J335" s="39">
         <v>43968.0</v>
       </c>
-      <c r="K335" s="29" t="s">
-        <v>411</v>
+      <c r="K335" s="30" t="s">
+        <v>413</v>
       </c>
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
@@ -17189,29 +17208,29 @@
         <f t="shared" si="1"/>
         <v>334</v>
       </c>
-      <c r="B336" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="C336" s="37">
+      <c r="B336" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="C336" s="38">
         <v>43955.0</v>
       </c>
-      <c r="D336" s="31">
+      <c r="D336" s="32">
         <v>43955.0</v>
       </c>
-      <c r="E336" s="25" t="s">
+      <c r="E336" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="F336" s="27" t="s">
+      <c r="F336" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G336" s="8"/>
-      <c r="H336" s="27" t="s">
-        <v>364</v>
+      <c r="H336" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I336" s="12"/>
       <c r="J336" s="13"/>
-      <c r="K336" s="29" t="s">
-        <v>411</v>
+      <c r="K336" s="30" t="s">
+        <v>413</v>
       </c>
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
@@ -17234,31 +17253,31 @@
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="B337" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="C337" s="37">
+      <c r="B337" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C337" s="38">
         <v>43956.0</v>
       </c>
-      <c r="D337" s="31">
+      <c r="D337" s="32">
         <v>43956.0</v>
       </c>
-      <c r="E337" s="25" t="s">
+      <c r="E337" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F337" s="27" t="s">
+      <c r="F337" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G337" s="8"/>
-      <c r="H337" s="27" t="s">
-        <v>364</v>
+      <c r="H337" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I337" s="12"/>
       <c r="J337" s="18">
         <v>43970.0</v>
       </c>
-      <c r="K337" s="29" t="s">
-        <v>414</v>
+      <c r="K337" s="30" t="s">
+        <v>416</v>
       </c>
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
@@ -17281,31 +17300,31 @@
         <f t="shared" si="1"/>
         <v>336</v>
       </c>
-      <c r="B338" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="C338" s="37">
+      <c r="B338" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C338" s="38">
         <v>43956.0</v>
       </c>
-      <c r="D338" s="31">
+      <c r="D338" s="32">
         <v>43956.0</v>
       </c>
-      <c r="E338" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="F338" s="27" t="s">
+      <c r="E338" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="F338" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G338" s="8"/>
-      <c r="H338" s="27" t="s">
-        <v>364</v>
+      <c r="H338" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I338" s="12"/>
       <c r="J338" s="18">
         <v>43970.0</v>
       </c>
-      <c r="K338" s="29" t="s">
-        <v>414</v>
+      <c r="K338" s="30" t="s">
+        <v>416</v>
       </c>
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
@@ -17328,29 +17347,29 @@
         <f t="shared" si="1"/>
         <v>337</v>
       </c>
-      <c r="B339" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="C339" s="37">
+      <c r="B339" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C339" s="38">
         <v>43956.0</v>
       </c>
-      <c r="D339" s="31">
+      <c r="D339" s="32">
         <v>43956.0</v>
       </c>
-      <c r="E339" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="F339" s="27" t="s">
+      <c r="E339" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F339" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G339" s="8"/>
-      <c r="H339" s="27" t="s">
-        <v>364</v>
+      <c r="H339" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I339" s="12"/>
       <c r="J339" s="13"/>
-      <c r="K339" s="29" t="s">
-        <v>414</v>
+      <c r="K339" s="30" t="s">
+        <v>416</v>
       </c>
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
@@ -17373,29 +17392,29 @@
         <f t="shared" si="1"/>
         <v>338</v>
       </c>
-      <c r="B340" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="C340" s="37">
+      <c r="B340" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C340" s="38">
         <v>43956.0</v>
       </c>
-      <c r="D340" s="31">
+      <c r="D340" s="32">
         <v>43956.0</v>
       </c>
-      <c r="E340" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F340" s="27" t="s">
+      <c r="E340" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F340" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G340" s="8"/>
-      <c r="H340" s="27" t="s">
-        <v>364</v>
+      <c r="H340" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I340" s="12"/>
       <c r="J340" s="13"/>
-      <c r="K340" s="29" t="s">
-        <v>414</v>
+      <c r="K340" s="30" t="s">
+        <v>416</v>
       </c>
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
@@ -17418,31 +17437,31 @@
         <f t="shared" si="1"/>
         <v>339</v>
       </c>
-      <c r="B341" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="C341" s="37">
+      <c r="B341" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="C341" s="38">
         <v>43957.0</v>
       </c>
-      <c r="D341" s="31">
+      <c r="D341" s="32">
         <v>43957.0</v>
       </c>
-      <c r="E341" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="F341" s="27" t="s">
+      <c r="E341" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="F341" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G341" s="8"/>
-      <c r="H341" s="27" t="s">
-        <v>364</v>
+      <c r="H341" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I341" s="12"/>
       <c r="J341" s="18">
         <v>43964.0</v>
       </c>
-      <c r="K341" s="39" t="s">
-        <v>417</v>
+      <c r="K341" s="40" t="s">
+        <v>419</v>
       </c>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
@@ -17465,29 +17484,29 @@
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="B342" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="C342" s="37">
+      <c r="B342" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="C342" s="38">
         <v>43957.0</v>
       </c>
-      <c r="D342" s="31">
+      <c r="D342" s="32">
         <v>43957.0</v>
       </c>
-      <c r="E342" s="25" t="s">
+      <c r="E342" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F342" s="27" t="s">
+      <c r="F342" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G342" s="8"/>
-      <c r="H342" s="27" t="s">
-        <v>364</v>
+      <c r="H342" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I342" s="12"/>
       <c r="J342" s="13"/>
-      <c r="K342" s="39" t="s">
-        <v>417</v>
+      <c r="K342" s="40" t="s">
+        <v>419</v>
       </c>
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
@@ -17510,31 +17529,31 @@
         <f t="shared" si="1"/>
         <v>341</v>
       </c>
-      <c r="B343" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="C343" s="37">
+      <c r="B343" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="C343" s="38">
         <v>43957.0</v>
       </c>
-      <c r="D343" s="31">
+      <c r="D343" s="32">
         <v>43957.0</v>
       </c>
-      <c r="E343" s="25" t="s">
+      <c r="E343" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F343" s="27" t="s">
+      <c r="F343" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G343" s="8"/>
-      <c r="H343" s="27" t="s">
-        <v>418</v>
+      <c r="H343" s="22" t="s">
+        <v>420</v>
       </c>
       <c r="I343" s="12"/>
       <c r="J343" s="18">
         <v>43964.0</v>
       </c>
-      <c r="K343" s="39" t="s">
-        <v>417</v>
+      <c r="K343" s="40" t="s">
+        <v>419</v>
       </c>
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
@@ -17557,31 +17576,31 @@
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
-      <c r="B344" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="C344" s="37">
+      <c r="B344" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="C344" s="38">
         <v>43958.0</v>
       </c>
-      <c r="D344" s="31">
+      <c r="D344" s="32">
         <v>43958.0</v>
       </c>
-      <c r="E344" s="25" t="s">
+      <c r="E344" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F344" s="27" t="s">
+      <c r="F344" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G344" s="8"/>
-      <c r="H344" s="27" t="s">
-        <v>364</v>
+      <c r="H344" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I344" s="12"/>
       <c r="J344" s="18">
         <v>43961.0</v>
       </c>
-      <c r="K344" s="39" t="s">
-        <v>420</v>
+      <c r="K344" s="40" t="s">
+        <v>422</v>
       </c>
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
@@ -17604,29 +17623,29 @@
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
-      <c r="B345" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="C345" s="37">
+      <c r="B345" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="C345" s="38">
         <v>43958.0</v>
       </c>
-      <c r="D345" s="31">
+      <c r="D345" s="32">
         <v>43958.0</v>
       </c>
-      <c r="E345" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F345" s="27" t="s">
+      <c r="E345" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F345" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G345" s="8"/>
-      <c r="H345" s="27" t="s">
-        <v>364</v>
+      <c r="H345" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I345" s="12"/>
       <c r="J345" s="13"/>
-      <c r="K345" s="39" t="s">
-        <v>420</v>
+      <c r="K345" s="40" t="s">
+        <v>422</v>
       </c>
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
@@ -17649,29 +17668,29 @@
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="B346" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="C346" s="37">
+      <c r="B346" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="C346" s="38">
         <v>43958.0</v>
       </c>
-      <c r="D346" s="31">
+      <c r="D346" s="32">
         <v>43958.0</v>
       </c>
-      <c r="E346" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="F346" s="27" t="s">
+      <c r="E346" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F346" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G346" s="8"/>
-      <c r="H346" s="27" t="s">
-        <v>364</v>
+      <c r="H346" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I346" s="12"/>
       <c r="J346" s="13"/>
-      <c r="K346" s="39" t="s">
-        <v>420</v>
+      <c r="K346" s="40" t="s">
+        <v>422</v>
       </c>
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
@@ -17694,29 +17713,29 @@
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="B347" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="C347" s="37">
+      <c r="B347" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="C347" s="38">
         <v>43958.0</v>
       </c>
-      <c r="D347" s="31">
+      <c r="D347" s="32">
         <v>43958.0</v>
       </c>
-      <c r="E347" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="F347" s="27" t="s">
+      <c r="E347" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F347" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G347" s="8"/>
-      <c r="H347" s="27" t="s">
-        <v>364</v>
+      <c r="H347" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I347" s="12"/>
       <c r="J347" s="13"/>
-      <c r="K347" s="39" t="s">
-        <v>420</v>
+      <c r="K347" s="40" t="s">
+        <v>422</v>
       </c>
       <c r="L347" s="7"/>
       <c r="M347" s="7"/>
@@ -17739,29 +17758,29 @@
         <f t="shared" si="1"/>
         <v>346</v>
       </c>
-      <c r="B348" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="C348" s="37">
+      <c r="B348" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="C348" s="38">
         <v>43958.0</v>
       </c>
-      <c r="D348" s="31">
+      <c r="D348" s="32">
         <v>43958.0</v>
       </c>
-      <c r="E348" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="F348" s="27" t="s">
+      <c r="E348" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F348" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G348" s="8"/>
-      <c r="H348" s="27" t="s">
-        <v>364</v>
+      <c r="H348" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I348" s="12"/>
       <c r="J348" s="13"/>
-      <c r="K348" s="39" t="s">
-        <v>420</v>
+      <c r="K348" s="40" t="s">
+        <v>422</v>
       </c>
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
@@ -17784,31 +17803,31 @@
         <f t="shared" si="1"/>
         <v>347</v>
       </c>
-      <c r="B349" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="C349" s="37">
+      <c r="B349" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="C349" s="38">
         <v>43958.0</v>
       </c>
-      <c r="D349" s="31">
+      <c r="D349" s="32">
         <v>43958.0</v>
       </c>
-      <c r="E349" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="F349" s="27" t="s">
+      <c r="E349" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F349" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G349" s="8"/>
-      <c r="H349" s="27" t="s">
-        <v>364</v>
+      <c r="H349" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I349" s="12"/>
       <c r="J349" s="18">
         <v>43965.0</v>
       </c>
-      <c r="K349" s="39" t="s">
-        <v>420</v>
+      <c r="K349" s="40" t="s">
+        <v>422</v>
       </c>
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
@@ -17831,31 +17850,31 @@
         <f t="shared" si="1"/>
         <v>348</v>
       </c>
-      <c r="B350" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="C350" s="37">
+      <c r="B350" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="C350" s="38">
         <v>43959.0</v>
       </c>
-      <c r="D350" s="31">
+      <c r="D350" s="32">
         <v>43959.0</v>
       </c>
-      <c r="E350" s="25" t="s">
+      <c r="E350" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F350" s="27" t="s">
+      <c r="F350" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G350" s="8"/>
-      <c r="H350" s="27" t="s">
-        <v>422</v>
+      <c r="H350" s="22" t="s">
+        <v>424</v>
       </c>
       <c r="I350" s="12"/>
       <c r="J350" s="18">
         <v>43970.0</v>
       </c>
-      <c r="K350" s="39" t="s">
-        <v>423</v>
+      <c r="K350" s="40" t="s">
+        <v>425</v>
       </c>
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
@@ -17878,29 +17897,29 @@
         <f t="shared" si="1"/>
         <v>349</v>
       </c>
-      <c r="B351" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="C351" s="37">
+      <c r="B351" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C351" s="38">
         <v>43960.0</v>
       </c>
-      <c r="D351" s="31">
+      <c r="D351" s="32">
         <v>43960.0</v>
       </c>
-      <c r="E351" s="25" t="s">
+      <c r="E351" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F351" s="27" t="s">
+      <c r="F351" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G351" s="8"/>
-      <c r="H351" s="27" t="s">
-        <v>364</v>
+      <c r="H351" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I351" s="12"/>
       <c r="J351" s="13"/>
-      <c r="K351" s="39" t="s">
-        <v>425</v>
+      <c r="K351" s="40" t="s">
+        <v>427</v>
       </c>
       <c r="L351" s="7"/>
       <c r="M351" s="7"/>
@@ -17923,29 +17942,29 @@
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="B352" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="C352" s="37">
+      <c r="B352" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C352" s="38">
         <v>43960.0</v>
       </c>
-      <c r="D352" s="31">
+      <c r="D352" s="32">
         <v>43960.0</v>
       </c>
-      <c r="E352" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F352" s="27" t="s">
+      <c r="E352" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F352" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G352" s="8"/>
-      <c r="H352" s="27" t="s">
-        <v>426</v>
+      <c r="H352" s="22" t="s">
+        <v>428</v>
       </c>
       <c r="I352" s="12"/>
       <c r="J352" s="13"/>
-      <c r="K352" s="39" t="s">
-        <v>425</v>
+      <c r="K352" s="40" t="s">
+        <v>427</v>
       </c>
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
@@ -17968,29 +17987,29 @@
         <f t="shared" si="1"/>
         <v>351</v>
       </c>
-      <c r="B353" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="C353" s="37">
+      <c r="B353" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C353" s="38">
         <v>43960.0</v>
       </c>
-      <c r="D353" s="31">
+      <c r="D353" s="32">
         <v>43960.0</v>
       </c>
-      <c r="E353" s="25" t="s">
+      <c r="E353" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F353" s="27" t="s">
+      <c r="F353" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G353" s="8"/>
-      <c r="H353" s="27" t="s">
-        <v>426</v>
+      <c r="H353" s="22" t="s">
+        <v>428</v>
       </c>
       <c r="I353" s="12"/>
       <c r="J353" s="13"/>
-      <c r="K353" s="39" t="s">
-        <v>425</v>
+      <c r="K353" s="40" t="s">
+        <v>427</v>
       </c>
       <c r="L353" s="7"/>
       <c r="M353" s="7"/>
@@ -18013,29 +18032,29 @@
         <f t="shared" si="1"/>
         <v>352</v>
       </c>
-      <c r="B354" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="C354" s="37">
+      <c r="B354" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C354" s="38">
         <v>43960.0</v>
       </c>
-      <c r="D354" s="31">
+      <c r="D354" s="32">
         <v>43960.0</v>
       </c>
-      <c r="E354" s="25" t="s">
+      <c r="E354" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F354" s="27" t="s">
+      <c r="F354" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G354" s="8"/>
-      <c r="H354" s="27" t="s">
-        <v>364</v>
+      <c r="H354" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I354" s="12"/>
       <c r="J354" s="13"/>
-      <c r="K354" s="39" t="s">
-        <v>425</v>
+      <c r="K354" s="40" t="s">
+        <v>427</v>
       </c>
       <c r="L354" s="7"/>
       <c r="M354" s="7"/>
@@ -18058,29 +18077,29 @@
         <f t="shared" si="1"/>
         <v>353</v>
       </c>
-      <c r="B355" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="C355" s="37">
+      <c r="B355" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="C355" s="38">
         <v>43963.0</v>
       </c>
-      <c r="D355" s="31">
+      <c r="D355" s="32">
         <v>43963.0</v>
       </c>
-      <c r="E355" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F355" s="27" t="s">
+      <c r="E355" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F355" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G355" s="8"/>
-      <c r="H355" s="27" t="s">
-        <v>364</v>
+      <c r="H355" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I355" s="12"/>
       <c r="J355" s="13"/>
-      <c r="K355" s="29" t="s">
-        <v>428</v>
+      <c r="K355" s="30" t="s">
+        <v>430</v>
       </c>
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
@@ -18103,29 +18122,29 @@
         <f t="shared" si="1"/>
         <v>354</v>
       </c>
-      <c r="B356" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="C356" s="37">
+      <c r="B356" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="C356" s="38">
         <v>43963.0</v>
       </c>
-      <c r="D356" s="31">
+      <c r="D356" s="32">
         <v>43963.0</v>
       </c>
-      <c r="E356" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F356" s="27" t="s">
+      <c r="E356" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F356" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G356" s="8"/>
-      <c r="H356" s="27" t="s">
-        <v>364</v>
+      <c r="H356" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I356" s="12"/>
       <c r="J356" s="13"/>
-      <c r="K356" s="29" t="s">
-        <v>428</v>
+      <c r="K356" s="30" t="s">
+        <v>430</v>
       </c>
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
@@ -18148,29 +18167,29 @@
         <f t="shared" si="1"/>
         <v>355</v>
       </c>
-      <c r="B357" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="C357" s="37">
+      <c r="B357" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="C357" s="38">
         <v>43963.0</v>
       </c>
-      <c r="D357" s="31">
+      <c r="D357" s="32">
         <v>43963.0</v>
       </c>
-      <c r="E357" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="F357" s="27" t="s">
+      <c r="E357" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F357" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G357" s="8"/>
-      <c r="H357" s="27" t="s">
-        <v>364</v>
+      <c r="H357" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I357" s="12"/>
       <c r="J357" s="13"/>
-      <c r="K357" s="29" t="s">
-        <v>428</v>
+      <c r="K357" s="30" t="s">
+        <v>430</v>
       </c>
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
@@ -18193,29 +18212,29 @@
         <f t="shared" si="1"/>
         <v>356</v>
       </c>
-      <c r="B358" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="C358" s="37">
+      <c r="B358" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="C358" s="38">
         <v>43963.0</v>
       </c>
-      <c r="D358" s="31">
+      <c r="D358" s="32">
         <v>43963.0</v>
       </c>
-      <c r="E358" s="25" t="s">
+      <c r="E358" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F358" s="27" t="s">
+      <c r="F358" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G358" s="8"/>
-      <c r="H358" s="27" t="s">
-        <v>364</v>
+      <c r="H358" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I358" s="12"/>
       <c r="J358" s="13"/>
-      <c r="K358" s="29" t="s">
-        <v>428</v>
+      <c r="K358" s="30" t="s">
+        <v>430</v>
       </c>
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
@@ -18238,29 +18257,29 @@
         <f t="shared" si="1"/>
         <v>357</v>
       </c>
-      <c r="B359" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="C359" s="37">
+      <c r="B359" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C359" s="38">
         <v>43964.0</v>
       </c>
-      <c r="D359" s="31">
+      <c r="D359" s="32">
         <v>43964.0</v>
       </c>
-      <c r="E359" s="25" t="s">
+      <c r="E359" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F359" s="27" t="s">
+      <c r="F359" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G359" s="8"/>
-      <c r="H359" s="27" t="s">
-        <v>364</v>
+      <c r="H359" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I359" s="12"/>
       <c r="J359" s="13"/>
-      <c r="K359" s="39" t="s">
-        <v>430</v>
+      <c r="K359" s="40" t="s">
+        <v>432</v>
       </c>
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
@@ -18283,29 +18302,29 @@
         <f t="shared" si="1"/>
         <v>358</v>
       </c>
-      <c r="B360" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="C360" s="37">
+      <c r="B360" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C360" s="38">
         <v>43965.0</v>
       </c>
-      <c r="D360" s="31">
+      <c r="D360" s="32">
         <v>43965.0</v>
       </c>
-      <c r="E360" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="F360" s="27" t="s">
+      <c r="E360" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F360" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G360" s="8"/>
-      <c r="H360" s="27" t="s">
-        <v>364</v>
+      <c r="H360" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I360" s="12"/>
       <c r="J360" s="13"/>
-      <c r="K360" s="39" t="s">
-        <v>432</v>
+      <c r="K360" s="40" t="s">
+        <v>434</v>
       </c>
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
@@ -36316,150 +36335,151 @@
     <hyperlink r:id="rId40" ref="K52"/>
     <hyperlink r:id="rId41" ref="L52"/>
     <hyperlink r:id="rId42" ref="L53"/>
-    <hyperlink r:id="rId43" ref="K72"/>
-    <hyperlink r:id="rId44" ref="K143"/>
-    <hyperlink r:id="rId45" ref="K169"/>
-    <hyperlink r:id="rId46" ref="L169"/>
-    <hyperlink r:id="rId47" ref="K224"/>
-    <hyperlink r:id="rId48" ref="K225"/>
-    <hyperlink r:id="rId49" ref="K226"/>
-    <hyperlink r:id="rId50" ref="K227"/>
-    <hyperlink r:id="rId51" ref="K228"/>
-    <hyperlink r:id="rId52" ref="K229"/>
-    <hyperlink r:id="rId53" ref="K230"/>
-    <hyperlink r:id="rId54" ref="K231"/>
-    <hyperlink r:id="rId55" ref="K232"/>
-    <hyperlink r:id="rId56" ref="K233"/>
-    <hyperlink r:id="rId57" ref="K234"/>
-    <hyperlink r:id="rId58" ref="K235"/>
-    <hyperlink r:id="rId59" ref="K236"/>
-    <hyperlink r:id="rId60" ref="K237"/>
-    <hyperlink r:id="rId61" ref="K238"/>
-    <hyperlink r:id="rId62" ref="K239"/>
-    <hyperlink r:id="rId63" ref="K240"/>
-    <hyperlink r:id="rId64" ref="K241"/>
-    <hyperlink r:id="rId65" ref="K242"/>
-    <hyperlink r:id="rId66" ref="K243"/>
-    <hyperlink r:id="rId67" ref="K244"/>
-    <hyperlink r:id="rId68" ref="K245"/>
-    <hyperlink r:id="rId69" ref="K246"/>
-    <hyperlink r:id="rId70" ref="K247"/>
-    <hyperlink r:id="rId71" ref="K248"/>
-    <hyperlink r:id="rId72" ref="K249"/>
-    <hyperlink r:id="rId73" ref="K250"/>
-    <hyperlink r:id="rId74" ref="K251"/>
-    <hyperlink r:id="rId75" ref="K252"/>
-    <hyperlink r:id="rId76" ref="K253"/>
-    <hyperlink r:id="rId77" ref="K254"/>
-    <hyperlink r:id="rId78" ref="K255"/>
-    <hyperlink r:id="rId79" ref="K256"/>
-    <hyperlink r:id="rId80" ref="K257"/>
-    <hyperlink r:id="rId81" ref="K258"/>
-    <hyperlink r:id="rId82" ref="K259"/>
-    <hyperlink r:id="rId83" ref="K260"/>
-    <hyperlink r:id="rId84" ref="K261"/>
-    <hyperlink r:id="rId85" ref="K262"/>
-    <hyperlink r:id="rId86" ref="K263"/>
-    <hyperlink r:id="rId87" ref="K264"/>
-    <hyperlink r:id="rId88" ref="K265"/>
-    <hyperlink r:id="rId89" ref="K266"/>
-    <hyperlink r:id="rId90" ref="K267"/>
-    <hyperlink r:id="rId91" ref="K268"/>
-    <hyperlink r:id="rId92" ref="K269"/>
-    <hyperlink r:id="rId93" ref="K270"/>
-    <hyperlink r:id="rId94" ref="K271"/>
-    <hyperlink r:id="rId95" ref="K272"/>
-    <hyperlink r:id="rId96" ref="K273"/>
-    <hyperlink r:id="rId97" ref="K274"/>
-    <hyperlink r:id="rId98" ref="K275"/>
-    <hyperlink r:id="rId99" ref="K276"/>
-    <hyperlink r:id="rId100" ref="K277"/>
-    <hyperlink r:id="rId101" ref="K278"/>
-    <hyperlink r:id="rId102" ref="K279"/>
-    <hyperlink r:id="rId103" ref="K280"/>
-    <hyperlink r:id="rId104" ref="K281"/>
-    <hyperlink r:id="rId105" ref="K282"/>
-    <hyperlink r:id="rId106" ref="K283"/>
-    <hyperlink r:id="rId107" ref="K284"/>
-    <hyperlink r:id="rId108" ref="K285"/>
-    <hyperlink r:id="rId109" ref="K286"/>
-    <hyperlink r:id="rId110" ref="K287"/>
-    <hyperlink r:id="rId111" ref="K288"/>
-    <hyperlink r:id="rId112" ref="K289"/>
-    <hyperlink r:id="rId113" ref="K290"/>
-    <hyperlink r:id="rId114" ref="K291"/>
-    <hyperlink r:id="rId115" ref="K292"/>
-    <hyperlink r:id="rId116" ref="K293"/>
-    <hyperlink r:id="rId117" ref="K294"/>
-    <hyperlink r:id="rId118" ref="K295"/>
-    <hyperlink r:id="rId119" ref="K296"/>
-    <hyperlink r:id="rId120" ref="K297"/>
-    <hyperlink r:id="rId121" ref="K298"/>
-    <hyperlink r:id="rId122" ref="K299"/>
-    <hyperlink r:id="rId123" ref="K300"/>
-    <hyperlink r:id="rId124" ref="K301"/>
-    <hyperlink r:id="rId125" ref="K302"/>
-    <hyperlink r:id="rId126" ref="K303"/>
-    <hyperlink r:id="rId127" ref="K304"/>
-    <hyperlink r:id="rId128" ref="K305"/>
-    <hyperlink r:id="rId129" ref="K306"/>
-    <hyperlink r:id="rId130" ref="K307"/>
-    <hyperlink r:id="rId131" ref="K308"/>
-    <hyperlink r:id="rId132" ref="K309"/>
-    <hyperlink r:id="rId133" ref="K310"/>
-    <hyperlink r:id="rId134" ref="K311"/>
-    <hyperlink r:id="rId135" ref="K312"/>
-    <hyperlink r:id="rId136" ref="K313"/>
-    <hyperlink r:id="rId137" ref="K314"/>
-    <hyperlink r:id="rId138" ref="L314"/>
-    <hyperlink r:id="rId139" ref="K315"/>
-    <hyperlink r:id="rId140" ref="K316"/>
-    <hyperlink r:id="rId141" ref="K317"/>
-    <hyperlink r:id="rId142" ref="K318"/>
-    <hyperlink r:id="rId143" ref="K319"/>
-    <hyperlink r:id="rId144" ref="K320"/>
-    <hyperlink r:id="rId145" ref="K321"/>
-    <hyperlink r:id="rId146" ref="K322"/>
-    <hyperlink r:id="rId147" ref="K323"/>
-    <hyperlink r:id="rId148" ref="K324"/>
-    <hyperlink r:id="rId149" ref="K327"/>
-    <hyperlink r:id="rId150" ref="K328"/>
-    <hyperlink r:id="rId151" ref="K329"/>
-    <hyperlink r:id="rId152" ref="K330"/>
-    <hyperlink r:id="rId153" ref="K331"/>
-    <hyperlink r:id="rId154" ref="K332"/>
-    <hyperlink r:id="rId155" ref="K333"/>
-    <hyperlink r:id="rId156" ref="K334"/>
-    <hyperlink r:id="rId157" ref="K335"/>
-    <hyperlink r:id="rId158" ref="K336"/>
-    <hyperlink r:id="rId159" ref="K337"/>
-    <hyperlink r:id="rId160" ref="K338"/>
-    <hyperlink r:id="rId161" ref="K339"/>
-    <hyperlink r:id="rId162" ref="K340"/>
-    <hyperlink r:id="rId163" ref="K341"/>
-    <hyperlink r:id="rId164" ref="K342"/>
-    <hyperlink r:id="rId165" ref="K343"/>
-    <hyperlink r:id="rId166" ref="K344"/>
-    <hyperlink r:id="rId167" ref="K345"/>
-    <hyperlink r:id="rId168" ref="K346"/>
-    <hyperlink r:id="rId169" ref="K347"/>
-    <hyperlink r:id="rId170" ref="K348"/>
-    <hyperlink r:id="rId171" ref="K349"/>
-    <hyperlink r:id="rId172" ref="K350"/>
-    <hyperlink r:id="rId173" ref="K351"/>
-    <hyperlink r:id="rId174" ref="K352"/>
-    <hyperlink r:id="rId175" ref="K353"/>
-    <hyperlink r:id="rId176" ref="K354"/>
-    <hyperlink r:id="rId177" ref="K355"/>
-    <hyperlink r:id="rId178" ref="K356"/>
-    <hyperlink r:id="rId179" ref="K357"/>
-    <hyperlink r:id="rId180" ref="K358"/>
-    <hyperlink r:id="rId181" ref="K359"/>
-    <hyperlink r:id="rId182" ref="K360"/>
+    <hyperlink r:id="rId43" ref="L68"/>
+    <hyperlink r:id="rId44" ref="K72"/>
+    <hyperlink r:id="rId45" ref="K143"/>
+    <hyperlink r:id="rId46" ref="K169"/>
+    <hyperlink r:id="rId47" ref="L169"/>
+    <hyperlink r:id="rId48" ref="K224"/>
+    <hyperlink r:id="rId49" ref="K225"/>
+    <hyperlink r:id="rId50" ref="K226"/>
+    <hyperlink r:id="rId51" ref="K227"/>
+    <hyperlink r:id="rId52" ref="K228"/>
+    <hyperlink r:id="rId53" ref="K229"/>
+    <hyperlink r:id="rId54" ref="K230"/>
+    <hyperlink r:id="rId55" ref="K231"/>
+    <hyperlink r:id="rId56" ref="K232"/>
+    <hyperlink r:id="rId57" ref="K233"/>
+    <hyperlink r:id="rId58" ref="K234"/>
+    <hyperlink r:id="rId59" ref="K235"/>
+    <hyperlink r:id="rId60" ref="K236"/>
+    <hyperlink r:id="rId61" ref="K237"/>
+    <hyperlink r:id="rId62" ref="K238"/>
+    <hyperlink r:id="rId63" ref="K239"/>
+    <hyperlink r:id="rId64" ref="K240"/>
+    <hyperlink r:id="rId65" ref="K241"/>
+    <hyperlink r:id="rId66" ref="K242"/>
+    <hyperlink r:id="rId67" ref="K243"/>
+    <hyperlink r:id="rId68" ref="K244"/>
+    <hyperlink r:id="rId69" ref="K245"/>
+    <hyperlink r:id="rId70" ref="K246"/>
+    <hyperlink r:id="rId71" ref="K247"/>
+    <hyperlink r:id="rId72" ref="K248"/>
+    <hyperlink r:id="rId73" ref="K249"/>
+    <hyperlink r:id="rId74" ref="K250"/>
+    <hyperlink r:id="rId75" ref="K251"/>
+    <hyperlink r:id="rId76" ref="K252"/>
+    <hyperlink r:id="rId77" ref="K253"/>
+    <hyperlink r:id="rId78" ref="K254"/>
+    <hyperlink r:id="rId79" ref="K255"/>
+    <hyperlink r:id="rId80" ref="K256"/>
+    <hyperlink r:id="rId81" ref="K257"/>
+    <hyperlink r:id="rId82" ref="K258"/>
+    <hyperlink r:id="rId83" ref="K259"/>
+    <hyperlink r:id="rId84" ref="K260"/>
+    <hyperlink r:id="rId85" ref="K261"/>
+    <hyperlink r:id="rId86" ref="K262"/>
+    <hyperlink r:id="rId87" ref="K263"/>
+    <hyperlink r:id="rId88" ref="K264"/>
+    <hyperlink r:id="rId89" ref="K265"/>
+    <hyperlink r:id="rId90" ref="K266"/>
+    <hyperlink r:id="rId91" ref="K267"/>
+    <hyperlink r:id="rId92" ref="K268"/>
+    <hyperlink r:id="rId93" ref="K269"/>
+    <hyperlink r:id="rId94" ref="K270"/>
+    <hyperlink r:id="rId95" ref="K271"/>
+    <hyperlink r:id="rId96" ref="K272"/>
+    <hyperlink r:id="rId97" ref="K273"/>
+    <hyperlink r:id="rId98" ref="K274"/>
+    <hyperlink r:id="rId99" ref="K275"/>
+    <hyperlink r:id="rId100" ref="K276"/>
+    <hyperlink r:id="rId101" ref="K277"/>
+    <hyperlink r:id="rId102" ref="K278"/>
+    <hyperlink r:id="rId103" ref="K279"/>
+    <hyperlink r:id="rId104" ref="K280"/>
+    <hyperlink r:id="rId105" ref="K281"/>
+    <hyperlink r:id="rId106" ref="K282"/>
+    <hyperlink r:id="rId107" ref="K283"/>
+    <hyperlink r:id="rId108" ref="K284"/>
+    <hyperlink r:id="rId109" ref="K285"/>
+    <hyperlink r:id="rId110" ref="K286"/>
+    <hyperlink r:id="rId111" ref="K287"/>
+    <hyperlink r:id="rId112" ref="K288"/>
+    <hyperlink r:id="rId113" ref="K289"/>
+    <hyperlink r:id="rId114" ref="K290"/>
+    <hyperlink r:id="rId115" ref="K291"/>
+    <hyperlink r:id="rId116" ref="K292"/>
+    <hyperlink r:id="rId117" ref="K293"/>
+    <hyperlink r:id="rId118" ref="K294"/>
+    <hyperlink r:id="rId119" ref="K295"/>
+    <hyperlink r:id="rId120" ref="K296"/>
+    <hyperlink r:id="rId121" ref="K297"/>
+    <hyperlink r:id="rId122" ref="K298"/>
+    <hyperlink r:id="rId123" ref="K299"/>
+    <hyperlink r:id="rId124" ref="K300"/>
+    <hyperlink r:id="rId125" ref="K301"/>
+    <hyperlink r:id="rId126" ref="K302"/>
+    <hyperlink r:id="rId127" ref="K303"/>
+    <hyperlink r:id="rId128" ref="K304"/>
+    <hyperlink r:id="rId129" ref="K305"/>
+    <hyperlink r:id="rId130" ref="K306"/>
+    <hyperlink r:id="rId131" ref="K307"/>
+    <hyperlink r:id="rId132" ref="K308"/>
+    <hyperlink r:id="rId133" ref="K309"/>
+    <hyperlink r:id="rId134" ref="K310"/>
+    <hyperlink r:id="rId135" ref="K311"/>
+    <hyperlink r:id="rId136" ref="K312"/>
+    <hyperlink r:id="rId137" ref="K313"/>
+    <hyperlink r:id="rId138" ref="K314"/>
+    <hyperlink r:id="rId139" ref="L314"/>
+    <hyperlink r:id="rId140" ref="K315"/>
+    <hyperlink r:id="rId141" ref="K316"/>
+    <hyperlink r:id="rId142" ref="K317"/>
+    <hyperlink r:id="rId143" ref="K318"/>
+    <hyperlink r:id="rId144" ref="K319"/>
+    <hyperlink r:id="rId145" ref="K320"/>
+    <hyperlink r:id="rId146" ref="K321"/>
+    <hyperlink r:id="rId147" ref="K322"/>
+    <hyperlink r:id="rId148" ref="K323"/>
+    <hyperlink r:id="rId149" ref="K324"/>
+    <hyperlink r:id="rId150" ref="K327"/>
+    <hyperlink r:id="rId151" ref="K328"/>
+    <hyperlink r:id="rId152" ref="K329"/>
+    <hyperlink r:id="rId153" ref="K330"/>
+    <hyperlink r:id="rId154" ref="K331"/>
+    <hyperlink r:id="rId155" ref="K332"/>
+    <hyperlink r:id="rId156" ref="K333"/>
+    <hyperlink r:id="rId157" ref="K334"/>
+    <hyperlink r:id="rId158" ref="K335"/>
+    <hyperlink r:id="rId159" ref="K336"/>
+    <hyperlink r:id="rId160" ref="K337"/>
+    <hyperlink r:id="rId161" ref="K338"/>
+    <hyperlink r:id="rId162" ref="K339"/>
+    <hyperlink r:id="rId163" ref="K340"/>
+    <hyperlink r:id="rId164" ref="K341"/>
+    <hyperlink r:id="rId165" ref="K342"/>
+    <hyperlink r:id="rId166" ref="K343"/>
+    <hyperlink r:id="rId167" ref="K344"/>
+    <hyperlink r:id="rId168" ref="K345"/>
+    <hyperlink r:id="rId169" ref="K346"/>
+    <hyperlink r:id="rId170" ref="K347"/>
+    <hyperlink r:id="rId171" ref="K348"/>
+    <hyperlink r:id="rId172" ref="K349"/>
+    <hyperlink r:id="rId173" ref="K350"/>
+    <hyperlink r:id="rId174" ref="K351"/>
+    <hyperlink r:id="rId175" ref="K352"/>
+    <hyperlink r:id="rId176" ref="K353"/>
+    <hyperlink r:id="rId177" ref="K354"/>
+    <hyperlink r:id="rId178" ref="K355"/>
+    <hyperlink r:id="rId179" ref="K356"/>
+    <hyperlink r:id="rId180" ref="K357"/>
+    <hyperlink r:id="rId181" ref="K358"/>
+    <hyperlink r:id="rId182" ref="K359"/>
+    <hyperlink r:id="rId183" ref="K360"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId183"/>
+  <drawing r:id="rId184"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="435">
   <si>
-    <t>2020-05-31T16:39:00.000Z</t>
+    <t>2020-06-02T16:02:00.000Z</t>
   </si>
   <si>
     <t>No</t>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="435">
   <si>
-    <t>2020-06-02T16:02:00.000Z</t>
+    <t>2020-06-03T19:40:00.000Z</t>
   </si>
   <si>
     <t>No</t>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -17733,7 +17733,9 @@
         <v>366</v>
       </c>
       <c r="I347" s="12"/>
-      <c r="J347" s="13"/>
+      <c r="J347" s="18">
+        <v>43974.0</v>
+      </c>
       <c r="K347" s="40" t="s">
         <v>422</v>
       </c>
@@ -17917,7 +17919,9 @@
         <v>366</v>
       </c>
       <c r="I351" s="12"/>
-      <c r="J351" s="13"/>
+      <c r="J351" s="18">
+        <v>43977.0</v>
+      </c>
       <c r="K351" s="40" t="s">
         <v>427</v>
       </c>
@@ -17962,7 +17966,9 @@
         <v>428</v>
       </c>
       <c r="I352" s="12"/>
-      <c r="J352" s="13"/>
+      <c r="J352" s="18">
+        <v>43979.0</v>
+      </c>
       <c r="K352" s="40" t="s">
         <v>427</v>
       </c>
@@ -18007,7 +18013,9 @@
         <v>428</v>
       </c>
       <c r="I353" s="12"/>
-      <c r="J353" s="13"/>
+      <c r="J353" s="18">
+        <v>43977.0</v>
+      </c>
       <c r="K353" s="40" t="s">
         <v>427</v>
       </c>
@@ -18052,7 +18060,9 @@
         <v>366</v>
       </c>
       <c r="I354" s="12"/>
-      <c r="J354" s="13"/>
+      <c r="J354" s="18">
+        <v>43976.0</v>
+      </c>
       <c r="K354" s="40" t="s">
         <v>427</v>
       </c>
@@ -18097,7 +18107,7 @@
         <v>366</v>
       </c>
       <c r="I355" s="12"/>
-      <c r="J355" s="13"/>
+      <c r="J355" s="18"/>
       <c r="K355" s="30" t="s">
         <v>430</v>
       </c>
@@ -18142,7 +18152,9 @@
         <v>366</v>
       </c>
       <c r="I356" s="12"/>
-      <c r="J356" s="13"/>
+      <c r="J356" s="18">
+        <v>43976.0</v>
+      </c>
       <c r="K356" s="30" t="s">
         <v>430</v>
       </c>
@@ -18277,7 +18289,9 @@
         <v>366</v>
       </c>
       <c r="I359" s="12"/>
-      <c r="J359" s="13"/>
+      <c r="J359" s="18">
+        <v>43984.0</v>
+      </c>
       <c r="K359" s="40" t="s">
         <v>432</v>
       </c>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="435">
   <si>
-    <t>2020-06-03T19:40:00.000Z</t>
+    <t>2020-06-04T15:07:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -16169,7 +16169,9 @@
         <v>380</v>
       </c>
       <c r="I313" s="12"/>
-      <c r="J313" s="13"/>
+      <c r="J313" s="18">
+        <v>43970.0</v>
+      </c>
       <c r="K313" s="30" t="s">
         <v>389</v>
       </c>
@@ -16402,7 +16404,9 @@
         <v>366</v>
       </c>
       <c r="I318" s="12"/>
-      <c r="J318" s="13"/>
+      <c r="J318" s="18">
+        <v>43959.0</v>
+      </c>
       <c r="K318" s="30" t="s">
         <v>397</v>
       </c>
@@ -16447,7 +16451,9 @@
         <v>366</v>
       </c>
       <c r="I319" s="12"/>
-      <c r="J319" s="13"/>
+      <c r="J319" s="18">
+        <v>43972.0</v>
+      </c>
       <c r="K319" s="30" t="s">
         <v>397</v>
       </c>
@@ -16492,7 +16498,9 @@
         <v>366</v>
       </c>
       <c r="I320" s="12"/>
-      <c r="J320" s="13"/>
+      <c r="J320" s="18">
+        <v>43970.0</v>
+      </c>
       <c r="K320" s="30" t="s">
         <v>400</v>
       </c>
@@ -16539,7 +16547,9 @@
         <v>401</v>
       </c>
       <c r="I321" s="12"/>
-      <c r="J321" s="13"/>
+      <c r="J321" s="18">
+        <v>43973.0</v>
+      </c>
       <c r="K321" s="30" t="s">
         <v>400</v>
       </c>
@@ -17001,7 +17011,9 @@
       <c r="G331" s="8"/>
       <c r="H331" s="22"/>
       <c r="I331" s="12"/>
-      <c r="J331" s="13"/>
+      <c r="J331" s="18">
+        <v>43984.0</v>
+      </c>
       <c r="K331" s="30" t="s">
         <v>407</v>
       </c>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="439">
   <si>
     <t>2020-06-04T15:07:00.000Z</t>
   </si>
@@ -1418,6 +1418,12 @@
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269365/200505oshirase(225-228).pdf</t>
   </si>
   <si>
+    <t>令和2年6月4日死亡</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000270/270983/200604oshirase(sibou).pdf</t>
+  </si>
+  <si>
     <t>2020-05-06T08:00:00.000Z</t>
   </si>
   <si>
@@ -1470,6 +1476,12 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000269/269721/200514oshirase(248).pdf</t>
+  </si>
+  <si>
+    <t>2020-06-06T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000271/271110/200606oshirase(249).pdf</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1612,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1723,6 +1735,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17421,14 +17436,16 @@
       </c>
       <c r="G340" s="8"/>
       <c r="H340" s="22" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="I340" s="12"/>
       <c r="J340" s="13"/>
       <c r="K340" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="L340" s="7"/>
+      <c r="L340" s="30" t="s">
+        <v>418</v>
+      </c>
       <c r="M340" s="7"/>
       <c r="N340" s="7"/>
       <c r="O340" s="7"/>
@@ -17450,7 +17467,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="25" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C341" s="38">
         <v>43957.0</v>
@@ -17459,7 +17476,7 @@
         <v>43957.0</v>
       </c>
       <c r="E341" s="27" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F341" s="22" t="s">
         <v>15</v>
@@ -17473,7 +17490,7 @@
         <v>43964.0</v>
       </c>
       <c r="K341" s="40" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
@@ -17497,7 +17514,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="25" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C342" s="38">
         <v>43957.0</v>
@@ -17518,7 +17535,7 @@
       <c r="I342" s="12"/>
       <c r="J342" s="13"/>
       <c r="K342" s="40" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
@@ -17542,7 +17559,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="25" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C343" s="38">
         <v>43957.0</v>
@@ -17558,14 +17575,14 @@
       </c>
       <c r="G343" s="8"/>
       <c r="H343" s="22" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I343" s="12"/>
       <c r="J343" s="18">
         <v>43964.0</v>
       </c>
       <c r="K343" s="40" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
@@ -17589,7 +17606,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="25" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C344" s="38">
         <v>43958.0</v>
@@ -17612,7 +17629,7 @@
         <v>43961.0</v>
       </c>
       <c r="K344" s="40" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
@@ -17636,7 +17653,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="25" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C345" s="38">
         <v>43958.0</v>
@@ -17657,7 +17674,7 @@
       <c r="I345" s="12"/>
       <c r="J345" s="13"/>
       <c r="K345" s="40" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
@@ -17681,7 +17698,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="25" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C346" s="38">
         <v>43958.0</v>
@@ -17702,7 +17719,7 @@
       <c r="I346" s="12"/>
       <c r="J346" s="13"/>
       <c r="K346" s="40" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
@@ -17726,7 +17743,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="25" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C347" s="38">
         <v>43958.0</v>
@@ -17749,7 +17766,7 @@
         <v>43974.0</v>
       </c>
       <c r="K347" s="40" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L347" s="7"/>
       <c r="M347" s="7"/>
@@ -17773,7 +17790,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="25" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C348" s="38">
         <v>43958.0</v>
@@ -17794,7 +17811,7 @@
       <c r="I348" s="12"/>
       <c r="J348" s="13"/>
       <c r="K348" s="40" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
@@ -17818,7 +17835,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="25" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C349" s="38">
         <v>43958.0</v>
@@ -17841,7 +17858,7 @@
         <v>43965.0</v>
       </c>
       <c r="K349" s="40" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
@@ -17865,7 +17882,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="25" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C350" s="38">
         <v>43959.0</v>
@@ -17881,14 +17898,14 @@
       </c>
       <c r="G350" s="8"/>
       <c r="H350" s="22" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I350" s="12"/>
       <c r="J350" s="18">
         <v>43970.0</v>
       </c>
       <c r="K350" s="40" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
@@ -17912,7 +17929,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="25" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C351" s="38">
         <v>43960.0</v>
@@ -17935,7 +17952,7 @@
         <v>43977.0</v>
       </c>
       <c r="K351" s="40" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L351" s="7"/>
       <c r="M351" s="7"/>
@@ -17959,7 +17976,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="25" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C352" s="38">
         <v>43960.0</v>
@@ -17975,14 +17992,14 @@
       </c>
       <c r="G352" s="8"/>
       <c r="H352" s="22" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I352" s="12"/>
       <c r="J352" s="18">
         <v>43979.0</v>
       </c>
       <c r="K352" s="40" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
@@ -18006,7 +18023,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="25" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C353" s="38">
         <v>43960.0</v>
@@ -18022,14 +18039,14 @@
       </c>
       <c r="G353" s="8"/>
       <c r="H353" s="22" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I353" s="12"/>
       <c r="J353" s="18">
         <v>43977.0</v>
       </c>
       <c r="K353" s="40" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L353" s="7"/>
       <c r="M353" s="7"/>
@@ -18053,7 +18070,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="25" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C354" s="38">
         <v>43960.0</v>
@@ -18076,7 +18093,7 @@
         <v>43976.0</v>
       </c>
       <c r="K354" s="40" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L354" s="7"/>
       <c r="M354" s="7"/>
@@ -18100,7 +18117,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="25" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C355" s="38">
         <v>43963.0</v>
@@ -18121,7 +18138,7 @@
       <c r="I355" s="12"/>
       <c r="J355" s="18"/>
       <c r="K355" s="30" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
@@ -18145,7 +18162,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="25" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C356" s="38">
         <v>43963.0</v>
@@ -18168,7 +18185,7 @@
         <v>43976.0</v>
       </c>
       <c r="K356" s="30" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
@@ -18192,7 +18209,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="25" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C357" s="38">
         <v>43963.0</v>
@@ -18213,7 +18230,7 @@
       <c r="I357" s="12"/>
       <c r="J357" s="13"/>
       <c r="K357" s="30" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
@@ -18237,7 +18254,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="25" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C358" s="38">
         <v>43963.0</v>
@@ -18258,7 +18275,7 @@
       <c r="I358" s="12"/>
       <c r="J358" s="13"/>
       <c r="K358" s="30" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
@@ -18282,7 +18299,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="25" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C359" s="38">
         <v>43964.0</v>
@@ -18305,7 +18322,7 @@
         <v>43984.0</v>
       </c>
       <c r="K359" s="40" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
@@ -18329,7 +18346,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="25" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C360" s="38">
         <v>43965.0</v>
@@ -18350,7 +18367,7 @@
       <c r="I360" s="12"/>
       <c r="J360" s="13"/>
       <c r="K360" s="40" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
@@ -18369,17 +18386,31 @@
       <c r="Z360" s="7"/>
     </row>
     <row r="361" ht="18.0" customHeight="1">
-      <c r="A361" s="8"/>
-      <c r="B361" s="7"/>
-      <c r="C361" s="8"/>
-      <c r="D361" s="8"/>
-      <c r="E361" s="7"/>
-      <c r="F361" s="12"/>
+      <c r="A361" s="33">
+        <v>359.0</v>
+      </c>
+      <c r="B361" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="C361" s="38">
+        <v>43988.0</v>
+      </c>
+      <c r="D361" s="32">
+        <v>43988.0</v>
+      </c>
+      <c r="E361" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F361" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="G361" s="8"/>
       <c r="H361" s="12"/>
       <c r="I361" s="12"/>
       <c r="J361" s="13"/>
-      <c r="K361" s="7"/>
+      <c r="K361" s="40" t="s">
+        <v>438</v>
+      </c>
       <c r="L361" s="7"/>
       <c r="M361" s="7"/>
       <c r="N361" s="7"/>
@@ -36482,30 +36513,32 @@
     <hyperlink r:id="rId161" ref="K338"/>
     <hyperlink r:id="rId162" ref="K339"/>
     <hyperlink r:id="rId163" ref="K340"/>
-    <hyperlink r:id="rId164" ref="K341"/>
-    <hyperlink r:id="rId165" ref="K342"/>
-    <hyperlink r:id="rId166" ref="K343"/>
-    <hyperlink r:id="rId167" ref="K344"/>
-    <hyperlink r:id="rId168" ref="K345"/>
-    <hyperlink r:id="rId169" ref="K346"/>
-    <hyperlink r:id="rId170" ref="K347"/>
-    <hyperlink r:id="rId171" ref="K348"/>
-    <hyperlink r:id="rId172" ref="K349"/>
-    <hyperlink r:id="rId173" ref="K350"/>
-    <hyperlink r:id="rId174" ref="K351"/>
-    <hyperlink r:id="rId175" ref="K352"/>
-    <hyperlink r:id="rId176" ref="K353"/>
-    <hyperlink r:id="rId177" ref="K354"/>
-    <hyperlink r:id="rId178" ref="K355"/>
-    <hyperlink r:id="rId179" ref="K356"/>
-    <hyperlink r:id="rId180" ref="K357"/>
-    <hyperlink r:id="rId181" ref="K358"/>
-    <hyperlink r:id="rId182" ref="K359"/>
-    <hyperlink r:id="rId183" ref="K360"/>
+    <hyperlink r:id="rId164" ref="L340"/>
+    <hyperlink r:id="rId165" ref="K341"/>
+    <hyperlink r:id="rId166" ref="K342"/>
+    <hyperlink r:id="rId167" ref="K343"/>
+    <hyperlink r:id="rId168" ref="K344"/>
+    <hyperlink r:id="rId169" ref="K345"/>
+    <hyperlink r:id="rId170" ref="K346"/>
+    <hyperlink r:id="rId171" ref="K347"/>
+    <hyperlink r:id="rId172" ref="K348"/>
+    <hyperlink r:id="rId173" ref="K349"/>
+    <hyperlink r:id="rId174" ref="K350"/>
+    <hyperlink r:id="rId175" ref="K351"/>
+    <hyperlink r:id="rId176" ref="K352"/>
+    <hyperlink r:id="rId177" ref="K353"/>
+    <hyperlink r:id="rId178" ref="K354"/>
+    <hyperlink r:id="rId179" ref="K355"/>
+    <hyperlink r:id="rId180" ref="K356"/>
+    <hyperlink r:id="rId181" ref="K357"/>
+    <hyperlink r:id="rId182" ref="K358"/>
+    <hyperlink r:id="rId183" ref="K359"/>
+    <hyperlink r:id="rId184" ref="K360"/>
+    <hyperlink r:id="rId185" ref="K361"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId184"/>
+  <drawing r:id="rId186"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="439">
-  <si>
-    <t>2020-06-04T15:07:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="441">
+  <si>
+    <t>2020-06-09T23:26:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1482,6 +1482,12 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000271/271110/200606oshirase(249).pdf</t>
+  </si>
+  <si>
+    <t>2020-06-09T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200609-360.pdf</t>
   </si>
 </sst>
 </file>
@@ -18428,17 +18434,31 @@
       <c r="Z361" s="7"/>
     </row>
     <row r="362" ht="18.0" customHeight="1">
-      <c r="A362" s="8"/>
-      <c r="B362" s="7"/>
-      <c r="C362" s="8"/>
-      <c r="D362" s="8"/>
-      <c r="E362" s="7"/>
-      <c r="F362" s="12"/>
+      <c r="A362" s="33">
+        <v>360.0</v>
+      </c>
+      <c r="B362" s="41" t="s">
+        <v>439</v>
+      </c>
+      <c r="C362" s="38">
+        <v>43991.0</v>
+      </c>
+      <c r="D362" s="32">
+        <v>43991.0</v>
+      </c>
+      <c r="E362" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F362" s="22" t="s">
+        <v>364</v>
+      </c>
       <c r="G362" s="8"/>
       <c r="H362" s="12"/>
       <c r="I362" s="12"/>
       <c r="J362" s="13"/>
-      <c r="K362" s="7"/>
+      <c r="K362" s="23" t="s">
+        <v>440</v>
+      </c>
       <c r="L362" s="7"/>
       <c r="M362" s="7"/>
       <c r="N362" s="7"/>
@@ -36535,10 +36555,11 @@
     <hyperlink r:id="rId183" ref="K359"/>
     <hyperlink r:id="rId184" ref="K360"/>
     <hyperlink r:id="rId185" ref="K361"/>
+    <hyperlink r:id="rId186" ref="K362"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId186"/>
+  <drawing r:id="rId187"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="441">
-  <si>
-    <t>2020-06-09T23:26:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="442">
+  <si>
+    <t>2020-06-13T17:23:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1479,6 +1479,9 @@
   </si>
   <si>
     <t>2020-06-06T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>令和2年6月11日退院</t>
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000271/271110/200606oshirase(249).pdf</t>
@@ -18411,11 +18414,15 @@
         <v>15</v>
       </c>
       <c r="G361" s="8"/>
-      <c r="H361" s="12"/>
+      <c r="H361" s="22" t="s">
+        <v>438</v>
+      </c>
       <c r="I361" s="12"/>
-      <c r="J361" s="13"/>
+      <c r="J361" s="18">
+        <v>43993.0</v>
+      </c>
       <c r="K361" s="40" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L361" s="7"/>
       <c r="M361" s="7"/>
@@ -18438,7 +18445,7 @@
         <v>360.0</v>
       </c>
       <c r="B362" s="41" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C362" s="38">
         <v>43991.0</v>
@@ -18457,7 +18464,7 @@
       <c r="I362" s="12"/>
       <c r="J362" s="13"/>
       <c r="K362" s="23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L362" s="7"/>
       <c r="M362" s="7"/>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -6,12 +6,12 @@
     <sheet state="visible" name="covid-19-kyoto" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'covid-19-kyoto'!$B$1:$M$1001</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'covid-19-kyoto'!$A$1:$M$1001</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhwTyVDynofMz0NyMHcPzBO7TgEJA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhTweFeFx3CP10TEcJgg8YIBEXNZw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="451">
   <si>
-    <t>2020-06-23T14:51:00.000Z</t>
+    <t>2020-06-23T15:49:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -85,7 +85,7 @@
     <t>https://www.mhlw.go.jp/stf/newpage_09239.html</t>
   </si>
   <si>
-    <t>○</t>
+    <t>〇</t>
   </si>
   <si>
     <t>2020-02-05T08:00:00.000Z</t>
@@ -19243,7 +19243,9 @@
       <c r="Z362" s="8"/>
     </row>
     <row r="363" ht="18.0" customHeight="1">
-      <c r="A363" s="10"/>
+      <c r="A363" s="35">
+        <v>361.0</v>
+      </c>
       <c r="B363" s="28" t="s">
         <v>445</v>
       </c>
@@ -19267,7 +19269,7 @@
         <v>446</v>
       </c>
       <c r="L363" s="8"/>
-      <c r="M363" s="8"/>
+      <c r="M363" s="17"/>
       <c r="N363" s="8"/>
       <c r="O363" s="8"/>
       <c r="P363" s="8"/>
@@ -19283,7 +19285,9 @@
       <c r="Z363" s="8"/>
     </row>
     <row r="364" ht="18.0" customHeight="1">
-      <c r="A364" s="10"/>
+      <c r="A364" s="35">
+        <v>362.0</v>
+      </c>
       <c r="B364" s="28" t="s">
         <v>445</v>
       </c>
@@ -19307,7 +19311,7 @@
         <v>446</v>
       </c>
       <c r="L364" s="8"/>
-      <c r="M364" s="8"/>
+      <c r="M364" s="17"/>
       <c r="N364" s="8"/>
       <c r="O364" s="8"/>
       <c r="P364" s="8"/>
@@ -19323,7 +19327,9 @@
       <c r="Z364" s="8"/>
     </row>
     <row r="365" ht="18.0" customHeight="1">
-      <c r="A365" s="10"/>
+      <c r="A365" s="35">
+        <v>363.0</v>
+      </c>
       <c r="B365" s="28" t="s">
         <v>445</v>
       </c>
@@ -19347,7 +19353,7 @@
         <v>446</v>
       </c>
       <c r="L365" s="8"/>
-      <c r="M365" s="8"/>
+      <c r="M365" s="17"/>
       <c r="N365" s="8"/>
       <c r="O365" s="8"/>
       <c r="P365" s="8"/>
@@ -19363,7 +19369,9 @@
       <c r="Z365" s="8"/>
     </row>
     <row r="366" ht="18.0" customHeight="1">
-      <c r="A366" s="10"/>
+      <c r="A366" s="35">
+        <v>364.0</v>
+      </c>
       <c r="B366" s="28" t="s">
         <v>447</v>
       </c>
@@ -19387,7 +19395,7 @@
         <v>448</v>
       </c>
       <c r="L366" s="8"/>
-      <c r="M366" s="8"/>
+      <c r="M366" s="17"/>
       <c r="N366" s="8"/>
       <c r="O366" s="8"/>
       <c r="P366" s="8"/>
@@ -19403,7 +19411,9 @@
       <c r="Z366" s="8"/>
     </row>
     <row r="367" ht="18.0" customHeight="1">
-      <c r="A367" s="10"/>
+      <c r="A367" s="35">
+        <v>365.0</v>
+      </c>
       <c r="B367" s="28" t="s">
         <v>449</v>
       </c>
@@ -19427,7 +19437,7 @@
         <v>450</v>
       </c>
       <c r="L367" s="8"/>
-      <c r="M367" s="8"/>
+      <c r="M367" s="17"/>
       <c r="N367" s="8"/>
       <c r="O367" s="8"/>
       <c r="P367" s="8"/>
@@ -37195,7 +37205,7 @@
       <c r="Z1001" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="$B$1:$M$1001"/>
+  <autoFilter ref="$A$1:$M$1001"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K3"/>
     <hyperlink r:id="rId2" ref="K4"/>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="451">
   <si>
-    <t>2020-06-23T15:49:00.000Z</t>
+    <t>2020-06-25T19:42:00.000Z</t>
   </si>
   <si>
     <t>No</t>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="451">
-  <si>
-    <t>2020-06-25T19:42:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="460">
+  <si>
+    <t>2020-06-29T23:28:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1518,6 +1518,33 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200620_365.pdf</t>
+  </si>
+  <si>
+    <t>2020-06-25T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000271/271854/200625oshirase(254).pdf</t>
+  </si>
+  <si>
+    <t>2020-06-26T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000271/271906/200626oshirase(255-258).pdf</t>
+  </si>
+  <si>
+    <t>2020-06-27T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000271/271914/200627oshirase(259-262).pdf</t>
+  </si>
+  <si>
+    <t>2020-06-28T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000271/271916/200628oshirase(263).pdf</t>
+  </si>
+  <si>
+    <t>2020-06-29T08:00:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -19269,7 +19296,9 @@
         <v>446</v>
       </c>
       <c r="L363" s="8"/>
-      <c r="M363" s="17"/>
+      <c r="M363" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="N363" s="8"/>
       <c r="O363" s="8"/>
       <c r="P363" s="8"/>
@@ -19311,7 +19340,9 @@
         <v>446</v>
       </c>
       <c r="L364" s="8"/>
-      <c r="M364" s="17"/>
+      <c r="M364" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="N364" s="8"/>
       <c r="O364" s="8"/>
       <c r="P364" s="8"/>
@@ -19353,7 +19384,9 @@
         <v>446</v>
       </c>
       <c r="L365" s="8"/>
-      <c r="M365" s="17"/>
+      <c r="M365" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="N365" s="8"/>
       <c r="O365" s="8"/>
       <c r="P365" s="8"/>
@@ -19395,7 +19428,9 @@
         <v>448</v>
       </c>
       <c r="L366" s="8"/>
-      <c r="M366" s="17"/>
+      <c r="M366" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="N366" s="8"/>
       <c r="O366" s="8"/>
       <c r="P366" s="8"/>
@@ -19453,17 +19488,31 @@
       <c r="Z367" s="8"/>
     </row>
     <row r="368" ht="18.0" customHeight="1">
-      <c r="A368" s="10"/>
-      <c r="B368" s="8"/>
-      <c r="C368" s="10"/>
-      <c r="D368" s="10"/>
-      <c r="E368" s="8"/>
-      <c r="F368" s="14"/>
+      <c r="A368" s="35">
+        <v>366.0</v>
+      </c>
+      <c r="B368" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="C368" s="40">
+        <v>44007.0</v>
+      </c>
+      <c r="D368" s="34">
+        <v>44007.0</v>
+      </c>
+      <c r="E368" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F368" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="G368" s="10"/>
       <c r="H368" s="14"/>
       <c r="I368" s="14"/>
       <c r="J368" s="15"/>
-      <c r="K368" s="8"/>
+      <c r="K368" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="L368" s="8"/>
       <c r="M368" s="8"/>
       <c r="N368" s="8"/>
@@ -19481,17 +19530,31 @@
       <c r="Z368" s="8"/>
     </row>
     <row r="369" ht="18.0" customHeight="1">
-      <c r="A369" s="10"/>
-      <c r="B369" s="8"/>
-      <c r="C369" s="10"/>
-      <c r="D369" s="10"/>
-      <c r="E369" s="8"/>
-      <c r="F369" s="14"/>
+      <c r="A369" s="35">
+        <v>367.0</v>
+      </c>
+      <c r="B369" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="C369" s="40">
+        <v>44008.0</v>
+      </c>
+      <c r="D369" s="34">
+        <v>44008.0</v>
+      </c>
+      <c r="E369" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F369" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="G369" s="10"/>
       <c r="H369" s="14"/>
       <c r="I369" s="14"/>
       <c r="J369" s="15"/>
-      <c r="K369" s="8"/>
+      <c r="K369" s="32" t="s">
+        <v>454</v>
+      </c>
       <c r="L369" s="8"/>
       <c r="M369" s="8"/>
       <c r="N369" s="8"/>
@@ -19509,17 +19572,31 @@
       <c r="Z369" s="8"/>
     </row>
     <row r="370" ht="18.0" customHeight="1">
-      <c r="A370" s="10"/>
-      <c r="B370" s="8"/>
-      <c r="C370" s="10"/>
-      <c r="D370" s="10"/>
-      <c r="E370" s="8"/>
-      <c r="F370" s="14"/>
+      <c r="A370" s="35">
+        <v>368.0</v>
+      </c>
+      <c r="B370" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="C370" s="40">
+        <v>44008.0</v>
+      </c>
+      <c r="D370" s="34">
+        <v>44008.0</v>
+      </c>
+      <c r="E370" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F370" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="G370" s="10"/>
       <c r="H370" s="14"/>
       <c r="I370" s="14"/>
       <c r="J370" s="15"/>
-      <c r="K370" s="8"/>
+      <c r="K370" s="32" t="s">
+        <v>454</v>
+      </c>
       <c r="L370" s="8"/>
       <c r="M370" s="8"/>
       <c r="N370" s="8"/>
@@ -19537,17 +19614,31 @@
       <c r="Z370" s="8"/>
     </row>
     <row r="371" ht="18.0" customHeight="1">
-      <c r="A371" s="10"/>
-      <c r="B371" s="8"/>
-      <c r="C371" s="10"/>
-      <c r="D371" s="10"/>
-      <c r="E371" s="8"/>
-      <c r="F371" s="14"/>
+      <c r="A371" s="35">
+        <v>369.0</v>
+      </c>
+      <c r="B371" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="C371" s="40">
+        <v>44008.0</v>
+      </c>
+      <c r="D371" s="34">
+        <v>44008.0</v>
+      </c>
+      <c r="E371" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F371" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="G371" s="10"/>
       <c r="H371" s="14"/>
       <c r="I371" s="14"/>
       <c r="J371" s="15"/>
-      <c r="K371" s="8"/>
+      <c r="K371" s="32" t="s">
+        <v>454</v>
+      </c>
       <c r="L371" s="8"/>
       <c r="M371" s="8"/>
       <c r="N371" s="8"/>
@@ -19565,17 +19656,31 @@
       <c r="Z371" s="8"/>
     </row>
     <row r="372" ht="18.0" customHeight="1">
-      <c r="A372" s="10"/>
-      <c r="B372" s="8"/>
-      <c r="C372" s="10"/>
-      <c r="D372" s="10"/>
-      <c r="E372" s="8"/>
-      <c r="F372" s="14"/>
+      <c r="A372" s="35">
+        <v>370.0</v>
+      </c>
+      <c r="B372" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="C372" s="40">
+        <v>44008.0</v>
+      </c>
+      <c r="D372" s="34">
+        <v>44008.0</v>
+      </c>
+      <c r="E372" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F372" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="G372" s="10"/>
       <c r="H372" s="14"/>
       <c r="I372" s="14"/>
       <c r="J372" s="15"/>
-      <c r="K372" s="8"/>
+      <c r="K372" s="32" t="s">
+        <v>454</v>
+      </c>
       <c r="L372" s="8"/>
       <c r="M372" s="8"/>
       <c r="N372" s="8"/>
@@ -19593,17 +19698,31 @@
       <c r="Z372" s="8"/>
     </row>
     <row r="373" ht="18.0" customHeight="1">
-      <c r="A373" s="10"/>
-      <c r="B373" s="8"/>
-      <c r="C373" s="10"/>
-      <c r="D373" s="10"/>
-      <c r="E373" s="8"/>
-      <c r="F373" s="14"/>
+      <c r="A373" s="35">
+        <v>371.0</v>
+      </c>
+      <c r="B373" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="C373" s="40">
+        <v>44009.0</v>
+      </c>
+      <c r="D373" s="34">
+        <v>44009.0</v>
+      </c>
+      <c r="E373" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F373" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="G373" s="10"/>
       <c r="H373" s="14"/>
       <c r="I373" s="14"/>
       <c r="J373" s="15"/>
-      <c r="K373" s="8"/>
+      <c r="K373" s="32" t="s">
+        <v>456</v>
+      </c>
       <c r="L373" s="8"/>
       <c r="M373" s="8"/>
       <c r="N373" s="8"/>
@@ -19621,17 +19740,31 @@
       <c r="Z373" s="8"/>
     </row>
     <row r="374" ht="18.0" customHeight="1">
-      <c r="A374" s="10"/>
-      <c r="B374" s="8"/>
-      <c r="C374" s="10"/>
-      <c r="D374" s="10"/>
-      <c r="E374" s="8"/>
-      <c r="F374" s="14"/>
+      <c r="A374" s="35">
+        <v>372.0</v>
+      </c>
+      <c r="B374" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="C374" s="40">
+        <v>44009.0</v>
+      </c>
+      <c r="D374" s="34">
+        <v>44009.0</v>
+      </c>
+      <c r="E374" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F374" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="G374" s="10"/>
       <c r="H374" s="14"/>
       <c r="I374" s="14"/>
       <c r="J374" s="15"/>
-      <c r="K374" s="8"/>
+      <c r="K374" s="32" t="s">
+        <v>456</v>
+      </c>
       <c r="L374" s="8"/>
       <c r="M374" s="8"/>
       <c r="N374" s="8"/>
@@ -19649,17 +19782,31 @@
       <c r="Z374" s="8"/>
     </row>
     <row r="375" ht="18.0" customHeight="1">
-      <c r="A375" s="10"/>
-      <c r="B375" s="8"/>
-      <c r="C375" s="10"/>
-      <c r="D375" s="10"/>
-      <c r="E375" s="8"/>
-      <c r="F375" s="14"/>
+      <c r="A375" s="35">
+        <v>373.0</v>
+      </c>
+      <c r="B375" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="C375" s="40">
+        <v>44009.0</v>
+      </c>
+      <c r="D375" s="34">
+        <v>44009.0</v>
+      </c>
+      <c r="E375" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="F375" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="G375" s="10"/>
       <c r="H375" s="14"/>
       <c r="I375" s="14"/>
       <c r="J375" s="15"/>
-      <c r="K375" s="8"/>
+      <c r="K375" s="32" t="s">
+        <v>456</v>
+      </c>
       <c r="L375" s="8"/>
       <c r="M375" s="8"/>
       <c r="N375" s="8"/>
@@ -19677,17 +19824,31 @@
       <c r="Z375" s="8"/>
     </row>
     <row r="376" ht="18.0" customHeight="1">
-      <c r="A376" s="10"/>
-      <c r="B376" s="8"/>
-      <c r="C376" s="10"/>
-      <c r="D376" s="10"/>
-      <c r="E376" s="8"/>
-      <c r="F376" s="14"/>
+      <c r="A376" s="35">
+        <v>374.0</v>
+      </c>
+      <c r="B376" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="C376" s="40">
+        <v>44009.0</v>
+      </c>
+      <c r="D376" s="34">
+        <v>44009.0</v>
+      </c>
+      <c r="E376" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="F376" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="G376" s="10"/>
       <c r="H376" s="14"/>
       <c r="I376" s="14"/>
       <c r="J376" s="15"/>
-      <c r="K376" s="8"/>
+      <c r="K376" s="42" t="s">
+        <v>456</v>
+      </c>
       <c r="L376" s="8"/>
       <c r="M376" s="8"/>
       <c r="N376" s="8"/>
@@ -19705,17 +19866,31 @@
       <c r="Z376" s="8"/>
     </row>
     <row r="377" ht="18.0" customHeight="1">
-      <c r="A377" s="10"/>
-      <c r="B377" s="8"/>
-      <c r="C377" s="10"/>
-      <c r="D377" s="10"/>
-      <c r="E377" s="8"/>
-      <c r="F377" s="14"/>
+      <c r="A377" s="35">
+        <v>375.0</v>
+      </c>
+      <c r="B377" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="C377" s="40">
+        <v>44010.0</v>
+      </c>
+      <c r="D377" s="34">
+        <v>44010.0</v>
+      </c>
+      <c r="E377" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F377" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="G377" s="10"/>
       <c r="H377" s="14"/>
       <c r="I377" s="14"/>
       <c r="J377" s="15"/>
-      <c r="K377" s="8"/>
+      <c r="K377" s="32" t="s">
+        <v>458</v>
+      </c>
       <c r="L377" s="8"/>
       <c r="M377" s="8"/>
       <c r="N377" s="8"/>
@@ -19733,12 +19908,24 @@
       <c r="Z377" s="8"/>
     </row>
     <row r="378" ht="18.0" customHeight="1">
-      <c r="A378" s="10"/>
-      <c r="B378" s="8"/>
-      <c r="C378" s="10"/>
-      <c r="D378" s="10"/>
-      <c r="E378" s="8"/>
-      <c r="F378" s="14"/>
+      <c r="A378" s="35">
+        <v>376.0</v>
+      </c>
+      <c r="B378" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="C378" s="40">
+        <v>44011.0</v>
+      </c>
+      <c r="D378" s="34">
+        <v>44011.0</v>
+      </c>
+      <c r="E378" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F378" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="G378" s="10"/>
       <c r="H378" s="14"/>
       <c r="I378" s="14"/>
@@ -19761,12 +19948,24 @@
       <c r="Z378" s="8"/>
     </row>
     <row r="379" ht="18.0" customHeight="1">
-      <c r="A379" s="10"/>
-      <c r="B379" s="8"/>
-      <c r="C379" s="10"/>
-      <c r="D379" s="10"/>
-      <c r="E379" s="8"/>
-      <c r="F379" s="14"/>
+      <c r="A379" s="35">
+        <v>377.0</v>
+      </c>
+      <c r="B379" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="C379" s="40">
+        <v>44011.0</v>
+      </c>
+      <c r="D379" s="34">
+        <v>44011.0</v>
+      </c>
+      <c r="E379" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F379" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="G379" s="10"/>
       <c r="H379" s="14"/>
       <c r="I379" s="14"/>
@@ -19789,12 +19988,24 @@
       <c r="Z379" s="8"/>
     </row>
     <row r="380" ht="18.0" customHeight="1">
-      <c r="A380" s="10"/>
-      <c r="B380" s="8"/>
-      <c r="C380" s="10"/>
-      <c r="D380" s="10"/>
-      <c r="E380" s="8"/>
-      <c r="F380" s="14"/>
+      <c r="A380" s="35">
+        <v>378.0</v>
+      </c>
+      <c r="B380" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="C380" s="40">
+        <v>44011.0</v>
+      </c>
+      <c r="D380" s="34">
+        <v>44011.0</v>
+      </c>
+      <c r="E380" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F380" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="G380" s="10"/>
       <c r="H380" s="14"/>
       <c r="I380" s="14"/>
@@ -19817,12 +20028,24 @@
       <c r="Z380" s="8"/>
     </row>
     <row r="381" ht="18.0" customHeight="1">
-      <c r="A381" s="10"/>
-      <c r="B381" s="8"/>
-      <c r="C381" s="10"/>
-      <c r="D381" s="10"/>
-      <c r="E381" s="8"/>
-      <c r="F381" s="14"/>
+      <c r="A381" s="35">
+        <v>379.0</v>
+      </c>
+      <c r="B381" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="C381" s="40">
+        <v>44011.0</v>
+      </c>
+      <c r="D381" s="34">
+        <v>44011.0</v>
+      </c>
+      <c r="E381" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F381" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="G381" s="10"/>
       <c r="H381" s="14"/>
       <c r="I381" s="14"/>
@@ -37398,10 +37621,20 @@
     <hyperlink r:id="rId189" ref="K365"/>
     <hyperlink r:id="rId190" ref="K366"/>
     <hyperlink r:id="rId191" ref="K367"/>
+    <hyperlink r:id="rId192" ref="K368"/>
+    <hyperlink r:id="rId193" ref="K369"/>
+    <hyperlink r:id="rId194" ref="K370"/>
+    <hyperlink r:id="rId195" ref="K371"/>
+    <hyperlink r:id="rId196" ref="K372"/>
+    <hyperlink r:id="rId197" ref="K373"/>
+    <hyperlink r:id="rId198" ref="K374"/>
+    <hyperlink r:id="rId199" ref="K375"/>
+    <hyperlink r:id="rId200" ref="K376"/>
+    <hyperlink r:id="rId201" ref="K377"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId192"/>
+  <drawing r:id="rId202"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="468">
-  <si>
-    <t>2020-07-03T16:49:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="478">
+  <si>
+    <t>2020-07-07T18:16:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1569,6 +1569,36 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272164/200702oshirase(272-273).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-03T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200703_387_390.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272190/200703oshirase(274).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-04T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272192/200704oshirase(275-283).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-05T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272194/200705oshirase(284).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-06T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200706_402.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272227/200706oshirase(285-286).pdf</t>
   </si>
 </sst>
 </file>
@@ -19313,7 +19343,9 @@
         <v>16</v>
       </c>
       <c r="G363" s="2"/>
-      <c r="H363" s="13"/>
+      <c r="H363" s="24" t="s">
+        <v>443</v>
+      </c>
       <c r="I363" s="13"/>
       <c r="J363" s="14"/>
       <c r="K363" s="31" t="s">
@@ -19357,7 +19389,9 @@
         <v>16</v>
       </c>
       <c r="G364" s="2"/>
-      <c r="H364" s="13"/>
+      <c r="H364" s="24" t="s">
+        <v>443</v>
+      </c>
       <c r="I364" s="13"/>
       <c r="J364" s="14"/>
       <c r="K364" s="31" t="s">
@@ -19401,7 +19435,9 @@
         <v>16</v>
       </c>
       <c r="G365" s="2"/>
-      <c r="H365" s="13"/>
+      <c r="H365" s="24" t="s">
+        <v>443</v>
+      </c>
       <c r="I365" s="13"/>
       <c r="J365" s="14"/>
       <c r="K365" s="31" t="s">
@@ -19445,7 +19481,9 @@
         <v>16</v>
       </c>
       <c r="G366" s="2"/>
-      <c r="H366" s="13"/>
+      <c r="H366" s="24" t="s">
+        <v>443</v>
+      </c>
       <c r="I366" s="13"/>
       <c r="J366" s="14"/>
       <c r="K366" s="31" t="s">
@@ -19489,14 +19527,18 @@
         <v>96</v>
       </c>
       <c r="G367" s="2"/>
-      <c r="H367" s="13"/>
+      <c r="H367" s="24" t="s">
+        <v>443</v>
+      </c>
       <c r="I367" s="13"/>
       <c r="J367" s="14"/>
       <c r="K367" s="31" t="s">
         <v>450</v>
       </c>
       <c r="L367" s="8"/>
-      <c r="M367" s="16"/>
+      <c r="M367" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N367" s="8"/>
       <c r="O367" s="8"/>
       <c r="P367" s="8"/>
@@ -19515,7 +19557,7 @@
       <c r="A368" s="34">
         <v>366.0</v>
       </c>
-      <c r="B368" s="42" t="s">
+      <c r="B368" s="27" t="s">
         <v>451</v>
       </c>
       <c r="C368" s="39">
@@ -19531,14 +19573,18 @@
         <v>16</v>
       </c>
       <c r="G368" s="2"/>
-      <c r="H368" s="13"/>
+      <c r="H368" s="24" t="s">
+        <v>443</v>
+      </c>
       <c r="I368" s="13"/>
       <c r="J368" s="14"/>
       <c r="K368" s="31" t="s">
         <v>452</v>
       </c>
       <c r="L368" s="8"/>
-      <c r="M368" s="8"/>
+      <c r="M368" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N368" s="8"/>
       <c r="O368" s="8"/>
       <c r="P368" s="8"/>
@@ -19557,7 +19603,7 @@
       <c r="A369" s="34">
         <v>367.0</v>
       </c>
-      <c r="B369" s="42" t="s">
+      <c r="B369" s="27" t="s">
         <v>453</v>
       </c>
       <c r="C369" s="39">
@@ -19573,14 +19619,18 @@
         <v>16</v>
       </c>
       <c r="G369" s="2"/>
-      <c r="H369" s="13"/>
+      <c r="H369" s="24" t="s">
+        <v>443</v>
+      </c>
       <c r="I369" s="13"/>
       <c r="J369" s="14"/>
       <c r="K369" s="31" t="s">
         <v>454</v>
       </c>
       <c r="L369" s="8"/>
-      <c r="M369" s="8"/>
+      <c r="M369" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N369" s="8"/>
       <c r="O369" s="8"/>
       <c r="P369" s="8"/>
@@ -19599,7 +19649,7 @@
       <c r="A370" s="34">
         <v>368.0</v>
       </c>
-      <c r="B370" s="42" t="s">
+      <c r="B370" s="27" t="s">
         <v>453</v>
       </c>
       <c r="C370" s="39">
@@ -19615,14 +19665,18 @@
         <v>16</v>
       </c>
       <c r="G370" s="2"/>
-      <c r="H370" s="13"/>
+      <c r="H370" s="24" t="s">
+        <v>443</v>
+      </c>
       <c r="I370" s="13"/>
       <c r="J370" s="14"/>
       <c r="K370" s="31" t="s">
         <v>454</v>
       </c>
       <c r="L370" s="8"/>
-      <c r="M370" s="8"/>
+      <c r="M370" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N370" s="8"/>
       <c r="O370" s="8"/>
       <c r="P370" s="8"/>
@@ -19641,7 +19695,7 @@
       <c r="A371" s="34">
         <v>369.0</v>
       </c>
-      <c r="B371" s="42" t="s">
+      <c r="B371" s="27" t="s">
         <v>453</v>
       </c>
       <c r="C371" s="39">
@@ -19657,7 +19711,7 @@
         <v>16</v>
       </c>
       <c r="G371" s="2"/>
-      <c r="H371" s="13"/>
+      <c r="H371" s="24"/>
       <c r="I371" s="13"/>
       <c r="J371" s="14"/>
       <c r="K371" s="31" t="s">
@@ -19683,7 +19737,7 @@
       <c r="A372" s="34">
         <v>370.0</v>
       </c>
-      <c r="B372" s="42" t="s">
+      <c r="B372" s="27" t="s">
         <v>453</v>
       </c>
       <c r="C372" s="39">
@@ -19699,14 +19753,18 @@
         <v>16</v>
       </c>
       <c r="G372" s="2"/>
-      <c r="H372" s="13"/>
+      <c r="H372" s="24" t="s">
+        <v>443</v>
+      </c>
       <c r="I372" s="13"/>
       <c r="J372" s="14"/>
       <c r="K372" s="31" t="s">
         <v>454</v>
       </c>
       <c r="L372" s="8"/>
-      <c r="M372" s="8"/>
+      <c r="M372" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N372" s="8"/>
       <c r="O372" s="8"/>
       <c r="P372" s="8"/>
@@ -19725,7 +19783,7 @@
       <c r="A373" s="34">
         <v>371.0</v>
       </c>
-      <c r="B373" s="42" t="s">
+      <c r="B373" s="27" t="s">
         <v>455</v>
       </c>
       <c r="C373" s="39">
@@ -19741,7 +19799,7 @@
         <v>16</v>
       </c>
       <c r="G373" s="2"/>
-      <c r="H373" s="13"/>
+      <c r="H373" s="24"/>
       <c r="I373" s="13"/>
       <c r="J373" s="14"/>
       <c r="K373" s="31" t="s">
@@ -19767,7 +19825,7 @@
       <c r="A374" s="34">
         <v>372.0</v>
       </c>
-      <c r="B374" s="42" t="s">
+      <c r="B374" s="27" t="s">
         <v>455</v>
       </c>
       <c r="C374" s="39">
@@ -19783,7 +19841,7 @@
         <v>16</v>
       </c>
       <c r="G374" s="2"/>
-      <c r="H374" s="13"/>
+      <c r="H374" s="24"/>
       <c r="I374" s="13"/>
       <c r="J374" s="14"/>
       <c r="K374" s="31" t="s">
@@ -19809,7 +19867,7 @@
       <c r="A375" s="34">
         <v>373.0</v>
       </c>
-      <c r="B375" s="42" t="s">
+      <c r="B375" s="27" t="s">
         <v>455</v>
       </c>
       <c r="C375" s="39">
@@ -19825,14 +19883,18 @@
         <v>16</v>
       </c>
       <c r="G375" s="2"/>
-      <c r="H375" s="13"/>
+      <c r="H375" s="24" t="s">
+        <v>443</v>
+      </c>
       <c r="I375" s="13"/>
       <c r="J375" s="14"/>
       <c r="K375" s="31" t="s">
         <v>456</v>
       </c>
       <c r="L375" s="8"/>
-      <c r="M375" s="8"/>
+      <c r="M375" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N375" s="8"/>
       <c r="O375" s="8"/>
       <c r="P375" s="8"/>
@@ -19851,7 +19913,7 @@
       <c r="A376" s="34">
         <v>374.0</v>
       </c>
-      <c r="B376" s="42" t="s">
+      <c r="B376" s="27" t="s">
         <v>455</v>
       </c>
       <c r="C376" s="39">
@@ -19893,7 +19955,7 @@
       <c r="A377" s="34">
         <v>375.0</v>
       </c>
-      <c r="B377" s="42" t="s">
+      <c r="B377" s="27" t="s">
         <v>457</v>
       </c>
       <c r="C377" s="39">
@@ -19935,7 +19997,7 @@
       <c r="A378" s="34">
         <v>376.0</v>
       </c>
-      <c r="B378" s="42" t="s">
+      <c r="B378" s="27" t="s">
         <v>459</v>
       </c>
       <c r="C378" s="39">
@@ -19977,7 +20039,7 @@
       <c r="A379" s="34">
         <v>377.0</v>
       </c>
-      <c r="B379" s="42" t="s">
+      <c r="B379" s="27" t="s">
         <v>459</v>
       </c>
       <c r="C379" s="39">
@@ -20019,7 +20081,7 @@
       <c r="A380" s="34">
         <v>378.0</v>
       </c>
-      <c r="B380" s="42" t="s">
+      <c r="B380" s="27" t="s">
         <v>459</v>
       </c>
       <c r="C380" s="39">
@@ -20061,7 +20123,7 @@
       <c r="A381" s="34">
         <v>379.0</v>
       </c>
-      <c r="B381" s="42" t="s">
+      <c r="B381" s="27" t="s">
         <v>459</v>
       </c>
       <c r="C381" s="39">
@@ -20103,7 +20165,7 @@
       <c r="A382" s="34">
         <v>380.0</v>
       </c>
-      <c r="B382" s="42" t="s">
+      <c r="B382" s="27" t="s">
         <v>461</v>
       </c>
       <c r="C382" s="39">
@@ -20143,7 +20205,7 @@
       <c r="A383" s="34">
         <v>381.0</v>
       </c>
-      <c r="B383" s="42" t="s">
+      <c r="B383" s="27" t="s">
         <v>461</v>
       </c>
       <c r="C383" s="39">
@@ -20185,7 +20247,7 @@
       <c r="A384" s="34">
         <v>382.0</v>
       </c>
-      <c r="B384" s="42" t="s">
+      <c r="B384" s="27" t="s">
         <v>463</v>
       </c>
       <c r="C384" s="39">
@@ -20227,7 +20289,7 @@
       <c r="A385" s="34">
         <v>383.0</v>
       </c>
-      <c r="B385" s="42" t="s">
+      <c r="B385" s="27" t="s">
         <v>463</v>
       </c>
       <c r="C385" s="39">
@@ -20269,7 +20331,7 @@
       <c r="A386" s="34">
         <v>384.0</v>
       </c>
-      <c r="B386" s="42" t="s">
+      <c r="B386" s="27" t="s">
         <v>465</v>
       </c>
       <c r="C386" s="39">
@@ -20311,7 +20373,7 @@
       <c r="A387" s="34">
         <v>385.0</v>
       </c>
-      <c r="B387" s="42" t="s">
+      <c r="B387" s="27" t="s">
         <v>465</v>
       </c>
       <c r="C387" s="39">
@@ -20353,7 +20415,7 @@
       <c r="A388" s="34">
         <v>386.0</v>
       </c>
-      <c r="B388" s="42" t="s">
+      <c r="B388" s="27" t="s">
         <v>465</v>
       </c>
       <c r="C388" s="39">
@@ -20392,17 +20454,31 @@
       <c r="Z388" s="8"/>
     </row>
     <row r="389" ht="18.0" customHeight="1">
-      <c r="A389" s="2"/>
-      <c r="B389" s="8"/>
-      <c r="C389" s="2"/>
-      <c r="D389" s="2"/>
-      <c r="E389" s="8"/>
-      <c r="F389" s="13"/>
+      <c r="A389" s="34">
+        <v>387.0</v>
+      </c>
+      <c r="B389" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="C389" s="39">
+        <v>44015.0</v>
+      </c>
+      <c r="D389" s="33">
+        <v>44015.0</v>
+      </c>
+      <c r="E389" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F389" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G389" s="2"/>
-      <c r="H389" s="13"/>
+      <c r="H389" s="24"/>
       <c r="I389" s="13"/>
       <c r="J389" s="14"/>
-      <c r="K389" s="8"/>
+      <c r="K389" s="31" t="s">
+        <v>469</v>
+      </c>
       <c r="L389" s="8"/>
       <c r="M389" s="8"/>
       <c r="N389" s="8"/>
@@ -20420,17 +20496,31 @@
       <c r="Z389" s="8"/>
     </row>
     <row r="390" ht="18.0" customHeight="1">
-      <c r="A390" s="2"/>
-      <c r="B390" s="8"/>
-      <c r="C390" s="2"/>
-      <c r="D390" s="2"/>
-      <c r="E390" s="8"/>
-      <c r="F390" s="13"/>
+      <c r="A390" s="34">
+        <v>388.0</v>
+      </c>
+      <c r="B390" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="C390" s="39">
+        <v>44015.0</v>
+      </c>
+      <c r="D390" s="33">
+        <v>44015.0</v>
+      </c>
+      <c r="E390" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F390" s="24" t="s">
+        <v>366</v>
+      </c>
       <c r="G390" s="2"/>
       <c r="H390" s="13"/>
       <c r="I390" s="13"/>
       <c r="J390" s="14"/>
-      <c r="K390" s="8"/>
+      <c r="K390" s="31" t="s">
+        <v>469</v>
+      </c>
       <c r="L390" s="8"/>
       <c r="M390" s="8"/>
       <c r="N390" s="8"/>
@@ -20448,17 +20538,31 @@
       <c r="Z390" s="8"/>
     </row>
     <row r="391" ht="18.0" customHeight="1">
-      <c r="A391" s="2"/>
-      <c r="B391" s="8"/>
-      <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
-      <c r="E391" s="8"/>
-      <c r="F391" s="13"/>
+      <c r="A391" s="34">
+        <v>389.0</v>
+      </c>
+      <c r="B391" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="C391" s="39">
+        <v>44015.0</v>
+      </c>
+      <c r="D391" s="33">
+        <v>44015.0</v>
+      </c>
+      <c r="E391" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F391" s="24" t="s">
+        <v>366</v>
+      </c>
       <c r="G391" s="2"/>
       <c r="H391" s="13"/>
       <c r="I391" s="13"/>
       <c r="J391" s="14"/>
-      <c r="K391" s="8"/>
+      <c r="K391" s="31" t="s">
+        <v>469</v>
+      </c>
       <c r="L391" s="8"/>
       <c r="M391" s="8"/>
       <c r="N391" s="8"/>
@@ -20476,17 +20580,31 @@
       <c r="Z391" s="8"/>
     </row>
     <row r="392" ht="18.0" customHeight="1">
-      <c r="A392" s="2"/>
-      <c r="B392" s="8"/>
-      <c r="C392" s="2"/>
-      <c r="D392" s="2"/>
-      <c r="E392" s="8"/>
-      <c r="F392" s="13"/>
+      <c r="A392" s="34">
+        <v>390.0</v>
+      </c>
+      <c r="B392" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="C392" s="39">
+        <v>44015.0</v>
+      </c>
+      <c r="D392" s="33">
+        <v>44015.0</v>
+      </c>
+      <c r="E392" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F392" s="24" t="s">
+        <v>366</v>
+      </c>
       <c r="G392" s="2"/>
       <c r="H392" s="13"/>
       <c r="I392" s="13"/>
       <c r="J392" s="14"/>
-      <c r="K392" s="8"/>
+      <c r="K392" s="31" t="s">
+        <v>469</v>
+      </c>
       <c r="L392" s="8"/>
       <c r="M392" s="8"/>
       <c r="N392" s="8"/>
@@ -20504,17 +20622,31 @@
       <c r="Z392" s="8"/>
     </row>
     <row r="393" ht="18.0" customHeight="1">
-      <c r="A393" s="2"/>
-      <c r="B393" s="8"/>
-      <c r="C393" s="2"/>
-      <c r="D393" s="2"/>
-      <c r="E393" s="8"/>
-      <c r="F393" s="13"/>
+      <c r="A393" s="34">
+        <v>391.0</v>
+      </c>
+      <c r="B393" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="C393" s="39">
+        <v>44015.0</v>
+      </c>
+      <c r="D393" s="33">
+        <v>44015.0</v>
+      </c>
+      <c r="E393" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F393" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G393" s="2"/>
       <c r="H393" s="13"/>
       <c r="I393" s="13"/>
       <c r="J393" s="14"/>
-      <c r="K393" s="8"/>
+      <c r="K393" s="31" t="s">
+        <v>470</v>
+      </c>
       <c r="L393" s="8"/>
       <c r="M393" s="8"/>
       <c r="N393" s="8"/>
@@ -20532,17 +20664,31 @@
       <c r="Z393" s="8"/>
     </row>
     <row r="394" ht="18.0" customHeight="1">
-      <c r="A394" s="2"/>
-      <c r="B394" s="8"/>
-      <c r="C394" s="2"/>
-      <c r="D394" s="2"/>
-      <c r="E394" s="8"/>
-      <c r="F394" s="13"/>
+      <c r="A394" s="34">
+        <v>392.0</v>
+      </c>
+      <c r="B394" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="C394" s="39">
+        <v>44016.0</v>
+      </c>
+      <c r="D394" s="33">
+        <v>44016.0</v>
+      </c>
+      <c r="E394" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F394" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G394" s="2"/>
       <c r="H394" s="13"/>
       <c r="I394" s="13"/>
       <c r="J394" s="14"/>
-      <c r="K394" s="8"/>
+      <c r="K394" s="31" t="s">
+        <v>472</v>
+      </c>
       <c r="L394" s="8"/>
       <c r="M394" s="8"/>
       <c r="N394" s="8"/>
@@ -20560,17 +20706,31 @@
       <c r="Z394" s="8"/>
     </row>
     <row r="395" ht="18.0" customHeight="1">
-      <c r="A395" s="2"/>
-      <c r="B395" s="8"/>
-      <c r="C395" s="2"/>
-      <c r="D395" s="2"/>
-      <c r="E395" s="8"/>
-      <c r="F395" s="13"/>
+      <c r="A395" s="34">
+        <v>393.0</v>
+      </c>
+      <c r="B395" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="C395" s="39">
+        <v>44016.0</v>
+      </c>
+      <c r="D395" s="33">
+        <v>44016.0</v>
+      </c>
+      <c r="E395" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F395" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G395" s="2"/>
       <c r="H395" s="13"/>
       <c r="I395" s="13"/>
       <c r="J395" s="14"/>
-      <c r="K395" s="8"/>
+      <c r="K395" s="31" t="s">
+        <v>472</v>
+      </c>
       <c r="L395" s="8"/>
       <c r="M395" s="8"/>
       <c r="N395" s="8"/>
@@ -20588,17 +20748,31 @@
       <c r="Z395" s="8"/>
     </row>
     <row r="396" ht="18.0" customHeight="1">
-      <c r="A396" s="2"/>
-      <c r="B396" s="8"/>
-      <c r="C396" s="2"/>
-      <c r="D396" s="2"/>
-      <c r="E396" s="8"/>
-      <c r="F396" s="13"/>
+      <c r="A396" s="34">
+        <v>394.0</v>
+      </c>
+      <c r="B396" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="C396" s="39">
+        <v>44016.0</v>
+      </c>
+      <c r="D396" s="33">
+        <v>44016.0</v>
+      </c>
+      <c r="E396" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F396" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G396" s="2"/>
       <c r="H396" s="13"/>
       <c r="I396" s="13"/>
       <c r="J396" s="14"/>
-      <c r="K396" s="8"/>
+      <c r="K396" s="31" t="s">
+        <v>472</v>
+      </c>
       <c r="L396" s="8"/>
       <c r="M396" s="8"/>
       <c r="N396" s="8"/>
@@ -20616,17 +20790,31 @@
       <c r="Z396" s="8"/>
     </row>
     <row r="397" ht="18.0" customHeight="1">
-      <c r="A397" s="2"/>
-      <c r="B397" s="8"/>
-      <c r="C397" s="2"/>
-      <c r="D397" s="2"/>
-      <c r="E397" s="8"/>
-      <c r="F397" s="13"/>
+      <c r="A397" s="34">
+        <v>395.0</v>
+      </c>
+      <c r="B397" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="C397" s="39">
+        <v>44016.0</v>
+      </c>
+      <c r="D397" s="33">
+        <v>44016.0</v>
+      </c>
+      <c r="E397" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F397" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G397" s="2"/>
       <c r="H397" s="13"/>
       <c r="I397" s="13"/>
       <c r="J397" s="14"/>
-      <c r="K397" s="8"/>
+      <c r="K397" s="31" t="s">
+        <v>472</v>
+      </c>
       <c r="L397" s="8"/>
       <c r="M397" s="8"/>
       <c r="N397" s="8"/>
@@ -20644,17 +20832,31 @@
       <c r="Z397" s="8"/>
     </row>
     <row r="398" ht="18.0" customHeight="1">
-      <c r="A398" s="2"/>
-      <c r="B398" s="8"/>
-      <c r="C398" s="2"/>
-      <c r="D398" s="2"/>
-      <c r="E398" s="8"/>
-      <c r="F398" s="13"/>
+      <c r="A398" s="34">
+        <v>396.0</v>
+      </c>
+      <c r="B398" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="C398" s="39">
+        <v>44016.0</v>
+      </c>
+      <c r="D398" s="33">
+        <v>44016.0</v>
+      </c>
+      <c r="E398" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F398" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G398" s="2"/>
       <c r="H398" s="13"/>
       <c r="I398" s="13"/>
       <c r="J398" s="14"/>
-      <c r="K398" s="8"/>
+      <c r="K398" s="31" t="s">
+        <v>472</v>
+      </c>
       <c r="L398" s="8"/>
       <c r="M398" s="8"/>
       <c r="N398" s="8"/>
@@ -20672,17 +20874,31 @@
       <c r="Z398" s="8"/>
     </row>
     <row r="399" ht="18.0" customHeight="1">
-      <c r="A399" s="2"/>
-      <c r="B399" s="8"/>
-      <c r="C399" s="2"/>
-      <c r="D399" s="2"/>
-      <c r="E399" s="8"/>
-      <c r="F399" s="13"/>
+      <c r="A399" s="34">
+        <v>397.0</v>
+      </c>
+      <c r="B399" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="C399" s="39">
+        <v>44016.0</v>
+      </c>
+      <c r="D399" s="33">
+        <v>44016.0</v>
+      </c>
+      <c r="E399" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F399" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G399" s="2"/>
       <c r="H399" s="13"/>
       <c r="I399" s="13"/>
       <c r="J399" s="14"/>
-      <c r="K399" s="8"/>
+      <c r="K399" s="31" t="s">
+        <v>472</v>
+      </c>
       <c r="L399" s="8"/>
       <c r="M399" s="8"/>
       <c r="N399" s="8"/>
@@ -20700,17 +20916,31 @@
       <c r="Z399" s="8"/>
     </row>
     <row r="400" ht="18.0" customHeight="1">
-      <c r="A400" s="2"/>
-      <c r="B400" s="8"/>
-      <c r="C400" s="2"/>
-      <c r="D400" s="2"/>
-      <c r="E400" s="8"/>
-      <c r="F400" s="13"/>
+      <c r="A400" s="34">
+        <v>398.0</v>
+      </c>
+      <c r="B400" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="C400" s="39">
+        <v>44016.0</v>
+      </c>
+      <c r="D400" s="33">
+        <v>44016.0</v>
+      </c>
+      <c r="E400" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F400" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G400" s="2"/>
       <c r="H400" s="13"/>
       <c r="I400" s="13"/>
       <c r="J400" s="14"/>
-      <c r="K400" s="8"/>
+      <c r="K400" s="31" t="s">
+        <v>472</v>
+      </c>
       <c r="L400" s="8"/>
       <c r="M400" s="8"/>
       <c r="N400" s="8"/>
@@ -20728,17 +20958,31 @@
       <c r="Z400" s="8"/>
     </row>
     <row r="401" ht="18.0" customHeight="1">
-      <c r="A401" s="2"/>
-      <c r="B401" s="8"/>
-      <c r="C401" s="2"/>
-      <c r="D401" s="2"/>
-      <c r="E401" s="8"/>
-      <c r="F401" s="13"/>
+      <c r="A401" s="34">
+        <v>399.0</v>
+      </c>
+      <c r="B401" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="C401" s="39">
+        <v>44016.0</v>
+      </c>
+      <c r="D401" s="33">
+        <v>44016.0</v>
+      </c>
+      <c r="E401" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F401" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G401" s="2"/>
       <c r="H401" s="13"/>
       <c r="I401" s="13"/>
       <c r="J401" s="14"/>
-      <c r="K401" s="8"/>
+      <c r="K401" s="31" t="s">
+        <v>472</v>
+      </c>
       <c r="L401" s="8"/>
       <c r="M401" s="8"/>
       <c r="N401" s="8"/>
@@ -20756,17 +21000,31 @@
       <c r="Z401" s="8"/>
     </row>
     <row r="402" ht="18.0" customHeight="1">
-      <c r="A402" s="2"/>
-      <c r="B402" s="8"/>
-      <c r="C402" s="2"/>
-      <c r="D402" s="2"/>
-      <c r="E402" s="8"/>
-      <c r="F402" s="13"/>
+      <c r="A402" s="34">
+        <v>400.0</v>
+      </c>
+      <c r="B402" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="C402" s="39">
+        <v>44016.0</v>
+      </c>
+      <c r="D402" s="33">
+        <v>44016.0</v>
+      </c>
+      <c r="E402" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F402" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G402" s="2"/>
       <c r="H402" s="13"/>
       <c r="I402" s="13"/>
       <c r="J402" s="14"/>
-      <c r="K402" s="8"/>
+      <c r="K402" s="31" t="s">
+        <v>472</v>
+      </c>
       <c r="L402" s="8"/>
       <c r="M402" s="8"/>
       <c r="N402" s="8"/>
@@ -20784,17 +21042,31 @@
       <c r="Z402" s="8"/>
     </row>
     <row r="403" ht="18.0" customHeight="1">
-      <c r="A403" s="2"/>
-      <c r="B403" s="8"/>
-      <c r="C403" s="2"/>
-      <c r="D403" s="2"/>
-      <c r="E403" s="8"/>
-      <c r="F403" s="13"/>
+      <c r="A403" s="34">
+        <v>401.0</v>
+      </c>
+      <c r="B403" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="C403" s="39">
+        <v>44017.0</v>
+      </c>
+      <c r="D403" s="33">
+        <v>44017.0</v>
+      </c>
+      <c r="E403" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F403" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G403" s="2"/>
       <c r="H403" s="13"/>
       <c r="I403" s="13"/>
       <c r="J403" s="14"/>
-      <c r="K403" s="8"/>
+      <c r="K403" s="31" t="s">
+        <v>474</v>
+      </c>
       <c r="L403" s="8"/>
       <c r="M403" s="8"/>
       <c r="N403" s="8"/>
@@ -20812,17 +21084,31 @@
       <c r="Z403" s="8"/>
     </row>
     <row r="404" ht="18.0" customHeight="1">
-      <c r="A404" s="2"/>
-      <c r="B404" s="8"/>
-      <c r="C404" s="2"/>
-      <c r="D404" s="2"/>
-      <c r="E404" s="8"/>
-      <c r="F404" s="13"/>
+      <c r="A404" s="34">
+        <v>402.0</v>
+      </c>
+      <c r="B404" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C404" s="39">
+        <v>44018.0</v>
+      </c>
+      <c r="D404" s="33">
+        <v>44018.0</v>
+      </c>
+      <c r="E404" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F404" s="24" t="s">
+        <v>366</v>
+      </c>
       <c r="G404" s="2"/>
       <c r="H404" s="13"/>
       <c r="I404" s="13"/>
       <c r="J404" s="14"/>
-      <c r="K404" s="8"/>
+      <c r="K404" s="31" t="s">
+        <v>476</v>
+      </c>
       <c r="L404" s="8"/>
       <c r="M404" s="8"/>
       <c r="N404" s="8"/>
@@ -20840,17 +21126,31 @@
       <c r="Z404" s="8"/>
     </row>
     <row r="405" ht="18.0" customHeight="1">
-      <c r="A405" s="2"/>
-      <c r="B405" s="8"/>
-      <c r="C405" s="2"/>
-      <c r="D405" s="2"/>
-      <c r="E405" s="8"/>
-      <c r="F405" s="13"/>
+      <c r="A405" s="34">
+        <v>403.0</v>
+      </c>
+      <c r="B405" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C405" s="39">
+        <v>44018.0</v>
+      </c>
+      <c r="D405" s="33">
+        <v>44018.0</v>
+      </c>
+      <c r="E405" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F405" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G405" s="2"/>
       <c r="H405" s="13"/>
       <c r="I405" s="13"/>
       <c r="J405" s="14"/>
-      <c r="K405" s="8"/>
+      <c r="K405" s="31" t="s">
+        <v>477</v>
+      </c>
       <c r="L405" s="8"/>
       <c r="M405" s="8"/>
       <c r="N405" s="8"/>
@@ -20868,17 +21168,31 @@
       <c r="Z405" s="8"/>
     </row>
     <row r="406" ht="18.0" customHeight="1">
-      <c r="A406" s="2"/>
-      <c r="B406" s="8"/>
-      <c r="C406" s="2"/>
-      <c r="D406" s="2"/>
-      <c r="E406" s="8"/>
-      <c r="F406" s="13"/>
+      <c r="A406" s="34">
+        <v>404.0</v>
+      </c>
+      <c r="B406" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C406" s="39">
+        <v>44018.0</v>
+      </c>
+      <c r="D406" s="33">
+        <v>44018.0</v>
+      </c>
+      <c r="E406" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F406" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G406" s="2"/>
       <c r="H406" s="13"/>
       <c r="I406" s="13"/>
       <c r="J406" s="14"/>
-      <c r="K406" s="8"/>
+      <c r="K406" s="31" t="s">
+        <v>477</v>
+      </c>
       <c r="L406" s="8"/>
       <c r="M406" s="8"/>
       <c r="N406" s="8"/>
@@ -37770,10 +38084,28 @@
     <hyperlink r:id="rId210" ref="K386"/>
     <hyperlink r:id="rId211" ref="K387"/>
     <hyperlink r:id="rId212" ref="K388"/>
+    <hyperlink r:id="rId213" ref="K389"/>
+    <hyperlink r:id="rId214" ref="K390"/>
+    <hyperlink r:id="rId215" ref="K391"/>
+    <hyperlink r:id="rId216" ref="K392"/>
+    <hyperlink r:id="rId217" ref="K393"/>
+    <hyperlink r:id="rId218" ref="K394"/>
+    <hyperlink r:id="rId219" ref="K395"/>
+    <hyperlink r:id="rId220" ref="K396"/>
+    <hyperlink r:id="rId221" ref="K397"/>
+    <hyperlink r:id="rId222" ref="K398"/>
+    <hyperlink r:id="rId223" ref="K399"/>
+    <hyperlink r:id="rId224" ref="K400"/>
+    <hyperlink r:id="rId225" ref="K401"/>
+    <hyperlink r:id="rId226" ref="K402"/>
+    <hyperlink r:id="rId227" ref="K403"/>
+    <hyperlink r:id="rId228" ref="K404"/>
+    <hyperlink r:id="rId229" ref="K405"/>
+    <hyperlink r:id="rId230" ref="K406"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId213"/>
+  <drawing r:id="rId231"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="478">
-  <si>
-    <t>2020-07-07T18:16:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="485">
+  <si>
+    <t>2020-07-11T18:14:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1600,6 +1600,27 @@
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272227/200706oshirase(285-286).pdf</t>
   </si>
+  <si>
+    <t>2020-07-07T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200707_405.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272275/200707oshirase(287-294).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/page/0000272311.html</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272339/200709oshirase(297-301).pdf</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200710-421.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272427/200710oshirase(302-310).pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -1610,7 +1631,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1708,6 +1729,10 @@
       <color rgb="FF000000"/>
       <name val="游ゴシック regular"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1735,7 +1760,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1864,6 +1889,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19936,7 +19964,9 @@
         <v>456</v>
       </c>
       <c r="L376" s="8"/>
-      <c r="M376" s="8"/>
+      <c r="M376" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N376" s="8"/>
       <c r="O376" s="8"/>
       <c r="P376" s="8"/>
@@ -20020,7 +20050,9 @@
         <v>460</v>
       </c>
       <c r="L378" s="8"/>
-      <c r="M378" s="8"/>
+      <c r="M378" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N378" s="8"/>
       <c r="O378" s="8"/>
       <c r="P378" s="8"/>
@@ -20062,7 +20094,9 @@
         <v>460</v>
       </c>
       <c r="L379" s="8"/>
-      <c r="M379" s="8"/>
+      <c r="M379" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N379" s="8"/>
       <c r="O379" s="8"/>
       <c r="P379" s="8"/>
@@ -20104,7 +20138,9 @@
         <v>460</v>
       </c>
       <c r="L380" s="8"/>
-      <c r="M380" s="8"/>
+      <c r="M380" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N380" s="8"/>
       <c r="O380" s="8"/>
       <c r="P380" s="8"/>
@@ -20146,7 +20182,9 @@
         <v>460</v>
       </c>
       <c r="L381" s="8"/>
-      <c r="M381" s="8"/>
+      <c r="M381" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N381" s="8"/>
       <c r="O381" s="8"/>
       <c r="P381" s="8"/>
@@ -20186,7 +20224,9 @@
         <v>462</v>
       </c>
       <c r="L382" s="8"/>
-      <c r="M382" s="8"/>
+      <c r="M382" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N382" s="8"/>
       <c r="O382" s="8"/>
       <c r="P382" s="8"/>
@@ -20396,7 +20436,9 @@
         <v>467</v>
       </c>
       <c r="L387" s="8"/>
-      <c r="M387" s="8"/>
+      <c r="M387" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N387" s="8"/>
       <c r="O387" s="8"/>
       <c r="P387" s="8"/>
@@ -21210,17 +21252,31 @@
       <c r="Z406" s="8"/>
     </row>
     <row r="407" ht="18.0" customHeight="1">
-      <c r="A407" s="2"/>
-      <c r="B407" s="8"/>
-      <c r="C407" s="2"/>
-      <c r="D407" s="2"/>
-      <c r="E407" s="8"/>
-      <c r="F407" s="13"/>
+      <c r="A407" s="34">
+        <v>405.0</v>
+      </c>
+      <c r="B407" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="C407" s="39">
+        <v>44019.0</v>
+      </c>
+      <c r="D407" s="33">
+        <v>44019.0</v>
+      </c>
+      <c r="E407" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F407" s="24" t="s">
+        <v>366</v>
+      </c>
       <c r="G407" s="2"/>
       <c r="H407" s="13"/>
       <c r="I407" s="13"/>
       <c r="J407" s="14"/>
-      <c r="K407" s="8"/>
+      <c r="K407" s="31" t="s">
+        <v>479</v>
+      </c>
       <c r="L407" s="8"/>
       <c r="M407" s="8"/>
       <c r="N407" s="8"/>
@@ -21238,17 +21294,31 @@
       <c r="Z407" s="8"/>
     </row>
     <row r="408" ht="18.0" customHeight="1">
-      <c r="A408" s="2"/>
-      <c r="B408" s="8"/>
-      <c r="C408" s="2"/>
-      <c r="D408" s="2"/>
-      <c r="E408" s="8"/>
-      <c r="F408" s="13"/>
+      <c r="A408" s="34">
+        <v>406.0</v>
+      </c>
+      <c r="B408" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="C408" s="39">
+        <v>44019.0</v>
+      </c>
+      <c r="D408" s="33">
+        <v>44019.0</v>
+      </c>
+      <c r="E408" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F408" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G408" s="2"/>
       <c r="H408" s="13"/>
       <c r="I408" s="13"/>
       <c r="J408" s="14"/>
-      <c r="K408" s="8"/>
+      <c r="K408" s="31" t="s">
+        <v>480</v>
+      </c>
       <c r="L408" s="8"/>
       <c r="M408" s="8"/>
       <c r="N408" s="8"/>
@@ -21266,17 +21336,31 @@
       <c r="Z408" s="8"/>
     </row>
     <row r="409" ht="18.0" customHeight="1">
-      <c r="A409" s="2"/>
-      <c r="B409" s="8"/>
-      <c r="C409" s="2"/>
-      <c r="D409" s="2"/>
-      <c r="E409" s="8"/>
-      <c r="F409" s="13"/>
+      <c r="A409" s="34">
+        <v>407.0</v>
+      </c>
+      <c r="B409" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="C409" s="39">
+        <v>44019.0</v>
+      </c>
+      <c r="D409" s="33">
+        <v>44019.0</v>
+      </c>
+      <c r="E409" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F409" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G409" s="2"/>
       <c r="H409" s="13"/>
       <c r="I409" s="13"/>
       <c r="J409" s="14"/>
-      <c r="K409" s="8"/>
+      <c r="K409" s="31" t="s">
+        <v>480</v>
+      </c>
       <c r="L409" s="8"/>
       <c r="M409" s="8"/>
       <c r="N409" s="8"/>
@@ -21294,17 +21378,31 @@
       <c r="Z409" s="8"/>
     </row>
     <row r="410" ht="18.0" customHeight="1">
-      <c r="A410" s="2"/>
-      <c r="B410" s="8"/>
-      <c r="C410" s="2"/>
-      <c r="D410" s="2"/>
-      <c r="E410" s="8"/>
-      <c r="F410" s="13"/>
+      <c r="A410" s="34">
+        <v>408.0</v>
+      </c>
+      <c r="B410" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="C410" s="39">
+        <v>44019.0</v>
+      </c>
+      <c r="D410" s="33">
+        <v>44019.0</v>
+      </c>
+      <c r="E410" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F410" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G410" s="2"/>
       <c r="H410" s="13"/>
       <c r="I410" s="13"/>
       <c r="J410" s="14"/>
-      <c r="K410" s="8"/>
+      <c r="K410" s="31" t="s">
+        <v>480</v>
+      </c>
       <c r="L410" s="8"/>
       <c r="M410" s="8"/>
       <c r="N410" s="8"/>
@@ -21322,17 +21420,31 @@
       <c r="Z410" s="8"/>
     </row>
     <row r="411" ht="18.0" customHeight="1">
-      <c r="A411" s="2"/>
-      <c r="B411" s="8"/>
-      <c r="C411" s="2"/>
-      <c r="D411" s="2"/>
-      <c r="E411" s="8"/>
-      <c r="F411" s="13"/>
+      <c r="A411" s="34">
+        <v>409.0</v>
+      </c>
+      <c r="B411" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="C411" s="39">
+        <v>44019.0</v>
+      </c>
+      <c r="D411" s="33">
+        <v>44019.0</v>
+      </c>
+      <c r="E411" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F411" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G411" s="2"/>
       <c r="H411" s="13"/>
       <c r="I411" s="13"/>
       <c r="J411" s="14"/>
-      <c r="K411" s="8"/>
+      <c r="K411" s="31" t="s">
+        <v>480</v>
+      </c>
       <c r="L411" s="8"/>
       <c r="M411" s="8"/>
       <c r="N411" s="8"/>
@@ -21350,17 +21462,31 @@
       <c r="Z411" s="8"/>
     </row>
     <row r="412" ht="18.0" customHeight="1">
-      <c r="A412" s="2"/>
-      <c r="B412" s="8"/>
-      <c r="C412" s="2"/>
-      <c r="D412" s="2"/>
-      <c r="E412" s="8"/>
-      <c r="F412" s="13"/>
+      <c r="A412" s="34">
+        <v>410.0</v>
+      </c>
+      <c r="B412" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="C412" s="39">
+        <v>44019.0</v>
+      </c>
+      <c r="D412" s="33">
+        <v>44019.0</v>
+      </c>
+      <c r="E412" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F412" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G412" s="2"/>
       <c r="H412" s="13"/>
       <c r="I412" s="13"/>
       <c r="J412" s="14"/>
-      <c r="K412" s="8"/>
+      <c r="K412" s="31" t="s">
+        <v>480</v>
+      </c>
       <c r="L412" s="8"/>
       <c r="M412" s="8"/>
       <c r="N412" s="8"/>
@@ -21378,17 +21504,31 @@
       <c r="Z412" s="8"/>
     </row>
     <row r="413" ht="18.0" customHeight="1">
-      <c r="A413" s="2"/>
-      <c r="B413" s="8"/>
-      <c r="C413" s="2"/>
-      <c r="D413" s="2"/>
-      <c r="E413" s="8"/>
-      <c r="F413" s="13"/>
+      <c r="A413" s="34">
+        <v>411.0</v>
+      </c>
+      <c r="B413" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="C413" s="39">
+        <v>44019.0</v>
+      </c>
+      <c r="D413" s="33">
+        <v>44019.0</v>
+      </c>
+      <c r="E413" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F413" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G413" s="2"/>
       <c r="H413" s="13"/>
       <c r="I413" s="13"/>
       <c r="J413" s="14"/>
-      <c r="K413" s="8"/>
+      <c r="K413" s="31" t="s">
+        <v>480</v>
+      </c>
       <c r="L413" s="8"/>
       <c r="M413" s="8"/>
       <c r="N413" s="8"/>
@@ -21406,17 +21546,31 @@
       <c r="Z413" s="8"/>
     </row>
     <row r="414" ht="18.0" customHeight="1">
-      <c r="A414" s="2"/>
-      <c r="B414" s="8"/>
-      <c r="C414" s="2"/>
-      <c r="D414" s="2"/>
-      <c r="E414" s="8"/>
-      <c r="F414" s="13"/>
+      <c r="A414" s="34">
+        <v>412.0</v>
+      </c>
+      <c r="B414" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="C414" s="39">
+        <v>44019.0</v>
+      </c>
+      <c r="D414" s="33">
+        <v>44019.0</v>
+      </c>
+      <c r="E414" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F414" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G414" s="2"/>
       <c r="H414" s="13"/>
       <c r="I414" s="13"/>
       <c r="J414" s="14"/>
-      <c r="K414" s="8"/>
+      <c r="K414" s="31" t="s">
+        <v>480</v>
+      </c>
       <c r="L414" s="8"/>
       <c r="M414" s="8"/>
       <c r="N414" s="8"/>
@@ -21434,17 +21588,31 @@
       <c r="Z414" s="8"/>
     </row>
     <row r="415" ht="18.0" customHeight="1">
-      <c r="A415" s="2"/>
-      <c r="B415" s="8"/>
-      <c r="C415" s="2"/>
-      <c r="D415" s="2"/>
-      <c r="E415" s="8"/>
-      <c r="F415" s="13"/>
+      <c r="A415" s="34">
+        <v>413.0</v>
+      </c>
+      <c r="B415" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="C415" s="39">
+        <v>44019.0</v>
+      </c>
+      <c r="D415" s="33">
+        <v>44019.0</v>
+      </c>
+      <c r="E415" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F415" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G415" s="2"/>
       <c r="H415" s="13"/>
       <c r="I415" s="13"/>
       <c r="J415" s="14"/>
-      <c r="K415" s="8"/>
+      <c r="K415" s="31" t="s">
+        <v>480</v>
+      </c>
       <c r="L415" s="8"/>
       <c r="M415" s="8"/>
       <c r="N415" s="8"/>
@@ -21462,17 +21630,31 @@
       <c r="Z415" s="8"/>
     </row>
     <row r="416" ht="18.0" customHeight="1">
-      <c r="A416" s="2"/>
-      <c r="B416" s="8"/>
-      <c r="C416" s="2"/>
-      <c r="D416" s="2"/>
-      <c r="E416" s="8"/>
-      <c r="F416" s="13"/>
+      <c r="A416" s="34">
+        <v>414.0</v>
+      </c>
+      <c r="B416" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C416" s="39">
+        <v>44020.0</v>
+      </c>
+      <c r="D416" s="33">
+        <v>44020.0</v>
+      </c>
+      <c r="E416" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F416" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G416" s="2"/>
       <c r="H416" s="13"/>
       <c r="I416" s="13"/>
       <c r="J416" s="14"/>
-      <c r="K416" s="8"/>
+      <c r="K416" s="31" t="s">
+        <v>481</v>
+      </c>
       <c r="L416" s="8"/>
       <c r="M416" s="8"/>
       <c r="N416" s="8"/>
@@ -21490,17 +21672,31 @@
       <c r="Z416" s="8"/>
     </row>
     <row r="417" ht="18.0" customHeight="1">
-      <c r="A417" s="2"/>
-      <c r="B417" s="8"/>
-      <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
-      <c r="E417" s="8"/>
-      <c r="F417" s="13"/>
+      <c r="A417" s="34">
+        <v>415.0</v>
+      </c>
+      <c r="B417" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C417" s="39">
+        <v>44020.0</v>
+      </c>
+      <c r="D417" s="33">
+        <v>44020.0</v>
+      </c>
+      <c r="E417" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F417" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G417" s="2"/>
       <c r="H417" s="13"/>
       <c r="I417" s="13"/>
       <c r="J417" s="14"/>
-      <c r="K417" s="8"/>
+      <c r="K417" s="31" t="s">
+        <v>481</v>
+      </c>
       <c r="L417" s="8"/>
       <c r="M417" s="8"/>
       <c r="N417" s="8"/>
@@ -21518,17 +21714,31 @@
       <c r="Z417" s="8"/>
     </row>
     <row r="418" ht="18.0" customHeight="1">
-      <c r="A418" s="2"/>
-      <c r="B418" s="8"/>
-      <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
-      <c r="E418" s="8"/>
-      <c r="F418" s="13"/>
+      <c r="A418" s="34">
+        <v>416.0</v>
+      </c>
+      <c r="B418" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C418" s="39">
+        <v>44021.0</v>
+      </c>
+      <c r="D418" s="33">
+        <v>44021.0</v>
+      </c>
+      <c r="E418" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F418" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G418" s="2"/>
       <c r="H418" s="13"/>
       <c r="I418" s="13"/>
       <c r="J418" s="14"/>
-      <c r="K418" s="8"/>
+      <c r="K418" s="31" t="s">
+        <v>482</v>
+      </c>
       <c r="L418" s="8"/>
       <c r="M418" s="8"/>
       <c r="N418" s="8"/>
@@ -21546,17 +21756,31 @@
       <c r="Z418" s="8"/>
     </row>
     <row r="419" ht="18.0" customHeight="1">
-      <c r="A419" s="2"/>
-      <c r="B419" s="8"/>
-      <c r="C419" s="2"/>
-      <c r="D419" s="2"/>
-      <c r="E419" s="8"/>
-      <c r="F419" s="13"/>
+      <c r="A419" s="34">
+        <v>417.0</v>
+      </c>
+      <c r="B419" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C419" s="39">
+        <v>44021.0</v>
+      </c>
+      <c r="D419" s="33">
+        <v>44021.0</v>
+      </c>
+      <c r="E419" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F419" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G419" s="2"/>
       <c r="H419" s="13"/>
       <c r="I419" s="13"/>
       <c r="J419" s="14"/>
-      <c r="K419" s="8"/>
+      <c r="K419" s="31" t="s">
+        <v>482</v>
+      </c>
       <c r="L419" s="8"/>
       <c r="M419" s="8"/>
       <c r="N419" s="8"/>
@@ -21574,17 +21798,31 @@
       <c r="Z419" s="8"/>
     </row>
     <row r="420" ht="18.0" customHeight="1">
-      <c r="A420" s="2"/>
-      <c r="B420" s="8"/>
-      <c r="C420" s="2"/>
-      <c r="D420" s="2"/>
-      <c r="E420" s="8"/>
-      <c r="F420" s="13"/>
+      <c r="A420" s="34">
+        <v>418.0</v>
+      </c>
+      <c r="B420" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C420" s="39">
+        <v>44021.0</v>
+      </c>
+      <c r="D420" s="33">
+        <v>44021.0</v>
+      </c>
+      <c r="E420" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F420" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G420" s="2"/>
       <c r="H420" s="13"/>
       <c r="I420" s="13"/>
       <c r="J420" s="14"/>
-      <c r="K420" s="8"/>
+      <c r="K420" s="31" t="s">
+        <v>482</v>
+      </c>
       <c r="L420" s="8"/>
       <c r="M420" s="8"/>
       <c r="N420" s="8"/>
@@ -21602,17 +21840,31 @@
       <c r="Z420" s="8"/>
     </row>
     <row r="421" ht="18.0" customHeight="1">
-      <c r="A421" s="2"/>
-      <c r="B421" s="8"/>
-      <c r="C421" s="2"/>
-      <c r="D421" s="2"/>
-      <c r="E421" s="8"/>
-      <c r="F421" s="13"/>
+      <c r="A421" s="34">
+        <v>419.0</v>
+      </c>
+      <c r="B421" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C421" s="39">
+        <v>44021.0</v>
+      </c>
+      <c r="D421" s="33">
+        <v>44021.0</v>
+      </c>
+      <c r="E421" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F421" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G421" s="2"/>
       <c r="H421" s="13"/>
       <c r="I421" s="13"/>
       <c r="J421" s="14"/>
-      <c r="K421" s="8"/>
+      <c r="K421" s="31" t="s">
+        <v>482</v>
+      </c>
       <c r="L421" s="8"/>
       <c r="M421" s="8"/>
       <c r="N421" s="8"/>
@@ -21630,17 +21882,31 @@
       <c r="Z421" s="8"/>
     </row>
     <row r="422" ht="18.0" customHeight="1">
-      <c r="A422" s="2"/>
-      <c r="B422" s="8"/>
-      <c r="C422" s="2"/>
-      <c r="D422" s="2"/>
-      <c r="E422" s="8"/>
-      <c r="F422" s="13"/>
+      <c r="A422" s="34">
+        <v>420.0</v>
+      </c>
+      <c r="B422" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C422" s="39">
+        <v>44021.0</v>
+      </c>
+      <c r="D422" s="33">
+        <v>44021.0</v>
+      </c>
+      <c r="E422" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F422" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G422" s="2"/>
       <c r="H422" s="13"/>
       <c r="I422" s="13"/>
       <c r="J422" s="14"/>
-      <c r="K422" s="8"/>
+      <c r="K422" s="31" t="s">
+        <v>482</v>
+      </c>
       <c r="L422" s="8"/>
       <c r="M422" s="8"/>
       <c r="N422" s="8"/>
@@ -21658,17 +21924,31 @@
       <c r="Z422" s="8"/>
     </row>
     <row r="423" ht="18.0" customHeight="1">
-      <c r="A423" s="2"/>
-      <c r="B423" s="8"/>
-      <c r="C423" s="2"/>
-      <c r="D423" s="2"/>
-      <c r="E423" s="8"/>
-      <c r="F423" s="13"/>
+      <c r="A423" s="34">
+        <v>421.0</v>
+      </c>
+      <c r="B423" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C423" s="39">
+        <v>44022.0</v>
+      </c>
+      <c r="D423" s="33">
+        <v>44022.0</v>
+      </c>
+      <c r="E423" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F423" s="24" t="s">
+        <v>366</v>
+      </c>
       <c r="G423" s="2"/>
       <c r="H423" s="13"/>
       <c r="I423" s="13"/>
       <c r="J423" s="14"/>
-      <c r="K423" s="8"/>
+      <c r="K423" s="31" t="s">
+        <v>483</v>
+      </c>
       <c r="L423" s="8"/>
       <c r="M423" s="8"/>
       <c r="N423" s="8"/>
@@ -21686,17 +21966,31 @@
       <c r="Z423" s="8"/>
     </row>
     <row r="424" ht="18.0" customHeight="1">
-      <c r="A424" s="2"/>
-      <c r="B424" s="8"/>
-      <c r="C424" s="2"/>
-      <c r="D424" s="2"/>
-      <c r="E424" s="8"/>
-      <c r="F424" s="13"/>
+      <c r="A424" s="34">
+        <v>422.0</v>
+      </c>
+      <c r="B424" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C424" s="39">
+        <v>44022.0</v>
+      </c>
+      <c r="D424" s="33">
+        <v>44022.0</v>
+      </c>
+      <c r="E424" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F424" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G424" s="2"/>
       <c r="H424" s="13"/>
       <c r="I424" s="13"/>
       <c r="J424" s="14"/>
-      <c r="K424" s="8"/>
+      <c r="K424" s="31" t="s">
+        <v>484</v>
+      </c>
       <c r="L424" s="8"/>
       <c r="M424" s="8"/>
       <c r="N424" s="8"/>
@@ -21714,17 +22008,31 @@
       <c r="Z424" s="8"/>
     </row>
     <row r="425" ht="18.0" customHeight="1">
-      <c r="A425" s="2"/>
-      <c r="B425" s="8"/>
-      <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
-      <c r="E425" s="8"/>
-      <c r="F425" s="13"/>
+      <c r="A425" s="34">
+        <v>423.0</v>
+      </c>
+      <c r="B425" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C425" s="39">
+        <v>44022.0</v>
+      </c>
+      <c r="D425" s="33">
+        <v>44022.0</v>
+      </c>
+      <c r="E425" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F425" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G425" s="2"/>
       <c r="H425" s="13"/>
       <c r="I425" s="13"/>
       <c r="J425" s="14"/>
-      <c r="K425" s="8"/>
+      <c r="K425" s="31" t="s">
+        <v>484</v>
+      </c>
       <c r="L425" s="8"/>
       <c r="M425" s="8"/>
       <c r="N425" s="8"/>
@@ -21742,17 +22050,31 @@
       <c r="Z425" s="8"/>
     </row>
     <row r="426" ht="18.0" customHeight="1">
-      <c r="A426" s="2"/>
-      <c r="B426" s="8"/>
-      <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
-      <c r="E426" s="8"/>
-      <c r="F426" s="13"/>
+      <c r="A426" s="34">
+        <v>424.0</v>
+      </c>
+      <c r="B426" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C426" s="39">
+        <v>44022.0</v>
+      </c>
+      <c r="D426" s="33">
+        <v>44022.0</v>
+      </c>
+      <c r="E426" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F426" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G426" s="2"/>
       <c r="H426" s="13"/>
       <c r="I426" s="13"/>
       <c r="J426" s="14"/>
-      <c r="K426" s="8"/>
+      <c r="K426" s="31" t="s">
+        <v>484</v>
+      </c>
       <c r="L426" s="8"/>
       <c r="M426" s="8"/>
       <c r="N426" s="8"/>
@@ -21770,17 +22092,31 @@
       <c r="Z426" s="8"/>
     </row>
     <row r="427" ht="18.0" customHeight="1">
-      <c r="A427" s="2"/>
-      <c r="B427" s="8"/>
-      <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
-      <c r="E427" s="8"/>
-      <c r="F427" s="13"/>
+      <c r="A427" s="34">
+        <v>425.0</v>
+      </c>
+      <c r="B427" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C427" s="39">
+        <v>44022.0</v>
+      </c>
+      <c r="D427" s="33">
+        <v>44022.0</v>
+      </c>
+      <c r="E427" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F427" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G427" s="2"/>
       <c r="H427" s="13"/>
       <c r="I427" s="13"/>
       <c r="J427" s="14"/>
-      <c r="K427" s="8"/>
+      <c r="K427" s="31" t="s">
+        <v>484</v>
+      </c>
       <c r="L427" s="8"/>
       <c r="M427" s="8"/>
       <c r="N427" s="8"/>
@@ -21798,17 +22134,31 @@
       <c r="Z427" s="8"/>
     </row>
     <row r="428" ht="18.0" customHeight="1">
-      <c r="A428" s="2"/>
-      <c r="B428" s="8"/>
-      <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
-      <c r="E428" s="8"/>
-      <c r="F428" s="13"/>
+      <c r="A428" s="34">
+        <v>426.0</v>
+      </c>
+      <c r="B428" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C428" s="39">
+        <v>44022.0</v>
+      </c>
+      <c r="D428" s="33">
+        <v>44022.0</v>
+      </c>
+      <c r="E428" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F428" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G428" s="2"/>
       <c r="H428" s="13"/>
       <c r="I428" s="13"/>
       <c r="J428" s="14"/>
-      <c r="K428" s="8"/>
+      <c r="K428" s="31" t="s">
+        <v>484</v>
+      </c>
       <c r="L428" s="8"/>
       <c r="M428" s="8"/>
       <c r="N428" s="8"/>
@@ -21826,17 +22176,31 @@
       <c r="Z428" s="8"/>
     </row>
     <row r="429" ht="18.0" customHeight="1">
-      <c r="A429" s="2"/>
-      <c r="B429" s="8"/>
-      <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
-      <c r="E429" s="8"/>
-      <c r="F429" s="13"/>
+      <c r="A429" s="34">
+        <v>427.0</v>
+      </c>
+      <c r="B429" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C429" s="39">
+        <v>44022.0</v>
+      </c>
+      <c r="D429" s="33">
+        <v>44022.0</v>
+      </c>
+      <c r="E429" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F429" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G429" s="2"/>
       <c r="H429" s="13"/>
       <c r="I429" s="13"/>
       <c r="J429" s="14"/>
-      <c r="K429" s="8"/>
+      <c r="K429" s="31" t="s">
+        <v>484</v>
+      </c>
       <c r="L429" s="8"/>
       <c r="M429" s="8"/>
       <c r="N429" s="8"/>
@@ -21854,17 +22218,31 @@
       <c r="Z429" s="8"/>
     </row>
     <row r="430" ht="18.0" customHeight="1">
-      <c r="A430" s="2"/>
-      <c r="B430" s="8"/>
-      <c r="C430" s="2"/>
-      <c r="D430" s="2"/>
-      <c r="E430" s="8"/>
-      <c r="F430" s="13"/>
+      <c r="A430" s="34">
+        <v>428.0</v>
+      </c>
+      <c r="B430" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C430" s="39">
+        <v>44022.0</v>
+      </c>
+      <c r="D430" s="33">
+        <v>44022.0</v>
+      </c>
+      <c r="E430" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F430" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G430" s="2"/>
       <c r="H430" s="13"/>
       <c r="I430" s="13"/>
       <c r="J430" s="14"/>
-      <c r="K430" s="8"/>
+      <c r="K430" s="31" t="s">
+        <v>484</v>
+      </c>
       <c r="L430" s="8"/>
       <c r="M430" s="8"/>
       <c r="N430" s="8"/>
@@ -21882,17 +22260,31 @@
       <c r="Z430" s="8"/>
     </row>
     <row r="431" ht="18.0" customHeight="1">
-      <c r="A431" s="2"/>
-      <c r="B431" s="8"/>
-      <c r="C431" s="2"/>
-      <c r="D431" s="2"/>
-      <c r="E431" s="8"/>
-      <c r="F431" s="13"/>
+      <c r="A431" s="34">
+        <v>429.0</v>
+      </c>
+      <c r="B431" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C431" s="39">
+        <v>44022.0</v>
+      </c>
+      <c r="D431" s="33">
+        <v>44022.0</v>
+      </c>
+      <c r="E431" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F431" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G431" s="2"/>
       <c r="H431" s="13"/>
       <c r="I431" s="13"/>
       <c r="J431" s="14"/>
-      <c r="K431" s="8"/>
+      <c r="K431" s="31" t="s">
+        <v>484</v>
+      </c>
       <c r="L431" s="8"/>
       <c r="M431" s="8"/>
       <c r="N431" s="8"/>
@@ -21910,17 +22302,31 @@
       <c r="Z431" s="8"/>
     </row>
     <row r="432" ht="18.0" customHeight="1">
-      <c r="A432" s="2"/>
-      <c r="B432" s="8"/>
-      <c r="C432" s="2"/>
-      <c r="D432" s="2"/>
-      <c r="E432" s="8"/>
-      <c r="F432" s="13"/>
+      <c r="A432" s="34">
+        <v>430.0</v>
+      </c>
+      <c r="B432" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C432" s="39">
+        <v>44022.0</v>
+      </c>
+      <c r="D432" s="33">
+        <v>44022.0</v>
+      </c>
+      <c r="E432" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F432" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G432" s="2"/>
       <c r="H432" s="13"/>
       <c r="I432" s="13"/>
       <c r="J432" s="14"/>
-      <c r="K432" s="8"/>
+      <c r="K432" s="31" t="s">
+        <v>484</v>
+      </c>
       <c r="L432" s="8"/>
       <c r="M432" s="8"/>
       <c r="N432" s="8"/>
@@ -21938,7 +22344,7 @@
       <c r="Z432" s="8"/>
     </row>
     <row r="433" ht="18.0" customHeight="1">
-      <c r="A433" s="2"/>
+      <c r="A433" s="34"/>
       <c r="B433" s="8"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -21966,7 +22372,7 @@
       <c r="Z433" s="8"/>
     </row>
     <row r="434" ht="18.0" customHeight="1">
-      <c r="A434" s="2"/>
+      <c r="A434" s="34"/>
       <c r="B434" s="8"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -21994,7 +22400,7 @@
       <c r="Z434" s="8"/>
     </row>
     <row r="435" ht="18.0" customHeight="1">
-      <c r="A435" s="2"/>
+      <c r="A435" s="34"/>
       <c r="B435" s="8"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -22022,7 +22428,7 @@
       <c r="Z435" s="8"/>
     </row>
     <row r="436" ht="18.0" customHeight="1">
-      <c r="A436" s="2"/>
+      <c r="A436" s="34"/>
       <c r="B436" s="8"/>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -22050,7 +22456,7 @@
       <c r="Z436" s="8"/>
     </row>
     <row r="437" ht="18.0" customHeight="1">
-      <c r="A437" s="2"/>
+      <c r="A437" s="34"/>
       <c r="B437" s="8"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -22078,7 +22484,7 @@
       <c r="Z437" s="8"/>
     </row>
     <row r="438" ht="18.0" customHeight="1">
-      <c r="A438" s="2"/>
+      <c r="A438" s="34"/>
       <c r="B438" s="8"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -22106,7 +22512,7 @@
       <c r="Z438" s="8"/>
     </row>
     <row r="439" ht="18.0" customHeight="1">
-      <c r="A439" s="2"/>
+      <c r="A439" s="34"/>
       <c r="B439" s="8"/>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -22134,7 +22540,7 @@
       <c r="Z439" s="8"/>
     </row>
     <row r="440" ht="18.0" customHeight="1">
-      <c r="A440" s="2"/>
+      <c r="A440" s="34"/>
       <c r="B440" s="8"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -22162,7 +22568,7 @@
       <c r="Z440" s="8"/>
     </row>
     <row r="441" ht="18.0" customHeight="1">
-      <c r="A441" s="2"/>
+      <c r="A441" s="34"/>
       <c r="B441" s="8"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -22190,7 +22596,7 @@
       <c r="Z441" s="8"/>
     </row>
     <row r="442" ht="18.0" customHeight="1">
-      <c r="A442" s="2"/>
+      <c r="A442" s="34"/>
       <c r="B442" s="8"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -38102,10 +38508,36 @@
     <hyperlink r:id="rId228" ref="K404"/>
     <hyperlink r:id="rId229" ref="K405"/>
     <hyperlink r:id="rId230" ref="K406"/>
+    <hyperlink r:id="rId231" ref="K407"/>
+    <hyperlink r:id="rId232" ref="K408"/>
+    <hyperlink r:id="rId233" ref="K409"/>
+    <hyperlink r:id="rId234" ref="K410"/>
+    <hyperlink r:id="rId235" ref="K411"/>
+    <hyperlink r:id="rId236" ref="K412"/>
+    <hyperlink r:id="rId237" ref="K413"/>
+    <hyperlink r:id="rId238" ref="K414"/>
+    <hyperlink r:id="rId239" ref="K415"/>
+    <hyperlink r:id="rId240" ref="K416"/>
+    <hyperlink r:id="rId241" ref="K417"/>
+    <hyperlink r:id="rId242" ref="K418"/>
+    <hyperlink r:id="rId243" ref="K419"/>
+    <hyperlink r:id="rId244" ref="K420"/>
+    <hyperlink r:id="rId245" ref="K421"/>
+    <hyperlink r:id="rId246" ref="K422"/>
+    <hyperlink r:id="rId247" ref="K423"/>
+    <hyperlink r:id="rId248" ref="K424"/>
+    <hyperlink r:id="rId249" ref="K425"/>
+    <hyperlink r:id="rId250" ref="K426"/>
+    <hyperlink r:id="rId251" ref="K427"/>
+    <hyperlink r:id="rId252" ref="K428"/>
+    <hyperlink r:id="rId253" ref="K429"/>
+    <hyperlink r:id="rId254" ref="K430"/>
+    <hyperlink r:id="rId255" ref="K431"/>
+    <hyperlink r:id="rId256" ref="K432"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId231"/>
+  <drawing r:id="rId257"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="485">
-  <si>
-    <t>2020-07-11T18:14:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="498">
+  <si>
+    <t>2020-07-14T23:10:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1620,6 +1620,45 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272427/200710oshirase(302-310).pdf</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>2020-07-11T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272435/200711oshirase(311-319).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-12T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200712-440.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272440/200712oshirase(320-326).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-13T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200713-448-454.pdf</t>
+  </si>
+  <si>
+    <t>他府県</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272489/200713oshirase(327-328).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-14T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200714-457.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272550/200714oshirase(329-339).pdf</t>
   </si>
 </sst>
 </file>
@@ -20480,7 +20519,9 @@
         <v>467</v>
       </c>
       <c r="L388" s="8"/>
-      <c r="M388" s="8"/>
+      <c r="M388" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N388" s="8"/>
       <c r="O388" s="8"/>
       <c r="P388" s="8"/>
@@ -20499,7 +20540,7 @@
       <c r="A389" s="34">
         <v>387.0</v>
       </c>
-      <c r="B389" s="42" t="s">
+      <c r="B389" s="27" t="s">
         <v>468</v>
       </c>
       <c r="C389" s="39">
@@ -20541,7 +20582,7 @@
       <c r="A390" s="34">
         <v>388.0</v>
       </c>
-      <c r="B390" s="42" t="s">
+      <c r="B390" s="27" t="s">
         <v>468</v>
       </c>
       <c r="C390" s="39">
@@ -20564,7 +20605,9 @@
         <v>469</v>
       </c>
       <c r="L390" s="8"/>
-      <c r="M390" s="8"/>
+      <c r="M390" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N390" s="8"/>
       <c r="O390" s="8"/>
       <c r="P390" s="8"/>
@@ -20583,7 +20626,7 @@
       <c r="A391" s="34">
         <v>389.0</v>
       </c>
-      <c r="B391" s="42" t="s">
+      <c r="B391" s="27" t="s">
         <v>468</v>
       </c>
       <c r="C391" s="39">
@@ -20606,7 +20649,9 @@
         <v>469</v>
       </c>
       <c r="L391" s="8"/>
-      <c r="M391" s="8"/>
+      <c r="M391" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N391" s="8"/>
       <c r="O391" s="8"/>
       <c r="P391" s="8"/>
@@ -20625,7 +20670,7 @@
       <c r="A392" s="34">
         <v>390.0</v>
       </c>
-      <c r="B392" s="42" t="s">
+      <c r="B392" s="27" t="s">
         <v>468</v>
       </c>
       <c r="C392" s="39">
@@ -20648,7 +20693,9 @@
         <v>469</v>
       </c>
       <c r="L392" s="8"/>
-      <c r="M392" s="8"/>
+      <c r="M392" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N392" s="8"/>
       <c r="O392" s="8"/>
       <c r="P392" s="8"/>
@@ -20667,7 +20714,7 @@
       <c r="A393" s="34">
         <v>391.0</v>
       </c>
-      <c r="B393" s="42" t="s">
+      <c r="B393" s="27" t="s">
         <v>468</v>
       </c>
       <c r="C393" s="39">
@@ -20709,7 +20756,7 @@
       <c r="A394" s="34">
         <v>392.0</v>
       </c>
-      <c r="B394" s="42" t="s">
+      <c r="B394" s="27" t="s">
         <v>471</v>
       </c>
       <c r="C394" s="39">
@@ -20732,7 +20779,9 @@
         <v>472</v>
       </c>
       <c r="L394" s="8"/>
-      <c r="M394" s="8"/>
+      <c r="M394" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N394" s="8"/>
       <c r="O394" s="8"/>
       <c r="P394" s="8"/>
@@ -20751,7 +20800,7 @@
       <c r="A395" s="34">
         <v>393.0</v>
       </c>
-      <c r="B395" s="42" t="s">
+      <c r="B395" s="27" t="s">
         <v>471</v>
       </c>
       <c r="C395" s="39">
@@ -20774,7 +20823,9 @@
         <v>472</v>
       </c>
       <c r="L395" s="8"/>
-      <c r="M395" s="8"/>
+      <c r="M395" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N395" s="8"/>
       <c r="O395" s="8"/>
       <c r="P395" s="8"/>
@@ -20793,7 +20844,7 @@
       <c r="A396" s="34">
         <v>394.0</v>
       </c>
-      <c r="B396" s="42" t="s">
+      <c r="B396" s="27" t="s">
         <v>471</v>
       </c>
       <c r="C396" s="39">
@@ -20816,7 +20867,9 @@
         <v>472</v>
       </c>
       <c r="L396" s="8"/>
-      <c r="M396" s="8"/>
+      <c r="M396" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N396" s="8"/>
       <c r="O396" s="8"/>
       <c r="P396" s="8"/>
@@ -20835,7 +20888,7 @@
       <c r="A397" s="34">
         <v>395.0</v>
       </c>
-      <c r="B397" s="42" t="s">
+      <c r="B397" s="27" t="s">
         <v>471</v>
       </c>
       <c r="C397" s="39">
@@ -20858,7 +20911,9 @@
         <v>472</v>
       </c>
       <c r="L397" s="8"/>
-      <c r="M397" s="8"/>
+      <c r="M397" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N397" s="8"/>
       <c r="O397" s="8"/>
       <c r="P397" s="8"/>
@@ -20877,7 +20932,7 @@
       <c r="A398" s="34">
         <v>396.0</v>
       </c>
-      <c r="B398" s="42" t="s">
+      <c r="B398" s="27" t="s">
         <v>471</v>
       </c>
       <c r="C398" s="39">
@@ -20900,7 +20955,9 @@
         <v>472</v>
       </c>
       <c r="L398" s="8"/>
-      <c r="M398" s="8"/>
+      <c r="M398" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N398" s="8"/>
       <c r="O398" s="8"/>
       <c r="P398" s="8"/>
@@ -20919,7 +20976,7 @@
       <c r="A399" s="34">
         <v>397.0</v>
       </c>
-      <c r="B399" s="42" t="s">
+      <c r="B399" s="27" t="s">
         <v>471</v>
       </c>
       <c r="C399" s="39">
@@ -20942,7 +20999,9 @@
         <v>472</v>
       </c>
       <c r="L399" s="8"/>
-      <c r="M399" s="8"/>
+      <c r="M399" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N399" s="8"/>
       <c r="O399" s="8"/>
       <c r="P399" s="8"/>
@@ -20961,7 +21020,7 @@
       <c r="A400" s="34">
         <v>398.0</v>
       </c>
-      <c r="B400" s="42" t="s">
+      <c r="B400" s="27" t="s">
         <v>471</v>
       </c>
       <c r="C400" s="39">
@@ -21003,7 +21062,7 @@
       <c r="A401" s="34">
         <v>399.0</v>
       </c>
-      <c r="B401" s="42" t="s">
+      <c r="B401" s="27" t="s">
         <v>471</v>
       </c>
       <c r="C401" s="39">
@@ -21026,7 +21085,9 @@
         <v>472</v>
       </c>
       <c r="L401" s="8"/>
-      <c r="M401" s="8"/>
+      <c r="M401" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N401" s="8"/>
       <c r="O401" s="8"/>
       <c r="P401" s="8"/>
@@ -21045,7 +21106,7 @@
       <c r="A402" s="34">
         <v>400.0</v>
       </c>
-      <c r="B402" s="42" t="s">
+      <c r="B402" s="27" t="s">
         <v>471</v>
       </c>
       <c r="C402" s="39">
@@ -21068,7 +21129,9 @@
         <v>472</v>
       </c>
       <c r="L402" s="8"/>
-      <c r="M402" s="8"/>
+      <c r="M402" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N402" s="8"/>
       <c r="O402" s="8"/>
       <c r="P402" s="8"/>
@@ -21087,7 +21150,7 @@
       <c r="A403" s="34">
         <v>401.0</v>
       </c>
-      <c r="B403" s="42" t="s">
+      <c r="B403" s="27" t="s">
         <v>473</v>
       </c>
       <c r="C403" s="39">
@@ -21129,7 +21192,7 @@
       <c r="A404" s="34">
         <v>402.0</v>
       </c>
-      <c r="B404" s="42" t="s">
+      <c r="B404" s="27" t="s">
         <v>475</v>
       </c>
       <c r="C404" s="39">
@@ -21171,7 +21234,7 @@
       <c r="A405" s="34">
         <v>403.0</v>
       </c>
-      <c r="B405" s="42" t="s">
+      <c r="B405" s="27" t="s">
         <v>475</v>
       </c>
       <c r="C405" s="39">
@@ -21194,7 +21257,9 @@
         <v>477</v>
       </c>
       <c r="L405" s="8"/>
-      <c r="M405" s="8"/>
+      <c r="M405" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N405" s="8"/>
       <c r="O405" s="8"/>
       <c r="P405" s="8"/>
@@ -21213,7 +21278,7 @@
       <c r="A406" s="34">
         <v>404.0</v>
       </c>
-      <c r="B406" s="42" t="s">
+      <c r="B406" s="27" t="s">
         <v>475</v>
       </c>
       <c r="C406" s="39">
@@ -21278,7 +21343,9 @@
         <v>479</v>
       </c>
       <c r="L407" s="8"/>
-      <c r="M407" s="8"/>
+      <c r="M407" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N407" s="8"/>
       <c r="O407" s="8"/>
       <c r="P407" s="8"/>
@@ -21446,7 +21513,9 @@
         <v>480</v>
       </c>
       <c r="L411" s="8"/>
-      <c r="M411" s="8"/>
+      <c r="M411" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N411" s="8"/>
       <c r="O411" s="8"/>
       <c r="P411" s="8"/>
@@ -21488,7 +21557,9 @@
         <v>480</v>
       </c>
       <c r="L412" s="8"/>
-      <c r="M412" s="8"/>
+      <c r="M412" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N412" s="8"/>
       <c r="O412" s="8"/>
       <c r="P412" s="8"/>
@@ -21530,7 +21601,9 @@
         <v>480</v>
       </c>
       <c r="L413" s="8"/>
-      <c r="M413" s="8"/>
+      <c r="M413" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N413" s="8"/>
       <c r="O413" s="8"/>
       <c r="P413" s="8"/>
@@ -22202,7 +22275,9 @@
         <v>484</v>
       </c>
       <c r="L429" s="8"/>
-      <c r="M429" s="8"/>
+      <c r="M429" s="16" t="s">
+        <v>485</v>
+      </c>
       <c r="N429" s="8"/>
       <c r="O429" s="8"/>
       <c r="P429" s="8"/>
@@ -22344,17 +22419,31 @@
       <c r="Z432" s="8"/>
     </row>
     <row r="433" ht="18.0" customHeight="1">
-      <c r="A433" s="34"/>
-      <c r="B433" s="8"/>
-      <c r="C433" s="2"/>
-      <c r="D433" s="2"/>
-      <c r="E433" s="8"/>
-      <c r="F433" s="13"/>
+      <c r="A433" s="34">
+        <v>431.0</v>
+      </c>
+      <c r="B433" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="C433" s="39">
+        <v>44023.0</v>
+      </c>
+      <c r="D433" s="33">
+        <v>44023.0</v>
+      </c>
+      <c r="E433" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F433" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G433" s="2"/>
       <c r="H433" s="13"/>
       <c r="I433" s="13"/>
       <c r="J433" s="14"/>
-      <c r="K433" s="8"/>
+      <c r="K433" s="31" t="s">
+        <v>487</v>
+      </c>
       <c r="L433" s="8"/>
       <c r="M433" s="8"/>
       <c r="N433" s="8"/>
@@ -22372,17 +22461,31 @@
       <c r="Z433" s="8"/>
     </row>
     <row r="434" ht="18.0" customHeight="1">
-      <c r="A434" s="34"/>
-      <c r="B434" s="8"/>
-      <c r="C434" s="2"/>
-      <c r="D434" s="2"/>
-      <c r="E434" s="8"/>
-      <c r="F434" s="13"/>
+      <c r="A434" s="34">
+        <v>432.0</v>
+      </c>
+      <c r="B434" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="C434" s="39">
+        <v>44023.0</v>
+      </c>
+      <c r="D434" s="33">
+        <v>44023.0</v>
+      </c>
+      <c r="E434" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F434" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G434" s="2"/>
       <c r="H434" s="13"/>
       <c r="I434" s="13"/>
       <c r="J434" s="14"/>
-      <c r="K434" s="8"/>
+      <c r="K434" s="31" t="s">
+        <v>487</v>
+      </c>
       <c r="L434" s="8"/>
       <c r="M434" s="8"/>
       <c r="N434" s="8"/>
@@ -22400,17 +22503,31 @@
       <c r="Z434" s="8"/>
     </row>
     <row r="435" ht="18.0" customHeight="1">
-      <c r="A435" s="34"/>
-      <c r="B435" s="8"/>
-      <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
-      <c r="E435" s="8"/>
-      <c r="F435" s="13"/>
+      <c r="A435" s="34">
+        <v>433.0</v>
+      </c>
+      <c r="B435" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="C435" s="39">
+        <v>44023.0</v>
+      </c>
+      <c r="D435" s="33">
+        <v>44023.0</v>
+      </c>
+      <c r="E435" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F435" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G435" s="2"/>
       <c r="H435" s="13"/>
       <c r="I435" s="13"/>
       <c r="J435" s="14"/>
-      <c r="K435" s="8"/>
+      <c r="K435" s="31" t="s">
+        <v>487</v>
+      </c>
       <c r="L435" s="8"/>
       <c r="M435" s="8"/>
       <c r="N435" s="8"/>
@@ -22428,17 +22545,31 @@
       <c r="Z435" s="8"/>
     </row>
     <row r="436" ht="18.0" customHeight="1">
-      <c r="A436" s="34"/>
-      <c r="B436" s="8"/>
-      <c r="C436" s="2"/>
-      <c r="D436" s="2"/>
-      <c r="E436" s="8"/>
-      <c r="F436" s="13"/>
+      <c r="A436" s="34">
+        <v>434.0</v>
+      </c>
+      <c r="B436" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="C436" s="39">
+        <v>44023.0</v>
+      </c>
+      <c r="D436" s="33">
+        <v>44023.0</v>
+      </c>
+      <c r="E436" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F436" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G436" s="2"/>
       <c r="H436" s="13"/>
       <c r="I436" s="13"/>
       <c r="J436" s="14"/>
-      <c r="K436" s="8"/>
+      <c r="K436" s="31" t="s">
+        <v>487</v>
+      </c>
       <c r="L436" s="8"/>
       <c r="M436" s="8"/>
       <c r="N436" s="8"/>
@@ -22456,17 +22587,31 @@
       <c r="Z436" s="8"/>
     </row>
     <row r="437" ht="18.0" customHeight="1">
-      <c r="A437" s="34"/>
-      <c r="B437" s="8"/>
-      <c r="C437" s="2"/>
-      <c r="D437" s="2"/>
-      <c r="E437" s="8"/>
-      <c r="F437" s="13"/>
+      <c r="A437" s="34">
+        <v>435.0</v>
+      </c>
+      <c r="B437" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="C437" s="39">
+        <v>44023.0</v>
+      </c>
+      <c r="D437" s="33">
+        <v>44023.0</v>
+      </c>
+      <c r="E437" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F437" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G437" s="2"/>
       <c r="H437" s="13"/>
       <c r="I437" s="13"/>
       <c r="J437" s="14"/>
-      <c r="K437" s="8"/>
+      <c r="K437" s="31" t="s">
+        <v>487</v>
+      </c>
       <c r="L437" s="8"/>
       <c r="M437" s="8"/>
       <c r="N437" s="8"/>
@@ -22484,17 +22629,31 @@
       <c r="Z437" s="8"/>
     </row>
     <row r="438" ht="18.0" customHeight="1">
-      <c r="A438" s="34"/>
-      <c r="B438" s="8"/>
-      <c r="C438" s="2"/>
-      <c r="D438" s="2"/>
-      <c r="E438" s="8"/>
-      <c r="F438" s="13"/>
+      <c r="A438" s="34">
+        <v>436.0</v>
+      </c>
+      <c r="B438" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="C438" s="39">
+        <v>44023.0</v>
+      </c>
+      <c r="D438" s="33">
+        <v>44023.0</v>
+      </c>
+      <c r="E438" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F438" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G438" s="2"/>
       <c r="H438" s="13"/>
       <c r="I438" s="13"/>
       <c r="J438" s="14"/>
-      <c r="K438" s="8"/>
+      <c r="K438" s="31" t="s">
+        <v>487</v>
+      </c>
       <c r="L438" s="8"/>
       <c r="M438" s="8"/>
       <c r="N438" s="8"/>
@@ -22512,17 +22671,31 @@
       <c r="Z438" s="8"/>
     </row>
     <row r="439" ht="18.0" customHeight="1">
-      <c r="A439" s="34"/>
-      <c r="B439" s="8"/>
-      <c r="C439" s="2"/>
-      <c r="D439" s="2"/>
-      <c r="E439" s="8"/>
-      <c r="F439" s="13"/>
+      <c r="A439" s="34">
+        <v>437.0</v>
+      </c>
+      <c r="B439" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="C439" s="39">
+        <v>44023.0</v>
+      </c>
+      <c r="D439" s="33">
+        <v>44023.0</v>
+      </c>
+      <c r="E439" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F439" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G439" s="2"/>
       <c r="H439" s="13"/>
       <c r="I439" s="13"/>
       <c r="J439" s="14"/>
-      <c r="K439" s="8"/>
+      <c r="K439" s="31" t="s">
+        <v>487</v>
+      </c>
       <c r="L439" s="8"/>
       <c r="M439" s="8"/>
       <c r="N439" s="8"/>
@@ -22540,17 +22713,31 @@
       <c r="Z439" s="8"/>
     </row>
     <row r="440" ht="18.0" customHeight="1">
-      <c r="A440" s="34"/>
-      <c r="B440" s="8"/>
-      <c r="C440" s="2"/>
-      <c r="D440" s="2"/>
-      <c r="E440" s="8"/>
-      <c r="F440" s="13"/>
+      <c r="A440" s="34">
+        <v>438.0</v>
+      </c>
+      <c r="B440" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="C440" s="39">
+        <v>44023.0</v>
+      </c>
+      <c r="D440" s="33">
+        <v>44023.0</v>
+      </c>
+      <c r="E440" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F440" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G440" s="2"/>
       <c r="H440" s="13"/>
       <c r="I440" s="13"/>
       <c r="J440" s="14"/>
-      <c r="K440" s="8"/>
+      <c r="K440" s="31" t="s">
+        <v>487</v>
+      </c>
       <c r="L440" s="8"/>
       <c r="M440" s="8"/>
       <c r="N440" s="8"/>
@@ -22568,17 +22755,31 @@
       <c r="Z440" s="8"/>
     </row>
     <row r="441" ht="18.0" customHeight="1">
-      <c r="A441" s="34"/>
-      <c r="B441" s="8"/>
-      <c r="C441" s="2"/>
-      <c r="D441" s="2"/>
-      <c r="E441" s="8"/>
-      <c r="F441" s="13"/>
+      <c r="A441" s="34">
+        <v>439.0</v>
+      </c>
+      <c r="B441" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="C441" s="39">
+        <v>44023.0</v>
+      </c>
+      <c r="D441" s="33">
+        <v>44023.0</v>
+      </c>
+      <c r="E441" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F441" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G441" s="2"/>
       <c r="H441" s="13"/>
       <c r="I441" s="13"/>
       <c r="J441" s="14"/>
-      <c r="K441" s="8"/>
+      <c r="K441" s="31" t="s">
+        <v>487</v>
+      </c>
       <c r="L441" s="8"/>
       <c r="M441" s="8"/>
       <c r="N441" s="8"/>
@@ -22596,17 +22797,31 @@
       <c r="Z441" s="8"/>
     </row>
     <row r="442" ht="18.0" customHeight="1">
-      <c r="A442" s="34"/>
-      <c r="B442" s="8"/>
-      <c r="C442" s="2"/>
-      <c r="D442" s="2"/>
-      <c r="E442" s="8"/>
-      <c r="F442" s="13"/>
+      <c r="A442" s="34">
+        <v>440.0</v>
+      </c>
+      <c r="B442" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C442" s="39">
+        <v>44024.0</v>
+      </c>
+      <c r="D442" s="33">
+        <v>44024.0</v>
+      </c>
+      <c r="E442" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F442" s="24" t="s">
+        <v>396</v>
+      </c>
       <c r="G442" s="2"/>
       <c r="H442" s="13"/>
       <c r="I442" s="13"/>
       <c r="J442" s="14"/>
-      <c r="K442" s="8"/>
+      <c r="K442" s="31" t="s">
+        <v>489</v>
+      </c>
       <c r="L442" s="8"/>
       <c r="M442" s="8"/>
       <c r="N442" s="8"/>
@@ -22624,17 +22839,31 @@
       <c r="Z442" s="8"/>
     </row>
     <row r="443" ht="18.0" customHeight="1">
-      <c r="A443" s="2"/>
-      <c r="B443" s="8"/>
-      <c r="C443" s="2"/>
-      <c r="D443" s="2"/>
-      <c r="E443" s="8"/>
-      <c r="F443" s="13"/>
+      <c r="A443" s="34">
+        <v>441.0</v>
+      </c>
+      <c r="B443" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C443" s="39">
+        <v>44024.0</v>
+      </c>
+      <c r="D443" s="33">
+        <v>44024.0</v>
+      </c>
+      <c r="E443" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F443" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G443" s="2"/>
       <c r="H443" s="13"/>
       <c r="I443" s="13"/>
       <c r="J443" s="14"/>
-      <c r="K443" s="8"/>
+      <c r="K443" s="31" t="s">
+        <v>490</v>
+      </c>
       <c r="L443" s="8"/>
       <c r="M443" s="8"/>
       <c r="N443" s="8"/>
@@ -22652,17 +22881,31 @@
       <c r="Z443" s="8"/>
     </row>
     <row r="444" ht="18.0" customHeight="1">
-      <c r="A444" s="2"/>
-      <c r="B444" s="8"/>
-      <c r="C444" s="2"/>
-      <c r="D444" s="2"/>
-      <c r="E444" s="8"/>
-      <c r="F444" s="13"/>
+      <c r="A444" s="34">
+        <v>442.0</v>
+      </c>
+      <c r="B444" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C444" s="39">
+        <v>44024.0</v>
+      </c>
+      <c r="D444" s="33">
+        <v>44024.0</v>
+      </c>
+      <c r="E444" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F444" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G444" s="2"/>
       <c r="H444" s="13"/>
       <c r="I444" s="13"/>
       <c r="J444" s="14"/>
-      <c r="K444" s="8"/>
+      <c r="K444" s="31" t="s">
+        <v>490</v>
+      </c>
       <c r="L444" s="8"/>
       <c r="M444" s="8"/>
       <c r="N444" s="8"/>
@@ -22680,17 +22923,31 @@
       <c r="Z444" s="8"/>
     </row>
     <row r="445" ht="18.0" customHeight="1">
-      <c r="A445" s="2"/>
-      <c r="B445" s="8"/>
-      <c r="C445" s="2"/>
-      <c r="D445" s="2"/>
-      <c r="E445" s="8"/>
-      <c r="F445" s="13"/>
+      <c r="A445" s="34">
+        <v>443.0</v>
+      </c>
+      <c r="B445" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C445" s="39">
+        <v>44024.0</v>
+      </c>
+      <c r="D445" s="33">
+        <v>44024.0</v>
+      </c>
+      <c r="E445" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F445" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G445" s="2"/>
       <c r="H445" s="13"/>
       <c r="I445" s="13"/>
       <c r="J445" s="14"/>
-      <c r="K445" s="8"/>
+      <c r="K445" s="31" t="s">
+        <v>490</v>
+      </c>
       <c r="L445" s="8"/>
       <c r="M445" s="8"/>
       <c r="N445" s="8"/>
@@ -22708,17 +22965,31 @@
       <c r="Z445" s="8"/>
     </row>
     <row r="446" ht="18.0" customHeight="1">
-      <c r="A446" s="2"/>
-      <c r="B446" s="8"/>
-      <c r="C446" s="2"/>
-      <c r="D446" s="2"/>
-      <c r="E446" s="8"/>
-      <c r="F446" s="13"/>
+      <c r="A446" s="34">
+        <v>444.0</v>
+      </c>
+      <c r="B446" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C446" s="39">
+        <v>44024.0</v>
+      </c>
+      <c r="D446" s="33">
+        <v>44024.0</v>
+      </c>
+      <c r="E446" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F446" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G446" s="2"/>
       <c r="H446" s="13"/>
       <c r="I446" s="13"/>
       <c r="J446" s="14"/>
-      <c r="K446" s="8"/>
+      <c r="K446" s="31" t="s">
+        <v>490</v>
+      </c>
       <c r="L446" s="8"/>
       <c r="M446" s="8"/>
       <c r="N446" s="8"/>
@@ -22736,17 +23007,31 @@
       <c r="Z446" s="8"/>
     </row>
     <row r="447" ht="18.0" customHeight="1">
-      <c r="A447" s="2"/>
-      <c r="B447" s="8"/>
-      <c r="C447" s="2"/>
-      <c r="D447" s="2"/>
-      <c r="E447" s="8"/>
-      <c r="F447" s="13"/>
+      <c r="A447" s="34">
+        <v>445.0</v>
+      </c>
+      <c r="B447" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C447" s="39">
+        <v>44024.0</v>
+      </c>
+      <c r="D447" s="33">
+        <v>44024.0</v>
+      </c>
+      <c r="E447" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F447" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G447" s="2"/>
       <c r="H447" s="13"/>
       <c r="I447" s="13"/>
       <c r="J447" s="14"/>
-      <c r="K447" s="8"/>
+      <c r="K447" s="31" t="s">
+        <v>490</v>
+      </c>
       <c r="L447" s="8"/>
       <c r="M447" s="8"/>
       <c r="N447" s="8"/>
@@ -22764,17 +23049,29 @@
       <c r="Z447" s="8"/>
     </row>
     <row r="448" ht="18.0" customHeight="1">
-      <c r="A448" s="2"/>
-      <c r="B448" s="8"/>
-      <c r="C448" s="2"/>
-      <c r="D448" s="2"/>
+      <c r="A448" s="34">
+        <v>446.0</v>
+      </c>
+      <c r="B448" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C448" s="39">
+        <v>44024.0</v>
+      </c>
+      <c r="D448" s="33">
+        <v>44024.0</v>
+      </c>
       <c r="E448" s="8"/>
-      <c r="F448" s="13"/>
+      <c r="F448" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G448" s="2"/>
       <c r="H448" s="13"/>
       <c r="I448" s="13"/>
       <c r="J448" s="14"/>
-      <c r="K448" s="8"/>
+      <c r="K448" s="31" t="s">
+        <v>490</v>
+      </c>
       <c r="L448" s="8"/>
       <c r="M448" s="8"/>
       <c r="N448" s="8"/>
@@ -22792,17 +23089,31 @@
       <c r="Z448" s="8"/>
     </row>
     <row r="449" ht="18.0" customHeight="1">
-      <c r="A449" s="2"/>
-      <c r="B449" s="8"/>
-      <c r="C449" s="2"/>
-      <c r="D449" s="2"/>
-      <c r="E449" s="8"/>
-      <c r="F449" s="13"/>
+      <c r="A449" s="34">
+        <v>447.0</v>
+      </c>
+      <c r="B449" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C449" s="39">
+        <v>44024.0</v>
+      </c>
+      <c r="D449" s="33">
+        <v>44024.0</v>
+      </c>
+      <c r="E449" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F449" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G449" s="2"/>
       <c r="H449" s="13"/>
       <c r="I449" s="13"/>
       <c r="J449" s="14"/>
-      <c r="K449" s="8"/>
+      <c r="K449" s="31" t="s">
+        <v>490</v>
+      </c>
       <c r="L449" s="8"/>
       <c r="M449" s="8"/>
       <c r="N449" s="8"/>
@@ -22820,17 +23131,31 @@
       <c r="Z449" s="8"/>
     </row>
     <row r="450" ht="18.0" customHeight="1">
-      <c r="A450" s="2"/>
-      <c r="B450" s="8"/>
-      <c r="C450" s="2"/>
-      <c r="D450" s="2"/>
-      <c r="E450" s="8"/>
-      <c r="F450" s="13"/>
+      <c r="A450" s="34">
+        <v>448.0</v>
+      </c>
+      <c r="B450" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="C450" s="39">
+        <v>44025.0</v>
+      </c>
+      <c r="D450" s="33">
+        <v>44025.0</v>
+      </c>
+      <c r="E450" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F450" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G450" s="2"/>
       <c r="H450" s="13"/>
       <c r="I450" s="13"/>
       <c r="J450" s="14"/>
-      <c r="K450" s="8"/>
+      <c r="K450" s="31" t="s">
+        <v>492</v>
+      </c>
       <c r="L450" s="8"/>
       <c r="M450" s="8"/>
       <c r="N450" s="8"/>
@@ -22848,17 +23173,31 @@
       <c r="Z450" s="8"/>
     </row>
     <row r="451" ht="18.0" customHeight="1">
-      <c r="A451" s="2"/>
-      <c r="B451" s="8"/>
-      <c r="C451" s="2"/>
-      <c r="D451" s="2"/>
-      <c r="E451" s="8"/>
-      <c r="F451" s="13"/>
+      <c r="A451" s="34">
+        <v>449.0</v>
+      </c>
+      <c r="B451" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="C451" s="39">
+        <v>44025.0</v>
+      </c>
+      <c r="D451" s="33">
+        <v>44025.0</v>
+      </c>
+      <c r="E451" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F451" s="24" t="s">
+        <v>396</v>
+      </c>
       <c r="G451" s="2"/>
       <c r="H451" s="13"/>
       <c r="I451" s="13"/>
       <c r="J451" s="14"/>
-      <c r="K451" s="8"/>
+      <c r="K451" s="31" t="s">
+        <v>492</v>
+      </c>
       <c r="L451" s="8"/>
       <c r="M451" s="8"/>
       <c r="N451" s="8"/>
@@ -22876,17 +23215,31 @@
       <c r="Z451" s="8"/>
     </row>
     <row r="452" ht="18.0" customHeight="1">
-      <c r="A452" s="2"/>
-      <c r="B452" s="8"/>
-      <c r="C452" s="2"/>
-      <c r="D452" s="2"/>
-      <c r="E452" s="8"/>
-      <c r="F452" s="13"/>
+      <c r="A452" s="34">
+        <v>450.0</v>
+      </c>
+      <c r="B452" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="C452" s="39">
+        <v>44025.0</v>
+      </c>
+      <c r="D452" s="33">
+        <v>44025.0</v>
+      </c>
+      <c r="E452" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F452" s="24" t="s">
+        <v>493</v>
+      </c>
       <c r="G452" s="2"/>
       <c r="H452" s="13"/>
       <c r="I452" s="13"/>
       <c r="J452" s="14"/>
-      <c r="K452" s="8"/>
+      <c r="K452" s="31" t="s">
+        <v>492</v>
+      </c>
       <c r="L452" s="8"/>
       <c r="M452" s="8"/>
       <c r="N452" s="8"/>
@@ -22904,17 +23257,31 @@
       <c r="Z452" s="8"/>
     </row>
     <row r="453" ht="18.0" customHeight="1">
-      <c r="A453" s="2"/>
-      <c r="B453" s="8"/>
-      <c r="C453" s="2"/>
-      <c r="D453" s="2"/>
-      <c r="E453" s="8"/>
-      <c r="F453" s="13"/>
+      <c r="A453" s="34">
+        <v>451.0</v>
+      </c>
+      <c r="B453" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="C453" s="39">
+        <v>44025.0</v>
+      </c>
+      <c r="D453" s="33">
+        <v>44025.0</v>
+      </c>
+      <c r="E453" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F453" s="24" t="s">
+        <v>396</v>
+      </c>
       <c r="G453" s="2"/>
       <c r="H453" s="13"/>
       <c r="I453" s="13"/>
       <c r="J453" s="14"/>
-      <c r="K453" s="8"/>
+      <c r="K453" s="31" t="s">
+        <v>492</v>
+      </c>
       <c r="L453" s="8"/>
       <c r="M453" s="8"/>
       <c r="N453" s="8"/>
@@ -22932,17 +23299,31 @@
       <c r="Z453" s="8"/>
     </row>
     <row r="454" ht="18.0" customHeight="1">
-      <c r="A454" s="2"/>
-      <c r="B454" s="8"/>
-      <c r="C454" s="2"/>
-      <c r="D454" s="2"/>
-      <c r="E454" s="8"/>
-      <c r="F454" s="13"/>
+      <c r="A454" s="34">
+        <v>452.0</v>
+      </c>
+      <c r="B454" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="C454" s="39">
+        <v>44025.0</v>
+      </c>
+      <c r="D454" s="33">
+        <v>44025.0</v>
+      </c>
+      <c r="E454" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F454" s="24" t="s">
+        <v>396</v>
+      </c>
       <c r="G454" s="2"/>
       <c r="H454" s="13"/>
       <c r="I454" s="13"/>
       <c r="J454" s="14"/>
-      <c r="K454" s="8"/>
+      <c r="K454" s="31" t="s">
+        <v>492</v>
+      </c>
       <c r="L454" s="8"/>
       <c r="M454" s="8"/>
       <c r="N454" s="8"/>
@@ -22960,17 +23341,31 @@
       <c r="Z454" s="8"/>
     </row>
     <row r="455" ht="18.0" customHeight="1">
-      <c r="A455" s="2"/>
-      <c r="B455" s="8"/>
-      <c r="C455" s="2"/>
-      <c r="D455" s="2"/>
-      <c r="E455" s="8"/>
-      <c r="F455" s="13"/>
+      <c r="A455" s="34">
+        <v>453.0</v>
+      </c>
+      <c r="B455" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="C455" s="39">
+        <v>44025.0</v>
+      </c>
+      <c r="D455" s="33">
+        <v>44025.0</v>
+      </c>
+      <c r="E455" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F455" s="24" t="s">
+        <v>396</v>
+      </c>
       <c r="G455" s="2"/>
       <c r="H455" s="13"/>
       <c r="I455" s="13"/>
       <c r="J455" s="14"/>
-      <c r="K455" s="8"/>
+      <c r="K455" s="31" t="s">
+        <v>492</v>
+      </c>
       <c r="L455" s="8"/>
       <c r="M455" s="8"/>
       <c r="N455" s="8"/>
@@ -22988,17 +23383,31 @@
       <c r="Z455" s="8"/>
     </row>
     <row r="456" ht="18.0" customHeight="1">
-      <c r="A456" s="2"/>
-      <c r="B456" s="8"/>
-      <c r="C456" s="2"/>
-      <c r="D456" s="2"/>
-      <c r="E456" s="8"/>
-      <c r="F456" s="13"/>
+      <c r="A456" s="34">
+        <v>454.0</v>
+      </c>
+      <c r="B456" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="C456" s="39">
+        <v>44025.0</v>
+      </c>
+      <c r="D456" s="33">
+        <v>44025.0</v>
+      </c>
+      <c r="E456" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F456" s="24" t="s">
+        <v>396</v>
+      </c>
       <c r="G456" s="2"/>
       <c r="H456" s="13"/>
       <c r="I456" s="13"/>
       <c r="J456" s="14"/>
-      <c r="K456" s="8"/>
+      <c r="K456" s="31" t="s">
+        <v>492</v>
+      </c>
       <c r="L456" s="8"/>
       <c r="M456" s="8"/>
       <c r="N456" s="8"/>
@@ -23016,17 +23425,31 @@
       <c r="Z456" s="8"/>
     </row>
     <row r="457" ht="18.0" customHeight="1">
-      <c r="A457" s="2"/>
-      <c r="B457" s="8"/>
-      <c r="C457" s="2"/>
-      <c r="D457" s="2"/>
-      <c r="E457" s="8"/>
-      <c r="F457" s="13"/>
+      <c r="A457" s="34">
+        <v>455.0</v>
+      </c>
+      <c r="B457" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="C457" s="39">
+        <v>44025.0</v>
+      </c>
+      <c r="D457" s="33">
+        <v>44025.0</v>
+      </c>
+      <c r="E457" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F457" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G457" s="2"/>
       <c r="H457" s="13"/>
       <c r="I457" s="13"/>
       <c r="J457" s="14"/>
-      <c r="K457" s="8"/>
+      <c r="K457" s="31" t="s">
+        <v>494</v>
+      </c>
       <c r="L457" s="8"/>
       <c r="M457" s="8"/>
       <c r="N457" s="8"/>
@@ -23044,17 +23467,31 @@
       <c r="Z457" s="8"/>
     </row>
     <row r="458" ht="18.0" customHeight="1">
-      <c r="A458" s="2"/>
-      <c r="B458" s="8"/>
-      <c r="C458" s="2"/>
-      <c r="D458" s="2"/>
-      <c r="E458" s="8"/>
-      <c r="F458" s="13"/>
+      <c r="A458" s="34">
+        <v>456.0</v>
+      </c>
+      <c r="B458" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="C458" s="39">
+        <v>44025.0</v>
+      </c>
+      <c r="D458" s="33">
+        <v>44025.0</v>
+      </c>
+      <c r="E458" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F458" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G458" s="2"/>
       <c r="H458" s="13"/>
       <c r="I458" s="13"/>
       <c r="J458" s="14"/>
-      <c r="K458" s="8"/>
+      <c r="K458" s="31" t="s">
+        <v>494</v>
+      </c>
       <c r="L458" s="8"/>
       <c r="M458" s="8"/>
       <c r="N458" s="8"/>
@@ -23072,17 +23509,31 @@
       <c r="Z458" s="8"/>
     </row>
     <row r="459" ht="18.0" customHeight="1">
-      <c r="A459" s="2"/>
-      <c r="B459" s="8"/>
-      <c r="C459" s="2"/>
-      <c r="D459" s="2"/>
-      <c r="E459" s="8"/>
-      <c r="F459" s="13"/>
+      <c r="A459" s="34">
+        <v>457.0</v>
+      </c>
+      <c r="B459" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="C459" s="39">
+        <v>44026.0</v>
+      </c>
+      <c r="D459" s="33">
+        <v>44026.0</v>
+      </c>
+      <c r="E459" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F459" s="24" t="s">
+        <v>366</v>
+      </c>
       <c r="G459" s="2"/>
       <c r="H459" s="13"/>
       <c r="I459" s="13"/>
       <c r="J459" s="14"/>
-      <c r="K459" s="8"/>
+      <c r="K459" s="31" t="s">
+        <v>496</v>
+      </c>
       <c r="L459" s="8"/>
       <c r="M459" s="8"/>
       <c r="N459" s="8"/>
@@ -23100,17 +23551,31 @@
       <c r="Z459" s="8"/>
     </row>
     <row r="460" ht="18.0" customHeight="1">
-      <c r="A460" s="2"/>
-      <c r="B460" s="8"/>
-      <c r="C460" s="2"/>
-      <c r="D460" s="2"/>
-      <c r="E460" s="8"/>
-      <c r="F460" s="13"/>
+      <c r="A460" s="34">
+        <v>458.0</v>
+      </c>
+      <c r="B460" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="C460" s="39">
+        <v>44026.0</v>
+      </c>
+      <c r="D460" s="33">
+        <v>44026.0</v>
+      </c>
+      <c r="E460" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F460" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G460" s="2"/>
       <c r="H460" s="13"/>
       <c r="I460" s="13"/>
       <c r="J460" s="14"/>
-      <c r="K460" s="8"/>
+      <c r="K460" s="31" t="s">
+        <v>497</v>
+      </c>
       <c r="L460" s="8"/>
       <c r="M460" s="8"/>
       <c r="N460" s="8"/>
@@ -23128,17 +23593,31 @@
       <c r="Z460" s="8"/>
     </row>
     <row r="461" ht="18.0" customHeight="1">
-      <c r="A461" s="2"/>
-      <c r="B461" s="8"/>
-      <c r="C461" s="2"/>
-      <c r="D461" s="2"/>
-      <c r="E461" s="8"/>
-      <c r="F461" s="13"/>
+      <c r="A461" s="34">
+        <v>459.0</v>
+      </c>
+      <c r="B461" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="C461" s="39">
+        <v>44026.0</v>
+      </c>
+      <c r="D461" s="33">
+        <v>44026.0</v>
+      </c>
+      <c r="E461" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F461" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G461" s="2"/>
       <c r="H461" s="13"/>
       <c r="I461" s="13"/>
       <c r="J461" s="14"/>
-      <c r="K461" s="8"/>
+      <c r="K461" s="31" t="s">
+        <v>497</v>
+      </c>
       <c r="L461" s="8"/>
       <c r="M461" s="8"/>
       <c r="N461" s="8"/>
@@ -23156,17 +23635,31 @@
       <c r="Z461" s="8"/>
     </row>
     <row r="462" ht="18.0" customHeight="1">
-      <c r="A462" s="2"/>
-      <c r="B462" s="8"/>
-      <c r="C462" s="2"/>
-      <c r="D462" s="2"/>
-      <c r="E462" s="8"/>
-      <c r="F462" s="13"/>
+      <c r="A462" s="34">
+        <v>460.0</v>
+      </c>
+      <c r="B462" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="C462" s="39">
+        <v>44026.0</v>
+      </c>
+      <c r="D462" s="33">
+        <v>44026.0</v>
+      </c>
+      <c r="E462" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F462" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G462" s="2"/>
       <c r="H462" s="13"/>
       <c r="I462" s="13"/>
       <c r="J462" s="14"/>
-      <c r="K462" s="8"/>
+      <c r="K462" s="31" t="s">
+        <v>497</v>
+      </c>
       <c r="L462" s="8"/>
       <c r="M462" s="8"/>
       <c r="N462" s="8"/>
@@ -23184,17 +23677,31 @@
       <c r="Z462" s="8"/>
     </row>
     <row r="463" ht="18.0" customHeight="1">
-      <c r="A463" s="2"/>
-      <c r="B463" s="8"/>
-      <c r="C463" s="2"/>
-      <c r="D463" s="2"/>
-      <c r="E463" s="8"/>
-      <c r="F463" s="13"/>
+      <c r="A463" s="34">
+        <v>461.0</v>
+      </c>
+      <c r="B463" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="C463" s="39">
+        <v>44026.0</v>
+      </c>
+      <c r="D463" s="33">
+        <v>44026.0</v>
+      </c>
+      <c r="E463" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F463" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G463" s="2"/>
       <c r="H463" s="13"/>
       <c r="I463" s="13"/>
       <c r="J463" s="14"/>
-      <c r="K463" s="8"/>
+      <c r="K463" s="31" t="s">
+        <v>497</v>
+      </c>
       <c r="L463" s="8"/>
       <c r="M463" s="8"/>
       <c r="N463" s="8"/>
@@ -23212,17 +23719,31 @@
       <c r="Z463" s="8"/>
     </row>
     <row r="464" ht="18.0" customHeight="1">
-      <c r="A464" s="2"/>
-      <c r="B464" s="8"/>
-      <c r="C464" s="2"/>
-      <c r="D464" s="2"/>
-      <c r="E464" s="8"/>
-      <c r="F464" s="13"/>
+      <c r="A464" s="34">
+        <v>462.0</v>
+      </c>
+      <c r="B464" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="C464" s="39">
+        <v>44026.0</v>
+      </c>
+      <c r="D464" s="33">
+        <v>44026.0</v>
+      </c>
+      <c r="E464" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F464" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G464" s="2"/>
       <c r="H464" s="13"/>
       <c r="I464" s="13"/>
       <c r="J464" s="14"/>
-      <c r="K464" s="8"/>
+      <c r="K464" s="31" t="s">
+        <v>497</v>
+      </c>
       <c r="L464" s="8"/>
       <c r="M464" s="8"/>
       <c r="N464" s="8"/>
@@ -23240,17 +23761,31 @@
       <c r="Z464" s="8"/>
     </row>
     <row r="465" ht="18.0" customHeight="1">
-      <c r="A465" s="2"/>
-      <c r="B465" s="8"/>
-      <c r="C465" s="2"/>
-      <c r="D465" s="2"/>
-      <c r="E465" s="8"/>
-      <c r="F465" s="13"/>
+      <c r="A465" s="34">
+        <v>463.0</v>
+      </c>
+      <c r="B465" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="C465" s="39">
+        <v>44026.0</v>
+      </c>
+      <c r="D465" s="33">
+        <v>44026.0</v>
+      </c>
+      <c r="E465" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F465" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G465" s="2"/>
       <c r="H465" s="13"/>
       <c r="I465" s="13"/>
       <c r="J465" s="14"/>
-      <c r="K465" s="8"/>
+      <c r="K465" s="31" t="s">
+        <v>497</v>
+      </c>
       <c r="L465" s="8"/>
       <c r="M465" s="8"/>
       <c r="N465" s="8"/>
@@ -23268,17 +23803,29 @@
       <c r="Z465" s="8"/>
     </row>
     <row r="466" ht="18.0" customHeight="1">
-      <c r="A466" s="2"/>
-      <c r="B466" s="8"/>
-      <c r="C466" s="2"/>
-      <c r="D466" s="2"/>
+      <c r="A466" s="34">
+        <v>464.0</v>
+      </c>
+      <c r="B466" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="C466" s="39">
+        <v>44026.0</v>
+      </c>
+      <c r="D466" s="33">
+        <v>44026.0</v>
+      </c>
       <c r="E466" s="8"/>
-      <c r="F466" s="13"/>
+      <c r="F466" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G466" s="2"/>
       <c r="H466" s="13"/>
       <c r="I466" s="13"/>
       <c r="J466" s="14"/>
-      <c r="K466" s="8"/>
+      <c r="K466" s="31" t="s">
+        <v>497</v>
+      </c>
       <c r="L466" s="8"/>
       <c r="M466" s="8"/>
       <c r="N466" s="8"/>
@@ -23296,17 +23843,31 @@
       <c r="Z466" s="8"/>
     </row>
     <row r="467" ht="18.0" customHeight="1">
-      <c r="A467" s="2"/>
-      <c r="B467" s="8"/>
-      <c r="C467" s="2"/>
-      <c r="D467" s="2"/>
-      <c r="E467" s="8"/>
-      <c r="F467" s="13"/>
+      <c r="A467" s="34">
+        <v>465.0</v>
+      </c>
+      <c r="B467" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="C467" s="39">
+        <v>44026.0</v>
+      </c>
+      <c r="D467" s="33">
+        <v>44026.0</v>
+      </c>
+      <c r="E467" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F467" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G467" s="2"/>
       <c r="H467" s="13"/>
       <c r="I467" s="13"/>
       <c r="J467" s="14"/>
-      <c r="K467" s="8"/>
+      <c r="K467" s="31" t="s">
+        <v>497</v>
+      </c>
       <c r="L467" s="8"/>
       <c r="M467" s="8"/>
       <c r="N467" s="8"/>
@@ -23324,17 +23885,31 @@
       <c r="Z467" s="8"/>
     </row>
     <row r="468" ht="18.0" customHeight="1">
-      <c r="A468" s="2"/>
-      <c r="B468" s="8"/>
-      <c r="C468" s="2"/>
-      <c r="D468" s="2"/>
-      <c r="E468" s="8"/>
-      <c r="F468" s="13"/>
+      <c r="A468" s="34">
+        <v>466.0</v>
+      </c>
+      <c r="B468" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="C468" s="39">
+        <v>44026.0</v>
+      </c>
+      <c r="D468" s="33">
+        <v>44026.0</v>
+      </c>
+      <c r="E468" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F468" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G468" s="2"/>
       <c r="H468" s="13"/>
       <c r="I468" s="13"/>
       <c r="J468" s="14"/>
-      <c r="K468" s="8"/>
+      <c r="K468" s="31" t="s">
+        <v>497</v>
+      </c>
       <c r="L468" s="8"/>
       <c r="M468" s="8"/>
       <c r="N468" s="8"/>
@@ -23352,17 +23927,31 @@
       <c r="Z468" s="8"/>
     </row>
     <row r="469" ht="18.0" customHeight="1">
-      <c r="A469" s="2"/>
-      <c r="B469" s="8"/>
-      <c r="C469" s="2"/>
-      <c r="D469" s="2"/>
-      <c r="E469" s="8"/>
-      <c r="F469" s="13"/>
+      <c r="A469" s="34">
+        <v>467.0</v>
+      </c>
+      <c r="B469" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="C469" s="39">
+        <v>44026.0</v>
+      </c>
+      <c r="D469" s="33">
+        <v>44026.0</v>
+      </c>
+      <c r="E469" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F469" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G469" s="2"/>
       <c r="H469" s="13"/>
       <c r="I469" s="13"/>
       <c r="J469" s="14"/>
-      <c r="K469" s="8"/>
+      <c r="K469" s="31" t="s">
+        <v>497</v>
+      </c>
       <c r="L469" s="8"/>
       <c r="M469" s="8"/>
       <c r="N469" s="8"/>
@@ -23380,17 +23969,31 @@
       <c r="Z469" s="8"/>
     </row>
     <row r="470" ht="18.0" customHeight="1">
-      <c r="A470" s="2"/>
-      <c r="B470" s="8"/>
-      <c r="C470" s="2"/>
-      <c r="D470" s="2"/>
-      <c r="E470" s="8"/>
-      <c r="F470" s="13"/>
+      <c r="A470" s="34">
+        <v>468.0</v>
+      </c>
+      <c r="B470" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="C470" s="39">
+        <v>44026.0</v>
+      </c>
+      <c r="D470" s="33">
+        <v>44026.0</v>
+      </c>
+      <c r="E470" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F470" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G470" s="2"/>
       <c r="H470" s="13"/>
       <c r="I470" s="13"/>
       <c r="J470" s="14"/>
-      <c r="K470" s="8"/>
+      <c r="K470" s="31" t="s">
+        <v>497</v>
+      </c>
       <c r="L470" s="8"/>
       <c r="M470" s="8"/>
       <c r="N470" s="8"/>
@@ -23408,7 +24011,7 @@
       <c r="Z470" s="8"/>
     </row>
     <row r="471" ht="18.0" customHeight="1">
-      <c r="A471" s="2"/>
+      <c r="A471" s="34"/>
       <c r="B471" s="8"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -23436,7 +24039,7 @@
       <c r="Z471" s="8"/>
     </row>
     <row r="472" ht="18.0" customHeight="1">
-      <c r="A472" s="2"/>
+      <c r="A472" s="34"/>
       <c r="B472" s="8"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -23464,7 +24067,7 @@
       <c r="Z472" s="8"/>
     </row>
     <row r="473" ht="18.0" customHeight="1">
-      <c r="A473" s="2"/>
+      <c r="A473" s="34"/>
       <c r="B473" s="8"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -38534,10 +39137,48 @@
     <hyperlink r:id="rId254" ref="K430"/>
     <hyperlink r:id="rId255" ref="K431"/>
     <hyperlink r:id="rId256" ref="K432"/>
+    <hyperlink r:id="rId257" ref="K433"/>
+    <hyperlink r:id="rId258" ref="K434"/>
+    <hyperlink r:id="rId259" ref="K435"/>
+    <hyperlink r:id="rId260" ref="K436"/>
+    <hyperlink r:id="rId261" ref="K437"/>
+    <hyperlink r:id="rId262" ref="K438"/>
+    <hyperlink r:id="rId263" ref="K439"/>
+    <hyperlink r:id="rId264" ref="K440"/>
+    <hyperlink r:id="rId265" ref="K441"/>
+    <hyperlink r:id="rId266" ref="K442"/>
+    <hyperlink r:id="rId267" ref="K443"/>
+    <hyperlink r:id="rId268" ref="K444"/>
+    <hyperlink r:id="rId269" ref="K445"/>
+    <hyperlink r:id="rId270" ref="K446"/>
+    <hyperlink r:id="rId271" ref="K447"/>
+    <hyperlink r:id="rId272" ref="K448"/>
+    <hyperlink r:id="rId273" ref="K449"/>
+    <hyperlink r:id="rId274" ref="K450"/>
+    <hyperlink r:id="rId275" ref="K451"/>
+    <hyperlink r:id="rId276" ref="K452"/>
+    <hyperlink r:id="rId277" ref="K453"/>
+    <hyperlink r:id="rId278" ref="K454"/>
+    <hyperlink r:id="rId279" ref="K455"/>
+    <hyperlink r:id="rId280" ref="K456"/>
+    <hyperlink r:id="rId281" ref="K457"/>
+    <hyperlink r:id="rId282" ref="K458"/>
+    <hyperlink r:id="rId283" ref="K459"/>
+    <hyperlink r:id="rId284" ref="K460"/>
+    <hyperlink r:id="rId285" ref="K461"/>
+    <hyperlink r:id="rId286" ref="K462"/>
+    <hyperlink r:id="rId287" ref="K463"/>
+    <hyperlink r:id="rId288" ref="K464"/>
+    <hyperlink r:id="rId289" ref="K465"/>
+    <hyperlink r:id="rId290" ref="K466"/>
+    <hyperlink r:id="rId291" ref="K467"/>
+    <hyperlink r:id="rId292" ref="K468"/>
+    <hyperlink r:id="rId293" ref="K469"/>
+    <hyperlink r:id="rId294" ref="K470"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId257"/>
+  <drawing r:id="rId295"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="495">
-  <si>
-    <t>2020-07-14T23:10:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="496">
+  <si>
+    <t>2020-07-15T19:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1613,9 +1613,6 @@
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272427/200710oshirase(302-310).pdf</t>
   </si>
   <si>
-    <t>○</t>
-  </si>
-  <si>
     <t>2020-07-11T08:00:00.000Z</t>
   </si>
   <si>
@@ -1650,6 +1647,12 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272550/200714oshirase(329-339).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-15T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200715-469-472.pdf</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1793,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1919,6 +1922,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22011,7 +22017,9 @@
         <v>480</v>
       </c>
       <c r="L423" s="8"/>
-      <c r="M423" s="8"/>
+      <c r="M423" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N423" s="8"/>
       <c r="O423" s="8"/>
       <c r="P423" s="8"/>
@@ -22264,7 +22272,7 @@
       </c>
       <c r="L429" s="8"/>
       <c r="M429" s="16" t="s">
-        <v>482</v>
+        <v>20</v>
       </c>
       <c r="N429" s="8"/>
       <c r="O429" s="8"/>
@@ -22411,7 +22419,7 @@
         <v>431.0</v>
       </c>
       <c r="B433" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C433" s="39">
         <v>44023.0</v>
@@ -22430,7 +22438,7 @@
       <c r="I433" s="13"/>
       <c r="J433" s="14"/>
       <c r="K433" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L433" s="8"/>
       <c r="M433" s="8"/>
@@ -22453,7 +22461,7 @@
         <v>432.0</v>
       </c>
       <c r="B434" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C434" s="39">
         <v>44023.0</v>
@@ -22472,7 +22480,7 @@
       <c r="I434" s="13"/>
       <c r="J434" s="14"/>
       <c r="K434" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L434" s="8"/>
       <c r="M434" s="8"/>
@@ -22495,7 +22503,7 @@
         <v>433.0</v>
       </c>
       <c r="B435" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C435" s="39">
         <v>44023.0</v>
@@ -22514,7 +22522,7 @@
       <c r="I435" s="13"/>
       <c r="J435" s="14"/>
       <c r="K435" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L435" s="8"/>
       <c r="M435" s="8"/>
@@ -22537,7 +22545,7 @@
         <v>434.0</v>
       </c>
       <c r="B436" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C436" s="39">
         <v>44023.0</v>
@@ -22556,7 +22564,7 @@
       <c r="I436" s="13"/>
       <c r="J436" s="14"/>
       <c r="K436" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L436" s="8"/>
       <c r="M436" s="8"/>
@@ -22579,7 +22587,7 @@
         <v>435.0</v>
       </c>
       <c r="B437" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C437" s="39">
         <v>44023.0</v>
@@ -22598,7 +22606,7 @@
       <c r="I437" s="13"/>
       <c r="J437" s="14"/>
       <c r="K437" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L437" s="8"/>
       <c r="M437" s="8"/>
@@ -22621,7 +22629,7 @@
         <v>436.0</v>
       </c>
       <c r="B438" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C438" s="39">
         <v>44023.0</v>
@@ -22640,7 +22648,7 @@
       <c r="I438" s="13"/>
       <c r="J438" s="14"/>
       <c r="K438" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L438" s="8"/>
       <c r="M438" s="8"/>
@@ -22663,7 +22671,7 @@
         <v>437.0</v>
       </c>
       <c r="B439" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C439" s="39">
         <v>44023.0</v>
@@ -22682,7 +22690,7 @@
       <c r="I439" s="13"/>
       <c r="J439" s="14"/>
       <c r="K439" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L439" s="8"/>
       <c r="M439" s="8"/>
@@ -22705,7 +22713,7 @@
         <v>438.0</v>
       </c>
       <c r="B440" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C440" s="39">
         <v>44023.0</v>
@@ -22724,7 +22732,7 @@
       <c r="I440" s="13"/>
       <c r="J440" s="14"/>
       <c r="K440" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L440" s="8"/>
       <c r="M440" s="8"/>
@@ -22747,7 +22755,7 @@
         <v>439.0</v>
       </c>
       <c r="B441" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C441" s="39">
         <v>44023.0</v>
@@ -22766,7 +22774,7 @@
       <c r="I441" s="13"/>
       <c r="J441" s="14"/>
       <c r="K441" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L441" s="8"/>
       <c r="M441" s="8"/>
@@ -22789,7 +22797,7 @@
         <v>440.0</v>
       </c>
       <c r="B442" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C442" s="39">
         <v>44024.0</v>
@@ -22808,7 +22816,7 @@
       <c r="I442" s="13"/>
       <c r="J442" s="14"/>
       <c r="K442" s="31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L442" s="8"/>
       <c r="M442" s="8"/>
@@ -22831,7 +22839,7 @@
         <v>441.0</v>
       </c>
       <c r="B443" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C443" s="39">
         <v>44024.0</v>
@@ -22850,7 +22858,7 @@
       <c r="I443" s="13"/>
       <c r="J443" s="14"/>
       <c r="K443" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L443" s="8"/>
       <c r="M443" s="8"/>
@@ -22873,7 +22881,7 @@
         <v>442.0</v>
       </c>
       <c r="B444" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C444" s="39">
         <v>44024.0</v>
@@ -22892,7 +22900,7 @@
       <c r="I444" s="13"/>
       <c r="J444" s="14"/>
       <c r="K444" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L444" s="8"/>
       <c r="M444" s="8"/>
@@ -22915,7 +22923,7 @@
         <v>443.0</v>
       </c>
       <c r="B445" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C445" s="39">
         <v>44024.0</v>
@@ -22934,7 +22942,7 @@
       <c r="I445" s="13"/>
       <c r="J445" s="14"/>
       <c r="K445" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L445" s="8"/>
       <c r="M445" s="8"/>
@@ -22957,7 +22965,7 @@
         <v>444.0</v>
       </c>
       <c r="B446" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C446" s="39">
         <v>44024.0</v>
@@ -22976,7 +22984,7 @@
       <c r="I446" s="13"/>
       <c r="J446" s="14"/>
       <c r="K446" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L446" s="8"/>
       <c r="M446" s="8"/>
@@ -22999,7 +23007,7 @@
         <v>445.0</v>
       </c>
       <c r="B447" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C447" s="39">
         <v>44024.0</v>
@@ -23018,7 +23026,7 @@
       <c r="I447" s="13"/>
       <c r="J447" s="14"/>
       <c r="K447" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L447" s="8"/>
       <c r="M447" s="8"/>
@@ -23041,7 +23049,7 @@
         <v>446.0</v>
       </c>
       <c r="B448" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C448" s="39">
         <v>44024.0</v>
@@ -23058,7 +23066,7 @@
       <c r="I448" s="13"/>
       <c r="J448" s="14"/>
       <c r="K448" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L448" s="8"/>
       <c r="M448" s="8"/>
@@ -23081,7 +23089,7 @@
         <v>447.0</v>
       </c>
       <c r="B449" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C449" s="39">
         <v>44024.0</v>
@@ -23100,7 +23108,7 @@
       <c r="I449" s="13"/>
       <c r="J449" s="14"/>
       <c r="K449" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L449" s="8"/>
       <c r="M449" s="8"/>
@@ -23123,7 +23131,7 @@
         <v>448.0</v>
       </c>
       <c r="B450" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C450" s="39">
         <v>44025.0</v>
@@ -23142,7 +23150,7 @@
       <c r="I450" s="13"/>
       <c r="J450" s="14"/>
       <c r="K450" s="31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L450" s="8"/>
       <c r="M450" s="8"/>
@@ -23165,7 +23173,7 @@
         <v>449.0</v>
       </c>
       <c r="B451" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C451" s="39">
         <v>44025.0</v>
@@ -23184,7 +23192,7 @@
       <c r="I451" s="13"/>
       <c r="J451" s="14"/>
       <c r="K451" s="31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L451" s="8"/>
       <c r="M451" s="8"/>
@@ -23207,7 +23215,7 @@
         <v>450.0</v>
       </c>
       <c r="B452" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C452" s="39">
         <v>44025.0</v>
@@ -23219,14 +23227,14 @@
         <v>145</v>
       </c>
       <c r="F452" s="24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G452" s="2"/>
       <c r="H452" s="13"/>
       <c r="I452" s="13"/>
       <c r="J452" s="14"/>
       <c r="K452" s="31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L452" s="8"/>
       <c r="M452" s="8"/>
@@ -23249,7 +23257,7 @@
         <v>451.0</v>
       </c>
       <c r="B453" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C453" s="39">
         <v>44025.0</v>
@@ -23268,7 +23276,7 @@
       <c r="I453" s="13"/>
       <c r="J453" s="14"/>
       <c r="K453" s="31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L453" s="8"/>
       <c r="M453" s="8"/>
@@ -23291,7 +23299,7 @@
         <v>452.0</v>
       </c>
       <c r="B454" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C454" s="39">
         <v>44025.0</v>
@@ -23310,7 +23318,7 @@
       <c r="I454" s="13"/>
       <c r="J454" s="14"/>
       <c r="K454" s="31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L454" s="8"/>
       <c r="M454" s="8"/>
@@ -23333,7 +23341,7 @@
         <v>453.0</v>
       </c>
       <c r="B455" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C455" s="39">
         <v>44025.0</v>
@@ -23352,7 +23360,7 @@
       <c r="I455" s="13"/>
       <c r="J455" s="14"/>
       <c r="K455" s="31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L455" s="8"/>
       <c r="M455" s="8"/>
@@ -23375,7 +23383,7 @@
         <v>454.0</v>
       </c>
       <c r="B456" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C456" s="39">
         <v>44025.0</v>
@@ -23394,7 +23402,7 @@
       <c r="I456" s="13"/>
       <c r="J456" s="14"/>
       <c r="K456" s="31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L456" s="8"/>
       <c r="M456" s="8"/>
@@ -23417,7 +23425,7 @@
         <v>455.0</v>
       </c>
       <c r="B457" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C457" s="39">
         <v>44025.0</v>
@@ -23436,7 +23444,7 @@
       <c r="I457" s="13"/>
       <c r="J457" s="14"/>
       <c r="K457" s="31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L457" s="8"/>
       <c r="M457" s="8"/>
@@ -23459,7 +23467,7 @@
         <v>456.0</v>
       </c>
       <c r="B458" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C458" s="39">
         <v>44025.0</v>
@@ -23478,7 +23486,7 @@
       <c r="I458" s="13"/>
       <c r="J458" s="14"/>
       <c r="K458" s="31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L458" s="8"/>
       <c r="M458" s="8"/>
@@ -23501,7 +23509,7 @@
         <v>457.0</v>
       </c>
       <c r="B459" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C459" s="39">
         <v>44026.0</v>
@@ -23520,7 +23528,7 @@
       <c r="I459" s="13"/>
       <c r="J459" s="14"/>
       <c r="K459" s="31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L459" s="8"/>
       <c r="M459" s="8"/>
@@ -23543,7 +23551,7 @@
         <v>458.0</v>
       </c>
       <c r="B460" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C460" s="39">
         <v>44026.0</v>
@@ -23562,7 +23570,7 @@
       <c r="I460" s="13"/>
       <c r="J460" s="14"/>
       <c r="K460" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L460" s="8"/>
       <c r="M460" s="8"/>
@@ -23585,7 +23593,7 @@
         <v>459.0</v>
       </c>
       <c r="B461" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C461" s="39">
         <v>44026.0</v>
@@ -23604,7 +23612,7 @@
       <c r="I461" s="13"/>
       <c r="J461" s="14"/>
       <c r="K461" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L461" s="8"/>
       <c r="M461" s="8"/>
@@ -23627,7 +23635,7 @@
         <v>460.0</v>
       </c>
       <c r="B462" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C462" s="39">
         <v>44026.0</v>
@@ -23646,7 +23654,7 @@
       <c r="I462" s="13"/>
       <c r="J462" s="14"/>
       <c r="K462" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L462" s="8"/>
       <c r="M462" s="8"/>
@@ -23669,7 +23677,7 @@
         <v>461.0</v>
       </c>
       <c r="B463" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C463" s="39">
         <v>44026.0</v>
@@ -23688,7 +23696,7 @@
       <c r="I463" s="13"/>
       <c r="J463" s="14"/>
       <c r="K463" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L463" s="8"/>
       <c r="M463" s="8"/>
@@ -23711,7 +23719,7 @@
         <v>462.0</v>
       </c>
       <c r="B464" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C464" s="39">
         <v>44026.0</v>
@@ -23730,7 +23738,7 @@
       <c r="I464" s="13"/>
       <c r="J464" s="14"/>
       <c r="K464" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L464" s="8"/>
       <c r="M464" s="8"/>
@@ -23753,7 +23761,7 @@
         <v>463.0</v>
       </c>
       <c r="B465" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C465" s="39">
         <v>44026.0</v>
@@ -23772,7 +23780,7 @@
       <c r="I465" s="13"/>
       <c r="J465" s="14"/>
       <c r="K465" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L465" s="8"/>
       <c r="M465" s="8"/>
@@ -23795,7 +23803,7 @@
         <v>464.0</v>
       </c>
       <c r="B466" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C466" s="39">
         <v>44026.0</v>
@@ -23812,7 +23820,7 @@
       <c r="I466" s="13"/>
       <c r="J466" s="14"/>
       <c r="K466" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L466" s="8"/>
       <c r="M466" s="8"/>
@@ -23835,7 +23843,7 @@
         <v>465.0</v>
       </c>
       <c r="B467" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C467" s="39">
         <v>44026.0</v>
@@ -23854,7 +23862,7 @@
       <c r="I467" s="13"/>
       <c r="J467" s="14"/>
       <c r="K467" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L467" s="8"/>
       <c r="M467" s="8"/>
@@ -23877,7 +23885,7 @@
         <v>466.0</v>
       </c>
       <c r="B468" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C468" s="39">
         <v>44026.0</v>
@@ -23896,7 +23904,7 @@
       <c r="I468" s="13"/>
       <c r="J468" s="14"/>
       <c r="K468" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L468" s="8"/>
       <c r="M468" s="8"/>
@@ -23919,7 +23927,7 @@
         <v>467.0</v>
       </c>
       <c r="B469" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C469" s="39">
         <v>44026.0</v>
@@ -23938,7 +23946,7 @@
       <c r="I469" s="13"/>
       <c r="J469" s="14"/>
       <c r="K469" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L469" s="8"/>
       <c r="M469" s="8"/>
@@ -23961,7 +23969,7 @@
         <v>468.0</v>
       </c>
       <c r="B470" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C470" s="39">
         <v>44026.0</v>
@@ -23980,7 +23988,7 @@
       <c r="I470" s="13"/>
       <c r="J470" s="14"/>
       <c r="K470" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L470" s="8"/>
       <c r="M470" s="8"/>
@@ -23999,17 +24007,31 @@
       <c r="Z470" s="8"/>
     </row>
     <row r="471" ht="18.0" customHeight="1">
-      <c r="A471" s="34"/>
-      <c r="B471" s="8"/>
-      <c r="C471" s="2"/>
-      <c r="D471" s="2"/>
-      <c r="E471" s="8"/>
-      <c r="F471" s="13"/>
+      <c r="A471" s="34">
+        <v>469.0</v>
+      </c>
+      <c r="B471" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="C471" s="39">
+        <v>44027.0</v>
+      </c>
+      <c r="D471" s="33">
+        <v>44027.0</v>
+      </c>
+      <c r="E471" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F471" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G471" s="2"/>
       <c r="H471" s="13"/>
       <c r="I471" s="13"/>
       <c r="J471" s="14"/>
-      <c r="K471" s="8"/>
+      <c r="K471" s="31" t="s">
+        <v>495</v>
+      </c>
       <c r="L471" s="8"/>
       <c r="M471" s="8"/>
       <c r="N471" s="8"/>
@@ -24027,17 +24049,31 @@
       <c r="Z471" s="8"/>
     </row>
     <row r="472" ht="18.0" customHeight="1">
-      <c r="A472" s="34"/>
-      <c r="B472" s="8"/>
-      <c r="C472" s="2"/>
-      <c r="D472" s="2"/>
-      <c r="E472" s="8"/>
-      <c r="F472" s="13"/>
+      <c r="A472" s="34">
+        <v>470.0</v>
+      </c>
+      <c r="B472" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="C472" s="39">
+        <v>44027.0</v>
+      </c>
+      <c r="D472" s="33">
+        <v>44027.0</v>
+      </c>
+      <c r="E472" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F472" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G472" s="2"/>
       <c r="H472" s="13"/>
       <c r="I472" s="13"/>
       <c r="J472" s="14"/>
-      <c r="K472" s="8"/>
+      <c r="K472" s="31" t="s">
+        <v>495</v>
+      </c>
       <c r="L472" s="8"/>
       <c r="M472" s="8"/>
       <c r="N472" s="8"/>
@@ -24055,17 +24091,31 @@
       <c r="Z472" s="8"/>
     </row>
     <row r="473" ht="18.0" customHeight="1">
-      <c r="A473" s="34"/>
-      <c r="B473" s="8"/>
-      <c r="C473" s="2"/>
-      <c r="D473" s="2"/>
-      <c r="E473" s="8"/>
-      <c r="F473" s="13"/>
+      <c r="A473" s="34">
+        <v>471.0</v>
+      </c>
+      <c r="B473" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="C473" s="39">
+        <v>44027.0</v>
+      </c>
+      <c r="D473" s="33">
+        <v>44027.0</v>
+      </c>
+      <c r="E473" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F473" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G473" s="2"/>
       <c r="H473" s="13"/>
       <c r="I473" s="13"/>
       <c r="J473" s="14"/>
-      <c r="K473" s="8"/>
+      <c r="K473" s="31" t="s">
+        <v>495</v>
+      </c>
       <c r="L473" s="8"/>
       <c r="M473" s="8"/>
       <c r="N473" s="8"/>
@@ -24083,17 +24133,31 @@
       <c r="Z473" s="8"/>
     </row>
     <row r="474" ht="18.0" customHeight="1">
-      <c r="A474" s="2"/>
-      <c r="B474" s="8"/>
-      <c r="C474" s="2"/>
-      <c r="D474" s="2"/>
-      <c r="E474" s="8"/>
-      <c r="F474" s="13"/>
+      <c r="A474" s="34">
+        <v>472.0</v>
+      </c>
+      <c r="B474" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="C474" s="39">
+        <v>44027.0</v>
+      </c>
+      <c r="D474" s="33">
+        <v>44027.0</v>
+      </c>
+      <c r="E474" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F474" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="G474" s="2"/>
       <c r="H474" s="13"/>
       <c r="I474" s="13"/>
       <c r="J474" s="14"/>
-      <c r="K474" s="8"/>
+      <c r="K474" s="31" t="s">
+        <v>495</v>
+      </c>
       <c r="L474" s="8"/>
       <c r="M474" s="8"/>
       <c r="N474" s="8"/>
@@ -24111,7 +24175,7 @@
       <c r="Z474" s="8"/>
     </row>
     <row r="475" ht="18.0" customHeight="1">
-      <c r="A475" s="2"/>
+      <c r="A475" s="34"/>
       <c r="B475" s="8"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -39163,10 +39227,14 @@
     <hyperlink r:id="rId292" ref="K468"/>
     <hyperlink r:id="rId293" ref="K469"/>
     <hyperlink r:id="rId294" ref="K470"/>
+    <hyperlink r:id="rId295" ref="K471"/>
+    <hyperlink r:id="rId296" ref="K472"/>
+    <hyperlink r:id="rId297" ref="K473"/>
+    <hyperlink r:id="rId298" ref="K474"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId295"/>
+  <drawing r:id="rId299"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="496">
-  <si>
-    <t>2020-07-15T19:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="497">
+  <si>
+    <t>2020-07-15T22:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1653,6 +1653,9 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200715-469-472.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272729/200715oshirase(340-344).pdf</t>
   </si>
 </sst>
 </file>
@@ -24175,17 +24178,31 @@
       <c r="Z474" s="8"/>
     </row>
     <row r="475" ht="18.0" customHeight="1">
-      <c r="A475" s="34"/>
-      <c r="B475" s="8"/>
-      <c r="C475" s="2"/>
-      <c r="D475" s="2"/>
-      <c r="E475" s="8"/>
-      <c r="F475" s="13"/>
+      <c r="A475" s="34">
+        <v>473.0</v>
+      </c>
+      <c r="B475" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="C475" s="39">
+        <v>44027.0</v>
+      </c>
+      <c r="D475" s="33">
+        <v>44027.0</v>
+      </c>
+      <c r="E475" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F475" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G475" s="2"/>
       <c r="H475" s="13"/>
       <c r="I475" s="13"/>
       <c r="J475" s="14"/>
-      <c r="K475" s="8"/>
+      <c r="K475" s="31" t="s">
+        <v>496</v>
+      </c>
       <c r="L475" s="8"/>
       <c r="M475" s="8"/>
       <c r="N475" s="8"/>
@@ -24203,17 +24220,31 @@
       <c r="Z475" s="8"/>
     </row>
     <row r="476" ht="18.0" customHeight="1">
-      <c r="A476" s="2"/>
-      <c r="B476" s="8"/>
-      <c r="C476" s="2"/>
-      <c r="D476" s="2"/>
-      <c r="E476" s="8"/>
-      <c r="F476" s="13"/>
+      <c r="A476" s="34">
+        <v>474.0</v>
+      </c>
+      <c r="B476" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="C476" s="39">
+        <v>44027.0</v>
+      </c>
+      <c r="D476" s="33">
+        <v>44027.0</v>
+      </c>
+      <c r="E476" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F476" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G476" s="2"/>
       <c r="H476" s="13"/>
       <c r="I476" s="13"/>
       <c r="J476" s="14"/>
-      <c r="K476" s="8"/>
+      <c r="K476" s="31" t="s">
+        <v>496</v>
+      </c>
       <c r="L476" s="8"/>
       <c r="M476" s="8"/>
       <c r="N476" s="8"/>
@@ -24231,17 +24262,31 @@
       <c r="Z476" s="8"/>
     </row>
     <row r="477" ht="18.0" customHeight="1">
-      <c r="A477" s="2"/>
-      <c r="B477" s="8"/>
-      <c r="C477" s="2"/>
-      <c r="D477" s="2"/>
-      <c r="E477" s="8"/>
-      <c r="F477" s="13"/>
+      <c r="A477" s="34">
+        <v>475.0</v>
+      </c>
+      <c r="B477" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="C477" s="39">
+        <v>44027.0</v>
+      </c>
+      <c r="D477" s="33">
+        <v>44027.0</v>
+      </c>
+      <c r="E477" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F477" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G477" s="2"/>
       <c r="H477" s="13"/>
       <c r="I477" s="13"/>
       <c r="J477" s="14"/>
-      <c r="K477" s="8"/>
+      <c r="K477" s="31" t="s">
+        <v>496</v>
+      </c>
       <c r="L477" s="8"/>
       <c r="M477" s="8"/>
       <c r="N477" s="8"/>
@@ -24259,17 +24304,31 @@
       <c r="Z477" s="8"/>
     </row>
     <row r="478" ht="18.0" customHeight="1">
-      <c r="A478" s="2"/>
-      <c r="B478" s="8"/>
-      <c r="C478" s="2"/>
-      <c r="D478" s="2"/>
-      <c r="E478" s="8"/>
-      <c r="F478" s="13"/>
+      <c r="A478" s="34">
+        <v>476.0</v>
+      </c>
+      <c r="B478" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="C478" s="39">
+        <v>44027.0</v>
+      </c>
+      <c r="D478" s="33">
+        <v>44027.0</v>
+      </c>
+      <c r="E478" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F478" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G478" s="2"/>
       <c r="H478" s="13"/>
       <c r="I478" s="13"/>
       <c r="J478" s="14"/>
-      <c r="K478" s="8"/>
+      <c r="K478" s="31" t="s">
+        <v>496</v>
+      </c>
       <c r="L478" s="8"/>
       <c r="M478" s="8"/>
       <c r="N478" s="8"/>
@@ -24287,17 +24346,31 @@
       <c r="Z478" s="8"/>
     </row>
     <row r="479" ht="18.0" customHeight="1">
-      <c r="A479" s="2"/>
-      <c r="B479" s="8"/>
-      <c r="C479" s="2"/>
-      <c r="D479" s="2"/>
-      <c r="E479" s="8"/>
-      <c r="F479" s="13"/>
+      <c r="A479" s="34">
+        <v>477.0</v>
+      </c>
+      <c r="B479" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="C479" s="39">
+        <v>44027.0</v>
+      </c>
+      <c r="D479" s="33">
+        <v>44027.0</v>
+      </c>
+      <c r="E479" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F479" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G479" s="2"/>
       <c r="H479" s="13"/>
       <c r="I479" s="13"/>
       <c r="J479" s="14"/>
-      <c r="K479" s="8"/>
+      <c r="K479" s="31" t="s">
+        <v>496</v>
+      </c>
       <c r="L479" s="8"/>
       <c r="M479" s="8"/>
       <c r="N479" s="8"/>
@@ -39231,10 +39304,15 @@
     <hyperlink r:id="rId296" ref="K472"/>
     <hyperlink r:id="rId297" ref="K473"/>
     <hyperlink r:id="rId298" ref="K474"/>
+    <hyperlink r:id="rId299" ref="K475"/>
+    <hyperlink r:id="rId300" ref="K476"/>
+    <hyperlink r:id="rId301" ref="K477"/>
+    <hyperlink r:id="rId302" ref="K478"/>
+    <hyperlink r:id="rId303" ref="K479"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId299"/>
+  <drawing r:id="rId304"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="497">
-  <si>
-    <t>2020-07-15T22:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="500">
+  <si>
+    <t>2020-07-16T20:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1655,7 +1655,16 @@
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200715-469-472.pdf</t>
   </si>
   <si>
+    <t>大阪府内</t>
+  </si>
+  <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272729/200715oshirase(340-344).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-16T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200716-478-481.pdf</t>
   </si>
 </sst>
 </file>
@@ -24194,14 +24203,14 @@
         <v>22</v>
       </c>
       <c r="F475" s="24" t="s">
-        <v>16</v>
+        <v>496</v>
       </c>
       <c r="G475" s="2"/>
       <c r="H475" s="13"/>
       <c r="I475" s="13"/>
       <c r="J475" s="14"/>
       <c r="K475" s="31" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L475" s="8"/>
       <c r="M475" s="8"/>
@@ -24243,7 +24252,7 @@
       <c r="I476" s="13"/>
       <c r="J476" s="14"/>
       <c r="K476" s="31" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L476" s="8"/>
       <c r="M476" s="8"/>
@@ -24285,7 +24294,7 @@
       <c r="I477" s="13"/>
       <c r="J477" s="14"/>
       <c r="K477" s="31" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L477" s="8"/>
       <c r="M477" s="8"/>
@@ -24327,7 +24336,7 @@
       <c r="I478" s="13"/>
       <c r="J478" s="14"/>
       <c r="K478" s="31" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L478" s="8"/>
       <c r="M478" s="8"/>
@@ -24369,7 +24378,7 @@
       <c r="I479" s="13"/>
       <c r="J479" s="14"/>
       <c r="K479" s="31" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L479" s="8"/>
       <c r="M479" s="8"/>
@@ -24388,17 +24397,31 @@
       <c r="Z479" s="8"/>
     </row>
     <row r="480" ht="18.0" customHeight="1">
-      <c r="A480" s="2"/>
-      <c r="B480" s="8"/>
-      <c r="C480" s="2"/>
-      <c r="D480" s="2"/>
-      <c r="E480" s="8"/>
-      <c r="F480" s="13"/>
+      <c r="A480" s="34">
+        <v>478.0</v>
+      </c>
+      <c r="B480" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C480" s="39">
+        <v>44028.0</v>
+      </c>
+      <c r="D480" s="33">
+        <v>44028.0</v>
+      </c>
+      <c r="E480" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F480" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G480" s="2"/>
       <c r="H480" s="13"/>
       <c r="I480" s="13"/>
       <c r="J480" s="14"/>
-      <c r="K480" s="8"/>
+      <c r="K480" s="31" t="s">
+        <v>499</v>
+      </c>
       <c r="L480" s="8"/>
       <c r="M480" s="8"/>
       <c r="N480" s="8"/>
@@ -24416,17 +24439,31 @@
       <c r="Z480" s="8"/>
     </row>
     <row r="481" ht="18.0" customHeight="1">
-      <c r="A481" s="2"/>
-      <c r="B481" s="8"/>
-      <c r="C481" s="2"/>
-      <c r="D481" s="2"/>
-      <c r="E481" s="8"/>
-      <c r="F481" s="13"/>
+      <c r="A481" s="34">
+        <v>479.0</v>
+      </c>
+      <c r="B481" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C481" s="39">
+        <v>44028.0</v>
+      </c>
+      <c r="D481" s="33">
+        <v>44028.0</v>
+      </c>
+      <c r="E481" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F481" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G481" s="2"/>
       <c r="H481" s="13"/>
       <c r="I481" s="13"/>
       <c r="J481" s="14"/>
-      <c r="K481" s="8"/>
+      <c r="K481" s="31" t="s">
+        <v>499</v>
+      </c>
       <c r="L481" s="8"/>
       <c r="M481" s="8"/>
       <c r="N481" s="8"/>
@@ -24444,17 +24481,31 @@
       <c r="Z481" s="8"/>
     </row>
     <row r="482" ht="18.0" customHeight="1">
-      <c r="A482" s="2"/>
-      <c r="B482" s="8"/>
-      <c r="C482" s="2"/>
-      <c r="D482" s="2"/>
-      <c r="E482" s="8"/>
-      <c r="F482" s="13"/>
+      <c r="A482" s="34">
+        <v>480.0</v>
+      </c>
+      <c r="B482" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C482" s="39">
+        <v>44028.0</v>
+      </c>
+      <c r="D482" s="33">
+        <v>44028.0</v>
+      </c>
+      <c r="E482" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F482" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G482" s="2"/>
       <c r="H482" s="13"/>
       <c r="I482" s="13"/>
       <c r="J482" s="14"/>
-      <c r="K482" s="8"/>
+      <c r="K482" s="31" t="s">
+        <v>499</v>
+      </c>
       <c r="L482" s="8"/>
       <c r="M482" s="8"/>
       <c r="N482" s="8"/>
@@ -24472,17 +24523,31 @@
       <c r="Z482" s="8"/>
     </row>
     <row r="483" ht="18.0" customHeight="1">
-      <c r="A483" s="2"/>
-      <c r="B483" s="8"/>
-      <c r="C483" s="2"/>
-      <c r="D483" s="2"/>
-      <c r="E483" s="8"/>
-      <c r="F483" s="13"/>
+      <c r="A483" s="34">
+        <v>481.0</v>
+      </c>
+      <c r="B483" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C483" s="39">
+        <v>44028.0</v>
+      </c>
+      <c r="D483" s="33">
+        <v>44028.0</v>
+      </c>
+      <c r="E483" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F483" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G483" s="2"/>
       <c r="H483" s="13"/>
       <c r="I483" s="13"/>
       <c r="J483" s="14"/>
-      <c r="K483" s="8"/>
+      <c r="K483" s="31" t="s">
+        <v>499</v>
+      </c>
       <c r="L483" s="8"/>
       <c r="M483" s="8"/>
       <c r="N483" s="8"/>
@@ -24500,7 +24565,7 @@
       <c r="Z483" s="8"/>
     </row>
     <row r="484" ht="18.0" customHeight="1">
-      <c r="A484" s="2"/>
+      <c r="A484" s="34"/>
       <c r="B484" s="8"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -39309,10 +39374,14 @@
     <hyperlink r:id="rId301" ref="K477"/>
     <hyperlink r:id="rId302" ref="K478"/>
     <hyperlink r:id="rId303" ref="K479"/>
+    <hyperlink r:id="rId304" ref="K480"/>
+    <hyperlink r:id="rId305" ref="K481"/>
+    <hyperlink r:id="rId306" ref="K482"/>
+    <hyperlink r:id="rId307" ref="K483"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId304"/>
+  <drawing r:id="rId308"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="500">
-  <si>
-    <t>2020-07-16T20:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="501">
+  <si>
+    <t>2020-07-16T23:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1665,6 +1665,9 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200716-478-481.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272761/200716oshirase(345-353).pdf</t>
   </si>
 </sst>
 </file>
@@ -24022,7 +24025,7 @@
       <c r="A471" s="34">
         <v>469.0</v>
       </c>
-      <c r="B471" s="43" t="s">
+      <c r="B471" s="27" t="s">
         <v>494</v>
       </c>
       <c r="C471" s="39">
@@ -24064,7 +24067,7 @@
       <c r="A472" s="34">
         <v>470.0</v>
       </c>
-      <c r="B472" s="43" t="s">
+      <c r="B472" s="27" t="s">
         <v>494</v>
       </c>
       <c r="C472" s="39">
@@ -24106,7 +24109,7 @@
       <c r="A473" s="34">
         <v>471.0</v>
       </c>
-      <c r="B473" s="43" t="s">
+      <c r="B473" s="27" t="s">
         <v>494</v>
       </c>
       <c r="C473" s="39">
@@ -24148,7 +24151,7 @@
       <c r="A474" s="34">
         <v>472.0</v>
       </c>
-      <c r="B474" s="43" t="s">
+      <c r="B474" s="27" t="s">
         <v>494</v>
       </c>
       <c r="C474" s="39">
@@ -24190,7 +24193,7 @@
       <c r="A475" s="34">
         <v>473.0</v>
       </c>
-      <c r="B475" s="43" t="s">
+      <c r="B475" s="27" t="s">
         <v>494</v>
       </c>
       <c r="C475" s="39">
@@ -24232,7 +24235,7 @@
       <c r="A476" s="34">
         <v>474.0</v>
       </c>
-      <c r="B476" s="43" t="s">
+      <c r="B476" s="27" t="s">
         <v>494</v>
       </c>
       <c r="C476" s="39">
@@ -24274,7 +24277,7 @@
       <c r="A477" s="34">
         <v>475.0</v>
       </c>
-      <c r="B477" s="43" t="s">
+      <c r="B477" s="27" t="s">
         <v>494</v>
       </c>
       <c r="C477" s="39">
@@ -24316,7 +24319,7 @@
       <c r="A478" s="34">
         <v>476.0</v>
       </c>
-      <c r="B478" s="43" t="s">
+      <c r="B478" s="27" t="s">
         <v>494</v>
       </c>
       <c r="C478" s="39">
@@ -24358,7 +24361,7 @@
       <c r="A479" s="34">
         <v>477.0</v>
       </c>
-      <c r="B479" s="43" t="s">
+      <c r="B479" s="27" t="s">
         <v>494</v>
       </c>
       <c r="C479" s="39">
@@ -24400,7 +24403,7 @@
       <c r="A480" s="34">
         <v>478.0</v>
       </c>
-      <c r="B480" s="43" t="s">
+      <c r="B480" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C480" s="39">
@@ -24442,7 +24445,7 @@
       <c r="A481" s="34">
         <v>479.0</v>
       </c>
-      <c r="B481" s="43" t="s">
+      <c r="B481" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C481" s="39">
@@ -24484,7 +24487,7 @@
       <c r="A482" s="34">
         <v>480.0</v>
       </c>
-      <c r="B482" s="43" t="s">
+      <c r="B482" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C482" s="39">
@@ -24526,7 +24529,7 @@
       <c r="A483" s="34">
         <v>481.0</v>
       </c>
-      <c r="B483" s="43" t="s">
+      <c r="B483" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C483" s="39">
@@ -24565,17 +24568,31 @@
       <c r="Z483" s="8"/>
     </row>
     <row r="484" ht="18.0" customHeight="1">
-      <c r="A484" s="34"/>
-      <c r="B484" s="8"/>
-      <c r="C484" s="2"/>
-      <c r="D484" s="2"/>
-      <c r="E484" s="8"/>
-      <c r="F484" s="13"/>
+      <c r="A484" s="34">
+        <v>482.0</v>
+      </c>
+      <c r="B484" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C484" s="39">
+        <v>44028.0</v>
+      </c>
+      <c r="D484" s="33">
+        <v>44028.0</v>
+      </c>
+      <c r="E484" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F484" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G484" s="2"/>
       <c r="H484" s="13"/>
       <c r="I484" s="13"/>
       <c r="J484" s="14"/>
-      <c r="K484" s="8"/>
+      <c r="K484" s="31" t="s">
+        <v>500</v>
+      </c>
       <c r="L484" s="8"/>
       <c r="M484" s="8"/>
       <c r="N484" s="8"/>
@@ -24593,17 +24610,31 @@
       <c r="Z484" s="8"/>
     </row>
     <row r="485" ht="18.0" customHeight="1">
-      <c r="A485" s="2"/>
-      <c r="B485" s="8"/>
-      <c r="C485" s="2"/>
-      <c r="D485" s="2"/>
-      <c r="E485" s="8"/>
-      <c r="F485" s="13"/>
+      <c r="A485" s="34">
+        <v>483.0</v>
+      </c>
+      <c r="B485" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C485" s="39">
+        <v>44028.0</v>
+      </c>
+      <c r="D485" s="33">
+        <v>44028.0</v>
+      </c>
+      <c r="E485" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F485" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G485" s="2"/>
       <c r="H485" s="13"/>
       <c r="I485" s="13"/>
       <c r="J485" s="14"/>
-      <c r="K485" s="8"/>
+      <c r="K485" s="31" t="s">
+        <v>500</v>
+      </c>
       <c r="L485" s="8"/>
       <c r="M485" s="8"/>
       <c r="N485" s="8"/>
@@ -24621,17 +24652,31 @@
       <c r="Z485" s="8"/>
     </row>
     <row r="486" ht="18.0" customHeight="1">
-      <c r="A486" s="2"/>
-      <c r="B486" s="8"/>
-      <c r="C486" s="2"/>
-      <c r="D486" s="2"/>
-      <c r="E486" s="8"/>
-      <c r="F486" s="13"/>
+      <c r="A486" s="34">
+        <v>484.0</v>
+      </c>
+      <c r="B486" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C486" s="39">
+        <v>44028.0</v>
+      </c>
+      <c r="D486" s="33">
+        <v>44028.0</v>
+      </c>
+      <c r="E486" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F486" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G486" s="2"/>
       <c r="H486" s="13"/>
       <c r="I486" s="13"/>
       <c r="J486" s="14"/>
-      <c r="K486" s="8"/>
+      <c r="K486" s="31" t="s">
+        <v>500</v>
+      </c>
       <c r="L486" s="8"/>
       <c r="M486" s="8"/>
       <c r="N486" s="8"/>
@@ -24649,17 +24694,31 @@
       <c r="Z486" s="8"/>
     </row>
     <row r="487" ht="18.0" customHeight="1">
-      <c r="A487" s="2"/>
-      <c r="B487" s="8"/>
-      <c r="C487" s="2"/>
-      <c r="D487" s="2"/>
-      <c r="E487" s="8"/>
-      <c r="F487" s="13"/>
+      <c r="A487" s="34">
+        <v>485.0</v>
+      </c>
+      <c r="B487" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C487" s="39">
+        <v>44028.0</v>
+      </c>
+      <c r="D487" s="33">
+        <v>44028.0</v>
+      </c>
+      <c r="E487" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F487" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G487" s="2"/>
       <c r="H487" s="13"/>
       <c r="I487" s="13"/>
       <c r="J487" s="14"/>
-      <c r="K487" s="8"/>
+      <c r="K487" s="31" t="s">
+        <v>500</v>
+      </c>
       <c r="L487" s="8"/>
       <c r="M487" s="8"/>
       <c r="N487" s="8"/>
@@ -24677,17 +24736,31 @@
       <c r="Z487" s="8"/>
     </row>
     <row r="488" ht="18.0" customHeight="1">
-      <c r="A488" s="2"/>
-      <c r="B488" s="8"/>
-      <c r="C488" s="2"/>
-      <c r="D488" s="2"/>
-      <c r="E488" s="8"/>
-      <c r="F488" s="13"/>
+      <c r="A488" s="34">
+        <v>486.0</v>
+      </c>
+      <c r="B488" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C488" s="39">
+        <v>44028.0</v>
+      </c>
+      <c r="D488" s="33">
+        <v>44028.0</v>
+      </c>
+      <c r="E488" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F488" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G488" s="2"/>
       <c r="H488" s="13"/>
       <c r="I488" s="13"/>
       <c r="J488" s="14"/>
-      <c r="K488" s="8"/>
+      <c r="K488" s="31" t="s">
+        <v>500</v>
+      </c>
       <c r="L488" s="8"/>
       <c r="M488" s="8"/>
       <c r="N488" s="8"/>
@@ -24705,17 +24778,31 @@
       <c r="Z488" s="8"/>
     </row>
     <row r="489" ht="18.0" customHeight="1">
-      <c r="A489" s="2"/>
-      <c r="B489" s="8"/>
-      <c r="C489" s="2"/>
-      <c r="D489" s="2"/>
-      <c r="E489" s="8"/>
-      <c r="F489" s="13"/>
+      <c r="A489" s="34">
+        <v>487.0</v>
+      </c>
+      <c r="B489" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C489" s="39">
+        <v>44028.0</v>
+      </c>
+      <c r="D489" s="33">
+        <v>44028.0</v>
+      </c>
+      <c r="E489" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F489" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G489" s="2"/>
       <c r="H489" s="13"/>
       <c r="I489" s="13"/>
       <c r="J489" s="14"/>
-      <c r="K489" s="8"/>
+      <c r="K489" s="31" t="s">
+        <v>500</v>
+      </c>
       <c r="L489" s="8"/>
       <c r="M489" s="8"/>
       <c r="N489" s="8"/>
@@ -24733,17 +24820,31 @@
       <c r="Z489" s="8"/>
     </row>
     <row r="490" ht="18.0" customHeight="1">
-      <c r="A490" s="2"/>
-      <c r="B490" s="8"/>
-      <c r="C490" s="2"/>
-      <c r="D490" s="2"/>
-      <c r="E490" s="8"/>
-      <c r="F490" s="13"/>
+      <c r="A490" s="34">
+        <v>488.0</v>
+      </c>
+      <c r="B490" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C490" s="39">
+        <v>44028.0</v>
+      </c>
+      <c r="D490" s="33">
+        <v>44028.0</v>
+      </c>
+      <c r="E490" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F490" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G490" s="2"/>
       <c r="H490" s="13"/>
       <c r="I490" s="13"/>
       <c r="J490" s="14"/>
-      <c r="K490" s="8"/>
+      <c r="K490" s="31" t="s">
+        <v>500</v>
+      </c>
       <c r="L490" s="8"/>
       <c r="M490" s="8"/>
       <c r="N490" s="8"/>
@@ -24761,17 +24862,31 @@
       <c r="Z490" s="8"/>
     </row>
     <row r="491" ht="18.0" customHeight="1">
-      <c r="A491" s="2"/>
-      <c r="B491" s="8"/>
-      <c r="C491" s="2"/>
-      <c r="D491" s="2"/>
-      <c r="E491" s="8"/>
-      <c r="F491" s="13"/>
+      <c r="A491" s="34">
+        <v>489.0</v>
+      </c>
+      <c r="B491" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C491" s="39">
+        <v>44028.0</v>
+      </c>
+      <c r="D491" s="33">
+        <v>44028.0</v>
+      </c>
+      <c r="E491" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F491" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G491" s="2"/>
       <c r="H491" s="13"/>
       <c r="I491" s="13"/>
       <c r="J491" s="14"/>
-      <c r="K491" s="8"/>
+      <c r="K491" s="31" t="s">
+        <v>500</v>
+      </c>
       <c r="L491" s="8"/>
       <c r="M491" s="8"/>
       <c r="N491" s="8"/>
@@ -24789,17 +24904,31 @@
       <c r="Z491" s="8"/>
     </row>
     <row r="492" ht="18.0" customHeight="1">
-      <c r="A492" s="2"/>
-      <c r="B492" s="8"/>
-      <c r="C492" s="2"/>
-      <c r="D492" s="2"/>
-      <c r="E492" s="8"/>
-      <c r="F492" s="13"/>
+      <c r="A492" s="34">
+        <v>490.0</v>
+      </c>
+      <c r="B492" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C492" s="39">
+        <v>44028.0</v>
+      </c>
+      <c r="D492" s="33">
+        <v>44028.0</v>
+      </c>
+      <c r="E492" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F492" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G492" s="2"/>
       <c r="H492" s="13"/>
       <c r="I492" s="13"/>
       <c r="J492" s="14"/>
-      <c r="K492" s="8"/>
+      <c r="K492" s="31" t="s">
+        <v>500</v>
+      </c>
       <c r="L492" s="8"/>
       <c r="M492" s="8"/>
       <c r="N492" s="8"/>
@@ -39378,10 +39507,19 @@
     <hyperlink r:id="rId305" ref="K481"/>
     <hyperlink r:id="rId306" ref="K482"/>
     <hyperlink r:id="rId307" ref="K483"/>
+    <hyperlink r:id="rId308" ref="K484"/>
+    <hyperlink r:id="rId309" ref="K485"/>
+    <hyperlink r:id="rId310" ref="K486"/>
+    <hyperlink r:id="rId311" ref="K487"/>
+    <hyperlink r:id="rId312" ref="K488"/>
+    <hyperlink r:id="rId313" ref="K489"/>
+    <hyperlink r:id="rId314" ref="K490"/>
+    <hyperlink r:id="rId315" ref="K491"/>
+    <hyperlink r:id="rId316" ref="K492"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId308"/>
+  <drawing r:id="rId317"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="501">
-  <si>
-    <t>2020-07-16T23:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="504">
+  <si>
+    <t>2020-07-17T23:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1668,6 +1668,15 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272761/200716oshirase(345-353).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-17T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200717-491-496.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272889/200717oshirase(354-359).pdf</t>
   </si>
 </sst>
 </file>
@@ -21224,7 +21233,9 @@
         <v>473</v>
       </c>
       <c r="L404" s="8"/>
-      <c r="M404" s="8"/>
+      <c r="M404" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N404" s="8"/>
       <c r="O404" s="8"/>
       <c r="P404" s="8"/>
@@ -24946,17 +24957,31 @@
       <c r="Z492" s="8"/>
     </row>
     <row r="493" ht="18.0" customHeight="1">
-      <c r="A493" s="2"/>
-      <c r="B493" s="8"/>
-      <c r="C493" s="2"/>
-      <c r="D493" s="2"/>
-      <c r="E493" s="8"/>
-      <c r="F493" s="13"/>
+      <c r="A493" s="34">
+        <v>491.0</v>
+      </c>
+      <c r="B493" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C493" s="39">
+        <v>44029.0</v>
+      </c>
+      <c r="D493" s="33">
+        <v>44029.0</v>
+      </c>
+      <c r="E493" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F493" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G493" s="2"/>
       <c r="H493" s="13"/>
       <c r="I493" s="13"/>
       <c r="J493" s="14"/>
-      <c r="K493" s="8"/>
+      <c r="K493" s="31" t="s">
+        <v>502</v>
+      </c>
       <c r="L493" s="8"/>
       <c r="M493" s="8"/>
       <c r="N493" s="8"/>
@@ -24974,17 +24999,31 @@
       <c r="Z493" s="8"/>
     </row>
     <row r="494" ht="18.0" customHeight="1">
-      <c r="A494" s="2"/>
-      <c r="B494" s="8"/>
-      <c r="C494" s="2"/>
-      <c r="D494" s="2"/>
-      <c r="E494" s="8"/>
-      <c r="F494" s="13"/>
+      <c r="A494" s="34">
+        <v>492.0</v>
+      </c>
+      <c r="B494" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C494" s="39">
+        <v>44029.0</v>
+      </c>
+      <c r="D494" s="33">
+        <v>44029.0</v>
+      </c>
+      <c r="E494" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F494" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G494" s="2"/>
       <c r="H494" s="13"/>
       <c r="I494" s="13"/>
       <c r="J494" s="14"/>
-      <c r="K494" s="8"/>
+      <c r="K494" s="31" t="s">
+        <v>502</v>
+      </c>
       <c r="L494" s="8"/>
       <c r="M494" s="8"/>
       <c r="N494" s="8"/>
@@ -25002,17 +25041,31 @@
       <c r="Z494" s="8"/>
     </row>
     <row r="495" ht="18.0" customHeight="1">
-      <c r="A495" s="2"/>
-      <c r="B495" s="8"/>
-      <c r="C495" s="2"/>
-      <c r="D495" s="2"/>
-      <c r="E495" s="8"/>
-      <c r="F495" s="13"/>
+      <c r="A495" s="34">
+        <v>493.0</v>
+      </c>
+      <c r="B495" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C495" s="39">
+        <v>44029.0</v>
+      </c>
+      <c r="D495" s="33">
+        <v>44029.0</v>
+      </c>
+      <c r="E495" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F495" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G495" s="2"/>
       <c r="H495" s="13"/>
       <c r="I495" s="13"/>
       <c r="J495" s="14"/>
-      <c r="K495" s="8"/>
+      <c r="K495" s="31" t="s">
+        <v>502</v>
+      </c>
       <c r="L495" s="8"/>
       <c r="M495" s="8"/>
       <c r="N495" s="8"/>
@@ -25030,17 +25083,31 @@
       <c r="Z495" s="8"/>
     </row>
     <row r="496" ht="18.0" customHeight="1">
-      <c r="A496" s="2"/>
-      <c r="B496" s="8"/>
-      <c r="C496" s="2"/>
-      <c r="D496" s="2"/>
-      <c r="E496" s="8"/>
-      <c r="F496" s="13"/>
+      <c r="A496" s="34">
+        <v>494.0</v>
+      </c>
+      <c r="B496" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C496" s="39">
+        <v>44029.0</v>
+      </c>
+      <c r="D496" s="33">
+        <v>44029.0</v>
+      </c>
+      <c r="E496" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F496" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G496" s="2"/>
       <c r="H496" s="13"/>
       <c r="I496" s="13"/>
       <c r="J496" s="14"/>
-      <c r="K496" s="8"/>
+      <c r="K496" s="31" t="s">
+        <v>502</v>
+      </c>
       <c r="L496" s="8"/>
       <c r="M496" s="8"/>
       <c r="N496" s="8"/>
@@ -25058,17 +25125,31 @@
       <c r="Z496" s="8"/>
     </row>
     <row r="497" ht="18.0" customHeight="1">
-      <c r="A497" s="2"/>
-      <c r="B497" s="8"/>
-      <c r="C497" s="2"/>
-      <c r="D497" s="2"/>
-      <c r="E497" s="8"/>
-      <c r="F497" s="13"/>
+      <c r="A497" s="34">
+        <v>495.0</v>
+      </c>
+      <c r="B497" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C497" s="39">
+        <v>44029.0</v>
+      </c>
+      <c r="D497" s="33">
+        <v>44029.0</v>
+      </c>
+      <c r="E497" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F497" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G497" s="2"/>
       <c r="H497" s="13"/>
       <c r="I497" s="13"/>
       <c r="J497" s="14"/>
-      <c r="K497" s="8"/>
+      <c r="K497" s="31" t="s">
+        <v>502</v>
+      </c>
       <c r="L497" s="8"/>
       <c r="M497" s="8"/>
       <c r="N497" s="8"/>
@@ -25086,17 +25167,31 @@
       <c r="Z497" s="8"/>
     </row>
     <row r="498" ht="18.0" customHeight="1">
-      <c r="A498" s="2"/>
-      <c r="B498" s="8"/>
-      <c r="C498" s="2"/>
-      <c r="D498" s="2"/>
-      <c r="E498" s="8"/>
-      <c r="F498" s="13"/>
+      <c r="A498" s="34">
+        <v>496.0</v>
+      </c>
+      <c r="B498" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C498" s="39">
+        <v>44029.0</v>
+      </c>
+      <c r="D498" s="33">
+        <v>44029.0</v>
+      </c>
+      <c r="E498" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F498" s="24" t="s">
+        <v>328</v>
+      </c>
       <c r="G498" s="2"/>
       <c r="H498" s="13"/>
       <c r="I498" s="13"/>
       <c r="J498" s="14"/>
-      <c r="K498" s="8"/>
+      <c r="K498" s="31" t="s">
+        <v>502</v>
+      </c>
       <c r="L498" s="8"/>
       <c r="M498" s="8"/>
       <c r="N498" s="8"/>
@@ -25114,17 +25209,31 @@
       <c r="Z498" s="8"/>
     </row>
     <row r="499" ht="18.0" customHeight="1">
-      <c r="A499" s="2"/>
-      <c r="B499" s="8"/>
-      <c r="C499" s="2"/>
-      <c r="D499" s="2"/>
-      <c r="E499" s="8"/>
-      <c r="F499" s="13"/>
+      <c r="A499" s="34">
+        <v>497.0</v>
+      </c>
+      <c r="B499" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C499" s="39">
+        <v>44029.0</v>
+      </c>
+      <c r="D499" s="33">
+        <v>44029.0</v>
+      </c>
+      <c r="E499" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F499" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G499" s="2"/>
       <c r="H499" s="13"/>
       <c r="I499" s="13"/>
       <c r="J499" s="14"/>
-      <c r="K499" s="8"/>
+      <c r="K499" s="31" t="s">
+        <v>503</v>
+      </c>
       <c r="L499" s="8"/>
       <c r="M499" s="8"/>
       <c r="N499" s="8"/>
@@ -25142,17 +25251,31 @@
       <c r="Z499" s="8"/>
     </row>
     <row r="500" ht="18.0" customHeight="1">
-      <c r="A500" s="2"/>
-      <c r="B500" s="8"/>
-      <c r="C500" s="2"/>
-      <c r="D500" s="2"/>
-      <c r="E500" s="8"/>
-      <c r="F500" s="13"/>
+      <c r="A500" s="34">
+        <v>498.0</v>
+      </c>
+      <c r="B500" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C500" s="39">
+        <v>44029.0</v>
+      </c>
+      <c r="D500" s="33">
+        <v>44029.0</v>
+      </c>
+      <c r="E500" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F500" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G500" s="2"/>
       <c r="H500" s="13"/>
       <c r="I500" s="13"/>
       <c r="J500" s="14"/>
-      <c r="K500" s="8"/>
+      <c r="K500" s="31" t="s">
+        <v>503</v>
+      </c>
       <c r="L500" s="8"/>
       <c r="M500" s="8"/>
       <c r="N500" s="8"/>
@@ -25170,17 +25293,31 @@
       <c r="Z500" s="8"/>
     </row>
     <row r="501" ht="18.0" customHeight="1">
-      <c r="A501" s="2"/>
-      <c r="B501" s="8"/>
-      <c r="C501" s="2"/>
-      <c r="D501" s="2"/>
-      <c r="E501" s="8"/>
-      <c r="F501" s="13"/>
+      <c r="A501" s="34">
+        <v>499.0</v>
+      </c>
+      <c r="B501" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C501" s="39">
+        <v>44029.0</v>
+      </c>
+      <c r="D501" s="33">
+        <v>44029.0</v>
+      </c>
+      <c r="E501" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F501" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G501" s="2"/>
       <c r="H501" s="13"/>
       <c r="I501" s="13"/>
       <c r="J501" s="14"/>
-      <c r="K501" s="8"/>
+      <c r="K501" s="31" t="s">
+        <v>503</v>
+      </c>
       <c r="L501" s="8"/>
       <c r="M501" s="8"/>
       <c r="N501" s="8"/>
@@ -25198,17 +25335,31 @@
       <c r="Z501" s="8"/>
     </row>
     <row r="502" ht="18.0" customHeight="1">
-      <c r="A502" s="2"/>
-      <c r="B502" s="8"/>
-      <c r="C502" s="2"/>
-      <c r="D502" s="2"/>
-      <c r="E502" s="8"/>
-      <c r="F502" s="13"/>
+      <c r="A502" s="34">
+        <v>500.0</v>
+      </c>
+      <c r="B502" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C502" s="39">
+        <v>44029.0</v>
+      </c>
+      <c r="D502" s="33">
+        <v>44029.0</v>
+      </c>
+      <c r="E502" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F502" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G502" s="2"/>
       <c r="H502" s="13"/>
       <c r="I502" s="13"/>
       <c r="J502" s="14"/>
-      <c r="K502" s="8"/>
+      <c r="K502" s="31" t="s">
+        <v>503</v>
+      </c>
       <c r="L502" s="8"/>
       <c r="M502" s="8"/>
       <c r="N502" s="8"/>
@@ -25226,17 +25377,31 @@
       <c r="Z502" s="8"/>
     </row>
     <row r="503" ht="18.0" customHeight="1">
-      <c r="A503" s="2"/>
-      <c r="B503" s="8"/>
-      <c r="C503" s="2"/>
-      <c r="D503" s="2"/>
-      <c r="E503" s="8"/>
-      <c r="F503" s="13"/>
+      <c r="A503" s="34">
+        <v>501.0</v>
+      </c>
+      <c r="B503" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C503" s="39">
+        <v>44029.0</v>
+      </c>
+      <c r="D503" s="33">
+        <v>44029.0</v>
+      </c>
+      <c r="E503" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F503" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G503" s="2"/>
       <c r="H503" s="13"/>
       <c r="I503" s="13"/>
       <c r="J503" s="14"/>
-      <c r="K503" s="8"/>
+      <c r="K503" s="31" t="s">
+        <v>503</v>
+      </c>
       <c r="L503" s="8"/>
       <c r="M503" s="8"/>
       <c r="N503" s="8"/>
@@ -25254,17 +25419,31 @@
       <c r="Z503" s="8"/>
     </row>
     <row r="504" ht="18.0" customHeight="1">
-      <c r="A504" s="2"/>
-      <c r="B504" s="8"/>
-      <c r="C504" s="2"/>
-      <c r="D504" s="2"/>
-      <c r="E504" s="8"/>
-      <c r="F504" s="13"/>
+      <c r="A504" s="34">
+        <v>502.0</v>
+      </c>
+      <c r="B504" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C504" s="39">
+        <v>44029.0</v>
+      </c>
+      <c r="D504" s="33">
+        <v>44029.0</v>
+      </c>
+      <c r="E504" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F504" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G504" s="2"/>
       <c r="H504" s="13"/>
       <c r="I504" s="13"/>
       <c r="J504" s="14"/>
-      <c r="K504" s="8"/>
+      <c r="K504" s="31" t="s">
+        <v>503</v>
+      </c>
       <c r="L504" s="8"/>
       <c r="M504" s="8"/>
       <c r="N504" s="8"/>
@@ -39516,10 +39695,22 @@
     <hyperlink r:id="rId314" ref="K490"/>
     <hyperlink r:id="rId315" ref="K491"/>
     <hyperlink r:id="rId316" ref="K492"/>
+    <hyperlink r:id="rId317" ref="K493"/>
+    <hyperlink r:id="rId318" ref="K494"/>
+    <hyperlink r:id="rId319" ref="K495"/>
+    <hyperlink r:id="rId320" ref="K496"/>
+    <hyperlink r:id="rId321" ref="K497"/>
+    <hyperlink r:id="rId322" ref="K498"/>
+    <hyperlink r:id="rId323" ref="K499"/>
+    <hyperlink r:id="rId324" ref="K500"/>
+    <hyperlink r:id="rId325" ref="K501"/>
+    <hyperlink r:id="rId326" ref="K502"/>
+    <hyperlink r:id="rId327" ref="K503"/>
+    <hyperlink r:id="rId328" ref="K504"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId317"/>
+  <drawing r:id="rId329"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="504">
-  <si>
-    <t>2020-07-17T23:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="506">
+  <si>
+    <t>2020-07-18T18:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1678,6 +1678,12 @@
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272889/200717oshirase(354-359).pdf</t>
   </si>
+  <si>
+    <t>2020-07-18T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200718-503.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -1688,7 +1694,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1790,6 +1796,10 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1817,7 +1827,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1949,6 +1959,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -24582,7 +24595,7 @@
       <c r="A484" s="34">
         <v>482.0</v>
       </c>
-      <c r="B484" s="43" t="s">
+      <c r="B484" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C484" s="39">
@@ -24624,7 +24637,7 @@
       <c r="A485" s="34">
         <v>483.0</v>
       </c>
-      <c r="B485" s="43" t="s">
+      <c r="B485" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C485" s="39">
@@ -24666,7 +24679,7 @@
       <c r="A486" s="34">
         <v>484.0</v>
       </c>
-      <c r="B486" s="43" t="s">
+      <c r="B486" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C486" s="39">
@@ -24708,7 +24721,7 @@
       <c r="A487" s="34">
         <v>485.0</v>
       </c>
-      <c r="B487" s="43" t="s">
+      <c r="B487" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C487" s="39">
@@ -24750,7 +24763,7 @@
       <c r="A488" s="34">
         <v>486.0</v>
       </c>
-      <c r="B488" s="43" t="s">
+      <c r="B488" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C488" s="39">
@@ -24792,7 +24805,7 @@
       <c r="A489" s="34">
         <v>487.0</v>
       </c>
-      <c r="B489" s="43" t="s">
+      <c r="B489" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C489" s="39">
@@ -24834,7 +24847,7 @@
       <c r="A490" s="34">
         <v>488.0</v>
       </c>
-      <c r="B490" s="43" t="s">
+      <c r="B490" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C490" s="39">
@@ -24876,7 +24889,7 @@
       <c r="A491" s="34">
         <v>489.0</v>
       </c>
-      <c r="B491" s="43" t="s">
+      <c r="B491" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C491" s="39">
@@ -24918,7 +24931,7 @@
       <c r="A492" s="34">
         <v>490.0</v>
       </c>
-      <c r="B492" s="43" t="s">
+      <c r="B492" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C492" s="39">
@@ -24960,7 +24973,7 @@
       <c r="A493" s="34">
         <v>491.0</v>
       </c>
-      <c r="B493" s="43" t="s">
+      <c r="B493" s="27" t="s">
         <v>501</v>
       </c>
       <c r="C493" s="39">
@@ -25002,7 +25015,7 @@
       <c r="A494" s="34">
         <v>492.0</v>
       </c>
-      <c r="B494" s="43" t="s">
+      <c r="B494" s="27" t="s">
         <v>501</v>
       </c>
       <c r="C494" s="39">
@@ -25044,7 +25057,7 @@
       <c r="A495" s="34">
         <v>493.0</v>
       </c>
-      <c r="B495" s="43" t="s">
+      <c r="B495" s="27" t="s">
         <v>501</v>
       </c>
       <c r="C495" s="39">
@@ -25086,7 +25099,7 @@
       <c r="A496" s="34">
         <v>494.0</v>
       </c>
-      <c r="B496" s="43" t="s">
+      <c r="B496" s="27" t="s">
         <v>501</v>
       </c>
       <c r="C496" s="39">
@@ -25128,7 +25141,7 @@
       <c r="A497" s="34">
         <v>495.0</v>
       </c>
-      <c r="B497" s="43" t="s">
+      <c r="B497" s="27" t="s">
         <v>501</v>
       </c>
       <c r="C497" s="39">
@@ -25170,7 +25183,7 @@
       <c r="A498" s="34">
         <v>496.0</v>
       </c>
-      <c r="B498" s="43" t="s">
+      <c r="B498" s="27" t="s">
         <v>501</v>
       </c>
       <c r="C498" s="39">
@@ -25212,7 +25225,7 @@
       <c r="A499" s="34">
         <v>497.0</v>
       </c>
-      <c r="B499" s="43" t="s">
+      <c r="B499" s="27" t="s">
         <v>501</v>
       </c>
       <c r="C499" s="39">
@@ -25254,7 +25267,7 @@
       <c r="A500" s="34">
         <v>498.0</v>
       </c>
-      <c r="B500" s="43" t="s">
+      <c r="B500" s="27" t="s">
         <v>501</v>
       </c>
       <c r="C500" s="39">
@@ -25296,7 +25309,7 @@
       <c r="A501" s="34">
         <v>499.0</v>
       </c>
-      <c r="B501" s="43" t="s">
+      <c r="B501" s="27" t="s">
         <v>501</v>
       </c>
       <c r="C501" s="39">
@@ -25338,7 +25351,7 @@
       <c r="A502" s="34">
         <v>500.0</v>
       </c>
-      <c r="B502" s="43" t="s">
+      <c r="B502" s="27" t="s">
         <v>501</v>
       </c>
       <c r="C502" s="39">
@@ -25380,7 +25393,7 @@
       <c r="A503" s="34">
         <v>501.0</v>
       </c>
-      <c r="B503" s="43" t="s">
+      <c r="B503" s="27" t="s">
         <v>501</v>
       </c>
       <c r="C503" s="39">
@@ -25422,7 +25435,7 @@
       <c r="A504" s="34">
         <v>502.0</v>
       </c>
-      <c r="B504" s="43" t="s">
+      <c r="B504" s="27" t="s">
         <v>501</v>
       </c>
       <c r="C504" s="39">
@@ -25461,17 +25474,31 @@
       <c r="Z504" s="8"/>
     </row>
     <row r="505" ht="18.0" customHeight="1">
-      <c r="A505" s="2"/>
-      <c r="B505" s="8"/>
-      <c r="C505" s="2"/>
-      <c r="D505" s="2"/>
-      <c r="E505" s="8"/>
-      <c r="F505" s="13"/>
+      <c r="A505" s="34">
+        <v>503.0</v>
+      </c>
+      <c r="B505" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C505" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D505" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E505" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F505" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G505" s="2"/>
       <c r="H505" s="13"/>
       <c r="I505" s="13"/>
       <c r="J505" s="14"/>
-      <c r="K505" s="8"/>
+      <c r="K505" s="44" t="s">
+        <v>505</v>
+      </c>
       <c r="L505" s="8"/>
       <c r="M505" s="8"/>
       <c r="N505" s="8"/>
@@ -39707,10 +39734,11 @@
     <hyperlink r:id="rId326" ref="K502"/>
     <hyperlink r:id="rId327" ref="K503"/>
     <hyperlink r:id="rId328" ref="K504"/>
+    <hyperlink r:id="rId329" ref="K505"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId329"/>
+  <drawing r:id="rId330"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="506">
-  <si>
-    <t>2020-07-18T18:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="510">
+  <si>
+    <t>2020-07-18T23:10:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1683,6 +1683,18 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200718-503.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272893/200718oshirase(360).pdf</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200718-505-520.pdf</t>
+  </si>
+  <si>
+    <t>10代未満男性</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272893/200718oshirase(361-367).pdf</t>
   </si>
 </sst>
 </file>
@@ -25516,17 +25528,31 @@
       <c r="Z505" s="8"/>
     </row>
     <row r="506" ht="18.0" customHeight="1">
-      <c r="A506" s="2"/>
-      <c r="B506" s="8"/>
-      <c r="C506" s="2"/>
-      <c r="D506" s="2"/>
-      <c r="E506" s="8"/>
-      <c r="F506" s="13"/>
+      <c r="A506" s="34">
+        <v>504.0</v>
+      </c>
+      <c r="B506" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C506" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D506" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E506" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F506" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G506" s="2"/>
       <c r="H506" s="13"/>
       <c r="I506" s="13"/>
       <c r="J506" s="14"/>
-      <c r="K506" s="8"/>
+      <c r="K506" s="31" t="s">
+        <v>506</v>
+      </c>
       <c r="L506" s="8"/>
       <c r="M506" s="8"/>
       <c r="N506" s="8"/>
@@ -25544,17 +25570,31 @@
       <c r="Z506" s="8"/>
     </row>
     <row r="507" ht="18.0" customHeight="1">
-      <c r="A507" s="2"/>
-      <c r="B507" s="8"/>
-      <c r="C507" s="2"/>
-      <c r="D507" s="2"/>
-      <c r="E507" s="8"/>
-      <c r="F507" s="13"/>
+      <c r="A507" s="34">
+        <v>505.0</v>
+      </c>
+      <c r="B507" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C507" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D507" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E507" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F507" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G507" s="2"/>
       <c r="H507" s="13"/>
       <c r="I507" s="13"/>
       <c r="J507" s="14"/>
-      <c r="K507" s="8"/>
+      <c r="K507" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L507" s="8"/>
       <c r="M507" s="8"/>
       <c r="N507" s="8"/>
@@ -25572,17 +25612,31 @@
       <c r="Z507" s="8"/>
     </row>
     <row r="508" ht="18.0" customHeight="1">
-      <c r="A508" s="2"/>
-      <c r="B508" s="8"/>
-      <c r="C508" s="2"/>
-      <c r="D508" s="2"/>
-      <c r="E508" s="8"/>
-      <c r="F508" s="13"/>
+      <c r="A508" s="34">
+        <v>506.0</v>
+      </c>
+      <c r="B508" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C508" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D508" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E508" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F508" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G508" s="2"/>
       <c r="H508" s="13"/>
       <c r="I508" s="13"/>
       <c r="J508" s="14"/>
-      <c r="K508" s="8"/>
+      <c r="K508" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L508" s="8"/>
       <c r="M508" s="8"/>
       <c r="N508" s="8"/>
@@ -25600,17 +25654,31 @@
       <c r="Z508" s="8"/>
     </row>
     <row r="509" ht="18.0" customHeight="1">
-      <c r="A509" s="2"/>
-      <c r="B509" s="8"/>
-      <c r="C509" s="2"/>
-      <c r="D509" s="2"/>
-      <c r="E509" s="8"/>
-      <c r="F509" s="13"/>
+      <c r="A509" s="34">
+        <v>507.0</v>
+      </c>
+      <c r="B509" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C509" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D509" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E509" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F509" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G509" s="2"/>
       <c r="H509" s="13"/>
       <c r="I509" s="13"/>
       <c r="J509" s="14"/>
-      <c r="K509" s="8"/>
+      <c r="K509" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L509" s="8"/>
       <c r="M509" s="8"/>
       <c r="N509" s="8"/>
@@ -25628,17 +25696,31 @@
       <c r="Z509" s="8"/>
     </row>
     <row r="510" ht="18.0" customHeight="1">
-      <c r="A510" s="2"/>
-      <c r="B510" s="8"/>
-      <c r="C510" s="2"/>
-      <c r="D510" s="2"/>
-      <c r="E510" s="8"/>
-      <c r="F510" s="13"/>
+      <c r="A510" s="34">
+        <v>508.0</v>
+      </c>
+      <c r="B510" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C510" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D510" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E510" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F510" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G510" s="2"/>
       <c r="H510" s="13"/>
       <c r="I510" s="13"/>
       <c r="J510" s="14"/>
-      <c r="K510" s="8"/>
+      <c r="K510" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L510" s="8"/>
       <c r="M510" s="8"/>
       <c r="N510" s="8"/>
@@ -25656,17 +25738,31 @@
       <c r="Z510" s="8"/>
     </row>
     <row r="511" ht="18.0" customHeight="1">
-      <c r="A511" s="2"/>
-      <c r="B511" s="8"/>
-      <c r="C511" s="2"/>
-      <c r="D511" s="2"/>
-      <c r="E511" s="8"/>
-      <c r="F511" s="13"/>
+      <c r="A511" s="34">
+        <v>509.0</v>
+      </c>
+      <c r="B511" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C511" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D511" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E511" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F511" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G511" s="2"/>
       <c r="H511" s="13"/>
       <c r="I511" s="13"/>
       <c r="J511" s="14"/>
-      <c r="K511" s="8"/>
+      <c r="K511" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L511" s="8"/>
       <c r="M511" s="8"/>
       <c r="N511" s="8"/>
@@ -25684,17 +25780,31 @@
       <c r="Z511" s="8"/>
     </row>
     <row r="512" ht="18.0" customHeight="1">
-      <c r="A512" s="2"/>
-      <c r="B512" s="8"/>
-      <c r="C512" s="2"/>
-      <c r="D512" s="2"/>
-      <c r="E512" s="8"/>
-      <c r="F512" s="13"/>
+      <c r="A512" s="34">
+        <v>510.0</v>
+      </c>
+      <c r="B512" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C512" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D512" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E512" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F512" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G512" s="2"/>
       <c r="H512" s="13"/>
       <c r="I512" s="13"/>
       <c r="J512" s="14"/>
-      <c r="K512" s="8"/>
+      <c r="K512" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L512" s="8"/>
       <c r="M512" s="8"/>
       <c r="N512" s="8"/>
@@ -25712,17 +25822,31 @@
       <c r="Z512" s="8"/>
     </row>
     <row r="513" ht="18.0" customHeight="1">
-      <c r="A513" s="2"/>
-      <c r="B513" s="8"/>
-      <c r="C513" s="2"/>
-      <c r="D513" s="2"/>
-      <c r="E513" s="8"/>
-      <c r="F513" s="13"/>
+      <c r="A513" s="34">
+        <v>511.0</v>
+      </c>
+      <c r="B513" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C513" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D513" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E513" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F513" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G513" s="2"/>
       <c r="H513" s="13"/>
       <c r="I513" s="13"/>
       <c r="J513" s="14"/>
-      <c r="K513" s="8"/>
+      <c r="K513" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L513" s="8"/>
       <c r="M513" s="8"/>
       <c r="N513" s="8"/>
@@ -25740,17 +25864,31 @@
       <c r="Z513" s="8"/>
     </row>
     <row r="514" ht="18.0" customHeight="1">
-      <c r="A514" s="2"/>
-      <c r="B514" s="8"/>
-      <c r="C514" s="2"/>
-      <c r="D514" s="2"/>
-      <c r="E514" s="8"/>
-      <c r="F514" s="13"/>
+      <c r="A514" s="34">
+        <v>512.0</v>
+      </c>
+      <c r="B514" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C514" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D514" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E514" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="F514" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G514" s="2"/>
       <c r="H514" s="13"/>
       <c r="I514" s="13"/>
       <c r="J514" s="14"/>
-      <c r="K514" s="8"/>
+      <c r="K514" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L514" s="8"/>
       <c r="M514" s="8"/>
       <c r="N514" s="8"/>
@@ -25768,17 +25906,31 @@
       <c r="Z514" s="8"/>
     </row>
     <row r="515" ht="18.0" customHeight="1">
-      <c r="A515" s="2"/>
-      <c r="B515" s="8"/>
-      <c r="C515" s="2"/>
-      <c r="D515" s="2"/>
-      <c r="E515" s="8"/>
-      <c r="F515" s="13"/>
+      <c r="A515" s="34">
+        <v>513.0</v>
+      </c>
+      <c r="B515" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C515" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D515" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E515" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F515" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G515" s="2"/>
       <c r="H515" s="13"/>
       <c r="I515" s="13"/>
       <c r="J515" s="14"/>
-      <c r="K515" s="8"/>
+      <c r="K515" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L515" s="8"/>
       <c r="M515" s="8"/>
       <c r="N515" s="8"/>
@@ -25796,17 +25948,31 @@
       <c r="Z515" s="8"/>
     </row>
     <row r="516" ht="18.0" customHeight="1">
-      <c r="A516" s="2"/>
-      <c r="B516" s="8"/>
-      <c r="C516" s="2"/>
-      <c r="D516" s="2"/>
-      <c r="E516" s="8"/>
-      <c r="F516" s="13"/>
+      <c r="A516" s="34">
+        <v>514.0</v>
+      </c>
+      <c r="B516" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C516" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D516" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E516" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F516" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G516" s="2"/>
       <c r="H516" s="13"/>
       <c r="I516" s="13"/>
       <c r="J516" s="14"/>
-      <c r="K516" s="8"/>
+      <c r="K516" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L516" s="8"/>
       <c r="M516" s="8"/>
       <c r="N516" s="8"/>
@@ -25824,17 +25990,31 @@
       <c r="Z516" s="8"/>
     </row>
     <row r="517" ht="18.0" customHeight="1">
-      <c r="A517" s="2"/>
-      <c r="B517" s="8"/>
-      <c r="C517" s="2"/>
-      <c r="D517" s="2"/>
-      <c r="E517" s="8"/>
-      <c r="F517" s="13"/>
+      <c r="A517" s="34">
+        <v>515.0</v>
+      </c>
+      <c r="B517" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C517" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D517" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E517" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F517" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G517" s="2"/>
       <c r="H517" s="13"/>
       <c r="I517" s="13"/>
       <c r="J517" s="14"/>
-      <c r="K517" s="8"/>
+      <c r="K517" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L517" s="8"/>
       <c r="M517" s="8"/>
       <c r="N517" s="8"/>
@@ -25852,17 +26032,31 @@
       <c r="Z517" s="8"/>
     </row>
     <row r="518" ht="18.0" customHeight="1">
-      <c r="A518" s="2"/>
-      <c r="B518" s="8"/>
-      <c r="C518" s="2"/>
-      <c r="D518" s="2"/>
-      <c r="E518" s="8"/>
-      <c r="F518" s="13"/>
+      <c r="A518" s="34">
+        <v>516.0</v>
+      </c>
+      <c r="B518" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C518" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D518" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E518" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F518" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G518" s="2"/>
       <c r="H518" s="13"/>
       <c r="I518" s="13"/>
       <c r="J518" s="14"/>
-      <c r="K518" s="8"/>
+      <c r="K518" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L518" s="8"/>
       <c r="M518" s="8"/>
       <c r="N518" s="8"/>
@@ -25880,17 +26074,31 @@
       <c r="Z518" s="8"/>
     </row>
     <row r="519" ht="18.0" customHeight="1">
-      <c r="A519" s="2"/>
-      <c r="B519" s="8"/>
-      <c r="C519" s="2"/>
-      <c r="D519" s="2"/>
-      <c r="E519" s="8"/>
-      <c r="F519" s="13"/>
+      <c r="A519" s="34">
+        <v>517.0</v>
+      </c>
+      <c r="B519" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C519" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D519" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E519" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F519" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G519" s="2"/>
       <c r="H519" s="13"/>
       <c r="I519" s="13"/>
       <c r="J519" s="14"/>
-      <c r="K519" s="8"/>
+      <c r="K519" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L519" s="8"/>
       <c r="M519" s="8"/>
       <c r="N519" s="8"/>
@@ -25908,17 +26116,31 @@
       <c r="Z519" s="8"/>
     </row>
     <row r="520" ht="18.0" customHeight="1">
-      <c r="A520" s="2"/>
-      <c r="B520" s="8"/>
-      <c r="C520" s="2"/>
-      <c r="D520" s="2"/>
-      <c r="E520" s="8"/>
-      <c r="F520" s="13"/>
+      <c r="A520" s="34">
+        <v>518.0</v>
+      </c>
+      <c r="B520" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C520" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D520" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E520" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F520" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G520" s="2"/>
       <c r="H520" s="13"/>
       <c r="I520" s="13"/>
       <c r="J520" s="14"/>
-      <c r="K520" s="8"/>
+      <c r="K520" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L520" s="8"/>
       <c r="M520" s="8"/>
       <c r="N520" s="8"/>
@@ -25936,17 +26158,31 @@
       <c r="Z520" s="8"/>
     </row>
     <row r="521" ht="18.0" customHeight="1">
-      <c r="A521" s="2"/>
-      <c r="B521" s="8"/>
-      <c r="C521" s="2"/>
-      <c r="D521" s="2"/>
-      <c r="E521" s="8"/>
-      <c r="F521" s="13"/>
+      <c r="A521" s="34">
+        <v>519.0</v>
+      </c>
+      <c r="B521" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C521" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D521" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E521" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F521" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G521" s="2"/>
       <c r="H521" s="13"/>
       <c r="I521" s="13"/>
       <c r="J521" s="14"/>
-      <c r="K521" s="8"/>
+      <c r="K521" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L521" s="8"/>
       <c r="M521" s="8"/>
       <c r="N521" s="8"/>
@@ -25964,17 +26200,31 @@
       <c r="Z521" s="8"/>
     </row>
     <row r="522" ht="18.0" customHeight="1">
-      <c r="A522" s="2"/>
-      <c r="B522" s="8"/>
-      <c r="C522" s="2"/>
-      <c r="D522" s="2"/>
-      <c r="E522" s="8"/>
-      <c r="F522" s="13"/>
+      <c r="A522" s="34">
+        <v>520.0</v>
+      </c>
+      <c r="B522" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C522" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D522" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E522" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F522" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G522" s="2"/>
       <c r="H522" s="13"/>
       <c r="I522" s="13"/>
       <c r="J522" s="14"/>
-      <c r="K522" s="8"/>
+      <c r="K522" s="31" t="s">
+        <v>507</v>
+      </c>
       <c r="L522" s="8"/>
       <c r="M522" s="8"/>
       <c r="N522" s="8"/>
@@ -25992,17 +26242,31 @@
       <c r="Z522" s="8"/>
     </row>
     <row r="523" ht="18.0" customHeight="1">
-      <c r="A523" s="2"/>
-      <c r="B523" s="8"/>
-      <c r="C523" s="2"/>
-      <c r="D523" s="2"/>
-      <c r="E523" s="8"/>
-      <c r="F523" s="13"/>
+      <c r="A523" s="34">
+        <v>521.0</v>
+      </c>
+      <c r="B523" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C523" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D523" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E523" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F523" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G523" s="2"/>
       <c r="H523" s="13"/>
       <c r="I523" s="13"/>
       <c r="J523" s="14"/>
-      <c r="K523" s="8"/>
+      <c r="K523" s="31" t="s">
+        <v>509</v>
+      </c>
       <c r="L523" s="8"/>
       <c r="M523" s="8"/>
       <c r="N523" s="8"/>
@@ -26020,17 +26284,31 @@
       <c r="Z523" s="8"/>
     </row>
     <row r="524" ht="18.0" customHeight="1">
-      <c r="A524" s="2"/>
-      <c r="B524" s="8"/>
-      <c r="C524" s="2"/>
-      <c r="D524" s="2"/>
-      <c r="E524" s="8"/>
-      <c r="F524" s="13"/>
+      <c r="A524" s="34">
+        <v>522.0</v>
+      </c>
+      <c r="B524" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C524" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D524" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E524" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F524" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G524" s="2"/>
       <c r="H524" s="13"/>
       <c r="I524" s="13"/>
       <c r="J524" s="14"/>
-      <c r="K524" s="8"/>
+      <c r="K524" s="31" t="s">
+        <v>509</v>
+      </c>
       <c r="L524" s="8"/>
       <c r="M524" s="8"/>
       <c r="N524" s="8"/>
@@ -26048,17 +26326,31 @@
       <c r="Z524" s="8"/>
     </row>
     <row r="525" ht="18.0" customHeight="1">
-      <c r="A525" s="2"/>
-      <c r="B525" s="8"/>
-      <c r="C525" s="2"/>
-      <c r="D525" s="2"/>
-      <c r="E525" s="8"/>
-      <c r="F525" s="13"/>
+      <c r="A525" s="34">
+        <v>523.0</v>
+      </c>
+      <c r="B525" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C525" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D525" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E525" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F525" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G525" s="2"/>
       <c r="H525" s="13"/>
       <c r="I525" s="13"/>
       <c r="J525" s="14"/>
-      <c r="K525" s="8"/>
+      <c r="K525" s="31" t="s">
+        <v>509</v>
+      </c>
       <c r="L525" s="8"/>
       <c r="M525" s="8"/>
       <c r="N525" s="8"/>
@@ -26076,17 +26368,31 @@
       <c r="Z525" s="8"/>
     </row>
     <row r="526" ht="18.0" customHeight="1">
-      <c r="A526" s="2"/>
-      <c r="B526" s="8"/>
-      <c r="C526" s="2"/>
-      <c r="D526" s="2"/>
-      <c r="E526" s="8"/>
-      <c r="F526" s="13"/>
+      <c r="A526" s="34">
+        <v>524.0</v>
+      </c>
+      <c r="B526" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C526" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D526" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E526" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F526" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G526" s="2"/>
       <c r="H526" s="13"/>
       <c r="I526" s="13"/>
       <c r="J526" s="14"/>
-      <c r="K526" s="8"/>
+      <c r="K526" s="31" t="s">
+        <v>509</v>
+      </c>
       <c r="L526" s="8"/>
       <c r="M526" s="8"/>
       <c r="N526" s="8"/>
@@ -26104,17 +26410,31 @@
       <c r="Z526" s="8"/>
     </row>
     <row r="527" ht="18.0" customHeight="1">
-      <c r="A527" s="2"/>
-      <c r="B527" s="8"/>
-      <c r="C527" s="2"/>
-      <c r="D527" s="2"/>
-      <c r="E527" s="8"/>
-      <c r="F527" s="13"/>
+      <c r="A527" s="34">
+        <v>525.0</v>
+      </c>
+      <c r="B527" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C527" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D527" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E527" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F527" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G527" s="2"/>
       <c r="H527" s="13"/>
       <c r="I527" s="13"/>
       <c r="J527" s="14"/>
-      <c r="K527" s="8"/>
+      <c r="K527" s="31" t="s">
+        <v>509</v>
+      </c>
       <c r="L527" s="8"/>
       <c r="M527" s="8"/>
       <c r="N527" s="8"/>
@@ -26132,17 +26452,31 @@
       <c r="Z527" s="8"/>
     </row>
     <row r="528" ht="18.0" customHeight="1">
-      <c r="A528" s="2"/>
-      <c r="B528" s="8"/>
-      <c r="C528" s="2"/>
-      <c r="D528" s="2"/>
-      <c r="E528" s="8"/>
-      <c r="F528" s="13"/>
+      <c r="A528" s="34">
+        <v>526.0</v>
+      </c>
+      <c r="B528" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C528" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D528" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E528" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F528" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G528" s="2"/>
       <c r="H528" s="13"/>
       <c r="I528" s="13"/>
       <c r="J528" s="14"/>
-      <c r="K528" s="8"/>
+      <c r="K528" s="31" t="s">
+        <v>509</v>
+      </c>
       <c r="L528" s="8"/>
       <c r="M528" s="8"/>
       <c r="N528" s="8"/>
@@ -26160,17 +26494,31 @@
       <c r="Z528" s="8"/>
     </row>
     <row r="529" ht="18.0" customHeight="1">
-      <c r="A529" s="2"/>
-      <c r="B529" s="8"/>
-      <c r="C529" s="2"/>
-      <c r="D529" s="2"/>
-      <c r="E529" s="8"/>
-      <c r="F529" s="13"/>
+      <c r="A529" s="34">
+        <v>527.0</v>
+      </c>
+      <c r="B529" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C529" s="39">
+        <v>44030.0</v>
+      </c>
+      <c r="D529" s="33">
+        <v>44030.0</v>
+      </c>
+      <c r="E529" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F529" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G529" s="2"/>
       <c r="H529" s="13"/>
       <c r="I529" s="13"/>
       <c r="J529" s="14"/>
-      <c r="K529" s="8"/>
+      <c r="K529" s="31" t="s">
+        <v>509</v>
+      </c>
       <c r="L529" s="8"/>
       <c r="M529" s="8"/>
       <c r="N529" s="8"/>
@@ -26188,7 +26536,7 @@
       <c r="Z529" s="8"/>
     </row>
     <row r="530" ht="18.0" customHeight="1">
-      <c r="A530" s="2"/>
+      <c r="A530" s="34"/>
       <c r="B530" s="8"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -26216,7 +26564,7 @@
       <c r="Z530" s="8"/>
     </row>
     <row r="531" ht="18.0" customHeight="1">
-      <c r="A531" s="2"/>
+      <c r="A531" s="34"/>
       <c r="B531" s="8"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -26244,7 +26592,7 @@
       <c r="Z531" s="8"/>
     </row>
     <row r="532" ht="18.0" customHeight="1">
-      <c r="A532" s="2"/>
+      <c r="A532" s="34"/>
       <c r="B532" s="8"/>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -26272,7 +26620,7 @@
       <c r="Z532" s="8"/>
     </row>
     <row r="533" ht="18.0" customHeight="1">
-      <c r="A533" s="2"/>
+      <c r="A533" s="34"/>
       <c r="B533" s="8"/>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -26300,7 +26648,7 @@
       <c r="Z533" s="8"/>
     </row>
     <row r="534" ht="18.0" customHeight="1">
-      <c r="A534" s="2"/>
+      <c r="A534" s="34"/>
       <c r="B534" s="8"/>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -26328,7 +26676,7 @@
       <c r="Z534" s="8"/>
     </row>
     <row r="535" ht="18.0" customHeight="1">
-      <c r="A535" s="2"/>
+      <c r="A535" s="34"/>
       <c r="B535" s="8"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -39735,10 +40083,34 @@
     <hyperlink r:id="rId327" ref="K503"/>
     <hyperlink r:id="rId328" ref="K504"/>
     <hyperlink r:id="rId329" ref="K505"/>
+    <hyperlink r:id="rId330" ref="K506"/>
+    <hyperlink r:id="rId331" ref="K507"/>
+    <hyperlink r:id="rId332" ref="K508"/>
+    <hyperlink r:id="rId333" ref="K509"/>
+    <hyperlink r:id="rId334" ref="K510"/>
+    <hyperlink r:id="rId335" ref="K511"/>
+    <hyperlink r:id="rId336" ref="K512"/>
+    <hyperlink r:id="rId337" ref="K513"/>
+    <hyperlink r:id="rId338" ref="K514"/>
+    <hyperlink r:id="rId339" ref="K515"/>
+    <hyperlink r:id="rId340" ref="K516"/>
+    <hyperlink r:id="rId341" ref="K517"/>
+    <hyperlink r:id="rId342" ref="K518"/>
+    <hyperlink r:id="rId343" ref="K519"/>
+    <hyperlink r:id="rId344" ref="K520"/>
+    <hyperlink r:id="rId345" ref="K521"/>
+    <hyperlink r:id="rId346" ref="K522"/>
+    <hyperlink r:id="rId347" ref="K523"/>
+    <hyperlink r:id="rId348" ref="K524"/>
+    <hyperlink r:id="rId349" ref="K525"/>
+    <hyperlink r:id="rId350" ref="K526"/>
+    <hyperlink r:id="rId351" ref="K527"/>
+    <hyperlink r:id="rId352" ref="K528"/>
+    <hyperlink r:id="rId353" ref="K529"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId330"/>
+  <drawing r:id="rId354"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="510">
-  <si>
-    <t>2020-07-18T23:10:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="512">
+  <si>
+    <t>2020-07-19T19:10:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1695,6 +1695,12 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272893/200718oshirase(361-367).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-19T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200719-528-532.pdf</t>
   </si>
 </sst>
 </file>
@@ -1969,11 +1975,11 @@
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -25489,7 +25495,7 @@
       <c r="A505" s="34">
         <v>503.0</v>
       </c>
-      <c r="B505" s="43" t="s">
+      <c r="B505" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C505" s="39">
@@ -25508,7 +25514,7 @@
       <c r="H505" s="13"/>
       <c r="I505" s="13"/>
       <c r="J505" s="14"/>
-      <c r="K505" s="44" t="s">
+      <c r="K505" s="43" t="s">
         <v>505</v>
       </c>
       <c r="L505" s="8"/>
@@ -25531,7 +25537,7 @@
       <c r="A506" s="34">
         <v>504.0</v>
       </c>
-      <c r="B506" s="43" t="s">
+      <c r="B506" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C506" s="39">
@@ -25573,7 +25579,7 @@
       <c r="A507" s="34">
         <v>505.0</v>
       </c>
-      <c r="B507" s="43" t="s">
+      <c r="B507" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C507" s="39">
@@ -25615,7 +25621,7 @@
       <c r="A508" s="34">
         <v>506.0</v>
       </c>
-      <c r="B508" s="43" t="s">
+      <c r="B508" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C508" s="39">
@@ -25657,7 +25663,7 @@
       <c r="A509" s="34">
         <v>507.0</v>
       </c>
-      <c r="B509" s="43" t="s">
+      <c r="B509" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C509" s="39">
@@ -25699,7 +25705,7 @@
       <c r="A510" s="34">
         <v>508.0</v>
       </c>
-      <c r="B510" s="43" t="s">
+      <c r="B510" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C510" s="39">
@@ -25741,7 +25747,7 @@
       <c r="A511" s="34">
         <v>509.0</v>
       </c>
-      <c r="B511" s="43" t="s">
+      <c r="B511" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C511" s="39">
@@ -25783,7 +25789,7 @@
       <c r="A512" s="34">
         <v>510.0</v>
       </c>
-      <c r="B512" s="43" t="s">
+      <c r="B512" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C512" s="39">
@@ -25825,7 +25831,7 @@
       <c r="A513" s="34">
         <v>511.0</v>
       </c>
-      <c r="B513" s="43" t="s">
+      <c r="B513" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C513" s="39">
@@ -25867,7 +25873,7 @@
       <c r="A514" s="34">
         <v>512.0</v>
       </c>
-      <c r="B514" s="43" t="s">
+      <c r="B514" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C514" s="39">
@@ -25909,7 +25915,7 @@
       <c r="A515" s="34">
         <v>513.0</v>
       </c>
-      <c r="B515" s="43" t="s">
+      <c r="B515" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C515" s="39">
@@ -25951,7 +25957,7 @@
       <c r="A516" s="34">
         <v>514.0</v>
       </c>
-      <c r="B516" s="43" t="s">
+      <c r="B516" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C516" s="39">
@@ -25993,7 +25999,7 @@
       <c r="A517" s="34">
         <v>515.0</v>
       </c>
-      <c r="B517" s="43" t="s">
+      <c r="B517" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C517" s="39">
@@ -26035,7 +26041,7 @@
       <c r="A518" s="34">
         <v>516.0</v>
       </c>
-      <c r="B518" s="43" t="s">
+      <c r="B518" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C518" s="39">
@@ -26077,7 +26083,7 @@
       <c r="A519" s="34">
         <v>517.0</v>
       </c>
-      <c r="B519" s="43" t="s">
+      <c r="B519" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C519" s="39">
@@ -26119,7 +26125,7 @@
       <c r="A520" s="34">
         <v>518.0</v>
       </c>
-      <c r="B520" s="43" t="s">
+      <c r="B520" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C520" s="39">
@@ -26161,7 +26167,7 @@
       <c r="A521" s="34">
         <v>519.0</v>
       </c>
-      <c r="B521" s="43" t="s">
+      <c r="B521" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C521" s="39">
@@ -26203,7 +26209,7 @@
       <c r="A522" s="34">
         <v>520.0</v>
       </c>
-      <c r="B522" s="43" t="s">
+      <c r="B522" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C522" s="39">
@@ -26245,7 +26251,7 @@
       <c r="A523" s="34">
         <v>521.0</v>
       </c>
-      <c r="B523" s="43" t="s">
+      <c r="B523" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C523" s="39">
@@ -26287,7 +26293,7 @@
       <c r="A524" s="34">
         <v>522.0</v>
       </c>
-      <c r="B524" s="43" t="s">
+      <c r="B524" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C524" s="39">
@@ -26329,7 +26335,7 @@
       <c r="A525" s="34">
         <v>523.0</v>
       </c>
-      <c r="B525" s="43" t="s">
+      <c r="B525" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C525" s="39">
@@ -26371,7 +26377,7 @@
       <c r="A526" s="34">
         <v>524.0</v>
       </c>
-      <c r="B526" s="43" t="s">
+      <c r="B526" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C526" s="39">
@@ -26413,7 +26419,7 @@
       <c r="A527" s="34">
         <v>525.0</v>
       </c>
-      <c r="B527" s="43" t="s">
+      <c r="B527" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C527" s="39">
@@ -26455,7 +26461,7 @@
       <c r="A528" s="34">
         <v>526.0</v>
       </c>
-      <c r="B528" s="43" t="s">
+      <c r="B528" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C528" s="39">
@@ -26497,7 +26503,7 @@
       <c r="A529" s="34">
         <v>527.0</v>
       </c>
-      <c r="B529" s="43" t="s">
+      <c r="B529" s="27" t="s">
         <v>504</v>
       </c>
       <c r="C529" s="39">
@@ -26536,17 +26542,31 @@
       <c r="Z529" s="8"/>
     </row>
     <row r="530" ht="18.0" customHeight="1">
-      <c r="A530" s="34"/>
-      <c r="B530" s="8"/>
-      <c r="C530" s="2"/>
-      <c r="D530" s="2"/>
-      <c r="E530" s="8"/>
-      <c r="F530" s="13"/>
+      <c r="A530" s="34">
+        <v>528.0</v>
+      </c>
+      <c r="B530" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C530" s="39">
+        <v>44031.0</v>
+      </c>
+      <c r="D530" s="33">
+        <v>44031.0</v>
+      </c>
+      <c r="E530" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F530" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G530" s="2"/>
       <c r="H530" s="13"/>
       <c r="I530" s="13"/>
       <c r="J530" s="14"/>
-      <c r="K530" s="8"/>
+      <c r="K530" s="31" t="s">
+        <v>511</v>
+      </c>
       <c r="L530" s="8"/>
       <c r="M530" s="8"/>
       <c r="N530" s="8"/>
@@ -26564,17 +26584,31 @@
       <c r="Z530" s="8"/>
     </row>
     <row r="531" ht="18.0" customHeight="1">
-      <c r="A531" s="34"/>
-      <c r="B531" s="8"/>
-      <c r="C531" s="2"/>
-      <c r="D531" s="2"/>
-      <c r="E531" s="8"/>
-      <c r="F531" s="13"/>
+      <c r="A531" s="34">
+        <v>529.0</v>
+      </c>
+      <c r="B531" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C531" s="39">
+        <v>44031.0</v>
+      </c>
+      <c r="D531" s="33">
+        <v>44031.0</v>
+      </c>
+      <c r="E531" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F531" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G531" s="2"/>
       <c r="H531" s="13"/>
       <c r="I531" s="13"/>
       <c r="J531" s="14"/>
-      <c r="K531" s="8"/>
+      <c r="K531" s="31" t="s">
+        <v>511</v>
+      </c>
       <c r="L531" s="8"/>
       <c r="M531" s="8"/>
       <c r="N531" s="8"/>
@@ -26592,17 +26626,31 @@
       <c r="Z531" s="8"/>
     </row>
     <row r="532" ht="18.0" customHeight="1">
-      <c r="A532" s="34"/>
-      <c r="B532" s="8"/>
-      <c r="C532" s="2"/>
-      <c r="D532" s="2"/>
-      <c r="E532" s="8"/>
-      <c r="F532" s="13"/>
+      <c r="A532" s="34">
+        <v>530.0</v>
+      </c>
+      <c r="B532" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C532" s="39">
+        <v>44031.0</v>
+      </c>
+      <c r="D532" s="33">
+        <v>44031.0</v>
+      </c>
+      <c r="E532" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F532" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G532" s="2"/>
       <c r="H532" s="13"/>
       <c r="I532" s="13"/>
       <c r="J532" s="14"/>
-      <c r="K532" s="8"/>
+      <c r="K532" s="31" t="s">
+        <v>511</v>
+      </c>
       <c r="L532" s="8"/>
       <c r="M532" s="8"/>
       <c r="N532" s="8"/>
@@ -26620,17 +26668,31 @@
       <c r="Z532" s="8"/>
     </row>
     <row r="533" ht="18.0" customHeight="1">
-      <c r="A533" s="34"/>
-      <c r="B533" s="8"/>
-      <c r="C533" s="2"/>
-      <c r="D533" s="2"/>
-      <c r="E533" s="8"/>
-      <c r="F533" s="13"/>
+      <c r="A533" s="34">
+        <v>531.0</v>
+      </c>
+      <c r="B533" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C533" s="39">
+        <v>44031.0</v>
+      </c>
+      <c r="D533" s="33">
+        <v>44031.0</v>
+      </c>
+      <c r="E533" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F533" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G533" s="2"/>
       <c r="H533" s="13"/>
       <c r="I533" s="13"/>
       <c r="J533" s="14"/>
-      <c r="K533" s="8"/>
+      <c r="K533" s="31" t="s">
+        <v>511</v>
+      </c>
       <c r="L533" s="8"/>
       <c r="M533" s="8"/>
       <c r="N533" s="8"/>
@@ -26648,17 +26710,31 @@
       <c r="Z533" s="8"/>
     </row>
     <row r="534" ht="18.0" customHeight="1">
-      <c r="A534" s="34"/>
-      <c r="B534" s="8"/>
-      <c r="C534" s="2"/>
-      <c r="D534" s="2"/>
-      <c r="E534" s="8"/>
-      <c r="F534" s="13"/>
+      <c r="A534" s="34">
+        <v>532.0</v>
+      </c>
+      <c r="B534" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C534" s="39">
+        <v>44031.0</v>
+      </c>
+      <c r="D534" s="33">
+        <v>44031.0</v>
+      </c>
+      <c r="E534" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F534" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G534" s="2"/>
       <c r="H534" s="13"/>
       <c r="I534" s="13"/>
       <c r="J534" s="14"/>
-      <c r="K534" s="8"/>
+      <c r="K534" s="31" t="s">
+        <v>511</v>
+      </c>
       <c r="L534" s="8"/>
       <c r="M534" s="8"/>
       <c r="N534" s="8"/>
@@ -40107,10 +40183,15 @@
     <hyperlink r:id="rId351" ref="K527"/>
     <hyperlink r:id="rId352" ref="K528"/>
     <hyperlink r:id="rId353" ref="K529"/>
+    <hyperlink r:id="rId354" ref="K530"/>
+    <hyperlink r:id="rId355" ref="K531"/>
+    <hyperlink r:id="rId356" ref="K532"/>
+    <hyperlink r:id="rId357" ref="K533"/>
+    <hyperlink r:id="rId358" ref="K534"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId354"/>
+  <drawing r:id="rId359"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="512">
-  <si>
-    <t>2020-07-19T19:10:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="513">
+  <si>
+    <t>2020-07-19T23:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1701,6 +1701,9 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200719-528-532.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272894/200719oshirase(368-374).pdf</t>
   </si>
 </sst>
 </file>
@@ -26752,17 +26755,31 @@
       <c r="Z534" s="8"/>
     </row>
     <row r="535" ht="18.0" customHeight="1">
-      <c r="A535" s="34"/>
-      <c r="B535" s="8"/>
-      <c r="C535" s="2"/>
-      <c r="D535" s="2"/>
-      <c r="E535" s="8"/>
-      <c r="F535" s="13"/>
+      <c r="A535" s="34">
+        <v>533.0</v>
+      </c>
+      <c r="B535" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C535" s="39">
+        <v>44031.0</v>
+      </c>
+      <c r="D535" s="33">
+        <v>44031.0</v>
+      </c>
+      <c r="E535" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F535" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G535" s="2"/>
       <c r="H535" s="13"/>
       <c r="I535" s="13"/>
       <c r="J535" s="14"/>
-      <c r="K535" s="8"/>
+      <c r="K535" s="31" t="s">
+        <v>512</v>
+      </c>
       <c r="L535" s="8"/>
       <c r="M535" s="8"/>
       <c r="N535" s="8"/>
@@ -26780,17 +26797,31 @@
       <c r="Z535" s="8"/>
     </row>
     <row r="536" ht="18.0" customHeight="1">
-      <c r="A536" s="2"/>
-      <c r="B536" s="8"/>
-      <c r="C536" s="2"/>
-      <c r="D536" s="2"/>
-      <c r="E536" s="8"/>
-      <c r="F536" s="13"/>
+      <c r="A536" s="34">
+        <v>534.0</v>
+      </c>
+      <c r="B536" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C536" s="39">
+        <v>44031.0</v>
+      </c>
+      <c r="D536" s="33">
+        <v>44031.0</v>
+      </c>
+      <c r="E536" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F536" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G536" s="2"/>
       <c r="H536" s="13"/>
       <c r="I536" s="13"/>
       <c r="J536" s="14"/>
-      <c r="K536" s="8"/>
+      <c r="K536" s="31" t="s">
+        <v>512</v>
+      </c>
       <c r="L536" s="8"/>
       <c r="M536" s="8"/>
       <c r="N536" s="8"/>
@@ -26808,17 +26839,31 @@
       <c r="Z536" s="8"/>
     </row>
     <row r="537" ht="18.0" customHeight="1">
-      <c r="A537" s="2"/>
-      <c r="B537" s="8"/>
-      <c r="C537" s="2"/>
-      <c r="D537" s="2"/>
-      <c r="E537" s="8"/>
-      <c r="F537" s="13"/>
+      <c r="A537" s="34">
+        <v>535.0</v>
+      </c>
+      <c r="B537" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C537" s="39">
+        <v>44031.0</v>
+      </c>
+      <c r="D537" s="33">
+        <v>44031.0</v>
+      </c>
+      <c r="E537" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F537" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G537" s="2"/>
       <c r="H537" s="13"/>
       <c r="I537" s="13"/>
       <c r="J537" s="14"/>
-      <c r="K537" s="8"/>
+      <c r="K537" s="31" t="s">
+        <v>512</v>
+      </c>
       <c r="L537" s="8"/>
       <c r="M537" s="8"/>
       <c r="N537" s="8"/>
@@ -26836,17 +26881,31 @@
       <c r="Z537" s="8"/>
     </row>
     <row r="538" ht="18.0" customHeight="1">
-      <c r="A538" s="2"/>
-      <c r="B538" s="8"/>
-      <c r="C538" s="2"/>
-      <c r="D538" s="2"/>
-      <c r="E538" s="8"/>
-      <c r="F538" s="13"/>
+      <c r="A538" s="34">
+        <v>536.0</v>
+      </c>
+      <c r="B538" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C538" s="39">
+        <v>44031.0</v>
+      </c>
+      <c r="D538" s="33">
+        <v>44031.0</v>
+      </c>
+      <c r="E538" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F538" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G538" s="2"/>
       <c r="H538" s="13"/>
       <c r="I538" s="13"/>
       <c r="J538" s="14"/>
-      <c r="K538" s="8"/>
+      <c r="K538" s="31" t="s">
+        <v>512</v>
+      </c>
       <c r="L538" s="8"/>
       <c r="M538" s="8"/>
       <c r="N538" s="8"/>
@@ -26864,17 +26923,31 @@
       <c r="Z538" s="8"/>
     </row>
     <row r="539" ht="18.0" customHeight="1">
-      <c r="A539" s="2"/>
-      <c r="B539" s="8"/>
-      <c r="C539" s="2"/>
-      <c r="D539" s="2"/>
-      <c r="E539" s="8"/>
-      <c r="F539" s="13"/>
+      <c r="A539" s="34">
+        <v>537.0</v>
+      </c>
+      <c r="B539" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C539" s="39">
+        <v>44031.0</v>
+      </c>
+      <c r="D539" s="33">
+        <v>44031.0</v>
+      </c>
+      <c r="E539" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F539" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G539" s="2"/>
       <c r="H539" s="13"/>
       <c r="I539" s="13"/>
       <c r="J539" s="14"/>
-      <c r="K539" s="8"/>
+      <c r="K539" s="31" t="s">
+        <v>512</v>
+      </c>
       <c r="L539" s="8"/>
       <c r="M539" s="8"/>
       <c r="N539" s="8"/>
@@ -26892,17 +26965,31 @@
       <c r="Z539" s="8"/>
     </row>
     <row r="540" ht="18.0" customHeight="1">
-      <c r="A540" s="2"/>
-      <c r="B540" s="8"/>
-      <c r="C540" s="2"/>
-      <c r="D540" s="2"/>
-      <c r="E540" s="8"/>
-      <c r="F540" s="13"/>
+      <c r="A540" s="34">
+        <v>538.0</v>
+      </c>
+      <c r="B540" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C540" s="39">
+        <v>44031.0</v>
+      </c>
+      <c r="D540" s="33">
+        <v>44031.0</v>
+      </c>
+      <c r="E540" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F540" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G540" s="2"/>
       <c r="H540" s="13"/>
       <c r="I540" s="13"/>
       <c r="J540" s="14"/>
-      <c r="K540" s="8"/>
+      <c r="K540" s="31" t="s">
+        <v>512</v>
+      </c>
       <c r="L540" s="8"/>
       <c r="M540" s="8"/>
       <c r="N540" s="8"/>
@@ -26920,17 +27007,31 @@
       <c r="Z540" s="8"/>
     </row>
     <row r="541" ht="18.0" customHeight="1">
-      <c r="A541" s="2"/>
-      <c r="B541" s="8"/>
-      <c r="C541" s="2"/>
-      <c r="D541" s="2"/>
-      <c r="E541" s="8"/>
-      <c r="F541" s="13"/>
+      <c r="A541" s="34">
+        <v>539.0</v>
+      </c>
+      <c r="B541" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C541" s="39">
+        <v>44031.0</v>
+      </c>
+      <c r="D541" s="33">
+        <v>44031.0</v>
+      </c>
+      <c r="E541" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F541" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G541" s="2"/>
       <c r="H541" s="13"/>
       <c r="I541" s="13"/>
       <c r="J541" s="14"/>
-      <c r="K541" s="8"/>
+      <c r="K541" s="31" t="s">
+        <v>512</v>
+      </c>
       <c r="L541" s="8"/>
       <c r="M541" s="8"/>
       <c r="N541" s="8"/>
@@ -26948,7 +27049,7 @@
       <c r="Z541" s="8"/>
     </row>
     <row r="542" ht="18.0" customHeight="1">
-      <c r="A542" s="2"/>
+      <c r="A542" s="34"/>
       <c r="B542" s="8"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -26976,7 +27077,7 @@
       <c r="Z542" s="8"/>
     </row>
     <row r="543" ht="18.0" customHeight="1">
-      <c r="A543" s="2"/>
+      <c r="A543" s="34"/>
       <c r="B543" s="8"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -40188,10 +40289,17 @@
     <hyperlink r:id="rId356" ref="K532"/>
     <hyperlink r:id="rId357" ref="K533"/>
     <hyperlink r:id="rId358" ref="K534"/>
+    <hyperlink r:id="rId359" ref="K535"/>
+    <hyperlink r:id="rId360" ref="K536"/>
+    <hyperlink r:id="rId361" ref="K537"/>
+    <hyperlink r:id="rId362" ref="K538"/>
+    <hyperlink r:id="rId363" ref="K539"/>
+    <hyperlink r:id="rId364" ref="K540"/>
+    <hyperlink r:id="rId365" ref="K541"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId359"/>
+  <drawing r:id="rId366"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="513">
-  <si>
-    <t>2020-07-19T23:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="514">
+  <si>
+    <t>2020-07-20T18:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1704,6 +1704,9 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272894/200719oshirase(368-374).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-20T08:00:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -27049,10 +27052,18 @@
       <c r="Z541" s="8"/>
     </row>
     <row r="542" ht="18.0" customHeight="1">
-      <c r="A542" s="34"/>
-      <c r="B542" s="8"/>
-      <c r="C542" s="2"/>
-      <c r="D542" s="2"/>
+      <c r="A542" s="34">
+        <v>540.0</v>
+      </c>
+      <c r="B542" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C542" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D542" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E542" s="8"/>
       <c r="F542" s="13"/>
       <c r="G542" s="2"/>
@@ -27077,10 +27088,18 @@
       <c r="Z542" s="8"/>
     </row>
     <row r="543" ht="18.0" customHeight="1">
-      <c r="A543" s="34"/>
-      <c r="B543" s="8"/>
-      <c r="C543" s="2"/>
-      <c r="D543" s="2"/>
+      <c r="A543" s="34">
+        <v>541.0</v>
+      </c>
+      <c r="B543" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C543" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D543" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E543" s="8"/>
       <c r="F543" s="13"/>
       <c r="G543" s="2"/>
@@ -27105,10 +27124,18 @@
       <c r="Z543" s="8"/>
     </row>
     <row r="544" ht="18.0" customHeight="1">
-      <c r="A544" s="2"/>
-      <c r="B544" s="8"/>
-      <c r="C544" s="2"/>
-      <c r="D544" s="2"/>
+      <c r="A544" s="34">
+        <v>542.0</v>
+      </c>
+      <c r="B544" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C544" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D544" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E544" s="8"/>
       <c r="F544" s="13"/>
       <c r="G544" s="2"/>
@@ -27133,10 +27160,18 @@
       <c r="Z544" s="8"/>
     </row>
     <row r="545" ht="18.0" customHeight="1">
-      <c r="A545" s="2"/>
-      <c r="B545" s="8"/>
-      <c r="C545" s="2"/>
-      <c r="D545" s="2"/>
+      <c r="A545" s="34">
+        <v>543.0</v>
+      </c>
+      <c r="B545" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C545" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D545" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E545" s="8"/>
       <c r="F545" s="13"/>
       <c r="G545" s="2"/>
@@ -27161,10 +27196,18 @@
       <c r="Z545" s="8"/>
     </row>
     <row r="546" ht="18.0" customHeight="1">
-      <c r="A546" s="2"/>
-      <c r="B546" s="8"/>
-      <c r="C546" s="2"/>
-      <c r="D546" s="2"/>
+      <c r="A546" s="34">
+        <v>544.0</v>
+      </c>
+      <c r="B546" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C546" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D546" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E546" s="8"/>
       <c r="F546" s="13"/>
       <c r="G546" s="2"/>
@@ -27189,10 +27232,18 @@
       <c r="Z546" s="8"/>
     </row>
     <row r="547" ht="18.0" customHeight="1">
-      <c r="A547" s="2"/>
-      <c r="B547" s="8"/>
-      <c r="C547" s="2"/>
-      <c r="D547" s="2"/>
+      <c r="A547" s="34">
+        <v>545.0</v>
+      </c>
+      <c r="B547" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C547" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D547" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E547" s="8"/>
       <c r="F547" s="13"/>
       <c r="G547" s="2"/>
@@ -27217,10 +27268,18 @@
       <c r="Z547" s="8"/>
     </row>
     <row r="548" ht="18.0" customHeight="1">
-      <c r="A548" s="2"/>
-      <c r="B548" s="8"/>
-      <c r="C548" s="2"/>
-      <c r="D548" s="2"/>
+      <c r="A548" s="34">
+        <v>546.0</v>
+      </c>
+      <c r="B548" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C548" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D548" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E548" s="8"/>
       <c r="F548" s="13"/>
       <c r="G548" s="2"/>
@@ -27245,10 +27304,18 @@
       <c r="Z548" s="8"/>
     </row>
     <row r="549" ht="18.0" customHeight="1">
-      <c r="A549" s="2"/>
-      <c r="B549" s="8"/>
-      <c r="C549" s="2"/>
-      <c r="D549" s="2"/>
+      <c r="A549" s="34">
+        <v>547.0</v>
+      </c>
+      <c r="B549" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C549" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D549" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E549" s="8"/>
       <c r="F549" s="13"/>
       <c r="G549" s="2"/>
@@ -27273,10 +27340,18 @@
       <c r="Z549" s="8"/>
     </row>
     <row r="550" ht="18.0" customHeight="1">
-      <c r="A550" s="2"/>
-      <c r="B550" s="8"/>
-      <c r="C550" s="2"/>
-      <c r="D550" s="2"/>
+      <c r="A550" s="34">
+        <v>548.0</v>
+      </c>
+      <c r="B550" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C550" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D550" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E550" s="8"/>
       <c r="F550" s="13"/>
       <c r="G550" s="2"/>
@@ -27301,10 +27376,18 @@
       <c r="Z550" s="8"/>
     </row>
     <row r="551" ht="18.0" customHeight="1">
-      <c r="A551" s="2"/>
-      <c r="B551" s="8"/>
-      <c r="C551" s="2"/>
-      <c r="D551" s="2"/>
+      <c r="A551" s="34">
+        <v>549.0</v>
+      </c>
+      <c r="B551" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C551" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D551" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E551" s="8"/>
       <c r="F551" s="13"/>
       <c r="G551" s="2"/>
@@ -27329,10 +27412,18 @@
       <c r="Z551" s="8"/>
     </row>
     <row r="552" ht="18.0" customHeight="1">
-      <c r="A552" s="2"/>
-      <c r="B552" s="8"/>
-      <c r="C552" s="2"/>
-      <c r="D552" s="2"/>
+      <c r="A552" s="34">
+        <v>550.0</v>
+      </c>
+      <c r="B552" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C552" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D552" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E552" s="8"/>
       <c r="F552" s="13"/>
       <c r="G552" s="2"/>
@@ -27357,10 +27448,18 @@
       <c r="Z552" s="8"/>
     </row>
     <row r="553" ht="18.0" customHeight="1">
-      <c r="A553" s="2"/>
-      <c r="B553" s="8"/>
-      <c r="C553" s="2"/>
-      <c r="D553" s="2"/>
+      <c r="A553" s="34">
+        <v>551.0</v>
+      </c>
+      <c r="B553" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C553" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D553" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E553" s="8"/>
       <c r="F553" s="13"/>
       <c r="G553" s="2"/>
@@ -27385,10 +27484,18 @@
       <c r="Z553" s="8"/>
     </row>
     <row r="554" ht="18.0" customHeight="1">
-      <c r="A554" s="2"/>
-      <c r="B554" s="8"/>
-      <c r="C554" s="2"/>
-      <c r="D554" s="2"/>
+      <c r="A554" s="34">
+        <v>552.0</v>
+      </c>
+      <c r="B554" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C554" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D554" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E554" s="8"/>
       <c r="F554" s="13"/>
       <c r="G554" s="2"/>
@@ -27413,10 +27520,18 @@
       <c r="Z554" s="8"/>
     </row>
     <row r="555" ht="18.0" customHeight="1">
-      <c r="A555" s="2"/>
-      <c r="B555" s="8"/>
-      <c r="C555" s="2"/>
-      <c r="D555" s="2"/>
+      <c r="A555" s="34">
+        <v>553.0</v>
+      </c>
+      <c r="B555" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C555" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D555" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E555" s="8"/>
       <c r="F555" s="13"/>
       <c r="G555" s="2"/>
@@ -27441,10 +27556,18 @@
       <c r="Z555" s="8"/>
     </row>
     <row r="556" ht="18.0" customHeight="1">
-      <c r="A556" s="2"/>
-      <c r="B556" s="8"/>
-      <c r="C556" s="2"/>
-      <c r="D556" s="2"/>
+      <c r="A556" s="34">
+        <v>554.0</v>
+      </c>
+      <c r="B556" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C556" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D556" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E556" s="8"/>
       <c r="F556" s="13"/>
       <c r="G556" s="2"/>
@@ -27469,10 +27592,18 @@
       <c r="Z556" s="8"/>
     </row>
     <row r="557" ht="18.0" customHeight="1">
-      <c r="A557" s="2"/>
-      <c r="B557" s="8"/>
-      <c r="C557" s="2"/>
-      <c r="D557" s="2"/>
+      <c r="A557" s="34">
+        <v>555.0</v>
+      </c>
+      <c r="B557" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C557" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D557" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E557" s="8"/>
       <c r="F557" s="13"/>
       <c r="G557" s="2"/>
@@ -27497,10 +27628,18 @@
       <c r="Z557" s="8"/>
     </row>
     <row r="558" ht="18.0" customHeight="1">
-      <c r="A558" s="2"/>
-      <c r="B558" s="8"/>
-      <c r="C558" s="2"/>
-      <c r="D558" s="2"/>
+      <c r="A558" s="34">
+        <v>556.0</v>
+      </c>
+      <c r="B558" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C558" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D558" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E558" s="8"/>
       <c r="F558" s="13"/>
       <c r="G558" s="2"/>
@@ -27525,10 +27664,18 @@
       <c r="Z558" s="8"/>
     </row>
     <row r="559" ht="18.0" customHeight="1">
-      <c r="A559" s="2"/>
-      <c r="B559" s="8"/>
-      <c r="C559" s="2"/>
-      <c r="D559" s="2"/>
+      <c r="A559" s="34">
+        <v>557.0</v>
+      </c>
+      <c r="B559" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C559" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D559" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E559" s="8"/>
       <c r="F559" s="13"/>
       <c r="G559" s="2"/>
@@ -27553,10 +27700,18 @@
       <c r="Z559" s="8"/>
     </row>
     <row r="560" ht="18.0" customHeight="1">
-      <c r="A560" s="2"/>
-      <c r="B560" s="8"/>
-      <c r="C560" s="2"/>
-      <c r="D560" s="2"/>
+      <c r="A560" s="34">
+        <v>558.0</v>
+      </c>
+      <c r="B560" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C560" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D560" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E560" s="8"/>
       <c r="F560" s="13"/>
       <c r="G560" s="2"/>
@@ -27581,10 +27736,18 @@
       <c r="Z560" s="8"/>
     </row>
     <row r="561" ht="18.0" customHeight="1">
-      <c r="A561" s="2"/>
-      <c r="B561" s="8"/>
-      <c r="C561" s="2"/>
-      <c r="D561" s="2"/>
+      <c r="A561" s="34">
+        <v>559.0</v>
+      </c>
+      <c r="B561" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C561" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D561" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E561" s="8"/>
       <c r="F561" s="13"/>
       <c r="G561" s="2"/>
@@ -27609,10 +27772,18 @@
       <c r="Z561" s="8"/>
     </row>
     <row r="562" ht="18.0" customHeight="1">
-      <c r="A562" s="2"/>
-      <c r="B562" s="8"/>
-      <c r="C562" s="2"/>
-      <c r="D562" s="2"/>
+      <c r="A562" s="34">
+        <v>560.0</v>
+      </c>
+      <c r="B562" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C562" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D562" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E562" s="8"/>
       <c r="F562" s="13"/>
       <c r="G562" s="2"/>
@@ -27637,10 +27808,18 @@
       <c r="Z562" s="8"/>
     </row>
     <row r="563" ht="18.0" customHeight="1">
-      <c r="A563" s="2"/>
-      <c r="B563" s="8"/>
-      <c r="C563" s="2"/>
-      <c r="D563" s="2"/>
+      <c r="A563" s="34">
+        <v>561.0</v>
+      </c>
+      <c r="B563" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C563" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D563" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E563" s="8"/>
       <c r="F563" s="13"/>
       <c r="G563" s="2"/>
@@ -27665,10 +27844,18 @@
       <c r="Z563" s="8"/>
     </row>
     <row r="564" ht="18.0" customHeight="1">
-      <c r="A564" s="2"/>
-      <c r="B564" s="8"/>
-      <c r="C564" s="2"/>
-      <c r="D564" s="2"/>
+      <c r="A564" s="34">
+        <v>562.0</v>
+      </c>
+      <c r="B564" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C564" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D564" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E564" s="8"/>
       <c r="F564" s="13"/>
       <c r="G564" s="2"/>
@@ -27693,10 +27880,18 @@
       <c r="Z564" s="8"/>
     </row>
     <row r="565" ht="18.0" customHeight="1">
-      <c r="A565" s="2"/>
-      <c r="B565" s="8"/>
-      <c r="C565" s="2"/>
-      <c r="D565" s="2"/>
+      <c r="A565" s="34">
+        <v>563.0</v>
+      </c>
+      <c r="B565" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C565" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D565" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E565" s="8"/>
       <c r="F565" s="13"/>
       <c r="G565" s="2"/>
@@ -27721,10 +27916,18 @@
       <c r="Z565" s="8"/>
     </row>
     <row r="566" ht="18.0" customHeight="1">
-      <c r="A566" s="2"/>
-      <c r="B566" s="8"/>
-      <c r="C566" s="2"/>
-      <c r="D566" s="2"/>
+      <c r="A566" s="34">
+        <v>564.0</v>
+      </c>
+      <c r="B566" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C566" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D566" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E566" s="8"/>
       <c r="F566" s="13"/>
       <c r="G566" s="2"/>
@@ -27749,10 +27952,18 @@
       <c r="Z566" s="8"/>
     </row>
     <row r="567" ht="18.0" customHeight="1">
-      <c r="A567" s="2"/>
-      <c r="B567" s="8"/>
-      <c r="C567" s="2"/>
-      <c r="D567" s="2"/>
+      <c r="A567" s="34">
+        <v>565.0</v>
+      </c>
+      <c r="B567" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C567" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D567" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E567" s="8"/>
       <c r="F567" s="13"/>
       <c r="G567" s="2"/>
@@ -27777,10 +27988,18 @@
       <c r="Z567" s="8"/>
     </row>
     <row r="568" ht="18.0" customHeight="1">
-      <c r="A568" s="2"/>
-      <c r="B568" s="8"/>
-      <c r="C568" s="2"/>
-      <c r="D568" s="2"/>
+      <c r="A568" s="34">
+        <v>566.0</v>
+      </c>
+      <c r="B568" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C568" s="39">
+        <v>44032.0</v>
+      </c>
+      <c r="D568" s="33">
+        <v>44032.0</v>
+      </c>
       <c r="E568" s="8"/>
       <c r="F568" s="13"/>
       <c r="G568" s="2"/>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="514">
-  <si>
-    <t>2020-07-20T18:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="517">
+  <si>
+    <t>2020-07-20T22:30:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -1707,6 +1707,15 @@
   </si>
   <si>
     <t>2020-07-20T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200720-540-547.pdf</t>
+  </si>
+  <si>
+    <t>10代未満女性</t>
+  </si>
+  <si>
+    <t>京都府内</t>
   </si>
 </sst>
 </file>
@@ -24222,7 +24231,9 @@
         <v>495</v>
       </c>
       <c r="L474" s="8"/>
-      <c r="M474" s="8"/>
+      <c r="M474" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N474" s="8"/>
       <c r="O474" s="8"/>
       <c r="P474" s="8"/>
@@ -26551,7 +26562,7 @@
       <c r="A530" s="34">
         <v>528.0</v>
       </c>
-      <c r="B530" s="44" t="s">
+      <c r="B530" s="27" t="s">
         <v>510</v>
       </c>
       <c r="C530" s="39">
@@ -26593,7 +26604,7 @@
       <c r="A531" s="34">
         <v>529.0</v>
       </c>
-      <c r="B531" s="44" t="s">
+      <c r="B531" s="27" t="s">
         <v>510</v>
       </c>
       <c r="C531" s="39">
@@ -26635,7 +26646,7 @@
       <c r="A532" s="34">
         <v>530.0</v>
       </c>
-      <c r="B532" s="44" t="s">
+      <c r="B532" s="27" t="s">
         <v>510</v>
       </c>
       <c r="C532" s="39">
@@ -26677,7 +26688,7 @@
       <c r="A533" s="34">
         <v>531.0</v>
       </c>
-      <c r="B533" s="44" t="s">
+      <c r="B533" s="27" t="s">
         <v>510</v>
       </c>
       <c r="C533" s="39">
@@ -26719,7 +26730,7 @@
       <c r="A534" s="34">
         <v>532.0</v>
       </c>
-      <c r="B534" s="44" t="s">
+      <c r="B534" s="27" t="s">
         <v>510</v>
       </c>
       <c r="C534" s="39">
@@ -26761,7 +26772,7 @@
       <c r="A535" s="34">
         <v>533.0</v>
       </c>
-      <c r="B535" s="44" t="s">
+      <c r="B535" s="27" t="s">
         <v>510</v>
       </c>
       <c r="C535" s="39">
@@ -26803,7 +26814,7 @@
       <c r="A536" s="34">
         <v>534.0</v>
       </c>
-      <c r="B536" s="44" t="s">
+      <c r="B536" s="27" t="s">
         <v>510</v>
       </c>
       <c r="C536" s="39">
@@ -26845,7 +26856,7 @@
       <c r="A537" s="34">
         <v>535.0</v>
       </c>
-      <c r="B537" s="44" t="s">
+      <c r="B537" s="27" t="s">
         <v>510</v>
       </c>
       <c r="C537" s="39">
@@ -26887,7 +26898,7 @@
       <c r="A538" s="34">
         <v>536.0</v>
       </c>
-      <c r="B538" s="44" t="s">
+      <c r="B538" s="27" t="s">
         <v>510</v>
       </c>
       <c r="C538" s="39">
@@ -26929,7 +26940,7 @@
       <c r="A539" s="34">
         <v>537.0</v>
       </c>
-      <c r="B539" s="44" t="s">
+      <c r="B539" s="27" t="s">
         <v>510</v>
       </c>
       <c r="C539" s="39">
@@ -26971,7 +26982,7 @@
       <c r="A540" s="34">
         <v>538.0</v>
       </c>
-      <c r="B540" s="44" t="s">
+      <c r="B540" s="27" t="s">
         <v>510</v>
       </c>
       <c r="C540" s="39">
@@ -27013,7 +27024,7 @@
       <c r="A541" s="34">
         <v>539.0</v>
       </c>
-      <c r="B541" s="44" t="s">
+      <c r="B541" s="27" t="s">
         <v>510</v>
       </c>
       <c r="C541" s="39">
@@ -27055,7 +27066,7 @@
       <c r="A542" s="34">
         <v>540.0</v>
       </c>
-      <c r="B542" s="44" t="s">
+      <c r="B542" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C542" s="39">
@@ -27064,13 +27075,19 @@
       <c r="D542" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E542" s="8"/>
-      <c r="F542" s="13"/>
+      <c r="E542" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F542" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G542" s="2"/>
       <c r="H542" s="13"/>
       <c r="I542" s="13"/>
       <c r="J542" s="14"/>
-      <c r="K542" s="8"/>
+      <c r="K542" s="43" t="s">
+        <v>514</v>
+      </c>
       <c r="L542" s="8"/>
       <c r="M542" s="8"/>
       <c r="N542" s="8"/>
@@ -27091,7 +27108,7 @@
       <c r="A543" s="34">
         <v>541.0</v>
       </c>
-      <c r="B543" s="44" t="s">
+      <c r="B543" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C543" s="39">
@@ -27100,13 +27117,19 @@
       <c r="D543" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E543" s="8"/>
-      <c r="F543" s="13"/>
+      <c r="E543" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F543" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G543" s="2"/>
       <c r="H543" s="13"/>
       <c r="I543" s="13"/>
       <c r="J543" s="14"/>
-      <c r="K543" s="8"/>
+      <c r="K543" s="43" t="s">
+        <v>514</v>
+      </c>
       <c r="L543" s="8"/>
       <c r="M543" s="8"/>
       <c r="N543" s="8"/>
@@ -27127,7 +27150,7 @@
       <c r="A544" s="34">
         <v>542.0</v>
       </c>
-      <c r="B544" s="44" t="s">
+      <c r="B544" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C544" s="39">
@@ -27136,13 +27159,19 @@
       <c r="D544" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E544" s="8"/>
-      <c r="F544" s="13"/>
+      <c r="E544" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="F544" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G544" s="2"/>
       <c r="H544" s="13"/>
       <c r="I544" s="13"/>
       <c r="J544" s="14"/>
-      <c r="K544" s="8"/>
+      <c r="K544" s="43" t="s">
+        <v>514</v>
+      </c>
       <c r="L544" s="8"/>
       <c r="M544" s="8"/>
       <c r="N544" s="8"/>
@@ -27163,7 +27192,7 @@
       <c r="A545" s="34">
         <v>543.0</v>
       </c>
-      <c r="B545" s="44" t="s">
+      <c r="B545" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C545" s="39">
@@ -27172,13 +27201,19 @@
       <c r="D545" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E545" s="8"/>
-      <c r="F545" s="13"/>
+      <c r="E545" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F545" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G545" s="2"/>
       <c r="H545" s="13"/>
       <c r="I545" s="13"/>
       <c r="J545" s="14"/>
-      <c r="K545" s="8"/>
+      <c r="K545" s="43" t="s">
+        <v>514</v>
+      </c>
       <c r="L545" s="8"/>
       <c r="M545" s="8"/>
       <c r="N545" s="8"/>
@@ -27199,7 +27234,7 @@
       <c r="A546" s="34">
         <v>544.0</v>
       </c>
-      <c r="B546" s="44" t="s">
+      <c r="B546" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C546" s="39">
@@ -27208,13 +27243,19 @@
       <c r="D546" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E546" s="8"/>
-      <c r="F546" s="13"/>
+      <c r="E546" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F546" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G546" s="2"/>
       <c r="H546" s="13"/>
       <c r="I546" s="13"/>
       <c r="J546" s="14"/>
-      <c r="K546" s="8"/>
+      <c r="K546" s="43" t="s">
+        <v>514</v>
+      </c>
       <c r="L546" s="8"/>
       <c r="M546" s="8"/>
       <c r="N546" s="8"/>
@@ -27235,7 +27276,7 @@
       <c r="A547" s="34">
         <v>545.0</v>
       </c>
-      <c r="B547" s="44" t="s">
+      <c r="B547" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C547" s="39">
@@ -27244,13 +27285,19 @@
       <c r="D547" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E547" s="8"/>
-      <c r="F547" s="13"/>
+      <c r="E547" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F547" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G547" s="2"/>
       <c r="H547" s="13"/>
       <c r="I547" s="13"/>
       <c r="J547" s="14"/>
-      <c r="K547" s="8"/>
+      <c r="K547" s="43" t="s">
+        <v>514</v>
+      </c>
       <c r="L547" s="8"/>
       <c r="M547" s="8"/>
       <c r="N547" s="8"/>
@@ -27271,7 +27318,7 @@
       <c r="A548" s="34">
         <v>546.0</v>
       </c>
-      <c r="B548" s="44" t="s">
+      <c r="B548" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C548" s="39">
@@ -27280,13 +27327,19 @@
       <c r="D548" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E548" s="8"/>
-      <c r="F548" s="13"/>
+      <c r="E548" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F548" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G548" s="2"/>
       <c r="H548" s="13"/>
       <c r="I548" s="13"/>
       <c r="J548" s="14"/>
-      <c r="K548" s="8"/>
+      <c r="K548" s="43" t="s">
+        <v>514</v>
+      </c>
       <c r="L548" s="8"/>
       <c r="M548" s="8"/>
       <c r="N548" s="8"/>
@@ -27307,7 +27360,7 @@
       <c r="A549" s="34">
         <v>547.0</v>
       </c>
-      <c r="B549" s="44" t="s">
+      <c r="B549" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C549" s="39">
@@ -27316,13 +27369,19 @@
       <c r="D549" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E549" s="8"/>
-      <c r="F549" s="13"/>
+      <c r="E549" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F549" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="G549" s="2"/>
       <c r="H549" s="13"/>
       <c r="I549" s="13"/>
       <c r="J549" s="14"/>
-      <c r="K549" s="8"/>
+      <c r="K549" s="43" t="s">
+        <v>514</v>
+      </c>
       <c r="L549" s="8"/>
       <c r="M549" s="8"/>
       <c r="N549" s="8"/>
@@ -27343,7 +27402,7 @@
       <c r="A550" s="34">
         <v>548.0</v>
       </c>
-      <c r="B550" s="44" t="s">
+      <c r="B550" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C550" s="39">
@@ -27352,8 +27411,12 @@
       <c r="D550" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E550" s="8"/>
-      <c r="F550" s="13"/>
+      <c r="E550" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F550" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G550" s="2"/>
       <c r="H550" s="13"/>
       <c r="I550" s="13"/>
@@ -27379,7 +27442,7 @@
       <c r="A551" s="34">
         <v>549.0</v>
       </c>
-      <c r="B551" s="44" t="s">
+      <c r="B551" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C551" s="39">
@@ -27388,8 +27451,12 @@
       <c r="D551" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E551" s="8"/>
-      <c r="F551" s="13"/>
+      <c r="E551" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F551" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G551" s="2"/>
       <c r="H551" s="13"/>
       <c r="I551" s="13"/>
@@ -27415,7 +27482,7 @@
       <c r="A552" s="34">
         <v>550.0</v>
       </c>
-      <c r="B552" s="44" t="s">
+      <c r="B552" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C552" s="39">
@@ -27424,8 +27491,12 @@
       <c r="D552" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E552" s="8"/>
-      <c r="F552" s="13"/>
+      <c r="E552" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F552" s="24" t="s">
+        <v>516</v>
+      </c>
       <c r="G552" s="2"/>
       <c r="H552" s="13"/>
       <c r="I552" s="13"/>
@@ -27451,7 +27522,7 @@
       <c r="A553" s="34">
         <v>551.0</v>
       </c>
-      <c r="B553" s="44" t="s">
+      <c r="B553" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C553" s="39">
@@ -27460,8 +27531,12 @@
       <c r="D553" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E553" s="8"/>
-      <c r="F553" s="13"/>
+      <c r="E553" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F553" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G553" s="2"/>
       <c r="H553" s="13"/>
       <c r="I553" s="13"/>
@@ -27487,7 +27562,7 @@
       <c r="A554" s="34">
         <v>552.0</v>
       </c>
-      <c r="B554" s="44" t="s">
+      <c r="B554" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C554" s="39">
@@ -27496,8 +27571,12 @@
       <c r="D554" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E554" s="8"/>
-      <c r="F554" s="13"/>
+      <c r="E554" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F554" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G554" s="2"/>
       <c r="H554" s="13"/>
       <c r="I554" s="13"/>
@@ -27523,7 +27602,7 @@
       <c r="A555" s="34">
         <v>553.0</v>
       </c>
-      <c r="B555" s="44" t="s">
+      <c r="B555" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C555" s="39">
@@ -27532,8 +27611,12 @@
       <c r="D555" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E555" s="8"/>
-      <c r="F555" s="13"/>
+      <c r="E555" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F555" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G555" s="2"/>
       <c r="H555" s="13"/>
       <c r="I555" s="13"/>
@@ -27559,7 +27642,7 @@
       <c r="A556" s="34">
         <v>554.0</v>
       </c>
-      <c r="B556" s="44" t="s">
+      <c r="B556" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C556" s="39">
@@ -27568,8 +27651,12 @@
       <c r="D556" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E556" s="8"/>
-      <c r="F556" s="13"/>
+      <c r="E556" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F556" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G556" s="2"/>
       <c r="H556" s="13"/>
       <c r="I556" s="13"/>
@@ -27595,7 +27682,7 @@
       <c r="A557" s="34">
         <v>555.0</v>
       </c>
-      <c r="B557" s="44" t="s">
+      <c r="B557" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C557" s="39">
@@ -27604,8 +27691,12 @@
       <c r="D557" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E557" s="8"/>
-      <c r="F557" s="13"/>
+      <c r="E557" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F557" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G557" s="2"/>
       <c r="H557" s="13"/>
       <c r="I557" s="13"/>
@@ -27631,7 +27722,7 @@
       <c r="A558" s="34">
         <v>556.0</v>
       </c>
-      <c r="B558" s="44" t="s">
+      <c r="B558" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C558" s="39">
@@ -27640,8 +27731,12 @@
       <c r="D558" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E558" s="8"/>
-      <c r="F558" s="13"/>
+      <c r="E558" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F558" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G558" s="2"/>
       <c r="H558" s="13"/>
       <c r="I558" s="13"/>
@@ -27667,7 +27762,7 @@
       <c r="A559" s="34">
         <v>557.0</v>
       </c>
-      <c r="B559" s="44" t="s">
+      <c r="B559" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C559" s="39">
@@ -27676,8 +27771,12 @@
       <c r="D559" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E559" s="8"/>
-      <c r="F559" s="13"/>
+      <c r="E559" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F559" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G559" s="2"/>
       <c r="H559" s="13"/>
       <c r="I559" s="13"/>
@@ -27703,7 +27802,7 @@
       <c r="A560" s="34">
         <v>558.0</v>
       </c>
-      <c r="B560" s="44" t="s">
+      <c r="B560" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C560" s="39">
@@ -27712,8 +27811,12 @@
       <c r="D560" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E560" s="8"/>
-      <c r="F560" s="13"/>
+      <c r="E560" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F560" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G560" s="2"/>
       <c r="H560" s="13"/>
       <c r="I560" s="13"/>
@@ -27739,7 +27842,7 @@
       <c r="A561" s="34">
         <v>559.0</v>
       </c>
-      <c r="B561" s="44" t="s">
+      <c r="B561" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C561" s="39">
@@ -27748,8 +27851,12 @@
       <c r="D561" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E561" s="8"/>
-      <c r="F561" s="13"/>
+      <c r="E561" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F561" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G561" s="2"/>
       <c r="H561" s="13"/>
       <c r="I561" s="13"/>
@@ -27784,8 +27891,12 @@
       <c r="D562" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E562" s="8"/>
-      <c r="F562" s="13"/>
+      <c r="E562" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F562" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G562" s="2"/>
       <c r="H562" s="13"/>
       <c r="I562" s="13"/>
@@ -27820,8 +27931,12 @@
       <c r="D563" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E563" s="8"/>
-      <c r="F563" s="13"/>
+      <c r="E563" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F563" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G563" s="2"/>
       <c r="H563" s="13"/>
       <c r="I563" s="13"/>
@@ -27856,8 +27971,12 @@
       <c r="D564" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E564" s="8"/>
-      <c r="F564" s="13"/>
+      <c r="E564" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F564" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G564" s="2"/>
       <c r="H564" s="13"/>
       <c r="I564" s="13"/>
@@ -27892,8 +28011,12 @@
       <c r="D565" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E565" s="8"/>
-      <c r="F565" s="13"/>
+      <c r="E565" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F565" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G565" s="2"/>
       <c r="H565" s="13"/>
       <c r="I565" s="13"/>
@@ -27928,8 +28051,12 @@
       <c r="D566" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E566" s="8"/>
-      <c r="F566" s="13"/>
+      <c r="E566" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F566" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G566" s="2"/>
       <c r="H566" s="13"/>
       <c r="I566" s="13"/>
@@ -27964,8 +28091,12 @@
       <c r="D567" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E567" s="8"/>
-      <c r="F567" s="13"/>
+      <c r="E567" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F567" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G567" s="2"/>
       <c r="H567" s="13"/>
       <c r="I567" s="13"/>
@@ -28000,8 +28131,12 @@
       <c r="D568" s="33">
         <v>44032.0</v>
       </c>
-      <c r="E568" s="8"/>
-      <c r="F568" s="13"/>
+      <c r="E568" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F568" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G568" s="2"/>
       <c r="H568" s="13"/>
       <c r="I568" s="13"/>
@@ -40515,10 +40650,18 @@
     <hyperlink r:id="rId363" ref="K539"/>
     <hyperlink r:id="rId364" ref="K540"/>
     <hyperlink r:id="rId365" ref="K541"/>
+    <hyperlink r:id="rId366" ref="K542"/>
+    <hyperlink r:id="rId367" ref="K543"/>
+    <hyperlink r:id="rId368" ref="K544"/>
+    <hyperlink r:id="rId369" ref="K545"/>
+    <hyperlink r:id="rId370" ref="K546"/>
+    <hyperlink r:id="rId371" ref="K547"/>
+    <hyperlink r:id="rId372" ref="K548"/>
+    <hyperlink r:id="rId373" ref="K549"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId366"/>
+  <drawing r:id="rId374"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="536">
   <si>
     <t>2020-07-20T22:30:00.000Z</t>
   </si>
@@ -1715,7 +1715,292 @@
     <t>10代未満女性</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
     <t>京都府内</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000272/272940/200720oshirase(375-393).pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>f</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1727,7 +2012,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1833,6 +2118,12 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="游ゴシック regular"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1860,7 +2151,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1991,6 +2282,9 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -27421,7 +27715,9 @@
       <c r="H550" s="13"/>
       <c r="I550" s="13"/>
       <c r="J550" s="14"/>
-      <c r="K550" s="8"/>
+      <c r="K550" s="44" t="s">
+        <v>516</v>
+      </c>
       <c r="L550" s="8"/>
       <c r="M550" s="8"/>
       <c r="N550" s="8"/>
@@ -27461,7 +27757,9 @@
       <c r="H551" s="13"/>
       <c r="I551" s="13"/>
       <c r="J551" s="14"/>
-      <c r="K551" s="8"/>
+      <c r="K551" s="44" t="s">
+        <v>517</v>
+      </c>
       <c r="L551" s="8"/>
       <c r="M551" s="8"/>
       <c r="N551" s="8"/>
@@ -27495,13 +27793,15 @@
         <v>52</v>
       </c>
       <c r="F552" s="24" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G552" s="2"/>
       <c r="H552" s="13"/>
       <c r="I552" s="13"/>
       <c r="J552" s="14"/>
-      <c r="K552" s="8"/>
+      <c r="K552" s="44" t="s">
+        <v>519</v>
+      </c>
       <c r="L552" s="8"/>
       <c r="M552" s="8"/>
       <c r="N552" s="8"/>
@@ -27541,7 +27841,9 @@
       <c r="H553" s="13"/>
       <c r="I553" s="13"/>
       <c r="J553" s="14"/>
-      <c r="K553" s="8"/>
+      <c r="K553" s="44" t="s">
+        <v>520</v>
+      </c>
       <c r="L553" s="8"/>
       <c r="M553" s="8"/>
       <c r="N553" s="8"/>
@@ -27581,7 +27883,9 @@
       <c r="H554" s="13"/>
       <c r="I554" s="13"/>
       <c r="J554" s="14"/>
-      <c r="K554" s="8"/>
+      <c r="K554" s="44" t="s">
+        <v>521</v>
+      </c>
       <c r="L554" s="8"/>
       <c r="M554" s="8"/>
       <c r="N554" s="8"/>
@@ -27621,7 +27925,9 @@
       <c r="H555" s="13"/>
       <c r="I555" s="13"/>
       <c r="J555" s="14"/>
-      <c r="K555" s="8"/>
+      <c r="K555" s="44" t="s">
+        <v>522</v>
+      </c>
       <c r="L555" s="8"/>
       <c r="M555" s="8"/>
       <c r="N555" s="8"/>
@@ -27661,7 +27967,9 @@
       <c r="H556" s="13"/>
       <c r="I556" s="13"/>
       <c r="J556" s="14"/>
-      <c r="K556" s="8"/>
+      <c r="K556" s="44" t="s">
+        <v>523</v>
+      </c>
       <c r="L556" s="8"/>
       <c r="M556" s="8"/>
       <c r="N556" s="8"/>
@@ -27701,7 +28009,9 @@
       <c r="H557" s="13"/>
       <c r="I557" s="13"/>
       <c r="J557" s="14"/>
-      <c r="K557" s="8"/>
+      <c r="K557" s="44" t="s">
+        <v>524</v>
+      </c>
       <c r="L557" s="8"/>
       <c r="M557" s="8"/>
       <c r="N557" s="8"/>
@@ -27741,7 +28051,9 @@
       <c r="H558" s="13"/>
       <c r="I558" s="13"/>
       <c r="J558" s="14"/>
-      <c r="K558" s="8"/>
+      <c r="K558" s="44" t="s">
+        <v>525</v>
+      </c>
       <c r="L558" s="8"/>
       <c r="M558" s="8"/>
       <c r="N558" s="8"/>
@@ -27781,7 +28093,9 @@
       <c r="H559" s="13"/>
       <c r="I559" s="13"/>
       <c r="J559" s="14"/>
-      <c r="K559" s="8"/>
+      <c r="K559" s="44" t="s">
+        <v>526</v>
+      </c>
       <c r="L559" s="8"/>
       <c r="M559" s="8"/>
       <c r="N559" s="8"/>
@@ -27821,7 +28135,9 @@
       <c r="H560" s="13"/>
       <c r="I560" s="13"/>
       <c r="J560" s="14"/>
-      <c r="K560" s="8"/>
+      <c r="K560" s="44" t="s">
+        <v>527</v>
+      </c>
       <c r="L560" s="8"/>
       <c r="M560" s="8"/>
       <c r="N560" s="8"/>
@@ -27861,7 +28177,9 @@
       <c r="H561" s="13"/>
       <c r="I561" s="13"/>
       <c r="J561" s="14"/>
-      <c r="K561" s="8"/>
+      <c r="K561" s="44" t="s">
+        <v>528</v>
+      </c>
       <c r="L561" s="8"/>
       <c r="M561" s="8"/>
       <c r="N561" s="8"/>
@@ -27882,7 +28200,7 @@
       <c r="A562" s="34">
         <v>560.0</v>
       </c>
-      <c r="B562" s="44" t="s">
+      <c r="B562" s="45" t="s">
         <v>513</v>
       </c>
       <c r="C562" s="39">
@@ -27901,7 +28219,9 @@
       <c r="H562" s="13"/>
       <c r="I562" s="13"/>
       <c r="J562" s="14"/>
-      <c r="K562" s="8"/>
+      <c r="K562" s="44" t="s">
+        <v>529</v>
+      </c>
       <c r="L562" s="8"/>
       <c r="M562" s="8"/>
       <c r="N562" s="8"/>
@@ -27922,7 +28242,7 @@
       <c r="A563" s="34">
         <v>561.0</v>
       </c>
-      <c r="B563" s="44" t="s">
+      <c r="B563" s="45" t="s">
         <v>513</v>
       </c>
       <c r="C563" s="39">
@@ -27941,7 +28261,9 @@
       <c r="H563" s="13"/>
       <c r="I563" s="13"/>
       <c r="J563" s="14"/>
-      <c r="K563" s="8"/>
+      <c r="K563" s="44" t="s">
+        <v>530</v>
+      </c>
       <c r="L563" s="8"/>
       <c r="M563" s="8"/>
       <c r="N563" s="8"/>
@@ -27962,7 +28284,7 @@
       <c r="A564" s="34">
         <v>562.0</v>
       </c>
-      <c r="B564" s="44" t="s">
+      <c r="B564" s="45" t="s">
         <v>513</v>
       </c>
       <c r="C564" s="39">
@@ -27981,7 +28303,9 @@
       <c r="H564" s="13"/>
       <c r="I564" s="13"/>
       <c r="J564" s="14"/>
-      <c r="K564" s="8"/>
+      <c r="K564" s="44" t="s">
+        <v>531</v>
+      </c>
       <c r="L564" s="8"/>
       <c r="M564" s="8"/>
       <c r="N564" s="8"/>
@@ -28002,7 +28326,7 @@
       <c r="A565" s="34">
         <v>563.0</v>
       </c>
-      <c r="B565" s="44" t="s">
+      <c r="B565" s="45" t="s">
         <v>513</v>
       </c>
       <c r="C565" s="39">
@@ -28021,7 +28345,9 @@
       <c r="H565" s="13"/>
       <c r="I565" s="13"/>
       <c r="J565" s="14"/>
-      <c r="K565" s="8"/>
+      <c r="K565" s="44" t="s">
+        <v>532</v>
+      </c>
       <c r="L565" s="8"/>
       <c r="M565" s="8"/>
       <c r="N565" s="8"/>
@@ -28042,7 +28368,7 @@
       <c r="A566" s="34">
         <v>564.0</v>
       </c>
-      <c r="B566" s="44" t="s">
+      <c r="B566" s="45" t="s">
         <v>513</v>
       </c>
       <c r="C566" s="39">
@@ -28061,7 +28387,9 @@
       <c r="H566" s="13"/>
       <c r="I566" s="13"/>
       <c r="J566" s="14"/>
-      <c r="K566" s="8"/>
+      <c r="K566" s="44" t="s">
+        <v>533</v>
+      </c>
       <c r="L566" s="8"/>
       <c r="M566" s="8"/>
       <c r="N566" s="8"/>
@@ -28082,7 +28410,7 @@
       <c r="A567" s="34">
         <v>565.0</v>
       </c>
-      <c r="B567" s="44" t="s">
+      <c r="B567" s="45" t="s">
         <v>513</v>
       </c>
       <c r="C567" s="39">
@@ -28101,7 +28429,9 @@
       <c r="H567" s="13"/>
       <c r="I567" s="13"/>
       <c r="J567" s="14"/>
-      <c r="K567" s="8"/>
+      <c r="K567" s="44" t="s">
+        <v>534</v>
+      </c>
       <c r="L567" s="8"/>
       <c r="M567" s="8"/>
       <c r="N567" s="8"/>
@@ -28122,7 +28452,7 @@
       <c r="A568" s="34">
         <v>566.0</v>
       </c>
-      <c r="B568" s="44" t="s">
+      <c r="B568" s="45" t="s">
         <v>513</v>
       </c>
       <c r="C568" s="39">
@@ -28141,7 +28471,9 @@
       <c r="H568" s="13"/>
       <c r="I568" s="13"/>
       <c r="J568" s="14"/>
-      <c r="K568" s="8"/>
+      <c r="K568" s="44" t="s">
+        <v>535</v>
+      </c>
       <c r="L568" s="8"/>
       <c r="M568" s="8"/>
       <c r="N568" s="8"/>
@@ -40658,10 +40990,29 @@
     <hyperlink r:id="rId371" ref="K547"/>
     <hyperlink r:id="rId372" ref="K548"/>
     <hyperlink r:id="rId373" ref="K549"/>
+    <hyperlink r:id="rId374" ref="K550"/>
+    <hyperlink r:id="rId375" ref="K551"/>
+    <hyperlink r:id="rId376" ref="K552"/>
+    <hyperlink r:id="rId377" ref="K553"/>
+    <hyperlink r:id="rId378" ref="K554"/>
+    <hyperlink r:id="rId379" ref="K555"/>
+    <hyperlink r:id="rId380" ref="K556"/>
+    <hyperlink r:id="rId381" ref="K557"/>
+    <hyperlink r:id="rId382" ref="K558"/>
+    <hyperlink r:id="rId383" ref="K559"/>
+    <hyperlink r:id="rId384" ref="K560"/>
+    <hyperlink r:id="rId385" ref="K561"/>
+    <hyperlink r:id="rId386" ref="K562"/>
+    <hyperlink r:id="rId387" ref="K563"/>
+    <hyperlink r:id="rId388" ref="K564"/>
+    <hyperlink r:id="rId389" ref="K565"/>
+    <hyperlink r:id="rId390" ref="K566"/>
+    <hyperlink r:id="rId391" ref="K567"/>
+    <hyperlink r:id="rId392" ref="K568"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId374"/>
+  <drawing r:id="rId393"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="536">
-  <si>
-    <t>2020-07-20T22:30:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="538">
+  <si>
+    <t>2020-07-20T19:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2001,6 +2001,12 @@
       </rPr>
       <t>f</t>
     </r>
+  </si>
+  <si>
+    <t>2020-07-21T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200721-567-572.pdf</t>
   </si>
 </sst>
 </file>
@@ -26039,7 +26045,9 @@
         <v>507</v>
       </c>
       <c r="L510" s="8"/>
-      <c r="M510" s="8"/>
+      <c r="M510" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N510" s="8"/>
       <c r="O510" s="8"/>
       <c r="P510" s="8"/>
@@ -28491,17 +28499,31 @@
       <c r="Z568" s="8"/>
     </row>
     <row r="569" ht="18.0" customHeight="1">
-      <c r="A569" s="2"/>
-      <c r="B569" s="8"/>
-      <c r="C569" s="2"/>
-      <c r="D569" s="2"/>
-      <c r="E569" s="8"/>
-      <c r="F569" s="13"/>
+      <c r="A569" s="34">
+        <v>567.0</v>
+      </c>
+      <c r="B569" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C569" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D569" s="33">
+        <v>44033.0</v>
+      </c>
+      <c r="E569" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F569" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G569" s="2"/>
       <c r="H569" s="13"/>
       <c r="I569" s="13"/>
       <c r="J569" s="14"/>
-      <c r="K569" s="8"/>
+      <c r="K569" s="31" t="s">
+        <v>537</v>
+      </c>
       <c r="L569" s="8"/>
       <c r="M569" s="8"/>
       <c r="N569" s="8"/>
@@ -28519,17 +28541,31 @@
       <c r="Z569" s="8"/>
     </row>
     <row r="570" ht="18.0" customHeight="1">
-      <c r="A570" s="2"/>
-      <c r="B570" s="8"/>
-      <c r="C570" s="2"/>
-      <c r="D570" s="2"/>
-      <c r="E570" s="8"/>
-      <c r="F570" s="13"/>
+      <c r="A570" s="34">
+        <v>568.0</v>
+      </c>
+      <c r="B570" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C570" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D570" s="33">
+        <v>44033.0</v>
+      </c>
+      <c r="E570" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F570" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G570" s="2"/>
       <c r="H570" s="13"/>
       <c r="I570" s="13"/>
       <c r="J570" s="14"/>
-      <c r="K570" s="8"/>
+      <c r="K570" s="31" t="s">
+        <v>537</v>
+      </c>
       <c r="L570" s="8"/>
       <c r="M570" s="8"/>
       <c r="N570" s="8"/>
@@ -28547,17 +28583,31 @@
       <c r="Z570" s="8"/>
     </row>
     <row r="571" ht="18.0" customHeight="1">
-      <c r="A571" s="2"/>
-      <c r="B571" s="8"/>
-      <c r="C571" s="2"/>
-      <c r="D571" s="2"/>
-      <c r="E571" s="8"/>
-      <c r="F571" s="13"/>
+      <c r="A571" s="34">
+        <v>569.0</v>
+      </c>
+      <c r="B571" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C571" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D571" s="33">
+        <v>44033.0</v>
+      </c>
+      <c r="E571" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F571" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G571" s="2"/>
       <c r="H571" s="13"/>
       <c r="I571" s="13"/>
       <c r="J571" s="14"/>
-      <c r="K571" s="8"/>
+      <c r="K571" s="31" t="s">
+        <v>537</v>
+      </c>
       <c r="L571" s="8"/>
       <c r="M571" s="8"/>
       <c r="N571" s="8"/>
@@ -28575,17 +28625,31 @@
       <c r="Z571" s="8"/>
     </row>
     <row r="572" ht="18.0" customHeight="1">
-      <c r="A572" s="2"/>
-      <c r="B572" s="8"/>
-      <c r="C572" s="2"/>
-      <c r="D572" s="2"/>
-      <c r="E572" s="8"/>
-      <c r="F572" s="13"/>
+      <c r="A572" s="34">
+        <v>570.0</v>
+      </c>
+      <c r="B572" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C572" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D572" s="33">
+        <v>44033.0</v>
+      </c>
+      <c r="E572" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F572" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G572" s="2"/>
       <c r="H572" s="13"/>
       <c r="I572" s="13"/>
       <c r="J572" s="14"/>
-      <c r="K572" s="8"/>
+      <c r="K572" s="31" t="s">
+        <v>537</v>
+      </c>
       <c r="L572" s="8"/>
       <c r="M572" s="8"/>
       <c r="N572" s="8"/>
@@ -28603,17 +28667,31 @@
       <c r="Z572" s="8"/>
     </row>
     <row r="573" ht="18.0" customHeight="1">
-      <c r="A573" s="2"/>
-      <c r="B573" s="8"/>
-      <c r="C573" s="2"/>
-      <c r="D573" s="2"/>
-      <c r="E573" s="8"/>
-      <c r="F573" s="13"/>
+      <c r="A573" s="34">
+        <v>571.0</v>
+      </c>
+      <c r="B573" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C573" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D573" s="33">
+        <v>44033.0</v>
+      </c>
+      <c r="E573" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F573" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G573" s="2"/>
       <c r="H573" s="13"/>
       <c r="I573" s="13"/>
       <c r="J573" s="14"/>
-      <c r="K573" s="8"/>
+      <c r="K573" s="31" t="s">
+        <v>537</v>
+      </c>
       <c r="L573" s="8"/>
       <c r="M573" s="8"/>
       <c r="N573" s="8"/>
@@ -28631,17 +28709,31 @@
       <c r="Z573" s="8"/>
     </row>
     <row r="574" ht="18.0" customHeight="1">
-      <c r="A574" s="2"/>
-      <c r="B574" s="8"/>
-      <c r="C574" s="2"/>
-      <c r="D574" s="2"/>
-      <c r="E574" s="8"/>
-      <c r="F574" s="13"/>
+      <c r="A574" s="34">
+        <v>572.0</v>
+      </c>
+      <c r="B574" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C574" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D574" s="33">
+        <v>44033.0</v>
+      </c>
+      <c r="E574" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F574" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G574" s="2"/>
       <c r="H574" s="13"/>
       <c r="I574" s="13"/>
       <c r="J574" s="14"/>
-      <c r="K574" s="8"/>
+      <c r="K574" s="31" t="s">
+        <v>537</v>
+      </c>
       <c r="L574" s="8"/>
       <c r="M574" s="8"/>
       <c r="N574" s="8"/>
@@ -28659,10 +28751,18 @@
       <c r="Z574" s="8"/>
     </row>
     <row r="575" ht="18.0" customHeight="1">
-      <c r="A575" s="2"/>
-      <c r="B575" s="8"/>
-      <c r="C575" s="2"/>
-      <c r="D575" s="2"/>
+      <c r="A575" s="34">
+        <v>573.0</v>
+      </c>
+      <c r="B575" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C575" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D575" s="33">
+        <v>44033.0</v>
+      </c>
       <c r="E575" s="8"/>
       <c r="F575" s="13"/>
       <c r="G575" s="2"/>
@@ -28687,10 +28787,18 @@
       <c r="Z575" s="8"/>
     </row>
     <row r="576" ht="18.0" customHeight="1">
-      <c r="A576" s="2"/>
-      <c r="B576" s="8"/>
-      <c r="C576" s="2"/>
-      <c r="D576" s="2"/>
+      <c r="A576" s="34">
+        <v>574.0</v>
+      </c>
+      <c r="B576" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C576" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D576" s="33">
+        <v>44033.0</v>
+      </c>
       <c r="E576" s="8"/>
       <c r="F576" s="13"/>
       <c r="G576" s="2"/>
@@ -28715,10 +28823,18 @@
       <c r="Z576" s="8"/>
     </row>
     <row r="577" ht="18.0" customHeight="1">
-      <c r="A577" s="2"/>
-      <c r="B577" s="8"/>
-      <c r="C577" s="2"/>
-      <c r="D577" s="2"/>
+      <c r="A577" s="34">
+        <v>575.0</v>
+      </c>
+      <c r="B577" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C577" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D577" s="33">
+        <v>44033.0</v>
+      </c>
       <c r="E577" s="8"/>
       <c r="F577" s="13"/>
       <c r="G577" s="2"/>
@@ -28743,10 +28859,18 @@
       <c r="Z577" s="8"/>
     </row>
     <row r="578" ht="18.0" customHeight="1">
-      <c r="A578" s="2"/>
-      <c r="B578" s="8"/>
-      <c r="C578" s="2"/>
-      <c r="D578" s="2"/>
+      <c r="A578" s="34">
+        <v>576.0</v>
+      </c>
+      <c r="B578" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C578" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D578" s="33">
+        <v>44033.0</v>
+      </c>
       <c r="E578" s="8"/>
       <c r="F578" s="13"/>
       <c r="G578" s="2"/>
@@ -28771,10 +28895,18 @@
       <c r="Z578" s="8"/>
     </row>
     <row r="579" ht="18.0" customHeight="1">
-      <c r="A579" s="2"/>
-      <c r="B579" s="8"/>
-      <c r="C579" s="2"/>
-      <c r="D579" s="2"/>
+      <c r="A579" s="34">
+        <v>577.0</v>
+      </c>
+      <c r="B579" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C579" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D579" s="33">
+        <v>44033.0</v>
+      </c>
       <c r="E579" s="8"/>
       <c r="F579" s="13"/>
       <c r="G579" s="2"/>
@@ -28799,10 +28931,18 @@
       <c r="Z579" s="8"/>
     </row>
     <row r="580" ht="18.0" customHeight="1">
-      <c r="A580" s="2"/>
-      <c r="B580" s="8"/>
-      <c r="C580" s="2"/>
-      <c r="D580" s="2"/>
+      <c r="A580" s="34">
+        <v>578.0</v>
+      </c>
+      <c r="B580" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C580" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D580" s="33">
+        <v>44033.0</v>
+      </c>
       <c r="E580" s="8"/>
       <c r="F580" s="13"/>
       <c r="G580" s="2"/>
@@ -28827,10 +28967,18 @@
       <c r="Z580" s="8"/>
     </row>
     <row r="581" ht="18.0" customHeight="1">
-      <c r="A581" s="2"/>
-      <c r="B581" s="8"/>
-      <c r="C581" s="2"/>
-      <c r="D581" s="2"/>
+      <c r="A581" s="34">
+        <v>579.0</v>
+      </c>
+      <c r="B581" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C581" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D581" s="33">
+        <v>44033.0</v>
+      </c>
       <c r="E581" s="8"/>
       <c r="F581" s="13"/>
       <c r="G581" s="2"/>
@@ -28855,10 +29003,18 @@
       <c r="Z581" s="8"/>
     </row>
     <row r="582" ht="18.0" customHeight="1">
-      <c r="A582" s="2"/>
-      <c r="B582" s="8"/>
-      <c r="C582" s="2"/>
-      <c r="D582" s="2"/>
+      <c r="A582" s="34">
+        <v>580.0</v>
+      </c>
+      <c r="B582" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C582" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D582" s="33">
+        <v>44033.0</v>
+      </c>
       <c r="E582" s="8"/>
       <c r="F582" s="13"/>
       <c r="G582" s="2"/>
@@ -28883,10 +29039,18 @@
       <c r="Z582" s="8"/>
     </row>
     <row r="583" ht="18.0" customHeight="1">
-      <c r="A583" s="2"/>
-      <c r="B583" s="8"/>
-      <c r="C583" s="2"/>
-      <c r="D583" s="2"/>
+      <c r="A583" s="34">
+        <v>581.0</v>
+      </c>
+      <c r="B583" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C583" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D583" s="33">
+        <v>44033.0</v>
+      </c>
       <c r="E583" s="8"/>
       <c r="F583" s="13"/>
       <c r="G583" s="2"/>
@@ -28911,10 +29075,18 @@
       <c r="Z583" s="8"/>
     </row>
     <row r="584" ht="18.0" customHeight="1">
-      <c r="A584" s="2"/>
-      <c r="B584" s="8"/>
-      <c r="C584" s="2"/>
-      <c r="D584" s="2"/>
+      <c r="A584" s="34">
+        <v>582.0</v>
+      </c>
+      <c r="B584" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C584" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D584" s="33">
+        <v>44033.0</v>
+      </c>
       <c r="E584" s="8"/>
       <c r="F584" s="13"/>
       <c r="G584" s="2"/>
@@ -28939,10 +29111,18 @@
       <c r="Z584" s="8"/>
     </row>
     <row r="585" ht="18.0" customHeight="1">
-      <c r="A585" s="2"/>
-      <c r="B585" s="8"/>
-      <c r="C585" s="2"/>
-      <c r="D585" s="2"/>
+      <c r="A585" s="34">
+        <v>583.0</v>
+      </c>
+      <c r="B585" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C585" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D585" s="33">
+        <v>44033.0</v>
+      </c>
       <c r="E585" s="8"/>
       <c r="F585" s="13"/>
       <c r="G585" s="2"/>
@@ -28967,10 +29147,18 @@
       <c r="Z585" s="8"/>
     </row>
     <row r="586" ht="18.0" customHeight="1">
-      <c r="A586" s="2"/>
-      <c r="B586" s="8"/>
-      <c r="C586" s="2"/>
-      <c r="D586" s="2"/>
+      <c r="A586" s="34">
+        <v>584.0</v>
+      </c>
+      <c r="B586" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C586" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D586" s="33">
+        <v>44033.0</v>
+      </c>
       <c r="E586" s="8"/>
       <c r="F586" s="13"/>
       <c r="G586" s="2"/>
@@ -28995,10 +29183,18 @@
       <c r="Z586" s="8"/>
     </row>
     <row r="587" ht="18.0" customHeight="1">
-      <c r="A587" s="2"/>
-      <c r="B587" s="8"/>
-      <c r="C587" s="2"/>
-      <c r="D587" s="2"/>
+      <c r="A587" s="34">
+        <v>585.0</v>
+      </c>
+      <c r="B587" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C587" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D587" s="33">
+        <v>44033.0</v>
+      </c>
       <c r="E587" s="8"/>
       <c r="F587" s="13"/>
       <c r="G587" s="2"/>
@@ -29023,10 +29219,18 @@
       <c r="Z587" s="8"/>
     </row>
     <row r="588" ht="18.0" customHeight="1">
-      <c r="A588" s="2"/>
-      <c r="B588" s="8"/>
-      <c r="C588" s="2"/>
-      <c r="D588" s="2"/>
+      <c r="A588" s="34">
+        <v>586.0</v>
+      </c>
+      <c r="B588" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C588" s="39">
+        <v>44033.0</v>
+      </c>
+      <c r="D588" s="33">
+        <v>44033.0</v>
+      </c>
       <c r="E588" s="8"/>
       <c r="F588" s="13"/>
       <c r="G588" s="2"/>
@@ -41009,10 +41213,16 @@
     <hyperlink r:id="rId390" ref="K566"/>
     <hyperlink r:id="rId391" ref="K567"/>
     <hyperlink r:id="rId392" ref="K568"/>
+    <hyperlink r:id="rId393" ref="K569"/>
+    <hyperlink r:id="rId394" ref="K570"/>
+    <hyperlink r:id="rId395" ref="K571"/>
+    <hyperlink r:id="rId396" ref="K572"/>
+    <hyperlink r:id="rId397" ref="K573"/>
+    <hyperlink r:id="rId398" ref="K574"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId393"/>
+  <drawing r:id="rId399"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="538">
-  <si>
-    <t>2020-07-20T19:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="539">
+  <si>
+    <t>2020-07-20T23:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2007,6 +2007,9 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200721-567-572.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273019/200721oshirase(394-407).pdf</t>
   </si>
 </sst>
 </file>
@@ -28208,7 +28211,7 @@
       <c r="A562" s="34">
         <v>560.0</v>
       </c>
-      <c r="B562" s="45" t="s">
+      <c r="B562" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C562" s="39">
@@ -28250,7 +28253,7 @@
       <c r="A563" s="34">
         <v>561.0</v>
       </c>
-      <c r="B563" s="45" t="s">
+      <c r="B563" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C563" s="39">
@@ -28292,7 +28295,7 @@
       <c r="A564" s="34">
         <v>562.0</v>
       </c>
-      <c r="B564" s="45" t="s">
+      <c r="B564" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C564" s="39">
@@ -28334,7 +28337,7 @@
       <c r="A565" s="34">
         <v>563.0</v>
       </c>
-      <c r="B565" s="45" t="s">
+      <c r="B565" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C565" s="39">
@@ -28376,7 +28379,7 @@
       <c r="A566" s="34">
         <v>564.0</v>
       </c>
-      <c r="B566" s="45" t="s">
+      <c r="B566" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C566" s="39">
@@ -28418,7 +28421,7 @@
       <c r="A567" s="34">
         <v>565.0</v>
       </c>
-      <c r="B567" s="45" t="s">
+      <c r="B567" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C567" s="39">
@@ -28460,7 +28463,7 @@
       <c r="A568" s="34">
         <v>566.0</v>
       </c>
-      <c r="B568" s="45" t="s">
+      <c r="B568" s="27" t="s">
         <v>513</v>
       </c>
       <c r="C568" s="39">
@@ -28502,7 +28505,7 @@
       <c r="A569" s="34">
         <v>567.0</v>
       </c>
-      <c r="B569" s="45" t="s">
+      <c r="B569" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C569" s="39">
@@ -28544,7 +28547,7 @@
       <c r="A570" s="34">
         <v>568.0</v>
       </c>
-      <c r="B570" s="45" t="s">
+      <c r="B570" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C570" s="39">
@@ -28586,7 +28589,7 @@
       <c r="A571" s="34">
         <v>569.0</v>
       </c>
-      <c r="B571" s="45" t="s">
+      <c r="B571" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C571" s="39">
@@ -28628,7 +28631,7 @@
       <c r="A572" s="34">
         <v>570.0</v>
       </c>
-      <c r="B572" s="45" t="s">
+      <c r="B572" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C572" s="39">
@@ -28670,7 +28673,7 @@
       <c r="A573" s="34">
         <v>571.0</v>
       </c>
-      <c r="B573" s="45" t="s">
+      <c r="B573" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C573" s="39">
@@ -28712,7 +28715,7 @@
       <c r="A574" s="34">
         <v>572.0</v>
       </c>
-      <c r="B574" s="45" t="s">
+      <c r="B574" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C574" s="39">
@@ -28754,7 +28757,7 @@
       <c r="A575" s="34">
         <v>573.0</v>
       </c>
-      <c r="B575" s="45" t="s">
+      <c r="B575" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C575" s="39">
@@ -28763,13 +28766,19 @@
       <c r="D575" s="33">
         <v>44033.0</v>
       </c>
-      <c r="E575" s="8"/>
-      <c r="F575" s="13"/>
+      <c r="E575" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F575" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G575" s="2"/>
       <c r="H575" s="13"/>
       <c r="I575" s="13"/>
       <c r="J575" s="14"/>
-      <c r="K575" s="8"/>
+      <c r="K575" s="31" t="s">
+        <v>538</v>
+      </c>
       <c r="L575" s="8"/>
       <c r="M575" s="8"/>
       <c r="N575" s="8"/>
@@ -28790,7 +28799,7 @@
       <c r="A576" s="34">
         <v>574.0</v>
       </c>
-      <c r="B576" s="45" t="s">
+      <c r="B576" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C576" s="39">
@@ -28799,13 +28808,19 @@
       <c r="D576" s="33">
         <v>44033.0</v>
       </c>
-      <c r="E576" s="8"/>
-      <c r="F576" s="13"/>
+      <c r="E576" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F576" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G576" s="2"/>
       <c r="H576" s="13"/>
       <c r="I576" s="13"/>
       <c r="J576" s="14"/>
-      <c r="K576" s="8"/>
+      <c r="K576" s="31" t="s">
+        <v>538</v>
+      </c>
       <c r="L576" s="8"/>
       <c r="M576" s="8"/>
       <c r="N576" s="8"/>
@@ -28826,7 +28841,7 @@
       <c r="A577" s="34">
         <v>575.0</v>
       </c>
-      <c r="B577" s="45" t="s">
+      <c r="B577" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C577" s="39">
@@ -28835,13 +28850,19 @@
       <c r="D577" s="33">
         <v>44033.0</v>
       </c>
-      <c r="E577" s="8"/>
-      <c r="F577" s="13"/>
+      <c r="E577" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F577" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G577" s="2"/>
       <c r="H577" s="13"/>
       <c r="I577" s="13"/>
       <c r="J577" s="14"/>
-      <c r="K577" s="8"/>
+      <c r="K577" s="31" t="s">
+        <v>538</v>
+      </c>
       <c r="L577" s="8"/>
       <c r="M577" s="8"/>
       <c r="N577" s="8"/>
@@ -28862,7 +28883,7 @@
       <c r="A578" s="34">
         <v>576.0</v>
       </c>
-      <c r="B578" s="45" t="s">
+      <c r="B578" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C578" s="39">
@@ -28871,13 +28892,19 @@
       <c r="D578" s="33">
         <v>44033.0</v>
       </c>
-      <c r="E578" s="8"/>
-      <c r="F578" s="13"/>
+      <c r="E578" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F578" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G578" s="2"/>
       <c r="H578" s="13"/>
       <c r="I578" s="13"/>
       <c r="J578" s="14"/>
-      <c r="K578" s="8"/>
+      <c r="K578" s="31" t="s">
+        <v>538</v>
+      </c>
       <c r="L578" s="8"/>
       <c r="M578" s="8"/>
       <c r="N578" s="8"/>
@@ -28898,7 +28925,7 @@
       <c r="A579" s="34">
         <v>577.0</v>
       </c>
-      <c r="B579" s="45" t="s">
+      <c r="B579" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C579" s="39">
@@ -28907,13 +28934,19 @@
       <c r="D579" s="33">
         <v>44033.0</v>
       </c>
-      <c r="E579" s="8"/>
-      <c r="F579" s="13"/>
+      <c r="E579" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F579" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G579" s="2"/>
       <c r="H579" s="13"/>
       <c r="I579" s="13"/>
       <c r="J579" s="14"/>
-      <c r="K579" s="8"/>
+      <c r="K579" s="31" t="s">
+        <v>538</v>
+      </c>
       <c r="L579" s="8"/>
       <c r="M579" s="8"/>
       <c r="N579" s="8"/>
@@ -28934,7 +28967,7 @@
       <c r="A580" s="34">
         <v>578.0</v>
       </c>
-      <c r="B580" s="45" t="s">
+      <c r="B580" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C580" s="39">
@@ -28943,13 +28976,19 @@
       <c r="D580" s="33">
         <v>44033.0</v>
       </c>
-      <c r="E580" s="8"/>
-      <c r="F580" s="13"/>
+      <c r="E580" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F580" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G580" s="2"/>
       <c r="H580" s="13"/>
       <c r="I580" s="13"/>
       <c r="J580" s="14"/>
-      <c r="K580" s="8"/>
+      <c r="K580" s="31" t="s">
+        <v>538</v>
+      </c>
       <c r="L580" s="8"/>
       <c r="M580" s="8"/>
       <c r="N580" s="8"/>
@@ -28970,7 +29009,7 @@
       <c r="A581" s="34">
         <v>579.0</v>
       </c>
-      <c r="B581" s="45" t="s">
+      <c r="B581" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C581" s="39">
@@ -28979,13 +29018,19 @@
       <c r="D581" s="33">
         <v>44033.0</v>
       </c>
-      <c r="E581" s="8"/>
-      <c r="F581" s="13"/>
+      <c r="E581" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F581" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G581" s="2"/>
       <c r="H581" s="13"/>
       <c r="I581" s="13"/>
       <c r="J581" s="14"/>
-      <c r="K581" s="8"/>
+      <c r="K581" s="31" t="s">
+        <v>538</v>
+      </c>
       <c r="L581" s="8"/>
       <c r="M581" s="8"/>
       <c r="N581" s="8"/>
@@ -29006,7 +29051,7 @@
       <c r="A582" s="34">
         <v>580.0</v>
       </c>
-      <c r="B582" s="45" t="s">
+      <c r="B582" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C582" s="39">
@@ -29015,13 +29060,19 @@
       <c r="D582" s="33">
         <v>44033.0</v>
       </c>
-      <c r="E582" s="8"/>
-      <c r="F582" s="13"/>
+      <c r="E582" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F582" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G582" s="2"/>
       <c r="H582" s="13"/>
       <c r="I582" s="13"/>
       <c r="J582" s="14"/>
-      <c r="K582" s="8"/>
+      <c r="K582" s="31" t="s">
+        <v>538</v>
+      </c>
       <c r="L582" s="8"/>
       <c r="M582" s="8"/>
       <c r="N582" s="8"/>
@@ -29042,7 +29093,7 @@
       <c r="A583" s="34">
         <v>581.0</v>
       </c>
-      <c r="B583" s="45" t="s">
+      <c r="B583" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C583" s="39">
@@ -29051,13 +29102,19 @@
       <c r="D583" s="33">
         <v>44033.0</v>
       </c>
-      <c r="E583" s="8"/>
-      <c r="F583" s="13"/>
+      <c r="E583" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F583" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G583" s="2"/>
       <c r="H583" s="13"/>
       <c r="I583" s="13"/>
       <c r="J583" s="14"/>
-      <c r="K583" s="8"/>
+      <c r="K583" s="31" t="s">
+        <v>538</v>
+      </c>
       <c r="L583" s="8"/>
       <c r="M583" s="8"/>
       <c r="N583" s="8"/>
@@ -29087,13 +29144,19 @@
       <c r="D584" s="33">
         <v>44033.0</v>
       </c>
-      <c r="E584" s="8"/>
-      <c r="F584" s="13"/>
+      <c r="E584" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F584" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G584" s="2"/>
       <c r="H584" s="13"/>
       <c r="I584" s="13"/>
       <c r="J584" s="14"/>
-      <c r="K584" s="8"/>
+      <c r="K584" s="31" t="s">
+        <v>538</v>
+      </c>
       <c r="L584" s="8"/>
       <c r="M584" s="8"/>
       <c r="N584" s="8"/>
@@ -29123,13 +29186,19 @@
       <c r="D585" s="33">
         <v>44033.0</v>
       </c>
-      <c r="E585" s="8"/>
-      <c r="F585" s="13"/>
+      <c r="E585" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F585" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G585" s="2"/>
       <c r="H585" s="13"/>
       <c r="I585" s="13"/>
       <c r="J585" s="14"/>
-      <c r="K585" s="8"/>
+      <c r="K585" s="31" t="s">
+        <v>538</v>
+      </c>
       <c r="L585" s="8"/>
       <c r="M585" s="8"/>
       <c r="N585" s="8"/>
@@ -29159,13 +29228,19 @@
       <c r="D586" s="33">
         <v>44033.0</v>
       </c>
-      <c r="E586" s="8"/>
-      <c r="F586" s="13"/>
+      <c r="E586" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F586" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G586" s="2"/>
       <c r="H586" s="13"/>
       <c r="I586" s="13"/>
       <c r="J586" s="14"/>
-      <c r="K586" s="8"/>
+      <c r="K586" s="31" t="s">
+        <v>538</v>
+      </c>
       <c r="L586" s="8"/>
       <c r="M586" s="8"/>
       <c r="N586" s="8"/>
@@ -29195,13 +29270,19 @@
       <c r="D587" s="33">
         <v>44033.0</v>
       </c>
-      <c r="E587" s="8"/>
-      <c r="F587" s="13"/>
+      <c r="E587" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F587" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G587" s="2"/>
       <c r="H587" s="13"/>
       <c r="I587" s="13"/>
       <c r="J587" s="14"/>
-      <c r="K587" s="8"/>
+      <c r="K587" s="31" t="s">
+        <v>538</v>
+      </c>
       <c r="L587" s="8"/>
       <c r="M587" s="8"/>
       <c r="N587" s="8"/>
@@ -29231,13 +29312,19 @@
       <c r="D588" s="33">
         <v>44033.0</v>
       </c>
-      <c r="E588" s="8"/>
-      <c r="F588" s="13"/>
+      <c r="E588" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F588" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="G588" s="2"/>
       <c r="H588" s="13"/>
       <c r="I588" s="13"/>
       <c r="J588" s="14"/>
-      <c r="K588" s="8"/>
+      <c r="K588" s="31" t="s">
+        <v>538</v>
+      </c>
       <c r="L588" s="8"/>
       <c r="M588" s="8"/>
       <c r="N588" s="8"/>
@@ -41219,10 +41306,24 @@
     <hyperlink r:id="rId396" ref="K572"/>
     <hyperlink r:id="rId397" ref="K573"/>
     <hyperlink r:id="rId398" ref="K574"/>
+    <hyperlink r:id="rId399" ref="K575"/>
+    <hyperlink r:id="rId400" ref="K576"/>
+    <hyperlink r:id="rId401" ref="K577"/>
+    <hyperlink r:id="rId402" ref="K578"/>
+    <hyperlink r:id="rId403" ref="K579"/>
+    <hyperlink r:id="rId404" ref="K580"/>
+    <hyperlink r:id="rId405" ref="K581"/>
+    <hyperlink r:id="rId406" ref="K582"/>
+    <hyperlink r:id="rId407" ref="K583"/>
+    <hyperlink r:id="rId408" ref="K584"/>
+    <hyperlink r:id="rId409" ref="K585"/>
+    <hyperlink r:id="rId410" ref="K586"/>
+    <hyperlink r:id="rId411" ref="K587"/>
+    <hyperlink r:id="rId412" ref="K588"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId399"/>
+  <drawing r:id="rId413"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="539">
-  <si>
-    <t>2020-07-20T23:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="541">
+  <si>
+    <t>2020-07-22T19:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2011,6 +2011,12 @@
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273019/200721oshirase(394-407).pdf</t>
   </si>
+  <si>
+    <t>2020-07-22T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>http://www.pref.kyoto.jp/kentai/corona/documents/20200722-587-595.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -2021,7 +2027,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -2133,6 +2139,15 @@
       <color theme="1"/>
       <name val="游ゴシック regular"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2160,7 +2175,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2298,6 +2313,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -23194,7 +23218,9 @@
         <v>485</v>
       </c>
       <c r="L442" s="8"/>
-      <c r="M442" s="8"/>
+      <c r="M442" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N442" s="8"/>
       <c r="O442" s="8"/>
       <c r="P442" s="8"/>
@@ -23654,7 +23680,9 @@
         <v>488</v>
       </c>
       <c r="L453" s="8"/>
-      <c r="M453" s="8"/>
+      <c r="M453" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N453" s="8"/>
       <c r="O453" s="8"/>
       <c r="P453" s="8"/>
@@ -29342,17 +29370,31 @@
       <c r="Z588" s="8"/>
     </row>
     <row r="589" ht="18.0" customHeight="1">
-      <c r="A589" s="2"/>
-      <c r="B589" s="8"/>
-      <c r="C589" s="2"/>
-      <c r="D589" s="2"/>
-      <c r="E589" s="8"/>
-      <c r="F589" s="13"/>
+      <c r="A589" s="34">
+        <v>587.0</v>
+      </c>
+      <c r="B589" s="45" t="s">
+        <v>539</v>
+      </c>
+      <c r="C589" s="39">
+        <v>44034.0</v>
+      </c>
+      <c r="D589" s="33">
+        <v>44034.0</v>
+      </c>
+      <c r="E589" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F589" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G589" s="2"/>
       <c r="H589" s="13"/>
       <c r="I589" s="13"/>
       <c r="J589" s="14"/>
-      <c r="K589" s="8"/>
+      <c r="K589" s="31" t="s">
+        <v>540</v>
+      </c>
       <c r="L589" s="8"/>
       <c r="M589" s="8"/>
       <c r="N589" s="8"/>
@@ -29370,17 +29412,31 @@
       <c r="Z589" s="8"/>
     </row>
     <row r="590" ht="18.0" customHeight="1">
-      <c r="A590" s="2"/>
-      <c r="B590" s="8"/>
-      <c r="C590" s="2"/>
-      <c r="D590" s="2"/>
-      <c r="E590" s="8"/>
-      <c r="F590" s="13"/>
+      <c r="A590" s="34">
+        <v>588.0</v>
+      </c>
+      <c r="B590" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C590" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D590" s="48">
+        <v>44034.0</v>
+      </c>
+      <c r="E590" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F590" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G590" s="2"/>
       <c r="H590" s="13"/>
       <c r="I590" s="13"/>
       <c r="J590" s="14"/>
-      <c r="K590" s="8"/>
+      <c r="K590" s="31" t="s">
+        <v>540</v>
+      </c>
       <c r="L590" s="8"/>
       <c r="M590" s="8"/>
       <c r="N590" s="8"/>
@@ -29398,17 +29454,31 @@
       <c r="Z590" s="8"/>
     </row>
     <row r="591" ht="18.0" customHeight="1">
-      <c r="A591" s="2"/>
-      <c r="B591" s="8"/>
-      <c r="C591" s="2"/>
-      <c r="D591" s="2"/>
-      <c r="E591" s="8"/>
-      <c r="F591" s="13"/>
+      <c r="A591" s="34">
+        <v>589.0</v>
+      </c>
+      <c r="B591" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C591" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D591" s="48">
+        <v>44034.0</v>
+      </c>
+      <c r="E591" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F591" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G591" s="2"/>
       <c r="H591" s="13"/>
       <c r="I591" s="13"/>
       <c r="J591" s="14"/>
-      <c r="K591" s="8"/>
+      <c r="K591" s="31" t="s">
+        <v>540</v>
+      </c>
       <c r="L591" s="8"/>
       <c r="M591" s="8"/>
       <c r="N591" s="8"/>
@@ -29426,17 +29496,31 @@
       <c r="Z591" s="8"/>
     </row>
     <row r="592" ht="18.0" customHeight="1">
-      <c r="A592" s="2"/>
-      <c r="B592" s="8"/>
-      <c r="C592" s="2"/>
-      <c r="D592" s="2"/>
-      <c r="E592" s="8"/>
-      <c r="F592" s="13"/>
+      <c r="A592" s="34">
+        <v>590.0</v>
+      </c>
+      <c r="B592" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C592" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D592" s="48">
+        <v>44034.0</v>
+      </c>
+      <c r="E592" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F592" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G592" s="2"/>
       <c r="H592" s="13"/>
       <c r="I592" s="13"/>
       <c r="J592" s="14"/>
-      <c r="K592" s="8"/>
+      <c r="K592" s="31" t="s">
+        <v>540</v>
+      </c>
       <c r="L592" s="8"/>
       <c r="M592" s="8"/>
       <c r="N592" s="8"/>
@@ -29454,17 +29538,31 @@
       <c r="Z592" s="8"/>
     </row>
     <row r="593" ht="18.0" customHeight="1">
-      <c r="A593" s="2"/>
-      <c r="B593" s="8"/>
-      <c r="C593" s="2"/>
-      <c r="D593" s="2"/>
-      <c r="E593" s="8"/>
-      <c r="F593" s="13"/>
+      <c r="A593" s="34">
+        <v>591.0</v>
+      </c>
+      <c r="B593" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C593" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D593" s="48">
+        <v>44034.0</v>
+      </c>
+      <c r="E593" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F593" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G593" s="2"/>
       <c r="H593" s="13"/>
       <c r="I593" s="13"/>
       <c r="J593" s="14"/>
-      <c r="K593" s="8"/>
+      <c r="K593" s="31" t="s">
+        <v>540</v>
+      </c>
       <c r="L593" s="8"/>
       <c r="M593" s="8"/>
       <c r="N593" s="8"/>
@@ -29482,17 +29580,31 @@
       <c r="Z593" s="8"/>
     </row>
     <row r="594" ht="18.0" customHeight="1">
-      <c r="A594" s="2"/>
-      <c r="B594" s="8"/>
-      <c r="C594" s="2"/>
-      <c r="D594" s="2"/>
-      <c r="E594" s="8"/>
-      <c r="F594" s="13"/>
+      <c r="A594" s="34">
+        <v>592.0</v>
+      </c>
+      <c r="B594" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C594" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D594" s="48">
+        <v>44034.0</v>
+      </c>
+      <c r="E594" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F594" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G594" s="2"/>
       <c r="H594" s="13"/>
       <c r="I594" s="13"/>
       <c r="J594" s="14"/>
-      <c r="K594" s="8"/>
+      <c r="K594" s="31" t="s">
+        <v>540</v>
+      </c>
       <c r="L594" s="8"/>
       <c r="M594" s="8"/>
       <c r="N594" s="8"/>
@@ -29510,17 +29622,31 @@
       <c r="Z594" s="8"/>
     </row>
     <row r="595" ht="18.0" customHeight="1">
-      <c r="A595" s="2"/>
-      <c r="B595" s="8"/>
-      <c r="C595" s="2"/>
-      <c r="D595" s="2"/>
-      <c r="E595" s="8"/>
-      <c r="F595" s="13"/>
+      <c r="A595" s="34">
+        <v>593.0</v>
+      </c>
+      <c r="B595" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C595" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D595" s="48">
+        <v>44034.0</v>
+      </c>
+      <c r="E595" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F595" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G595" s="2"/>
       <c r="H595" s="13"/>
       <c r="I595" s="13"/>
       <c r="J595" s="14"/>
-      <c r="K595" s="8"/>
+      <c r="K595" s="31" t="s">
+        <v>540</v>
+      </c>
       <c r="L595" s="8"/>
       <c r="M595" s="8"/>
       <c r="N595" s="8"/>
@@ -29538,17 +29664,31 @@
       <c r="Z595" s="8"/>
     </row>
     <row r="596" ht="18.0" customHeight="1">
-      <c r="A596" s="2"/>
-      <c r="B596" s="8"/>
-      <c r="C596" s="2"/>
-      <c r="D596" s="2"/>
-      <c r="E596" s="8"/>
-      <c r="F596" s="13"/>
+      <c r="A596" s="34">
+        <v>594.0</v>
+      </c>
+      <c r="B596" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C596" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D596" s="48">
+        <v>44034.0</v>
+      </c>
+      <c r="E596" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F596" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G596" s="2"/>
       <c r="H596" s="13"/>
       <c r="I596" s="13"/>
       <c r="J596" s="14"/>
-      <c r="K596" s="8"/>
+      <c r="K596" s="31" t="s">
+        <v>540</v>
+      </c>
       <c r="L596" s="8"/>
       <c r="M596" s="8"/>
       <c r="N596" s="8"/>
@@ -29566,17 +29706,31 @@
       <c r="Z596" s="8"/>
     </row>
     <row r="597" ht="18.0" customHeight="1">
-      <c r="A597" s="2"/>
-      <c r="B597" s="8"/>
-      <c r="C597" s="2"/>
-      <c r="D597" s="2"/>
-      <c r="E597" s="8"/>
-      <c r="F597" s="13"/>
+      <c r="A597" s="34">
+        <v>595.0</v>
+      </c>
+      <c r="B597" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C597" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D597" s="48">
+        <v>44034.0</v>
+      </c>
+      <c r="E597" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F597" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G597" s="2"/>
       <c r="H597" s="13"/>
       <c r="I597" s="13"/>
       <c r="J597" s="14"/>
-      <c r="K597" s="8"/>
+      <c r="K597" s="31" t="s">
+        <v>540</v>
+      </c>
       <c r="L597" s="8"/>
       <c r="M597" s="8"/>
       <c r="N597" s="8"/>
@@ -29594,10 +29748,18 @@
       <c r="Z597" s="8"/>
     </row>
     <row r="598" ht="18.0" customHeight="1">
-      <c r="A598" s="2"/>
-      <c r="B598" s="8"/>
-      <c r="C598" s="2"/>
-      <c r="D598" s="2"/>
+      <c r="A598" s="34">
+        <v>596.0</v>
+      </c>
+      <c r="B598" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C598" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D598" s="48">
+        <v>44034.0</v>
+      </c>
       <c r="E598" s="8"/>
       <c r="F598" s="13"/>
       <c r="G598" s="2"/>
@@ -29622,10 +29784,18 @@
       <c r="Z598" s="8"/>
     </row>
     <row r="599" ht="18.0" customHeight="1">
-      <c r="A599" s="2"/>
-      <c r="B599" s="8"/>
-      <c r="C599" s="2"/>
-      <c r="D599" s="2"/>
+      <c r="A599" s="34">
+        <v>597.0</v>
+      </c>
+      <c r="B599" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C599" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D599" s="48">
+        <v>44034.0</v>
+      </c>
       <c r="E599" s="8"/>
       <c r="F599" s="13"/>
       <c r="G599" s="2"/>
@@ -29650,10 +29820,18 @@
       <c r="Z599" s="8"/>
     </row>
     <row r="600" ht="18.0" customHeight="1">
-      <c r="A600" s="2"/>
-      <c r="B600" s="8"/>
-      <c r="C600" s="2"/>
-      <c r="D600" s="2"/>
+      <c r="A600" s="34">
+        <v>598.0</v>
+      </c>
+      <c r="B600" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C600" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D600" s="48">
+        <v>44034.0</v>
+      </c>
       <c r="E600" s="8"/>
       <c r="F600" s="13"/>
       <c r="G600" s="2"/>
@@ -29678,10 +29856,18 @@
       <c r="Z600" s="8"/>
     </row>
     <row r="601" ht="18.0" customHeight="1">
-      <c r="A601" s="2"/>
-      <c r="B601" s="8"/>
-      <c r="C601" s="2"/>
-      <c r="D601" s="2"/>
+      <c r="A601" s="34">
+        <v>599.0</v>
+      </c>
+      <c r="B601" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C601" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D601" s="48">
+        <v>44034.0</v>
+      </c>
       <c r="E601" s="8"/>
       <c r="F601" s="13"/>
       <c r="G601" s="2"/>
@@ -29706,10 +29892,18 @@
       <c r="Z601" s="8"/>
     </row>
     <row r="602" ht="18.0" customHeight="1">
-      <c r="A602" s="2"/>
-      <c r="B602" s="8"/>
-      <c r="C602" s="2"/>
-      <c r="D602" s="2"/>
+      <c r="A602" s="34">
+        <v>600.0</v>
+      </c>
+      <c r="B602" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C602" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D602" s="48">
+        <v>44034.0</v>
+      </c>
       <c r="E602" s="8"/>
       <c r="F602" s="13"/>
       <c r="G602" s="2"/>
@@ -29734,10 +29928,18 @@
       <c r="Z602" s="8"/>
     </row>
     <row r="603" ht="18.0" customHeight="1">
-      <c r="A603" s="2"/>
-      <c r="B603" s="8"/>
-      <c r="C603" s="2"/>
-      <c r="D603" s="2"/>
+      <c r="A603" s="34">
+        <v>601.0</v>
+      </c>
+      <c r="B603" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C603" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D603" s="48">
+        <v>44034.0</v>
+      </c>
       <c r="E603" s="8"/>
       <c r="F603" s="13"/>
       <c r="G603" s="2"/>
@@ -29762,10 +29964,18 @@
       <c r="Z603" s="8"/>
     </row>
     <row r="604" ht="18.0" customHeight="1">
-      <c r="A604" s="2"/>
-      <c r="B604" s="8"/>
-      <c r="C604" s="2"/>
-      <c r="D604" s="2"/>
+      <c r="A604" s="34">
+        <v>602.0</v>
+      </c>
+      <c r="B604" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C604" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D604" s="48">
+        <v>44034.0</v>
+      </c>
       <c r="E604" s="8"/>
       <c r="F604" s="13"/>
       <c r="G604" s="2"/>
@@ -29790,10 +30000,18 @@
       <c r="Z604" s="8"/>
     </row>
     <row r="605" ht="18.0" customHeight="1">
-      <c r="A605" s="2"/>
-      <c r="B605" s="8"/>
-      <c r="C605" s="2"/>
-      <c r="D605" s="2"/>
+      <c r="A605" s="34">
+        <v>603.0</v>
+      </c>
+      <c r="B605" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C605" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D605" s="48">
+        <v>44034.0</v>
+      </c>
       <c r="E605" s="8"/>
       <c r="F605" s="13"/>
       <c r="G605" s="2"/>
@@ -29818,10 +30036,18 @@
       <c r="Z605" s="8"/>
     </row>
     <row r="606" ht="18.0" customHeight="1">
-      <c r="A606" s="2"/>
-      <c r="B606" s="8"/>
-      <c r="C606" s="2"/>
-      <c r="D606" s="2"/>
+      <c r="A606" s="34">
+        <v>604.0</v>
+      </c>
+      <c r="B606" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C606" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D606" s="48">
+        <v>44034.0</v>
+      </c>
       <c r="E606" s="8"/>
       <c r="F606" s="13"/>
       <c r="G606" s="2"/>
@@ -29846,10 +30072,18 @@
       <c r="Z606" s="8"/>
     </row>
     <row r="607" ht="18.0" customHeight="1">
-      <c r="A607" s="2"/>
-      <c r="B607" s="8"/>
-      <c r="C607" s="2"/>
-      <c r="D607" s="2"/>
+      <c r="A607" s="34">
+        <v>605.0</v>
+      </c>
+      <c r="B607" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C607" s="47">
+        <v>44034.0</v>
+      </c>
+      <c r="D607" s="48">
+        <v>44034.0</v>
+      </c>
       <c r="E607" s="8"/>
       <c r="F607" s="13"/>
       <c r="G607" s="2"/>
@@ -41320,10 +41554,19 @@
     <hyperlink r:id="rId410" ref="K586"/>
     <hyperlink r:id="rId411" ref="K587"/>
     <hyperlink r:id="rId412" ref="K588"/>
+    <hyperlink r:id="rId413" ref="K589"/>
+    <hyperlink r:id="rId414" ref="K590"/>
+    <hyperlink r:id="rId415" ref="K591"/>
+    <hyperlink r:id="rId416" ref="K592"/>
+    <hyperlink r:id="rId417" ref="K593"/>
+    <hyperlink r:id="rId418" ref="K594"/>
+    <hyperlink r:id="rId419" ref="K595"/>
+    <hyperlink r:id="rId420" ref="K596"/>
+    <hyperlink r:id="rId421" ref="K597"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId413"/>
+  <drawing r:id="rId422"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -2027,15 +2027,11 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="游ゴシック regular"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -2141,6 +2137,7 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2175,44 +2172,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2221,82 +2194,109 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2309,18 +2309,12 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -29163,7 +29157,7 @@
       <c r="A584" s="34">
         <v>582.0</v>
       </c>
-      <c r="B584" s="45" t="s">
+      <c r="B584" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C584" s="39">
@@ -29205,7 +29199,7 @@
       <c r="A585" s="34">
         <v>583.0</v>
       </c>
-      <c r="B585" s="45" t="s">
+      <c r="B585" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C585" s="39">
@@ -29247,7 +29241,7 @@
       <c r="A586" s="34">
         <v>584.0</v>
       </c>
-      <c r="B586" s="45" t="s">
+      <c r="B586" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C586" s="39">
@@ -29289,7 +29283,7 @@
       <c r="A587" s="34">
         <v>585.0</v>
       </c>
-      <c r="B587" s="45" t="s">
+      <c r="B587" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C587" s="39">
@@ -29331,7 +29325,7 @@
       <c r="A588" s="34">
         <v>586.0</v>
       </c>
-      <c r="B588" s="45" t="s">
+      <c r="B588" s="27" t="s">
         <v>536</v>
       </c>
       <c r="C588" s="39">
@@ -29373,7 +29367,7 @@
       <c r="A589" s="34">
         <v>587.0</v>
       </c>
-      <c r="B589" s="45" t="s">
+      <c r="B589" s="27" t="s">
         <v>539</v>
       </c>
       <c r="C589" s="39">
@@ -29415,13 +29409,13 @@
       <c r="A590" s="34">
         <v>588.0</v>
       </c>
-      <c r="B590" s="46" t="s">
+      <c r="B590" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C590" s="47">
+      <c r="C590" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D590" s="48">
+      <c r="D590" s="47">
         <v>44034.0</v>
       </c>
       <c r="E590" s="16" t="s">
@@ -29457,13 +29451,13 @@
       <c r="A591" s="34">
         <v>589.0</v>
       </c>
-      <c r="B591" s="46" t="s">
+      <c r="B591" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C591" s="47">
+      <c r="C591" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D591" s="48">
+      <c r="D591" s="47">
         <v>44034.0</v>
       </c>
       <c r="E591" s="16" t="s">
@@ -29499,13 +29493,13 @@
       <c r="A592" s="34">
         <v>590.0</v>
       </c>
-      <c r="B592" s="46" t="s">
+      <c r="B592" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C592" s="47">
+      <c r="C592" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D592" s="48">
+      <c r="D592" s="47">
         <v>44034.0</v>
       </c>
       <c r="E592" s="16" t="s">
@@ -29541,13 +29535,13 @@
       <c r="A593" s="34">
         <v>591.0</v>
       </c>
-      <c r="B593" s="46" t="s">
+      <c r="B593" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C593" s="47">
+      <c r="C593" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D593" s="48">
+      <c r="D593" s="47">
         <v>44034.0</v>
       </c>
       <c r="E593" s="16" t="s">
@@ -29583,13 +29577,13 @@
       <c r="A594" s="34">
         <v>592.0</v>
       </c>
-      <c r="B594" s="46" t="s">
+      <c r="B594" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C594" s="47">
+      <c r="C594" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D594" s="48">
+      <c r="D594" s="47">
         <v>44034.0</v>
       </c>
       <c r="E594" s="16" t="s">
@@ -29625,13 +29619,13 @@
       <c r="A595" s="34">
         <v>593.0</v>
       </c>
-      <c r="B595" s="46" t="s">
+      <c r="B595" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C595" s="47">
+      <c r="C595" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D595" s="48">
+      <c r="D595" s="47">
         <v>44034.0</v>
       </c>
       <c r="E595" s="16" t="s">
@@ -29667,13 +29661,13 @@
       <c r="A596" s="34">
         <v>594.0</v>
       </c>
-      <c r="B596" s="46" t="s">
+      <c r="B596" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C596" s="47">
+      <c r="C596" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D596" s="48">
+      <c r="D596" s="47">
         <v>44034.0</v>
       </c>
       <c r="E596" s="16" t="s">
@@ -29709,13 +29703,13 @@
       <c r="A597" s="34">
         <v>595.0</v>
       </c>
-      <c r="B597" s="46" t="s">
+      <c r="B597" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C597" s="47">
+      <c r="C597" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D597" s="48">
+      <c r="D597" s="47">
         <v>44034.0</v>
       </c>
       <c r="E597" s="16" t="s">
@@ -29751,17 +29745,17 @@
       <c r="A598" s="34">
         <v>596.0</v>
       </c>
-      <c r="B598" s="46" t="s">
+      <c r="B598" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C598" s="47">
+      <c r="C598" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D598" s="48">
+      <c r="D598" s="47">
         <v>44034.0</v>
       </c>
-      <c r="E598" s="8"/>
-      <c r="F598" s="13"/>
+      <c r="E598" s="16"/>
+      <c r="F598" s="24"/>
       <c r="G598" s="2"/>
       <c r="H598" s="13"/>
       <c r="I598" s="13"/>
@@ -29787,13 +29781,13 @@
       <c r="A599" s="34">
         <v>597.0</v>
       </c>
-      <c r="B599" s="46" t="s">
+      <c r="B599" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C599" s="47">
+      <c r="C599" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D599" s="48">
+      <c r="D599" s="47">
         <v>44034.0</v>
       </c>
       <c r="E599" s="8"/>
@@ -29823,13 +29817,13 @@
       <c r="A600" s="34">
         <v>598.0</v>
       </c>
-      <c r="B600" s="46" t="s">
+      <c r="B600" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C600" s="47">
+      <c r="C600" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D600" s="48">
+      <c r="D600" s="47">
         <v>44034.0</v>
       </c>
       <c r="E600" s="8"/>
@@ -29859,13 +29853,13 @@
       <c r="A601" s="34">
         <v>599.0</v>
       </c>
-      <c r="B601" s="46" t="s">
+      <c r="B601" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C601" s="47">
+      <c r="C601" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D601" s="48">
+      <c r="D601" s="47">
         <v>44034.0</v>
       </c>
       <c r="E601" s="8"/>
@@ -29895,13 +29889,13 @@
       <c r="A602" s="34">
         <v>600.0</v>
       </c>
-      <c r="B602" s="46" t="s">
+      <c r="B602" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C602" s="47">
+      <c r="C602" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D602" s="48">
+      <c r="D602" s="47">
         <v>44034.0</v>
       </c>
       <c r="E602" s="8"/>
@@ -29931,13 +29925,13 @@
       <c r="A603" s="34">
         <v>601.0</v>
       </c>
-      <c r="B603" s="46" t="s">
+      <c r="B603" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C603" s="47">
+      <c r="C603" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D603" s="48">
+      <c r="D603" s="47">
         <v>44034.0</v>
       </c>
       <c r="E603" s="8"/>
@@ -29967,13 +29961,13 @@
       <c r="A604" s="34">
         <v>602.0</v>
       </c>
-      <c r="B604" s="46" t="s">
+      <c r="B604" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C604" s="47">
+      <c r="C604" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D604" s="48">
+      <c r="D604" s="47">
         <v>44034.0</v>
       </c>
       <c r="E604" s="8"/>
@@ -30003,13 +29997,13 @@
       <c r="A605" s="34">
         <v>603.0</v>
       </c>
-      <c r="B605" s="46" t="s">
+      <c r="B605" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C605" s="47">
+      <c r="C605" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D605" s="48">
+      <c r="D605" s="47">
         <v>44034.0</v>
       </c>
       <c r="E605" s="8"/>
@@ -30039,13 +30033,13 @@
       <c r="A606" s="34">
         <v>604.0</v>
       </c>
-      <c r="B606" s="46" t="s">
+      <c r="B606" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C606" s="47">
+      <c r="C606" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D606" s="48">
+      <c r="D606" s="47">
         <v>44034.0</v>
       </c>
       <c r="E606" s="8"/>
@@ -30075,13 +30069,13 @@
       <c r="A607" s="34">
         <v>605.0</v>
       </c>
-      <c r="B607" s="46" t="s">
+      <c r="B607" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C607" s="47">
+      <c r="C607" s="46">
         <v>44034.0</v>
       </c>
-      <c r="D607" s="48">
+      <c r="D607" s="47">
         <v>44034.0</v>
       </c>
       <c r="E607" s="8"/>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="543">
   <si>
     <t>2020-07-22T19:00:00.000Z</t>
   </si>
@@ -2016,6 +2016,12 @@
   </si>
   <si>
     <t>http://www.pref.kyoto.jp/kentai/corona/documents/20200722-587-595.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273055/200722oshirase(408-417).pdf</t>
+  </si>
+  <si>
+    <t>女性</t>
   </si>
 </sst>
 </file>
@@ -2172,7 +2178,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2316,6 +2322,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29754,13 +29763,19 @@
       <c r="D598" s="47">
         <v>44034.0</v>
       </c>
-      <c r="E598" s="16"/>
-      <c r="F598" s="24"/>
+      <c r="E598" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F598" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G598" s="2"/>
       <c r="H598" s="13"/>
       <c r="I598" s="13"/>
       <c r="J598" s="14"/>
-      <c r="K598" s="8"/>
+      <c r="K598" s="31" t="s">
+        <v>541</v>
+      </c>
       <c r="L598" s="8"/>
       <c r="M598" s="8"/>
       <c r="N598" s="8"/>
@@ -29790,13 +29805,19 @@
       <c r="D599" s="47">
         <v>44034.0</v>
       </c>
-      <c r="E599" s="8"/>
-      <c r="F599" s="13"/>
+      <c r="E599" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F599" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G599" s="2"/>
       <c r="H599" s="13"/>
       <c r="I599" s="13"/>
       <c r="J599" s="14"/>
-      <c r="K599" s="8"/>
+      <c r="K599" s="31" t="s">
+        <v>541</v>
+      </c>
       <c r="L599" s="8"/>
       <c r="M599" s="8"/>
       <c r="N599" s="8"/>
@@ -29826,13 +29847,19 @@
       <c r="D600" s="47">
         <v>44034.0</v>
       </c>
-      <c r="E600" s="8"/>
-      <c r="F600" s="13"/>
+      <c r="E600" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F600" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G600" s="2"/>
       <c r="H600" s="13"/>
       <c r="I600" s="13"/>
       <c r="J600" s="14"/>
-      <c r="K600" s="8"/>
+      <c r="K600" s="31" t="s">
+        <v>541</v>
+      </c>
       <c r="L600" s="8"/>
       <c r="M600" s="8"/>
       <c r="N600" s="8"/>
@@ -29862,13 +29889,19 @@
       <c r="D601" s="47">
         <v>44034.0</v>
       </c>
-      <c r="E601" s="8"/>
-      <c r="F601" s="13"/>
+      <c r="E601" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="F601" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G601" s="2"/>
       <c r="H601" s="13"/>
       <c r="I601" s="13"/>
       <c r="J601" s="14"/>
-      <c r="K601" s="8"/>
+      <c r="K601" s="31" t="s">
+        <v>541</v>
+      </c>
       <c r="L601" s="8"/>
       <c r="M601" s="8"/>
       <c r="N601" s="8"/>
@@ -29898,13 +29931,19 @@
       <c r="D602" s="47">
         <v>44034.0</v>
       </c>
-      <c r="E602" s="8"/>
-      <c r="F602" s="13"/>
+      <c r="E602" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F602" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G602" s="2"/>
       <c r="H602" s="13"/>
       <c r="I602" s="13"/>
       <c r="J602" s="14"/>
-      <c r="K602" s="8"/>
+      <c r="K602" s="31" t="s">
+        <v>541</v>
+      </c>
       <c r="L602" s="8"/>
       <c r="M602" s="8"/>
       <c r="N602" s="8"/>
@@ -29934,13 +29973,19 @@
       <c r="D603" s="47">
         <v>44034.0</v>
       </c>
-      <c r="E603" s="8"/>
-      <c r="F603" s="13"/>
+      <c r="E603" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F603" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G603" s="2"/>
       <c r="H603" s="13"/>
       <c r="I603" s="13"/>
       <c r="J603" s="14"/>
-      <c r="K603" s="8"/>
+      <c r="K603" s="31" t="s">
+        <v>541</v>
+      </c>
       <c r="L603" s="8"/>
       <c r="M603" s="8"/>
       <c r="N603" s="8"/>
@@ -29970,13 +30015,19 @@
       <c r="D604" s="47">
         <v>44034.0</v>
       </c>
-      <c r="E604" s="8"/>
-      <c r="F604" s="13"/>
+      <c r="E604" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F604" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G604" s="2"/>
       <c r="H604" s="13"/>
       <c r="I604" s="13"/>
       <c r="J604" s="14"/>
-      <c r="K604" s="8"/>
+      <c r="K604" s="31" t="s">
+        <v>541</v>
+      </c>
       <c r="L604" s="8"/>
       <c r="M604" s="8"/>
       <c r="N604" s="8"/>
@@ -30006,13 +30057,19 @@
       <c r="D605" s="47">
         <v>44034.0</v>
       </c>
-      <c r="E605" s="8"/>
-      <c r="F605" s="13"/>
+      <c r="E605" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F605" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G605" s="2"/>
       <c r="H605" s="13"/>
       <c r="I605" s="13"/>
       <c r="J605" s="14"/>
-      <c r="K605" s="8"/>
+      <c r="K605" s="31" t="s">
+        <v>541</v>
+      </c>
       <c r="L605" s="8"/>
       <c r="M605" s="8"/>
       <c r="N605" s="8"/>
@@ -30042,13 +30099,19 @@
       <c r="D606" s="47">
         <v>44034.0</v>
       </c>
-      <c r="E606" s="8"/>
-      <c r="F606" s="13"/>
+      <c r="E606" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F606" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G606" s="2"/>
       <c r="H606" s="13"/>
       <c r="I606" s="13"/>
       <c r="J606" s="14"/>
-      <c r="K606" s="8"/>
+      <c r="K606" s="31" t="s">
+        <v>541</v>
+      </c>
       <c r="L606" s="8"/>
       <c r="M606" s="8"/>
       <c r="N606" s="8"/>
@@ -30078,13 +30141,19 @@
       <c r="D607" s="47">
         <v>44034.0</v>
       </c>
-      <c r="E607" s="8"/>
-      <c r="F607" s="13"/>
+      <c r="E607" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F607" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G607" s="2"/>
       <c r="H607" s="13"/>
       <c r="I607" s="13"/>
       <c r="J607" s="14"/>
-      <c r="K607" s="8"/>
+      <c r="K607" s="31" t="s">
+        <v>541</v>
+      </c>
       <c r="L607" s="8"/>
       <c r="M607" s="8"/>
       <c r="N607" s="8"/>
@@ -41116,7 +41185,7 @@
       <c r="H1001" s="13"/>
       <c r="I1001" s="13"/>
       <c r="J1001" s="14"/>
-      <c r="K1001" s="8"/>
+      <c r="K1001" s="48"/>
       <c r="L1001" s="8"/>
       <c r="M1001" s="8"/>
       <c r="N1001" s="8"/>
@@ -41557,10 +41626,20 @@
     <hyperlink r:id="rId419" ref="K595"/>
     <hyperlink r:id="rId420" ref="K596"/>
     <hyperlink r:id="rId421" ref="K597"/>
+    <hyperlink r:id="rId422" ref="K598"/>
+    <hyperlink r:id="rId423" ref="K599"/>
+    <hyperlink r:id="rId424" ref="K600"/>
+    <hyperlink r:id="rId425" ref="K601"/>
+    <hyperlink r:id="rId426" ref="K602"/>
+    <hyperlink r:id="rId427" ref="K603"/>
+    <hyperlink r:id="rId428" ref="K604"/>
+    <hyperlink r:id="rId429" ref="K605"/>
+    <hyperlink r:id="rId430" ref="K606"/>
+    <hyperlink r:id="rId431" ref="K607"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId422"/>
+  <drawing r:id="rId432"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="543">
-  <si>
-    <t>2020-07-22T19:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="545">
+  <si>
+    <t>2020-07-23T19:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2023,6 +2023,12 @@
   <si>
     <t>女性</t>
   </si>
+  <si>
+    <t>2020-07-23T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200723-606-610.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -2033,11 +2039,15 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="游ゴシック regular"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -2151,6 +2161,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2178,20 +2192,44 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2200,109 +2238,82 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2315,15 +2326,27 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -30171,17 +30194,31 @@
       <c r="Z607" s="8"/>
     </row>
     <row r="608" ht="18.0" customHeight="1">
-      <c r="A608" s="2"/>
-      <c r="B608" s="8"/>
-      <c r="C608" s="2"/>
-      <c r="D608" s="2"/>
-      <c r="E608" s="8"/>
-      <c r="F608" s="13"/>
+      <c r="A608" s="34">
+        <v>606.0</v>
+      </c>
+      <c r="B608" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C608" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D608" s="50">
+        <v>44035.0</v>
+      </c>
+      <c r="E608" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F608" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G608" s="2"/>
       <c r="H608" s="13"/>
       <c r="I608" s="13"/>
       <c r="J608" s="14"/>
-      <c r="K608" s="8"/>
+      <c r="K608" s="31" t="s">
+        <v>544</v>
+      </c>
       <c r="L608" s="8"/>
       <c r="M608" s="8"/>
       <c r="N608" s="8"/>
@@ -30199,17 +30236,31 @@
       <c r="Z608" s="8"/>
     </row>
     <row r="609" ht="18.0" customHeight="1">
-      <c r="A609" s="2"/>
-      <c r="B609" s="8"/>
-      <c r="C609" s="2"/>
-      <c r="D609" s="2"/>
-      <c r="E609" s="8"/>
-      <c r="F609" s="13"/>
+      <c r="A609" s="34">
+        <v>607.0</v>
+      </c>
+      <c r="B609" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C609" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D609" s="50">
+        <v>44035.0</v>
+      </c>
+      <c r="E609" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F609" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G609" s="2"/>
       <c r="H609" s="13"/>
       <c r="I609" s="13"/>
       <c r="J609" s="14"/>
-      <c r="K609" s="8"/>
+      <c r="K609" s="31" t="s">
+        <v>544</v>
+      </c>
       <c r="L609" s="8"/>
       <c r="M609" s="8"/>
       <c r="N609" s="8"/>
@@ -30227,17 +30278,31 @@
       <c r="Z609" s="8"/>
     </row>
     <row r="610" ht="18.0" customHeight="1">
-      <c r="A610" s="2"/>
-      <c r="B610" s="8"/>
-      <c r="C610" s="2"/>
-      <c r="D610" s="2"/>
-      <c r="E610" s="8"/>
-      <c r="F610" s="13"/>
+      <c r="A610" s="34">
+        <v>608.0</v>
+      </c>
+      <c r="B610" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C610" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D610" s="50">
+        <v>44035.0</v>
+      </c>
+      <c r="E610" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F610" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="G610" s="2"/>
       <c r="H610" s="13"/>
       <c r="I610" s="13"/>
       <c r="J610" s="14"/>
-      <c r="K610" s="8"/>
+      <c r="K610" s="31" t="s">
+        <v>544</v>
+      </c>
       <c r="L610" s="8"/>
       <c r="M610" s="8"/>
       <c r="N610" s="8"/>
@@ -30255,17 +30320,31 @@
       <c r="Z610" s="8"/>
     </row>
     <row r="611" ht="18.0" customHeight="1">
-      <c r="A611" s="2"/>
-      <c r="B611" s="8"/>
-      <c r="C611" s="2"/>
-      <c r="D611" s="2"/>
-      <c r="E611" s="8"/>
-      <c r="F611" s="13"/>
+      <c r="A611" s="34">
+        <v>609.0</v>
+      </c>
+      <c r="B611" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C611" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D611" s="50">
+        <v>44035.0</v>
+      </c>
+      <c r="E611" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F611" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G611" s="2"/>
       <c r="H611" s="13"/>
       <c r="I611" s="13"/>
       <c r="J611" s="14"/>
-      <c r="K611" s="8"/>
+      <c r="K611" s="31" t="s">
+        <v>544</v>
+      </c>
       <c r="L611" s="8"/>
       <c r="M611" s="8"/>
       <c r="N611" s="8"/>
@@ -30283,10 +30362,18 @@
       <c r="Z611" s="8"/>
     </row>
     <row r="612" ht="18.0" customHeight="1">
-      <c r="A612" s="2"/>
-      <c r="B612" s="8"/>
-      <c r="C612" s="2"/>
-      <c r="D612" s="2"/>
+      <c r="A612" s="34">
+        <v>610.0</v>
+      </c>
+      <c r="B612" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C612" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D612" s="50">
+        <v>44035.0</v>
+      </c>
       <c r="E612" s="8"/>
       <c r="F612" s="13"/>
       <c r="G612" s="2"/>
@@ -30311,10 +30398,18 @@
       <c r="Z612" s="8"/>
     </row>
     <row r="613" ht="18.0" customHeight="1">
-      <c r="A613" s="2"/>
-      <c r="B613" s="8"/>
-      <c r="C613" s="2"/>
-      <c r="D613" s="2"/>
+      <c r="A613" s="34">
+        <v>611.0</v>
+      </c>
+      <c r="B613" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C613" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D613" s="50">
+        <v>44035.0</v>
+      </c>
       <c r="E613" s="8"/>
       <c r="F613" s="13"/>
       <c r="G613" s="2"/>
@@ -30339,10 +30434,18 @@
       <c r="Z613" s="8"/>
     </row>
     <row r="614" ht="18.0" customHeight="1">
-      <c r="A614" s="2"/>
-      <c r="B614" s="8"/>
-      <c r="C614" s="2"/>
-      <c r="D614" s="2"/>
+      <c r="A614" s="34">
+        <v>612.0</v>
+      </c>
+      <c r="B614" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C614" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D614" s="50">
+        <v>44035.0</v>
+      </c>
       <c r="E614" s="8"/>
       <c r="F614" s="13"/>
       <c r="G614" s="2"/>
@@ -30367,10 +30470,18 @@
       <c r="Z614" s="8"/>
     </row>
     <row r="615" ht="18.0" customHeight="1">
-      <c r="A615" s="2"/>
-      <c r="B615" s="8"/>
-      <c r="C615" s="2"/>
-      <c r="D615" s="2"/>
+      <c r="A615" s="34">
+        <v>613.0</v>
+      </c>
+      <c r="B615" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C615" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D615" s="50">
+        <v>44035.0</v>
+      </c>
       <c r="E615" s="8"/>
       <c r="F615" s="13"/>
       <c r="G615" s="2"/>
@@ -30395,10 +30506,18 @@
       <c r="Z615" s="8"/>
     </row>
     <row r="616" ht="18.0" customHeight="1">
-      <c r="A616" s="2"/>
-      <c r="B616" s="8"/>
-      <c r="C616" s="2"/>
-      <c r="D616" s="2"/>
+      <c r="A616" s="34">
+        <v>614.0</v>
+      </c>
+      <c r="B616" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C616" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D616" s="50">
+        <v>44035.0</v>
+      </c>
       <c r="E616" s="8"/>
       <c r="F616" s="13"/>
       <c r="G616" s="2"/>
@@ -30423,10 +30542,18 @@
       <c r="Z616" s="8"/>
     </row>
     <row r="617" ht="18.0" customHeight="1">
-      <c r="A617" s="2"/>
-      <c r="B617" s="8"/>
-      <c r="C617" s="2"/>
-      <c r="D617" s="2"/>
+      <c r="A617" s="34">
+        <v>615.0</v>
+      </c>
+      <c r="B617" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C617" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D617" s="50">
+        <v>44035.0</v>
+      </c>
       <c r="E617" s="8"/>
       <c r="F617" s="13"/>
       <c r="G617" s="2"/>
@@ -30451,10 +30578,18 @@
       <c r="Z617" s="8"/>
     </row>
     <row r="618" ht="18.0" customHeight="1">
-      <c r="A618" s="2"/>
-      <c r="B618" s="8"/>
-      <c r="C618" s="2"/>
-      <c r="D618" s="2"/>
+      <c r="A618" s="34">
+        <v>616.0</v>
+      </c>
+      <c r="B618" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C618" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D618" s="50">
+        <v>44035.0</v>
+      </c>
       <c r="E618" s="8"/>
       <c r="F618" s="13"/>
       <c r="G618" s="2"/>
@@ -30479,10 +30614,18 @@
       <c r="Z618" s="8"/>
     </row>
     <row r="619" ht="18.0" customHeight="1">
-      <c r="A619" s="2"/>
-      <c r="B619" s="8"/>
-      <c r="C619" s="2"/>
-      <c r="D619" s="2"/>
+      <c r="A619" s="34">
+        <v>617.0</v>
+      </c>
+      <c r="B619" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C619" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D619" s="50">
+        <v>44035.0</v>
+      </c>
       <c r="E619" s="8"/>
       <c r="F619" s="13"/>
       <c r="G619" s="2"/>
@@ -30507,10 +30650,18 @@
       <c r="Z619" s="8"/>
     </row>
     <row r="620" ht="18.0" customHeight="1">
-      <c r="A620" s="2"/>
-      <c r="B620" s="8"/>
-      <c r="C620" s="2"/>
-      <c r="D620" s="2"/>
+      <c r="A620" s="34">
+        <v>618.0</v>
+      </c>
+      <c r="B620" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C620" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D620" s="50">
+        <v>44035.0</v>
+      </c>
       <c r="E620" s="8"/>
       <c r="F620" s="13"/>
       <c r="G620" s="2"/>
@@ -30535,10 +30686,18 @@
       <c r="Z620" s="8"/>
     </row>
     <row r="621" ht="18.0" customHeight="1">
-      <c r="A621" s="2"/>
-      <c r="B621" s="8"/>
-      <c r="C621" s="2"/>
-      <c r="D621" s="2"/>
+      <c r="A621" s="34">
+        <v>619.0</v>
+      </c>
+      <c r="B621" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C621" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D621" s="50">
+        <v>44035.0</v>
+      </c>
       <c r="E621" s="8"/>
       <c r="F621" s="13"/>
       <c r="G621" s="2"/>
@@ -30563,10 +30722,18 @@
       <c r="Z621" s="8"/>
     </row>
     <row r="622" ht="18.0" customHeight="1">
-      <c r="A622" s="2"/>
-      <c r="B622" s="8"/>
-      <c r="C622" s="2"/>
-      <c r="D622" s="2"/>
+      <c r="A622" s="34">
+        <v>620.0</v>
+      </c>
+      <c r="B622" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C622" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D622" s="50">
+        <v>44035.0</v>
+      </c>
       <c r="E622" s="8"/>
       <c r="F622" s="13"/>
       <c r="G622" s="2"/>
@@ -30591,10 +30758,18 @@
       <c r="Z622" s="8"/>
     </row>
     <row r="623" ht="18.0" customHeight="1">
-      <c r="A623" s="2"/>
-      <c r="B623" s="8"/>
-      <c r="C623" s="2"/>
-      <c r="D623" s="2"/>
+      <c r="A623" s="34">
+        <v>621.0</v>
+      </c>
+      <c r="B623" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C623" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D623" s="50">
+        <v>44035.0</v>
+      </c>
       <c r="E623" s="8"/>
       <c r="F623" s="13"/>
       <c r="G623" s="2"/>
@@ -30619,10 +30794,18 @@
       <c r="Z623" s="8"/>
     </row>
     <row r="624" ht="18.0" customHeight="1">
-      <c r="A624" s="2"/>
-      <c r="B624" s="8"/>
-      <c r="C624" s="2"/>
-      <c r="D624" s="2"/>
+      <c r="A624" s="34">
+        <v>622.0</v>
+      </c>
+      <c r="B624" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C624" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D624" s="50">
+        <v>44035.0</v>
+      </c>
       <c r="E624" s="8"/>
       <c r="F624" s="13"/>
       <c r="G624" s="2"/>
@@ -30647,10 +30830,18 @@
       <c r="Z624" s="8"/>
     </row>
     <row r="625" ht="18.0" customHeight="1">
-      <c r="A625" s="2"/>
-      <c r="B625" s="8"/>
-      <c r="C625" s="2"/>
-      <c r="D625" s="2"/>
+      <c r="A625" s="34">
+        <v>623.0</v>
+      </c>
+      <c r="B625" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="C625" s="49">
+        <v>44035.0</v>
+      </c>
+      <c r="D625" s="50">
+        <v>44035.0</v>
+      </c>
       <c r="E625" s="8"/>
       <c r="F625" s="13"/>
       <c r="G625" s="2"/>
@@ -41185,7 +41376,7 @@
       <c r="H1001" s="13"/>
       <c r="I1001" s="13"/>
       <c r="J1001" s="14"/>
-      <c r="K1001" s="48"/>
+      <c r="K1001" s="51"/>
       <c r="L1001" s="8"/>
       <c r="M1001" s="8"/>
       <c r="N1001" s="8"/>
@@ -41636,10 +41827,14 @@
     <hyperlink r:id="rId429" ref="K605"/>
     <hyperlink r:id="rId430" ref="K606"/>
     <hyperlink r:id="rId431" ref="K607"/>
+    <hyperlink r:id="rId432" ref="K608"/>
+    <hyperlink r:id="rId433" ref="K609"/>
+    <hyperlink r:id="rId434" ref="K610"/>
+    <hyperlink r:id="rId435" ref="K611"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId432"/>
+  <drawing r:id="rId436"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="547">
   <si>
     <t>2020-07-23T19:00:00.000Z</t>
   </si>
@@ -2028,6 +2028,12 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200723-606-610.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273058/200723oshirase(418-431).pdf</t>
+  </si>
+  <si>
+    <t>兵庫県内</t>
   </si>
 </sst>
 </file>
@@ -30374,13 +30380,19 @@
       <c r="D612" s="50">
         <v>44035.0</v>
       </c>
-      <c r="E612" s="8"/>
-      <c r="F612" s="13"/>
+      <c r="E612" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F612" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G612" s="2"/>
       <c r="H612" s="13"/>
       <c r="I612" s="13"/>
       <c r="J612" s="14"/>
-      <c r="K612" s="8"/>
+      <c r="K612" s="31" t="s">
+        <v>545</v>
+      </c>
       <c r="L612" s="8"/>
       <c r="M612" s="8"/>
       <c r="N612" s="8"/>
@@ -30410,13 +30422,19 @@
       <c r="D613" s="50">
         <v>44035.0</v>
       </c>
-      <c r="E613" s="8"/>
-      <c r="F613" s="13"/>
+      <c r="E613" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F613" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G613" s="2"/>
       <c r="H613" s="13"/>
       <c r="I613" s="13"/>
       <c r="J613" s="14"/>
-      <c r="K613" s="8"/>
+      <c r="K613" s="31" t="s">
+        <v>545</v>
+      </c>
       <c r="L613" s="8"/>
       <c r="M613" s="8"/>
       <c r="N613" s="8"/>
@@ -30446,13 +30464,19 @@
       <c r="D614" s="50">
         <v>44035.0</v>
       </c>
-      <c r="E614" s="8"/>
-      <c r="F614" s="13"/>
+      <c r="E614" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F614" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G614" s="2"/>
       <c r="H614" s="13"/>
       <c r="I614" s="13"/>
       <c r="J614" s="14"/>
-      <c r="K614" s="8"/>
+      <c r="K614" s="31" t="s">
+        <v>545</v>
+      </c>
       <c r="L614" s="8"/>
       <c r="M614" s="8"/>
       <c r="N614" s="8"/>
@@ -30482,13 +30506,19 @@
       <c r="D615" s="50">
         <v>44035.0</v>
       </c>
-      <c r="E615" s="8"/>
-      <c r="F615" s="13"/>
+      <c r="E615" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F615" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G615" s="2"/>
       <c r="H615" s="13"/>
       <c r="I615" s="13"/>
       <c r="J615" s="14"/>
-      <c r="K615" s="8"/>
+      <c r="K615" s="31" t="s">
+        <v>545</v>
+      </c>
       <c r="L615" s="8"/>
       <c r="M615" s="8"/>
       <c r="N615" s="8"/>
@@ -30518,13 +30548,19 @@
       <c r="D616" s="50">
         <v>44035.0</v>
       </c>
-      <c r="E616" s="8"/>
-      <c r="F616" s="13"/>
+      <c r="E616" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F616" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G616" s="2"/>
       <c r="H616" s="13"/>
       <c r="I616" s="13"/>
       <c r="J616" s="14"/>
-      <c r="K616" s="8"/>
+      <c r="K616" s="31" t="s">
+        <v>545</v>
+      </c>
       <c r="L616" s="8"/>
       <c r="M616" s="8"/>
       <c r="N616" s="8"/>
@@ -30554,13 +30590,19 @@
       <c r="D617" s="50">
         <v>44035.0</v>
       </c>
-      <c r="E617" s="8"/>
-      <c r="F617" s="13"/>
+      <c r="E617" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F617" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G617" s="2"/>
       <c r="H617" s="13"/>
       <c r="I617" s="13"/>
       <c r="J617" s="14"/>
-      <c r="K617" s="8"/>
+      <c r="K617" s="31" t="s">
+        <v>545</v>
+      </c>
       <c r="L617" s="8"/>
       <c r="M617" s="8"/>
       <c r="N617" s="8"/>
@@ -30590,13 +30632,19 @@
       <c r="D618" s="50">
         <v>44035.0</v>
       </c>
-      <c r="E618" s="8"/>
-      <c r="F618" s="13"/>
+      <c r="E618" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F618" s="24" t="s">
+        <v>546</v>
+      </c>
       <c r="G618" s="2"/>
       <c r="H618" s="13"/>
       <c r="I618" s="13"/>
       <c r="J618" s="14"/>
-      <c r="K618" s="8"/>
+      <c r="K618" s="31" t="s">
+        <v>545</v>
+      </c>
       <c r="L618" s="8"/>
       <c r="M618" s="8"/>
       <c r="N618" s="8"/>
@@ -30626,13 +30674,19 @@
       <c r="D619" s="50">
         <v>44035.0</v>
       </c>
-      <c r="E619" s="8"/>
-      <c r="F619" s="13"/>
+      <c r="E619" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F619" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G619" s="2"/>
       <c r="H619" s="13"/>
       <c r="I619" s="13"/>
       <c r="J619" s="14"/>
-      <c r="K619" s="8"/>
+      <c r="K619" s="31" t="s">
+        <v>545</v>
+      </c>
       <c r="L619" s="8"/>
       <c r="M619" s="8"/>
       <c r="N619" s="8"/>
@@ -30662,13 +30716,19 @@
       <c r="D620" s="50">
         <v>44035.0</v>
       </c>
-      <c r="E620" s="8"/>
-      <c r="F620" s="13"/>
+      <c r="E620" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F620" s="24" t="s">
+        <v>496</v>
+      </c>
       <c r="G620" s="2"/>
       <c r="H620" s="13"/>
       <c r="I620" s="13"/>
       <c r="J620" s="14"/>
-      <c r="K620" s="8"/>
+      <c r="K620" s="31" t="s">
+        <v>545</v>
+      </c>
       <c r="L620" s="8"/>
       <c r="M620" s="8"/>
       <c r="N620" s="8"/>
@@ -30698,13 +30758,19 @@
       <c r="D621" s="50">
         <v>44035.0</v>
       </c>
-      <c r="E621" s="8"/>
-      <c r="F621" s="13"/>
+      <c r="E621" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F621" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G621" s="2"/>
       <c r="H621" s="13"/>
       <c r="I621" s="13"/>
       <c r="J621" s="14"/>
-      <c r="K621" s="8"/>
+      <c r="K621" s="31" t="s">
+        <v>545</v>
+      </c>
       <c r="L621" s="8"/>
       <c r="M621" s="8"/>
       <c r="N621" s="8"/>
@@ -30734,13 +30800,19 @@
       <c r="D622" s="50">
         <v>44035.0</v>
       </c>
-      <c r="E622" s="8"/>
-      <c r="F622" s="13"/>
+      <c r="E622" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F622" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G622" s="2"/>
       <c r="H622" s="13"/>
       <c r="I622" s="13"/>
       <c r="J622" s="14"/>
-      <c r="K622" s="8"/>
+      <c r="K622" s="31" t="s">
+        <v>545</v>
+      </c>
       <c r="L622" s="8"/>
       <c r="M622" s="8"/>
       <c r="N622" s="8"/>
@@ -30770,13 +30842,19 @@
       <c r="D623" s="50">
         <v>44035.0</v>
       </c>
-      <c r="E623" s="8"/>
-      <c r="F623" s="13"/>
+      <c r="E623" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F623" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G623" s="2"/>
       <c r="H623" s="13"/>
       <c r="I623" s="13"/>
       <c r="J623" s="14"/>
-      <c r="K623" s="8"/>
+      <c r="K623" s="31" t="s">
+        <v>545</v>
+      </c>
       <c r="L623" s="8"/>
       <c r="M623" s="8"/>
       <c r="N623" s="8"/>
@@ -30806,13 +30884,19 @@
       <c r="D624" s="50">
         <v>44035.0</v>
       </c>
-      <c r="E624" s="8"/>
-      <c r="F624" s="13"/>
+      <c r="E624" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F624" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G624" s="2"/>
       <c r="H624" s="13"/>
       <c r="I624" s="13"/>
       <c r="J624" s="14"/>
-      <c r="K624" s="8"/>
+      <c r="K624" s="31" t="s">
+        <v>545</v>
+      </c>
       <c r="L624" s="8"/>
       <c r="M624" s="8"/>
       <c r="N624" s="8"/>
@@ -30842,13 +30926,19 @@
       <c r="D625" s="50">
         <v>44035.0</v>
       </c>
-      <c r="E625" s="8"/>
-      <c r="F625" s="13"/>
+      <c r="E625" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F625" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G625" s="2"/>
       <c r="H625" s="13"/>
       <c r="I625" s="13"/>
       <c r="J625" s="14"/>
-      <c r="K625" s="8"/>
+      <c r="K625" s="31" t="s">
+        <v>545</v>
+      </c>
       <c r="L625" s="8"/>
       <c r="M625" s="8"/>
       <c r="N625" s="8"/>
@@ -41831,10 +41921,24 @@
     <hyperlink r:id="rId433" ref="K609"/>
     <hyperlink r:id="rId434" ref="K610"/>
     <hyperlink r:id="rId435" ref="K611"/>
+    <hyperlink r:id="rId436" ref="K612"/>
+    <hyperlink r:id="rId437" ref="K613"/>
+    <hyperlink r:id="rId438" ref="K614"/>
+    <hyperlink r:id="rId439" ref="K615"/>
+    <hyperlink r:id="rId440" ref="K616"/>
+    <hyperlink r:id="rId441" ref="K617"/>
+    <hyperlink r:id="rId442" ref="K618"/>
+    <hyperlink r:id="rId443" ref="K619"/>
+    <hyperlink r:id="rId444" ref="K620"/>
+    <hyperlink r:id="rId445" ref="K621"/>
+    <hyperlink r:id="rId446" ref="K622"/>
+    <hyperlink r:id="rId447" ref="K623"/>
+    <hyperlink r:id="rId448" ref="K624"/>
+    <hyperlink r:id="rId449" ref="K625"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId436"/>
+  <drawing r:id="rId450"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="547">
-  <si>
-    <t>2020-07-23T19:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="549">
+  <si>
+    <t>2020-07-24T19:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2034,6 +2034,12 @@
   </si>
   <si>
     <t>兵庫県内</t>
+  </si>
+  <si>
+    <t>2020-07-24T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200724-625-630.pdf</t>
   </si>
 </sst>
 </file>
@@ -2198,7 +2204,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2343,13 +2349,16 @@
     <xf borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -23628,7 +23637,9 @@
         <v>488</v>
       </c>
       <c r="L451" s="8"/>
-      <c r="M451" s="8"/>
+      <c r="M451" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N451" s="8"/>
       <c r="O451" s="8"/>
       <c r="P451" s="8"/>
@@ -23966,7 +23977,9 @@
         <v>492</v>
       </c>
       <c r="L459" s="8"/>
-      <c r="M459" s="8"/>
+      <c r="M459" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N459" s="8"/>
       <c r="O459" s="8"/>
       <c r="P459" s="8"/>
@@ -24468,7 +24481,9 @@
         <v>495</v>
       </c>
       <c r="L471" s="8"/>
-      <c r="M471" s="8"/>
+      <c r="M471" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N471" s="8"/>
       <c r="O471" s="8"/>
       <c r="P471" s="8"/>
@@ -24848,7 +24863,9 @@
         <v>499</v>
       </c>
       <c r="L480" s="8"/>
-      <c r="M480" s="8"/>
+      <c r="M480" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N480" s="8"/>
       <c r="O480" s="8"/>
       <c r="P480" s="8"/>
@@ -25520,7 +25537,9 @@
         <v>502</v>
       </c>
       <c r="L496" s="8"/>
-      <c r="M496" s="8"/>
+      <c r="M496" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N496" s="8"/>
       <c r="O496" s="8"/>
       <c r="P496" s="8"/>
@@ -26194,7 +26213,9 @@
         <v>507</v>
       </c>
       <c r="L512" s="8"/>
-      <c r="M512" s="8"/>
+      <c r="M512" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N512" s="8"/>
       <c r="O512" s="8"/>
       <c r="P512" s="8"/>
@@ -30956,17 +30977,31 @@
       <c r="Z625" s="8"/>
     </row>
     <row r="626" ht="18.0" customHeight="1">
-      <c r="A626" s="2"/>
-      <c r="B626" s="8"/>
-      <c r="C626" s="2"/>
-      <c r="D626" s="2"/>
-      <c r="E626" s="8"/>
-      <c r="F626" s="13"/>
+      <c r="A626" s="34">
+        <v>624.0</v>
+      </c>
+      <c r="B626" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C626" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D626" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E626" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F626" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G626" s="2"/>
       <c r="H626" s="13"/>
       <c r="I626" s="13"/>
       <c r="J626" s="14"/>
-      <c r="K626" s="8"/>
+      <c r="K626" s="31" t="s">
+        <v>545</v>
+      </c>
       <c r="L626" s="8"/>
       <c r="M626" s="8"/>
       <c r="N626" s="8"/>
@@ -30984,17 +31019,31 @@
       <c r="Z626" s="8"/>
     </row>
     <row r="627" ht="18.0" customHeight="1">
-      <c r="A627" s="2"/>
-      <c r="B627" s="8"/>
-      <c r="C627" s="2"/>
-      <c r="D627" s="2"/>
-      <c r="E627" s="8"/>
-      <c r="F627" s="13"/>
+      <c r="A627" s="34">
+        <v>625.0</v>
+      </c>
+      <c r="B627" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C627" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D627" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E627" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F627" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G627" s="2"/>
       <c r="H627" s="13"/>
       <c r="I627" s="13"/>
       <c r="J627" s="14"/>
-      <c r="K627" s="8"/>
+      <c r="K627" s="31" t="s">
+        <v>548</v>
+      </c>
       <c r="L627" s="8"/>
       <c r="M627" s="8"/>
       <c r="N627" s="8"/>
@@ -31012,17 +31061,31 @@
       <c r="Z627" s="8"/>
     </row>
     <row r="628" ht="18.0" customHeight="1">
-      <c r="A628" s="2"/>
-      <c r="B628" s="8"/>
-      <c r="C628" s="2"/>
-      <c r="D628" s="2"/>
-      <c r="E628" s="8"/>
-      <c r="F628" s="13"/>
+      <c r="A628" s="34">
+        <v>626.0</v>
+      </c>
+      <c r="B628" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C628" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D628" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E628" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F628" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G628" s="2"/>
       <c r="H628" s="13"/>
       <c r="I628" s="13"/>
       <c r="J628" s="14"/>
-      <c r="K628" s="8"/>
+      <c r="K628" s="31" t="s">
+        <v>548</v>
+      </c>
       <c r="L628" s="8"/>
       <c r="M628" s="8"/>
       <c r="N628" s="8"/>
@@ -31040,17 +31103,31 @@
       <c r="Z628" s="8"/>
     </row>
     <row r="629" ht="18.0" customHeight="1">
-      <c r="A629" s="2"/>
-      <c r="B629" s="8"/>
-      <c r="C629" s="2"/>
-      <c r="D629" s="2"/>
-      <c r="E629" s="8"/>
-      <c r="F629" s="13"/>
+      <c r="A629" s="34">
+        <v>627.0</v>
+      </c>
+      <c r="B629" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C629" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D629" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E629" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F629" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G629" s="2"/>
       <c r="H629" s="13"/>
       <c r="I629" s="13"/>
       <c r="J629" s="14"/>
-      <c r="K629" s="8"/>
+      <c r="K629" s="31" t="s">
+        <v>548</v>
+      </c>
       <c r="L629" s="8"/>
       <c r="M629" s="8"/>
       <c r="N629" s="8"/>
@@ -31068,17 +31145,31 @@
       <c r="Z629" s="8"/>
     </row>
     <row r="630" ht="18.0" customHeight="1">
-      <c r="A630" s="2"/>
-      <c r="B630" s="8"/>
-      <c r="C630" s="2"/>
-      <c r="D630" s="2"/>
-      <c r="E630" s="8"/>
-      <c r="F630" s="13"/>
+      <c r="A630" s="34">
+        <v>628.0</v>
+      </c>
+      <c r="B630" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C630" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D630" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E630" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F630" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G630" s="2"/>
       <c r="H630" s="13"/>
       <c r="I630" s="13"/>
       <c r="J630" s="14"/>
-      <c r="K630" s="8"/>
+      <c r="K630" s="31" t="s">
+        <v>548</v>
+      </c>
       <c r="L630" s="8"/>
       <c r="M630" s="8"/>
       <c r="N630" s="8"/>
@@ -31096,17 +31187,31 @@
       <c r="Z630" s="8"/>
     </row>
     <row r="631" ht="18.0" customHeight="1">
-      <c r="A631" s="2"/>
-      <c r="B631" s="8"/>
-      <c r="C631" s="2"/>
-      <c r="D631" s="2"/>
-      <c r="E631" s="8"/>
-      <c r="F631" s="13"/>
+      <c r="A631" s="34">
+        <v>629.0</v>
+      </c>
+      <c r="B631" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C631" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D631" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E631" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F631" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G631" s="2"/>
       <c r="H631" s="13"/>
       <c r="I631" s="13"/>
       <c r="J631" s="14"/>
-      <c r="K631" s="8"/>
+      <c r="K631" s="31" t="s">
+        <v>548</v>
+      </c>
       <c r="L631" s="8"/>
       <c r="M631" s="8"/>
       <c r="N631" s="8"/>
@@ -31124,17 +31229,31 @@
       <c r="Z631" s="8"/>
     </row>
     <row r="632" ht="18.0" customHeight="1">
-      <c r="A632" s="2"/>
-      <c r="B632" s="8"/>
-      <c r="C632" s="2"/>
-      <c r="D632" s="2"/>
-      <c r="E632" s="8"/>
-      <c r="F632" s="13"/>
+      <c r="A632" s="34">
+        <v>630.0</v>
+      </c>
+      <c r="B632" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C632" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D632" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E632" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F632" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G632" s="2"/>
       <c r="H632" s="13"/>
       <c r="I632" s="13"/>
       <c r="J632" s="14"/>
-      <c r="K632" s="8"/>
+      <c r="K632" s="31" t="s">
+        <v>548</v>
+      </c>
       <c r="L632" s="8"/>
       <c r="M632" s="8"/>
       <c r="N632" s="8"/>
@@ -31152,7 +31271,7 @@
       <c r="Z632" s="8"/>
     </row>
     <row r="633" ht="18.0" customHeight="1">
-      <c r="A633" s="2"/>
+      <c r="A633" s="34"/>
       <c r="B633" s="8"/>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -31180,7 +31299,7 @@
       <c r="Z633" s="8"/>
     </row>
     <row r="634" ht="18.0" customHeight="1">
-      <c r="A634" s="2"/>
+      <c r="A634" s="34"/>
       <c r="B634" s="8"/>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -41466,7 +41585,7 @@
       <c r="H1001" s="13"/>
       <c r="I1001" s="13"/>
       <c r="J1001" s="14"/>
-      <c r="K1001" s="51"/>
+      <c r="K1001" s="52"/>
       <c r="L1001" s="8"/>
       <c r="M1001" s="8"/>
       <c r="N1001" s="8"/>
@@ -41935,10 +42054,17 @@
     <hyperlink r:id="rId447" ref="K623"/>
     <hyperlink r:id="rId448" ref="K624"/>
     <hyperlink r:id="rId449" ref="K625"/>
+    <hyperlink r:id="rId450" ref="K626"/>
+    <hyperlink r:id="rId451" ref="K627"/>
+    <hyperlink r:id="rId452" ref="K628"/>
+    <hyperlink r:id="rId453" ref="K629"/>
+    <hyperlink r:id="rId454" ref="K630"/>
+    <hyperlink r:id="rId455" ref="K631"/>
+    <hyperlink r:id="rId456" ref="K632"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId450"/>
+  <drawing r:id="rId457"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="549">
-  <si>
-    <t>2020-07-24T19:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="550">
+  <si>
+    <t>2020-07-24T23:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2040,6 +2040,9 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200724-625-630.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273059/200724oshirase(432-441).pdf</t>
   </si>
 </sst>
 </file>
@@ -31271,17 +31274,31 @@
       <c r="Z632" s="8"/>
     </row>
     <row r="633" ht="18.0" customHeight="1">
-      <c r="A633" s="34"/>
-      <c r="B633" s="8"/>
-      <c r="C633" s="2"/>
-      <c r="D633" s="2"/>
-      <c r="E633" s="8"/>
-      <c r="F633" s="13"/>
+      <c r="A633" s="34">
+        <v>631.0</v>
+      </c>
+      <c r="B633" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C633" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D633" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E633" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F633" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G633" s="2"/>
       <c r="H633" s="13"/>
       <c r="I633" s="13"/>
       <c r="J633" s="14"/>
-      <c r="K633" s="8"/>
+      <c r="K633" s="31" t="s">
+        <v>549</v>
+      </c>
       <c r="L633" s="8"/>
       <c r="M633" s="8"/>
       <c r="N633" s="8"/>
@@ -31299,17 +31316,31 @@
       <c r="Z633" s="8"/>
     </row>
     <row r="634" ht="18.0" customHeight="1">
-      <c r="A634" s="34"/>
-      <c r="B634" s="8"/>
-      <c r="C634" s="2"/>
-      <c r="D634" s="2"/>
-      <c r="E634" s="8"/>
-      <c r="F634" s="13"/>
+      <c r="A634" s="34">
+        <v>632.0</v>
+      </c>
+      <c r="B634" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C634" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D634" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E634" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F634" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G634" s="2"/>
       <c r="H634" s="13"/>
       <c r="I634" s="13"/>
       <c r="J634" s="14"/>
-      <c r="K634" s="8"/>
+      <c r="K634" s="31" t="s">
+        <v>549</v>
+      </c>
       <c r="L634" s="8"/>
       <c r="M634" s="8"/>
       <c r="N634" s="8"/>
@@ -31327,17 +31358,31 @@
       <c r="Z634" s="8"/>
     </row>
     <row r="635" ht="18.0" customHeight="1">
-      <c r="A635" s="2"/>
-      <c r="B635" s="8"/>
-      <c r="C635" s="2"/>
-      <c r="D635" s="2"/>
-      <c r="E635" s="8"/>
-      <c r="F635" s="13"/>
+      <c r="A635" s="34">
+        <v>633.0</v>
+      </c>
+      <c r="B635" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C635" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D635" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E635" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F635" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G635" s="2"/>
       <c r="H635" s="13"/>
       <c r="I635" s="13"/>
       <c r="J635" s="14"/>
-      <c r="K635" s="8"/>
+      <c r="K635" s="31" t="s">
+        <v>549</v>
+      </c>
       <c r="L635" s="8"/>
       <c r="M635" s="8"/>
       <c r="N635" s="8"/>
@@ -31355,17 +31400,31 @@
       <c r="Z635" s="8"/>
     </row>
     <row r="636" ht="18.0" customHeight="1">
-      <c r="A636" s="2"/>
-      <c r="B636" s="8"/>
-      <c r="C636" s="2"/>
-      <c r="D636" s="2"/>
-      <c r="E636" s="8"/>
-      <c r="F636" s="13"/>
+      <c r="A636" s="34">
+        <v>634.0</v>
+      </c>
+      <c r="B636" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C636" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D636" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E636" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F636" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G636" s="2"/>
       <c r="H636" s="13"/>
       <c r="I636" s="13"/>
       <c r="J636" s="14"/>
-      <c r="K636" s="8"/>
+      <c r="K636" s="31" t="s">
+        <v>549</v>
+      </c>
       <c r="L636" s="8"/>
       <c r="M636" s="8"/>
       <c r="N636" s="8"/>
@@ -31383,17 +31442,31 @@
       <c r="Z636" s="8"/>
     </row>
     <row r="637" ht="18.0" customHeight="1">
-      <c r="A637" s="2"/>
-      <c r="B637" s="8"/>
-      <c r="C637" s="2"/>
-      <c r="D637" s="2"/>
-      <c r="E637" s="8"/>
-      <c r="F637" s="13"/>
+      <c r="A637" s="34">
+        <v>635.0</v>
+      </c>
+      <c r="B637" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C637" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D637" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E637" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F637" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G637" s="2"/>
       <c r="H637" s="13"/>
       <c r="I637" s="13"/>
       <c r="J637" s="14"/>
-      <c r="K637" s="8"/>
+      <c r="K637" s="31" t="s">
+        <v>549</v>
+      </c>
       <c r="L637" s="8"/>
       <c r="M637" s="8"/>
       <c r="N637" s="8"/>
@@ -31411,17 +31484,31 @@
       <c r="Z637" s="8"/>
     </row>
     <row r="638" ht="18.0" customHeight="1">
-      <c r="A638" s="2"/>
-      <c r="B638" s="8"/>
-      <c r="C638" s="2"/>
-      <c r="D638" s="2"/>
-      <c r="E638" s="8"/>
-      <c r="F638" s="13"/>
+      <c r="A638" s="34">
+        <v>636.0</v>
+      </c>
+      <c r="B638" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C638" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D638" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E638" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F638" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G638" s="2"/>
       <c r="H638" s="13"/>
       <c r="I638" s="13"/>
       <c r="J638" s="14"/>
-      <c r="K638" s="8"/>
+      <c r="K638" s="31" t="s">
+        <v>549</v>
+      </c>
       <c r="L638" s="8"/>
       <c r="M638" s="8"/>
       <c r="N638" s="8"/>
@@ -31439,17 +31526,31 @@
       <c r="Z638" s="8"/>
     </row>
     <row r="639" ht="18.0" customHeight="1">
-      <c r="A639" s="2"/>
-      <c r="B639" s="8"/>
-      <c r="C639" s="2"/>
-      <c r="D639" s="2"/>
-      <c r="E639" s="8"/>
-      <c r="F639" s="13"/>
+      <c r="A639" s="34">
+        <v>637.0</v>
+      </c>
+      <c r="B639" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C639" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D639" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E639" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F639" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G639" s="2"/>
       <c r="H639" s="13"/>
       <c r="I639" s="13"/>
       <c r="J639" s="14"/>
-      <c r="K639" s="8"/>
+      <c r="K639" s="31" t="s">
+        <v>549</v>
+      </c>
       <c r="L639" s="8"/>
       <c r="M639" s="8"/>
       <c r="N639" s="8"/>
@@ -31467,17 +31568,31 @@
       <c r="Z639" s="8"/>
     </row>
     <row r="640" ht="18.0" customHeight="1">
-      <c r="A640" s="2"/>
-      <c r="B640" s="8"/>
-      <c r="C640" s="2"/>
-      <c r="D640" s="2"/>
-      <c r="E640" s="8"/>
-      <c r="F640" s="13"/>
+      <c r="A640" s="34">
+        <v>638.0</v>
+      </c>
+      <c r="B640" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C640" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D640" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E640" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F640" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G640" s="2"/>
       <c r="H640" s="13"/>
       <c r="I640" s="13"/>
       <c r="J640" s="14"/>
-      <c r="K640" s="8"/>
+      <c r="K640" s="31" t="s">
+        <v>549</v>
+      </c>
       <c r="L640" s="8"/>
       <c r="M640" s="8"/>
       <c r="N640" s="8"/>
@@ -31495,17 +31610,31 @@
       <c r="Z640" s="8"/>
     </row>
     <row r="641" ht="18.0" customHeight="1">
-      <c r="A641" s="2"/>
-      <c r="B641" s="8"/>
-      <c r="C641" s="2"/>
-      <c r="D641" s="2"/>
-      <c r="E641" s="8"/>
-      <c r="F641" s="13"/>
+      <c r="A641" s="34">
+        <v>639.0</v>
+      </c>
+      <c r="B641" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C641" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D641" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E641" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F641" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G641" s="2"/>
       <c r="H641" s="13"/>
       <c r="I641" s="13"/>
       <c r="J641" s="14"/>
-      <c r="K641" s="8"/>
+      <c r="K641" s="31" t="s">
+        <v>549</v>
+      </c>
       <c r="L641" s="8"/>
       <c r="M641" s="8"/>
       <c r="N641" s="8"/>
@@ -31523,17 +31652,31 @@
       <c r="Z641" s="8"/>
     </row>
     <row r="642" ht="18.0" customHeight="1">
-      <c r="A642" s="2"/>
-      <c r="B642" s="8"/>
-      <c r="C642" s="2"/>
-      <c r="D642" s="2"/>
-      <c r="E642" s="8"/>
-      <c r="F642" s="13"/>
+      <c r="A642" s="34">
+        <v>640.0</v>
+      </c>
+      <c r="B642" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C642" s="49">
+        <v>44036.0</v>
+      </c>
+      <c r="D642" s="50">
+        <v>44036.0</v>
+      </c>
+      <c r="E642" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F642" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G642" s="2"/>
       <c r="H642" s="13"/>
       <c r="I642" s="13"/>
       <c r="J642" s="14"/>
-      <c r="K642" s="8"/>
+      <c r="K642" s="31" t="s">
+        <v>549</v>
+      </c>
       <c r="L642" s="8"/>
       <c r="M642" s="8"/>
       <c r="N642" s="8"/>
@@ -42061,10 +42204,20 @@
     <hyperlink r:id="rId454" ref="K630"/>
     <hyperlink r:id="rId455" ref="K631"/>
     <hyperlink r:id="rId456" ref="K632"/>
+    <hyperlink r:id="rId457" ref="K633"/>
+    <hyperlink r:id="rId458" ref="K634"/>
+    <hyperlink r:id="rId459" ref="K635"/>
+    <hyperlink r:id="rId460" ref="K636"/>
+    <hyperlink r:id="rId461" ref="K637"/>
+    <hyperlink r:id="rId462" ref="K638"/>
+    <hyperlink r:id="rId463" ref="K639"/>
+    <hyperlink r:id="rId464" ref="K640"/>
+    <hyperlink r:id="rId465" ref="K641"/>
+    <hyperlink r:id="rId466" ref="K642"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId457"/>
+  <drawing r:id="rId467"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="550">
-  <si>
-    <t>2020-07-24T23:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3287" uniqueCount="553">
+  <si>
+    <t>2020-07-25T21:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2043,6 +2043,15 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273059/200724oshirase(432-441).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-25T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200725-641-642.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273062/200725oshirase(442-443).pdf</t>
   </si>
 </sst>
 </file>
@@ -31694,17 +31703,31 @@
       <c r="Z642" s="8"/>
     </row>
     <row r="643" ht="18.0" customHeight="1">
-      <c r="A643" s="2"/>
-      <c r="B643" s="8"/>
-      <c r="C643" s="2"/>
-      <c r="D643" s="2"/>
-      <c r="E643" s="8"/>
-      <c r="F643" s="13"/>
+      <c r="A643" s="34">
+        <v>641.0</v>
+      </c>
+      <c r="B643" s="51" t="s">
+        <v>550</v>
+      </c>
+      <c r="C643" s="49">
+        <v>44037.0</v>
+      </c>
+      <c r="D643" s="50">
+        <v>44037.0</v>
+      </c>
+      <c r="E643" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F643" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G643" s="2"/>
       <c r="H643" s="13"/>
       <c r="I643" s="13"/>
       <c r="J643" s="14"/>
-      <c r="K643" s="8"/>
+      <c r="K643" s="31" t="s">
+        <v>551</v>
+      </c>
       <c r="L643" s="8"/>
       <c r="M643" s="8"/>
       <c r="N643" s="8"/>
@@ -31722,17 +31745,31 @@
       <c r="Z643" s="8"/>
     </row>
     <row r="644" ht="18.0" customHeight="1">
-      <c r="A644" s="2"/>
-      <c r="B644" s="8"/>
-      <c r="C644" s="2"/>
-      <c r="D644" s="2"/>
-      <c r="E644" s="8"/>
-      <c r="F644" s="13"/>
+      <c r="A644" s="34">
+        <v>642.0</v>
+      </c>
+      <c r="B644" s="51" t="s">
+        <v>550</v>
+      </c>
+      <c r="C644" s="49">
+        <v>44037.0</v>
+      </c>
+      <c r="D644" s="50">
+        <v>44037.0</v>
+      </c>
+      <c r="E644" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F644" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G644" s="2"/>
       <c r="H644" s="13"/>
       <c r="I644" s="13"/>
       <c r="J644" s="14"/>
-      <c r="K644" s="8"/>
+      <c r="K644" s="31" t="s">
+        <v>551</v>
+      </c>
       <c r="L644" s="8"/>
       <c r="M644" s="8"/>
       <c r="N644" s="8"/>
@@ -31750,17 +31787,31 @@
       <c r="Z644" s="8"/>
     </row>
     <row r="645" ht="18.0" customHeight="1">
-      <c r="A645" s="2"/>
-      <c r="B645" s="8"/>
-      <c r="C645" s="2"/>
-      <c r="D645" s="2"/>
-      <c r="E645" s="8"/>
-      <c r="F645" s="13"/>
+      <c r="A645" s="34">
+        <v>643.0</v>
+      </c>
+      <c r="B645" s="51" t="s">
+        <v>550</v>
+      </c>
+      <c r="C645" s="49">
+        <v>44037.0</v>
+      </c>
+      <c r="D645" s="50">
+        <v>44037.0</v>
+      </c>
+      <c r="E645" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F645" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G645" s="2"/>
       <c r="H645" s="13"/>
       <c r="I645" s="13"/>
       <c r="J645" s="14"/>
-      <c r="K645" s="8"/>
+      <c r="K645" s="31" t="s">
+        <v>552</v>
+      </c>
       <c r="L645" s="8"/>
       <c r="M645" s="8"/>
       <c r="N645" s="8"/>
@@ -31778,17 +31829,31 @@
       <c r="Z645" s="8"/>
     </row>
     <row r="646" ht="18.0" customHeight="1">
-      <c r="A646" s="2"/>
-      <c r="B646" s="8"/>
-      <c r="C646" s="2"/>
-      <c r="D646" s="2"/>
-      <c r="E646" s="8"/>
-      <c r="F646" s="13"/>
+      <c r="A646" s="34">
+        <v>644.0</v>
+      </c>
+      <c r="B646" s="51" t="s">
+        <v>550</v>
+      </c>
+      <c r="C646" s="49">
+        <v>44037.0</v>
+      </c>
+      <c r="D646" s="50">
+        <v>44037.0</v>
+      </c>
+      <c r="E646" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F646" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G646" s="2"/>
       <c r="H646" s="13"/>
       <c r="I646" s="13"/>
       <c r="J646" s="14"/>
-      <c r="K646" s="8"/>
+      <c r="K646" s="31" t="s">
+        <v>552</v>
+      </c>
       <c r="L646" s="8"/>
       <c r="M646" s="8"/>
       <c r="N646" s="8"/>
@@ -31806,7 +31871,7 @@
       <c r="Z646" s="8"/>
     </row>
     <row r="647" ht="18.0" customHeight="1">
-      <c r="A647" s="2"/>
+      <c r="A647" s="34"/>
       <c r="B647" s="8"/>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -42214,10 +42279,14 @@
     <hyperlink r:id="rId464" ref="K640"/>
     <hyperlink r:id="rId465" ref="K641"/>
     <hyperlink r:id="rId466" ref="K642"/>
+    <hyperlink r:id="rId467" ref="K643"/>
+    <hyperlink r:id="rId468" ref="K644"/>
+    <hyperlink r:id="rId469" ref="K645"/>
+    <hyperlink r:id="rId470" ref="K646"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId467"/>
+  <drawing r:id="rId471"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3287" uniqueCount="553">
-  <si>
-    <t>2020-07-25T21:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="555">
+  <si>
+    <t>2020-07-26T19:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2052,6 +2052,12 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273062/200725oshirase(442-443).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-26T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200726-645-646.pdf</t>
   </si>
 </sst>
 </file>
@@ -23607,7 +23613,9 @@
         <v>488</v>
       </c>
       <c r="L450" s="8"/>
-      <c r="M450" s="8"/>
+      <c r="M450" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N450" s="8"/>
       <c r="O450" s="8"/>
       <c r="P450" s="8"/>
@@ -24961,7 +24969,9 @@
         <v>499</v>
       </c>
       <c r="L482" s="8"/>
-      <c r="M482" s="8"/>
+      <c r="M482" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N482" s="8"/>
       <c r="O482" s="8"/>
       <c r="P482" s="8"/>
@@ -25003,7 +25013,9 @@
         <v>499</v>
       </c>
       <c r="L483" s="8"/>
-      <c r="M483" s="8"/>
+      <c r="M483" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N483" s="8"/>
       <c r="O483" s="8"/>
       <c r="P483" s="8"/>
@@ -25423,7 +25435,9 @@
         <v>502</v>
       </c>
       <c r="L493" s="8"/>
-      <c r="M493" s="8"/>
+      <c r="M493" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N493" s="8"/>
       <c r="O493" s="8"/>
       <c r="P493" s="8"/>
@@ -26055,7 +26069,9 @@
         <v>507</v>
       </c>
       <c r="L508" s="8"/>
-      <c r="M508" s="8"/>
+      <c r="M508" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N508" s="8"/>
       <c r="O508" s="8"/>
       <c r="P508" s="8"/>
@@ -26605,7 +26621,9 @@
         <v>507</v>
       </c>
       <c r="L521" s="8"/>
-      <c r="M521" s="8"/>
+      <c r="M521" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N521" s="8"/>
       <c r="O521" s="8"/>
       <c r="P521" s="8"/>
@@ -27025,7 +27043,9 @@
         <v>511</v>
       </c>
       <c r="L531" s="8"/>
-      <c r="M531" s="8"/>
+      <c r="M531" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N531" s="8"/>
       <c r="O531" s="8"/>
       <c r="P531" s="8"/>
@@ -30992,7 +31012,7 @@
       <c r="A626" s="34">
         <v>624.0</v>
       </c>
-      <c r="B626" s="51" t="s">
+      <c r="B626" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C626" s="49">
@@ -31034,7 +31054,7 @@
       <c r="A627" s="34">
         <v>625.0</v>
       </c>
-      <c r="B627" s="51" t="s">
+      <c r="B627" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C627" s="49">
@@ -31076,7 +31096,7 @@
       <c r="A628" s="34">
         <v>626.0</v>
       </c>
-      <c r="B628" s="51" t="s">
+      <c r="B628" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C628" s="49">
@@ -31118,7 +31138,7 @@
       <c r="A629" s="34">
         <v>627.0</v>
       </c>
-      <c r="B629" s="51" t="s">
+      <c r="B629" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C629" s="49">
@@ -31160,7 +31180,7 @@
       <c r="A630" s="34">
         <v>628.0</v>
       </c>
-      <c r="B630" s="51" t="s">
+      <c r="B630" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C630" s="49">
@@ -31202,7 +31222,7 @@
       <c r="A631" s="34">
         <v>629.0</v>
       </c>
-      <c r="B631" s="51" t="s">
+      <c r="B631" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C631" s="49">
@@ -31244,7 +31264,7 @@
       <c r="A632" s="34">
         <v>630.0</v>
       </c>
-      <c r="B632" s="51" t="s">
+      <c r="B632" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C632" s="49">
@@ -31286,7 +31306,7 @@
       <c r="A633" s="34">
         <v>631.0</v>
       </c>
-      <c r="B633" s="51" t="s">
+      <c r="B633" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C633" s="49">
@@ -31328,7 +31348,7 @@
       <c r="A634" s="34">
         <v>632.0</v>
       </c>
-      <c r="B634" s="51" t="s">
+      <c r="B634" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C634" s="49">
@@ -31370,7 +31390,7 @@
       <c r="A635" s="34">
         <v>633.0</v>
       </c>
-      <c r="B635" s="51" t="s">
+      <c r="B635" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C635" s="49">
@@ -31412,7 +31432,7 @@
       <c r="A636" s="34">
         <v>634.0</v>
       </c>
-      <c r="B636" s="51" t="s">
+      <c r="B636" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C636" s="49">
@@ -31454,7 +31474,7 @@
       <c r="A637" s="34">
         <v>635.0</v>
       </c>
-      <c r="B637" s="51" t="s">
+      <c r="B637" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C637" s="49">
@@ -31496,7 +31516,7 @@
       <c r="A638" s="34">
         <v>636.0</v>
       </c>
-      <c r="B638" s="51" t="s">
+      <c r="B638" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C638" s="49">
@@ -31538,7 +31558,7 @@
       <c r="A639" s="34">
         <v>637.0</v>
       </c>
-      <c r="B639" s="51" t="s">
+      <c r="B639" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C639" s="49">
@@ -31580,7 +31600,7 @@
       <c r="A640" s="34">
         <v>638.0</v>
       </c>
-      <c r="B640" s="51" t="s">
+      <c r="B640" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C640" s="49">
@@ -31622,7 +31642,7 @@
       <c r="A641" s="34">
         <v>639.0</v>
       </c>
-      <c r="B641" s="51" t="s">
+      <c r="B641" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C641" s="49">
@@ -31664,7 +31684,7 @@
       <c r="A642" s="34">
         <v>640.0</v>
       </c>
-      <c r="B642" s="51" t="s">
+      <c r="B642" s="48" t="s">
         <v>547</v>
       </c>
       <c r="C642" s="49">
@@ -31706,7 +31726,7 @@
       <c r="A643" s="34">
         <v>641.0</v>
       </c>
-      <c r="B643" s="51" t="s">
+      <c r="B643" s="48" t="s">
         <v>550</v>
       </c>
       <c r="C643" s="49">
@@ -31871,17 +31891,31 @@
       <c r="Z646" s="8"/>
     </row>
     <row r="647" ht="18.0" customHeight="1">
-      <c r="A647" s="34"/>
-      <c r="B647" s="8"/>
-      <c r="C647" s="2"/>
-      <c r="D647" s="2"/>
-      <c r="E647" s="8"/>
-      <c r="F647" s="13"/>
+      <c r="A647" s="34">
+        <v>645.0</v>
+      </c>
+      <c r="B647" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="C647" s="49">
+        <v>44038.0</v>
+      </c>
+      <c r="D647" s="50">
+        <v>44038.0</v>
+      </c>
+      <c r="E647" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F647" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G647" s="2"/>
       <c r="H647" s="13"/>
       <c r="I647" s="13"/>
       <c r="J647" s="14"/>
-      <c r="K647" s="8"/>
+      <c r="K647" s="31" t="s">
+        <v>554</v>
+      </c>
       <c r="L647" s="8"/>
       <c r="M647" s="8"/>
       <c r="N647" s="8"/>
@@ -31899,17 +31933,31 @@
       <c r="Z647" s="8"/>
     </row>
     <row r="648" ht="18.0" customHeight="1">
-      <c r="A648" s="2"/>
-      <c r="B648" s="8"/>
-      <c r="C648" s="2"/>
-      <c r="D648" s="2"/>
-      <c r="E648" s="8"/>
-      <c r="F648" s="13"/>
+      <c r="A648" s="34">
+        <v>646.0</v>
+      </c>
+      <c r="B648" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="C648" s="49">
+        <v>44038.0</v>
+      </c>
+      <c r="D648" s="50">
+        <v>44038.0</v>
+      </c>
+      <c r="E648" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F648" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G648" s="2"/>
       <c r="H648" s="13"/>
       <c r="I648" s="13"/>
       <c r="J648" s="14"/>
-      <c r="K648" s="8"/>
+      <c r="K648" s="31" t="s">
+        <v>554</v>
+      </c>
       <c r="L648" s="8"/>
       <c r="M648" s="8"/>
       <c r="N648" s="8"/>
@@ -31927,10 +31975,18 @@
       <c r="Z648" s="8"/>
     </row>
     <row r="649" ht="18.0" customHeight="1">
-      <c r="A649" s="2"/>
-      <c r="B649" s="8"/>
-      <c r="C649" s="2"/>
-      <c r="D649" s="2"/>
+      <c r="A649" s="34">
+        <v>647.0</v>
+      </c>
+      <c r="B649" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="C649" s="49">
+        <v>44038.0</v>
+      </c>
+      <c r="D649" s="50">
+        <v>44038.0</v>
+      </c>
       <c r="E649" s="8"/>
       <c r="F649" s="13"/>
       <c r="G649" s="2"/>
@@ -31955,10 +32011,18 @@
       <c r="Z649" s="8"/>
     </row>
     <row r="650" ht="18.0" customHeight="1">
-      <c r="A650" s="2"/>
-      <c r="B650" s="8"/>
-      <c r="C650" s="2"/>
-      <c r="D650" s="2"/>
+      <c r="A650" s="34">
+        <v>648.0</v>
+      </c>
+      <c r="B650" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="C650" s="49">
+        <v>44038.0</v>
+      </c>
+      <c r="D650" s="50">
+        <v>44038.0</v>
+      </c>
       <c r="E650" s="8"/>
       <c r="F650" s="13"/>
       <c r="G650" s="2"/>
@@ -31983,10 +32047,18 @@
       <c r="Z650" s="8"/>
     </row>
     <row r="651" ht="18.0" customHeight="1">
-      <c r="A651" s="2"/>
-      <c r="B651" s="8"/>
-      <c r="C651" s="2"/>
-      <c r="D651" s="2"/>
+      <c r="A651" s="34">
+        <v>649.0</v>
+      </c>
+      <c r="B651" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="C651" s="49">
+        <v>44038.0</v>
+      </c>
+      <c r="D651" s="50">
+        <v>44038.0</v>
+      </c>
       <c r="E651" s="8"/>
       <c r="F651" s="13"/>
       <c r="G651" s="2"/>
@@ -32011,10 +32083,18 @@
       <c r="Z651" s="8"/>
     </row>
     <row r="652" ht="18.0" customHeight="1">
-      <c r="A652" s="2"/>
-      <c r="B652" s="8"/>
-      <c r="C652" s="2"/>
-      <c r="D652" s="2"/>
+      <c r="A652" s="34">
+        <v>650.0</v>
+      </c>
+      <c r="B652" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="C652" s="49">
+        <v>44038.0</v>
+      </c>
+      <c r="D652" s="50">
+        <v>44038.0</v>
+      </c>
       <c r="E652" s="8"/>
       <c r="F652" s="13"/>
       <c r="G652" s="2"/>
@@ -32039,10 +32119,18 @@
       <c r="Z652" s="8"/>
     </row>
     <row r="653" ht="18.0" customHeight="1">
-      <c r="A653" s="2"/>
-      <c r="B653" s="8"/>
-      <c r="C653" s="2"/>
-      <c r="D653" s="2"/>
+      <c r="A653" s="34">
+        <v>651.0</v>
+      </c>
+      <c r="B653" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="C653" s="49">
+        <v>44038.0</v>
+      </c>
+      <c r="D653" s="50">
+        <v>44038.0</v>
+      </c>
       <c r="E653" s="8"/>
       <c r="F653" s="13"/>
       <c r="G653" s="2"/>
@@ -32067,10 +32155,18 @@
       <c r="Z653" s="8"/>
     </row>
     <row r="654" ht="18.0" customHeight="1">
-      <c r="A654" s="2"/>
-      <c r="B654" s="8"/>
-      <c r="C654" s="2"/>
-      <c r="D654" s="2"/>
+      <c r="A654" s="34">
+        <v>652.0</v>
+      </c>
+      <c r="B654" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="C654" s="49">
+        <v>44038.0</v>
+      </c>
+      <c r="D654" s="50">
+        <v>44038.0</v>
+      </c>
       <c r="E654" s="8"/>
       <c r="F654" s="13"/>
       <c r="G654" s="2"/>
@@ -32095,10 +32191,18 @@
       <c r="Z654" s="8"/>
     </row>
     <row r="655" ht="18.0" customHeight="1">
-      <c r="A655" s="2"/>
-      <c r="B655" s="8"/>
-      <c r="C655" s="2"/>
-      <c r="D655" s="2"/>
+      <c r="A655" s="34">
+        <v>653.0</v>
+      </c>
+      <c r="B655" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="C655" s="49">
+        <v>44038.0</v>
+      </c>
+      <c r="D655" s="50">
+        <v>44038.0</v>
+      </c>
       <c r="E655" s="8"/>
       <c r="F655" s="13"/>
       <c r="G655" s="2"/>
@@ -32123,10 +32227,18 @@
       <c r="Z655" s="8"/>
     </row>
     <row r="656" ht="18.0" customHeight="1">
-      <c r="A656" s="2"/>
-      <c r="B656" s="8"/>
-      <c r="C656" s="2"/>
-      <c r="D656" s="2"/>
+      <c r="A656" s="34">
+        <v>654.0</v>
+      </c>
+      <c r="B656" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="C656" s="49">
+        <v>44038.0</v>
+      </c>
+      <c r="D656" s="50">
+        <v>44038.0</v>
+      </c>
       <c r="E656" s="8"/>
       <c r="F656" s="13"/>
       <c r="G656" s="2"/>
@@ -32151,10 +32263,18 @@
       <c r="Z656" s="8"/>
     </row>
     <row r="657" ht="18.0" customHeight="1">
-      <c r="A657" s="2"/>
-      <c r="B657" s="8"/>
-      <c r="C657" s="2"/>
-      <c r="D657" s="2"/>
+      <c r="A657" s="34">
+        <v>655.0</v>
+      </c>
+      <c r="B657" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="C657" s="49">
+        <v>44038.0</v>
+      </c>
+      <c r="D657" s="50">
+        <v>44038.0</v>
+      </c>
       <c r="E657" s="8"/>
       <c r="F657" s="13"/>
       <c r="G657" s="2"/>
@@ -32179,10 +32299,18 @@
       <c r="Z657" s="8"/>
     </row>
     <row r="658" ht="18.0" customHeight="1">
-      <c r="A658" s="2"/>
-      <c r="B658" s="8"/>
-      <c r="C658" s="2"/>
-      <c r="D658" s="2"/>
+      <c r="A658" s="34">
+        <v>656.0</v>
+      </c>
+      <c r="B658" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="C658" s="49">
+        <v>44038.0</v>
+      </c>
+      <c r="D658" s="50">
+        <v>44038.0</v>
+      </c>
       <c r="E658" s="8"/>
       <c r="F658" s="13"/>
       <c r="G658" s="2"/>
@@ -32207,10 +32335,18 @@
       <c r="Z658" s="8"/>
     </row>
     <row r="659" ht="18.0" customHeight="1">
-      <c r="A659" s="2"/>
-      <c r="B659" s="8"/>
-      <c r="C659" s="2"/>
-      <c r="D659" s="2"/>
+      <c r="A659" s="34">
+        <v>657.0</v>
+      </c>
+      <c r="B659" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="C659" s="49">
+        <v>44038.0</v>
+      </c>
+      <c r="D659" s="50">
+        <v>44038.0</v>
+      </c>
       <c r="E659" s="8"/>
       <c r="F659" s="13"/>
       <c r="G659" s="2"/>
@@ -42283,10 +42419,12 @@
     <hyperlink r:id="rId468" ref="K644"/>
     <hyperlink r:id="rId469" ref="K645"/>
     <hyperlink r:id="rId470" ref="K646"/>
+    <hyperlink r:id="rId471" ref="K647"/>
+    <hyperlink r:id="rId472" ref="K648"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId471"/>
+  <drawing r:id="rId473"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -6,21 +6,21 @@
     <sheet state="visible" name="covid-19-kyoto" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'covid-19-kyoto'!$A$1:$M$1001</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'covid-19-kyoto'!$A$1:$M$985</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhTweFeFx3CP10TEcJgg8YIBEXNZw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgs7qgXOOYxmPjr1iMPzUA8FbCPNg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="555">
-  <si>
-    <t>2020-07-26T19:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="560">
+  <si>
+    <t>2020-07-27T19:30:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2058,6 +2058,21 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200726-645-646.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273065/200726oshirase(444-454).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-27T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>丹後管内</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200727-.pdf</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200727-658-662.pdf</t>
   </si>
 </sst>
 </file>
@@ -31987,13 +32002,19 @@
       <c r="D649" s="50">
         <v>44038.0</v>
       </c>
-      <c r="E649" s="8"/>
-      <c r="F649" s="13"/>
+      <c r="E649" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F649" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G649" s="2"/>
       <c r="H649" s="13"/>
       <c r="I649" s="13"/>
       <c r="J649" s="14"/>
-      <c r="K649" s="8"/>
+      <c r="K649" s="31" t="s">
+        <v>555</v>
+      </c>
       <c r="L649" s="8"/>
       <c r="M649" s="8"/>
       <c r="N649" s="8"/>
@@ -32023,13 +32044,19 @@
       <c r="D650" s="50">
         <v>44038.0</v>
       </c>
-      <c r="E650" s="8"/>
-      <c r="F650" s="13"/>
+      <c r="E650" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F650" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G650" s="2"/>
       <c r="H650" s="13"/>
       <c r="I650" s="13"/>
       <c r="J650" s="14"/>
-      <c r="K650" s="8"/>
+      <c r="K650" s="31" t="s">
+        <v>555</v>
+      </c>
       <c r="L650" s="8"/>
       <c r="M650" s="8"/>
       <c r="N650" s="8"/>
@@ -32059,13 +32086,19 @@
       <c r="D651" s="50">
         <v>44038.0</v>
       </c>
-      <c r="E651" s="8"/>
-      <c r="F651" s="13"/>
+      <c r="E651" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F651" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G651" s="2"/>
       <c r="H651" s="13"/>
       <c r="I651" s="13"/>
       <c r="J651" s="14"/>
-      <c r="K651" s="8"/>
+      <c r="K651" s="31" t="s">
+        <v>555</v>
+      </c>
       <c r="L651" s="8"/>
       <c r="M651" s="8"/>
       <c r="N651" s="8"/>
@@ -32095,13 +32128,19 @@
       <c r="D652" s="50">
         <v>44038.0</v>
       </c>
-      <c r="E652" s="8"/>
-      <c r="F652" s="13"/>
+      <c r="E652" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F652" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G652" s="2"/>
       <c r="H652" s="13"/>
       <c r="I652" s="13"/>
       <c r="J652" s="14"/>
-      <c r="K652" s="8"/>
+      <c r="K652" s="31" t="s">
+        <v>555</v>
+      </c>
       <c r="L652" s="8"/>
       <c r="M652" s="8"/>
       <c r="N652" s="8"/>
@@ -32131,13 +32170,19 @@
       <c r="D653" s="50">
         <v>44038.0</v>
       </c>
-      <c r="E653" s="8"/>
-      <c r="F653" s="13"/>
+      <c r="E653" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F653" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G653" s="2"/>
       <c r="H653" s="13"/>
       <c r="I653" s="13"/>
       <c r="J653" s="14"/>
-      <c r="K653" s="8"/>
+      <c r="K653" s="31" t="s">
+        <v>555</v>
+      </c>
       <c r="L653" s="8"/>
       <c r="M653" s="8"/>
       <c r="N653" s="8"/>
@@ -32167,13 +32212,19 @@
       <c r="D654" s="50">
         <v>44038.0</v>
       </c>
-      <c r="E654" s="8"/>
-      <c r="F654" s="13"/>
+      <c r="E654" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F654" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G654" s="2"/>
       <c r="H654" s="13"/>
       <c r="I654" s="13"/>
       <c r="J654" s="14"/>
-      <c r="K654" s="8"/>
+      <c r="K654" s="31" t="s">
+        <v>555</v>
+      </c>
       <c r="L654" s="8"/>
       <c r="M654" s="8"/>
       <c r="N654" s="8"/>
@@ -32203,13 +32254,19 @@
       <c r="D655" s="50">
         <v>44038.0</v>
       </c>
-      <c r="E655" s="8"/>
-      <c r="F655" s="13"/>
+      <c r="E655" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F655" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G655" s="2"/>
       <c r="H655" s="13"/>
       <c r="I655" s="13"/>
       <c r="J655" s="14"/>
-      <c r="K655" s="8"/>
+      <c r="K655" s="31" t="s">
+        <v>555</v>
+      </c>
       <c r="L655" s="8"/>
       <c r="M655" s="8"/>
       <c r="N655" s="8"/>
@@ -32239,13 +32296,19 @@
       <c r="D656" s="50">
         <v>44038.0</v>
       </c>
-      <c r="E656" s="8"/>
-      <c r="F656" s="13"/>
+      <c r="E656" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F656" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G656" s="2"/>
       <c r="H656" s="13"/>
       <c r="I656" s="13"/>
       <c r="J656" s="14"/>
-      <c r="K656" s="8"/>
+      <c r="K656" s="31" t="s">
+        <v>555</v>
+      </c>
       <c r="L656" s="8"/>
       <c r="M656" s="8"/>
       <c r="N656" s="8"/>
@@ -32275,13 +32338,19 @@
       <c r="D657" s="50">
         <v>44038.0</v>
       </c>
-      <c r="E657" s="8"/>
-      <c r="F657" s="13"/>
+      <c r="E657" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F657" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G657" s="2"/>
       <c r="H657" s="13"/>
       <c r="I657" s="13"/>
       <c r="J657" s="14"/>
-      <c r="K657" s="8"/>
+      <c r="K657" s="31" t="s">
+        <v>555</v>
+      </c>
       <c r="L657" s="8"/>
       <c r="M657" s="8"/>
       <c r="N657" s="8"/>
@@ -32311,13 +32380,19 @@
       <c r="D658" s="50">
         <v>44038.0</v>
       </c>
-      <c r="E658" s="8"/>
-      <c r="F658" s="13"/>
+      <c r="E658" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F658" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G658" s="2"/>
       <c r="H658" s="13"/>
       <c r="I658" s="13"/>
       <c r="J658" s="14"/>
-      <c r="K658" s="8"/>
+      <c r="K658" s="31" t="s">
+        <v>555</v>
+      </c>
       <c r="L658" s="8"/>
       <c r="M658" s="8"/>
       <c r="N658" s="8"/>
@@ -32347,13 +32422,19 @@
       <c r="D659" s="50">
         <v>44038.0</v>
       </c>
-      <c r="E659" s="8"/>
-      <c r="F659" s="13"/>
+      <c r="E659" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F659" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="G659" s="2"/>
       <c r="H659" s="13"/>
       <c r="I659" s="13"/>
       <c r="J659" s="14"/>
-      <c r="K659" s="8"/>
+      <c r="K659" s="31" t="s">
+        <v>555</v>
+      </c>
       <c r="L659" s="8"/>
       <c r="M659" s="8"/>
       <c r="N659" s="8"/>
@@ -32371,17 +32452,29 @@
       <c r="Z659" s="8"/>
     </row>
     <row r="660" ht="18.0" customHeight="1">
-      <c r="A660" s="2"/>
-      <c r="B660" s="8"/>
-      <c r="C660" s="2"/>
-      <c r="D660" s="2"/>
-      <c r="E660" s="8"/>
-      <c r="F660" s="13"/>
+      <c r="A660" s="34"/>
+      <c r="B660" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C660" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D660" s="50">
+        <v>44039.0</v>
+      </c>
+      <c r="E660" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F660" s="24" t="s">
+        <v>557</v>
+      </c>
       <c r="G660" s="2"/>
       <c r="H660" s="13"/>
       <c r="I660" s="13"/>
       <c r="J660" s="14"/>
-      <c r="K660" s="8"/>
+      <c r="K660" s="31" t="s">
+        <v>558</v>
+      </c>
       <c r="L660" s="8"/>
       <c r="M660" s="8"/>
       <c r="N660" s="8"/>
@@ -32399,17 +32492,31 @@
       <c r="Z660" s="8"/>
     </row>
     <row r="661" ht="18.0" customHeight="1">
-      <c r="A661" s="2"/>
-      <c r="B661" s="8"/>
-      <c r="C661" s="2"/>
-      <c r="D661" s="2"/>
-      <c r="E661" s="8"/>
-      <c r="F661" s="13"/>
+      <c r="A661" s="34">
+        <v>658.0</v>
+      </c>
+      <c r="B661" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C661" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D661" s="50">
+        <v>44039.0</v>
+      </c>
+      <c r="E661" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F661" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G661" s="2"/>
       <c r="H661" s="13"/>
       <c r="I661" s="13"/>
       <c r="J661" s="14"/>
-      <c r="K661" s="8"/>
+      <c r="K661" s="31" t="s">
+        <v>559</v>
+      </c>
       <c r="L661" s="8"/>
       <c r="M661" s="8"/>
       <c r="N661" s="8"/>
@@ -32427,17 +32534,31 @@
       <c r="Z661" s="8"/>
     </row>
     <row r="662" ht="18.0" customHeight="1">
-      <c r="A662" s="2"/>
-      <c r="B662" s="8"/>
-      <c r="C662" s="2"/>
-      <c r="D662" s="2"/>
-      <c r="E662" s="8"/>
-      <c r="F662" s="13"/>
+      <c r="A662" s="34">
+        <v>659.0</v>
+      </c>
+      <c r="B662" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C662" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D662" s="50">
+        <v>44039.0</v>
+      </c>
+      <c r="E662" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F662" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G662" s="2"/>
       <c r="H662" s="13"/>
       <c r="I662" s="13"/>
       <c r="J662" s="14"/>
-      <c r="K662" s="8"/>
+      <c r="K662" s="31" t="s">
+        <v>559</v>
+      </c>
       <c r="L662" s="8"/>
       <c r="M662" s="8"/>
       <c r="N662" s="8"/>
@@ -32455,17 +32576,31 @@
       <c r="Z662" s="8"/>
     </row>
     <row r="663" ht="18.0" customHeight="1">
-      <c r="A663" s="2"/>
-      <c r="B663" s="8"/>
-      <c r="C663" s="2"/>
-      <c r="D663" s="2"/>
-      <c r="E663" s="8"/>
-      <c r="F663" s="13"/>
+      <c r="A663" s="34">
+        <v>660.0</v>
+      </c>
+      <c r="B663" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C663" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D663" s="50">
+        <v>44039.0</v>
+      </c>
+      <c r="E663" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F663" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G663" s="2"/>
       <c r="H663" s="13"/>
       <c r="I663" s="13"/>
       <c r="J663" s="14"/>
-      <c r="K663" s="8"/>
+      <c r="K663" s="31" t="s">
+        <v>559</v>
+      </c>
       <c r="L663" s="8"/>
       <c r="M663" s="8"/>
       <c r="N663" s="8"/>
@@ -32483,17 +32618,31 @@
       <c r="Z663" s="8"/>
     </row>
     <row r="664" ht="18.0" customHeight="1">
-      <c r="A664" s="2"/>
-      <c r="B664" s="8"/>
-      <c r="C664" s="2"/>
-      <c r="D664" s="2"/>
-      <c r="E664" s="8"/>
-      <c r="F664" s="13"/>
+      <c r="A664" s="34">
+        <v>661.0</v>
+      </c>
+      <c r="B664" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C664" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D664" s="50">
+        <v>44039.0</v>
+      </c>
+      <c r="E664" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F664" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G664" s="2"/>
       <c r="H664" s="13"/>
       <c r="I664" s="13"/>
       <c r="J664" s="14"/>
-      <c r="K664" s="8"/>
+      <c r="K664" s="31" t="s">
+        <v>559</v>
+      </c>
       <c r="L664" s="8"/>
       <c r="M664" s="8"/>
       <c r="N664" s="8"/>
@@ -32511,17 +32660,31 @@
       <c r="Z664" s="8"/>
     </row>
     <row r="665" ht="18.0" customHeight="1">
-      <c r="A665" s="2"/>
-      <c r="B665" s="8"/>
-      <c r="C665" s="2"/>
-      <c r="D665" s="2"/>
-      <c r="E665" s="8"/>
-      <c r="F665" s="13"/>
+      <c r="A665" s="34">
+        <v>662.0</v>
+      </c>
+      <c r="B665" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C665" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D665" s="50">
+        <v>44039.0</v>
+      </c>
+      <c r="E665" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="F665" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G665" s="2"/>
       <c r="H665" s="13"/>
       <c r="I665" s="13"/>
       <c r="J665" s="14"/>
-      <c r="K665" s="8"/>
+      <c r="K665" s="31" t="s">
+        <v>559</v>
+      </c>
       <c r="L665" s="8"/>
       <c r="M665" s="8"/>
       <c r="N665" s="8"/>
@@ -32539,10 +32702,18 @@
       <c r="Z665" s="8"/>
     </row>
     <row r="666" ht="18.0" customHeight="1">
-      <c r="A666" s="2"/>
-      <c r="B666" s="8"/>
-      <c r="C666" s="2"/>
-      <c r="D666" s="2"/>
+      <c r="A666" s="34">
+        <v>663.0</v>
+      </c>
+      <c r="B666" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C666" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D666" s="50">
+        <v>44039.0</v>
+      </c>
       <c r="E666" s="8"/>
       <c r="F666" s="13"/>
       <c r="G666" s="2"/>
@@ -32567,10 +32738,18 @@
       <c r="Z666" s="8"/>
     </row>
     <row r="667" ht="18.0" customHeight="1">
-      <c r="A667" s="2"/>
-      <c r="B667" s="8"/>
-      <c r="C667" s="2"/>
-      <c r="D667" s="2"/>
+      <c r="A667" s="34">
+        <v>664.0</v>
+      </c>
+      <c r="B667" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C667" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D667" s="50">
+        <v>44039.0</v>
+      </c>
       <c r="E667" s="8"/>
       <c r="F667" s="13"/>
       <c r="G667" s="2"/>
@@ -32595,10 +32774,18 @@
       <c r="Z667" s="8"/>
     </row>
     <row r="668" ht="18.0" customHeight="1">
-      <c r="A668" s="2"/>
-      <c r="B668" s="8"/>
-      <c r="C668" s="2"/>
-      <c r="D668" s="2"/>
+      <c r="A668" s="34">
+        <v>665.0</v>
+      </c>
+      <c r="B668" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C668" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D668" s="50">
+        <v>44039.0</v>
+      </c>
       <c r="E668" s="8"/>
       <c r="F668" s="13"/>
       <c r="G668" s="2"/>
@@ -32623,10 +32810,18 @@
       <c r="Z668" s="8"/>
     </row>
     <row r="669" ht="18.0" customHeight="1">
-      <c r="A669" s="2"/>
-      <c r="B669" s="8"/>
-      <c r="C669" s="2"/>
-      <c r="D669" s="2"/>
+      <c r="A669" s="34">
+        <v>666.0</v>
+      </c>
+      <c r="B669" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C669" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D669" s="50">
+        <v>44039.0</v>
+      </c>
       <c r="E669" s="8"/>
       <c r="F669" s="13"/>
       <c r="G669" s="2"/>
@@ -32651,10 +32846,18 @@
       <c r="Z669" s="8"/>
     </row>
     <row r="670" ht="18.0" customHeight="1">
-      <c r="A670" s="2"/>
-      <c r="B670" s="8"/>
-      <c r="C670" s="2"/>
-      <c r="D670" s="2"/>
+      <c r="A670" s="34">
+        <v>667.0</v>
+      </c>
+      <c r="B670" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C670" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D670" s="50">
+        <v>44039.0</v>
+      </c>
       <c r="E670" s="8"/>
       <c r="F670" s="13"/>
       <c r="G670" s="2"/>
@@ -32679,10 +32882,18 @@
       <c r="Z670" s="8"/>
     </row>
     <row r="671" ht="18.0" customHeight="1">
-      <c r="A671" s="2"/>
-      <c r="B671" s="8"/>
-      <c r="C671" s="2"/>
-      <c r="D671" s="2"/>
+      <c r="A671" s="34">
+        <v>668.0</v>
+      </c>
+      <c r="B671" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C671" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D671" s="50">
+        <v>44039.0</v>
+      </c>
       <c r="E671" s="8"/>
       <c r="F671" s="13"/>
       <c r="G671" s="2"/>
@@ -32707,10 +32918,18 @@
       <c r="Z671" s="8"/>
     </row>
     <row r="672" ht="18.0" customHeight="1">
-      <c r="A672" s="2"/>
-      <c r="B672" s="8"/>
-      <c r="C672" s="2"/>
-      <c r="D672" s="2"/>
+      <c r="A672" s="34">
+        <v>669.0</v>
+      </c>
+      <c r="B672" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C672" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D672" s="50">
+        <v>44039.0</v>
+      </c>
       <c r="E672" s="8"/>
       <c r="F672" s="13"/>
       <c r="G672" s="2"/>
@@ -32735,10 +32954,18 @@
       <c r="Z672" s="8"/>
     </row>
     <row r="673" ht="18.0" customHeight="1">
-      <c r="A673" s="2"/>
-      <c r="B673" s="8"/>
-      <c r="C673" s="2"/>
-      <c r="D673" s="2"/>
+      <c r="A673" s="34">
+        <v>670.0</v>
+      </c>
+      <c r="B673" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C673" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D673" s="50">
+        <v>44039.0</v>
+      </c>
       <c r="E673" s="8"/>
       <c r="F673" s="13"/>
       <c r="G673" s="2"/>
@@ -32763,10 +32990,18 @@
       <c r="Z673" s="8"/>
     </row>
     <row r="674" ht="18.0" customHeight="1">
-      <c r="A674" s="2"/>
-      <c r="B674" s="8"/>
-      <c r="C674" s="2"/>
-      <c r="D674" s="2"/>
+      <c r="A674" s="34">
+        <v>671.0</v>
+      </c>
+      <c r="B674" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C674" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D674" s="50">
+        <v>44039.0</v>
+      </c>
       <c r="E674" s="8"/>
       <c r="F674" s="13"/>
       <c r="G674" s="2"/>
@@ -32791,10 +33026,18 @@
       <c r="Z674" s="8"/>
     </row>
     <row r="675" ht="18.0" customHeight="1">
-      <c r="A675" s="2"/>
-      <c r="B675" s="8"/>
-      <c r="C675" s="2"/>
-      <c r="D675" s="2"/>
+      <c r="A675" s="34">
+        <v>672.0</v>
+      </c>
+      <c r="B675" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C675" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D675" s="50">
+        <v>44039.0</v>
+      </c>
       <c r="E675" s="8"/>
       <c r="F675" s="13"/>
       <c r="G675" s="2"/>
@@ -32819,10 +33062,18 @@
       <c r="Z675" s="8"/>
     </row>
     <row r="676" ht="18.0" customHeight="1">
-      <c r="A676" s="2"/>
-      <c r="B676" s="8"/>
-      <c r="C676" s="2"/>
-      <c r="D676" s="2"/>
+      <c r="A676" s="34">
+        <v>673.0</v>
+      </c>
+      <c r="B676" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C676" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D676" s="50">
+        <v>44039.0</v>
+      </c>
       <c r="E676" s="8"/>
       <c r="F676" s="13"/>
       <c r="G676" s="2"/>
@@ -32847,10 +33098,18 @@
       <c r="Z676" s="8"/>
     </row>
     <row r="677" ht="18.0" customHeight="1">
-      <c r="A677" s="2"/>
-      <c r="B677" s="8"/>
-      <c r="C677" s="2"/>
-      <c r="D677" s="2"/>
+      <c r="A677" s="34">
+        <v>674.0</v>
+      </c>
+      <c r="B677" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C677" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D677" s="50">
+        <v>44039.0</v>
+      </c>
       <c r="E677" s="8"/>
       <c r="F677" s="13"/>
       <c r="G677" s="2"/>
@@ -32875,10 +33134,18 @@
       <c r="Z677" s="8"/>
     </row>
     <row r="678" ht="18.0" customHeight="1">
-      <c r="A678" s="2"/>
-      <c r="B678" s="8"/>
-      <c r="C678" s="2"/>
-      <c r="D678" s="2"/>
+      <c r="A678" s="34">
+        <v>675.0</v>
+      </c>
+      <c r="B678" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C678" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D678" s="50">
+        <v>44039.0</v>
+      </c>
       <c r="E678" s="8"/>
       <c r="F678" s="13"/>
       <c r="G678" s="2"/>
@@ -32903,10 +33170,18 @@
       <c r="Z678" s="8"/>
     </row>
     <row r="679" ht="18.0" customHeight="1">
-      <c r="A679" s="2"/>
-      <c r="B679" s="8"/>
-      <c r="C679" s="2"/>
-      <c r="D679" s="2"/>
+      <c r="A679" s="34">
+        <v>676.0</v>
+      </c>
+      <c r="B679" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C679" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D679" s="50">
+        <v>44039.0</v>
+      </c>
       <c r="E679" s="8"/>
       <c r="F679" s="13"/>
       <c r="G679" s="2"/>
@@ -32931,10 +33206,18 @@
       <c r="Z679" s="8"/>
     </row>
     <row r="680" ht="18.0" customHeight="1">
-      <c r="A680" s="2"/>
-      <c r="B680" s="8"/>
-      <c r="C680" s="2"/>
-      <c r="D680" s="2"/>
+      <c r="A680" s="34">
+        <v>677.0</v>
+      </c>
+      <c r="B680" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="C680" s="49">
+        <v>44039.0</v>
+      </c>
+      <c r="D680" s="50">
+        <v>44039.0</v>
+      </c>
       <c r="E680" s="8"/>
       <c r="F680" s="13"/>
       <c r="G680" s="2"/>
@@ -41481,7 +41764,7 @@
       <c r="H985" s="13"/>
       <c r="I985" s="13"/>
       <c r="J985" s="14"/>
-      <c r="K985" s="8"/>
+      <c r="K985" s="52"/>
       <c r="L985" s="8"/>
       <c r="M985" s="8"/>
       <c r="N985" s="8"/>
@@ -41498,456 +41781,8 @@
       <c r="Y985" s="8"/>
       <c r="Z985" s="8"/>
     </row>
-    <row r="986" ht="18.0" customHeight="1">
-      <c r="A986" s="2"/>
-      <c r="B986" s="8"/>
-      <c r="C986" s="2"/>
-      <c r="D986" s="2"/>
-      <c r="E986" s="8"/>
-      <c r="F986" s="13"/>
-      <c r="G986" s="2"/>
-      <c r="H986" s="13"/>
-      <c r="I986" s="13"/>
-      <c r="J986" s="14"/>
-      <c r="K986" s="8"/>
-      <c r="L986" s="8"/>
-      <c r="M986" s="8"/>
-      <c r="N986" s="8"/>
-      <c r="O986" s="8"/>
-      <c r="P986" s="8"/>
-      <c r="Q986" s="8"/>
-      <c r="R986" s="8"/>
-      <c r="S986" s="8"/>
-      <c r="T986" s="8"/>
-      <c r="U986" s="8"/>
-      <c r="V986" s="8"/>
-      <c r="W986" s="8"/>
-      <c r="X986" s="8"/>
-      <c r="Y986" s="8"/>
-      <c r="Z986" s="8"/>
-    </row>
-    <row r="987" ht="18.0" customHeight="1">
-      <c r="A987" s="2"/>
-      <c r="B987" s="8"/>
-      <c r="C987" s="2"/>
-      <c r="D987" s="2"/>
-      <c r="E987" s="8"/>
-      <c r="F987" s="13"/>
-      <c r="G987" s="2"/>
-      <c r="H987" s="13"/>
-      <c r="I987" s="13"/>
-      <c r="J987" s="14"/>
-      <c r="K987" s="8"/>
-      <c r="L987" s="8"/>
-      <c r="M987" s="8"/>
-      <c r="N987" s="8"/>
-      <c r="O987" s="8"/>
-      <c r="P987" s="8"/>
-      <c r="Q987" s="8"/>
-      <c r="R987" s="8"/>
-      <c r="S987" s="8"/>
-      <c r="T987" s="8"/>
-      <c r="U987" s="8"/>
-      <c r="V987" s="8"/>
-      <c r="W987" s="8"/>
-      <c r="X987" s="8"/>
-      <c r="Y987" s="8"/>
-      <c r="Z987" s="8"/>
-    </row>
-    <row r="988" ht="18.0" customHeight="1">
-      <c r="A988" s="2"/>
-      <c r="B988" s="8"/>
-      <c r="C988" s="2"/>
-      <c r="D988" s="2"/>
-      <c r="E988" s="8"/>
-      <c r="F988" s="13"/>
-      <c r="G988" s="2"/>
-      <c r="H988" s="13"/>
-      <c r="I988" s="13"/>
-      <c r="J988" s="14"/>
-      <c r="K988" s="8"/>
-      <c r="L988" s="8"/>
-      <c r="M988" s="8"/>
-      <c r="N988" s="8"/>
-      <c r="O988" s="8"/>
-      <c r="P988" s="8"/>
-      <c r="Q988" s="8"/>
-      <c r="R988" s="8"/>
-      <c r="S988" s="8"/>
-      <c r="T988" s="8"/>
-      <c r="U988" s="8"/>
-      <c r="V988" s="8"/>
-      <c r="W988" s="8"/>
-      <c r="X988" s="8"/>
-      <c r="Y988" s="8"/>
-      <c r="Z988" s="8"/>
-    </row>
-    <row r="989" ht="18.0" customHeight="1">
-      <c r="A989" s="2"/>
-      <c r="B989" s="8"/>
-      <c r="C989" s="2"/>
-      <c r="D989" s="2"/>
-      <c r="E989" s="8"/>
-      <c r="F989" s="13"/>
-      <c r="G989" s="2"/>
-      <c r="H989" s="13"/>
-      <c r="I989" s="13"/>
-      <c r="J989" s="14"/>
-      <c r="K989" s="8"/>
-      <c r="L989" s="8"/>
-      <c r="M989" s="8"/>
-      <c r="N989" s="8"/>
-      <c r="O989" s="8"/>
-      <c r="P989" s="8"/>
-      <c r="Q989" s="8"/>
-      <c r="R989" s="8"/>
-      <c r="S989" s="8"/>
-      <c r="T989" s="8"/>
-      <c r="U989" s="8"/>
-      <c r="V989" s="8"/>
-      <c r="W989" s="8"/>
-      <c r="X989" s="8"/>
-      <c r="Y989" s="8"/>
-      <c r="Z989" s="8"/>
-    </row>
-    <row r="990" ht="18.0" customHeight="1">
-      <c r="A990" s="2"/>
-      <c r="B990" s="8"/>
-      <c r="C990" s="2"/>
-      <c r="D990" s="2"/>
-      <c r="E990" s="8"/>
-      <c r="F990" s="13"/>
-      <c r="G990" s="2"/>
-      <c r="H990" s="13"/>
-      <c r="I990" s="13"/>
-      <c r="J990" s="14"/>
-      <c r="K990" s="8"/>
-      <c r="L990" s="8"/>
-      <c r="M990" s="8"/>
-      <c r="N990" s="8"/>
-      <c r="O990" s="8"/>
-      <c r="P990" s="8"/>
-      <c r="Q990" s="8"/>
-      <c r="R990" s="8"/>
-      <c r="S990" s="8"/>
-      <c r="T990" s="8"/>
-      <c r="U990" s="8"/>
-      <c r="V990" s="8"/>
-      <c r="W990" s="8"/>
-      <c r="X990" s="8"/>
-      <c r="Y990" s="8"/>
-      <c r="Z990" s="8"/>
-    </row>
-    <row r="991" ht="18.0" customHeight="1">
-      <c r="A991" s="2"/>
-      <c r="B991" s="8"/>
-      <c r="C991" s="2"/>
-      <c r="D991" s="2"/>
-      <c r="E991" s="8"/>
-      <c r="F991" s="13"/>
-      <c r="G991" s="2"/>
-      <c r="H991" s="13"/>
-      <c r="I991" s="13"/>
-      <c r="J991" s="14"/>
-      <c r="K991" s="8"/>
-      <c r="L991" s="8"/>
-      <c r="M991" s="8"/>
-      <c r="N991" s="8"/>
-      <c r="O991" s="8"/>
-      <c r="P991" s="8"/>
-      <c r="Q991" s="8"/>
-      <c r="R991" s="8"/>
-      <c r="S991" s="8"/>
-      <c r="T991" s="8"/>
-      <c r="U991" s="8"/>
-      <c r="V991" s="8"/>
-      <c r="W991" s="8"/>
-      <c r="X991" s="8"/>
-      <c r="Y991" s="8"/>
-      <c r="Z991" s="8"/>
-    </row>
-    <row r="992" ht="18.0" customHeight="1">
-      <c r="A992" s="2"/>
-      <c r="B992" s="8"/>
-      <c r="C992" s="2"/>
-      <c r="D992" s="2"/>
-      <c r="E992" s="8"/>
-      <c r="F992" s="13"/>
-      <c r="G992" s="2"/>
-      <c r="H992" s="13"/>
-      <c r="I992" s="13"/>
-      <c r="J992" s="14"/>
-      <c r="K992" s="8"/>
-      <c r="L992" s="8"/>
-      <c r="M992" s="8"/>
-      <c r="N992" s="8"/>
-      <c r="O992" s="8"/>
-      <c r="P992" s="8"/>
-      <c r="Q992" s="8"/>
-      <c r="R992" s="8"/>
-      <c r="S992" s="8"/>
-      <c r="T992" s="8"/>
-      <c r="U992" s="8"/>
-      <c r="V992" s="8"/>
-      <c r="W992" s="8"/>
-      <c r="X992" s="8"/>
-      <c r="Y992" s="8"/>
-      <c r="Z992" s="8"/>
-    </row>
-    <row r="993" ht="18.0" customHeight="1">
-      <c r="A993" s="2"/>
-      <c r="B993" s="8"/>
-      <c r="C993" s="2"/>
-      <c r="D993" s="2"/>
-      <c r="E993" s="8"/>
-      <c r="F993" s="13"/>
-      <c r="G993" s="2"/>
-      <c r="H993" s="13"/>
-      <c r="I993" s="13"/>
-      <c r="J993" s="14"/>
-      <c r="K993" s="8"/>
-      <c r="L993" s="8"/>
-      <c r="M993" s="8"/>
-      <c r="N993" s="8"/>
-      <c r="O993" s="8"/>
-      <c r="P993" s="8"/>
-      <c r="Q993" s="8"/>
-      <c r="R993" s="8"/>
-      <c r="S993" s="8"/>
-      <c r="T993" s="8"/>
-      <c r="U993" s="8"/>
-      <c r="V993" s="8"/>
-      <c r="W993" s="8"/>
-      <c r="X993" s="8"/>
-      <c r="Y993" s="8"/>
-      <c r="Z993" s="8"/>
-    </row>
-    <row r="994" ht="18.0" customHeight="1">
-      <c r="A994" s="2"/>
-      <c r="B994" s="8"/>
-      <c r="C994" s="2"/>
-      <c r="D994" s="2"/>
-      <c r="E994" s="8"/>
-      <c r="F994" s="13"/>
-      <c r="G994" s="2"/>
-      <c r="H994" s="13"/>
-      <c r="I994" s="13"/>
-      <c r="J994" s="14"/>
-      <c r="K994" s="8"/>
-      <c r="L994" s="8"/>
-      <c r="M994" s="8"/>
-      <c r="N994" s="8"/>
-      <c r="O994" s="8"/>
-      <c r="P994" s="8"/>
-      <c r="Q994" s="8"/>
-      <c r="R994" s="8"/>
-      <c r="S994" s="8"/>
-      <c r="T994" s="8"/>
-      <c r="U994" s="8"/>
-      <c r="V994" s="8"/>
-      <c r="W994" s="8"/>
-      <c r="X994" s="8"/>
-      <c r="Y994" s="8"/>
-      <c r="Z994" s="8"/>
-    </row>
-    <row r="995" ht="18.0" customHeight="1">
-      <c r="A995" s="2"/>
-      <c r="B995" s="8"/>
-      <c r="C995" s="2"/>
-      <c r="D995" s="2"/>
-      <c r="E995" s="8"/>
-      <c r="F995" s="13"/>
-      <c r="G995" s="2"/>
-      <c r="H995" s="13"/>
-      <c r="I995" s="13"/>
-      <c r="J995" s="14"/>
-      <c r="K995" s="8"/>
-      <c r="L995" s="8"/>
-      <c r="M995" s="8"/>
-      <c r="N995" s="8"/>
-      <c r="O995" s="8"/>
-      <c r="P995" s="8"/>
-      <c r="Q995" s="8"/>
-      <c r="R995" s="8"/>
-      <c r="S995" s="8"/>
-      <c r="T995" s="8"/>
-      <c r="U995" s="8"/>
-      <c r="V995" s="8"/>
-      <c r="W995" s="8"/>
-      <c r="X995" s="8"/>
-      <c r="Y995" s="8"/>
-      <c r="Z995" s="8"/>
-    </row>
-    <row r="996" ht="18.0" customHeight="1">
-      <c r="A996" s="2"/>
-      <c r="B996" s="8"/>
-      <c r="C996" s="2"/>
-      <c r="D996" s="2"/>
-      <c r="E996" s="8"/>
-      <c r="F996" s="13"/>
-      <c r="G996" s="2"/>
-      <c r="H996" s="13"/>
-      <c r="I996" s="13"/>
-      <c r="J996" s="14"/>
-      <c r="K996" s="8"/>
-      <c r="L996" s="8"/>
-      <c r="M996" s="8"/>
-      <c r="N996" s="8"/>
-      <c r="O996" s="8"/>
-      <c r="P996" s="8"/>
-      <c r="Q996" s="8"/>
-      <c r="R996" s="8"/>
-      <c r="S996" s="8"/>
-      <c r="T996" s="8"/>
-      <c r="U996" s="8"/>
-      <c r="V996" s="8"/>
-      <c r="W996" s="8"/>
-      <c r="X996" s="8"/>
-      <c r="Y996" s="8"/>
-      <c r="Z996" s="8"/>
-    </row>
-    <row r="997" ht="18.0" customHeight="1">
-      <c r="A997" s="2"/>
-      <c r="B997" s="8"/>
-      <c r="C997" s="2"/>
-      <c r="D997" s="2"/>
-      <c r="E997" s="8"/>
-      <c r="F997" s="13"/>
-      <c r="G997" s="2"/>
-      <c r="H997" s="13"/>
-      <c r="I997" s="13"/>
-      <c r="J997" s="14"/>
-      <c r="K997" s="8"/>
-      <c r="L997" s="8"/>
-      <c r="M997" s="8"/>
-      <c r="N997" s="8"/>
-      <c r="O997" s="8"/>
-      <c r="P997" s="8"/>
-      <c r="Q997" s="8"/>
-      <c r="R997" s="8"/>
-      <c r="S997" s="8"/>
-      <c r="T997" s="8"/>
-      <c r="U997" s="8"/>
-      <c r="V997" s="8"/>
-      <c r="W997" s="8"/>
-      <c r="X997" s="8"/>
-      <c r="Y997" s="8"/>
-      <c r="Z997" s="8"/>
-    </row>
-    <row r="998" ht="18.0" customHeight="1">
-      <c r="A998" s="2"/>
-      <c r="B998" s="8"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="2"/>
-      <c r="E998" s="8"/>
-      <c r="F998" s="13"/>
-      <c r="G998" s="2"/>
-      <c r="H998" s="13"/>
-      <c r="I998" s="13"/>
-      <c r="J998" s="14"/>
-      <c r="K998" s="8"/>
-      <c r="L998" s="8"/>
-      <c r="M998" s="8"/>
-      <c r="N998" s="8"/>
-      <c r="O998" s="8"/>
-      <c r="P998" s="8"/>
-      <c r="Q998" s="8"/>
-      <c r="R998" s="8"/>
-      <c r="S998" s="8"/>
-      <c r="T998" s="8"/>
-      <c r="U998" s="8"/>
-      <c r="V998" s="8"/>
-      <c r="W998" s="8"/>
-      <c r="X998" s="8"/>
-      <c r="Y998" s="8"/>
-      <c r="Z998" s="8"/>
-    </row>
-    <row r="999" ht="18.0" customHeight="1">
-      <c r="A999" s="2"/>
-      <c r="B999" s="8"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="8"/>
-      <c r="F999" s="13"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="13"/>
-      <c r="I999" s="13"/>
-      <c r="J999" s="14"/>
-      <c r="K999" s="8"/>
-      <c r="L999" s="8"/>
-      <c r="M999" s="8"/>
-      <c r="N999" s="8"/>
-      <c r="O999" s="8"/>
-      <c r="P999" s="8"/>
-      <c r="Q999" s="8"/>
-      <c r="R999" s="8"/>
-      <c r="S999" s="8"/>
-      <c r="T999" s="8"/>
-      <c r="U999" s="8"/>
-      <c r="V999" s="8"/>
-      <c r="W999" s="8"/>
-      <c r="X999" s="8"/>
-      <c r="Y999" s="8"/>
-      <c r="Z999" s="8"/>
-    </row>
-    <row r="1000" ht="18.0" customHeight="1">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="8"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="8"/>
-      <c r="F1000" s="13"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="13"/>
-      <c r="I1000" s="13"/>
-      <c r="J1000" s="14"/>
-      <c r="K1000" s="8"/>
-      <c r="L1000" s="8"/>
-      <c r="M1000" s="8"/>
-      <c r="N1000" s="8"/>
-      <c r="O1000" s="8"/>
-      <c r="P1000" s="8"/>
-      <c r="Q1000" s="8"/>
-      <c r="R1000" s="8"/>
-      <c r="S1000" s="8"/>
-      <c r="T1000" s="8"/>
-      <c r="U1000" s="8"/>
-      <c r="V1000" s="8"/>
-      <c r="W1000" s="8"/>
-      <c r="X1000" s="8"/>
-      <c r="Y1000" s="8"/>
-      <c r="Z1000" s="8"/>
-    </row>
-    <row r="1001" ht="18.0" customHeight="1">
-      <c r="A1001" s="2"/>
-      <c r="B1001" s="8"/>
-      <c r="C1001" s="2"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="8"/>
-      <c r="F1001" s="13"/>
-      <c r="G1001" s="2"/>
-      <c r="H1001" s="13"/>
-      <c r="I1001" s="13"/>
-      <c r="J1001" s="14"/>
-      <c r="K1001" s="52"/>
-      <c r="L1001" s="8"/>
-      <c r="M1001" s="8"/>
-      <c r="N1001" s="8"/>
-      <c r="O1001" s="8"/>
-      <c r="P1001" s="8"/>
-      <c r="Q1001" s="8"/>
-      <c r="R1001" s="8"/>
-      <c r="S1001" s="8"/>
-      <c r="T1001" s="8"/>
-      <c r="U1001" s="8"/>
-      <c r="V1001" s="8"/>
-      <c r="W1001" s="8"/>
-      <c r="X1001" s="8"/>
-      <c r="Y1001" s="8"/>
-      <c r="Z1001" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$M$1001"/>
+  <autoFilter ref="$A$1:$M$985"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K3"/>
     <hyperlink r:id="rId2" ref="K4"/>
@@ -42421,10 +42256,27 @@
     <hyperlink r:id="rId470" ref="K646"/>
     <hyperlink r:id="rId471" ref="K647"/>
     <hyperlink r:id="rId472" ref="K648"/>
+    <hyperlink r:id="rId473" ref="K649"/>
+    <hyperlink r:id="rId474" ref="K650"/>
+    <hyperlink r:id="rId475" ref="K651"/>
+    <hyperlink r:id="rId476" ref="K652"/>
+    <hyperlink r:id="rId477" ref="K653"/>
+    <hyperlink r:id="rId478" ref="K654"/>
+    <hyperlink r:id="rId479" ref="K655"/>
+    <hyperlink r:id="rId480" ref="K656"/>
+    <hyperlink r:id="rId481" ref="K657"/>
+    <hyperlink r:id="rId482" ref="K658"/>
+    <hyperlink r:id="rId483" ref="K659"/>
+    <hyperlink r:id="rId484" ref="K660"/>
+    <hyperlink r:id="rId485" ref="K661"/>
+    <hyperlink r:id="rId486" ref="K662"/>
+    <hyperlink r:id="rId487" ref="K663"/>
+    <hyperlink r:id="rId488" ref="K664"/>
+    <hyperlink r:id="rId489" ref="K665"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId473"/>
+  <drawing r:id="rId490"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="560">
-  <si>
-    <t>2020-07-27T19:30:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="563">
+  <si>
+    <t>2020-07-28T19:30:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2074,6 +2074,15 @@
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200727-658-662.pdf</t>
   </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273094/200727oshirase(455-469).pdf</t>
+  </si>
+  <si>
+    <t>2020-07-28T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200728-678-684.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -2084,7 +2093,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -2207,6 +2216,16 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <name val="Arial"/>
     </font>
@@ -2237,7 +2256,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2392,6 +2411,12 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -31783,7 +31808,7 @@
       <c r="A644" s="34">
         <v>642.0</v>
       </c>
-      <c r="B644" s="51" t="s">
+      <c r="B644" s="48" t="s">
         <v>550</v>
       </c>
       <c r="C644" s="49">
@@ -31825,7 +31850,7 @@
       <c r="A645" s="34">
         <v>643.0</v>
       </c>
-      <c r="B645" s="51" t="s">
+      <c r="B645" s="48" t="s">
         <v>550</v>
       </c>
       <c r="C645" s="49">
@@ -31867,7 +31892,7 @@
       <c r="A646" s="34">
         <v>644.0</v>
       </c>
-      <c r="B646" s="51" t="s">
+      <c r="B646" s="48" t="s">
         <v>550</v>
       </c>
       <c r="C646" s="49">
@@ -31909,7 +31934,7 @@
       <c r="A647" s="34">
         <v>645.0</v>
       </c>
-      <c r="B647" s="51" t="s">
+      <c r="B647" s="48" t="s">
         <v>553</v>
       </c>
       <c r="C647" s="49">
@@ -31951,7 +31976,7 @@
       <c r="A648" s="34">
         <v>646.0</v>
       </c>
-      <c r="B648" s="51" t="s">
+      <c r="B648" s="48" t="s">
         <v>553</v>
       </c>
       <c r="C648" s="49">
@@ -31993,7 +32018,7 @@
       <c r="A649" s="34">
         <v>647.0</v>
       </c>
-      <c r="B649" s="51" t="s">
+      <c r="B649" s="48" t="s">
         <v>553</v>
       </c>
       <c r="C649" s="49">
@@ -32035,7 +32060,7 @@
       <c r="A650" s="34">
         <v>648.0</v>
       </c>
-      <c r="B650" s="51" t="s">
+      <c r="B650" s="48" t="s">
         <v>553</v>
       </c>
       <c r="C650" s="49">
@@ -32077,7 +32102,7 @@
       <c r="A651" s="34">
         <v>649.0</v>
       </c>
-      <c r="B651" s="51" t="s">
+      <c r="B651" s="48" t="s">
         <v>553</v>
       </c>
       <c r="C651" s="49">
@@ -32119,7 +32144,7 @@
       <c r="A652" s="34">
         <v>650.0</v>
       </c>
-      <c r="B652" s="51" t="s">
+      <c r="B652" s="48" t="s">
         <v>553</v>
       </c>
       <c r="C652" s="49">
@@ -32161,7 +32186,7 @@
       <c r="A653" s="34">
         <v>651.0</v>
       </c>
-      <c r="B653" s="51" t="s">
+      <c r="B653" s="48" t="s">
         <v>553</v>
       </c>
       <c r="C653" s="49">
@@ -32203,7 +32228,7 @@
       <c r="A654" s="34">
         <v>652.0</v>
       </c>
-      <c r="B654" s="51" t="s">
+      <c r="B654" s="48" t="s">
         <v>553</v>
       </c>
       <c r="C654" s="49">
@@ -32245,7 +32270,7 @@
       <c r="A655" s="34">
         <v>653.0</v>
       </c>
-      <c r="B655" s="51" t="s">
+      <c r="B655" s="48" t="s">
         <v>553</v>
       </c>
       <c r="C655" s="49">
@@ -32287,7 +32312,7 @@
       <c r="A656" s="34">
         <v>654.0</v>
       </c>
-      <c r="B656" s="51" t="s">
+      <c r="B656" s="48" t="s">
         <v>553</v>
       </c>
       <c r="C656" s="49">
@@ -32329,7 +32354,7 @@
       <c r="A657" s="34">
         <v>655.0</v>
       </c>
-      <c r="B657" s="51" t="s">
+      <c r="B657" s="48" t="s">
         <v>553</v>
       </c>
       <c r="C657" s="49">
@@ -32371,7 +32396,7 @@
       <c r="A658" s="34">
         <v>656.0</v>
       </c>
-      <c r="B658" s="51" t="s">
+      <c r="B658" s="48" t="s">
         <v>553</v>
       </c>
       <c r="C658" s="49">
@@ -32413,7 +32438,7 @@
       <c r="A659" s="34">
         <v>657.0</v>
       </c>
-      <c r="B659" s="51" t="s">
+      <c r="B659" s="48" t="s">
         <v>553</v>
       </c>
       <c r="C659" s="49">
@@ -32453,7 +32478,7 @@
     </row>
     <row r="660" ht="18.0" customHeight="1">
       <c r="A660" s="34"/>
-      <c r="B660" s="51" t="s">
+      <c r="B660" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C660" s="49">
@@ -32495,7 +32520,7 @@
       <c r="A661" s="34">
         <v>658.0</v>
       </c>
-      <c r="B661" s="51" t="s">
+      <c r="B661" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C661" s="49">
@@ -32537,7 +32562,7 @@
       <c r="A662" s="34">
         <v>659.0</v>
       </c>
-      <c r="B662" s="51" t="s">
+      <c r="B662" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C662" s="49">
@@ -32579,7 +32604,7 @@
       <c r="A663" s="34">
         <v>660.0</v>
       </c>
-      <c r="B663" s="51" t="s">
+      <c r="B663" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C663" s="49">
@@ -32621,7 +32646,7 @@
       <c r="A664" s="34">
         <v>661.0</v>
       </c>
-      <c r="B664" s="51" t="s">
+      <c r="B664" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C664" s="49">
@@ -32663,7 +32688,7 @@
       <c r="A665" s="34">
         <v>662.0</v>
       </c>
-      <c r="B665" s="51" t="s">
+      <c r="B665" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C665" s="49">
@@ -32705,7 +32730,7 @@
       <c r="A666" s="34">
         <v>663.0</v>
       </c>
-      <c r="B666" s="51" t="s">
+      <c r="B666" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C666" s="49">
@@ -32714,13 +32739,19 @@
       <c r="D666" s="50">
         <v>44039.0</v>
       </c>
-      <c r="E666" s="8"/>
-      <c r="F666" s="13"/>
+      <c r="E666" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="F666" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G666" s="2"/>
       <c r="H666" s="13"/>
       <c r="I666" s="13"/>
       <c r="J666" s="14"/>
-      <c r="K666" s="8"/>
+      <c r="K666" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="L666" s="8"/>
       <c r="M666" s="8"/>
       <c r="N666" s="8"/>
@@ -32741,7 +32772,7 @@
       <c r="A667" s="34">
         <v>664.0</v>
       </c>
-      <c r="B667" s="51" t="s">
+      <c r="B667" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C667" s="49">
@@ -32750,13 +32781,19 @@
       <c r="D667" s="50">
         <v>44039.0</v>
       </c>
-      <c r="E667" s="8"/>
-      <c r="F667" s="13"/>
+      <c r="E667" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F667" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G667" s="2"/>
       <c r="H667" s="13"/>
       <c r="I667" s="13"/>
       <c r="J667" s="14"/>
-      <c r="K667" s="8"/>
+      <c r="K667" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="L667" s="8"/>
       <c r="M667" s="8"/>
       <c r="N667" s="8"/>
@@ -32777,7 +32814,7 @@
       <c r="A668" s="34">
         <v>665.0</v>
       </c>
-      <c r="B668" s="51" t="s">
+      <c r="B668" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C668" s="49">
@@ -32786,13 +32823,19 @@
       <c r="D668" s="50">
         <v>44039.0</v>
       </c>
-      <c r="E668" s="8"/>
-      <c r="F668" s="13"/>
+      <c r="E668" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F668" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G668" s="2"/>
       <c r="H668" s="13"/>
       <c r="I668" s="13"/>
       <c r="J668" s="14"/>
-      <c r="K668" s="8"/>
+      <c r="K668" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="L668" s="8"/>
       <c r="M668" s="8"/>
       <c r="N668" s="8"/>
@@ -32813,7 +32856,7 @@
       <c r="A669" s="34">
         <v>666.0</v>
       </c>
-      <c r="B669" s="51" t="s">
+      <c r="B669" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C669" s="49">
@@ -32822,13 +32865,19 @@
       <c r="D669" s="50">
         <v>44039.0</v>
       </c>
-      <c r="E669" s="8"/>
-      <c r="F669" s="13"/>
+      <c r="E669" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="F669" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G669" s="2"/>
       <c r="H669" s="13"/>
       <c r="I669" s="13"/>
       <c r="J669" s="14"/>
-      <c r="K669" s="8"/>
+      <c r="K669" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="L669" s="8"/>
       <c r="M669" s="8"/>
       <c r="N669" s="8"/>
@@ -32849,7 +32898,7 @@
       <c r="A670" s="34">
         <v>667.0</v>
       </c>
-      <c r="B670" s="51" t="s">
+      <c r="B670" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C670" s="49">
@@ -32858,13 +32907,19 @@
       <c r="D670" s="50">
         <v>44039.0</v>
       </c>
-      <c r="E670" s="8"/>
-      <c r="F670" s="13"/>
+      <c r="E670" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="F670" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G670" s="2"/>
       <c r="H670" s="13"/>
       <c r="I670" s="13"/>
       <c r="J670" s="14"/>
-      <c r="K670" s="8"/>
+      <c r="K670" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="L670" s="8"/>
       <c r="M670" s="8"/>
       <c r="N670" s="8"/>
@@ -32885,7 +32940,7 @@
       <c r="A671" s="34">
         <v>668.0</v>
       </c>
-      <c r="B671" s="51" t="s">
+      <c r="B671" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C671" s="49">
@@ -32894,13 +32949,19 @@
       <c r="D671" s="50">
         <v>44039.0</v>
       </c>
-      <c r="E671" s="8"/>
-      <c r="F671" s="13"/>
+      <c r="E671" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="F671" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G671" s="2"/>
       <c r="H671" s="13"/>
       <c r="I671" s="13"/>
       <c r="J671" s="14"/>
-      <c r="K671" s="8"/>
+      <c r="K671" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="L671" s="8"/>
       <c r="M671" s="8"/>
       <c r="N671" s="8"/>
@@ -32921,7 +32982,7 @@
       <c r="A672" s="34">
         <v>669.0</v>
       </c>
-      <c r="B672" s="51" t="s">
+      <c r="B672" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C672" s="49">
@@ -32930,13 +32991,19 @@
       <c r="D672" s="50">
         <v>44039.0</v>
       </c>
-      <c r="E672" s="8"/>
-      <c r="F672" s="13"/>
+      <c r="E672" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F672" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G672" s="2"/>
       <c r="H672" s="13"/>
       <c r="I672" s="13"/>
       <c r="J672" s="14"/>
-      <c r="K672" s="8"/>
+      <c r="K672" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="L672" s="8"/>
       <c r="M672" s="8"/>
       <c r="N672" s="8"/>
@@ -32957,7 +33024,7 @@
       <c r="A673" s="34">
         <v>670.0</v>
       </c>
-      <c r="B673" s="51" t="s">
+      <c r="B673" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C673" s="49">
@@ -32966,13 +33033,19 @@
       <c r="D673" s="50">
         <v>44039.0</v>
       </c>
-      <c r="E673" s="8"/>
-      <c r="F673" s="13"/>
+      <c r="E673" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F673" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G673" s="2"/>
       <c r="H673" s="13"/>
       <c r="I673" s="13"/>
       <c r="J673" s="14"/>
-      <c r="K673" s="8"/>
+      <c r="K673" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="L673" s="8"/>
       <c r="M673" s="8"/>
       <c r="N673" s="8"/>
@@ -32993,7 +33066,7 @@
       <c r="A674" s="34">
         <v>671.0</v>
       </c>
-      <c r="B674" s="51" t="s">
+      <c r="B674" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C674" s="49">
@@ -33002,13 +33075,19 @@
       <c r="D674" s="50">
         <v>44039.0</v>
       </c>
-      <c r="E674" s="8"/>
-      <c r="F674" s="13"/>
+      <c r="E674" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F674" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G674" s="2"/>
       <c r="H674" s="13"/>
       <c r="I674" s="13"/>
       <c r="J674" s="14"/>
-      <c r="K674" s="8"/>
+      <c r="K674" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="L674" s="8"/>
       <c r="M674" s="8"/>
       <c r="N674" s="8"/>
@@ -33029,7 +33108,7 @@
       <c r="A675" s="34">
         <v>672.0</v>
       </c>
-      <c r="B675" s="51" t="s">
+      <c r="B675" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C675" s="49">
@@ -33038,13 +33117,19 @@
       <c r="D675" s="50">
         <v>44039.0</v>
       </c>
-      <c r="E675" s="8"/>
-      <c r="F675" s="13"/>
+      <c r="E675" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F675" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G675" s="2"/>
       <c r="H675" s="13"/>
       <c r="I675" s="13"/>
       <c r="J675" s="14"/>
-      <c r="K675" s="8"/>
+      <c r="K675" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="L675" s="8"/>
       <c r="M675" s="8"/>
       <c r="N675" s="8"/>
@@ -33065,7 +33150,7 @@
       <c r="A676" s="34">
         <v>673.0</v>
       </c>
-      <c r="B676" s="51" t="s">
+      <c r="B676" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C676" s="49">
@@ -33074,13 +33159,19 @@
       <c r="D676" s="50">
         <v>44039.0</v>
       </c>
-      <c r="E676" s="8"/>
-      <c r="F676" s="13"/>
+      <c r="E676" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F676" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G676" s="2"/>
       <c r="H676" s="13"/>
       <c r="I676" s="13"/>
       <c r="J676" s="14"/>
-      <c r="K676" s="8"/>
+      <c r="K676" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="L676" s="8"/>
       <c r="M676" s="8"/>
       <c r="N676" s="8"/>
@@ -33101,7 +33192,7 @@
       <c r="A677" s="34">
         <v>674.0</v>
       </c>
-      <c r="B677" s="51" t="s">
+      <c r="B677" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C677" s="49">
@@ -33110,13 +33201,19 @@
       <c r="D677" s="50">
         <v>44039.0</v>
       </c>
-      <c r="E677" s="8"/>
-      <c r="F677" s="13"/>
+      <c r="E677" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F677" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G677" s="2"/>
       <c r="H677" s="13"/>
       <c r="I677" s="13"/>
       <c r="J677" s="14"/>
-      <c r="K677" s="8"/>
+      <c r="K677" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="L677" s="8"/>
       <c r="M677" s="8"/>
       <c r="N677" s="8"/>
@@ -33137,7 +33234,7 @@
       <c r="A678" s="34">
         <v>675.0</v>
       </c>
-      <c r="B678" s="51" t="s">
+      <c r="B678" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C678" s="49">
@@ -33146,13 +33243,19 @@
       <c r="D678" s="50">
         <v>44039.0</v>
       </c>
-      <c r="E678" s="8"/>
-      <c r="F678" s="13"/>
+      <c r="E678" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F678" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G678" s="2"/>
       <c r="H678" s="13"/>
       <c r="I678" s="13"/>
       <c r="J678" s="14"/>
-      <c r="K678" s="8"/>
+      <c r="K678" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="L678" s="8"/>
       <c r="M678" s="8"/>
       <c r="N678" s="8"/>
@@ -33173,7 +33276,7 @@
       <c r="A679" s="34">
         <v>676.0</v>
       </c>
-      <c r="B679" s="51" t="s">
+      <c r="B679" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C679" s="49">
@@ -33182,13 +33285,19 @@
       <c r="D679" s="50">
         <v>44039.0</v>
       </c>
-      <c r="E679" s="8"/>
-      <c r="F679" s="13"/>
+      <c r="E679" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F679" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G679" s="2"/>
       <c r="H679" s="13"/>
       <c r="I679" s="13"/>
       <c r="J679" s="14"/>
-      <c r="K679" s="8"/>
+      <c r="K679" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="L679" s="8"/>
       <c r="M679" s="8"/>
       <c r="N679" s="8"/>
@@ -33209,7 +33318,7 @@
       <c r="A680" s="34">
         <v>677.0</v>
       </c>
-      <c r="B680" s="51" t="s">
+      <c r="B680" s="48" t="s">
         <v>556</v>
       </c>
       <c r="C680" s="49">
@@ -33218,13 +33327,19 @@
       <c r="D680" s="50">
         <v>44039.0</v>
       </c>
-      <c r="E680" s="8"/>
-      <c r="F680" s="13"/>
+      <c r="E680" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F680" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G680" s="2"/>
       <c r="H680" s="13"/>
       <c r="I680" s="13"/>
       <c r="J680" s="14"/>
-      <c r="K680" s="8"/>
+      <c r="K680" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="L680" s="8"/>
       <c r="M680" s="8"/>
       <c r="N680" s="8"/>
@@ -33242,17 +33357,31 @@
       <c r="Z680" s="8"/>
     </row>
     <row r="681" ht="18.0" customHeight="1">
-      <c r="A681" s="2"/>
-      <c r="B681" s="8"/>
-      <c r="C681" s="2"/>
-      <c r="D681" s="2"/>
-      <c r="E681" s="8"/>
-      <c r="F681" s="13"/>
+      <c r="A681" s="34">
+        <v>678.0</v>
+      </c>
+      <c r="B681" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C681" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D681" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E681" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F681" s="52" t="s">
+        <v>363</v>
+      </c>
       <c r="G681" s="2"/>
       <c r="H681" s="13"/>
       <c r="I681" s="13"/>
       <c r="J681" s="14"/>
-      <c r="K681" s="8"/>
+      <c r="K681" s="43" t="s">
+        <v>562</v>
+      </c>
       <c r="L681" s="8"/>
       <c r="M681" s="8"/>
       <c r="N681" s="8"/>
@@ -33270,17 +33399,31 @@
       <c r="Z681" s="8"/>
     </row>
     <row r="682" ht="18.0" customHeight="1">
-      <c r="A682" s="2"/>
-      <c r="B682" s="8"/>
-      <c r="C682" s="2"/>
-      <c r="D682" s="2"/>
-      <c r="E682" s="8"/>
-      <c r="F682" s="13"/>
+      <c r="A682" s="34">
+        <v>679.0</v>
+      </c>
+      <c r="B682" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C682" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D682" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E682" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F682" s="52" t="s">
+        <v>363</v>
+      </c>
       <c r="G682" s="2"/>
       <c r="H682" s="13"/>
       <c r="I682" s="13"/>
       <c r="J682" s="14"/>
-      <c r="K682" s="8"/>
+      <c r="K682" s="43" t="s">
+        <v>562</v>
+      </c>
       <c r="L682" s="8"/>
       <c r="M682" s="8"/>
       <c r="N682" s="8"/>
@@ -33298,17 +33441,31 @@
       <c r="Z682" s="8"/>
     </row>
     <row r="683" ht="18.0" customHeight="1">
-      <c r="A683" s="2"/>
-      <c r="B683" s="8"/>
-      <c r="C683" s="2"/>
-      <c r="D683" s="2"/>
-      <c r="E683" s="8"/>
-      <c r="F683" s="13"/>
+      <c r="A683" s="34">
+        <v>680.0</v>
+      </c>
+      <c r="B683" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C683" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D683" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E683" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F683" s="52" t="s">
+        <v>363</v>
+      </c>
       <c r="G683" s="2"/>
       <c r="H683" s="13"/>
       <c r="I683" s="13"/>
       <c r="J683" s="14"/>
-      <c r="K683" s="8"/>
+      <c r="K683" s="43" t="s">
+        <v>562</v>
+      </c>
       <c r="L683" s="8"/>
       <c r="M683" s="8"/>
       <c r="N683" s="8"/>
@@ -33326,17 +33483,31 @@
       <c r="Z683" s="8"/>
     </row>
     <row r="684" ht="18.0" customHeight="1">
-      <c r="A684" s="2"/>
-      <c r="B684" s="8"/>
-      <c r="C684" s="2"/>
-      <c r="D684" s="2"/>
-      <c r="E684" s="8"/>
-      <c r="F684" s="13"/>
+      <c r="A684" s="34">
+        <v>681.0</v>
+      </c>
+      <c r="B684" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C684" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D684" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E684" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F684" s="52" t="s">
+        <v>363</v>
+      </c>
       <c r="G684" s="2"/>
       <c r="H684" s="13"/>
       <c r="I684" s="13"/>
       <c r="J684" s="14"/>
-      <c r="K684" s="8"/>
+      <c r="K684" s="43" t="s">
+        <v>562</v>
+      </c>
       <c r="L684" s="8"/>
       <c r="M684" s="8"/>
       <c r="N684" s="8"/>
@@ -33354,17 +33525,31 @@
       <c r="Z684" s="8"/>
     </row>
     <row r="685" ht="18.0" customHeight="1">
-      <c r="A685" s="2"/>
-      <c r="B685" s="8"/>
-      <c r="C685" s="2"/>
-      <c r="D685" s="2"/>
-      <c r="E685" s="8"/>
-      <c r="F685" s="13"/>
+      <c r="A685" s="34">
+        <v>682.0</v>
+      </c>
+      <c r="B685" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C685" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D685" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E685" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F685" s="52" t="s">
+        <v>363</v>
+      </c>
       <c r="G685" s="2"/>
       <c r="H685" s="13"/>
       <c r="I685" s="13"/>
       <c r="J685" s="14"/>
-      <c r="K685" s="8"/>
+      <c r="K685" s="43" t="s">
+        <v>562</v>
+      </c>
       <c r="L685" s="8"/>
       <c r="M685" s="8"/>
       <c r="N685" s="8"/>
@@ -33382,17 +33567,31 @@
       <c r="Z685" s="8"/>
     </row>
     <row r="686" ht="18.0" customHeight="1">
-      <c r="A686" s="2"/>
-      <c r="B686" s="8"/>
-      <c r="C686" s="2"/>
-      <c r="D686" s="2"/>
-      <c r="E686" s="8"/>
-      <c r="F686" s="13"/>
+      <c r="A686" s="34">
+        <v>683.0</v>
+      </c>
+      <c r="B686" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C686" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D686" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E686" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F686" s="52" t="s">
+        <v>393</v>
+      </c>
       <c r="G686" s="2"/>
       <c r="H686" s="13"/>
       <c r="I686" s="13"/>
       <c r="J686" s="14"/>
-      <c r="K686" s="8"/>
+      <c r="K686" s="43" t="s">
+        <v>562</v>
+      </c>
       <c r="L686" s="8"/>
       <c r="M686" s="8"/>
       <c r="N686" s="8"/>
@@ -33410,17 +33609,31 @@
       <c r="Z686" s="8"/>
     </row>
     <row r="687" ht="18.0" customHeight="1">
-      <c r="A687" s="2"/>
-      <c r="B687" s="8"/>
-      <c r="C687" s="2"/>
-      <c r="D687" s="2"/>
-      <c r="E687" s="8"/>
-      <c r="F687" s="13"/>
+      <c r="A687" s="34">
+        <v>684.0</v>
+      </c>
+      <c r="B687" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C687" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D687" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E687" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F687" s="52" t="s">
+        <v>53</v>
+      </c>
       <c r="G687" s="2"/>
       <c r="H687" s="13"/>
       <c r="I687" s="13"/>
       <c r="J687" s="14"/>
-      <c r="K687" s="8"/>
+      <c r="K687" s="43" t="s">
+        <v>562</v>
+      </c>
       <c r="L687" s="8"/>
       <c r="M687" s="8"/>
       <c r="N687" s="8"/>
@@ -33438,7 +33651,9 @@
       <c r="Z687" s="8"/>
     </row>
     <row r="688" ht="18.0" customHeight="1">
-      <c r="A688" s="2"/>
+      <c r="A688" s="34">
+        <v>685.0</v>
+      </c>
       <c r="B688" s="8"/>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -33466,7 +33681,9 @@
       <c r="Z688" s="8"/>
     </row>
     <row r="689" ht="18.0" customHeight="1">
-      <c r="A689" s="2"/>
+      <c r="A689" s="34">
+        <v>686.0</v>
+      </c>
       <c r="B689" s="8"/>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -33494,7 +33711,9 @@
       <c r="Z689" s="8"/>
     </row>
     <row r="690" ht="18.0" customHeight="1">
-      <c r="A690" s="2"/>
+      <c r="A690" s="34">
+        <v>687.0</v>
+      </c>
       <c r="B690" s="8"/>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -33522,7 +33741,9 @@
       <c r="Z690" s="8"/>
     </row>
     <row r="691" ht="18.0" customHeight="1">
-      <c r="A691" s="2"/>
+      <c r="A691" s="34">
+        <v>688.0</v>
+      </c>
       <c r="B691" s="8"/>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -33550,7 +33771,9 @@
       <c r="Z691" s="8"/>
     </row>
     <row r="692" ht="18.0" customHeight="1">
-      <c r="A692" s="2"/>
+      <c r="A692" s="34">
+        <v>689.0</v>
+      </c>
       <c r="B692" s="8"/>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -33578,7 +33801,9 @@
       <c r="Z692" s="8"/>
     </row>
     <row r="693" ht="18.0" customHeight="1">
-      <c r="A693" s="2"/>
+      <c r="A693" s="34">
+        <v>690.0</v>
+      </c>
       <c r="B693" s="8"/>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -33606,7 +33831,9 @@
       <c r="Z693" s="8"/>
     </row>
     <row r="694" ht="18.0" customHeight="1">
-      <c r="A694" s="2"/>
+      <c r="A694" s="34">
+        <v>691.0</v>
+      </c>
       <c r="B694" s="8"/>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -33634,7 +33861,9 @@
       <c r="Z694" s="8"/>
     </row>
     <row r="695" ht="18.0" customHeight="1">
-      <c r="A695" s="2"/>
+      <c r="A695" s="34">
+        <v>692.0</v>
+      </c>
       <c r="B695" s="8"/>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -33662,7 +33891,9 @@
       <c r="Z695" s="8"/>
     </row>
     <row r="696" ht="18.0" customHeight="1">
-      <c r="A696" s="2"/>
+      <c r="A696" s="34">
+        <v>693.0</v>
+      </c>
       <c r="B696" s="8"/>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -33690,7 +33921,9 @@
       <c r="Z696" s="8"/>
     </row>
     <row r="697" ht="18.0" customHeight="1">
-      <c r="A697" s="2"/>
+      <c r="A697" s="34">
+        <v>694.0</v>
+      </c>
       <c r="B697" s="8"/>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -33718,7 +33951,9 @@
       <c r="Z697" s="8"/>
     </row>
     <row r="698" ht="18.0" customHeight="1">
-      <c r="A698" s="2"/>
+      <c r="A698" s="34">
+        <v>695.0</v>
+      </c>
       <c r="B698" s="8"/>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -33746,7 +33981,9 @@
       <c r="Z698" s="8"/>
     </row>
     <row r="699" ht="18.0" customHeight="1">
-      <c r="A699" s="2"/>
+      <c r="A699" s="34">
+        <v>696.0</v>
+      </c>
       <c r="B699" s="8"/>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -33774,7 +34011,9 @@
       <c r="Z699" s="8"/>
     </row>
     <row r="700" ht="18.0" customHeight="1">
-      <c r="A700" s="2"/>
+      <c r="A700" s="34">
+        <v>697.0</v>
+      </c>
       <c r="B700" s="8"/>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -33802,7 +34041,9 @@
       <c r="Z700" s="8"/>
     </row>
     <row r="701" ht="18.0" customHeight="1">
-      <c r="A701" s="2"/>
+      <c r="A701" s="34">
+        <v>698.0</v>
+      </c>
       <c r="B701" s="8"/>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -33830,7 +34071,9 @@
       <c r="Z701" s="8"/>
     </row>
     <row r="702" ht="18.0" customHeight="1">
-      <c r="A702" s="2"/>
+      <c r="A702" s="34">
+        <v>699.0</v>
+      </c>
       <c r="B702" s="8"/>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -33858,7 +34101,9 @@
       <c r="Z702" s="8"/>
     </row>
     <row r="703" ht="18.0" customHeight="1">
-      <c r="A703" s="2"/>
+      <c r="A703" s="34">
+        <v>700.0</v>
+      </c>
       <c r="B703" s="8"/>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -33886,7 +34131,9 @@
       <c r="Z703" s="8"/>
     </row>
     <row r="704" ht="18.0" customHeight="1">
-      <c r="A704" s="2"/>
+      <c r="A704" s="34">
+        <v>701.0</v>
+      </c>
       <c r="B704" s="8"/>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -33914,7 +34161,9 @@
       <c r="Z704" s="8"/>
     </row>
     <row r="705" ht="18.0" customHeight="1">
-      <c r="A705" s="2"/>
+      <c r="A705" s="34">
+        <v>702.0</v>
+      </c>
       <c r="B705" s="8"/>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -33942,7 +34191,9 @@
       <c r="Z705" s="8"/>
     </row>
     <row r="706" ht="18.0" customHeight="1">
-      <c r="A706" s="2"/>
+      <c r="A706" s="34">
+        <v>703.0</v>
+      </c>
       <c r="B706" s="8"/>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -33970,7 +34221,9 @@
       <c r="Z706" s="8"/>
     </row>
     <row r="707" ht="18.0" customHeight="1">
-      <c r="A707" s="2"/>
+      <c r="A707" s="34">
+        <v>704.0</v>
+      </c>
       <c r="B707" s="8"/>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -33998,7 +34251,9 @@
       <c r="Z707" s="8"/>
     </row>
     <row r="708" ht="18.0" customHeight="1">
-      <c r="A708" s="2"/>
+      <c r="A708" s="34">
+        <v>705.0</v>
+      </c>
       <c r="B708" s="8"/>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -34026,7 +34281,9 @@
       <c r="Z708" s="8"/>
     </row>
     <row r="709" ht="18.0" customHeight="1">
-      <c r="A709" s="2"/>
+      <c r="A709" s="34">
+        <v>706.0</v>
+      </c>
       <c r="B709" s="8"/>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -34054,7 +34311,9 @@
       <c r="Z709" s="8"/>
     </row>
     <row r="710" ht="18.0" customHeight="1">
-      <c r="A710" s="2"/>
+      <c r="A710" s="34">
+        <v>707.0</v>
+      </c>
       <c r="B710" s="8"/>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -34082,7 +34341,9 @@
       <c r="Z710" s="8"/>
     </row>
     <row r="711" ht="18.0" customHeight="1">
-      <c r="A711" s="2"/>
+      <c r="A711" s="34">
+        <v>708.0</v>
+      </c>
       <c r="B711" s="8"/>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -41764,7 +42025,7 @@
       <c r="H985" s="13"/>
       <c r="I985" s="13"/>
       <c r="J985" s="14"/>
-      <c r="K985" s="52"/>
+      <c r="K985" s="54"/>
       <c r="L985" s="8"/>
       <c r="M985" s="8"/>
       <c r="N985" s="8"/>
@@ -42273,10 +42534,32 @@
     <hyperlink r:id="rId487" ref="K663"/>
     <hyperlink r:id="rId488" ref="K664"/>
     <hyperlink r:id="rId489" ref="K665"/>
+    <hyperlink r:id="rId490" ref="K666"/>
+    <hyperlink r:id="rId491" ref="K667"/>
+    <hyperlink r:id="rId492" ref="K668"/>
+    <hyperlink r:id="rId493" ref="K669"/>
+    <hyperlink r:id="rId494" ref="K670"/>
+    <hyperlink r:id="rId495" ref="K671"/>
+    <hyperlink r:id="rId496" ref="K672"/>
+    <hyperlink r:id="rId497" ref="K673"/>
+    <hyperlink r:id="rId498" ref="K674"/>
+    <hyperlink r:id="rId499" ref="K675"/>
+    <hyperlink r:id="rId500" ref="K676"/>
+    <hyperlink r:id="rId501" ref="K677"/>
+    <hyperlink r:id="rId502" ref="K678"/>
+    <hyperlink r:id="rId503" ref="K679"/>
+    <hyperlink r:id="rId504" ref="K680"/>
+    <hyperlink r:id="rId505" ref="K681"/>
+    <hyperlink r:id="rId506" ref="K682"/>
+    <hyperlink r:id="rId507" ref="K683"/>
+    <hyperlink r:id="rId508" ref="K684"/>
+    <hyperlink r:id="rId509" ref="K685"/>
+    <hyperlink r:id="rId510" ref="K686"/>
+    <hyperlink r:id="rId511" ref="K687"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId490"/>
+  <drawing r:id="rId512"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="563">
   <si>
-    <t>2020-07-28T19:30:00.000Z</t>
+    <t>2020-07-28T23:30:00.000Z</t>
   </si>
   <si>
     <t>No</t>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="565">
   <si>
     <t>2020-07-28T23:30:00.000Z</t>
   </si>
@@ -2082,6 +2082,12 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200728-678-684.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273147/200728oshirase(470-493).pdf</t>
+  </si>
+  <si>
+    <t>男性</t>
   </si>
 </sst>
 </file>
@@ -2256,7 +2262,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2418,6 +2424,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -32477,7 +32489,9 @@
       <c r="Z659" s="8"/>
     </row>
     <row r="660" ht="18.0" customHeight="1">
-      <c r="A660" s="34"/>
+      <c r="A660" s="34">
+        <v>0.0</v>
+      </c>
       <c r="B660" s="48" t="s">
         <v>556</v>
       </c>
@@ -33654,16 +33668,28 @@
       <c r="A688" s="34">
         <v>685.0</v>
       </c>
-      <c r="B688" s="8"/>
-      <c r="C688" s="2"/>
-      <c r="D688" s="2"/>
-      <c r="E688" s="8"/>
-      <c r="F688" s="13"/>
+      <c r="B688" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C688" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D688" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E688" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="F688" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G688" s="2"/>
       <c r="H688" s="13"/>
       <c r="I688" s="13"/>
       <c r="J688" s="14"/>
-      <c r="K688" s="8"/>
+      <c r="K688" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L688" s="8"/>
       <c r="M688" s="8"/>
       <c r="N688" s="8"/>
@@ -33684,16 +33710,28 @@
       <c r="A689" s="34">
         <v>686.0</v>
       </c>
-      <c r="B689" s="8"/>
-      <c r="C689" s="2"/>
-      <c r="D689" s="2"/>
-      <c r="E689" s="8"/>
-      <c r="F689" s="13"/>
+      <c r="B689" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C689" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D689" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E689" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F689" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G689" s="2"/>
       <c r="H689" s="13"/>
       <c r="I689" s="13"/>
       <c r="J689" s="14"/>
-      <c r="K689" s="8"/>
+      <c r="K689" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L689" s="8"/>
       <c r="M689" s="8"/>
       <c r="N689" s="8"/>
@@ -33714,16 +33752,26 @@
       <c r="A690" s="34">
         <v>687.0</v>
       </c>
-      <c r="B690" s="8"/>
-      <c r="C690" s="2"/>
-      <c r="D690" s="2"/>
-      <c r="E690" s="8"/>
-      <c r="F690" s="13"/>
+      <c r="B690" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C690" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D690" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E690" s="54"/>
+      <c r="F690" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G690" s="2"/>
       <c r="H690" s="13"/>
       <c r="I690" s="13"/>
       <c r="J690" s="14"/>
-      <c r="K690" s="8"/>
+      <c r="K690" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L690" s="8"/>
       <c r="M690" s="8"/>
       <c r="N690" s="8"/>
@@ -33744,16 +33792,28 @@
       <c r="A691" s="34">
         <v>688.0</v>
       </c>
-      <c r="B691" s="8"/>
-      <c r="C691" s="2"/>
-      <c r="D691" s="2"/>
-      <c r="E691" s="8"/>
-      <c r="F691" s="13"/>
+      <c r="B691" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C691" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D691" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E691" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="F691" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G691" s="2"/>
       <c r="H691" s="13"/>
       <c r="I691" s="13"/>
       <c r="J691" s="14"/>
-      <c r="K691" s="8"/>
+      <c r="K691" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L691" s="8"/>
       <c r="M691" s="8"/>
       <c r="N691" s="8"/>
@@ -33774,16 +33834,28 @@
       <c r="A692" s="34">
         <v>689.0</v>
       </c>
-      <c r="B692" s="8"/>
-      <c r="C692" s="2"/>
-      <c r="D692" s="2"/>
-      <c r="E692" s="8"/>
-      <c r="F692" s="13"/>
+      <c r="B692" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C692" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D692" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E692" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F692" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G692" s="2"/>
       <c r="H692" s="13"/>
       <c r="I692" s="13"/>
       <c r="J692" s="14"/>
-      <c r="K692" s="8"/>
+      <c r="K692" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L692" s="8"/>
       <c r="M692" s="8"/>
       <c r="N692" s="8"/>
@@ -33804,16 +33876,28 @@
       <c r="A693" s="34">
         <v>690.0</v>
       </c>
-      <c r="B693" s="8"/>
-      <c r="C693" s="2"/>
-      <c r="D693" s="2"/>
-      <c r="E693" s="8"/>
-      <c r="F693" s="13"/>
+      <c r="B693" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C693" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D693" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E693" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F693" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G693" s="2"/>
       <c r="H693" s="13"/>
       <c r="I693" s="13"/>
       <c r="J693" s="14"/>
-      <c r="K693" s="8"/>
+      <c r="K693" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L693" s="8"/>
       <c r="M693" s="8"/>
       <c r="N693" s="8"/>
@@ -33834,16 +33918,28 @@
       <c r="A694" s="34">
         <v>691.0</v>
       </c>
-      <c r="B694" s="8"/>
-      <c r="C694" s="2"/>
-      <c r="D694" s="2"/>
-      <c r="E694" s="8"/>
-      <c r="F694" s="13"/>
+      <c r="B694" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C694" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D694" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E694" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F694" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G694" s="2"/>
       <c r="H694" s="13"/>
       <c r="I694" s="13"/>
       <c r="J694" s="14"/>
-      <c r="K694" s="8"/>
+      <c r="K694" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L694" s="8"/>
       <c r="M694" s="8"/>
       <c r="N694" s="8"/>
@@ -33864,16 +33960,28 @@
       <c r="A695" s="34">
         <v>692.0</v>
       </c>
-      <c r="B695" s="8"/>
-      <c r="C695" s="2"/>
-      <c r="D695" s="2"/>
-      <c r="E695" s="8"/>
-      <c r="F695" s="13"/>
+      <c r="B695" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C695" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D695" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E695" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F695" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G695" s="2"/>
       <c r="H695" s="13"/>
       <c r="I695" s="13"/>
       <c r="J695" s="14"/>
-      <c r="K695" s="8"/>
+      <c r="K695" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L695" s="8"/>
       <c r="M695" s="8"/>
       <c r="N695" s="8"/>
@@ -33894,16 +34002,28 @@
       <c r="A696" s="34">
         <v>693.0</v>
       </c>
-      <c r="B696" s="8"/>
-      <c r="C696" s="2"/>
-      <c r="D696" s="2"/>
-      <c r="E696" s="8"/>
-      <c r="F696" s="13"/>
+      <c r="B696" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C696" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D696" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E696" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F696" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G696" s="2"/>
       <c r="H696" s="13"/>
       <c r="I696" s="13"/>
       <c r="J696" s="14"/>
-      <c r="K696" s="8"/>
+      <c r="K696" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L696" s="8"/>
       <c r="M696" s="8"/>
       <c r="N696" s="8"/>
@@ -33924,16 +34044,28 @@
       <c r="A697" s="34">
         <v>694.0</v>
       </c>
-      <c r="B697" s="8"/>
-      <c r="C697" s="2"/>
-      <c r="D697" s="2"/>
-      <c r="E697" s="8"/>
-      <c r="F697" s="13"/>
+      <c r="B697" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C697" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D697" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E697" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F697" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G697" s="2"/>
       <c r="H697" s="13"/>
       <c r="I697" s="13"/>
       <c r="J697" s="14"/>
-      <c r="K697" s="8"/>
+      <c r="K697" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L697" s="8"/>
       <c r="M697" s="8"/>
       <c r="N697" s="8"/>
@@ -33954,16 +34086,28 @@
       <c r="A698" s="34">
         <v>695.0</v>
       </c>
-      <c r="B698" s="8"/>
-      <c r="C698" s="2"/>
-      <c r="D698" s="2"/>
-      <c r="E698" s="8"/>
-      <c r="F698" s="13"/>
+      <c r="B698" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C698" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D698" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E698" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="F698" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G698" s="2"/>
       <c r="H698" s="13"/>
       <c r="I698" s="13"/>
       <c r="J698" s="14"/>
-      <c r="K698" s="8"/>
+      <c r="K698" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L698" s="8"/>
       <c r="M698" s="8"/>
       <c r="N698" s="8"/>
@@ -33984,16 +34128,28 @@
       <c r="A699" s="34">
         <v>696.0</v>
       </c>
-      <c r="B699" s="8"/>
-      <c r="C699" s="2"/>
-      <c r="D699" s="2"/>
-      <c r="E699" s="8"/>
-      <c r="F699" s="13"/>
+      <c r="B699" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C699" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D699" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E699" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F699" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G699" s="2"/>
       <c r="H699" s="13"/>
       <c r="I699" s="13"/>
       <c r="J699" s="14"/>
-      <c r="K699" s="8"/>
+      <c r="K699" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L699" s="8"/>
       <c r="M699" s="8"/>
       <c r="N699" s="8"/>
@@ -34014,16 +34170,28 @@
       <c r="A700" s="34">
         <v>697.0</v>
       </c>
-      <c r="B700" s="8"/>
-      <c r="C700" s="2"/>
-      <c r="D700" s="2"/>
-      <c r="E700" s="8"/>
-      <c r="F700" s="13"/>
+      <c r="B700" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C700" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D700" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E700" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F700" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G700" s="2"/>
       <c r="H700" s="13"/>
       <c r="I700" s="13"/>
       <c r="J700" s="14"/>
-      <c r="K700" s="8"/>
+      <c r="K700" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L700" s="8"/>
       <c r="M700" s="8"/>
       <c r="N700" s="8"/>
@@ -34044,16 +34212,28 @@
       <c r="A701" s="34">
         <v>698.0</v>
       </c>
-      <c r="B701" s="8"/>
-      <c r="C701" s="2"/>
-      <c r="D701" s="2"/>
-      <c r="E701" s="8"/>
-      <c r="F701" s="13"/>
+      <c r="B701" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C701" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D701" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E701" s="54" t="s">
+        <v>564</v>
+      </c>
+      <c r="F701" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G701" s="2"/>
       <c r="H701" s="13"/>
       <c r="I701" s="13"/>
       <c r="J701" s="14"/>
-      <c r="K701" s="8"/>
+      <c r="K701" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L701" s="8"/>
       <c r="M701" s="8"/>
       <c r="N701" s="8"/>
@@ -34074,16 +34254,28 @@
       <c r="A702" s="34">
         <v>699.0</v>
       </c>
-      <c r="B702" s="8"/>
-      <c r="C702" s="2"/>
-      <c r="D702" s="2"/>
-      <c r="E702" s="8"/>
-      <c r="F702" s="13"/>
+      <c r="B702" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C702" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D702" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E702" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F702" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G702" s="2"/>
       <c r="H702" s="13"/>
       <c r="I702" s="13"/>
       <c r="J702" s="14"/>
-      <c r="K702" s="8"/>
+      <c r="K702" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L702" s="8"/>
       <c r="M702" s="8"/>
       <c r="N702" s="8"/>
@@ -34104,16 +34296,28 @@
       <c r="A703" s="34">
         <v>700.0</v>
       </c>
-      <c r="B703" s="8"/>
-      <c r="C703" s="2"/>
-      <c r="D703" s="2"/>
-      <c r="E703" s="8"/>
-      <c r="F703" s="13"/>
+      <c r="B703" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C703" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D703" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E703" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F703" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G703" s="2"/>
       <c r="H703" s="13"/>
       <c r="I703" s="13"/>
       <c r="J703" s="14"/>
-      <c r="K703" s="8"/>
+      <c r="K703" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L703" s="8"/>
       <c r="M703" s="8"/>
       <c r="N703" s="8"/>
@@ -34134,16 +34338,28 @@
       <c r="A704" s="34">
         <v>701.0</v>
       </c>
-      <c r="B704" s="8"/>
-      <c r="C704" s="2"/>
-      <c r="D704" s="2"/>
-      <c r="E704" s="8"/>
-      <c r="F704" s="13"/>
+      <c r="B704" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C704" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D704" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E704" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F704" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G704" s="2"/>
       <c r="H704" s="13"/>
       <c r="I704" s="13"/>
       <c r="J704" s="14"/>
-      <c r="K704" s="8"/>
+      <c r="K704" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L704" s="8"/>
       <c r="M704" s="8"/>
       <c r="N704" s="8"/>
@@ -34164,16 +34380,28 @@
       <c r="A705" s="34">
         <v>702.0</v>
       </c>
-      <c r="B705" s="8"/>
-      <c r="C705" s="2"/>
-      <c r="D705" s="2"/>
-      <c r="E705" s="8"/>
-      <c r="F705" s="13"/>
+      <c r="B705" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C705" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D705" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E705" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F705" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G705" s="2"/>
       <c r="H705" s="13"/>
       <c r="I705" s="13"/>
       <c r="J705" s="14"/>
-      <c r="K705" s="8"/>
+      <c r="K705" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L705" s="8"/>
       <c r="M705" s="8"/>
       <c r="N705" s="8"/>
@@ -34194,16 +34422,28 @@
       <c r="A706" s="34">
         <v>703.0</v>
       </c>
-      <c r="B706" s="8"/>
-      <c r="C706" s="2"/>
-      <c r="D706" s="2"/>
-      <c r="E706" s="8"/>
-      <c r="F706" s="13"/>
+      <c r="B706" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C706" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D706" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E706" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F706" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G706" s="2"/>
       <c r="H706" s="13"/>
       <c r="I706" s="13"/>
       <c r="J706" s="14"/>
-      <c r="K706" s="8"/>
+      <c r="K706" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L706" s="8"/>
       <c r="M706" s="8"/>
       <c r="N706" s="8"/>
@@ -34224,16 +34464,28 @@
       <c r="A707" s="34">
         <v>704.0</v>
       </c>
-      <c r="B707" s="8"/>
-      <c r="C707" s="2"/>
-      <c r="D707" s="2"/>
-      <c r="E707" s="8"/>
-      <c r="F707" s="13"/>
+      <c r="B707" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C707" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D707" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E707" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="F707" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G707" s="2"/>
       <c r="H707" s="13"/>
       <c r="I707" s="13"/>
       <c r="J707" s="14"/>
-      <c r="K707" s="8"/>
+      <c r="K707" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L707" s="8"/>
       <c r="M707" s="8"/>
       <c r="N707" s="8"/>
@@ -34254,16 +34506,28 @@
       <c r="A708" s="34">
         <v>705.0</v>
       </c>
-      <c r="B708" s="8"/>
-      <c r="C708" s="2"/>
-      <c r="D708" s="2"/>
-      <c r="E708" s="8"/>
-      <c r="F708" s="13"/>
+      <c r="B708" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C708" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D708" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E708" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F708" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G708" s="2"/>
       <c r="H708" s="13"/>
       <c r="I708" s="13"/>
       <c r="J708" s="14"/>
-      <c r="K708" s="8"/>
+      <c r="K708" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L708" s="8"/>
       <c r="M708" s="8"/>
       <c r="N708" s="8"/>
@@ -34284,16 +34548,26 @@
       <c r="A709" s="34">
         <v>706.0</v>
       </c>
-      <c r="B709" s="8"/>
-      <c r="C709" s="2"/>
-      <c r="D709" s="2"/>
+      <c r="B709" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C709" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D709" s="50">
+        <v>44040.0</v>
+      </c>
       <c r="E709" s="8"/>
-      <c r="F709" s="13"/>
+      <c r="F709" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G709" s="2"/>
       <c r="H709" s="13"/>
       <c r="I709" s="13"/>
       <c r="J709" s="14"/>
-      <c r="K709" s="8"/>
+      <c r="K709" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L709" s="8"/>
       <c r="M709" s="8"/>
       <c r="N709" s="8"/>
@@ -34314,16 +34588,28 @@
       <c r="A710" s="34">
         <v>707.0</v>
       </c>
-      <c r="B710" s="8"/>
-      <c r="C710" s="2"/>
-      <c r="D710" s="2"/>
-      <c r="E710" s="8"/>
-      <c r="F710" s="13"/>
+      <c r="B710" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C710" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D710" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E710" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F710" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G710" s="2"/>
       <c r="H710" s="13"/>
       <c r="I710" s="13"/>
       <c r="J710" s="14"/>
-      <c r="K710" s="8"/>
+      <c r="K710" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L710" s="8"/>
       <c r="M710" s="8"/>
       <c r="N710" s="8"/>
@@ -34344,16 +34630,28 @@
       <c r="A711" s="34">
         <v>708.0</v>
       </c>
-      <c r="B711" s="8"/>
-      <c r="C711" s="2"/>
-      <c r="D711" s="2"/>
-      <c r="E711" s="8"/>
-      <c r="F711" s="13"/>
+      <c r="B711" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="C711" s="49">
+        <v>44040.0</v>
+      </c>
+      <c r="D711" s="50">
+        <v>44040.0</v>
+      </c>
+      <c r="E711" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F711" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G711" s="2"/>
       <c r="H711" s="13"/>
       <c r="I711" s="13"/>
       <c r="J711" s="14"/>
-      <c r="K711" s="8"/>
+      <c r="K711" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="L711" s="8"/>
       <c r="M711" s="8"/>
       <c r="N711" s="8"/>
@@ -42025,7 +42323,7 @@
       <c r="H985" s="13"/>
       <c r="I985" s="13"/>
       <c r="J985" s="14"/>
-      <c r="K985" s="54"/>
+      <c r="K985" s="56"/>
       <c r="L985" s="8"/>
       <c r="M985" s="8"/>
       <c r="N985" s="8"/>
@@ -42556,10 +42854,34 @@
     <hyperlink r:id="rId509" ref="K685"/>
     <hyperlink r:id="rId510" ref="K686"/>
     <hyperlink r:id="rId511" ref="K687"/>
+    <hyperlink r:id="rId512" ref="K688"/>
+    <hyperlink r:id="rId513" ref="K689"/>
+    <hyperlink r:id="rId514" ref="K690"/>
+    <hyperlink r:id="rId515" ref="K691"/>
+    <hyperlink r:id="rId516" ref="K692"/>
+    <hyperlink r:id="rId517" ref="K693"/>
+    <hyperlink r:id="rId518" ref="K694"/>
+    <hyperlink r:id="rId519" ref="K695"/>
+    <hyperlink r:id="rId520" ref="K696"/>
+    <hyperlink r:id="rId521" ref="K697"/>
+    <hyperlink r:id="rId522" ref="K698"/>
+    <hyperlink r:id="rId523" ref="K699"/>
+    <hyperlink r:id="rId524" ref="K700"/>
+    <hyperlink r:id="rId525" ref="K701"/>
+    <hyperlink r:id="rId526" ref="K702"/>
+    <hyperlink r:id="rId527" ref="K703"/>
+    <hyperlink r:id="rId528" ref="K704"/>
+    <hyperlink r:id="rId529" ref="K705"/>
+    <hyperlink r:id="rId530" ref="K706"/>
+    <hyperlink r:id="rId531" ref="K707"/>
+    <hyperlink r:id="rId532" ref="K708"/>
+    <hyperlink r:id="rId533" ref="K709"/>
+    <hyperlink r:id="rId534" ref="K710"/>
+    <hyperlink r:id="rId535" ref="K711"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId512"/>
+  <drawing r:id="rId536"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -6,21 +6,21 @@
     <sheet state="visible" name="covid-19-kyoto" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'covid-19-kyoto'!$A$1:$M$985</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'covid-19-kyoto'!$A$1:$M$986</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgs7qgXOOYxmPjr1iMPzUA8FbCPNg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mghejRGXvZe/IBfFMGeXtQEkxu3kA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="565">
-  <si>
-    <t>2020-07-28T23:30:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3616" uniqueCount="568">
+  <si>
+    <t>2020-07-29T20:30:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2088,6 +2088,15 @@
   </si>
   <si>
     <t>男性</t>
+  </si>
+  <si>
+    <t>2020-07-29T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200729-709-715.pdf</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200729-.pdf</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2271,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2422,6 +2431,12 @@
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -2430,9 +2445,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -33374,7 +33386,7 @@
       <c r="A681" s="34">
         <v>678.0</v>
       </c>
-      <c r="B681" s="53" t="s">
+      <c r="B681" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C681" s="49">
@@ -33416,7 +33428,7 @@
       <c r="A682" s="34">
         <v>679.0</v>
       </c>
-      <c r="B682" s="53" t="s">
+      <c r="B682" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C682" s="49">
@@ -33458,7 +33470,7 @@
       <c r="A683" s="34">
         <v>680.0</v>
       </c>
-      <c r="B683" s="53" t="s">
+      <c r="B683" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C683" s="49">
@@ -33500,7 +33512,7 @@
       <c r="A684" s="34">
         <v>681.0</v>
       </c>
-      <c r="B684" s="53" t="s">
+      <c r="B684" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C684" s="49">
@@ -33542,7 +33554,7 @@
       <c r="A685" s="34">
         <v>682.0</v>
       </c>
-      <c r="B685" s="53" t="s">
+      <c r="B685" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C685" s="49">
@@ -33584,7 +33596,7 @@
       <c r="A686" s="34">
         <v>683.0</v>
       </c>
-      <c r="B686" s="53" t="s">
+      <c r="B686" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C686" s="49">
@@ -33626,7 +33638,7 @@
       <c r="A687" s="34">
         <v>684.0</v>
       </c>
-      <c r="B687" s="53" t="s">
+      <c r="B687" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C687" s="49">
@@ -33668,7 +33680,7 @@
       <c r="A688" s="34">
         <v>685.0</v>
       </c>
-      <c r="B688" s="53" t="s">
+      <c r="B688" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C688" s="49">
@@ -33677,10 +33689,10 @@
       <c r="D688" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E688" s="54" t="s">
+      <c r="E688" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="F688" s="55" t="s">
+      <c r="F688" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G688" s="2"/>
@@ -33710,7 +33722,7 @@
       <c r="A689" s="34">
         <v>686.0</v>
       </c>
-      <c r="B689" s="53" t="s">
+      <c r="B689" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C689" s="49">
@@ -33719,10 +33731,10 @@
       <c r="D689" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E689" s="54" t="s">
+      <c r="E689" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F689" s="55" t="s">
+      <c r="F689" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G689" s="2"/>
@@ -33752,7 +33764,7 @@
       <c r="A690" s="34">
         <v>687.0</v>
       </c>
-      <c r="B690" s="53" t="s">
+      <c r="B690" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C690" s="49">
@@ -33761,8 +33773,8 @@
       <c r="D690" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E690" s="54"/>
-      <c r="F690" s="55" t="s">
+      <c r="E690" s="53"/>
+      <c r="F690" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G690" s="2"/>
@@ -33792,7 +33804,7 @@
       <c r="A691" s="34">
         <v>688.0</v>
       </c>
-      <c r="B691" s="53" t="s">
+      <c r="B691" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C691" s="49">
@@ -33801,10 +33813,10 @@
       <c r="D691" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E691" s="54" t="s">
+      <c r="E691" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="F691" s="55" t="s">
+      <c r="F691" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G691" s="2"/>
@@ -33834,7 +33846,7 @@
       <c r="A692" s="34">
         <v>689.0</v>
       </c>
-      <c r="B692" s="53" t="s">
+      <c r="B692" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C692" s="49">
@@ -33843,10 +33855,10 @@
       <c r="D692" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E692" s="54" t="s">
+      <c r="E692" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F692" s="55" t="s">
+      <c r="F692" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G692" s="2"/>
@@ -33876,7 +33888,7 @@
       <c r="A693" s="34">
         <v>690.0</v>
       </c>
-      <c r="B693" s="53" t="s">
+      <c r="B693" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C693" s="49">
@@ -33885,10 +33897,10 @@
       <c r="D693" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E693" s="54" t="s">
+      <c r="E693" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F693" s="55" t="s">
+      <c r="F693" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G693" s="2"/>
@@ -33918,7 +33930,7 @@
       <c r="A694" s="34">
         <v>691.0</v>
       </c>
-      <c r="B694" s="53" t="s">
+      <c r="B694" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C694" s="49">
@@ -33927,10 +33939,10 @@
       <c r="D694" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E694" s="54" t="s">
+      <c r="E694" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="F694" s="55" t="s">
+      <c r="F694" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G694" s="2"/>
@@ -33960,7 +33972,7 @@
       <c r="A695" s="34">
         <v>692.0</v>
       </c>
-      <c r="B695" s="53" t="s">
+      <c r="B695" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C695" s="49">
@@ -33969,10 +33981,10 @@
       <c r="D695" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E695" s="54" t="s">
+      <c r="E695" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F695" s="55" t="s">
+      <c r="F695" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G695" s="2"/>
@@ -34002,7 +34014,7 @@
       <c r="A696" s="34">
         <v>693.0</v>
       </c>
-      <c r="B696" s="53" t="s">
+      <c r="B696" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C696" s="49">
@@ -34011,10 +34023,10 @@
       <c r="D696" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E696" s="54" t="s">
+      <c r="E696" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F696" s="55" t="s">
+      <c r="F696" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G696" s="2"/>
@@ -34044,7 +34056,7 @@
       <c r="A697" s="34">
         <v>694.0</v>
       </c>
-      <c r="B697" s="53" t="s">
+      <c r="B697" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C697" s="49">
@@ -34053,10 +34065,10 @@
       <c r="D697" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E697" s="54" t="s">
+      <c r="E697" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F697" s="55" t="s">
+      <c r="F697" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G697" s="2"/>
@@ -34086,7 +34098,7 @@
       <c r="A698" s="34">
         <v>695.0</v>
       </c>
-      <c r="B698" s="53" t="s">
+      <c r="B698" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C698" s="49">
@@ -34098,7 +34110,7 @@
       <c r="E698" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="F698" s="55" t="s">
+      <c r="F698" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G698" s="2"/>
@@ -34128,7 +34140,7 @@
       <c r="A699" s="34">
         <v>696.0</v>
       </c>
-      <c r="B699" s="53" t="s">
+      <c r="B699" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C699" s="49">
@@ -34137,10 +34149,10 @@
       <c r="D699" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E699" s="54" t="s">
+      <c r="E699" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="F699" s="55" t="s">
+      <c r="F699" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G699" s="2"/>
@@ -34170,7 +34182,7 @@
       <c r="A700" s="34">
         <v>697.0</v>
       </c>
-      <c r="B700" s="53" t="s">
+      <c r="B700" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C700" s="49">
@@ -34179,10 +34191,10 @@
       <c r="D700" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E700" s="54" t="s">
+      <c r="E700" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F700" s="55" t="s">
+      <c r="F700" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G700" s="2"/>
@@ -34212,7 +34224,7 @@
       <c r="A701" s="34">
         <v>698.0</v>
       </c>
-      <c r="B701" s="53" t="s">
+      <c r="B701" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C701" s="49">
@@ -34221,10 +34233,10 @@
       <c r="D701" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E701" s="54" t="s">
+      <c r="E701" s="53" t="s">
         <v>564</v>
       </c>
-      <c r="F701" s="55" t="s">
+      <c r="F701" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G701" s="2"/>
@@ -34254,7 +34266,7 @@
       <c r="A702" s="34">
         <v>699.0</v>
       </c>
-      <c r="B702" s="53" t="s">
+      <c r="B702" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C702" s="49">
@@ -34263,10 +34275,10 @@
       <c r="D702" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E702" s="54" t="s">
+      <c r="E702" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F702" s="55" t="s">
+      <c r="F702" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G702" s="2"/>
@@ -34296,7 +34308,7 @@
       <c r="A703" s="34">
         <v>700.0</v>
       </c>
-      <c r="B703" s="53" t="s">
+      <c r="B703" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C703" s="49">
@@ -34305,10 +34317,10 @@
       <c r="D703" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E703" s="54" t="s">
+      <c r="E703" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F703" s="55" t="s">
+      <c r="F703" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G703" s="2"/>
@@ -34338,7 +34350,7 @@
       <c r="A704" s="34">
         <v>701.0</v>
       </c>
-      <c r="B704" s="53" t="s">
+      <c r="B704" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C704" s="49">
@@ -34347,10 +34359,10 @@
       <c r="D704" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E704" s="54" t="s">
+      <c r="E704" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F704" s="55" t="s">
+      <c r="F704" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G704" s="2"/>
@@ -34380,7 +34392,7 @@
       <c r="A705" s="34">
         <v>702.0</v>
       </c>
-      <c r="B705" s="53" t="s">
+      <c r="B705" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C705" s="49">
@@ -34389,10 +34401,10 @@
       <c r="D705" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E705" s="54" t="s">
+      <c r="E705" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F705" s="55" t="s">
+      <c r="F705" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G705" s="2"/>
@@ -34422,7 +34434,7 @@
       <c r="A706" s="34">
         <v>703.0</v>
       </c>
-      <c r="B706" s="53" t="s">
+      <c r="B706" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C706" s="49">
@@ -34431,10 +34443,10 @@
       <c r="D706" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E706" s="54" t="s">
+      <c r="E706" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F706" s="55" t="s">
+      <c r="F706" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G706" s="2"/>
@@ -34464,7 +34476,7 @@
       <c r="A707" s="34">
         <v>704.0</v>
       </c>
-      <c r="B707" s="53" t="s">
+      <c r="B707" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C707" s="49">
@@ -34473,10 +34485,10 @@
       <c r="D707" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E707" s="54" t="s">
+      <c r="E707" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="F707" s="55" t="s">
+      <c r="F707" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G707" s="2"/>
@@ -34506,7 +34518,7 @@
       <c r="A708" s="34">
         <v>705.0</v>
       </c>
-      <c r="B708" s="53" t="s">
+      <c r="B708" s="55" t="s">
         <v>561</v>
       </c>
       <c r="C708" s="49">
@@ -34515,10 +34527,10 @@
       <c r="D708" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E708" s="54" t="s">
+      <c r="E708" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F708" s="55" t="s">
+      <c r="F708" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G708" s="2"/>
@@ -34548,7 +34560,7 @@
       <c r="A709" s="34">
         <v>706.0</v>
       </c>
-      <c r="B709" s="53" t="s">
+      <c r="B709" s="55" t="s">
         <v>561</v>
       </c>
       <c r="C709" s="49">
@@ -34558,7 +34570,7 @@
         <v>44040.0</v>
       </c>
       <c r="E709" s="8"/>
-      <c r="F709" s="55" t="s">
+      <c r="F709" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G709" s="2"/>
@@ -34588,7 +34600,7 @@
       <c r="A710" s="34">
         <v>707.0</v>
       </c>
-      <c r="B710" s="53" t="s">
+      <c r="B710" s="55" t="s">
         <v>561</v>
       </c>
       <c r="C710" s="49">
@@ -34597,10 +34609,10 @@
       <c r="D710" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E710" s="54" t="s">
+      <c r="E710" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F710" s="55" t="s">
+      <c r="F710" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G710" s="2"/>
@@ -34630,7 +34642,7 @@
       <c r="A711" s="34">
         <v>708.0</v>
       </c>
-      <c r="B711" s="53" t="s">
+      <c r="B711" s="55" t="s">
         <v>561</v>
       </c>
       <c r="C711" s="49">
@@ -34639,10 +34651,10 @@
       <c r="D711" s="50">
         <v>44040.0</v>
       </c>
-      <c r="E711" s="54" t="s">
+      <c r="E711" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F711" s="55" t="s">
+      <c r="F711" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G711" s="2"/>
@@ -34669,17 +34681,31 @@
       <c r="Z711" s="8"/>
     </row>
     <row r="712" ht="18.0" customHeight="1">
-      <c r="A712" s="2"/>
-      <c r="B712" s="8"/>
-      <c r="C712" s="2"/>
-      <c r="D712" s="2"/>
-      <c r="E712" s="8"/>
-      <c r="F712" s="13"/>
+      <c r="A712" s="34">
+        <v>709.0</v>
+      </c>
+      <c r="B712" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C712" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D712" s="50">
+        <v>44041.0</v>
+      </c>
+      <c r="E712" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F712" s="57" t="s">
+        <v>53</v>
+      </c>
       <c r="G712" s="2"/>
       <c r="H712" s="13"/>
       <c r="I712" s="13"/>
       <c r="J712" s="14"/>
-      <c r="K712" s="8"/>
+      <c r="K712" s="31" t="s">
+        <v>566</v>
+      </c>
       <c r="L712" s="8"/>
       <c r="M712" s="8"/>
       <c r="N712" s="8"/>
@@ -34697,17 +34723,31 @@
       <c r="Z712" s="8"/>
     </row>
     <row r="713" ht="18.0" customHeight="1">
-      <c r="A713" s="2"/>
-      <c r="B713" s="8"/>
-      <c r="C713" s="2"/>
-      <c r="D713" s="2"/>
-      <c r="E713" s="8"/>
-      <c r="F713" s="13"/>
+      <c r="A713" s="34">
+        <v>710.0</v>
+      </c>
+      <c r="B713" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C713" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D713" s="50">
+        <v>44041.0</v>
+      </c>
+      <c r="E713" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F713" s="57" t="s">
+        <v>363</v>
+      </c>
       <c r="G713" s="2"/>
       <c r="H713" s="13"/>
       <c r="I713" s="13"/>
       <c r="J713" s="14"/>
-      <c r="K713" s="8"/>
+      <c r="K713" s="31" t="s">
+        <v>566</v>
+      </c>
       <c r="L713" s="8"/>
       <c r="M713" s="8"/>
       <c r="N713" s="8"/>
@@ -34725,17 +34765,31 @@
       <c r="Z713" s="8"/>
     </row>
     <row r="714" ht="18.0" customHeight="1">
-      <c r="A714" s="2"/>
-      <c r="B714" s="8"/>
-      <c r="C714" s="2"/>
-      <c r="D714" s="2"/>
-      <c r="E714" s="8"/>
-      <c r="F714" s="13"/>
+      <c r="A714" s="34">
+        <v>711.0</v>
+      </c>
+      <c r="B714" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C714" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D714" s="50">
+        <v>44041.0</v>
+      </c>
+      <c r="E714" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="F714" s="57" t="s">
+        <v>363</v>
+      </c>
       <c r="G714" s="2"/>
       <c r="H714" s="13"/>
       <c r="I714" s="13"/>
       <c r="J714" s="14"/>
-      <c r="K714" s="8"/>
+      <c r="K714" s="31" t="s">
+        <v>566</v>
+      </c>
       <c r="L714" s="8"/>
       <c r="M714" s="8"/>
       <c r="N714" s="8"/>
@@ -34753,17 +34807,31 @@
       <c r="Z714" s="8"/>
     </row>
     <row r="715" ht="18.0" customHeight="1">
-      <c r="A715" s="2"/>
-      <c r="B715" s="8"/>
-      <c r="C715" s="2"/>
-      <c r="D715" s="2"/>
-      <c r="E715" s="8"/>
-      <c r="F715" s="13"/>
+      <c r="A715" s="34">
+        <v>712.0</v>
+      </c>
+      <c r="B715" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C715" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D715" s="50">
+        <v>44041.0</v>
+      </c>
+      <c r="E715" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F715" s="57" t="s">
+        <v>363</v>
+      </c>
       <c r="G715" s="2"/>
       <c r="H715" s="13"/>
       <c r="I715" s="13"/>
       <c r="J715" s="14"/>
-      <c r="K715" s="8"/>
+      <c r="K715" s="31" t="s">
+        <v>566</v>
+      </c>
       <c r="L715" s="8"/>
       <c r="M715" s="8"/>
       <c r="N715" s="8"/>
@@ -34781,17 +34849,31 @@
       <c r="Z715" s="8"/>
     </row>
     <row r="716" ht="18.0" customHeight="1">
-      <c r="A716" s="2"/>
-      <c r="B716" s="8"/>
-      <c r="C716" s="2"/>
-      <c r="D716" s="2"/>
-      <c r="E716" s="8"/>
-      <c r="F716" s="13"/>
+      <c r="A716" s="34">
+        <v>713.0</v>
+      </c>
+      <c r="B716" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C716" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D716" s="50">
+        <v>44041.0</v>
+      </c>
+      <c r="E716" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F716" s="57" t="s">
+        <v>363</v>
+      </c>
       <c r="G716" s="2"/>
       <c r="H716" s="13"/>
       <c r="I716" s="13"/>
       <c r="J716" s="14"/>
-      <c r="K716" s="8"/>
+      <c r="K716" s="31" t="s">
+        <v>566</v>
+      </c>
       <c r="L716" s="8"/>
       <c r="M716" s="8"/>
       <c r="N716" s="8"/>
@@ -34809,17 +34891,31 @@
       <c r="Z716" s="8"/>
     </row>
     <row r="717" ht="18.0" customHeight="1">
-      <c r="A717" s="2"/>
-      <c r="B717" s="8"/>
-      <c r="C717" s="2"/>
-      <c r="D717" s="2"/>
-      <c r="E717" s="8"/>
-      <c r="F717" s="13"/>
+      <c r="A717" s="34">
+        <v>714.0</v>
+      </c>
+      <c r="B717" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C717" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D717" s="50">
+        <v>44041.0</v>
+      </c>
+      <c r="E717" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F717" s="57" t="s">
+        <v>363</v>
+      </c>
       <c r="G717" s="2"/>
       <c r="H717" s="13"/>
       <c r="I717" s="13"/>
       <c r="J717" s="14"/>
-      <c r="K717" s="8"/>
+      <c r="K717" s="31" t="s">
+        <v>566</v>
+      </c>
       <c r="L717" s="8"/>
       <c r="M717" s="8"/>
       <c r="N717" s="8"/>
@@ -34837,17 +34933,31 @@
       <c r="Z717" s="8"/>
     </row>
     <row r="718" ht="18.0" customHeight="1">
-      <c r="A718" s="2"/>
-      <c r="B718" s="8"/>
-      <c r="C718" s="2"/>
-      <c r="D718" s="2"/>
-      <c r="E718" s="8"/>
-      <c r="F718" s="13"/>
+      <c r="A718" s="34">
+        <v>715.0</v>
+      </c>
+      <c r="B718" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C718" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D718" s="50">
+        <v>44041.0</v>
+      </c>
+      <c r="E718" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="F718" s="57" t="s">
+        <v>363</v>
+      </c>
       <c r="G718" s="2"/>
       <c r="H718" s="13"/>
       <c r="I718" s="13"/>
       <c r="J718" s="14"/>
-      <c r="K718" s="8"/>
+      <c r="K718" s="31" t="s">
+        <v>566</v>
+      </c>
       <c r="L718" s="8"/>
       <c r="M718" s="8"/>
       <c r="N718" s="8"/>
@@ -34865,17 +34975,31 @@
       <c r="Z718" s="8"/>
     </row>
     <row r="719" ht="18.0" customHeight="1">
-      <c r="A719" s="2"/>
-      <c r="B719" s="8"/>
-      <c r="C719" s="2"/>
-      <c r="D719" s="2"/>
-      <c r="E719" s="8"/>
-      <c r="F719" s="13"/>
+      <c r="A719" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="B719" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C719" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D719" s="50">
+        <v>44041.0</v>
+      </c>
+      <c r="E719" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F719" s="57" t="s">
+        <v>557</v>
+      </c>
       <c r="G719" s="2"/>
       <c r="H719" s="13"/>
       <c r="I719" s="13"/>
       <c r="J719" s="14"/>
-      <c r="K719" s="8"/>
+      <c r="K719" s="31" t="s">
+        <v>567</v>
+      </c>
       <c r="L719" s="8"/>
       <c r="M719" s="8"/>
       <c r="N719" s="8"/>
@@ -34893,10 +35017,18 @@
       <c r="Z719" s="8"/>
     </row>
     <row r="720" ht="18.0" customHeight="1">
-      <c r="A720" s="2"/>
-      <c r="B720" s="8"/>
-      <c r="C720" s="2"/>
-      <c r="D720" s="2"/>
+      <c r="A720" s="34">
+        <v>716.0</v>
+      </c>
+      <c r="B720" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C720" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D720" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E720" s="8"/>
       <c r="F720" s="13"/>
       <c r="G720" s="2"/>
@@ -34921,10 +35053,18 @@
       <c r="Z720" s="8"/>
     </row>
     <row r="721" ht="18.0" customHeight="1">
-      <c r="A721" s="2"/>
-      <c r="B721" s="8"/>
-      <c r="C721" s="2"/>
-      <c r="D721" s="2"/>
+      <c r="A721" s="34">
+        <v>717.0</v>
+      </c>
+      <c r="B721" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C721" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D721" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E721" s="8"/>
       <c r="F721" s="13"/>
       <c r="G721" s="2"/>
@@ -34949,10 +35089,18 @@
       <c r="Z721" s="8"/>
     </row>
     <row r="722" ht="18.0" customHeight="1">
-      <c r="A722" s="2"/>
-      <c r="B722" s="8"/>
-      <c r="C722" s="2"/>
-      <c r="D722" s="2"/>
+      <c r="A722" s="34">
+        <v>718.0</v>
+      </c>
+      <c r="B722" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C722" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D722" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E722" s="8"/>
       <c r="F722" s="13"/>
       <c r="G722" s="2"/>
@@ -34977,10 +35125,18 @@
       <c r="Z722" s="8"/>
     </row>
     <row r="723" ht="18.0" customHeight="1">
-      <c r="A723" s="2"/>
-      <c r="B723" s="8"/>
-      <c r="C723" s="2"/>
-      <c r="D723" s="2"/>
+      <c r="A723" s="34">
+        <v>719.0</v>
+      </c>
+      <c r="B723" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C723" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D723" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E723" s="8"/>
       <c r="F723" s="13"/>
       <c r="G723" s="2"/>
@@ -35005,10 +35161,18 @@
       <c r="Z723" s="8"/>
     </row>
     <row r="724" ht="18.0" customHeight="1">
-      <c r="A724" s="2"/>
-      <c r="B724" s="8"/>
-      <c r="C724" s="2"/>
-      <c r="D724" s="2"/>
+      <c r="A724" s="34">
+        <v>720.0</v>
+      </c>
+      <c r="B724" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C724" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D724" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E724" s="8"/>
       <c r="F724" s="13"/>
       <c r="G724" s="2"/>
@@ -35033,10 +35197,18 @@
       <c r="Z724" s="8"/>
     </row>
     <row r="725" ht="18.0" customHeight="1">
-      <c r="A725" s="2"/>
-      <c r="B725" s="8"/>
-      <c r="C725" s="2"/>
-      <c r="D725" s="2"/>
+      <c r="A725" s="34">
+        <v>721.0</v>
+      </c>
+      <c r="B725" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C725" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D725" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E725" s="8"/>
       <c r="F725" s="13"/>
       <c r="G725" s="2"/>
@@ -35061,10 +35233,18 @@
       <c r="Z725" s="8"/>
     </row>
     <row r="726" ht="18.0" customHeight="1">
-      <c r="A726" s="2"/>
-      <c r="B726" s="8"/>
-      <c r="C726" s="2"/>
-      <c r="D726" s="2"/>
+      <c r="A726" s="34">
+        <v>722.0</v>
+      </c>
+      <c r="B726" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C726" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D726" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E726" s="8"/>
       <c r="F726" s="13"/>
       <c r="G726" s="2"/>
@@ -35089,10 +35269,18 @@
       <c r="Z726" s="8"/>
     </row>
     <row r="727" ht="18.0" customHeight="1">
-      <c r="A727" s="2"/>
-      <c r="B727" s="8"/>
-      <c r="C727" s="2"/>
-      <c r="D727" s="2"/>
+      <c r="A727" s="34">
+        <v>723.0</v>
+      </c>
+      <c r="B727" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C727" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D727" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E727" s="8"/>
       <c r="F727" s="13"/>
       <c r="G727" s="2"/>
@@ -35117,10 +35305,18 @@
       <c r="Z727" s="8"/>
     </row>
     <row r="728" ht="18.0" customHeight="1">
-      <c r="A728" s="2"/>
-      <c r="B728" s="8"/>
-      <c r="C728" s="2"/>
-      <c r="D728" s="2"/>
+      <c r="A728" s="34">
+        <v>724.0</v>
+      </c>
+      <c r="B728" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C728" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D728" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E728" s="8"/>
       <c r="F728" s="13"/>
       <c r="G728" s="2"/>
@@ -35145,10 +35341,18 @@
       <c r="Z728" s="8"/>
     </row>
     <row r="729" ht="18.0" customHeight="1">
-      <c r="A729" s="2"/>
-      <c r="B729" s="8"/>
-      <c r="C729" s="2"/>
-      <c r="D729" s="2"/>
+      <c r="A729" s="34">
+        <v>725.0</v>
+      </c>
+      <c r="B729" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C729" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D729" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E729" s="8"/>
       <c r="F729" s="13"/>
       <c r="G729" s="2"/>
@@ -35173,10 +35377,18 @@
       <c r="Z729" s="8"/>
     </row>
     <row r="730" ht="18.0" customHeight="1">
-      <c r="A730" s="2"/>
-      <c r="B730" s="8"/>
-      <c r="C730" s="2"/>
-      <c r="D730" s="2"/>
+      <c r="A730" s="34">
+        <v>726.0</v>
+      </c>
+      <c r="B730" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C730" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D730" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E730" s="8"/>
       <c r="F730" s="13"/>
       <c r="G730" s="2"/>
@@ -35201,10 +35413,18 @@
       <c r="Z730" s="8"/>
     </row>
     <row r="731" ht="18.0" customHeight="1">
-      <c r="A731" s="2"/>
-      <c r="B731" s="8"/>
-      <c r="C731" s="2"/>
-      <c r="D731" s="2"/>
+      <c r="A731" s="34">
+        <v>727.0</v>
+      </c>
+      <c r="B731" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C731" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D731" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E731" s="8"/>
       <c r="F731" s="13"/>
       <c r="G731" s="2"/>
@@ -35229,10 +35449,18 @@
       <c r="Z731" s="8"/>
     </row>
     <row r="732" ht="18.0" customHeight="1">
-      <c r="A732" s="2"/>
-      <c r="B732" s="8"/>
-      <c r="C732" s="2"/>
-      <c r="D732" s="2"/>
+      <c r="A732" s="34">
+        <v>728.0</v>
+      </c>
+      <c r="B732" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C732" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D732" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E732" s="8"/>
       <c r="F732" s="13"/>
       <c r="G732" s="2"/>
@@ -35257,10 +35485,18 @@
       <c r="Z732" s="8"/>
     </row>
     <row r="733" ht="18.0" customHeight="1">
-      <c r="A733" s="2"/>
-      <c r="B733" s="8"/>
-      <c r="C733" s="2"/>
-      <c r="D733" s="2"/>
+      <c r="A733" s="34">
+        <v>729.0</v>
+      </c>
+      <c r="B733" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C733" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D733" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E733" s="8"/>
       <c r="F733" s="13"/>
       <c r="G733" s="2"/>
@@ -35285,10 +35521,18 @@
       <c r="Z733" s="8"/>
     </row>
     <row r="734" ht="18.0" customHeight="1">
-      <c r="A734" s="2"/>
-      <c r="B734" s="8"/>
-      <c r="C734" s="2"/>
-      <c r="D734" s="2"/>
+      <c r="A734" s="34">
+        <v>730.0</v>
+      </c>
+      <c r="B734" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C734" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D734" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E734" s="8"/>
       <c r="F734" s="13"/>
       <c r="G734" s="2"/>
@@ -35313,10 +35557,18 @@
       <c r="Z734" s="8"/>
     </row>
     <row r="735" ht="18.0" customHeight="1">
-      <c r="A735" s="2"/>
-      <c r="B735" s="8"/>
-      <c r="C735" s="2"/>
-      <c r="D735" s="2"/>
+      <c r="A735" s="34">
+        <v>731.0</v>
+      </c>
+      <c r="B735" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C735" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D735" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E735" s="8"/>
       <c r="F735" s="13"/>
       <c r="G735" s="2"/>
@@ -35341,10 +35593,18 @@
       <c r="Z735" s="8"/>
     </row>
     <row r="736" ht="18.0" customHeight="1">
-      <c r="A736" s="2"/>
-      <c r="B736" s="8"/>
-      <c r="C736" s="2"/>
-      <c r="D736" s="2"/>
+      <c r="A736" s="34">
+        <v>732.0</v>
+      </c>
+      <c r="B736" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C736" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D736" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E736" s="8"/>
       <c r="F736" s="13"/>
       <c r="G736" s="2"/>
@@ -35369,10 +35629,18 @@
       <c r="Z736" s="8"/>
     </row>
     <row r="737" ht="18.0" customHeight="1">
-      <c r="A737" s="2"/>
-      <c r="B737" s="8"/>
-      <c r="C737" s="2"/>
-      <c r="D737" s="2"/>
+      <c r="A737" s="34">
+        <v>733.0</v>
+      </c>
+      <c r="B737" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C737" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D737" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E737" s="8"/>
       <c r="F737" s="13"/>
       <c r="G737" s="2"/>
@@ -35397,10 +35665,18 @@
       <c r="Z737" s="8"/>
     </row>
     <row r="738" ht="18.0" customHeight="1">
-      <c r="A738" s="2"/>
-      <c r="B738" s="8"/>
-      <c r="C738" s="2"/>
-      <c r="D738" s="2"/>
+      <c r="A738" s="34">
+        <v>734.0</v>
+      </c>
+      <c r="B738" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C738" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D738" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E738" s="8"/>
       <c r="F738" s="13"/>
       <c r="G738" s="2"/>
@@ -35425,10 +35701,18 @@
       <c r="Z738" s="8"/>
     </row>
     <row r="739" ht="18.0" customHeight="1">
-      <c r="A739" s="2"/>
-      <c r="B739" s="8"/>
-      <c r="C739" s="2"/>
-      <c r="D739" s="2"/>
+      <c r="A739" s="34">
+        <v>735.0</v>
+      </c>
+      <c r="B739" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C739" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D739" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E739" s="8"/>
       <c r="F739" s="13"/>
       <c r="G739" s="2"/>
@@ -35453,10 +35737,18 @@
       <c r="Z739" s="8"/>
     </row>
     <row r="740" ht="18.0" customHeight="1">
-      <c r="A740" s="2"/>
-      <c r="B740" s="8"/>
-      <c r="C740" s="2"/>
-      <c r="D740" s="2"/>
+      <c r="A740" s="34">
+        <v>736.0</v>
+      </c>
+      <c r="B740" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C740" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D740" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E740" s="8"/>
       <c r="F740" s="13"/>
       <c r="G740" s="2"/>
@@ -35481,10 +35773,18 @@
       <c r="Z740" s="8"/>
     </row>
     <row r="741" ht="18.0" customHeight="1">
-      <c r="A741" s="2"/>
-      <c r="B741" s="8"/>
-      <c r="C741" s="2"/>
-      <c r="D741" s="2"/>
+      <c r="A741" s="34">
+        <v>737.0</v>
+      </c>
+      <c r="B741" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C741" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D741" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E741" s="8"/>
       <c r="F741" s="13"/>
       <c r="G741" s="2"/>
@@ -35509,10 +35809,18 @@
       <c r="Z741" s="8"/>
     </row>
     <row r="742" ht="18.0" customHeight="1">
-      <c r="A742" s="2"/>
-      <c r="B742" s="8"/>
-      <c r="C742" s="2"/>
-      <c r="D742" s="2"/>
+      <c r="A742" s="34">
+        <v>738.0</v>
+      </c>
+      <c r="B742" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C742" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D742" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E742" s="8"/>
       <c r="F742" s="13"/>
       <c r="G742" s="2"/>
@@ -35537,10 +35845,18 @@
       <c r="Z742" s="8"/>
     </row>
     <row r="743" ht="18.0" customHeight="1">
-      <c r="A743" s="2"/>
-      <c r="B743" s="8"/>
-      <c r="C743" s="2"/>
-      <c r="D743" s="2"/>
+      <c r="A743" s="34">
+        <v>739.0</v>
+      </c>
+      <c r="B743" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C743" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D743" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E743" s="8"/>
       <c r="F743" s="13"/>
       <c r="G743" s="2"/>
@@ -35565,10 +35881,18 @@
       <c r="Z743" s="8"/>
     </row>
     <row r="744" ht="18.0" customHeight="1">
-      <c r="A744" s="2"/>
-      <c r="B744" s="8"/>
-      <c r="C744" s="2"/>
-      <c r="D744" s="2"/>
+      <c r="A744" s="34">
+        <v>740.0</v>
+      </c>
+      <c r="B744" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C744" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D744" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E744" s="8"/>
       <c r="F744" s="13"/>
       <c r="G744" s="2"/>
@@ -35593,10 +35917,18 @@
       <c r="Z744" s="8"/>
     </row>
     <row r="745" ht="18.0" customHeight="1">
-      <c r="A745" s="2"/>
-      <c r="B745" s="8"/>
-      <c r="C745" s="2"/>
-      <c r="D745" s="2"/>
+      <c r="A745" s="34">
+        <v>741.0</v>
+      </c>
+      <c r="B745" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C745" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D745" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E745" s="8"/>
       <c r="F745" s="13"/>
       <c r="G745" s="2"/>
@@ -35621,10 +35953,18 @@
       <c r="Z745" s="8"/>
     </row>
     <row r="746" ht="18.0" customHeight="1">
-      <c r="A746" s="2"/>
-      <c r="B746" s="8"/>
-      <c r="C746" s="2"/>
-      <c r="D746" s="2"/>
+      <c r="A746" s="34">
+        <v>742.0</v>
+      </c>
+      <c r="B746" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C746" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D746" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E746" s="8"/>
       <c r="F746" s="13"/>
       <c r="G746" s="2"/>
@@ -35649,10 +35989,18 @@
       <c r="Z746" s="8"/>
     </row>
     <row r="747" ht="18.0" customHeight="1">
-      <c r="A747" s="2"/>
-      <c r="B747" s="8"/>
-      <c r="C747" s="2"/>
-      <c r="D747" s="2"/>
+      <c r="A747" s="34">
+        <v>743.0</v>
+      </c>
+      <c r="B747" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C747" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D747" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E747" s="8"/>
       <c r="F747" s="13"/>
       <c r="G747" s="2"/>
@@ -35677,10 +36025,18 @@
       <c r="Z747" s="8"/>
     </row>
     <row r="748" ht="18.0" customHeight="1">
-      <c r="A748" s="2"/>
-      <c r="B748" s="8"/>
-      <c r="C748" s="2"/>
-      <c r="D748" s="2"/>
+      <c r="A748" s="34">
+        <v>744.0</v>
+      </c>
+      <c r="B748" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C748" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D748" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E748" s="8"/>
       <c r="F748" s="13"/>
       <c r="G748" s="2"/>
@@ -35705,10 +36061,18 @@
       <c r="Z748" s="8"/>
     </row>
     <row r="749" ht="18.0" customHeight="1">
-      <c r="A749" s="2"/>
-      <c r="B749" s="8"/>
-      <c r="C749" s="2"/>
-      <c r="D749" s="2"/>
+      <c r="A749" s="34">
+        <v>745.0</v>
+      </c>
+      <c r="B749" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C749" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D749" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E749" s="8"/>
       <c r="F749" s="13"/>
       <c r="G749" s="2"/>
@@ -35733,10 +36097,18 @@
       <c r="Z749" s="8"/>
     </row>
     <row r="750" ht="18.0" customHeight="1">
-      <c r="A750" s="2"/>
-      <c r="B750" s="8"/>
-      <c r="C750" s="2"/>
-      <c r="D750" s="2"/>
+      <c r="A750" s="34">
+        <v>746.0</v>
+      </c>
+      <c r="B750" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C750" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D750" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E750" s="8"/>
       <c r="F750" s="13"/>
       <c r="G750" s="2"/>
@@ -35761,10 +36133,18 @@
       <c r="Z750" s="8"/>
     </row>
     <row r="751" ht="18.0" customHeight="1">
-      <c r="A751" s="2"/>
-      <c r="B751" s="8"/>
-      <c r="C751" s="2"/>
-      <c r="D751" s="2"/>
+      <c r="A751" s="34">
+        <v>747.0</v>
+      </c>
+      <c r="B751" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C751" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D751" s="50">
+        <v>44041.0</v>
+      </c>
       <c r="E751" s="8"/>
       <c r="F751" s="13"/>
       <c r="G751" s="2"/>
@@ -35789,7 +36169,7 @@
       <c r="Z751" s="8"/>
     </row>
     <row r="752" ht="18.0" customHeight="1">
-      <c r="A752" s="2"/>
+      <c r="A752" s="34"/>
       <c r="B752" s="8"/>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -35817,7 +36197,7 @@
       <c r="Z752" s="8"/>
     </row>
     <row r="753" ht="18.0" customHeight="1">
-      <c r="A753" s="2"/>
+      <c r="A753" s="34"/>
       <c r="B753" s="8"/>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -35845,7 +36225,7 @@
       <c r="Z753" s="8"/>
     </row>
     <row r="754" ht="18.0" customHeight="1">
-      <c r="A754" s="2"/>
+      <c r="A754" s="34"/>
       <c r="B754" s="8"/>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -35873,7 +36253,7 @@
       <c r="Z754" s="8"/>
     </row>
     <row r="755" ht="18.0" customHeight="1">
-      <c r="A755" s="2"/>
+      <c r="A755" s="34"/>
       <c r="B755" s="8"/>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -42323,7 +42703,7 @@
       <c r="H985" s="13"/>
       <c r="I985" s="13"/>
       <c r="J985" s="14"/>
-      <c r="K985" s="56"/>
+      <c r="K985" s="8"/>
       <c r="L985" s="8"/>
       <c r="M985" s="8"/>
       <c r="N985" s="8"/>
@@ -42340,8 +42720,36 @@
       <c r="Y985" s="8"/>
       <c r="Z985" s="8"/>
     </row>
+    <row r="986" ht="18.0" customHeight="1">
+      <c r="A986" s="2"/>
+      <c r="B986" s="8"/>
+      <c r="C986" s="2"/>
+      <c r="D986" s="2"/>
+      <c r="E986" s="8"/>
+      <c r="F986" s="13"/>
+      <c r="G986" s="2"/>
+      <c r="H986" s="13"/>
+      <c r="I986" s="13"/>
+      <c r="J986" s="14"/>
+      <c r="K986" s="56"/>
+      <c r="L986" s="8"/>
+      <c r="M986" s="8"/>
+      <c r="N986" s="8"/>
+      <c r="O986" s="8"/>
+      <c r="P986" s="8"/>
+      <c r="Q986" s="8"/>
+      <c r="R986" s="8"/>
+      <c r="S986" s="8"/>
+      <c r="T986" s="8"/>
+      <c r="U986" s="8"/>
+      <c r="V986" s="8"/>
+      <c r="W986" s="8"/>
+      <c r="X986" s="8"/>
+      <c r="Y986" s="8"/>
+      <c r="Z986" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$M$985"/>
+  <autoFilter ref="$A$1:$M$986"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K3"/>
     <hyperlink r:id="rId2" ref="K4"/>
@@ -42878,10 +43286,18 @@
     <hyperlink r:id="rId533" ref="K709"/>
     <hyperlink r:id="rId534" ref="K710"/>
     <hyperlink r:id="rId535" ref="K711"/>
+    <hyperlink r:id="rId536" ref="K712"/>
+    <hyperlink r:id="rId537" ref="K713"/>
+    <hyperlink r:id="rId538" ref="K714"/>
+    <hyperlink r:id="rId539" ref="K715"/>
+    <hyperlink r:id="rId540" ref="K716"/>
+    <hyperlink r:id="rId541" ref="K717"/>
+    <hyperlink r:id="rId542" ref="K718"/>
+    <hyperlink r:id="rId543" ref="K719"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId536"/>
+  <drawing r:id="rId544"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3616" uniqueCount="568">
-  <si>
-    <t>2020-07-29T20:30:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="570">
+  <si>
+    <t>2020-07-29T23:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2098,6 +2098,12 @@
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200729-.pdf</t>
   </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273189/200729oshirase(494-527).pdf</t>
+  </si>
+  <si>
+    <t>ｰ代女性</t>
+  </si>
 </sst>
 </file>
 
@@ -2108,7 +2114,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -2244,6 +2250,10 @@
       <sz val="11.0"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF333333"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2271,7 +2281,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2445,6 +2455,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -35029,13 +35042,19 @@
       <c r="D720" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E720" s="8"/>
-      <c r="F720" s="13"/>
+      <c r="E720" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F720" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G720" s="2"/>
       <c r="H720" s="13"/>
       <c r="I720" s="13"/>
       <c r="J720" s="14"/>
-      <c r="K720" s="8"/>
+      <c r="K720" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L720" s="8"/>
       <c r="M720" s="8"/>
       <c r="N720" s="8"/>
@@ -35065,13 +35084,19 @@
       <c r="D721" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E721" s="8"/>
-      <c r="F721" s="13"/>
+      <c r="E721" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F721" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G721" s="2"/>
       <c r="H721" s="13"/>
       <c r="I721" s="13"/>
       <c r="J721" s="14"/>
-      <c r="K721" s="8"/>
+      <c r="K721" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L721" s="8"/>
       <c r="M721" s="8"/>
       <c r="N721" s="8"/>
@@ -35101,13 +35126,19 @@
       <c r="D722" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E722" s="8"/>
-      <c r="F722" s="13"/>
+      <c r="E722" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F722" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G722" s="2"/>
       <c r="H722" s="13"/>
       <c r="I722" s="13"/>
       <c r="J722" s="14"/>
-      <c r="K722" s="8"/>
+      <c r="K722" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L722" s="8"/>
       <c r="M722" s="8"/>
       <c r="N722" s="8"/>
@@ -35137,13 +35168,19 @@
       <c r="D723" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E723" s="8"/>
-      <c r="F723" s="13"/>
+      <c r="E723" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F723" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G723" s="2"/>
       <c r="H723" s="13"/>
       <c r="I723" s="13"/>
       <c r="J723" s="14"/>
-      <c r="K723" s="8"/>
+      <c r="K723" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L723" s="8"/>
       <c r="M723" s="8"/>
       <c r="N723" s="8"/>
@@ -35173,13 +35210,19 @@
       <c r="D724" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E724" s="8"/>
-      <c r="F724" s="13"/>
+      <c r="E724" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F724" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G724" s="2"/>
       <c r="H724" s="13"/>
       <c r="I724" s="13"/>
       <c r="J724" s="14"/>
-      <c r="K724" s="8"/>
+      <c r="K724" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L724" s="8"/>
       <c r="M724" s="8"/>
       <c r="N724" s="8"/>
@@ -35209,13 +35252,19 @@
       <c r="D725" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E725" s="8"/>
-      <c r="F725" s="13"/>
+      <c r="E725" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F725" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G725" s="2"/>
       <c r="H725" s="13"/>
       <c r="I725" s="13"/>
       <c r="J725" s="14"/>
-      <c r="K725" s="8"/>
+      <c r="K725" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L725" s="8"/>
       <c r="M725" s="8"/>
       <c r="N725" s="8"/>
@@ -35245,13 +35294,19 @@
       <c r="D726" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E726" s="8"/>
-      <c r="F726" s="13"/>
+      <c r="E726" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F726" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G726" s="2"/>
       <c r="H726" s="13"/>
       <c r="I726" s="13"/>
       <c r="J726" s="14"/>
-      <c r="K726" s="8"/>
+      <c r="K726" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L726" s="8"/>
       <c r="M726" s="8"/>
       <c r="N726" s="8"/>
@@ -35281,13 +35336,19 @@
       <c r="D727" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E727" s="8"/>
-      <c r="F727" s="13"/>
+      <c r="E727" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F727" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G727" s="2"/>
       <c r="H727" s="13"/>
       <c r="I727" s="13"/>
       <c r="J727" s="14"/>
-      <c r="K727" s="8"/>
+      <c r="K727" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L727" s="8"/>
       <c r="M727" s="8"/>
       <c r="N727" s="8"/>
@@ -35317,13 +35378,19 @@
       <c r="D728" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E728" s="8"/>
-      <c r="F728" s="13"/>
+      <c r="E728" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F728" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G728" s="2"/>
       <c r="H728" s="13"/>
       <c r="I728" s="13"/>
       <c r="J728" s="14"/>
-      <c r="K728" s="8"/>
+      <c r="K728" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L728" s="8"/>
       <c r="M728" s="8"/>
       <c r="N728" s="8"/>
@@ -35353,13 +35420,19 @@
       <c r="D729" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E729" s="8"/>
-      <c r="F729" s="13"/>
+      <c r="E729" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F729" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G729" s="2"/>
       <c r="H729" s="13"/>
       <c r="I729" s="13"/>
       <c r="J729" s="14"/>
-      <c r="K729" s="8"/>
+      <c r="K729" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L729" s="8"/>
       <c r="M729" s="8"/>
       <c r="N729" s="8"/>
@@ -35389,13 +35462,19 @@
       <c r="D730" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E730" s="8"/>
-      <c r="F730" s="13"/>
+      <c r="E730" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F730" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G730" s="2"/>
       <c r="H730" s="13"/>
       <c r="I730" s="13"/>
       <c r="J730" s="14"/>
-      <c r="K730" s="8"/>
+      <c r="K730" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L730" s="8"/>
       <c r="M730" s="8"/>
       <c r="N730" s="8"/>
@@ -35425,13 +35504,19 @@
       <c r="D731" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E731" s="8"/>
-      <c r="F731" s="13"/>
+      <c r="E731" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F731" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G731" s="2"/>
       <c r="H731" s="13"/>
       <c r="I731" s="13"/>
       <c r="J731" s="14"/>
-      <c r="K731" s="8"/>
+      <c r="K731" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L731" s="8"/>
       <c r="M731" s="8"/>
       <c r="N731" s="8"/>
@@ -35461,13 +35546,19 @@
       <c r="D732" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E732" s="8"/>
-      <c r="F732" s="13"/>
+      <c r="E732" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F732" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G732" s="2"/>
       <c r="H732" s="13"/>
       <c r="I732" s="13"/>
       <c r="J732" s="14"/>
-      <c r="K732" s="8"/>
+      <c r="K732" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L732" s="8"/>
       <c r="M732" s="8"/>
       <c r="N732" s="8"/>
@@ -35497,13 +35588,19 @@
       <c r="D733" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E733" s="8"/>
-      <c r="F733" s="13"/>
+      <c r="E733" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="F733" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G733" s="2"/>
       <c r="H733" s="13"/>
       <c r="I733" s="13"/>
       <c r="J733" s="14"/>
-      <c r="K733" s="8"/>
+      <c r="K733" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L733" s="8"/>
       <c r="M733" s="8"/>
       <c r="N733" s="8"/>
@@ -35533,13 +35630,19 @@
       <c r="D734" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E734" s="8"/>
-      <c r="F734" s="13"/>
+      <c r="E734" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="F734" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G734" s="2"/>
       <c r="H734" s="13"/>
       <c r="I734" s="13"/>
       <c r="J734" s="14"/>
-      <c r="K734" s="8"/>
+      <c r="K734" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L734" s="8"/>
       <c r="M734" s="8"/>
       <c r="N734" s="8"/>
@@ -35569,13 +35672,19 @@
       <c r="D735" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E735" s="8"/>
-      <c r="F735" s="13"/>
+      <c r="E735" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="F735" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G735" s="2"/>
       <c r="H735" s="13"/>
       <c r="I735" s="13"/>
       <c r="J735" s="14"/>
-      <c r="K735" s="8"/>
+      <c r="K735" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L735" s="8"/>
       <c r="M735" s="8"/>
       <c r="N735" s="8"/>
@@ -35605,13 +35714,19 @@
       <c r="D736" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E736" s="8"/>
-      <c r="F736" s="13"/>
+      <c r="E736" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F736" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G736" s="2"/>
       <c r="H736" s="13"/>
       <c r="I736" s="13"/>
       <c r="J736" s="14"/>
-      <c r="K736" s="8"/>
+      <c r="K736" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L736" s="8"/>
       <c r="M736" s="8"/>
       <c r="N736" s="8"/>
@@ -35641,13 +35756,19 @@
       <c r="D737" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E737" s="8"/>
-      <c r="F737" s="13"/>
+      <c r="E737" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F737" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G737" s="2"/>
       <c r="H737" s="13"/>
       <c r="I737" s="13"/>
       <c r="J737" s="14"/>
-      <c r="K737" s="8"/>
+      <c r="K737" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L737" s="8"/>
       <c r="M737" s="8"/>
       <c r="N737" s="8"/>
@@ -35677,13 +35798,19 @@
       <c r="D738" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E738" s="8"/>
-      <c r="F738" s="13"/>
+      <c r="E738" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F738" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G738" s="2"/>
       <c r="H738" s="13"/>
       <c r="I738" s="13"/>
       <c r="J738" s="14"/>
-      <c r="K738" s="8"/>
+      <c r="K738" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L738" s="8"/>
       <c r="M738" s="8"/>
       <c r="N738" s="8"/>
@@ -35713,13 +35840,19 @@
       <c r="D739" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E739" s="8"/>
-      <c r="F739" s="13"/>
+      <c r="E739" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F739" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G739" s="2"/>
       <c r="H739" s="13"/>
       <c r="I739" s="13"/>
       <c r="J739" s="14"/>
-      <c r="K739" s="8"/>
+      <c r="K739" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L739" s="8"/>
       <c r="M739" s="8"/>
       <c r="N739" s="8"/>
@@ -35749,13 +35882,19 @@
       <c r="D740" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E740" s="8"/>
-      <c r="F740" s="13"/>
+      <c r="E740" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F740" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G740" s="2"/>
       <c r="H740" s="13"/>
       <c r="I740" s="13"/>
       <c r="J740" s="14"/>
-      <c r="K740" s="8"/>
+      <c r="K740" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L740" s="8"/>
       <c r="M740" s="8"/>
       <c r="N740" s="8"/>
@@ -35785,13 +35924,19 @@
       <c r="D741" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E741" s="8"/>
-      <c r="F741" s="13"/>
+      <c r="E741" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F741" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G741" s="2"/>
       <c r="H741" s="13"/>
       <c r="I741" s="13"/>
       <c r="J741" s="14"/>
-      <c r="K741" s="8"/>
+      <c r="K741" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L741" s="8"/>
       <c r="M741" s="8"/>
       <c r="N741" s="8"/>
@@ -35821,13 +35966,19 @@
       <c r="D742" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E742" s="8"/>
-      <c r="F742" s="13"/>
+      <c r="E742" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F742" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G742" s="2"/>
       <c r="H742" s="13"/>
       <c r="I742" s="13"/>
       <c r="J742" s="14"/>
-      <c r="K742" s="8"/>
+      <c r="K742" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L742" s="8"/>
       <c r="M742" s="8"/>
       <c r="N742" s="8"/>
@@ -35857,13 +36008,19 @@
       <c r="D743" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E743" s="8"/>
-      <c r="F743" s="13"/>
+      <c r="E743" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F743" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G743" s="2"/>
       <c r="H743" s="13"/>
       <c r="I743" s="13"/>
       <c r="J743" s="14"/>
-      <c r="K743" s="8"/>
+      <c r="K743" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L743" s="8"/>
       <c r="M743" s="8"/>
       <c r="N743" s="8"/>
@@ -35893,13 +36050,19 @@
       <c r="D744" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E744" s="8"/>
-      <c r="F744" s="13"/>
+      <c r="E744" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F744" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G744" s="2"/>
       <c r="H744" s="13"/>
       <c r="I744" s="13"/>
       <c r="J744" s="14"/>
-      <c r="K744" s="8"/>
+      <c r="K744" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L744" s="8"/>
       <c r="M744" s="8"/>
       <c r="N744" s="8"/>
@@ -35929,13 +36092,19 @@
       <c r="D745" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E745" s="8"/>
-      <c r="F745" s="13"/>
+      <c r="E745" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F745" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G745" s="2"/>
       <c r="H745" s="13"/>
       <c r="I745" s="13"/>
       <c r="J745" s="14"/>
-      <c r="K745" s="8"/>
+      <c r="K745" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L745" s="8"/>
       <c r="M745" s="8"/>
       <c r="N745" s="8"/>
@@ -35965,13 +36134,19 @@
       <c r="D746" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E746" s="8"/>
-      <c r="F746" s="13"/>
+      <c r="E746" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F746" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G746" s="2"/>
       <c r="H746" s="13"/>
       <c r="I746" s="13"/>
       <c r="J746" s="14"/>
-      <c r="K746" s="8"/>
+      <c r="K746" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L746" s="8"/>
       <c r="M746" s="8"/>
       <c r="N746" s="8"/>
@@ -36001,13 +36176,19 @@
       <c r="D747" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E747" s="8"/>
-      <c r="F747" s="13"/>
+      <c r="E747" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F747" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G747" s="2"/>
       <c r="H747" s="13"/>
       <c r="I747" s="13"/>
       <c r="J747" s="14"/>
-      <c r="K747" s="8"/>
+      <c r="K747" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L747" s="8"/>
       <c r="M747" s="8"/>
       <c r="N747" s="8"/>
@@ -36037,13 +36218,19 @@
       <c r="D748" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E748" s="8"/>
-      <c r="F748" s="13"/>
+      <c r="E748" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="F748" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G748" s="2"/>
       <c r="H748" s="13"/>
       <c r="I748" s="13"/>
       <c r="J748" s="14"/>
-      <c r="K748" s="8"/>
+      <c r="K748" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L748" s="8"/>
       <c r="M748" s="8"/>
       <c r="N748" s="8"/>
@@ -36073,13 +36260,19 @@
       <c r="D749" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E749" s="8"/>
-      <c r="F749" s="13"/>
+      <c r="E749" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F749" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G749" s="2"/>
       <c r="H749" s="13"/>
       <c r="I749" s="13"/>
       <c r="J749" s="14"/>
-      <c r="K749" s="8"/>
+      <c r="K749" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L749" s="8"/>
       <c r="M749" s="8"/>
       <c r="N749" s="8"/>
@@ -36109,13 +36302,19 @@
       <c r="D750" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E750" s="8"/>
-      <c r="F750" s="13"/>
+      <c r="E750" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F750" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G750" s="2"/>
       <c r="H750" s="13"/>
       <c r="I750" s="13"/>
       <c r="J750" s="14"/>
-      <c r="K750" s="8"/>
+      <c r="K750" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L750" s="8"/>
       <c r="M750" s="8"/>
       <c r="N750" s="8"/>
@@ -36145,13 +36344,19 @@
       <c r="D751" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E751" s="8"/>
-      <c r="F751" s="13"/>
+      <c r="E751" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F751" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G751" s="2"/>
       <c r="H751" s="13"/>
       <c r="I751" s="13"/>
       <c r="J751" s="14"/>
-      <c r="K751" s="8"/>
+      <c r="K751" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L751" s="8"/>
       <c r="M751" s="8"/>
       <c r="N751" s="8"/>
@@ -36169,17 +36374,31 @@
       <c r="Z751" s="8"/>
     </row>
     <row r="752" ht="18.0" customHeight="1">
-      <c r="A752" s="34"/>
-      <c r="B752" s="8"/>
-      <c r="C752" s="2"/>
-      <c r="D752" s="2"/>
-      <c r="E752" s="8"/>
-      <c r="F752" s="13"/>
+      <c r="A752" s="34">
+        <v>748.0</v>
+      </c>
+      <c r="B752" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C752" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D752" s="50">
+        <v>44041.0</v>
+      </c>
+      <c r="E752" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F752" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G752" s="2"/>
       <c r="H752" s="13"/>
       <c r="I752" s="13"/>
       <c r="J752" s="14"/>
-      <c r="K752" s="8"/>
+      <c r="K752" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L752" s="8"/>
       <c r="M752" s="8"/>
       <c r="N752" s="8"/>
@@ -36197,17 +36416,31 @@
       <c r="Z752" s="8"/>
     </row>
     <row r="753" ht="18.0" customHeight="1">
-      <c r="A753" s="34"/>
-      <c r="B753" s="8"/>
-      <c r="C753" s="2"/>
-      <c r="D753" s="2"/>
-      <c r="E753" s="8"/>
-      <c r="F753" s="13"/>
+      <c r="A753" s="34">
+        <v>749.0</v>
+      </c>
+      <c r="B753" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C753" s="49">
+        <v>44041.0</v>
+      </c>
+      <c r="D753" s="50">
+        <v>44041.0</v>
+      </c>
+      <c r="E753" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F753" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G753" s="2"/>
       <c r="H753" s="13"/>
       <c r="I753" s="13"/>
       <c r="J753" s="14"/>
-      <c r="K753" s="8"/>
+      <c r="K753" s="31" t="s">
+        <v>568</v>
+      </c>
       <c r="L753" s="8"/>
       <c r="M753" s="8"/>
       <c r="N753" s="8"/>
@@ -43294,10 +43527,44 @@
     <hyperlink r:id="rId541" ref="K717"/>
     <hyperlink r:id="rId542" ref="K718"/>
     <hyperlink r:id="rId543" ref="K719"/>
+    <hyperlink r:id="rId544" ref="K720"/>
+    <hyperlink r:id="rId545" ref="K721"/>
+    <hyperlink r:id="rId546" ref="K722"/>
+    <hyperlink r:id="rId547" ref="K723"/>
+    <hyperlink r:id="rId548" ref="K724"/>
+    <hyperlink r:id="rId549" ref="K725"/>
+    <hyperlink r:id="rId550" ref="K726"/>
+    <hyperlink r:id="rId551" ref="K727"/>
+    <hyperlink r:id="rId552" ref="K728"/>
+    <hyperlink r:id="rId553" ref="K729"/>
+    <hyperlink r:id="rId554" ref="K730"/>
+    <hyperlink r:id="rId555" ref="K731"/>
+    <hyperlink r:id="rId556" ref="K732"/>
+    <hyperlink r:id="rId557" ref="K733"/>
+    <hyperlink r:id="rId558" ref="K734"/>
+    <hyperlink r:id="rId559" ref="K735"/>
+    <hyperlink r:id="rId560" ref="K736"/>
+    <hyperlink r:id="rId561" ref="K737"/>
+    <hyperlink r:id="rId562" ref="K738"/>
+    <hyperlink r:id="rId563" ref="K739"/>
+    <hyperlink r:id="rId564" ref="K740"/>
+    <hyperlink r:id="rId565" ref="K741"/>
+    <hyperlink r:id="rId566" ref="K742"/>
+    <hyperlink r:id="rId567" ref="K743"/>
+    <hyperlink r:id="rId568" ref="K744"/>
+    <hyperlink r:id="rId569" ref="K745"/>
+    <hyperlink r:id="rId570" ref="K746"/>
+    <hyperlink r:id="rId571" ref="K747"/>
+    <hyperlink r:id="rId572" ref="K748"/>
+    <hyperlink r:id="rId573" ref="K749"/>
+    <hyperlink r:id="rId574" ref="K750"/>
+    <hyperlink r:id="rId575" ref="K751"/>
+    <hyperlink r:id="rId576" ref="K752"/>
+    <hyperlink r:id="rId577" ref="K753"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId544"/>
+  <drawing r:id="rId578"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="570">
-  <si>
-    <t>2020-07-29T23:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="573">
+  <si>
+    <t>2020-07-30T23:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2103,6 +2103,15 @@
   </si>
   <si>
     <t>ｰ代女性</t>
+  </si>
+  <si>
+    <t>2020-07-30T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200730-750-752.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273232/200730oshirase(528-533).pdf</t>
   </si>
 </sst>
 </file>
@@ -36458,17 +36467,31 @@
       <c r="Z753" s="8"/>
     </row>
     <row r="754" ht="18.0" customHeight="1">
-      <c r="A754" s="34"/>
-      <c r="B754" s="8"/>
-      <c r="C754" s="2"/>
-      <c r="D754" s="2"/>
-      <c r="E754" s="8"/>
-      <c r="F754" s="13"/>
+      <c r="A754" s="34">
+        <v>750.0</v>
+      </c>
+      <c r="B754" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="C754" s="49">
+        <v>44042.0</v>
+      </c>
+      <c r="D754" s="50">
+        <v>44042.0</v>
+      </c>
+      <c r="E754" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F754" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="G754" s="2"/>
       <c r="H754" s="13"/>
       <c r="I754" s="13"/>
       <c r="J754" s="14"/>
-      <c r="K754" s="8"/>
+      <c r="K754" s="31" t="s">
+        <v>571</v>
+      </c>
       <c r="L754" s="8"/>
       <c r="M754" s="8"/>
       <c r="N754" s="8"/>
@@ -36486,17 +36509,31 @@
       <c r="Z754" s="8"/>
     </row>
     <row r="755" ht="18.0" customHeight="1">
-      <c r="A755" s="34"/>
-      <c r="B755" s="8"/>
-      <c r="C755" s="2"/>
-      <c r="D755" s="2"/>
-      <c r="E755" s="8"/>
-      <c r="F755" s="13"/>
+      <c r="A755" s="34">
+        <v>751.0</v>
+      </c>
+      <c r="B755" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="C755" s="49">
+        <v>44042.0</v>
+      </c>
+      <c r="D755" s="50">
+        <v>44042.0</v>
+      </c>
+      <c r="E755" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F755" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="G755" s="2"/>
       <c r="H755" s="13"/>
       <c r="I755" s="13"/>
       <c r="J755" s="14"/>
-      <c r="K755" s="8"/>
+      <c r="K755" s="31" t="s">
+        <v>571</v>
+      </c>
       <c r="L755" s="8"/>
       <c r="M755" s="8"/>
       <c r="N755" s="8"/>
@@ -36514,17 +36551,31 @@
       <c r="Z755" s="8"/>
     </row>
     <row r="756" ht="18.0" customHeight="1">
-      <c r="A756" s="2"/>
-      <c r="B756" s="8"/>
-      <c r="C756" s="2"/>
-      <c r="D756" s="2"/>
-      <c r="E756" s="8"/>
-      <c r="F756" s="13"/>
+      <c r="A756" s="34">
+        <v>752.0</v>
+      </c>
+      <c r="B756" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="C756" s="49">
+        <v>44042.0</v>
+      </c>
+      <c r="D756" s="50">
+        <v>44042.0</v>
+      </c>
+      <c r="E756" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F756" s="58" t="s">
+        <v>363</v>
+      </c>
       <c r="G756" s="2"/>
       <c r="H756" s="13"/>
       <c r="I756" s="13"/>
       <c r="J756" s="14"/>
-      <c r="K756" s="8"/>
+      <c r="K756" s="31" t="s">
+        <v>571</v>
+      </c>
       <c r="L756" s="8"/>
       <c r="M756" s="8"/>
       <c r="N756" s="8"/>
@@ -36542,17 +36593,31 @@
       <c r="Z756" s="8"/>
     </row>
     <row r="757" ht="18.0" customHeight="1">
-      <c r="A757" s="2"/>
-      <c r="B757" s="8"/>
-      <c r="C757" s="2"/>
-      <c r="D757" s="2"/>
-      <c r="E757" s="8"/>
-      <c r="F757" s="13"/>
+      <c r="A757" s="34">
+        <v>753.0</v>
+      </c>
+      <c r="B757" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="C757" s="49">
+        <v>44042.0</v>
+      </c>
+      <c r="D757" s="50">
+        <v>44042.0</v>
+      </c>
+      <c r="E757" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F757" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G757" s="2"/>
       <c r="H757" s="13"/>
       <c r="I757" s="13"/>
       <c r="J757" s="14"/>
-      <c r="K757" s="8"/>
+      <c r="K757" s="31" t="s">
+        <v>572</v>
+      </c>
       <c r="L757" s="8"/>
       <c r="M757" s="8"/>
       <c r="N757" s="8"/>
@@ -36570,17 +36635,31 @@
       <c r="Z757" s="8"/>
     </row>
     <row r="758" ht="18.0" customHeight="1">
-      <c r="A758" s="2"/>
-      <c r="B758" s="8"/>
-      <c r="C758" s="2"/>
-      <c r="D758" s="2"/>
-      <c r="E758" s="8"/>
-      <c r="F758" s="13"/>
+      <c r="A758" s="34">
+        <v>754.0</v>
+      </c>
+      <c r="B758" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="C758" s="49">
+        <v>44042.0</v>
+      </c>
+      <c r="D758" s="50">
+        <v>44042.0</v>
+      </c>
+      <c r="E758" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F758" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G758" s="2"/>
       <c r="H758" s="13"/>
       <c r="I758" s="13"/>
       <c r="J758" s="14"/>
-      <c r="K758" s="8"/>
+      <c r="K758" s="31" t="s">
+        <v>572</v>
+      </c>
       <c r="L758" s="8"/>
       <c r="M758" s="8"/>
       <c r="N758" s="8"/>
@@ -36598,17 +36677,31 @@
       <c r="Z758" s="8"/>
     </row>
     <row r="759" ht="18.0" customHeight="1">
-      <c r="A759" s="2"/>
-      <c r="B759" s="8"/>
-      <c r="C759" s="2"/>
-      <c r="D759" s="2"/>
-      <c r="E759" s="8"/>
-      <c r="F759" s="13"/>
+      <c r="A759" s="34">
+        <v>755.0</v>
+      </c>
+      <c r="B759" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="C759" s="49">
+        <v>44042.0</v>
+      </c>
+      <c r="D759" s="50">
+        <v>44042.0</v>
+      </c>
+      <c r="E759" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F759" s="58" t="s">
+        <v>518</v>
+      </c>
       <c r="G759" s="2"/>
       <c r="H759" s="13"/>
       <c r="I759" s="13"/>
       <c r="J759" s="14"/>
-      <c r="K759" s="8"/>
+      <c r="K759" s="31" t="s">
+        <v>572</v>
+      </c>
       <c r="L759" s="8"/>
       <c r="M759" s="8"/>
       <c r="N759" s="8"/>
@@ -36626,17 +36719,31 @@
       <c r="Z759" s="8"/>
     </row>
     <row r="760" ht="18.0" customHeight="1">
-      <c r="A760" s="2"/>
-      <c r="B760" s="8"/>
-      <c r="C760" s="2"/>
-      <c r="D760" s="2"/>
-      <c r="E760" s="8"/>
-      <c r="F760" s="13"/>
+      <c r="A760" s="34">
+        <v>756.0</v>
+      </c>
+      <c r="B760" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="C760" s="49">
+        <v>44042.0</v>
+      </c>
+      <c r="D760" s="50">
+        <v>44042.0</v>
+      </c>
+      <c r="E760" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F760" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G760" s="2"/>
       <c r="H760" s="13"/>
       <c r="I760" s="13"/>
       <c r="J760" s="14"/>
-      <c r="K760" s="8"/>
+      <c r="K760" s="31" t="s">
+        <v>572</v>
+      </c>
       <c r="L760" s="8"/>
       <c r="M760" s="8"/>
       <c r="N760" s="8"/>
@@ -36654,17 +36761,31 @@
       <c r="Z760" s="8"/>
     </row>
     <row r="761" ht="18.0" customHeight="1">
-      <c r="A761" s="2"/>
-      <c r="B761" s="8"/>
-      <c r="C761" s="2"/>
-      <c r="D761" s="2"/>
-      <c r="E761" s="8"/>
-      <c r="F761" s="13"/>
+      <c r="A761" s="34">
+        <v>757.0</v>
+      </c>
+      <c r="B761" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="C761" s="49">
+        <v>44042.0</v>
+      </c>
+      <c r="D761" s="50">
+        <v>44042.0</v>
+      </c>
+      <c r="E761" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F761" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G761" s="2"/>
       <c r="H761" s="13"/>
       <c r="I761" s="13"/>
       <c r="J761" s="14"/>
-      <c r="K761" s="8"/>
+      <c r="K761" s="31" t="s">
+        <v>572</v>
+      </c>
       <c r="L761" s="8"/>
       <c r="M761" s="8"/>
       <c r="N761" s="8"/>
@@ -36682,17 +36803,31 @@
       <c r="Z761" s="8"/>
     </row>
     <row r="762" ht="18.0" customHeight="1">
-      <c r="A762" s="2"/>
-      <c r="B762" s="8"/>
-      <c r="C762" s="2"/>
-      <c r="D762" s="2"/>
-      <c r="E762" s="8"/>
-      <c r="F762" s="13"/>
+      <c r="A762" s="34">
+        <v>758.0</v>
+      </c>
+      <c r="B762" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="C762" s="49">
+        <v>44042.0</v>
+      </c>
+      <c r="D762" s="50">
+        <v>44042.0</v>
+      </c>
+      <c r="E762" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F762" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="G762" s="2"/>
       <c r="H762" s="13"/>
       <c r="I762" s="13"/>
       <c r="J762" s="14"/>
-      <c r="K762" s="8"/>
+      <c r="K762" s="31" t="s">
+        <v>572</v>
+      </c>
       <c r="L762" s="8"/>
       <c r="M762" s="8"/>
       <c r="N762" s="8"/>
@@ -36710,7 +36845,7 @@
       <c r="Z762" s="8"/>
     </row>
     <row r="763" ht="18.0" customHeight="1">
-      <c r="A763" s="2"/>
+      <c r="A763" s="34"/>
       <c r="B763" s="8"/>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -36738,7 +36873,7 @@
       <c r="Z763" s="8"/>
     </row>
     <row r="764" ht="18.0" customHeight="1">
-      <c r="A764" s="2"/>
+      <c r="A764" s="34"/>
       <c r="B764" s="8"/>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -43561,10 +43696,19 @@
     <hyperlink r:id="rId575" ref="K751"/>
     <hyperlink r:id="rId576" ref="K752"/>
     <hyperlink r:id="rId577" ref="K753"/>
+    <hyperlink r:id="rId578" ref="K754"/>
+    <hyperlink r:id="rId579" ref="K755"/>
+    <hyperlink r:id="rId580" ref="K756"/>
+    <hyperlink r:id="rId581" ref="K757"/>
+    <hyperlink r:id="rId582" ref="K758"/>
+    <hyperlink r:id="rId583" ref="K759"/>
+    <hyperlink r:id="rId584" ref="K760"/>
+    <hyperlink r:id="rId585" ref="K761"/>
+    <hyperlink r:id="rId586" ref="K762"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId578"/>
+  <drawing r:id="rId587"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="573">
-  <si>
-    <t>2020-07-30T23:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3818" uniqueCount="575">
+  <si>
+    <t>2020-07-31T20:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2113,6 +2113,12 @@
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273232/200730oshirase(528-533).pdf</t>
   </si>
+  <si>
+    <t>2020-07-31T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200731-759-769.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -2123,7 +2129,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -2256,6 +2262,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="14.0"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <name val="Arial"/>
     </font>
@@ -2290,7 +2301,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2456,16 +2467,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -34540,7 +34554,7 @@
       <c r="A708" s="34">
         <v>705.0</v>
       </c>
-      <c r="B708" s="55" t="s">
+      <c r="B708" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C708" s="49">
@@ -34582,7 +34596,7 @@
       <c r="A709" s="34">
         <v>706.0</v>
       </c>
-      <c r="B709" s="55" t="s">
+      <c r="B709" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C709" s="49">
@@ -34622,7 +34636,7 @@
       <c r="A710" s="34">
         <v>707.0</v>
       </c>
-      <c r="B710" s="55" t="s">
+      <c r="B710" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C710" s="49">
@@ -34664,7 +34678,7 @@
       <c r="A711" s="34">
         <v>708.0</v>
       </c>
-      <c r="B711" s="55" t="s">
+      <c r="B711" s="48" t="s">
         <v>561</v>
       </c>
       <c r="C711" s="49">
@@ -34706,7 +34720,7 @@
       <c r="A712" s="34">
         <v>709.0</v>
       </c>
-      <c r="B712" s="55" t="s">
+      <c r="B712" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C712" s="49">
@@ -34715,10 +34729,10 @@
       <c r="D712" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E712" s="56" t="s">
+      <c r="E712" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="F712" s="57" t="s">
+      <c r="F712" s="56" t="s">
         <v>53</v>
       </c>
       <c r="G712" s="2"/>
@@ -34748,7 +34762,7 @@
       <c r="A713" s="34">
         <v>710.0</v>
       </c>
-      <c r="B713" s="55" t="s">
+      <c r="B713" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C713" s="49">
@@ -34757,10 +34771,10 @@
       <c r="D713" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E713" s="56" t="s">
+      <c r="E713" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="F713" s="57" t="s">
+      <c r="F713" s="56" t="s">
         <v>363</v>
       </c>
       <c r="G713" s="2"/>
@@ -34790,7 +34804,7 @@
       <c r="A714" s="34">
         <v>711.0</v>
       </c>
-      <c r="B714" s="55" t="s">
+      <c r="B714" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C714" s="49">
@@ -34799,10 +34813,10 @@
       <c r="D714" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E714" s="56" t="s">
+      <c r="E714" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="F714" s="57" t="s">
+      <c r="F714" s="56" t="s">
         <v>363</v>
       </c>
       <c r="G714" s="2"/>
@@ -34832,7 +34846,7 @@
       <c r="A715" s="34">
         <v>712.0</v>
       </c>
-      <c r="B715" s="55" t="s">
+      <c r="B715" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C715" s="49">
@@ -34841,10 +34855,10 @@
       <c r="D715" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E715" s="56" t="s">
+      <c r="E715" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F715" s="57" t="s">
+      <c r="F715" s="56" t="s">
         <v>363</v>
       </c>
       <c r="G715" s="2"/>
@@ -34874,7 +34888,7 @@
       <c r="A716" s="34">
         <v>713.0</v>
       </c>
-      <c r="B716" s="55" t="s">
+      <c r="B716" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C716" s="49">
@@ -34883,10 +34897,10 @@
       <c r="D716" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E716" s="56" t="s">
+      <c r="E716" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F716" s="57" t="s">
+      <c r="F716" s="56" t="s">
         <v>363</v>
       </c>
       <c r="G716" s="2"/>
@@ -34916,7 +34930,7 @@
       <c r="A717" s="34">
         <v>714.0</v>
       </c>
-      <c r="B717" s="55" t="s">
+      <c r="B717" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C717" s="49">
@@ -34925,10 +34939,10 @@
       <c r="D717" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E717" s="56" t="s">
+      <c r="E717" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="F717" s="57" t="s">
+      <c r="F717" s="56" t="s">
         <v>363</v>
       </c>
       <c r="G717" s="2"/>
@@ -34958,7 +34972,7 @@
       <c r="A718" s="34">
         <v>715.0</v>
       </c>
-      <c r="B718" s="55" t="s">
+      <c r="B718" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C718" s="49">
@@ -34967,10 +34981,10 @@
       <c r="D718" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E718" s="56" t="s">
+      <c r="E718" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="F718" s="57" t="s">
+      <c r="F718" s="56" t="s">
         <v>363</v>
       </c>
       <c r="G718" s="2"/>
@@ -35000,7 +35014,7 @@
       <c r="A719" s="34">
         <v>0.0</v>
       </c>
-      <c r="B719" s="55" t="s">
+      <c r="B719" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C719" s="49">
@@ -35009,10 +35023,10 @@
       <c r="D719" s="50">
         <v>44041.0</v>
       </c>
-      <c r="E719" s="56" t="s">
+      <c r="E719" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F719" s="57" t="s">
+      <c r="F719" s="56" t="s">
         <v>557</v>
       </c>
       <c r="G719" s="2"/>
@@ -35042,7 +35056,7 @@
       <c r="A720" s="34">
         <v>716.0</v>
       </c>
-      <c r="B720" s="55" t="s">
+      <c r="B720" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C720" s="49">
@@ -35054,7 +35068,7 @@
       <c r="E720" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F720" s="58" t="s">
+      <c r="F720" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G720" s="2"/>
@@ -35084,7 +35098,7 @@
       <c r="A721" s="34">
         <v>717.0</v>
       </c>
-      <c r="B721" s="55" t="s">
+      <c r="B721" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C721" s="49">
@@ -35096,7 +35110,7 @@
       <c r="E721" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F721" s="58" t="s">
+      <c r="F721" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G721" s="2"/>
@@ -35126,7 +35140,7 @@
       <c r="A722" s="34">
         <v>718.0</v>
       </c>
-      <c r="B722" s="55" t="s">
+      <c r="B722" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C722" s="49">
@@ -35138,7 +35152,7 @@
       <c r="E722" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="F722" s="58" t="s">
+      <c r="F722" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G722" s="2"/>
@@ -35168,7 +35182,7 @@
       <c r="A723" s="34">
         <v>719.0</v>
       </c>
-      <c r="B723" s="55" t="s">
+      <c r="B723" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C723" s="49">
@@ -35180,7 +35194,7 @@
       <c r="E723" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="F723" s="58" t="s">
+      <c r="F723" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G723" s="2"/>
@@ -35210,7 +35224,7 @@
       <c r="A724" s="34">
         <v>720.0</v>
       </c>
-      <c r="B724" s="55" t="s">
+      <c r="B724" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C724" s="49">
@@ -35222,7 +35236,7 @@
       <c r="E724" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F724" s="58" t="s">
+      <c r="F724" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G724" s="2"/>
@@ -35252,7 +35266,7 @@
       <c r="A725" s="34">
         <v>721.0</v>
       </c>
-      <c r="B725" s="55" t="s">
+      <c r="B725" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C725" s="49">
@@ -35264,7 +35278,7 @@
       <c r="E725" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="F725" s="58" t="s">
+      <c r="F725" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G725" s="2"/>
@@ -35294,7 +35308,7 @@
       <c r="A726" s="34">
         <v>722.0</v>
       </c>
-      <c r="B726" s="55" t="s">
+      <c r="B726" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C726" s="49">
@@ -35306,7 +35320,7 @@
       <c r="E726" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F726" s="58" t="s">
+      <c r="F726" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G726" s="2"/>
@@ -35336,7 +35350,7 @@
       <c r="A727" s="34">
         <v>723.0</v>
       </c>
-      <c r="B727" s="55" t="s">
+      <c r="B727" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C727" s="49">
@@ -35348,7 +35362,7 @@
       <c r="E727" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="F727" s="58" t="s">
+      <c r="F727" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G727" s="2"/>
@@ -35378,7 +35392,7 @@
       <c r="A728" s="34">
         <v>724.0</v>
       </c>
-      <c r="B728" s="55" t="s">
+      <c r="B728" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C728" s="49">
@@ -35390,7 +35404,7 @@
       <c r="E728" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F728" s="58" t="s">
+      <c r="F728" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G728" s="2"/>
@@ -35420,7 +35434,7 @@
       <c r="A729" s="34">
         <v>725.0</v>
       </c>
-      <c r="B729" s="55" t="s">
+      <c r="B729" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C729" s="49">
@@ -35432,7 +35446,7 @@
       <c r="E729" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="F729" s="58" t="s">
+      <c r="F729" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G729" s="2"/>
@@ -35462,7 +35476,7 @@
       <c r="A730" s="34">
         <v>726.0</v>
       </c>
-      <c r="B730" s="55" t="s">
+      <c r="B730" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C730" s="49">
@@ -35474,7 +35488,7 @@
       <c r="E730" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F730" s="58" t="s">
+      <c r="F730" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G730" s="2"/>
@@ -35504,7 +35518,7 @@
       <c r="A731" s="34">
         <v>727.0</v>
       </c>
-      <c r="B731" s="55" t="s">
+      <c r="B731" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C731" s="49">
@@ -35516,7 +35530,7 @@
       <c r="E731" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="F731" s="58" t="s">
+      <c r="F731" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G731" s="2"/>
@@ -35546,7 +35560,7 @@
       <c r="A732" s="34">
         <v>728.0</v>
       </c>
-      <c r="B732" s="55" t="s">
+      <c r="B732" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C732" s="49">
@@ -35558,7 +35572,7 @@
       <c r="E732" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="F732" s="58" t="s">
+      <c r="F732" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G732" s="2"/>
@@ -35588,7 +35602,7 @@
       <c r="A733" s="34">
         <v>729.0</v>
       </c>
-      <c r="B733" s="55" t="s">
+      <c r="B733" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C733" s="49">
@@ -35600,7 +35614,7 @@
       <c r="E733" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="F733" s="58" t="s">
+      <c r="F733" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G733" s="2"/>
@@ -35630,7 +35644,7 @@
       <c r="A734" s="34">
         <v>730.0</v>
       </c>
-      <c r="B734" s="55" t="s">
+      <c r="B734" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C734" s="49">
@@ -35642,7 +35656,7 @@
       <c r="E734" s="51" t="s">
         <v>569</v>
       </c>
-      <c r="F734" s="58" t="s">
+      <c r="F734" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G734" s="2"/>
@@ -35672,7 +35686,7 @@
       <c r="A735" s="34">
         <v>731.0</v>
       </c>
-      <c r="B735" s="55" t="s">
+      <c r="B735" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C735" s="49">
@@ -35684,7 +35698,7 @@
       <c r="E735" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="F735" s="58" t="s">
+      <c r="F735" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G735" s="2"/>
@@ -35714,7 +35728,7 @@
       <c r="A736" s="34">
         <v>732.0</v>
       </c>
-      <c r="B736" s="55" t="s">
+      <c r="B736" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C736" s="49">
@@ -35726,7 +35740,7 @@
       <c r="E736" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="F736" s="58" t="s">
+      <c r="F736" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G736" s="2"/>
@@ -35756,7 +35770,7 @@
       <c r="A737" s="34">
         <v>733.0</v>
       </c>
-      <c r="B737" s="55" t="s">
+      <c r="B737" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C737" s="49">
@@ -35768,7 +35782,7 @@
       <c r="E737" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F737" s="58" t="s">
+      <c r="F737" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G737" s="2"/>
@@ -35798,7 +35812,7 @@
       <c r="A738" s="34">
         <v>734.0</v>
       </c>
-      <c r="B738" s="55" t="s">
+      <c r="B738" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C738" s="49">
@@ -35810,7 +35824,7 @@
       <c r="E738" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F738" s="58" t="s">
+      <c r="F738" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G738" s="2"/>
@@ -35840,7 +35854,7 @@
       <c r="A739" s="34">
         <v>735.0</v>
       </c>
-      <c r="B739" s="55" t="s">
+      <c r="B739" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C739" s="49">
@@ -35852,7 +35866,7 @@
       <c r="E739" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F739" s="58" t="s">
+      <c r="F739" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G739" s="2"/>
@@ -35882,7 +35896,7 @@
       <c r="A740" s="34">
         <v>736.0</v>
       </c>
-      <c r="B740" s="55" t="s">
+      <c r="B740" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C740" s="49">
@@ -35894,7 +35908,7 @@
       <c r="E740" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F740" s="58" t="s">
+      <c r="F740" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G740" s="2"/>
@@ -35924,7 +35938,7 @@
       <c r="A741" s="34">
         <v>737.0</v>
       </c>
-      <c r="B741" s="55" t="s">
+      <c r="B741" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C741" s="49">
@@ -35936,7 +35950,7 @@
       <c r="E741" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="F741" s="58" t="s">
+      <c r="F741" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G741" s="2"/>
@@ -35966,7 +35980,7 @@
       <c r="A742" s="34">
         <v>738.0</v>
       </c>
-      <c r="B742" s="55" t="s">
+      <c r="B742" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C742" s="49">
@@ -35978,7 +35992,7 @@
       <c r="E742" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F742" s="58" t="s">
+      <c r="F742" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G742" s="2"/>
@@ -36008,7 +36022,7 @@
       <c r="A743" s="34">
         <v>739.0</v>
       </c>
-      <c r="B743" s="55" t="s">
+      <c r="B743" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C743" s="49">
@@ -36020,7 +36034,7 @@
       <c r="E743" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="F743" s="58" t="s">
+      <c r="F743" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G743" s="2"/>
@@ -36050,7 +36064,7 @@
       <c r="A744" s="34">
         <v>740.0</v>
       </c>
-      <c r="B744" s="55" t="s">
+      <c r="B744" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C744" s="49">
@@ -36062,7 +36076,7 @@
       <c r="E744" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F744" s="58" t="s">
+      <c r="F744" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G744" s="2"/>
@@ -36092,7 +36106,7 @@
       <c r="A745" s="34">
         <v>741.0</v>
       </c>
-      <c r="B745" s="55" t="s">
+      <c r="B745" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C745" s="49">
@@ -36104,7 +36118,7 @@
       <c r="E745" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F745" s="58" t="s">
+      <c r="F745" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G745" s="2"/>
@@ -36134,7 +36148,7 @@
       <c r="A746" s="34">
         <v>742.0</v>
       </c>
-      <c r="B746" s="55" t="s">
+      <c r="B746" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C746" s="49">
@@ -36146,7 +36160,7 @@
       <c r="E746" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F746" s="58" t="s">
+      <c r="F746" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G746" s="2"/>
@@ -36176,7 +36190,7 @@
       <c r="A747" s="34">
         <v>743.0</v>
       </c>
-      <c r="B747" s="55" t="s">
+      <c r="B747" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C747" s="49">
@@ -36188,7 +36202,7 @@
       <c r="E747" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F747" s="58" t="s">
+      <c r="F747" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G747" s="2"/>
@@ -36218,7 +36232,7 @@
       <c r="A748" s="34">
         <v>744.0</v>
       </c>
-      <c r="B748" s="55" t="s">
+      <c r="B748" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C748" s="49">
@@ -36230,7 +36244,7 @@
       <c r="E748" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="F748" s="58" t="s">
+      <c r="F748" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G748" s="2"/>
@@ -36260,7 +36274,7 @@
       <c r="A749" s="34">
         <v>745.0</v>
       </c>
-      <c r="B749" s="55" t="s">
+      <c r="B749" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C749" s="49">
@@ -36272,7 +36286,7 @@
       <c r="E749" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="F749" s="58" t="s">
+      <c r="F749" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G749" s="2"/>
@@ -36302,7 +36316,7 @@
       <c r="A750" s="34">
         <v>746.0</v>
       </c>
-      <c r="B750" s="55" t="s">
+      <c r="B750" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C750" s="49">
@@ -36314,7 +36328,7 @@
       <c r="E750" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F750" s="58" t="s">
+      <c r="F750" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G750" s="2"/>
@@ -36344,7 +36358,7 @@
       <c r="A751" s="34">
         <v>747.0</v>
       </c>
-      <c r="B751" s="55" t="s">
+      <c r="B751" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C751" s="49">
@@ -36356,7 +36370,7 @@
       <c r="E751" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F751" s="58" t="s">
+      <c r="F751" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G751" s="2"/>
@@ -36386,7 +36400,7 @@
       <c r="A752" s="34">
         <v>748.0</v>
       </c>
-      <c r="B752" s="55" t="s">
+      <c r="B752" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C752" s="49">
@@ -36398,7 +36412,7 @@
       <c r="E752" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F752" s="58" t="s">
+      <c r="F752" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G752" s="2"/>
@@ -36428,7 +36442,7 @@
       <c r="A753" s="34">
         <v>749.0</v>
       </c>
-      <c r="B753" s="55" t="s">
+      <c r="B753" s="48" t="s">
         <v>565</v>
       </c>
       <c r="C753" s="49">
@@ -36440,7 +36454,7 @@
       <c r="E753" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F753" s="58" t="s">
+      <c r="F753" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G753" s="2"/>
@@ -36470,7 +36484,7 @@
       <c r="A754" s="34">
         <v>750.0</v>
       </c>
-      <c r="B754" s="55" t="s">
+      <c r="B754" s="58" t="s">
         <v>570</v>
       </c>
       <c r="C754" s="49">
@@ -36482,7 +36496,7 @@
       <c r="E754" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F754" s="58" t="s">
+      <c r="F754" s="59" t="s">
         <v>96</v>
       </c>
       <c r="G754" s="2"/>
@@ -36512,7 +36526,7 @@
       <c r="A755" s="34">
         <v>751.0</v>
       </c>
-      <c r="B755" s="55" t="s">
+      <c r="B755" s="58" t="s">
         <v>570</v>
       </c>
       <c r="C755" s="49">
@@ -36524,7 +36538,7 @@
       <c r="E755" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="F755" s="58" t="s">
+      <c r="F755" s="59" t="s">
         <v>96</v>
       </c>
       <c r="G755" s="2"/>
@@ -36554,7 +36568,7 @@
       <c r="A756" s="34">
         <v>752.0</v>
       </c>
-      <c r="B756" s="55" t="s">
+      <c r="B756" s="58" t="s">
         <v>570</v>
       </c>
       <c r="C756" s="49">
@@ -36566,7 +36580,7 @@
       <c r="E756" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F756" s="58" t="s">
+      <c r="F756" s="59" t="s">
         <v>363</v>
       </c>
       <c r="G756" s="2"/>
@@ -36596,7 +36610,7 @@
       <c r="A757" s="34">
         <v>753.0</v>
       </c>
-      <c r="B757" s="55" t="s">
+      <c r="B757" s="58" t="s">
         <v>570</v>
       </c>
       <c r="C757" s="49">
@@ -36608,7 +36622,7 @@
       <c r="E757" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F757" s="58" t="s">
+      <c r="F757" s="59" t="s">
         <v>254</v>
       </c>
       <c r="G757" s="2"/>
@@ -36638,7 +36652,7 @@
       <c r="A758" s="34">
         <v>754.0</v>
       </c>
-      <c r="B758" s="55" t="s">
+      <c r="B758" s="58" t="s">
         <v>570</v>
       </c>
       <c r="C758" s="49">
@@ -36650,7 +36664,7 @@
       <c r="E758" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F758" s="58" t="s">
+      <c r="F758" s="59" t="s">
         <v>254</v>
       </c>
       <c r="G758" s="2"/>
@@ -36680,7 +36694,7 @@
       <c r="A759" s="34">
         <v>755.0</v>
       </c>
-      <c r="B759" s="55" t="s">
+      <c r="B759" s="58" t="s">
         <v>570</v>
       </c>
       <c r="C759" s="49">
@@ -36692,7 +36706,7 @@
       <c r="E759" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F759" s="58" t="s">
+      <c r="F759" s="59" t="s">
         <v>518</v>
       </c>
       <c r="G759" s="2"/>
@@ -36722,7 +36736,7 @@
       <c r="A760" s="34">
         <v>756.0</v>
       </c>
-      <c r="B760" s="55" t="s">
+      <c r="B760" s="58" t="s">
         <v>570</v>
       </c>
       <c r="C760" s="49">
@@ -36734,7 +36748,7 @@
       <c r="E760" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F760" s="58" t="s">
+      <c r="F760" s="59" t="s">
         <v>254</v>
       </c>
       <c r="G760" s="2"/>
@@ -36764,7 +36778,7 @@
       <c r="A761" s="34">
         <v>757.0</v>
       </c>
-      <c r="B761" s="55" t="s">
+      <c r="B761" s="58" t="s">
         <v>570</v>
       </c>
       <c r="C761" s="49">
@@ -36776,7 +36790,7 @@
       <c r="E761" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F761" s="58" t="s">
+      <c r="F761" s="59" t="s">
         <v>254</v>
       </c>
       <c r="G761" s="2"/>
@@ -36806,7 +36820,7 @@
       <c r="A762" s="34">
         <v>758.0</v>
       </c>
-      <c r="B762" s="55" t="s">
+      <c r="B762" s="58" t="s">
         <v>570</v>
       </c>
       <c r="C762" s="49">
@@ -36818,7 +36832,7 @@
       <c r="E762" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F762" s="58" t="s">
+      <c r="F762" s="59" t="s">
         <v>254</v>
       </c>
       <c r="G762" s="2"/>
@@ -36845,17 +36859,31 @@
       <c r="Z762" s="8"/>
     </row>
     <row r="763" ht="18.0" customHeight="1">
-      <c r="A763" s="34"/>
-      <c r="B763" s="8"/>
-      <c r="C763" s="2"/>
-      <c r="D763" s="2"/>
-      <c r="E763" s="8"/>
-      <c r="F763" s="13"/>
+      <c r="A763" s="34">
+        <v>759.0</v>
+      </c>
+      <c r="B763" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C763" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D763" s="50">
+        <v>44043.0</v>
+      </c>
+      <c r="E763" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F763" s="54" t="s">
+        <v>393</v>
+      </c>
       <c r="G763" s="2"/>
       <c r="H763" s="13"/>
       <c r="I763" s="13"/>
       <c r="J763" s="14"/>
-      <c r="K763" s="8"/>
+      <c r="K763" s="31" t="s">
+        <v>574</v>
+      </c>
       <c r="L763" s="8"/>
       <c r="M763" s="8"/>
       <c r="N763" s="8"/>
@@ -36873,17 +36901,31 @@
       <c r="Z763" s="8"/>
     </row>
     <row r="764" ht="18.0" customHeight="1">
-      <c r="A764" s="34"/>
-      <c r="B764" s="8"/>
-      <c r="C764" s="2"/>
-      <c r="D764" s="2"/>
-      <c r="E764" s="8"/>
-      <c r="F764" s="13"/>
+      <c r="A764" s="34">
+        <v>760.0</v>
+      </c>
+      <c r="B764" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C764" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D764" s="50">
+        <v>44043.0</v>
+      </c>
+      <c r="E764" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="F764" s="54" t="s">
+        <v>489</v>
+      </c>
       <c r="G764" s="2"/>
       <c r="H764" s="13"/>
       <c r="I764" s="13"/>
       <c r="J764" s="14"/>
-      <c r="K764" s="8"/>
+      <c r="K764" s="31" t="s">
+        <v>574</v>
+      </c>
       <c r="L764" s="8"/>
       <c r="M764" s="8"/>
       <c r="N764" s="8"/>
@@ -36901,17 +36943,31 @@
       <c r="Z764" s="8"/>
     </row>
     <row r="765" ht="18.0" customHeight="1">
-      <c r="A765" s="2"/>
-      <c r="B765" s="8"/>
-      <c r="C765" s="2"/>
-      <c r="D765" s="2"/>
-      <c r="E765" s="8"/>
-      <c r="F765" s="13"/>
+      <c r="A765" s="34">
+        <v>761.0</v>
+      </c>
+      <c r="B765" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C765" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D765" s="50">
+        <v>44043.0</v>
+      </c>
+      <c r="E765" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F765" s="54" t="s">
+        <v>489</v>
+      </c>
       <c r="G765" s="2"/>
       <c r="H765" s="13"/>
       <c r="I765" s="13"/>
       <c r="J765" s="14"/>
-      <c r="K765" s="8"/>
+      <c r="K765" s="31" t="s">
+        <v>574</v>
+      </c>
       <c r="L765" s="8"/>
       <c r="M765" s="8"/>
       <c r="N765" s="8"/>
@@ -36929,17 +36985,31 @@
       <c r="Z765" s="8"/>
     </row>
     <row r="766" ht="18.0" customHeight="1">
-      <c r="A766" s="2"/>
-      <c r="B766" s="8"/>
-      <c r="C766" s="2"/>
-      <c r="D766" s="2"/>
-      <c r="E766" s="8"/>
-      <c r="F766" s="13"/>
+      <c r="A766" s="34">
+        <v>762.0</v>
+      </c>
+      <c r="B766" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C766" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D766" s="50">
+        <v>44043.0</v>
+      </c>
+      <c r="E766" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F766" s="54" t="s">
+        <v>363</v>
+      </c>
       <c r="G766" s="2"/>
       <c r="H766" s="13"/>
       <c r="I766" s="13"/>
       <c r="J766" s="14"/>
-      <c r="K766" s="8"/>
+      <c r="K766" s="31" t="s">
+        <v>574</v>
+      </c>
       <c r="L766" s="8"/>
       <c r="M766" s="8"/>
       <c r="N766" s="8"/>
@@ -36957,17 +37027,31 @@
       <c r="Z766" s="8"/>
     </row>
     <row r="767" ht="18.0" customHeight="1">
-      <c r="A767" s="2"/>
-      <c r="B767" s="8"/>
-      <c r="C767" s="2"/>
-      <c r="D767" s="2"/>
-      <c r="E767" s="8"/>
-      <c r="F767" s="13"/>
+      <c r="A767" s="34">
+        <v>763.0</v>
+      </c>
+      <c r="B767" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C767" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D767" s="50">
+        <v>44043.0</v>
+      </c>
+      <c r="E767" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F767" s="54" t="s">
+        <v>363</v>
+      </c>
       <c r="G767" s="2"/>
       <c r="H767" s="13"/>
       <c r="I767" s="13"/>
       <c r="J767" s="14"/>
-      <c r="K767" s="8"/>
+      <c r="K767" s="31" t="s">
+        <v>574</v>
+      </c>
       <c r="L767" s="8"/>
       <c r="M767" s="8"/>
       <c r="N767" s="8"/>
@@ -36985,17 +37069,31 @@
       <c r="Z767" s="8"/>
     </row>
     <row r="768" ht="18.0" customHeight="1">
-      <c r="A768" s="2"/>
-      <c r="B768" s="8"/>
-      <c r="C768" s="2"/>
-      <c r="D768" s="2"/>
-      <c r="E768" s="8"/>
-      <c r="F768" s="13"/>
+      <c r="A768" s="34">
+        <v>764.0</v>
+      </c>
+      <c r="B768" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C768" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D768" s="50">
+        <v>44043.0</v>
+      </c>
+      <c r="E768" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F768" s="54" t="s">
+        <v>363</v>
+      </c>
       <c r="G768" s="2"/>
       <c r="H768" s="13"/>
       <c r="I768" s="13"/>
       <c r="J768" s="14"/>
-      <c r="K768" s="8"/>
+      <c r="K768" s="31" t="s">
+        <v>574</v>
+      </c>
       <c r="L768" s="8"/>
       <c r="M768" s="8"/>
       <c r="N768" s="8"/>
@@ -37013,17 +37111,31 @@
       <c r="Z768" s="8"/>
     </row>
     <row r="769" ht="18.0" customHeight="1">
-      <c r="A769" s="2"/>
-      <c r="B769" s="8"/>
-      <c r="C769" s="2"/>
-      <c r="D769" s="2"/>
-      <c r="E769" s="8"/>
-      <c r="F769" s="13"/>
+      <c r="A769" s="34">
+        <v>765.0</v>
+      </c>
+      <c r="B769" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C769" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D769" s="50">
+        <v>44043.0</v>
+      </c>
+      <c r="E769" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F769" s="54" t="s">
+        <v>363</v>
+      </c>
       <c r="G769" s="2"/>
       <c r="H769" s="13"/>
       <c r="I769" s="13"/>
       <c r="J769" s="14"/>
-      <c r="K769" s="8"/>
+      <c r="K769" s="31" t="s">
+        <v>574</v>
+      </c>
       <c r="L769" s="8"/>
       <c r="M769" s="8"/>
       <c r="N769" s="8"/>
@@ -37041,17 +37153,31 @@
       <c r="Z769" s="8"/>
     </row>
     <row r="770" ht="18.0" customHeight="1">
-      <c r="A770" s="2"/>
-      <c r="B770" s="8"/>
-      <c r="C770" s="2"/>
-      <c r="D770" s="2"/>
-      <c r="E770" s="8"/>
-      <c r="F770" s="13"/>
+      <c r="A770" s="34">
+        <v>766.0</v>
+      </c>
+      <c r="B770" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C770" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D770" s="50">
+        <v>44043.0</v>
+      </c>
+      <c r="E770" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F770" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="G770" s="2"/>
       <c r="H770" s="13"/>
       <c r="I770" s="13"/>
       <c r="J770" s="14"/>
-      <c r="K770" s="8"/>
+      <c r="K770" s="31" t="s">
+        <v>574</v>
+      </c>
       <c r="L770" s="8"/>
       <c r="M770" s="8"/>
       <c r="N770" s="8"/>
@@ -37069,17 +37195,31 @@
       <c r="Z770" s="8"/>
     </row>
     <row r="771" ht="18.0" customHeight="1">
-      <c r="A771" s="2"/>
-      <c r="B771" s="8"/>
-      <c r="C771" s="2"/>
-      <c r="D771" s="2"/>
-      <c r="E771" s="8"/>
-      <c r="F771" s="13"/>
+      <c r="A771" s="34">
+        <v>767.0</v>
+      </c>
+      <c r="B771" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C771" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D771" s="50">
+        <v>44043.0</v>
+      </c>
+      <c r="E771" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F771" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="G771" s="2"/>
       <c r="H771" s="13"/>
       <c r="I771" s="13"/>
       <c r="J771" s="14"/>
-      <c r="K771" s="8"/>
+      <c r="K771" s="31" t="s">
+        <v>574</v>
+      </c>
       <c r="L771" s="8"/>
       <c r="M771" s="8"/>
       <c r="N771" s="8"/>
@@ -37097,17 +37237,31 @@
       <c r="Z771" s="8"/>
     </row>
     <row r="772" ht="18.0" customHeight="1">
-      <c r="A772" s="2"/>
-      <c r="B772" s="8"/>
-      <c r="C772" s="2"/>
-      <c r="D772" s="2"/>
-      <c r="E772" s="8"/>
-      <c r="F772" s="13"/>
+      <c r="A772" s="34">
+        <v>768.0</v>
+      </c>
+      <c r="B772" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C772" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D772" s="50">
+        <v>44043.0</v>
+      </c>
+      <c r="E772" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F772" s="54" t="s">
+        <v>363</v>
+      </c>
       <c r="G772" s="2"/>
       <c r="H772" s="13"/>
       <c r="I772" s="13"/>
       <c r="J772" s="14"/>
-      <c r="K772" s="8"/>
+      <c r="K772" s="31" t="s">
+        <v>574</v>
+      </c>
       <c r="L772" s="8"/>
       <c r="M772" s="8"/>
       <c r="N772" s="8"/>
@@ -37125,17 +37279,31 @@
       <c r="Z772" s="8"/>
     </row>
     <row r="773" ht="18.0" customHeight="1">
-      <c r="A773" s="2"/>
-      <c r="B773" s="8"/>
-      <c r="C773" s="2"/>
-      <c r="D773" s="2"/>
-      <c r="E773" s="8"/>
-      <c r="F773" s="13"/>
+      <c r="A773" s="34">
+        <v>769.0</v>
+      </c>
+      <c r="B773" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C773" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D773" s="50">
+        <v>44043.0</v>
+      </c>
+      <c r="E773" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F773" s="54" t="s">
+        <v>363</v>
+      </c>
       <c r="G773" s="2"/>
       <c r="H773" s="13"/>
       <c r="I773" s="13"/>
       <c r="J773" s="14"/>
-      <c r="K773" s="8"/>
+      <c r="K773" s="31" t="s">
+        <v>574</v>
+      </c>
       <c r="L773" s="8"/>
       <c r="M773" s="8"/>
       <c r="N773" s="8"/>
@@ -37153,10 +37321,18 @@
       <c r="Z773" s="8"/>
     </row>
     <row r="774" ht="18.0" customHeight="1">
-      <c r="A774" s="2"/>
-      <c r="B774" s="8"/>
-      <c r="C774" s="2"/>
-      <c r="D774" s="2"/>
+      <c r="A774" s="34">
+        <v>770.0</v>
+      </c>
+      <c r="B774" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C774" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D774" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E774" s="8"/>
       <c r="F774" s="13"/>
       <c r="G774" s="2"/>
@@ -37181,10 +37357,18 @@
       <c r="Z774" s="8"/>
     </row>
     <row r="775" ht="18.0" customHeight="1">
-      <c r="A775" s="2"/>
-      <c r="B775" s="8"/>
-      <c r="C775" s="2"/>
-      <c r="D775" s="2"/>
+      <c r="A775" s="34">
+        <v>771.0</v>
+      </c>
+      <c r="B775" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C775" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D775" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E775" s="8"/>
       <c r="F775" s="13"/>
       <c r="G775" s="2"/>
@@ -37209,10 +37393,18 @@
       <c r="Z775" s="8"/>
     </row>
     <row r="776" ht="18.0" customHeight="1">
-      <c r="A776" s="2"/>
-      <c r="B776" s="8"/>
-      <c r="C776" s="2"/>
-      <c r="D776" s="2"/>
+      <c r="A776" s="34">
+        <v>772.0</v>
+      </c>
+      <c r="B776" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C776" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D776" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E776" s="8"/>
       <c r="F776" s="13"/>
       <c r="G776" s="2"/>
@@ -37237,10 +37429,18 @@
       <c r="Z776" s="8"/>
     </row>
     <row r="777" ht="18.0" customHeight="1">
-      <c r="A777" s="2"/>
-      <c r="B777" s="8"/>
-      <c r="C777" s="2"/>
-      <c r="D777" s="2"/>
+      <c r="A777" s="34">
+        <v>773.0</v>
+      </c>
+      <c r="B777" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C777" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D777" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E777" s="8"/>
       <c r="F777" s="13"/>
       <c r="G777" s="2"/>
@@ -37265,10 +37465,18 @@
       <c r="Z777" s="8"/>
     </row>
     <row r="778" ht="18.0" customHeight="1">
-      <c r="A778" s="2"/>
-      <c r="B778" s="8"/>
-      <c r="C778" s="2"/>
-      <c r="D778" s="2"/>
+      <c r="A778" s="34">
+        <v>774.0</v>
+      </c>
+      <c r="B778" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C778" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D778" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E778" s="8"/>
       <c r="F778" s="13"/>
       <c r="G778" s="2"/>
@@ -37293,10 +37501,18 @@
       <c r="Z778" s="8"/>
     </row>
     <row r="779" ht="18.0" customHeight="1">
-      <c r="A779" s="2"/>
-      <c r="B779" s="8"/>
-      <c r="C779" s="2"/>
-      <c r="D779" s="2"/>
+      <c r="A779" s="34">
+        <v>775.0</v>
+      </c>
+      <c r="B779" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C779" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D779" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E779" s="8"/>
       <c r="F779" s="13"/>
       <c r="G779" s="2"/>
@@ -37321,10 +37537,18 @@
       <c r="Z779" s="8"/>
     </row>
     <row r="780" ht="18.0" customHeight="1">
-      <c r="A780" s="2"/>
-      <c r="B780" s="8"/>
-      <c r="C780" s="2"/>
-      <c r="D780" s="2"/>
+      <c r="A780" s="34">
+        <v>776.0</v>
+      </c>
+      <c r="B780" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C780" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D780" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E780" s="8"/>
       <c r="F780" s="13"/>
       <c r="G780" s="2"/>
@@ -37349,10 +37573,18 @@
       <c r="Z780" s="8"/>
     </row>
     <row r="781" ht="18.0" customHeight="1">
-      <c r="A781" s="2"/>
-      <c r="B781" s="8"/>
-      <c r="C781" s="2"/>
-      <c r="D781" s="2"/>
+      <c r="A781" s="34">
+        <v>777.0</v>
+      </c>
+      <c r="B781" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C781" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D781" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E781" s="8"/>
       <c r="F781" s="13"/>
       <c r="G781" s="2"/>
@@ -37377,10 +37609,18 @@
       <c r="Z781" s="8"/>
     </row>
     <row r="782" ht="18.0" customHeight="1">
-      <c r="A782" s="2"/>
-      <c r="B782" s="8"/>
-      <c r="C782" s="2"/>
-      <c r="D782" s="2"/>
+      <c r="A782" s="34">
+        <v>778.0</v>
+      </c>
+      <c r="B782" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C782" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D782" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E782" s="8"/>
       <c r="F782" s="13"/>
       <c r="G782" s="2"/>
@@ -37405,10 +37645,18 @@
       <c r="Z782" s="8"/>
     </row>
     <row r="783" ht="18.0" customHeight="1">
-      <c r="A783" s="2"/>
-      <c r="B783" s="8"/>
-      <c r="C783" s="2"/>
-      <c r="D783" s="2"/>
+      <c r="A783" s="34">
+        <v>779.0</v>
+      </c>
+      <c r="B783" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C783" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D783" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E783" s="8"/>
       <c r="F783" s="13"/>
       <c r="G783" s="2"/>
@@ -37433,10 +37681,18 @@
       <c r="Z783" s="8"/>
     </row>
     <row r="784" ht="18.0" customHeight="1">
-      <c r="A784" s="2"/>
-      <c r="B784" s="8"/>
-      <c r="C784" s="2"/>
-      <c r="D784" s="2"/>
+      <c r="A784" s="34">
+        <v>780.0</v>
+      </c>
+      <c r="B784" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C784" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D784" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E784" s="8"/>
       <c r="F784" s="13"/>
       <c r="G784" s="2"/>
@@ -37461,10 +37717,18 @@
       <c r="Z784" s="8"/>
     </row>
     <row r="785" ht="18.0" customHeight="1">
-      <c r="A785" s="2"/>
-      <c r="B785" s="8"/>
-      <c r="C785" s="2"/>
-      <c r="D785" s="2"/>
+      <c r="A785" s="34">
+        <v>781.0</v>
+      </c>
+      <c r="B785" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C785" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D785" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E785" s="8"/>
       <c r="F785" s="13"/>
       <c r="G785" s="2"/>
@@ -37489,10 +37753,18 @@
       <c r="Z785" s="8"/>
     </row>
     <row r="786" ht="18.0" customHeight="1">
-      <c r="A786" s="2"/>
-      <c r="B786" s="8"/>
-      <c r="C786" s="2"/>
-      <c r="D786" s="2"/>
+      <c r="A786" s="34">
+        <v>782.0</v>
+      </c>
+      <c r="B786" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C786" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D786" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E786" s="8"/>
       <c r="F786" s="13"/>
       <c r="G786" s="2"/>
@@ -37517,10 +37789,18 @@
       <c r="Z786" s="8"/>
     </row>
     <row r="787" ht="18.0" customHeight="1">
-      <c r="A787" s="2"/>
-      <c r="B787" s="8"/>
-      <c r="C787" s="2"/>
-      <c r="D787" s="2"/>
+      <c r="A787" s="34">
+        <v>783.0</v>
+      </c>
+      <c r="B787" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C787" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D787" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E787" s="8"/>
       <c r="F787" s="13"/>
       <c r="G787" s="2"/>
@@ -37545,10 +37825,18 @@
       <c r="Z787" s="8"/>
     </row>
     <row r="788" ht="18.0" customHeight="1">
-      <c r="A788" s="2"/>
-      <c r="B788" s="8"/>
-      <c r="C788" s="2"/>
-      <c r="D788" s="2"/>
+      <c r="A788" s="34">
+        <v>784.0</v>
+      </c>
+      <c r="B788" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C788" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D788" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E788" s="8"/>
       <c r="F788" s="13"/>
       <c r="G788" s="2"/>
@@ -37573,10 +37861,18 @@
       <c r="Z788" s="8"/>
     </row>
     <row r="789" ht="18.0" customHeight="1">
-      <c r="A789" s="2"/>
-      <c r="B789" s="8"/>
-      <c r="C789" s="2"/>
-      <c r="D789" s="2"/>
+      <c r="A789" s="34">
+        <v>785.0</v>
+      </c>
+      <c r="B789" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C789" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D789" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E789" s="8"/>
       <c r="F789" s="13"/>
       <c r="G789" s="2"/>
@@ -37601,10 +37897,18 @@
       <c r="Z789" s="8"/>
     </row>
     <row r="790" ht="18.0" customHeight="1">
-      <c r="A790" s="2"/>
-      <c r="B790" s="8"/>
-      <c r="C790" s="2"/>
-      <c r="D790" s="2"/>
+      <c r="A790" s="34">
+        <v>786.0</v>
+      </c>
+      <c r="B790" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C790" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D790" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E790" s="8"/>
       <c r="F790" s="13"/>
       <c r="G790" s="2"/>
@@ -37629,10 +37933,18 @@
       <c r="Z790" s="8"/>
     </row>
     <row r="791" ht="18.0" customHeight="1">
-      <c r="A791" s="2"/>
-      <c r="B791" s="8"/>
-      <c r="C791" s="2"/>
-      <c r="D791" s="2"/>
+      <c r="A791" s="34">
+        <v>787.0</v>
+      </c>
+      <c r="B791" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C791" s="49">
+        <v>44043.0</v>
+      </c>
+      <c r="D791" s="50">
+        <v>44043.0</v>
+      </c>
       <c r="E791" s="8"/>
       <c r="F791" s="13"/>
       <c r="G791" s="2"/>
@@ -43099,7 +43411,7 @@
       <c r="H986" s="13"/>
       <c r="I986" s="13"/>
       <c r="J986" s="14"/>
-      <c r="K986" s="56"/>
+      <c r="K986" s="55"/>
       <c r="L986" s="8"/>
       <c r="M986" s="8"/>
       <c r="N986" s="8"/>
@@ -43705,10 +44017,21 @@
     <hyperlink r:id="rId584" ref="K760"/>
     <hyperlink r:id="rId585" ref="K761"/>
     <hyperlink r:id="rId586" ref="K762"/>
+    <hyperlink r:id="rId587" ref="K763"/>
+    <hyperlink r:id="rId588" ref="K764"/>
+    <hyperlink r:id="rId589" ref="K765"/>
+    <hyperlink r:id="rId590" ref="K766"/>
+    <hyperlink r:id="rId591" ref="K767"/>
+    <hyperlink r:id="rId592" ref="K768"/>
+    <hyperlink r:id="rId593" ref="K769"/>
+    <hyperlink r:id="rId594" ref="K770"/>
+    <hyperlink r:id="rId595" ref="K771"/>
+    <hyperlink r:id="rId596" ref="K772"/>
+    <hyperlink r:id="rId597" ref="K773"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId587"/>
+  <drawing r:id="rId598"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3818" uniqueCount="575">
-  <si>
-    <t>2020-07-31T20:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="581">
+  <si>
+    <t>2020-07-31T23:30:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2118,6 +2118,24 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200731-759-769.pdf</t>
+  </si>
+  <si>
+    <t>10代京都市内</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273293/200731oshirase(534-551).pdf</t>
+  </si>
+  <si>
+    <t>20代京都市内</t>
+  </si>
+  <si>
+    <t>50代京都市内</t>
+  </si>
+  <si>
+    <t>30代京都市内</t>
+  </si>
+  <si>
+    <t>40代京都市内</t>
   </si>
 </sst>
 </file>
@@ -37333,13 +37351,19 @@
       <c r="D774" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E774" s="8"/>
-      <c r="F774" s="13"/>
+      <c r="E774" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="F774" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G774" s="2"/>
       <c r="H774" s="13"/>
       <c r="I774" s="13"/>
       <c r="J774" s="14"/>
-      <c r="K774" s="8"/>
+      <c r="K774" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L774" s="8"/>
       <c r="M774" s="8"/>
       <c r="N774" s="8"/>
@@ -37369,13 +37393,19 @@
       <c r="D775" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E775" s="8"/>
-      <c r="F775" s="13"/>
+      <c r="E775" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="F775" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G775" s="2"/>
       <c r="H775" s="13"/>
       <c r="I775" s="13"/>
       <c r="J775" s="14"/>
-      <c r="K775" s="8"/>
+      <c r="K775" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L775" s="8"/>
       <c r="M775" s="8"/>
       <c r="N775" s="8"/>
@@ -37405,13 +37435,19 @@
       <c r="D776" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E776" s="8"/>
-      <c r="F776" s="13"/>
+      <c r="E776" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="F776" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G776" s="2"/>
       <c r="H776" s="13"/>
       <c r="I776" s="13"/>
       <c r="J776" s="14"/>
-      <c r="K776" s="8"/>
+      <c r="K776" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L776" s="8"/>
       <c r="M776" s="8"/>
       <c r="N776" s="8"/>
@@ -37441,13 +37477,19 @@
       <c r="D777" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E777" s="8"/>
-      <c r="F777" s="13"/>
+      <c r="E777" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="F777" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G777" s="2"/>
       <c r="H777" s="13"/>
       <c r="I777" s="13"/>
       <c r="J777" s="14"/>
-      <c r="K777" s="8"/>
+      <c r="K777" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L777" s="8"/>
       <c r="M777" s="8"/>
       <c r="N777" s="8"/>
@@ -37477,13 +37519,19 @@
       <c r="D778" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E778" s="8"/>
-      <c r="F778" s="13"/>
+      <c r="E778" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="F778" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G778" s="2"/>
       <c r="H778" s="13"/>
       <c r="I778" s="13"/>
       <c r="J778" s="14"/>
-      <c r="K778" s="8"/>
+      <c r="K778" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L778" s="8"/>
       <c r="M778" s="8"/>
       <c r="N778" s="8"/>
@@ -37513,13 +37561,19 @@
       <c r="D779" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E779" s="8"/>
-      <c r="F779" s="13"/>
+      <c r="E779" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="F779" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G779" s="2"/>
       <c r="H779" s="13"/>
       <c r="I779" s="13"/>
       <c r="J779" s="14"/>
-      <c r="K779" s="8"/>
+      <c r="K779" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L779" s="8"/>
       <c r="M779" s="8"/>
       <c r="N779" s="8"/>
@@ -37549,13 +37603,19 @@
       <c r="D780" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E780" s="8"/>
-      <c r="F780" s="13"/>
+      <c r="E780" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="F780" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G780" s="2"/>
       <c r="H780" s="13"/>
       <c r="I780" s="13"/>
       <c r="J780" s="14"/>
-      <c r="K780" s="8"/>
+      <c r="K780" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L780" s="8"/>
       <c r="M780" s="8"/>
       <c r="N780" s="8"/>
@@ -37585,13 +37645,19 @@
       <c r="D781" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E781" s="8"/>
-      <c r="F781" s="13"/>
+      <c r="E781" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="F781" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G781" s="2"/>
       <c r="H781" s="13"/>
       <c r="I781" s="13"/>
       <c r="J781" s="14"/>
-      <c r="K781" s="8"/>
+      <c r="K781" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L781" s="8"/>
       <c r="M781" s="8"/>
       <c r="N781" s="8"/>
@@ -37621,13 +37687,19 @@
       <c r="D782" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E782" s="8"/>
-      <c r="F782" s="13"/>
+      <c r="E782" s="53" t="s">
+        <v>578</v>
+      </c>
+      <c r="F782" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G782" s="2"/>
       <c r="H782" s="13"/>
       <c r="I782" s="13"/>
       <c r="J782" s="14"/>
-      <c r="K782" s="8"/>
+      <c r="K782" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L782" s="8"/>
       <c r="M782" s="8"/>
       <c r="N782" s="8"/>
@@ -37657,13 +37729,19 @@
       <c r="D783" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E783" s="8"/>
-      <c r="F783" s="13"/>
+      <c r="E783" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="F783" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G783" s="2"/>
       <c r="H783" s="13"/>
       <c r="I783" s="13"/>
       <c r="J783" s="14"/>
-      <c r="K783" s="8"/>
+      <c r="K783" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L783" s="8"/>
       <c r="M783" s="8"/>
       <c r="N783" s="8"/>
@@ -37693,13 +37771,19 @@
       <c r="D784" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E784" s="8"/>
-      <c r="F784" s="13"/>
+      <c r="E784" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="F784" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G784" s="2"/>
       <c r="H784" s="13"/>
       <c r="I784" s="13"/>
       <c r="J784" s="14"/>
-      <c r="K784" s="8"/>
+      <c r="K784" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L784" s="8"/>
       <c r="M784" s="8"/>
       <c r="N784" s="8"/>
@@ -37729,13 +37813,19 @@
       <c r="D785" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E785" s="8"/>
-      <c r="F785" s="13"/>
+      <c r="E785" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="F785" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G785" s="2"/>
       <c r="H785" s="13"/>
       <c r="I785" s="13"/>
       <c r="J785" s="14"/>
-      <c r="K785" s="8"/>
+      <c r="K785" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L785" s="8"/>
       <c r="M785" s="8"/>
       <c r="N785" s="8"/>
@@ -37765,13 +37855,19 @@
       <c r="D786" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E786" s="8"/>
-      <c r="F786" s="13"/>
+      <c r="E786" s="53" t="s">
+        <v>579</v>
+      </c>
+      <c r="F786" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G786" s="2"/>
       <c r="H786" s="13"/>
       <c r="I786" s="13"/>
       <c r="J786" s="14"/>
-      <c r="K786" s="8"/>
+      <c r="K786" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L786" s="8"/>
       <c r="M786" s="8"/>
       <c r="N786" s="8"/>
@@ -37801,13 +37897,19 @@
       <c r="D787" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E787" s="8"/>
-      <c r="F787" s="13"/>
+      <c r="E787" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="F787" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G787" s="2"/>
       <c r="H787" s="13"/>
       <c r="I787" s="13"/>
       <c r="J787" s="14"/>
-      <c r="K787" s="8"/>
+      <c r="K787" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L787" s="8"/>
       <c r="M787" s="8"/>
       <c r="N787" s="8"/>
@@ -37837,13 +37939,19 @@
       <c r="D788" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E788" s="8"/>
-      <c r="F788" s="13"/>
+      <c r="E788" s="53" t="s">
+        <v>579</v>
+      </c>
+      <c r="F788" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G788" s="2"/>
       <c r="H788" s="13"/>
       <c r="I788" s="13"/>
       <c r="J788" s="14"/>
-      <c r="K788" s="8"/>
+      <c r="K788" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L788" s="8"/>
       <c r="M788" s="8"/>
       <c r="N788" s="8"/>
@@ -37873,13 +37981,19 @@
       <c r="D789" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E789" s="8"/>
-      <c r="F789" s="13"/>
+      <c r="E789" s="53" t="s">
+        <v>580</v>
+      </c>
+      <c r="F789" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G789" s="2"/>
       <c r="H789" s="13"/>
       <c r="I789" s="13"/>
       <c r="J789" s="14"/>
-      <c r="K789" s="8"/>
+      <c r="K789" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L789" s="8"/>
       <c r="M789" s="8"/>
       <c r="N789" s="8"/>
@@ -37909,13 +38023,19 @@
       <c r="D790" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E790" s="8"/>
-      <c r="F790" s="13"/>
+      <c r="E790" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="F790" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G790" s="2"/>
       <c r="H790" s="13"/>
       <c r="I790" s="13"/>
       <c r="J790" s="14"/>
-      <c r="K790" s="8"/>
+      <c r="K790" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L790" s="8"/>
       <c r="M790" s="8"/>
       <c r="N790" s="8"/>
@@ -37945,13 +38065,19 @@
       <c r="D791" s="50">
         <v>44043.0</v>
       </c>
-      <c r="E791" s="8"/>
-      <c r="F791" s="13"/>
+      <c r="E791" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="F791" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G791" s="2"/>
       <c r="H791" s="13"/>
       <c r="I791" s="13"/>
       <c r="J791" s="14"/>
-      <c r="K791" s="8"/>
+      <c r="K791" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="L791" s="8"/>
       <c r="M791" s="8"/>
       <c r="N791" s="8"/>
@@ -44028,10 +44154,28 @@
     <hyperlink r:id="rId595" ref="K771"/>
     <hyperlink r:id="rId596" ref="K772"/>
     <hyperlink r:id="rId597" ref="K773"/>
+    <hyperlink r:id="rId598" ref="K774"/>
+    <hyperlink r:id="rId599" ref="K775"/>
+    <hyperlink r:id="rId600" ref="K776"/>
+    <hyperlink r:id="rId601" ref="K777"/>
+    <hyperlink r:id="rId602" ref="K778"/>
+    <hyperlink r:id="rId603" ref="K779"/>
+    <hyperlink r:id="rId604" ref="K780"/>
+    <hyperlink r:id="rId605" ref="K781"/>
+    <hyperlink r:id="rId606" ref="K782"/>
+    <hyperlink r:id="rId607" ref="K783"/>
+    <hyperlink r:id="rId608" ref="K784"/>
+    <hyperlink r:id="rId609" ref="K785"/>
+    <hyperlink r:id="rId610" ref="K786"/>
+    <hyperlink r:id="rId611" ref="K787"/>
+    <hyperlink r:id="rId612" ref="K788"/>
+    <hyperlink r:id="rId613" ref="K789"/>
+    <hyperlink r:id="rId614" ref="K790"/>
+    <hyperlink r:id="rId615" ref="K791"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId598"/>
+  <drawing r:id="rId616"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="581">
-  <si>
-    <t>2020-07-31T23:30:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="584">
+  <si>
+    <t>2020-08-01T19:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2136,6 +2136,15 @@
   </si>
   <si>
     <t>40代京都市内</t>
+  </si>
+  <si>
+    <t>2020-08-01T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200801-788-792.pdf</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200801-793-796.pdf</t>
   </si>
 </sst>
 </file>
@@ -38095,17 +38104,31 @@
       <c r="Z791" s="8"/>
     </row>
     <row r="792" ht="18.0" customHeight="1">
-      <c r="A792" s="2"/>
-      <c r="B792" s="8"/>
-      <c r="C792" s="2"/>
-      <c r="D792" s="2"/>
-      <c r="E792" s="8"/>
-      <c r="F792" s="13"/>
+      <c r="A792" s="34">
+        <v>788.0</v>
+      </c>
+      <c r="B792" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C792" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D792" s="50">
+        <v>44044.0</v>
+      </c>
+      <c r="E792" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F792" s="54" t="s">
+        <v>363</v>
+      </c>
       <c r="G792" s="2"/>
       <c r="H792" s="13"/>
       <c r="I792" s="13"/>
       <c r="J792" s="14"/>
-      <c r="K792" s="8"/>
+      <c r="K792" s="43" t="s">
+        <v>582</v>
+      </c>
       <c r="L792" s="8"/>
       <c r="M792" s="8"/>
       <c r="N792" s="8"/>
@@ -38123,17 +38146,31 @@
       <c r="Z792" s="8"/>
     </row>
     <row r="793" ht="18.0" customHeight="1">
-      <c r="A793" s="2"/>
-      <c r="B793" s="8"/>
-      <c r="C793" s="2"/>
-      <c r="D793" s="2"/>
-      <c r="E793" s="8"/>
-      <c r="F793" s="13"/>
+      <c r="A793" s="34">
+        <v>789.0</v>
+      </c>
+      <c r="B793" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C793" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D793" s="50">
+        <v>44044.0</v>
+      </c>
+      <c r="E793" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="F793" s="54" t="s">
+        <v>363</v>
+      </c>
       <c r="G793" s="2"/>
       <c r="H793" s="13"/>
       <c r="I793" s="13"/>
       <c r="J793" s="14"/>
-      <c r="K793" s="8"/>
+      <c r="K793" s="43" t="s">
+        <v>582</v>
+      </c>
       <c r="L793" s="8"/>
       <c r="M793" s="8"/>
       <c r="N793" s="8"/>
@@ -38151,17 +38188,31 @@
       <c r="Z793" s="8"/>
     </row>
     <row r="794" ht="18.0" customHeight="1">
-      <c r="A794" s="2"/>
-      <c r="B794" s="8"/>
-      <c r="C794" s="2"/>
-      <c r="D794" s="2"/>
-      <c r="E794" s="8"/>
-      <c r="F794" s="13"/>
+      <c r="A794" s="34">
+        <v>790.0</v>
+      </c>
+      <c r="B794" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C794" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D794" s="50">
+        <v>44044.0</v>
+      </c>
+      <c r="E794" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F794" s="54" t="s">
+        <v>363</v>
+      </c>
       <c r="G794" s="2"/>
       <c r="H794" s="13"/>
       <c r="I794" s="13"/>
       <c r="J794" s="14"/>
-      <c r="K794" s="8"/>
+      <c r="K794" s="43" t="s">
+        <v>582</v>
+      </c>
       <c r="L794" s="8"/>
       <c r="M794" s="8"/>
       <c r="N794" s="8"/>
@@ -38179,17 +38230,31 @@
       <c r="Z794" s="8"/>
     </row>
     <row r="795" ht="18.0" customHeight="1">
-      <c r="A795" s="2"/>
-      <c r="B795" s="8"/>
-      <c r="C795" s="2"/>
-      <c r="D795" s="2"/>
-      <c r="E795" s="8"/>
-      <c r="F795" s="13"/>
+      <c r="A795" s="34">
+        <v>791.0</v>
+      </c>
+      <c r="B795" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C795" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D795" s="50">
+        <v>44044.0</v>
+      </c>
+      <c r="E795" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F795" s="54" t="s">
+        <v>363</v>
+      </c>
       <c r="G795" s="2"/>
       <c r="H795" s="13"/>
       <c r="I795" s="13"/>
       <c r="J795" s="14"/>
-      <c r="K795" s="8"/>
+      <c r="K795" s="43" t="s">
+        <v>582</v>
+      </c>
       <c r="L795" s="8"/>
       <c r="M795" s="8"/>
       <c r="N795" s="8"/>
@@ -38207,17 +38272,31 @@
       <c r="Z795" s="8"/>
     </row>
     <row r="796" ht="18.0" customHeight="1">
-      <c r="A796" s="2"/>
-      <c r="B796" s="8"/>
-      <c r="C796" s="2"/>
-      <c r="D796" s="2"/>
-      <c r="E796" s="8"/>
-      <c r="F796" s="13"/>
+      <c r="A796" s="34">
+        <v>792.0</v>
+      </c>
+      <c r="B796" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C796" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D796" s="50">
+        <v>44044.0</v>
+      </c>
+      <c r="E796" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F796" s="54" t="s">
+        <v>557</v>
+      </c>
       <c r="G796" s="2"/>
       <c r="H796" s="13"/>
       <c r="I796" s="13"/>
       <c r="J796" s="14"/>
-      <c r="K796" s="8"/>
+      <c r="K796" s="43" t="s">
+        <v>582</v>
+      </c>
       <c r="L796" s="8"/>
       <c r="M796" s="8"/>
       <c r="N796" s="8"/>
@@ -38235,17 +38314,31 @@
       <c r="Z796" s="8"/>
     </row>
     <row r="797" ht="18.0" customHeight="1">
-      <c r="A797" s="2"/>
-      <c r="B797" s="8"/>
-      <c r="C797" s="2"/>
-      <c r="D797" s="2"/>
-      <c r="E797" s="8"/>
-      <c r="F797" s="13"/>
+      <c r="A797" s="34">
+        <v>793.0</v>
+      </c>
+      <c r="B797" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C797" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D797" s="50">
+        <v>44044.0</v>
+      </c>
+      <c r="E797" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F797" s="54" t="s">
+        <v>363</v>
+      </c>
       <c r="G797" s="2"/>
       <c r="H797" s="13"/>
       <c r="I797" s="13"/>
       <c r="J797" s="14"/>
-      <c r="K797" s="8"/>
+      <c r="K797" s="43" t="s">
+        <v>583</v>
+      </c>
       <c r="L797" s="8"/>
       <c r="M797" s="8"/>
       <c r="N797" s="8"/>
@@ -38263,17 +38356,31 @@
       <c r="Z797" s="8"/>
     </row>
     <row r="798" ht="18.0" customHeight="1">
-      <c r="A798" s="2"/>
-      <c r="B798" s="8"/>
-      <c r="C798" s="2"/>
-      <c r="D798" s="2"/>
-      <c r="E798" s="8"/>
-      <c r="F798" s="13"/>
+      <c r="A798" s="34">
+        <v>794.0</v>
+      </c>
+      <c r="B798" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C798" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D798" s="50">
+        <v>44044.0</v>
+      </c>
+      <c r="E798" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F798" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="G798" s="2"/>
       <c r="H798" s="13"/>
       <c r="I798" s="13"/>
       <c r="J798" s="14"/>
-      <c r="K798" s="8"/>
+      <c r="K798" s="43" t="s">
+        <v>583</v>
+      </c>
       <c r="L798" s="8"/>
       <c r="M798" s="8"/>
       <c r="N798" s="8"/>
@@ -38291,17 +38398,31 @@
       <c r="Z798" s="8"/>
     </row>
     <row r="799" ht="18.0" customHeight="1">
-      <c r="A799" s="2"/>
-      <c r="B799" s="8"/>
-      <c r="C799" s="2"/>
-      <c r="D799" s="2"/>
-      <c r="E799" s="8"/>
-      <c r="F799" s="13"/>
+      <c r="A799" s="34">
+        <v>795.0</v>
+      </c>
+      <c r="B799" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C799" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D799" s="50">
+        <v>44044.0</v>
+      </c>
+      <c r="E799" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F799" s="54" t="s">
+        <v>393</v>
+      </c>
       <c r="G799" s="2"/>
       <c r="H799" s="13"/>
       <c r="I799" s="13"/>
       <c r="J799" s="14"/>
-      <c r="K799" s="8"/>
+      <c r="K799" s="43" t="s">
+        <v>583</v>
+      </c>
       <c r="L799" s="8"/>
       <c r="M799" s="8"/>
       <c r="N799" s="8"/>
@@ -38319,17 +38440,31 @@
       <c r="Z799" s="8"/>
     </row>
     <row r="800" ht="18.0" customHeight="1">
-      <c r="A800" s="2"/>
-      <c r="B800" s="8"/>
-      <c r="C800" s="2"/>
-      <c r="D800" s="2"/>
-      <c r="E800" s="8"/>
-      <c r="F800" s="13"/>
+      <c r="A800" s="34">
+        <v>796.0</v>
+      </c>
+      <c r="B800" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C800" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D800" s="50">
+        <v>44044.0</v>
+      </c>
+      <c r="E800" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="F800" s="54" t="s">
+        <v>557</v>
+      </c>
       <c r="G800" s="2"/>
       <c r="H800" s="13"/>
       <c r="I800" s="13"/>
       <c r="J800" s="14"/>
-      <c r="K800" s="8"/>
+      <c r="K800" s="43" t="s">
+        <v>583</v>
+      </c>
       <c r="L800" s="8"/>
       <c r="M800" s="8"/>
       <c r="N800" s="8"/>
@@ -38347,10 +38482,18 @@
       <c r="Z800" s="8"/>
     </row>
     <row r="801" ht="18.0" customHeight="1">
-      <c r="A801" s="2"/>
-      <c r="B801" s="8"/>
-      <c r="C801" s="2"/>
-      <c r="D801" s="2"/>
+      <c r="A801" s="34">
+        <v>797.0</v>
+      </c>
+      <c r="B801" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C801" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D801" s="50">
+        <v>44044.0</v>
+      </c>
       <c r="E801" s="8"/>
       <c r="F801" s="13"/>
       <c r="G801" s="2"/>
@@ -38375,10 +38518,18 @@
       <c r="Z801" s="8"/>
     </row>
     <row r="802" ht="18.0" customHeight="1">
-      <c r="A802" s="2"/>
-      <c r="B802" s="8"/>
-      <c r="C802" s="2"/>
-      <c r="D802" s="2"/>
+      <c r="A802" s="34">
+        <v>798.0</v>
+      </c>
+      <c r="B802" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C802" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D802" s="50">
+        <v>44044.0</v>
+      </c>
       <c r="E802" s="8"/>
       <c r="F802" s="13"/>
       <c r="G802" s="2"/>
@@ -38403,10 +38554,18 @@
       <c r="Z802" s="8"/>
     </row>
     <row r="803" ht="18.0" customHeight="1">
-      <c r="A803" s="2"/>
-      <c r="B803" s="8"/>
-      <c r="C803" s="2"/>
-      <c r="D803" s="2"/>
+      <c r="A803" s="34">
+        <v>799.0</v>
+      </c>
+      <c r="B803" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C803" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D803" s="50">
+        <v>44044.0</v>
+      </c>
       <c r="E803" s="8"/>
       <c r="F803" s="13"/>
       <c r="G803" s="2"/>
@@ -38431,10 +38590,18 @@
       <c r="Z803" s="8"/>
     </row>
     <row r="804" ht="18.0" customHeight="1">
-      <c r="A804" s="2"/>
-      <c r="B804" s="8"/>
-      <c r="C804" s="2"/>
-      <c r="D804" s="2"/>
+      <c r="A804" s="34">
+        <v>800.0</v>
+      </c>
+      <c r="B804" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C804" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D804" s="50">
+        <v>44044.0</v>
+      </c>
       <c r="E804" s="8"/>
       <c r="F804" s="13"/>
       <c r="G804" s="2"/>
@@ -38459,10 +38626,18 @@
       <c r="Z804" s="8"/>
     </row>
     <row r="805" ht="18.0" customHeight="1">
-      <c r="A805" s="2"/>
-      <c r="B805" s="8"/>
-      <c r="C805" s="2"/>
-      <c r="D805" s="2"/>
+      <c r="A805" s="34">
+        <v>801.0</v>
+      </c>
+      <c r="B805" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C805" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D805" s="50">
+        <v>44044.0</v>
+      </c>
       <c r="E805" s="8"/>
       <c r="F805" s="13"/>
       <c r="G805" s="2"/>
@@ -38487,10 +38662,18 @@
       <c r="Z805" s="8"/>
     </row>
     <row r="806" ht="18.0" customHeight="1">
-      <c r="A806" s="2"/>
-      <c r="B806" s="8"/>
-      <c r="C806" s="2"/>
-      <c r="D806" s="2"/>
+      <c r="A806" s="34">
+        <v>802.0</v>
+      </c>
+      <c r="B806" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C806" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D806" s="50">
+        <v>44044.0</v>
+      </c>
       <c r="E806" s="8"/>
       <c r="F806" s="13"/>
       <c r="G806" s="2"/>
@@ -38515,10 +38698,18 @@
       <c r="Z806" s="8"/>
     </row>
     <row r="807" ht="18.0" customHeight="1">
-      <c r="A807" s="2"/>
-      <c r="B807" s="8"/>
-      <c r="C807" s="2"/>
-      <c r="D807" s="2"/>
+      <c r="A807" s="34">
+        <v>803.0</v>
+      </c>
+      <c r="B807" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C807" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D807" s="50">
+        <v>44044.0</v>
+      </c>
       <c r="E807" s="8"/>
       <c r="F807" s="13"/>
       <c r="G807" s="2"/>
@@ -38543,10 +38734,18 @@
       <c r="Z807" s="8"/>
     </row>
     <row r="808" ht="18.0" customHeight="1">
-      <c r="A808" s="2"/>
-      <c r="B808" s="8"/>
-      <c r="C808" s="2"/>
-      <c r="D808" s="2"/>
+      <c r="A808" s="34">
+        <v>804.0</v>
+      </c>
+      <c r="B808" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C808" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D808" s="50">
+        <v>44044.0</v>
+      </c>
       <c r="E808" s="8"/>
       <c r="F808" s="13"/>
       <c r="G808" s="2"/>
@@ -38571,10 +38770,18 @@
       <c r="Z808" s="8"/>
     </row>
     <row r="809" ht="18.0" customHeight="1">
-      <c r="A809" s="2"/>
-      <c r="B809" s="8"/>
-      <c r="C809" s="2"/>
-      <c r="D809" s="2"/>
+      <c r="A809" s="34">
+        <v>805.0</v>
+      </c>
+      <c r="B809" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C809" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D809" s="50">
+        <v>44044.0</v>
+      </c>
       <c r="E809" s="8"/>
       <c r="F809" s="13"/>
       <c r="G809" s="2"/>
@@ -38599,10 +38806,18 @@
       <c r="Z809" s="8"/>
     </row>
     <row r="810" ht="18.0" customHeight="1">
-      <c r="A810" s="2"/>
-      <c r="B810" s="8"/>
-      <c r="C810" s="2"/>
-      <c r="D810" s="2"/>
+      <c r="A810" s="34">
+        <v>806.0</v>
+      </c>
+      <c r="B810" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C810" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D810" s="50">
+        <v>44044.0</v>
+      </c>
       <c r="E810" s="8"/>
       <c r="F810" s="13"/>
       <c r="G810" s="2"/>
@@ -38627,10 +38842,18 @@
       <c r="Z810" s="8"/>
     </row>
     <row r="811" ht="18.0" customHeight="1">
-      <c r="A811" s="2"/>
-      <c r="B811" s="8"/>
-      <c r="C811" s="2"/>
-      <c r="D811" s="2"/>
+      <c r="A811" s="34">
+        <v>807.0</v>
+      </c>
+      <c r="B811" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C811" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D811" s="50">
+        <v>44044.0</v>
+      </c>
       <c r="E811" s="8"/>
       <c r="F811" s="13"/>
       <c r="G811" s="2"/>
@@ -38655,10 +38878,18 @@
       <c r="Z811" s="8"/>
     </row>
     <row r="812" ht="18.0" customHeight="1">
-      <c r="A812" s="2"/>
-      <c r="B812" s="8"/>
-      <c r="C812" s="2"/>
-      <c r="D812" s="2"/>
+      <c r="A812" s="34">
+        <v>808.0</v>
+      </c>
+      <c r="B812" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C812" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D812" s="50">
+        <v>44044.0</v>
+      </c>
       <c r="E812" s="8"/>
       <c r="F812" s="13"/>
       <c r="G812" s="2"/>
@@ -38683,10 +38914,18 @@
       <c r="Z812" s="8"/>
     </row>
     <row r="813" ht="18.0" customHeight="1">
-      <c r="A813" s="2"/>
-      <c r="B813" s="8"/>
-      <c r="C813" s="2"/>
-      <c r="D813" s="2"/>
+      <c r="A813" s="34">
+        <v>809.0</v>
+      </c>
+      <c r="B813" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="C813" s="49">
+        <v>44044.0</v>
+      </c>
+      <c r="D813" s="50">
+        <v>44044.0</v>
+      </c>
       <c r="E813" s="8"/>
       <c r="F813" s="13"/>
       <c r="G813" s="2"/>
@@ -44172,10 +44411,19 @@
     <hyperlink r:id="rId613" ref="K789"/>
     <hyperlink r:id="rId614" ref="K790"/>
     <hyperlink r:id="rId615" ref="K791"/>
+    <hyperlink r:id="rId616" ref="K792"/>
+    <hyperlink r:id="rId617" ref="K793"/>
+    <hyperlink r:id="rId618" ref="K794"/>
+    <hyperlink r:id="rId619" ref="K795"/>
+    <hyperlink r:id="rId620" ref="K796"/>
+    <hyperlink r:id="rId621" ref="K797"/>
+    <hyperlink r:id="rId622" ref="K798"/>
+    <hyperlink r:id="rId623" ref="K799"/>
+    <hyperlink r:id="rId624" ref="K800"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId616"/>
+  <drawing r:id="rId625"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -2156,15 +2156,11 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="游ゴシック regular"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -2297,10 +2293,6 @@
       <sz val="11.0"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF333333"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2328,44 +2320,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2374,82 +2342,109 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2462,52 +2457,46 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -36511,7 +36500,7 @@
       <c r="A754" s="34">
         <v>750.0</v>
       </c>
-      <c r="B754" s="58" t="s">
+      <c r="B754" s="48" t="s">
         <v>570</v>
       </c>
       <c r="C754" s="49">
@@ -36523,7 +36512,7 @@
       <c r="E754" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F754" s="59" t="s">
+      <c r="F754" s="57" t="s">
         <v>96</v>
       </c>
       <c r="G754" s="2"/>
@@ -36553,7 +36542,7 @@
       <c r="A755" s="34">
         <v>751.0</v>
       </c>
-      <c r="B755" s="58" t="s">
+      <c r="B755" s="48" t="s">
         <v>570</v>
       </c>
       <c r="C755" s="49">
@@ -36565,7 +36554,7 @@
       <c r="E755" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="F755" s="59" t="s">
+      <c r="F755" s="57" t="s">
         <v>96</v>
       </c>
       <c r="G755" s="2"/>
@@ -36595,7 +36584,7 @@
       <c r="A756" s="34">
         <v>752.0</v>
       </c>
-      <c r="B756" s="58" t="s">
+      <c r="B756" s="48" t="s">
         <v>570</v>
       </c>
       <c r="C756" s="49">
@@ -36607,7 +36596,7 @@
       <c r="E756" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F756" s="59" t="s">
+      <c r="F756" s="57" t="s">
         <v>363</v>
       </c>
       <c r="G756" s="2"/>
@@ -36637,7 +36626,7 @@
       <c r="A757" s="34">
         <v>753.0</v>
       </c>
-      <c r="B757" s="58" t="s">
+      <c r="B757" s="48" t="s">
         <v>570</v>
       </c>
       <c r="C757" s="49">
@@ -36649,7 +36638,7 @@
       <c r="E757" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F757" s="59" t="s">
+      <c r="F757" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G757" s="2"/>
@@ -36679,7 +36668,7 @@
       <c r="A758" s="34">
         <v>754.0</v>
       </c>
-      <c r="B758" s="58" t="s">
+      <c r="B758" s="48" t="s">
         <v>570</v>
       </c>
       <c r="C758" s="49">
@@ -36691,7 +36680,7 @@
       <c r="E758" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F758" s="59" t="s">
+      <c r="F758" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G758" s="2"/>
@@ -36721,7 +36710,7 @@
       <c r="A759" s="34">
         <v>755.0</v>
       </c>
-      <c r="B759" s="58" t="s">
+      <c r="B759" s="48" t="s">
         <v>570</v>
       </c>
       <c r="C759" s="49">
@@ -36733,7 +36722,7 @@
       <c r="E759" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F759" s="59" t="s">
+      <c r="F759" s="57" t="s">
         <v>518</v>
       </c>
       <c r="G759" s="2"/>
@@ -36763,7 +36752,7 @@
       <c r="A760" s="34">
         <v>756.0</v>
       </c>
-      <c r="B760" s="58" t="s">
+      <c r="B760" s="48" t="s">
         <v>570</v>
       </c>
       <c r="C760" s="49">
@@ -36775,7 +36764,7 @@
       <c r="E760" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F760" s="59" t="s">
+      <c r="F760" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G760" s="2"/>
@@ -36805,7 +36794,7 @@
       <c r="A761" s="34">
         <v>757.0</v>
       </c>
-      <c r="B761" s="58" t="s">
+      <c r="B761" s="48" t="s">
         <v>570</v>
       </c>
       <c r="C761" s="49">
@@ -36817,7 +36806,7 @@
       <c r="E761" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F761" s="59" t="s">
+      <c r="F761" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G761" s="2"/>
@@ -36847,7 +36836,7 @@
       <c r="A762" s="34">
         <v>758.0</v>
       </c>
-      <c r="B762" s="58" t="s">
+      <c r="B762" s="48" t="s">
         <v>570</v>
       </c>
       <c r="C762" s="49">
@@ -36859,7 +36848,7 @@
       <c r="E762" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F762" s="59" t="s">
+      <c r="F762" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G762" s="2"/>
@@ -36889,7 +36878,7 @@
       <c r="A763" s="34">
         <v>759.0</v>
       </c>
-      <c r="B763" s="58" t="s">
+      <c r="B763" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C763" s="49">
@@ -36931,7 +36920,7 @@
       <c r="A764" s="34">
         <v>760.0</v>
       </c>
-      <c r="B764" s="58" t="s">
+      <c r="B764" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C764" s="49">
@@ -36973,7 +36962,7 @@
       <c r="A765" s="34">
         <v>761.0</v>
       </c>
-      <c r="B765" s="58" t="s">
+      <c r="B765" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C765" s="49">
@@ -37015,7 +37004,7 @@
       <c r="A766" s="34">
         <v>762.0</v>
       </c>
-      <c r="B766" s="58" t="s">
+      <c r="B766" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C766" s="49">
@@ -37057,7 +37046,7 @@
       <c r="A767" s="34">
         <v>763.0</v>
       </c>
-      <c r="B767" s="58" t="s">
+      <c r="B767" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C767" s="49">
@@ -37099,7 +37088,7 @@
       <c r="A768" s="34">
         <v>764.0</v>
       </c>
-      <c r="B768" s="58" t="s">
+      <c r="B768" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C768" s="49">
@@ -37141,7 +37130,7 @@
       <c r="A769" s="34">
         <v>765.0</v>
       </c>
-      <c r="B769" s="58" t="s">
+      <c r="B769" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C769" s="49">
@@ -37183,7 +37172,7 @@
       <c r="A770" s="34">
         <v>766.0</v>
       </c>
-      <c r="B770" s="58" t="s">
+      <c r="B770" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C770" s="49">
@@ -37225,7 +37214,7 @@
       <c r="A771" s="34">
         <v>767.0</v>
       </c>
-      <c r="B771" s="58" t="s">
+      <c r="B771" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C771" s="49">
@@ -37267,7 +37256,7 @@
       <c r="A772" s="34">
         <v>768.0</v>
       </c>
-      <c r="B772" s="58" t="s">
+      <c r="B772" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C772" s="49">
@@ -37309,7 +37298,7 @@
       <c r="A773" s="34">
         <v>769.0</v>
       </c>
-      <c r="B773" s="58" t="s">
+      <c r="B773" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C773" s="49">
@@ -37351,7 +37340,7 @@
       <c r="A774" s="34">
         <v>770.0</v>
       </c>
-      <c r="B774" s="58" t="s">
+      <c r="B774" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C774" s="49">
@@ -37393,7 +37382,7 @@
       <c r="A775" s="34">
         <v>771.0</v>
       </c>
-      <c r="B775" s="58" t="s">
+      <c r="B775" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C775" s="49">
@@ -37435,7 +37424,7 @@
       <c r="A776" s="34">
         <v>772.0</v>
       </c>
-      <c r="B776" s="58" t="s">
+      <c r="B776" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C776" s="49">
@@ -37477,7 +37466,7 @@
       <c r="A777" s="34">
         <v>773.0</v>
       </c>
-      <c r="B777" s="58" t="s">
+      <c r="B777" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C777" s="49">
@@ -37519,7 +37508,7 @@
       <c r="A778" s="34">
         <v>774.0</v>
       </c>
-      <c r="B778" s="58" t="s">
+      <c r="B778" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C778" s="49">
@@ -37561,7 +37550,7 @@
       <c r="A779" s="34">
         <v>775.0</v>
       </c>
-      <c r="B779" s="58" t="s">
+      <c r="B779" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C779" s="49">
@@ -37603,7 +37592,7 @@
       <c r="A780" s="34">
         <v>776.0</v>
       </c>
-      <c r="B780" s="58" t="s">
+      <c r="B780" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C780" s="49">
@@ -37645,7 +37634,7 @@
       <c r="A781" s="34">
         <v>777.0</v>
       </c>
-      <c r="B781" s="58" t="s">
+      <c r="B781" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C781" s="49">
@@ -37687,7 +37676,7 @@
       <c r="A782" s="34">
         <v>778.0</v>
       </c>
-      <c r="B782" s="58" t="s">
+      <c r="B782" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C782" s="49">
@@ -37729,7 +37718,7 @@
       <c r="A783" s="34">
         <v>779.0</v>
       </c>
-      <c r="B783" s="58" t="s">
+      <c r="B783" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C783" s="49">
@@ -37771,7 +37760,7 @@
       <c r="A784" s="34">
         <v>780.0</v>
       </c>
-      <c r="B784" s="58" t="s">
+      <c r="B784" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C784" s="49">
@@ -37813,7 +37802,7 @@
       <c r="A785" s="34">
         <v>781.0</v>
       </c>
-      <c r="B785" s="58" t="s">
+      <c r="B785" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C785" s="49">
@@ -37855,7 +37844,7 @@
       <c r="A786" s="34">
         <v>782.0</v>
       </c>
-      <c r="B786" s="58" t="s">
+      <c r="B786" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C786" s="49">
@@ -37897,7 +37886,7 @@
       <c r="A787" s="34">
         <v>783.0</v>
       </c>
-      <c r="B787" s="58" t="s">
+      <c r="B787" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C787" s="49">
@@ -37939,7 +37928,7 @@
       <c r="A788" s="34">
         <v>784.0</v>
       </c>
-      <c r="B788" s="58" t="s">
+      <c r="B788" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C788" s="49">
@@ -37981,7 +37970,7 @@
       <c r="A789" s="34">
         <v>785.0</v>
       </c>
-      <c r="B789" s="58" t="s">
+      <c r="B789" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C789" s="49">
@@ -38023,7 +38012,7 @@
       <c r="A790" s="34">
         <v>786.0</v>
       </c>
-      <c r="B790" s="58" t="s">
+      <c r="B790" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C790" s="49">
@@ -38065,7 +38054,7 @@
       <c r="A791" s="34">
         <v>787.0</v>
       </c>
-      <c r="B791" s="58" t="s">
+      <c r="B791" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C791" s="49">
@@ -38107,7 +38096,7 @@
       <c r="A792" s="34">
         <v>788.0</v>
       </c>
-      <c r="B792" s="58" t="s">
+      <c r="B792" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C792" s="49">
@@ -38149,7 +38138,7 @@
       <c r="A793" s="34">
         <v>789.0</v>
       </c>
-      <c r="B793" s="58" t="s">
+      <c r="B793" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C793" s="49">
@@ -38191,7 +38180,7 @@
       <c r="A794" s="34">
         <v>790.0</v>
       </c>
-      <c r="B794" s="58" t="s">
+      <c r="B794" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C794" s="49">
@@ -38233,7 +38222,7 @@
       <c r="A795" s="34">
         <v>791.0</v>
       </c>
-      <c r="B795" s="58" t="s">
+      <c r="B795" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C795" s="49">
@@ -38275,7 +38264,7 @@
       <c r="A796" s="34">
         <v>792.0</v>
       </c>
-      <c r="B796" s="58" t="s">
+      <c r="B796" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C796" s="49">
@@ -38317,7 +38306,7 @@
       <c r="A797" s="34">
         <v>793.0</v>
       </c>
-      <c r="B797" s="58" t="s">
+      <c r="B797" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C797" s="49">
@@ -38359,7 +38348,7 @@
       <c r="A798" s="34">
         <v>794.0</v>
       </c>
-      <c r="B798" s="58" t="s">
+      <c r="B798" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C798" s="49">
@@ -38401,7 +38390,7 @@
       <c r="A799" s="34">
         <v>795.0</v>
       </c>
-      <c r="B799" s="58" t="s">
+      <c r="B799" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C799" s="49">
@@ -38443,7 +38432,7 @@
       <c r="A800" s="34">
         <v>796.0</v>
       </c>
-      <c r="B800" s="58" t="s">
+      <c r="B800" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C800" s="49">
@@ -38485,7 +38474,7 @@
       <c r="A801" s="34">
         <v>797.0</v>
       </c>
-      <c r="B801" s="58" t="s">
+      <c r="B801" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C801" s="49">
@@ -38521,7 +38510,7 @@
       <c r="A802" s="34">
         <v>798.0</v>
       </c>
-      <c r="B802" s="58" t="s">
+      <c r="B802" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C802" s="49">
@@ -38557,7 +38546,7 @@
       <c r="A803" s="34">
         <v>799.0</v>
       </c>
-      <c r="B803" s="58" t="s">
+      <c r="B803" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C803" s="49">
@@ -38593,7 +38582,7 @@
       <c r="A804" s="34">
         <v>800.0</v>
       </c>
-      <c r="B804" s="58" t="s">
+      <c r="B804" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C804" s="49">
@@ -38629,7 +38618,7 @@
       <c r="A805" s="34">
         <v>801.0</v>
       </c>
-      <c r="B805" s="58" t="s">
+      <c r="B805" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C805" s="49">
@@ -38665,7 +38654,7 @@
       <c r="A806" s="34">
         <v>802.0</v>
       </c>
-      <c r="B806" s="58" t="s">
+      <c r="B806" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C806" s="49">
@@ -38701,7 +38690,7 @@
       <c r="A807" s="34">
         <v>803.0</v>
       </c>
-      <c r="B807" s="58" t="s">
+      <c r="B807" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C807" s="49">
@@ -38737,7 +38726,7 @@
       <c r="A808" s="34">
         <v>804.0</v>
       </c>
-      <c r="B808" s="58" t="s">
+      <c r="B808" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C808" s="49">
@@ -38773,7 +38762,7 @@
       <c r="A809" s="34">
         <v>805.0</v>
       </c>
-      <c r="B809" s="58" t="s">
+      <c r="B809" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C809" s="49">
@@ -38809,7 +38798,7 @@
       <c r="A810" s="34">
         <v>806.0</v>
       </c>
-      <c r="B810" s="58" t="s">
+      <c r="B810" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C810" s="49">
@@ -38845,7 +38834,7 @@
       <c r="A811" s="34">
         <v>807.0</v>
       </c>
-      <c r="B811" s="58" t="s">
+      <c r="B811" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C811" s="49">
@@ -38881,7 +38870,7 @@
       <c r="A812" s="34">
         <v>808.0</v>
       </c>
-      <c r="B812" s="58" t="s">
+      <c r="B812" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C812" s="49">
@@ -38917,7 +38906,7 @@
       <c r="A813" s="34">
         <v>809.0</v>
       </c>
-      <c r="B813" s="58" t="s">
+      <c r="B813" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C813" s="49">
@@ -38951,7 +38940,7 @@
     </row>
     <row r="814" ht="18.0" customHeight="1">
       <c r="A814" s="2"/>
-      <c r="B814" s="8"/>
+      <c r="B814" s="58"/>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
       <c r="E814" s="8"/>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="584">
-  <si>
-    <t>2020-08-01T19:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3964" uniqueCount="586">
+  <si>
+    <t>2020-08-02T20:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2146,6 +2146,12 @@
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200801-793-796.pdf</t>
   </si>
+  <si>
+    <t>愛知県内</t>
+  </si>
+  <si>
+    <t>2020-08-02T08:00:00.000Z</t>
+  </si>
 </sst>
 </file>
 
@@ -2156,11 +2162,15 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="游ゴシック regular"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -2327,13 +2337,37 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2342,109 +2376,82 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2457,45 +2464,48 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -38474,17 +38484,21 @@
       <c r="A801" s="34">
         <v>797.0</v>
       </c>
-      <c r="B801" s="48" t="s">
-        <v>581</v>
+      <c r="B801" s="58" t="s">
+        <v>573</v>
       </c>
       <c r="C801" s="49">
-        <v>44044.0</v>
+        <v>44043.0</v>
       </c>
       <c r="D801" s="50">
-        <v>44044.0</v>
-      </c>
-      <c r="E801" s="8"/>
-      <c r="F801" s="13"/>
+        <v>44043.0</v>
+      </c>
+      <c r="E801" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F801" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G801" s="2"/>
       <c r="H801" s="13"/>
       <c r="I801" s="13"/>
@@ -38510,17 +38524,21 @@
       <c r="A802" s="34">
         <v>798.0</v>
       </c>
-      <c r="B802" s="48" t="s">
-        <v>581</v>
+      <c r="B802" s="58" t="s">
+        <v>573</v>
       </c>
       <c r="C802" s="49">
-        <v>44044.0</v>
+        <v>44043.0</v>
       </c>
       <c r="D802" s="50">
-        <v>44044.0</v>
-      </c>
-      <c r="E802" s="8"/>
-      <c r="F802" s="13"/>
+        <v>44043.0</v>
+      </c>
+      <c r="E802" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="F802" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G802" s="2"/>
       <c r="H802" s="13"/>
       <c r="I802" s="13"/>
@@ -38546,17 +38564,21 @@
       <c r="A803" s="34">
         <v>799.0</v>
       </c>
-      <c r="B803" s="48" t="s">
-        <v>581</v>
+      <c r="B803" s="58" t="s">
+        <v>573</v>
       </c>
       <c r="C803" s="49">
-        <v>44044.0</v>
+        <v>44043.0</v>
       </c>
       <c r="D803" s="50">
-        <v>44044.0</v>
-      </c>
-      <c r="E803" s="8"/>
-      <c r="F803" s="13"/>
+        <v>44043.0</v>
+      </c>
+      <c r="E803" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F803" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G803" s="2"/>
       <c r="H803" s="13"/>
       <c r="I803" s="13"/>
@@ -38582,17 +38604,21 @@
       <c r="A804" s="34">
         <v>800.0</v>
       </c>
-      <c r="B804" s="48" t="s">
-        <v>581</v>
+      <c r="B804" s="58" t="s">
+        <v>573</v>
       </c>
       <c r="C804" s="49">
-        <v>44044.0</v>
+        <v>44043.0</v>
       </c>
       <c r="D804" s="50">
-        <v>44044.0</v>
-      </c>
-      <c r="E804" s="8"/>
-      <c r="F804" s="13"/>
+        <v>44043.0</v>
+      </c>
+      <c r="E804" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F804" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G804" s="2"/>
       <c r="H804" s="13"/>
       <c r="I804" s="13"/>
@@ -38618,17 +38644,21 @@
       <c r="A805" s="34">
         <v>801.0</v>
       </c>
-      <c r="B805" s="48" t="s">
-        <v>581</v>
+      <c r="B805" s="58" t="s">
+        <v>573</v>
       </c>
       <c r="C805" s="49">
-        <v>44044.0</v>
+        <v>44043.0</v>
       </c>
       <c r="D805" s="50">
-        <v>44044.0</v>
-      </c>
-      <c r="E805" s="8"/>
-      <c r="F805" s="13"/>
+        <v>44043.0</v>
+      </c>
+      <c r="E805" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F805" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G805" s="2"/>
       <c r="H805" s="13"/>
       <c r="I805" s="13"/>
@@ -38654,17 +38684,21 @@
       <c r="A806" s="34">
         <v>802.0</v>
       </c>
-      <c r="B806" s="48" t="s">
-        <v>581</v>
+      <c r="B806" s="58" t="s">
+        <v>573</v>
       </c>
       <c r="C806" s="49">
-        <v>44044.0</v>
+        <v>44043.0</v>
       </c>
       <c r="D806" s="50">
-        <v>44044.0</v>
-      </c>
-      <c r="E806" s="8"/>
-      <c r="F806" s="13"/>
+        <v>44043.0</v>
+      </c>
+      <c r="E806" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F806" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G806" s="2"/>
       <c r="H806" s="13"/>
       <c r="I806" s="13"/>
@@ -38690,17 +38724,21 @@
       <c r="A807" s="34">
         <v>803.0</v>
       </c>
-      <c r="B807" s="48" t="s">
-        <v>581</v>
+      <c r="B807" s="58" t="s">
+        <v>573</v>
       </c>
       <c r="C807" s="49">
-        <v>44044.0</v>
+        <v>44043.0</v>
       </c>
       <c r="D807" s="50">
-        <v>44044.0</v>
-      </c>
-      <c r="E807" s="8"/>
-      <c r="F807" s="13"/>
+        <v>44043.0</v>
+      </c>
+      <c r="E807" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F807" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G807" s="2"/>
       <c r="H807" s="13"/>
       <c r="I807" s="13"/>
@@ -38726,17 +38764,21 @@
       <c r="A808" s="34">
         <v>804.0</v>
       </c>
-      <c r="B808" s="48" t="s">
-        <v>581</v>
+      <c r="B808" s="58" t="s">
+        <v>573</v>
       </c>
       <c r="C808" s="49">
-        <v>44044.0</v>
+        <v>44043.0</v>
       </c>
       <c r="D808" s="50">
-        <v>44044.0</v>
-      </c>
-      <c r="E808" s="8"/>
-      <c r="F808" s="13"/>
+        <v>44043.0</v>
+      </c>
+      <c r="E808" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F808" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G808" s="2"/>
       <c r="H808" s="13"/>
       <c r="I808" s="13"/>
@@ -38762,17 +38804,21 @@
       <c r="A809" s="34">
         <v>805.0</v>
       </c>
-      <c r="B809" s="48" t="s">
-        <v>581</v>
+      <c r="B809" s="58" t="s">
+        <v>573</v>
       </c>
       <c r="C809" s="49">
-        <v>44044.0</v>
+        <v>44043.0</v>
       </c>
       <c r="D809" s="50">
-        <v>44044.0</v>
-      </c>
-      <c r="E809" s="8"/>
-      <c r="F809" s="13"/>
+        <v>44043.0</v>
+      </c>
+      <c r="E809" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F809" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G809" s="2"/>
       <c r="H809" s="13"/>
       <c r="I809" s="13"/>
@@ -38798,17 +38844,21 @@
       <c r="A810" s="34">
         <v>806.0</v>
       </c>
-      <c r="B810" s="48" t="s">
-        <v>581</v>
+      <c r="B810" s="58" t="s">
+        <v>573</v>
       </c>
       <c r="C810" s="49">
-        <v>44044.0</v>
+        <v>44043.0</v>
       </c>
       <c r="D810" s="50">
-        <v>44044.0</v>
-      </c>
-      <c r="E810" s="8"/>
-      <c r="F810" s="13"/>
+        <v>44043.0</v>
+      </c>
+      <c r="E810" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F810" s="56" t="s">
+        <v>584</v>
+      </c>
       <c r="G810" s="2"/>
       <c r="H810" s="13"/>
       <c r="I810" s="13"/>
@@ -38834,17 +38884,21 @@
       <c r="A811" s="34">
         <v>807.0</v>
       </c>
-      <c r="B811" s="48" t="s">
-        <v>581</v>
+      <c r="B811" s="58" t="s">
+        <v>573</v>
       </c>
       <c r="C811" s="49">
-        <v>44044.0</v>
+        <v>44043.0</v>
       </c>
       <c r="D811" s="50">
-        <v>44044.0</v>
-      </c>
-      <c r="E811" s="8"/>
-      <c r="F811" s="13"/>
+        <v>44043.0</v>
+      </c>
+      <c r="E811" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F811" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G811" s="2"/>
       <c r="H811" s="13"/>
       <c r="I811" s="13"/>
@@ -38870,17 +38924,21 @@
       <c r="A812" s="34">
         <v>808.0</v>
       </c>
-      <c r="B812" s="48" t="s">
-        <v>581</v>
+      <c r="B812" s="58" t="s">
+        <v>573</v>
       </c>
       <c r="C812" s="49">
-        <v>44044.0</v>
+        <v>44043.0</v>
       </c>
       <c r="D812" s="50">
-        <v>44044.0</v>
-      </c>
-      <c r="E812" s="8"/>
-      <c r="F812" s="13"/>
+        <v>44043.0</v>
+      </c>
+      <c r="E812" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F812" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G812" s="2"/>
       <c r="H812" s="13"/>
       <c r="I812" s="13"/>
@@ -38906,17 +38964,21 @@
       <c r="A813" s="34">
         <v>809.0</v>
       </c>
-      <c r="B813" s="48" t="s">
-        <v>581</v>
+      <c r="B813" s="58" t="s">
+        <v>573</v>
       </c>
       <c r="C813" s="49">
-        <v>44044.0</v>
+        <v>44043.0</v>
       </c>
       <c r="D813" s="50">
-        <v>44044.0</v>
-      </c>
-      <c r="E813" s="8"/>
-      <c r="F813" s="13"/>
+        <v>44043.0</v>
+      </c>
+      <c r="E813" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F813" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G813" s="2"/>
       <c r="H813" s="13"/>
       <c r="I813" s="13"/>
@@ -38939,12 +39001,24 @@
       <c r="Z813" s="8"/>
     </row>
     <row r="814" ht="18.0" customHeight="1">
-      <c r="A814" s="2"/>
-      <c r="B814" s="58"/>
-      <c r="C814" s="2"/>
-      <c r="D814" s="2"/>
-      <c r="E814" s="8"/>
-      <c r="F814" s="13"/>
+      <c r="A814" s="34">
+        <v>810.0</v>
+      </c>
+      <c r="B814" s="58" t="s">
+        <v>585</v>
+      </c>
+      <c r="C814" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D814" s="50">
+        <v>44045.0</v>
+      </c>
+      <c r="E814" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F814" s="56" t="s">
+        <v>363</v>
+      </c>
       <c r="G814" s="2"/>
       <c r="H814" s="13"/>
       <c r="I814" s="13"/>
@@ -38967,12 +39041,24 @@
       <c r="Z814" s="8"/>
     </row>
     <row r="815" ht="18.0" customHeight="1">
-      <c r="A815" s="2"/>
-      <c r="B815" s="8"/>
-      <c r="C815" s="2"/>
-      <c r="D815" s="2"/>
-      <c r="E815" s="8"/>
-      <c r="F815" s="13"/>
+      <c r="A815" s="34">
+        <v>811.0</v>
+      </c>
+      <c r="B815" s="58" t="s">
+        <v>585</v>
+      </c>
+      <c r="C815" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D815" s="50">
+        <v>44045.0</v>
+      </c>
+      <c r="E815" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F815" s="56" t="s">
+        <v>363</v>
+      </c>
       <c r="G815" s="2"/>
       <c r="H815" s="13"/>
       <c r="I815" s="13"/>
@@ -38995,12 +39081,24 @@
       <c r="Z815" s="8"/>
     </row>
     <row r="816" ht="18.0" customHeight="1">
-      <c r="A816" s="2"/>
-      <c r="B816" s="8"/>
-      <c r="C816" s="2"/>
-      <c r="D816" s="2"/>
-      <c r="E816" s="8"/>
-      <c r="F816" s="13"/>
+      <c r="A816" s="34">
+        <v>812.0</v>
+      </c>
+      <c r="B816" s="58" t="s">
+        <v>585</v>
+      </c>
+      <c r="C816" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D816" s="50">
+        <v>44045.0</v>
+      </c>
+      <c r="E816" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F816" s="56" t="s">
+        <v>363</v>
+      </c>
       <c r="G816" s="2"/>
       <c r="H816" s="13"/>
       <c r="I816" s="13"/>
@@ -39023,12 +39121,18 @@
       <c r="Z816" s="8"/>
     </row>
     <row r="817" ht="18.0" customHeight="1">
-      <c r="A817" s="2"/>
+      <c r="A817" s="34">
+        <v>813.0</v>
+      </c>
       <c r="B817" s="8"/>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
-      <c r="E817" s="8"/>
-      <c r="F817" s="13"/>
+      <c r="E817" s="55" t="s">
+        <v>508</v>
+      </c>
+      <c r="F817" s="56" t="s">
+        <v>363</v>
+      </c>
       <c r="G817" s="2"/>
       <c r="H817" s="13"/>
       <c r="I817" s="13"/>
@@ -39051,12 +39155,18 @@
       <c r="Z817" s="8"/>
     </row>
     <row r="818" ht="18.0" customHeight="1">
-      <c r="A818" s="2"/>
+      <c r="A818" s="34">
+        <v>814.0</v>
+      </c>
       <c r="B818" s="8"/>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
-      <c r="E818" s="8"/>
-      <c r="F818" s="13"/>
+      <c r="E818" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F818" s="56" t="s">
+        <v>363</v>
+      </c>
       <c r="G818" s="2"/>
       <c r="H818" s="13"/>
       <c r="I818" s="13"/>
@@ -39079,12 +39189,18 @@
       <c r="Z818" s="8"/>
     </row>
     <row r="819" ht="18.0" customHeight="1">
-      <c r="A819" s="2"/>
+      <c r="A819" s="34">
+        <v>815.0</v>
+      </c>
       <c r="B819" s="8"/>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
-      <c r="E819" s="8"/>
-      <c r="F819" s="13"/>
+      <c r="E819" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="F819" s="56" t="s">
+        <v>393</v>
+      </c>
       <c r="G819" s="2"/>
       <c r="H819" s="13"/>
       <c r="I819" s="13"/>
@@ -39107,12 +39223,18 @@
       <c r="Z819" s="8"/>
     </row>
     <row r="820" ht="18.0" customHeight="1">
-      <c r="A820" s="2"/>
+      <c r="A820" s="34">
+        <v>816.0</v>
+      </c>
       <c r="B820" s="8"/>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
-      <c r="E820" s="8"/>
-      <c r="F820" s="13"/>
+      <c r="E820" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="F820" s="56" t="s">
+        <v>393</v>
+      </c>
       <c r="G820" s="2"/>
       <c r="H820" s="13"/>
       <c r="I820" s="13"/>
@@ -39135,7 +39257,9 @@
       <c r="Z820" s="8"/>
     </row>
     <row r="821" ht="18.0" customHeight="1">
-      <c r="A821" s="2"/>
+      <c r="A821" s="34">
+        <v>817.0</v>
+      </c>
       <c r="B821" s="8"/>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -39163,7 +39287,9 @@
       <c r="Z821" s="8"/>
     </row>
     <row r="822" ht="18.0" customHeight="1">
-      <c r="A822" s="2"/>
+      <c r="A822" s="34">
+        <v>818.0</v>
+      </c>
       <c r="B822" s="8"/>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -39191,7 +39317,9 @@
       <c r="Z822" s="8"/>
     </row>
     <row r="823" ht="18.0" customHeight="1">
-      <c r="A823" s="2"/>
+      <c r="A823" s="34">
+        <v>819.0</v>
+      </c>
       <c r="B823" s="8"/>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -39219,7 +39347,9 @@
       <c r="Z823" s="8"/>
     </row>
     <row r="824" ht="18.0" customHeight="1">
-      <c r="A824" s="2"/>
+      <c r="A824" s="34">
+        <v>820.0</v>
+      </c>
       <c r="B824" s="8"/>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -39247,7 +39377,9 @@
       <c r="Z824" s="8"/>
     </row>
     <row r="825" ht="18.0" customHeight="1">
-      <c r="A825" s="2"/>
+      <c r="A825" s="34">
+        <v>821.0</v>
+      </c>
       <c r="B825" s="8"/>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -39275,7 +39407,9 @@
       <c r="Z825" s="8"/>
     </row>
     <row r="826" ht="18.0" customHeight="1">
-      <c r="A826" s="2"/>
+      <c r="A826" s="34">
+        <v>822.0</v>
+      </c>
       <c r="B826" s="8"/>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -39303,7 +39437,9 @@
       <c r="Z826" s="8"/>
     </row>
     <row r="827" ht="18.0" customHeight="1">
-      <c r="A827" s="2"/>
+      <c r="A827" s="34">
+        <v>823.0</v>
+      </c>
       <c r="B827" s="8"/>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -39331,7 +39467,9 @@
       <c r="Z827" s="8"/>
     </row>
     <row r="828" ht="18.0" customHeight="1">
-      <c r="A828" s="2"/>
+      <c r="A828" s="34">
+        <v>824.0</v>
+      </c>
       <c r="B828" s="8"/>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -39359,7 +39497,9 @@
       <c r="Z828" s="8"/>
     </row>
     <row r="829" ht="18.0" customHeight="1">
-      <c r="A829" s="2"/>
+      <c r="A829" s="34">
+        <v>825.0</v>
+      </c>
       <c r="B829" s="8"/>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -39387,7 +39527,9 @@
       <c r="Z829" s="8"/>
     </row>
     <row r="830" ht="18.0" customHeight="1">
-      <c r="A830" s="2"/>
+      <c r="A830" s="34">
+        <v>826.0</v>
+      </c>
       <c r="B830" s="8"/>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3964" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="588">
   <si>
     <t>2020-08-02T20:00:00.000Z</t>
   </si>
@@ -2147,10 +2147,16 @@
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200801-793-796.pdf</t>
   </si>
   <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273297/200801oshirase(552-564).pdf</t>
+  </si>
+  <si>
     <t>愛知県内</t>
   </si>
   <si>
     <t>2020-08-02T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200802-810-816.pdf</t>
   </si>
 </sst>
 </file>
@@ -38503,7 +38509,9 @@
       <c r="H801" s="13"/>
       <c r="I801" s="13"/>
       <c r="J801" s="14"/>
-      <c r="K801" s="8"/>
+      <c r="K801" s="43" t="s">
+        <v>584</v>
+      </c>
       <c r="L801" s="8"/>
       <c r="M801" s="8"/>
       <c r="N801" s="8"/>
@@ -38543,7 +38551,9 @@
       <c r="H802" s="13"/>
       <c r="I802" s="13"/>
       <c r="J802" s="14"/>
-      <c r="K802" s="8"/>
+      <c r="K802" s="43" t="s">
+        <v>584</v>
+      </c>
       <c r="L802" s="8"/>
       <c r="M802" s="8"/>
       <c r="N802" s="8"/>
@@ -38583,7 +38593,9 @@
       <c r="H803" s="13"/>
       <c r="I803" s="13"/>
       <c r="J803" s="14"/>
-      <c r="K803" s="8"/>
+      <c r="K803" s="43" t="s">
+        <v>584</v>
+      </c>
       <c r="L803" s="8"/>
       <c r="M803" s="8"/>
       <c r="N803" s="8"/>
@@ -38623,7 +38635,9 @@
       <c r="H804" s="13"/>
       <c r="I804" s="13"/>
       <c r="J804" s="14"/>
-      <c r="K804" s="8"/>
+      <c r="K804" s="43" t="s">
+        <v>584</v>
+      </c>
       <c r="L804" s="8"/>
       <c r="M804" s="8"/>
       <c r="N804" s="8"/>
@@ -38663,7 +38677,9 @@
       <c r="H805" s="13"/>
       <c r="I805" s="13"/>
       <c r="J805" s="14"/>
-      <c r="K805" s="8"/>
+      <c r="K805" s="43" t="s">
+        <v>584</v>
+      </c>
       <c r="L805" s="8"/>
       <c r="M805" s="8"/>
       <c r="N805" s="8"/>
@@ -38703,7 +38719,9 @@
       <c r="H806" s="13"/>
       <c r="I806" s="13"/>
       <c r="J806" s="14"/>
-      <c r="K806" s="8"/>
+      <c r="K806" s="43" t="s">
+        <v>584</v>
+      </c>
       <c r="L806" s="8"/>
       <c r="M806" s="8"/>
       <c r="N806" s="8"/>
@@ -38743,7 +38761,9 @@
       <c r="H807" s="13"/>
       <c r="I807" s="13"/>
       <c r="J807" s="14"/>
-      <c r="K807" s="8"/>
+      <c r="K807" s="43" t="s">
+        <v>584</v>
+      </c>
       <c r="L807" s="8"/>
       <c r="M807" s="8"/>
       <c r="N807" s="8"/>
@@ -38783,7 +38803,9 @@
       <c r="H808" s="13"/>
       <c r="I808" s="13"/>
       <c r="J808" s="14"/>
-      <c r="K808" s="8"/>
+      <c r="K808" s="43" t="s">
+        <v>584</v>
+      </c>
       <c r="L808" s="8"/>
       <c r="M808" s="8"/>
       <c r="N808" s="8"/>
@@ -38823,7 +38845,9 @@
       <c r="H809" s="13"/>
       <c r="I809" s="13"/>
       <c r="J809" s="14"/>
-      <c r="K809" s="8"/>
+      <c r="K809" s="43" t="s">
+        <v>584</v>
+      </c>
       <c r="L809" s="8"/>
       <c r="M809" s="8"/>
       <c r="N809" s="8"/>
@@ -38857,13 +38881,15 @@
         <v>22</v>
       </c>
       <c r="F810" s="56" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G810" s="2"/>
       <c r="H810" s="13"/>
       <c r="I810" s="13"/>
       <c r="J810" s="14"/>
-      <c r="K810" s="8"/>
+      <c r="K810" s="43" t="s">
+        <v>584</v>
+      </c>
       <c r="L810" s="8"/>
       <c r="M810" s="8"/>
       <c r="N810" s="8"/>
@@ -38903,7 +38929,9 @@
       <c r="H811" s="13"/>
       <c r="I811" s="13"/>
       <c r="J811" s="14"/>
-      <c r="K811" s="8"/>
+      <c r="K811" s="43" t="s">
+        <v>584</v>
+      </c>
       <c r="L811" s="8"/>
       <c r="M811" s="8"/>
       <c r="N811" s="8"/>
@@ -38943,7 +38971,9 @@
       <c r="H812" s="13"/>
       <c r="I812" s="13"/>
       <c r="J812" s="14"/>
-      <c r="K812" s="8"/>
+      <c r="K812" s="43" t="s">
+        <v>584</v>
+      </c>
       <c r="L812" s="8"/>
       <c r="M812" s="8"/>
       <c r="N812" s="8"/>
@@ -38983,7 +39013,9 @@
       <c r="H813" s="13"/>
       <c r="I813" s="13"/>
       <c r="J813" s="14"/>
-      <c r="K813" s="8"/>
+      <c r="K813" s="43" t="s">
+        <v>584</v>
+      </c>
       <c r="L813" s="8"/>
       <c r="M813" s="8"/>
       <c r="N813" s="8"/>
@@ -39005,7 +39037,7 @@
         <v>810.0</v>
       </c>
       <c r="B814" s="58" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C814" s="49">
         <v>44045.0</v>
@@ -39023,7 +39055,9 @@
       <c r="H814" s="13"/>
       <c r="I814" s="13"/>
       <c r="J814" s="14"/>
-      <c r="K814" s="8"/>
+      <c r="K814" s="43" t="s">
+        <v>587</v>
+      </c>
       <c r="L814" s="8"/>
       <c r="M814" s="8"/>
       <c r="N814" s="8"/>
@@ -39045,7 +39079,7 @@
         <v>811.0</v>
       </c>
       <c r="B815" s="58" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C815" s="49">
         <v>44045.0</v>
@@ -39063,7 +39097,9 @@
       <c r="H815" s="13"/>
       <c r="I815" s="13"/>
       <c r="J815" s="14"/>
-      <c r="K815" s="8"/>
+      <c r="K815" s="43" t="s">
+        <v>587</v>
+      </c>
       <c r="L815" s="8"/>
       <c r="M815" s="8"/>
       <c r="N815" s="8"/>
@@ -39085,7 +39121,7 @@
         <v>812.0</v>
       </c>
       <c r="B816" s="58" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C816" s="49">
         <v>44045.0</v>
@@ -39103,7 +39139,9 @@
       <c r="H816" s="13"/>
       <c r="I816" s="13"/>
       <c r="J816" s="14"/>
-      <c r="K816" s="8"/>
+      <c r="K816" s="43" t="s">
+        <v>587</v>
+      </c>
       <c r="L816" s="8"/>
       <c r="M816" s="8"/>
       <c r="N816" s="8"/>
@@ -39124,9 +39162,15 @@
       <c r="A817" s="34">
         <v>813.0</v>
       </c>
-      <c r="B817" s="8"/>
-      <c r="C817" s="2"/>
-      <c r="D817" s="2"/>
+      <c r="B817" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="C817" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D817" s="50">
+        <v>44045.0</v>
+      </c>
       <c r="E817" s="55" t="s">
         <v>508</v>
       </c>
@@ -39137,7 +39181,9 @@
       <c r="H817" s="13"/>
       <c r="I817" s="13"/>
       <c r="J817" s="14"/>
-      <c r="K817" s="8"/>
+      <c r="K817" s="43" t="s">
+        <v>587</v>
+      </c>
       <c r="L817" s="8"/>
       <c r="M817" s="8"/>
       <c r="N817" s="8"/>
@@ -39158,9 +39204,15 @@
       <c r="A818" s="34">
         <v>814.0</v>
       </c>
-      <c r="B818" s="8"/>
-      <c r="C818" s="2"/>
-      <c r="D818" s="2"/>
+      <c r="B818" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="C818" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D818" s="50">
+        <v>44045.0</v>
+      </c>
       <c r="E818" s="55" t="s">
         <v>46</v>
       </c>
@@ -39171,7 +39223,9 @@
       <c r="H818" s="13"/>
       <c r="I818" s="13"/>
       <c r="J818" s="14"/>
-      <c r="K818" s="8"/>
+      <c r="K818" s="43" t="s">
+        <v>587</v>
+      </c>
       <c r="L818" s="8"/>
       <c r="M818" s="8"/>
       <c r="N818" s="8"/>
@@ -39192,9 +39246,15 @@
       <c r="A819" s="34">
         <v>815.0</v>
       </c>
-      <c r="B819" s="8"/>
-      <c r="C819" s="2"/>
-      <c r="D819" s="2"/>
+      <c r="B819" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="C819" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D819" s="50">
+        <v>44045.0</v>
+      </c>
       <c r="E819" s="55" t="s">
         <v>333</v>
       </c>
@@ -39205,7 +39265,9 @@
       <c r="H819" s="13"/>
       <c r="I819" s="13"/>
       <c r="J819" s="14"/>
-      <c r="K819" s="8"/>
+      <c r="K819" s="43" t="s">
+        <v>587</v>
+      </c>
       <c r="L819" s="8"/>
       <c r="M819" s="8"/>
       <c r="N819" s="8"/>
@@ -39226,9 +39288,15 @@
       <c r="A820" s="34">
         <v>816.0</v>
       </c>
-      <c r="B820" s="8"/>
-      <c r="C820" s="2"/>
-      <c r="D820" s="2"/>
+      <c r="B820" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="C820" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D820" s="50">
+        <v>44045.0</v>
+      </c>
       <c r="E820" s="55" t="s">
         <v>209</v>
       </c>
@@ -39239,7 +39307,9 @@
       <c r="H820" s="13"/>
       <c r="I820" s="13"/>
       <c r="J820" s="14"/>
-      <c r="K820" s="8"/>
+      <c r="K820" s="43" t="s">
+        <v>587</v>
+      </c>
       <c r="L820" s="8"/>
       <c r="M820" s="8"/>
       <c r="N820" s="8"/>
@@ -39260,9 +39330,15 @@
       <c r="A821" s="34">
         <v>817.0</v>
       </c>
-      <c r="B821" s="8"/>
-      <c r="C821" s="2"/>
-      <c r="D821" s="2"/>
+      <c r="B821" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="C821" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D821" s="50">
+        <v>44045.0</v>
+      </c>
       <c r="E821" s="8"/>
       <c r="F821" s="13"/>
       <c r="G821" s="2"/>
@@ -39290,9 +39366,15 @@
       <c r="A822" s="34">
         <v>818.0</v>
       </c>
-      <c r="B822" s="8"/>
-      <c r="C822" s="2"/>
-      <c r="D822" s="2"/>
+      <c r="B822" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="C822" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D822" s="50">
+        <v>44045.0</v>
+      </c>
       <c r="E822" s="8"/>
       <c r="F822" s="13"/>
       <c r="G822" s="2"/>
@@ -39320,9 +39402,15 @@
       <c r="A823" s="34">
         <v>819.0</v>
       </c>
-      <c r="B823" s="8"/>
-      <c r="C823" s="2"/>
-      <c r="D823" s="2"/>
+      <c r="B823" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="C823" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D823" s="50">
+        <v>44045.0</v>
+      </c>
       <c r="E823" s="8"/>
       <c r="F823" s="13"/>
       <c r="G823" s="2"/>
@@ -39350,9 +39438,15 @@
       <c r="A824" s="34">
         <v>820.0</v>
       </c>
-      <c r="B824" s="8"/>
-      <c r="C824" s="2"/>
-      <c r="D824" s="2"/>
+      <c r="B824" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="C824" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D824" s="50">
+        <v>44045.0</v>
+      </c>
       <c r="E824" s="8"/>
       <c r="F824" s="13"/>
       <c r="G824" s="2"/>
@@ -39380,9 +39474,15 @@
       <c r="A825" s="34">
         <v>821.0</v>
       </c>
-      <c r="B825" s="8"/>
-      <c r="C825" s="2"/>
-      <c r="D825" s="2"/>
+      <c r="B825" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="C825" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D825" s="50">
+        <v>44045.0</v>
+      </c>
       <c r="E825" s="8"/>
       <c r="F825" s="13"/>
       <c r="G825" s="2"/>
@@ -39410,9 +39510,15 @@
       <c r="A826" s="34">
         <v>822.0</v>
       </c>
-      <c r="B826" s="8"/>
-      <c r="C826" s="2"/>
-      <c r="D826" s="2"/>
+      <c r="B826" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="C826" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D826" s="50">
+        <v>44045.0</v>
+      </c>
       <c r="E826" s="8"/>
       <c r="F826" s="13"/>
       <c r="G826" s="2"/>
@@ -39440,9 +39546,15 @@
       <c r="A827" s="34">
         <v>823.0</v>
       </c>
-      <c r="B827" s="8"/>
-      <c r="C827" s="2"/>
-      <c r="D827" s="2"/>
+      <c r="B827" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="C827" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D827" s="50">
+        <v>44045.0</v>
+      </c>
       <c r="E827" s="8"/>
       <c r="F827" s="13"/>
       <c r="G827" s="2"/>
@@ -39470,9 +39582,15 @@
       <c r="A828" s="34">
         <v>824.0</v>
       </c>
-      <c r="B828" s="8"/>
-      <c r="C828" s="2"/>
-      <c r="D828" s="2"/>
+      <c r="B828" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="C828" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D828" s="50">
+        <v>44045.0</v>
+      </c>
       <c r="E828" s="8"/>
       <c r="F828" s="13"/>
       <c r="G828" s="2"/>
@@ -39500,9 +39618,15 @@
       <c r="A829" s="34">
         <v>825.0</v>
       </c>
-      <c r="B829" s="8"/>
-      <c r="C829" s="2"/>
-      <c r="D829" s="2"/>
+      <c r="B829" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="C829" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D829" s="50">
+        <v>44045.0</v>
+      </c>
       <c r="E829" s="8"/>
       <c r="F829" s="13"/>
       <c r="G829" s="2"/>
@@ -39530,9 +39654,15 @@
       <c r="A830" s="34">
         <v>826.0</v>
       </c>
-      <c r="B830" s="8"/>
-      <c r="C830" s="2"/>
-      <c r="D830" s="2"/>
+      <c r="B830" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="C830" s="49">
+        <v>44045.0</v>
+      </c>
+      <c r="D830" s="50">
+        <v>44045.0</v>
+      </c>
       <c r="E830" s="8"/>
       <c r="F830" s="13"/>
       <c r="G830" s="2"/>
@@ -44551,10 +44681,30 @@
     <hyperlink r:id="rId622" ref="K798"/>
     <hyperlink r:id="rId623" ref="K799"/>
     <hyperlink r:id="rId624" ref="K800"/>
+    <hyperlink r:id="rId625" ref="K801"/>
+    <hyperlink r:id="rId626" ref="K802"/>
+    <hyperlink r:id="rId627" ref="K803"/>
+    <hyperlink r:id="rId628" ref="K804"/>
+    <hyperlink r:id="rId629" ref="K805"/>
+    <hyperlink r:id="rId630" ref="K806"/>
+    <hyperlink r:id="rId631" ref="K807"/>
+    <hyperlink r:id="rId632" ref="K808"/>
+    <hyperlink r:id="rId633" ref="K809"/>
+    <hyperlink r:id="rId634" ref="K810"/>
+    <hyperlink r:id="rId635" ref="K811"/>
+    <hyperlink r:id="rId636" ref="K812"/>
+    <hyperlink r:id="rId637" ref="K813"/>
+    <hyperlink r:id="rId638" ref="K814"/>
+    <hyperlink r:id="rId639" ref="K815"/>
+    <hyperlink r:id="rId640" ref="K816"/>
+    <hyperlink r:id="rId641" ref="K817"/>
+    <hyperlink r:id="rId642" ref="K818"/>
+    <hyperlink r:id="rId643" ref="K819"/>
+    <hyperlink r:id="rId644" ref="K820"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId625"/>
+  <drawing r:id="rId645"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="588">
-  <si>
-    <t>2020-08-02T20:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="584">
+  <si>
+    <t>2020-08-02T22:30:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2120,24 +2120,9 @@
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200731-759-769.pdf</t>
   </si>
   <si>
-    <t>10代京都市内</t>
-  </si>
-  <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273293/200731oshirase(534-551).pdf</t>
   </si>
   <si>
-    <t>20代京都市内</t>
-  </si>
-  <si>
-    <t>50代京都市内</t>
-  </si>
-  <si>
-    <t>30代京都市内</t>
-  </si>
-  <si>
-    <t>40代京都市内</t>
-  </si>
-  <si>
     <t>2020-08-01T08:00:00.000Z</t>
   </si>
   <si>
@@ -2157,6 +2142,9 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200802-810-816.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273298/200802oshirase(565-574).pdf</t>
   </si>
 </sst>
 </file>
@@ -37366,7 +37354,7 @@
         <v>44043.0</v>
       </c>
       <c r="E774" s="53" t="s">
-        <v>575</v>
+        <v>333</v>
       </c>
       <c r="F774" s="54" t="s">
         <v>254</v>
@@ -37376,7 +37364,7 @@
       <c r="I774" s="13"/>
       <c r="J774" s="14"/>
       <c r="K774" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L774" s="8"/>
       <c r="M774" s="8"/>
@@ -37408,7 +37396,7 @@
         <v>44043.0</v>
       </c>
       <c r="E775" s="53" t="s">
-        <v>575</v>
+        <v>333</v>
       </c>
       <c r="F775" s="54" t="s">
         <v>254</v>
@@ -37418,7 +37406,7 @@
       <c r="I775" s="13"/>
       <c r="J775" s="14"/>
       <c r="K775" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L775" s="8"/>
       <c r="M775" s="8"/>
@@ -37450,7 +37438,7 @@
         <v>44043.0</v>
       </c>
       <c r="E776" s="53" t="s">
-        <v>575</v>
+        <v>333</v>
       </c>
       <c r="F776" s="54" t="s">
         <v>254</v>
@@ -37460,7 +37448,7 @@
       <c r="I776" s="13"/>
       <c r="J776" s="14"/>
       <c r="K776" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L776" s="8"/>
       <c r="M776" s="8"/>
@@ -37492,7 +37480,7 @@
         <v>44043.0</v>
       </c>
       <c r="E777" s="53" t="s">
-        <v>575</v>
+        <v>333</v>
       </c>
       <c r="F777" s="54" t="s">
         <v>254</v>
@@ -37502,7 +37490,7 @@
       <c r="I777" s="13"/>
       <c r="J777" s="14"/>
       <c r="K777" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L777" s="8"/>
       <c r="M777" s="8"/>
@@ -37534,7 +37522,7 @@
         <v>44043.0</v>
       </c>
       <c r="E778" s="53" t="s">
-        <v>575</v>
+        <v>333</v>
       </c>
       <c r="F778" s="54" t="s">
         <v>254</v>
@@ -37544,7 +37532,7 @@
       <c r="I778" s="13"/>
       <c r="J778" s="14"/>
       <c r="K778" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L778" s="8"/>
       <c r="M778" s="8"/>
@@ -37576,7 +37564,7 @@
         <v>44043.0</v>
       </c>
       <c r="E779" s="53" t="s">
-        <v>577</v>
+        <v>22</v>
       </c>
       <c r="F779" s="54" t="s">
         <v>254</v>
@@ -37586,7 +37574,7 @@
       <c r="I779" s="13"/>
       <c r="J779" s="14"/>
       <c r="K779" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L779" s="8"/>
       <c r="M779" s="8"/>
@@ -37618,7 +37606,7 @@
         <v>44043.0</v>
       </c>
       <c r="E780" s="53" t="s">
-        <v>577</v>
+        <v>15</v>
       </c>
       <c r="F780" s="54" t="s">
         <v>254</v>
@@ -37628,7 +37616,7 @@
       <c r="I780" s="13"/>
       <c r="J780" s="14"/>
       <c r="K780" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L780" s="8"/>
       <c r="M780" s="8"/>
@@ -37660,7 +37648,7 @@
         <v>44043.0</v>
       </c>
       <c r="E781" s="53" t="s">
-        <v>575</v>
+        <v>333</v>
       </c>
       <c r="F781" s="54" t="s">
         <v>254</v>
@@ -37670,7 +37658,7 @@
       <c r="I781" s="13"/>
       <c r="J781" s="14"/>
       <c r="K781" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L781" s="8"/>
       <c r="M781" s="8"/>
@@ -37702,7 +37690,7 @@
         <v>44043.0</v>
       </c>
       <c r="E782" s="53" t="s">
-        <v>578</v>
+        <v>27</v>
       </c>
       <c r="F782" s="54" t="s">
         <v>254</v>
@@ -37712,7 +37700,7 @@
       <c r="I782" s="13"/>
       <c r="J782" s="14"/>
       <c r="K782" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L782" s="8"/>
       <c r="M782" s="8"/>
@@ -37744,7 +37732,7 @@
         <v>44043.0</v>
       </c>
       <c r="E783" s="53" t="s">
-        <v>577</v>
+        <v>22</v>
       </c>
       <c r="F783" s="54" t="s">
         <v>254</v>
@@ -37754,7 +37742,7 @@
       <c r="I783" s="13"/>
       <c r="J783" s="14"/>
       <c r="K783" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L783" s="8"/>
       <c r="M783" s="8"/>
@@ -37786,7 +37774,7 @@
         <v>44043.0</v>
       </c>
       <c r="E784" s="53" t="s">
-        <v>577</v>
+        <v>15</v>
       </c>
       <c r="F784" s="54" t="s">
         <v>254</v>
@@ -37796,7 +37784,7 @@
       <c r="I784" s="13"/>
       <c r="J784" s="14"/>
       <c r="K784" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L784" s="8"/>
       <c r="M784" s="8"/>
@@ -37828,7 +37816,7 @@
         <v>44043.0</v>
       </c>
       <c r="E785" s="53" t="s">
-        <v>577</v>
+        <v>22</v>
       </c>
       <c r="F785" s="54" t="s">
         <v>254</v>
@@ -37838,7 +37826,7 @@
       <c r="I785" s="13"/>
       <c r="J785" s="14"/>
       <c r="K785" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L785" s="8"/>
       <c r="M785" s="8"/>
@@ -37870,7 +37858,7 @@
         <v>44043.0</v>
       </c>
       <c r="E786" s="53" t="s">
-        <v>579</v>
+        <v>63</v>
       </c>
       <c r="F786" s="54" t="s">
         <v>254</v>
@@ -37880,7 +37868,7 @@
       <c r="I786" s="13"/>
       <c r="J786" s="14"/>
       <c r="K786" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L786" s="8"/>
       <c r="M786" s="8"/>
@@ -37912,7 +37900,7 @@
         <v>44043.0</v>
       </c>
       <c r="E787" s="53" t="s">
-        <v>577</v>
+        <v>15</v>
       </c>
       <c r="F787" s="54" t="s">
         <v>254</v>
@@ -37922,7 +37910,7 @@
       <c r="I787" s="13"/>
       <c r="J787" s="14"/>
       <c r="K787" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L787" s="8"/>
       <c r="M787" s="8"/>
@@ -37954,7 +37942,7 @@
         <v>44043.0</v>
       </c>
       <c r="E788" s="53" t="s">
-        <v>579</v>
+        <v>40</v>
       </c>
       <c r="F788" s="54" t="s">
         <v>254</v>
@@ -37964,7 +37952,7 @@
       <c r="I788" s="13"/>
       <c r="J788" s="14"/>
       <c r="K788" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L788" s="8"/>
       <c r="M788" s="8"/>
@@ -37996,7 +37984,7 @@
         <v>44043.0</v>
       </c>
       <c r="E789" s="53" t="s">
-        <v>580</v>
+        <v>145</v>
       </c>
       <c r="F789" s="54" t="s">
         <v>254</v>
@@ -38006,7 +37994,7 @@
       <c r="I789" s="13"/>
       <c r="J789" s="14"/>
       <c r="K789" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L789" s="8"/>
       <c r="M789" s="8"/>
@@ -38038,7 +38026,7 @@
         <v>44043.0</v>
       </c>
       <c r="E790" s="53" t="s">
-        <v>577</v>
+        <v>22</v>
       </c>
       <c r="F790" s="54" t="s">
         <v>254</v>
@@ -38048,7 +38036,7 @@
       <c r="I790" s="13"/>
       <c r="J790" s="14"/>
       <c r="K790" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L790" s="8"/>
       <c r="M790" s="8"/>
@@ -38080,7 +38068,7 @@
         <v>44043.0</v>
       </c>
       <c r="E791" s="53" t="s">
-        <v>577</v>
+        <v>15</v>
       </c>
       <c r="F791" s="54" t="s">
         <v>254</v>
@@ -38090,7 +38078,7 @@
       <c r="I791" s="13"/>
       <c r="J791" s="14"/>
       <c r="K791" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L791" s="8"/>
       <c r="M791" s="8"/>
@@ -38113,7 +38101,7 @@
         <v>788.0</v>
       </c>
       <c r="B792" s="48" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C792" s="49">
         <v>44044.0</v>
@@ -38132,7 +38120,7 @@
       <c r="I792" s="13"/>
       <c r="J792" s="14"/>
       <c r="K792" s="43" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L792" s="8"/>
       <c r="M792" s="8"/>
@@ -38155,7 +38143,7 @@
         <v>789.0</v>
       </c>
       <c r="B793" s="48" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C793" s="49">
         <v>44044.0</v>
@@ -38174,7 +38162,7 @@
       <c r="I793" s="13"/>
       <c r="J793" s="14"/>
       <c r="K793" s="43" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L793" s="8"/>
       <c r="M793" s="8"/>
@@ -38197,7 +38185,7 @@
         <v>790.0</v>
       </c>
       <c r="B794" s="48" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C794" s="49">
         <v>44044.0</v>
@@ -38216,7 +38204,7 @@
       <c r="I794" s="13"/>
       <c r="J794" s="14"/>
       <c r="K794" s="43" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L794" s="8"/>
       <c r="M794" s="8"/>
@@ -38239,7 +38227,7 @@
         <v>791.0</v>
       </c>
       <c r="B795" s="48" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C795" s="49">
         <v>44044.0</v>
@@ -38258,7 +38246,7 @@
       <c r="I795" s="13"/>
       <c r="J795" s="14"/>
       <c r="K795" s="43" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L795" s="8"/>
       <c r="M795" s="8"/>
@@ -38281,7 +38269,7 @@
         <v>792.0</v>
       </c>
       <c r="B796" s="48" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C796" s="49">
         <v>44044.0</v>
@@ -38300,7 +38288,7 @@
       <c r="I796" s="13"/>
       <c r="J796" s="14"/>
       <c r="K796" s="43" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L796" s="8"/>
       <c r="M796" s="8"/>
@@ -38323,7 +38311,7 @@
         <v>793.0</v>
       </c>
       <c r="B797" s="48" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C797" s="49">
         <v>44044.0</v>
@@ -38342,7 +38330,7 @@
       <c r="I797" s="13"/>
       <c r="J797" s="14"/>
       <c r="K797" s="43" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L797" s="8"/>
       <c r="M797" s="8"/>
@@ -38365,7 +38353,7 @@
         <v>794.0</v>
       </c>
       <c r="B798" s="48" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C798" s="49">
         <v>44044.0</v>
@@ -38384,7 +38372,7 @@
       <c r="I798" s="13"/>
       <c r="J798" s="14"/>
       <c r="K798" s="43" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L798" s="8"/>
       <c r="M798" s="8"/>
@@ -38407,7 +38395,7 @@
         <v>795.0</v>
       </c>
       <c r="B799" s="48" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C799" s="49">
         <v>44044.0</v>
@@ -38426,7 +38414,7 @@
       <c r="I799" s="13"/>
       <c r="J799" s="14"/>
       <c r="K799" s="43" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L799" s="8"/>
       <c r="M799" s="8"/>
@@ -38449,7 +38437,7 @@
         <v>796.0</v>
       </c>
       <c r="B800" s="48" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C800" s="49">
         <v>44044.0</v>
@@ -38468,7 +38456,7 @@
       <c r="I800" s="13"/>
       <c r="J800" s="14"/>
       <c r="K800" s="43" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L800" s="8"/>
       <c r="M800" s="8"/>
@@ -38510,7 +38498,7 @@
       <c r="I801" s="13"/>
       <c r="J801" s="14"/>
       <c r="K801" s="43" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L801" s="8"/>
       <c r="M801" s="8"/>
@@ -38552,7 +38540,7 @@
       <c r="I802" s="13"/>
       <c r="J802" s="14"/>
       <c r="K802" s="43" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L802" s="8"/>
       <c r="M802" s="8"/>
@@ -38594,7 +38582,7 @@
       <c r="I803" s="13"/>
       <c r="J803" s="14"/>
       <c r="K803" s="43" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L803" s="8"/>
       <c r="M803" s="8"/>
@@ -38636,7 +38624,7 @@
       <c r="I804" s="13"/>
       <c r="J804" s="14"/>
       <c r="K804" s="43" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L804" s="8"/>
       <c r="M804" s="8"/>
@@ -38678,7 +38666,7 @@
       <c r="I805" s="13"/>
       <c r="J805" s="14"/>
       <c r="K805" s="43" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L805" s="8"/>
       <c r="M805" s="8"/>
@@ -38720,7 +38708,7 @@
       <c r="I806" s="13"/>
       <c r="J806" s="14"/>
       <c r="K806" s="43" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L806" s="8"/>
       <c r="M806" s="8"/>
@@ -38762,7 +38750,7 @@
       <c r="I807" s="13"/>
       <c r="J807" s="14"/>
       <c r="K807" s="43" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L807" s="8"/>
       <c r="M807" s="8"/>
@@ -38804,7 +38792,7 @@
       <c r="I808" s="13"/>
       <c r="J808" s="14"/>
       <c r="K808" s="43" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L808" s="8"/>
       <c r="M808" s="8"/>
@@ -38846,7 +38834,7 @@
       <c r="I809" s="13"/>
       <c r="J809" s="14"/>
       <c r="K809" s="43" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L809" s="8"/>
       <c r="M809" s="8"/>
@@ -38881,14 +38869,14 @@
         <v>22</v>
       </c>
       <c r="F810" s="56" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G810" s="2"/>
       <c r="H810" s="13"/>
       <c r="I810" s="13"/>
       <c r="J810" s="14"/>
       <c r="K810" s="43" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L810" s="8"/>
       <c r="M810" s="8"/>
@@ -38930,7 +38918,7 @@
       <c r="I811" s="13"/>
       <c r="J811" s="14"/>
       <c r="K811" s="43" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L811" s="8"/>
       <c r="M811" s="8"/>
@@ -38972,7 +38960,7 @@
       <c r="I812" s="13"/>
       <c r="J812" s="14"/>
       <c r="K812" s="43" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L812" s="8"/>
       <c r="M812" s="8"/>
@@ -39014,7 +39002,7 @@
       <c r="I813" s="13"/>
       <c r="J813" s="14"/>
       <c r="K813" s="43" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L813" s="8"/>
       <c r="M813" s="8"/>
@@ -39037,7 +39025,7 @@
         <v>810.0</v>
       </c>
       <c r="B814" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C814" s="49">
         <v>44045.0</v>
@@ -39056,7 +39044,7 @@
       <c r="I814" s="13"/>
       <c r="J814" s="14"/>
       <c r="K814" s="43" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L814" s="8"/>
       <c r="M814" s="8"/>
@@ -39079,7 +39067,7 @@
         <v>811.0</v>
       </c>
       <c r="B815" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C815" s="49">
         <v>44045.0</v>
@@ -39098,7 +39086,7 @@
       <c r="I815" s="13"/>
       <c r="J815" s="14"/>
       <c r="K815" s="43" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L815" s="8"/>
       <c r="M815" s="8"/>
@@ -39121,7 +39109,7 @@
         <v>812.0</v>
       </c>
       <c r="B816" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C816" s="49">
         <v>44045.0</v>
@@ -39140,7 +39128,7 @@
       <c r="I816" s="13"/>
       <c r="J816" s="14"/>
       <c r="K816" s="43" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L816" s="8"/>
       <c r="M816" s="8"/>
@@ -39163,7 +39151,7 @@
         <v>813.0</v>
       </c>
       <c r="B817" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C817" s="49">
         <v>44045.0</v>
@@ -39182,7 +39170,7 @@
       <c r="I817" s="13"/>
       <c r="J817" s="14"/>
       <c r="K817" s="43" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L817" s="8"/>
       <c r="M817" s="8"/>
@@ -39205,7 +39193,7 @@
         <v>814.0</v>
       </c>
       <c r="B818" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C818" s="49">
         <v>44045.0</v>
@@ -39224,7 +39212,7 @@
       <c r="I818" s="13"/>
       <c r="J818" s="14"/>
       <c r="K818" s="43" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L818" s="8"/>
       <c r="M818" s="8"/>
@@ -39247,7 +39235,7 @@
         <v>815.0</v>
       </c>
       <c r="B819" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C819" s="49">
         <v>44045.0</v>
@@ -39266,7 +39254,7 @@
       <c r="I819" s="13"/>
       <c r="J819" s="14"/>
       <c r="K819" s="43" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L819" s="8"/>
       <c r="M819" s="8"/>
@@ -39289,7 +39277,7 @@
         <v>816.0</v>
       </c>
       <c r="B820" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C820" s="49">
         <v>44045.0</v>
@@ -39308,7 +39296,7 @@
       <c r="I820" s="13"/>
       <c r="J820" s="14"/>
       <c r="K820" s="43" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L820" s="8"/>
       <c r="M820" s="8"/>
@@ -39331,7 +39319,7 @@
         <v>817.0</v>
       </c>
       <c r="B821" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C821" s="49">
         <v>44045.0</v>
@@ -39339,13 +39327,19 @@
       <c r="D821" s="50">
         <v>44045.0</v>
       </c>
-      <c r="E821" s="8"/>
-      <c r="F821" s="13"/>
+      <c r="E821" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F821" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G821" s="2"/>
       <c r="H821" s="13"/>
       <c r="I821" s="13"/>
       <c r="J821" s="14"/>
-      <c r="K821" s="8"/>
+      <c r="K821" s="31" t="s">
+        <v>583</v>
+      </c>
       <c r="L821" s="8"/>
       <c r="M821" s="8"/>
       <c r="N821" s="8"/>
@@ -39367,7 +39361,7 @@
         <v>818.0</v>
       </c>
       <c r="B822" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C822" s="49">
         <v>44045.0</v>
@@ -39375,13 +39369,19 @@
       <c r="D822" s="50">
         <v>44045.0</v>
       </c>
-      <c r="E822" s="8"/>
-      <c r="F822" s="13"/>
+      <c r="E822" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F822" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G822" s="2"/>
       <c r="H822" s="13"/>
       <c r="I822" s="13"/>
       <c r="J822" s="14"/>
-      <c r="K822" s="8"/>
+      <c r="K822" s="31" t="s">
+        <v>583</v>
+      </c>
       <c r="L822" s="8"/>
       <c r="M822" s="8"/>
       <c r="N822" s="8"/>
@@ -39403,7 +39403,7 @@
         <v>819.0</v>
       </c>
       <c r="B823" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C823" s="49">
         <v>44045.0</v>
@@ -39411,13 +39411,19 @@
       <c r="D823" s="50">
         <v>44045.0</v>
       </c>
-      <c r="E823" s="8"/>
-      <c r="F823" s="13"/>
+      <c r="E823" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F823" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G823" s="2"/>
       <c r="H823" s="13"/>
       <c r="I823" s="13"/>
       <c r="J823" s="14"/>
-      <c r="K823" s="8"/>
+      <c r="K823" s="31" t="s">
+        <v>583</v>
+      </c>
       <c r="L823" s="8"/>
       <c r="M823" s="8"/>
       <c r="N823" s="8"/>
@@ -39439,7 +39445,7 @@
         <v>820.0</v>
       </c>
       <c r="B824" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C824" s="49">
         <v>44045.0</v>
@@ -39447,13 +39453,19 @@
       <c r="D824" s="50">
         <v>44045.0</v>
       </c>
-      <c r="E824" s="8"/>
-      <c r="F824" s="13"/>
+      <c r="E824" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="F824" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G824" s="2"/>
       <c r="H824" s="13"/>
       <c r="I824" s="13"/>
       <c r="J824" s="14"/>
-      <c r="K824" s="8"/>
+      <c r="K824" s="31" t="s">
+        <v>583</v>
+      </c>
       <c r="L824" s="8"/>
       <c r="M824" s="8"/>
       <c r="N824" s="8"/>
@@ -39475,7 +39487,7 @@
         <v>821.0</v>
       </c>
       <c r="B825" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C825" s="49">
         <v>44045.0</v>
@@ -39483,13 +39495,19 @@
       <c r="D825" s="50">
         <v>44045.0</v>
       </c>
-      <c r="E825" s="8"/>
-      <c r="F825" s="13"/>
+      <c r="E825" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="F825" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G825" s="2"/>
       <c r="H825" s="13"/>
       <c r="I825" s="13"/>
       <c r="J825" s="14"/>
-      <c r="K825" s="8"/>
+      <c r="K825" s="31" t="s">
+        <v>583</v>
+      </c>
       <c r="L825" s="8"/>
       <c r="M825" s="8"/>
       <c r="N825" s="8"/>
@@ -39511,7 +39529,7 @@
         <v>822.0</v>
       </c>
       <c r="B826" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C826" s="49">
         <v>44045.0</v>
@@ -39519,13 +39537,19 @@
       <c r="D826" s="50">
         <v>44045.0</v>
       </c>
-      <c r="E826" s="8"/>
-      <c r="F826" s="13"/>
+      <c r="E826" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F826" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G826" s="2"/>
       <c r="H826" s="13"/>
       <c r="I826" s="13"/>
       <c r="J826" s="14"/>
-      <c r="K826" s="8"/>
+      <c r="K826" s="31" t="s">
+        <v>583</v>
+      </c>
       <c r="L826" s="8"/>
       <c r="M826" s="8"/>
       <c r="N826" s="8"/>
@@ -39547,7 +39571,7 @@
         <v>823.0</v>
       </c>
       <c r="B827" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C827" s="49">
         <v>44045.0</v>
@@ -39555,13 +39579,19 @@
       <c r="D827" s="50">
         <v>44045.0</v>
       </c>
-      <c r="E827" s="8"/>
-      <c r="F827" s="13"/>
+      <c r="E827" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F827" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G827" s="2"/>
       <c r="H827" s="13"/>
       <c r="I827" s="13"/>
       <c r="J827" s="14"/>
-      <c r="K827" s="8"/>
+      <c r="K827" s="31" t="s">
+        <v>583</v>
+      </c>
       <c r="L827" s="8"/>
       <c r="M827" s="8"/>
       <c r="N827" s="8"/>
@@ -39583,7 +39613,7 @@
         <v>824.0</v>
       </c>
       <c r="B828" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C828" s="49">
         <v>44045.0</v>
@@ -39591,13 +39621,19 @@
       <c r="D828" s="50">
         <v>44045.0</v>
       </c>
-      <c r="E828" s="8"/>
-      <c r="F828" s="13"/>
+      <c r="E828" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F828" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G828" s="2"/>
       <c r="H828" s="13"/>
       <c r="I828" s="13"/>
       <c r="J828" s="14"/>
-      <c r="K828" s="8"/>
+      <c r="K828" s="31" t="s">
+        <v>583</v>
+      </c>
       <c r="L828" s="8"/>
       <c r="M828" s="8"/>
       <c r="N828" s="8"/>
@@ -39619,7 +39655,7 @@
         <v>825.0</v>
       </c>
       <c r="B829" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C829" s="49">
         <v>44045.0</v>
@@ -39627,13 +39663,19 @@
       <c r="D829" s="50">
         <v>44045.0</v>
       </c>
-      <c r="E829" s="8"/>
-      <c r="F829" s="13"/>
+      <c r="E829" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="F829" s="54" t="s">
+        <v>518</v>
+      </c>
       <c r="G829" s="2"/>
       <c r="H829" s="13"/>
       <c r="I829" s="13"/>
       <c r="J829" s="14"/>
-      <c r="K829" s="8"/>
+      <c r="K829" s="31" t="s">
+        <v>583</v>
+      </c>
       <c r="L829" s="8"/>
       <c r="M829" s="8"/>
       <c r="N829" s="8"/>
@@ -39655,7 +39697,7 @@
         <v>826.0</v>
       </c>
       <c r="B830" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C830" s="49">
         <v>44045.0</v>
@@ -39663,13 +39705,19 @@
       <c r="D830" s="50">
         <v>44045.0</v>
       </c>
-      <c r="E830" s="8"/>
-      <c r="F830" s="13"/>
+      <c r="E830" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F830" s="54" t="s">
+        <v>254</v>
+      </c>
       <c r="G830" s="2"/>
       <c r="H830" s="13"/>
       <c r="I830" s="13"/>
       <c r="J830" s="14"/>
-      <c r="K830" s="8"/>
+      <c r="K830" s="31" t="s">
+        <v>583</v>
+      </c>
       <c r="L830" s="8"/>
       <c r="M830" s="8"/>
       <c r="N830" s="8"/>
@@ -44701,10 +44749,20 @@
     <hyperlink r:id="rId642" ref="K818"/>
     <hyperlink r:id="rId643" ref="K819"/>
     <hyperlink r:id="rId644" ref="K820"/>
+    <hyperlink r:id="rId645" ref="K821"/>
+    <hyperlink r:id="rId646" ref="K822"/>
+    <hyperlink r:id="rId647" ref="K823"/>
+    <hyperlink r:id="rId648" ref="K824"/>
+    <hyperlink r:id="rId649" ref="K825"/>
+    <hyperlink r:id="rId650" ref="K826"/>
+    <hyperlink r:id="rId651" ref="K827"/>
+    <hyperlink r:id="rId652" ref="K828"/>
+    <hyperlink r:id="rId653" ref="K829"/>
+    <hyperlink r:id="rId654" ref="K830"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId645"/>
+  <drawing r:id="rId655"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="584">
-  <si>
-    <t>2020-08-02T22:30:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="587">
+  <si>
+    <t>2020-08-03T19:30:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2145,6 +2145,15 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273298/200802oshirase(565-574).pdf</t>
+  </si>
+  <si>
+    <t>2020-08-03T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200803-827.pdf</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200803-828-833.pdf</t>
   </si>
 </sst>
 </file>
@@ -39735,17 +39744,31 @@
       <c r="Z830" s="8"/>
     </row>
     <row r="831" ht="18.0" customHeight="1">
-      <c r="A831" s="2"/>
-      <c r="B831" s="8"/>
-      <c r="C831" s="2"/>
-      <c r="D831" s="2"/>
-      <c r="E831" s="8"/>
-      <c r="F831" s="13"/>
+      <c r="A831" s="34">
+        <v>827.0</v>
+      </c>
+      <c r="B831" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C831" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D831" s="50">
+        <v>44046.0</v>
+      </c>
+      <c r="E831" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F831" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G831" s="2"/>
       <c r="H831" s="13"/>
       <c r="I831" s="13"/>
       <c r="J831" s="14"/>
-      <c r="K831" s="8"/>
+      <c r="K831" s="31" t="s">
+        <v>585</v>
+      </c>
       <c r="L831" s="8"/>
       <c r="M831" s="8"/>
       <c r="N831" s="8"/>
@@ -39763,17 +39786,31 @@
       <c r="Z831" s="8"/>
     </row>
     <row r="832" ht="18.0" customHeight="1">
-      <c r="A832" s="2"/>
-      <c r="B832" s="8"/>
-      <c r="C832" s="2"/>
-      <c r="D832" s="2"/>
-      <c r="E832" s="8"/>
-      <c r="F832" s="13"/>
+      <c r="A832" s="34">
+        <v>828.0</v>
+      </c>
+      <c r="B832" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C832" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D832" s="50">
+        <v>44046.0</v>
+      </c>
+      <c r="E832" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F832" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G832" s="2"/>
       <c r="H832" s="13"/>
       <c r="I832" s="13"/>
       <c r="J832" s="14"/>
-      <c r="K832" s="8"/>
+      <c r="K832" s="31" t="s">
+        <v>586</v>
+      </c>
       <c r="L832" s="8"/>
       <c r="M832" s="8"/>
       <c r="N832" s="8"/>
@@ -39791,17 +39828,31 @@
       <c r="Z832" s="8"/>
     </row>
     <row r="833" ht="18.0" customHeight="1">
-      <c r="A833" s="2"/>
-      <c r="B833" s="8"/>
-      <c r="C833" s="2"/>
-      <c r="D833" s="2"/>
-      <c r="E833" s="8"/>
-      <c r="F833" s="13"/>
+      <c r="A833" s="34">
+        <v>829.0</v>
+      </c>
+      <c r="B833" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C833" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D833" s="50">
+        <v>44046.0</v>
+      </c>
+      <c r="E833" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F833" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G833" s="2"/>
       <c r="H833" s="13"/>
       <c r="I833" s="13"/>
       <c r="J833" s="14"/>
-      <c r="K833" s="8"/>
+      <c r="K833" s="31" t="s">
+        <v>586</v>
+      </c>
       <c r="L833" s="8"/>
       <c r="M833" s="8"/>
       <c r="N833" s="8"/>
@@ -39819,17 +39870,31 @@
       <c r="Z833" s="8"/>
     </row>
     <row r="834" ht="18.0" customHeight="1">
-      <c r="A834" s="2"/>
-      <c r="B834" s="8"/>
-      <c r="C834" s="2"/>
-      <c r="D834" s="2"/>
-      <c r="E834" s="8"/>
-      <c r="F834" s="13"/>
+      <c r="A834" s="34">
+        <v>830.0</v>
+      </c>
+      <c r="B834" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C834" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D834" s="50">
+        <v>44046.0</v>
+      </c>
+      <c r="E834" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F834" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G834" s="2"/>
       <c r="H834" s="13"/>
       <c r="I834" s="13"/>
       <c r="J834" s="14"/>
-      <c r="K834" s="8"/>
+      <c r="K834" s="31" t="s">
+        <v>586</v>
+      </c>
       <c r="L834" s="8"/>
       <c r="M834" s="8"/>
       <c r="N834" s="8"/>
@@ -39847,17 +39912,31 @@
       <c r="Z834" s="8"/>
     </row>
     <row r="835" ht="18.0" customHeight="1">
-      <c r="A835" s="2"/>
-      <c r="B835" s="8"/>
-      <c r="C835" s="2"/>
-      <c r="D835" s="2"/>
-      <c r="E835" s="8"/>
-      <c r="F835" s="13"/>
+      <c r="A835" s="34">
+        <v>831.0</v>
+      </c>
+      <c r="B835" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C835" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D835" s="50">
+        <v>44046.0</v>
+      </c>
+      <c r="E835" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F835" s="24" t="s">
+        <v>393</v>
+      </c>
       <c r="G835" s="2"/>
       <c r="H835" s="13"/>
       <c r="I835" s="13"/>
       <c r="J835" s="14"/>
-      <c r="K835" s="8"/>
+      <c r="K835" s="31" t="s">
+        <v>586</v>
+      </c>
       <c r="L835" s="8"/>
       <c r="M835" s="8"/>
       <c r="N835" s="8"/>
@@ -39875,17 +39954,31 @@
       <c r="Z835" s="8"/>
     </row>
     <row r="836" ht="18.0" customHeight="1">
-      <c r="A836" s="2"/>
-      <c r="B836" s="8"/>
-      <c r="C836" s="2"/>
-      <c r="D836" s="2"/>
-      <c r="E836" s="8"/>
-      <c r="F836" s="13"/>
+      <c r="A836" s="34">
+        <v>832.0</v>
+      </c>
+      <c r="B836" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C836" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D836" s="50">
+        <v>44046.0</v>
+      </c>
+      <c r="E836" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F836" s="24" t="s">
+        <v>557</v>
+      </c>
       <c r="G836" s="2"/>
       <c r="H836" s="13"/>
       <c r="I836" s="13"/>
       <c r="J836" s="14"/>
-      <c r="K836" s="8"/>
+      <c r="K836" s="31" t="s">
+        <v>586</v>
+      </c>
       <c r="L836" s="8"/>
       <c r="M836" s="8"/>
       <c r="N836" s="8"/>
@@ -39903,17 +39996,31 @@
       <c r="Z836" s="8"/>
     </row>
     <row r="837" ht="18.0" customHeight="1">
-      <c r="A837" s="2"/>
-      <c r="B837" s="8"/>
-      <c r="C837" s="2"/>
-      <c r="D837" s="2"/>
-      <c r="E837" s="8"/>
-      <c r="F837" s="13"/>
+      <c r="A837" s="34">
+        <v>833.0</v>
+      </c>
+      <c r="B837" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C837" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D837" s="50">
+        <v>44046.0</v>
+      </c>
+      <c r="E837" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F837" s="24" t="s">
+        <v>557</v>
+      </c>
       <c r="G837" s="2"/>
       <c r="H837" s="13"/>
       <c r="I837" s="13"/>
       <c r="J837" s="14"/>
-      <c r="K837" s="8"/>
+      <c r="K837" s="31" t="s">
+        <v>586</v>
+      </c>
       <c r="L837" s="8"/>
       <c r="M837" s="8"/>
       <c r="N837" s="8"/>
@@ -39931,10 +40038,18 @@
       <c r="Z837" s="8"/>
     </row>
     <row r="838" ht="18.0" customHeight="1">
-      <c r="A838" s="2"/>
-      <c r="B838" s="8"/>
-      <c r="C838" s="2"/>
-      <c r="D838" s="2"/>
+      <c r="A838" s="34">
+        <v>834.0</v>
+      </c>
+      <c r="B838" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C838" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D838" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E838" s="8"/>
       <c r="F838" s="13"/>
       <c r="G838" s="2"/>
@@ -39959,10 +40074,18 @@
       <c r="Z838" s="8"/>
     </row>
     <row r="839" ht="18.0" customHeight="1">
-      <c r="A839" s="2"/>
-      <c r="B839" s="8"/>
-      <c r="C839" s="2"/>
-      <c r="D839" s="2"/>
+      <c r="A839" s="34">
+        <v>835.0</v>
+      </c>
+      <c r="B839" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C839" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D839" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E839" s="8"/>
       <c r="F839" s="13"/>
       <c r="G839" s="2"/>
@@ -39987,10 +40110,18 @@
       <c r="Z839" s="8"/>
     </row>
     <row r="840" ht="18.0" customHeight="1">
-      <c r="A840" s="2"/>
-      <c r="B840" s="8"/>
-      <c r="C840" s="2"/>
-      <c r="D840" s="2"/>
+      <c r="A840" s="34">
+        <v>836.0</v>
+      </c>
+      <c r="B840" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C840" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D840" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E840" s="8"/>
       <c r="F840" s="13"/>
       <c r="G840" s="2"/>
@@ -40015,10 +40146,18 @@
       <c r="Z840" s="8"/>
     </row>
     <row r="841" ht="18.0" customHeight="1">
-      <c r="A841" s="2"/>
-      <c r="B841" s="8"/>
-      <c r="C841" s="2"/>
-      <c r="D841" s="2"/>
+      <c r="A841" s="34">
+        <v>837.0</v>
+      </c>
+      <c r="B841" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C841" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D841" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E841" s="8"/>
       <c r="F841" s="13"/>
       <c r="G841" s="2"/>
@@ -40043,10 +40182,18 @@
       <c r="Z841" s="8"/>
     </row>
     <row r="842" ht="18.0" customHeight="1">
-      <c r="A842" s="2"/>
-      <c r="B842" s="8"/>
-      <c r="C842" s="2"/>
-      <c r="D842" s="2"/>
+      <c r="A842" s="34">
+        <v>838.0</v>
+      </c>
+      <c r="B842" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C842" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D842" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E842" s="8"/>
       <c r="F842" s="13"/>
       <c r="G842" s="2"/>
@@ -40071,10 +40218,18 @@
       <c r="Z842" s="8"/>
     </row>
     <row r="843" ht="18.0" customHeight="1">
-      <c r="A843" s="2"/>
-      <c r="B843" s="8"/>
-      <c r="C843" s="2"/>
-      <c r="D843" s="2"/>
+      <c r="A843" s="34">
+        <v>839.0</v>
+      </c>
+      <c r="B843" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C843" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D843" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E843" s="8"/>
       <c r="F843" s="13"/>
       <c r="G843" s="2"/>
@@ -40099,10 +40254,18 @@
       <c r="Z843" s="8"/>
     </row>
     <row r="844" ht="18.0" customHeight="1">
-      <c r="A844" s="2"/>
-      <c r="B844" s="8"/>
-      <c r="C844" s="2"/>
-      <c r="D844" s="2"/>
+      <c r="A844" s="34">
+        <v>840.0</v>
+      </c>
+      <c r="B844" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C844" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D844" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E844" s="8"/>
       <c r="F844" s="13"/>
       <c r="G844" s="2"/>
@@ -40127,10 +40290,18 @@
       <c r="Z844" s="8"/>
     </row>
     <row r="845" ht="18.0" customHeight="1">
-      <c r="A845" s="2"/>
-      <c r="B845" s="8"/>
-      <c r="C845" s="2"/>
-      <c r="D845" s="2"/>
+      <c r="A845" s="34">
+        <v>841.0</v>
+      </c>
+      <c r="B845" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C845" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D845" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E845" s="8"/>
       <c r="F845" s="13"/>
       <c r="G845" s="2"/>
@@ -40155,10 +40326,18 @@
       <c r="Z845" s="8"/>
     </row>
     <row r="846" ht="18.0" customHeight="1">
-      <c r="A846" s="2"/>
-      <c r="B846" s="8"/>
-      <c r="C846" s="2"/>
-      <c r="D846" s="2"/>
+      <c r="A846" s="34">
+        <v>842.0</v>
+      </c>
+      <c r="B846" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C846" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D846" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E846" s="8"/>
       <c r="F846" s="13"/>
       <c r="G846" s="2"/>
@@ -40183,10 +40362,18 @@
       <c r="Z846" s="8"/>
     </row>
     <row r="847" ht="18.0" customHeight="1">
-      <c r="A847" s="2"/>
-      <c r="B847" s="8"/>
-      <c r="C847" s="2"/>
-      <c r="D847" s="2"/>
+      <c r="A847" s="34">
+        <v>843.0</v>
+      </c>
+      <c r="B847" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C847" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D847" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E847" s="8"/>
       <c r="F847" s="13"/>
       <c r="G847" s="2"/>
@@ -40211,10 +40398,18 @@
       <c r="Z847" s="8"/>
     </row>
     <row r="848" ht="18.0" customHeight="1">
-      <c r="A848" s="2"/>
-      <c r="B848" s="8"/>
-      <c r="C848" s="2"/>
-      <c r="D848" s="2"/>
+      <c r="A848" s="34">
+        <v>844.0</v>
+      </c>
+      <c r="B848" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C848" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D848" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E848" s="8"/>
       <c r="F848" s="13"/>
       <c r="G848" s="2"/>
@@ -40239,10 +40434,18 @@
       <c r="Z848" s="8"/>
     </row>
     <row r="849" ht="18.0" customHeight="1">
-      <c r="A849" s="2"/>
-      <c r="B849" s="8"/>
-      <c r="C849" s="2"/>
-      <c r="D849" s="2"/>
+      <c r="A849" s="34">
+        <v>845.0</v>
+      </c>
+      <c r="B849" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C849" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D849" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E849" s="8"/>
       <c r="F849" s="13"/>
       <c r="G849" s="2"/>
@@ -40267,10 +40470,18 @@
       <c r="Z849" s="8"/>
     </row>
     <row r="850" ht="18.0" customHeight="1">
-      <c r="A850" s="2"/>
-      <c r="B850" s="8"/>
-      <c r="C850" s="2"/>
-      <c r="D850" s="2"/>
+      <c r="A850" s="34">
+        <v>846.0</v>
+      </c>
+      <c r="B850" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C850" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D850" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E850" s="8"/>
       <c r="F850" s="13"/>
       <c r="G850" s="2"/>
@@ -40295,10 +40506,18 @@
       <c r="Z850" s="8"/>
     </row>
     <row r="851" ht="18.0" customHeight="1">
-      <c r="A851" s="2"/>
-      <c r="B851" s="8"/>
-      <c r="C851" s="2"/>
-      <c r="D851" s="2"/>
+      <c r="A851" s="34">
+        <v>847.0</v>
+      </c>
+      <c r="B851" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C851" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D851" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E851" s="8"/>
       <c r="F851" s="13"/>
       <c r="G851" s="2"/>
@@ -40323,10 +40542,18 @@
       <c r="Z851" s="8"/>
     </row>
     <row r="852" ht="18.0" customHeight="1">
-      <c r="A852" s="2"/>
-      <c r="B852" s="8"/>
-      <c r="C852" s="2"/>
-      <c r="D852" s="2"/>
+      <c r="A852" s="34">
+        <v>848.0</v>
+      </c>
+      <c r="B852" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C852" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D852" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E852" s="8"/>
       <c r="F852" s="13"/>
       <c r="G852" s="2"/>
@@ -40351,10 +40578,18 @@
       <c r="Z852" s="8"/>
     </row>
     <row r="853" ht="18.0" customHeight="1">
-      <c r="A853" s="2"/>
-      <c r="B853" s="8"/>
-      <c r="C853" s="2"/>
-      <c r="D853" s="2"/>
+      <c r="A853" s="34">
+        <v>849.0</v>
+      </c>
+      <c r="B853" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C853" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D853" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E853" s="8"/>
       <c r="F853" s="13"/>
       <c r="G853" s="2"/>
@@ -40379,10 +40614,18 @@
       <c r="Z853" s="8"/>
     </row>
     <row r="854" ht="18.0" customHeight="1">
-      <c r="A854" s="2"/>
-      <c r="B854" s="8"/>
-      <c r="C854" s="2"/>
-      <c r="D854" s="2"/>
+      <c r="A854" s="34">
+        <v>850.0</v>
+      </c>
+      <c r="B854" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C854" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D854" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E854" s="8"/>
       <c r="F854" s="13"/>
       <c r="G854" s="2"/>
@@ -40407,10 +40650,18 @@
       <c r="Z854" s="8"/>
     </row>
     <row r="855" ht="18.0" customHeight="1">
-      <c r="A855" s="2"/>
-      <c r="B855" s="8"/>
-      <c r="C855" s="2"/>
-      <c r="D855" s="2"/>
+      <c r="A855" s="34">
+        <v>851.0</v>
+      </c>
+      <c r="B855" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C855" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D855" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E855" s="8"/>
       <c r="F855" s="13"/>
       <c r="G855" s="2"/>
@@ -40435,10 +40686,18 @@
       <c r="Z855" s="8"/>
     </row>
     <row r="856" ht="18.0" customHeight="1">
-      <c r="A856" s="2"/>
-      <c r="B856" s="8"/>
-      <c r="C856" s="2"/>
-      <c r="D856" s="2"/>
+      <c r="A856" s="34">
+        <v>852.0</v>
+      </c>
+      <c r="B856" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C856" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D856" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E856" s="8"/>
       <c r="F856" s="13"/>
       <c r="G856" s="2"/>
@@ -40463,10 +40722,18 @@
       <c r="Z856" s="8"/>
     </row>
     <row r="857" ht="18.0" customHeight="1">
-      <c r="A857" s="2"/>
-      <c r="B857" s="8"/>
-      <c r="C857" s="2"/>
-      <c r="D857" s="2"/>
+      <c r="A857" s="34">
+        <v>853.0</v>
+      </c>
+      <c r="B857" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C857" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D857" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E857" s="8"/>
       <c r="F857" s="13"/>
       <c r="G857" s="2"/>
@@ -40491,10 +40758,18 @@
       <c r="Z857" s="8"/>
     </row>
     <row r="858" ht="18.0" customHeight="1">
-      <c r="A858" s="2"/>
-      <c r="B858" s="8"/>
-      <c r="C858" s="2"/>
-      <c r="D858" s="2"/>
+      <c r="A858" s="34">
+        <v>854.0</v>
+      </c>
+      <c r="B858" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C858" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D858" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E858" s="8"/>
       <c r="F858" s="13"/>
       <c r="G858" s="2"/>
@@ -40519,10 +40794,18 @@
       <c r="Z858" s="8"/>
     </row>
     <row r="859" ht="18.0" customHeight="1">
-      <c r="A859" s="2"/>
-      <c r="B859" s="8"/>
-      <c r="C859" s="2"/>
-      <c r="D859" s="2"/>
+      <c r="A859" s="34">
+        <v>855.0</v>
+      </c>
+      <c r="B859" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C859" s="49">
+        <v>44046.0</v>
+      </c>
+      <c r="D859" s="50">
+        <v>44046.0</v>
+      </c>
       <c r="E859" s="8"/>
       <c r="F859" s="13"/>
       <c r="G859" s="2"/>
@@ -44759,10 +45042,17 @@
     <hyperlink r:id="rId652" ref="K828"/>
     <hyperlink r:id="rId653" ref="K829"/>
     <hyperlink r:id="rId654" ref="K830"/>
+    <hyperlink r:id="rId655" ref="K831"/>
+    <hyperlink r:id="rId656" ref="K832"/>
+    <hyperlink r:id="rId657" ref="K833"/>
+    <hyperlink r:id="rId658" ref="K834"/>
+    <hyperlink r:id="rId659" ref="K835"/>
+    <hyperlink r:id="rId660" ref="K836"/>
+    <hyperlink r:id="rId661" ref="K837"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId655"/>
+  <drawing r:id="rId662"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="587">
-  <si>
-    <t>2020-08-03T19:30:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="588">
+  <si>
+    <t>2020-08-03T23:30:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2154,6 +2154,9 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200803-828-833.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273336/200803oshirase(575-596).pdf</t>
   </si>
 </sst>
 </file>
@@ -38487,7 +38490,7 @@
       <c r="A801" s="34">
         <v>797.0</v>
       </c>
-      <c r="B801" s="58" t="s">
+      <c r="B801" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C801" s="49">
@@ -38529,7 +38532,7 @@
       <c r="A802" s="34">
         <v>798.0</v>
       </c>
-      <c r="B802" s="58" t="s">
+      <c r="B802" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C802" s="49">
@@ -38571,7 +38574,7 @@
       <c r="A803" s="34">
         <v>799.0</v>
       </c>
-      <c r="B803" s="58" t="s">
+      <c r="B803" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C803" s="49">
@@ -38613,7 +38616,7 @@
       <c r="A804" s="34">
         <v>800.0</v>
       </c>
-      <c r="B804" s="58" t="s">
+      <c r="B804" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C804" s="49">
@@ -38655,7 +38658,7 @@
       <c r="A805" s="34">
         <v>801.0</v>
       </c>
-      <c r="B805" s="58" t="s">
+      <c r="B805" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C805" s="49">
@@ -38697,7 +38700,7 @@
       <c r="A806" s="34">
         <v>802.0</v>
       </c>
-      <c r="B806" s="58" t="s">
+      <c r="B806" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C806" s="49">
@@ -38739,7 +38742,7 @@
       <c r="A807" s="34">
         <v>803.0</v>
       </c>
-      <c r="B807" s="58" t="s">
+      <c r="B807" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C807" s="49">
@@ -38781,7 +38784,7 @@
       <c r="A808" s="34">
         <v>804.0</v>
       </c>
-      <c r="B808" s="58" t="s">
+      <c r="B808" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C808" s="49">
@@ -38823,7 +38826,7 @@
       <c r="A809" s="34">
         <v>805.0</v>
       </c>
-      <c r="B809" s="58" t="s">
+      <c r="B809" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C809" s="49">
@@ -38865,7 +38868,7 @@
       <c r="A810" s="34">
         <v>806.0</v>
       </c>
-      <c r="B810" s="58" t="s">
+      <c r="B810" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C810" s="49">
@@ -38907,7 +38910,7 @@
       <c r="A811" s="34">
         <v>807.0</v>
       </c>
-      <c r="B811" s="58" t="s">
+      <c r="B811" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C811" s="49">
@@ -38949,7 +38952,7 @@
       <c r="A812" s="34">
         <v>808.0</v>
       </c>
-      <c r="B812" s="58" t="s">
+      <c r="B812" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C812" s="49">
@@ -38991,7 +38994,7 @@
       <c r="A813" s="34">
         <v>809.0</v>
       </c>
-      <c r="B813" s="58" t="s">
+      <c r="B813" s="48" t="s">
         <v>573</v>
       </c>
       <c r="C813" s="49">
@@ -39033,7 +39036,7 @@
       <c r="A814" s="34">
         <v>810.0</v>
       </c>
-      <c r="B814" s="58" t="s">
+      <c r="B814" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C814" s="49">
@@ -39075,7 +39078,7 @@
       <c r="A815" s="34">
         <v>811.0</v>
       </c>
-      <c r="B815" s="58" t="s">
+      <c r="B815" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C815" s="49">
@@ -39117,7 +39120,7 @@
       <c r="A816" s="34">
         <v>812.0</v>
       </c>
-      <c r="B816" s="58" t="s">
+      <c r="B816" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C816" s="49">
@@ -39159,7 +39162,7 @@
       <c r="A817" s="34">
         <v>813.0</v>
       </c>
-      <c r="B817" s="58" t="s">
+      <c r="B817" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C817" s="49">
@@ -39201,7 +39204,7 @@
       <c r="A818" s="34">
         <v>814.0</v>
       </c>
-      <c r="B818" s="58" t="s">
+      <c r="B818" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C818" s="49">
@@ -39243,7 +39246,7 @@
       <c r="A819" s="34">
         <v>815.0</v>
       </c>
-      <c r="B819" s="58" t="s">
+      <c r="B819" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C819" s="49">
@@ -39285,7 +39288,7 @@
       <c r="A820" s="34">
         <v>816.0</v>
       </c>
-      <c r="B820" s="58" t="s">
+      <c r="B820" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C820" s="49">
@@ -39327,7 +39330,7 @@
       <c r="A821" s="34">
         <v>817.0</v>
       </c>
-      <c r="B821" s="58" t="s">
+      <c r="B821" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C821" s="49">
@@ -39369,7 +39372,7 @@
       <c r="A822" s="34">
         <v>818.0</v>
       </c>
-      <c r="B822" s="58" t="s">
+      <c r="B822" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C822" s="49">
@@ -39411,7 +39414,7 @@
       <c r="A823" s="34">
         <v>819.0</v>
       </c>
-      <c r="B823" s="58" t="s">
+      <c r="B823" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C823" s="49">
@@ -39453,7 +39456,7 @@
       <c r="A824" s="34">
         <v>820.0</v>
       </c>
-      <c r="B824" s="58" t="s">
+      <c r="B824" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C824" s="49">
@@ -39495,7 +39498,7 @@
       <c r="A825" s="34">
         <v>821.0</v>
       </c>
-      <c r="B825" s="58" t="s">
+      <c r="B825" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C825" s="49">
@@ -39537,7 +39540,7 @@
       <c r="A826" s="34">
         <v>822.0</v>
       </c>
-      <c r="B826" s="58" t="s">
+      <c r="B826" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C826" s="49">
@@ -39579,7 +39582,7 @@
       <c r="A827" s="34">
         <v>823.0</v>
       </c>
-      <c r="B827" s="58" t="s">
+      <c r="B827" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C827" s="49">
@@ -39621,7 +39624,7 @@
       <c r="A828" s="34">
         <v>824.0</v>
       </c>
-      <c r="B828" s="58" t="s">
+      <c r="B828" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C828" s="49">
@@ -39663,7 +39666,7 @@
       <c r="A829" s="34">
         <v>825.0</v>
       </c>
-      <c r="B829" s="58" t="s">
+      <c r="B829" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C829" s="49">
@@ -39705,7 +39708,7 @@
       <c r="A830" s="34">
         <v>826.0</v>
       </c>
-      <c r="B830" s="58" t="s">
+      <c r="B830" s="48" t="s">
         <v>581</v>
       </c>
       <c r="C830" s="49">
@@ -39747,7 +39750,7 @@
       <c r="A831" s="34">
         <v>827.0</v>
       </c>
-      <c r="B831" s="58" t="s">
+      <c r="B831" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C831" s="49">
@@ -39789,7 +39792,7 @@
       <c r="A832" s="34">
         <v>828.0</v>
       </c>
-      <c r="B832" s="58" t="s">
+      <c r="B832" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C832" s="49">
@@ -39831,7 +39834,7 @@
       <c r="A833" s="34">
         <v>829.0</v>
       </c>
-      <c r="B833" s="58" t="s">
+      <c r="B833" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C833" s="49">
@@ -39873,7 +39876,7 @@
       <c r="A834" s="34">
         <v>830.0</v>
       </c>
-      <c r="B834" s="58" t="s">
+      <c r="B834" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C834" s="49">
@@ -39915,7 +39918,7 @@
       <c r="A835" s="34">
         <v>831.0</v>
       </c>
-      <c r="B835" s="58" t="s">
+      <c r="B835" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C835" s="49">
@@ -39957,7 +39960,7 @@
       <c r="A836" s="34">
         <v>832.0</v>
       </c>
-      <c r="B836" s="58" t="s">
+      <c r="B836" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C836" s="49">
@@ -39999,7 +40002,7 @@
       <c r="A837" s="34">
         <v>833.0</v>
       </c>
-      <c r="B837" s="58" t="s">
+      <c r="B837" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C837" s="49">
@@ -40041,7 +40044,7 @@
       <c r="A838" s="34">
         <v>834.0</v>
       </c>
-      <c r="B838" s="58" t="s">
+      <c r="B838" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C838" s="49">
@@ -40050,13 +40053,19 @@
       <c r="D838" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E838" s="8"/>
-      <c r="F838" s="13"/>
+      <c r="E838" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F838" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G838" s="2"/>
       <c r="H838" s="13"/>
       <c r="I838" s="13"/>
       <c r="J838" s="14"/>
-      <c r="K838" s="8"/>
+      <c r="K838" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L838" s="8"/>
       <c r="M838" s="8"/>
       <c r="N838" s="8"/>
@@ -40077,7 +40086,7 @@
       <c r="A839" s="34">
         <v>835.0</v>
       </c>
-      <c r="B839" s="58" t="s">
+      <c r="B839" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C839" s="49">
@@ -40086,13 +40095,19 @@
       <c r="D839" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E839" s="8"/>
-      <c r="F839" s="13"/>
+      <c r="E839" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F839" s="56" t="s">
+        <v>518</v>
+      </c>
       <c r="G839" s="2"/>
       <c r="H839" s="13"/>
       <c r="I839" s="13"/>
       <c r="J839" s="14"/>
-      <c r="K839" s="8"/>
+      <c r="K839" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L839" s="8"/>
       <c r="M839" s="8"/>
       <c r="N839" s="8"/>
@@ -40113,7 +40128,7 @@
       <c r="A840" s="34">
         <v>836.0</v>
       </c>
-      <c r="B840" s="58" t="s">
+      <c r="B840" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C840" s="49">
@@ -40122,13 +40137,19 @@
       <c r="D840" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E840" s="8"/>
-      <c r="F840" s="13"/>
+      <c r="E840" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F840" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G840" s="2"/>
       <c r="H840" s="13"/>
       <c r="I840" s="13"/>
       <c r="J840" s="14"/>
-      <c r="K840" s="8"/>
+      <c r="K840" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L840" s="8"/>
       <c r="M840" s="8"/>
       <c r="N840" s="8"/>
@@ -40149,7 +40170,7 @@
       <c r="A841" s="34">
         <v>837.0</v>
       </c>
-      <c r="B841" s="58" t="s">
+      <c r="B841" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C841" s="49">
@@ -40158,13 +40179,19 @@
       <c r="D841" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E841" s="8"/>
-      <c r="F841" s="13"/>
+      <c r="E841" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F841" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G841" s="2"/>
       <c r="H841" s="13"/>
       <c r="I841" s="13"/>
       <c r="J841" s="14"/>
-      <c r="K841" s="8"/>
+      <c r="K841" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L841" s="8"/>
       <c r="M841" s="8"/>
       <c r="N841" s="8"/>
@@ -40185,7 +40212,7 @@
       <c r="A842" s="34">
         <v>838.0</v>
       </c>
-      <c r="B842" s="58" t="s">
+      <c r="B842" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C842" s="49">
@@ -40194,13 +40221,19 @@
       <c r="D842" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E842" s="8"/>
-      <c r="F842" s="13"/>
+      <c r="E842" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="F842" s="56" t="s">
+        <v>369</v>
+      </c>
       <c r="G842" s="2"/>
       <c r="H842" s="13"/>
       <c r="I842" s="13"/>
       <c r="J842" s="14"/>
-      <c r="K842" s="8"/>
+      <c r="K842" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L842" s="8"/>
       <c r="M842" s="8"/>
       <c r="N842" s="8"/>
@@ -40221,7 +40254,7 @@
       <c r="A843" s="34">
         <v>839.0</v>
       </c>
-      <c r="B843" s="58" t="s">
+      <c r="B843" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C843" s="49">
@@ -40230,13 +40263,19 @@
       <c r="D843" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E843" s="8"/>
-      <c r="F843" s="13"/>
+      <c r="E843" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F843" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G843" s="2"/>
       <c r="H843" s="13"/>
       <c r="I843" s="13"/>
       <c r="J843" s="14"/>
-      <c r="K843" s="8"/>
+      <c r="K843" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L843" s="8"/>
       <c r="M843" s="8"/>
       <c r="N843" s="8"/>
@@ -40257,7 +40296,7 @@
       <c r="A844" s="34">
         <v>840.0</v>
       </c>
-      <c r="B844" s="58" t="s">
+      <c r="B844" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C844" s="49">
@@ -40266,13 +40305,19 @@
       <c r="D844" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E844" s="8"/>
-      <c r="F844" s="13"/>
+      <c r="E844" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F844" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G844" s="2"/>
       <c r="H844" s="13"/>
       <c r="I844" s="13"/>
       <c r="J844" s="14"/>
-      <c r="K844" s="8"/>
+      <c r="K844" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L844" s="8"/>
       <c r="M844" s="8"/>
       <c r="N844" s="8"/>
@@ -40293,7 +40338,7 @@
       <c r="A845" s="34">
         <v>841.0</v>
       </c>
-      <c r="B845" s="58" t="s">
+      <c r="B845" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C845" s="49">
@@ -40302,13 +40347,19 @@
       <c r="D845" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E845" s="8"/>
-      <c r="F845" s="13"/>
+      <c r="E845" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F845" s="56" t="s">
+        <v>518</v>
+      </c>
       <c r="G845" s="2"/>
       <c r="H845" s="13"/>
       <c r="I845" s="13"/>
       <c r="J845" s="14"/>
-      <c r="K845" s="8"/>
+      <c r="K845" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L845" s="8"/>
       <c r="M845" s="8"/>
       <c r="N845" s="8"/>
@@ -40329,7 +40380,7 @@
       <c r="A846" s="34">
         <v>842.0</v>
       </c>
-      <c r="B846" s="58" t="s">
+      <c r="B846" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C846" s="49">
@@ -40338,13 +40389,19 @@
       <c r="D846" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E846" s="8"/>
-      <c r="F846" s="13"/>
+      <c r="E846" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="F846" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G846" s="2"/>
       <c r="H846" s="13"/>
       <c r="I846" s="13"/>
       <c r="J846" s="14"/>
-      <c r="K846" s="8"/>
+      <c r="K846" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L846" s="8"/>
       <c r="M846" s="8"/>
       <c r="N846" s="8"/>
@@ -40374,13 +40431,19 @@
       <c r="D847" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E847" s="8"/>
-      <c r="F847" s="13"/>
+      <c r="E847" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F847" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G847" s="2"/>
       <c r="H847" s="13"/>
       <c r="I847" s="13"/>
       <c r="J847" s="14"/>
-      <c r="K847" s="8"/>
+      <c r="K847" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L847" s="8"/>
       <c r="M847" s="8"/>
       <c r="N847" s="8"/>
@@ -40410,13 +40473,19 @@
       <c r="D848" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E848" s="8"/>
-      <c r="F848" s="13"/>
+      <c r="E848" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F848" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G848" s="2"/>
       <c r="H848" s="13"/>
       <c r="I848" s="13"/>
       <c r="J848" s="14"/>
-      <c r="K848" s="8"/>
+      <c r="K848" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L848" s="8"/>
       <c r="M848" s="8"/>
       <c r="N848" s="8"/>
@@ -40446,13 +40515,19 @@
       <c r="D849" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E849" s="8"/>
-      <c r="F849" s="13"/>
+      <c r="E849" s="55" t="s">
+        <v>542</v>
+      </c>
+      <c r="F849" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G849" s="2"/>
       <c r="H849" s="13"/>
       <c r="I849" s="13"/>
       <c r="J849" s="14"/>
-      <c r="K849" s="8"/>
+      <c r="K849" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L849" s="8"/>
       <c r="M849" s="8"/>
       <c r="N849" s="8"/>
@@ -40482,13 +40557,19 @@
       <c r="D850" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E850" s="8"/>
-      <c r="F850" s="13"/>
+      <c r="E850" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F850" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G850" s="2"/>
       <c r="H850" s="13"/>
       <c r="I850" s="13"/>
       <c r="J850" s="14"/>
-      <c r="K850" s="8"/>
+      <c r="K850" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L850" s="8"/>
       <c r="M850" s="8"/>
       <c r="N850" s="8"/>
@@ -40518,13 +40599,19 @@
       <c r="D851" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E851" s="8"/>
-      <c r="F851" s="13"/>
+      <c r="E851" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="F851" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G851" s="2"/>
       <c r="H851" s="13"/>
       <c r="I851" s="13"/>
       <c r="J851" s="14"/>
-      <c r="K851" s="8"/>
+      <c r="K851" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L851" s="8"/>
       <c r="M851" s="8"/>
       <c r="N851" s="8"/>
@@ -40554,13 +40641,19 @@
       <c r="D852" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E852" s="8"/>
-      <c r="F852" s="13"/>
+      <c r="E852" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F852" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G852" s="2"/>
       <c r="H852" s="13"/>
       <c r="I852" s="13"/>
       <c r="J852" s="14"/>
-      <c r="K852" s="8"/>
+      <c r="K852" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L852" s="8"/>
       <c r="M852" s="8"/>
       <c r="N852" s="8"/>
@@ -40590,13 +40683,19 @@
       <c r="D853" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E853" s="8"/>
-      <c r="F853" s="13"/>
+      <c r="E853" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F853" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G853" s="2"/>
       <c r="H853" s="13"/>
       <c r="I853" s="13"/>
       <c r="J853" s="14"/>
-      <c r="K853" s="8"/>
+      <c r="K853" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L853" s="8"/>
       <c r="M853" s="8"/>
       <c r="N853" s="8"/>
@@ -40626,13 +40725,19 @@
       <c r="D854" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E854" s="8"/>
-      <c r="F854" s="13"/>
+      <c r="E854" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F854" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G854" s="2"/>
       <c r="H854" s="13"/>
       <c r="I854" s="13"/>
       <c r="J854" s="14"/>
-      <c r="K854" s="8"/>
+      <c r="K854" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L854" s="8"/>
       <c r="M854" s="8"/>
       <c r="N854" s="8"/>
@@ -40662,13 +40767,19 @@
       <c r="D855" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E855" s="8"/>
-      <c r="F855" s="13"/>
+      <c r="E855" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F855" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G855" s="2"/>
       <c r="H855" s="13"/>
       <c r="I855" s="13"/>
       <c r="J855" s="14"/>
-      <c r="K855" s="8"/>
+      <c r="K855" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L855" s="8"/>
       <c r="M855" s="8"/>
       <c r="N855" s="8"/>
@@ -40698,13 +40809,19 @@
       <c r="D856" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E856" s="8"/>
-      <c r="F856" s="13"/>
+      <c r="E856" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F856" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G856" s="2"/>
       <c r="H856" s="13"/>
       <c r="I856" s="13"/>
       <c r="J856" s="14"/>
-      <c r="K856" s="8"/>
+      <c r="K856" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L856" s="8"/>
       <c r="M856" s="8"/>
       <c r="N856" s="8"/>
@@ -40734,13 +40851,19 @@
       <c r="D857" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E857" s="8"/>
-      <c r="F857" s="13"/>
+      <c r="E857" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F857" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G857" s="2"/>
       <c r="H857" s="13"/>
       <c r="I857" s="13"/>
       <c r="J857" s="14"/>
-      <c r="K857" s="8"/>
+      <c r="K857" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L857" s="8"/>
       <c r="M857" s="8"/>
       <c r="N857" s="8"/>
@@ -40770,13 +40893,19 @@
       <c r="D858" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E858" s="8"/>
-      <c r="F858" s="13"/>
+      <c r="E858" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F858" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G858" s="2"/>
       <c r="H858" s="13"/>
       <c r="I858" s="13"/>
       <c r="J858" s="14"/>
-      <c r="K858" s="8"/>
+      <c r="K858" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L858" s="8"/>
       <c r="M858" s="8"/>
       <c r="N858" s="8"/>
@@ -40806,13 +40935,19 @@
       <c r="D859" s="50">
         <v>44046.0</v>
       </c>
-      <c r="E859" s="8"/>
-      <c r="F859" s="13"/>
+      <c r="E859" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F859" s="56" t="s">
+        <v>254</v>
+      </c>
       <c r="G859" s="2"/>
       <c r="H859" s="13"/>
       <c r="I859" s="13"/>
       <c r="J859" s="14"/>
-      <c r="K859" s="8"/>
+      <c r="K859" s="31" t="s">
+        <v>587</v>
+      </c>
       <c r="L859" s="8"/>
       <c r="M859" s="8"/>
       <c r="N859" s="8"/>
@@ -45049,10 +45184,32 @@
     <hyperlink r:id="rId659" ref="K835"/>
     <hyperlink r:id="rId660" ref="K836"/>
     <hyperlink r:id="rId661" ref="K837"/>
+    <hyperlink r:id="rId662" ref="K838"/>
+    <hyperlink r:id="rId663" ref="K839"/>
+    <hyperlink r:id="rId664" ref="K840"/>
+    <hyperlink r:id="rId665" ref="K841"/>
+    <hyperlink r:id="rId666" ref="K842"/>
+    <hyperlink r:id="rId667" ref="K843"/>
+    <hyperlink r:id="rId668" ref="K844"/>
+    <hyperlink r:id="rId669" ref="K845"/>
+    <hyperlink r:id="rId670" ref="K846"/>
+    <hyperlink r:id="rId671" ref="K847"/>
+    <hyperlink r:id="rId672" ref="K848"/>
+    <hyperlink r:id="rId673" ref="K849"/>
+    <hyperlink r:id="rId674" ref="K850"/>
+    <hyperlink r:id="rId675" ref="K851"/>
+    <hyperlink r:id="rId676" ref="K852"/>
+    <hyperlink r:id="rId677" ref="K853"/>
+    <hyperlink r:id="rId678" ref="K854"/>
+    <hyperlink r:id="rId679" ref="K855"/>
+    <hyperlink r:id="rId680" ref="K856"/>
+    <hyperlink r:id="rId681" ref="K857"/>
+    <hyperlink r:id="rId682" ref="K858"/>
+    <hyperlink r:id="rId683" ref="K859"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId662"/>
+  <drawing r:id="rId684"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="588">
-  <si>
-    <t>2020-08-03T23:30:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="590">
+  <si>
+    <t>2020-08-04T20:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2157,6 +2157,12 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273336/200803oshirase(575-596).pdf</t>
+  </si>
+  <si>
+    <t>2020-08-04T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200804-856-862.pdf</t>
   </si>
 </sst>
 </file>
@@ -40965,17 +40971,31 @@
       <c r="Z859" s="8"/>
     </row>
     <row r="860" ht="18.0" customHeight="1">
-      <c r="A860" s="2"/>
-      <c r="B860" s="8"/>
-      <c r="C860" s="2"/>
-      <c r="D860" s="2"/>
-      <c r="E860" s="8"/>
-      <c r="F860" s="13"/>
+      <c r="A860" s="34">
+        <v>856.0</v>
+      </c>
+      <c r="B860" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C860" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D860" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E860" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F860" s="56" t="s">
+        <v>363</v>
+      </c>
       <c r="G860" s="2"/>
       <c r="H860" s="13"/>
       <c r="I860" s="13"/>
       <c r="J860" s="14"/>
-      <c r="K860" s="8"/>
+      <c r="K860" s="31" t="s">
+        <v>589</v>
+      </c>
       <c r="L860" s="8"/>
       <c r="M860" s="8"/>
       <c r="N860" s="8"/>
@@ -40993,17 +41013,31 @@
       <c r="Z860" s="8"/>
     </row>
     <row r="861" ht="18.0" customHeight="1">
-      <c r="A861" s="2"/>
-      <c r="B861" s="8"/>
-      <c r="C861" s="2"/>
-      <c r="D861" s="2"/>
-      <c r="E861" s="8"/>
-      <c r="F861" s="13"/>
+      <c r="A861" s="34">
+        <v>857.0</v>
+      </c>
+      <c r="B861" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C861" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D861" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E861" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F861" s="56" t="s">
+        <v>363</v>
+      </c>
       <c r="G861" s="2"/>
       <c r="H861" s="13"/>
       <c r="I861" s="13"/>
       <c r="J861" s="14"/>
-      <c r="K861" s="8"/>
+      <c r="K861" s="31" t="s">
+        <v>589</v>
+      </c>
       <c r="L861" s="8"/>
       <c r="M861" s="8"/>
       <c r="N861" s="8"/>
@@ -41021,17 +41055,31 @@
       <c r="Z861" s="8"/>
     </row>
     <row r="862" ht="18.0" customHeight="1">
-      <c r="A862" s="2"/>
-      <c r="B862" s="8"/>
-      <c r="C862" s="2"/>
-      <c r="D862" s="2"/>
-      <c r="E862" s="8"/>
-      <c r="F862" s="13"/>
+      <c r="A862" s="34">
+        <v>858.0</v>
+      </c>
+      <c r="B862" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C862" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D862" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E862" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F862" s="56" t="s">
+        <v>363</v>
+      </c>
       <c r="G862" s="2"/>
       <c r="H862" s="13"/>
       <c r="I862" s="13"/>
       <c r="J862" s="14"/>
-      <c r="K862" s="8"/>
+      <c r="K862" s="31" t="s">
+        <v>589</v>
+      </c>
       <c r="L862" s="8"/>
       <c r="M862" s="8"/>
       <c r="N862" s="8"/>
@@ -41049,17 +41097,31 @@
       <c r="Z862" s="8"/>
     </row>
     <row r="863" ht="18.0" customHeight="1">
-      <c r="A863" s="2"/>
-      <c r="B863" s="8"/>
-      <c r="C863" s="2"/>
-      <c r="D863" s="2"/>
-      <c r="E863" s="8"/>
-      <c r="F863" s="13"/>
+      <c r="A863" s="34">
+        <v>859.0</v>
+      </c>
+      <c r="B863" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C863" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D863" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E863" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F863" s="56" t="s">
+        <v>96</v>
+      </c>
       <c r="G863" s="2"/>
       <c r="H863" s="13"/>
       <c r="I863" s="13"/>
       <c r="J863" s="14"/>
-      <c r="K863" s="8"/>
+      <c r="K863" s="31" t="s">
+        <v>589</v>
+      </c>
       <c r="L863" s="8"/>
       <c r="M863" s="8"/>
       <c r="N863" s="8"/>
@@ -41077,17 +41139,31 @@
       <c r="Z863" s="8"/>
     </row>
     <row r="864" ht="18.0" customHeight="1">
-      <c r="A864" s="2"/>
-      <c r="B864" s="8"/>
-      <c r="C864" s="2"/>
-      <c r="D864" s="2"/>
-      <c r="E864" s="8"/>
-      <c r="F864" s="13"/>
+      <c r="A864" s="34">
+        <v>860.0</v>
+      </c>
+      <c r="B864" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C864" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D864" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E864" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F864" s="56" t="s">
+        <v>96</v>
+      </c>
       <c r="G864" s="2"/>
       <c r="H864" s="13"/>
       <c r="I864" s="13"/>
       <c r="J864" s="14"/>
-      <c r="K864" s="8"/>
+      <c r="K864" s="31" t="s">
+        <v>589</v>
+      </c>
       <c r="L864" s="8"/>
       <c r="M864" s="8"/>
       <c r="N864" s="8"/>
@@ -41105,17 +41181,31 @@
       <c r="Z864" s="8"/>
     </row>
     <row r="865" ht="18.0" customHeight="1">
-      <c r="A865" s="2"/>
-      <c r="B865" s="8"/>
-      <c r="C865" s="2"/>
-      <c r="D865" s="2"/>
-      <c r="E865" s="8"/>
-      <c r="F865" s="13"/>
+      <c r="A865" s="34">
+        <v>861.0</v>
+      </c>
+      <c r="B865" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C865" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D865" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E865" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F865" s="56" t="s">
+        <v>363</v>
+      </c>
       <c r="G865" s="2"/>
       <c r="H865" s="13"/>
       <c r="I865" s="13"/>
       <c r="J865" s="14"/>
-      <c r="K865" s="8"/>
+      <c r="K865" s="31" t="s">
+        <v>589</v>
+      </c>
       <c r="L865" s="8"/>
       <c r="M865" s="8"/>
       <c r="N865" s="8"/>
@@ -41133,17 +41223,31 @@
       <c r="Z865" s="8"/>
     </row>
     <row r="866" ht="18.0" customHeight="1">
-      <c r="A866" s="2"/>
-      <c r="B866" s="8"/>
-      <c r="C866" s="2"/>
-      <c r="D866" s="2"/>
-      <c r="E866" s="8"/>
-      <c r="F866" s="13"/>
+      <c r="A866" s="34">
+        <v>862.0</v>
+      </c>
+      <c r="B866" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C866" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D866" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E866" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F866" s="56" t="s">
+        <v>363</v>
+      </c>
       <c r="G866" s="2"/>
       <c r="H866" s="13"/>
       <c r="I866" s="13"/>
       <c r="J866" s="14"/>
-      <c r="K866" s="8"/>
+      <c r="K866" s="31" t="s">
+        <v>589</v>
+      </c>
       <c r="L866" s="8"/>
       <c r="M866" s="8"/>
       <c r="N866" s="8"/>
@@ -41161,7 +41265,9 @@
       <c r="Z866" s="8"/>
     </row>
     <row r="867" ht="18.0" customHeight="1">
-      <c r="A867" s="2"/>
+      <c r="A867" s="34">
+        <v>863.0</v>
+      </c>
       <c r="B867" s="8"/>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -41189,7 +41295,9 @@
       <c r="Z867" s="8"/>
     </row>
     <row r="868" ht="18.0" customHeight="1">
-      <c r="A868" s="2"/>
+      <c r="A868" s="34">
+        <v>864.0</v>
+      </c>
       <c r="B868" s="8"/>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -41217,7 +41325,9 @@
       <c r="Z868" s="8"/>
     </row>
     <row r="869" ht="18.0" customHeight="1">
-      <c r="A869" s="2"/>
+      <c r="A869" s="34">
+        <v>865.0</v>
+      </c>
       <c r="B869" s="8"/>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -41245,7 +41355,9 @@
       <c r="Z869" s="8"/>
     </row>
     <row r="870" ht="18.0" customHeight="1">
-      <c r="A870" s="2"/>
+      <c r="A870" s="34">
+        <v>866.0</v>
+      </c>
       <c r="B870" s="8"/>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -41273,7 +41385,9 @@
       <c r="Z870" s="8"/>
     </row>
     <row r="871" ht="18.0" customHeight="1">
-      <c r="A871" s="2"/>
+      <c r="A871" s="34">
+        <v>867.0</v>
+      </c>
       <c r="B871" s="8"/>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -41301,7 +41415,9 @@
       <c r="Z871" s="8"/>
     </row>
     <row r="872" ht="18.0" customHeight="1">
-      <c r="A872" s="2"/>
+      <c r="A872" s="34">
+        <v>868.0</v>
+      </c>
       <c r="B872" s="8"/>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -41329,7 +41445,9 @@
       <c r="Z872" s="8"/>
     </row>
     <row r="873" ht="18.0" customHeight="1">
-      <c r="A873" s="2"/>
+      <c r="A873" s="34">
+        <v>869.0</v>
+      </c>
       <c r="B873" s="8"/>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -41357,7 +41475,9 @@
       <c r="Z873" s="8"/>
     </row>
     <row r="874" ht="18.0" customHeight="1">
-      <c r="A874" s="2"/>
+      <c r="A874" s="34">
+        <v>870.0</v>
+      </c>
       <c r="B874" s="8"/>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -41385,7 +41505,9 @@
       <c r="Z874" s="8"/>
     </row>
     <row r="875" ht="18.0" customHeight="1">
-      <c r="A875" s="2"/>
+      <c r="A875" s="34">
+        <v>871.0</v>
+      </c>
       <c r="B875" s="8"/>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -41413,7 +41535,9 @@
       <c r="Z875" s="8"/>
     </row>
     <row r="876" ht="18.0" customHeight="1">
-      <c r="A876" s="2"/>
+      <c r="A876" s="34">
+        <v>872.0</v>
+      </c>
       <c r="B876" s="8"/>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -41441,7 +41565,9 @@
       <c r="Z876" s="8"/>
     </row>
     <row r="877" ht="18.0" customHeight="1">
-      <c r="A877" s="2"/>
+      <c r="A877" s="34">
+        <v>873.0</v>
+      </c>
       <c r="B877" s="8"/>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -41469,7 +41595,9 @@
       <c r="Z877" s="8"/>
     </row>
     <row r="878" ht="18.0" customHeight="1">
-      <c r="A878" s="2"/>
+      <c r="A878" s="34">
+        <v>874.0</v>
+      </c>
       <c r="B878" s="8"/>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -41497,7 +41625,9 @@
       <c r="Z878" s="8"/>
     </row>
     <row r="879" ht="18.0" customHeight="1">
-      <c r="A879" s="2"/>
+      <c r="A879" s="34">
+        <v>875.0</v>
+      </c>
       <c r="B879" s="8"/>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -41525,7 +41655,9 @@
       <c r="Z879" s="8"/>
     </row>
     <row r="880" ht="18.0" customHeight="1">
-      <c r="A880" s="2"/>
+      <c r="A880" s="34">
+        <v>876.0</v>
+      </c>
       <c r="B880" s="8"/>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -45206,10 +45338,17 @@
     <hyperlink r:id="rId681" ref="K857"/>
     <hyperlink r:id="rId682" ref="K858"/>
     <hyperlink r:id="rId683" ref="K859"/>
+    <hyperlink r:id="rId684" ref="K860"/>
+    <hyperlink r:id="rId685" ref="K861"/>
+    <hyperlink r:id="rId686" ref="K862"/>
+    <hyperlink r:id="rId687" ref="K863"/>
+    <hyperlink r:id="rId688" ref="K864"/>
+    <hyperlink r:id="rId689" ref="K865"/>
+    <hyperlink r:id="rId690" ref="K866"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId684"/>
+  <drawing r:id="rId691"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="590">
-  <si>
-    <t>2020-08-04T20:00:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="592">
+  <si>
+    <t>2020-08-04T23:30:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2164,6 +2164,12 @@
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200804-856-862.pdf</t>
   </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273395/200804oshirase(507-610).pdf</t>
+  </si>
+  <si>
+    <t>◯</t>
+  </si>
 </sst>
 </file>
 
@@ -2174,7 +2180,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -2315,6 +2321,10 @@
       <sz val="11.0"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF333333"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2342,7 +2352,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2519,6 +2529,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -41268,16 +41281,28 @@
       <c r="A867" s="34">
         <v>863.0</v>
       </c>
-      <c r="B867" s="8"/>
-      <c r="C867" s="2"/>
-      <c r="D867" s="2"/>
-      <c r="E867" s="8"/>
-      <c r="F867" s="13"/>
+      <c r="B867" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C867" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D867" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E867" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F867" s="59" t="s">
+        <v>254</v>
+      </c>
       <c r="G867" s="2"/>
       <c r="H867" s="13"/>
       <c r="I867" s="13"/>
       <c r="J867" s="14"/>
-      <c r="K867" s="8"/>
+      <c r="K867" s="31" t="s">
+        <v>590</v>
+      </c>
       <c r="L867" s="8"/>
       <c r="M867" s="8"/>
       <c r="N867" s="8"/>
@@ -41298,16 +41323,28 @@
       <c r="A868" s="34">
         <v>864.0</v>
       </c>
-      <c r="B868" s="8"/>
-      <c r="C868" s="2"/>
-      <c r="D868" s="2"/>
-      <c r="E868" s="8"/>
-      <c r="F868" s="13"/>
+      <c r="B868" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C868" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D868" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E868" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="F868" s="59" t="s">
+        <v>518</v>
+      </c>
       <c r="G868" s="2"/>
       <c r="H868" s="13"/>
       <c r="I868" s="13"/>
       <c r="J868" s="14"/>
-      <c r="K868" s="8"/>
+      <c r="K868" s="31" t="s">
+        <v>590</v>
+      </c>
       <c r="L868" s="8"/>
       <c r="M868" s="8"/>
       <c r="N868" s="8"/>
@@ -41328,16 +41365,28 @@
       <c r="A869" s="34">
         <v>865.0</v>
       </c>
-      <c r="B869" s="8"/>
-      <c r="C869" s="2"/>
-      <c r="D869" s="2"/>
-      <c r="E869" s="8"/>
-      <c r="F869" s="13"/>
+      <c r="B869" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C869" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D869" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E869" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F869" s="59" t="s">
+        <v>254</v>
+      </c>
       <c r="G869" s="2"/>
       <c r="H869" s="13"/>
       <c r="I869" s="13"/>
       <c r="J869" s="14"/>
-      <c r="K869" s="8"/>
+      <c r="K869" s="31" t="s">
+        <v>590</v>
+      </c>
       <c r="L869" s="8"/>
       <c r="M869" s="8"/>
       <c r="N869" s="8"/>
@@ -41358,16 +41407,28 @@
       <c r="A870" s="34">
         <v>866.0</v>
       </c>
-      <c r="B870" s="8"/>
-      <c r="C870" s="2"/>
-      <c r="D870" s="2"/>
-      <c r="E870" s="8"/>
-      <c r="F870" s="13"/>
+      <c r="B870" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C870" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D870" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E870" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F870" s="59" t="s">
+        <v>254</v>
+      </c>
       <c r="G870" s="2"/>
       <c r="H870" s="13"/>
       <c r="I870" s="13"/>
       <c r="J870" s="14"/>
-      <c r="K870" s="8"/>
+      <c r="K870" s="31" t="s">
+        <v>590</v>
+      </c>
       <c r="L870" s="8"/>
       <c r="M870" s="8"/>
       <c r="N870" s="8"/>
@@ -41388,16 +41449,28 @@
       <c r="A871" s="34">
         <v>867.0</v>
       </c>
-      <c r="B871" s="8"/>
-      <c r="C871" s="2"/>
-      <c r="D871" s="2"/>
-      <c r="E871" s="8"/>
-      <c r="F871" s="13"/>
+      <c r="B871" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C871" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D871" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E871" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F871" s="59" t="s">
+        <v>254</v>
+      </c>
       <c r="G871" s="2"/>
       <c r="H871" s="13"/>
       <c r="I871" s="13"/>
       <c r="J871" s="14"/>
-      <c r="K871" s="8"/>
+      <c r="K871" s="31" t="s">
+        <v>590</v>
+      </c>
       <c r="L871" s="8"/>
       <c r="M871" s="8"/>
       <c r="N871" s="8"/>
@@ -41418,16 +41491,28 @@
       <c r="A872" s="34">
         <v>868.0</v>
       </c>
-      <c r="B872" s="8"/>
-      <c r="C872" s="2"/>
-      <c r="D872" s="2"/>
-      <c r="E872" s="8"/>
-      <c r="F872" s="13"/>
+      <c r="B872" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C872" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D872" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E872" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F872" s="59" t="s">
+        <v>254</v>
+      </c>
       <c r="G872" s="2"/>
       <c r="H872" s="13"/>
       <c r="I872" s="13"/>
       <c r="J872" s="14"/>
-      <c r="K872" s="8"/>
+      <c r="K872" s="31" t="s">
+        <v>590</v>
+      </c>
       <c r="L872" s="8"/>
       <c r="M872" s="8"/>
       <c r="N872" s="8"/>
@@ -41448,16 +41533,28 @@
       <c r="A873" s="34">
         <v>869.0</v>
       </c>
-      <c r="B873" s="8"/>
-      <c r="C873" s="2"/>
-      <c r="D873" s="2"/>
-      <c r="E873" s="8"/>
-      <c r="F873" s="13"/>
+      <c r="B873" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C873" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D873" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E873" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F873" s="59" t="s">
+        <v>254</v>
+      </c>
       <c r="G873" s="2"/>
       <c r="H873" s="13"/>
       <c r="I873" s="13"/>
       <c r="J873" s="14"/>
-      <c r="K873" s="8"/>
+      <c r="K873" s="31" t="s">
+        <v>590</v>
+      </c>
       <c r="L873" s="8"/>
       <c r="M873" s="8"/>
       <c r="N873" s="8"/>
@@ -41478,16 +41575,28 @@
       <c r="A874" s="34">
         <v>870.0</v>
       </c>
-      <c r="B874" s="8"/>
-      <c r="C874" s="2"/>
-      <c r="D874" s="2"/>
-      <c r="E874" s="8"/>
-      <c r="F874" s="13"/>
+      <c r="B874" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C874" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D874" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E874" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F874" s="59" t="s">
+        <v>254</v>
+      </c>
       <c r="G874" s="2"/>
       <c r="H874" s="13"/>
       <c r="I874" s="13"/>
       <c r="J874" s="14"/>
-      <c r="K874" s="8"/>
+      <c r="K874" s="31" t="s">
+        <v>590</v>
+      </c>
       <c r="L874" s="8"/>
       <c r="M874" s="8"/>
       <c r="N874" s="8"/>
@@ -41508,16 +41617,28 @@
       <c r="A875" s="34">
         <v>871.0</v>
       </c>
-      <c r="B875" s="8"/>
-      <c r="C875" s="2"/>
-      <c r="D875" s="2"/>
-      <c r="E875" s="8"/>
-      <c r="F875" s="13"/>
+      <c r="B875" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C875" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D875" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E875" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F875" s="59" t="s">
+        <v>254</v>
+      </c>
       <c r="G875" s="2"/>
       <c r="H875" s="13"/>
       <c r="I875" s="13"/>
       <c r="J875" s="14"/>
-      <c r="K875" s="8"/>
+      <c r="K875" s="31" t="s">
+        <v>590</v>
+      </c>
       <c r="L875" s="8"/>
       <c r="M875" s="8"/>
       <c r="N875" s="8"/>
@@ -41538,18 +41659,32 @@
       <c r="A876" s="34">
         <v>872.0</v>
       </c>
-      <c r="B876" s="8"/>
-      <c r="C876" s="2"/>
-      <c r="D876" s="2"/>
-      <c r="E876" s="8"/>
-      <c r="F876" s="13"/>
+      <c r="B876" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C876" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D876" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E876" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F876" s="59" t="s">
+        <v>254</v>
+      </c>
       <c r="G876" s="2"/>
       <c r="H876" s="13"/>
       <c r="I876" s="13"/>
       <c r="J876" s="14"/>
-      <c r="K876" s="8"/>
+      <c r="K876" s="31" t="s">
+        <v>590</v>
+      </c>
       <c r="L876" s="8"/>
-      <c r="M876" s="8"/>
+      <c r="M876" s="16" t="s">
+        <v>591</v>
+      </c>
       <c r="N876" s="8"/>
       <c r="O876" s="8"/>
       <c r="P876" s="8"/>
@@ -41568,16 +41703,28 @@
       <c r="A877" s="34">
         <v>873.0</v>
       </c>
-      <c r="B877" s="8"/>
-      <c r="C877" s="2"/>
-      <c r="D877" s="2"/>
-      <c r="E877" s="8"/>
-      <c r="F877" s="13"/>
+      <c r="B877" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C877" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D877" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E877" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F877" s="59" t="s">
+        <v>254</v>
+      </c>
       <c r="G877" s="2"/>
       <c r="H877" s="13"/>
       <c r="I877" s="13"/>
       <c r="J877" s="14"/>
-      <c r="K877" s="8"/>
+      <c r="K877" s="31" t="s">
+        <v>590</v>
+      </c>
       <c r="L877" s="8"/>
       <c r="M877" s="8"/>
       <c r="N877" s="8"/>
@@ -41598,16 +41745,28 @@
       <c r="A878" s="34">
         <v>874.0</v>
       </c>
-      <c r="B878" s="8"/>
-      <c r="C878" s="2"/>
-      <c r="D878" s="2"/>
-      <c r="E878" s="8"/>
-      <c r="F878" s="13"/>
+      <c r="B878" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C878" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D878" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E878" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="F878" s="59" t="s">
+        <v>254</v>
+      </c>
       <c r="G878" s="2"/>
       <c r="H878" s="13"/>
       <c r="I878" s="13"/>
       <c r="J878" s="14"/>
-      <c r="K878" s="8"/>
+      <c r="K878" s="31" t="s">
+        <v>590</v>
+      </c>
       <c r="L878" s="8"/>
       <c r="M878" s="8"/>
       <c r="N878" s="8"/>
@@ -41628,16 +41787,28 @@
       <c r="A879" s="34">
         <v>875.0</v>
       </c>
-      <c r="B879" s="8"/>
-      <c r="C879" s="2"/>
-      <c r="D879" s="2"/>
-      <c r="E879" s="8"/>
-      <c r="F879" s="13"/>
+      <c r="B879" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C879" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D879" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E879" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F879" s="59" t="s">
+        <v>254</v>
+      </c>
       <c r="G879" s="2"/>
       <c r="H879" s="13"/>
       <c r="I879" s="13"/>
       <c r="J879" s="14"/>
-      <c r="K879" s="8"/>
+      <c r="K879" s="31" t="s">
+        <v>590</v>
+      </c>
       <c r="L879" s="8"/>
       <c r="M879" s="8"/>
       <c r="N879" s="8"/>
@@ -41658,16 +41829,28 @@
       <c r="A880" s="34">
         <v>876.0</v>
       </c>
-      <c r="B880" s="8"/>
-      <c r="C880" s="2"/>
-      <c r="D880" s="2"/>
-      <c r="E880" s="8"/>
-      <c r="F880" s="13"/>
+      <c r="B880" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C880" s="49">
+        <v>44047.0</v>
+      </c>
+      <c r="D880" s="50">
+        <v>44047.0</v>
+      </c>
+      <c r="E880" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F880" s="59" t="s">
+        <v>254</v>
+      </c>
       <c r="G880" s="2"/>
       <c r="H880" s="13"/>
       <c r="I880" s="13"/>
       <c r="J880" s="14"/>
-      <c r="K880" s="8"/>
+      <c r="K880" s="31" t="s">
+        <v>590</v>
+      </c>
       <c r="L880" s="8"/>
       <c r="M880" s="8"/>
       <c r="N880" s="8"/>
@@ -45345,10 +45528,24 @@
     <hyperlink r:id="rId688" ref="K864"/>
     <hyperlink r:id="rId689" ref="K865"/>
     <hyperlink r:id="rId690" ref="K866"/>
+    <hyperlink r:id="rId691" ref="K867"/>
+    <hyperlink r:id="rId692" ref="K868"/>
+    <hyperlink r:id="rId693" ref="K869"/>
+    <hyperlink r:id="rId694" ref="K870"/>
+    <hyperlink r:id="rId695" ref="K871"/>
+    <hyperlink r:id="rId696" ref="K872"/>
+    <hyperlink r:id="rId697" ref="K873"/>
+    <hyperlink r:id="rId698" ref="K874"/>
+    <hyperlink r:id="rId699" ref="K875"/>
+    <hyperlink r:id="rId700" ref="K876"/>
+    <hyperlink r:id="rId701" ref="K877"/>
+    <hyperlink r:id="rId702" ref="K878"/>
+    <hyperlink r:id="rId703" ref="K879"/>
+    <hyperlink r:id="rId704" ref="K880"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId691"/>
+  <drawing r:id="rId705"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="592">
-  <si>
-    <t>2020-08-04T23:30:00.000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4488" uniqueCount="594">
+  <si>
+    <t>2020-08-05T23:49:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2169,6 +2169,12 @@
   </si>
   <si>
     <t>◯</t>
+  </si>
+  <si>
+    <t>2020-08-05T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200805-877-883.pdf</t>
   </si>
 </sst>
 </file>
@@ -21644,7 +21650,9 @@
         <v>469</v>
       </c>
       <c r="L400" s="8"/>
-      <c r="M400" s="8"/>
+      <c r="M400" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N400" s="8"/>
       <c r="O400" s="8"/>
       <c r="P400" s="8"/>
@@ -21774,7 +21782,9 @@
         <v>471</v>
       </c>
       <c r="L403" s="8"/>
-      <c r="M403" s="8"/>
+      <c r="M403" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N403" s="8"/>
       <c r="O403" s="8"/>
       <c r="P403" s="8"/>
@@ -21904,7 +21914,9 @@
         <v>474</v>
       </c>
       <c r="L406" s="8"/>
-      <c r="M406" s="8"/>
+      <c r="M406" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N406" s="8"/>
       <c r="O406" s="8"/>
       <c r="P406" s="8"/>
@@ -21990,7 +22002,9 @@
         <v>477</v>
       </c>
       <c r="L408" s="8"/>
-      <c r="M408" s="8"/>
+      <c r="M408" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N408" s="8"/>
       <c r="O408" s="8"/>
       <c r="P408" s="8"/>
@@ -22032,7 +22046,9 @@
         <v>477</v>
       </c>
       <c r="L409" s="8"/>
-      <c r="M409" s="8"/>
+      <c r="M409" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N409" s="8"/>
       <c r="O409" s="8"/>
       <c r="P409" s="8"/>
@@ -22074,7 +22090,9 @@
         <v>477</v>
       </c>
       <c r="L410" s="8"/>
-      <c r="M410" s="8"/>
+      <c r="M410" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N410" s="8"/>
       <c r="O410" s="8"/>
       <c r="P410" s="8"/>
@@ -22248,7 +22266,9 @@
         <v>477</v>
       </c>
       <c r="L414" s="8"/>
-      <c r="M414" s="8"/>
+      <c r="M414" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N414" s="8"/>
       <c r="O414" s="8"/>
       <c r="P414" s="8"/>
@@ -22290,7 +22310,9 @@
         <v>477</v>
       </c>
       <c r="L415" s="8"/>
-      <c r="M415" s="8"/>
+      <c r="M415" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N415" s="8"/>
       <c r="O415" s="8"/>
       <c r="P415" s="8"/>
@@ -22332,7 +22354,9 @@
         <v>478</v>
       </c>
       <c r="L416" s="8"/>
-      <c r="M416" s="8"/>
+      <c r="M416" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N416" s="8"/>
       <c r="O416" s="8"/>
       <c r="P416" s="8"/>
@@ -22374,7 +22398,9 @@
         <v>478</v>
       </c>
       <c r="L417" s="8"/>
-      <c r="M417" s="8"/>
+      <c r="M417" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N417" s="8"/>
       <c r="O417" s="8"/>
       <c r="P417" s="8"/>
@@ -22416,7 +22442,9 @@
         <v>479</v>
       </c>
       <c r="L418" s="8"/>
-      <c r="M418" s="8"/>
+      <c r="M418" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N418" s="8"/>
       <c r="O418" s="8"/>
       <c r="P418" s="8"/>
@@ -22458,7 +22486,9 @@
         <v>479</v>
       </c>
       <c r="L419" s="8"/>
-      <c r="M419" s="8"/>
+      <c r="M419" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N419" s="8"/>
       <c r="O419" s="8"/>
       <c r="P419" s="8"/>
@@ -22500,7 +22530,9 @@
         <v>479</v>
       </c>
       <c r="L420" s="8"/>
-      <c r="M420" s="8"/>
+      <c r="M420" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N420" s="8"/>
       <c r="O420" s="8"/>
       <c r="P420" s="8"/>
@@ -22542,7 +22574,9 @@
         <v>479</v>
       </c>
       <c r="L421" s="8"/>
-      <c r="M421" s="8"/>
+      <c r="M421" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N421" s="8"/>
       <c r="O421" s="8"/>
       <c r="P421" s="8"/>
@@ -22584,7 +22618,9 @@
         <v>479</v>
       </c>
       <c r="L422" s="8"/>
-      <c r="M422" s="8"/>
+      <c r="M422" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N422" s="8"/>
       <c r="O422" s="8"/>
       <c r="P422" s="8"/>
@@ -22670,7 +22706,9 @@
         <v>481</v>
       </c>
       <c r="L424" s="8"/>
-      <c r="M424" s="8"/>
+      <c r="M424" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N424" s="8"/>
       <c r="O424" s="8"/>
       <c r="P424" s="8"/>
@@ -22712,7 +22750,9 @@
         <v>481</v>
       </c>
       <c r="L425" s="8"/>
-      <c r="M425" s="8"/>
+      <c r="M425" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N425" s="8"/>
       <c r="O425" s="8"/>
       <c r="P425" s="8"/>
@@ -22754,7 +22794,9 @@
         <v>481</v>
       </c>
       <c r="L426" s="8"/>
-      <c r="M426" s="8"/>
+      <c r="M426" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N426" s="8"/>
       <c r="O426" s="8"/>
       <c r="P426" s="8"/>
@@ -22796,7 +22838,9 @@
         <v>481</v>
       </c>
       <c r="L427" s="8"/>
-      <c r="M427" s="8"/>
+      <c r="M427" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N427" s="8"/>
       <c r="O427" s="8"/>
       <c r="P427" s="8"/>
@@ -22838,7 +22882,9 @@
         <v>481</v>
       </c>
       <c r="L428" s="8"/>
-      <c r="M428" s="8"/>
+      <c r="M428" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N428" s="8"/>
       <c r="O428" s="8"/>
       <c r="P428" s="8"/>
@@ -22924,7 +22970,9 @@
         <v>481</v>
       </c>
       <c r="L430" s="8"/>
-      <c r="M430" s="8"/>
+      <c r="M430" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N430" s="8"/>
       <c r="O430" s="8"/>
       <c r="P430" s="8"/>
@@ -22966,7 +23014,9 @@
         <v>481</v>
       </c>
       <c r="L431" s="8"/>
-      <c r="M431" s="8"/>
+      <c r="M431" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N431" s="8"/>
       <c r="O431" s="8"/>
       <c r="P431" s="8"/>
@@ -23008,7 +23058,7 @@
         <v>481</v>
       </c>
       <c r="L432" s="8"/>
-      <c r="M432" s="8"/>
+      <c r="M432" s="16"/>
       <c r="N432" s="8"/>
       <c r="O432" s="8"/>
       <c r="P432" s="8"/>
@@ -23050,7 +23100,9 @@
         <v>483</v>
       </c>
       <c r="L433" s="8"/>
-      <c r="M433" s="8"/>
+      <c r="M433" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N433" s="8"/>
       <c r="O433" s="8"/>
       <c r="P433" s="8"/>
@@ -23092,7 +23144,9 @@
         <v>483</v>
       </c>
       <c r="L434" s="8"/>
-      <c r="M434" s="8"/>
+      <c r="M434" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N434" s="8"/>
       <c r="O434" s="8"/>
       <c r="P434" s="8"/>
@@ -23134,7 +23188,9 @@
         <v>483</v>
       </c>
       <c r="L435" s="8"/>
-      <c r="M435" s="8"/>
+      <c r="M435" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N435" s="8"/>
       <c r="O435" s="8"/>
       <c r="P435" s="8"/>
@@ -23176,7 +23232,9 @@
         <v>483</v>
       </c>
       <c r="L436" s="8"/>
-      <c r="M436" s="8"/>
+      <c r="M436" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N436" s="8"/>
       <c r="O436" s="8"/>
       <c r="P436" s="8"/>
@@ -23218,7 +23276,9 @@
         <v>483</v>
       </c>
       <c r="L437" s="8"/>
-      <c r="M437" s="8"/>
+      <c r="M437" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N437" s="8"/>
       <c r="O437" s="8"/>
       <c r="P437" s="8"/>
@@ -23260,7 +23320,9 @@
         <v>483</v>
       </c>
       <c r="L438" s="8"/>
-      <c r="M438" s="8"/>
+      <c r="M438" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N438" s="8"/>
       <c r="O438" s="8"/>
       <c r="P438" s="8"/>
@@ -23302,7 +23364,9 @@
         <v>483</v>
       </c>
       <c r="L439" s="8"/>
-      <c r="M439" s="8"/>
+      <c r="M439" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N439" s="8"/>
       <c r="O439" s="8"/>
       <c r="P439" s="8"/>
@@ -23344,7 +23408,9 @@
         <v>483</v>
       </c>
       <c r="L440" s="8"/>
-      <c r="M440" s="8"/>
+      <c r="M440" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N440" s="8"/>
       <c r="O440" s="8"/>
       <c r="P440" s="8"/>
@@ -23386,7 +23452,9 @@
         <v>483</v>
       </c>
       <c r="L441" s="8"/>
-      <c r="M441" s="8"/>
+      <c r="M441" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N441" s="8"/>
       <c r="O441" s="8"/>
       <c r="P441" s="8"/>
@@ -23472,7 +23540,9 @@
         <v>486</v>
       </c>
       <c r="L443" s="8"/>
-      <c r="M443" s="8"/>
+      <c r="M443" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N443" s="8"/>
       <c r="O443" s="8"/>
       <c r="P443" s="8"/>
@@ -23514,7 +23584,9 @@
         <v>486</v>
       </c>
       <c r="L444" s="8"/>
-      <c r="M444" s="8"/>
+      <c r="M444" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N444" s="8"/>
       <c r="O444" s="8"/>
       <c r="P444" s="8"/>
@@ -23556,7 +23628,9 @@
         <v>486</v>
       </c>
       <c r="L445" s="8"/>
-      <c r="M445" s="8"/>
+      <c r="M445" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N445" s="8"/>
       <c r="O445" s="8"/>
       <c r="P445" s="8"/>
@@ -23598,7 +23672,9 @@
         <v>486</v>
       </c>
       <c r="L446" s="8"/>
-      <c r="M446" s="8"/>
+      <c r="M446" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N446" s="8"/>
       <c r="O446" s="8"/>
       <c r="P446" s="8"/>
@@ -23640,7 +23716,9 @@
         <v>486</v>
       </c>
       <c r="L447" s="8"/>
-      <c r="M447" s="8"/>
+      <c r="M447" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N447" s="8"/>
       <c r="O447" s="8"/>
       <c r="P447" s="8"/>
@@ -23680,7 +23758,9 @@
         <v>486</v>
       </c>
       <c r="L448" s="8"/>
-      <c r="M448" s="8"/>
+      <c r="M448" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N448" s="8"/>
       <c r="O448" s="8"/>
       <c r="P448" s="8"/>
@@ -23722,7 +23802,9 @@
         <v>486</v>
       </c>
       <c r="L449" s="8"/>
-      <c r="M449" s="8"/>
+      <c r="M449" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N449" s="8"/>
       <c r="O449" s="8"/>
       <c r="P449" s="8"/>
@@ -24022,7 +24104,9 @@
         <v>488</v>
       </c>
       <c r="L456" s="8"/>
-      <c r="M456" s="8"/>
+      <c r="M456" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N456" s="8"/>
       <c r="O456" s="8"/>
       <c r="P456" s="8"/>
@@ -24064,7 +24148,9 @@
         <v>490</v>
       </c>
       <c r="L457" s="8"/>
-      <c r="M457" s="8"/>
+      <c r="M457" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N457" s="8"/>
       <c r="O457" s="8"/>
       <c r="P457" s="8"/>
@@ -24106,7 +24192,9 @@
         <v>490</v>
       </c>
       <c r="L458" s="8"/>
-      <c r="M458" s="8"/>
+      <c r="M458" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N458" s="8"/>
       <c r="O458" s="8"/>
       <c r="P458" s="8"/>
@@ -24192,7 +24280,9 @@
         <v>493</v>
       </c>
       <c r="L460" s="8"/>
-      <c r="M460" s="8"/>
+      <c r="M460" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N460" s="8"/>
       <c r="O460" s="8"/>
       <c r="P460" s="8"/>
@@ -24234,7 +24324,9 @@
         <v>493</v>
       </c>
       <c r="L461" s="8"/>
-      <c r="M461" s="8"/>
+      <c r="M461" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N461" s="8"/>
       <c r="O461" s="8"/>
       <c r="P461" s="8"/>
@@ -24276,7 +24368,9 @@
         <v>493</v>
       </c>
       <c r="L462" s="8"/>
-      <c r="M462" s="8"/>
+      <c r="M462" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N462" s="8"/>
       <c r="O462" s="8"/>
       <c r="P462" s="8"/>
@@ -24318,7 +24412,9 @@
         <v>493</v>
       </c>
       <c r="L463" s="8"/>
-      <c r="M463" s="8"/>
+      <c r="M463" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N463" s="8"/>
       <c r="O463" s="8"/>
       <c r="P463" s="8"/>
@@ -24360,7 +24456,9 @@
         <v>493</v>
       </c>
       <c r="L464" s="8"/>
-      <c r="M464" s="8"/>
+      <c r="M464" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N464" s="8"/>
       <c r="O464" s="8"/>
       <c r="P464" s="8"/>
@@ -24402,7 +24500,9 @@
         <v>493</v>
       </c>
       <c r="L465" s="8"/>
-      <c r="M465" s="8"/>
+      <c r="M465" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N465" s="8"/>
       <c r="O465" s="8"/>
       <c r="P465" s="8"/>
@@ -24442,7 +24542,9 @@
         <v>493</v>
       </c>
       <c r="L466" s="8"/>
-      <c r="M466" s="8"/>
+      <c r="M466" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N466" s="8"/>
       <c r="O466" s="8"/>
       <c r="P466" s="8"/>
@@ -24484,7 +24586,9 @@
         <v>493</v>
       </c>
       <c r="L467" s="8"/>
-      <c r="M467" s="8"/>
+      <c r="M467" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N467" s="8"/>
       <c r="O467" s="8"/>
       <c r="P467" s="8"/>
@@ -24526,7 +24630,9 @@
         <v>493</v>
       </c>
       <c r="L468" s="8"/>
-      <c r="M468" s="8"/>
+      <c r="M468" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N468" s="8"/>
       <c r="O468" s="8"/>
       <c r="P468" s="8"/>
@@ -24568,7 +24674,9 @@
         <v>493</v>
       </c>
       <c r="L469" s="8"/>
-      <c r="M469" s="8"/>
+      <c r="M469" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N469" s="8"/>
       <c r="O469" s="8"/>
       <c r="P469" s="8"/>
@@ -24610,7 +24718,9 @@
         <v>493</v>
       </c>
       <c r="L470" s="8"/>
-      <c r="M470" s="8"/>
+      <c r="M470" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N470" s="8"/>
       <c r="O470" s="8"/>
       <c r="P470" s="8"/>
@@ -24696,7 +24806,9 @@
         <v>495</v>
       </c>
       <c r="L472" s="8"/>
-      <c r="M472" s="8"/>
+      <c r="M472" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N472" s="8"/>
       <c r="O472" s="8"/>
       <c r="P472" s="8"/>
@@ -24738,7 +24850,9 @@
         <v>495</v>
       </c>
       <c r="L473" s="8"/>
-      <c r="M473" s="8"/>
+      <c r="M473" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N473" s="8"/>
       <c r="O473" s="8"/>
       <c r="P473" s="8"/>
@@ -24824,7 +24938,9 @@
         <v>497</v>
       </c>
       <c r="L475" s="8"/>
-      <c r="M475" s="8"/>
+      <c r="M475" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N475" s="8"/>
       <c r="O475" s="8"/>
       <c r="P475" s="8"/>
@@ -24866,7 +24982,9 @@
         <v>497</v>
       </c>
       <c r="L476" s="8"/>
-      <c r="M476" s="8"/>
+      <c r="M476" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N476" s="8"/>
       <c r="O476" s="8"/>
       <c r="P476" s="8"/>
@@ -24908,7 +25026,9 @@
         <v>497</v>
       </c>
       <c r="L477" s="8"/>
-      <c r="M477" s="8"/>
+      <c r="M477" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N477" s="8"/>
       <c r="O477" s="8"/>
       <c r="P477" s="8"/>
@@ -24950,7 +25070,9 @@
         <v>497</v>
       </c>
       <c r="L478" s="8"/>
-      <c r="M478" s="8"/>
+      <c r="M478" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N478" s="8"/>
       <c r="O478" s="8"/>
       <c r="P478" s="8"/>
@@ -24992,7 +25114,9 @@
         <v>497</v>
       </c>
       <c r="L479" s="8"/>
-      <c r="M479" s="8"/>
+      <c r="M479" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N479" s="8"/>
       <c r="O479" s="8"/>
       <c r="P479" s="8"/>
@@ -25078,7 +25202,9 @@
         <v>499</v>
       </c>
       <c r="L481" s="8"/>
-      <c r="M481" s="8"/>
+      <c r="M481" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N481" s="8"/>
       <c r="O481" s="8"/>
       <c r="P481" s="8"/>
@@ -25208,7 +25334,9 @@
         <v>500</v>
       </c>
       <c r="L484" s="8"/>
-      <c r="M484" s="8"/>
+      <c r="M484" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N484" s="8"/>
       <c r="O484" s="8"/>
       <c r="P484" s="8"/>
@@ -25250,7 +25378,9 @@
         <v>500</v>
       </c>
       <c r="L485" s="8"/>
-      <c r="M485" s="8"/>
+      <c r="M485" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N485" s="8"/>
       <c r="O485" s="8"/>
       <c r="P485" s="8"/>
@@ -25292,7 +25422,9 @@
         <v>500</v>
       </c>
       <c r="L486" s="8"/>
-      <c r="M486" s="8"/>
+      <c r="M486" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N486" s="8"/>
       <c r="O486" s="8"/>
       <c r="P486" s="8"/>
@@ -25334,7 +25466,9 @@
         <v>500</v>
       </c>
       <c r="L487" s="8"/>
-      <c r="M487" s="8"/>
+      <c r="M487" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N487" s="8"/>
       <c r="O487" s="8"/>
       <c r="P487" s="8"/>
@@ -25376,7 +25510,9 @@
         <v>500</v>
       </c>
       <c r="L488" s="8"/>
-      <c r="M488" s="8"/>
+      <c r="M488" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N488" s="8"/>
       <c r="O488" s="8"/>
       <c r="P488" s="8"/>
@@ -25418,7 +25554,9 @@
         <v>500</v>
       </c>
       <c r="L489" s="8"/>
-      <c r="M489" s="8"/>
+      <c r="M489" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N489" s="8"/>
       <c r="O489" s="8"/>
       <c r="P489" s="8"/>
@@ -25460,7 +25598,9 @@
         <v>500</v>
       </c>
       <c r="L490" s="8"/>
-      <c r="M490" s="8"/>
+      <c r="M490" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N490" s="8"/>
       <c r="O490" s="8"/>
       <c r="P490" s="8"/>
@@ -25502,7 +25642,9 @@
         <v>500</v>
       </c>
       <c r="L491" s="8"/>
-      <c r="M491" s="8"/>
+      <c r="M491" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N491" s="8"/>
       <c r="O491" s="8"/>
       <c r="P491" s="8"/>
@@ -25544,7 +25686,9 @@
         <v>500</v>
       </c>
       <c r="L492" s="8"/>
-      <c r="M492" s="8"/>
+      <c r="M492" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N492" s="8"/>
       <c r="O492" s="8"/>
       <c r="P492" s="8"/>
@@ -25630,7 +25774,9 @@
         <v>502</v>
       </c>
       <c r="L494" s="8"/>
-      <c r="M494" s="8"/>
+      <c r="M494" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N494" s="8"/>
       <c r="O494" s="8"/>
       <c r="P494" s="8"/>
@@ -25672,7 +25818,9 @@
         <v>502</v>
       </c>
       <c r="L495" s="8"/>
-      <c r="M495" s="8"/>
+      <c r="M495" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N495" s="8"/>
       <c r="O495" s="8"/>
       <c r="P495" s="8"/>
@@ -25758,7 +25906,9 @@
         <v>502</v>
       </c>
       <c r="L497" s="8"/>
-      <c r="M497" s="8"/>
+      <c r="M497" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N497" s="8"/>
       <c r="O497" s="8"/>
       <c r="P497" s="8"/>
@@ -25800,7 +25950,9 @@
         <v>502</v>
       </c>
       <c r="L498" s="8"/>
-      <c r="M498" s="8"/>
+      <c r="M498" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N498" s="8"/>
       <c r="O498" s="8"/>
       <c r="P498" s="8"/>
@@ -25842,7 +25994,9 @@
         <v>503</v>
       </c>
       <c r="L499" s="8"/>
-      <c r="M499" s="8"/>
+      <c r="M499" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N499" s="8"/>
       <c r="O499" s="8"/>
       <c r="P499" s="8"/>
@@ -25884,7 +26038,9 @@
         <v>503</v>
       </c>
       <c r="L500" s="8"/>
-      <c r="M500" s="8"/>
+      <c r="M500" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N500" s="8"/>
       <c r="O500" s="8"/>
       <c r="P500" s="8"/>
@@ -25926,7 +26082,9 @@
         <v>503</v>
       </c>
       <c r="L501" s="8"/>
-      <c r="M501" s="8"/>
+      <c r="M501" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N501" s="8"/>
       <c r="O501" s="8"/>
       <c r="P501" s="8"/>
@@ -25968,7 +26126,9 @@
         <v>503</v>
       </c>
       <c r="L502" s="8"/>
-      <c r="M502" s="8"/>
+      <c r="M502" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N502" s="8"/>
       <c r="O502" s="8"/>
       <c r="P502" s="8"/>
@@ -26010,7 +26170,9 @@
         <v>503</v>
       </c>
       <c r="L503" s="8"/>
-      <c r="M503" s="8"/>
+      <c r="M503" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N503" s="8"/>
       <c r="O503" s="8"/>
       <c r="P503" s="8"/>
@@ -26052,7 +26214,9 @@
         <v>503</v>
       </c>
       <c r="L504" s="8"/>
-      <c r="M504" s="8"/>
+      <c r="M504" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N504" s="8"/>
       <c r="O504" s="8"/>
       <c r="P504" s="8"/>
@@ -26094,7 +26258,9 @@
         <v>505</v>
       </c>
       <c r="L505" s="8"/>
-      <c r="M505" s="8"/>
+      <c r="M505" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N505" s="8"/>
       <c r="O505" s="8"/>
       <c r="P505" s="8"/>
@@ -26136,7 +26302,9 @@
         <v>506</v>
       </c>
       <c r="L506" s="8"/>
-      <c r="M506" s="8"/>
+      <c r="M506" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N506" s="8"/>
       <c r="O506" s="8"/>
       <c r="P506" s="8"/>
@@ -26178,7 +26346,9 @@
         <v>507</v>
       </c>
       <c r="L507" s="8"/>
-      <c r="M507" s="8"/>
+      <c r="M507" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N507" s="8"/>
       <c r="O507" s="8"/>
       <c r="P507" s="8"/>
@@ -26264,7 +26434,9 @@
         <v>507</v>
       </c>
       <c r="L509" s="8"/>
-      <c r="M509" s="8"/>
+      <c r="M509" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N509" s="8"/>
       <c r="O509" s="8"/>
       <c r="P509" s="8"/>
@@ -26350,7 +26522,9 @@
         <v>507</v>
       </c>
       <c r="L511" s="8"/>
-      <c r="M511" s="8"/>
+      <c r="M511" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N511" s="8"/>
       <c r="O511" s="8"/>
       <c r="P511" s="8"/>
@@ -26436,7 +26610,9 @@
         <v>507</v>
       </c>
       <c r="L513" s="8"/>
-      <c r="M513" s="8"/>
+      <c r="M513" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N513" s="8"/>
       <c r="O513" s="8"/>
       <c r="P513" s="8"/>
@@ -26478,7 +26654,9 @@
         <v>507</v>
       </c>
       <c r="L514" s="8"/>
-      <c r="M514" s="8"/>
+      <c r="M514" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N514" s="8"/>
       <c r="O514" s="8"/>
       <c r="P514" s="8"/>
@@ -26520,7 +26698,9 @@
         <v>507</v>
       </c>
       <c r="L515" s="8"/>
-      <c r="M515" s="8"/>
+      <c r="M515" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N515" s="8"/>
       <c r="O515" s="8"/>
       <c r="P515" s="8"/>
@@ -26562,7 +26742,9 @@
         <v>507</v>
       </c>
       <c r="L516" s="8"/>
-      <c r="M516" s="8"/>
+      <c r="M516" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N516" s="8"/>
       <c r="O516" s="8"/>
       <c r="P516" s="8"/>
@@ -26604,7 +26786,9 @@
         <v>507</v>
       </c>
       <c r="L517" s="8"/>
-      <c r="M517" s="8"/>
+      <c r="M517" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N517" s="8"/>
       <c r="O517" s="8"/>
       <c r="P517" s="8"/>
@@ -26646,7 +26830,9 @@
         <v>507</v>
       </c>
       <c r="L518" s="8"/>
-      <c r="M518" s="8"/>
+      <c r="M518" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N518" s="8"/>
       <c r="O518" s="8"/>
       <c r="P518" s="8"/>
@@ -26688,7 +26874,9 @@
         <v>507</v>
       </c>
       <c r="L519" s="8"/>
-      <c r="M519" s="8"/>
+      <c r="M519" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N519" s="8"/>
       <c r="O519" s="8"/>
       <c r="P519" s="8"/>
@@ -26730,7 +26918,9 @@
         <v>507</v>
       </c>
       <c r="L520" s="8"/>
-      <c r="M520" s="8"/>
+      <c r="M520" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N520" s="8"/>
       <c r="O520" s="8"/>
       <c r="P520" s="8"/>
@@ -26816,7 +27006,9 @@
         <v>507</v>
       </c>
       <c r="L522" s="8"/>
-      <c r="M522" s="8"/>
+      <c r="M522" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N522" s="8"/>
       <c r="O522" s="8"/>
       <c r="P522" s="8"/>
@@ -26858,7 +27050,9 @@
         <v>509</v>
       </c>
       <c r="L523" s="8"/>
-      <c r="M523" s="8"/>
+      <c r="M523" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N523" s="8"/>
       <c r="O523" s="8"/>
       <c r="P523" s="8"/>
@@ -26900,7 +27094,9 @@
         <v>509</v>
       </c>
       <c r="L524" s="8"/>
-      <c r="M524" s="8"/>
+      <c r="M524" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N524" s="8"/>
       <c r="O524" s="8"/>
       <c r="P524" s="8"/>
@@ -26942,7 +27138,9 @@
         <v>509</v>
       </c>
       <c r="L525" s="8"/>
-      <c r="M525" s="8"/>
+      <c r="M525" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N525" s="8"/>
       <c r="O525" s="8"/>
       <c r="P525" s="8"/>
@@ -26984,7 +27182,9 @@
         <v>509</v>
       </c>
       <c r="L526" s="8"/>
-      <c r="M526" s="8"/>
+      <c r="M526" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N526" s="8"/>
       <c r="O526" s="8"/>
       <c r="P526" s="8"/>
@@ -27026,7 +27226,9 @@
         <v>509</v>
       </c>
       <c r="L527" s="8"/>
-      <c r="M527" s="8"/>
+      <c r="M527" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N527" s="8"/>
       <c r="O527" s="8"/>
       <c r="P527" s="8"/>
@@ -27068,7 +27270,9 @@
         <v>509</v>
       </c>
       <c r="L528" s="8"/>
-      <c r="M528" s="8"/>
+      <c r="M528" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N528" s="8"/>
       <c r="O528" s="8"/>
       <c r="P528" s="8"/>
@@ -27110,7 +27314,9 @@
         <v>509</v>
       </c>
       <c r="L529" s="8"/>
-      <c r="M529" s="8"/>
+      <c r="M529" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N529" s="8"/>
       <c r="O529" s="8"/>
       <c r="P529" s="8"/>
@@ -27152,7 +27358,9 @@
         <v>511</v>
       </c>
       <c r="L530" s="8"/>
-      <c r="M530" s="8"/>
+      <c r="M530" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N530" s="8"/>
       <c r="O530" s="8"/>
       <c r="P530" s="8"/>
@@ -27238,7 +27446,9 @@
         <v>511</v>
       </c>
       <c r="L532" s="8"/>
-      <c r="M532" s="8"/>
+      <c r="M532" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N532" s="8"/>
       <c r="O532" s="8"/>
       <c r="P532" s="8"/>
@@ -27280,7 +27490,9 @@
         <v>511</v>
       </c>
       <c r="L533" s="8"/>
-      <c r="M533" s="8"/>
+      <c r="M533" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N533" s="8"/>
       <c r="O533" s="8"/>
       <c r="P533" s="8"/>
@@ -27322,7 +27534,9 @@
         <v>511</v>
       </c>
       <c r="L534" s="8"/>
-      <c r="M534" s="8"/>
+      <c r="M534" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N534" s="8"/>
       <c r="O534" s="8"/>
       <c r="P534" s="8"/>
@@ -27364,7 +27578,9 @@
         <v>512</v>
       </c>
       <c r="L535" s="8"/>
-      <c r="M535" s="8"/>
+      <c r="M535" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N535" s="8"/>
       <c r="O535" s="8"/>
       <c r="P535" s="8"/>
@@ -27406,7 +27622,9 @@
         <v>512</v>
       </c>
       <c r="L536" s="8"/>
-      <c r="M536" s="8"/>
+      <c r="M536" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N536" s="8"/>
       <c r="O536" s="8"/>
       <c r="P536" s="8"/>
@@ -27448,7 +27666,9 @@
         <v>512</v>
       </c>
       <c r="L537" s="8"/>
-      <c r="M537" s="8"/>
+      <c r="M537" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N537" s="8"/>
       <c r="O537" s="8"/>
       <c r="P537" s="8"/>
@@ -27490,7 +27710,9 @@
         <v>512</v>
       </c>
       <c r="L538" s="8"/>
-      <c r="M538" s="8"/>
+      <c r="M538" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N538" s="8"/>
       <c r="O538" s="8"/>
       <c r="P538" s="8"/>
@@ -27532,7 +27754,9 @@
         <v>512</v>
       </c>
       <c r="L539" s="8"/>
-      <c r="M539" s="8"/>
+      <c r="M539" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N539" s="8"/>
       <c r="O539" s="8"/>
       <c r="P539" s="8"/>
@@ -27574,7 +27798,9 @@
         <v>512</v>
       </c>
       <c r="L540" s="8"/>
-      <c r="M540" s="8"/>
+      <c r="M540" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N540" s="8"/>
       <c r="O540" s="8"/>
       <c r="P540" s="8"/>
@@ -27616,7 +27842,9 @@
         <v>512</v>
       </c>
       <c r="L541" s="8"/>
-      <c r="M541" s="8"/>
+      <c r="M541" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N541" s="8"/>
       <c r="O541" s="8"/>
       <c r="P541" s="8"/>
@@ -27700,7 +27928,9 @@
         <v>514</v>
       </c>
       <c r="L543" s="8"/>
-      <c r="M543" s="8"/>
+      <c r="M543" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N543" s="8"/>
       <c r="O543" s="8"/>
       <c r="P543" s="8"/>
@@ -27742,7 +27972,9 @@
         <v>514</v>
       </c>
       <c r="L544" s="8"/>
-      <c r="M544" s="8"/>
+      <c r="M544" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N544" s="8"/>
       <c r="O544" s="8"/>
       <c r="P544" s="8"/>
@@ -27784,7 +28016,9 @@
         <v>514</v>
       </c>
       <c r="L545" s="8"/>
-      <c r="M545" s="8"/>
+      <c r="M545" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N545" s="8"/>
       <c r="O545" s="8"/>
       <c r="P545" s="8"/>
@@ -27826,7 +28060,9 @@
         <v>514</v>
       </c>
       <c r="L546" s="8"/>
-      <c r="M546" s="8"/>
+      <c r="M546" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N546" s="8"/>
       <c r="O546" s="8"/>
       <c r="P546" s="8"/>
@@ -27868,7 +28104,9 @@
         <v>514</v>
       </c>
       <c r="L547" s="8"/>
-      <c r="M547" s="8"/>
+      <c r="M547" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N547" s="8"/>
       <c r="O547" s="8"/>
       <c r="P547" s="8"/>
@@ -27910,7 +28148,9 @@
         <v>514</v>
       </c>
       <c r="L548" s="8"/>
-      <c r="M548" s="8"/>
+      <c r="M548" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N548" s="8"/>
       <c r="O548" s="8"/>
       <c r="P548" s="8"/>
@@ -27952,7 +28192,9 @@
         <v>514</v>
       </c>
       <c r="L549" s="8"/>
-      <c r="M549" s="8"/>
+      <c r="M549" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N549" s="8"/>
       <c r="O549" s="8"/>
       <c r="P549" s="8"/>
@@ -27994,7 +28236,9 @@
         <v>516</v>
       </c>
       <c r="L550" s="8"/>
-      <c r="M550" s="8"/>
+      <c r="M550" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N550" s="8"/>
       <c r="O550" s="8"/>
       <c r="P550" s="8"/>
@@ -28036,7 +28280,9 @@
         <v>517</v>
       </c>
       <c r="L551" s="8"/>
-      <c r="M551" s="8"/>
+      <c r="M551" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N551" s="8"/>
       <c r="O551" s="8"/>
       <c r="P551" s="8"/>
@@ -28120,7 +28366,9 @@
         <v>520</v>
       </c>
       <c r="L553" s="8"/>
-      <c r="M553" s="8"/>
+      <c r="M553" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N553" s="8"/>
       <c r="O553" s="8"/>
       <c r="P553" s="8"/>
@@ -28162,7 +28410,9 @@
         <v>521</v>
       </c>
       <c r="L554" s="8"/>
-      <c r="M554" s="8"/>
+      <c r="M554" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N554" s="8"/>
       <c r="O554" s="8"/>
       <c r="P554" s="8"/>
@@ -28204,7 +28454,9 @@
         <v>522</v>
       </c>
       <c r="L555" s="8"/>
-      <c r="M555" s="8"/>
+      <c r="M555" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N555" s="8"/>
       <c r="O555" s="8"/>
       <c r="P555" s="8"/>
@@ -28246,7 +28498,9 @@
         <v>523</v>
       </c>
       <c r="L556" s="8"/>
-      <c r="M556" s="8"/>
+      <c r="M556" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N556" s="8"/>
       <c r="O556" s="8"/>
       <c r="P556" s="8"/>
@@ -28288,7 +28542,9 @@
         <v>524</v>
       </c>
       <c r="L557" s="8"/>
-      <c r="M557" s="8"/>
+      <c r="M557" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N557" s="8"/>
       <c r="O557" s="8"/>
       <c r="P557" s="8"/>
@@ -28330,7 +28586,9 @@
         <v>525</v>
       </c>
       <c r="L558" s="8"/>
-      <c r="M558" s="8"/>
+      <c r="M558" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N558" s="8"/>
       <c r="O558" s="8"/>
       <c r="P558" s="8"/>
@@ -28372,7 +28630,9 @@
         <v>526</v>
       </c>
       <c r="L559" s="8"/>
-      <c r="M559" s="8"/>
+      <c r="M559" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N559" s="8"/>
       <c r="O559" s="8"/>
       <c r="P559" s="8"/>
@@ -28414,7 +28674,9 @@
         <v>527</v>
       </c>
       <c r="L560" s="8"/>
-      <c r="M560" s="8"/>
+      <c r="M560" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N560" s="8"/>
       <c r="O560" s="8"/>
       <c r="P560" s="8"/>
@@ -28456,7 +28718,9 @@
         <v>528</v>
       </c>
       <c r="L561" s="8"/>
-      <c r="M561" s="8"/>
+      <c r="M561" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N561" s="8"/>
       <c r="O561" s="8"/>
       <c r="P561" s="8"/>
@@ -28498,7 +28762,9 @@
         <v>529</v>
       </c>
       <c r="L562" s="8"/>
-      <c r="M562" s="8"/>
+      <c r="M562" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N562" s="8"/>
       <c r="O562" s="8"/>
       <c r="P562" s="8"/>
@@ -28540,7 +28806,9 @@
         <v>530</v>
       </c>
       <c r="L563" s="8"/>
-      <c r="M563" s="8"/>
+      <c r="M563" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N563" s="8"/>
       <c r="O563" s="8"/>
       <c r="P563" s="8"/>
@@ -28582,7 +28850,9 @@
         <v>531</v>
       </c>
       <c r="L564" s="8"/>
-      <c r="M564" s="8"/>
+      <c r="M564" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N564" s="8"/>
       <c r="O564" s="8"/>
       <c r="P564" s="8"/>
@@ -28624,7 +28894,9 @@
         <v>532</v>
       </c>
       <c r="L565" s="8"/>
-      <c r="M565" s="8"/>
+      <c r="M565" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N565" s="8"/>
       <c r="O565" s="8"/>
       <c r="P565" s="8"/>
@@ -28666,7 +28938,9 @@
         <v>533</v>
       </c>
       <c r="L566" s="8"/>
-      <c r="M566" s="8"/>
+      <c r="M566" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N566" s="8"/>
       <c r="O566" s="8"/>
       <c r="P566" s="8"/>
@@ -28708,7 +28982,9 @@
         <v>534</v>
       </c>
       <c r="L567" s="8"/>
-      <c r="M567" s="8"/>
+      <c r="M567" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N567" s="8"/>
       <c r="O567" s="8"/>
       <c r="P567" s="8"/>
@@ -28750,7 +29026,9 @@
         <v>535</v>
       </c>
       <c r="L568" s="8"/>
-      <c r="M568" s="8"/>
+      <c r="M568" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N568" s="8"/>
       <c r="O568" s="8"/>
       <c r="P568" s="8"/>
@@ -28792,7 +29070,9 @@
         <v>537</v>
       </c>
       <c r="L569" s="8"/>
-      <c r="M569" s="8"/>
+      <c r="M569" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N569" s="8"/>
       <c r="O569" s="8"/>
       <c r="P569" s="8"/>
@@ -28834,7 +29114,9 @@
         <v>537</v>
       </c>
       <c r="L570" s="8"/>
-      <c r="M570" s="8"/>
+      <c r="M570" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N570" s="8"/>
       <c r="O570" s="8"/>
       <c r="P570" s="8"/>
@@ -28876,7 +29158,9 @@
         <v>537</v>
       </c>
       <c r="L571" s="8"/>
-      <c r="M571" s="8"/>
+      <c r="M571" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N571" s="8"/>
       <c r="O571" s="8"/>
       <c r="P571" s="8"/>
@@ -28918,7 +29202,9 @@
         <v>537</v>
       </c>
       <c r="L572" s="8"/>
-      <c r="M572" s="8"/>
+      <c r="M572" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N572" s="8"/>
       <c r="O572" s="8"/>
       <c r="P572" s="8"/>
@@ -29002,7 +29288,9 @@
         <v>537</v>
       </c>
       <c r="L574" s="8"/>
-      <c r="M574" s="8"/>
+      <c r="M574" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N574" s="8"/>
       <c r="O574" s="8"/>
       <c r="P574" s="8"/>
@@ -29044,7 +29332,9 @@
         <v>538</v>
       </c>
       <c r="L575" s="8"/>
-      <c r="M575" s="8"/>
+      <c r="M575" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N575" s="8"/>
       <c r="O575" s="8"/>
       <c r="P575" s="8"/>
@@ -29086,7 +29376,9 @@
         <v>538</v>
       </c>
       <c r="L576" s="8"/>
-      <c r="M576" s="8"/>
+      <c r="M576" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N576" s="8"/>
       <c r="O576" s="8"/>
       <c r="P576" s="8"/>
@@ -29128,7 +29420,9 @@
         <v>538</v>
       </c>
       <c r="L577" s="8"/>
-      <c r="M577" s="8"/>
+      <c r="M577" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N577" s="8"/>
       <c r="O577" s="8"/>
       <c r="P577" s="8"/>
@@ -29170,7 +29464,9 @@
         <v>538</v>
       </c>
       <c r="L578" s="8"/>
-      <c r="M578" s="8"/>
+      <c r="M578" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N578" s="8"/>
       <c r="O578" s="8"/>
       <c r="P578" s="8"/>
@@ -29212,7 +29508,9 @@
         <v>538</v>
       </c>
       <c r="L579" s="8"/>
-      <c r="M579" s="8"/>
+      <c r="M579" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N579" s="8"/>
       <c r="O579" s="8"/>
       <c r="P579" s="8"/>
@@ -29254,7 +29552,9 @@
         <v>538</v>
       </c>
       <c r="L580" s="8"/>
-      <c r="M580" s="8"/>
+      <c r="M580" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N580" s="8"/>
       <c r="O580" s="8"/>
       <c r="P580" s="8"/>
@@ -29380,7 +29680,9 @@
         <v>538</v>
       </c>
       <c r="L583" s="8"/>
-      <c r="M583" s="8"/>
+      <c r="M583" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N583" s="8"/>
       <c r="O583" s="8"/>
       <c r="P583" s="8"/>
@@ -29422,7 +29724,9 @@
         <v>538</v>
       </c>
       <c r="L584" s="8"/>
-      <c r="M584" s="8"/>
+      <c r="M584" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N584" s="8"/>
       <c r="O584" s="8"/>
       <c r="P584" s="8"/>
@@ -29464,7 +29768,9 @@
         <v>538</v>
       </c>
       <c r="L585" s="8"/>
-      <c r="M585" s="8"/>
+      <c r="M585" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N585" s="8"/>
       <c r="O585" s="8"/>
       <c r="P585" s="8"/>
@@ -29506,7 +29812,9 @@
         <v>538</v>
       </c>
       <c r="L586" s="8"/>
-      <c r="M586" s="8"/>
+      <c r="M586" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N586" s="8"/>
       <c r="O586" s="8"/>
       <c r="P586" s="8"/>
@@ -29548,7 +29856,9 @@
         <v>538</v>
       </c>
       <c r="L587" s="8"/>
-      <c r="M587" s="8"/>
+      <c r="M587" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N587" s="8"/>
       <c r="O587" s="8"/>
       <c r="P587" s="8"/>
@@ -29632,7 +29942,9 @@
         <v>540</v>
       </c>
       <c r="L589" s="8"/>
-      <c r="M589" s="8"/>
+      <c r="M589" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N589" s="8"/>
       <c r="O589" s="8"/>
       <c r="P589" s="8"/>
@@ -29674,7 +29986,9 @@
         <v>540</v>
       </c>
       <c r="L590" s="8"/>
-      <c r="M590" s="8"/>
+      <c r="M590" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N590" s="8"/>
       <c r="O590" s="8"/>
       <c r="P590" s="8"/>
@@ -29800,7 +30114,9 @@
         <v>540</v>
       </c>
       <c r="L593" s="8"/>
-      <c r="M593" s="8"/>
+      <c r="M593" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N593" s="8"/>
       <c r="O593" s="8"/>
       <c r="P593" s="8"/>
@@ -29884,7 +30200,9 @@
         <v>540</v>
       </c>
       <c r="L595" s="8"/>
-      <c r="M595" s="8"/>
+      <c r="M595" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N595" s="8"/>
       <c r="O595" s="8"/>
       <c r="P595" s="8"/>
@@ -29926,7 +30244,9 @@
         <v>540</v>
       </c>
       <c r="L596" s="8"/>
-      <c r="M596" s="8"/>
+      <c r="M596" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N596" s="8"/>
       <c r="O596" s="8"/>
       <c r="P596" s="8"/>
@@ -29968,7 +30288,9 @@
         <v>540</v>
       </c>
       <c r="L597" s="8"/>
-      <c r="M597" s="8"/>
+      <c r="M597" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N597" s="8"/>
       <c r="O597" s="8"/>
       <c r="P597" s="8"/>
@@ -30052,7 +30374,9 @@
         <v>541</v>
       </c>
       <c r="L599" s="8"/>
-      <c r="M599" s="8"/>
+      <c r="M599" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N599" s="8"/>
       <c r="O599" s="8"/>
       <c r="P599" s="8"/>
@@ -30094,7 +30418,9 @@
         <v>541</v>
       </c>
       <c r="L600" s="8"/>
-      <c r="M600" s="8"/>
+      <c r="M600" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N600" s="8"/>
       <c r="O600" s="8"/>
       <c r="P600" s="8"/>
@@ -30136,7 +30462,9 @@
         <v>541</v>
       </c>
       <c r="L601" s="8"/>
-      <c r="M601" s="8"/>
+      <c r="M601" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N601" s="8"/>
       <c r="O601" s="8"/>
       <c r="P601" s="8"/>
@@ -30178,7 +30506,9 @@
         <v>541</v>
       </c>
       <c r="L602" s="8"/>
-      <c r="M602" s="8"/>
+      <c r="M602" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N602" s="8"/>
       <c r="O602" s="8"/>
       <c r="P602" s="8"/>
@@ -30220,7 +30550,9 @@
         <v>541</v>
       </c>
       <c r="L603" s="8"/>
-      <c r="M603" s="8"/>
+      <c r="M603" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N603" s="8"/>
       <c r="O603" s="8"/>
       <c r="P603" s="8"/>
@@ -30262,7 +30594,9 @@
         <v>541</v>
       </c>
       <c r="L604" s="8"/>
-      <c r="M604" s="8"/>
+      <c r="M604" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N604" s="8"/>
       <c r="O604" s="8"/>
       <c r="P604" s="8"/>
@@ -30304,7 +30638,9 @@
         <v>541</v>
       </c>
       <c r="L605" s="8"/>
-      <c r="M605" s="8"/>
+      <c r="M605" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N605" s="8"/>
       <c r="O605" s="8"/>
       <c r="P605" s="8"/>
@@ -30346,7 +30682,9 @@
         <v>541</v>
       </c>
       <c r="L606" s="8"/>
-      <c r="M606" s="8"/>
+      <c r="M606" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N606" s="8"/>
       <c r="O606" s="8"/>
       <c r="P606" s="8"/>
@@ -30388,7 +30726,9 @@
         <v>541</v>
       </c>
       <c r="L607" s="8"/>
-      <c r="M607" s="8"/>
+      <c r="M607" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N607" s="8"/>
       <c r="O607" s="8"/>
       <c r="P607" s="8"/>
@@ -30430,7 +30770,9 @@
         <v>544</v>
       </c>
       <c r="L608" s="8"/>
-      <c r="M608" s="8"/>
+      <c r="M608" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N608" s="8"/>
       <c r="O608" s="8"/>
       <c r="P608" s="8"/>
@@ -30472,7 +30814,9 @@
         <v>544</v>
       </c>
       <c r="L609" s="8"/>
-      <c r="M609" s="8"/>
+      <c r="M609" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N609" s="8"/>
       <c r="O609" s="8"/>
       <c r="P609" s="8"/>
@@ -30514,7 +30858,9 @@
         <v>544</v>
       </c>
       <c r="L610" s="8"/>
-      <c r="M610" s="8"/>
+      <c r="M610" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N610" s="8"/>
       <c r="O610" s="8"/>
       <c r="P610" s="8"/>
@@ -30556,7 +30902,9 @@
         <v>544</v>
       </c>
       <c r="L611" s="8"/>
-      <c r="M611" s="8"/>
+      <c r="M611" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N611" s="8"/>
       <c r="O611" s="8"/>
       <c r="P611" s="8"/>
@@ -30598,7 +30946,9 @@
         <v>545</v>
       </c>
       <c r="L612" s="8"/>
-      <c r="M612" s="8"/>
+      <c r="M612" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N612" s="8"/>
       <c r="O612" s="8"/>
       <c r="P612" s="8"/>
@@ -30766,7 +31116,9 @@
         <v>545</v>
       </c>
       <c r="L616" s="8"/>
-      <c r="M616" s="8"/>
+      <c r="M616" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N616" s="8"/>
       <c r="O616" s="8"/>
       <c r="P616" s="8"/>
@@ -30808,7 +31160,9 @@
         <v>545</v>
       </c>
       <c r="L617" s="8"/>
-      <c r="M617" s="8"/>
+      <c r="M617" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N617" s="8"/>
       <c r="O617" s="8"/>
       <c r="P617" s="8"/>
@@ -30850,7 +31204,9 @@
         <v>545</v>
       </c>
       <c r="L618" s="8"/>
-      <c r="M618" s="8"/>
+      <c r="M618" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N618" s="8"/>
       <c r="O618" s="8"/>
       <c r="P618" s="8"/>
@@ -30892,7 +31248,9 @@
         <v>545</v>
       </c>
       <c r="L619" s="8"/>
-      <c r="M619" s="8"/>
+      <c r="M619" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N619" s="8"/>
       <c r="O619" s="8"/>
       <c r="P619" s="8"/>
@@ -30934,7 +31292,9 @@
         <v>545</v>
       </c>
       <c r="L620" s="8"/>
-      <c r="M620" s="8"/>
+      <c r="M620" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N620" s="8"/>
       <c r="O620" s="8"/>
       <c r="P620" s="8"/>
@@ -30976,7 +31336,9 @@
         <v>545</v>
       </c>
       <c r="L621" s="8"/>
-      <c r="M621" s="8"/>
+      <c r="M621" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N621" s="8"/>
       <c r="O621" s="8"/>
       <c r="P621" s="8"/>
@@ -31018,7 +31380,9 @@
         <v>545</v>
       </c>
       <c r="L622" s="8"/>
-      <c r="M622" s="8"/>
+      <c r="M622" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N622" s="8"/>
       <c r="O622" s="8"/>
       <c r="P622" s="8"/>
@@ -31102,7 +31466,9 @@
         <v>545</v>
       </c>
       <c r="L624" s="8"/>
-      <c r="M624" s="8"/>
+      <c r="M624" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N624" s="8"/>
       <c r="O624" s="8"/>
       <c r="P624" s="8"/>
@@ -31228,7 +31594,9 @@
         <v>548</v>
       </c>
       <c r="L627" s="8"/>
-      <c r="M627" s="8"/>
+      <c r="M627" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N627" s="8"/>
       <c r="O627" s="8"/>
       <c r="P627" s="8"/>
@@ -31270,7 +31638,9 @@
         <v>548</v>
       </c>
       <c r="L628" s="8"/>
-      <c r="M628" s="8"/>
+      <c r="M628" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N628" s="8"/>
       <c r="O628" s="8"/>
       <c r="P628" s="8"/>
@@ -31312,7 +31682,9 @@
         <v>548</v>
       </c>
       <c r="L629" s="8"/>
-      <c r="M629" s="8"/>
+      <c r="M629" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N629" s="8"/>
       <c r="O629" s="8"/>
       <c r="P629" s="8"/>
@@ -31354,7 +31726,9 @@
         <v>548</v>
       </c>
       <c r="L630" s="8"/>
-      <c r="M630" s="8"/>
+      <c r="M630" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N630" s="8"/>
       <c r="O630" s="8"/>
       <c r="P630" s="8"/>
@@ -31396,7 +31770,9 @@
         <v>548</v>
       </c>
       <c r="L631" s="8"/>
-      <c r="M631" s="8"/>
+      <c r="M631" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N631" s="8"/>
       <c r="O631" s="8"/>
       <c r="P631" s="8"/>
@@ -31606,7 +31982,9 @@
         <v>549</v>
       </c>
       <c r="L636" s="8"/>
-      <c r="M636" s="8"/>
+      <c r="M636" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N636" s="8"/>
       <c r="O636" s="8"/>
       <c r="P636" s="8"/>
@@ -31648,7 +32026,9 @@
         <v>549</v>
       </c>
       <c r="L637" s="8"/>
-      <c r="M637" s="8"/>
+      <c r="M637" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N637" s="8"/>
       <c r="O637" s="8"/>
       <c r="P637" s="8"/>
@@ -31690,7 +32070,9 @@
         <v>549</v>
       </c>
       <c r="L638" s="8"/>
-      <c r="M638" s="8"/>
+      <c r="M638" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N638" s="8"/>
       <c r="O638" s="8"/>
       <c r="P638" s="8"/>
@@ -31774,7 +32156,9 @@
         <v>549</v>
       </c>
       <c r="L640" s="8"/>
-      <c r="M640" s="8"/>
+      <c r="M640" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N640" s="8"/>
       <c r="O640" s="8"/>
       <c r="P640" s="8"/>
@@ -31900,7 +32284,9 @@
         <v>551</v>
       </c>
       <c r="L643" s="8"/>
-      <c r="M643" s="8"/>
+      <c r="M643" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N643" s="8"/>
       <c r="O643" s="8"/>
       <c r="P643" s="8"/>
@@ -31942,7 +32328,9 @@
         <v>551</v>
       </c>
       <c r="L644" s="8"/>
-      <c r="M644" s="8"/>
+      <c r="M644" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N644" s="8"/>
       <c r="O644" s="8"/>
       <c r="P644" s="8"/>
@@ -31984,7 +32372,9 @@
         <v>552</v>
       </c>
       <c r="L645" s="8"/>
-      <c r="M645" s="8"/>
+      <c r="M645" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N645" s="8"/>
       <c r="O645" s="8"/>
       <c r="P645" s="8"/>
@@ -32068,7 +32458,9 @@
         <v>554</v>
       </c>
       <c r="L647" s="8"/>
-      <c r="M647" s="8"/>
+      <c r="M647" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N647" s="8"/>
       <c r="O647" s="8"/>
       <c r="P647" s="8"/>
@@ -32110,7 +32502,9 @@
         <v>554</v>
       </c>
       <c r="L648" s="8"/>
-      <c r="M648" s="8"/>
+      <c r="M648" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N648" s="8"/>
       <c r="O648" s="8"/>
       <c r="P648" s="8"/>
@@ -32320,7 +32714,9 @@
         <v>555</v>
       </c>
       <c r="L653" s="8"/>
-      <c r="M653" s="8"/>
+      <c r="M653" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N653" s="8"/>
       <c r="O653" s="8"/>
       <c r="P653" s="8"/>
@@ -32572,7 +32968,9 @@
         <v>555</v>
       </c>
       <c r="L659" s="8"/>
-      <c r="M659" s="8"/>
+      <c r="M659" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N659" s="8"/>
       <c r="O659" s="8"/>
       <c r="P659" s="8"/>
@@ -32740,7 +33138,9 @@
         <v>559</v>
       </c>
       <c r="L663" s="8"/>
-      <c r="M663" s="8"/>
+      <c r="M663" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N663" s="8"/>
       <c r="O663" s="8"/>
       <c r="P663" s="8"/>
@@ -33160,7 +33560,9 @@
         <v>560</v>
       </c>
       <c r="L673" s="8"/>
-      <c r="M673" s="8"/>
+      <c r="M673" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N673" s="8"/>
       <c r="O673" s="8"/>
       <c r="P673" s="8"/>
@@ -33202,7 +33604,9 @@
         <v>560</v>
       </c>
       <c r="L674" s="8"/>
-      <c r="M674" s="8"/>
+      <c r="M674" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N674" s="8"/>
       <c r="O674" s="8"/>
       <c r="P674" s="8"/>
@@ -33244,7 +33648,9 @@
         <v>560</v>
       </c>
       <c r="L675" s="8"/>
-      <c r="M675" s="8"/>
+      <c r="M675" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N675" s="8"/>
       <c r="O675" s="8"/>
       <c r="P675" s="8"/>
@@ -33286,7 +33692,9 @@
         <v>560</v>
       </c>
       <c r="L676" s="8"/>
-      <c r="M676" s="8"/>
+      <c r="M676" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N676" s="8"/>
       <c r="O676" s="8"/>
       <c r="P676" s="8"/>
@@ -33370,7 +33778,9 @@
         <v>560</v>
       </c>
       <c r="L678" s="8"/>
-      <c r="M678" s="8"/>
+      <c r="M678" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N678" s="8"/>
       <c r="O678" s="8"/>
       <c r="P678" s="8"/>
@@ -33454,7 +33864,9 @@
         <v>560</v>
       </c>
       <c r="L680" s="8"/>
-      <c r="M680" s="8"/>
+      <c r="M680" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N680" s="8"/>
       <c r="O680" s="8"/>
       <c r="P680" s="8"/>
@@ -33496,7 +33908,9 @@
         <v>562</v>
       </c>
       <c r="L681" s="8"/>
-      <c r="M681" s="8"/>
+      <c r="M681" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N681" s="8"/>
       <c r="O681" s="8"/>
       <c r="P681" s="8"/>
@@ -33622,7 +34036,9 @@
         <v>562</v>
       </c>
       <c r="L684" s="8"/>
-      <c r="M684" s="8"/>
+      <c r="M684" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N684" s="8"/>
       <c r="O684" s="8"/>
       <c r="P684" s="8"/>
@@ -33664,7 +34080,9 @@
         <v>562</v>
       </c>
       <c r="L685" s="8"/>
-      <c r="M685" s="8"/>
+      <c r="M685" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N685" s="8"/>
       <c r="O685" s="8"/>
       <c r="P685" s="8"/>
@@ -33748,7 +34166,9 @@
         <v>562</v>
       </c>
       <c r="L687" s="8"/>
-      <c r="M687" s="8"/>
+      <c r="M687" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N687" s="8"/>
       <c r="O687" s="8"/>
       <c r="P687" s="8"/>
@@ -33832,7 +34252,9 @@
         <v>563</v>
       </c>
       <c r="L689" s="8"/>
-      <c r="M689" s="8"/>
+      <c r="M689" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N689" s="8"/>
       <c r="O689" s="8"/>
       <c r="P689" s="8"/>
@@ -34124,7 +34546,9 @@
         <v>563</v>
       </c>
       <c r="L696" s="8"/>
-      <c r="M696" s="8"/>
+      <c r="M696" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N696" s="8"/>
       <c r="O696" s="8"/>
       <c r="P696" s="8"/>
@@ -34166,7 +34590,9 @@
         <v>563</v>
       </c>
       <c r="L697" s="8"/>
-      <c r="M697" s="8"/>
+      <c r="M697" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N697" s="8"/>
       <c r="O697" s="8"/>
       <c r="P697" s="8"/>
@@ -34334,7 +34760,9 @@
         <v>563</v>
       </c>
       <c r="L701" s="8"/>
-      <c r="M701" s="8"/>
+      <c r="M701" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N701" s="8"/>
       <c r="O701" s="8"/>
       <c r="P701" s="8"/>
@@ -34418,7 +34846,9 @@
         <v>563</v>
       </c>
       <c r="L703" s="8"/>
-      <c r="M703" s="8"/>
+      <c r="M703" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N703" s="8"/>
       <c r="O703" s="8"/>
       <c r="P703" s="8"/>
@@ -34460,7 +34890,9 @@
         <v>563</v>
       </c>
       <c r="L704" s="8"/>
-      <c r="M704" s="8"/>
+      <c r="M704" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N704" s="8"/>
       <c r="O704" s="8"/>
       <c r="P704" s="8"/>
@@ -34710,7 +35142,9 @@
         <v>563</v>
       </c>
       <c r="L710" s="8"/>
-      <c r="M710" s="8"/>
+      <c r="M710" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N710" s="8"/>
       <c r="O710" s="8"/>
       <c r="P710" s="8"/>
@@ -34752,7 +35186,9 @@
         <v>563</v>
       </c>
       <c r="L711" s="8"/>
-      <c r="M711" s="8"/>
+      <c r="M711" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N711" s="8"/>
       <c r="O711" s="8"/>
       <c r="P711" s="8"/>
@@ -35004,7 +35440,9 @@
         <v>566</v>
       </c>
       <c r="L717" s="8"/>
-      <c r="M717" s="8"/>
+      <c r="M717" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N717" s="8"/>
       <c r="O717" s="8"/>
       <c r="P717" s="8"/>
@@ -35424,7 +35862,9 @@
         <v>568</v>
       </c>
       <c r="L727" s="8"/>
-      <c r="M727" s="8"/>
+      <c r="M727" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N727" s="8"/>
       <c r="O727" s="8"/>
       <c r="P727" s="8"/>
@@ -35508,7 +35948,9 @@
         <v>568</v>
       </c>
       <c r="L729" s="8"/>
-      <c r="M729" s="8"/>
+      <c r="M729" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N729" s="8"/>
       <c r="O729" s="8"/>
       <c r="P729" s="8"/>
@@ -35550,7 +35992,9 @@
         <v>568</v>
       </c>
       <c r="L730" s="8"/>
-      <c r="M730" s="8"/>
+      <c r="M730" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N730" s="8"/>
       <c r="O730" s="8"/>
       <c r="P730" s="8"/>
@@ -35844,7 +36288,9 @@
         <v>568</v>
       </c>
       <c r="L737" s="8"/>
-      <c r="M737" s="8"/>
+      <c r="M737" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N737" s="8"/>
       <c r="O737" s="8"/>
       <c r="P737" s="8"/>
@@ -36054,7 +36500,9 @@
         <v>568</v>
       </c>
       <c r="L742" s="8"/>
-      <c r="M742" s="8"/>
+      <c r="M742" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N742" s="8"/>
       <c r="O742" s="8"/>
       <c r="P742" s="8"/>
@@ -36096,7 +36544,9 @@
         <v>568</v>
       </c>
       <c r="L743" s="8"/>
-      <c r="M743" s="8"/>
+      <c r="M743" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N743" s="8"/>
       <c r="O743" s="8"/>
       <c r="P743" s="8"/>
@@ -36138,7 +36588,9 @@
         <v>568</v>
       </c>
       <c r="L744" s="8"/>
-      <c r="M744" s="8"/>
+      <c r="M744" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N744" s="8"/>
       <c r="O744" s="8"/>
       <c r="P744" s="8"/>
@@ -36348,7 +36800,9 @@
         <v>568</v>
       </c>
       <c r="L749" s="8"/>
-      <c r="M749" s="8"/>
+      <c r="M749" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N749" s="8"/>
       <c r="O749" s="8"/>
       <c r="P749" s="8"/>
@@ -37272,7 +37726,9 @@
         <v>574</v>
       </c>
       <c r="L771" s="8"/>
-      <c r="M771" s="8"/>
+      <c r="M771" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N771" s="8"/>
       <c r="O771" s="8"/>
       <c r="P771" s="8"/>
@@ -37314,7 +37770,9 @@
         <v>574</v>
       </c>
       <c r="L772" s="8"/>
-      <c r="M772" s="8"/>
+      <c r="M772" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N772" s="8"/>
       <c r="O772" s="8"/>
       <c r="P772" s="8"/>
@@ -37608,7 +38066,9 @@
         <v>575</v>
       </c>
       <c r="L779" s="8"/>
-      <c r="M779" s="8"/>
+      <c r="M779" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N779" s="8"/>
       <c r="O779" s="8"/>
       <c r="P779" s="8"/>
@@ -37650,7 +38110,9 @@
         <v>575</v>
       </c>
       <c r="L780" s="8"/>
-      <c r="M780" s="8"/>
+      <c r="M780" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N780" s="8"/>
       <c r="O780" s="8"/>
       <c r="P780" s="8"/>
@@ -38448,7 +38910,9 @@
         <v>578</v>
       </c>
       <c r="L799" s="8"/>
-      <c r="M799" s="8"/>
+      <c r="M799" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N799" s="8"/>
       <c r="O799" s="8"/>
       <c r="P799" s="8"/>
@@ -38868,7 +39332,9 @@
         <v>579</v>
       </c>
       <c r="L809" s="8"/>
-      <c r="M809" s="8"/>
+      <c r="M809" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N809" s="8"/>
       <c r="O809" s="8"/>
       <c r="P809" s="8"/>
@@ -40441,7 +40907,7 @@
       <c r="A847" s="34">
         <v>843.0</v>
       </c>
-      <c r="B847" s="58" t="s">
+      <c r="B847" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C847" s="49">
@@ -40483,7 +40949,7 @@
       <c r="A848" s="34">
         <v>844.0</v>
       </c>
-      <c r="B848" s="58" t="s">
+      <c r="B848" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C848" s="49">
@@ -40525,7 +40991,7 @@
       <c r="A849" s="34">
         <v>845.0</v>
       </c>
-      <c r="B849" s="58" t="s">
+      <c r="B849" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C849" s="49">
@@ -40567,7 +41033,7 @@
       <c r="A850" s="34">
         <v>846.0</v>
       </c>
-      <c r="B850" s="58" t="s">
+      <c r="B850" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C850" s="49">
@@ -40609,7 +41075,7 @@
       <c r="A851" s="34">
         <v>847.0</v>
       </c>
-      <c r="B851" s="58" t="s">
+      <c r="B851" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C851" s="49">
@@ -40651,7 +41117,7 @@
       <c r="A852" s="34">
         <v>848.0</v>
       </c>
-      <c r="B852" s="58" t="s">
+      <c r="B852" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C852" s="49">
@@ -40693,7 +41159,7 @@
       <c r="A853" s="34">
         <v>849.0</v>
       </c>
-      <c r="B853" s="58" t="s">
+      <c r="B853" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C853" s="49">
@@ -40735,7 +41201,7 @@
       <c r="A854" s="34">
         <v>850.0</v>
       </c>
-      <c r="B854" s="58" t="s">
+      <c r="B854" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C854" s="49">
@@ -40777,7 +41243,7 @@
       <c r="A855" s="34">
         <v>851.0</v>
       </c>
-      <c r="B855" s="58" t="s">
+      <c r="B855" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C855" s="49">
@@ -40800,7 +41266,9 @@
         <v>587</v>
       </c>
       <c r="L855" s="8"/>
-      <c r="M855" s="8"/>
+      <c r="M855" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N855" s="8"/>
       <c r="O855" s="8"/>
       <c r="P855" s="8"/>
@@ -40819,7 +41287,7 @@
       <c r="A856" s="34">
         <v>852.0</v>
       </c>
-      <c r="B856" s="58" t="s">
+      <c r="B856" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C856" s="49">
@@ -40861,7 +41329,7 @@
       <c r="A857" s="34">
         <v>853.0</v>
       </c>
-      <c r="B857" s="58" t="s">
+      <c r="B857" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C857" s="49">
@@ -40903,7 +41371,7 @@
       <c r="A858" s="34">
         <v>854.0</v>
       </c>
-      <c r="B858" s="58" t="s">
+      <c r="B858" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C858" s="49">
@@ -40945,7 +41413,7 @@
       <c r="A859" s="34">
         <v>855.0</v>
       </c>
-      <c r="B859" s="58" t="s">
+      <c r="B859" s="48" t="s">
         <v>584</v>
       </c>
       <c r="C859" s="49">
@@ -40987,7 +41455,7 @@
       <c r="A860" s="34">
         <v>856.0</v>
       </c>
-      <c r="B860" s="58" t="s">
+      <c r="B860" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C860" s="49">
@@ -41029,7 +41497,7 @@
       <c r="A861" s="34">
         <v>857.0</v>
       </c>
-      <c r="B861" s="58" t="s">
+      <c r="B861" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C861" s="49">
@@ -41071,7 +41539,7 @@
       <c r="A862" s="34">
         <v>858.0</v>
       </c>
-      <c r="B862" s="58" t="s">
+      <c r="B862" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C862" s="49">
@@ -41113,7 +41581,7 @@
       <c r="A863" s="34">
         <v>859.0</v>
       </c>
-      <c r="B863" s="58" t="s">
+      <c r="B863" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C863" s="49">
@@ -41155,7 +41623,7 @@
       <c r="A864" s="34">
         <v>860.0</v>
       </c>
-      <c r="B864" s="58" t="s">
+      <c r="B864" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C864" s="49">
@@ -41197,7 +41665,7 @@
       <c r="A865" s="34">
         <v>861.0</v>
       </c>
-      <c r="B865" s="58" t="s">
+      <c r="B865" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C865" s="49">
@@ -41239,7 +41707,7 @@
       <c r="A866" s="34">
         <v>862.0</v>
       </c>
-      <c r="B866" s="58" t="s">
+      <c r="B866" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C866" s="49">
@@ -41293,7 +41761,7 @@
       <c r="E867" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F867" s="59" t="s">
+      <c r="F867" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G867" s="2"/>
@@ -41335,7 +41803,7 @@
       <c r="E868" s="51" t="s">
         <v>564</v>
       </c>
-      <c r="F868" s="59" t="s">
+      <c r="F868" s="57" t="s">
         <v>518</v>
       </c>
       <c r="G868" s="2"/>
@@ -41377,7 +41845,7 @@
       <c r="E869" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F869" s="59" t="s">
+      <c r="F869" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G869" s="2"/>
@@ -41419,7 +41887,7 @@
       <c r="E870" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F870" s="59" t="s">
+      <c r="F870" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G870" s="2"/>
@@ -41461,7 +41929,7 @@
       <c r="E871" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F871" s="59" t="s">
+      <c r="F871" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G871" s="2"/>
@@ -41503,7 +41971,7 @@
       <c r="E872" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="F872" s="59" t="s">
+      <c r="F872" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G872" s="2"/>
@@ -41545,7 +42013,7 @@
       <c r="E873" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F873" s="59" t="s">
+      <c r="F873" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G873" s="2"/>
@@ -41587,7 +42055,7 @@
       <c r="E874" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F874" s="59" t="s">
+      <c r="F874" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G874" s="2"/>
@@ -41629,7 +42097,7 @@
       <c r="E875" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F875" s="59" t="s">
+      <c r="F875" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G875" s="2"/>
@@ -41715,7 +42183,7 @@
       <c r="E877" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F877" s="59" t="s">
+      <c r="F877" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G877" s="2"/>
@@ -41757,7 +42225,7 @@
       <c r="E878" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="F878" s="59" t="s">
+      <c r="F878" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G878" s="2"/>
@@ -41799,7 +42267,7 @@
       <c r="E879" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F879" s="59" t="s">
+      <c r="F879" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G879" s="2"/>
@@ -41841,7 +42309,7 @@
       <c r="E880" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F880" s="59" t="s">
+      <c r="F880" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G880" s="2"/>
@@ -41868,17 +42336,31 @@
       <c r="Z880" s="8"/>
     </row>
     <row r="881" ht="18.0" customHeight="1">
-      <c r="A881" s="2"/>
-      <c r="B881" s="8"/>
-      <c r="C881" s="2"/>
-      <c r="D881" s="2"/>
-      <c r="E881" s="8"/>
-      <c r="F881" s="13"/>
+      <c r="A881" s="34">
+        <v>877.0</v>
+      </c>
+      <c r="B881" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="C881" s="49">
+        <v>44048.0</v>
+      </c>
+      <c r="D881" s="50">
+        <v>44048.0</v>
+      </c>
+      <c r="E881" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F881" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G881" s="2"/>
       <c r="H881" s="13"/>
       <c r="I881" s="13"/>
       <c r="J881" s="14"/>
-      <c r="K881" s="8"/>
+      <c r="K881" s="31" t="s">
+        <v>593</v>
+      </c>
       <c r="L881" s="8"/>
       <c r="M881" s="8"/>
       <c r="N881" s="8"/>
@@ -41896,17 +42378,31 @@
       <c r="Z881" s="8"/>
     </row>
     <row r="882" ht="18.0" customHeight="1">
-      <c r="A882" s="2"/>
-      <c r="B882" s="8"/>
-      <c r="C882" s="2"/>
-      <c r="D882" s="2"/>
-      <c r="E882" s="8"/>
-      <c r="F882" s="13"/>
+      <c r="A882" s="34">
+        <v>878.0</v>
+      </c>
+      <c r="B882" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="C882" s="49">
+        <v>44048.0</v>
+      </c>
+      <c r="D882" s="50">
+        <v>44048.0</v>
+      </c>
+      <c r="E882" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F882" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G882" s="2"/>
       <c r="H882" s="13"/>
       <c r="I882" s="13"/>
       <c r="J882" s="14"/>
-      <c r="K882" s="8"/>
+      <c r="K882" s="31" t="s">
+        <v>593</v>
+      </c>
       <c r="L882" s="8"/>
       <c r="M882" s="8"/>
       <c r="N882" s="8"/>
@@ -41924,17 +42420,31 @@
       <c r="Z882" s="8"/>
     </row>
     <row r="883" ht="18.0" customHeight="1">
-      <c r="A883" s="2"/>
-      <c r="B883" s="8"/>
-      <c r="C883" s="2"/>
-      <c r="D883" s="2"/>
-      <c r="E883" s="8"/>
-      <c r="F883" s="13"/>
+      <c r="A883" s="34">
+        <v>879.0</v>
+      </c>
+      <c r="B883" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="C883" s="49">
+        <v>44048.0</v>
+      </c>
+      <c r="D883" s="50">
+        <v>44048.0</v>
+      </c>
+      <c r="E883" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F883" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="G883" s="2"/>
       <c r="H883" s="13"/>
       <c r="I883" s="13"/>
       <c r="J883" s="14"/>
-      <c r="K883" s="8"/>
+      <c r="K883" s="31" t="s">
+        <v>593</v>
+      </c>
       <c r="L883" s="8"/>
       <c r="M883" s="8"/>
       <c r="N883" s="8"/>
@@ -41952,17 +42462,31 @@
       <c r="Z883" s="8"/>
     </row>
     <row r="884" ht="18.0" customHeight="1">
-      <c r="A884" s="2"/>
-      <c r="B884" s="8"/>
-      <c r="C884" s="2"/>
-      <c r="D884" s="2"/>
-      <c r="E884" s="8"/>
-      <c r="F884" s="13"/>
+      <c r="A884" s="34">
+        <v>880.0</v>
+      </c>
+      <c r="B884" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="C884" s="49">
+        <v>44048.0</v>
+      </c>
+      <c r="D884" s="50">
+        <v>44048.0</v>
+      </c>
+      <c r="E884" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F884" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G884" s="2"/>
       <c r="H884" s="13"/>
       <c r="I884" s="13"/>
       <c r="J884" s="14"/>
-      <c r="K884" s="8"/>
+      <c r="K884" s="31" t="s">
+        <v>593</v>
+      </c>
       <c r="L884" s="8"/>
       <c r="M884" s="8"/>
       <c r="N884" s="8"/>
@@ -41980,17 +42504,31 @@
       <c r="Z884" s="8"/>
     </row>
     <row r="885" ht="18.0" customHeight="1">
-      <c r="A885" s="2"/>
-      <c r="B885" s="8"/>
-      <c r="C885" s="2"/>
-      <c r="D885" s="2"/>
-      <c r="E885" s="8"/>
-      <c r="F885" s="13"/>
+      <c r="A885" s="34">
+        <v>881.0</v>
+      </c>
+      <c r="B885" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="C885" s="49">
+        <v>44048.0</v>
+      </c>
+      <c r="D885" s="50">
+        <v>44048.0</v>
+      </c>
+      <c r="E885" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F885" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G885" s="2"/>
       <c r="H885" s="13"/>
       <c r="I885" s="13"/>
       <c r="J885" s="14"/>
-      <c r="K885" s="8"/>
+      <c r="K885" s="31" t="s">
+        <v>593</v>
+      </c>
       <c r="L885" s="8"/>
       <c r="M885" s="8"/>
       <c r="N885" s="8"/>
@@ -42008,17 +42546,31 @@
       <c r="Z885" s="8"/>
     </row>
     <row r="886" ht="18.0" customHeight="1">
-      <c r="A886" s="2"/>
-      <c r="B886" s="8"/>
-      <c r="C886" s="2"/>
-      <c r="D886" s="2"/>
-      <c r="E886" s="8"/>
-      <c r="F886" s="13"/>
+      <c r="A886" s="34">
+        <v>882.0</v>
+      </c>
+      <c r="B886" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="C886" s="49">
+        <v>44048.0</v>
+      </c>
+      <c r="D886" s="50">
+        <v>44048.0</v>
+      </c>
+      <c r="E886" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F886" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G886" s="2"/>
       <c r="H886" s="13"/>
       <c r="I886" s="13"/>
       <c r="J886" s="14"/>
-      <c r="K886" s="8"/>
+      <c r="K886" s="31" t="s">
+        <v>593</v>
+      </c>
       <c r="L886" s="8"/>
       <c r="M886" s="8"/>
       <c r="N886" s="8"/>
@@ -42036,17 +42588,31 @@
       <c r="Z886" s="8"/>
     </row>
     <row r="887" ht="18.0" customHeight="1">
-      <c r="A887" s="2"/>
-      <c r="B887" s="8"/>
-      <c r="C887" s="2"/>
-      <c r="D887" s="2"/>
-      <c r="E887" s="8"/>
-      <c r="F887" s="13"/>
+      <c r="A887" s="34">
+        <v>883.0</v>
+      </c>
+      <c r="B887" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="C887" s="49">
+        <v>44048.0</v>
+      </c>
+      <c r="D887" s="50">
+        <v>44048.0</v>
+      </c>
+      <c r="E887" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F887" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="G887" s="2"/>
       <c r="H887" s="13"/>
       <c r="I887" s="13"/>
       <c r="J887" s="14"/>
-      <c r="K887" s="8"/>
+      <c r="K887" s="31" t="s">
+        <v>593</v>
+      </c>
       <c r="L887" s="8"/>
       <c r="M887" s="8"/>
       <c r="N887" s="8"/>
@@ -42064,7 +42630,7 @@
       <c r="Z887" s="8"/>
     </row>
     <row r="888" ht="18.0" customHeight="1">
-      <c r="A888" s="2"/>
+      <c r="A888" s="34"/>
       <c r="B888" s="8"/>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -45542,10 +46108,17 @@
     <hyperlink r:id="rId702" ref="K878"/>
     <hyperlink r:id="rId703" ref="K879"/>
     <hyperlink r:id="rId704" ref="K880"/>
+    <hyperlink r:id="rId705" ref="K881"/>
+    <hyperlink r:id="rId706" ref="K882"/>
+    <hyperlink r:id="rId707" ref="K883"/>
+    <hyperlink r:id="rId708" ref="K884"/>
+    <hyperlink r:id="rId709" ref="K885"/>
+    <hyperlink r:id="rId710" ref="K886"/>
+    <hyperlink r:id="rId711" ref="K887"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId705"/>
+  <drawing r:id="rId712"/>
 </worksheet>
 </file>
--- a/patients.xlsx
+++ b/patients.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4488" uniqueCount="594">
   <si>
-    <t>2020-08-05T23:49:00.000Z</t>
+    <t>2020-08-06T20:00:00.000Z</t>
   </si>
   <si>
     <t>No</t>
@@ -2186,7 +2186,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -2323,14 +2323,6 @@
       <color rgb="FF333333"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF333333"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2358,7 +2350,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2531,12 +2523,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -41749,7 +41735,7 @@
       <c r="A867" s="34">
         <v>863.0</v>
       </c>
-      <c r="B867" s="58" t="s">
+      <c r="B867" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C867" s="49">
@@ -41791,7 +41777,7 @@
       <c r="A868" s="34">
         <v>864.0</v>
       </c>
-      <c r="B868" s="58" t="s">
+      <c r="B868" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C868" s="49">
@@ -41833,7 +41819,7 @@
       <c r="A869" s="34">
         <v>865.0</v>
       </c>
-      <c r="B869" s="58" t="s">
+      <c r="B869" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C869" s="49">
@@ -41875,7 +41861,7 @@
       <c r="A870" s="34">
         <v>866.0</v>
       </c>
-      <c r="B870" s="58" t="s">
+      <c r="B870" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C870" s="49">
@@ -41917,7 +41903,7 @@
       <c r="A871" s="34">
         <v>867.0</v>
       </c>
-      <c r="B871" s="58" t="s">
+      <c r="B871" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C871" s="49">
@@ -41959,7 +41945,7 @@
       <c r="A872" s="34">
         <v>868.0</v>
       </c>
-      <c r="B872" s="58" t="s">
+      <c r="B872" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C872" s="49">
@@ -42001,7 +41987,7 @@
       <c r="A873" s="34">
         <v>869.0</v>
       </c>
-      <c r="B873" s="58" t="s">
+      <c r="B873" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C873" s="49">
@@ -42043,7 +42029,7 @@
       <c r="A874" s="34">
         <v>870.0</v>
       </c>
-      <c r="B874" s="58" t="s">
+      <c r="B874" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C874" s="49">
@@ -42085,7 +42071,7 @@
       <c r="A875" s="34">
         <v>871.0</v>
       </c>
-      <c r="B875" s="58" t="s">
+      <c r="B875" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C875" s="49">
@@ -42127,7 +42113,7 @@
       <c r="A876" s="34">
         <v>872.0</v>
       </c>
-      <c r="B876" s="58" t="s">
+      <c r="B876" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C876" s="49">
@@ -42139,7 +42125,7 @@
       <c r="E876" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="F876" s="59" t="s">
+      <c r="F876" s="57" t="s">
         <v>254</v>
       </c>
       <c r="G876" s="2"/>
@@ -42171,7 +42157,7 @@
       <c r="A877" s="34">
         <v>873.0</v>
       </c>
-      <c r="B877" s="58" t="s">
+      <c r="B877" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C877" s="49">
@@ -42213,7 +42199,7 @@
       <c r="A878" s="34">
         <v>874.0</v>
       </c>
-      <c r="B878" s="58" t="s">
+      <c r="B878" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C878" s="49">
@@ -42255,7 +42241,7 @@
       <c r="A879" s="34">
         <v>875.0</v>
       </c>
-      <c r="B879" s="58" t="s">
+      <c r="B879" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C879" s="49">
@@ -42297,7 +42283,7 @@
       <c r="A880" s="34">
         <v>876.0</v>
       </c>
-      <c r="B880" s="58" t="s">
+      <c r="B880" s="48" t="s">
         <v>588</v>
       </c>
       <c r="C880" s="49">
@@ -42339,7 +42325,7 @@
       <c r="A881" s="34">
         <v>877.0</v>
       </c>
-      <c r="B881" s="58" t="s">
+      <c r="B881" s="48" t="s">
         <v>592</v>
       </c>
       <c r="C881" s="49">
@@ -42381,7 +42367,7 @@
       <c r="A882" s="34">
         <v>878.0</v>
       </c>
-      <c r="B882" s="58" t="s">
+      <c r="B882" s="48" t="s">
         <v>592</v>
       </c>
       <c r="C882" s="49">
@@ -42423,7 +42409,7 @@
       <c r="A883" s="34">
         <v>879.0</v>
       </c>
-      <c r="B883" s="58" t="s">
+      <c r="B883" s="48" t="s">
         <v>592</v>
       </c>
       <c r="C883" s="49">
@@ -42465,7 +42451,7 @@
       <c r="A884" s="34">
         <v>880.0</v>
       </c>
-      <c r="B884" s="58" t="s">
+      <c r="B884" s="48" t="s">
         <v>592</v>
       </c>
       <c r="C884" s="49">
@@ -42507,7 +42493,7 @@
       <c r="A885" s="34">
         <v>881.0</v>
       </c>
-      <c r="B885" s="58" t="s">
+      <c r="B885" s="48" t="s">
         <v>592</v>
       </c>
       <c r="C885" s="49">
@@ -42549,7 +42535,7 @@
       <c r="A886" s="34">
         <v>882.0</v>
       </c>
-      <c r="B886" s="58" t="s">
+      <c r="B886" s="48" t="s">
         <v>592</v>
       </c>
       <c r="C886" s="49">
@@ -42591,7 +42577,7 @@
       <c r="A887" s="34">
         <v>883.0</v>
       </c>
-      <c r="B887" s="58" t="s">
+      <c r="B887" s="48" t="s">
         <v>592</v>
       </c>
       <c r="C887" s="49">

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4488" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4597" uniqueCount="597">
   <si>
     <t>2020-08-06T20:00:00.000Z</t>
   </si>
@@ -2176,6 +2176,15 @@
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200805-877-883.pdf</t>
   </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000273/273440/200805oshirase(611-630).pdf</t>
+  </si>
+  <si>
+    <t>2020-08-06T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200806-904-906.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -2186,7 +2195,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -2323,6 +2332,10 @@
       <color rgb="FF333333"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2350,7 +2363,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2524,6 +2537,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -42616,17 +42632,31 @@
       <c r="Z887" s="8"/>
     </row>
     <row r="888" ht="18.0" customHeight="1">
-      <c r="A888" s="34"/>
-      <c r="B888" s="8"/>
-      <c r="C888" s="2"/>
-      <c r="D888" s="2"/>
-      <c r="E888" s="8"/>
-      <c r="F888" s="13"/>
+      <c r="A888" s="34">
+        <v>884.0</v>
+      </c>
+      <c r="B888" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="C888" s="49">
+        <v>44048.0</v>
+      </c>
+      <c r="D888" s="50">
+        <v>44048.0</v>
+      </c>
+      <c r="E888" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F888" s="54" t="s">
+        <v>518</v>
+      </c>
       <c r="G888" s="2"/>
       <c r="H888" s="13"/>
       <c r="I888" s="13"/>
       <c r="J888" s="14"/>
-      <c r="K888" s="8"/>
+      <c r="K888" s="31" t="s">
+        <v>594</v>
+      </c>
       <c r="L888" s